--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -118,12 +118,18 @@
   <si>
     <t>Prob Recession</t>
   </si>
+  <si>
+    <t>Real GDP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +165,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ITC Bookman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -210,7 +224,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +253,16 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z282"/>
+  <dimension ref="A1:AA282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
@@ -554,10 +578,12 @@
     <col min="23" max="23" width="22" style="5"/>
     <col min="24" max="24" width="22" style="3"/>
     <col min="25" max="25" width="22" style="5"/>
-    <col min="26" max="16384" width="22" style="6"/>
+    <col min="26" max="26" width="22" style="6"/>
+    <col min="27" max="27" width="22" style="13"/>
+    <col min="28" max="16384" width="22" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -636,8 +662,11 @@
       <c r="Z1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="5" customFormat="1">
+      <c r="AA1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -716,8 +745,11 @@
       <c r="Z2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1">
+      <c r="AA2" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="5" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,8 +828,11 @@
       <c r="Z3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="5" customFormat="1">
+      <c r="AA3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="5" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -876,8 +911,11 @@
       <c r="Z4" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" s="5" customFormat="1">
+      <c r="AA4" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="5" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,8 +994,11 @@
       <c r="Z5" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="3">
         <v>1950</v>
       </c>
@@ -979,8 +1020,11 @@
       <c r="Z6">
         <v>0.279831011521472</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="12">
+        <v>2084.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7" s="3">
         <v>1950.25</v>
       </c>
@@ -1002,8 +1046,11 @@
       <c r="Z7">
         <v>0.35173990517578402</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="12">
+        <v>2147.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="B8" s="3">
         <v>1950.5</v>
       </c>
@@ -1025,8 +1072,11 @@
       <c r="Z8">
         <v>0.62276478735695495</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="12">
+        <v>2230.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="B9" s="3">
         <v>1950.75</v>
       </c>
@@ -1048,8 +1098,11 @@
       <c r="Z9">
         <v>0.67996261464687102</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" s="12">
+        <v>2273.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="B10" s="3">
         <v>1951</v>
       </c>
@@ -1071,8 +1124,11 @@
       <c r="Z10">
         <v>0.72831691144939903</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="12">
+        <v>2304.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="B11" s="3">
         <v>1951.25</v>
       </c>
@@ -1094,8 +1150,11 @@
       <c r="Z11">
         <v>0.86971033002448395</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" s="12">
+        <v>2344.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="B12" s="3">
         <v>1951.5</v>
       </c>
@@ -1117,8 +1176,11 @@
       <c r="Z12">
         <v>0.86332672641164798</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="12">
+        <v>2392.8000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="B13" s="3">
         <v>1951.75</v>
       </c>
@@ -1140,8 +1202,11 @@
       <c r="Z13">
         <v>0.72095426310442201</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" s="12">
+        <v>2398.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="B14" s="3">
         <v>1952</v>
       </c>
@@ -1163,8 +1228,11 @@
       <c r="Z14">
         <v>0.49610007909007497</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="12">
+        <v>2423.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="B15" s="3">
         <v>1952.25</v>
       </c>
@@ -1186,8 +1254,11 @@
       <c r="Z15">
         <v>0.219582674241842</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" s="12">
+        <v>2428.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="B16" s="3">
         <v>1952.5</v>
       </c>
@@ -1209,8 +1280,11 @@
       <c r="Z16">
         <v>0.15293039322709401</v>
       </c>
-    </row>
-    <row r="17" spans="2:26">
+      <c r="AA16" s="12">
+        <v>2446.1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
       <c r="B17" s="3">
         <v>1952.75</v>
       </c>
@@ -1232,8 +1306,11 @@
       <c r="Z17">
         <v>0.18817689716323499</v>
       </c>
-    </row>
-    <row r="18" spans="2:26">
+      <c r="AA17" s="12">
+        <v>2526.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
       <c r="B18" s="3">
         <v>1953</v>
       </c>
@@ -1258,8 +1335,11 @@
       <c r="Z18">
         <v>0.21126785385681501</v>
       </c>
-    </row>
-    <row r="19" spans="2:26">
+      <c r="AA18" s="12">
+        <v>2573.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
       <c r="B19" s="3">
         <v>1953.25</v>
       </c>
@@ -1284,8 +1364,11 @@
       <c r="Z19">
         <v>0.39802526327976201</v>
       </c>
-    </row>
-    <row r="20" spans="2:26">
+      <c r="AA19" s="12">
+        <v>2593.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
       <c r="B20" s="3">
         <v>1953.5</v>
       </c>
@@ -1310,8 +1393,11 @@
       <c r="Z20">
         <v>0.52719812628696305</v>
       </c>
-    </row>
-    <row r="21" spans="2:26">
+      <c r="AA20" s="12">
+        <v>2578.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27">
       <c r="B21" s="3">
         <v>1953.75</v>
       </c>
@@ -1336,8 +1422,11 @@
       <c r="Z21">
         <v>0.634042782975204</v>
       </c>
-    </row>
-    <row r="22" spans="2:26">
+      <c r="AA21" s="12">
+        <v>2539.8000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
       <c r="B22" s="3">
         <v>1954</v>
       </c>
@@ -1362,8 +1451,11 @@
       <c r="Z22">
         <v>0.77239774128318395</v>
       </c>
-    </row>
-    <row r="23" spans="2:26">
+      <c r="AA22" s="12">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
       <c r="B23" s="3">
         <v>1954.25</v>
       </c>
@@ -1388,8 +1480,11 @@
       <c r="Z23">
         <v>0.74065966606971201</v>
       </c>
-    </row>
-    <row r="24" spans="2:26">
+      <c r="AA23" s="12">
+        <v>2530.6999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
       <c r="B24" s="3">
         <v>1954.5</v>
       </c>
@@ -1414,8 +1509,11 @@
       <c r="Z24">
         <v>0.78697718742865197</v>
       </c>
-    </row>
-    <row r="25" spans="2:26">
+      <c r="AA24" s="12">
+        <v>2559.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
       <c r="B25" s="3">
         <v>1954.75</v>
       </c>
@@ -1440,8 +1538,11 @@
       <c r="Z25">
         <v>0.94368332624381301</v>
       </c>
-    </row>
-    <row r="26" spans="2:26">
+      <c r="AA25" s="12">
+        <v>2609.3000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
       <c r="B26" s="3">
         <v>1955</v>
       </c>
@@ -1466,8 +1567,11 @@
       <c r="Z26">
         <v>0.92432388875945004</v>
       </c>
-    </row>
-    <row r="27" spans="2:26">
+      <c r="AA26" s="12">
+        <v>2683.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
       <c r="B27" s="3">
         <v>1955.25</v>
       </c>
@@ -1492,8 +1596,11 @@
       <c r="Z27">
         <v>0.90067077917290705</v>
       </c>
-    </row>
-    <row r="28" spans="2:26">
+      <c r="AA27" s="12">
+        <v>2727.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
       <c r="B28" s="3">
         <v>1955.5</v>
       </c>
@@ -1518,8 +1625,11 @@
       <c r="Z28">
         <v>0.81446682656016101</v>
       </c>
-    </row>
-    <row r="29" spans="2:26">
+      <c r="AA28" s="12">
+        <v>2764.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
       <c r="B29" s="3">
         <v>1955.75</v>
       </c>
@@ -1544,8 +1654,11 @@
       <c r="Z29">
         <v>0.62663318900041098</v>
       </c>
-    </row>
-    <row r="30" spans="2:26">
+      <c r="AA29" s="12">
+        <v>2780.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
       <c r="B30" s="3">
         <v>1956</v>
       </c>
@@ -1570,8 +1683,11 @@
       <c r="Z30">
         <v>0.46495754463775102</v>
       </c>
-    </row>
-    <row r="31" spans="2:26">
+      <c r="AA30" s="12">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
       <c r="B31" s="3">
         <v>1956.25</v>
       </c>
@@ -1596,8 +1712,11 @@
       <c r="Z31">
         <v>0.36762945792664897</v>
       </c>
-    </row>
-    <row r="32" spans="2:26">
+      <c r="AA31" s="12">
+        <v>2792.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
       <c r="B32" s="3">
         <v>1956.5</v>
       </c>
@@ -1622,8 +1741,11 @@
       <c r="Z32">
         <v>0.133726964436582</v>
       </c>
-    </row>
-    <row r="33" spans="2:26">
+      <c r="AA32" s="12">
+        <v>2790.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27">
       <c r="B33" s="3">
         <v>1956.75</v>
       </c>
@@ -1648,8 +1770,11 @@
       <c r="Z33">
         <v>7.1944269555205706E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:26">
+      <c r="AA33" s="12">
+        <v>2836.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27">
       <c r="B34" s="3">
         <v>1957</v>
       </c>
@@ -1674,8 +1799,11 @@
       <c r="Z34">
         <v>0.203623396793817</v>
       </c>
-    </row>
-    <row r="35" spans="2:26">
+      <c r="AA34" s="12">
+        <v>2854.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27">
       <c r="B35" s="3">
         <v>1957.25</v>
       </c>
@@ -1700,8 +1828,11 @@
       <c r="Z35">
         <v>0.39028842509702</v>
       </c>
-    </row>
-    <row r="36" spans="2:26">
+      <c r="AA35" s="12">
+        <v>2848.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27">
       <c r="B36" s="3">
         <v>1957.5</v>
       </c>
@@ -1726,8 +1857,11 @@
       <c r="Z36">
         <v>0.72420167137951397</v>
       </c>
-    </row>
-    <row r="37" spans="2:26">
+      <c r="AA36" s="12">
+        <v>2875.9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27">
       <c r="B37" s="3">
         <v>1957.75</v>
       </c>
@@ -1752,8 +1886,11 @@
       <c r="Z37">
         <v>0.85575859479960004</v>
       </c>
-    </row>
-    <row r="38" spans="2:26">
+      <c r="AA37" s="12">
+        <v>2846.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27">
       <c r="B38" s="3">
         <v>1958</v>
       </c>
@@ -1778,8 +1915,11 @@
       <c r="Z38">
         <v>0.71810881847918695</v>
       </c>
-    </row>
-    <row r="39" spans="2:26">
+      <c r="AA38" s="12">
+        <v>2772.7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27">
       <c r="B39" s="3">
         <v>1958.25</v>
       </c>
@@ -1804,8 +1944,11 @@
       <c r="Z39">
         <v>0.59815897190005296</v>
       </c>
-    </row>
-    <row r="40" spans="2:26">
+      <c r="AA39" s="12">
+        <v>2790.9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27">
       <c r="B40" s="3">
         <v>1958.5</v>
       </c>
@@ -1830,8 +1973,11 @@
       <c r="Z40">
         <v>0.61895144013621095</v>
       </c>
-    </row>
-    <row r="41" spans="2:26">
+      <c r="AA40" s="12">
+        <v>2855.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27">
       <c r="B41" s="3">
         <v>1958.75</v>
       </c>
@@ -1856,8 +2002,11 @@
       <c r="Z41">
         <v>0.38281901020861903</v>
       </c>
-    </row>
-    <row r="42" spans="2:26">
+      <c r="AA41" s="12">
+        <v>2922.3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27">
       <c r="B42" s="3">
         <v>1959</v>
       </c>
@@ -1882,8 +2031,11 @@
       <c r="Z42">
         <v>0.29350944790028399</v>
       </c>
-    </row>
-    <row r="43" spans="2:26">
+      <c r="AA42" s="12">
+        <v>2976.6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27">
       <c r="B43" s="3">
         <v>1959.25</v>
       </c>
@@ -1908,8 +2060,11 @@
       <c r="Z43">
         <v>0.13873937330966299</v>
       </c>
-    </row>
-    <row r="44" spans="2:26">
+      <c r="AA43" s="12">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27">
       <c r="B44" s="3">
         <v>1959.5</v>
       </c>
@@ -1934,8 +2089,11 @@
       <c r="Z44">
         <v>0.15761258406435799</v>
       </c>
-    </row>
-    <row r="45" spans="2:26">
+      <c r="AA44" s="12">
+        <v>3043.1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27">
       <c r="B45" s="3">
         <v>1959.75</v>
       </c>
@@ -1960,8 +2118,11 @@
       <c r="Z45">
         <v>0.19182424364424999</v>
       </c>
-    </row>
-    <row r="46" spans="2:26">
+      <c r="AA45" s="12">
+        <v>3055.1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27">
       <c r="B46" s="3">
         <v>1960</v>
       </c>
@@ -1986,8 +2147,11 @@
       <c r="Z46">
         <v>0.21671728962068401</v>
       </c>
-    </row>
-    <row r="47" spans="2:26">
+      <c r="AA46" s="12">
+        <v>3123.2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27">
       <c r="B47" s="3">
         <v>1960.25</v>
       </c>
@@ -2012,8 +2176,11 @@
       <c r="Z47">
         <v>0.22781328703650999</v>
       </c>
-    </row>
-    <row r="48" spans="2:26">
+      <c r="AA47" s="12">
+        <v>3111.3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27">
       <c r="B48" s="3">
         <v>1960.5</v>
       </c>
@@ -2038,8 +2205,11 @@
       <c r="Z48">
         <v>0.31360909668453102</v>
       </c>
-    </row>
-    <row r="49" spans="2:26">
+      <c r="AA48" s="12">
+        <v>3119.1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27">
       <c r="B49" s="3">
         <v>1960.75</v>
       </c>
@@ -2064,8 +2234,11 @@
       <c r="Z49">
         <v>0.22030325957229099</v>
       </c>
-    </row>
-    <row r="50" spans="2:26">
+      <c r="AA49" s="12">
+        <v>3081.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27">
       <c r="B50" s="3">
         <v>1961</v>
       </c>
@@ -2090,8 +2263,11 @@
       <c r="Z50">
         <v>0.20440287655466799</v>
       </c>
-    </row>
-    <row r="51" spans="2:26">
+      <c r="AA50" s="12">
+        <v>3102.3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27">
       <c r="B51" s="3">
         <v>1961.25</v>
       </c>
@@ -2116,8 +2292,11 @@
       <c r="Z51">
         <v>0.13784561839057699</v>
       </c>
-    </row>
-    <row r="52" spans="2:26">
+      <c r="AA51" s="12">
+        <v>3159.9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27">
       <c r="B52" s="3">
         <v>1961.5</v>
       </c>
@@ -2142,8 +2321,11 @@
       <c r="Z52">
         <v>0.198515253448031</v>
       </c>
-    </row>
-    <row r="53" spans="2:26">
+      <c r="AA52" s="12">
+        <v>3212.6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27">
       <c r="B53" s="3">
         <v>1961.75</v>
       </c>
@@ -2168,8 +2350,11 @@
       <c r="Z53">
         <v>0.129916188880671</v>
       </c>
-    </row>
-    <row r="54" spans="2:26">
+      <c r="AA53" s="12">
+        <v>3277.7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27">
       <c r="B54" s="3">
         <v>1962</v>
       </c>
@@ -2194,8 +2379,11 @@
       <c r="Z54">
         <v>0.15713519791689701</v>
       </c>
-    </row>
-    <row r="55" spans="2:26">
+      <c r="AA54" s="12">
+        <v>3336.8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27">
       <c r="B55" s="3">
         <v>1962.25</v>
       </c>
@@ -2220,8 +2408,11 @@
       <c r="Z55">
         <v>9.8287400365134503E-2</v>
       </c>
-    </row>
-    <row r="56" spans="2:26">
+      <c r="AA55" s="12">
+        <v>3372.7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27">
       <c r="B56" s="3">
         <v>1962.5</v>
       </c>
@@ -2246,8 +2437,11 @@
       <c r="Z56">
         <v>9.2238840365064703E-2</v>
       </c>
-    </row>
-    <row r="57" spans="2:26">
+      <c r="AA56" s="12">
+        <v>3404.8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27">
       <c r="B57" s="3">
         <v>1962.75</v>
       </c>
@@ -2272,8 +2466,11 @@
       <c r="Z57">
         <v>5.5383359246854898E-2</v>
       </c>
-    </row>
-    <row r="58" spans="2:26">
+      <c r="AA57" s="12">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27">
       <c r="B58" s="3">
         <v>1963</v>
       </c>
@@ -2298,8 +2495,11 @@
       <c r="Z58">
         <v>8.3126954935661801E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:26">
+      <c r="AA58" s="12">
+        <v>3456.1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27">
       <c r="B59" s="3">
         <v>1963.25</v>
       </c>
@@ -2324,8 +2524,11 @@
       <c r="Z59">
         <v>7.1564617640215794E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:26">
+      <c r="AA59" s="12">
+        <v>3501.1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27">
       <c r="B60" s="3">
         <v>1963.5</v>
       </c>
@@ -2350,8 +2553,11 @@
       <c r="Z60">
         <v>0.13369221503614701</v>
       </c>
-    </row>
-    <row r="61" spans="2:26">
+      <c r="AA60" s="12">
+        <v>3569.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27">
       <c r="B61" s="3">
         <v>1963.75</v>
       </c>
@@ -2376,8 +2582,11 @@
       <c r="Z61">
         <v>0.158811207231743</v>
       </c>
-    </row>
-    <row r="62" spans="2:26">
+      <c r="AA61" s="12">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27">
       <c r="B62" s="3">
         <v>1964</v>
       </c>
@@ -2402,8 +2611,11 @@
       <c r="Z62">
         <v>0.30680478270237899</v>
       </c>
-    </row>
-    <row r="63" spans="2:26">
+      <c r="AA62" s="12">
+        <v>3672.7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27">
       <c r="B63" s="3">
         <v>1964.25</v>
       </c>
@@ -2428,8 +2640,11 @@
       <c r="Z63">
         <v>0.46659981387441002</v>
       </c>
-    </row>
-    <row r="64" spans="2:26">
+      <c r="AA63" s="12">
+        <v>3716.4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27">
       <c r="B64" s="3">
         <v>1964.5</v>
       </c>
@@ -2454,8 +2669,11 @@
       <c r="Z64">
         <v>0.64097536114746601</v>
       </c>
-    </row>
-    <row r="65" spans="2:26">
+      <c r="AA64" s="12">
+        <v>3766.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27">
       <c r="B65" s="3">
         <v>1964.75</v>
       </c>
@@ -2480,8 +2698,11 @@
       <c r="Z65">
         <v>0.46204813796597699</v>
       </c>
-    </row>
-    <row r="66" spans="2:26">
+      <c r="AA65" s="12">
+        <v>3780.2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27">
       <c r="B66" s="3">
         <v>1965</v>
       </c>
@@ -2506,8 +2727,11 @@
       <c r="Z66">
         <v>0.35599266249734501</v>
       </c>
-    </row>
-    <row r="67" spans="2:26">
+      <c r="AA66" s="12">
+        <v>3873.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27">
       <c r="B67" s="3">
         <v>1965.25</v>
       </c>
@@ -2532,8 +2756,11 @@
       <c r="Z67">
         <v>0.368396970027559</v>
       </c>
-    </row>
-    <row r="68" spans="2:26">
+      <c r="AA67" s="12">
+        <v>3926.4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27">
       <c r="B68" s="3">
         <v>1965.5</v>
       </c>
@@ -2558,8 +2785,11 @@
       <c r="Z68">
         <v>0.41372195855412303</v>
       </c>
-    </row>
-    <row r="69" spans="2:26">
+      <c r="AA68" s="12">
+        <v>4006.2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27">
       <c r="B69" s="3">
         <v>1965.75</v>
       </c>
@@ -2584,8 +2814,11 @@
       <c r="Z69">
         <v>0.26713644123181801</v>
       </c>
-    </row>
-    <row r="70" spans="2:26">
+      <c r="AA69" s="12">
+        <v>4100.6000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27">
       <c r="B70" s="3">
         <v>1966</v>
       </c>
@@ -2610,8 +2843,11 @@
       <c r="Z70">
         <v>0.31141764604446698</v>
       </c>
-    </row>
-    <row r="71" spans="2:26">
+      <c r="AA70" s="12">
+        <v>4201.8999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27">
       <c r="B71" s="3">
         <v>1966.25</v>
       </c>
@@ -2636,8 +2872,11 @@
       <c r="Z71">
         <v>0.323507295041573</v>
       </c>
-    </row>
-    <row r="72" spans="2:26">
+      <c r="AA71" s="12">
+        <v>4219.1000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27">
       <c r="B72" s="3">
         <v>1966.5</v>
       </c>
@@ -2662,8 +2901,11 @@
       <c r="Z72">
         <v>0.58372891651867997</v>
       </c>
-    </row>
-    <row r="73" spans="2:26">
+      <c r="AA72" s="12">
+        <v>4249.2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27">
       <c r="B73" s="3">
         <v>1966.75</v>
       </c>
@@ -2688,8 +2930,11 @@
       <c r="Z73">
         <v>0.75530331737714396</v>
       </c>
-    </row>
-    <row r="74" spans="2:26">
+      <c r="AA73" s="12">
+        <v>4285.6000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27">
       <c r="B74" s="3">
         <v>1967</v>
       </c>
@@ -2714,8 +2959,11 @@
       <c r="Z74">
         <v>0.79275293772088196</v>
       </c>
-    </row>
-    <row r="75" spans="2:26">
+      <c r="AA74" s="12">
+        <v>4324.8999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27">
       <c r="B75" s="3">
         <v>1967.25</v>
       </c>
@@ -2740,8 +2988,11 @@
       <c r="Z75">
         <v>0.75894423385518595</v>
       </c>
-    </row>
-    <row r="76" spans="2:26">
+      <c r="AA75" s="12">
+        <v>4328.7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27">
       <c r="B76" s="3">
         <v>1967.5</v>
       </c>
@@ -2766,8 +3017,11 @@
       <c r="Z76">
         <v>0.90667533533422995</v>
       </c>
-    </row>
-    <row r="77" spans="2:26">
+      <c r="AA76" s="12">
+        <v>4366.1000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27">
       <c r="B77" s="3">
         <v>1967.75</v>
       </c>
@@ -2792,8 +3046,11 @@
       <c r="Z77">
         <v>0.77423835433549404</v>
       </c>
-    </row>
-    <row r="78" spans="2:26">
+      <c r="AA77" s="12">
+        <v>4401.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27">
       <c r="B78" s="3">
         <v>1968</v>
       </c>
@@ -2818,8 +3075,11 @@
       <c r="Z78">
         <v>0.77907774678618902</v>
       </c>
-    </row>
-    <row r="79" spans="2:26">
+      <c r="AA78" s="12">
+        <v>4490.6000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27">
       <c r="B79" s="3">
         <v>1968.25</v>
       </c>
@@ -2844,8 +3104,11 @@
       <c r="Z79">
         <v>0.67207830193530205</v>
       </c>
-    </row>
-    <row r="80" spans="2:26">
+      <c r="AA79" s="12">
+        <v>4566.3999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27">
       <c r="B80" s="3">
         <v>1968.5</v>
       </c>
@@ -2870,8 +3133,11 @@
       <c r="Z80">
         <v>0.62978626525632997</v>
       </c>
-    </row>
-    <row r="81" spans="2:26">
+      <c r="AA80" s="12">
+        <v>4599.3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:27">
       <c r="B81" s="3">
         <v>1968.75</v>
       </c>
@@ -2928,8 +3194,11 @@
       <c r="Z81">
         <v>0.46242099860645097</v>
       </c>
-    </row>
-    <row r="82" spans="2:26">
+      <c r="AA81" s="12">
+        <v>4619.8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27">
       <c r="B82" s="3">
         <v>1969</v>
       </c>
@@ -2990,8 +3259,11 @@
       <c r="Z82">
         <v>0.31535531681382201</v>
       </c>
-    </row>
-    <row r="83" spans="2:26">
+      <c r="AA82" s="12">
+        <v>4691.6000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27">
       <c r="B83" s="3">
         <v>1969.25</v>
       </c>
@@ -3052,8 +3324,11 @@
       <c r="Z83">
         <v>0.16236983596798599</v>
       </c>
-    </row>
-    <row r="84" spans="2:26">
+      <c r="AA83" s="12">
+        <v>4706.7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27">
       <c r="B84" s="3">
         <v>1969.5</v>
       </c>
@@ -3114,8 +3389,11 @@
       <c r="Z84">
         <v>0.23593437279205401</v>
       </c>
-    </row>
-    <row r="85" spans="2:26">
+      <c r="AA84" s="12">
+        <v>4736.1000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27">
       <c r="B85" s="3">
         <v>1969.75</v>
       </c>
@@ -3175,8 +3453,11 @@
       <c r="Z85">
         <v>0.11762661266893699</v>
       </c>
-    </row>
-    <row r="86" spans="2:26">
+      <c r="AA85" s="12">
+        <v>4715.5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27">
       <c r="B86" s="3">
         <v>1970</v>
       </c>
@@ -3237,8 +3518,11 @@
       <c r="Z86">
         <v>0.102734851618834</v>
       </c>
-    </row>
-    <row r="87" spans="2:26">
+      <c r="AA86" s="12">
+        <v>4707.1000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27">
       <c r="B87" s="3">
         <v>1970.25</v>
       </c>
@@ -3298,8 +3582,11 @@
       <c r="Z87">
         <v>0.139529894308591</v>
       </c>
-    </row>
-    <row r="88" spans="2:26">
+      <c r="AA87" s="12">
+        <v>4715.3999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27">
       <c r="B88" s="3">
         <v>1970.5</v>
       </c>
@@ -3359,8 +3646,11 @@
       <c r="Z88">
         <v>0.18749041301253999</v>
       </c>
-    </row>
-    <row r="89" spans="2:26">
+      <c r="AA88" s="12">
+        <v>4757.2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27">
       <c r="B89" s="3">
         <v>1970.75</v>
       </c>
@@ -3420,8 +3710,11 @@
       <c r="Z89">
         <v>0.47893747190998698</v>
       </c>
-    </row>
-    <row r="90" spans="2:26">
+      <c r="AA89" s="12">
+        <v>4708.3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27">
       <c r="B90" s="3">
         <v>1971</v>
       </c>
@@ -3481,8 +3774,11 @@
       <c r="Z90">
         <v>0.55349447601189194</v>
       </c>
-    </row>
-    <row r="91" spans="2:26">
+      <c r="AA90" s="12">
+        <v>4834.3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27">
       <c r="B91" s="3">
         <v>1971.25</v>
       </c>
@@ -3542,8 +3838,11 @@
       <c r="Z91">
         <v>0.792605032615466</v>
       </c>
-    </row>
-    <row r="92" spans="2:26">
+      <c r="AA91" s="12">
+        <v>4861.8999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27">
       <c r="B92" s="3">
         <v>1971.5</v>
       </c>
@@ -3603,8 +3902,11 @@
       <c r="Z92">
         <v>0.93036437366201497</v>
       </c>
-    </row>
-    <row r="93" spans="2:26">
+      <c r="AA92" s="12">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="93" spans="2:27">
       <c r="B93" s="3">
         <v>1971.75</v>
       </c>
@@ -3664,8 +3966,11 @@
       <c r="Z93">
         <v>0.97365042020697201</v>
       </c>
-    </row>
-    <row r="94" spans="2:26">
+      <c r="AA93" s="12">
+        <v>4914.3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27">
       <c r="B94" s="3">
         <v>1972</v>
       </c>
@@ -3725,8 +4030,11 @@
       <c r="Z94">
         <v>0.95495490412388095</v>
       </c>
-    </row>
-    <row r="95" spans="2:26">
+      <c r="AA94" s="12">
+        <v>5002.3999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="2:27">
       <c r="B95" s="3">
         <v>1972.25</v>
       </c>
@@ -3786,8 +4094,11 @@
       <c r="Z95">
         <v>0.93963034670810996</v>
       </c>
-    </row>
-    <row r="96" spans="2:26">
+      <c r="AA95" s="12">
+        <v>5118.3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:27">
       <c r="B96" s="3">
         <v>1972.5</v>
       </c>
@@ -3847,8 +4158,11 @@
       <c r="Z96">
         <v>0.85953099181473802</v>
       </c>
-    </row>
-    <row r="97" spans="2:26">
+      <c r="AA96" s="12">
+        <v>5165.3999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27">
       <c r="B97" s="3">
         <v>1972.75</v>
       </c>
@@ -3908,8 +4222,11 @@
       <c r="Z97">
         <v>0.72264102791846796</v>
       </c>
-    </row>
-    <row r="98" spans="2:26">
+      <c r="AA97" s="12">
+        <v>5251.2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27">
       <c r="B98" s="3">
         <v>1973</v>
       </c>
@@ -3969,8 +4286,11 @@
       <c r="Z98">
         <v>0.55245626324339003</v>
       </c>
-    </row>
-    <row r="99" spans="2:26">
+      <c r="AA98" s="12">
+        <v>5380.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27">
       <c r="B99" s="3">
         <v>1973.25</v>
       </c>
@@ -4030,8 +4350,11 @@
       <c r="Z99">
         <v>0.45817298020109898</v>
       </c>
-    </row>
-    <row r="100" spans="2:26">
+      <c r="AA99" s="12">
+        <v>5441.5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27">
       <c r="B100" s="3">
         <v>1973.5</v>
       </c>
@@ -4091,8 +4414,11 @@
       <c r="Z100">
         <v>0.26848945431377302</v>
       </c>
-    </row>
-    <row r="101" spans="2:26">
+      <c r="AA100" s="12">
+        <v>5411.9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27">
       <c r="B101" s="3">
         <v>1973.75</v>
       </c>
@@ -4152,8 +4478,11 @@
       <c r="Z101">
         <v>0.23674654857656699</v>
       </c>
-    </row>
-    <row r="102" spans="2:26">
+      <c r="AA101" s="12">
+        <v>5462.4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27">
       <c r="B102" s="3">
         <v>1974</v>
       </c>
@@ -4213,8 +4542,11 @@
       <c r="Z102">
         <v>0.214484957505266</v>
       </c>
-    </row>
-    <row r="103" spans="2:26">
+      <c r="AA102" s="12">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27">
       <c r="B103" s="3">
         <v>1974.25</v>
       </c>
@@ -4274,8 +4606,11 @@
       <c r="Z103">
         <v>0.18220191069090499</v>
       </c>
-    </row>
-    <row r="104" spans="2:26">
+      <c r="AA103" s="12">
+        <v>5431.3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27">
       <c r="B104" s="3">
         <v>1974.5</v>
       </c>
@@ -4336,8 +4671,11 @@
       <c r="Z104">
         <v>0.370633512642492</v>
       </c>
-    </row>
-    <row r="105" spans="2:26">
+      <c r="AA104" s="12">
+        <v>5378.7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27">
       <c r="B105" s="3">
         <v>1974.75</v>
       </c>
@@ -4397,8 +4735,11 @@
       <c r="Z105">
         <v>0.41234007211885598</v>
       </c>
-    </row>
-    <row r="106" spans="2:26">
+      <c r="AA105" s="12">
+        <v>5357.2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27">
       <c r="B106" s="3">
         <v>1975</v>
       </c>
@@ -4458,8 +4799,11 @@
       <c r="Z106">
         <v>0.14203375702314699</v>
       </c>
-    </row>
-    <row r="107" spans="2:26">
+      <c r="AA106" s="12">
+        <v>5292.4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27">
       <c r="B107" s="3">
         <v>1975.25</v>
       </c>
@@ -4519,8 +4863,11 @@
       <c r="Z107">
         <v>0.12934078250463399</v>
       </c>
-    </row>
-    <row r="108" spans="2:26">
+      <c r="AA107" s="12">
+        <v>5333.2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27">
       <c r="B108" s="3">
         <v>1975.5</v>
       </c>
@@ -4580,8 +4927,11 @@
       <c r="Z108">
         <v>0.121831451441403</v>
       </c>
-    </row>
-    <row r="109" spans="2:26">
+      <c r="AA108" s="12">
+        <v>5421.4</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27">
       <c r="B109" s="3">
         <v>1975.75</v>
       </c>
@@ -4641,8 +4991,11 @@
       <c r="Z109">
         <v>0.230888685123222</v>
       </c>
-    </row>
-    <row r="110" spans="2:26">
+      <c r="AA109" s="12">
+        <v>5494.4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27">
       <c r="B110" s="3">
         <v>1976</v>
       </c>
@@ -4702,8 +5055,11 @@
       <c r="Z110">
         <v>0.38133162090031097</v>
       </c>
-    </row>
-    <row r="111" spans="2:26">
+      <c r="AA110" s="12">
+        <v>5618.5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27">
       <c r="B111" s="3">
         <v>1976.25</v>
       </c>
@@ -4763,8 +5119,11 @@
       <c r="Z111">
         <v>0.31006830243710598</v>
       </c>
-    </row>
-    <row r="112" spans="2:26">
+      <c r="AA111" s="12">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27">
       <c r="B112" s="3">
         <v>1976.5</v>
       </c>
@@ -4824,8 +5183,11 @@
       <c r="Z112">
         <v>0.316197957272977</v>
       </c>
-    </row>
-    <row r="113" spans="2:26">
+      <c r="AA112" s="12">
+        <v>5689.8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:27">
       <c r="B113" s="3">
         <v>1976.75</v>
       </c>
@@ -4885,8 +5247,11 @@
       <c r="Z113">
         <v>0.67793543130451395</v>
       </c>
-    </row>
-    <row r="114" spans="2:26">
+      <c r="AA113" s="12">
+        <v>5732.5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:27">
       <c r="B114" s="3">
         <v>1977</v>
       </c>
@@ -4946,8 +5311,11 @@
       <c r="Z114">
         <v>0.88593751388666397</v>
       </c>
-    </row>
-    <row r="115" spans="2:26">
+      <c r="AA114" s="12">
+        <v>5799.2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:27">
       <c r="B115" s="3">
         <v>1977.25</v>
       </c>
@@ -5007,8 +5375,11 @@
       <c r="Z115">
         <v>0.93660044919335905</v>
       </c>
-    </row>
-    <row r="116" spans="2:26">
+      <c r="AA115" s="12">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="116" spans="2:27">
       <c r="B116" s="3">
         <v>1977.5</v>
       </c>
@@ -5068,8 +5439,11 @@
       <c r="Z116">
         <v>0.87858518888609705</v>
       </c>
-    </row>
-    <row r="117" spans="2:26">
+      <c r="AA116" s="12">
+        <v>6017.6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:27">
       <c r="B117" s="3">
         <v>1977.75</v>
       </c>
@@ -5129,8 +5503,11 @@
       <c r="Z117">
         <v>0.75729386786655395</v>
       </c>
-    </row>
-    <row r="118" spans="2:26">
+      <c r="AA117" s="12">
+        <v>6018.2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:27">
       <c r="B118" s="3">
         <v>1978</v>
       </c>
@@ -5190,8 +5567,11 @@
       <c r="Z118">
         <v>0.85668189559687202</v>
       </c>
-    </row>
-    <row r="119" spans="2:26">
+      <c r="AA118" s="12">
+        <v>6039.2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:27">
       <c r="B119" s="3">
         <v>1978.25</v>
       </c>
@@ -5251,8 +5631,11 @@
       <c r="Z119">
         <v>0.800336689412524</v>
       </c>
-    </row>
-    <row r="120" spans="2:26">
+      <c r="AA119" s="12">
+        <v>6274</v>
+      </c>
+    </row>
+    <row r="120" spans="2:27">
       <c r="B120" s="3">
         <v>1978.5</v>
       </c>
@@ -5312,8 +5695,11 @@
       <c r="Z120">
         <v>0.88729462767796696</v>
       </c>
-    </row>
-    <row r="121" spans="2:26">
+      <c r="AA120" s="12">
+        <v>6335.3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:27">
       <c r="B121" s="3">
         <v>1978.75</v>
       </c>
@@ -5373,8 +5759,11 @@
       <c r="Z121">
         <v>0.86817293743935398</v>
       </c>
-    </row>
-    <row r="122" spans="2:26">
+      <c r="AA121" s="12">
+        <v>6420.3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:27">
       <c r="B122" s="3">
         <v>1979</v>
       </c>
@@ -5434,8 +5823,11 @@
       <c r="Z122">
         <v>0.82832465374425401</v>
       </c>
-    </row>
-    <row r="123" spans="2:26">
+      <c r="AA122" s="12">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="123" spans="2:27">
       <c r="B123" s="3">
         <v>1979.25</v>
       </c>
@@ -5495,8 +5887,11 @@
       <c r="Z123">
         <v>0.92586220770254402</v>
       </c>
-    </row>
-    <row r="124" spans="2:26">
+      <c r="AA123" s="12">
+        <v>6440.8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:27">
       <c r="B124" s="3">
         <v>1979.5</v>
       </c>
@@ -5556,8 +5951,11 @@
       <c r="Z124">
         <v>0.96682753613403305</v>
       </c>
-    </row>
-    <row r="125" spans="2:26">
+      <c r="AA124" s="12">
+        <v>6487.1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:27">
       <c r="B125" s="3">
         <v>1979.75</v>
       </c>
@@ -5617,8 +6015,11 @@
       <c r="Z125">
         <v>0.92409273280523296</v>
       </c>
-    </row>
-    <row r="126" spans="2:26">
+      <c r="AA125" s="12">
+        <v>6503.9</v>
+      </c>
+    </row>
+    <row r="126" spans="2:27">
       <c r="B126" s="3">
         <v>1980</v>
       </c>
@@ -5678,8 +6079,11 @@
       <c r="Z126">
         <v>0.88738459889529597</v>
       </c>
-    </row>
-    <row r="127" spans="2:26">
+      <c r="AA126" s="12">
+        <v>6524.9</v>
+      </c>
+    </row>
+    <row r="127" spans="2:27">
       <c r="B127" s="3">
         <v>1980.25</v>
       </c>
@@ -5739,8 +6143,11 @@
       <c r="Z127">
         <v>0.66596692675182001</v>
       </c>
-    </row>
-    <row r="128" spans="2:26">
+      <c r="AA127" s="12">
+        <v>6392.6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:27">
       <c r="B128" s="3">
         <v>1980.5</v>
       </c>
@@ -5800,8 +6207,11 @@
       <c r="Z128">
         <v>0.289852607455374</v>
       </c>
-    </row>
-    <row r="129" spans="2:26">
+      <c r="AA128" s="12">
+        <v>6382.9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:27">
       <c r="B129" s="3">
         <v>1980.75</v>
       </c>
@@ -5861,8 +6271,11 @@
       <c r="Z129">
         <v>0.184267195824727</v>
       </c>
-    </row>
-    <row r="130" spans="2:26">
+      <c r="AA129" s="12">
+        <v>6501.2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:27">
       <c r="B130" s="3">
         <v>1981</v>
       </c>
@@ -5922,8 +6335,11 @@
       <c r="Z130">
         <v>8.4184816592111605E-2</v>
       </c>
-    </row>
-    <row r="131" spans="2:26">
+      <c r="AA130" s="12">
+        <v>6635.7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:27">
       <c r="B131" s="3">
         <v>1981.25</v>
       </c>
@@ -5983,8 +6399,11 @@
       <c r="Z131">
         <v>5.9105891278671698E-2</v>
       </c>
-    </row>
-    <row r="132" spans="2:26">
+      <c r="AA131" s="12">
+        <v>6587.3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:27">
       <c r="B132" s="3">
         <v>1981.5</v>
       </c>
@@ -6060,8 +6479,11 @@
       <c r="Z132">
         <v>7.0083982850742604E-2</v>
       </c>
-    </row>
-    <row r="133" spans="2:26">
+      <c r="AA132" s="12">
+        <v>6662.9</v>
+      </c>
+    </row>
+    <row r="133" spans="2:27">
       <c r="B133" s="3">
         <v>1981.75</v>
       </c>
@@ -6137,8 +6559,11 @@
       <c r="Z133">
         <v>0.115556402479762</v>
       </c>
-    </row>
-    <row r="134" spans="2:26">
+      <c r="AA133" s="12">
+        <v>6585.1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:27">
       <c r="B134" s="3">
         <v>1982</v>
       </c>
@@ -6214,8 +6639,11 @@
       <c r="Z134">
         <v>0.17368969928045699</v>
       </c>
-    </row>
-    <row r="135" spans="2:26">
+      <c r="AA134" s="12">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="135" spans="2:27">
       <c r="B135" s="3">
         <v>1982.25</v>
       </c>
@@ -6291,8 +6719,11 @@
       <c r="Z135">
         <v>0.20636126787946499</v>
       </c>
-    </row>
-    <row r="136" spans="2:26">
+      <c r="AA135" s="12">
+        <v>6510.2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:27">
       <c r="B136" s="3">
         <v>1982.5</v>
       </c>
@@ -6368,8 +6799,11 @@
       <c r="Z136">
         <v>0.29989456127252101</v>
       </c>
-    </row>
-    <row r="137" spans="2:26">
+      <c r="AA136" s="12">
+        <v>6486.8</v>
+      </c>
+    </row>
+    <row r="137" spans="2:27">
       <c r="B137" s="3">
         <v>1982.75</v>
       </c>
@@ -6445,8 +6879,11 @@
       <c r="Z137">
         <v>0.37189401742620098</v>
       </c>
-    </row>
-    <row r="138" spans="2:26">
+      <c r="AA137" s="12">
+        <v>6493.1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27">
       <c r="B138" s="3">
         <v>1983</v>
       </c>
@@ -6522,8 +6959,11 @@
       <c r="Z138">
         <v>0.43011058088009702</v>
       </c>
-    </row>
-    <row r="139" spans="2:26">
+      <c r="AA138" s="12">
+        <v>6578.2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:27">
       <c r="B139" s="3">
         <v>1983.25</v>
       </c>
@@ -6599,8 +7039,11 @@
       <c r="Z139">
         <v>0.41459543087053502</v>
       </c>
-    </row>
-    <row r="140" spans="2:26">
+      <c r="AA139" s="12">
+        <v>6728.3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:27">
       <c r="B140" s="3">
         <v>1983.5</v>
       </c>
@@ -6676,8 +7119,11 @@
       <c r="Z140">
         <v>0.462793901284479</v>
       </c>
-    </row>
-    <row r="141" spans="2:26">
+      <c r="AA140" s="12">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="141" spans="2:27">
       <c r="B141" s="3">
         <v>1983.75</v>
       </c>
@@ -6753,8 +7199,11 @@
       <c r="Z141">
         <v>0.49377532161024701</v>
       </c>
-    </row>
-    <row r="142" spans="2:26">
+      <c r="AA141" s="12">
+        <v>7001.5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:27">
       <c r="B142" s="3">
         <v>1984</v>
       </c>
@@ -6830,8 +7279,11 @@
       <c r="Z142">
         <v>0.54636640267428005</v>
       </c>
-    </row>
-    <row r="143" spans="2:26">
+      <c r="AA142" s="12">
+        <v>7140.6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:27">
       <c r="B143" s="3">
         <v>1984.25</v>
       </c>
@@ -6907,8 +7359,11 @@
       <c r="Z143">
         <v>0.53496782297032197</v>
       </c>
-    </row>
-    <row r="144" spans="2:26">
+      <c r="AA143" s="12">
+        <v>7266</v>
+      </c>
+    </row>
+    <row r="144" spans="2:27">
       <c r="B144" s="3">
         <v>1984.5</v>
       </c>
@@ -6984,8 +7439,11 @@
       <c r="Z144">
         <v>0.45579075025177601</v>
       </c>
-    </row>
-    <row r="145" spans="2:26">
+      <c r="AA144" s="12">
+        <v>7337.5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:27">
       <c r="B145" s="3">
         <v>1984.75</v>
       </c>
@@ -7061,8 +7519,11 @@
       <c r="Z145">
         <v>0.44361584696846901</v>
       </c>
-    </row>
-    <row r="146" spans="2:26">
+      <c r="AA145" s="12">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="146" spans="2:27">
       <c r="B146" s="3">
         <v>1985</v>
       </c>
@@ -7138,8 +7599,11 @@
       <c r="Z146">
         <v>0.41045131038192401</v>
       </c>
-    </row>
-    <row r="147" spans="2:26">
+      <c r="AA146" s="12">
+        <v>7469.5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:27">
       <c r="B147" s="3">
         <v>1985.25</v>
       </c>
@@ -7215,8 +7679,11 @@
       <c r="Z147">
         <v>0.40704373680971501</v>
       </c>
-    </row>
-    <row r="148" spans="2:26">
+      <c r="AA147" s="12">
+        <v>7537.9</v>
+      </c>
+    </row>
+    <row r="148" spans="2:27">
       <c r="B148" s="3">
         <v>1985.5</v>
       </c>
@@ -7292,8 +7759,11 @@
       <c r="Z148">
         <v>0.33010725514924399</v>
       </c>
-    </row>
-    <row r="149" spans="2:26">
+      <c r="AA148" s="12">
+        <v>7655.2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:27">
       <c r="B149" s="3">
         <v>1985.75</v>
       </c>
@@ -7369,8 +7839,11 @@
       <c r="Z149">
         <v>0.34188618459835102</v>
       </c>
-    </row>
-    <row r="150" spans="2:26">
+      <c r="AA149" s="12">
+        <v>7712.6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:27">
       <c r="B150" s="3">
         <v>1986</v>
       </c>
@@ -7446,8 +7919,11 @@
       <c r="Z150">
         <v>0.35338338884870102</v>
       </c>
-    </row>
-    <row r="151" spans="2:26">
+      <c r="AA150" s="12">
+        <v>7784.1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:27">
       <c r="B151" s="3">
         <v>1986.25</v>
       </c>
@@ -7523,8 +7999,11 @@
       <c r="Z151">
         <v>0.446283110204307</v>
       </c>
-    </row>
-    <row r="152" spans="2:26">
+      <c r="AA151" s="12">
+        <v>7819.8</v>
+      </c>
+    </row>
+    <row r="152" spans="2:27">
       <c r="B152" s="3">
         <v>1986.5</v>
       </c>
@@ -7600,8 +8079,11 @@
       <c r="Z152">
         <v>0.47796428324232598</v>
       </c>
-    </row>
-    <row r="153" spans="2:26">
+      <c r="AA152" s="12">
+        <v>7898.6</v>
+      </c>
+    </row>
+    <row r="153" spans="2:27">
       <c r="B153" s="3">
         <v>1986.75</v>
       </c>
@@ -7677,8 +8159,11 @@
       <c r="Z153">
         <v>0.50337494874312205</v>
       </c>
-    </row>
-    <row r="154" spans="2:26">
+      <c r="AA153" s="12">
+        <v>7939.5</v>
+      </c>
+    </row>
+    <row r="154" spans="2:27">
       <c r="B154" s="3">
         <v>1987</v>
       </c>
@@ -7754,8 +8239,11 @@
       <c r="Z154">
         <v>0.516044489577687</v>
       </c>
-    </row>
-    <row r="155" spans="2:26">
+      <c r="AA154" s="12">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="155" spans="2:27">
       <c r="B155" s="3">
         <v>1987.25</v>
       </c>
@@ -7831,8 +8319,11 @@
       <c r="Z155">
         <v>0.65323735014636797</v>
       </c>
-    </row>
-    <row r="156" spans="2:26">
+      <c r="AA155" s="12">
+        <v>8084.7</v>
+      </c>
+    </row>
+    <row r="156" spans="2:27">
       <c r="B156" s="3">
         <v>1987.5</v>
       </c>
@@ -7908,8 +8399,11 @@
       <c r="Z156">
         <v>0.80390785845298096</v>
       </c>
-    </row>
-    <row r="157" spans="2:26">
+      <c r="AA156" s="12">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="157" spans="2:27">
       <c r="B157" s="3">
         <v>1987.75</v>
       </c>
@@ -7985,8 +8479,11 @@
       <c r="Z157">
         <v>0.87419825819785102</v>
       </c>
-    </row>
-    <row r="158" spans="2:26">
+      <c r="AA157" s="12">
+        <v>8292.7000000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="2:27">
       <c r="B158" s="3">
         <v>1988</v>
       </c>
@@ -8062,8 +8559,11 @@
       <c r="Z158">
         <v>0.87960553592803703</v>
       </c>
-    </row>
-    <row r="159" spans="2:26">
+      <c r="AA158" s="12">
+        <v>8339.2999999999993</v>
+      </c>
+    </row>
+    <row r="159" spans="2:27">
       <c r="B159" s="3">
         <v>1988.25</v>
       </c>
@@ -8139,8 +8639,11 @@
       <c r="Z159">
         <v>0.87011771874629995</v>
       </c>
-    </row>
-    <row r="160" spans="2:26">
+      <c r="AA159" s="12">
+        <v>8449.5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:27">
       <c r="B160" s="3">
         <v>1988.5</v>
       </c>
@@ -8216,8 +8719,11 @@
       <c r="Z160">
         <v>0.89842082138690005</v>
       </c>
-    </row>
-    <row r="161" spans="2:26">
+      <c r="AA160" s="12">
+        <v>8498.2999999999993</v>
+      </c>
+    </row>
+    <row r="161" spans="2:27">
       <c r="B161" s="3">
         <v>1988.75</v>
       </c>
@@ -8293,8 +8799,11 @@
       <c r="Z161">
         <v>0.86782921198150198</v>
       </c>
-    </row>
-    <row r="162" spans="2:26">
+      <c r="AA161" s="12">
+        <v>8610.9</v>
+      </c>
+    </row>
+    <row r="162" spans="2:27">
       <c r="B162" s="3">
         <v>1989</v>
       </c>
@@ -8370,8 +8879,11 @@
       <c r="Z162">
         <v>0.80663629787218305</v>
       </c>
-    </row>
-    <row r="163" spans="2:26">
+      <c r="AA162" s="12">
+        <v>8697.7000000000007</v>
+      </c>
+    </row>
+    <row r="163" spans="2:27">
       <c r="B163" s="3">
         <v>1989.25</v>
       </c>
@@ -8447,8 +8959,11 @@
       <c r="Z163">
         <v>0.64819168609875899</v>
       </c>
-    </row>
-    <row r="164" spans="2:26">
+      <c r="AA163" s="12">
+        <v>8766.1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:27">
       <c r="B164" s="3">
         <v>1989.5</v>
       </c>
@@ -8524,8 +9039,11 @@
       <c r="Z164">
         <v>0.48860197498133101</v>
       </c>
-    </row>
-    <row r="165" spans="2:26">
+      <c r="AA164" s="12">
+        <v>8831.5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:27">
       <c r="B165" s="3">
         <v>1989.75</v>
       </c>
@@ -8601,8 +9119,11 @@
       <c r="Z165">
         <v>0.54093318437144999</v>
       </c>
-    </row>
-    <row r="166" spans="2:26">
+      <c r="AA165" s="12">
+        <v>8850.2000000000007</v>
+      </c>
+    </row>
+    <row r="166" spans="2:27">
       <c r="B166" s="3">
         <v>1990</v>
       </c>
@@ -8678,8 +9199,11 @@
       <c r="Z166">
         <v>0.51769261006028899</v>
       </c>
-    </row>
-    <row r="167" spans="2:26">
+      <c r="AA166" s="12">
+        <v>8947.1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:27">
       <c r="B167" s="3">
         <v>1990.25</v>
       </c>
@@ -8755,8 +9279,11 @@
       <c r="Z167">
         <v>0.50337494874312205</v>
       </c>
-    </row>
-    <row r="168" spans="2:26">
+      <c r="AA167" s="12">
+        <v>8981.7000000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="2:27">
       <c r="B168" s="3">
         <v>1990.5</v>
       </c>
@@ -8832,8 +9359,11 @@
       <c r="Z168">
         <v>0.479761064428185</v>
       </c>
-    </row>
-    <row r="169" spans="2:26">
+      <c r="AA168" s="12">
+        <v>8983.9</v>
+      </c>
+    </row>
+    <row r="169" spans="2:27">
       <c r="B169" s="3">
         <v>1990.75</v>
       </c>
@@ -8909,8 +9439,11 @@
       <c r="Z169">
         <v>0.489201679302603</v>
       </c>
-    </row>
-    <row r="170" spans="2:26">
+      <c r="AA169" s="12">
+        <v>8907.4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:27">
       <c r="B170" s="3">
         <v>1991</v>
       </c>
@@ -8986,8 +9519,11 @@
       <c r="Z170">
         <v>0.45378231155248699</v>
       </c>
-    </row>
-    <row r="171" spans="2:26">
+      <c r="AA170" s="12">
+        <v>8865.6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:27">
       <c r="B171" s="3">
         <v>1991.25</v>
       </c>
@@ -9063,8 +9599,11 @@
       <c r="Z171">
         <v>0.497000035999482</v>
       </c>
-    </row>
-    <row r="172" spans="2:26">
+      <c r="AA171" s="12">
+        <v>8934.4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:27">
       <c r="B172" s="3">
         <v>1991.5</v>
       </c>
@@ -9140,8 +9679,11 @@
       <c r="Z172">
         <v>0.399751651669492</v>
       </c>
-    </row>
-    <row r="173" spans="2:26">
+      <c r="AA172" s="12">
+        <v>8977.2999999999993</v>
+      </c>
+    </row>
+    <row r="173" spans="2:27">
       <c r="B173" s="3">
         <v>1991.75</v>
       </c>
@@ -9217,8 +9759,11 @@
       <c r="Z173">
         <v>0.44072998000049202</v>
       </c>
-    </row>
-    <row r="174" spans="2:26">
+      <c r="AA173" s="12">
+        <v>9016.4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:27">
       <c r="B174" s="3">
         <v>1992</v>
       </c>
@@ -9294,8 +9839,11 @@
       <c r="Z174">
         <v>0.47369929755644402</v>
       </c>
-    </row>
-    <row r="175" spans="2:26">
+      <c r="AA174" s="12">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="175" spans="2:27">
       <c r="B175" s="3">
         <v>1992.25</v>
       </c>
@@ -9371,8 +9919,11 @@
       <c r="Z175">
         <v>0.52458016995234202</v>
       </c>
-    </row>
-    <row r="176" spans="2:26">
+      <c r="AA175" s="12">
+        <v>9223.5</v>
+      </c>
+    </row>
+    <row r="176" spans="2:27">
       <c r="B176" s="3">
         <v>1992.5</v>
       </c>
@@ -9448,8 +9999,11 @@
       <c r="Z176">
         <v>0.553716889795693</v>
       </c>
-    </row>
-    <row r="177" spans="2:26">
+      <c r="AA176" s="12">
+        <v>9313.2000000000007</v>
+      </c>
+    </row>
+    <row r="177" spans="2:27">
       <c r="B177" s="3">
         <v>1992.75</v>
       </c>
@@ -9525,8 +10079,11 @@
       <c r="Z177">
         <v>0.62375097840454896</v>
       </c>
-    </row>
-    <row r="178" spans="2:26">
+      <c r="AA177" s="12">
+        <v>9406.5</v>
+      </c>
+    </row>
+    <row r="178" spans="2:27">
       <c r="B178" s="3">
         <v>1993</v>
       </c>
@@ -9602,8 +10159,11 @@
       <c r="Z178">
         <v>0.51147298578729306</v>
       </c>
-    </row>
-    <row r="179" spans="2:26">
+      <c r="AA178" s="12">
+        <v>9424.1</v>
+      </c>
+    </row>
+    <row r="179" spans="2:27">
       <c r="B179" s="3">
         <v>1993.25</v>
       </c>
@@ -9679,8 +10239,11 @@
       <c r="Z179">
         <v>0.53698233710226195</v>
       </c>
-    </row>
-    <row r="180" spans="2:26">
+      <c r="AA179" s="12">
+        <v>9480.1</v>
+      </c>
+    </row>
+    <row r="180" spans="2:27">
       <c r="B180" s="3">
         <v>1993.5</v>
       </c>
@@ -9756,8 +10319,11 @@
       <c r="Z180">
         <v>0.44717289349505102</v>
       </c>
-    </row>
-    <row r="181" spans="2:26">
+      <c r="AA180" s="12">
+        <v>9526.2999999999993</v>
+      </c>
+    </row>
+    <row r="181" spans="2:27">
       <c r="B181" s="3">
         <v>1993.75</v>
       </c>
@@ -9833,8 +10399,11 @@
       <c r="Z181">
         <v>0.389717463620883</v>
       </c>
-    </row>
-    <row r="182" spans="2:26">
+      <c r="AA181" s="12">
+        <v>9653.5</v>
+      </c>
+    </row>
+    <row r="182" spans="2:27">
       <c r="B182" s="3">
         <v>1994</v>
       </c>
@@ -9910,8 +10479,11 @@
       <c r="Z182">
         <v>0.32726087252751701</v>
       </c>
-    </row>
-    <row r="183" spans="2:26">
+      <c r="AA182" s="12">
+        <v>9748.2000000000007</v>
+      </c>
+    </row>
+    <row r="183" spans="2:27">
       <c r="B183" s="3">
         <v>1994.25</v>
       </c>
@@ -9987,8 +10559,11 @@
       <c r="Z183">
         <v>0.27741910538932901</v>
       </c>
-    </row>
-    <row r="184" spans="2:26">
+      <c r="AA183" s="12">
+        <v>9881.4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:27">
       <c r="B184" s="3">
         <v>1994.5</v>
       </c>
@@ -10064,8 +10639,11 @@
       <c r="Z184">
         <v>0.27043829343268999</v>
       </c>
-    </row>
-    <row r="185" spans="2:26">
+      <c r="AA184" s="12">
+        <v>9939.7000000000007</v>
+      </c>
+    </row>
+    <row r="185" spans="2:27">
       <c r="B185" s="3">
         <v>1994.75</v>
       </c>
@@ -10141,8 +10719,11 @@
       <c r="Z185">
         <v>0.34060484275345398</v>
       </c>
-    </row>
-    <row r="186" spans="2:26">
+      <c r="AA185" s="12">
+        <v>10052.5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:27">
       <c r="B186" s="3">
         <v>1995</v>
       </c>
@@ -10218,8 +10799,11 @@
       <c r="Z186">
         <v>0.33778067799373401</v>
       </c>
-    </row>
-    <row r="187" spans="2:26">
+      <c r="AA186" s="12">
+        <v>10086.9</v>
+      </c>
+    </row>
+    <row r="187" spans="2:27">
       <c r="B187" s="3">
         <v>1995.25</v>
       </c>
@@ -10295,8 +10879,11 @@
       <c r="Z187">
         <v>0.31658727622793598</v>
       </c>
-    </row>
-    <row r="188" spans="2:26">
+      <c r="AA187" s="12">
+        <v>10122.1</v>
+      </c>
+    </row>
+    <row r="188" spans="2:27">
       <c r="B188" s="3">
         <v>1995.5</v>
       </c>
@@ -10372,8 +10959,11 @@
       <c r="Z188">
         <v>0.23561004221967499</v>
       </c>
-    </row>
-    <row r="189" spans="2:26">
+      <c r="AA188" s="12">
+        <v>10208.799999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="2:27">
       <c r="B189" s="3">
         <v>1995.75</v>
       </c>
@@ -10449,8 +11039,11 @@
       <c r="Z189">
         <v>0.28371660936610099</v>
       </c>
-    </row>
-    <row r="190" spans="2:26">
+      <c r="AA189" s="12">
+        <v>10281.200000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="2:27">
       <c r="B190" s="3">
         <v>1996</v>
       </c>
@@ -10526,8 +11119,11 @@
       <c r="Z190">
         <v>0.326270918342983</v>
       </c>
-    </row>
-    <row r="191" spans="2:26">
+      <c r="AA190" s="12">
+        <v>10348.700000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:27">
       <c r="B191" s="3">
         <v>1996.25</v>
       </c>
@@ -10603,8 +11199,11 @@
       <c r="Z191">
         <v>0.28104176100523498</v>
       </c>
-    </row>
-    <row r="192" spans="2:26">
+      <c r="AA191" s="12">
+        <v>10529.4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:27">
       <c r="B192" s="3">
         <v>1996.5</v>
       </c>
@@ -10680,8 +11279,11 @@
       <c r="Z192">
         <v>0.21428284938279901</v>
       </c>
-    </row>
-    <row r="193" spans="2:26">
+      <c r="AA192" s="12">
+        <v>10626.8</v>
+      </c>
+    </row>
+    <row r="193" spans="2:27">
       <c r="B193" s="3">
         <v>1996.75</v>
       </c>
@@ -10757,8 +11359,11 @@
       <c r="Z193">
         <v>0.26356906829902799</v>
       </c>
-    </row>
-    <row r="194" spans="2:26">
+      <c r="AA193" s="12">
+        <v>10739.1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:27">
       <c r="B194" s="3">
         <v>1997</v>
       </c>
@@ -10834,8 +11439,11 @@
       <c r="Z194">
         <v>0.21524409680210899</v>
       </c>
-    </row>
-    <row r="195" spans="2:26">
+      <c r="AA194" s="12">
+        <v>10820.9</v>
+      </c>
+    </row>
+    <row r="195" spans="2:27">
       <c r="B195" s="3">
         <v>1997.25</v>
       </c>
@@ -10911,8 +11519,11 @@
       <c r="Z195">
         <v>0.35571759580020601</v>
       </c>
-    </row>
-    <row r="196" spans="2:26">
+      <c r="AA195" s="12">
+        <v>10984.2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:27">
       <c r="B196" s="3">
         <v>1997.5</v>
       </c>
@@ -10988,8 +11599,11 @@
       <c r="Z196">
         <v>0.38537391980158398</v>
       </c>
-    </row>
-    <row r="197" spans="2:26">
+      <c r="AA196" s="12">
+        <v>11124</v>
+      </c>
+    </row>
+    <row r="197" spans="2:27">
       <c r="B197" s="3">
         <v>1997.75</v>
       </c>
@@ -11065,8 +11679,11 @@
       <c r="Z197">
         <v>0.50217498628129098</v>
       </c>
-    </row>
-    <row r="198" spans="2:26">
+      <c r="AA197" s="12">
+        <v>11210.3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:27">
       <c r="B198" s="3">
         <v>1998</v>
       </c>
@@ -11142,8 +11759,11 @@
       <c r="Z198">
         <v>0.56709290496545395</v>
       </c>
-    </row>
-    <row r="199" spans="2:26">
+      <c r="AA198" s="12">
+        <v>11321.2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:27">
       <c r="B199" s="3">
         <v>1998.25</v>
       </c>
@@ -11219,8 +11839,11 @@
       <c r="Z199">
         <v>0.759602232140556</v>
       </c>
-    </row>
-    <row r="200" spans="2:26">
+      <c r="AA199" s="12">
+        <v>11431</v>
+      </c>
+    </row>
+    <row r="200" spans="2:27">
       <c r="B200" s="3">
         <v>1998.5</v>
       </c>
@@ -11296,8 +11919,11 @@
       <c r="Z200">
         <v>0.752408652033421</v>
       </c>
-    </row>
-    <row r="201" spans="2:26">
+      <c r="AA200" s="12">
+        <v>11580.6</v>
+      </c>
+    </row>
+    <row r="201" spans="2:27">
       <c r="B201" s="3">
         <v>1998.75</v>
       </c>
@@ -11373,8 +11999,11 @@
       <c r="Z201">
         <v>0.82819663329428295</v>
       </c>
-    </row>
-    <row r="202" spans="2:26">
+      <c r="AA201" s="12">
+        <v>11770.7</v>
+      </c>
+    </row>
+    <row r="202" spans="2:27">
       <c r="B202" s="3">
         <v>1999</v>
       </c>
@@ -11450,8 +12079,11 @@
       <c r="Z202">
         <v>0.799279932559956</v>
       </c>
-    </row>
-    <row r="203" spans="2:26">
+      <c r="AA202" s="12">
+        <v>11864.7</v>
+      </c>
+    </row>
+    <row r="203" spans="2:27">
       <c r="B203" s="3">
         <v>1999.25</v>
       </c>
@@ -11527,8 +12159,11 @@
       <c r="Z203">
         <v>0.80551080378751305</v>
       </c>
-    </row>
-    <row r="204" spans="2:26">
+      <c r="AA203" s="12">
+        <v>11962.5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:27">
       <c r="B204" s="3">
         <v>1999.5</v>
       </c>
@@ -11604,8 +12239,11 @@
       <c r="Z204">
         <v>0.78087966396187203</v>
       </c>
-    </row>
-    <row r="205" spans="2:26">
+      <c r="AA204" s="12">
+        <v>12113.1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:27">
       <c r="B205" s="3">
         <v>1999.75</v>
       </c>
@@ -11681,8 +12319,11 @@
       <c r="Z205">
         <v>0.79860527312892204</v>
       </c>
-    </row>
-    <row r="206" spans="2:26">
+      <c r="AA205" s="12">
+        <v>12323.3</v>
+      </c>
+    </row>
+    <row r="206" spans="2:27">
       <c r="B206" s="3">
         <v>2000</v>
       </c>
@@ -11758,8 +12399,11 @@
       <c r="Z206">
         <v>0.71487907214820201</v>
       </c>
-    </row>
-    <row r="207" spans="2:26">
+      <c r="AA206" s="12">
+        <v>12359.1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:27">
       <c r="B207" s="3">
         <v>2000.25</v>
       </c>
@@ -11835,8 +12479,11 @@
       <c r="Z207">
         <v>0.58860463508763305</v>
       </c>
-    </row>
-    <row r="208" spans="2:26">
+      <c r="AA207" s="12">
+        <v>12592.5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:27">
       <c r="B208" s="3">
         <v>2000.5</v>
       </c>
@@ -11912,8 +12559,11 @@
       <c r="Z208">
         <v>0.584384839402038</v>
       </c>
-    </row>
-    <row r="209" spans="2:26">
+      <c r="AA208" s="12">
+        <v>12607.7</v>
+      </c>
+    </row>
+    <row r="209" spans="2:27">
       <c r="B209" s="3">
         <v>2000.75</v>
       </c>
@@ -11989,8 +12639,11 @@
       <c r="Z209">
         <v>0.56635626162100094</v>
       </c>
-    </row>
-    <row r="210" spans="2:26">
+      <c r="AA209" s="12">
+        <v>12679.3</v>
+      </c>
+    </row>
+    <row r="210" spans="2:27">
       <c r="B210" s="3">
         <v>2001</v>
       </c>
@@ -12066,8 +12719,11 @@
       <c r="Z210">
         <v>0.54413483509916605</v>
       </c>
-    </row>
-    <row r="211" spans="2:26">
+      <c r="AA210" s="12">
+        <v>12643.3</v>
+      </c>
+    </row>
+    <row r="211" spans="2:27">
       <c r="B211" s="3">
         <v>2001.25</v>
       </c>
@@ -12143,8 +12799,11 @@
       <c r="Z211">
         <v>0.46809341527839898</v>
       </c>
-    </row>
-    <row r="212" spans="2:26">
+      <c r="AA211" s="12">
+        <v>12710.3</v>
+      </c>
+    </row>
+    <row r="212" spans="2:27">
       <c r="B212" s="3">
         <v>2001.5</v>
       </c>
@@ -12220,8 +12879,11 @@
       <c r="Z212">
         <v>0.419482046669166</v>
       </c>
-    </row>
-    <row r="213" spans="2:26">
+      <c r="AA212" s="12">
+        <v>12670.1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:27">
       <c r="B213" s="3">
         <v>2001.75</v>
       </c>
@@ -12297,8 +12959,11 @@
       <c r="Z213">
         <v>0.398960078369199</v>
       </c>
-    </row>
-    <row r="214" spans="2:26">
+      <c r="AA213" s="12">
+        <v>12705.3</v>
+      </c>
+    </row>
+    <row r="214" spans="2:27">
       <c r="B214" s="3">
         <v>2002</v>
       </c>
@@ -12374,8 +13039,11 @@
       <c r="Z214">
         <v>0.53003878173892804</v>
       </c>
-    </row>
-    <row r="215" spans="2:26">
+      <c r="AA214" s="12">
+        <v>12822.3</v>
+      </c>
+    </row>
+    <row r="215" spans="2:27">
       <c r="B215" s="3">
         <v>2002.25</v>
       </c>
@@ -12451,8 +13119,11 @@
       <c r="Z215">
         <v>0.54480449560697897</v>
       </c>
-    </row>
-    <row r="216" spans="2:26">
+      <c r="AA215" s="12">
+        <v>12893</v>
+      </c>
+    </row>
+    <row r="216" spans="2:27">
       <c r="B216" s="3">
         <v>2002.5</v>
       </c>
@@ -12528,8 +13199,11 @@
       <c r="Z216">
         <v>0.56451337675831303</v>
       </c>
-    </row>
-    <row r="217" spans="2:26">
+      <c r="AA216" s="12">
+        <v>12955.8</v>
+      </c>
+    </row>
+    <row r="217" spans="2:27">
       <c r="B217" s="3">
         <v>2002.75</v>
       </c>
@@ -12605,8 +13279,11 @@
       <c r="Z217">
         <v>0.50112499810156597</v>
       </c>
-    </row>
-    <row r="218" spans="2:26">
+      <c r="AA217" s="12">
+        <v>12964</v>
+      </c>
+    </row>
+    <row r="218" spans="2:27">
       <c r="B218" s="3">
         <v>2003</v>
       </c>
@@ -12682,8 +13359,11 @@
       <c r="Z218">
         <v>0.54093318437144999</v>
       </c>
-    </row>
-    <row r="219" spans="2:26">
+      <c r="AA218" s="12">
+        <v>13031.2</v>
+      </c>
+    </row>
+    <row r="219" spans="2:27">
       <c r="B219" s="3">
         <v>2003.25</v>
       </c>
@@ -12759,8 +13439,11 @@
       <c r="Z219">
         <v>0.62782563288139903</v>
       </c>
-    </row>
-    <row r="220" spans="2:26">
+      <c r="AA219" s="12">
+        <v>13152.1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:27">
       <c r="B220" s="3">
         <v>2003.5</v>
       </c>
@@ -12836,8 +13519,11 @@
       <c r="Z220">
         <v>0.65391659232468202</v>
       </c>
-    </row>
-    <row r="221" spans="2:26">
+      <c r="AA220" s="12">
+        <v>13372.4</v>
+      </c>
+    </row>
+    <row r="221" spans="2:27">
       <c r="B221" s="3">
         <v>2003.75</v>
       </c>
@@ -12913,8 +13599,11 @@
       <c r="Z221">
         <v>0.66596692675182001</v>
       </c>
-    </row>
-    <row r="222" spans="2:26">
+      <c r="AA221" s="12">
+        <v>13528.7</v>
+      </c>
+    </row>
+    <row r="222" spans="2:27">
       <c r="B222" s="3">
         <v>2004</v>
       </c>
@@ -12990,8 +13679,11 @@
       <c r="Z222">
         <v>0.66268890013923099</v>
       </c>
-    </row>
-    <row r="223" spans="2:26">
+      <c r="AA222" s="12">
+        <v>13606.5</v>
+      </c>
+    </row>
+    <row r="223" spans="2:27">
       <c r="B223" s="3">
         <v>2004.25</v>
       </c>
@@ -13067,8 +13759,11 @@
       <c r="Z223">
         <v>0.62663318900041098</v>
       </c>
-    </row>
-    <row r="224" spans="2:26">
+      <c r="AA223" s="12">
+        <v>13706.2</v>
+      </c>
+    </row>
+    <row r="224" spans="2:27">
       <c r="B224" s="3">
         <v>2004.5</v>
       </c>
@@ -13144,8 +13839,11 @@
       <c r="Z224">
         <v>0.70079784165646297</v>
       </c>
-    </row>
-    <row r="225" spans="2:26">
+      <c r="AA224" s="12">
+        <v>13830.8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:27">
       <c r="B225" s="3">
         <v>2004.75</v>
       </c>
@@ -13221,8 +13919,11 @@
       <c r="Z225">
         <v>0.74711796956557497</v>
       </c>
-    </row>
-    <row r="226" spans="2:26">
+      <c r="AA225" s="12">
+        <v>13950.4</v>
+      </c>
+    </row>
+    <row r="226" spans="2:27">
       <c r="B226" s="3">
         <v>2005</v>
       </c>
@@ -13298,8 +13999,11 @@
       <c r="Z226">
         <v>0.71907945743980795</v>
       </c>
-    </row>
-    <row r="227" spans="2:26">
+      <c r="AA226" s="12">
+        <v>14099.1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:27">
       <c r="B227" s="3">
         <v>2005.25</v>
       </c>
@@ -13375,8 +14079,11 @@
       <c r="Z227">
         <v>0.82384237089100398</v>
       </c>
-    </row>
-    <row r="228" spans="2:26">
+      <c r="AA227" s="12">
+        <v>14172.7</v>
+      </c>
+    </row>
+    <row r="228" spans="2:27">
       <c r="B228" s="3">
         <v>2005.5</v>
       </c>
@@ -13452,8 +14159,11 @@
       <c r="Z228">
         <v>0.90575746904759702</v>
       </c>
-    </row>
-    <row r="229" spans="2:26">
+      <c r="AA228" s="12">
+        <v>14291.8</v>
+      </c>
+    </row>
+    <row r="229" spans="2:27">
       <c r="B229" s="3">
         <v>2005.75</v>
       </c>
@@ -13529,8 +14239,11 @@
       <c r="Z229">
         <v>0.964899209561493</v>
       </c>
-    </row>
-    <row r="230" spans="2:26">
+      <c r="AA229" s="12">
+        <v>14373.4</v>
+      </c>
+    </row>
+    <row r="230" spans="2:27">
       <c r="B230" s="3">
         <v>2006</v>
       </c>
@@ -13606,8 +14319,11 @@
       <c r="Z230">
         <v>0.97815294684977605</v>
       </c>
-    </row>
-    <row r="231" spans="2:26">
+      <c r="AA230" s="12">
+        <v>14546.1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:27">
       <c r="B231" s="3">
         <v>2006.25</v>
       </c>
@@ -13680,8 +14396,11 @@
       <c r="Y231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="2:26">
+      <c r="AA231" s="12">
+        <v>14589.6</v>
+      </c>
+    </row>
+    <row r="232" spans="2:27">
       <c r="B232" s="3">
         <v>2006.5</v>
       </c>
@@ -13754,8 +14473,11 @@
       <c r="Y232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="2:26">
+      <c r="AA232" s="12">
+        <v>14602.6</v>
+      </c>
+    </row>
+    <row r="233" spans="2:27">
       <c r="B233" s="3">
         <v>2006.75</v>
       </c>
@@ -13828,8 +14550,11 @@
       <c r="Y233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="2:26">
+      <c r="AA233" s="12">
+        <v>14716.9</v>
+      </c>
+    </row>
+    <row r="234" spans="2:27">
       <c r="B234" s="3">
         <v>2007</v>
       </c>
@@ -13887,8 +14612,11 @@
       <c r="Y234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="2:26">
+      <c r="AA234" s="12">
+        <v>14726</v>
+      </c>
+    </row>
+    <row r="235" spans="2:27">
       <c r="B235" s="3">
         <v>2007.25</v>
       </c>
@@ -13946,8 +14674,11 @@
       <c r="Y235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="2:26">
+      <c r="AA235" s="12">
+        <v>14838.7</v>
+      </c>
+    </row>
+    <row r="236" spans="2:27">
       <c r="B236" s="3">
         <v>2007.5</v>
       </c>
@@ -14005,8 +14736,11 @@
       <c r="Y236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="2:26">
+      <c r="AA236" s="12">
+        <v>14938.5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:27">
       <c r="B237" s="3">
         <v>2007.75</v>
       </c>
@@ -14064,8 +14798,11 @@
       <c r="Y237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="2:26">
+      <c r="AA237" s="12">
+        <v>14991.8</v>
+      </c>
+    </row>
+    <row r="238" spans="2:27">
       <c r="B238" s="3">
         <v>2008</v>
       </c>
@@ -14123,8 +14860,11 @@
       <c r="Y238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="2:26">
+      <c r="AA238" s="12">
+        <v>14889.5</v>
+      </c>
+    </row>
+    <row r="239" spans="2:27">
       <c r="B239" s="3">
         <v>2008.25</v>
       </c>
@@ -14182,8 +14922,11 @@
       <c r="Y239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="2:26">
+      <c r="AA239" s="12">
+        <v>14963.4</v>
+      </c>
+    </row>
+    <row r="240" spans="2:27">
       <c r="B240" s="3">
         <v>2008.5</v>
       </c>
@@ -14241,8 +14984,11 @@
       <c r="Y240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="2:25">
+      <c r="AA240" s="12">
+        <v>14891.6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:27">
       <c r="B241" s="3">
         <v>2008.75</v>
       </c>
@@ -14300,8 +15046,11 @@
       <c r="Y241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="2:25">
+      <c r="AA241" s="12">
+        <v>14577</v>
+      </c>
+    </row>
+    <row r="242" spans="2:27">
       <c r="B242" s="3">
         <v>2009</v>
       </c>
@@ -14359,8 +15108,11 @@
       <c r="Y242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="2:25">
+      <c r="AA242" s="12">
+        <v>14375</v>
+      </c>
+    </row>
+    <row r="243" spans="2:27">
       <c r="B243" s="3">
         <v>2009.25</v>
       </c>
@@ -14418,8 +15170,11 @@
       <c r="Y243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="2:25">
+      <c r="AA243" s="12">
+        <v>14355.6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:27">
       <c r="B244" s="3">
         <v>2009.5</v>
       </c>
@@ -14477,8 +15232,11 @@
       <c r="Y244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="2:25">
+      <c r="AA244" s="12">
+        <v>14402.5</v>
+      </c>
+    </row>
+    <row r="245" spans="2:27">
       <c r="B245" s="3">
         <v>2009.75</v>
       </c>
@@ -14536,8 +15294,11 @@
       <c r="Y245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="2:25">
+      <c r="AA245" s="12">
+        <v>14541.9</v>
+      </c>
+    </row>
+    <row r="246" spans="2:27">
       <c r="B246" s="3">
         <v>2010</v>
       </c>
@@ -14593,8 +15354,11 @@
         <v>105.84310000000001</v>
       </c>
       <c r="Y246" s="8"/>
-    </row>
-    <row r="247" spans="2:25">
+      <c r="AA246" s="12">
+        <v>14604.8</v>
+      </c>
+    </row>
+    <row r="247" spans="2:27">
       <c r="B247" s="3">
         <v>2010.25</v>
       </c>
@@ -14650,8 +15414,11 @@
         <v>107.72920000000001</v>
       </c>
       <c r="Y247" s="8"/>
-    </row>
-    <row r="248" spans="2:25">
+      <c r="AA247" s="12">
+        <v>14745.9</v>
+      </c>
+    </row>
+    <row r="248" spans="2:27">
       <c r="B248" s="3">
         <v>2010.5</v>
       </c>
@@ -14707,8 +15474,11 @@
         <v>97.290700000000001</v>
       </c>
       <c r="Y248" s="8"/>
-    </row>
-    <row r="249" spans="2:25">
+      <c r="AA248" s="12">
+        <v>14845.5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:27">
       <c r="B249" s="3">
         <v>2010.75</v>
       </c>
@@ -14764,8 +15534,11 @@
         <v>97.822000000000003</v>
       </c>
       <c r="Y249" s="8"/>
-    </row>
-    <row r="250" spans="2:25">
+      <c r="AA249" s="12">
+        <v>14939</v>
+      </c>
+    </row>
+    <row r="250" spans="2:27">
       <c r="B250" s="3">
         <v>2011</v>
       </c>
@@ -14821,8 +15594,11 @@
         <v>99.276700000000005</v>
       </c>
       <c r="Y250" s="8"/>
-    </row>
-    <row r="251" spans="2:25">
+      <c r="AA250" s="12">
+        <v>14881.3</v>
+      </c>
+    </row>
+    <row r="251" spans="2:27">
       <c r="B251" s="3">
         <v>2011.25</v>
       </c>
@@ -14878,8 +15654,11 @@
         <v>98.139300000000006</v>
       </c>
       <c r="Y251" s="8"/>
-    </row>
-    <row r="252" spans="2:25">
+      <c r="AA251" s="12">
+        <v>14989.6</v>
+      </c>
+    </row>
+    <row r="252" spans="2:27">
       <c r="B252" s="3">
         <v>2011.5</v>
       </c>
@@ -14935,8 +15714,11 @@
         <v>96.822100000000006</v>
       </c>
       <c r="Y252" s="8"/>
-    </row>
-    <row r="253" spans="2:25">
+      <c r="AA252" s="12">
+        <v>15021.1</v>
+      </c>
+    </row>
+    <row r="253" spans="2:27">
       <c r="B253" s="3">
         <v>2011.75</v>
       </c>
@@ -14992,8 +15774,11 @@
         <v>97.492599999999996</v>
       </c>
       <c r="Y253" s="8"/>
-    </row>
-    <row r="254" spans="2:25">
+      <c r="AA253" s="12">
+        <v>15190.3</v>
+      </c>
+    </row>
+    <row r="254" spans="2:27">
       <c r="B254" s="3">
         <v>2012</v>
       </c>
@@ -15049,8 +15834,11 @@
         <v>99.490499999999997</v>
       </c>
       <c r="Y254" s="8"/>
-    </row>
-    <row r="255" spans="2:25">
+      <c r="AA254" s="12">
+        <v>15291</v>
+      </c>
+    </row>
+    <row r="255" spans="2:27">
       <c r="B255" s="3">
         <v>2012.25</v>
       </c>
@@ -15106,8 +15894,11 @@
         <v>100.5642</v>
       </c>
       <c r="Y255" s="8"/>
-    </row>
-    <row r="256" spans="2:25">
+      <c r="AA255" s="12">
+        <v>15362.4</v>
+      </c>
+    </row>
+    <row r="256" spans="2:27">
       <c r="B256" s="3">
         <v>2012.5</v>
       </c>
@@ -15163,8 +15954,11 @@
         <v>100.7782</v>
       </c>
       <c r="Y256" s="8"/>
-    </row>
-    <row r="257" spans="2:25">
+      <c r="AA256" s="12">
+        <v>15380.8</v>
+      </c>
+    </row>
+    <row r="257" spans="2:27">
       <c r="B257" s="3">
         <v>2012.75</v>
       </c>
@@ -15220,8 +16014,11 @@
         <v>100.7184</v>
       </c>
       <c r="Y257" s="8"/>
-    </row>
-    <row r="258" spans="2:25">
+      <c r="AA257" s="12">
+        <v>15384.3</v>
+      </c>
+    </row>
+    <row r="258" spans="2:27">
       <c r="B258" s="3">
         <v>2013</v>
       </c>
@@ -15277,8 +16074,11 @@
         <v>101.60939999999999</v>
       </c>
       <c r="Y258" s="8"/>
-    </row>
-    <row r="259" spans="2:25">
+      <c r="AA258" s="12">
+        <v>15491.9</v>
+      </c>
+    </row>
+    <row r="259" spans="2:27">
       <c r="B259" s="3">
         <v>2013.25</v>
       </c>
@@ -15334,8 +16134,11 @@
         <v>103.0065</v>
       </c>
       <c r="Y259" s="8"/>
-    </row>
-    <row r="260" spans="2:25">
+      <c r="AA259" s="12">
+        <v>15521.6</v>
+      </c>
+    </row>
+    <row r="260" spans="2:27">
       <c r="B260" s="3">
         <v>2013.5</v>
       </c>
@@ -15391,8 +16194,11 @@
         <v>102.47150000000001</v>
       </c>
       <c r="Y260" s="8"/>
-    </row>
-    <row r="261" spans="2:25">
+      <c r="AA260" s="12">
+        <v>15641.3</v>
+      </c>
+    </row>
+    <row r="261" spans="2:27">
       <c r="B261" s="3">
         <v>2013.75</v>
       </c>
@@ -15448,8 +16254,11 @@
         <v>103.51909999999999</v>
       </c>
       <c r="Y261" s="8"/>
-    </row>
-    <row r="262" spans="2:25">
+      <c r="AA261" s="12">
+        <v>15793.9</v>
+      </c>
+    </row>
+    <row r="262" spans="2:27">
       <c r="B262" s="3">
         <v>2014</v>
       </c>
@@ -15505,8 +16314,11 @@
         <v>105.4823</v>
       </c>
       <c r="Y262" s="8"/>
-    </row>
-    <row r="263" spans="2:25">
+      <c r="AA262" s="12">
+        <v>15757.6</v>
+      </c>
+    </row>
+    <row r="263" spans="2:27">
       <c r="B263" s="3">
         <v>2014.25</v>
       </c>
@@ -15562,8 +16374,11 @@
         <v>107.128</v>
       </c>
       <c r="Y263" s="8"/>
-    </row>
-    <row r="264" spans="2:25">
+      <c r="AA263" s="12">
+        <v>15935.8</v>
+      </c>
+    </row>
+    <row r="264" spans="2:27">
       <c r="B264" s="3">
         <v>2014.5</v>
       </c>
@@ -15619,8 +16434,11 @@
         <v>108.57299999999999</v>
       </c>
       <c r="Y264" s="8"/>
-    </row>
-    <row r="265" spans="2:25">
+      <c r="AA264" s="12">
+        <v>16139.5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:27">
       <c r="B265" s="3">
         <v>2014.75</v>
       </c>
@@ -15676,8 +16494,11 @@
         <v>109.0459</v>
       </c>
       <c r="Y265" s="8"/>
-    </row>
-    <row r="266" spans="2:25">
+      <c r="AA265" s="12">
+        <v>16220.2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:27">
       <c r="B266" s="3">
         <v>2015</v>
       </c>
@@ -15733,8 +16554,11 @@
         <v>110.3961</v>
       </c>
       <c r="Y266" s="8"/>
-    </row>
-    <row r="267" spans="2:25">
+      <c r="AA266" s="12">
+        <v>16350</v>
+      </c>
+    </row>
+    <row r="267" spans="2:27">
       <c r="B267" s="3">
         <v>2015.25</v>
       </c>
@@ -15790,8 +16614,11 @@
         <v>109.3441</v>
       </c>
       <c r="Y267" s="8"/>
-    </row>
-    <row r="268" spans="2:25">
+      <c r="AA267" s="12">
+        <v>16460.900000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="2:27">
       <c r="B268" s="3">
         <v>2015.5</v>
       </c>
@@ -15847,8 +16674,11 @@
         <v>110.6628</v>
       </c>
       <c r="Y268" s="8"/>
-    </row>
-    <row r="269" spans="2:25">
+      <c r="AA268" s="12">
+        <v>16527.599999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="2:27">
       <c r="B269" s="3">
         <v>2015.75</v>
       </c>
@@ -15904,8 +16734,11 @@
         <v>110.506</v>
       </c>
       <c r="Y269" s="8"/>
-    </row>
-    <row r="270" spans="2:25">
+      <c r="AA269" s="12">
+        <v>16547.599999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="2:27">
       <c r="B270" s="3">
         <v>2016</v>
       </c>
@@ -15961,8 +16794,11 @@
         <v>109.10169999999999</v>
       </c>
       <c r="Y270" s="8"/>
-    </row>
-    <row r="271" spans="2:25">
+      <c r="AA270" s="12">
+        <v>16571.599999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="2:27">
       <c r="B271" s="3">
         <v>2016.25</v>
       </c>
@@ -16018,8 +16854,11 @@
         <v>106.43219999999999</v>
       </c>
       <c r="Y271" s="8"/>
-    </row>
-    <row r="272" spans="2:25">
+      <c r="AA271" s="12">
+        <v>16663.5</v>
+      </c>
+    </row>
+    <row r="272" spans="2:27">
       <c r="B272" s="3">
         <v>2016.5</v>
       </c>
@@ -16075,8 +16914,11 @@
         <v>106.2542</v>
       </c>
       <c r="Y272" s="8"/>
-    </row>
-    <row r="273" spans="2:25">
+      <c r="AA272" s="12">
+        <v>16778.099999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="2:27">
       <c r="B273" s="3">
         <v>2016.75</v>
       </c>
@@ -16132,8 +16974,11 @@
         <v>106.8733</v>
       </c>
       <c r="Y273" s="8"/>
-    </row>
-    <row r="274" spans="2:25">
+      <c r="AA273" s="12">
+        <v>16851.400000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="2:27">
       <c r="B274" s="3">
         <v>2017</v>
       </c>
@@ -16189,8 +17034,11 @@
         <v>107.1221</v>
       </c>
       <c r="Y274" s="8"/>
-    </row>
-    <row r="275" spans="2:25">
+      <c r="AA274" s="12">
+        <v>16903.2</v>
+      </c>
+    </row>
+    <row r="275" spans="2:27">
       <c r="B275" s="3">
         <v>2017.25</v>
       </c>
@@ -16246,8 +17094,11 @@
         <v>106.991</v>
       </c>
       <c r="Y275" s="8"/>
-    </row>
-    <row r="276" spans="2:25">
+      <c r="AA275" s="12">
+        <v>17031.099999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="2:27">
       <c r="B276" s="3">
         <v>2017.5</v>
       </c>
@@ -16300,8 +17151,9 @@
         <v>107.9345</v>
       </c>
       <c r="Y276" s="8"/>
-    </row>
-    <row r="277" spans="2:25">
+      <c r="AA276" s="11"/>
+    </row>
+    <row r="277" spans="2:27">
       <c r="B277" s="3">
         <v>2017.75</v>
       </c>
@@ -16355,7 +17207,7 @@
       </c>
       <c r="Y277" s="8"/>
     </row>
-    <row r="278" spans="2:25">
+    <row r="278" spans="2:27">
       <c r="B278" s="3">
         <v>2018</v>
       </c>
@@ -16409,7 +17261,7 @@
       </c>
       <c r="Y278" s="8"/>
     </row>
-    <row r="279" spans="2:25">
+    <row r="279" spans="2:27">
       <c r="B279" s="3">
         <v>2018.25</v>
       </c>
@@ -16463,7 +17315,7 @@
       </c>
       <c r="Y279" s="8"/>
     </row>
-    <row r="280" spans="2:25">
+    <row r="280" spans="2:27">
       <c r="M280" s="8"/>
       <c r="N280" s="7"/>
       <c r="O280" s="8"/>
@@ -16478,7 +17330,7 @@
       <c r="X280" s="7"/>
       <c r="Y280" s="8"/>
     </row>
-    <row r="281" spans="2:25">
+    <row r="281" spans="2:27">
       <c r="M281" s="8"/>
       <c r="N281" s="7"/>
       <c r="O281" s="8"/>
@@ -16493,7 +17345,7 @@
       <c r="X281" s="7"/>
       <c r="Y281" s="8"/>
     </row>
-    <row r="282" spans="2:25">
+    <row r="282" spans="2:27">
       <c r="M282" s="8"/>
       <c r="N282" s="7"/>
       <c r="O282" s="8"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -60,18 +60,6 @@
   </si>
   <si>
     <t>Position</t>
-  </si>
-  <si>
-    <t>RGDP1</t>
-  </si>
-  <si>
-    <t>RGDP2</t>
-  </si>
-  <si>
-    <t>RGDP5</t>
-  </si>
-  <si>
-    <t>RGDP6</t>
   </si>
   <si>
     <t>RNRESIN1</t>
@@ -113,13 +101,28 @@
     <t>Time</t>
   </si>
   <si>
-    <t>NBER Dates</t>
+    <t>NBERDates</t>
   </si>
   <si>
-    <t>Prob Recession</t>
+    <t>ProbRecession</t>
   </si>
   <si>
-    <t>Real GDP</t>
+    <t>RealGDP</t>
+  </si>
+  <si>
+    <t>RGDP1_SPF</t>
+  </si>
+  <si>
+    <t>RGDP2_SPF</t>
+  </si>
+  <si>
+    <t>RGDP5_SPF</t>
+  </si>
+  <si>
+    <t>RGDP6_SPF</t>
+  </si>
+  <si>
+    <t>RealCons</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +168,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ITC Bookman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,16 +248,17 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,16 +541,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA282"/>
+  <dimension ref="A1:AB327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="6"/>
-    <col min="2" max="2" width="22" style="3"/>
+    <col min="1" max="1" width="17.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="6" customWidth="1"/>
     <col min="4" max="4" width="22" style="3"/>
     <col min="5" max="5" width="22" style="6"/>
@@ -583,12 +582,12 @@
     <col min="28" max="16384" width="22" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="15.75">
+    <row r="1" spans="1:28" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -609,64 +608,67 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="5" customFormat="1">
+      <c r="AB1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="5" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -745,11 +747,14 @@
       <c r="Z2" s="2">
         <v>2</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1">
+      <c r="AB2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="5" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -787,40 +792,40 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="2">
         <v>1</v>
@@ -828,11 +833,14 @@
       <c r="Z3" s="2">
         <v>1</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="5" customFormat="1">
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="5" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -911,11 +919,14 @@
       <c r="Z4" s="2">
         <v>25</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="5" customFormat="1">
+      <c r="AB4" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="5" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -994,11 +1005,14 @@
       <c r="Z5" s="2">
         <v>25</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="B6" s="3">
         <v>1950</v>
       </c>
@@ -1014,17 +1028,20 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
         <v>0.279831011521472</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="11">
         <v>2084.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="14">
+        <v>1320.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="B7" s="3">
         <v>1950.25</v>
       </c>
@@ -1040,17 +1057,20 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
         <v>0.35173990517578402</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="11">
         <v>2147.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" s="14">
+        <v>1342.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="B8" s="3">
         <v>1950.5</v>
       </c>
@@ -1066,17 +1086,20 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>0.62276478735695495</v>
       </c>
-      <c r="AA8" s="12">
+      <c r="AA8" s="11">
         <v>2230.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="14">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="B9" s="3">
         <v>1950.75</v>
       </c>
@@ -1092,17 +1115,20 @@
       <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>0.67996261464687102</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AA9" s="11">
         <v>2273.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" s="14">
+        <v>1368.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="B10" s="3">
         <v>1951</v>
       </c>
@@ -1118,17 +1144,20 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>0.72831691144939903</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="11">
         <v>2304.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" s="14">
+        <v>1401.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="B11" s="3">
         <v>1951.25</v>
       </c>
@@ -1144,17 +1173,20 @@
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
         <v>0.86971033002448395</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AA11" s="11">
         <v>2344.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" s="14">
+        <v>1361.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="B12" s="3">
         <v>1951.5</v>
       </c>
@@ -1170,17 +1202,20 @@
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>0.86332672641164798</v>
       </c>
-      <c r="AA12" s="12">
+      <c r="AA12" s="11">
         <v>2392.8000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" s="14">
+        <v>1377.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="B13" s="3">
         <v>1951.75</v>
       </c>
@@ -1196,17 +1231,20 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
+      <c r="Y13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
         <v>0.72095426310442201</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AA13" s="11">
         <v>2398.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" s="14">
+        <v>1385.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="B14" s="3">
         <v>1952</v>
       </c>
@@ -1222,17 +1260,20 @@
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
+      <c r="Y14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>0.49610007909007497</v>
       </c>
-      <c r="AA14" s="12">
+      <c r="AA14" s="11">
         <v>2423.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" s="14">
+        <v>1388.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="B15" s="3">
         <v>1952.25</v>
       </c>
@@ -1248,17 +1289,20 @@
       <c r="H15" s="7">
         <v>0</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
         <v>0.219582674241842</v>
       </c>
-      <c r="AA15" s="12">
+      <c r="AA15" s="11">
         <v>2428.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" s="14">
+        <v>1416.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="B16" s="3">
         <v>1952.5</v>
       </c>
@@ -1274,17 +1318,20 @@
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
         <v>0.15293039322709401</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="11">
         <v>2446.1</v>
       </c>
-    </row>
-    <row r="17" spans="2:27">
+      <c r="AB16" s="14">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
       <c r="B17" s="3">
         <v>1952.75</v>
       </c>
@@ -1300,17 +1347,20 @@
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>0.18817689716323499</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AA17" s="11">
         <v>2526.4</v>
       </c>
-    </row>
-    <row r="18" spans="2:27">
+      <c r="AB17" s="14">
+        <v>1473.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28">
       <c r="B18" s="3">
         <v>1953</v>
       </c>
@@ -1318,7 +1368,7 @@
         <v>0.36996895532406499</v>
       </c>
       <c r="D18" s="3">
-        <v>-2.0193861066235864E-2</v>
+        <v>-2.0193861066235899E-2</v>
       </c>
       <c r="E18" s="9">
         <v>8.8705364657718069E-2</v>
@@ -1329,17 +1379,20 @@
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
+      <c r="Y18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>0.21126785385681501</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA18" s="11">
         <v>2573.4</v>
       </c>
-    </row>
-    <row r="19" spans="2:27">
+      <c r="AB18" s="14">
+        <v>1490.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
       <c r="B19" s="3">
         <v>1953.25</v>
       </c>
@@ -1358,17 +1411,20 @@
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="12">
         <v>1</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="3">
         <v>0.39802526327976201</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="11">
         <v>2593.5</v>
       </c>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="AB19" s="14">
+        <v>1499.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28">
       <c r="B20" s="3">
         <v>1953.5</v>
       </c>
@@ -1387,17 +1443,20 @@
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="12">
         <v>1</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="3">
         <v>0.52719812628696305</v>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA20" s="11">
         <v>2578.9</v>
       </c>
-    </row>
-    <row r="21" spans="2:27">
+      <c r="AB20" s="14">
+        <v>1496.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28">
       <c r="B21" s="3">
         <v>1953.75</v>
       </c>
@@ -1416,17 +1475,20 @@
       <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="12">
         <v>1</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="3">
         <v>0.634042782975204</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21" s="11">
         <v>2539.8000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="2:27">
+      <c r="AB21" s="14">
+        <v>1486.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28">
       <c r="B22" s="3">
         <v>1954</v>
       </c>
@@ -1445,17 +1507,20 @@
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="12">
         <v>1</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="3">
         <v>0.77239774128318395</v>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA22" s="11">
         <v>2528</v>
       </c>
-    </row>
-    <row r="23" spans="2:27">
+      <c r="AB22" s="14">
+        <v>1491.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28">
       <c r="B23" s="3">
         <v>1954.25</v>
       </c>
@@ -1474,17 +1539,20 @@
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="12">
         <v>1</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="3">
         <v>0.74065966606971201</v>
       </c>
-      <c r="AA23" s="12">
+      <c r="AA23" s="11">
         <v>2530.6999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="2:27">
+      <c r="AB23" s="14">
+        <v>1511.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28">
       <c r="B24" s="3">
         <v>1954.5</v>
       </c>
@@ -1503,17 +1571,20 @@
       <c r="H24" s="7">
         <v>-0.37234042553191488</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
+      <c r="Y24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>0.78697718742865197</v>
       </c>
-      <c r="AA24" s="12">
+      <c r="AA24" s="11">
         <v>2559.4</v>
       </c>
-    </row>
-    <row r="25" spans="2:27">
+      <c r="AB24" s="14">
+        <v>1531.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28">
       <c r="B25" s="3">
         <v>1954.75</v>
       </c>
@@ -1532,17 +1603,20 @@
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
+      <c r="Y25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
         <v>0.94368332624381301</v>
       </c>
-      <c r="AA25" s="12">
+      <c r="AA25" s="11">
         <v>2609.3000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="2:27">
+      <c r="AB25" s="14">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28">
       <c r="B26" s="3">
         <v>1955</v>
       </c>
@@ -1561,17 +1635,20 @@
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
+      <c r="Y26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>0.92432388875945004</v>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA26" s="11">
         <v>2683.8</v>
       </c>
-    </row>
-    <row r="27" spans="2:27">
+      <c r="AB26" s="14">
+        <v>1599.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
       <c r="B27" s="3">
         <v>1955.25</v>
       </c>
@@ -1590,17 +1667,20 @@
       <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
+      <c r="Y27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>0.90067077917290705</v>
       </c>
-      <c r="AA27" s="12">
+      <c r="AA27" s="11">
         <v>2727.5</v>
       </c>
-    </row>
-    <row r="28" spans="2:27">
+      <c r="AB27" s="14">
+        <v>1629.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28">
       <c r="B28" s="3">
         <v>1955.5</v>
       </c>
@@ -1619,17 +1699,20 @@
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
+      <c r="Y28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
         <v>0.81446682656016101</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA28" s="11">
         <v>2764.1</v>
       </c>
-    </row>
-    <row r="29" spans="2:27">
+      <c r="AB28" s="14">
+        <v>1649.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
       <c r="B29" s="3">
         <v>1955.75</v>
       </c>
@@ -1648,17 +1731,20 @@
       <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
+      <c r="Y29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>0.62663318900041098</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="AA29" s="11">
         <v>2780.8</v>
       </c>
-    </row>
-    <row r="30" spans="2:27">
+      <c r="AB29" s="14">
+        <v>1670.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28">
       <c r="B30" s="3">
         <v>1956</v>
       </c>
@@ -1677,17 +1763,20 @@
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
         <v>0.46495754463775102</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="11">
         <v>2770</v>
       </c>
-    </row>
-    <row r="31" spans="2:27">
+      <c r="AB30" s="14">
+        <v>1673.2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
       <c r="B31" s="3">
         <v>1956.25</v>
       </c>
@@ -1706,17 +1795,20 @@
       <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
+      <c r="Y31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
         <v>0.36762945792664897</v>
       </c>
-      <c r="AA31" s="12">
+      <c r="AA31" s="11">
         <v>2792.9</v>
       </c>
-    </row>
-    <row r="32" spans="2:27">
+      <c r="AB31" s="14">
+        <v>1678.8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
       <c r="B32" s="3">
         <v>1956.5</v>
       </c>
@@ -1735,17 +1827,20 @@
       <c r="H32" s="7">
         <v>0</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
+      <c r="Y32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>0.133726964436582</v>
       </c>
-      <c r="AA32" s="12">
+      <c r="AA32" s="11">
         <v>2790.6</v>
       </c>
-    </row>
-    <row r="33" spans="2:27">
+      <c r="AB32" s="14">
+        <v>1682.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28">
       <c r="B33" s="3">
         <v>1956.75</v>
       </c>
@@ -1764,17 +1859,20 @@
       <c r="H33" s="7">
         <v>0</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
+      <c r="Y33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>7.1944269555205706E-2</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA33" s="11">
         <v>2836.2</v>
       </c>
-    </row>
-    <row r="34" spans="2:27">
+      <c r="AB33" s="14">
+        <v>1705.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
       <c r="B34" s="3">
         <v>1957</v>
       </c>
@@ -1793,17 +1891,20 @@
       <c r="H34" s="7">
         <v>0</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
+      <c r="Y34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
         <v>0.203623396793817</v>
       </c>
-      <c r="AA34" s="12">
+      <c r="AA34" s="11">
         <v>2854.5</v>
       </c>
-    </row>
-    <row r="35" spans="2:27">
+      <c r="AB34" s="14">
+        <v>1717.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28">
       <c r="B35" s="3">
         <v>1957.25</v>
       </c>
@@ -1822,17 +1923,20 @@
       <c r="H35" s="7">
         <v>0</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
+      <c r="Y35" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>0.39028842509702</v>
       </c>
-      <c r="AA35" s="12">
+      <c r="AA35" s="11">
         <v>2848.2</v>
       </c>
-    </row>
-    <row r="36" spans="2:27">
+      <c r="AB35" s="14">
+        <v>1720.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28">
       <c r="B36" s="3">
         <v>1957.5</v>
       </c>
@@ -1851,17 +1955,20 @@
       <c r="H36" s="7">
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="12">
         <v>1</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="3">
         <v>0.72420167137951397</v>
       </c>
-      <c r="AA36" s="12">
+      <c r="AA36" s="11">
         <v>2875.9</v>
       </c>
-    </row>
-    <row r="37" spans="2:27">
+      <c r="AB36" s="14">
+        <v>1734.1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
       <c r="B37" s="3">
         <v>1957.75</v>
       </c>
@@ -1880,17 +1987,20 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="12">
         <v>1</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="3">
         <v>0.85575859479960004</v>
       </c>
-      <c r="AA37" s="12">
+      <c r="AA37" s="11">
         <v>2846.4</v>
       </c>
-    </row>
-    <row r="38" spans="2:27">
+      <c r="AB37" s="14">
+        <v>1734.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28">
       <c r="B38" s="3">
         <v>1958</v>
       </c>
@@ -1909,17 +2019,20 @@
       <c r="H38" s="7">
         <v>0</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="12">
         <v>1</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="3">
         <v>0.71810881847918695</v>
       </c>
-      <c r="AA38" s="12">
+      <c r="AA38" s="11">
         <v>2772.7</v>
       </c>
-    </row>
-    <row r="39" spans="2:27">
+      <c r="AB38" s="14">
+        <v>1711.1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28">
       <c r="B39" s="3">
         <v>1958.25</v>
       </c>
@@ -1938,17 +2051,20 @@
       <c r="H39" s="7">
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="12">
         <v>1</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="3">
         <v>0.59815897190005296</v>
       </c>
-      <c r="AA39" s="12">
+      <c r="AA39" s="11">
         <v>2790.9</v>
       </c>
-    </row>
-    <row r="40" spans="2:27">
+      <c r="AB39" s="14">
+        <v>1725.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28">
       <c r="B40" s="3">
         <v>1958.5</v>
       </c>
@@ -1967,17 +2083,20 @@
       <c r="H40" s="7">
         <v>-0.10917030567685589</v>
       </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
+      <c r="Y40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
         <v>0.61895144013621095</v>
       </c>
-      <c r="AA40" s="12">
+      <c r="AA40" s="11">
         <v>2855.5</v>
       </c>
-    </row>
-    <row r="41" spans="2:27">
+      <c r="AB40" s="14">
+        <v>1753.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28">
       <c r="B41" s="3">
         <v>1958.75</v>
       </c>
@@ -1996,17 +2115,20 @@
       <c r="H41" s="7">
         <v>0</v>
       </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
+      <c r="Y41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>0.38281901020861903</v>
       </c>
-      <c r="AA41" s="12">
+      <c r="AA41" s="11">
         <v>2922.3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27">
+      <c r="AB41" s="14">
+        <v>1777.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28">
       <c r="B42" s="3">
         <v>1959</v>
       </c>
@@ -2025,17 +2147,20 @@
       <c r="H42" s="7">
         <v>0</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>0.29350944790028399</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="11">
         <v>2976.6</v>
       </c>
-    </row>
-    <row r="43" spans="2:27">
+      <c r="AB42" s="14">
+        <v>1809.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28">
       <c r="B43" s="3">
         <v>1959.25</v>
       </c>
@@ -2054,17 +2179,20 @@
       <c r="H43" s="7">
         <v>0</v>
       </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
+      <c r="Y43" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>0.13873937330966299</v>
       </c>
-      <c r="AA43" s="12">
+      <c r="AA43" s="11">
         <v>3049</v>
       </c>
-    </row>
-    <row r="44" spans="2:27">
+      <c r="AB43" s="14">
+        <v>1837.3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28">
       <c r="B44" s="3">
         <v>1959.5</v>
       </c>
@@ -2083,17 +2211,20 @@
       <c r="H44" s="7">
         <v>0</v>
       </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
+      <c r="Y44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
         <v>0.15761258406435799</v>
       </c>
-      <c r="AA44" s="12">
+      <c r="AA44" s="11">
         <v>3043.1</v>
       </c>
-    </row>
-    <row r="45" spans="2:27">
+      <c r="AB44" s="14">
+        <v>1856.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28">
       <c r="B45" s="3">
         <v>1959.75</v>
       </c>
@@ -2112,17 +2243,20 @@
       <c r="H45" s="7">
         <v>0.11780875709562144</v>
       </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
+      <c r="Y45" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>0.19182424364424999</v>
       </c>
-      <c r="AA45" s="12">
+      <c r="AA45" s="11">
         <v>3055.1</v>
       </c>
-    </row>
-    <row r="46" spans="2:27">
+      <c r="AB45" s="14">
+        <v>1858.6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28">
       <c r="B46" s="3">
         <v>1960</v>
       </c>
@@ -2141,17 +2275,20 @@
       <c r="H46" s="7">
         <v>0</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
+      <c r="Y46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>0.21671728962068401</v>
       </c>
-      <c r="AA46" s="12">
+      <c r="AA46" s="11">
         <v>3123.2</v>
       </c>
-    </row>
-    <row r="47" spans="2:27">
+      <c r="AB46" s="14">
+        <v>1876.3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28">
       <c r="B47" s="3">
         <v>1960.25</v>
       </c>
@@ -2170,17 +2307,20 @@
       <c r="H47" s="7">
         <v>0</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="12">
         <v>1</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="3">
         <v>0.22781328703650999</v>
       </c>
-      <c r="AA47" s="12">
+      <c r="AA47" s="11">
         <v>3111.3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27">
+      <c r="AB47" s="14">
+        <v>1900.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28">
       <c r="B48" s="3">
         <v>1960.5</v>
       </c>
@@ -2199,17 +2339,20 @@
       <c r="H48" s="7">
         <v>0</v>
       </c>
-      <c r="Y48">
+      <c r="Y48" s="12">
         <v>1</v>
       </c>
-      <c r="Z48">
+      <c r="Z48" s="3">
         <v>0.31360909668453102</v>
       </c>
-      <c r="AA48" s="12">
+      <c r="AA48" s="11">
         <v>3119.1</v>
       </c>
-    </row>
-    <row r="49" spans="2:27">
+      <c r="AB48" s="14">
+        <v>1892.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28">
       <c r="B49" s="3">
         <v>1960.75</v>
       </c>
@@ -2228,17 +2371,20 @@
       <c r="H49" s="7">
         <v>0</v>
       </c>
-      <c r="Y49">
+      <c r="Y49" s="12">
         <v>1</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="3">
         <v>0.22030325957229099</v>
       </c>
-      <c r="AA49" s="12">
+      <c r="AA49" s="11">
         <v>3081.3</v>
       </c>
-    </row>
-    <row r="50" spans="2:27">
+      <c r="AB49" s="14">
+        <v>1894.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28">
       <c r="B50" s="3">
         <v>1961</v>
       </c>
@@ -2257,17 +2403,20 @@
       <c r="H50" s="7">
         <v>0</v>
       </c>
-      <c r="Y50">
+      <c r="Y50" s="12">
         <v>1</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="3">
         <v>0.20440287655466799</v>
       </c>
-      <c r="AA50" s="12">
+      <c r="AA50" s="11">
         <v>3102.3</v>
       </c>
-    </row>
-    <row r="51" spans="2:27">
+      <c r="AB50" s="14">
+        <v>1894.4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28">
       <c r="B51" s="3">
         <v>1961.25</v>
       </c>
@@ -2286,17 +2435,20 @@
       <c r="H51" s="7">
         <v>0</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
+      <c r="Y51" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
         <v>0.13784561839057699</v>
       </c>
-      <c r="AA51" s="12">
+      <c r="AA51" s="11">
         <v>3159.9</v>
       </c>
-    </row>
-    <row r="52" spans="2:27">
+      <c r="AB51" s="14">
+        <v>1922.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28">
       <c r="B52" s="3">
         <v>1961.5</v>
       </c>
@@ -2315,17 +2467,20 @@
       <c r="H52" s="7">
         <v>0</v>
       </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
+      <c r="Y52" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>0.198515253448031</v>
       </c>
-      <c r="AA52" s="12">
+      <c r="AA52" s="11">
         <v>3212.6</v>
       </c>
-    </row>
-    <row r="53" spans="2:27">
+      <c r="AB52" s="14">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28">
       <c r="B53" s="3">
         <v>1961.75</v>
       </c>
@@ -2344,17 +2499,20 @@
       <c r="H53" s="7">
         <v>0</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
+      <c r="Y53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
         <v>0.129916188880671</v>
       </c>
-      <c r="AA53" s="12">
+      <c r="AA53" s="11">
         <v>3277.7</v>
       </c>
-    </row>
-    <row r="54" spans="2:27">
+      <c r="AB53" s="14">
+        <v>1970.7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28">
       <c r="B54" s="3">
         <v>1962</v>
       </c>
@@ -2373,17 +2531,20 @@
       <c r="H54" s="7">
         <v>0</v>
       </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
+      <c r="Y54" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>0.15713519791689701</v>
       </c>
-      <c r="AA54" s="12">
+      <c r="AA54" s="11">
         <v>3336.8</v>
       </c>
-    </row>
-    <row r="55" spans="2:27">
+      <c r="AB54" s="14">
+        <v>1991.7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28">
       <c r="B55" s="3">
         <v>1962.25</v>
       </c>
@@ -2402,17 +2563,20 @@
       <c r="H55" s="7">
         <v>0</v>
       </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
+      <c r="Y55" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3">
         <v>9.8287400365134503E-2</v>
       </c>
-      <c r="AA55" s="12">
+      <c r="AA55" s="11">
         <v>3372.7</v>
       </c>
-    </row>
-    <row r="56" spans="2:27">
+      <c r="AB55" s="14">
+        <v>2016.1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28">
       <c r="B56" s="3">
         <v>1962.5</v>
       </c>
@@ -2431,17 +2595,20 @@
       <c r="H56" s="7">
         <v>-0.23148148148148145</v>
       </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
+      <c r="Y56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="3">
         <v>9.2238840365064703E-2</v>
       </c>
-      <c r="AA56" s="12">
+      <c r="AA56" s="11">
         <v>3404.8</v>
       </c>
-    </row>
-    <row r="57" spans="2:27">
+      <c r="AB56" s="14">
+        <v>2032.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28">
       <c r="B57" s="3">
         <v>1962.75</v>
       </c>
@@ -2460,17 +2627,20 @@
       <c r="H57" s="7">
         <v>-0.15253843559322033</v>
       </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
+      <c r="Y57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>5.5383359246854898E-2</v>
       </c>
-      <c r="AA57" s="12">
+      <c r="AA57" s="11">
         <v>3418</v>
       </c>
-    </row>
-    <row r="58" spans="2:27">
+      <c r="AB57" s="14">
+        <v>2061.3000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28">
       <c r="B58" s="3">
         <v>1963</v>
       </c>
@@ -2489,17 +2659,20 @@
       <c r="H58" s="7">
         <v>0.10155064891286028</v>
       </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
+      <c r="Y58" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>8.3126954935661801E-2</v>
       </c>
-      <c r="AA58" s="12">
+      <c r="AA58" s="11">
         <v>3456.1</v>
       </c>
-    </row>
-    <row r="59" spans="2:27">
+      <c r="AB58" s="14">
+        <v>2075.1999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28">
       <c r="B59" s="3">
         <v>1963.25</v>
       </c>
@@ -2518,17 +2691,20 @@
       <c r="H59" s="7">
         <v>0</v>
       </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
+      <c r="Y59" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>7.1564617640215794E-2</v>
       </c>
-      <c r="AA59" s="12">
+      <c r="AA59" s="11">
         <v>3501.1</v>
       </c>
-    </row>
-    <row r="60" spans="2:27">
+      <c r="AB59" s="14">
+        <v>2095.1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28">
       <c r="B60" s="3">
         <v>1963.5</v>
       </c>
@@ -2547,17 +2723,20 @@
       <c r="H60" s="7">
         <v>0</v>
       </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
+      <c r="Y60" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>0.13369221503614701</v>
       </c>
-      <c r="AA60" s="12">
+      <c r="AA60" s="11">
         <v>3569.5</v>
       </c>
-    </row>
-    <row r="61" spans="2:27">
+      <c r="AB60" s="14">
+        <v>2123.6999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28">
       <c r="B61" s="3">
         <v>1963.75</v>
       </c>
@@ -2576,17 +2755,20 @@
       <c r="H61" s="7">
         <v>0</v>
       </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
+      <c r="Y61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>0.158811207231743</v>
       </c>
-      <c r="AA61" s="12">
+      <c r="AA61" s="11">
         <v>3595</v>
       </c>
-    </row>
-    <row r="62" spans="2:27">
+      <c r="AB61" s="14">
+        <v>2141.4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28">
       <c r="B62" s="3">
         <v>1964</v>
       </c>
@@ -2605,17 +2787,20 @@
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
+      <c r="Y62" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>0.30680478270237899</v>
       </c>
-      <c r="AA62" s="12">
+      <c r="AA62" s="11">
         <v>3672.7</v>
       </c>
-    </row>
-    <row r="63" spans="2:27">
+      <c r="AB62" s="14">
+        <v>2183.6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28">
       <c r="B63" s="3">
         <v>1964.25</v>
       </c>
@@ -2634,17 +2819,20 @@
       <c r="H63" s="7">
         <v>-1.2931034482758621</v>
       </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
+      <c r="Y63" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
         <v>0.46659981387441002</v>
       </c>
-      <c r="AA63" s="12">
+      <c r="AA63" s="11">
         <v>3716.4</v>
       </c>
-    </row>
-    <row r="64" spans="2:27">
+      <c r="AB63" s="14">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28">
       <c r="B64" s="3">
         <v>1964.5</v>
       </c>
@@ -2663,17 +2851,20 @@
       <c r="H64" s="7">
         <v>0</v>
       </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
+      <c r="Y64" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
         <v>0.64097536114746601</v>
       </c>
-      <c r="AA64" s="12">
+      <c r="AA64" s="11">
         <v>3766.9</v>
       </c>
-    </row>
-    <row r="65" spans="2:27">
+      <c r="AB64" s="14">
+        <v>2262.8000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28">
       <c r="B65" s="3">
         <v>1964.75</v>
       </c>
@@ -2692,17 +2883,20 @@
       <c r="H65" s="7">
         <v>0</v>
       </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
+      <c r="Y65" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
         <v>0.46204813796597699</v>
       </c>
-      <c r="AA65" s="12">
+      <c r="AA65" s="11">
         <v>3780.2</v>
       </c>
-    </row>
-    <row r="66" spans="2:27">
+      <c r="AB65" s="14">
+        <v>2269.1999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28">
       <c r="B66" s="3">
         <v>1965</v>
       </c>
@@ -2721,17 +2915,20 @@
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
+      <c r="Y66" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
         <v>0.35599266249734501</v>
       </c>
-      <c r="AA66" s="12">
+      <c r="AA66" s="11">
         <v>3873.5</v>
       </c>
-    </row>
-    <row r="67" spans="2:27">
+      <c r="AB66" s="14">
+        <v>2319.8000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28">
       <c r="B67" s="3">
         <v>1965.25</v>
       </c>
@@ -2750,17 +2947,20 @@
       <c r="H67" s="7">
         <v>0</v>
       </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
+      <c r="Y67" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="3">
         <v>0.368396970027559</v>
       </c>
-      <c r="AA67" s="12">
+      <c r="AA67" s="11">
         <v>3926.4</v>
       </c>
-    </row>
-    <row r="68" spans="2:27">
+      <c r="AB67" s="14">
+        <v>2345.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28">
       <c r="B68" s="3">
         <v>1965.5</v>
       </c>
@@ -2779,17 +2979,20 @@
       <c r="H68" s="7">
         <v>-0.24714023410987149</v>
       </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
+      <c r="Y68" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
         <v>0.41372195855412303</v>
       </c>
-      <c r="AA68" s="12">
+      <c r="AA68" s="11">
         <v>4006.2</v>
       </c>
-    </row>
-    <row r="69" spans="2:27">
+      <c r="AB68" s="14">
+        <v>2385.9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28">
       <c r="B69" s="3">
         <v>1965.75</v>
       </c>
@@ -2808,17 +3011,20 @@
       <c r="H69" s="7">
         <v>0</v>
       </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
+      <c r="Y69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
         <v>0.26713644123181801</v>
       </c>
-      <c r="AA69" s="12">
+      <c r="AA69" s="11">
         <v>4100.6000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="2:27">
+      <c r="AB69" s="14">
+        <v>2452.9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28">
       <c r="B70" s="3">
         <v>1966</v>
       </c>
@@ -2837,17 +3043,20 @@
       <c r="H70" s="7">
         <v>0</v>
       </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
+      <c r="Y70" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>0.31141764604446698</v>
       </c>
-      <c r="AA70" s="12">
+      <c r="AA70" s="11">
         <v>4201.8999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="2:27">
+      <c r="AB70" s="14">
+        <v>2489.1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28">
       <c r="B71" s="3">
         <v>1966.25</v>
       </c>
@@ -2866,17 +3075,20 @@
       <c r="H71" s="7">
         <v>0.11676180573300468</v>
       </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
+      <c r="Y71" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
         <v>0.323507295041573</v>
       </c>
-      <c r="AA71" s="12">
+      <c r="AA71" s="11">
         <v>4219.1000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="2:27">
+      <c r="AB71" s="14">
+        <v>2495.4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28">
       <c r="B72" s="3">
         <v>1966.5</v>
       </c>
@@ -2895,17 +3107,20 @@
       <c r="H72" s="7">
         <v>0</v>
       </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
+      <c r="Y72" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
         <v>0.58372891651867997</v>
       </c>
-      <c r="AA72" s="12">
+      <c r="AA72" s="11">
         <v>4249.2</v>
       </c>
-    </row>
-    <row r="73" spans="2:27">
+      <c r="AB72" s="14">
+        <v>2523.8000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28">
       <c r="B73" s="3">
         <v>1966.75</v>
       </c>
@@ -2924,17 +3139,20 @@
       <c r="H73" s="7">
         <v>0</v>
       </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
+      <c r="Y73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
         <v>0.75530331737714396</v>
       </c>
-      <c r="AA73" s="12">
+      <c r="AA73" s="11">
         <v>4285.6000000000004</v>
       </c>
-    </row>
-    <row r="74" spans="2:27">
+      <c r="AB73" s="14">
+        <v>2534.1999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28">
       <c r="B74" s="3">
         <v>1967</v>
       </c>
@@ -2953,17 +3171,20 @@
       <c r="H74" s="7">
         <v>0</v>
       </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
+      <c r="Y74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
         <v>0.79275293772088196</v>
       </c>
-      <c r="AA74" s="12">
+      <c r="AA74" s="11">
         <v>4324.8999999999996</v>
       </c>
-    </row>
-    <row r="75" spans="2:27">
+      <c r="AB74" s="14">
+        <v>2548.9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28">
       <c r="B75" s="3">
         <v>1967.25</v>
       </c>
@@ -2982,17 +3203,20 @@
       <c r="H75" s="7">
         <v>0</v>
       </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
+      <c r="Y75" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
         <v>0.75894423385518595</v>
       </c>
-      <c r="AA75" s="12">
+      <c r="AA75" s="11">
         <v>4328.7</v>
       </c>
-    </row>
-    <row r="76" spans="2:27">
+      <c r="AB75" s="14">
+        <v>2583.6999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28">
       <c r="B76" s="3">
         <v>1967.5</v>
       </c>
@@ -3011,17 +3235,20 @@
       <c r="H76" s="7">
         <v>-0.19457618873890309</v>
       </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
+      <c r="Y76" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
         <v>0.90667533533422995</v>
       </c>
-      <c r="AA76" s="12">
+      <c r="AA76" s="11">
         <v>4366.1000000000004</v>
       </c>
-    </row>
-    <row r="77" spans="2:27">
+      <c r="AB76" s="14">
+        <v>2596.9</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28">
       <c r="B77" s="3">
         <v>1967.75</v>
       </c>
@@ -3040,17 +3267,20 @@
       <c r="H77" s="7">
         <v>0</v>
       </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
+      <c r="Y77" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
         <v>0.77423835433549404</v>
       </c>
-      <c r="AA77" s="12">
+      <c r="AA77" s="11">
         <v>4401.2</v>
       </c>
-    </row>
-    <row r="78" spans="2:27">
+      <c r="AB77" s="14">
+        <v>2612.6999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28">
       <c r="B78" s="3">
         <v>1968</v>
       </c>
@@ -3069,17 +3299,20 @@
       <c r="H78" s="7">
         <v>0</v>
       </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
+      <c r="Y78" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="3">
         <v>0.77907774678618902</v>
       </c>
-      <c r="AA78" s="12">
+      <c r="AA78" s="11">
         <v>4490.6000000000004</v>
       </c>
-    </row>
-    <row r="79" spans="2:27">
+      <c r="AB78" s="14">
+        <v>2674.8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28">
       <c r="B79" s="3">
         <v>1968.25</v>
       </c>
@@ -3098,17 +3331,20 @@
       <c r="H79" s="7">
         <v>0</v>
       </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
+      <c r="Y79" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="3">
         <v>0.67207830193530205</v>
       </c>
-      <c r="AA79" s="12">
+      <c r="AA79" s="11">
         <v>4566.3999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="2:27">
+      <c r="AB79" s="14">
+        <v>2715.6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:28">
       <c r="B80" s="3">
         <v>1968.5</v>
       </c>
@@ -3127,17 +3363,20 @@
       <c r="H80" s="7">
         <v>0</v>
       </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
+      <c r="Y80" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="3">
         <v>0.62978626525632997</v>
       </c>
-      <c r="AA80" s="12">
+      <c r="AA80" s="11">
         <v>4599.3</v>
       </c>
-    </row>
-    <row r="81" spans="2:27">
+      <c r="AB80" s="14">
+        <v>2766.6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:28">
       <c r="B81" s="3">
         <v>1968.75</v>
       </c>
@@ -3188,17 +3427,20 @@
       <c r="X81" s="7">
         <v>170.07320000000001</v>
       </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
+      <c r="Y81" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>0.46242099860645097</v>
       </c>
-      <c r="AA81" s="12">
+      <c r="AA81" s="11">
         <v>4619.8</v>
       </c>
-    </row>
-    <row r="82" spans="2:27">
+      <c r="AB81" s="14">
+        <v>2779.1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:28">
       <c r="B82" s="3">
         <v>1969</v>
       </c>
@@ -3253,17 +3495,20 @@
       <c r="X82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
+      <c r="Y82" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="3">
         <v>0.31535531681382201</v>
       </c>
-      <c r="AA82" s="12">
+      <c r="AA82" s="11">
         <v>4691.6000000000004</v>
       </c>
-    </row>
-    <row r="83" spans="2:27">
+      <c r="AB82" s="14">
+        <v>2810.2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28">
       <c r="B83" s="3">
         <v>1969.25</v>
       </c>
@@ -3318,17 +3563,20 @@
       <c r="X83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
+      <c r="Y83" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>0.16236983596798599</v>
       </c>
-      <c r="AA83" s="12">
+      <c r="AA83" s="11">
         <v>4706.7</v>
       </c>
-    </row>
-    <row r="84" spans="2:27">
+      <c r="AB83" s="14">
+        <v>2828.2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28">
       <c r="B84" s="3">
         <v>1969.5</v>
       </c>
@@ -3383,17 +3631,20 @@
       <c r="X84" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
+      <c r="Y84" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
         <v>0.23593437279205401</v>
       </c>
-      <c r="AA84" s="12">
+      <c r="AA84" s="11">
         <v>4736.1000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="2:27">
+      <c r="AB84" s="14">
+        <v>2841.9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28">
       <c r="B85" s="3">
         <v>1969.75</v>
       </c>
@@ -3447,17 +3698,20 @@
       <c r="X85" s="7">
         <v>174.61539999999999</v>
       </c>
-      <c r="Y85">
+      <c r="Y85" s="12">
         <v>1</v>
       </c>
-      <c r="Z85">
+      <c r="Z85" s="3">
         <v>0.11762661266893699</v>
       </c>
-      <c r="AA85" s="12">
+      <c r="AA85" s="11">
         <v>4715.5</v>
       </c>
-    </row>
-    <row r="86" spans="2:27">
+      <c r="AB85" s="14">
+        <v>2864.6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28">
       <c r="B86" s="3">
         <v>1970</v>
       </c>
@@ -3512,17 +3766,20 @@
       <c r="X86" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y86">
+      <c r="Y86" s="12">
         <v>1</v>
       </c>
-      <c r="Z86">
+      <c r="Z86" s="3">
         <v>0.102734851618834</v>
       </c>
-      <c r="AA86" s="12">
+      <c r="AA86" s="11">
         <v>4707.1000000000004</v>
       </c>
-    </row>
-    <row r="87" spans="2:27">
+      <c r="AB86" s="14">
+        <v>2882.3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28">
       <c r="B87" s="3">
         <v>1970.25</v>
       </c>
@@ -3576,17 +3833,20 @@
       <c r="X87" s="7">
         <v>175.881</v>
       </c>
-      <c r="Y87">
+      <c r="Y87" s="12">
         <v>1</v>
       </c>
-      <c r="Z87">
+      <c r="Z87" s="3">
         <v>0.139529894308591</v>
       </c>
-      <c r="AA87" s="12">
+      <c r="AA87" s="11">
         <v>4715.3999999999996</v>
       </c>
-    </row>
-    <row r="88" spans="2:27">
+      <c r="AB87" s="14">
+        <v>2895.6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28">
       <c r="B88" s="3">
         <v>1970.5</v>
       </c>
@@ -3640,17 +3900,20 @@
       <c r="X88" s="7">
         <v>175.9615</v>
       </c>
-      <c r="Y88">
+      <c r="Y88" s="12">
         <v>1</v>
       </c>
-      <c r="Z88">
+      <c r="Z88" s="3">
         <v>0.18749041301253999</v>
       </c>
-      <c r="AA88" s="12">
+      <c r="AA88" s="11">
         <v>4757.2</v>
       </c>
-    </row>
-    <row r="89" spans="2:27">
+      <c r="AB88" s="14">
+        <v>2921.1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:28">
       <c r="B89" s="3">
         <v>1970.75</v>
       </c>
@@ -3704,17 +3967,20 @@
       <c r="X89" s="7">
         <v>175.61760000000001</v>
       </c>
-      <c r="Y89">
+      <c r="Y89" s="12">
         <v>1</v>
       </c>
-      <c r="Z89">
+      <c r="Z89" s="3">
         <v>0.47893747190998698</v>
       </c>
-      <c r="AA89" s="12">
+      <c r="AA89" s="11">
         <v>4708.3</v>
       </c>
-    </row>
-    <row r="90" spans="2:27">
+      <c r="AB89" s="14">
+        <v>2913.1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:28">
       <c r="B90" s="3">
         <v>1971</v>
       </c>
@@ -3768,17 +4034,20 @@
       <c r="X90" s="7">
         <v>177.88239999999999</v>
       </c>
-      <c r="Y90">
-        <v>0</v>
-      </c>
-      <c r="Z90">
+      <c r="Y90" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="3">
         <v>0.55349447601189194</v>
       </c>
-      <c r="AA90" s="12">
+      <c r="AA90" s="11">
         <v>4834.3</v>
       </c>
-    </row>
-    <row r="91" spans="2:27">
+      <c r="AB90" s="14">
+        <v>2968.9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:28">
       <c r="B91" s="3">
         <v>1971.25</v>
       </c>
@@ -3832,17 +4101,20 @@
       <c r="X91" s="7">
         <v>179.1481</v>
       </c>
-      <c r="Y91">
-        <v>0</v>
-      </c>
-      <c r="Z91">
+      <c r="Y91" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>0.792605032615466</v>
       </c>
-      <c r="AA91" s="12">
+      <c r="AA91" s="11">
         <v>4861.8999999999996</v>
       </c>
-    </row>
-    <row r="92" spans="2:27">
+      <c r="AB91" s="14">
+        <v>2996.1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:28">
       <c r="B92" s="3">
         <v>1971.5</v>
       </c>
@@ -3896,17 +4168,20 @@
       <c r="X92" s="7">
         <v>183.24639999999999</v>
       </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
+      <c r="Y92" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
         <v>0.93036437366201497</v>
       </c>
-      <c r="AA92" s="12">
+      <c r="AA92" s="11">
         <v>4900</v>
       </c>
-    </row>
-    <row r="93" spans="2:27">
+      <c r="AB92" s="14">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="93" spans="2:28">
       <c r="B93" s="3">
         <v>1971.75</v>
       </c>
@@ -3960,17 +4235,20 @@
       <c r="X93" s="7">
         <v>115.5694</v>
       </c>
-      <c r="Y93">
-        <v>0</v>
-      </c>
-      <c r="Z93">
+      <c r="Y93" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
         <v>0.97365042020697201</v>
       </c>
-      <c r="AA93" s="12">
+      <c r="AA93" s="11">
         <v>4914.3</v>
       </c>
-    </row>
-    <row r="94" spans="2:27">
+      <c r="AB93" s="14">
+        <v>3070.2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:28">
       <c r="B94" s="3">
         <v>1972</v>
       </c>
@@ -4024,17 +4302,20 @@
       <c r="X94" s="7">
         <v>117.7119</v>
       </c>
-      <c r="Y94">
-        <v>0</v>
-      </c>
-      <c r="Z94">
+      <c r="Y94" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>0.95495490412388095</v>
       </c>
-      <c r="AA94" s="12">
+      <c r="AA94" s="11">
         <v>5002.3999999999996</v>
       </c>
-    </row>
-    <row r="95" spans="2:27">
+      <c r="AB94" s="14">
+        <v>3110.8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:28">
       <c r="B95" s="3">
         <v>1972.25</v>
       </c>
@@ -4088,17 +4369,20 @@
       <c r="X95" s="7">
         <v>119.8387</v>
       </c>
-      <c r="Y95">
-        <v>0</v>
-      </c>
-      <c r="Z95">
+      <c r="Y95" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="3">
         <v>0.93963034670810996</v>
       </c>
-      <c r="AA95" s="12">
+      <c r="AA95" s="11">
         <v>5118.3</v>
       </c>
-    </row>
-    <row r="96" spans="2:27">
+      <c r="AB95" s="14">
+        <v>3170.2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28">
       <c r="B96" s="3">
         <v>1972.5</v>
       </c>
@@ -4152,17 +4436,20 @@
       <c r="X96" s="7">
         <v>121.89830000000001</v>
       </c>
-      <c r="Y96">
-        <v>0</v>
-      </c>
-      <c r="Z96">
+      <c r="Y96" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>0.85953099181473802</v>
       </c>
-      <c r="AA96" s="12">
+      <c r="AA96" s="11">
         <v>5165.3999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="2:27">
+      <c r="AB96" s="14">
+        <v>3219.1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:28">
       <c r="B97" s="3">
         <v>1972.75</v>
       </c>
@@ -4216,17 +4503,20 @@
       <c r="X97" s="7">
         <v>123.8793</v>
       </c>
-      <c r="Y97">
-        <v>0</v>
-      </c>
-      <c r="Z97">
+      <c r="Y97" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
         <v>0.72264102791846796</v>
       </c>
-      <c r="AA97" s="12">
+      <c r="AA97" s="11">
         <v>5251.2</v>
       </c>
-    </row>
-    <row r="98" spans="2:27">
+      <c r="AB97" s="14">
+        <v>3294.6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:28">
       <c r="B98" s="3">
         <v>1973</v>
       </c>
@@ -4280,17 +4570,20 @@
       <c r="X98" s="7">
         <v>126.50879999999999</v>
       </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
-      <c r="Z98">
+      <c r="Y98" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
         <v>0.55245626324339003</v>
       </c>
-      <c r="AA98" s="12">
+      <c r="AA98" s="11">
         <v>5380.5</v>
       </c>
-    </row>
-    <row r="99" spans="2:27">
+      <c r="AB98" s="14">
+        <v>3354.8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:28">
       <c r="B99" s="3">
         <v>1973.25</v>
       </c>
@@ -4344,17 +4637,20 @@
       <c r="X99" s="7">
         <v>128.37289999999999</v>
       </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
-      <c r="Z99">
+      <c r="Y99" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
         <v>0.45817298020109898</v>
       </c>
-      <c r="AA99" s="12">
+      <c r="AA99" s="11">
         <v>5441.5</v>
       </c>
-    </row>
-    <row r="100" spans="2:27">
+      <c r="AB99" s="14">
+        <v>3353.4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:28">
       <c r="B100" s="3">
         <v>1973.5</v>
       </c>
@@ -4408,17 +4704,20 @@
       <c r="X100" s="7">
         <v>129.22730000000001</v>
       </c>
-      <c r="Y100">
-        <v>0</v>
-      </c>
-      <c r="Z100">
+      <c r="Y100" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>0.26848945431377302</v>
       </c>
-      <c r="AA100" s="12">
+      <c r="AA100" s="11">
         <v>5411.9</v>
       </c>
-    </row>
-    <row r="101" spans="2:27">
+      <c r="AB100" s="14">
+        <v>3365.3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28">
       <c r="B101" s="3">
         <v>1973.75</v>
       </c>
@@ -4472,17 +4771,20 @@
       <c r="X101" s="7">
         <v>127.4259</v>
       </c>
-      <c r="Y101">
+      <c r="Y101" s="12">
         <v>1</v>
       </c>
-      <c r="Z101">
+      <c r="Z101" s="3">
         <v>0.23674654857656699</v>
       </c>
-      <c r="AA101" s="12">
+      <c r="AA101" s="11">
         <v>5462.4</v>
       </c>
-    </row>
-    <row r="102" spans="2:27">
+      <c r="AB101" s="14">
+        <v>3355.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28">
       <c r="B102" s="3">
         <v>1974</v>
       </c>
@@ -4536,17 +4838,20 @@
       <c r="X102" s="7">
         <v>128.12960000000001</v>
       </c>
-      <c r="Y102">
+      <c r="Y102" s="12">
         <v>1</v>
       </c>
-      <c r="Z102">
+      <c r="Z102" s="3">
         <v>0.214484957505266</v>
       </c>
-      <c r="AA102" s="12">
+      <c r="AA102" s="11">
         <v>5417</v>
       </c>
-    </row>
-    <row r="103" spans="2:27">
+      <c r="AB102" s="14">
+        <v>3326.2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:28">
       <c r="B103" s="3">
         <v>1974.25</v>
       </c>
@@ -4600,17 +4905,20 @@
       <c r="X103" s="7">
         <v>128.9091</v>
       </c>
-      <c r="Y103">
+      <c r="Y103" s="12">
         <v>1</v>
       </c>
-      <c r="Z103">
+      <c r="Z103" s="3">
         <v>0.18220191069090499</v>
       </c>
-      <c r="AA103" s="12">
+      <c r="AA103" s="11">
         <v>5431.3</v>
       </c>
-    </row>
-    <row r="104" spans="2:27">
+      <c r="AB103" s="14">
+        <v>3337.9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:28">
       <c r="B104" s="3">
         <v>1974.5</v>
       </c>
@@ -4665,17 +4973,20 @@
       <c r="X104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y104">
+      <c r="Y104" s="12">
         <v>1</v>
       </c>
-      <c r="Z104">
+      <c r="Z104" s="3">
         <v>0.370633512642492</v>
       </c>
-      <c r="AA104" s="12">
+      <c r="AA104" s="11">
         <v>5378.7</v>
       </c>
-    </row>
-    <row r="105" spans="2:27">
+      <c r="AB104" s="14">
+        <v>3351.6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28">
       <c r="B105" s="3">
         <v>1974.75</v>
       </c>
@@ -4729,17 +5040,20 @@
       <c r="X105" s="7">
         <v>124.58</v>
       </c>
-      <c r="Y105">
+      <c r="Y105" s="12">
         <v>1</v>
       </c>
-      <c r="Z105">
+      <c r="Z105" s="3">
         <v>0.41234007211885598</v>
       </c>
-      <c r="AA105" s="12">
+      <c r="AA105" s="11">
         <v>5357.2</v>
       </c>
-    </row>
-    <row r="106" spans="2:27">
+      <c r="AB105" s="14">
+        <v>3302.5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:28">
       <c r="B106" s="3">
         <v>1975</v>
       </c>
@@ -4793,17 +5107,20 @@
       <c r="X106" s="7">
         <v>122.59520000000001</v>
       </c>
-      <c r="Y106">
+      <c r="Y106" s="12">
         <v>1</v>
       </c>
-      <c r="Z106">
+      <c r="Z106" s="3">
         <v>0.14203375702314699</v>
       </c>
-      <c r="AA106" s="12">
+      <c r="AA106" s="11">
         <v>5292.4</v>
       </c>
-    </row>
-    <row r="107" spans="2:27">
+      <c r="AB106" s="14">
+        <v>3330.1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:28">
       <c r="B107" s="3">
         <v>1975.25</v>
       </c>
@@ -4857,17 +5174,20 @@
       <c r="X107" s="7">
         <v>119.86669999999999</v>
       </c>
-      <c r="Y107">
-        <v>0</v>
-      </c>
-      <c r="Z107">
+      <c r="Y107" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="3">
         <v>0.12934078250463399</v>
       </c>
-      <c r="AA107" s="12">
+      <c r="AA107" s="11">
         <v>5333.2</v>
       </c>
-    </row>
-    <row r="108" spans="2:27">
+      <c r="AB107" s="14">
+        <v>3385.7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:28">
       <c r="B108" s="3">
         <v>1975.5</v>
       </c>
@@ -4921,17 +5241,20 @@
       <c r="X108" s="7">
         <v>122.8947</v>
       </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-      <c r="Z108">
+      <c r="Y108" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="3">
         <v>0.121831451441403</v>
       </c>
-      <c r="AA108" s="12">
+      <c r="AA108" s="11">
         <v>5421.4</v>
       </c>
-    </row>
-    <row r="109" spans="2:27">
+      <c r="AB108" s="14">
+        <v>3434.1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:28">
       <c r="B109" s="3">
         <v>1975.75</v>
       </c>
@@ -4985,17 +5308,20 @@
       <c r="X109" s="7">
         <v>127.37779999999999</v>
       </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
+      <c r="Y109" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="3">
         <v>0.230888685123222</v>
       </c>
-      <c r="AA109" s="12">
+      <c r="AA109" s="11">
         <v>5494.4</v>
       </c>
-    </row>
-    <row r="110" spans="2:27">
+      <c r="AB109" s="14">
+        <v>3470.5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:28">
       <c r="B110" s="3">
         <v>1976</v>
       </c>
@@ -5049,17 +5375,20 @@
       <c r="X110" s="7">
         <v>131.06819999999999</v>
       </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-      <c r="Z110">
+      <c r="Y110" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="3">
         <v>0.38133162090031097</v>
       </c>
-      <c r="AA110" s="12">
+      <c r="AA110" s="11">
         <v>5618.5</v>
       </c>
-    </row>
-    <row r="111" spans="2:27">
+      <c r="AB110" s="14">
+        <v>3539.9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:28">
       <c r="B111" s="3">
         <v>1976.25</v>
       </c>
@@ -5113,17 +5442,20 @@
       <c r="X111" s="7">
         <v>133.08699999999999</v>
       </c>
-      <c r="Y111">
-        <v>0</v>
-      </c>
-      <c r="Z111">
+      <c r="Y111" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="3">
         <v>0.31006830243710598</v>
       </c>
-      <c r="AA111" s="12">
+      <c r="AA111" s="11">
         <v>5661</v>
       </c>
-    </row>
-    <row r="112" spans="2:27">
+      <c r="AB111" s="14">
+        <v>3572.4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:28">
       <c r="B112" s="3">
         <v>1976.5</v>
       </c>
@@ -5177,17 +5509,20 @@
       <c r="X112" s="7">
         <v>139.8571</v>
       </c>
-      <c r="Y112">
-        <v>0</v>
-      </c>
-      <c r="Z112">
+      <c r="Y112" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="3">
         <v>0.316197957272977</v>
       </c>
-      <c r="AA112" s="12">
+      <c r="AA112" s="11">
         <v>5689.8</v>
       </c>
-    </row>
-    <row r="113" spans="2:27">
+      <c r="AB112" s="14">
+        <v>3610.3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:28">
       <c r="B113" s="3">
         <v>1976.75</v>
       </c>
@@ -5241,17 +5576,20 @@
       <c r="X113" s="7">
         <v>141.09379999999999</v>
       </c>
-      <c r="Y113">
-        <v>0</v>
-      </c>
-      <c r="Z113">
+      <c r="Y113" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="3">
         <v>0.67793543130451395</v>
       </c>
-      <c r="AA113" s="12">
+      <c r="AA113" s="11">
         <v>5732.5</v>
       </c>
-    </row>
-    <row r="114" spans="2:27">
+      <c r="AB113" s="14">
+        <v>3657.5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:28">
       <c r="B114" s="3">
         <v>1977</v>
       </c>
@@ -5305,17 +5643,20 @@
       <c r="X114" s="7">
         <v>143.34209999999999</v>
       </c>
-      <c r="Y114">
-        <v>0</v>
-      </c>
-      <c r="Z114">
+      <c r="Y114" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="3">
         <v>0.88593751388666397</v>
       </c>
-      <c r="AA114" s="12">
+      <c r="AA114" s="11">
         <v>5799.2</v>
       </c>
-    </row>
-    <row r="115" spans="2:27">
+      <c r="AB114" s="14">
+        <v>3699.3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:28">
       <c r="B115" s="3">
         <v>1977.25</v>
       </c>
@@ -5369,17 +5710,20 @@
       <c r="X115" s="7">
         <v>145.30000000000001</v>
       </c>
-      <c r="Y115">
-        <v>0</v>
-      </c>
-      <c r="Z115">
+      <c r="Y115" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="3">
         <v>0.93660044919335905</v>
       </c>
-      <c r="AA115" s="12">
+      <c r="AA115" s="11">
         <v>5913</v>
       </c>
-    </row>
-    <row r="116" spans="2:27">
+      <c r="AB115" s="14">
+        <v>3719.7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:28">
       <c r="B116" s="3">
         <v>1977.5</v>
       </c>
@@ -5433,17 +5777,20 @@
       <c r="X116" s="7">
         <v>146.94290000000001</v>
       </c>
-      <c r="Y116">
-        <v>0</v>
-      </c>
-      <c r="Z116">
+      <c r="Y116" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="3">
         <v>0.87858518888609705</v>
       </c>
-      <c r="AA116" s="12">
+      <c r="AA116" s="11">
         <v>6017.6</v>
       </c>
-    </row>
-    <row r="117" spans="2:27">
+      <c r="AB116" s="14">
+        <v>3755.2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:28">
       <c r="B117" s="3">
         <v>1977.75</v>
       </c>
@@ -5497,17 +5844,20 @@
       <c r="X117" s="7">
         <v>146.9512</v>
       </c>
-      <c r="Y117">
-        <v>0</v>
-      </c>
-      <c r="Z117">
+      <c r="Y117" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="3">
         <v>0.75729386786655395</v>
       </c>
-      <c r="AA117" s="12">
+      <c r="AA117" s="11">
         <v>6018.2</v>
       </c>
-    </row>
-    <row r="118" spans="2:27">
+      <c r="AB117" s="14">
+        <v>3811.8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:28">
       <c r="B118" s="3">
         <v>1978</v>
       </c>
@@ -5561,17 +5911,20 @@
       <c r="X118" s="7">
         <v>146.5385</v>
       </c>
-      <c r="Y118">
-        <v>0</v>
-      </c>
-      <c r="Z118">
+      <c r="Y118" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="3">
         <v>0.85668189559687202</v>
       </c>
-      <c r="AA118" s="12">
+      <c r="AA118" s="11">
         <v>6039.2</v>
       </c>
-    </row>
-    <row r="119" spans="2:27">
+      <c r="AB118" s="14">
+        <v>3833.8</v>
+      </c>
+    </row>
+    <row r="119" spans="2:28">
       <c r="B119" s="3">
         <v>1978.25</v>
       </c>
@@ -5625,17 +5978,20 @@
       <c r="X119" s="7">
         <v>147.9118</v>
       </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
+      <c r="Y119" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="3">
         <v>0.800336689412524</v>
       </c>
-      <c r="AA119" s="12">
+      <c r="AA119" s="11">
         <v>6274</v>
       </c>
-    </row>
-    <row r="120" spans="2:27">
+      <c r="AB119" s="14">
+        <v>3915.6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:28">
       <c r="B120" s="3">
         <v>1978.5</v>
       </c>
@@ -5689,17 +6045,20 @@
       <c r="X120" s="7">
         <v>149.30770000000001</v>
       </c>
-      <c r="Y120">
-        <v>0</v>
-      </c>
-      <c r="Z120">
+      <c r="Y120" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="3">
         <v>0.88729462767796696</v>
       </c>
-      <c r="AA120" s="12">
+      <c r="AA120" s="11">
         <v>6335.3</v>
       </c>
-    </row>
-    <row r="121" spans="2:27">
+      <c r="AB120" s="14">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="121" spans="2:28">
       <c r="B121" s="3">
         <v>1978.75</v>
       </c>
@@ -5753,17 +6112,20 @@
       <c r="X121" s="7">
         <v>148.6429</v>
       </c>
-      <c r="Y121">
-        <v>0</v>
-      </c>
-      <c r="Z121">
+      <c r="Y121" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="3">
         <v>0.86817293743935398</v>
       </c>
-      <c r="AA121" s="12">
+      <c r="AA121" s="11">
         <v>6420.3</v>
       </c>
-    </row>
-    <row r="122" spans="2:27">
+      <c r="AB121" s="14">
+        <v>3963.5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:28">
       <c r="B122" s="3">
         <v>1979</v>
       </c>
@@ -5817,17 +6179,20 @@
       <c r="X122" s="7">
         <v>149.1935</v>
       </c>
-      <c r="Y122">
-        <v>0</v>
-      </c>
-      <c r="Z122">
+      <c r="Y122" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="3">
         <v>0.82832465374425401</v>
       </c>
-      <c r="AA122" s="12">
+      <c r="AA122" s="11">
         <v>6433</v>
       </c>
-    </row>
-    <row r="123" spans="2:27">
+      <c r="AB122" s="14">
+        <v>3983.6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:28">
       <c r="B123" s="3">
         <v>1979.25</v>
       </c>
@@ -5881,17 +6246,20 @@
       <c r="X123" s="7">
         <v>149.45160000000001</v>
       </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
-      <c r="Z123">
+      <c r="Y123" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="3">
         <v>0.92586220770254402</v>
       </c>
-      <c r="AA123" s="12">
+      <c r="AA123" s="11">
         <v>6440.8</v>
       </c>
-    </row>
-    <row r="124" spans="2:27">
+      <c r="AB123" s="14">
+        <v>3981.3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:28">
       <c r="B124" s="3">
         <v>1979.5</v>
       </c>
@@ -5945,17 +6313,20 @@
       <c r="X124" s="7">
         <v>149.19999999999999</v>
       </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
-      <c r="Z124">
+      <c r="Y124" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="3">
         <v>0.96682753613403305</v>
       </c>
-      <c r="AA124" s="12">
+      <c r="AA124" s="11">
         <v>6487.1</v>
       </c>
-    </row>
-    <row r="125" spans="2:27">
+      <c r="AB124" s="14">
+        <v>4020.4</v>
+      </c>
+    </row>
+    <row r="125" spans="2:28">
       <c r="B125" s="3">
         <v>1979.75</v>
       </c>
@@ -6009,17 +6380,20 @@
       <c r="X125" s="7">
         <v>148.96770000000001</v>
       </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-      <c r="Z125">
+      <c r="Y125" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="3">
         <v>0.92409273280523296</v>
       </c>
-      <c r="AA125" s="12">
+      <c r="AA125" s="11">
         <v>6503.9</v>
       </c>
-    </row>
-    <row r="126" spans="2:27">
+      <c r="AB125" s="14">
+        <v>4031.2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:28">
       <c r="B126" s="3">
         <v>1980</v>
       </c>
@@ -6073,17 +6447,20 @@
       <c r="X126" s="7">
         <v>149.83330000000001</v>
       </c>
-      <c r="Y126">
+      <c r="Y126" s="12">
         <v>1</v>
       </c>
-      <c r="Z126">
+      <c r="Z126" s="3">
         <v>0.88738459889529597</v>
       </c>
-      <c r="AA126" s="12">
+      <c r="AA126" s="11">
         <v>6524.9</v>
       </c>
-    </row>
-    <row r="127" spans="2:27">
+      <c r="AB126" s="14">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="127" spans="2:28">
       <c r="B127" s="3">
         <v>1980.25</v>
       </c>
@@ -6137,17 +6514,20 @@
       <c r="X127" s="7">
         <v>147.5926</v>
       </c>
-      <c r="Y127">
+      <c r="Y127" s="12">
         <v>1</v>
       </c>
-      <c r="Z127">
+      <c r="Z127" s="3">
         <v>0.66596692675182001</v>
       </c>
-      <c r="AA127" s="12">
+      <c r="AA127" s="11">
         <v>6392.6</v>
       </c>
-    </row>
-    <row r="128" spans="2:27">
+      <c r="AB127" s="14">
+        <v>3934.5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:28">
       <c r="B128" s="3">
         <v>1980.5</v>
       </c>
@@ -6201,17 +6581,20 @@
       <c r="X128" s="7">
         <v>148.26089999999999</v>
       </c>
-      <c r="Y128">
+      <c r="Y128" s="12">
         <v>1</v>
       </c>
-      <c r="Z128">
+      <c r="Z128" s="3">
         <v>0.289852607455374</v>
       </c>
-      <c r="AA128" s="12">
+      <c r="AA128" s="11">
         <v>6382.9</v>
       </c>
-    </row>
-    <row r="129" spans="2:27">
+      <c r="AB128" s="14">
+        <v>3976.9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:28">
       <c r="B129" s="3">
         <v>1980.75</v>
       </c>
@@ -6265,17 +6648,20 @@
       <c r="X129" s="7">
         <v>152.8065</v>
       </c>
-      <c r="Y129">
-        <v>0</v>
-      </c>
-      <c r="Z129">
+      <c r="Y129" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="3">
         <v>0.184267195824727</v>
       </c>
-      <c r="AA129" s="12">
+      <c r="AA129" s="11">
         <v>6501.2</v>
       </c>
-    </row>
-    <row r="130" spans="2:27">
+      <c r="AB129" s="14">
+        <v>4029.6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:28">
       <c r="B130" s="3">
         <v>1981</v>
       </c>
@@ -6329,17 +6715,20 @@
       <c r="X130" s="7">
         <v>157.697</v>
       </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
-      <c r="Z130">
+      <c r="Y130" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="3">
         <v>8.4184816592111605E-2</v>
       </c>
-      <c r="AA130" s="12">
+      <c r="AA130" s="11">
         <v>6635.7</v>
       </c>
-    </row>
-    <row r="131" spans="2:27">
+      <c r="AB130" s="14">
+        <v>4050.8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:28">
       <c r="B131" s="3">
         <v>1981.25</v>
       </c>
@@ -6393,17 +6782,20 @@
       <c r="X131" s="7">
         <v>161.02699999999999</v>
       </c>
-      <c r="Y131">
-        <v>0</v>
-      </c>
-      <c r="Z131">
+      <c r="Y131" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="3">
         <v>5.9105891278671698E-2</v>
       </c>
-      <c r="AA131" s="12">
+      <c r="AA131" s="11">
         <v>6587.3</v>
       </c>
-    </row>
-    <row r="132" spans="2:27">
+      <c r="AB131" s="14">
+        <v>4050.1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:28">
       <c r="B132" s="3">
         <v>1981.5</v>
       </c>
@@ -6473,17 +6865,20 @@
       <c r="X132" s="7">
         <v>160.27269999999999</v>
       </c>
-      <c r="Y132">
+      <c r="Y132" s="12">
         <v>1</v>
       </c>
-      <c r="Z132">
+      <c r="Z132" s="3">
         <v>7.0083982850742604E-2</v>
       </c>
-      <c r="AA132" s="12">
+      <c r="AA132" s="11">
         <v>6662.9</v>
       </c>
-    </row>
-    <row r="133" spans="2:27">
+      <c r="AB132" s="14">
+        <v>4066.4</v>
+      </c>
+    </row>
+    <row r="133" spans="2:28">
       <c r="B133" s="3">
         <v>1981.75</v>
       </c>
@@ -6553,17 +6948,20 @@
       <c r="X133" s="7">
         <v>155.3571</v>
       </c>
-      <c r="Y133">
+      <c r="Y133" s="12">
         <v>1</v>
       </c>
-      <c r="Z133">
+      <c r="Z133" s="3">
         <v>0.115556402479762</v>
       </c>
-      <c r="AA133" s="12">
+      <c r="AA133" s="11">
         <v>6585.1</v>
       </c>
-    </row>
-    <row r="134" spans="2:27">
+      <c r="AB133" s="14">
+        <v>4035.9</v>
+      </c>
+    </row>
+    <row r="134" spans="2:28">
       <c r="B134" s="3">
         <v>1982</v>
       </c>
@@ -6633,17 +7031,20 @@
       <c r="X134" s="7">
         <v>152.41380000000001</v>
       </c>
-      <c r="Y134">
+      <c r="Y134" s="12">
         <v>1</v>
       </c>
-      <c r="Z134">
+      <c r="Z134" s="3">
         <v>0.17368969928045699</v>
       </c>
-      <c r="AA134" s="12">
+      <c r="AA134" s="11">
         <v>6475</v>
       </c>
-    </row>
-    <row r="135" spans="2:27">
+      <c r="AB134" s="14">
+        <v>4062.6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:28">
       <c r="B135" s="3">
         <v>1982.25</v>
       </c>
@@ -6713,17 +7114,20 @@
       <c r="X135" s="7">
         <v>149.53659999999999</v>
       </c>
-      <c r="Y135">
+      <c r="Y135" s="12">
         <v>1</v>
       </c>
-      <c r="Z135">
+      <c r="Z135" s="3">
         <v>0.20636126787946499</v>
       </c>
-      <c r="AA135" s="12">
+      <c r="AA135" s="11">
         <v>6510.2</v>
       </c>
-    </row>
-    <row r="136" spans="2:27">
+      <c r="AB135" s="14">
+        <v>4077.6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:28">
       <c r="B136" s="3">
         <v>1982.5</v>
       </c>
@@ -6793,17 +7197,20 @@
       <c r="X136" s="7">
         <v>148.3947</v>
       </c>
-      <c r="Y136">
+      <c r="Y136" s="12">
         <v>1</v>
       </c>
-      <c r="Z136">
+      <c r="Z136" s="3">
         <v>0.29989456127252101</v>
       </c>
-      <c r="AA136" s="12">
+      <c r="AA136" s="11">
         <v>6486.8</v>
       </c>
-    </row>
-    <row r="137" spans="2:27">
+      <c r="AB136" s="14">
+        <v>4109.1000000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="2:28">
       <c r="B137" s="3">
         <v>1982.75</v>
       </c>
@@ -6873,17 +7280,20 @@
       <c r="X137" s="7">
         <v>145.83330000000001</v>
       </c>
-      <c r="Y137">
+      <c r="Y137" s="12">
         <v>1</v>
       </c>
-      <c r="Z137">
+      <c r="Z137" s="3">
         <v>0.37189401742620098</v>
       </c>
-      <c r="AA137" s="12">
+      <c r="AA137" s="11">
         <v>6493.1</v>
       </c>
-    </row>
-    <row r="138" spans="2:27">
+      <c r="AB137" s="14">
+        <v>4184.1000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="2:28">
       <c r="B138" s="3">
         <v>1983</v>
       </c>
@@ -6953,17 +7363,20 @@
       <c r="X138" s="7">
         <v>148.16130000000001</v>
       </c>
-      <c r="Y138">
-        <v>0</v>
-      </c>
-      <c r="Z138">
+      <c r="Y138" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="3">
         <v>0.43011058088009702</v>
       </c>
-      <c r="AA138" s="12">
+      <c r="AA138" s="11">
         <v>6578.2</v>
       </c>
-    </row>
-    <row r="139" spans="2:27">
+      <c r="AB138" s="14">
+        <v>4224.8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:28">
       <c r="B139" s="3">
         <v>1983.25</v>
       </c>
@@ -7033,17 +7446,20 @@
       <c r="X139" s="7">
         <v>153.1053</v>
       </c>
-      <c r="Y139">
-        <v>0</v>
-      </c>
-      <c r="Z139">
+      <c r="Y139" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="3">
         <v>0.41459543087053502</v>
       </c>
-      <c r="AA139" s="12">
+      <c r="AA139" s="11">
         <v>6728.3</v>
       </c>
-    </row>
-    <row r="140" spans="2:27">
+      <c r="AB139" s="14">
+        <v>4308.3999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="2:28">
       <c r="B140" s="3">
         <v>1983.5</v>
       </c>
@@ -7113,17 +7529,20 @@
       <c r="X140" s="7">
         <v>159.1935</v>
       </c>
-      <c r="Y140">
-        <v>0</v>
-      </c>
-      <c r="Z140">
+      <c r="Y140" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="3">
         <v>0.462793901284479</v>
       </c>
-      <c r="AA140" s="12">
+      <c r="AA140" s="11">
         <v>6860</v>
       </c>
-    </row>
-    <row r="141" spans="2:27">
+      <c r="AB140" s="14">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="141" spans="2:28">
       <c r="B141" s="3">
         <v>1983.75</v>
       </c>
@@ -7193,17 +7612,20 @@
       <c r="X141" s="7">
         <v>164.22219999999999</v>
       </c>
-      <c r="Y141">
-        <v>0</v>
-      </c>
-      <c r="Z141">
+      <c r="Y141" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="3">
         <v>0.49377532161024701</v>
       </c>
-      <c r="AA141" s="12">
+      <c r="AA141" s="11">
         <v>7001.5</v>
       </c>
-    </row>
-    <row r="142" spans="2:27">
+      <c r="AB141" s="14">
+        <v>4453.1000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="2:28">
       <c r="B142" s="3">
         <v>1984</v>
       </c>
@@ -7273,17 +7695,20 @@
       <c r="X142" s="7">
         <v>166.2593</v>
       </c>
-      <c r="Y142">
-        <v>0</v>
-      </c>
-      <c r="Z142">
+      <c r="Y142" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="3">
         <v>0.54636640267428005</v>
       </c>
-      <c r="AA142" s="12">
+      <c r="AA142" s="11">
         <v>7140.6</v>
       </c>
-    </row>
-    <row r="143" spans="2:27">
+      <c r="AB142" s="14">
+        <v>4490.8999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="2:28">
       <c r="B143" s="3">
         <v>1984.25</v>
       </c>
@@ -7353,17 +7778,20 @@
       <c r="X143" s="7">
         <v>169</v>
       </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
-      <c r="Z143">
+      <c r="Y143" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="3">
         <v>0.53496782297032197</v>
       </c>
-      <c r="AA143" s="12">
+      <c r="AA143" s="11">
         <v>7266</v>
       </c>
-    </row>
-    <row r="144" spans="2:27">
+      <c r="AB143" s="14">
+        <v>4554.8999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="2:28">
       <c r="B144" s="3">
         <v>1984.5</v>
       </c>
@@ -7433,17 +7861,20 @@
       <c r="X144" s="7">
         <v>171.48150000000001</v>
       </c>
-      <c r="Y144">
-        <v>0</v>
-      </c>
-      <c r="Z144">
+      <c r="Y144" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="3">
         <v>0.45579075025177601</v>
       </c>
-      <c r="AA144" s="12">
+      <c r="AA144" s="11">
         <v>7337.5</v>
       </c>
-    </row>
-    <row r="145" spans="2:27">
+      <c r="AB144" s="14">
+        <v>4589.8999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="2:28">
       <c r="B145" s="3">
         <v>1984.75</v>
       </c>
@@ -7513,17 +7944,20 @@
       <c r="X145" s="7">
         <v>172.41380000000001</v>
       </c>
-      <c r="Y145">
-        <v>0</v>
-      </c>
-      <c r="Z145">
+      <c r="Y145" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="3">
         <v>0.44361584696846901</v>
       </c>
-      <c r="AA145" s="12">
+      <c r="AA145" s="11">
         <v>7396</v>
       </c>
-    </row>
-    <row r="146" spans="2:27">
+      <c r="AB145" s="14">
+        <v>4650.6000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="2:28">
       <c r="B146" s="3">
         <v>1985</v>
       </c>
@@ -7593,17 +8027,20 @@
       <c r="X146" s="7">
         <v>173.25</v>
       </c>
-      <c r="Y146">
-        <v>0</v>
-      </c>
-      <c r="Z146">
+      <c r="Y146" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="3">
         <v>0.41045131038192401</v>
       </c>
-      <c r="AA146" s="12">
+      <c r="AA146" s="11">
         <v>7469.5</v>
       </c>
-    </row>
-    <row r="147" spans="2:27">
+      <c r="AB146" s="14">
+        <v>4729.7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:28">
       <c r="B147" s="3">
         <v>1985.25</v>
       </c>
@@ -7673,17 +8110,20 @@
       <c r="X147" s="7">
         <v>171.33330000000001</v>
       </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-      <c r="Z147">
+      <c r="Y147" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="3">
         <v>0.40704373680971501</v>
       </c>
-      <c r="AA147" s="12">
+      <c r="AA147" s="11">
         <v>7537.9</v>
       </c>
-    </row>
-    <row r="148" spans="2:27">
+      <c r="AB147" s="14">
+        <v>4774.1000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="2:28">
       <c r="B148" s="3">
         <v>1985.5</v>
       </c>
@@ -7753,17 +8193,20 @@
       <c r="X148" s="7">
         <v>128.89660000000001</v>
       </c>
-      <c r="Y148">
-        <v>0</v>
-      </c>
-      <c r="Z148">
+      <c r="Y148" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="3">
         <v>0.33010725514924399</v>
       </c>
-      <c r="AA148" s="12">
+      <c r="AA148" s="11">
         <v>7655.2</v>
       </c>
-    </row>
-    <row r="149" spans="2:27">
+      <c r="AB148" s="14">
+        <v>4865.8</v>
+      </c>
+    </row>
+    <row r="149" spans="2:28">
       <c r="B149" s="3">
         <v>1985.75</v>
       </c>
@@ -7833,17 +8276,20 @@
       <c r="X149" s="7">
         <v>129.47829999999999</v>
       </c>
-      <c r="Y149">
-        <v>0</v>
-      </c>
-      <c r="Z149">
+      <c r="Y149" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="3">
         <v>0.34188618459835102</v>
       </c>
-      <c r="AA149" s="12">
+      <c r="AA149" s="11">
         <v>7712.6</v>
       </c>
-    </row>
-    <row r="150" spans="2:27">
+      <c r="AB149" s="14">
+        <v>4878.3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:28">
       <c r="B150" s="3">
         <v>1986</v>
       </c>
@@ -7913,17 +8359,20 @@
       <c r="X150" s="7">
         <v>130.68</v>
       </c>
-      <c r="Y150">
-        <v>0</v>
-      </c>
-      <c r="Z150">
+      <c r="Y150" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="3">
         <v>0.35338338884870102</v>
       </c>
-      <c r="AA150" s="12">
+      <c r="AA150" s="11">
         <v>7784.1</v>
       </c>
-    </row>
-    <row r="151" spans="2:27">
+      <c r="AB150" s="14">
+        <v>4919.6000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="2:28">
       <c r="B151" s="3">
         <v>1986.25</v>
       </c>
@@ -7993,17 +8442,20 @@
       <c r="X151" s="7">
         <v>130.19229999999999</v>
       </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
+      <c r="Y151" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="3">
         <v>0.446283110204307</v>
       </c>
-      <c r="AA151" s="12">
+      <c r="AA151" s="11">
         <v>7819.8</v>
       </c>
-    </row>
-    <row r="152" spans="2:27">
+      <c r="AB151" s="14">
+        <v>4974.6000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="2:28">
       <c r="B152" s="3">
         <v>1986.5</v>
       </c>
@@ -8073,17 +8525,20 @@
       <c r="X152" s="7">
         <v>129.30430000000001</v>
       </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
+      <c r="Y152" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="3">
         <v>0.47796428324232598</v>
       </c>
-      <c r="AA152" s="12">
+      <c r="AA152" s="11">
         <v>7898.6</v>
       </c>
-    </row>
-    <row r="153" spans="2:27">
+      <c r="AB152" s="14">
+        <v>5064.7</v>
+      </c>
+    </row>
+    <row r="153" spans="2:28">
       <c r="B153" s="3">
         <v>1986.75</v>
       </c>
@@ -8153,17 +8608,20 @@
       <c r="X153" s="7">
         <v>129.4348</v>
       </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
+      <c r="Y153" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="3">
         <v>0.50337494874312205</v>
       </c>
-      <c r="AA153" s="12">
+      <c r="AA153" s="11">
         <v>7939.5</v>
       </c>
-    </row>
-    <row r="154" spans="2:27">
+      <c r="AB153" s="14">
+        <v>5097.1000000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="2:28">
       <c r="B154" s="3">
         <v>1987</v>
       </c>
@@ -8233,17 +8691,20 @@
       <c r="X154" s="7">
         <v>131</v>
       </c>
-      <c r="Y154">
-        <v>0</v>
-      </c>
-      <c r="Z154">
+      <c r="Y154" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z154" s="3">
         <v>0.516044489577687</v>
       </c>
-      <c r="AA154" s="12">
+      <c r="AA154" s="11">
         <v>7995</v>
       </c>
-    </row>
-    <row r="155" spans="2:27">
+      <c r="AB154" s="14">
+        <v>5097.8999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="2:28">
       <c r="B155" s="3">
         <v>1987.25</v>
       </c>
@@ -8313,17 +8774,20 @@
       <c r="X155" s="7">
         <v>130.81479999999999</v>
       </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
+      <c r="Y155" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="3">
         <v>0.65323735014636797</v>
       </c>
-      <c r="AA155" s="12">
+      <c r="AA155" s="11">
         <v>8084.7</v>
       </c>
-    </row>
-    <row r="156" spans="2:27">
+      <c r="AB155" s="14">
+        <v>5168.6000000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="2:28">
       <c r="B156" s="3">
         <v>1987.5</v>
       </c>
@@ -8393,17 +8857,20 @@
       <c r="X156" s="7">
         <v>132.94739999999999</v>
       </c>
-      <c r="Y156">
-        <v>0</v>
-      </c>
-      <c r="Z156">
+      <c r="Y156" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="3">
         <v>0.80390785845298096</v>
       </c>
-      <c r="AA156" s="12">
+      <c r="AA156" s="11">
         <v>8158</v>
       </c>
-    </row>
-    <row r="157" spans="2:27">
+      <c r="AB156" s="14">
+        <v>5228.5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:28">
       <c r="B157" s="3">
         <v>1987.75</v>
       </c>
@@ -8473,17 +8940,20 @@
       <c r="X157" s="7">
         <v>133.77780000000001</v>
       </c>
-      <c r="Y157">
-        <v>0</v>
-      </c>
-      <c r="Z157">
+      <c r="Y157" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z157" s="3">
         <v>0.87419825819785102</v>
       </c>
-      <c r="AA157" s="12">
+      <c r="AA157" s="11">
         <v>8292.7000000000007</v>
       </c>
-    </row>
-    <row r="158" spans="2:27">
+      <c r="AB157" s="14">
+        <v>5239.5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:28">
       <c r="B158" s="3">
         <v>1988</v>
       </c>
@@ -8553,17 +9023,20 @@
       <c r="X158" s="7">
         <v>135.70590000000001</v>
       </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
+      <c r="Y158" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="3">
         <v>0.87960553592803703</v>
       </c>
-      <c r="AA158" s="12">
+      <c r="AA158" s="11">
         <v>8339.2999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="2:27">
+      <c r="AB158" s="14">
+        <v>5332.7</v>
+      </c>
+    </row>
+    <row r="159" spans="2:28">
       <c r="B159" s="3">
         <v>1988.25</v>
       </c>
@@ -8633,17 +9106,20 @@
       <c r="X159" s="7">
         <v>139.38890000000001</v>
       </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
+      <c r="Y159" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z159" s="3">
         <v>0.87011771874629995</v>
       </c>
-      <c r="AA159" s="12">
+      <c r="AA159" s="11">
         <v>8449.5</v>
       </c>
-    </row>
-    <row r="160" spans="2:27">
+      <c r="AB159" s="14">
+        <v>5371.8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:28">
       <c r="B160" s="3">
         <v>1988.5</v>
       </c>
@@ -8713,17 +9189,20 @@
       <c r="X160" s="7">
         <v>141.125</v>
       </c>
-      <c r="Y160">
-        <v>0</v>
-      </c>
-      <c r="Z160">
+      <c r="Y160" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z160" s="3">
         <v>0.89842082138690005</v>
       </c>
-      <c r="AA160" s="12">
+      <c r="AA160" s="11">
         <v>8498.2999999999993</v>
       </c>
-    </row>
-    <row r="161" spans="2:27">
+      <c r="AB160" s="14">
+        <v>5417.7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:28">
       <c r="B161" s="3">
         <v>1988.75</v>
       </c>
@@ -8793,17 +9272,20 @@
       <c r="X161" s="7">
         <v>142.84620000000001</v>
       </c>
-      <c r="Y161">
-        <v>0</v>
-      </c>
-      <c r="Z161">
+      <c r="Y161" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="3">
         <v>0.86782921198150198</v>
       </c>
-      <c r="AA161" s="12">
+      <c r="AA161" s="11">
         <v>8610.9</v>
       </c>
-    </row>
-    <row r="162" spans="2:27">
+      <c r="AB161" s="14">
+        <v>5479.7</v>
+      </c>
+    </row>
+    <row r="162" spans="2:28">
       <c r="B162" s="3">
         <v>1989</v>
       </c>
@@ -8873,17 +9355,20 @@
       <c r="X162" s="7">
         <v>143</v>
       </c>
-      <c r="Y162">
-        <v>0</v>
-      </c>
-      <c r="Z162">
+      <c r="Y162" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="3">
         <v>0.80663629787218305</v>
       </c>
-      <c r="AA162" s="12">
+      <c r="AA162" s="11">
         <v>8697.7000000000007</v>
       </c>
-    </row>
-    <row r="163" spans="2:27">
+      <c r="AB162" s="14">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="163" spans="2:28">
       <c r="B163" s="3">
         <v>1989.25</v>
       </c>
@@ -8953,17 +9438,20 @@
       <c r="X163" s="7">
         <v>143.125</v>
       </c>
-      <c r="Y163">
-        <v>0</v>
-      </c>
-      <c r="Z163">
+      <c r="Y163" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="3">
         <v>0.64819168609875899</v>
       </c>
-      <c r="AA163" s="12">
+      <c r="AA163" s="11">
         <v>8766.1</v>
       </c>
-    </row>
-    <row r="164" spans="2:27">
+      <c r="AB163" s="14">
+        <v>5530.9</v>
+      </c>
+    </row>
+    <row r="164" spans="2:28">
       <c r="B164" s="3">
         <v>1989.5</v>
       </c>
@@ -9033,17 +9521,20 @@
       <c r="X164" s="7">
         <v>143.65710000000001</v>
       </c>
-      <c r="Y164">
-        <v>0</v>
-      </c>
-      <c r="Z164">
+      <c r="Y164" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="3">
         <v>0.48860197498133101</v>
       </c>
-      <c r="AA164" s="12">
+      <c r="AA164" s="11">
         <v>8831.5</v>
       </c>
-    </row>
-    <row r="165" spans="2:27">
+      <c r="AB164" s="14">
+        <v>5585.9</v>
+      </c>
+    </row>
+    <row r="165" spans="2:28">
       <c r="B165" s="3">
         <v>1989.75</v>
       </c>
@@ -9113,17 +9604,20 @@
       <c r="X165" s="7">
         <v>144.4</v>
       </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
+      <c r="Y165" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="3">
         <v>0.54093318437144999</v>
       </c>
-      <c r="AA165" s="12">
+      <c r="AA165" s="11">
         <v>8850.2000000000007</v>
       </c>
-    </row>
-    <row r="166" spans="2:27">
+      <c r="AB165" s="14">
+        <v>5610.5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:28">
       <c r="B166" s="3">
         <v>1990</v>
       </c>
@@ -9193,17 +9687,20 @@
       <c r="X166" s="7">
         <v>144.71430000000001</v>
       </c>
-      <c r="Y166">
-        <v>0</v>
-      </c>
-      <c r="Z166">
+      <c r="Y166" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="3">
         <v>0.51769261006028899</v>
       </c>
-      <c r="AA166" s="12">
+      <c r="AA166" s="11">
         <v>8947.1</v>
       </c>
-    </row>
-    <row r="167" spans="2:27">
+      <c r="AB166" s="14">
+        <v>5658.7</v>
+      </c>
+    </row>
+    <row r="167" spans="2:28">
       <c r="B167" s="3">
         <v>1990.25</v>
       </c>
@@ -9273,17 +9770,20 @@
       <c r="X167" s="7">
         <v>111.2375</v>
       </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
+      <c r="Y167" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="3">
         <v>0.50337494874312205</v>
       </c>
-      <c r="AA167" s="12">
+      <c r="AA167" s="11">
         <v>8981.7000000000007</v>
       </c>
-    </row>
-    <row r="168" spans="2:27">
+      <c r="AB167" s="14">
+        <v>5676.4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:28">
       <c r="B168" s="3">
         <v>1990.5</v>
       </c>
@@ -9353,17 +9853,20 @@
       <c r="X168" s="7">
         <v>110.4</v>
       </c>
-      <c r="Y168">
+      <c r="Y168" s="12">
         <v>1</v>
       </c>
-      <c r="Z168">
+      <c r="Z168" s="3">
         <v>0.479761064428185</v>
       </c>
-      <c r="AA168" s="12">
+      <c r="AA168" s="11">
         <v>8983.9</v>
       </c>
-    </row>
-    <row r="169" spans="2:27">
+      <c r="AB168" s="14">
+        <v>5699.3</v>
+      </c>
+    </row>
+    <row r="169" spans="2:28">
       <c r="B169" s="3">
         <v>1990.75</v>
       </c>
@@ -9433,17 +9936,20 @@
       <c r="X169" s="7">
         <v>110.14830000000001</v>
       </c>
-      <c r="Y169">
+      <c r="Y169" s="12">
         <v>1</v>
       </c>
-      <c r="Z169">
+      <c r="Z169" s="3">
         <v>0.489201679302603</v>
       </c>
-      <c r="AA169" s="12">
+      <c r="AA169" s="11">
         <v>8907.4</v>
       </c>
-    </row>
-    <row r="170" spans="2:27">
+      <c r="AB169" s="14">
+        <v>5656.2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:28">
       <c r="B170" s="3">
         <v>1991</v>
       </c>
@@ -9513,17 +10019,20 @@
       <c r="X170" s="7">
         <v>109.0086</v>
       </c>
-      <c r="Y170">
+      <c r="Y170" s="12">
         <v>1</v>
       </c>
-      <c r="Z170">
+      <c r="Z170" s="3">
         <v>0.45378231155248699</v>
       </c>
-      <c r="AA170" s="12">
+      <c r="AA170" s="11">
         <v>8865.6</v>
       </c>
-    </row>
-    <row r="171" spans="2:27">
+      <c r="AB170" s="14">
+        <v>5636.7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:28">
       <c r="B171" s="3">
         <v>1991.25</v>
       </c>
@@ -9593,17 +10102,20 @@
       <c r="X171" s="7">
         <v>109.9868</v>
       </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
+      <c r="Y171" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="3">
         <v>0.497000035999482</v>
       </c>
-      <c r="AA171" s="12">
+      <c r="AA171" s="11">
         <v>8934.4</v>
       </c>
-    </row>
-    <row r="172" spans="2:27">
+      <c r="AB171" s="14">
+        <v>5684</v>
+      </c>
+    </row>
+    <row r="172" spans="2:28">
       <c r="B172" s="3">
         <v>1991.5</v>
       </c>
@@ -9673,17 +10185,20 @@
       <c r="X172" s="7">
         <v>112.55159999999999</v>
       </c>
-      <c r="Y172">
-        <v>0</v>
-      </c>
-      <c r="Z172">
+      <c r="Y172" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="3">
         <v>0.399751651669492</v>
       </c>
-      <c r="AA172" s="12">
+      <c r="AA172" s="11">
         <v>8977.2999999999993</v>
       </c>
-    </row>
-    <row r="173" spans="2:27">
+      <c r="AB172" s="14">
+        <v>5711.6</v>
+      </c>
+    </row>
+    <row r="173" spans="2:28">
       <c r="B173" s="3">
         <v>1991.75</v>
       </c>
@@ -9753,17 +10268,20 @@
       <c r="X173" s="7">
         <v>112.8026</v>
       </c>
-      <c r="Y173">
-        <v>0</v>
-      </c>
-      <c r="Z173">
+      <c r="Y173" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z173" s="3">
         <v>0.44072998000049202</v>
       </c>
-      <c r="AA173" s="12">
+      <c r="AA173" s="11">
         <v>9016.4</v>
       </c>
-    </row>
-    <row r="174" spans="2:27">
+      <c r="AB173" s="14">
+        <v>5710.1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:28">
       <c r="B174" s="3">
         <v>1992</v>
       </c>
@@ -9833,17 +10351,20 @@
       <c r="X174" s="7">
         <v>112.90989999999999</v>
       </c>
-      <c r="Y174">
-        <v>0</v>
-      </c>
-      <c r="Z174">
+      <c r="Y174" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="3">
         <v>0.47369929755644402</v>
       </c>
-      <c r="AA174" s="12">
+      <c r="AA174" s="11">
         <v>9123</v>
       </c>
-    </row>
-    <row r="175" spans="2:27">
+      <c r="AB174" s="14">
+        <v>5817.3</v>
+      </c>
+    </row>
+    <row r="175" spans="2:28">
       <c r="B175" s="3">
         <v>1992.25</v>
       </c>
@@ -9913,17 +10434,20 @@
       <c r="X175" s="7">
         <v>114.0788</v>
       </c>
-      <c r="Y175">
-        <v>0</v>
-      </c>
-      <c r="Z175">
+      <c r="Y175" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="3">
         <v>0.52458016995234202</v>
       </c>
-      <c r="AA175" s="12">
+      <c r="AA175" s="11">
         <v>9223.5</v>
       </c>
-    </row>
-    <row r="176" spans="2:27">
+      <c r="AB175" s="14">
+        <v>5857.2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:28">
       <c r="B176" s="3">
         <v>1992.5</v>
       </c>
@@ -9993,17 +10517,20 @@
       <c r="X176" s="7">
         <v>114.1617</v>
       </c>
-      <c r="Y176">
-        <v>0</v>
-      </c>
-      <c r="Z176">
+      <c r="Y176" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="3">
         <v>0.553716889795693</v>
       </c>
-      <c r="AA176" s="12">
+      <c r="AA176" s="11">
         <v>9313.2000000000007</v>
       </c>
-    </row>
-    <row r="177" spans="2:27">
+      <c r="AB176" s="14">
+        <v>5920.6</v>
+      </c>
+    </row>
+    <row r="177" spans="2:28">
       <c r="B177" s="3">
         <v>1992.75</v>
       </c>
@@ -10073,17 +10600,20 @@
       <c r="X177" s="7">
         <v>113.9888</v>
       </c>
-      <c r="Y177">
-        <v>0</v>
-      </c>
-      <c r="Z177">
+      <c r="Y177" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="3">
         <v>0.62375097840454896</v>
       </c>
-      <c r="AA177" s="12">
+      <c r="AA177" s="11">
         <v>9406.5</v>
       </c>
-    </row>
-    <row r="178" spans="2:27">
+      <c r="AB177" s="14">
+        <v>5991.1</v>
+      </c>
+    </row>
+    <row r="178" spans="2:28">
       <c r="B178" s="3">
         <v>1993</v>
       </c>
@@ -10153,17 +10683,20 @@
       <c r="X178" s="7">
         <v>115.4605</v>
       </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
+      <c r="Y178" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="3">
         <v>0.51147298578729306</v>
       </c>
-      <c r="AA178" s="12">
+      <c r="AA178" s="11">
         <v>9424.1</v>
       </c>
-    </row>
-    <row r="179" spans="2:27">
+      <c r="AB178" s="14">
+        <v>6013.8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:28">
       <c r="B179" s="3">
         <v>1993.25</v>
       </c>
@@ -10233,17 +10766,20 @@
       <c r="X179" s="7">
         <v>116.75190000000001</v>
       </c>
-      <c r="Y179">
-        <v>0</v>
-      </c>
-      <c r="Z179">
+      <c r="Y179" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="3">
         <v>0.53698233710226195</v>
       </c>
-      <c r="AA179" s="12">
+      <c r="AA179" s="11">
         <v>9480.1</v>
       </c>
-    </row>
-    <row r="180" spans="2:27">
+      <c r="AB179" s="14">
+        <v>6067.8</v>
+      </c>
+    </row>
+    <row r="180" spans="2:28">
       <c r="B180" s="3">
         <v>1993.5</v>
       </c>
@@ -10313,17 +10849,20 @@
       <c r="X180" s="7">
         <v>115.06189999999999</v>
       </c>
-      <c r="Y180">
-        <v>0</v>
-      </c>
-      <c r="Z180">
+      <c r="Y180" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="3">
         <v>0.44717289349505102</v>
       </c>
-      <c r="AA180" s="12">
+      <c r="AA180" s="11">
         <v>9526.2999999999993</v>
       </c>
-    </row>
-    <row r="181" spans="2:27">
+      <c r="AB180" s="14">
+        <v>6134.8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:28">
       <c r="B181" s="3">
         <v>1993.75</v>
       </c>
@@ -10393,17 +10932,20 @@
       <c r="X181" s="7">
         <v>116.09739999999999</v>
       </c>
-      <c r="Y181">
-        <v>0</v>
-      </c>
-      <c r="Z181">
+      <c r="Y181" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z181" s="3">
         <v>0.389717463620883</v>
       </c>
-      <c r="AA181" s="12">
+      <c r="AA181" s="11">
         <v>9653.5</v>
       </c>
-    </row>
-    <row r="182" spans="2:27">
+      <c r="AB181" s="14">
+        <v>6189.1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:28">
       <c r="B182" s="3">
         <v>1994</v>
       </c>
@@ -10473,17 +11015,20 @@
       <c r="X182" s="7">
         <v>118.32980000000001</v>
       </c>
-      <c r="Y182">
-        <v>0</v>
-      </c>
-      <c r="Z182">
+      <c r="Y182" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z182" s="3">
         <v>0.32726087252751701</v>
       </c>
-      <c r="AA182" s="12">
+      <c r="AA182" s="11">
         <v>9748.2000000000007</v>
       </c>
-    </row>
-    <row r="183" spans="2:27">
+      <c r="AB182" s="14">
+        <v>6260.1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:28">
       <c r="B183" s="3">
         <v>1994.25</v>
       </c>
@@ -10553,17 +11098,20 @@
       <c r="X183" s="7">
         <v>119.9757</v>
       </c>
-      <c r="Y183">
-        <v>0</v>
-      </c>
-      <c r="Z183">
+      <c r="Y183" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z183" s="3">
         <v>0.27741910538932901</v>
       </c>
-      <c r="AA183" s="12">
+      <c r="AA183" s="11">
         <v>9881.4</v>
       </c>
-    </row>
-    <row r="184" spans="2:27">
+      <c r="AB183" s="14">
+        <v>6308.6</v>
+      </c>
+    </row>
+    <row r="184" spans="2:28">
       <c r="B184" s="3">
         <v>1994.5</v>
       </c>
@@ -10633,17 +11181,20 @@
       <c r="X184" s="7">
         <v>121.09139999999999</v>
       </c>
-      <c r="Y184">
-        <v>0</v>
-      </c>
-      <c r="Z184">
+      <c r="Y184" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z184" s="3">
         <v>0.27043829343268999</v>
       </c>
-      <c r="AA184" s="12">
+      <c r="AA184" s="11">
         <v>9939.7000000000007</v>
       </c>
-    </row>
-    <row r="185" spans="2:27">
+      <c r="AB184" s="14">
+        <v>6357.5</v>
+      </c>
+    </row>
+    <row r="185" spans="2:28">
       <c r="B185" s="3">
         <v>1994.75</v>
       </c>
@@ -10713,17 +11264,20 @@
       <c r="X185" s="7">
         <v>123.3231</v>
       </c>
-      <c r="Y185">
-        <v>0</v>
-      </c>
-      <c r="Z185">
+      <c r="Y185" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z185" s="3">
         <v>0.34060484275345398</v>
       </c>
-      <c r="AA185" s="12">
+      <c r="AA185" s="11">
         <v>10052.5</v>
       </c>
-    </row>
-    <row r="186" spans="2:27">
+      <c r="AB185" s="14">
+        <v>6425.9</v>
+      </c>
+    </row>
+    <row r="186" spans="2:28">
       <c r="B186" s="3">
         <v>1995</v>
       </c>
@@ -10793,17 +11347,20 @@
       <c r="X186" s="7">
         <v>125.4824</v>
       </c>
-      <c r="Y186">
-        <v>0</v>
-      </c>
-      <c r="Z186">
+      <c r="Y186" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z186" s="3">
         <v>0.33778067799373401</v>
       </c>
-      <c r="AA186" s="12">
+      <c r="AA186" s="11">
         <v>10086.9</v>
       </c>
-    </row>
-    <row r="187" spans="2:27">
+      <c r="AB186" s="14">
+        <v>6442.9</v>
+      </c>
+    </row>
+    <row r="187" spans="2:28">
       <c r="B187" s="3">
         <v>1995.25</v>
       </c>
@@ -10873,17 +11430,20 @@
       <c r="X187" s="7">
         <v>125.85809999999999</v>
       </c>
-      <c r="Y187">
-        <v>0</v>
-      </c>
-      <c r="Z187">
+      <c r="Y187" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="3">
         <v>0.31658727622793598</v>
       </c>
-      <c r="AA187" s="12">
+      <c r="AA187" s="11">
         <v>10122.1</v>
       </c>
-    </row>
-    <row r="188" spans="2:27">
+      <c r="AB187" s="14">
+        <v>6500.7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:28">
       <c r="B188" s="3">
         <v>1995.5</v>
       </c>
@@ -10953,17 +11513,20 @@
       <c r="X188" s="7">
         <v>125.7015</v>
       </c>
-      <c r="Y188">
-        <v>0</v>
-      </c>
-      <c r="Z188">
+      <c r="Y188" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z188" s="3">
         <v>0.23561004221967499</v>
       </c>
-      <c r="AA188" s="12">
+      <c r="AA188" s="11">
         <v>10208.799999999999</v>
       </c>
-    </row>
-    <row r="189" spans="2:27">
+      <c r="AB188" s="14">
+        <v>6560.3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:28">
       <c r="B189" s="3">
         <v>1995.75</v>
       </c>
@@ -11033,17 +11596,20 @@
       <c r="X189" s="7">
         <v>126.7407</v>
       </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
+      <c r="Y189" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z189" s="3">
         <v>0.28371660936610099</v>
       </c>
-      <c r="AA189" s="12">
+      <c r="AA189" s="11">
         <v>10281.200000000001</v>
       </c>
-    </row>
-    <row r="190" spans="2:27">
+      <c r="AB189" s="14">
+        <v>6606.4</v>
+      </c>
+    </row>
+    <row r="190" spans="2:28">
       <c r="B190" s="3">
         <v>1996</v>
       </c>
@@ -11113,17 +11679,20 @@
       <c r="X190" s="7">
         <v>126.06529999999999</v>
       </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
+      <c r="Y190" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z190" s="3">
         <v>0.326270918342983</v>
       </c>
-      <c r="AA190" s="12">
+      <c r="AA190" s="11">
         <v>10348.700000000001</v>
       </c>
-    </row>
-    <row r="191" spans="2:27">
+      <c r="AB190" s="14">
+        <v>6667.7</v>
+      </c>
+    </row>
+    <row r="191" spans="2:28">
       <c r="B191" s="3">
         <v>1996.25</v>
       </c>
@@ -11193,17 +11762,20 @@
       <c r="X191" s="7">
         <v>127.8809</v>
       </c>
-      <c r="Y191">
-        <v>0</v>
-      </c>
-      <c r="Z191">
+      <c r="Y191" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z191" s="3">
         <v>0.28104176100523498</v>
       </c>
-      <c r="AA191" s="12">
+      <c r="AA191" s="11">
         <v>10529.4</v>
       </c>
-    </row>
-    <row r="192" spans="2:27">
+      <c r="AB191" s="14">
+        <v>6740.1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:28">
       <c r="B192" s="3">
         <v>1996.5</v>
       </c>
@@ -11273,17 +11845,20 @@
       <c r="X192" s="7">
         <v>129.47980000000001</v>
       </c>
-      <c r="Y192">
-        <v>0</v>
-      </c>
-      <c r="Z192">
+      <c r="Y192" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z192" s="3">
         <v>0.21428284938279901</v>
       </c>
-      <c r="AA192" s="12">
+      <c r="AA192" s="11">
         <v>10626.8</v>
       </c>
-    </row>
-    <row r="193" spans="2:27">
+      <c r="AB192" s="14">
+        <v>6780.7</v>
+      </c>
+    </row>
+    <row r="193" spans="2:28">
       <c r="B193" s="3">
         <v>1996.75</v>
       </c>
@@ -11353,17 +11928,20 @@
       <c r="X193" s="7">
         <v>130.38849999999999</v>
       </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
-      <c r="Z193">
+      <c r="Y193" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z193" s="3">
         <v>0.26356906829902799</v>
       </c>
-      <c r="AA193" s="12">
+      <c r="AA193" s="11">
         <v>10739.1</v>
       </c>
-    </row>
-    <row r="194" spans="2:27">
+      <c r="AB193" s="14">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="194" spans="2:28">
       <c r="B194" s="3">
         <v>1997</v>
       </c>
@@ -11433,17 +12011,20 @@
       <c r="X194" s="7">
         <v>121.1033</v>
       </c>
-      <c r="Y194">
-        <v>0</v>
-      </c>
-      <c r="Z194">
+      <c r="Y194" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z194" s="3">
         <v>0.21524409680210899</v>
       </c>
-      <c r="AA194" s="12">
+      <c r="AA194" s="11">
         <v>10820.9</v>
       </c>
-    </row>
-    <row r="195" spans="2:27">
+      <c r="AB194" s="14">
+        <v>6906.1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:28">
       <c r="B195" s="3">
         <v>1997.25</v>
       </c>
@@ -11513,17 +12094,20 @@
       <c r="X195" s="7">
         <v>123.2623</v>
       </c>
-      <c r="Y195">
-        <v>0</v>
-      </c>
-      <c r="Z195">
+      <c r="Y195" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z195" s="3">
         <v>0.35571759580020601</v>
       </c>
-      <c r="AA195" s="12">
+      <c r="AA195" s="11">
         <v>10984.2</v>
       </c>
-    </row>
-    <row r="196" spans="2:27">
+      <c r="AB195" s="14">
+        <v>6937.4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:28">
       <c r="B196" s="3">
         <v>1997.5</v>
       </c>
@@ -11593,17 +12177,20 @@
       <c r="X196" s="7">
         <v>124.14109999999999</v>
       </c>
-      <c r="Y196">
-        <v>0</v>
-      </c>
-      <c r="Z196">
+      <c r="Y196" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z196" s="3">
         <v>0.38537391980158398</v>
       </c>
-      <c r="AA196" s="12">
+      <c r="AA196" s="11">
         <v>11124</v>
       </c>
-    </row>
-    <row r="197" spans="2:27">
+      <c r="AB196" s="14">
+        <v>7056.1</v>
+      </c>
+    </row>
+    <row r="197" spans="2:28">
       <c r="B197" s="3">
         <v>1997.75</v>
       </c>
@@ -11673,17 +12260,20 @@
       <c r="X197" s="7">
         <v>126.16630000000001</v>
       </c>
-      <c r="Y197">
-        <v>0</v>
-      </c>
-      <c r="Z197">
+      <c r="Y197" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z197" s="3">
         <v>0.50217498628129098</v>
       </c>
-      <c r="AA197" s="12">
+      <c r="AA197" s="11">
         <v>11210.3</v>
       </c>
-    </row>
-    <row r="198" spans="2:27">
+      <c r="AB197" s="14">
+        <v>7139.9</v>
+      </c>
+    </row>
+    <row r="198" spans="2:28">
       <c r="B198" s="3">
         <v>1998</v>
       </c>
@@ -11753,17 +12343,20 @@
       <c r="X198" s="7">
         <v>131.91419999999999</v>
       </c>
-      <c r="Y198">
-        <v>0</v>
-      </c>
-      <c r="Z198">
+      <c r="Y198" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z198" s="3">
         <v>0.56709290496545395</v>
       </c>
-      <c r="AA198" s="12">
+      <c r="AA198" s="11">
         <v>11321.2</v>
       </c>
-    </row>
-    <row r="199" spans="2:27">
+      <c r="AB198" s="14">
+        <v>7213.6</v>
+      </c>
+    </row>
+    <row r="199" spans="2:28">
       <c r="B199" s="3">
         <v>1998.25</v>
       </c>
@@ -11833,17 +12426,20 @@
       <c r="X199" s="7">
         <v>132.0557</v>
       </c>
-      <c r="Y199">
-        <v>0</v>
-      </c>
-      <c r="Z199">
+      <c r="Y199" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z199" s="3">
         <v>0.759602232140556</v>
       </c>
-      <c r="AA199" s="12">
+      <c r="AA199" s="11">
         <v>11431</v>
       </c>
-    </row>
-    <row r="200" spans="2:27">
+      <c r="AB199" s="14">
+        <v>7341</v>
+      </c>
+    </row>
+    <row r="200" spans="2:28">
       <c r="B200" s="3">
         <v>1998.5</v>
       </c>
@@ -11913,17 +12509,20 @@
       <c r="X200" s="7">
         <v>132.58269999999999</v>
       </c>
-      <c r="Y200">
-        <v>0</v>
-      </c>
-      <c r="Z200">
+      <c r="Y200" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z200" s="3">
         <v>0.752408652033421</v>
       </c>
-      <c r="AA200" s="12">
+      <c r="AA200" s="11">
         <v>11580.6</v>
       </c>
-    </row>
-    <row r="201" spans="2:27">
+      <c r="AB200" s="14">
+        <v>7437.5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:28">
       <c r="B201" s="3">
         <v>1998.75</v>
       </c>
@@ -11993,17 +12592,20 @@
       <c r="X201" s="7">
         <v>131.47280000000001</v>
       </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
-      <c r="Z201">
+      <c r="Y201" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z201" s="3">
         <v>0.82819663329428295</v>
       </c>
-      <c r="AA201" s="12">
+      <c r="AA201" s="11">
         <v>11770.7</v>
       </c>
-    </row>
-    <row r="202" spans="2:27">
+      <c r="AB201" s="14">
+        <v>7546.8</v>
+      </c>
+    </row>
+    <row r="202" spans="2:28">
       <c r="B202" s="3">
         <v>1999</v>
       </c>
@@ -12073,17 +12675,20 @@
       <c r="X202" s="7">
         <v>136.4615</v>
       </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
+      <c r="Y202" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z202" s="3">
         <v>0.799279932559956</v>
       </c>
-      <c r="AA202" s="12">
+      <c r="AA202" s="11">
         <v>11864.7</v>
       </c>
-    </row>
-    <row r="203" spans="2:27">
+      <c r="AB202" s="14">
+        <v>7618.7</v>
+      </c>
+    </row>
+    <row r="203" spans="2:28">
       <c r="B203" s="3">
         <v>1999.25</v>
       </c>
@@ -12153,17 +12758,20 @@
       <c r="X203" s="7">
         <v>136.62309999999999</v>
       </c>
-      <c r="Y203">
-        <v>0</v>
-      </c>
-      <c r="Z203">
+      <c r="Y203" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z203" s="3">
         <v>0.80551080378751305</v>
       </c>
-      <c r="AA203" s="12">
+      <c r="AA203" s="11">
         <v>11962.5</v>
       </c>
-    </row>
-    <row r="204" spans="2:27">
+      <c r="AB203" s="14">
+        <v>7731.5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:28">
       <c r="B204" s="3">
         <v>1999.5</v>
       </c>
@@ -12233,17 +12841,20 @@
       <c r="X204" s="7">
         <v>138.52549999999999</v>
       </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
+      <c r="Y204" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z204" s="3">
         <v>0.78087966396187203</v>
       </c>
-      <c r="AA204" s="12">
+      <c r="AA204" s="11">
         <v>12113.1</v>
       </c>
-    </row>
-    <row r="205" spans="2:27">
+      <c r="AB204" s="14">
+        <v>7819.3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:28">
       <c r="B205" s="3">
         <v>1999.75</v>
       </c>
@@ -12313,17 +12924,20 @@
       <c r="X205" s="7">
         <v>139.9622</v>
       </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
+      <c r="Y205" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z205" s="3">
         <v>0.79860527312892204</v>
       </c>
-      <c r="AA205" s="12">
+      <c r="AA205" s="11">
         <v>12323.3</v>
       </c>
-    </row>
-    <row r="206" spans="2:27">
+      <c r="AB205" s="14">
+        <v>7934.1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:28">
       <c r="B206" s="3">
         <v>2000</v>
       </c>
@@ -12393,17 +13007,20 @@
       <c r="X206" s="7">
         <v>145.4599</v>
       </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
+      <c r="Y206" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z206" s="3">
         <v>0.71487907214820201</v>
       </c>
-      <c r="AA206" s="12">
+      <c r="AA206" s="11">
         <v>12359.1</v>
       </c>
-    </row>
-    <row r="207" spans="2:27">
+      <c r="AB206" s="14">
+        <v>8054.9</v>
+      </c>
+    </row>
+    <row r="207" spans="2:28">
       <c r="B207" s="3">
         <v>2000.25</v>
       </c>
@@ -12473,17 +13090,20 @@
       <c r="X207" s="7">
         <v>148.90520000000001</v>
       </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
+      <c r="Y207" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z207" s="3">
         <v>0.58860463508763305</v>
       </c>
-      <c r="AA207" s="12">
+      <c r="AA207" s="11">
         <v>12592.5</v>
       </c>
-    </row>
-    <row r="208" spans="2:27">
+      <c r="AB207" s="14">
+        <v>8132.2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:28">
       <c r="B208" s="3">
         <v>2000.5</v>
       </c>
@@ -12553,17 +13173,20 @@
       <c r="X208" s="7">
         <v>150.6173</v>
       </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
+      <c r="Y208" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="3">
         <v>0.584384839402038</v>
       </c>
-      <c r="AA208" s="12">
+      <c r="AA208" s="11">
         <v>12607.7</v>
       </c>
-    </row>
-    <row r="209" spans="2:27">
+      <c r="AB208" s="14">
+        <v>8211.2999999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="2:28">
       <c r="B209" s="3">
         <v>2000.75</v>
       </c>
@@ -12633,17 +13256,20 @@
       <c r="X209" s="7">
         <v>151.74520000000001</v>
       </c>
-      <c r="Y209">
-        <v>0</v>
-      </c>
-      <c r="Z209">
+      <c r="Y209" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="3">
         <v>0.56635626162100094</v>
       </c>
-      <c r="AA209" s="12">
+      <c r="AA209" s="11">
         <v>12679.3</v>
       </c>
-    </row>
-    <row r="210" spans="2:27">
+      <c r="AB209" s="14">
+        <v>8284.4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:28">
       <c r="B210" s="3">
         <v>2001</v>
       </c>
@@ -12713,17 +13339,20 @@
       <c r="X210" s="7">
         <v>151.38050000000001</v>
       </c>
-      <c r="Y210">
+      <c r="Y210" s="12">
         <v>1</v>
       </c>
-      <c r="Z210">
+      <c r="Z210" s="3">
         <v>0.54413483509916605</v>
       </c>
-      <c r="AA210" s="12">
+      <c r="AA210" s="11">
         <v>12643.3</v>
       </c>
-    </row>
-    <row r="211" spans="2:27">
+      <c r="AB210" s="14">
+        <v>8319.4</v>
+      </c>
+    </row>
+    <row r="211" spans="2:28">
       <c r="B211" s="3">
         <v>2001.25</v>
       </c>
@@ -12793,17 +13422,20 @@
       <c r="X211" s="7">
         <v>150.60290000000001</v>
       </c>
-      <c r="Y211">
+      <c r="Y211" s="12">
         <v>1</v>
       </c>
-      <c r="Z211">
+      <c r="Z211" s="3">
         <v>0.46809341527839898</v>
       </c>
-      <c r="AA211" s="12">
+      <c r="AA211" s="11">
         <v>12710.3</v>
       </c>
-    </row>
-    <row r="212" spans="2:27">
+      <c r="AB211" s="14">
+        <v>8340.7999999999993</v>
+      </c>
+    </row>
+    <row r="212" spans="2:28">
       <c r="B212" s="3">
         <v>2001.5</v>
       </c>
@@ -12873,17 +13505,20 @@
       <c r="X212" s="7">
         <v>146.13669999999999</v>
       </c>
-      <c r="Y212">
+      <c r="Y212" s="12">
         <v>1</v>
       </c>
-      <c r="Z212">
+      <c r="Z212" s="3">
         <v>0.419482046669166</v>
       </c>
-      <c r="AA212" s="12">
+      <c r="AA212" s="11">
         <v>12670.1</v>
       </c>
-    </row>
-    <row r="213" spans="2:27">
+      <c r="AB212" s="14">
+        <v>8371.2000000000007</v>
+      </c>
+    </row>
+    <row r="213" spans="2:28">
       <c r="B213" s="3">
         <v>2001.75</v>
       </c>
@@ -12953,17 +13588,20 @@
       <c r="X213" s="7">
         <v>143.18700000000001</v>
       </c>
-      <c r="Y213">
+      <c r="Y213" s="12">
         <v>1</v>
       </c>
-      <c r="Z213">
+      <c r="Z213" s="3">
         <v>0.398960078369199</v>
       </c>
-      <c r="AA213" s="12">
+      <c r="AA213" s="11">
         <v>12705.3</v>
       </c>
-    </row>
-    <row r="214" spans="2:27">
+      <c r="AB213" s="14">
+        <v>8499.1</v>
+      </c>
+    </row>
+    <row r="214" spans="2:28">
       <c r="B214" s="3">
         <v>2002</v>
       </c>
@@ -13033,17 +13671,20 @@
       <c r="X214" s="7">
         <v>142.92240000000001</v>
       </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
+      <c r="Y214" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z214" s="3">
         <v>0.53003878173892804</v>
       </c>
-      <c r="AA214" s="12">
+      <c r="AA214" s="11">
         <v>12822.3</v>
       </c>
-    </row>
-    <row r="215" spans="2:27">
+      <c r="AB214" s="14">
+        <v>8524.6</v>
+      </c>
+    </row>
+    <row r="215" spans="2:28">
       <c r="B215" s="3">
         <v>2002.25</v>
       </c>
@@ -13113,17 +13754,20 @@
       <c r="X215" s="7">
         <v>146.4153</v>
       </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
+      <c r="Y215" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z215" s="3">
         <v>0.54480449560697897</v>
       </c>
-      <c r="AA215" s="12">
+      <c r="AA215" s="11">
         <v>12893</v>
       </c>
-    </row>
-    <row r="216" spans="2:27">
+      <c r="AB215" s="14">
+        <v>8568.1</v>
+      </c>
+    </row>
+    <row r="216" spans="2:28">
       <c r="B216" s="3">
         <v>2002.5</v>
       </c>
@@ -13193,17 +13837,20 @@
       <c r="X216" s="7">
         <v>147.42580000000001</v>
       </c>
-      <c r="Y216">
-        <v>0</v>
-      </c>
-      <c r="Z216">
+      <c r="Y216" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z216" s="3">
         <v>0.56451337675831303</v>
       </c>
-      <c r="AA216" s="12">
+      <c r="AA216" s="11">
         <v>12955.8</v>
       </c>
-    </row>
-    <row r="217" spans="2:27">
+      <c r="AB216" s="14">
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="217" spans="2:28">
       <c r="B217" s="3">
         <v>2002.75</v>
       </c>
@@ -13273,17 +13920,20 @@
       <c r="X217" s="7">
         <v>146.64089999999999</v>
       </c>
-      <c r="Y217">
-        <v>0</v>
-      </c>
-      <c r="Z217">
+      <c r="Y217" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z217" s="3">
         <v>0.50112499810156597</v>
       </c>
-      <c r="AA217" s="12">
+      <c r="AA217" s="11">
         <v>12964</v>
       </c>
-    </row>
-    <row r="218" spans="2:27">
+      <c r="AB217" s="14">
+        <v>8674.4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:28">
       <c r="B218" s="3">
         <v>2003</v>
       </c>
@@ -13353,17 +14003,20 @@
       <c r="X218" s="7">
         <v>115.5851</v>
       </c>
-      <c r="Y218">
-        <v>0</v>
-      </c>
-      <c r="Z218">
+      <c r="Y218" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z218" s="3">
         <v>0.54093318437144999</v>
       </c>
-      <c r="AA218" s="12">
+      <c r="AA218" s="11">
         <v>13031.2</v>
       </c>
-    </row>
-    <row r="219" spans="2:27">
+      <c r="AB218" s="14">
+        <v>8712.5</v>
+      </c>
+    </row>
+    <row r="219" spans="2:28">
       <c r="B219" s="3">
         <v>2003.25</v>
       </c>
@@ -13433,17 +14086,20 @@
       <c r="X219" s="7">
         <v>114.7911</v>
       </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
-      <c r="Z219">
+      <c r="Y219" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z219" s="3">
         <v>0.62782563288139903</v>
       </c>
-      <c r="AA219" s="12">
+      <c r="AA219" s="11">
         <v>13152.1</v>
       </c>
-    </row>
-    <row r="220" spans="2:27">
+      <c r="AB219" s="14">
+        <v>8809.5</v>
+      </c>
+    </row>
+    <row r="220" spans="2:28">
       <c r="B220" s="3">
         <v>2003.5</v>
       </c>
@@ -13513,17 +14169,20 @@
       <c r="X220" s="7">
         <v>115.1748</v>
       </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
+      <c r="Y220" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z220" s="3">
         <v>0.65391659232468202</v>
       </c>
-      <c r="AA220" s="12">
+      <c r="AA220" s="11">
         <v>13372.4</v>
       </c>
-    </row>
-    <row r="221" spans="2:27">
+      <c r="AB220" s="14">
+        <v>8939.4</v>
+      </c>
+    </row>
+    <row r="221" spans="2:28">
       <c r="B221" s="3">
         <v>2003.75</v>
       </c>
@@ -13593,17 +14252,20 @@
       <c r="X221" s="7">
         <v>116.5311</v>
       </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
+      <c r="Y221" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z221" s="3">
         <v>0.66596692675182001</v>
       </c>
-      <c r="AA221" s="12">
+      <c r="AA221" s="11">
         <v>13528.7</v>
       </c>
-    </row>
-    <row r="222" spans="2:27">
+      <c r="AB221" s="14">
+        <v>9008.7999999999993</v>
+      </c>
+    </row>
+    <row r="222" spans="2:28">
       <c r="B222" s="3">
         <v>2004</v>
       </c>
@@ -13673,17 +14335,20 @@
       <c r="X222" s="7">
         <v>120.1421</v>
       </c>
-      <c r="Y222">
-        <v>0</v>
-      </c>
-      <c r="Z222">
+      <c r="Y222" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z222" s="3">
         <v>0.66268890013923099</v>
       </c>
-      <c r="AA222" s="12">
+      <c r="AA222" s="11">
         <v>13606.5</v>
       </c>
-    </row>
-    <row r="223" spans="2:27">
+      <c r="AB222" s="14">
+        <v>9096.4</v>
+      </c>
+    </row>
+    <row r="223" spans="2:28">
       <c r="B223" s="3">
         <v>2004.25</v>
       </c>
@@ -13753,17 +14418,20 @@
       <c r="X223" s="7">
         <v>121.5697</v>
       </c>
-      <c r="Y223">
-        <v>0</v>
-      </c>
-      <c r="Z223">
+      <c r="Y223" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z223" s="3">
         <v>0.62663318900041098</v>
       </c>
-      <c r="AA223" s="12">
+      <c r="AA223" s="11">
         <v>13706.2</v>
       </c>
-    </row>
-    <row r="224" spans="2:27">
+      <c r="AB223" s="14">
+        <v>9155.5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:28">
       <c r="B224" s="3">
         <v>2004.5</v>
       </c>
@@ -13833,17 +14501,20 @@
       <c r="X224" s="7">
         <v>122.3891</v>
       </c>
-      <c r="Y224">
-        <v>0</v>
-      </c>
-      <c r="Z224">
+      <c r="Y224" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z224" s="3">
         <v>0.70079784165646297</v>
       </c>
-      <c r="AA224" s="12">
+      <c r="AA224" s="11">
         <v>13830.8</v>
       </c>
-    </row>
-    <row r="225" spans="2:27">
+      <c r="AB224" s="14">
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="225" spans="2:28">
       <c r="B225" s="3">
         <v>2004.75</v>
       </c>
@@ -13913,17 +14584,20 @@
       <c r="X225" s="7">
         <v>122.4652</v>
       </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
+      <c r="Y225" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="3">
         <v>0.74711796956557497</v>
       </c>
-      <c r="AA225" s="12">
+      <c r="AA225" s="11">
         <v>13950.4</v>
       </c>
-    </row>
-    <row r="226" spans="2:27">
+      <c r="AB225" s="14">
+        <v>9337.7999999999993</v>
+      </c>
+    </row>
+    <row r="226" spans="2:28">
       <c r="B226" s="3">
         <v>2005</v>
       </c>
@@ -13993,17 +14667,20 @@
       <c r="X226" s="7">
         <v>122.9709</v>
       </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
+      <c r="Y226" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z226" s="3">
         <v>0.71907945743980795</v>
       </c>
-      <c r="AA226" s="12">
+      <c r="AA226" s="11">
         <v>14099.1</v>
       </c>
-    </row>
-    <row r="227" spans="2:27">
+      <c r="AB226" s="14">
+        <v>9409.2000000000007</v>
+      </c>
+    </row>
+    <row r="227" spans="2:28">
       <c r="B227" s="3">
         <v>2005.25</v>
       </c>
@@ -14073,17 +14750,20 @@
       <c r="X227" s="7">
         <v>123.58410000000001</v>
       </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-      <c r="Z227">
+      <c r="Y227" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="3">
         <v>0.82384237089100398</v>
       </c>
-      <c r="AA227" s="12">
+      <c r="AA227" s="11">
         <v>14172.7</v>
       </c>
-    </row>
-    <row r="228" spans="2:27">
+      <c r="AB227" s="14">
+        <v>9511.5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:28">
       <c r="B228" s="3">
         <v>2005.5</v>
       </c>
@@ -14153,17 +14833,20 @@
       <c r="X228" s="7">
         <v>124.18729999999999</v>
       </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
+      <c r="Y228" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z228" s="3">
         <v>0.90575746904759702</v>
       </c>
-      <c r="AA228" s="12">
+      <c r="AA228" s="11">
         <v>14291.8</v>
       </c>
-    </row>
-    <row r="229" spans="2:27">
+      <c r="AB228" s="14">
+        <v>9585.2000000000007</v>
+      </c>
+    </row>
+    <row r="229" spans="2:28">
       <c r="B229" s="3">
         <v>2005.75</v>
       </c>
@@ -14233,17 +14916,20 @@
       <c r="X229" s="7">
         <v>123.9526</v>
       </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
+      <c r="Y229" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z229" s="3">
         <v>0.964899209561493</v>
       </c>
-      <c r="AA229" s="12">
+      <c r="AA229" s="11">
         <v>14373.4</v>
       </c>
-    </row>
-    <row r="230" spans="2:27">
+      <c r="AB229" s="14">
+        <v>9621.2999999999993</v>
+      </c>
+    </row>
+    <row r="230" spans="2:28">
       <c r="B230" s="3">
         <v>2006</v>
       </c>
@@ -14313,17 +14999,20 @@
       <c r="X230" s="7">
         <v>113.9709</v>
       </c>
-      <c r="Y230">
-        <v>0</v>
-      </c>
-      <c r="Z230">
+      <c r="Y230" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z230" s="3">
         <v>0.97815294684977605</v>
       </c>
-      <c r="AA230" s="12">
+      <c r="AA230" s="11">
         <v>14546.1</v>
       </c>
-    </row>
-    <row r="231" spans="2:27">
+      <c r="AB230" s="14">
+        <v>9729.2000000000007</v>
+      </c>
+    </row>
+    <row r="231" spans="2:28">
       <c r="B231" s="3">
         <v>2006.25</v>
       </c>
@@ -14393,14 +15082,18 @@
       <c r="X231" s="7">
         <v>115.4384</v>
       </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="AA231" s="12">
+      <c r="Y231" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z231" s="3"/>
+      <c r="AA231" s="11">
         <v>14589.6</v>
       </c>
-    </row>
-    <row r="232" spans="2:27">
+      <c r="AB231" s="14">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="232" spans="2:28">
       <c r="B232" s="3">
         <v>2006.5</v>
       </c>
@@ -14470,14 +15163,18 @@
       <c r="X232" s="7">
         <v>117.04810000000001</v>
       </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="AA232" s="12">
+      <c r="Y232" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z232" s="3"/>
+      <c r="AA232" s="11">
         <v>14602.6</v>
       </c>
-    </row>
-    <row r="233" spans="2:27">
+      <c r="AB232" s="14">
+        <v>9838.1</v>
+      </c>
+    </row>
+    <row r="233" spans="2:28">
       <c r="B233" s="3">
         <v>2006.75</v>
       </c>
@@ -14547,14 +15244,18 @@
       <c r="X233" s="7">
         <v>117.3601</v>
       </c>
-      <c r="Y233">
-        <v>0</v>
-      </c>
-      <c r="AA233" s="12">
+      <c r="Y233" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z233" s="3"/>
+      <c r="AA233" s="11">
         <v>14716.9</v>
       </c>
-    </row>
-    <row r="234" spans="2:27">
+      <c r="AB233" s="14">
+        <v>9938.4</v>
+      </c>
+    </row>
+    <row r="234" spans="2:28">
       <c r="B234" s="3">
         <v>2007</v>
       </c>
@@ -14609,14 +15310,18 @@
       <c r="X234" s="7">
         <v>116.18819999999999</v>
       </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="AA234" s="12">
+      <c r="Y234" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z234" s="3"/>
+      <c r="AA234" s="11">
         <v>14726</v>
       </c>
-    </row>
-    <row r="235" spans="2:27">
+      <c r="AB234" s="14">
+        <v>9990.7000000000007</v>
+      </c>
+    </row>
+    <row r="235" spans="2:28">
       <c r="B235" s="3">
         <v>2007.25</v>
       </c>
@@ -14671,14 +15376,18 @@
       <c r="X235" s="7">
         <v>115.872</v>
       </c>
-      <c r="Y235">
-        <v>0</v>
-      </c>
-      <c r="AA235" s="12">
+      <c r="Y235" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z235" s="3"/>
+      <c r="AA235" s="11">
         <v>14838.7</v>
       </c>
-    </row>
-    <row r="236" spans="2:27">
+      <c r="AB235" s="14">
+        <v>10024.6</v>
+      </c>
+    </row>
+    <row r="236" spans="2:28">
       <c r="B236" s="3">
         <v>2007.5</v>
       </c>
@@ -14733,14 +15442,18 @@
       <c r="X236" s="7">
         <v>116.7336</v>
       </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="AA236" s="12">
+      <c r="Y236" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="3"/>
+      <c r="AA236" s="11">
         <v>14938.5</v>
       </c>
-    </row>
-    <row r="237" spans="2:27">
+      <c r="AB236" s="14">
+        <v>10069.200000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="2:28">
       <c r="B237" s="3">
         <v>2007.75</v>
       </c>
@@ -14795,14 +15508,18 @@
       <c r="X237" s="7">
         <v>117.7025</v>
       </c>
-      <c r="Y237">
+      <c r="Y237" s="12">
         <v>1</v>
       </c>
-      <c r="AA237" s="12">
+      <c r="Z237" s="3"/>
+      <c r="AA237" s="11">
         <v>14991.8</v>
       </c>
-    </row>
-    <row r="238" spans="2:27">
+      <c r="AB237" s="14">
+        <v>10081.799999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="2:28">
       <c r="B238" s="3">
         <v>2008</v>
       </c>
@@ -14857,14 +15574,18 @@
       <c r="X238" s="7">
         <v>116.1237</v>
       </c>
-      <c r="Y238">
+      <c r="Y238" s="12">
         <v>1</v>
       </c>
-      <c r="AA238" s="12">
+      <c r="Z238" s="3"/>
+      <c r="AA238" s="11">
         <v>14889.5</v>
       </c>
-    </row>
-    <row r="239" spans="2:27">
+      <c r="AB238" s="14">
+        <v>10061</v>
+      </c>
+    </row>
+    <row r="239" spans="2:28">
       <c r="B239" s="3">
         <v>2008.25</v>
       </c>
@@ -14919,14 +15640,18 @@
       <c r="X239" s="7">
         <v>114.1759</v>
       </c>
-      <c r="Y239">
+      <c r="Y239" s="12">
         <v>1</v>
       </c>
-      <c r="AA239" s="12">
+      <c r="Z239" s="3"/>
+      <c r="AA239" s="11">
         <v>14963.4</v>
       </c>
-    </row>
-    <row r="240" spans="2:27">
+      <c r="AB239" s="14">
+        <v>10077.9</v>
+      </c>
+    </row>
+    <row r="240" spans="2:28">
       <c r="B240" s="3">
         <v>2008.5</v>
       </c>
@@ -14981,14 +15706,18 @@
       <c r="X240" s="7">
         <v>113.05840000000001</v>
       </c>
-      <c r="Y240">
+      <c r="Y240" s="12">
         <v>1</v>
       </c>
-      <c r="AA240" s="12">
+      <c r="Z240" s="3"/>
+      <c r="AA240" s="11">
         <v>14891.6</v>
       </c>
-    </row>
-    <row r="241" spans="2:27">
+      <c r="AB240" s="14">
+        <v>10005.1</v>
+      </c>
+    </row>
+    <row r="241" spans="2:28">
       <c r="B241" s="3">
         <v>2008.75</v>
       </c>
@@ -15043,14 +15772,18 @@
       <c r="X241" s="7">
         <v>108.1609</v>
       </c>
-      <c r="Y241">
+      <c r="Y241" s="12">
         <v>1</v>
       </c>
-      <c r="AA241" s="12">
+      <c r="Z241" s="3"/>
+      <c r="AA241" s="11">
         <v>14577</v>
       </c>
-    </row>
-    <row r="242" spans="2:27">
+      <c r="AB241" s="14">
+        <v>9884.7000000000007</v>
+      </c>
+    </row>
+    <row r="242" spans="2:28">
       <c r="B242" s="3">
         <v>2009</v>
       </c>
@@ -15105,14 +15838,18 @@
       <c r="X242" s="7">
         <v>103.041</v>
       </c>
-      <c r="Y242">
+      <c r="Y242" s="12">
         <v>1</v>
       </c>
-      <c r="AA242" s="12">
+      <c r="Z242" s="3"/>
+      <c r="AA242" s="11">
         <v>14375</v>
       </c>
-    </row>
-    <row r="243" spans="2:27">
+      <c r="AB242" s="14">
+        <v>9850.7999999999993</v>
+      </c>
+    </row>
+    <row r="243" spans="2:28">
       <c r="B243" s="3">
         <v>2009.25</v>
       </c>
@@ -15167,14 +15904,18 @@
       <c r="X243" s="7">
         <v>97.821799999999996</v>
       </c>
-      <c r="Y243">
+      <c r="Y243" s="12">
         <v>1</v>
       </c>
-      <c r="AA243" s="12">
+      <c r="Z243" s="3"/>
+      <c r="AA243" s="11">
         <v>14355.6</v>
       </c>
-    </row>
-    <row r="244" spans="2:27">
+      <c r="AB243" s="14">
+        <v>9806.4</v>
+      </c>
+    </row>
+    <row r="244" spans="2:28">
       <c r="B244" s="3">
         <v>2009.5</v>
       </c>
@@ -15229,14 +15970,18 @@
       <c r="X244" s="7">
         <v>99.8703</v>
       </c>
-      <c r="Y244">
+      <c r="Y244" s="12">
         <v>1</v>
       </c>
-      <c r="AA244" s="12">
+      <c r="Z244" s="3"/>
+      <c r="AA244" s="11">
         <v>14402.5</v>
       </c>
-    </row>
-    <row r="245" spans="2:27">
+      <c r="AB244" s="14">
+        <v>9865.9</v>
+      </c>
+    </row>
+    <row r="245" spans="2:28">
       <c r="B245" s="3">
         <v>2009.75</v>
       </c>
@@ -15291,14 +16036,18 @@
       <c r="X245" s="7">
         <v>103.06</v>
       </c>
-      <c r="Y245">
+      <c r="Y245" s="12">
         <v>1</v>
       </c>
-      <c r="AA245" s="12">
+      <c r="Z245" s="3"/>
+      <c r="AA245" s="11">
         <v>14541.9</v>
       </c>
-    </row>
-    <row r="246" spans="2:27">
+      <c r="AB245" s="14">
+        <v>9864.7999999999993</v>
+      </c>
+    </row>
+    <row r="246" spans="2:28">
       <c r="B246" s="3">
         <v>2010</v>
       </c>
@@ -15354,11 +16103,15 @@
         <v>105.84310000000001</v>
       </c>
       <c r="Y246" s="8"/>
-      <c r="AA246" s="12">
+      <c r="Z246" s="3"/>
+      <c r="AA246" s="11">
         <v>14604.8</v>
       </c>
-    </row>
-    <row r="247" spans="2:27">
+      <c r="AB246" s="14">
+        <v>9917.7000000000007</v>
+      </c>
+    </row>
+    <row r="247" spans="2:28">
       <c r="B247" s="3">
         <v>2010.25</v>
       </c>
@@ -15414,11 +16167,15 @@
         <v>107.72920000000001</v>
       </c>
       <c r="Y247" s="8"/>
-      <c r="AA247" s="12">
+      <c r="Z247" s="3"/>
+      <c r="AA247" s="11">
         <v>14745.9</v>
       </c>
-    </row>
-    <row r="248" spans="2:27">
+      <c r="AB247" s="14">
+        <v>9998.4</v>
+      </c>
+    </row>
+    <row r="248" spans="2:28">
       <c r="B248" s="3">
         <v>2010.5</v>
       </c>
@@ -15474,11 +16231,15 @@
         <v>97.290700000000001</v>
       </c>
       <c r="Y248" s="8"/>
-      <c r="AA248" s="12">
+      <c r="Z248" s="3"/>
+      <c r="AA248" s="11">
         <v>14845.5</v>
       </c>
-    </row>
-    <row r="249" spans="2:27">
+      <c r="AB248" s="14">
+        <v>10063.1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:28">
       <c r="B249" s="3">
         <v>2010.75</v>
       </c>
@@ -15534,11 +16295,15 @@
         <v>97.822000000000003</v>
       </c>
       <c r="Y249" s="8"/>
-      <c r="AA249" s="12">
+      <c r="Z249" s="3"/>
+      <c r="AA249" s="11">
         <v>14939</v>
       </c>
-    </row>
-    <row r="250" spans="2:27">
+      <c r="AB249" s="14">
+        <v>10166.1</v>
+      </c>
+    </row>
+    <row r="250" spans="2:28">
       <c r="B250" s="3">
         <v>2011</v>
       </c>
@@ -15594,11 +16359,15 @@
         <v>99.276700000000005</v>
       </c>
       <c r="Y250" s="8"/>
-      <c r="AA250" s="12">
+      <c r="Z250" s="3"/>
+      <c r="AA250" s="11">
         <v>14881.3</v>
       </c>
-    </row>
-    <row r="251" spans="2:27">
+      <c r="AB250" s="14">
+        <v>10217.1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:28">
       <c r="B251" s="3">
         <v>2011.25</v>
       </c>
@@ -15654,11 +16423,15 @@
         <v>98.139300000000006</v>
       </c>
       <c r="Y251" s="8"/>
-      <c r="AA251" s="12">
+      <c r="Z251" s="3"/>
+      <c r="AA251" s="11">
         <v>14989.6</v>
       </c>
-    </row>
-    <row r="252" spans="2:27">
+      <c r="AB251" s="14">
+        <v>10237.700000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:28">
       <c r="B252" s="3">
         <v>2011.5</v>
       </c>
@@ -15714,11 +16487,15 @@
         <v>96.822100000000006</v>
       </c>
       <c r="Y252" s="8"/>
-      <c r="AA252" s="12">
+      <c r="Z252" s="3"/>
+      <c r="AA252" s="11">
         <v>15021.1</v>
       </c>
-    </row>
-    <row r="253" spans="2:27">
+      <c r="AB252" s="14">
+        <v>10282.200000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:28">
       <c r="B253" s="3">
         <v>2011.75</v>
       </c>
@@ -15774,11 +16551,15 @@
         <v>97.492599999999996</v>
       </c>
       <c r="Y253" s="8"/>
-      <c r="AA253" s="12">
+      <c r="Z253" s="3"/>
+      <c r="AA253" s="11">
         <v>15190.3</v>
       </c>
-    </row>
-    <row r="254" spans="2:27">
+      <c r="AB253" s="14">
+        <v>10316.799999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="2:28">
       <c r="B254" s="3">
         <v>2012</v>
       </c>
@@ -15834,11 +16615,15 @@
         <v>99.490499999999997</v>
       </c>
       <c r="Y254" s="8"/>
-      <c r="AA254" s="12">
+      <c r="Z254" s="3"/>
+      <c r="AA254" s="11">
         <v>15291</v>
       </c>
-    </row>
-    <row r="255" spans="2:27">
+      <c r="AB254" s="14">
+        <v>10379</v>
+      </c>
+    </row>
+    <row r="255" spans="2:28">
       <c r="B255" s="3">
         <v>2012.25</v>
       </c>
@@ -15894,11 +16679,15 @@
         <v>100.5642</v>
       </c>
       <c r="Y255" s="8"/>
-      <c r="AA255" s="12">
+      <c r="Z255" s="3"/>
+      <c r="AA255" s="11">
         <v>15362.4</v>
       </c>
-    </row>
-    <row r="256" spans="2:27">
+      <c r="AB255" s="14">
+        <v>10396.6</v>
+      </c>
+    </row>
+    <row r="256" spans="2:28">
       <c r="B256" s="3">
         <v>2012.5</v>
       </c>
@@ -15954,11 +16743,15 @@
         <v>100.7782</v>
       </c>
       <c r="Y256" s="8"/>
-      <c r="AA256" s="12">
+      <c r="Z256" s="3"/>
+      <c r="AA256" s="11">
         <v>15380.8</v>
       </c>
-    </row>
-    <row r="257" spans="2:27">
+      <c r="AB256" s="14">
+        <v>10424.1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:28">
       <c r="B257" s="3">
         <v>2012.75</v>
       </c>
@@ -16014,11 +16807,15 @@
         <v>100.7184</v>
       </c>
       <c r="Y257" s="8"/>
-      <c r="AA257" s="12">
+      <c r="Z257" s="3"/>
+      <c r="AA257" s="11">
         <v>15384.3</v>
       </c>
-    </row>
-    <row r="258" spans="2:27">
+      <c r="AB257" s="14">
+        <v>10453.200000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="2:28">
       <c r="B258" s="3">
         <v>2013</v>
       </c>
@@ -16074,11 +16871,15 @@
         <v>101.60939999999999</v>
       </c>
       <c r="Y258" s="8"/>
-      <c r="AA258" s="12">
+      <c r="Z258" s="3"/>
+      <c r="AA258" s="11">
         <v>15491.9</v>
       </c>
-    </row>
-    <row r="259" spans="2:27">
+      <c r="AB258" s="14">
+        <v>10502.3</v>
+      </c>
+    </row>
+    <row r="259" spans="2:28">
       <c r="B259" s="3">
         <v>2013.25</v>
       </c>
@@ -16134,11 +16935,15 @@
         <v>103.0065</v>
       </c>
       <c r="Y259" s="8"/>
-      <c r="AA259" s="12">
+      <c r="Z259" s="3"/>
+      <c r="AA259" s="11">
         <v>15521.6</v>
       </c>
-    </row>
-    <row r="260" spans="2:27">
+      <c r="AB259" s="14">
+        <v>10523.9</v>
+      </c>
+    </row>
+    <row r="260" spans="2:28">
       <c r="B260" s="3">
         <v>2013.5</v>
       </c>
@@ -16194,11 +16999,15 @@
         <v>102.47150000000001</v>
       </c>
       <c r="Y260" s="8"/>
-      <c r="AA260" s="12">
+      <c r="Z260" s="3"/>
+      <c r="AA260" s="11">
         <v>15641.3</v>
       </c>
-    </row>
-    <row r="261" spans="2:27">
+      <c r="AB260" s="14">
+        <v>10573.1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:28">
       <c r="B261" s="3">
         <v>2013.75</v>
       </c>
@@ -16254,11 +17063,15 @@
         <v>103.51909999999999</v>
       </c>
       <c r="Y261" s="8"/>
-      <c r="AA261" s="12">
+      <c r="Z261" s="3"/>
+      <c r="AA261" s="11">
         <v>15793.9</v>
       </c>
-    </row>
-    <row r="262" spans="2:27">
+      <c r="AB261" s="14">
+        <v>10662.2</v>
+      </c>
+    </row>
+    <row r="262" spans="2:28">
       <c r="B262" s="3">
         <v>2014</v>
       </c>
@@ -16314,11 +17127,15 @@
         <v>105.4823</v>
       </c>
       <c r="Y262" s="8"/>
-      <c r="AA262" s="12">
+      <c r="Z262" s="3"/>
+      <c r="AA262" s="11">
         <v>15757.6</v>
       </c>
-    </row>
-    <row r="263" spans="2:27">
+      <c r="AB262" s="14">
+        <v>10713.4</v>
+      </c>
+    </row>
+    <row r="263" spans="2:28">
       <c r="B263" s="3">
         <v>2014.25</v>
       </c>
@@ -16374,11 +17191,15 @@
         <v>107.128</v>
       </c>
       <c r="Y263" s="8"/>
-      <c r="AA263" s="12">
+      <c r="Z263" s="3"/>
+      <c r="AA263" s="11">
         <v>15935.8</v>
       </c>
-    </row>
-    <row r="264" spans="2:27">
+      <c r="AB263" s="14">
+        <v>10805.1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:28">
       <c r="B264" s="3">
         <v>2014.5</v>
       </c>
@@ -16434,11 +17255,15 @@
         <v>108.57299999999999</v>
       </c>
       <c r="Y264" s="8"/>
-      <c r="AA264" s="12">
+      <c r="Z264" s="3"/>
+      <c r="AA264" s="11">
         <v>16139.5</v>
       </c>
-    </row>
-    <row r="265" spans="2:27">
+      <c r="AB264" s="14">
+        <v>10909.9</v>
+      </c>
+    </row>
+    <row r="265" spans="2:28">
       <c r="B265" s="3">
         <v>2014.75</v>
       </c>
@@ -16494,11 +17319,15 @@
         <v>109.0459</v>
       </c>
       <c r="Y265" s="8"/>
-      <c r="AA265" s="12">
+      <c r="Z265" s="3"/>
+      <c r="AA265" s="11">
         <v>16220.2</v>
       </c>
-    </row>
-    <row r="266" spans="2:27">
+      <c r="AB265" s="14">
+        <v>11045.2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:28">
       <c r="B266" s="3">
         <v>2015</v>
       </c>
@@ -16554,11 +17383,15 @@
         <v>110.3961</v>
       </c>
       <c r="Y266" s="8"/>
-      <c r="AA266" s="12">
+      <c r="Z266" s="3"/>
+      <c r="AA266" s="11">
         <v>16350</v>
       </c>
-    </row>
-    <row r="267" spans="2:27">
+      <c r="AB266" s="14">
+        <v>11145.3</v>
+      </c>
+    </row>
+    <row r="267" spans="2:28">
       <c r="B267" s="3">
         <v>2015.25</v>
       </c>
@@ -16614,11 +17447,15 @@
         <v>109.3441</v>
       </c>
       <c r="Y267" s="8"/>
-      <c r="AA267" s="12">
+      <c r="Z267" s="3"/>
+      <c r="AA267" s="11">
         <v>16460.900000000001</v>
       </c>
-    </row>
-    <row r="268" spans="2:27">
+      <c r="AB267" s="14">
+        <v>11227.9</v>
+      </c>
+    </row>
+    <row r="268" spans="2:28">
       <c r="B268" s="3">
         <v>2015.5</v>
       </c>
@@ -16674,11 +17511,15 @@
         <v>110.6628</v>
       </c>
       <c r="Y268" s="8"/>
-      <c r="AA268" s="12">
+      <c r="Z268" s="3"/>
+      <c r="AA268" s="11">
         <v>16527.599999999999</v>
       </c>
-    </row>
-    <row r="269" spans="2:27">
+      <c r="AB268" s="14">
+        <v>11304.6</v>
+      </c>
+    </row>
+    <row r="269" spans="2:28">
       <c r="B269" s="3">
         <v>2015.75</v>
       </c>
@@ -16734,11 +17575,15 @@
         <v>110.506</v>
       </c>
       <c r="Y269" s="8"/>
-      <c r="AA269" s="12">
+      <c r="Z269" s="3"/>
+      <c r="AA269" s="11">
         <v>16547.599999999999</v>
       </c>
-    </row>
-    <row r="270" spans="2:27">
+      <c r="AB269" s="14">
+        <v>11379.3</v>
+      </c>
+    </row>
+    <row r="270" spans="2:28">
       <c r="B270" s="3">
         <v>2016</v>
       </c>
@@ -16794,11 +17639,15 @@
         <v>109.10169999999999</v>
       </c>
       <c r="Y270" s="8"/>
-      <c r="AA270" s="12">
+      <c r="Z270" s="3"/>
+      <c r="AA270" s="11">
         <v>16571.599999999999</v>
       </c>
-    </row>
-    <row r="271" spans="2:27">
+      <c r="AB270" s="14">
+        <v>11430.5</v>
+      </c>
+    </row>
+    <row r="271" spans="2:28">
       <c r="B271" s="3">
         <v>2016.25</v>
       </c>
@@ -16854,11 +17703,15 @@
         <v>106.43219999999999</v>
       </c>
       <c r="Y271" s="8"/>
-      <c r="AA271" s="12">
+      <c r="Z271" s="3"/>
+      <c r="AA271" s="11">
         <v>16663.5</v>
       </c>
-    </row>
-    <row r="272" spans="2:27">
+      <c r="AB271" s="14">
+        <v>11537.7</v>
+      </c>
+    </row>
+    <row r="272" spans="2:28">
       <c r="B272" s="3">
         <v>2016.5</v>
       </c>
@@ -16914,11 +17767,15 @@
         <v>106.2542</v>
       </c>
       <c r="Y272" s="8"/>
-      <c r="AA272" s="12">
+      <c r="Z272" s="3"/>
+      <c r="AA272" s="11">
         <v>16778.099999999999</v>
       </c>
-    </row>
-    <row r="273" spans="2:27">
+      <c r="AB272" s="14">
+        <v>11618.1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:28">
       <c r="B273" s="3">
         <v>2016.75</v>
       </c>
@@ -16974,11 +17831,15 @@
         <v>106.8733</v>
       </c>
       <c r="Y273" s="8"/>
-      <c r="AA273" s="12">
+      <c r="Z273" s="3"/>
+      <c r="AA273" s="11">
         <v>16851.400000000001</v>
       </c>
-    </row>
-    <row r="274" spans="2:27">
+      <c r="AB273" s="14">
+        <v>11702.1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:28">
       <c r="B274" s="3">
         <v>2017</v>
       </c>
@@ -17034,11 +17895,15 @@
         <v>107.1221</v>
       </c>
       <c r="Y274" s="8"/>
-      <c r="AA274" s="12">
+      <c r="Z274" s="3"/>
+      <c r="AA274" s="11">
         <v>16903.2</v>
       </c>
-    </row>
-    <row r="275" spans="2:27">
+      <c r="AB274" s="14">
+        <v>11758</v>
+      </c>
+    </row>
+    <row r="275" spans="2:28">
       <c r="B275" s="3">
         <v>2017.25</v>
       </c>
@@ -17094,11 +17959,15 @@
         <v>106.991</v>
       </c>
       <c r="Y275" s="8"/>
-      <c r="AA275" s="12">
+      <c r="Z275" s="3"/>
+      <c r="AA275" s="11">
         <v>17031.099999999999</v>
       </c>
-    </row>
-    <row r="276" spans="2:27">
+      <c r="AB275" s="14">
+        <v>11853</v>
+      </c>
+    </row>
+    <row r="276" spans="2:28">
       <c r="B276" s="3">
         <v>2017.5</v>
       </c>
@@ -17151,9 +18020,10 @@
         <v>107.9345</v>
       </c>
       <c r="Y276" s="8"/>
-      <c r="AA276" s="11"/>
-    </row>
-    <row r="277" spans="2:27">
+      <c r="Z276" s="3"/>
+      <c r="AA276" s="10"/>
+    </row>
+    <row r="277" spans="2:28">
       <c r="B277" s="3">
         <v>2017.75</v>
       </c>
@@ -17206,8 +18076,9 @@
         <v>107.8854</v>
       </c>
       <c r="Y277" s="8"/>
-    </row>
-    <row r="278" spans="2:27">
+      <c r="Z277" s="3"/>
+    </row>
+    <row r="278" spans="2:28">
       <c r="B278" s="3">
         <v>2018</v>
       </c>
@@ -17260,8 +18131,9 @@
         <v>110.67400000000001</v>
       </c>
       <c r="Y278" s="8"/>
-    </row>
-    <row r="279" spans="2:27">
+      <c r="Z278" s="3"/>
+    </row>
+    <row r="279" spans="2:28">
       <c r="B279" s="3">
         <v>2018.25</v>
       </c>
@@ -17314,8 +18186,9 @@
         <v>110.52509999999999</v>
       </c>
       <c r="Y279" s="8"/>
-    </row>
-    <row r="280" spans="2:27">
+      <c r="Z279" s="3"/>
+    </row>
+    <row r="280" spans="2:28">
       <c r="M280" s="8"/>
       <c r="N280" s="7"/>
       <c r="O280" s="8"/>
@@ -17329,8 +18202,9 @@
       <c r="W280" s="8"/>
       <c r="X280" s="7"/>
       <c r="Y280" s="8"/>
-    </row>
-    <row r="281" spans="2:27">
+      <c r="Z280" s="3"/>
+    </row>
+    <row r="281" spans="2:28">
       <c r="M281" s="8"/>
       <c r="N281" s="7"/>
       <c r="O281" s="8"/>
@@ -17344,8 +18218,9 @@
       <c r="W281" s="8"/>
       <c r="X281" s="7"/>
       <c r="Y281" s="8"/>
-    </row>
-    <row r="282" spans="2:27">
+      <c r="Z281" s="3"/>
+    </row>
+    <row r="282" spans="2:28">
       <c r="M282" s="8"/>
       <c r="N282" s="7"/>
       <c r="O282" s="8"/>
@@ -17359,6 +18234,142 @@
       <c r="W282" s="8"/>
       <c r="X282" s="7"/>
       <c r="Y282" s="8"/>
+      <c r="Z282" s="3"/>
+    </row>
+    <row r="283" spans="2:28">
+      <c r="Z283" s="3"/>
+    </row>
+    <row r="284" spans="2:28">
+      <c r="Z284" s="3"/>
+    </row>
+    <row r="285" spans="2:28">
+      <c r="Z285" s="3"/>
+    </row>
+    <row r="286" spans="2:28">
+      <c r="Z286" s="3"/>
+    </row>
+    <row r="287" spans="2:28">
+      <c r="Z287" s="3"/>
+    </row>
+    <row r="288" spans="2:28">
+      <c r="Z288" s="3"/>
+    </row>
+    <row r="289" spans="26:26">
+      <c r="Z289" s="3"/>
+    </row>
+    <row r="290" spans="26:26">
+      <c r="Z290" s="3"/>
+    </row>
+    <row r="291" spans="26:26">
+      <c r="Z291" s="3"/>
+    </row>
+    <row r="292" spans="26:26">
+      <c r="Z292" s="3"/>
+    </row>
+    <row r="293" spans="26:26">
+      <c r="Z293" s="3"/>
+    </row>
+    <row r="294" spans="26:26">
+      <c r="Z294" s="3"/>
+    </row>
+    <row r="295" spans="26:26">
+      <c r="Z295" s="3"/>
+    </row>
+    <row r="296" spans="26:26">
+      <c r="Z296" s="3"/>
+    </row>
+    <row r="297" spans="26:26">
+      <c r="Z297" s="3"/>
+    </row>
+    <row r="298" spans="26:26">
+      <c r="Z298" s="3"/>
+    </row>
+    <row r="299" spans="26:26">
+      <c r="Z299" s="3"/>
+    </row>
+    <row r="300" spans="26:26">
+      <c r="Z300" s="3"/>
+    </row>
+    <row r="301" spans="26:26">
+      <c r="Z301" s="3"/>
+    </row>
+    <row r="302" spans="26:26">
+      <c r="Z302" s="3"/>
+    </row>
+    <row r="303" spans="26:26">
+      <c r="Z303" s="3"/>
+    </row>
+    <row r="304" spans="26:26">
+      <c r="Z304" s="3"/>
+    </row>
+    <row r="305" spans="26:26">
+      <c r="Z305" s="3"/>
+    </row>
+    <row r="306" spans="26:26">
+      <c r="Z306" s="3"/>
+    </row>
+    <row r="307" spans="26:26">
+      <c r="Z307" s="3"/>
+    </row>
+    <row r="308" spans="26:26">
+      <c r="Z308" s="3"/>
+    </row>
+    <row r="309" spans="26:26">
+      <c r="Z309" s="3"/>
+    </row>
+    <row r="310" spans="26:26">
+      <c r="Z310" s="3"/>
+    </row>
+    <row r="311" spans="26:26">
+      <c r="Z311" s="3"/>
+    </row>
+    <row r="312" spans="26:26">
+      <c r="Z312" s="3"/>
+    </row>
+    <row r="313" spans="26:26">
+      <c r="Z313" s="3"/>
+    </row>
+    <row r="314" spans="26:26">
+      <c r="Z314" s="3"/>
+    </row>
+    <row r="315" spans="26:26">
+      <c r="Z315" s="3"/>
+    </row>
+    <row r="316" spans="26:26">
+      <c r="Z316" s="3"/>
+    </row>
+    <row r="317" spans="26:26">
+      <c r="Z317" s="3"/>
+    </row>
+    <row r="318" spans="26:26">
+      <c r="Z318" s="3"/>
+    </row>
+    <row r="319" spans="26:26">
+      <c r="Z319" s="3"/>
+    </row>
+    <row r="320" spans="26:26">
+      <c r="Z320" s="3"/>
+    </row>
+    <row r="321" spans="26:26">
+      <c r="Z321" s="3"/>
+    </row>
+    <row r="322" spans="26:26">
+      <c r="Z322" s="3"/>
+    </row>
+    <row r="323" spans="26:26">
+      <c r="Z323" s="3"/>
+    </row>
+    <row r="324" spans="26:26">
+      <c r="Z324" s="3"/>
+    </row>
+    <row r="325" spans="26:26">
+      <c r="Z325" s="3"/>
+    </row>
+    <row r="326" spans="26:26">
+      <c r="Z326" s="3"/>
+    </row>
+    <row r="327" spans="26:26">
+      <c r="Z327" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:AO327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="V223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="H19" sqref="H19"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\Noise_Over_Cycles\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun/Desktop/Literature/Beliefs/Noise_Over_Cycles/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -167,12 +170,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,16 +253,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +607,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="V223" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="AA56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" customWidth="1"/>
     <col min="4" max="4" width="22" style="3"/>
     <col min="5" max="5" width="22" style="4"/>
@@ -651,7 +654,7 @@
     <col min="41" max="16384" width="22" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -776,7 +779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="3" customFormat="1">
+    <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,7 +865,7 @@
         <v>5</v>
       </c>
       <c r="AC2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD2" s="2">
         <v>5</v>
@@ -901,7 +904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:41" s="3" customFormat="1">
+    <row r="3" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" s="3" customFormat="1">
+    <row r="4" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:41" s="3" customFormat="1">
+    <row r="5" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>1950</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>1.2816901408450703</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>1950.25</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>1.3066922736002364</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1950.5</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>1.4061596298438404</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>1950.75</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>1.4485450674237048</v>
       </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>1951</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>1.4661551109893121</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>1951.25</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>1.4266267356384428</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>1951.5</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>1.5822052921569962</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>1951.75</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>1.5986280180240768</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>1952</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>1.6396420641862344</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>1952.25</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>1.6771939255476416</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>1952.5</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>1.6307814992025518</v>
       </c>
     </row>
-    <row r="17" spans="2:39">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>1952.75</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>1.7606520442647937</v>
       </c>
     </row>
-    <row r="18" spans="2:39">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>1953</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>1.6752782193958664</v>
       </c>
     </row>
-    <row r="19" spans="2:39">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>1953.25</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>1.5960330578512396</v>
       </c>
     </row>
-    <row r="20" spans="2:39">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>1953.5</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>1.537397945746642</v>
       </c>
     </row>
-    <row r="21" spans="2:39">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>1953.75</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>1.6301990932387147</v>
       </c>
     </row>
-    <row r="22" spans="2:39">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>1954</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>1.7647058823529413</v>
       </c>
     </row>
-    <row r="23" spans="2:39">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>1954.25</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>1.9115241149139455</v>
       </c>
     </row>
-    <row r="24" spans="2:39">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>1954.5</v>
       </c>
@@ -2421,7 +2424,7 @@
         <v>2.111764705882353</v>
       </c>
     </row>
-    <row r="25" spans="2:39">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>1954.75</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>2.3450433422407611</v>
       </c>
     </row>
-    <row r="26" spans="2:39">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>1955</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>2.3727054550171887</v>
       </c>
     </row>
-    <row r="27" spans="2:39">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>1955.25</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>2.6503455849105357</v>
       </c>
     </row>
-    <row r="28" spans="2:39">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>1955.5</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>2.8011545862732521</v>
       </c>
     </row>
-    <row r="29" spans="2:39">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>1955.75</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>2.8889030045099409</v>
       </c>
     </row>
-    <row r="30" spans="2:39">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>1956</v>
       </c>
@@ -2811,7 +2814,7 @@
         <v>3.0486731228776254</v>
       </c>
     </row>
-    <row r="31" spans="2:39">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>1956.25</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>2.9361755329124208</v>
       </c>
     </row>
-    <row r="32" spans="2:39">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>1956.5</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>2.7999012162746189</v>
       </c>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>1956.75</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>2.8695277914412203</v>
       </c>
     </row>
-    <row r="34" spans="2:40">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>1957</v>
       </c>
@@ -3071,7 +3074,7 @@
         <v>2.6757658477403701</v>
       </c>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>1957.25</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>2.8534425637009817</v>
       </c>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>1957.5</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>2.5399676666067901</v>
       </c>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>1957.75</v>
       </c>
@@ -3266,7 +3269,7 @@
         <v>2.3930345281551078</v>
       </c>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>1958</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>2.4923040492540851</v>
       </c>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <v>1958.25</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>2.6706021251475796</v>
       </c>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <v>1958.5</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>2.9372763011206948</v>
       </c>
     </row>
-    <row r="41" spans="2:40">
+    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <v>1958.75</v>
       </c>
@@ -3526,7 +3529,7 @@
         <v>3.2243181685452313</v>
       </c>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <v>1959</v>
       </c>
@@ -3591,7 +3594,7 @@
         <v>3.2290756596190806</v>
       </c>
     </row>
-    <row r="43" spans="2:40">
+    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <v>1959.25</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>3.4006048621612193</v>
       </c>
     </row>
-    <row r="44" spans="2:40">
+    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <v>1959.5</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>3.2958627882721059</v>
       </c>
     </row>
-    <row r="45" spans="2:40">
+    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
         <v>1959.75</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>3.4566547385432296</v>
       </c>
     </row>
-    <row r="46" spans="2:40">
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <v>1960</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="2:40">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <v>1960.25</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="2:40">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <v>1960.5</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="2:40">
+    <row r="49" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <v>1960.75</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="2:40">
+    <row r="50" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <v>1961</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="2:40">
+    <row r="51" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
         <v>1961.25</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="2:40">
+    <row r="52" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <v>1961.5</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="2:40">
+    <row r="53" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <v>1961.75</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="2:40">
+    <row r="54" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <v>1962</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="2:40">
+    <row r="55" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <v>1962.25</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="2:40">
+    <row r="56" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
         <v>1962.5</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="2:40">
+    <row r="57" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
         <v>1962.75</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:40">
+    <row r="58" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <v>1963</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="2:40">
+    <row r="59" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <v>1963.25</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:40">
+    <row r="60" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
         <v>1963.5</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:40">
+    <row r="61" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <v>1963.75</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="2:40">
+    <row r="62" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
         <v>1964</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="2:40">
+    <row r="63" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <v>1964.25</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="2:40">
+    <row r="64" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <v>1964.5</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="2:40">
+    <row r="65" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
         <v>1964.75</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="2:40">
+    <row r="66" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
         <v>1965</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="2:40">
+    <row r="67" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B67" s="3">
         <v>1965.25</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="2:40">
+    <row r="68" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B68" s="3">
         <v>1965.5</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:40">
+    <row r="69" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B69" s="3">
         <v>1965.75</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:40">
+    <row r="70" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B70" s="3">
         <v>1966</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="2:40">
+    <row r="71" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B71" s="3">
         <v>1966.25</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="2:40">
+    <row r="72" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B72" s="3">
         <v>1966.5</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="2:40">
+    <row r="73" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B73" s="3">
         <v>1966.75</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="2:40">
+    <row r="74" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B74" s="3">
         <v>1967</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="2:40">
+    <row r="75" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B75" s="3">
         <v>1967.25</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="2:40">
+    <row r="76" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B76" s="3">
         <v>1967.5</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="2:40">
+    <row r="77" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B77" s="3">
         <v>1967.75</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="2:40">
+    <row r="78" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B78" s="3">
         <v>1968</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="2:40">
+    <row r="79" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B79" s="3">
         <v>1968.25</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="2:40">
+    <row r="80" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B80" s="3">
         <v>1968.5</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="2:40">
+    <row r="81" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B81" s="3">
         <v>1968.75</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="2:40">
+    <row r="82" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B82" s="3">
         <v>1969</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="2:40">
+    <row r="83" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
         <v>1969.25</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="2:40">
+    <row r="84" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B84" s="3">
         <v>1969.5</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:40">
+    <row r="85" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B85" s="3">
         <v>1969.75</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="2:40">
+    <row r="86" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B86" s="3">
         <v>1970</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="2:40">
+    <row r="87" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B87" s="3">
         <v>1970.25</v>
       </c>
@@ -6888,7 +6891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="2:40">
+    <row r="88" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B88" s="3">
         <v>1970.5</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="2:40">
+    <row r="89" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B89" s="3">
         <v>1970.75</v>
       </c>
@@ -7094,7 +7097,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="2:40">
+    <row r="90" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B90" s="3">
         <v>1971</v>
       </c>
@@ -7197,7 +7200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="2:40">
+    <row r="91" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B91" s="3">
         <v>1971.25</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="2:40">
+    <row r="92" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B92" s="3">
         <v>1971.5</v>
       </c>
@@ -7403,7 +7406,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="2:40">
+    <row r="93" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B93" s="3">
         <v>1971.75</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="2:40">
+    <row r="94" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B94" s="3">
         <v>1972</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="2:40">
+    <row r="95" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B95" s="3">
         <v>1972.25</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="2:40">
+    <row r="96" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B96" s="3">
         <v>1972.5</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="2:40">
+    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B97" s="3">
         <v>1972.75</v>
       </c>
@@ -7918,7 +7921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="2:40">
+    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B98" s="3">
         <v>1973</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="99" spans="2:40">
+    <row r="99" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B99" s="3">
         <v>1973.25</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="2:40">
+    <row r="100" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B100" s="3">
         <v>1973.5</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="2:40">
+    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B101" s="3">
         <v>1973.75</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="2:40">
+    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B102" s="3">
         <v>1974</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:40">
+    <row r="103" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B103" s="3">
         <v>1974.25</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="2:40">
+    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B104" s="3">
         <v>1974.5</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="2:40">
+    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B105" s="3">
         <v>1974.75</v>
       </c>
@@ -8743,7 +8746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="2:40">
+    <row r="106" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B106" s="3">
         <v>1975</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:40">
+    <row r="107" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
         <v>1975.25</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="2:40">
+    <row r="108" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B108" s="3">
         <v>1975.5</v>
       </c>
@@ -9052,7 +9055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="2:40">
+    <row r="109" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B109" s="3">
         <v>1975.75</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="2:40">
+    <row r="110" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B110" s="3">
         <v>1976</v>
       </c>
@@ -9258,7 +9261,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="2:40">
+    <row r="111" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B111" s="3">
         <v>1976.25</v>
       </c>
@@ -9361,7 +9364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="2:40">
+    <row r="112" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B112" s="3">
         <v>1976.5</v>
       </c>
@@ -9464,7 +9467,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="2:41">
+    <row r="113" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
         <v>1976.75</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="2:41">
+    <row r="114" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
         <v>1977</v>
       </c>
@@ -9670,7 +9673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="2:41">
+    <row r="115" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B115" s="3">
         <v>1977.25</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="2:41">
+    <row r="116" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B116" s="3">
         <v>1977.5</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="2:41">
+    <row r="117" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B117" s="3">
         <v>1977.75</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="118" spans="2:41">
+    <row r="118" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B118" s="3">
         <v>1978</v>
       </c>
@@ -10082,7 +10085,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="2:41">
+    <row r="119" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B119" s="3">
         <v>1978.25</v>
       </c>
@@ -10188,7 +10191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="2:41">
+    <row r="120" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B120" s="3">
         <v>1978.5</v>
       </c>
@@ -10294,7 +10297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="2:41">
+    <row r="121" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B121" s="3">
         <v>1978.75</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="2:41">
+    <row r="122" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B122" s="3">
         <v>1979</v>
       </c>
@@ -10506,7 +10509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="2:41">
+    <row r="123" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B123" s="3">
         <v>1979.25</v>
       </c>
@@ -10612,7 +10615,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="124" spans="2:41">
+    <row r="124" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B124" s="3">
         <v>1979.5</v>
       </c>
@@ -10718,7 +10721,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="2:41">
+    <row r="125" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B125" s="3">
         <v>1979.75</v>
       </c>
@@ -10824,7 +10827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="2:41">
+    <row r="126" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B126" s="3">
         <v>1980</v>
       </c>
@@ -10930,7 +10933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="2:41">
+    <row r="127" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B127" s="3">
         <v>1980.25</v>
       </c>
@@ -11036,7 +11039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="2:41">
+    <row r="128" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B128" s="3">
         <v>1980.5</v>
       </c>
@@ -11142,7 +11145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="2:41">
+    <row r="129" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B129" s="3">
         <v>1980.75</v>
       </c>
@@ -11248,7 +11251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="2:41">
+    <row r="130" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B130" s="3">
         <v>1981</v>
       </c>
@@ -11354,7 +11357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="2:41">
+    <row r="131" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B131" s="3">
         <v>1981.25</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="2:41">
+    <row r="132" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B132" s="3">
         <v>1981.5</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="2:41">
+    <row r="133" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B133" s="3">
         <v>1981.75</v>
       </c>
@@ -11704,7 +11707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="2:41">
+    <row r="134" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B134" s="3">
         <v>1982</v>
       </c>
@@ -11826,7 +11829,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="2:41">
+    <row r="135" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B135" s="3">
         <v>1982.25</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="2:41">
+    <row r="136" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B136" s="3">
         <v>1982.5</v>
       </c>
@@ -12070,7 +12073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="2:41">
+    <row r="137" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B137" s="3">
         <v>1982.75</v>
       </c>
@@ -12192,7 +12195,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="138" spans="2:41">
+    <row r="138" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B138" s="3">
         <v>1983</v>
       </c>
@@ -12314,7 +12317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="2:41">
+    <row r="139" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B139" s="3">
         <v>1983.25</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="2:41">
+    <row r="140" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B140" s="3">
         <v>1983.5</v>
       </c>
@@ -12558,7 +12561,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="141" spans="2:41">
+    <row r="141" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B141" s="3">
         <v>1983.75</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="2:41">
+    <row r="142" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B142" s="3">
         <v>1984</v>
       </c>
@@ -12802,7 +12805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="143" spans="2:41">
+    <row r="143" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B143" s="3">
         <v>1984.25</v>
       </c>
@@ -12924,7 +12927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="2:41">
+    <row r="144" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B144" s="3">
         <v>1984.5</v>
       </c>
@@ -13046,7 +13049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="2:41">
+    <row r="145" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B145" s="3">
         <v>1984.75</v>
       </c>
@@ -13168,7 +13171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="146" spans="2:41">
+    <row r="146" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B146" s="3">
         <v>1985</v>
       </c>
@@ -13290,7 +13293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="147" spans="2:41">
+    <row r="147" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B147" s="3">
         <v>1985.25</v>
       </c>
@@ -13412,7 +13415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="2:41">
+    <row r="148" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B148" s="3">
         <v>1985.5</v>
       </c>
@@ -13534,7 +13537,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="2:41">
+    <row r="149" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B149" s="3">
         <v>1985.75</v>
       </c>
@@ -13656,7 +13659,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="2:41">
+    <row r="150" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B150" s="3">
         <v>1986</v>
       </c>
@@ -13778,7 +13781,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="2:41">
+    <row r="151" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B151" s="3">
         <v>1986.25</v>
       </c>
@@ -13900,7 +13903,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="2:41">
+    <row r="152" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B152" s="3">
         <v>1986.5</v>
       </c>
@@ -14022,7 +14025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="153" spans="2:41">
+    <row r="153" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B153" s="3">
         <v>1986.75</v>
       </c>
@@ -14144,7 +14147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="2:41">
+    <row r="154" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B154" s="3">
         <v>1987</v>
       </c>
@@ -14266,7 +14269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="155" spans="2:41">
+    <row r="155" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B155" s="3">
         <v>1987.25</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="2:41">
+    <row r="156" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B156" s="3">
         <v>1987.5</v>
       </c>
@@ -14510,7 +14513,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="2:41">
+    <row r="157" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B157" s="3">
         <v>1987.75</v>
       </c>
@@ -14632,7 +14635,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="158" spans="2:41">
+    <row r="158" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B158" s="3">
         <v>1988</v>
       </c>
@@ -14754,7 +14757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="159" spans="2:41">
+    <row r="159" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B159" s="3">
         <v>1988.25</v>
       </c>
@@ -14876,7 +14879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="2:41">
+    <row r="160" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B160" s="3">
         <v>1988.5</v>
       </c>
@@ -14998,7 +15001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="2:41">
+    <row r="161" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B161" s="3">
         <v>1988.75</v>
       </c>
@@ -15120,7 +15123,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="2:41">
+    <row r="162" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B162" s="3">
         <v>1989</v>
       </c>
@@ -15242,7 +15245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="2:41">
+    <row r="163" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B163" s="3">
         <v>1989.25</v>
       </c>
@@ -15364,7 +15367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="2:41">
+    <row r="164" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B164" s="3">
         <v>1989.5</v>
       </c>
@@ -15486,7 +15489,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="2:41">
+    <row r="165" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B165" s="3">
         <v>1989.75</v>
       </c>
@@ -15608,7 +15611,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="2:41">
+    <row r="166" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B166" s="3">
         <v>1990</v>
       </c>
@@ -15730,7 +15733,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="167" spans="2:41">
+    <row r="167" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B167" s="3">
         <v>1990.25</v>
       </c>
@@ -15852,7 +15855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="2:41">
+    <row r="168" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B168" s="3">
         <v>1990.5</v>
       </c>
@@ -15974,7 +15977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="2:41">
+    <row r="169" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B169" s="3">
         <v>1990.75</v>
       </c>
@@ -16096,7 +16099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="2:41">
+    <row r="170" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B170" s="3">
         <v>1991</v>
       </c>
@@ -16218,7 +16221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="171" spans="2:41">
+    <row r="171" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B171" s="3">
         <v>1991.25</v>
       </c>
@@ -16340,7 +16343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="2:41">
+    <row r="172" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B172" s="3">
         <v>1991.5</v>
       </c>
@@ -16462,7 +16465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="173" spans="2:41">
+    <row r="173" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B173" s="3">
         <v>1991.75</v>
       </c>
@@ -16584,7 +16587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="2:41">
+    <row r="174" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B174" s="3">
         <v>1992</v>
       </c>
@@ -16706,7 +16709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="2:41">
+    <row r="175" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B175" s="3">
         <v>1992.25</v>
       </c>
@@ -16828,7 +16831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="2:41">
+    <row r="176" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B176" s="3">
         <v>1992.5</v>
       </c>
@@ -16950,7 +16953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="2:41">
+    <row r="177" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B177" s="3">
         <v>1992.75</v>
       </c>
@@ -17072,7 +17075,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="178" spans="2:41">
+    <row r="178" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B178" s="3">
         <v>1993</v>
       </c>
@@ -17194,7 +17197,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" spans="2:41">
+    <row r="179" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B179" s="3">
         <v>1993.25</v>
       </c>
@@ -17316,7 +17319,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180" spans="2:41">
+    <row r="180" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B180" s="3">
         <v>1993.5</v>
       </c>
@@ -17438,7 +17441,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="2:41">
+    <row r="181" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B181" s="3">
         <v>1993.75</v>
       </c>
@@ -17560,7 +17563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="182" spans="2:41">
+    <row r="182" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B182" s="3">
         <v>1994</v>
       </c>
@@ -17682,7 +17685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="183" spans="2:41">
+    <row r="183" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B183" s="3">
         <v>1994.25</v>
       </c>
@@ -17804,7 +17807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="184" spans="2:41">
+    <row r="184" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B184" s="3">
         <v>1994.5</v>
       </c>
@@ -17926,7 +17929,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="2:41">
+    <row r="185" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B185" s="3">
         <v>1994.75</v>
       </c>
@@ -18048,7 +18051,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="186" spans="2:41">
+    <row r="186" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B186" s="3">
         <v>1995</v>
       </c>
@@ -18170,7 +18173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="187" spans="2:41">
+    <row r="187" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B187" s="3">
         <v>1995.25</v>
       </c>
@@ -18292,7 +18295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="188" spans="2:41">
+    <row r="188" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B188" s="3">
         <v>1995.5</v>
       </c>
@@ -18414,7 +18417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="189" spans="2:41">
+    <row r="189" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B189" s="3">
         <v>1995.75</v>
       </c>
@@ -18536,7 +18539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="2:41">
+    <row r="190" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B190" s="3">
         <v>1996</v>
       </c>
@@ -18658,7 +18661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="2:41">
+    <row r="191" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B191" s="3">
         <v>1996.25</v>
       </c>
@@ -18780,7 +18783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="2:41">
+    <row r="192" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B192" s="3">
         <v>1996.5</v>
       </c>
@@ -18902,7 +18905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="2:41">
+    <row r="193" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B193" s="3">
         <v>1996.75</v>
       </c>
@@ -19024,7 +19027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="194" spans="2:41">
+    <row r="194" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B194" s="3">
         <v>1997</v>
       </c>
@@ -19146,7 +19149,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="195" spans="2:41">
+    <row r="195" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B195" s="3">
         <v>1997.25</v>
       </c>
@@ -19268,7 +19271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="196" spans="2:41">
+    <row r="196" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B196" s="3">
         <v>1997.5</v>
       </c>
@@ -19390,7 +19393,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="197" spans="2:41">
+    <row r="197" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B197" s="3">
         <v>1997.75</v>
       </c>
@@ -19512,7 +19515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="2:41">
+    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B198" s="3">
         <v>1998</v>
       </c>
@@ -19634,7 +19637,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="199" spans="2:41">
+    <row r="199" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B199" s="3">
         <v>1998.25</v>
       </c>
@@ -19756,7 +19759,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="200" spans="2:41">
+    <row r="200" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B200" s="3">
         <v>1998.5</v>
       </c>
@@ -19878,7 +19881,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="2:41">
+    <row r="201" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B201" s="3">
         <v>1998.75</v>
       </c>
@@ -20000,7 +20003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="202" spans="2:41">
+    <row r="202" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B202" s="3">
         <v>1999</v>
       </c>
@@ -20122,7 +20125,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="2:41">
+    <row r="203" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B203" s="3">
         <v>1999.25</v>
       </c>
@@ -20244,7 +20247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="204" spans="2:41">
+    <row r="204" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B204" s="3">
         <v>1999.5</v>
       </c>
@@ -20366,7 +20369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="205" spans="2:41">
+    <row r="205" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B205" s="3">
         <v>1999.75</v>
       </c>
@@ -20488,7 +20491,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="206" spans="2:41">
+    <row r="206" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B206" s="3">
         <v>2000</v>
       </c>
@@ -20610,7 +20613,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="2:41">
+    <row r="207" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B207" s="3">
         <v>2000.25</v>
       </c>
@@ -20732,7 +20735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="208" spans="2:41">
+    <row r="208" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B208" s="3">
         <v>2000.5</v>
       </c>
@@ -20854,7 +20857,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="209" spans="2:41">
+    <row r="209" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B209" s="3">
         <v>2000.75</v>
       </c>
@@ -20976,7 +20979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="210" spans="2:41">
+    <row r="210" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B210" s="3">
         <v>2001</v>
       </c>
@@ -21098,7 +21101,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="211" spans="2:41">
+    <row r="211" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B211" s="3">
         <v>2001.25</v>
       </c>
@@ -21220,7 +21223,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="2:41">
+    <row r="212" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B212" s="3">
         <v>2001.5</v>
       </c>
@@ -21342,7 +21345,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="213" spans="2:41">
+    <row r="213" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B213" s="3">
         <v>2001.75</v>
       </c>
@@ -21464,7 +21467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="2:41">
+    <row r="214" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B214" s="3">
         <v>2002</v>
       </c>
@@ -21586,7 +21589,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215" spans="2:41">
+    <row r="215" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B215" s="3">
         <v>2002.25</v>
       </c>
@@ -21708,7 +21711,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="216" spans="2:41">
+    <row r="216" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B216" s="3">
         <v>2002.5</v>
       </c>
@@ -21830,7 +21833,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="217" spans="2:41">
+    <row r="217" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B217" s="3">
         <v>2002.75</v>
       </c>
@@ -21952,7 +21955,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="218" spans="2:41">
+    <row r="218" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B218" s="3">
         <v>2003</v>
       </c>
@@ -22074,7 +22077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="219" spans="2:41">
+    <row r="219" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B219" s="3">
         <v>2003.25</v>
       </c>
@@ -22196,7 +22199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="220" spans="2:41">
+    <row r="220" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B220" s="3">
         <v>2003.5</v>
       </c>
@@ -22318,7 +22321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="221" spans="2:41">
+    <row r="221" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B221" s="3">
         <v>2003.75</v>
       </c>
@@ -22440,7 +22443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="222" spans="2:41">
+    <row r="222" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B222" s="3">
         <v>2004</v>
       </c>
@@ -22562,7 +22565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="2:41">
+    <row r="223" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B223" s="3">
         <v>2004.25</v>
       </c>
@@ -22684,7 +22687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="2:41">
+    <row r="224" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B224" s="3">
         <v>2004.5</v>
       </c>
@@ -22806,7 +22809,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="225" spans="2:41">
+    <row r="225" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B225" s="3">
         <v>2004.75</v>
       </c>
@@ -22928,7 +22931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="2:41">
+    <row r="226" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B226" s="3">
         <v>2005</v>
       </c>
@@ -23050,7 +23053,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="227" spans="2:41">
+    <row r="227" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B227" s="3">
         <v>2005.25</v>
       </c>
@@ -23172,7 +23175,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="228" spans="2:41">
+    <row r="228" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B228" s="3">
         <v>2005.5</v>
       </c>
@@ -23294,7 +23297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="229" spans="2:41">
+    <row r="229" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B229" s="3">
         <v>2005.75</v>
       </c>
@@ -23416,7 +23419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="2:41">
+    <row r="230" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B230" s="3">
         <v>2006</v>
       </c>
@@ -23538,7 +23541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="231" spans="2:41">
+    <row r="231" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B231" s="3">
         <v>2006.25</v>
       </c>
@@ -23658,7 +23661,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="232" spans="2:41">
+    <row r="232" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B232" s="3">
         <v>2006.5</v>
       </c>
@@ -23778,7 +23781,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="233" spans="2:41">
+    <row r="233" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B233" s="3">
         <v>2006.75</v>
       </c>
@@ -23898,7 +23901,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="234" spans="2:41">
+    <row r="234" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B234" s="3">
         <v>2007</v>
       </c>
@@ -24003,7 +24006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="2:41">
+    <row r="235" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B235" s="3">
         <v>2007.25</v>
       </c>
@@ -24108,7 +24111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="236" spans="2:41">
+    <row r="236" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B236" s="3">
         <v>2007.5</v>
       </c>
@@ -24213,7 +24216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="237" spans="2:41">
+    <row r="237" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B237" s="3">
         <v>2007.75</v>
       </c>
@@ -24318,7 +24321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="238" spans="2:41">
+    <row r="238" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B238" s="3">
         <v>2008</v>
       </c>
@@ -24423,7 +24426,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="239" spans="2:41">
+    <row r="239" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B239" s="3">
         <v>2008.25</v>
       </c>
@@ -24528,7 +24531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="240" spans="2:41">
+    <row r="240" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B240" s="3">
         <v>2008.5</v>
       </c>
@@ -24633,7 +24636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241" spans="2:41">
+    <row r="241" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B241" s="3">
         <v>2008.75</v>
       </c>
@@ -24738,7 +24741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="242" spans="2:41">
+    <row r="242" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B242" s="3">
         <v>2009</v>
       </c>
@@ -24843,7 +24846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="243" spans="2:41">
+    <row r="243" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B243" s="3">
         <v>2009.25</v>
       </c>
@@ -24948,7 +24951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="244" spans="2:41">
+    <row r="244" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B244" s="3">
         <v>2009.5</v>
       </c>
@@ -25053,7 +25056,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="2:41">
+    <row r="245" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B245" s="3">
         <v>2009.75</v>
       </c>
@@ -25158,7 +25161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="2:41">
+    <row r="246" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B246" s="3">
         <v>2010</v>
       </c>
@@ -25261,7 +25264,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="247" spans="2:41">
+    <row r="247" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B247" s="3">
         <v>2010.25</v>
       </c>
@@ -25364,7 +25367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="248" spans="2:41">
+    <row r="248" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B248" s="3">
         <v>2010.5</v>
       </c>
@@ -25467,7 +25470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="2:41">
+    <row r="249" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B249" s="3">
         <v>2010.75</v>
       </c>
@@ -25570,7 +25573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" spans="2:41">
+    <row r="250" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B250" s="3">
         <v>2011</v>
       </c>
@@ -25673,7 +25676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="251" spans="2:41">
+    <row r="251" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B251" s="3">
         <v>2011.25</v>
       </c>
@@ -25776,7 +25779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="252" spans="2:41">
+    <row r="252" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B252" s="3">
         <v>2011.5</v>
       </c>
@@ -25879,7 +25882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="253" spans="2:41">
+    <row r="253" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B253" s="3">
         <v>2011.75</v>
       </c>
@@ -25982,7 +25985,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="254" spans="2:41">
+    <row r="254" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B254" s="3">
         <v>2012</v>
       </c>
@@ -26085,7 +26088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="255" spans="2:41">
+    <row r="255" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B255" s="3">
         <v>2012.25</v>
       </c>
@@ -26188,7 +26191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="256" spans="2:41">
+    <row r="256" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B256" s="3">
         <v>2012.5</v>
       </c>
@@ -26291,7 +26294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="2:41">
+    <row r="257" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B257" s="3">
         <v>2012.75</v>
       </c>
@@ -26394,7 +26397,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="2:41">
+    <row r="258" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B258" s="3">
         <v>2013</v>
       </c>
@@ -26497,7 +26500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="2:41">
+    <row r="259" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B259" s="3">
         <v>2013.25</v>
       </c>
@@ -26600,7 +26603,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="2:41">
+    <row r="260" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B260" s="3">
         <v>2013.5</v>
       </c>
@@ -26703,7 +26706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="2:41">
+    <row r="261" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B261" s="3">
         <v>2013.75</v>
       </c>
@@ -26806,7 +26809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="262" spans="2:41">
+    <row r="262" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B262" s="3">
         <v>2014</v>
       </c>
@@ -26909,7 +26912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="263" spans="2:41">
+    <row r="263" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B263" s="3">
         <v>2014.25</v>
       </c>
@@ -27012,7 +27015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="264" spans="2:41">
+    <row r="264" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B264" s="3">
         <v>2014.5</v>
       </c>
@@ -27115,7 +27118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="265" spans="2:41">
+    <row r="265" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B265" s="3">
         <v>2014.75</v>
       </c>
@@ -27218,7 +27221,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="2:41">
+    <row r="266" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B266" s="3">
         <v>2015</v>
       </c>
@@ -27321,7 +27324,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="267" spans="2:41">
+    <row r="267" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B267" s="3">
         <v>2015.25</v>
       </c>
@@ -27424,7 +27427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="268" spans="2:41">
+    <row r="268" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B268" s="3">
         <v>2015.5</v>
       </c>
@@ -27527,7 +27530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="269" spans="2:41">
+    <row r="269" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B269" s="3">
         <v>2015.75</v>
       </c>
@@ -27630,7 +27633,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="270" spans="2:41">
+    <row r="270" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B270" s="3">
         <v>2016</v>
       </c>
@@ -27733,7 +27736,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="271" spans="2:41">
+    <row r="271" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B271" s="3">
         <v>2016.25</v>
       </c>
@@ -27836,7 +27839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="272" spans="2:41">
+    <row r="272" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B272" s="3">
         <v>2016.5</v>
       </c>
@@ -27939,7 +27942,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="273" spans="2:41">
+    <row r="273" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B273" s="3">
         <v>2016.75</v>
       </c>
@@ -28042,7 +28045,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="2:41">
+    <row r="274" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B274" s="3">
         <v>2017</v>
       </c>
@@ -28145,7 +28148,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="275" spans="2:41">
+    <row r="275" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B275" s="3">
         <v>2017.25</v>
       </c>
@@ -28248,7 +28251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="276" spans="2:41">
+    <row r="276" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B276" s="3">
         <v>2017.5</v>
       </c>
@@ -28336,7 +28339,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="277" spans="2:41">
+    <row r="277" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B277" s="3">
         <v>2017.75</v>
       </c>
@@ -28391,7 +28394,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" spans="2:41">
+    <row r="278" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B278" s="3">
         <v>2018</v>
       </c>
@@ -28446,7 +28449,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" spans="2:41">
+    <row r="279" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B279" s="3">
         <v>2018.25</v>
       </c>
@@ -28501,7 +28504,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" spans="2:41">
+    <row r="280" spans="2:41" x14ac:dyDescent="0.2">
       <c r="M280" s="5"/>
       <c r="N280" s="12"/>
       <c r="O280" s="5"/>
@@ -28517,7 +28520,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" spans="2:41">
+    <row r="281" spans="2:41" x14ac:dyDescent="0.2">
       <c r="M281" s="5"/>
       <c r="N281" s="12"/>
       <c r="O281" s="5"/>
@@ -28533,7 +28536,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" spans="2:41">
+    <row r="282" spans="2:41" x14ac:dyDescent="0.2">
       <c r="M282" s="5"/>
       <c r="N282" s="12"/>
       <c r="O282" s="5"/>
@@ -28549,139 +28552,139 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" spans="2:41">
+    <row r="283" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" spans="2:41">
+    <row r="284" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" spans="2:41">
+    <row r="285" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" spans="2:41">
+    <row r="286" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" spans="2:41">
+    <row r="287" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" spans="2:41">
+    <row r="288" spans="2:41" x14ac:dyDescent="0.2">
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" spans="26:26">
+    <row r="289" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" spans="26:26">
+    <row r="290" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" spans="26:26">
+    <row r="291" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" spans="26:26">
+    <row r="292" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" spans="26:26">
+    <row r="293" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" spans="26:26">
+    <row r="294" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" spans="26:26">
+    <row r="295" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" spans="26:26">
+    <row r="296" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" spans="26:26">
+    <row r="297" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" spans="26:26">
+    <row r="298" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" spans="26:26">
+    <row r="299" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" spans="26:26">
+    <row r="300" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" spans="26:26">
+    <row r="301" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" spans="26:26">
+    <row r="302" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" spans="26:26">
+    <row r="303" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" spans="26:26">
+    <row r="304" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" spans="26:26">
+    <row r="305" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" spans="26:26">
+    <row r="306" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" spans="26:26">
+    <row r="307" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" spans="26:26">
+    <row r="308" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" spans="26:26">
+    <row r="309" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" spans="26:26">
+    <row r="310" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" spans="26:26">
+    <row r="311" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" spans="26:26">
+    <row r="312" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" spans="26:26">
+    <row r="313" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" spans="26:26">
+    <row r="314" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" spans="26:26">
+    <row r="315" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" spans="26:26">
+    <row r="316" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" spans="26:26">
+    <row r="317" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" spans="26:26">
+    <row r="318" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" spans="26:26">
+    <row r="319" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" spans="26:26">
+    <row r="320" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" spans="26:26">
+    <row r="321" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" spans="26:26">
+    <row r="322" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" spans="26:26">
+    <row r="323" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" spans="26:26">
+    <row r="324" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" spans="26:26">
+    <row r="325" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" spans="26:26">
+    <row r="326" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" spans="26:26">
+    <row r="327" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z327" s="3"/>
     </row>
   </sheetData>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun/Desktop/Literature/Beliefs/Noise_Over_Cycles/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\Noise_Over_Cycles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -166,16 +166,22 @@
   <si>
     <t>Mich5Y</t>
   </si>
+  <si>
+    <t>GDPDefl</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +224,23 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -273,7 +296,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +344,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -605,19 +634,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO327"/>
+  <dimension ref="A1:AQ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AA56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="4" customWidth="1"/>
     <col min="4" max="4" width="22" style="3"/>
     <col min="5" max="5" width="22" style="4"/>
@@ -651,10 +680,12 @@
     <col min="38" max="38" width="22" style="3"/>
     <col min="39" max="39" width="22" style="4"/>
     <col min="40" max="40" width="22" style="3"/>
-    <col min="41" max="16384" width="22" style="4"/>
+    <col min="41" max="41" width="22" style="4"/>
+    <col min="42" max="42" width="22" style="3"/>
+    <col min="43" max="16384" width="22" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,9 +809,15 @@
       <c r="AO1" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="AP1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="17" customFormat="1">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
@@ -870,42 +907,48 @@
       <c r="AD2" s="2">
         <v>5</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2" s="17">
         <v>5</v>
       </c>
       <c r="AF2" s="2">
         <v>5</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="17">
         <v>5</v>
       </c>
       <c r="AH2" s="2">
         <v>5</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="17">
         <v>2</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="17">
         <v>2</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="17">
         <v>5</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="17">
         <v>5</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="17">
         <v>5</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2" s="17">
         <v>2</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="AP2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="17" customFormat="1">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2">
@@ -995,42 +1038,48 @@
       <c r="AD3" s="2">
         <v>1</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="17">
         <v>1</v>
       </c>
       <c r="AF3" s="2">
         <v>1</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="17">
         <v>1</v>
       </c>
       <c r="AH3" s="2">
         <v>1</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="17">
         <v>1</v>
       </c>
       <c r="AJ3" s="2">
         <v>1</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="17">
         <v>1</v>
       </c>
       <c r="AL3" s="2">
         <v>1</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="17">
         <v>1</v>
       </c>
       <c r="AN3" s="2">
         <v>1</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="AP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="17" customFormat="1">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2">
@@ -1153,9 +1202,15 @@
       <c r="AO4" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="AP4" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="17" customFormat="1">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2">
@@ -1278,8 +1333,14 @@
       <c r="AO5" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP5" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="B6" s="3">
         <v>1950</v>
       </c>
@@ -1337,8 +1398,14 @@
       <c r="AM6" s="10">
         <v>1.2816901408450703</v>
       </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP6" s="14">
+        <v>13.49</v>
+      </c>
+      <c r="AQ6" s="10">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="B7" s="3">
         <v>1950.25</v>
       </c>
@@ -1396,8 +1463,14 @@
       <c r="AM7" s="10">
         <v>1.3066922736002364</v>
       </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP7" s="14">
+        <v>13.538</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="B8" s="3">
         <v>1950.5</v>
       </c>
@@ -1455,8 +1528,14 @@
       <c r="AM8" s="10">
         <v>1.4061596298438404</v>
       </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP8" s="14">
+        <v>13.832000000000001</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="B9" s="3">
         <v>1950.75</v>
       </c>
@@ -1514,8 +1593,14 @@
       <c r="AM9" s="10">
         <v>1.4485450674237048</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP9" s="14">
+        <v>14.09</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="B10" s="3">
         <v>1951</v>
       </c>
@@ -1573,8 +1658,14 @@
       <c r="AM10" s="10">
         <v>1.4661551109893121</v>
       </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP10" s="14">
+        <v>14.596</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="B11" s="3">
         <v>1951.25</v>
       </c>
@@ -1632,8 +1723,14 @@
       <c r="AM11" s="10">
         <v>1.4266267356384428</v>
       </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP11" s="14">
+        <v>14.692</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="B12" s="3">
         <v>1951.5</v>
       </c>
@@ -1691,8 +1788,14 @@
       <c r="AM12" s="10">
         <v>1.5822052921569962</v>
       </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP12" s="14">
+        <v>14.701000000000001</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>26.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="B13" s="3">
         <v>1951.75</v>
       </c>
@@ -1750,8 +1853,14 @@
       <c r="AM13" s="10">
         <v>1.5986280180240768</v>
       </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP13" s="14">
+        <v>14.869</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="B14" s="3">
         <v>1952</v>
       </c>
@@ -1809,8 +1918,14 @@
       <c r="AM14" s="10">
         <v>1.6396420641862344</v>
       </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP14" s="14">
+        <v>14.863</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="B15" s="3">
         <v>1952.25</v>
       </c>
@@ -1868,8 +1983,14 @@
       <c r="AM15" s="10">
         <v>1.6771939255476416</v>
       </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP15" s="14">
+        <v>14.882</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="B16" s="3">
         <v>1952.5</v>
       </c>
@@ -1927,8 +2048,14 @@
       <c r="AM16" s="10">
         <v>1.6307814992025518</v>
       </c>
-    </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP16" s="14">
+        <v>15.048</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:43">
       <c r="B17" s="3">
         <v>1952.75</v>
       </c>
@@ -1986,8 +2113,14 @@
       <c r="AM17" s="10">
         <v>1.7606520442647937</v>
       </c>
-    </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP17" s="14">
+        <v>15.090999999999999</v>
+      </c>
+      <c r="AQ17" s="10">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:43">
       <c r="B18" s="3">
         <v>1953</v>
       </c>
@@ -2048,8 +2181,14 @@
       <c r="AM18" s="10">
         <v>1.6752782193958664</v>
       </c>
-    </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP18" s="14">
+        <v>15.096</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43">
       <c r="B19" s="3">
         <v>1953.25</v>
       </c>
@@ -2110,8 +2249,14 @@
       <c r="AM19" s="10">
         <v>1.5960330578512396</v>
       </c>
-    </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP19" s="14">
+        <v>15.125</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43">
       <c r="B20" s="3">
         <v>1953.5</v>
       </c>
@@ -2172,8 +2317,14 @@
       <c r="AM20" s="10">
         <v>1.537397945746642</v>
       </c>
-    </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP20" s="14">
+        <v>15.188000000000001</v>
+      </c>
+      <c r="AQ20" s="10">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43">
       <c r="B21" s="3">
         <v>1953.75</v>
       </c>
@@ -2234,8 +2385,14 @@
       <c r="AM21" s="10">
         <v>1.6301990932387147</v>
       </c>
-    </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP21" s="14">
+        <v>15.218999999999999</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43">
       <c r="B22" s="3">
         <v>1954</v>
       </c>
@@ -2296,8 +2453,14 @@
       <c r="AM22" s="10">
         <v>1.7647058823529413</v>
       </c>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP22" s="14">
+        <v>15.266</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>26.93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43">
       <c r="B23" s="3">
         <v>1954.25</v>
       </c>
@@ -2358,8 +2521,14 @@
       <c r="AM23" s="10">
         <v>1.9115241149139455</v>
       </c>
-    </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP23" s="14">
+        <v>15.281000000000001</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43">
       <c r="B24" s="3">
         <v>1954.5</v>
       </c>
@@ -2423,8 +2592,14 @@
       <c r="AM24" s="10">
         <v>2.111764705882353</v>
       </c>
-    </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP24" s="14">
+        <v>15.3</v>
+      </c>
+      <c r="AQ24" s="10">
+        <v>26.81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43">
       <c r="B25" s="3">
         <v>1954.75</v>
       </c>
@@ -2488,8 +2663,14 @@
       <c r="AM25" s="10">
         <v>2.3450433422407611</v>
       </c>
-    </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP25" s="14">
+        <v>15.343</v>
+      </c>
+      <c r="AQ25" s="10">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43">
       <c r="B26" s="3">
         <v>1955</v>
       </c>
@@ -2553,8 +2734,14 @@
       <c r="AM26" s="10">
         <v>2.3727054550171887</v>
       </c>
-    </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP26" s="14">
+        <v>15.417</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43">
       <c r="B27" s="3">
         <v>1955.25</v>
       </c>
@@ -2618,8 +2805,14 @@
       <c r="AM27" s="10">
         <v>2.6503455849105357</v>
       </c>
-    </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP27" s="14">
+        <v>15.481</v>
+      </c>
+      <c r="AQ27" s="10">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43">
       <c r="B28" s="3">
         <v>1955.5</v>
       </c>
@@ -2683,8 +2876,14 @@
       <c r="AM28" s="10">
         <v>2.8011545862732521</v>
       </c>
-    </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP28" s="14">
+        <v>15.59</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43">
       <c r="B29" s="3">
         <v>1955.75</v>
       </c>
@@ -2748,8 +2947,14 @@
       <c r="AM29" s="10">
         <v>2.8889030045099409</v>
       </c>
-    </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP29" s="14">
+        <v>15.743</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43">
       <c r="B30" s="3">
         <v>1956</v>
       </c>
@@ -2813,8 +3018,14 @@
       <c r="AM30" s="10">
         <v>3.0486731228776254</v>
       </c>
-    </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP30" s="14">
+        <v>15.901999999999999</v>
+      </c>
+      <c r="AQ30" s="10">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43">
       <c r="B31" s="3">
         <v>1956.25</v>
       </c>
@@ -2878,8 +3089,14 @@
       <c r="AM31" s="10">
         <v>2.9361755329124208</v>
       </c>
-    </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AP31" s="14">
+        <v>15.997</v>
+      </c>
+      <c r="AQ31" s="10">
+        <v>27.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:43">
       <c r="B32" s="3">
         <v>1956.5</v>
       </c>
@@ -2943,8 +3160,14 @@
       <c r="AM32" s="10">
         <v>2.7999012162746189</v>
       </c>
-    </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP32" s="14">
+        <v>16.196999999999999</v>
+      </c>
+      <c r="AQ32" s="10">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:43">
       <c r="B33" s="3">
         <v>1956.75</v>
       </c>
@@ -3008,8 +3231,14 @@
       <c r="AM33" s="10">
         <v>2.8695277914412203</v>
       </c>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP33" s="14">
+        <v>16.263999999999999</v>
+      </c>
+      <c r="AQ33" s="10">
+        <v>27.63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:43">
       <c r="B34" s="3">
         <v>1957</v>
       </c>
@@ -3073,8 +3302,14 @@
       <c r="AM34" s="10">
         <v>2.6757658477403701</v>
       </c>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP34" s="14">
+        <v>16.484999999999999</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>27.86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:43">
       <c r="B35" s="3">
         <v>1957.25</v>
       </c>
@@ -3138,8 +3373,14 @@
       <c r="AM35" s="10">
         <v>2.8534425637009817</v>
       </c>
-    </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP35" s="14">
+        <v>16.600999999999999</v>
+      </c>
+      <c r="AQ35" s="10">
+        <v>28.11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:43">
       <c r="B36" s="3">
         <v>1957.5</v>
       </c>
@@ -3203,8 +3444,14 @@
       <c r="AM36" s="10">
         <v>2.5399676666067901</v>
       </c>
-    </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP36" s="14">
+        <v>16.701000000000001</v>
+      </c>
+      <c r="AQ36" s="10">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43">
       <c r="B37" s="3">
         <v>1957.75</v>
       </c>
@@ -3268,8 +3515,14 @@
       <c r="AM37" s="10">
         <v>2.3930345281551078</v>
       </c>
-    </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP37" s="14">
+        <v>16.710999999999999</v>
+      </c>
+      <c r="AQ37" s="10">
+        <v>28.47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:43">
       <c r="B38" s="3">
         <v>1958</v>
       </c>
@@ -3333,8 +3586,14 @@
       <c r="AM38" s="10">
         <v>2.4923040492540851</v>
       </c>
-    </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP38" s="14">
+        <v>16.891999999999999</v>
+      </c>
+      <c r="AQ38" s="10">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:43">
       <c r="B39" s="3">
         <v>1958.25</v>
       </c>
@@ -3398,8 +3657,14 @@
       <c r="AM39" s="10">
         <v>2.6706021251475796</v>
       </c>
-    </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP39" s="14">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="AQ39" s="10">
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:43">
       <c r="B40" s="3">
         <v>1958.5</v>
       </c>
@@ -3463,8 +3728,14 @@
       <c r="AM40" s="10">
         <v>2.9372763011206948</v>
       </c>
-    </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP40" s="14">
+        <v>17.042999999999999</v>
+      </c>
+      <c r="AQ40" s="10">
+        <v>28.91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:43">
       <c r="B41" s="3">
         <v>1958.75</v>
       </c>
@@ -3528,8 +3799,14 @@
       <c r="AM41" s="10">
         <v>3.2243181685452313</v>
       </c>
-    </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP41" s="14">
+        <v>17.123000000000001</v>
+      </c>
+      <c r="AQ41" s="10">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:43">
       <c r="B42" s="3">
         <v>1959</v>
       </c>
@@ -3593,8 +3870,14 @@
       <c r="AM42" s="10">
         <v>3.2290756596190806</v>
       </c>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP42" s="14">
+        <v>17.169</v>
+      </c>
+      <c r="AQ42" s="10">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:43">
       <c r="B43" s="3">
         <v>1959.25</v>
       </c>
@@ -3658,8 +3941,14 @@
       <c r="AM43" s="10">
         <v>3.4006048621612193</v>
       </c>
-    </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP43" s="14">
+        <v>17.193999999999999</v>
+      </c>
+      <c r="AQ43" s="10">
+        <v>29.11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:43">
       <c r="B44" s="3">
         <v>1959.5</v>
       </c>
@@ -3723,8 +4012,14 @@
       <c r="AM44" s="10">
         <v>3.2958627882721059</v>
       </c>
-    </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP44" s="14">
+        <v>17.257999999999999</v>
+      </c>
+      <c r="AQ44" s="10">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:43">
       <c r="B45" s="3">
         <v>1959.75</v>
       </c>
@@ -3788,8 +4083,14 @@
       <c r="AM45" s="10">
         <v>3.4566547385432296</v>
       </c>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP45" s="14">
+        <v>17.326000000000001</v>
+      </c>
+      <c r="AQ45" s="10">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:43">
       <c r="B46" s="3">
         <v>1960</v>
       </c>
@@ -3856,8 +4157,14 @@
       <c r="AN46" s="14">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP46" s="14">
+        <v>17.396999999999998</v>
+      </c>
+      <c r="AQ46" s="10">
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:43">
       <c r="B47" s="3">
         <v>1960.25</v>
       </c>
@@ -3924,8 +4231,14 @@
       <c r="AN47" s="14">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP47" s="14">
+        <v>17.443000000000001</v>
+      </c>
+      <c r="AQ47" s="10">
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:43">
       <c r="B48" s="3">
         <v>1960.5</v>
       </c>
@@ -3992,8 +4305,14 @@
       <c r="AN48" s="14">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP48" s="14">
+        <v>17.506</v>
+      </c>
+      <c r="AQ48" s="10">
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:43">
       <c r="B49" s="3">
         <v>1960.75</v>
       </c>
@@ -4060,8 +4379,14 @@
       <c r="AN49" s="14">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP49" s="14">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="AQ49" s="10">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="50" spans="2:43">
       <c r="B50" s="3">
         <v>1961</v>
       </c>
@@ -4128,8 +4453,14 @@
       <c r="AN50" s="14">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP50" s="14">
+        <v>17.597999999999999</v>
+      </c>
+      <c r="AQ50" s="10">
+        <v>29.84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:43">
       <c r="B51" s="3">
         <v>1961.25</v>
       </c>
@@ -4196,8 +4527,14 @@
       <c r="AN51" s="14">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP51" s="14">
+        <v>17.640999999999998</v>
+      </c>
+      <c r="AQ51" s="10">
+        <v>29.84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:43">
       <c r="B52" s="3">
         <v>1961.5</v>
       </c>
@@ -4264,8 +4601,14 @@
       <c r="AN52" s="14">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP52" s="14">
+        <v>17.687000000000001</v>
+      </c>
+      <c r="AQ52" s="10">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:43">
       <c r="B53" s="3">
         <v>1961.75</v>
       </c>
@@ -4332,8 +4675,14 @@
       <c r="AN53" s="14">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP53" s="14">
+        <v>17.745000000000001</v>
+      </c>
+      <c r="AQ53" s="10">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="54" spans="2:43">
       <c r="B54" s="3">
         <v>1962</v>
       </c>
@@ -4400,8 +4749,14 @@
       <c r="AN54" s="14">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP54" s="14">
+        <v>17.837</v>
+      </c>
+      <c r="AQ54" s="10">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:43">
       <c r="B55" s="3">
         <v>1962.25</v>
       </c>
@@ -4468,8 +4823,14 @@
       <c r="AN55" s="14">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP55" s="14">
+        <v>17.866</v>
+      </c>
+      <c r="AQ55" s="10">
+        <v>30.21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:43">
       <c r="B56" s="3">
         <v>1962.5</v>
       </c>
@@ -4536,8 +4897,14 @@
       <c r="AN56" s="14">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP56" s="14">
+        <v>17.902999999999999</v>
+      </c>
+      <c r="AQ56" s="10">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:43">
       <c r="B57" s="3">
         <v>1962.75</v>
       </c>
@@ -4604,8 +4971,14 @@
       <c r="AN57" s="14">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP57" s="14">
+        <v>17.937999999999999</v>
+      </c>
+      <c r="AQ57" s="10">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="58" spans="2:43">
       <c r="B58" s="3">
         <v>1963</v>
       </c>
@@ -4672,8 +5045,14 @@
       <c r="AN58" s="14">
         <v>124</v>
       </c>
-    </row>
-    <row r="59" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP58" s="14">
+        <v>18.016999999999999</v>
+      </c>
+      <c r="AQ58" s="10">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:43">
       <c r="B59" s="3">
         <v>1963.25</v>
       </c>
@@ -4740,8 +5119,14 @@
       <c r="AN59" s="14">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP59" s="14">
+        <v>18.047000000000001</v>
+      </c>
+      <c r="AQ59" s="10">
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:43">
       <c r="B60" s="3">
         <v>1963.5</v>
       </c>
@@ -4808,8 +5193,14 @@
       <c r="AN60" s="14">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP60" s="14">
+        <v>18.068999999999999</v>
+      </c>
+      <c r="AQ60" s="10">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="61" spans="2:43">
       <c r="B61" s="3">
         <v>1963.75</v>
       </c>
@@ -4876,8 +5267,14 @@
       <c r="AN61" s="14">
         <v>117</v>
       </c>
-    </row>
-    <row r="62" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP61" s="14">
+        <v>18.216000000000001</v>
+      </c>
+      <c r="AQ61" s="10">
+        <v>30.88</v>
+      </c>
+    </row>
+    <row r="62" spans="2:43">
       <c r="B62" s="3">
         <v>1964</v>
       </c>
@@ -4944,8 +5341,14 @@
       <c r="AN62" s="14">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP62" s="14">
+        <v>18.274000000000001</v>
+      </c>
+      <c r="AQ62" s="10">
+        <v>30.94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:43">
       <c r="B63" s="3">
         <v>1964.25</v>
       </c>
@@ -5012,8 +5415,14 @@
       <c r="AN63" s="14">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP63" s="14">
+        <v>18.318000000000001</v>
+      </c>
+      <c r="AQ63" s="10">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="64" spans="2:43">
       <c r="B64" s="3">
         <v>1964.5</v>
       </c>
@@ -5080,8 +5489,14 @@
       <c r="AN64" s="14">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP64" s="14">
+        <v>18.391999999999999</v>
+      </c>
+      <c r="AQ64" s="10">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="65" spans="2:43">
       <c r="B65" s="3">
         <v>1964.75</v>
       </c>
@@ -5148,8 +5563,14 @@
       <c r="AN65" s="14">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP65" s="14">
+        <v>18.475999999999999</v>
+      </c>
+      <c r="AQ65" s="10">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:43">
       <c r="B66" s="3">
         <v>1965</v>
       </c>
@@ -5216,8 +5637,14 @@
       <c r="AN66" s="14">
         <v>126</v>
       </c>
-    </row>
-    <row r="67" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP66" s="14">
+        <v>18.568999999999999</v>
+      </c>
+      <c r="AQ66" s="10">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:43">
       <c r="B67" s="3">
         <v>1965.25</v>
       </c>
@@ -5284,8 +5711,14 @@
       <c r="AN67" s="14">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP67" s="14">
+        <v>18.652000000000001</v>
+      </c>
+      <c r="AQ67" s="10">
+        <v>31.61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:43">
       <c r="B68" s="3">
         <v>1965.5</v>
       </c>
@@ -5352,8 +5785,14 @@
       <c r="AN68" s="14">
         <v>129</v>
       </c>
-    </row>
-    <row r="69" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP68" s="14">
+        <v>18.725999999999999</v>
+      </c>
+      <c r="AQ68" s="10">
+        <v>31.62</v>
+      </c>
+    </row>
+    <row r="69" spans="2:43">
       <c r="B69" s="3">
         <v>1965.75</v>
       </c>
@@ -5420,8 +5859,14 @@
       <c r="AN69" s="14">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP69" s="14">
+        <v>18.853000000000002</v>
+      </c>
+      <c r="AQ69" s="10">
+        <v>31.85</v>
+      </c>
+    </row>
+    <row r="70" spans="2:43">
       <c r="B70" s="3">
         <v>1966</v>
       </c>
@@ -5488,8 +5933,14 @@
       <c r="AN70" s="14">
         <v>121</v>
       </c>
-    </row>
-    <row r="71" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP70" s="14">
+        <v>18.975000000000001</v>
+      </c>
+      <c r="AQ70" s="10">
+        <v>32.18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:43">
       <c r="B71" s="3">
         <v>1966.25</v>
       </c>
@@ -5556,8 +6007,14 @@
       <c r="AN71" s="14">
         <v>107</v>
       </c>
-    </row>
-    <row r="72" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP71" s="14">
+        <v>19.131</v>
+      </c>
+      <c r="AQ71" s="10">
+        <v>32.380000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:43">
       <c r="B72" s="3">
         <v>1966.5</v>
       </c>
@@ -5624,8 +6081,14 @@
       <c r="AN72" s="14">
         <v>110</v>
       </c>
-    </row>
-    <row r="73" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP72" s="14">
+        <v>19.317</v>
+      </c>
+      <c r="AQ72" s="10">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:43">
       <c r="B73" s="3">
         <v>1966.75</v>
       </c>
@@ -5692,8 +6155,14 @@
       <c r="AN73" s="14">
         <v>105</v>
       </c>
-    </row>
-    <row r="74" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP73" s="14">
+        <v>19.481000000000002</v>
+      </c>
+      <c r="AQ73" s="10">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="74" spans="2:43">
       <c r="B74" s="3">
         <v>1967</v>
       </c>
@@ -5760,8 +6229,14 @@
       <c r="AN74" s="14">
         <v>111</v>
       </c>
-    </row>
-    <row r="75" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP74" s="14">
+        <v>19.562000000000001</v>
+      </c>
+      <c r="AQ74" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="2:43">
       <c r="B75" s="3">
         <v>1967.25</v>
       </c>
@@ -5828,8 +6303,14 @@
       <c r="AN75" s="14">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP75" s="14">
+        <v>19.661000000000001</v>
+      </c>
+      <c r="AQ75" s="10">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="2:43">
       <c r="B76" s="3">
         <v>1967.5</v>
       </c>
@@ -5896,8 +6377,14 @@
       <c r="AN76" s="14">
         <v>111</v>
       </c>
-    </row>
-    <row r="77" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP76" s="14">
+        <v>19.849</v>
+      </c>
+      <c r="AQ76" s="10">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:43">
       <c r="B77" s="3">
         <v>1967.75</v>
       </c>
@@ -5964,8 +6451,14 @@
       <c r="AN77" s="14">
         <v>113</v>
       </c>
-    </row>
-    <row r="78" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP77" s="14">
+        <v>20.067</v>
+      </c>
+      <c r="AQ77" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:43">
       <c r="B78" s="3">
         <v>1968</v>
       </c>
@@ -6032,8 +6525,14 @@
       <c r="AN78" s="14">
         <v>108</v>
       </c>
-    </row>
-    <row r="79" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP78" s="14">
+        <v>20.29</v>
+      </c>
+      <c r="AQ78" s="10">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="2:43">
       <c r="B79" s="3">
         <v>1968.25</v>
       </c>
@@ -6100,8 +6599,14 @@
       <c r="AN79" s="14">
         <v>110</v>
       </c>
-    </row>
-    <row r="80" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP79" s="14">
+        <v>20.504000000000001</v>
+      </c>
+      <c r="AQ79" s="10">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="2:43">
       <c r="B80" s="3">
         <v>1968.5</v>
       </c>
@@ -6168,8 +6673,14 @@
       <c r="AN80" s="14">
         <v>112</v>
       </c>
-    </row>
-    <row r="81" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP80" s="14">
+        <v>20.706</v>
+      </c>
+      <c r="AQ80" s="10">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:43">
       <c r="B81" s="3">
         <v>1968.75</v>
       </c>
@@ -6268,8 +6779,14 @@
       <c r="AN81" s="14">
         <v>109</v>
       </c>
-    </row>
-    <row r="82" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP81" s="14">
+        <v>20.998999999999999</v>
+      </c>
+      <c r="AQ81" s="10">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:43">
       <c r="B82" s="3">
         <v>1969</v>
       </c>
@@ -6372,8 +6889,14 @@
       <c r="AN82" s="14">
         <v>110</v>
       </c>
-    </row>
-    <row r="83" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP82" s="14">
+        <v>21.216999999999999</v>
+      </c>
+      <c r="AQ82" s="10">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:43">
       <c r="B83" s="3">
         <v>1969.25</v>
       </c>
@@ -6476,8 +6999,14 @@
       <c r="AN83" s="14">
         <v>108</v>
       </c>
-    </row>
-    <row r="84" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP83" s="14">
+        <v>21.488</v>
+      </c>
+      <c r="AQ83" s="10">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:43">
       <c r="B84" s="3">
         <v>1969.5</v>
       </c>
@@ -6580,8 +7109,14 @@
       <c r="AN84" s="14">
         <v>102</v>
       </c>
-    </row>
-    <row r="85" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP84" s="14">
+        <v>21.79</v>
+      </c>
+      <c r="AQ84" s="10">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:43">
       <c r="B85" s="3">
         <v>1969.75</v>
       </c>
@@ -6683,8 +7218,14 @@
       <c r="AN85" s="14">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP85" s="14">
+        <v>22.071000000000002</v>
+      </c>
+      <c r="AQ85" s="10">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="2:43">
       <c r="B86" s="3">
         <v>1970</v>
       </c>
@@ -6787,8 +7328,14 @@
       <c r="AN86" s="14">
         <v>95</v>
       </c>
-    </row>
-    <row r="87" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP86" s="14">
+        <v>22.382000000000001</v>
+      </c>
+      <c r="AQ86" s="10">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="2:43">
       <c r="B87" s="3">
         <v>1970.25</v>
       </c>
@@ -6890,8 +7437,14 @@
       <c r="AN87" s="14">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP87" s="14">
+        <v>22.693999999999999</v>
+      </c>
+      <c r="AQ87" s="10">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="2:43">
       <c r="B88" s="3">
         <v>1970.5</v>
       </c>
@@ -6993,8 +7546,14 @@
       <c r="AN88" s="14">
         <v>108</v>
       </c>
-    </row>
-    <row r="89" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP88" s="14">
+        <v>22.88</v>
+      </c>
+      <c r="AQ88" s="10">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="2:43">
       <c r="B89" s="3">
         <v>1970.75</v>
       </c>
@@ -7096,8 +7655,14 @@
       <c r="AN89" s="14">
         <v>103</v>
       </c>
-    </row>
-    <row r="90" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP89" s="14">
+        <v>23.181999999999999</v>
+      </c>
+      <c r="AQ89" s="10">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="2:43">
       <c r="B90" s="3">
         <v>1971</v>
       </c>
@@ -7199,8 +7764,14 @@
       <c r="AN90" s="14">
         <v>114</v>
       </c>
-    </row>
-    <row r="91" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP90" s="14">
+        <v>23.536000000000001</v>
+      </c>
+      <c r="AQ90" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="2:43">
       <c r="B91" s="3">
         <v>1971.25</v>
       </c>
@@ -7302,8 +7873,14 @@
       <c r="AN91" s="14">
         <v>113</v>
       </c>
-    </row>
-    <row r="92" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP91" s="14">
+        <v>23.846</v>
+      </c>
+      <c r="AQ91" s="10">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:43">
       <c r="B92" s="3">
         <v>1971.5</v>
       </c>
@@ -7405,8 +7982,14 @@
       <c r="AN92" s="14">
         <v>120</v>
       </c>
-    </row>
-    <row r="93" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP92" s="14">
+        <v>24.088000000000001</v>
+      </c>
+      <c r="AQ92" s="10">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="2:43">
       <c r="B93" s="3">
         <v>1971.75</v>
       </c>
@@ -7508,8 +8091,14 @@
       <c r="AN93" s="14">
         <v>120</v>
       </c>
-    </row>
-    <row r="94" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP93" s="14">
+        <v>24.288</v>
+      </c>
+      <c r="AQ93" s="10">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:43">
       <c r="B94" s="3">
         <v>1972</v>
       </c>
@@ -7611,8 +8200,14 @@
       <c r="AN94" s="14">
         <v>130</v>
       </c>
-    </row>
-    <row r="95" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP94" s="14">
+        <v>24.664000000000001</v>
+      </c>
+      <c r="AQ94" s="10">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:43">
       <c r="B95" s="3">
         <v>1972.25</v>
       </c>
@@ -7714,8 +8309,14 @@
       <c r="AN95" s="14">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP95" s="14">
+        <v>24.815000000000001</v>
+      </c>
+      <c r="AQ95" s="10">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:43">
       <c r="B96" s="3">
         <v>1972.5</v>
       </c>
@@ -7817,8 +8418,14 @@
       <c r="AN96" s="14">
         <v>125</v>
       </c>
-    </row>
-    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP96" s="14">
+        <v>25.047999999999998</v>
+      </c>
+      <c r="AQ96" s="10">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:43">
       <c r="B97" s="3">
         <v>1972.75</v>
       </c>
@@ -7920,8 +8527,14 @@
       <c r="AN97" s="14">
         <v>117</v>
       </c>
-    </row>
-    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP97" s="14">
+        <v>25.366</v>
+      </c>
+      <c r="AQ97" s="10">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:43">
       <c r="B98" s="3">
         <v>1973</v>
       </c>
@@ -8023,8 +8636,14 @@
       <c r="AN98" s="14">
         <v>103</v>
       </c>
-    </row>
-    <row r="99" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP98" s="14">
+        <v>25.661000000000001</v>
+      </c>
+      <c r="AQ98" s="10">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:43">
       <c r="B99" s="3">
         <v>1973.25</v>
       </c>
@@ -8126,8 +8745,14 @@
       <c r="AN99" s="14">
         <v>94</v>
       </c>
-    </row>
-    <row r="100" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP99" s="14">
+        <v>26.052</v>
+      </c>
+      <c r="AQ99" s="10">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:43">
       <c r="B100" s="3">
         <v>1973.5</v>
       </c>
@@ -8229,8 +8854,14 @@
       <c r="AN100" s="14">
         <v>92</v>
       </c>
-    </row>
-    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP100" s="14">
+        <v>26.548999999999999</v>
+      </c>
+      <c r="AQ100" s="10">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:43">
       <c r="B101" s="3">
         <v>1973.75</v>
       </c>
@@ -8332,8 +8963,14 @@
       <c r="AN101" s="14">
         <v>95</v>
       </c>
-    </row>
-    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP101" s="14">
+        <v>27.077000000000002</v>
+      </c>
+      <c r="AQ101" s="10">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:43">
       <c r="B102" s="3">
         <v>1974</v>
       </c>
@@ -8435,8 +9072,14 @@
       <c r="AN102" s="14">
         <v>83</v>
       </c>
-    </row>
-    <row r="103" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP102" s="14">
+        <v>27.591999999999999</v>
+      </c>
+      <c r="AQ102" s="10">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:43">
       <c r="B103" s="3">
         <v>1974.25</v>
       </c>
@@ -8538,8 +9181,14 @@
       <c r="AN103" s="14">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP103" s="14">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="AQ103" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="2:43">
       <c r="B104" s="3">
         <v>1974.5</v>
       </c>
@@ -8642,8 +9291,14 @@
       <c r="AN104" s="14">
         <v>99</v>
       </c>
-    </row>
-    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP104" s="14">
+        <v>29.067</v>
+      </c>
+      <c r="AQ104" s="10">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:43">
       <c r="B105" s="3">
         <v>1974.75</v>
       </c>
@@ -8745,8 +9400,14 @@
       <c r="AN105" s="14">
         <v>82</v>
       </c>
-    </row>
-    <row r="106" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP105" s="14">
+        <v>29.922999999999998</v>
+      </c>
+      <c r="AQ105" s="10">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="106" spans="2:43">
       <c r="B106" s="3">
         <v>1975</v>
       </c>
@@ -8848,8 +9509,14 @@
       <c r="AN106" s="14">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP106" s="14">
+        <v>30.600999999999999</v>
+      </c>
+      <c r="AQ106" s="10">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="107" spans="2:43">
       <c r="B107" s="3">
         <v>1975.25</v>
       </c>
@@ -8951,8 +9618,14 @@
       <c r="AN107" s="14">
         <v>125</v>
       </c>
-    </row>
-    <row r="108" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP107" s="14">
+        <v>31.059000000000001</v>
+      </c>
+      <c r="AQ107" s="10">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:43">
       <c r="B108" s="3">
         <v>1975.5</v>
       </c>
@@ -9054,8 +9727,14 @@
       <c r="AN108" s="14">
         <v>120</v>
       </c>
-    </row>
-    <row r="109" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP108" s="14">
+        <v>31.611999999999998</v>
+      </c>
+      <c r="AQ108" s="10">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:43">
       <c r="B109" s="3">
         <v>1975.75</v>
       </c>
@@ -9157,8 +9836,14 @@
       <c r="AN109" s="14">
         <v>113</v>
       </c>
-    </row>
-    <row r="110" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP109" s="14">
+        <v>32.139000000000003</v>
+      </c>
+      <c r="AQ109" s="10">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:43">
       <c r="B110" s="3">
         <v>1976</v>
       </c>
@@ -9260,8 +9945,14 @@
       <c r="AN110" s="14">
         <v>129</v>
       </c>
-    </row>
-    <row r="111" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP110" s="14">
+        <v>32.472999999999999</v>
+      </c>
+      <c r="AQ110" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="2:43">
       <c r="B111" s="3">
         <v>1976.25</v>
       </c>
@@ -9363,8 +10054,14 @@
       <c r="AN111" s="14">
         <v>119</v>
       </c>
-    </row>
-    <row r="112" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AP111" s="14">
+        <v>32.802999999999997</v>
+      </c>
+      <c r="AQ111" s="10">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="112" spans="2:43">
       <c r="B112" s="3">
         <v>1976.5</v>
       </c>
@@ -9466,8 +10163,14 @@
       <c r="AN112" s="14">
         <v>126</v>
       </c>
-    </row>
-    <row r="113" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP112" s="14">
+        <v>33.225999999999999</v>
+      </c>
+      <c r="AQ112" s="10">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:43">
       <c r="B113" s="3">
         <v>1976.75</v>
       </c>
@@ -9569,8 +10272,14 @@
       <c r="AN113" s="14">
         <v>131</v>
       </c>
-    </row>
-    <row r="114" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP113" s="14">
+        <v>33.814999999999998</v>
+      </c>
+      <c r="AQ113" s="10">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:43">
       <c r="B114" s="3">
         <v>1977</v>
       </c>
@@ -9672,8 +10381,14 @@
       <c r="AN114" s="14">
         <v>132</v>
       </c>
-    </row>
-    <row r="115" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP114" s="14">
+        <v>34.359000000000002</v>
+      </c>
+      <c r="AQ114" s="10">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:43">
       <c r="B115" s="3">
         <v>1977.25</v>
       </c>
@@ -9775,8 +10490,14 @@
       <c r="AN115" s="14">
         <v>121</v>
       </c>
-    </row>
-    <row r="116" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP115" s="14">
+        <v>34.841000000000001</v>
+      </c>
+      <c r="AQ115" s="10">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:43">
       <c r="B116" s="3">
         <v>1977.5</v>
       </c>
@@ -9878,8 +10599,14 @@
       <c r="AN116" s="14">
         <v>110</v>
       </c>
-    </row>
-    <row r="117" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP116" s="14">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="AQ116" s="10">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:43">
       <c r="B117" s="3">
         <v>1977.75</v>
       </c>
@@ -9981,8 +10708,14 @@
       <c r="AN117" s="14">
         <v>106</v>
       </c>
-    </row>
-    <row r="118" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP117" s="14">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="AQ117" s="10">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:43">
       <c r="B118" s="3">
         <v>1978</v>
       </c>
@@ -10084,8 +10817,14 @@
       <c r="AN118" s="14">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP118" s="14">
+        <v>36.573</v>
+      </c>
+      <c r="AQ118" s="10">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="119" spans="2:43">
       <c r="B119" s="3">
         <v>1978.25</v>
       </c>
@@ -10190,8 +10929,14 @@
       <c r="AO119" s="15">
         <v>75</v>
       </c>
-    </row>
-    <row r="120" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP119" s="14">
+        <v>37.241999999999997</v>
+      </c>
+      <c r="AQ119" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="2:43">
       <c r="B120" s="3">
         <v>1978.5</v>
       </c>
@@ -10296,8 +11041,14 @@
       <c r="AO120" s="15">
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP120" s="14">
+        <v>37.865000000000002</v>
+      </c>
+      <c r="AQ120" s="10">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:43">
       <c r="B121" s="3">
         <v>1978.75</v>
       </c>
@@ -10402,8 +11153,14 @@
       <c r="AO121" s="15">
         <v>66</v>
       </c>
-    </row>
-    <row r="122" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP121" s="14">
+        <v>38.661000000000001</v>
+      </c>
+      <c r="AQ121" s="10">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="122" spans="2:43">
       <c r="B122" s="3">
         <v>1979</v>
       </c>
@@ -10508,8 +11265,14 @@
       <c r="AO122" s="15">
         <v>63</v>
       </c>
-    </row>
-    <row r="123" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP122" s="14">
+        <v>39.351999999999997</v>
+      </c>
+      <c r="AQ122" s="10">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="123" spans="2:43">
       <c r="B123" s="3">
         <v>1979.25</v>
       </c>
@@ -10614,8 +11377,14 @@
       <c r="AO123" s="15">
         <v>58</v>
       </c>
-    </row>
-    <row r="124" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP123" s="14">
+        <v>40.304000000000002</v>
+      </c>
+      <c r="AQ123" s="10">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:43">
       <c r="B124" s="3">
         <v>1979.5</v>
       </c>
@@ -10720,8 +11489,14 @@
       <c r="AO124" s="15">
         <v>46</v>
       </c>
-    </row>
-    <row r="125" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP124" s="14">
+        <v>41.164999999999999</v>
+      </c>
+      <c r="AQ124" s="10">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="2:43">
       <c r="B125" s="3">
         <v>1979.75</v>
       </c>
@@ -10826,8 +11601,14 @@
       <c r="AO125" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="126" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP125" s="14">
+        <v>41.985999999999997</v>
+      </c>
+      <c r="AQ125" s="10">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="126" spans="2:43">
       <c r="B126" s="3">
         <v>1980</v>
       </c>
@@ -10932,8 +11713,14 @@
       <c r="AO126" s="15">
         <v>50</v>
       </c>
-    </row>
-    <row r="127" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP126" s="14">
+        <v>42.859000000000002</v>
+      </c>
+      <c r="AQ126" s="10">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="2:43">
       <c r="B127" s="3">
         <v>1980.25</v>
       </c>
@@ -11038,8 +11825,14 @@
       <c r="AO127" s="15">
         <v>51</v>
       </c>
-    </row>
-    <row r="128" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP127" s="14">
+        <v>43.8</v>
+      </c>
+      <c r="AQ127" s="10">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:43">
       <c r="B128" s="3">
         <v>1980.5</v>
       </c>
@@ -11144,8 +11937,14 @@
       <c r="AO128" s="15">
         <v>63</v>
       </c>
-    </row>
-    <row r="129" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP128" s="14">
+        <v>44.808</v>
+      </c>
+      <c r="AQ128" s="10">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:43">
       <c r="B129" s="3">
         <v>1980.75</v>
       </c>
@@ -11250,8 +12049,14 @@
       <c r="AO129" s="15">
         <v>83</v>
       </c>
-    </row>
-    <row r="130" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP129" s="14">
+        <v>46.045999999999999</v>
+      </c>
+      <c r="AQ129" s="10">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:43">
       <c r="B130" s="3">
         <v>1981</v>
       </c>
@@ -11356,8 +12161,14 @@
       <c r="AO130" s="15">
         <v>76</v>
       </c>
-    </row>
-    <row r="131" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP130" s="14">
+        <v>47.195999999999998</v>
+      </c>
+      <c r="AQ130" s="10">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:43">
       <c r="B131" s="3">
         <v>1981.25</v>
       </c>
@@ -11462,8 +12273,14 @@
       <c r="AO131" s="15">
         <v>79</v>
       </c>
-    </row>
-    <row r="132" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP131" s="14">
+        <v>48.081000000000003</v>
+      </c>
+      <c r="AQ131" s="10">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:43">
       <c r="B132" s="3">
         <v>1981.5</v>
       </c>
@@ -11584,8 +12401,14 @@
       <c r="AO132" s="15">
         <v>74</v>
       </c>
-    </row>
-    <row r="133" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP132" s="14">
+        <v>48.945999999999998</v>
+      </c>
+      <c r="AQ132" s="10">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:43">
       <c r="B133" s="3">
         <v>1981.75</v>
       </c>
@@ -11706,8 +12529,14 @@
       <c r="AO133" s="15">
         <v>62</v>
       </c>
-    </row>
-    <row r="134" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP133" s="14">
+        <v>49.863</v>
+      </c>
+      <c r="AQ133" s="10">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:43">
       <c r="B134" s="3">
         <v>1982</v>
       </c>
@@ -11828,8 +12657,14 @@
       <c r="AO134" s="15">
         <v>65</v>
       </c>
-    </row>
-    <row r="135" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP134" s="14">
+        <v>50.561</v>
+      </c>
+      <c r="AQ134" s="10">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="135" spans="2:43">
       <c r="B135" s="3">
         <v>1982.25</v>
       </c>
@@ -11950,8 +12785,14 @@
       <c r="AO135" s="15">
         <v>69</v>
       </c>
-    </row>
-    <row r="136" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP135" s="14">
+        <v>51.17</v>
+      </c>
+      <c r="AQ135" s="10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="2:43">
       <c r="B136" s="3">
         <v>1982.5</v>
       </c>
@@ -12072,8 +12913,14 @@
       <c r="AO136" s="15">
         <v>69</v>
       </c>
-    </row>
-    <row r="137" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP136" s="14">
+        <v>51.906999999999996</v>
+      </c>
+      <c r="AQ136" s="10">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="137" spans="2:43">
       <c r="B137" s="3">
         <v>1982.75</v>
       </c>
@@ -12194,8 +13041,14 @@
       <c r="AO137" s="15">
         <v>83</v>
       </c>
-    </row>
-    <row r="138" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP137" s="14">
+        <v>52.482999999999997</v>
+      </c>
+      <c r="AQ137" s="10">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="138" spans="2:43">
       <c r="B138" s="3">
         <v>1983</v>
       </c>
@@ -12316,8 +13169,14 @@
       <c r="AO138" s="15">
         <v>78</v>
       </c>
-    </row>
-    <row r="139" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP138" s="14">
+        <v>52.906999999999996</v>
+      </c>
+      <c r="AQ138" s="10">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:43">
       <c r="B139" s="3">
         <v>1983.25</v>
       </c>
@@ -12438,8 +13297,14 @@
       <c r="AO139" s="15">
         <v>98</v>
       </c>
-    </row>
-    <row r="140" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP139" s="14">
+        <v>53.265000000000001</v>
+      </c>
+      <c r="AQ139" s="10">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="140" spans="2:43">
       <c r="B140" s="3">
         <v>1983.5</v>
       </c>
@@ -12560,8 +13425,14 @@
       <c r="AO140" s="15">
         <v>99</v>
       </c>
-    </row>
-    <row r="141" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP140" s="14">
+        <v>53.823</v>
+      </c>
+      <c r="AQ140" s="10">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:43">
       <c r="B141" s="3">
         <v>1983.75</v>
       </c>
@@ -12682,8 +13553,14 @@
       <c r="AO141" s="15">
         <v>99</v>
       </c>
-    </row>
-    <row r="142" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP141" s="14">
+        <v>54.219000000000001</v>
+      </c>
+      <c r="AQ141" s="10">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:43">
       <c r="B142" s="3">
         <v>1984</v>
       </c>
@@ -12804,8 +13681,14 @@
       <c r="AO142" s="15">
         <v>109</v>
       </c>
-    </row>
-    <row r="143" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP142" s="14">
+        <v>54.795999999999999</v>
+      </c>
+      <c r="AQ142" s="10">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="143" spans="2:43">
       <c r="B143" s="3">
         <v>1984.25</v>
       </c>
@@ -12926,8 +13809,14 @@
       <c r="AO143" s="15">
         <v>106</v>
       </c>
-    </row>
-    <row r="144" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP143" s="14">
+        <v>55.256999999999998</v>
+      </c>
+      <c r="AQ143" s="10">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="144" spans="2:43">
       <c r="B144" s="3">
         <v>1984.5</v>
       </c>
@@ -13048,8 +13937,14 @@
       <c r="AO144" s="15">
         <v>113</v>
       </c>
-    </row>
-    <row r="145" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP144" s="14">
+        <v>55.704999999999998</v>
+      </c>
+      <c r="AQ144" s="10">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="145" spans="2:43">
       <c r="B145" s="3">
         <v>1984.75</v>
       </c>
@@ -13170,8 +14065,14 @@
       <c r="AO145" s="15">
         <v>104</v>
       </c>
-    </row>
-    <row r="146" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP145" s="14">
+        <v>56.079000000000001</v>
+      </c>
+      <c r="AQ145" s="10">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:43">
       <c r="B146" s="3">
         <v>1985</v>
       </c>
@@ -13292,8 +14193,14 @@
       <c r="AO146" s="15">
         <v>99</v>
       </c>
-    </row>
-    <row r="147" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP146" s="14">
+        <v>56.723999999999997</v>
+      </c>
+      <c r="AQ146" s="10">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:43">
       <c r="B147" s="3">
         <v>1985.25</v>
       </c>
@@ -13414,8 +14321,14 @@
       <c r="AO147" s="15">
         <v>99</v>
       </c>
-    </row>
-    <row r="148" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP147" s="14">
+        <v>57.075000000000003</v>
+      </c>
+      <c r="AQ147" s="10">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:43">
       <c r="B148" s="3">
         <v>1985.5</v>
       </c>
@@ -13536,8 +14449,14 @@
       <c r="AO148" s="15">
         <v>98</v>
       </c>
-    </row>
-    <row r="149" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP148" s="14">
+        <v>57.405999999999999</v>
+      </c>
+      <c r="AQ148" s="10">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="149" spans="2:43">
       <c r="B149" s="3">
         <v>1985.75</v>
       </c>
@@ -13658,8 +14577,14 @@
       <c r="AO149" s="15">
         <v>96</v>
       </c>
-    </row>
-    <row r="150" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP149" s="14">
+        <v>57.738</v>
+      </c>
+      <c r="AQ149" s="10">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:43">
       <c r="B150" s="3">
         <v>1986</v>
       </c>
@@ -13780,8 +14705,14 @@
       <c r="AO150" s="15">
         <v>96</v>
       </c>
-    </row>
-    <row r="151" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP150" s="14">
+        <v>58.02</v>
+      </c>
+      <c r="AQ150" s="10">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:43">
       <c r="B151" s="3">
         <v>1986.25</v>
       </c>
@@ -13902,8 +14833,14 @@
       <c r="AO151" s="15">
         <v>95</v>
       </c>
-    </row>
-    <row r="152" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP151" s="14">
+        <v>58.252000000000002</v>
+      </c>
+      <c r="AQ151" s="10">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:43">
       <c r="B152" s="3">
         <v>1986.5</v>
       </c>
@@ -14024,8 +14961,14 @@
       <c r="AO152" s="15">
         <v>91</v>
       </c>
-    </row>
-    <row r="153" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP152" s="14">
+        <v>58.487000000000002</v>
+      </c>
+      <c r="AQ152" s="10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="2:43">
       <c r="B153" s="3">
         <v>1986.75</v>
       </c>
@@ -14146,8 +15089,14 @@
       <c r="AO153" s="15">
         <v>90</v>
       </c>
-    </row>
-    <row r="154" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP153" s="14">
+        <v>58.813000000000002</v>
+      </c>
+      <c r="AQ153" s="10">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="154" spans="2:43">
       <c r="B154" s="3">
         <v>1987</v>
       </c>
@@ -14268,8 +15217,14 @@
       <c r="AO154" s="15">
         <v>84</v>
       </c>
-    </row>
-    <row r="155" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP154" s="14">
+        <v>59.24</v>
+      </c>
+      <c r="AQ154" s="10">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:43">
       <c r="B155" s="3">
         <v>1987.25</v>
       </c>
@@ -14390,8 +15345,14 @@
       <c r="AO155" s="15">
         <v>92</v>
       </c>
-    </row>
-    <row r="156" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP155" s="14">
+        <v>59.637</v>
+      </c>
+      <c r="AQ155" s="10">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:43">
       <c r="B156" s="3">
         <v>1987.5</v>
       </c>
@@ -14512,8 +15473,14 @@
       <c r="AO156" s="15">
         <v>93</v>
       </c>
-    </row>
-    <row r="157" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP156" s="14">
+        <v>60.07</v>
+      </c>
+      <c r="AQ156" s="10">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="157" spans="2:43">
       <c r="B157" s="3">
         <v>1987.75</v>
       </c>
@@ -14634,8 +15601,14 @@
       <c r="AO157" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="158" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP157" s="14">
+        <v>60.567</v>
+      </c>
+      <c r="AQ157" s="10">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="158" spans="2:43">
       <c r="B158" s="3">
         <v>1988</v>
       </c>
@@ -14756,8 +15729,14 @@
       <c r="AO158" s="15">
         <v>90</v>
       </c>
-    </row>
-    <row r="159" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP158" s="14">
+        <v>61.042999999999999</v>
+      </c>
+      <c r="AQ158" s="10">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:43">
       <c r="B159" s="3">
         <v>1988.25</v>
       </c>
@@ -14878,8 +15857,14 @@
       <c r="AO159" s="15">
         <v>94</v>
       </c>
-    </row>
-    <row r="160" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP159" s="14">
+        <v>61.633000000000003</v>
+      </c>
+      <c r="AQ159" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="2:43">
       <c r="B160" s="3">
         <v>1988.5</v>
       </c>
@@ -15000,8 +15985,14 @@
       <c r="AO160" s="15">
         <v>101</v>
       </c>
-    </row>
-    <row r="161" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP160" s="14">
+        <v>62.359000000000002</v>
+      </c>
+      <c r="AQ160" s="10">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:43">
       <c r="B161" s="3">
         <v>1988.75</v>
       </c>
@@ -15122,8 +16113,14 @@
       <c r="AO161" s="15">
         <v>97</v>
       </c>
-    </row>
-    <row r="162" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP161" s="14">
+        <v>62.859000000000002</v>
+      </c>
+      <c r="AQ161" s="10">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="162" spans="2:43">
       <c r="B162" s="3">
         <v>1989</v>
       </c>
@@ -15244,8 +16241,14 @@
       <c r="AO162" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="163" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP162" s="14">
+        <v>63.55</v>
+      </c>
+      <c r="AQ162" s="10">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:43">
       <c r="B163" s="3">
         <v>1989.25</v>
       </c>
@@ -15366,8 +16369,14 @@
       <c r="AO163" s="15">
         <v>90</v>
       </c>
-    </row>
-    <row r="164" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP163" s="14">
+        <v>64.206999999999994</v>
+      </c>
+      <c r="AQ163" s="10">
+        <v>124.1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:43">
       <c r="B164" s="3">
         <v>1989.5</v>
       </c>
@@ -15488,8 +16497,14 @@
       <c r="AO164" s="15">
         <v>95</v>
       </c>
-    </row>
-    <row r="165" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP164" s="14">
+        <v>64.671999999999997</v>
+      </c>
+      <c r="AQ164" s="10">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:43">
       <c r="B165" s="3">
         <v>1989.75</v>
       </c>
@@ -15610,8 +16625,14 @@
       <c r="AO165" s="15">
         <v>95</v>
       </c>
-    </row>
-    <row r="166" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP165" s="14">
+        <v>65.122</v>
+      </c>
+      <c r="AQ165" s="10">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="166" spans="2:43">
       <c r="B166" s="3">
         <v>1990</v>
       </c>
@@ -15732,8 +16753,14 @@
       <c r="AO166" s="15">
         <v>92</v>
       </c>
-    </row>
-    <row r="167" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP166" s="14">
+        <v>65.840999999999994</v>
+      </c>
+      <c r="AQ166" s="10">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="167" spans="2:43">
       <c r="B167" s="3">
         <v>1990.25</v>
       </c>
@@ -15854,8 +16881,14 @@
       <c r="AO167" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="168" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP167" s="14">
+        <v>66.52</v>
+      </c>
+      <c r="AQ167" s="10">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="168" spans="2:43">
       <c r="B168" s="3">
         <v>1990.5</v>
       </c>
@@ -15976,8 +17009,14 @@
       <c r="AO168" s="15">
         <v>74</v>
       </c>
-    </row>
-    <row r="169" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP168" s="14">
+        <v>67.114000000000004</v>
+      </c>
+      <c r="AQ168" s="10">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="169" spans="2:43">
       <c r="B169" s="3">
         <v>1990.75</v>
       </c>
@@ -16098,8 +17137,14 @@
       <c r="AO169" s="15">
         <v>58</v>
       </c>
-    </row>
-    <row r="170" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP169" s="14">
+        <v>67.622</v>
+      </c>
+      <c r="AQ169" s="10">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="2:43">
       <c r="B170" s="3">
         <v>1991</v>
       </c>
@@ -16220,8 +17265,14 @@
       <c r="AO170" s="15">
         <v>75</v>
       </c>
-    </row>
-    <row r="171" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP170" s="14">
+        <v>68.296000000000006</v>
+      </c>
+      <c r="AQ170" s="10">
+        <v>134.80000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="2:43">
       <c r="B171" s="3">
         <v>1991.25</v>
       </c>
@@ -16342,8 +17393,14 @@
       <c r="AO171" s="15">
         <v>79</v>
       </c>
-    </row>
-    <row r="172" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP171" s="14">
+        <v>68.763999999999996</v>
+      </c>
+      <c r="AQ171" s="10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="2:43">
       <c r="B172" s="3">
         <v>1991.5</v>
       </c>
@@ -16464,8 +17521,14 @@
       <c r="AO172" s="15">
         <v>83</v>
       </c>
-    </row>
-    <row r="173" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP172" s="14">
+        <v>69.269000000000005</v>
+      </c>
+      <c r="AQ172" s="10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="2:43">
       <c r="B173" s="3">
         <v>1991.75</v>
       </c>
@@ -16586,8 +17649,14 @@
       <c r="AO173" s="15">
         <v>65</v>
       </c>
-    </row>
-    <row r="174" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP173" s="14">
+        <v>69.643000000000001</v>
+      </c>
+      <c r="AQ173" s="10">
+        <v>138.19999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="2:43">
       <c r="B174" s="3">
         <v>1992</v>
       </c>
@@ -16708,8 +17777,14 @@
       <c r="AO174" s="15">
         <v>68</v>
       </c>
-    </row>
-    <row r="175" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP174" s="14">
+        <v>69.941999999999993</v>
+      </c>
+      <c r="AQ174" s="10">
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:43">
       <c r="B175" s="3">
         <v>1992.25</v>
       </c>
@@ -16830,8 +17905,14 @@
       <c r="AO175" s="15">
         <v>69</v>
       </c>
-    </row>
-    <row r="176" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP175" s="14">
+        <v>70.388000000000005</v>
+      </c>
+      <c r="AQ175" s="10">
+        <v>140.1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:43">
       <c r="B176" s="3">
         <v>1992.5</v>
       </c>
@@ -16952,8 +18033,14 @@
       <c r="AO176" s="15">
         <v>70</v>
       </c>
-    </row>
-    <row r="177" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP176" s="14">
+        <v>70.722999999999999</v>
+      </c>
+      <c r="AQ176" s="10">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="177" spans="2:43">
       <c r="B177" s="3">
         <v>1992.75</v>
       </c>
@@ -17074,8 +18161,14 @@
       <c r="AO177" s="15">
         <v>87</v>
       </c>
-    </row>
-    <row r="178" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP177" s="14">
+        <v>71.200999999999993</v>
+      </c>
+      <c r="AQ177" s="10">
+        <v>142.30000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="2:43">
       <c r="B178" s="3">
         <v>1993</v>
       </c>
@@ -17196,8 +18289,14 @@
       <c r="AO178" s="15">
         <v>94</v>
       </c>
-    </row>
-    <row r="179" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP178" s="14">
+        <v>71.605999999999995</v>
+      </c>
+      <c r="AQ178" s="10">
+        <v>143.30000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="2:43">
       <c r="B179" s="3">
         <v>1993.25</v>
       </c>
@@ -17318,8 +18417,14 @@
       <c r="AO179" s="15">
         <v>81</v>
       </c>
-    </row>
-    <row r="180" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP179" s="14">
+        <v>72.040999999999997</v>
+      </c>
+      <c r="AQ179" s="10">
+        <v>144.30000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:43">
       <c r="B180" s="3">
         <v>1993.5</v>
       </c>
@@ -17440,8 +18545,14 @@
       <c r="AO180" s="15">
         <v>72</v>
       </c>
-    </row>
-    <row r="181" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP180" s="14">
+        <v>72.474999999999994</v>
+      </c>
+      <c r="AQ180" s="10">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="2:43">
       <c r="B181" s="3">
         <v>1993.75</v>
       </c>
@@ -17562,8 +18673,14 @@
       <c r="AO181" s="15">
         <v>80</v>
       </c>
-    </row>
-    <row r="182" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP181" s="14">
+        <v>72.852999999999994</v>
+      </c>
+      <c r="AQ181" s="10">
+        <v>146.30000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="2:43">
       <c r="B182" s="3">
         <v>1994</v>
       </c>
@@ -17684,8 +18801,14 @@
       <c r="AO182" s="15">
         <v>94</v>
       </c>
-    </row>
-    <row r="183" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP182" s="14">
+        <v>73.206000000000003</v>
+      </c>
+      <c r="AQ182" s="10">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:43">
       <c r="B183" s="3">
         <v>1994.25</v>
       </c>
@@ -17806,8 +18929,14 @@
       <c r="AO183" s="15">
         <v>93</v>
       </c>
-    </row>
-    <row r="184" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP183" s="14">
+        <v>73.570999999999998</v>
+      </c>
+      <c r="AQ183" s="10">
+        <v>147.9</v>
+      </c>
+    </row>
+    <row r="184" spans="2:43">
       <c r="B184" s="3">
         <v>1994.5</v>
       </c>
@@ -17928,8 +19057,14 @@
       <c r="AO184" s="15">
         <v>89</v>
       </c>
-    </row>
-    <row r="185" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP184" s="14">
+        <v>73.968999999999994</v>
+      </c>
+      <c r="AQ184" s="10">
+        <v>149.30000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:43">
       <c r="B185" s="3">
         <v>1994.75</v>
       </c>
@@ -18050,8 +19185,14 @@
       <c r="AO185" s="15">
         <v>99</v>
       </c>
-    </row>
-    <row r="186" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP185" s="14">
+        <v>74.376000000000005</v>
+      </c>
+      <c r="AQ185" s="10">
+        <v>150.1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:43">
       <c r="B186" s="3">
         <v>1995</v>
       </c>
@@ -18172,8 +19313,14 @@
       <c r="AO186" s="15">
         <v>98</v>
       </c>
-    </row>
-    <row r="187" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP186" s="14">
+        <v>74.802999999999997</v>
+      </c>
+      <c r="AQ186" s="10">
+        <v>151.19999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="2:43">
       <c r="B187" s="3">
         <v>1995.25</v>
       </c>
@@ -18294,8 +19441,14 @@
       <c r="AO187" s="15">
         <v>92</v>
       </c>
-    </row>
-    <row r="188" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP187" s="14">
+        <v>75.132000000000005</v>
+      </c>
+      <c r="AQ187" s="10">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="188" spans="2:43">
       <c r="B188" s="3">
         <v>1995.5</v>
       </c>
@@ -18416,8 +19569,14 @@
       <c r="AO188" s="15">
         <v>95</v>
       </c>
-    </row>
-    <row r="189" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP188" s="14">
+        <v>75.489000000000004</v>
+      </c>
+      <c r="AQ188" s="10">
+        <v>153.1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:43">
       <c r="B189" s="3">
         <v>1995.75</v>
       </c>
@@ -18538,8 +19697,14 @@
       <c r="AO189" s="15">
         <v>90</v>
       </c>
-    </row>
-    <row r="190" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP189" s="14">
+        <v>75.861000000000004</v>
+      </c>
+      <c r="AQ189" s="10">
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="190" spans="2:43">
       <c r="B190" s="3">
         <v>1996</v>
       </c>
@@ -18660,8 +19825,14 @@
       <c r="AO190" s="15">
         <v>84</v>
       </c>
-    </row>
-    <row r="191" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP190" s="14">
+        <v>76.272000000000006</v>
+      </c>
+      <c r="AQ190" s="10">
+        <v>155.5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:43">
       <c r="B191" s="3">
         <v>1996.25</v>
       </c>
@@ -18782,8 +19953,14 @@
       <c r="AO191" s="15">
         <v>89</v>
       </c>
-    </row>
-    <row r="192" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP191" s="14">
+        <v>76.561999999999998</v>
+      </c>
+      <c r="AQ191" s="10">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="2:43">
       <c r="B192" s="3">
         <v>1996.5</v>
       </c>
@@ -18904,8 +20081,14 @@
       <c r="AO192" s="15">
         <v>101</v>
       </c>
-    </row>
-    <row r="193" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP192" s="14">
+        <v>76.778000000000006</v>
+      </c>
+      <c r="AQ192" s="10">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="2:43">
       <c r="B193" s="3">
         <v>1996.75</v>
       </c>
@@ -19026,8 +20209,14 @@
       <c r="AO193" s="15">
         <v>106</v>
       </c>
-    </row>
-    <row r="194" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP193" s="14">
+        <v>77.168000000000006</v>
+      </c>
+      <c r="AQ193" s="10">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="194" spans="2:43">
       <c r="B194" s="3">
         <v>1997</v>
       </c>
@@ -19148,8 +20337,14 @@
       <c r="AO194" s="15">
         <v>107</v>
       </c>
-    </row>
-    <row r="195" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP194" s="14">
+        <v>77.647000000000006</v>
+      </c>
+      <c r="AQ194" s="10">
+        <v>159.80000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:43">
       <c r="B195" s="3">
         <v>1997.25</v>
       </c>
@@ -19270,8 +20465,14 @@
       <c r="AO195" s="15">
         <v>114</v>
       </c>
-    </row>
-    <row r="196" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP195" s="14">
+        <v>77.856999999999999</v>
+      </c>
+      <c r="AQ195" s="10">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="2:43">
       <c r="B196" s="3">
         <v>1997.5</v>
       </c>
@@ -19392,8 +20593,14 @@
       <c r="AO196" s="15">
         <v>122</v>
       </c>
-    </row>
-    <row r="197" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP196" s="14">
+        <v>78.135000000000005</v>
+      </c>
+      <c r="AQ196" s="10">
+        <v>161.19999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="2:43">
       <c r="B197" s="3">
         <v>1997.75</v>
       </c>
@@ -19514,8 +20721,14 @@
       <c r="AO197" s="15">
         <v>119</v>
       </c>
-    </row>
-    <row r="198" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP197" s="14">
+        <v>78.394999999999996</v>
+      </c>
+      <c r="AQ197" s="10">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:43">
       <c r="B198" s="3">
         <v>1998</v>
       </c>
@@ -19636,8 +20849,14 @@
       <c r="AO198" s="15">
         <v>121</v>
       </c>
-    </row>
-    <row r="199" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP198" s="14">
+        <v>78.522999999999996</v>
+      </c>
+      <c r="AQ198" s="10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="199" spans="2:43">
       <c r="B199" s="3">
         <v>1998.25</v>
       </c>
@@ -19758,8 +20977,14 @@
       <c r="AO199" s="15">
         <v>118</v>
       </c>
-    </row>
-    <row r="200" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP199" s="14">
+        <v>78.686999999999998</v>
+      </c>
+      <c r="AQ199" s="10">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="2:43">
       <c r="B200" s="3">
         <v>1998.5</v>
       </c>
@@ -19880,8 +21105,14 @@
       <c r="AO200" s="15">
         <v>116</v>
       </c>
-    </row>
-    <row r="201" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP200" s="14">
+        <v>78.980999999999995</v>
+      </c>
+      <c r="AQ200" s="10">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:43">
       <c r="B201" s="3">
         <v>1998.75</v>
       </c>
@@ -20002,8 +21233,14 @@
       <c r="AO201" s="15">
         <v>107</v>
       </c>
-    </row>
-    <row r="202" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP201" s="14">
+        <v>79.227999999999994</v>
+      </c>
+      <c r="AQ201" s="10">
+        <v>164.4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:43">
       <c r="B202" s="3">
         <v>1999</v>
       </c>
@@ -20124,8 +21361,14 @@
       <c r="AO202" s="15">
         <v>120</v>
       </c>
-    </row>
-    <row r="203" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP202" s="14">
+        <v>79.623999999999995</v>
+      </c>
+      <c r="AQ202" s="10">
+        <v>164.8</v>
+      </c>
+    </row>
+    <row r="203" spans="2:43">
       <c r="B203" s="3">
         <v>1999.25</v>
       </c>
@@ -20246,8 +21489,14 @@
       <c r="AO203" s="15">
         <v>117</v>
       </c>
-    </row>
-    <row r="204" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP203" s="14">
+        <v>79.891000000000005</v>
+      </c>
+      <c r="AQ203" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="204" spans="2:43">
       <c r="B204" s="3">
         <v>1999.5</v>
       </c>
@@ -20368,8 +21617,14 @@
       <c r="AO204" s="15">
         <v>120</v>
       </c>
-    </row>
-    <row r="205" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP204" s="14">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="AQ204" s="10">
+        <v>167.8</v>
+      </c>
+    </row>
+    <row r="205" spans="2:43">
       <c r="B205" s="3">
         <v>1999.75</v>
       </c>
@@ -20490,8 +21745,14 @@
       <c r="AO205" s="15">
         <v>122</v>
       </c>
-    </row>
-    <row r="206" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP205" s="14">
+        <v>80.546999999999997</v>
+      </c>
+      <c r="AQ205" s="10">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="206" spans="2:43">
       <c r="B206" s="3">
         <v>2000</v>
       </c>
@@ -20612,8 +21873,14 @@
       <c r="AO206" s="15">
         <v>132</v>
       </c>
-    </row>
-    <row r="207" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP206" s="14">
+        <v>81.162999999999997</v>
+      </c>
+      <c r="AQ206" s="10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207" spans="2:43">
       <c r="B207" s="3">
         <v>2000.25</v>
       </c>
@@ -20734,8 +22001,14 @@
       <c r="AO207" s="15">
         <v>129</v>
       </c>
-    </row>
-    <row r="208" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP207" s="14">
+        <v>81.623000000000005</v>
+      </c>
+      <c r="AQ207" s="10">
+        <v>172.2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:43">
       <c r="B208" s="3">
         <v>2000.5</v>
       </c>
@@ -20856,8 +22129,14 @@
       <c r="AO208" s="15">
         <v>134</v>
       </c>
-    </row>
-    <row r="209" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP208" s="14">
+        <v>82.152000000000001</v>
+      </c>
+      <c r="AQ208" s="10">
+        <v>173.6</v>
+      </c>
+    </row>
+    <row r="209" spans="2:43">
       <c r="B209" s="3">
         <v>2000.75</v>
       </c>
@@ -20978,8 +22257,14 @@
       <c r="AO209" s="15">
         <v>125</v>
       </c>
-    </row>
-    <row r="210" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP209" s="14">
+        <v>82.593000000000004</v>
+      </c>
+      <c r="AQ209" s="10">
+        <v>174.6</v>
+      </c>
+    </row>
+    <row r="210" spans="2:43">
       <c r="B210" s="3">
         <v>2001</v>
       </c>
@@ -21100,8 +22385,14 @@
       <c r="AO210" s="15">
         <v>109</v>
       </c>
-    </row>
-    <row r="211" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP210" s="14">
+        <v>83.111999999999995</v>
+      </c>
+      <c r="AQ210" s="10">
+        <v>176.1</v>
+      </c>
+    </row>
+    <row r="211" spans="2:43">
       <c r="B211" s="3">
         <v>2001.25</v>
       </c>
@@ -21222,8 +22513,14 @@
       <c r="AO211" s="15">
         <v>109</v>
       </c>
-    </row>
-    <row r="212" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP211" s="14">
+        <v>83.698999999999998</v>
+      </c>
+      <c r="AQ211" s="10">
+        <v>177.7</v>
+      </c>
+    </row>
+    <row r="212" spans="2:43">
       <c r="B212" s="3">
         <v>2001.5</v>
       </c>
@@ -21344,8 +22641,14 @@
       <c r="AO212" s="15">
         <v>105</v>
       </c>
-    </row>
-    <row r="213" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP212" s="14">
+        <v>83.972999999999999</v>
+      </c>
+      <c r="AQ212" s="10">
+        <v>178.1</v>
+      </c>
+    </row>
+    <row r="213" spans="2:43">
       <c r="B213" s="3">
         <v>2001.75</v>
       </c>
@@ -21466,8 +22769,14 @@
       <c r="AO213" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="214" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP213" s="14">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="AQ213" s="10">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="214" spans="2:43">
       <c r="B214" s="3">
         <v>2002</v>
       </c>
@@ -21588,8 +22897,14 @@
       <c r="AO214" s="15">
         <v>113</v>
       </c>
-    </row>
-    <row r="215" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP214" s="14">
+        <v>84.497</v>
+      </c>
+      <c r="AQ214" s="10">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="215" spans="2:43">
       <c r="B215" s="3">
         <v>2002.25</v>
       </c>
@@ -21710,8 +23025,14 @@
       <c r="AO215" s="15">
         <v>109</v>
       </c>
-    </row>
-    <row r="216" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP215" s="14">
+        <v>84.811999999999998</v>
+      </c>
+      <c r="AQ215" s="10">
+        <v>179.6</v>
+      </c>
+    </row>
+    <row r="216" spans="2:43">
       <c r="B216" s="3">
         <v>2002.5</v>
       </c>
@@ -21832,8 +23153,14 @@
       <c r="AO216" s="15">
         <v>96</v>
       </c>
-    </row>
-    <row r="217" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP216" s="14">
+        <v>85.19</v>
+      </c>
+      <c r="AQ216" s="10">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="217" spans="2:43">
       <c r="B217" s="3">
         <v>2002.75</v>
       </c>
@@ -21954,8 +23281,14 @@
       <c r="AO217" s="15">
         <v>92</v>
       </c>
-    </row>
-    <row r="218" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP217" s="14">
+        <v>85.650999999999996</v>
+      </c>
+      <c r="AQ217" s="10">
+        <v>181.8</v>
+      </c>
+    </row>
+    <row r="218" spans="2:43">
       <c r="B218" s="3">
         <v>2003</v>
       </c>
@@ -22076,8 +23409,14 @@
       <c r="AO218" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="219" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP218" s="14">
+        <v>86.179000000000002</v>
+      </c>
+      <c r="AQ218" s="10">
+        <v>183.9</v>
+      </c>
+    </row>
+    <row r="219" spans="2:43">
       <c r="B219" s="3">
         <v>2003.25</v>
       </c>
@@ -22198,8 +23537,14 @@
       <c r="AO219" s="15">
         <v>103</v>
       </c>
-    </row>
-    <row r="220" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP219" s="14">
+        <v>86.454999999999998</v>
+      </c>
+      <c r="AQ219" s="10">
+        <v>183.1</v>
+      </c>
+    </row>
+    <row r="220" spans="2:43">
       <c r="B220" s="3">
         <v>2003.5</v>
       </c>
@@ -22320,8 +23665,14 @@
       <c r="AO220" s="15">
         <v>95</v>
       </c>
-    </row>
-    <row r="221" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP220" s="14">
+        <v>86.933999999999997</v>
+      </c>
+      <c r="AQ220" s="10">
+        <v>185.1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:43">
       <c r="B221" s="3">
         <v>2003.75</v>
       </c>
@@ -22442,8 +23793,14 @@
       <c r="AO221" s="15">
         <v>105</v>
       </c>
-    </row>
-    <row r="222" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP221" s="14">
+        <v>87.346000000000004</v>
+      </c>
+      <c r="AQ221" s="10">
+        <v>185.5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:43">
       <c r="B222" s="3">
         <v>2004</v>
       </c>
@@ -22564,8 +23921,14 @@
       <c r="AO222" s="15">
         <v>114</v>
       </c>
-    </row>
-    <row r="223" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP222" s="14">
+        <v>88.108000000000004</v>
+      </c>
+      <c r="AQ222" s="10">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:43">
       <c r="B223" s="3">
         <v>2004.25</v>
       </c>
@@ -22686,8 +24049,14 @@
       <c r="AO223" s="15">
         <v>103</v>
       </c>
-    </row>
-    <row r="224" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP223" s="14">
+        <v>88.875</v>
+      </c>
+      <c r="AQ223" s="10">
+        <v>188.9</v>
+      </c>
+    </row>
+    <row r="224" spans="2:43">
       <c r="B224" s="3">
         <v>2004.5</v>
       </c>
@@ -22808,8 +24177,14 @@
       <c r="AO224" s="15">
         <v>109</v>
       </c>
-    </row>
-    <row r="225" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP224" s="14">
+        <v>89.421999999999997</v>
+      </c>
+      <c r="AQ224" s="10">
+        <v>189.8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:43">
       <c r="B225" s="3">
         <v>2004.75</v>
       </c>
@@ -22930,8 +24305,14 @@
       <c r="AO225" s="15">
         <v>105</v>
       </c>
-    </row>
-    <row r="226" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP225" s="14">
+        <v>90.049000000000007</v>
+      </c>
+      <c r="AQ225" s="10">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="226" spans="2:43">
       <c r="B226" s="3">
         <v>2005</v>
       </c>
@@ -23052,8 +24433,14 @@
       <c r="AO226" s="15">
         <v>97</v>
       </c>
-    </row>
-    <row r="227" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP226" s="14">
+        <v>90.882999999999996</v>
+      </c>
+      <c r="AQ226" s="10">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:43">
       <c r="B227" s="3">
         <v>2005.25</v>
       </c>
@@ -23174,8 +24561,14 @@
       <c r="AO227" s="15">
         <v>93</v>
       </c>
-    </row>
-    <row r="228" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP227" s="14">
+        <v>91.543000000000006</v>
+      </c>
+      <c r="AQ227" s="10">
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="228" spans="2:43">
       <c r="B228" s="3">
         <v>2005.5</v>
       </c>
@@ -23296,8 +24689,14 @@
       <c r="AO228" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="229" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP228" s="14">
+        <v>92.399000000000001</v>
+      </c>
+      <c r="AQ228" s="10">
+        <v>198.8</v>
+      </c>
+    </row>
+    <row r="229" spans="2:43">
       <c r="B229" s="3">
         <v>2005.75</v>
       </c>
@@ -23418,8 +24817,14 @@
       <c r="AO229" s="15">
         <v>80</v>
       </c>
-    </row>
-    <row r="230" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP229" s="14">
+        <v>93.1</v>
+      </c>
+      <c r="AQ229" s="10">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="230" spans="2:43">
       <c r="B230" s="3">
         <v>2006</v>
       </c>
@@ -23540,8 +24945,14 @@
       <c r="AO230" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="231" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP230" s="14">
+        <v>93.831999999999994</v>
+      </c>
+      <c r="AQ230" s="10">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="231" spans="2:43">
       <c r="B231" s="3">
         <v>2006.25</v>
       </c>
@@ -23660,8 +25071,14 @@
       <c r="AO231" s="15">
         <v>81</v>
       </c>
-    </row>
-    <row r="232" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP231" s="14">
+        <v>94.587000000000003</v>
+      </c>
+      <c r="AQ231" s="10">
+        <v>201.8</v>
+      </c>
+    </row>
+    <row r="232" spans="2:43">
       <c r="B232" s="3">
         <v>2006.5</v>
       </c>
@@ -23780,8 +25197,14 @@
       <c r="AO232" s="15">
         <v>86</v>
       </c>
-    </row>
-    <row r="233" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP232" s="14">
+        <v>95.247</v>
+      </c>
+      <c r="AQ232" s="10">
+        <v>202.8</v>
+      </c>
+    </row>
+    <row r="233" spans="2:43">
       <c r="B233" s="3">
         <v>2006.75</v>
       </c>
@@ -23900,8 +25323,14 @@
       <c r="AO233" s="15">
         <v>97</v>
       </c>
-    </row>
-    <row r="234" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP233" s="14">
+        <v>95.58</v>
+      </c>
+      <c r="AQ233" s="10">
+        <v>203.1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:43">
       <c r="B234" s="3">
         <v>2007</v>
       </c>
@@ -24005,8 +25434,14 @@
       <c r="AO234" s="15">
         <v>100</v>
       </c>
-    </row>
-    <row r="235" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP234" s="14">
+        <v>96.653999999999996</v>
+      </c>
+      <c r="AQ234" s="10">
+        <v>205.28800000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="2:43">
       <c r="B235" s="3">
         <v>2007.25</v>
       </c>
@@ -24110,8 +25545,14 @@
       <c r="AO235" s="15">
         <v>89</v>
       </c>
-    </row>
-    <row r="236" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP235" s="14">
+        <v>97.194000000000003</v>
+      </c>
+      <c r="AQ235" s="10">
+        <v>207.23400000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="2:43">
       <c r="B236" s="3">
         <v>2007.5</v>
       </c>
@@ -24215,8 +25656,14 @@
       <c r="AO236" s="15">
         <v>93</v>
       </c>
-    </row>
-    <row r="237" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP236" s="14">
+        <v>97.531000000000006</v>
+      </c>
+      <c r="AQ236" s="10">
+        <v>208.547</v>
+      </c>
+    </row>
+    <row r="237" spans="2:43">
       <c r="B237" s="3">
         <v>2007.75</v>
       </c>
@@ -24320,8 +25767,14 @@
       <c r="AO237" s="15">
         <v>80</v>
       </c>
-    </row>
-    <row r="238" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP237" s="14">
+        <v>97.956000000000003</v>
+      </c>
+      <c r="AQ237" s="10">
+        <v>211.44499999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="2:43">
       <c r="B238" s="3">
         <v>2008</v>
       </c>
@@ -24425,8 +25878,14 @@
       <c r="AO238" s="15">
         <v>84</v>
       </c>
-    </row>
-    <row r="239" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP238" s="14">
+        <v>98.516000000000005</v>
+      </c>
+      <c r="AQ238" s="10">
+        <v>213.44800000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="2:43">
       <c r="B239" s="3">
         <v>2008.25</v>
       </c>
@@ -24530,8 +25989,14 @@
       <c r="AO239" s="15">
         <v>66</v>
       </c>
-    </row>
-    <row r="240" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP239" s="14">
+        <v>98.995000000000005</v>
+      </c>
+      <c r="AQ239" s="10">
+        <v>217.46299999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="2:43">
       <c r="B240" s="3">
         <v>2008.5</v>
       </c>
@@ -24635,8 +26100,14 @@
       <c r="AO240" s="15">
         <v>74</v>
       </c>
-    </row>
-    <row r="241" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP240" s="14">
+        <v>99.673000000000002</v>
+      </c>
+      <c r="AQ240" s="10">
+        <v>218.87700000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="2:43">
       <c r="B241" s="3">
         <v>2008.75</v>
       </c>
@@ -24740,8 +26211,14 @@
       <c r="AO241" s="15">
         <v>67</v>
       </c>
-    </row>
-    <row r="242" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP241" s="14">
+        <v>99.814999999999998</v>
+      </c>
+      <c r="AQ241" s="10">
+        <v>211.398</v>
+      </c>
+    </row>
+    <row r="242" spans="2:43">
       <c r="B242" s="3">
         <v>2009</v>
       </c>
@@ -24845,8 +26322,14 @@
       <c r="AO242" s="15">
         <v>66</v>
       </c>
-    </row>
-    <row r="243" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP242" s="14">
+        <v>100.062</v>
+      </c>
+      <c r="AQ242" s="10">
+        <v>212.495</v>
+      </c>
+    </row>
+    <row r="243" spans="2:43">
       <c r="B243" s="3">
         <v>2009.25</v>
       </c>
@@ -24950,8 +26433,14 @@
       <c r="AO243" s="15">
         <v>85</v>
       </c>
-    </row>
-    <row r="244" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP243" s="14">
+        <v>99.894999999999996</v>
+      </c>
+      <c r="AQ243" s="10">
+        <v>214.79</v>
+      </c>
+    </row>
+    <row r="244" spans="2:43">
       <c r="B244" s="3">
         <v>2009.5</v>
       </c>
@@ -25055,8 +26544,14 @@
       <c r="AO244" s="15">
         <v>81</v>
       </c>
-    </row>
-    <row r="245" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP244" s="14">
+        <v>99.873000000000005</v>
+      </c>
+      <c r="AQ244" s="10">
+        <v>215.86099999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="2:43">
       <c r="B245" s="3">
         <v>2009.75</v>
       </c>
@@ -25160,8 +26655,14 @@
       <c r="AO245" s="15">
         <v>80</v>
       </c>
-    </row>
-    <row r="246" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP245" s="14">
+        <v>100.169</v>
+      </c>
+      <c r="AQ245" s="10">
+        <v>217.34700000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="2:43">
       <c r="B246" s="3">
         <v>2010</v>
       </c>
@@ -25263,8 +26764,14 @@
       <c r="AO246" s="15">
         <v>84</v>
       </c>
-    </row>
-    <row r="247" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP246" s="14">
+        <v>100.52200000000001</v>
+      </c>
+      <c r="AQ246" s="10">
+        <v>217.35300000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="2:43">
       <c r="B247" s="3">
         <v>2010.25</v>
       </c>
@@ -25366,8 +26873,14 @@
       <c r="AO247" s="15">
         <v>81</v>
       </c>
-    </row>
-    <row r="248" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP247" s="14">
+        <v>100.968</v>
+      </c>
+      <c r="AQ247" s="10">
+        <v>217.19900000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="2:43">
       <c r="B248" s="3">
         <v>2010.5</v>
       </c>
@@ -25469,8 +26982,14 @@
       <c r="AO248" s="15">
         <v>74</v>
       </c>
-    </row>
-    <row r="249" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP248" s="14">
+        <v>101.429</v>
+      </c>
+      <c r="AQ248" s="10">
+        <v>218.27500000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="2:43">
       <c r="B249" s="3">
         <v>2010.75</v>
       </c>
@@ -25572,8 +27091,14 @@
       <c r="AO249" s="15">
         <v>75</v>
       </c>
-    </row>
-    <row r="250" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP249" s="14">
+        <v>101.949</v>
+      </c>
+      <c r="AQ249" s="10">
+        <v>220.47200000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="2:43">
       <c r="B250" s="3">
         <v>2011</v>
       </c>
@@ -25675,8 +27200,14 @@
       <c r="AO250" s="15">
         <v>78</v>
       </c>
-    </row>
-    <row r="251" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP250" s="14">
+        <v>102.399</v>
+      </c>
+      <c r="AQ250" s="10">
+        <v>223.04599999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="2:43">
       <c r="B251" s="3">
         <v>2011.25</v>
       </c>
@@ -25778,8 +27309,14 @@
       <c r="AO251" s="15">
         <v>78</v>
       </c>
-    </row>
-    <row r="252" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP251" s="14">
+        <v>103.145</v>
+      </c>
+      <c r="AQ251" s="10">
+        <v>224.80600000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:43">
       <c r="B252" s="3">
         <v>2011.5</v>
       </c>
@@ -25881,8 +27418,14 @@
       <c r="AO252" s="15">
         <v>55</v>
       </c>
-    </row>
-    <row r="253" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP252" s="14">
+        <v>103.768</v>
+      </c>
+      <c r="AQ252" s="10">
+        <v>226.59700000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:43">
       <c r="B253" s="3">
         <v>2011.75</v>
       </c>
@@ -25984,8 +27527,14 @@
       <c r="AO253" s="15">
         <v>64</v>
       </c>
-    </row>
-    <row r="254" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP253" s="14">
+        <v>103.917</v>
+      </c>
+      <c r="AQ253" s="10">
+        <v>227.22300000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="2:43">
       <c r="B254" s="3">
         <v>2012</v>
       </c>
@@ -26087,8 +27636,14 @@
       <c r="AO254" s="15">
         <v>87</v>
       </c>
-    </row>
-    <row r="255" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP254" s="14">
+        <v>104.46599999999999</v>
+      </c>
+      <c r="AQ254" s="10">
+        <v>228.80699999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="2:43">
       <c r="B255" s="3">
         <v>2012.25</v>
       </c>
@@ -26190,8 +27745,14 @@
       <c r="AO255" s="15">
         <v>89</v>
       </c>
-    </row>
-    <row r="256" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP255" s="14">
+        <v>104.943</v>
+      </c>
+      <c r="AQ255" s="10">
+        <v>228.524</v>
+      </c>
+    </row>
+    <row r="256" spans="2:43">
       <c r="B256" s="3">
         <v>2012.5</v>
       </c>
@@ -26293,8 +27854,14 @@
       <c r="AO256" s="15">
         <v>84</v>
       </c>
-    </row>
-    <row r="257" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP256" s="14">
+        <v>105.508</v>
+      </c>
+      <c r="AQ256" s="10">
+        <v>231.01499999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="2:43">
       <c r="B257" s="3">
         <v>2012.75</v>
       </c>
@@ -26396,8 +27963,14 @@
       <c r="AO257" s="15">
         <v>93</v>
       </c>
-    </row>
-    <row r="258" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP257" s="14">
+        <v>105.935</v>
+      </c>
+      <c r="AQ257" s="10">
+        <v>231.221</v>
+      </c>
+    </row>
+    <row r="258" spans="2:43">
       <c r="B258" s="3">
         <v>2013</v>
       </c>
@@ -26499,8 +28072,14 @@
       <c r="AO258" s="15">
         <v>83</v>
       </c>
-    </row>
-    <row r="259" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP258" s="14">
+        <v>106.349</v>
+      </c>
+      <c r="AQ258" s="10">
+        <v>232.29900000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="2:43">
       <c r="B259" s="3">
         <v>2013.25</v>
       </c>
@@ -26602,8 +28181,14 @@
       <c r="AO259" s="15">
         <v>87</v>
       </c>
-    </row>
-    <row r="260" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP259" s="14">
+        <v>106.57</v>
+      </c>
+      <c r="AQ259" s="10">
+        <v>232.374</v>
+      </c>
+    </row>
+    <row r="260" spans="2:43">
       <c r="B260" s="3">
         <v>2013.5</v>
       </c>
@@ -26705,8 +28290,14 @@
       <c r="AO260" s="15">
         <v>82</v>
       </c>
-    </row>
-    <row r="261" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP260" s="14">
+        <v>107.084</v>
+      </c>
+      <c r="AQ260" s="10">
+        <v>233.63200000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="2:43">
       <c r="B261" s="3">
         <v>2013.75</v>
       </c>
@@ -26808,8 +28399,14 @@
       <c r="AO261" s="15">
         <v>81</v>
       </c>
-    </row>
-    <row r="262" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP261" s="14">
+        <v>107.636</v>
+      </c>
+      <c r="AQ261" s="10">
+        <v>234.72300000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="2:43">
       <c r="B262" s="3">
         <v>2014</v>
       </c>
@@ -26911,8 +28508,14 @@
       <c r="AO262" s="15">
         <v>78</v>
       </c>
-    </row>
-    <row r="263" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP262" s="14">
+        <v>108.083</v>
+      </c>
+      <c r="AQ262" s="10">
+        <v>235.97800000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="2:43">
       <c r="B263" s="3">
         <v>2014.25</v>
       </c>
@@ -27014,8 +28617,14 @@
       <c r="AO263" s="15">
         <v>85</v>
       </c>
-    </row>
-    <row r="264" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP263" s="14">
+        <v>108.69199999999999</v>
+      </c>
+      <c r="AQ263" s="10">
+        <v>237.029</v>
+      </c>
+    </row>
+    <row r="264" spans="2:43">
       <c r="B264" s="3">
         <v>2014.5</v>
       </c>
@@ -27117,8 +28726,14 @@
       <c r="AO264" s="15">
         <v>84</v>
       </c>
-    </row>
-    <row r="265" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP264" s="14">
+        <v>109.187</v>
+      </c>
+      <c r="AQ264" s="10">
+        <v>237.48599999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="2:43">
       <c r="B265" s="3">
         <v>2014.75</v>
       </c>
@@ -27220,8 +28835,14 @@
       <c r="AO265" s="15">
         <v>99</v>
       </c>
-    </row>
-    <row r="266" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP265" s="14">
+        <v>109.345</v>
+      </c>
+      <c r="AQ265" s="10">
+        <v>236.29</v>
+      </c>
+    </row>
+    <row r="266" spans="2:43">
       <c r="B266" s="3">
         <v>2015</v>
       </c>
@@ -27323,8 +28944,14 @@
       <c r="AO266" s="15">
         <v>109</v>
       </c>
-    </row>
-    <row r="267" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP266" s="14">
+        <v>109.32599999999999</v>
+      </c>
+      <c r="AQ266" s="10">
+        <v>235.989</v>
+      </c>
+    </row>
+    <row r="267" spans="2:43">
       <c r="B267" s="3">
         <v>2015.25</v>
       </c>
@@ -27426,8 +29053,14 @@
       <c r="AO267" s="15">
         <v>105</v>
       </c>
-    </row>
-    <row r="268" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP267" s="14">
+        <v>109.916</v>
+      </c>
+      <c r="AQ267" s="10">
+        <v>237.41900000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="2:43">
       <c r="B268" s="3">
         <v>2015.5</v>
       </c>
@@ -27529,8 +29162,14 @@
       <c r="AO268" s="15">
         <v>98</v>
       </c>
-    </row>
-    <row r="269" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP268" s="14">
+        <v>110.286</v>
+      </c>
+      <c r="AQ268" s="10">
+        <v>237.46700000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="2:43">
       <c r="B269" s="3">
         <v>2015.75</v>
       </c>
@@ -27632,8 +29271,14 @@
       <c r="AO269" s="15">
         <v>104</v>
       </c>
-    </row>
-    <row r="270" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP269" s="14">
+        <v>110.51300000000001</v>
+      </c>
+      <c r="AQ269" s="10">
+        <v>237.846</v>
+      </c>
+    </row>
+    <row r="270" spans="2:43">
       <c r="B270" s="3">
         <v>2016</v>
       </c>
@@ -27735,8 +29380,14 @@
       <c r="AO270" s="15">
         <v>102</v>
       </c>
-    </row>
-    <row r="271" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP270" s="14">
+        <v>110.58199999999999</v>
+      </c>
+      <c r="AQ270" s="10">
+        <v>238.078</v>
+      </c>
+    </row>
+    <row r="271" spans="2:43">
       <c r="B271" s="3">
         <v>2016.25</v>
       </c>
@@ -27838,8 +29489,14 @@
       <c r="AO271" s="15">
         <v>101</v>
       </c>
-    </row>
-    <row r="272" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP271" s="14">
+        <v>111.249</v>
+      </c>
+      <c r="AQ271" s="10">
+        <v>239.84200000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="2:43">
       <c r="B272" s="3">
         <v>2016.5</v>
       </c>
@@ -27941,8 +29598,14 @@
       <c r="AO272" s="15">
         <v>98</v>
       </c>
-    </row>
-    <row r="273" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP272" s="14">
+        <v>111.628</v>
+      </c>
+      <c r="AQ272" s="10">
+        <v>241.006</v>
+      </c>
+    </row>
+    <row r="273" spans="2:43">
       <c r="B273" s="3">
         <v>2016.75</v>
       </c>
@@ -28044,8 +29707,14 @@
       <c r="AO273" s="15">
         <v>103</v>
       </c>
-    </row>
-    <row r="274" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP273" s="14">
+        <v>112.19</v>
+      </c>
+      <c r="AQ273" s="10">
+        <v>242.821</v>
+      </c>
+    </row>
+    <row r="274" spans="2:43">
       <c r="B274" s="3">
         <v>2017</v>
       </c>
@@ -28147,8 +29816,14 @@
       <c r="AO274" s="15">
         <v>109</v>
       </c>
-    </row>
-    <row r="275" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP274" s="14">
+        <v>112.746</v>
+      </c>
+      <c r="AQ274" s="10">
+        <v>243.75200000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="2:43">
       <c r="B275" s="3">
         <v>2017.25</v>
       </c>
@@ -28250,8 +29925,14 @@
       <c r="AO275" s="15">
         <v>102</v>
       </c>
-    </row>
-    <row r="276" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP275" s="14">
+        <v>113.029</v>
+      </c>
+      <c r="AQ275" s="10">
+        <v>243.79</v>
+      </c>
+    </row>
+    <row r="276" spans="2:43">
       <c r="B276" s="3">
         <v>2017.5</v>
       </c>
@@ -28338,8 +30019,14 @@
       <c r="AN276" s="14">
         <v>106</v>
       </c>
-    </row>
-    <row r="277" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP276" s="14">
+        <v>113.63</v>
+      </c>
+      <c r="AQ276" s="10">
+        <v>246.37299999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="2:43">
       <c r="B277" s="3">
         <v>2017.75</v>
       </c>
@@ -28394,7 +30081,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:43">
       <c r="B278" s="3">
         <v>2018</v>
       </c>
@@ -28449,7 +30136,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:43">
       <c r="B279" s="3">
         <v>2018.25</v>
       </c>
@@ -28504,7 +30191,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:43">
       <c r="M280" s="5"/>
       <c r="N280" s="12"/>
       <c r="O280" s="5"/>
@@ -28520,7 +30207,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:43">
       <c r="M281" s="5"/>
       <c r="N281" s="12"/>
       <c r="O281" s="5"/>
@@ -28536,7 +30223,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:43">
       <c r="M282" s="5"/>
       <c r="N282" s="12"/>
       <c r="O282" s="5"/>
@@ -28552,139 +30239,139 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:43">
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:43">
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:43">
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:43">
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:43">
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:43">
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="289" spans="26:26">
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="290" spans="26:26">
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="291" spans="26:26">
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="292" spans="26:26">
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="293" spans="26:26">
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="294" spans="26:26">
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="295" spans="26:26">
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="296" spans="26:26">
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="297" spans="26:26">
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="298" spans="26:26">
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="299" spans="26:26">
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="300" spans="26:26">
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="301" spans="26:26">
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="302" spans="26:26">
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="303" spans="26:26">
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="304" spans="26:26">
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="305" spans="26:26">
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="306" spans="26:26">
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="307" spans="26:26">
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="308" spans="26:26">
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="309" spans="26:26">
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="310" spans="26:26">
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="311" spans="26:26">
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="312" spans="26:26">
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="313" spans="26:26">
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="314" spans="26:26">
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="315" spans="26:26">
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="316" spans="26:26">
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="317" spans="26:26">
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="318" spans="26:26">
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="319" spans="26:26">
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="320" spans="26:26">
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="321" spans="26:26">
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="322" spans="26:26">
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="323" spans="26:26">
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="324" spans="26:26">
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="325" spans="26:26">
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="326" spans="26:26">
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="327" spans="26:26">
       <c r="Z327" s="3"/>
     </row>
   </sheetData>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -640,7 +640,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
+      <selection pane="bottomRight" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -935,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="AN2" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO2" s="17">
         <v>2</v>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -181,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +237,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -288,7 +295,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +345,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +636,10 @@
   <dimension ref="A1:AQ327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -6717,8 +6727,8 @@
       <c r="W81" s="4">
         <v>168.2561</v>
       </c>
-      <c r="X81" s="11">
-        <v>170.07320000000001</v>
+      <c r="X81" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
@@ -7266,8 +7276,9 @@
       <c r="W86" s="4">
         <v>173.4074</v>
       </c>
-      <c r="X86" s="11" t="s">
-        <v>6</v>
+      <c r="X86" s="17">
+        <f>(X85+X87)/2</f>
+        <v>175.2482</v>
       </c>
       <c r="Y86" s="3">
         <v>1</v>
@@ -9229,8 +9240,9 @@
       <c r="W104" s="4">
         <v>128.34</v>
       </c>
-      <c r="X104" s="11" t="s">
-        <v>6</v>
+      <c r="X104" s="17">
+        <f>(X103+X105)/2</f>
+        <v>126.74455</v>
       </c>
       <c r="Y104" s="3">
         <v>1</v>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>RealWage</t>
-  </si>
-  <si>
-    <t>Employment</t>
   </si>
   <si>
     <t>UnempRate</t>
@@ -633,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ327"/>
+  <dimension ref="A1:AP327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
@@ -671,9 +668,7 @@
     <col min="25" max="25" width="22" style="5"/>
     <col min="26" max="31" width="22" style="3"/>
     <col min="32" max="32" width="22" style="2"/>
-    <col min="33" max="33" width="22" style="3"/>
-    <col min="34" max="34" width="22" style="2"/>
-    <col min="35" max="35" width="22" style="3"/>
+    <col min="33" max="35" width="22" style="3"/>
     <col min="36" max="36" width="22" style="2"/>
     <col min="37" max="37" width="22" style="3"/>
     <col min="38" max="38" width="22" style="2"/>
@@ -684,7 +679,7 @@
     <col min="43" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="16" customFormat="1">
+    <row r="1" spans="1:42" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -773,7 +768,7 @@
         <v>33</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="16" t="s">
         <v>34</v>
@@ -785,37 +780,34 @@
         <v>36</v>
       </c>
       <c r="AH1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AK1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AM1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AP1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" s="16" customFormat="1">
+    </row>
+    <row r="2" spans="1:42" s="16" customFormat="1">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -895,58 +887,55 @@
         <v>2</v>
       </c>
       <c r="AA2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG2" s="16">
-        <v>5</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>3</v>
       </c>
       <c r="AI2" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL2" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM2" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN2" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP2" s="16">
-        <v>5</v>
-      </c>
-      <c r="AQ2" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" s="16" customFormat="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="16" customFormat="1">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +1035,7 @@
       <c r="AG3" s="16">
         <v>1</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="16">
         <v>1</v>
       </c>
       <c r="AI3" s="16">
@@ -1073,11 +1062,8 @@
       <c r="AP3" s="1">
         <v>1</v>
       </c>
-      <c r="AQ3" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" s="16" customFormat="1">
+    </row>
+    <row r="4" spans="1:42" s="16" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1204,11 +1190,8 @@
       <c r="AP4" s="1">
         <v>41</v>
       </c>
-      <c r="AQ4" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" s="16" customFormat="1">
+    </row>
+    <row r="5" spans="1:42" s="16" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1335,11 +1318,8 @@
       <c r="AP5" s="1">
         <v>41</v>
       </c>
-      <c r="AQ5" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+    </row>
+    <row r="6" spans="1:42">
       <c r="B6" s="2">
         <v>1950</v>
       </c>
@@ -1383,7 +1363,7 @@
         <v>39.253</v>
       </c>
       <c r="AH6" s="10">
-        <v>57728</v>
+        <v>23.64</v>
       </c>
       <c r="AI6" s="9">
         <v>6.3</v>
@@ -1400,11 +1380,8 @@
       <c r="AP6" s="13">
         <v>13.49</v>
       </c>
-      <c r="AQ6" s="9">
-        <v>23.64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+    </row>
+    <row r="7" spans="1:42">
       <c r="B7" s="2">
         <v>1950.25</v>
       </c>
@@ -1448,7 +1425,7 @@
         <v>39.798999999999999</v>
       </c>
       <c r="AH7" s="10">
-        <v>59052</v>
+        <v>23.88</v>
       </c>
       <c r="AI7" s="9">
         <v>5.4</v>
@@ -1465,11 +1442,8 @@
       <c r="AP7" s="13">
         <v>13.538</v>
       </c>
-      <c r="AQ7" s="9">
-        <v>23.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+    </row>
+    <row r="8" spans="1:42">
       <c r="B8" s="2">
         <v>1950.5</v>
       </c>
@@ -1513,7 +1487,7 @@
         <v>39.847000000000001</v>
       </c>
       <c r="AH8" s="10">
-        <v>59575</v>
+        <v>24.34</v>
       </c>
       <c r="AI8" s="9">
         <v>4.4000000000000004</v>
@@ -1530,11 +1504,8 @@
       <c r="AP8" s="13">
         <v>13.832000000000001</v>
       </c>
-      <c r="AQ8" s="9">
-        <v>24.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+    </row>
+    <row r="9" spans="1:42">
       <c r="B9" s="2">
         <v>1950.75</v>
       </c>
@@ -1578,7 +1549,7 @@
         <v>40.024999999999999</v>
       </c>
       <c r="AH9" s="10">
-        <v>59429</v>
+        <v>24.98</v>
       </c>
       <c r="AI9" s="9">
         <v>4.3</v>
@@ -1595,11 +1566,8 @@
       <c r="AP9" s="13">
         <v>14.09</v>
       </c>
-      <c r="AQ9" s="9">
-        <v>24.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+    </row>
+    <row r="10" spans="1:42">
       <c r="B10" s="2">
         <v>1951</v>
       </c>
@@ -1643,7 +1611,7 @@
         <v>39.393000000000001</v>
       </c>
       <c r="AH10" s="10">
-        <v>60401</v>
+        <v>25.88</v>
       </c>
       <c r="AI10" s="9">
         <v>3.4</v>
@@ -1660,11 +1628,8 @@
       <c r="AP10" s="13">
         <v>14.596</v>
       </c>
-      <c r="AQ10" s="9">
-        <v>25.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+    </row>
+    <row r="11" spans="1:42">
       <c r="B11" s="2">
         <v>1951.25</v>
       </c>
@@ -1708,7 +1673,7 @@
         <v>39.878</v>
       </c>
       <c r="AH11" s="10">
-        <v>59620</v>
+        <v>25.93</v>
       </c>
       <c r="AI11" s="9">
         <v>3.2</v>
@@ -1725,11 +1690,8 @@
       <c r="AP11" s="13">
         <v>14.692</v>
       </c>
-      <c r="AQ11" s="9">
-        <v>25.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+    </row>
+    <row r="12" spans="1:42">
       <c r="B12" s="2">
         <v>1951.5</v>
       </c>
@@ -1773,7 +1735,7 @@
         <v>40.345999999999997</v>
       </c>
       <c r="AH12" s="10">
-        <v>59713</v>
+        <v>26.03</v>
       </c>
       <c r="AI12" s="9">
         <v>3.3</v>
@@ -1790,11 +1752,8 @@
       <c r="AP12" s="13">
         <v>14.701000000000001</v>
       </c>
-      <c r="AQ12" s="9">
-        <v>26.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+    </row>
+    <row r="13" spans="1:42">
       <c r="B13" s="2">
         <v>1951.75</v>
       </c>
@@ -1838,7 +1797,7 @@
         <v>40.518000000000001</v>
       </c>
       <c r="AH13" s="10">
-        <v>60497</v>
+        <v>26.47</v>
       </c>
       <c r="AI13" s="9">
         <v>3.1</v>
@@ -1855,11 +1814,8 @@
       <c r="AP13" s="13">
         <v>14.869</v>
       </c>
-      <c r="AQ13" s="9">
-        <v>26.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+    </row>
+    <row r="14" spans="1:42">
       <c r="B14" s="2">
         <v>1952</v>
       </c>
@@ -1903,7 +1859,7 @@
         <v>40.79</v>
       </c>
       <c r="AH14" s="10">
-        <v>59908</v>
+        <v>26.39</v>
       </c>
       <c r="AI14" s="9">
         <v>2.9</v>
@@ -1920,11 +1876,8 @@
       <c r="AP14" s="13">
         <v>14.863</v>
       </c>
-      <c r="AQ14" s="9">
-        <v>26.39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+    </row>
+    <row r="15" spans="1:42">
       <c r="B15" s="2">
         <v>1952.25</v>
       </c>
@@ -1968,7 +1921,7 @@
         <v>40.991</v>
       </c>
       <c r="AH15" s="10">
-        <v>60219</v>
+        <v>26.53</v>
       </c>
       <c r="AI15" s="9">
         <v>3</v>
@@ -1985,11 +1938,8 @@
       <c r="AP15" s="13">
         <v>14.882</v>
       </c>
-      <c r="AQ15" s="9">
-        <v>26.53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+    </row>
+    <row r="16" spans="1:42">
       <c r="B16" s="2">
         <v>1952.5</v>
       </c>
@@ -2033,7 +1983,7 @@
         <v>41.213999999999999</v>
       </c>
       <c r="AH16" s="10">
-        <v>60521</v>
+        <v>26.63</v>
       </c>
       <c r="AI16" s="9">
         <v>3.1</v>
@@ -2050,11 +2000,8 @@
       <c r="AP16" s="13">
         <v>15.048</v>
       </c>
-      <c r="AQ16" s="9">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:43">
+    </row>
+    <row r="17" spans="2:42">
       <c r="B17" s="2">
         <v>1952.75</v>
       </c>
@@ -2098,7 +2045,7 @@
         <v>42.192</v>
       </c>
       <c r="AH17" s="10">
-        <v>60954</v>
+        <v>26.71</v>
       </c>
       <c r="AI17" s="9">
         <v>2.7</v>
@@ -2115,11 +2062,8 @@
       <c r="AP17" s="13">
         <v>15.090999999999999</v>
       </c>
-      <c r="AQ17" s="9">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:43">
+    </row>
+    <row r="18" spans="2:42">
       <c r="B18" s="2">
         <v>1953</v>
       </c>
@@ -2166,7 +2110,7 @@
         <v>42.804000000000002</v>
       </c>
       <c r="AH18" s="10">
-        <v>62010</v>
+        <v>26.63</v>
       </c>
       <c r="AI18" s="9">
         <v>2.6</v>
@@ -2183,11 +2127,8 @@
       <c r="AP18" s="13">
         <v>15.096</v>
       </c>
-      <c r="AQ18" s="9">
-        <v>26.63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:43">
+    </row>
+    <row r="19" spans="2:42">
       <c r="B19" s="2">
         <v>1953.25</v>
       </c>
@@ -2234,7 +2175,7 @@
         <v>43.146999999999998</v>
       </c>
       <c r="AH19" s="10">
-        <v>61456</v>
+        <v>26.77</v>
       </c>
       <c r="AI19" s="9">
         <v>2.5</v>
@@ -2251,11 +2192,8 @@
       <c r="AP19" s="13">
         <v>15.125</v>
       </c>
-      <c r="AQ19" s="9">
-        <v>26.77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:43">
+    </row>
+    <row r="20" spans="2:42">
       <c r="B20" s="2">
         <v>1953.5</v>
       </c>
@@ -2302,7 +2240,7 @@
         <v>43.411000000000001</v>
       </c>
       <c r="AH20" s="10">
-        <v>60906</v>
+        <v>26.89</v>
       </c>
       <c r="AI20" s="9">
         <v>2.9</v>
@@ -2319,11 +2257,8 @@
       <c r="AP20" s="13">
         <v>15.188000000000001</v>
       </c>
-      <c r="AQ20" s="9">
-        <v>26.89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:43">
+    </row>
+    <row r="21" spans="2:42">
       <c r="B21" s="2">
         <v>1953.75</v>
       </c>
@@ -2370,7 +2305,7 @@
         <v>43.76</v>
       </c>
       <c r="AH21" s="10">
-        <v>59977</v>
+        <v>26.87</v>
       </c>
       <c r="AI21" s="9">
         <v>4.5</v>
@@ -2387,11 +2322,8 @@
       <c r="AP21" s="13">
         <v>15.218999999999999</v>
       </c>
-      <c r="AQ21" s="9">
-        <v>26.87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:43">
+    </row>
+    <row r="22" spans="2:42">
       <c r="B22" s="2">
         <v>1954</v>
       </c>
@@ -2438,7 +2370,7 @@
         <v>44.039000000000001</v>
       </c>
       <c r="AH22" s="10">
-        <v>60186</v>
+        <v>26.93</v>
       </c>
       <c r="AI22" s="9">
         <v>5.7</v>
@@ -2455,11 +2387,8 @@
       <c r="AP22" s="13">
         <v>15.266</v>
       </c>
-      <c r="AQ22" s="9">
-        <v>26.93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:43">
+    </row>
+    <row r="23" spans="2:42">
       <c r="B23" s="2">
         <v>1954.25</v>
       </c>
@@ -2506,7 +2435,7 @@
         <v>44.158999999999999</v>
       </c>
       <c r="AH23" s="10">
-        <v>59792</v>
+        <v>26.94</v>
       </c>
       <c r="AI23" s="9">
         <v>5.6</v>
@@ -2523,11 +2452,8 @@
       <c r="AP23" s="13">
         <v>15.281000000000001</v>
       </c>
-      <c r="AQ23" s="9">
-        <v>26.94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:43">
+    </row>
+    <row r="24" spans="2:42">
       <c r="B24" s="2">
         <v>1954.5</v>
       </c>
@@ -2574,7 +2500,7 @@
         <v>44.625</v>
       </c>
       <c r="AH24" s="10">
-        <v>60282</v>
+        <v>26.81</v>
       </c>
       <c r="AI24" s="9">
         <v>6.1</v>
@@ -2594,11 +2520,8 @@
       <c r="AP24" s="13">
         <v>15.3</v>
       </c>
-      <c r="AQ24" s="9">
-        <v>26.81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:43">
+    </row>
+    <row r="25" spans="2:42">
       <c r="B25" s="2">
         <v>1954.75</v>
       </c>
@@ -2645,7 +2568,7 @@
         <v>45.194000000000003</v>
       </c>
       <c r="AH25" s="10">
-        <v>60116</v>
+        <v>26.77</v>
       </c>
       <c r="AI25" s="9">
         <v>5</v>
@@ -2665,11 +2588,8 @@
       <c r="AP25" s="13">
         <v>15.343</v>
       </c>
-      <c r="AQ25" s="9">
-        <v>26.77</v>
-      </c>
-    </row>
-    <row r="26" spans="2:43">
+    </row>
+    <row r="26" spans="2:42">
       <c r="B26" s="2">
         <v>1955</v>
       </c>
@@ -2716,7 +2636,7 @@
         <v>45.448</v>
       </c>
       <c r="AH26" s="10">
-        <v>60964</v>
+        <v>26.79</v>
       </c>
       <c r="AI26" s="9">
         <v>4.5999999999999996</v>
@@ -2736,11 +2656,8 @@
       <c r="AP26" s="13">
         <v>15.417</v>
       </c>
-      <c r="AQ26" s="9">
-        <v>26.79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:43">
+    </row>
+    <row r="27" spans="2:42">
       <c r="B27" s="2">
         <v>1955.25</v>
       </c>
@@ -2787,7 +2704,7 @@
         <v>45.886000000000003</v>
       </c>
       <c r="AH27" s="10">
-        <v>61781</v>
+        <v>26.71</v>
       </c>
       <c r="AI27" s="9">
         <v>4.2</v>
@@ -2807,11 +2724,8 @@
       <c r="AP27" s="13">
         <v>15.481</v>
       </c>
-      <c r="AQ27" s="9">
-        <v>26.71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:43">
+    </row>
+    <row r="28" spans="2:42">
       <c r="B28" s="2">
         <v>1955.5</v>
       </c>
@@ -2858,7 +2772,7 @@
         <v>46.67</v>
       </c>
       <c r="AH28" s="10">
-        <v>62950</v>
+        <v>26.85</v>
       </c>
       <c r="AI28" s="9">
         <v>4.0999999999999996</v>
@@ -2878,11 +2792,8 @@
       <c r="AP28" s="13">
         <v>15.59</v>
       </c>
-      <c r="AQ28" s="9">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:43">
+    </row>
+    <row r="29" spans="2:42">
       <c r="B29" s="2">
         <v>1955.75</v>
       </c>
@@ -2929,7 +2840,7 @@
         <v>46.945999999999998</v>
       </c>
       <c r="AH29" s="10">
-        <v>63684</v>
+        <v>26.87</v>
       </c>
       <c r="AI29" s="9">
         <v>4.2</v>
@@ -2949,11 +2860,8 @@
       <c r="AP29" s="13">
         <v>15.743</v>
       </c>
-      <c r="AQ29" s="9">
-        <v>26.87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:43">
+    </row>
+    <row r="30" spans="2:42">
       <c r="B30" s="2">
         <v>1956</v>
       </c>
@@ -3000,7 +2908,7 @@
         <v>47.677999999999997</v>
       </c>
       <c r="AH30" s="10">
-        <v>63411</v>
+        <v>26.89</v>
       </c>
       <c r="AI30" s="9">
         <v>4.2</v>
@@ -3020,11 +2928,8 @@
       <c r="AP30" s="13">
         <v>15.901999999999999</v>
       </c>
-      <c r="AQ30" s="9">
-        <v>26.89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:43">
+    </row>
+    <row r="31" spans="2:42">
       <c r="B31" s="2">
         <v>1956.25</v>
       </c>
@@ -3071,7 +2976,7 @@
         <v>48.279000000000003</v>
       </c>
       <c r="AH31" s="10">
-        <v>63820</v>
+        <v>27.15</v>
       </c>
       <c r="AI31" s="9">
         <v>4.3</v>
@@ -3091,11 +2996,8 @@
       <c r="AP31" s="13">
         <v>15.997</v>
       </c>
-      <c r="AQ31" s="9">
-        <v>27.15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:43">
+    </row>
+    <row r="32" spans="2:42">
       <c r="B32" s="2">
         <v>1956.5</v>
       </c>
@@ -3142,7 +3044,7 @@
         <v>48.512999999999998</v>
       </c>
       <c r="AH32" s="10">
-        <v>64079</v>
+        <v>27.35</v>
       </c>
       <c r="AI32" s="9">
         <v>3.9</v>
@@ -3162,11 +3064,8 @@
       <c r="AP32" s="13">
         <v>16.196999999999999</v>
       </c>
-      <c r="AQ32" s="9">
-        <v>27.35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:43">
+    </row>
+    <row r="33" spans="2:42">
       <c r="B33" s="2">
         <v>1956.75</v>
       </c>
@@ -3213,7 +3112,7 @@
         <v>48.905999999999999</v>
       </c>
       <c r="AH33" s="10">
-        <v>63910</v>
+        <v>27.63</v>
       </c>
       <c r="AI33" s="9">
         <v>4.2</v>
@@ -3233,11 +3132,8 @@
       <c r="AP33" s="13">
         <v>16.263999999999999</v>
       </c>
-      <c r="AQ33" s="9">
-        <v>27.63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:43">
+    </row>
+    <row r="34" spans="2:42">
       <c r="B34" s="2">
         <v>1957</v>
       </c>
@@ -3284,7 +3180,7 @@
         <v>49.212000000000003</v>
       </c>
       <c r="AH34" s="10">
-        <v>64404</v>
+        <v>27.86</v>
       </c>
       <c r="AI34" s="9">
         <v>3.7</v>
@@ -3304,11 +3200,8 @@
       <c r="AP34" s="13">
         <v>16.484999999999999</v>
       </c>
-      <c r="AQ34" s="9">
-        <v>27.86</v>
-      </c>
-    </row>
-    <row r="35" spans="2:43">
+    </row>
+    <row r="35" spans="2:42">
       <c r="B35" s="2">
         <v>1957.25</v>
       </c>
@@ -3355,7 +3248,7 @@
         <v>49.287999999999997</v>
       </c>
       <c r="AH35" s="10">
-        <v>64196</v>
+        <v>28.11</v>
       </c>
       <c r="AI35" s="9">
         <v>4.3</v>
@@ -3375,11 +3268,8 @@
       <c r="AP35" s="13">
         <v>16.600999999999999</v>
       </c>
-      <c r="AQ35" s="9">
-        <v>28.11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:43">
+    </row>
+    <row r="36" spans="2:42">
       <c r="B36" s="2">
         <v>1957.5</v>
       </c>
@@ -3426,7 +3316,7 @@
         <v>49.499000000000002</v>
       </c>
       <c r="AH36" s="10">
-        <v>64121</v>
+        <v>28.32</v>
       </c>
       <c r="AI36" s="9">
         <v>4.4000000000000004</v>
@@ -3446,11 +3336,8 @@
       <c r="AP36" s="13">
         <v>16.701000000000001</v>
       </c>
-      <c r="AQ36" s="9">
-        <v>28.32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:43">
+    </row>
+    <row r="37" spans="2:42">
       <c r="B37" s="2">
         <v>1957.75</v>
       </c>
@@ -3497,7 +3384,7 @@
         <v>49.927</v>
       </c>
       <c r="AH37" s="10">
-        <v>63922</v>
+        <v>28.47</v>
       </c>
       <c r="AI37" s="9">
         <v>5.2</v>
@@ -3517,11 +3404,8 @@
       <c r="AP37" s="13">
         <v>16.710999999999999</v>
       </c>
-      <c r="AQ37" s="9">
-        <v>28.47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:43">
+    </row>
+    <row r="38" spans="2:42">
       <c r="B38" s="2">
         <v>1958</v>
       </c>
@@ -3568,7 +3452,7 @@
         <v>49.368000000000002</v>
       </c>
       <c r="AH38" s="10">
-        <v>62731</v>
+        <v>28.87</v>
       </c>
       <c r="AI38" s="9">
         <v>6.7</v>
@@ -3588,11 +3472,8 @@
       <c r="AP38" s="13">
         <v>16.891999999999999</v>
       </c>
-      <c r="AQ38" s="9">
-        <v>28.87</v>
-      </c>
-    </row>
-    <row r="39" spans="2:43">
+    </row>
+    <row r="39" spans="2:42">
       <c r="B39" s="2">
         <v>1958.25</v>
       </c>
@@ -3639,7 +3520,7 @@
         <v>49.459000000000003</v>
       </c>
       <c r="AH39" s="10">
-        <v>62730</v>
+        <v>28.91</v>
       </c>
       <c r="AI39" s="9">
         <v>7.3</v>
@@ -3659,11 +3540,8 @@
       <c r="AP39" s="13">
         <v>16.940000000000001</v>
       </c>
-      <c r="AQ39" s="9">
-        <v>28.91</v>
-      </c>
-    </row>
-    <row r="40" spans="2:43">
+    </row>
+    <row r="40" spans="2:42">
       <c r="B40" s="2">
         <v>1958.5</v>
       </c>
@@ -3710,7 +3588,7 @@
         <v>50.640999999999998</v>
       </c>
       <c r="AH40" s="10">
-        <v>63181</v>
+        <v>28.91</v>
       </c>
       <c r="AI40" s="9">
         <v>7.1</v>
@@ -3730,11 +3608,8 @@
       <c r="AP40" s="13">
         <v>17.042999999999999</v>
       </c>
-      <c r="AQ40" s="9">
-        <v>28.91</v>
-      </c>
-    </row>
-    <row r="41" spans="2:43">
+    </row>
+    <row r="41" spans="2:42">
       <c r="B41" s="2">
         <v>1958.75</v>
       </c>
@@ -3781,7 +3656,7 @@
         <v>50.79</v>
       </c>
       <c r="AH41" s="10">
-        <v>63549</v>
+        <v>28.97</v>
       </c>
       <c r="AI41" s="9">
         <v>6.2</v>
@@ -3801,11 +3676,8 @@
       <c r="AP41" s="13">
         <v>17.123000000000001</v>
       </c>
-      <c r="AQ41" s="9">
-        <v>28.97</v>
-      </c>
-    </row>
-    <row r="42" spans="2:43">
+    </row>
+    <row r="42" spans="2:42">
       <c r="B42" s="2">
         <v>1959</v>
       </c>
@@ -3852,7 +3724,7 @@
         <v>51.2</v>
       </c>
       <c r="AH42" s="10">
-        <v>64267</v>
+        <v>28.97</v>
       </c>
       <c r="AI42" s="9">
         <v>5.6</v>
@@ -3872,11 +3744,8 @@
       <c r="AP42" s="13">
         <v>17.169</v>
       </c>
-      <c r="AQ42" s="9">
-        <v>28.97</v>
-      </c>
-    </row>
-    <row r="43" spans="2:43">
+    </row>
+    <row r="43" spans="2:42">
       <c r="B43" s="2">
         <v>1959.25</v>
       </c>
@@ -3923,7 +3792,7 @@
         <v>51.531999999999996</v>
       </c>
       <c r="AH43" s="10">
-        <v>64849</v>
+        <v>29.11</v>
       </c>
       <c r="AI43" s="9">
         <v>5</v>
@@ -3943,11 +3812,8 @@
       <c r="AP43" s="13">
         <v>17.193999999999999</v>
       </c>
-      <c r="AQ43" s="9">
-        <v>29.11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:43">
+    </row>
+    <row r="44" spans="2:42">
       <c r="B44" s="2">
         <v>1959.5</v>
       </c>
@@ -3994,7 +3860,7 @@
         <v>51.57</v>
       </c>
       <c r="AH44" s="10">
-        <v>64770</v>
+        <v>29.25</v>
       </c>
       <c r="AI44" s="9">
         <v>5.5</v>
@@ -4014,11 +3880,8 @@
       <c r="AP44" s="13">
         <v>17.257999999999999</v>
       </c>
-      <c r="AQ44" s="9">
-        <v>29.25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:43">
+    </row>
+    <row r="45" spans="2:42">
       <c r="B45" s="2">
         <v>1959.75</v>
       </c>
@@ -4065,7 +3928,7 @@
         <v>51.753999999999998</v>
       </c>
       <c r="AH45" s="10">
-        <v>65341</v>
+        <v>29.41</v>
       </c>
       <c r="AI45" s="9">
         <v>5.3</v>
@@ -4085,11 +3948,8 @@
       <c r="AP45" s="13">
         <v>17.326000000000001</v>
       </c>
-      <c r="AQ45" s="9">
-        <v>29.41</v>
-      </c>
-    </row>
-    <row r="46" spans="2:43">
+    </row>
+    <row r="46" spans="2:42">
       <c r="B46" s="2">
         <v>1960</v>
       </c>
@@ -4136,7 +3996,7 @@
         <v>52.817</v>
       </c>
       <c r="AH46" s="10">
-        <v>64673</v>
+        <v>29.41</v>
       </c>
       <c r="AI46" s="9">
         <v>5.4</v>
@@ -4159,11 +4019,8 @@
       <c r="AP46" s="13">
         <v>17.396999999999998</v>
       </c>
-      <c r="AQ46" s="9">
-        <v>29.41</v>
-      </c>
-    </row>
-    <row r="47" spans="2:43">
+    </row>
+    <row r="47" spans="2:42">
       <c r="B47" s="2">
         <v>1960.25</v>
       </c>
@@ -4210,7 +4067,7 @@
         <v>52.838999999999999</v>
       </c>
       <c r="AH47" s="10">
-        <v>66168</v>
+        <v>29.61</v>
       </c>
       <c r="AI47" s="9">
         <v>5.4</v>
@@ -4233,11 +4090,8 @@
       <c r="AP47" s="13">
         <v>17.443000000000001</v>
       </c>
-      <c r="AQ47" s="9">
-        <v>29.61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:43">
+    </row>
+    <row r="48" spans="2:42">
       <c r="B48" s="2">
         <v>1960.5</v>
       </c>
@@ -4284,7 +4138,7 @@
         <v>53.128</v>
       </c>
       <c r="AH48" s="10">
-        <v>66267</v>
+        <v>29.61</v>
       </c>
       <c r="AI48" s="9">
         <v>5.5</v>
@@ -4307,11 +4161,8 @@
       <c r="AP48" s="13">
         <v>17.506</v>
       </c>
-      <c r="AQ48" s="9">
-        <v>29.61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:43">
+    </row>
+    <row r="49" spans="2:42">
       <c r="B49" s="2">
         <v>1960.75</v>
       </c>
@@ -4358,7 +4209,7 @@
         <v>53.021000000000001</v>
       </c>
       <c r="AH49" s="10">
-        <v>65778</v>
+        <v>29.81</v>
       </c>
       <c r="AI49" s="9">
         <v>6.6</v>
@@ -4381,11 +4232,8 @@
       <c r="AP49" s="13">
         <v>17.559999999999999</v>
       </c>
-      <c r="AQ49" s="9">
-        <v>29.81</v>
-      </c>
-    </row>
-    <row r="50" spans="2:43">
+    </row>
+    <row r="50" spans="2:42">
       <c r="B50" s="2">
         <v>1961</v>
       </c>
@@ -4432,7 +4280,7 @@
         <v>53.378</v>
       </c>
       <c r="AH50" s="10">
-        <v>65850</v>
+        <v>29.84</v>
       </c>
       <c r="AI50" s="9">
         <v>6.9</v>
@@ -4455,11 +4303,8 @@
       <c r="AP50" s="13">
         <v>17.597999999999999</v>
       </c>
-      <c r="AQ50" s="9">
-        <v>29.84</v>
-      </c>
-    </row>
-    <row r="51" spans="2:43">
+    </row>
+    <row r="51" spans="2:42">
       <c r="B51" s="2">
         <v>1961.25</v>
       </c>
@@ -4506,7 +4351,7 @@
         <v>54.142000000000003</v>
       </c>
       <c r="AH51" s="10">
-        <v>65993</v>
+        <v>29.84</v>
       </c>
       <c r="AI51" s="9">
         <v>6.9</v>
@@ -4529,11 +4374,8 @@
       <c r="AP51" s="13">
         <v>17.640999999999998</v>
       </c>
-      <c r="AQ51" s="9">
-        <v>29.84</v>
-      </c>
-    </row>
-    <row r="52" spans="2:43">
+    </row>
+    <row r="52" spans="2:42">
       <c r="B52" s="2">
         <v>1961.5</v>
       </c>
@@ -4580,7 +4422,7 @@
         <v>54.334000000000003</v>
       </c>
       <c r="AH52" s="10">
-        <v>65541</v>
+        <v>29.98</v>
       </c>
       <c r="AI52" s="9">
         <v>6.7</v>
@@ -4603,11 +4445,8 @@
       <c r="AP52" s="13">
         <v>17.687000000000001</v>
       </c>
-      <c r="AQ52" s="9">
-        <v>29.98</v>
-      </c>
-    </row>
-    <row r="53" spans="2:43">
+    </row>
+    <row r="53" spans="2:42">
       <c r="B53" s="2">
         <v>1961.75</v>
       </c>
@@ -4654,7 +4493,7 @@
         <v>54.652000000000001</v>
       </c>
       <c r="AH53" s="10">
-        <v>65900</v>
+        <v>30.01</v>
       </c>
       <c r="AI53" s="9">
         <v>6</v>
@@ -4677,11 +4516,8 @@
       <c r="AP53" s="13">
         <v>17.745000000000001</v>
       </c>
-      <c r="AQ53" s="9">
-        <v>30.01</v>
-      </c>
-    </row>
-    <row r="54" spans="2:43">
+    </row>
+    <row r="54" spans="2:42">
       <c r="B54" s="2">
         <v>1962</v>
       </c>
@@ -4728,7 +4564,7 @@
         <v>55.308</v>
       </c>
       <c r="AH54" s="10">
-        <v>66493</v>
+        <v>30.17</v>
       </c>
       <c r="AI54" s="9">
         <v>5.6</v>
@@ -4751,11 +4587,8 @@
       <c r="AP54" s="13">
         <v>17.837</v>
       </c>
-      <c r="AQ54" s="9">
-        <v>30.17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:43">
+    </row>
+    <row r="55" spans="2:42">
       <c r="B55" s="2">
         <v>1962.25</v>
       </c>
@@ -4802,7 +4635,7 @@
         <v>55.469000000000001</v>
       </c>
       <c r="AH55" s="10">
-        <v>66670</v>
+        <v>30.21</v>
       </c>
       <c r="AI55" s="9">
         <v>5.5</v>
@@ -4825,11 +4658,8 @@
       <c r="AP55" s="13">
         <v>17.866</v>
       </c>
-      <c r="AQ55" s="9">
-        <v>30.21</v>
-      </c>
-    </row>
-    <row r="56" spans="2:43">
+    </row>
+    <row r="56" spans="2:42">
       <c r="B56" s="2">
         <v>1962.5</v>
       </c>
@@ -4876,7 +4706,7 @@
         <v>55.698</v>
       </c>
       <c r="AH56" s="10">
-        <v>67192</v>
+        <v>30.42</v>
       </c>
       <c r="AI56" s="9">
         <v>5.6</v>
@@ -4899,11 +4729,8 @@
       <c r="AP56" s="13">
         <v>17.902999999999999</v>
       </c>
-      <c r="AQ56" s="9">
-        <v>30.42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:43">
+    </row>
+    <row r="57" spans="2:42">
       <c r="B57" s="2">
         <v>1962.75</v>
       </c>
@@ -4950,7 +4777,7 @@
         <v>56.075000000000003</v>
       </c>
       <c r="AH57" s="10">
-        <v>66947</v>
+        <v>30.38</v>
       </c>
       <c r="AI57" s="9">
         <v>5.5</v>
@@ -4973,11 +4800,8 @@
       <c r="AP57" s="13">
         <v>17.937999999999999</v>
       </c>
-      <c r="AQ57" s="9">
-        <v>30.38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:43">
+    </row>
+    <row r="58" spans="2:42">
       <c r="B58" s="2">
         <v>1963</v>
       </c>
@@ -5024,7 +4848,7 @@
         <v>56.451000000000001</v>
       </c>
       <c r="AH58" s="10">
-        <v>67351</v>
+        <v>30.51</v>
       </c>
       <c r="AI58" s="9">
         <v>5.7</v>
@@ -5047,11 +4871,8 @@
       <c r="AP58" s="13">
         <v>18.016999999999999</v>
       </c>
-      <c r="AQ58" s="9">
-        <v>30.51</v>
-      </c>
-    </row>
-    <row r="59" spans="2:43">
+    </row>
+    <row r="59" spans="2:42">
       <c r="B59" s="2">
         <v>1963.25</v>
       </c>
@@ -5098,7 +4919,7 @@
         <v>56.631</v>
       </c>
       <c r="AH59" s="10">
-        <v>67649</v>
+        <v>30.61</v>
       </c>
       <c r="AI59" s="9">
         <v>5.6</v>
@@ -5121,11 +4942,8 @@
       <c r="AP59" s="13">
         <v>18.047000000000001</v>
       </c>
-      <c r="AQ59" s="9">
-        <v>30.61</v>
-      </c>
-    </row>
-    <row r="60" spans="2:43">
+    </row>
+    <row r="60" spans="2:42">
       <c r="B60" s="2">
         <v>1963.5</v>
       </c>
@@ -5172,7 +4990,7 @@
         <v>56.863</v>
       </c>
       <c r="AH60" s="10">
-        <v>68174</v>
+        <v>30.72</v>
       </c>
       <c r="AI60" s="9">
         <v>5.5</v>
@@ -5195,11 +5013,8 @@
       <c r="AP60" s="13">
         <v>18.068999999999999</v>
       </c>
-      <c r="AQ60" s="9">
-        <v>30.72</v>
-      </c>
-    </row>
-    <row r="61" spans="2:43">
+    </row>
+    <row r="61" spans="2:42">
       <c r="B61" s="2">
         <v>1963.75</v>
       </c>
@@ -5246,7 +5061,7 @@
         <v>57.363</v>
       </c>
       <c r="AH61" s="10">
-        <v>68213</v>
+        <v>30.88</v>
       </c>
       <c r="AI61" s="9">
         <v>5.5</v>
@@ -5269,11 +5084,8 @@
       <c r="AP61" s="13">
         <v>18.216000000000001</v>
       </c>
-      <c r="AQ61" s="9">
-        <v>30.88</v>
-      </c>
-    </row>
-    <row r="62" spans="2:43">
+    </row>
+    <row r="62" spans="2:42">
       <c r="B62" s="2">
         <v>1964</v>
       </c>
@@ -5320,7 +5132,7 @@
         <v>57.084000000000003</v>
       </c>
       <c r="AH62" s="10">
-        <v>68763</v>
+        <v>30.94</v>
       </c>
       <c r="AI62" s="9">
         <v>5.4</v>
@@ -5343,11 +5155,8 @@
       <c r="AP62" s="13">
         <v>18.274000000000001</v>
       </c>
-      <c r="AQ62" s="9">
-        <v>30.94</v>
-      </c>
-    </row>
-    <row r="63" spans="2:43">
+    </row>
+    <row r="63" spans="2:42">
       <c r="B63" s="2">
         <v>1964.25</v>
       </c>
@@ -5394,7 +5203,7 @@
         <v>57.622999999999998</v>
       </c>
       <c r="AH63" s="10">
-        <v>69218</v>
+        <v>31.01</v>
       </c>
       <c r="AI63" s="9">
         <v>5.2</v>
@@ -5417,11 +5226,8 @@
       <c r="AP63" s="13">
         <v>18.318000000000001</v>
       </c>
-      <c r="AQ63" s="9">
-        <v>31.01</v>
-      </c>
-    </row>
-    <row r="64" spans="2:43">
+    </row>
+    <row r="64" spans="2:42">
       <c r="B64" s="2">
         <v>1964.5</v>
       </c>
@@ -5468,7 +5274,7 @@
         <v>58.250999999999998</v>
       </c>
       <c r="AH64" s="10">
-        <v>69578</v>
+        <v>31.08</v>
       </c>
       <c r="AI64" s="9">
         <v>5.0999999999999996</v>
@@ -5491,11 +5297,8 @@
       <c r="AP64" s="13">
         <v>18.391999999999999</v>
       </c>
-      <c r="AQ64" s="9">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="65" spans="2:43">
+    </row>
+    <row r="65" spans="2:42">
       <c r="B65" s="2">
         <v>1964.75</v>
       </c>
@@ -5542,7 +5345,7 @@
         <v>58.411000000000001</v>
       </c>
       <c r="AH65" s="10">
-        <v>69814</v>
+        <v>31.25</v>
       </c>
       <c r="AI65" s="9">
         <v>5</v>
@@ -5565,11 +5368,8 @@
       <c r="AP65" s="13">
         <v>18.475999999999999</v>
       </c>
-      <c r="AQ65" s="9">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="66" spans="2:43">
+    </row>
+    <row r="66" spans="2:42">
       <c r="B66" s="2">
         <v>1965</v>
       </c>
@@ -5616,7 +5416,7 @@
         <v>58.463000000000001</v>
       </c>
       <c r="AH66" s="10">
-        <v>70439</v>
+        <v>31.31</v>
       </c>
       <c r="AI66" s="9">
         <v>4.7</v>
@@ -5639,11 +5439,8 @@
       <c r="AP66" s="13">
         <v>18.568999999999999</v>
       </c>
-      <c r="AQ66" s="9">
-        <v>31.31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:43">
+    </row>
+    <row r="67" spans="2:42">
       <c r="B67" s="2">
         <v>1965.25</v>
       </c>
@@ -5690,7 +5487,7 @@
         <v>58.481999999999999</v>
       </c>
       <c r="AH67" s="10">
-        <v>71025</v>
+        <v>31.61</v>
       </c>
       <c r="AI67" s="9">
         <v>4.5999999999999996</v>
@@ -5713,11 +5510,8 @@
       <c r="AP67" s="13">
         <v>18.652000000000001</v>
       </c>
-      <c r="AQ67" s="9">
-        <v>31.61</v>
-      </c>
-    </row>
-    <row r="68" spans="2:43">
+    </row>
+    <row r="68" spans="2:42">
       <c r="B68" s="2">
         <v>1965.5</v>
       </c>
@@ -5764,7 +5558,7 @@
         <v>58.923999999999999</v>
       </c>
       <c r="AH68" s="10">
-        <v>71286</v>
+        <v>31.62</v>
       </c>
       <c r="AI68" s="9">
         <v>4.3</v>
@@ -5787,11 +5581,8 @@
       <c r="AP68" s="13">
         <v>18.725999999999999</v>
       </c>
-      <c r="AQ68" s="9">
-        <v>31.62</v>
-      </c>
-    </row>
-    <row r="69" spans="2:43">
+    </row>
+    <row r="69" spans="2:42">
       <c r="B69" s="2">
         <v>1965.75</v>
       </c>
@@ -5838,7 +5629,7 @@
         <v>59.484000000000002</v>
       </c>
       <c r="AH69" s="10">
-        <v>72062</v>
+        <v>31.85</v>
       </c>
       <c r="AI69" s="9">
         <v>4</v>
@@ -5861,11 +5652,8 @@
       <c r="AP69" s="13">
         <v>18.853000000000002</v>
       </c>
-      <c r="AQ69" s="9">
-        <v>31.85</v>
-      </c>
-    </row>
-    <row r="70" spans="2:43">
+    </row>
+    <row r="70" spans="2:42">
       <c r="B70" s="2">
         <v>1966</v>
       </c>
@@ -5912,7 +5700,7 @@
         <v>59.95</v>
       </c>
       <c r="AH70" s="10">
-        <v>72188</v>
+        <v>32.18</v>
       </c>
       <c r="AI70" s="9">
         <v>3.8</v>
@@ -5935,11 +5723,8 @@
       <c r="AP70" s="13">
         <v>18.975000000000001</v>
       </c>
-      <c r="AQ70" s="9">
-        <v>32.18</v>
-      </c>
-    </row>
-    <row r="71" spans="2:43">
+    </row>
+    <row r="71" spans="2:42">
       <c r="B71" s="2">
         <v>1966.25</v>
       </c>
@@ -5986,7 +5771,7 @@
         <v>60.357999999999997</v>
       </c>
       <c r="AH71" s="10">
-        <v>72775</v>
+        <v>32.380000000000003</v>
       </c>
       <c r="AI71" s="9">
         <v>3.8</v>
@@ -6009,11 +5794,8 @@
       <c r="AP71" s="13">
         <v>19.131</v>
       </c>
-      <c r="AQ71" s="9">
-        <v>32.380000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="2:43">
+    </row>
+    <row r="72" spans="2:42">
       <c r="B72" s="2">
         <v>1966.5</v>
       </c>
@@ -6060,7 +5842,7 @@
         <v>60.697000000000003</v>
       </c>
       <c r="AH72" s="10">
-        <v>73258</v>
+        <v>32.75</v>
       </c>
       <c r="AI72" s="9">
         <v>3.7</v>
@@ -6083,11 +5865,8 @@
       <c r="AP72" s="13">
         <v>19.317</v>
       </c>
-      <c r="AQ72" s="9">
-        <v>32.75</v>
-      </c>
-    </row>
-    <row r="73" spans="2:43">
+    </row>
+    <row r="73" spans="2:42">
       <c r="B73" s="2">
         <v>1966.75</v>
       </c>
@@ -6134,7 +5913,7 @@
         <v>61.02</v>
       </c>
       <c r="AH73" s="10">
-        <v>73729</v>
+        <v>32.92</v>
       </c>
       <c r="AI73" s="9">
         <v>3.8</v>
@@ -6157,11 +5936,8 @@
       <c r="AP73" s="13">
         <v>19.481000000000002</v>
       </c>
-      <c r="AQ73" s="9">
-        <v>32.92</v>
-      </c>
-    </row>
-    <row r="74" spans="2:43">
+    </row>
+    <row r="74" spans="2:42">
       <c r="B74" s="2">
         <v>1967</v>
       </c>
@@ -6208,7 +5984,7 @@
         <v>61.688000000000002</v>
       </c>
       <c r="AH74" s="10">
-        <v>73439</v>
+        <v>33</v>
       </c>
       <c r="AI74" s="9">
         <v>3.8</v>
@@ -6231,11 +6007,8 @@
       <c r="AP74" s="13">
         <v>19.562000000000001</v>
       </c>
-      <c r="AQ74" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="2:43">
+    </row>
+    <row r="75" spans="2:42">
       <c r="B75" s="2">
         <v>1967.25</v>
       </c>
@@ -6282,7 +6055,7 @@
         <v>62.311999999999998</v>
       </c>
       <c r="AH75" s="10">
-        <v>74278</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AI75" s="9">
         <v>3.9</v>
@@ -6305,11 +6078,8 @@
       <c r="AP75" s="13">
         <v>19.661000000000001</v>
       </c>
-      <c r="AQ75" s="9">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="2:43">
+    </row>
+    <row r="76" spans="2:42">
       <c r="B76" s="2">
         <v>1967.5</v>
       </c>
@@ -6356,7 +6126,7 @@
         <v>62.529000000000003</v>
       </c>
       <c r="AH76" s="10">
-        <v>74854</v>
+        <v>33.6</v>
       </c>
       <c r="AI76" s="9">
         <v>3.8</v>
@@ -6379,11 +6149,8 @@
       <c r="AP76" s="13">
         <v>19.849</v>
       </c>
-      <c r="AQ76" s="9">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="77" spans="2:43">
+    </row>
+    <row r="77" spans="2:42">
       <c r="B77" s="2">
         <v>1967.75</v>
       </c>
@@ -6430,7 +6197,7 @@
         <v>62.691000000000003</v>
       </c>
       <c r="AH77" s="10">
-        <v>75473</v>
+        <v>34</v>
       </c>
       <c r="AI77" s="9">
         <v>3.8</v>
@@ -6453,11 +6220,8 @@
       <c r="AP77" s="13">
         <v>20.067</v>
       </c>
-      <c r="AQ77" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="2:43">
+    </row>
+    <row r="78" spans="2:42">
       <c r="B78" s="2">
         <v>1968</v>
       </c>
@@ -6504,7 +6268,7 @@
         <v>63.749000000000002</v>
       </c>
       <c r="AH78" s="10">
-        <v>75379</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="AI78" s="9">
         <v>3.7</v>
@@ -6527,11 +6291,8 @@
       <c r="AP78" s="13">
         <v>20.29</v>
       </c>
-      <c r="AQ78" s="9">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="2:43">
+    </row>
+    <row r="79" spans="2:42">
       <c r="B79" s="2">
         <v>1968.25</v>
       </c>
@@ -6578,7 +6339,7 @@
         <v>64.16</v>
       </c>
       <c r="AH79" s="10">
-        <v>76182</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="AI79" s="9">
         <v>3.7</v>
@@ -6601,11 +6362,8 @@
       <c r="AP79" s="13">
         <v>20.504000000000001</v>
       </c>
-      <c r="AQ79" s="9">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="2:43">
+    </row>
+    <row r="80" spans="2:42">
       <c r="B80" s="2">
         <v>1968.5</v>
       </c>
@@ -6652,7 +6410,7 @@
         <v>64.34</v>
       </c>
       <c r="AH80" s="10">
-        <v>76172</v>
+        <v>35.1</v>
       </c>
       <c r="AI80" s="9">
         <v>3.4</v>
@@ -6675,11 +6433,8 @@
       <c r="AP80" s="13">
         <v>20.706</v>
       </c>
-      <c r="AQ80" s="9">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:43">
+    </row>
+    <row r="81" spans="2:42">
       <c r="B81" s="2">
         <v>1968.75</v>
       </c>
@@ -6758,7 +6513,7 @@
         <v>64.817999999999998</v>
       </c>
       <c r="AH81" s="10">
-        <v>76778</v>
+        <v>35.6</v>
       </c>
       <c r="AI81" s="9">
         <v>3.4</v>
@@ -6781,11 +6536,8 @@
       <c r="AP81" s="13">
         <v>20.998999999999999</v>
       </c>
-      <c r="AQ81" s="9">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:43">
+    </row>
+    <row r="82" spans="2:42">
       <c r="B82" s="2">
         <v>1969</v>
       </c>
@@ -6868,7 +6620,7 @@
         <v>64.906999999999996</v>
       </c>
       <c r="AH82" s="10">
-        <v>77367</v>
+        <v>36.1</v>
       </c>
       <c r="AI82" s="9">
         <v>3.4</v>
@@ -6891,11 +6643,8 @@
       <c r="AP82" s="13">
         <v>21.216999999999999</v>
       </c>
-      <c r="AQ82" s="9">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:43">
+    </row>
+    <row r="83" spans="2:42">
       <c r="B83" s="2">
         <v>1969.25</v>
       </c>
@@ -6978,7 +6727,7 @@
         <v>64.932000000000002</v>
       </c>
       <c r="AH83" s="10">
-        <v>77880</v>
+        <v>36.6</v>
       </c>
       <c r="AI83" s="9">
         <v>3.5</v>
@@ -7001,11 +6750,8 @@
       <c r="AP83" s="13">
         <v>21.488</v>
       </c>
-      <c r="AQ83" s="9">
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="84" spans="2:43">
+    </row>
+    <row r="84" spans="2:42">
       <c r="B84" s="2">
         <v>1969.5</v>
       </c>
@@ -7088,7 +6834,7 @@
         <v>65.198999999999998</v>
       </c>
       <c r="AH84" s="10">
-        <v>78250</v>
+        <v>37.1</v>
       </c>
       <c r="AI84" s="9">
         <v>3.7</v>
@@ -7111,11 +6857,8 @@
       <c r="AP84" s="13">
         <v>21.79</v>
       </c>
-      <c r="AQ84" s="9">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:43">
+    </row>
+    <row r="85" spans="2:42">
       <c r="B85" s="2">
         <v>1969.75</v>
       </c>
@@ -7197,7 +6940,7 @@
         <v>65.457999999999998</v>
       </c>
       <c r="AH85" s="10">
-        <v>78740</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="AI85" s="9">
         <v>3.5</v>
@@ -7220,11 +6963,8 @@
       <c r="AP85" s="13">
         <v>22.071000000000002</v>
       </c>
-      <c r="AQ85" s="9">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="2:43">
+    </row>
+    <row r="86" spans="2:42">
       <c r="B86" s="2">
         <v>1970</v>
       </c>
@@ -7308,7 +7048,7 @@
         <v>65.59</v>
       </c>
       <c r="AH86" s="10">
-        <v>78863</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="AI86" s="9">
         <v>4.4000000000000004</v>
@@ -7331,11 +7071,8 @@
       <c r="AP86" s="13">
         <v>22.382000000000001</v>
       </c>
-      <c r="AQ86" s="9">
-        <v>38.299999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="2:43">
+    </row>
+    <row r="87" spans="2:42">
       <c r="B87" s="2">
         <v>1970.25</v>
       </c>
@@ -7417,7 +7154,7 @@
         <v>65.715000000000003</v>
       </c>
       <c r="AH87" s="10">
-        <v>78413</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="AI87" s="9">
         <v>4.9000000000000004</v>
@@ -7440,11 +7177,8 @@
       <c r="AP87" s="13">
         <v>22.693999999999999</v>
       </c>
-      <c r="AQ87" s="9">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="88" spans="2:43">
+    </row>
+    <row r="88" spans="2:42">
       <c r="B88" s="2">
         <v>1970.5</v>
       </c>
@@ -7526,7 +7260,7 @@
         <v>66.108999999999995</v>
       </c>
       <c r="AH88" s="10">
-        <v>78498</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AI88" s="9">
         <v>5.4</v>
@@ -7549,11 +7283,8 @@
       <c r="AP88" s="13">
         <v>22.88</v>
       </c>
-      <c r="AQ88" s="9">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="89" spans="2:43">
+    </row>
+    <row r="89" spans="2:42">
       <c r="B89" s="2">
         <v>1970.75</v>
       </c>
@@ -7635,7 +7366,7 @@
         <v>65.81</v>
       </c>
       <c r="AH89" s="10">
-        <v>78594</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="AI89" s="9">
         <v>6.1</v>
@@ -7658,11 +7389,8 @@
       <c r="AP89" s="13">
         <v>23.181999999999999</v>
       </c>
-      <c r="AQ89" s="9">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="2:43">
+    </row>
+    <row r="90" spans="2:42">
       <c r="B90" s="2">
         <v>1971</v>
       </c>
@@ -7744,7 +7472,7 @@
         <v>66.605000000000004</v>
       </c>
       <c r="AH90" s="10">
-        <v>78588</v>
+        <v>40</v>
       </c>
       <c r="AI90" s="9">
         <v>6</v>
@@ -7767,11 +7495,8 @@
       <c r="AP90" s="13">
         <v>23.536000000000001</v>
       </c>
-      <c r="AQ90" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="2:43">
+    </row>
+    <row r="91" spans="2:42">
       <c r="B91" s="2">
         <v>1971.25</v>
       </c>
@@ -7853,7 +7578,7 @@
         <v>66.97</v>
       </c>
       <c r="AH91" s="10">
-        <v>78757</v>
+        <v>40.5</v>
       </c>
       <c r="AI91" s="9">
         <v>5.9</v>
@@ -7876,11 +7601,8 @@
       <c r="AP91" s="13">
         <v>23.846</v>
       </c>
-      <c r="AQ91" s="9">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="92" spans="2:43">
+    </row>
+    <row r="92" spans="2:42">
       <c r="B92" s="2">
         <v>1971.5</v>
       </c>
@@ -7962,7 +7684,7 @@
         <v>67.224000000000004</v>
       </c>
       <c r="AH92" s="10">
-        <v>79689</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AI92" s="9">
         <v>6</v>
@@ -7985,11 +7707,8 @@
       <c r="AP92" s="13">
         <v>24.088000000000001</v>
       </c>
-      <c r="AQ92" s="9">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="93" spans="2:43">
+    </row>
+    <row r="93" spans="2:42">
       <c r="B93" s="2">
         <v>1971.75</v>
       </c>
@@ -8071,7 +7790,7 @@
         <v>67.19</v>
       </c>
       <c r="AH93" s="10">
-        <v>80471</v>
+        <v>41.1</v>
       </c>
       <c r="AI93" s="9">
         <v>6</v>
@@ -8094,11 +7813,8 @@
       <c r="AP93" s="13">
         <v>24.288</v>
       </c>
-      <c r="AQ93" s="9">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:43">
+    </row>
+    <row r="94" spans="2:42">
       <c r="B94" s="2">
         <v>1972</v>
       </c>
@@ -8180,7 +7896,7 @@
         <v>68.432000000000002</v>
       </c>
       <c r="AH94" s="10">
-        <v>81573</v>
+        <v>41.4</v>
       </c>
       <c r="AI94" s="9">
         <v>5.8</v>
@@ -8203,11 +7919,8 @@
       <c r="AP94" s="13">
         <v>24.664000000000001</v>
       </c>
-      <c r="AQ94" s="9">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:43">
+    </row>
+    <row r="95" spans="2:42">
       <c r="B95" s="2">
         <v>1972.25</v>
       </c>
@@ -8289,7 +8002,7 @@
         <v>68.795000000000002</v>
       </c>
       <c r="AH95" s="10">
-        <v>82083</v>
+        <v>41.7</v>
       </c>
       <c r="AI95" s="9">
         <v>5.7</v>
@@ -8312,11 +8025,8 @@
       <c r="AP95" s="13">
         <v>24.815000000000001</v>
       </c>
-      <c r="AQ95" s="9">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="96" spans="2:43">
+    </row>
+    <row r="96" spans="2:42">
       <c r="B96" s="2">
         <v>1972.5</v>
       </c>
@@ -8398,7 +8108,7 @@
         <v>69.159000000000006</v>
       </c>
       <c r="AH96" s="10">
-        <v>82543</v>
+        <v>42.1</v>
       </c>
       <c r="AI96" s="9">
         <v>5.5</v>
@@ -8421,11 +8131,8 @@
       <c r="AP96" s="13">
         <v>25.047999999999998</v>
       </c>
-      <c r="AQ96" s="9">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:43">
+    </row>
+    <row r="97" spans="2:42">
       <c r="B97" s="2">
         <v>1972.75</v>
       </c>
@@ -8507,7 +8214,7 @@
         <v>69.739999999999995</v>
       </c>
       <c r="AH97" s="10">
-        <v>83400</v>
+        <v>42.5</v>
       </c>
       <c r="AI97" s="9">
         <v>5.2</v>
@@ -8530,11 +8237,8 @@
       <c r="AP97" s="13">
         <v>25.366</v>
       </c>
-      <c r="AQ97" s="9">
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:43">
+    </row>
+    <row r="98" spans="2:42">
       <c r="B98" s="2">
         <v>1973</v>
       </c>
@@ -8616,7 +8320,7 @@
         <v>70.459999999999994</v>
       </c>
       <c r="AH98" s="10">
-        <v>84452</v>
+        <v>43.4</v>
       </c>
       <c r="AI98" s="9">
         <v>4.9000000000000004</v>
@@ -8639,11 +8343,8 @@
       <c r="AP98" s="13">
         <v>25.661000000000001</v>
       </c>
-      <c r="AQ98" s="9">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="99" spans="2:43">
+    </row>
+    <row r="99" spans="2:42">
       <c r="B99" s="2">
         <v>1973.25</v>
       </c>
@@ -8725,7 +8426,7 @@
         <v>69.98</v>
       </c>
       <c r="AH99" s="10">
-        <v>85185</v>
+        <v>44.2</v>
       </c>
       <c r="AI99" s="9">
         <v>4.9000000000000004</v>
@@ -8748,11 +8449,8 @@
       <c r="AP99" s="13">
         <v>26.052</v>
       </c>
-      <c r="AQ99" s="9">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:43">
+    </row>
+    <row r="100" spans="2:42">
       <c r="B100" s="2">
         <v>1973.5</v>
       </c>
@@ -8834,7 +8532,7 @@
         <v>69.814999999999998</v>
       </c>
       <c r="AH100" s="10">
-        <v>85488</v>
+        <v>45.2</v>
       </c>
       <c r="AI100" s="9">
         <v>4.8</v>
@@ -8857,11 +8555,8 @@
       <c r="AP100" s="13">
         <v>26.548999999999999</v>
       </c>
-      <c r="AQ100" s="9">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:43">
+    </row>
+    <row r="101" spans="2:42">
       <c r="B101" s="2">
         <v>1973.75</v>
       </c>
@@ -8943,7 +8638,7 @@
         <v>69.47</v>
       </c>
       <c r="AH101" s="10">
-        <v>86401</v>
+        <v>46.3</v>
       </c>
       <c r="AI101" s="9">
         <v>4.9000000000000004</v>
@@ -8966,11 +8661,8 @@
       <c r="AP101" s="13">
         <v>27.077000000000002</v>
       </c>
-      <c r="AQ101" s="9">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:43">
+    </row>
+    <row r="102" spans="2:42">
       <c r="B102" s="2">
         <v>1974</v>
       </c>
@@ -9052,7 +8744,7 @@
         <v>69</v>
       </c>
       <c r="AH102" s="10">
-        <v>86819</v>
+        <v>47.8</v>
       </c>
       <c r="AI102" s="9">
         <v>5.0999999999999996</v>
@@ -9075,11 +8767,8 @@
       <c r="AP102" s="13">
         <v>27.591999999999999</v>
       </c>
-      <c r="AQ102" s="9">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="103" spans="2:43">
+    </row>
+    <row r="103" spans="2:42">
       <c r="B103" s="2">
         <v>1974.25</v>
       </c>
@@ -9161,7 +8850,7 @@
         <v>68.960999999999999</v>
       </c>
       <c r="AH103" s="10">
-        <v>86941</v>
+        <v>49</v>
       </c>
       <c r="AI103" s="9">
         <v>5.4</v>
@@ -9184,11 +8873,8 @@
       <c r="AP103" s="13">
         <v>28.248000000000001</v>
       </c>
-      <c r="AQ103" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="2:43">
+    </row>
+    <row r="104" spans="2:42">
       <c r="B104" s="2">
         <v>1974.5</v>
       </c>
@@ -9272,7 +8958,7 @@
         <v>69.063999999999993</v>
       </c>
       <c r="AH104" s="10">
-        <v>87051</v>
+        <v>50.6</v>
       </c>
       <c r="AI104" s="9">
         <v>5.9</v>
@@ -9295,11 +8981,8 @@
       <c r="AP104" s="13">
         <v>29.067</v>
       </c>
-      <c r="AQ104" s="9">
-        <v>50.6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:43">
+    </row>
+    <row r="105" spans="2:42">
       <c r="B105" s="2">
         <v>1974.75</v>
       </c>
@@ -9381,7 +9064,7 @@
         <v>68.856999999999999</v>
       </c>
       <c r="AH105" s="10">
-        <v>86144</v>
+        <v>51.9</v>
       </c>
       <c r="AI105" s="9">
         <v>7.2</v>
@@ -9404,11 +9087,8 @@
       <c r="AP105" s="13">
         <v>29.922999999999998</v>
       </c>
-      <c r="AQ105" s="9">
-        <v>51.9</v>
-      </c>
-    </row>
-    <row r="106" spans="2:43">
+    </row>
+    <row r="106" spans="2:42">
       <c r="B106" s="2">
         <v>1975</v>
       </c>
@@ -9490,7 +9170,7 @@
         <v>69.457999999999998</v>
       </c>
       <c r="AH106" s="10">
-        <v>85187</v>
+        <v>52.8</v>
       </c>
       <c r="AI106" s="9">
         <v>8.6</v>
@@ -9513,11 +9193,8 @@
       <c r="AP106" s="13">
         <v>30.600999999999999</v>
       </c>
-      <c r="AQ106" s="9">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="107" spans="2:43">
+    </row>
+    <row r="107" spans="2:42">
       <c r="B107" s="2">
         <v>1975.25</v>
       </c>
@@ -9599,7 +9276,7 @@
         <v>70.099000000000004</v>
       </c>
       <c r="AH107" s="10">
-        <v>85355</v>
+        <v>53.5</v>
       </c>
       <c r="AI107" s="9">
         <v>8.8000000000000007</v>
@@ -9622,11 +9299,8 @@
       <c r="AP107" s="13">
         <v>31.059000000000001</v>
       </c>
-      <c r="AQ107" s="9">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="108" spans="2:43">
+    </row>
+    <row r="108" spans="2:42">
       <c r="B108" s="2">
         <v>1975.5</v>
       </c>
@@ -9708,7 +9382,7 @@
         <v>69.930000000000007</v>
       </c>
       <c r="AH108" s="10">
-        <v>86279</v>
+        <v>54.6</v>
       </c>
       <c r="AI108" s="9">
         <v>8.4</v>
@@ -9731,11 +9405,8 @@
       <c r="AP108" s="13">
         <v>31.611999999999998</v>
       </c>
-      <c r="AQ108" s="9">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="109" spans="2:43">
+    </row>
+    <row r="109" spans="2:42">
       <c r="B109" s="2">
         <v>1975.75</v>
       </c>
@@ -9817,7 +9488,7 @@
         <v>69.787000000000006</v>
       </c>
       <c r="AH109" s="10">
-        <v>86665</v>
+        <v>55.6</v>
       </c>
       <c r="AI109" s="9">
         <v>8.1999999999999993</v>
@@ -9840,11 +9511,8 @@
       <c r="AP109" s="13">
         <v>32.139000000000003</v>
       </c>
-      <c r="AQ109" s="9">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="110" spans="2:43">
+    </row>
+    <row r="110" spans="2:42">
       <c r="B110" s="2">
         <v>1976</v>
       </c>
@@ -9926,7 +9594,7 @@
         <v>70.313000000000002</v>
       </c>
       <c r="AH110" s="10">
-        <v>87985</v>
+        <v>56</v>
       </c>
       <c r="AI110" s="9">
         <v>7.6</v>
@@ -9949,11 +9617,8 @@
       <c r="AP110" s="13">
         <v>32.472999999999999</v>
       </c>
-      <c r="AQ110" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="2:43">
+    </row>
+    <row r="111" spans="2:42">
       <c r="B111" s="2">
         <v>1976.25</v>
       </c>
@@ -10035,7 +9700,7 @@
         <v>71.004000000000005</v>
       </c>
       <c r="AH111" s="10">
-        <v>88563</v>
+        <v>56.7</v>
       </c>
       <c r="AI111" s="9">
         <v>7.6</v>
@@ -10058,11 +9723,8 @@
       <c r="AP111" s="13">
         <v>32.802999999999997</v>
       </c>
-      <c r="AQ111" s="9">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="112" spans="2:43">
+    </row>
+    <row r="112" spans="2:42">
       <c r="B112" s="2">
         <v>1976.5</v>
       </c>
@@ -10144,7 +9806,7 @@
         <v>71.358000000000004</v>
       </c>
       <c r="AH112" s="10">
-        <v>89173</v>
+        <v>57.6</v>
       </c>
       <c r="AI112" s="9">
         <v>7.6</v>
@@ -10167,11 +9829,8 @@
       <c r="AP112" s="13">
         <v>33.225999999999999</v>
       </c>
-      <c r="AQ112" s="9">
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="113" spans="2:43">
+    </row>
+    <row r="113" spans="2:42">
       <c r="B113" s="2">
         <v>1976.75</v>
       </c>
@@ -10253,7 +9912,7 @@
         <v>71.834999999999994</v>
       </c>
       <c r="AH113" s="10">
-        <v>89803</v>
+        <v>58.4</v>
       </c>
       <c r="AI113" s="9">
         <v>7.8</v>
@@ -10276,11 +9935,8 @@
       <c r="AP113" s="13">
         <v>33.814999999999998</v>
       </c>
-      <c r="AQ113" s="9">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="114" spans="2:43">
+    </row>
+    <row r="114" spans="2:42">
       <c r="B114" s="2">
         <v>1977</v>
       </c>
@@ -10362,7 +10018,7 @@
         <v>71.87</v>
       </c>
       <c r="AH114" s="10">
-        <v>90808</v>
+        <v>59.6</v>
       </c>
       <c r="AI114" s="9">
         <v>7.4</v>
@@ -10385,11 +10041,8 @@
       <c r="AP114" s="13">
         <v>34.359000000000002</v>
       </c>
-      <c r="AQ114" s="9">
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="115" spans="2:43">
+    </row>
+    <row r="115" spans="2:42">
       <c r="B115" s="2">
         <v>1977.25</v>
       </c>
@@ -10471,7 +10124,7 @@
         <v>72.075000000000003</v>
       </c>
       <c r="AH115" s="10">
-        <v>91959</v>
+        <v>60.5</v>
       </c>
       <c r="AI115" s="9">
         <v>7.2</v>
@@ -10494,11 +10147,8 @@
       <c r="AP115" s="13">
         <v>34.841000000000001</v>
       </c>
-      <c r="AQ115" s="9">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="116" spans="2:43">
+    </row>
+    <row r="116" spans="2:42">
       <c r="B116" s="2">
         <v>1977.5</v>
       </c>
@@ -10580,7 +10230,7 @@
         <v>72.477000000000004</v>
       </c>
       <c r="AH116" s="10">
-        <v>92702</v>
+        <v>61.3</v>
       </c>
       <c r="AI116" s="9">
         <v>6.8</v>
@@ -10603,11 +10253,8 @@
       <c r="AP116" s="13">
         <v>35.270000000000003</v>
       </c>
-      <c r="AQ116" s="9">
-        <v>61.3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:43">
+    </row>
+    <row r="117" spans="2:42">
       <c r="B117" s="2">
         <v>1977.75</v>
       </c>
@@ -10689,7 +10336,7 @@
         <v>72.662999999999997</v>
       </c>
       <c r="AH117" s="10">
-        <v>94105</v>
+        <v>62.3</v>
       </c>
       <c r="AI117" s="9">
         <v>6.4</v>
@@ -10712,11 +10359,8 @@
       <c r="AP117" s="13">
         <v>36.036000000000001</v>
       </c>
-      <c r="AQ117" s="9">
-        <v>62.3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:43">
+    </row>
+    <row r="118" spans="2:42">
       <c r="B118" s="2">
         <v>1978</v>
       </c>
@@ -10798,7 +10442,7 @@
         <v>73.965999999999994</v>
       </c>
       <c r="AH118" s="10">
-        <v>94755</v>
+        <v>63.4</v>
       </c>
       <c r="AI118" s="9">
         <v>6.3</v>
@@ -10821,11 +10465,8 @@
       <c r="AP118" s="13">
         <v>36.573</v>
       </c>
-      <c r="AQ118" s="9">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="119" spans="2:43">
+    </row>
+    <row r="119" spans="2:42">
       <c r="B119" s="2">
         <v>1978.25</v>
       </c>
@@ -10907,7 +10548,7 @@
         <v>73.19</v>
       </c>
       <c r="AH119" s="10">
-        <v>96343</v>
+        <v>65</v>
       </c>
       <c r="AI119" s="9">
         <v>5.9</v>
@@ -10933,11 +10574,8 @@
       <c r="AP119" s="13">
         <v>37.241999999999997</v>
       </c>
-      <c r="AQ119" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="2:43">
+    </row>
+    <row r="120" spans="2:42">
       <c r="B120" s="2">
         <v>1978.5</v>
       </c>
@@ -11019,7 +10657,7 @@
         <v>72.986999999999995</v>
       </c>
       <c r="AH120" s="10">
-        <v>96670</v>
+        <v>66.5</v>
       </c>
       <c r="AI120" s="9">
         <v>6</v>
@@ -11045,11 +10683,8 @@
       <c r="AP120" s="13">
         <v>37.865000000000002</v>
       </c>
-      <c r="AQ120" s="9">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="121" spans="2:43">
+    </row>
+    <row r="121" spans="2:42">
       <c r="B121" s="2">
         <v>1978.75</v>
       </c>
@@ -11131,7 +10766,7 @@
         <v>73.263999999999996</v>
       </c>
       <c r="AH121" s="10">
-        <v>97581</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="AI121" s="9">
         <v>6</v>
@@ -11157,11 +10792,8 @@
       <c r="AP121" s="13">
         <v>38.661000000000001</v>
       </c>
-      <c r="AQ121" s="9">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="122" spans="2:43">
+    </row>
+    <row r="122" spans="2:42">
       <c r="B122" s="2">
         <v>1979</v>
       </c>
@@ -11243,7 +10875,7 @@
         <v>73.766999999999996</v>
       </c>
       <c r="AH122" s="10">
-        <v>98480</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="AI122" s="9">
         <v>5.8</v>
@@ -11269,11 +10901,8 @@
       <c r="AP122" s="13">
         <v>39.351999999999997</v>
       </c>
-      <c r="AQ122" s="9">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="123" spans="2:43">
+    </row>
+    <row r="123" spans="2:42">
       <c r="B123" s="2">
         <v>1979.25</v>
       </c>
@@ -11355,7 +10984,7 @@
         <v>73.41</v>
       </c>
       <c r="AH123" s="10">
-        <v>98679</v>
+        <v>72.2</v>
       </c>
       <c r="AI123" s="9">
         <v>5.7</v>
@@ -11381,11 +11010,8 @@
       <c r="AP123" s="13">
         <v>40.304000000000002</v>
       </c>
-      <c r="AQ123" s="9">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="124" spans="2:43">
+    </row>
+    <row r="124" spans="2:42">
       <c r="B124" s="2">
         <v>1979.5</v>
       </c>
@@ -11467,7 +11093,7 @@
         <v>73.165999999999997</v>
       </c>
       <c r="AH124" s="10">
-        <v>99340</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="AI124" s="9">
         <v>5.9</v>
@@ -11493,11 +11119,8 @@
       <c r="AP124" s="13">
         <v>41.164999999999999</v>
       </c>
-      <c r="AQ124" s="9">
-        <v>74.400000000000006</v>
-      </c>
-    </row>
-    <row r="125" spans="2:43">
+    </row>
+    <row r="125" spans="2:42">
       <c r="B125" s="2">
         <v>1979.75</v>
       </c>
@@ -11579,7 +11202,7 @@
         <v>73.215999999999994</v>
       </c>
       <c r="AH125" s="10">
-        <v>99933</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="AI125" s="9">
         <v>6</v>
@@ -11605,11 +11228,8 @@
       <c r="AP125" s="13">
         <v>41.985999999999997</v>
       </c>
-      <c r="AQ125" s="9">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="126" spans="2:43">
+    </row>
+    <row r="126" spans="2:42">
       <c r="B126" s="2">
         <v>1980</v>
       </c>
@@ -11691,7 +11311,7 @@
         <v>72.989000000000004</v>
       </c>
       <c r="AH126" s="10">
-        <v>99713</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="AI126" s="9">
         <v>6.3</v>
@@ -11717,11 +11337,8 @@
       <c r="AP126" s="13">
         <v>42.859000000000002</v>
       </c>
-      <c r="AQ126" s="9">
-        <v>80.099999999999994</v>
-      </c>
-    </row>
-    <row r="127" spans="2:43">
+    </row>
+    <row r="127" spans="2:42">
       <c r="B127" s="2">
         <v>1980.25</v>
       </c>
@@ -11803,7 +11420,7 @@
         <v>73.081000000000003</v>
       </c>
       <c r="AH127" s="10">
-        <v>98682</v>
+        <v>82.5</v>
       </c>
       <c r="AI127" s="9">
         <v>7.6</v>
@@ -11829,11 +11446,8 @@
       <c r="AP127" s="13">
         <v>43.8</v>
       </c>
-      <c r="AQ127" s="9">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="128" spans="2:43">
+    </row>
+    <row r="128" spans="2:42">
       <c r="B128" s="2">
         <v>1980.5</v>
       </c>
@@ -11915,7 +11529,7 @@
         <v>73.119</v>
       </c>
       <c r="AH128" s="10">
-        <v>99077</v>
+        <v>83.9</v>
       </c>
       <c r="AI128" s="9">
         <v>7.5</v>
@@ -11941,11 +11555,8 @@
       <c r="AP128" s="13">
         <v>44.808</v>
       </c>
-      <c r="AQ128" s="9">
-        <v>83.9</v>
-      </c>
-    </row>
-    <row r="129" spans="2:43">
+    </row>
+    <row r="129" spans="2:42">
       <c r="B129" s="2">
         <v>1980.75</v>
       </c>
@@ -12027,7 +11638,7 @@
         <v>73.424999999999997</v>
       </c>
       <c r="AH129" s="10">
-        <v>99634</v>
+        <v>86.4</v>
       </c>
       <c r="AI129" s="9">
         <v>7.2</v>
@@ -12053,11 +11664,8 @@
       <c r="AP129" s="13">
         <v>46.045999999999999</v>
       </c>
-      <c r="AQ129" s="9">
-        <v>86.4</v>
-      </c>
-    </row>
-    <row r="130" spans="2:43">
+    </row>
+    <row r="130" spans="2:42">
       <c r="B130" s="2">
         <v>1981</v>
       </c>
@@ -12139,7 +11747,7 @@
         <v>73.305999999999997</v>
       </c>
       <c r="AH130" s="10">
-        <v>100571</v>
+        <v>88.6</v>
       </c>
       <c r="AI130" s="9">
         <v>7.4</v>
@@ -12165,11 +11773,8 @@
       <c r="AP130" s="13">
         <v>47.195999999999998</v>
       </c>
-      <c r="AQ130" s="9">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="131" spans="2:43">
+    </row>
+    <row r="131" spans="2:42">
       <c r="B131" s="2">
         <v>1981.25</v>
       </c>
@@ -12251,7 +11856,7 @@
         <v>73.209000000000003</v>
       </c>
       <c r="AH131" s="10">
-        <v>100298</v>
+        <v>90.5</v>
       </c>
       <c r="AI131" s="9">
         <v>7.5</v>
@@ -12277,11 +11882,8 @@
       <c r="AP131" s="13">
         <v>48.081000000000003</v>
       </c>
-      <c r="AQ131" s="9">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="132" spans="2:43">
+    </row>
+    <row r="132" spans="2:42">
       <c r="B132" s="2">
         <v>1981.5</v>
       </c>
@@ -12379,7 +11981,7 @@
         <v>73.307000000000002</v>
       </c>
       <c r="AH132" s="10">
-        <v>100064</v>
+        <v>93.1</v>
       </c>
       <c r="AI132" s="9">
         <v>7.6</v>
@@ -12405,11 +12007,8 @@
       <c r="AP132" s="13">
         <v>48.945999999999998</v>
       </c>
-      <c r="AQ132" s="9">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:43">
+    </row>
+    <row r="133" spans="2:42">
       <c r="B133" s="2">
         <v>1981.75</v>
       </c>
@@ -12507,7 +12106,7 @@
         <v>73.182000000000002</v>
       </c>
       <c r="AH133" s="10">
-        <v>99645</v>
+        <v>94.1</v>
       </c>
       <c r="AI133" s="9">
         <v>8.5</v>
@@ -12533,11 +12132,8 @@
       <c r="AP133" s="13">
         <v>49.863</v>
       </c>
-      <c r="AQ133" s="9">
-        <v>94.1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:43">
+    </row>
+    <row r="134" spans="2:42">
       <c r="B134" s="2">
         <v>1982</v>
       </c>
@@ -12635,7 +12231,7 @@
         <v>74.168999999999997</v>
       </c>
       <c r="AH134" s="10">
-        <v>99672</v>
+        <v>94.7</v>
       </c>
       <c r="AI134" s="9">
         <v>9</v>
@@ -12661,11 +12257,8 @@
       <c r="AP134" s="13">
         <v>50.561</v>
       </c>
-      <c r="AQ134" s="9">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="135" spans="2:43">
+    </row>
+    <row r="135" spans="2:42">
       <c r="B135" s="2">
         <v>1982.25</v>
       </c>
@@ -12763,7 +12356,7 @@
         <v>74.033000000000001</v>
       </c>
       <c r="AH135" s="10">
-        <v>99543</v>
+        <v>97</v>
       </c>
       <c r="AI135" s="9">
         <v>9.6</v>
@@ -12789,11 +12382,8 @@
       <c r="AP135" s="13">
         <v>51.17</v>
       </c>
-      <c r="AQ135" s="9">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" spans="2:43">
+    </row>
+    <row r="136" spans="2:42">
       <c r="B136" s="2">
         <v>1982.5</v>
       </c>
@@ -12891,7 +12481,7 @@
         <v>73.902000000000001</v>
       </c>
       <c r="AH136" s="10">
-        <v>99504</v>
+        <v>97.7</v>
       </c>
       <c r="AI136" s="9">
         <v>10.1</v>
@@ -12917,11 +12507,8 @@
       <c r="AP136" s="13">
         <v>51.906999999999996</v>
       </c>
-      <c r="AQ136" s="9">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="137" spans="2:43">
+    </row>
+    <row r="137" spans="2:42">
       <c r="B137" s="2">
         <v>1982.75</v>
       </c>
@@ -13019,7 +12606,7 @@
         <v>74.137</v>
       </c>
       <c r="AH137" s="10">
-        <v>99032</v>
+        <v>97.7</v>
       </c>
       <c r="AI137" s="9">
         <v>10.8</v>
@@ -13045,11 +12632,8 @@
       <c r="AP137" s="13">
         <v>52.482999999999997</v>
       </c>
-      <c r="AQ137" s="9">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="138" spans="2:43">
+    </row>
+    <row r="138" spans="2:42">
       <c r="B138" s="2">
         <v>1983</v>
       </c>
@@ -13147,7 +12731,7 @@
         <v>74.531000000000006</v>
       </c>
       <c r="AH138" s="10">
-        <v>99179</v>
+        <v>98.1</v>
       </c>
       <c r="AI138" s="9">
         <v>10.3</v>
@@ -13173,11 +12757,8 @@
       <c r="AP138" s="13">
         <v>52.906999999999996</v>
       </c>
-      <c r="AQ138" s="9">
-        <v>98.1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:43">
+    </row>
+    <row r="139" spans="2:42">
       <c r="B139" s="2">
         <v>1983.25</v>
       </c>
@@ -13275,7 +12856,7 @@
         <v>74.373999999999995</v>
       </c>
       <c r="AH139" s="10">
-        <v>100633</v>
+        <v>99.4</v>
       </c>
       <c r="AI139" s="9">
         <v>10.1</v>
@@ -13301,11 +12882,8 @@
       <c r="AP139" s="13">
         <v>53.265000000000001</v>
       </c>
-      <c r="AQ139" s="9">
-        <v>99.4</v>
-      </c>
-    </row>
-    <row r="140" spans="2:43">
+    </row>
+    <row r="140" spans="2:42">
       <c r="B140" s="2">
         <v>1983.5</v>
       </c>
@@ -13403,7 +12981,7 @@
         <v>74.075999999999993</v>
       </c>
       <c r="AH140" s="10">
-        <v>102016</v>
+        <v>100.4</v>
       </c>
       <c r="AI140" s="9">
         <v>9.1999999999999993</v>
@@ -13429,11 +13007,8 @@
       <c r="AP140" s="13">
         <v>53.823</v>
       </c>
-      <c r="AQ140" s="9">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="141" spans="2:43">
+    </row>
+    <row r="141" spans="2:42">
       <c r="B141" s="2">
         <v>1983.75</v>
       </c>
@@ -13531,7 +13106,7 @@
         <v>74.19</v>
       </c>
       <c r="AH141" s="10">
-        <v>102996</v>
+        <v>101.4</v>
       </c>
       <c r="AI141" s="9">
         <v>8.3000000000000007</v>
@@ -13557,11 +13132,8 @@
       <c r="AP141" s="13">
         <v>54.219000000000001</v>
       </c>
-      <c r="AQ141" s="9">
-        <v>101.4</v>
-      </c>
-    </row>
-    <row r="142" spans="2:43">
+    </row>
+    <row r="142" spans="2:42">
       <c r="B142" s="2">
         <v>1984</v>
       </c>
@@ -13659,7 +13231,7 @@
         <v>74.108000000000004</v>
       </c>
       <c r="AH142" s="10">
-        <v>103967</v>
+        <v>102.9</v>
       </c>
       <c r="AI142" s="9">
         <v>7.8</v>
@@ -13685,11 +13257,8 @@
       <c r="AP142" s="13">
         <v>54.795999999999999</v>
       </c>
-      <c r="AQ142" s="9">
-        <v>102.9</v>
-      </c>
-    </row>
-    <row r="143" spans="2:43">
+    </row>
+    <row r="143" spans="2:42">
       <c r="B143" s="2">
         <v>1984.25</v>
       </c>
@@ -13787,7 +13356,7 @@
         <v>74.129000000000005</v>
       </c>
       <c r="AH143" s="10">
-        <v>105591</v>
+        <v>103.7</v>
       </c>
       <c r="AI143" s="9">
         <v>7.2</v>
@@ -13813,11 +13382,8 @@
       <c r="AP143" s="13">
         <v>55.256999999999998</v>
       </c>
-      <c r="AQ143" s="9">
-        <v>103.7</v>
-      </c>
-    </row>
-    <row r="144" spans="2:43">
+    </row>
+    <row r="144" spans="2:42">
       <c r="B144" s="2">
         <v>1984.5</v>
       </c>
@@ -13915,7 +13481,7 @@
         <v>74.602999999999994</v>
       </c>
       <c r="AH144" s="10">
-        <v>105490</v>
+        <v>104.7</v>
       </c>
       <c r="AI144" s="9">
         <v>7.3</v>
@@ -13941,11 +13507,8 @@
       <c r="AP144" s="13">
         <v>55.704999999999998</v>
       </c>
-      <c r="AQ144" s="9">
-        <v>104.7</v>
-      </c>
-    </row>
-    <row r="145" spans="2:43">
+    </row>
+    <row r="145" spans="2:42">
       <c r="B145" s="2">
         <v>1984.75</v>
       </c>
@@ -14043,7 +13606,7 @@
         <v>74.567999999999998</v>
       </c>
       <c r="AH145" s="10">
-        <v>106223</v>
+        <v>105.5</v>
       </c>
       <c r="AI145" s="9">
         <v>7.3</v>
@@ -14069,11 +13632,8 @@
       <c r="AP145" s="13">
         <v>56.079000000000001</v>
       </c>
-      <c r="AQ145" s="9">
-        <v>105.5</v>
-      </c>
-    </row>
-    <row r="146" spans="2:43">
+    </row>
+    <row r="146" spans="2:42">
       <c r="B146" s="2">
         <v>1985</v>
       </c>
@@ -14171,7 +13731,7 @@
         <v>74.863</v>
       </c>
       <c r="AH146" s="10">
-        <v>106989</v>
+        <v>106.8</v>
       </c>
       <c r="AI146" s="9">
         <v>7.2</v>
@@ -14197,11 +13757,8 @@
       <c r="AP146" s="13">
         <v>56.723999999999997</v>
       </c>
-      <c r="AQ146" s="9">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="147" spans="2:43">
+    </row>
+    <row r="147" spans="2:42">
       <c r="B147" s="2">
         <v>1985.25</v>
       </c>
@@ -14299,7 +13856,7 @@
         <v>74.912999999999997</v>
       </c>
       <c r="AH147" s="10">
-        <v>106505</v>
+        <v>107.5</v>
       </c>
       <c r="AI147" s="9">
         <v>7.4</v>
@@ -14325,11 +13882,8 @@
       <c r="AP147" s="13">
         <v>57.075000000000003</v>
       </c>
-      <c r="AQ147" s="9">
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="148" spans="2:43">
+    </row>
+    <row r="148" spans="2:42">
       <c r="B148" s="2">
         <v>1985.5</v>
       </c>
@@ -14427,7 +13981,7 @@
         <v>75.546000000000006</v>
       </c>
       <c r="AH148" s="10">
-        <v>107657</v>
+        <v>108.1</v>
       </c>
       <c r="AI148" s="9">
         <v>7.1</v>
@@ -14453,11 +14007,8 @@
       <c r="AP148" s="13">
         <v>57.405999999999999</v>
       </c>
-      <c r="AQ148" s="9">
-        <v>108.1</v>
-      </c>
-    </row>
-    <row r="149" spans="2:43">
+    </row>
+    <row r="149" spans="2:42">
       <c r="B149" s="2">
         <v>1985.75</v>
       </c>
@@ -14555,7 +14106,7 @@
         <v>76.266999999999996</v>
       </c>
       <c r="AH149" s="10">
-        <v>108216</v>
+        <v>109.5</v>
       </c>
       <c r="AI149" s="9">
         <v>7</v>
@@ -14581,11 +14132,8 @@
       <c r="AP149" s="13">
         <v>57.738</v>
       </c>
-      <c r="AQ149" s="9">
-        <v>109.5</v>
-      </c>
-    </row>
-    <row r="150" spans="2:43">
+    </row>
+    <row r="150" spans="2:42">
       <c r="B150" s="2">
         <v>1986</v>
       </c>
@@ -14683,7 +14231,7 @@
         <v>76.995000000000005</v>
       </c>
       <c r="AH150" s="10">
-        <v>108837</v>
+        <v>109.1</v>
       </c>
       <c r="AI150" s="9">
         <v>7.2</v>
@@ -14709,11 +14257,8 @@
       <c r="AP150" s="13">
         <v>58.02</v>
       </c>
-      <c r="AQ150" s="9">
-        <v>109.1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:43">
+    </row>
+    <row r="151" spans="2:42">
       <c r="B151" s="2">
         <v>1986.25</v>
       </c>
@@ -14811,7 +14356,7 @@
         <v>78.233000000000004</v>
       </c>
       <c r="AH151" s="10">
-        <v>109576</v>
+        <v>109.4</v>
       </c>
       <c r="AI151" s="9">
         <v>7.2</v>
@@ -14837,11 +14382,8 @@
       <c r="AP151" s="13">
         <v>58.252000000000002</v>
       </c>
-      <c r="AQ151" s="9">
-        <v>109.4</v>
-      </c>
-    </row>
-    <row r="152" spans="2:43">
+    </row>
+    <row r="152" spans="2:42">
       <c r="B152" s="2">
         <v>1986.5</v>
       </c>
@@ -14939,7 +14481,7 @@
         <v>78.745999999999995</v>
       </c>
       <c r="AH152" s="10">
-        <v>110085</v>
+        <v>110</v>
       </c>
       <c r="AI152" s="9">
         <v>7</v>
@@ -14965,11 +14507,8 @@
       <c r="AP152" s="13">
         <v>58.487000000000002</v>
       </c>
-      <c r="AQ152" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="153" spans="2:43">
+    </row>
+    <row r="153" spans="2:42">
       <c r="B153" s="2">
         <v>1986.75</v>
       </c>
@@ -15067,7 +14606,7 @@
         <v>79.287999999999997</v>
       </c>
       <c r="AH153" s="10">
-        <v>110728</v>
+        <v>110.8</v>
       </c>
       <c r="AI153" s="9">
         <v>6.6</v>
@@ -15093,11 +14632,8 @@
       <c r="AP153" s="13">
         <v>58.813000000000002</v>
       </c>
-      <c r="AQ153" s="9">
-        <v>110.8</v>
-      </c>
-    </row>
-    <row r="154" spans="2:43">
+    </row>
+    <row r="154" spans="2:42">
       <c r="B154" s="2">
         <v>1987</v>
       </c>
@@ -15195,7 +14731,7 @@
         <v>78.775000000000006</v>
       </c>
       <c r="AH154" s="10">
-        <v>111408</v>
+        <v>112.2</v>
       </c>
       <c r="AI154" s="9">
         <v>6.6</v>
@@ -15221,11 +14757,8 @@
       <c r="AP154" s="13">
         <v>59.24</v>
       </c>
-      <c r="AQ154" s="9">
-        <v>112.2</v>
-      </c>
-    </row>
-    <row r="155" spans="2:43">
+    </row>
+    <row r="155" spans="2:42">
       <c r="B155" s="2">
         <v>1987.25</v>
       </c>
@@ -15323,7 +14856,7 @@
         <v>78.504999999999995</v>
       </c>
       <c r="AH155" s="10">
-        <v>112246</v>
+        <v>113.5</v>
       </c>
       <c r="AI155" s="9">
         <v>6.2</v>
@@ -15349,11 +14882,8 @@
       <c r="AP155" s="13">
         <v>59.637</v>
       </c>
-      <c r="AQ155" s="9">
-        <v>113.5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:43">
+    </row>
+    <row r="156" spans="2:42">
       <c r="B156" s="2">
         <v>1987.5</v>
       </c>
@@ -15451,7 +14981,7 @@
         <v>78.540999999999997</v>
       </c>
       <c r="AH156" s="10">
-        <v>112909</v>
+        <v>114.7</v>
       </c>
       <c r="AI156" s="9">
         <v>5.9</v>
@@ -15477,11 +15007,8 @@
       <c r="AP156" s="13">
         <v>60.07</v>
       </c>
-      <c r="AQ156" s="9">
-        <v>114.7</v>
-      </c>
-    </row>
-    <row r="157" spans="2:43">
+    </row>
+    <row r="157" spans="2:42">
       <c r="B157" s="2">
         <v>1987.75</v>
       </c>
@@ -15579,7 +15106,7 @@
         <v>78.876000000000005</v>
       </c>
       <c r="AH157" s="10">
-        <v>113793</v>
+        <v>115.6</v>
       </c>
       <c r="AI157" s="9">
         <v>5.7</v>
@@ -15605,11 +15132,8 @@
       <c r="AP157" s="13">
         <v>60.567</v>
       </c>
-      <c r="AQ157" s="9">
-        <v>115.6</v>
-      </c>
-    </row>
-    <row r="158" spans="2:43">
+    </row>
+    <row r="158" spans="2:42">
       <c r="B158" s="2">
         <v>1988</v>
       </c>
@@ -15707,7 +15231,7 @@
         <v>79.733000000000004</v>
       </c>
       <c r="AH158" s="10">
-        <v>114037</v>
+        <v>116.5</v>
       </c>
       <c r="AI158" s="9">
         <v>5.7</v>
@@ -15733,11 +15257,8 @@
       <c r="AP158" s="13">
         <v>61.042999999999999</v>
       </c>
-      <c r="AQ158" s="9">
-        <v>116.5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:43">
+    </row>
+    <row r="159" spans="2:42">
       <c r="B159" s="2">
         <v>1988.25</v>
       </c>
@@ -15835,7 +15356,7 @@
         <v>79.832999999999998</v>
       </c>
       <c r="AH159" s="10">
-        <v>114927</v>
+        <v>118</v>
       </c>
       <c r="AI159" s="9">
         <v>5.4</v>
@@ -15861,11 +15382,8 @@
       <c r="AP159" s="13">
         <v>61.633000000000003</v>
       </c>
-      <c r="AQ159" s="9">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="160" spans="2:43">
+    </row>
+    <row r="160" spans="2:42">
       <c r="B160" s="2">
         <v>1988.5</v>
       </c>
@@ -15963,7 +15481,7 @@
         <v>79.887</v>
       </c>
       <c r="AH160" s="10">
-        <v>115356</v>
+        <v>119.5</v>
       </c>
       <c r="AI160" s="9">
         <v>5.4</v>
@@ -15989,11 +15507,8 @@
       <c r="AP160" s="13">
         <v>62.359000000000002</v>
       </c>
-      <c r="AQ160" s="9">
-        <v>119.5</v>
-      </c>
-    </row>
-    <row r="161" spans="2:43">
+    </row>
+    <row r="161" spans="2:42">
       <c r="B161" s="2">
         <v>1988.75</v>
       </c>
@@ -16091,7 +15606,7 @@
         <v>79.724000000000004</v>
       </c>
       <c r="AH161" s="10">
-        <v>116104</v>
+        <v>120.7</v>
       </c>
       <c r="AI161" s="9">
         <v>5.3</v>
@@ -16117,11 +15632,8 @@
       <c r="AP161" s="13">
         <v>62.859000000000002</v>
       </c>
-      <c r="AQ161" s="9">
-        <v>120.7</v>
-      </c>
-    </row>
-    <row r="162" spans="2:43">
+    </row>
+    <row r="162" spans="2:42">
       <c r="B162" s="2">
         <v>1989</v>
       </c>
@@ -16219,7 +15731,7 @@
         <v>79.227000000000004</v>
       </c>
       <c r="AH162" s="10">
-        <v>117022</v>
+        <v>122.2</v>
       </c>
       <c r="AI162" s="9">
         <v>5</v>
@@ -16245,11 +15757,8 @@
       <c r="AP162" s="13">
         <v>63.55</v>
       </c>
-      <c r="AQ162" s="9">
-        <v>122.2</v>
-      </c>
-    </row>
-    <row r="163" spans="2:43">
+    </row>
+    <row r="163" spans="2:42">
       <c r="B163" s="2">
         <v>1989.25</v>
       </c>
@@ -16347,7 +15856,7 @@
         <v>78.334999999999994</v>
       </c>
       <c r="AH163" s="10">
-        <v>117418</v>
+        <v>124.1</v>
       </c>
       <c r="AI163" s="9">
         <v>5.3</v>
@@ -16373,11 +15882,8 @@
       <c r="AP163" s="13">
         <v>64.206999999999994</v>
       </c>
-      <c r="AQ163" s="9">
-        <v>124.1</v>
-      </c>
-    </row>
-    <row r="164" spans="2:43">
+    </row>
+    <row r="164" spans="2:42">
       <c r="B164" s="2">
         <v>1989.5</v>
       </c>
@@ -16475,7 +15981,7 @@
         <v>78.448999999999998</v>
       </c>
       <c r="AH164" s="10">
-        <v>117354</v>
+        <v>124.8</v>
       </c>
       <c r="AI164" s="9">
         <v>5.3</v>
@@ -16501,11 +16007,8 @@
       <c r="AP164" s="13">
         <v>64.671999999999997</v>
       </c>
-      <c r="AQ164" s="9">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="165" spans="2:43">
+    </row>
+    <row r="165" spans="2:42">
       <c r="B165" s="2">
         <v>1989.75</v>
       </c>
@@ -16603,7 +16106,7 @@
         <v>78.834000000000003</v>
       </c>
       <c r="AH165" s="10">
-        <v>117830</v>
+        <v>126.3</v>
       </c>
       <c r="AI165" s="9">
         <v>5.4</v>
@@ -16629,11 +16132,8 @@
       <c r="AP165" s="13">
         <v>65.122</v>
       </c>
-      <c r="AQ165" s="9">
-        <v>126.3</v>
-      </c>
-    </row>
-    <row r="166" spans="2:43">
+    </row>
+    <row r="166" spans="2:42">
       <c r="B166" s="2">
         <v>1990</v>
       </c>
@@ -16731,7 +16231,7 @@
         <v>79.183000000000007</v>
       </c>
       <c r="AH166" s="10">
-        <v>119203</v>
+        <v>128.6</v>
       </c>
       <c r="AI166" s="9">
         <v>5.2</v>
@@ -16757,11 +16257,8 @@
       <c r="AP166" s="13">
         <v>65.840999999999994</v>
       </c>
-      <c r="AQ166" s="9">
-        <v>128.6</v>
-      </c>
-    </row>
-    <row r="167" spans="2:43">
+    </row>
+    <row r="167" spans="2:42">
       <c r="B167" s="2">
         <v>1990.25</v>
       </c>
@@ -16859,7 +16356,7 @@
         <v>79.974000000000004</v>
       </c>
       <c r="AH167" s="10">
-        <v>118983</v>
+        <v>129.9</v>
       </c>
       <c r="AI167" s="9">
         <v>5.2</v>
@@ -16885,11 +16382,8 @@
       <c r="AP167" s="13">
         <v>66.52</v>
       </c>
-      <c r="AQ167" s="9">
-        <v>129.9</v>
-      </c>
-    </row>
-    <row r="168" spans="2:43">
+    </row>
+    <row r="168" spans="2:42">
       <c r="B168" s="2">
         <v>1990.5</v>
       </c>
@@ -16987,7 +16481,7 @@
         <v>79.694999999999993</v>
       </c>
       <c r="AH168" s="10">
-        <v>118524</v>
+        <v>132.5</v>
       </c>
       <c r="AI168" s="9">
         <v>5.9</v>
@@ -17013,11 +16507,8 @@
       <c r="AP168" s="13">
         <v>67.114000000000004</v>
       </c>
-      <c r="AQ168" s="9">
-        <v>132.5</v>
-      </c>
-    </row>
-    <row r="169" spans="2:43">
+    </row>
+    <row r="169" spans="2:42">
       <c r="B169" s="2">
         <v>1990.75</v>
       </c>
@@ -17115,7 +16606,7 @@
         <v>79.064999999999998</v>
       </c>
       <c r="AH169" s="10">
-        <v>118241</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="AI169" s="9">
         <v>6.3</v>
@@ -17141,11 +16632,8 @@
       <c r="AP169" s="13">
         <v>67.622</v>
       </c>
-      <c r="AQ169" s="9">
-        <v>134.19999999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="2:43">
+    </row>
+    <row r="170" spans="2:42">
       <c r="B170" s="2">
         <v>1991</v>
       </c>
@@ -17243,7 +16731,7 @@
         <v>79.212999999999994</v>
       </c>
       <c r="AH170" s="10">
-        <v>117652</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="AI170" s="9">
         <v>6.8</v>
@@ -17269,11 +16757,8 @@
       <c r="AP170" s="13">
         <v>68.296000000000006</v>
       </c>
-      <c r="AQ170" s="9">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="2:43">
+    </row>
+    <row r="171" spans="2:42">
       <c r="B171" s="2">
         <v>1991.25</v>
       </c>
@@ -17371,7 +16856,7 @@
         <v>80.305999999999997</v>
       </c>
       <c r="AH171" s="10">
-        <v>117639</v>
+        <v>136</v>
       </c>
       <c r="AI171" s="9">
         <v>6.9</v>
@@ -17397,11 +16882,8 @@
       <c r="AP171" s="13">
         <v>68.763999999999996</v>
       </c>
-      <c r="AQ171" s="9">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="172" spans="2:43">
+    </row>
+    <row r="172" spans="2:42">
       <c r="B172" s="2">
         <v>1991.5</v>
       </c>
@@ -17499,7 +16981,7 @@
         <v>80.762</v>
       </c>
       <c r="AH172" s="10">
-        <v>117928</v>
+        <v>137</v>
       </c>
       <c r="AI172" s="9">
         <v>6.9</v>
@@ -17525,11 +17007,8 @@
       <c r="AP172" s="13">
         <v>69.269000000000005</v>
       </c>
-      <c r="AQ172" s="9">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="173" spans="2:43">
+    </row>
+    <row r="173" spans="2:42">
       <c r="B173" s="2">
         <v>1991.75</v>
       </c>
@@ -17627,7 +17106,7 @@
         <v>81.207999999999998</v>
       </c>
       <c r="AH173" s="10">
-        <v>117466</v>
+        <v>138.19999999999999</v>
       </c>
       <c r="AI173" s="9">
         <v>7.3</v>
@@ -17653,11 +17132,8 @@
       <c r="AP173" s="13">
         <v>69.643000000000001</v>
       </c>
-      <c r="AQ173" s="9">
-        <v>138.19999999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="2:43">
+    </row>
+    <row r="174" spans="2:42">
       <c r="B174" s="2">
         <v>1992</v>
       </c>
@@ -17755,7 +17231,7 @@
         <v>82.864000000000004</v>
       </c>
       <c r="AH174" s="10">
-        <v>118144</v>
+        <v>139.1</v>
       </c>
       <c r="AI174" s="9">
         <v>7.4</v>
@@ -17781,11 +17257,8 @@
       <c r="AP174" s="13">
         <v>69.941999999999993</v>
       </c>
-      <c r="AQ174" s="9">
-        <v>139.1</v>
-      </c>
-    </row>
-    <row r="175" spans="2:43">
+    </row>
+    <row r="175" spans="2:42">
       <c r="B175" s="2">
         <v>1992.25</v>
       </c>
@@ -17883,7 +17356,7 @@
         <v>83.073999999999998</v>
       </c>
       <c r="AH175" s="10">
-        <v>118419</v>
+        <v>140.1</v>
       </c>
       <c r="AI175" s="9">
         <v>7.8</v>
@@ -17909,11 +17382,8 @@
       <c r="AP175" s="13">
         <v>70.388000000000005</v>
       </c>
-      <c r="AQ175" s="9">
-        <v>140.1</v>
-      </c>
-    </row>
-    <row r="176" spans="2:43">
+    </row>
+    <row r="176" spans="2:42">
       <c r="B176" s="2">
         <v>1992.5</v>
       </c>
@@ -18011,7 +17481,7 @@
         <v>83.516999999999996</v>
       </c>
       <c r="AH176" s="10">
-        <v>118720</v>
+        <v>141.1</v>
       </c>
       <c r="AI176" s="9">
         <v>7.6</v>
@@ -18037,11 +17507,8 @@
       <c r="AP176" s="13">
         <v>70.722999999999999</v>
       </c>
-      <c r="AQ176" s="9">
-        <v>141.1</v>
-      </c>
-    </row>
-    <row r="177" spans="2:43">
+    </row>
+    <row r="177" spans="2:42">
       <c r="B177" s="2">
         <v>1992.75</v>
       </c>
@@ -18139,7 +17606,7 @@
         <v>83.498000000000005</v>
       </c>
       <c r="AH177" s="10">
-        <v>118997</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="AI177" s="9">
         <v>7.4</v>
@@ -18165,11 +17632,8 @@
       <c r="AP177" s="13">
         <v>71.200999999999993</v>
       </c>
-      <c r="AQ177" s="9">
-        <v>142.30000000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="2:43">
+    </row>
+    <row r="178" spans="2:42">
       <c r="B178" s="2">
         <v>1993</v>
       </c>
@@ -18267,7 +17731,7 @@
         <v>82.296000000000006</v>
       </c>
       <c r="AH178" s="10">
-        <v>119542</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="AI178" s="9">
         <v>7</v>
@@ -18293,11 +17757,8 @@
       <c r="AP178" s="13">
         <v>71.605999999999995</v>
       </c>
-      <c r="AQ178" s="9">
-        <v>143.30000000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="2:43">
+    </row>
+    <row r="179" spans="2:42">
       <c r="B179" s="2">
         <v>1993.25</v>
       </c>
@@ -18395,7 +17856,7 @@
         <v>82.328999999999994</v>
       </c>
       <c r="AH179" s="10">
-        <v>120290</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="AI179" s="9">
         <v>7</v>
@@ -18421,11 +17882,8 @@
       <c r="AP179" s="13">
         <v>72.040999999999997</v>
       </c>
-      <c r="AQ179" s="9">
-        <v>144.30000000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="2:43">
+    </row>
+    <row r="180" spans="2:42">
       <c r="B180" s="2">
         <v>1993.5</v>
       </c>
@@ -18523,7 +17981,7 @@
         <v>82.078999999999994</v>
       </c>
       <c r="AH180" s="10">
-        <v>120554</v>
+        <v>145</v>
       </c>
       <c r="AI180" s="9">
         <v>6.7</v>
@@ -18549,11 +18007,8 @@
       <c r="AP180" s="13">
         <v>72.474999999999994</v>
       </c>
-      <c r="AQ180" s="9">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="181" spans="2:43">
+    </row>
+    <row r="181" spans="2:42">
       <c r="B181" s="2">
         <v>1993.75</v>
       </c>
@@ -18651,7 +18106,7 @@
         <v>82.177999999999997</v>
       </c>
       <c r="AH181" s="10">
-        <v>121464</v>
+        <v>146.30000000000001</v>
       </c>
       <c r="AI181" s="9">
         <v>6.5</v>
@@ -18677,11 +18132,8 @@
       <c r="AP181" s="13">
         <v>72.852999999999994</v>
       </c>
-      <c r="AQ181" s="9">
-        <v>146.30000000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="2:43">
+    </row>
+    <row r="182" spans="2:42">
       <c r="B182" s="2">
         <v>1994</v>
       </c>
@@ -18779,7 +18231,7 @@
         <v>81.424999999999997</v>
       </c>
       <c r="AH182" s="10">
-        <v>121930</v>
+        <v>147.1</v>
       </c>
       <c r="AI182" s="9">
         <v>6.5</v>
@@ -18805,11 +18257,8 @@
       <c r="AP182" s="13">
         <v>73.206000000000003</v>
       </c>
-      <c r="AQ182" s="9">
-        <v>147.1</v>
-      </c>
-    </row>
-    <row r="183" spans="2:43">
+    </row>
+    <row r="183" spans="2:42">
       <c r="B183" s="2">
         <v>1994.25</v>
       </c>
@@ -18907,7 +18356,7 @@
         <v>81.614000000000004</v>
       </c>
       <c r="AH183" s="10">
-        <v>122634</v>
+        <v>147.9</v>
       </c>
       <c r="AI183" s="9">
         <v>6.1</v>
@@ -18933,11 +18382,8 @@
       <c r="AP183" s="13">
         <v>73.570999999999998</v>
       </c>
-      <c r="AQ183" s="9">
-        <v>147.9</v>
-      </c>
-    </row>
-    <row r="184" spans="2:43">
+    </row>
+    <row r="184" spans="2:42">
       <c r="B184" s="2">
         <v>1994.5</v>
       </c>
@@ -19035,7 +18481,7 @@
         <v>80.995000000000005</v>
       </c>
       <c r="AH184" s="10">
-        <v>123687</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="AI184" s="9">
         <v>5.9</v>
@@ -19061,11 +18507,8 @@
       <c r="AP184" s="13">
         <v>73.968999999999994</v>
       </c>
-      <c r="AQ184" s="9">
-        <v>149.30000000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="2:43">
+    </row>
+    <row r="185" spans="2:42">
       <c r="B185" s="2">
         <v>1994.75</v>
       </c>
@@ -19163,7 +18606,7 @@
         <v>81.266000000000005</v>
       </c>
       <c r="AH185" s="10">
-        <v>124721</v>
+        <v>150.1</v>
       </c>
       <c r="AI185" s="9">
         <v>5.5</v>
@@ -19189,11 +18632,8 @@
       <c r="AP185" s="13">
         <v>74.376000000000005</v>
       </c>
-      <c r="AQ185" s="9">
-        <v>150.1</v>
-      </c>
-    </row>
-    <row r="186" spans="2:43">
+    </row>
+    <row r="186" spans="2:42">
       <c r="B186" s="2">
         <v>1995</v>
       </c>
@@ -19291,7 +18731,7 @@
         <v>81.281999999999996</v>
       </c>
       <c r="AH186" s="10">
-        <v>124955</v>
+        <v>151.19999999999999</v>
       </c>
       <c r="AI186" s="9">
         <v>5.4</v>
@@ -19317,11 +18757,8 @@
       <c r="AP186" s="13">
         <v>74.802999999999997</v>
       </c>
-      <c r="AQ186" s="9">
-        <v>151.19999999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="2:43">
+    </row>
+    <row r="187" spans="2:42">
       <c r="B187" s="2">
         <v>1995.25</v>
       </c>
@@ -19419,7 +18856,7 @@
         <v>81.305000000000007</v>
       </c>
       <c r="AH187" s="10">
-        <v>124522</v>
+        <v>152.4</v>
       </c>
       <c r="AI187" s="9">
         <v>5.6</v>
@@ -19445,11 +18882,8 @@
       <c r="AP187" s="13">
         <v>75.132000000000005</v>
       </c>
-      <c r="AQ187" s="9">
-        <v>152.4</v>
-      </c>
-    </row>
-    <row r="188" spans="2:43">
+    </row>
+    <row r="188" spans="2:42">
       <c r="B188" s="2">
         <v>1995.5</v>
       </c>
@@ -19547,7 +18981,7 @@
         <v>81.358999999999995</v>
       </c>
       <c r="AH188" s="10">
-        <v>125133</v>
+        <v>153.1</v>
       </c>
       <c r="AI188" s="9">
         <v>5.6</v>
@@ -19573,11 +19007,8 @@
       <c r="AP188" s="13">
         <v>75.489000000000004</v>
       </c>
-      <c r="AQ188" s="9">
-        <v>153.1</v>
-      </c>
-    </row>
-    <row r="189" spans="2:43">
+    </row>
+    <row r="189" spans="2:42">
       <c r="B189" s="2">
         <v>1995.75</v>
       </c>
@@ -19675,7 +19106,7 @@
         <v>81.619</v>
       </c>
       <c r="AH189" s="10">
-        <v>125088</v>
+        <v>153.9</v>
       </c>
       <c r="AI189" s="9">
         <v>5.6</v>
@@ -19701,11 +19132,8 @@
       <c r="AP189" s="13">
         <v>75.861000000000004</v>
       </c>
-      <c r="AQ189" s="9">
-        <v>153.9</v>
-      </c>
-    </row>
-    <row r="190" spans="2:43">
+    </row>
+    <row r="190" spans="2:42">
       <c r="B190" s="2">
         <v>1996</v>
       </c>
@@ -19803,7 +19231,7 @@
         <v>81.924999999999997</v>
       </c>
       <c r="AH190" s="10">
-        <v>125862</v>
+        <v>155.5</v>
       </c>
       <c r="AI190" s="9">
         <v>5.5</v>
@@ -19829,11 +19257,8 @@
       <c r="AP190" s="13">
         <v>76.272000000000006</v>
       </c>
-      <c r="AQ190" s="9">
-        <v>155.5</v>
-      </c>
-    </row>
-    <row r="191" spans="2:43">
+    </row>
+    <row r="191" spans="2:42">
       <c r="B191" s="2">
         <v>1996.25</v>
       </c>
@@ -19931,7 +19356,7 @@
         <v>81.956999999999994</v>
       </c>
       <c r="AH191" s="10">
-        <v>126602</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="AI191" s="9">
         <v>5.3</v>
@@ -19957,11 +19382,8 @@
       <c r="AP191" s="13">
         <v>76.561999999999998</v>
       </c>
-      <c r="AQ191" s="9">
-        <v>156.69999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="2:43">
+    </row>
+    <row r="192" spans="2:42">
       <c r="B192" s="2">
         <v>1996.5</v>
       </c>
@@ -20059,7 +19481,7 @@
         <v>82.165999999999997</v>
       </c>
       <c r="AH192" s="10">
-        <v>127536</v>
+        <v>157.69999999999999</v>
       </c>
       <c r="AI192" s="9">
         <v>5.2</v>
@@ -20085,11 +19507,8 @@
       <c r="AP192" s="13">
         <v>76.778000000000006</v>
       </c>
-      <c r="AQ192" s="9">
-        <v>157.69999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="2:43">
+    </row>
+    <row r="193" spans="2:42">
       <c r="B193" s="2">
         <v>1996.75</v>
       </c>
@@ -20187,7 +19606,7 @@
         <v>81.965000000000003</v>
       </c>
       <c r="AH193" s="10">
-        <v>127860</v>
+        <v>159.1</v>
       </c>
       <c r="AI193" s="9">
         <v>5.4</v>
@@ -20213,11 +19632,8 @@
       <c r="AP193" s="13">
         <v>77.168000000000006</v>
       </c>
-      <c r="AQ193" s="9">
-        <v>159.1</v>
-      </c>
-    </row>
-    <row r="194" spans="2:43">
+    </row>
+    <row r="194" spans="2:42">
       <c r="B194" s="2">
         <v>1997</v>
       </c>
@@ -20315,7 +19731,7 @@
         <v>82.480999999999995</v>
       </c>
       <c r="AH194" s="10">
-        <v>128891</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="AI194" s="9">
         <v>5.2</v>
@@ -20341,11 +19757,8 @@
       <c r="AP194" s="13">
         <v>77.647000000000006</v>
       </c>
-      <c r="AQ194" s="9">
-        <v>159.80000000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="2:43">
+    </row>
+    <row r="195" spans="2:42">
       <c r="B195" s="2">
         <v>1997.25</v>
       </c>
@@ -20443,7 +19856,7 @@
         <v>83.022999999999996</v>
       </c>
       <c r="AH195" s="10">
-        <v>129412</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="AI195" s="9">
         <v>5</v>
@@ -20469,11 +19882,8 @@
       <c r="AP195" s="13">
         <v>77.856999999999999</v>
       </c>
-      <c r="AQ195" s="9">
-        <v>160.19999999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="2:43">
+    </row>
+    <row r="196" spans="2:42">
       <c r="B196" s="2">
         <v>1997.5</v>
       </c>
@@ -20571,7 +19981,7 @@
         <v>83.501999999999995</v>
       </c>
       <c r="AH196" s="10">
-        <v>130019</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="AI196" s="9">
         <v>4.9000000000000004</v>
@@ -20597,11 +20007,8 @@
       <c r="AP196" s="13">
         <v>78.135000000000005</v>
       </c>
-      <c r="AQ196" s="9">
-        <v>161.19999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="2:43">
+    </row>
+    <row r="197" spans="2:42">
       <c r="B197" s="2">
         <v>1997.75</v>
       </c>
@@ -20699,7 +20106,7 @@
         <v>84.549000000000007</v>
       </c>
       <c r="AH197" s="10">
-        <v>130679</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="AI197" s="9">
         <v>4.7</v>
@@ -20725,11 +20132,8 @@
       <c r="AP197" s="13">
         <v>78.394999999999996</v>
       </c>
-      <c r="AQ197" s="9">
-        <v>161.80000000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="2:43">
+    </row>
+    <row r="198" spans="2:42">
       <c r="B198" s="2">
         <v>1998</v>
       </c>
@@ -20827,7 +20231,7 @@
         <v>85.852000000000004</v>
       </c>
       <c r="AH198" s="10">
-        <v>130814</v>
+        <v>162</v>
       </c>
       <c r="AI198" s="9">
         <v>4.7</v>
@@ -20853,11 +20257,8 @@
       <c r="AP198" s="13">
         <v>78.522999999999996</v>
       </c>
-      <c r="AQ198" s="9">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="199" spans="2:43">
+    </row>
+    <row r="199" spans="2:42">
       <c r="B199" s="2">
         <v>1998.25</v>
       </c>
@@ -20955,7 +20356,7 @@
         <v>86.7</v>
       </c>
       <c r="AH199" s="10">
-        <v>131244</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AI199" s="9">
         <v>4.5</v>
@@ -20981,11 +20382,8 @@
       <c r="AP199" s="13">
         <v>78.686999999999998</v>
       </c>
-      <c r="AQ199" s="9">
-        <v>162.80000000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="2:43">
+    </row>
+    <row r="200" spans="2:42">
       <c r="B200" s="2">
         <v>1998.5</v>
       </c>
@@ -21083,7 +20481,7 @@
         <v>87.721000000000004</v>
       </c>
       <c r="AH200" s="10">
-        <v>131986</v>
+        <v>163.5</v>
       </c>
       <c r="AI200" s="9">
         <v>4.5999999999999996</v>
@@ -21109,11 +20507,8 @@
       <c r="AP200" s="13">
         <v>78.980999999999995</v>
       </c>
-      <c r="AQ200" s="9">
-        <v>163.5</v>
-      </c>
-    </row>
-    <row r="201" spans="2:43">
+    </row>
+    <row r="201" spans="2:42">
       <c r="B201" s="2">
         <v>1998.75</v>
       </c>
@@ -21211,7 +20606,7 @@
         <v>87.834000000000003</v>
       </c>
       <c r="AH201" s="10">
-        <v>132602</v>
+        <v>164.4</v>
       </c>
       <c r="AI201" s="9">
         <v>4.4000000000000004</v>
@@ -21237,11 +20632,8 @@
       <c r="AP201" s="13">
         <v>79.227999999999994</v>
       </c>
-      <c r="AQ201" s="9">
-        <v>164.4</v>
-      </c>
-    </row>
-    <row r="202" spans="2:43">
+    </row>
+    <row r="202" spans="2:42">
       <c r="B202" s="2">
         <v>1999</v>
       </c>
@@ -21339,7 +20731,7 @@
         <v>89.129000000000005</v>
       </c>
       <c r="AH202" s="10">
-        <v>132947</v>
+        <v>164.8</v>
       </c>
       <c r="AI202" s="9">
         <v>4.2</v>
@@ -21365,11 +20757,8 @@
       <c r="AP202" s="13">
         <v>79.623999999999995</v>
       </c>
-      <c r="AQ202" s="9">
-        <v>164.8</v>
-      </c>
-    </row>
-    <row r="203" spans="2:43">
+    </row>
+    <row r="203" spans="2:42">
       <c r="B203" s="2">
         <v>1999.25</v>
       </c>
@@ -21467,7 +20856,7 @@
         <v>88.783000000000001</v>
       </c>
       <c r="AH203" s="10">
-        <v>133378</v>
+        <v>166</v>
       </c>
       <c r="AI203" s="9">
         <v>4.3</v>
@@ -21493,11 +20882,8 @@
       <c r="AP203" s="13">
         <v>79.891000000000005</v>
       </c>
-      <c r="AQ203" s="9">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="204" spans="2:43">
+    </row>
+    <row r="204" spans="2:42">
       <c r="B204" s="2">
         <v>1999.5</v>
       </c>
@@ -21595,7 +20981,7 @@
         <v>88.894999999999996</v>
       </c>
       <c r="AH204" s="10">
-        <v>133707</v>
+        <v>167.8</v>
       </c>
       <c r="AI204" s="9">
         <v>4.2</v>
@@ -21621,11 +21007,8 @@
       <c r="AP204" s="13">
         <v>80.180000000000007</v>
       </c>
-      <c r="AQ204" s="9">
-        <v>167.8</v>
-      </c>
-    </row>
-    <row r="205" spans="2:43">
+    </row>
+    <row r="205" spans="2:42">
       <c r="B205" s="2">
         <v>1999.75</v>
       </c>
@@ -21723,7 +21106,7 @@
         <v>90</v>
       </c>
       <c r="AH205" s="10">
-        <v>134523</v>
+        <v>168.8</v>
       </c>
       <c r="AI205" s="9">
         <v>4</v>
@@ -21749,11 +21132,8 @@
       <c r="AP205" s="13">
         <v>80.546999999999997</v>
       </c>
-      <c r="AQ205" s="9">
-        <v>168.8</v>
-      </c>
-    </row>
-    <row r="206" spans="2:43">
+    </row>
+    <row r="206" spans="2:42">
       <c r="B206" s="2">
         <v>2000</v>
       </c>
@@ -21851,7 +21231,7 @@
         <v>92.299000000000007</v>
       </c>
       <c r="AH206" s="10">
-        <v>136701</v>
+        <v>171</v>
       </c>
       <c r="AI206" s="9">
         <v>4</v>
@@ -21877,11 +21257,8 @@
       <c r="AP206" s="13">
         <v>81.162999999999997</v>
       </c>
-      <c r="AQ206" s="9">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="207" spans="2:43">
+    </row>
+    <row r="207" spans="2:42">
       <c r="B207" s="2">
         <v>2000.25</v>
       </c>
@@ -21979,7 +21356,7 @@
         <v>91.786000000000001</v>
       </c>
       <c r="AH207" s="10">
-        <v>136940</v>
+        <v>172.2</v>
       </c>
       <c r="AI207" s="9">
         <v>4</v>
@@ -22005,11 +21382,8 @@
       <c r="AP207" s="13">
         <v>81.623000000000005</v>
       </c>
-      <c r="AQ207" s="9">
-        <v>172.2</v>
-      </c>
-    </row>
-    <row r="208" spans="2:43">
+    </row>
+    <row r="208" spans="2:42">
       <c r="B208" s="2">
         <v>2000.5</v>
       </c>
@@ -22107,7 +21481,7 @@
         <v>92.718999999999994</v>
       </c>
       <c r="AH208" s="10">
-        <v>136893</v>
+        <v>173.6</v>
       </c>
       <c r="AI208" s="9">
         <v>3.9</v>
@@ -22133,11 +21507,8 @@
       <c r="AP208" s="13">
         <v>82.152000000000001</v>
       </c>
-      <c r="AQ208" s="9">
-        <v>173.6</v>
-      </c>
-    </row>
-    <row r="209" spans="2:43">
+    </row>
+    <row r="209" spans="2:42">
       <c r="B209" s="2">
         <v>2000.75</v>
       </c>
@@ -22235,7 +21606,7 @@
         <v>92.600999999999999</v>
       </c>
       <c r="AH209" s="10">
-        <v>137614</v>
+        <v>174.6</v>
       </c>
       <c r="AI209" s="9">
         <v>3.9</v>
@@ -22261,11 +21632,8 @@
       <c r="AP209" s="13">
         <v>82.593000000000004</v>
       </c>
-      <c r="AQ209" s="9">
-        <v>174.6</v>
-      </c>
-    </row>
-    <row r="210" spans="2:43">
+    </row>
+    <row r="210" spans="2:42">
       <c r="B210" s="2">
         <v>2001</v>
       </c>
@@ -22363,7 +21731,7 @@
         <v>93.831999999999994</v>
       </c>
       <c r="AH210" s="10">
-        <v>137783</v>
+        <v>176.1</v>
       </c>
       <c r="AI210" s="9">
         <v>4.3</v>
@@ -22389,11 +21757,8 @@
       <c r="AP210" s="13">
         <v>83.111999999999995</v>
       </c>
-      <c r="AQ210" s="9">
-        <v>176.1</v>
-      </c>
-    </row>
-    <row r="211" spans="2:43">
+    </row>
+    <row r="211" spans="2:42">
       <c r="B211" s="2">
         <v>2001.25</v>
       </c>
@@ -22491,7 +21856,7 @@
         <v>93.432000000000002</v>
       </c>
       <c r="AH211" s="10">
-        <v>136873</v>
+        <v>177.7</v>
       </c>
       <c r="AI211" s="9">
         <v>4.5</v>
@@ -22517,11 +21882,8 @@
       <c r="AP211" s="13">
         <v>83.698999999999998</v>
       </c>
-      <c r="AQ211" s="9">
-        <v>177.7</v>
-      </c>
-    </row>
-    <row r="212" spans="2:43">
+    </row>
+    <row r="212" spans="2:42">
       <c r="B212" s="2">
         <v>2001.5</v>
       </c>
@@ -22619,7 +21981,7 @@
         <v>93.272999999999996</v>
       </c>
       <c r="AH212" s="10">
-        <v>136846</v>
+        <v>178.1</v>
       </c>
       <c r="AI212" s="9">
         <v>5</v>
@@ -22645,11 +22007,8 @@
       <c r="AP212" s="13">
         <v>83.972999999999999</v>
       </c>
-      <c r="AQ212" s="9">
-        <v>178.1</v>
-      </c>
-    </row>
-    <row r="213" spans="2:43">
+    </row>
+    <row r="213" spans="2:42">
       <c r="B213" s="2">
         <v>2001.75</v>
       </c>
@@ -22747,7 +22106,7 @@
         <v>94.213999999999999</v>
       </c>
       <c r="AH213" s="10">
-        <v>136047</v>
+        <v>177.4</v>
       </c>
       <c r="AI213" s="9">
         <v>5.7</v>
@@ -22773,11 +22132,8 @@
       <c r="AP213" s="13">
         <v>84.227000000000004</v>
       </c>
-      <c r="AQ213" s="9">
-        <v>177.4</v>
-      </c>
-    </row>
-    <row r="214" spans="2:43">
+    </row>
+    <row r="214" spans="2:42">
       <c r="B214" s="2">
         <v>2002</v>
       </c>
@@ -22875,7 +22231,7 @@
         <v>94.385000000000005</v>
       </c>
       <c r="AH214" s="10">
-        <v>136177</v>
+        <v>178.5</v>
       </c>
       <c r="AI214" s="9">
         <v>5.7</v>
@@ -22901,11 +22257,8 @@
       <c r="AP214" s="13">
         <v>84.497</v>
       </c>
-      <c r="AQ214" s="9">
-        <v>178.5</v>
-      </c>
-    </row>
-    <row r="215" spans="2:43">
+    </row>
+    <row r="215" spans="2:42">
       <c r="B215" s="2">
         <v>2002.25</v>
       </c>
@@ -23003,7 +22356,7 @@
         <v>94.466999999999999</v>
       </c>
       <c r="AH215" s="10">
-        <v>136415</v>
+        <v>179.6</v>
       </c>
       <c r="AI215" s="9">
         <v>5.8</v>
@@ -23029,11 +22382,8 @@
       <c r="AP215" s="13">
         <v>84.811999999999998</v>
       </c>
-      <c r="AQ215" s="9">
-        <v>179.6</v>
-      </c>
-    </row>
-    <row r="216" spans="2:43">
+    </row>
+    <row r="216" spans="2:42">
       <c r="B216" s="2">
         <v>2002.5</v>
       </c>
@@ -23131,7 +22481,7 @@
         <v>94.417000000000002</v>
       </c>
       <c r="AH216" s="10">
-        <v>137302</v>
+        <v>180.8</v>
       </c>
       <c r="AI216" s="9">
         <v>5.7</v>
@@ -23157,11 +22507,8 @@
       <c r="AP216" s="13">
         <v>85.19</v>
       </c>
-      <c r="AQ216" s="9">
-        <v>180.8</v>
-      </c>
-    </row>
-    <row r="217" spans="2:43">
+    </row>
+    <row r="217" spans="2:42">
       <c r="B217" s="2">
         <v>2002.75</v>
       </c>
@@ -23259,7 +22606,7 @@
         <v>94.1</v>
       </c>
       <c r="AH217" s="10">
-        <v>136426</v>
+        <v>181.8</v>
       </c>
       <c r="AI217" s="9">
         <v>6</v>
@@ -23285,11 +22632,8 @@
       <c r="AP217" s="13">
         <v>85.650999999999996</v>
       </c>
-      <c r="AQ217" s="9">
-        <v>181.8</v>
-      </c>
-    </row>
-    <row r="218" spans="2:43">
+    </row>
+    <row r="218" spans="2:42">
       <c r="B218" s="2">
         <v>2003</v>
       </c>
@@ -23387,7 +22731,7 @@
         <v>93.754999999999995</v>
       </c>
       <c r="AH218" s="10">
-        <v>137434</v>
+        <v>183.9</v>
       </c>
       <c r="AI218" s="9">
         <v>5.9</v>
@@ -23413,11 +22757,8 @@
       <c r="AP218" s="13">
         <v>86.179000000000002</v>
       </c>
-      <c r="AQ218" s="9">
-        <v>183.9</v>
-      </c>
-    </row>
-    <row r="219" spans="2:43">
+    </row>
+    <row r="219" spans="2:42">
       <c r="B219" s="2">
         <v>2003.25</v>
       </c>
@@ -23515,7 +22856,7 @@
         <v>95.531000000000006</v>
       </c>
       <c r="AH219" s="10">
-        <v>137790</v>
+        <v>183.1</v>
       </c>
       <c r="AI219" s="9">
         <v>6.3</v>
@@ -23541,11 +22882,8 @@
       <c r="AP219" s="13">
         <v>86.454999999999998</v>
       </c>
-      <c r="AQ219" s="9">
-        <v>183.1</v>
-      </c>
-    </row>
-    <row r="220" spans="2:43">
+    </row>
+    <row r="220" spans="2:42">
       <c r="B220" s="2">
         <v>2003.5</v>
       </c>
@@ -23643,7 +22981,7 @@
         <v>96.244</v>
       </c>
       <c r="AH220" s="10">
-        <v>137609</v>
+        <v>185.1</v>
       </c>
       <c r="AI220" s="9">
         <v>6.1</v>
@@ -23669,11 +23007,8 @@
       <c r="AP220" s="13">
         <v>86.933999999999997</v>
       </c>
-      <c r="AQ220" s="9">
-        <v>185.1</v>
-      </c>
-    </row>
-    <row r="221" spans="2:43">
+    </row>
+    <row r="221" spans="2:42">
       <c r="B221" s="2">
         <v>2003.75</v>
       </c>
@@ -23771,7 +23106,7 @@
         <v>97.165999999999997</v>
       </c>
       <c r="AH221" s="10">
-        <v>138411</v>
+        <v>185.5</v>
       </c>
       <c r="AI221" s="9">
         <v>5.7</v>
@@ -23797,11 +23132,8 @@
       <c r="AP221" s="13">
         <v>87.346000000000004</v>
       </c>
-      <c r="AQ221" s="9">
-        <v>185.5</v>
-      </c>
-    </row>
-    <row r="222" spans="2:43">
+    </row>
+    <row r="222" spans="2:42">
       <c r="B222" s="2">
         <v>2004</v>
       </c>
@@ -23899,7 +23231,7 @@
         <v>96.224999999999994</v>
       </c>
       <c r="AH222" s="10">
-        <v>138453</v>
+        <v>187.1</v>
       </c>
       <c r="AI222" s="9">
         <v>5.8</v>
@@ -23925,11 +23257,8 @@
       <c r="AP222" s="13">
         <v>88.108000000000004</v>
       </c>
-      <c r="AQ222" s="9">
-        <v>187.1</v>
-      </c>
-    </row>
-    <row r="223" spans="2:43">
+    </row>
+    <row r="223" spans="2:42">
       <c r="B223" s="2">
         <v>2004.25</v>
       </c>
@@ -24027,7 +23356,7 @@
         <v>97.296999999999997</v>
       </c>
       <c r="AH223" s="10">
-        <v>139174</v>
+        <v>188.9</v>
       </c>
       <c r="AI223" s="9">
         <v>5.6</v>
@@ -24053,11 +23382,8 @@
       <c r="AP223" s="13">
         <v>88.875</v>
       </c>
-      <c r="AQ223" s="9">
-        <v>188.9</v>
-      </c>
-    </row>
-    <row r="224" spans="2:43">
+    </row>
+    <row r="224" spans="2:42">
       <c r="B224" s="2">
         <v>2004.5</v>
       </c>
@@ -24155,7 +23481,7 @@
         <v>98.373999999999995</v>
       </c>
       <c r="AH224" s="10">
-        <v>139487</v>
+        <v>189.8</v>
       </c>
       <c r="AI224" s="9">
         <v>5.4</v>
@@ -24181,11 +23507,8 @@
       <c r="AP224" s="13">
         <v>89.421999999999997</v>
       </c>
-      <c r="AQ224" s="9">
-        <v>189.8</v>
-      </c>
-    </row>
-    <row r="225" spans="2:43">
+    </row>
+    <row r="225" spans="2:42">
       <c r="B225" s="2">
         <v>2004.75</v>
       </c>
@@ -24283,7 +23606,7 @@
         <v>97.745999999999995</v>
       </c>
       <c r="AH225" s="10">
-        <v>140125</v>
+        <v>191.7</v>
       </c>
       <c r="AI225" s="9">
         <v>5.4</v>
@@ -24309,11 +23632,8 @@
       <c r="AP225" s="13">
         <v>90.049000000000007</v>
       </c>
-      <c r="AQ225" s="9">
-        <v>191.7</v>
-      </c>
-    </row>
-    <row r="226" spans="2:43">
+    </row>
+    <row r="226" spans="2:42">
       <c r="B226" s="2">
         <v>2005</v>
       </c>
@@ -24411,7 +23731,7 @@
         <v>98.004999999999995</v>
       </c>
       <c r="AH226" s="10">
-        <v>140654</v>
+        <v>193.1</v>
       </c>
       <c r="AI226" s="9">
         <v>5.2</v>
@@ -24437,11 +23757,8 @@
       <c r="AP226" s="13">
         <v>90.882999999999996</v>
       </c>
-      <c r="AQ226" s="9">
-        <v>193.1</v>
-      </c>
-    </row>
-    <row r="227" spans="2:43">
+    </row>
+    <row r="227" spans="2:42">
       <c r="B227" s="2">
         <v>2005.25</v>
       </c>
@@ -24539,7 +23856,7 @@
         <v>97.866</v>
       </c>
       <c r="AH227" s="10">
-        <v>141714</v>
+        <v>193.7</v>
       </c>
       <c r="AI227" s="9">
         <v>5</v>
@@ -24565,11 +23882,8 @@
       <c r="AP227" s="13">
         <v>91.543000000000006</v>
       </c>
-      <c r="AQ227" s="9">
-        <v>193.7</v>
-      </c>
-    </row>
-    <row r="228" spans="2:43">
+    </row>
+    <row r="228" spans="2:42">
       <c r="B228" s="2">
         <v>2005.5</v>
       </c>
@@ -24667,7 +23981,7 @@
         <v>97.61</v>
       </c>
       <c r="AH228" s="10">
-        <v>142401</v>
+        <v>198.8</v>
       </c>
       <c r="AI228" s="9">
         <v>5</v>
@@ -24693,11 +24007,8 @@
       <c r="AP228" s="13">
         <v>92.399000000000001</v>
       </c>
-      <c r="AQ228" s="9">
-        <v>198.8</v>
-      </c>
-    </row>
-    <row r="229" spans="2:43">
+    </row>
+    <row r="229" spans="2:42">
       <c r="B229" s="2">
         <v>2005.75</v>
       </c>
@@ -24795,7 +24106,7 @@
         <v>97.284000000000006</v>
       </c>
       <c r="AH229" s="10">
-        <v>142752</v>
+        <v>198.1</v>
       </c>
       <c r="AI229" s="9">
         <v>4.9000000000000004</v>
@@ -24821,11 +24132,8 @@
       <c r="AP229" s="13">
         <v>93.1</v>
       </c>
-      <c r="AQ229" s="9">
-        <v>198.1</v>
-      </c>
-    </row>
-    <row r="230" spans="2:43">
+    </row>
+    <row r="230" spans="2:42">
       <c r="B230" s="2">
         <v>2006</v>
       </c>
@@ -24923,7 +24231,7 @@
         <v>98.813000000000002</v>
       </c>
       <c r="AH230" s="10">
-        <v>143741</v>
+        <v>199.7</v>
       </c>
       <c r="AI230" s="9">
         <v>4.7</v>
@@ -24949,11 +24257,8 @@
       <c r="AP230" s="13">
         <v>93.831999999999994</v>
       </c>
-      <c r="AQ230" s="9">
-        <v>199.7</v>
-      </c>
-    </row>
-    <row r="231" spans="2:43">
+    </row>
+    <row r="231" spans="2:42">
       <c r="B231" s="2">
         <v>2006.25</v>
       </c>
@@ -25049,7 +24354,7 @@
         <v>97.942999999999998</v>
       </c>
       <c r="AH231" s="10">
-        <v>144353</v>
+        <v>201.8</v>
       </c>
       <c r="AI231" s="9">
         <v>4.5999999999999996</v>
@@ -25075,11 +24380,8 @@
       <c r="AP231" s="13">
         <v>94.587000000000003</v>
       </c>
-      <c r="AQ231" s="9">
-        <v>201.8</v>
-      </c>
-    </row>
-    <row r="232" spans="2:43">
+    </row>
+    <row r="232" spans="2:42">
       <c r="B232" s="2">
         <v>2006.5</v>
       </c>
@@ -25175,7 +24477,7 @@
         <v>97.167000000000002</v>
       </c>
       <c r="AH232" s="10">
-        <v>144815</v>
+        <v>202.8</v>
       </c>
       <c r="AI232" s="9">
         <v>4.5</v>
@@ -25201,11 +24503,8 @@
       <c r="AP232" s="13">
         <v>95.247</v>
       </c>
-      <c r="AQ232" s="9">
-        <v>202.8</v>
-      </c>
-    </row>
-    <row r="233" spans="2:43">
+    </row>
+    <row r="233" spans="2:42">
       <c r="B233" s="2">
         <v>2006.75</v>
       </c>
@@ -25301,7 +24600,7 @@
         <v>99.245000000000005</v>
       </c>
       <c r="AH233" s="10">
-        <v>145970</v>
+        <v>203.1</v>
       </c>
       <c r="AI233" s="9">
         <v>4.4000000000000004</v>
@@ -25327,11 +24626,8 @@
       <c r="AP233" s="13">
         <v>95.58</v>
       </c>
-      <c r="AQ233" s="9">
-        <v>203.1</v>
-      </c>
-    </row>
-    <row r="234" spans="2:43">
+    </row>
+    <row r="234" spans="2:42">
       <c r="B234" s="2">
         <v>2007</v>
       </c>
@@ -25412,7 +24708,7 @@
         <v>100.706</v>
       </c>
       <c r="AH234" s="10">
-        <v>146320</v>
+        <v>205.28800000000001</v>
       </c>
       <c r="AI234" s="9">
         <v>4.4000000000000004</v>
@@ -25438,11 +24734,8 @@
       <c r="AP234" s="13">
         <v>96.653999999999996</v>
       </c>
-      <c r="AQ234" s="9">
-        <v>205.28800000000001</v>
-      </c>
-    </row>
-    <row r="235" spans="2:43">
+    </row>
+    <row r="235" spans="2:42">
       <c r="B235" s="2">
         <v>2007.25</v>
       </c>
@@ -25523,7 +24816,7 @@
         <v>99.513999999999996</v>
       </c>
       <c r="AH235" s="10">
-        <v>146063</v>
+        <v>207.23400000000001</v>
       </c>
       <c r="AI235" s="9">
         <v>4.5999999999999996</v>
@@ -25549,11 +24842,8 @@
       <c r="AP235" s="13">
         <v>97.194000000000003</v>
       </c>
-      <c r="AQ235" s="9">
-        <v>207.23400000000001</v>
-      </c>
-    </row>
-    <row r="236" spans="2:43">
+    </row>
+    <row r="236" spans="2:42">
       <c r="B236" s="2">
         <v>2007.5</v>
       </c>
@@ -25634,7 +24924,7 @@
         <v>99.253</v>
       </c>
       <c r="AH236" s="10">
-        <v>146244</v>
+        <v>208.547</v>
       </c>
       <c r="AI236" s="9">
         <v>4.7</v>
@@ -25660,11 +24950,8 @@
       <c r="AP236" s="13">
         <v>97.531000000000006</v>
       </c>
-      <c r="AQ236" s="9">
-        <v>208.547</v>
-      </c>
-    </row>
-    <row r="237" spans="2:43">
+    </row>
+    <row r="237" spans="2:42">
       <c r="B237" s="2">
         <v>2007.75</v>
       </c>
@@ -25745,7 +25032,7 @@
         <v>99.126000000000005</v>
       </c>
       <c r="AH237" s="10">
-        <v>146273</v>
+        <v>211.44499999999999</v>
       </c>
       <c r="AI237" s="9">
         <v>5</v>
@@ -25771,11 +25058,8 @@
       <c r="AP237" s="13">
         <v>97.956000000000003</v>
       </c>
-      <c r="AQ237" s="9">
-        <v>211.44499999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="2:43">
+    </row>
+    <row r="238" spans="2:42">
       <c r="B238" s="2">
         <v>2008</v>
       </c>
@@ -25856,7 +25140,7 @@
         <v>99.046000000000006</v>
       </c>
       <c r="AH238" s="10">
-        <v>146086</v>
+        <v>213.44800000000001</v>
       </c>
       <c r="AI238" s="9">
         <v>5.0999999999999996</v>
@@ -25882,11 +25166,8 @@
       <c r="AP238" s="13">
         <v>98.516000000000005</v>
       </c>
-      <c r="AQ238" s="9">
-        <v>213.44800000000001</v>
-      </c>
-    </row>
-    <row r="239" spans="2:43">
+    </row>
+    <row r="239" spans="2:42">
       <c r="B239" s="2">
         <v>2008.25</v>
       </c>
@@ -25967,7 +25248,7 @@
         <v>97.853999999999999</v>
       </c>
       <c r="AH239" s="10">
-        <v>145737</v>
+        <v>217.46299999999999</v>
       </c>
       <c r="AI239" s="9">
         <v>5.6</v>
@@ -25993,11 +25274,8 @@
       <c r="AP239" s="13">
         <v>98.995000000000005</v>
       </c>
-      <c r="AQ239" s="9">
-        <v>217.46299999999999</v>
-      </c>
-    </row>
-    <row r="240" spans="2:43">
+    </row>
+    <row r="240" spans="2:42">
       <c r="B240" s="2">
         <v>2008.5</v>
       </c>
@@ -26078,7 +25356,7 @@
         <v>97.2</v>
       </c>
       <c r="AH240" s="10">
-        <v>145076</v>
+        <v>218.87700000000001</v>
       </c>
       <c r="AI240" s="9">
         <v>6.1</v>
@@ -26104,11 +25382,8 @@
       <c r="AP240" s="13">
         <v>99.673000000000002</v>
       </c>
-      <c r="AQ240" s="9">
-        <v>218.87700000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="2:43">
+    </row>
+    <row r="241" spans="2:42">
       <c r="B241" s="2">
         <v>2008.75</v>
       </c>
@@ -26189,7 +25464,7 @@
         <v>100.559</v>
       </c>
       <c r="AH241" s="10">
-        <v>143369</v>
+        <v>211.398</v>
       </c>
       <c r="AI241" s="9">
         <v>7.3</v>
@@ -26215,11 +25490,8 @@
       <c r="AP241" s="13">
         <v>99.814999999999998</v>
       </c>
-      <c r="AQ241" s="9">
-        <v>211.398</v>
-      </c>
-    </row>
-    <row r="242" spans="2:43">
+    </row>
+    <row r="242" spans="2:42">
       <c r="B242" s="2">
         <v>2009</v>
       </c>
@@ -26300,7 +25572,7 @@
         <v>98.733000000000004</v>
       </c>
       <c r="AH242" s="10">
-        <v>140707</v>
+        <v>212.495</v>
       </c>
       <c r="AI242" s="9">
         <v>8.6999999999999993</v>
@@ -26326,11 +25598,8 @@
       <c r="AP242" s="13">
         <v>100.062</v>
       </c>
-      <c r="AQ242" s="9">
-        <v>212.495</v>
-      </c>
-    </row>
-    <row r="243" spans="2:43">
+    </row>
+    <row r="243" spans="2:42">
       <c r="B243" s="2">
         <v>2009.25</v>
       </c>
@@ -26411,7 +25680,7 @@
         <v>100.604</v>
       </c>
       <c r="AH243" s="10">
-        <v>140009</v>
+        <v>214.79</v>
       </c>
       <c r="AI243" s="9">
         <v>9.5</v>
@@ -26437,11 +25706,8 @@
       <c r="AP243" s="13">
         <v>99.894999999999996</v>
       </c>
-      <c r="AQ243" s="9">
-        <v>214.79</v>
-      </c>
-    </row>
-    <row r="244" spans="2:43">
+    </row>
+    <row r="244" spans="2:42">
       <c r="B244" s="2">
         <v>2009.5</v>
       </c>
@@ -26522,7 +25788,7 @@
         <v>100.422</v>
       </c>
       <c r="AH244" s="10">
-        <v>138818</v>
+        <v>215.86099999999999</v>
       </c>
       <c r="AI244" s="9">
         <v>9.8000000000000007</v>
@@ -26548,11 +25814,8 @@
       <c r="AP244" s="13">
         <v>99.873000000000005</v>
       </c>
-      <c r="AQ244" s="9">
-        <v>215.86099999999999</v>
-      </c>
-    </row>
-    <row r="245" spans="2:43">
+    </row>
+    <row r="245" spans="2:42">
       <c r="B245" s="2">
         <v>2009.75</v>
       </c>
@@ -26633,7 +25896,7 @@
         <v>100.262</v>
       </c>
       <c r="AH245" s="10">
-        <v>138013</v>
+        <v>217.34700000000001</v>
       </c>
       <c r="AI245" s="9">
         <v>9.9</v>
@@ -26659,11 +25922,8 @@
       <c r="AP245" s="13">
         <v>100.169</v>
       </c>
-      <c r="AQ245" s="9">
-        <v>217.34700000000001</v>
-      </c>
-    </row>
-    <row r="246" spans="2:43">
+    </row>
+    <row r="246" spans="2:42">
       <c r="B246" s="2">
         <v>2010</v>
       </c>
@@ -26742,7 +26002,7 @@
         <v>99.394999999999996</v>
       </c>
       <c r="AH246" s="10">
-        <v>138751</v>
+        <v>217.35300000000001</v>
       </c>
       <c r="AI246" s="9">
         <v>9.9</v>
@@ -26768,11 +26028,8 @@
       <c r="AP246" s="13">
         <v>100.52200000000001</v>
       </c>
-      <c r="AQ246" s="9">
-        <v>217.35300000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="2:43">
+    </row>
+    <row r="247" spans="2:42">
       <c r="B247" s="2">
         <v>2010.25</v>
       </c>
@@ -26851,7 +26108,7 @@
         <v>100.57599999999999</v>
       </c>
       <c r="AH247" s="10">
-        <v>139141</v>
+        <v>217.19900000000001</v>
       </c>
       <c r="AI247" s="9">
         <v>9.4</v>
@@ -26877,11 +26134,8 @@
       <c r="AP247" s="13">
         <v>100.968</v>
       </c>
-      <c r="AQ247" s="9">
-        <v>217.19900000000001</v>
-      </c>
-    </row>
-    <row r="248" spans="2:43">
+    </row>
+    <row r="248" spans="2:42">
       <c r="B248" s="2">
         <v>2010.5</v>
       </c>
@@ -26960,7 +26214,7 @@
         <v>100.729</v>
       </c>
       <c r="AH248" s="10">
-        <v>139396</v>
+        <v>218.27500000000001</v>
       </c>
       <c r="AI248" s="9">
         <v>9.5</v>
@@ -26986,11 +26240,8 @@
       <c r="AP248" s="13">
         <v>101.429</v>
       </c>
-      <c r="AQ248" s="9">
-        <v>218.27500000000001</v>
-      </c>
-    </row>
-    <row r="249" spans="2:43">
+    </row>
+    <row r="249" spans="2:42">
       <c r="B249" s="2">
         <v>2010.75</v>
       </c>
@@ -27069,7 +26320,7 @@
         <v>100.36799999999999</v>
       </c>
       <c r="AH249" s="10">
-        <v>139301</v>
+        <v>220.47200000000001</v>
       </c>
       <c r="AI249" s="9">
         <v>9.3000000000000007</v>
@@ -27095,11 +26346,8 @@
       <c r="AP249" s="13">
         <v>101.949</v>
       </c>
-      <c r="AQ249" s="9">
-        <v>220.47200000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="2:43">
+    </row>
+    <row r="250" spans="2:42">
       <c r="B250" s="2">
         <v>2011</v>
       </c>
@@ -27178,7 +26426,7 @@
         <v>101.083</v>
       </c>
       <c r="AH250" s="10">
-        <v>139639</v>
+        <v>223.04599999999999</v>
       </c>
       <c r="AI250" s="9">
         <v>9</v>
@@ -27204,11 +26452,8 @@
       <c r="AP250" s="13">
         <v>102.399</v>
       </c>
-      <c r="AQ250" s="9">
-        <v>223.04599999999999</v>
-      </c>
-    </row>
-    <row r="251" spans="2:43">
+    </row>
+    <row r="251" spans="2:42">
       <c r="B251" s="2">
         <v>2011.25</v>
       </c>
@@ -27287,7 +26532,7 @@
         <v>99.391999999999996</v>
       </c>
       <c r="AH251" s="10">
-        <v>139384</v>
+        <v>224.80600000000001</v>
       </c>
       <c r="AI251" s="9">
         <v>9.1</v>
@@ -27313,11 +26558,8 @@
       <c r="AP251" s="13">
         <v>103.145</v>
       </c>
-      <c r="AQ251" s="9">
-        <v>224.80600000000001</v>
-      </c>
-    </row>
-    <row r="252" spans="2:43">
+    </row>
+    <row r="252" spans="2:42">
       <c r="B252" s="2">
         <v>2011.5</v>
       </c>
@@ -27396,7 +26638,7 @@
         <v>99.375</v>
       </c>
       <c r="AH252" s="10">
-        <v>140183</v>
+        <v>226.59700000000001</v>
       </c>
       <c r="AI252" s="9">
         <v>9</v>
@@ -27422,11 +26664,8 @@
       <c r="AP252" s="13">
         <v>103.768</v>
       </c>
-      <c r="AQ252" s="9">
-        <v>226.59700000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="2:43">
+    </row>
+    <row r="253" spans="2:42">
       <c r="B253" s="2">
         <v>2011.75</v>
       </c>
@@ -27505,7 +26744,7 @@
         <v>97.641000000000005</v>
       </c>
       <c r="AH253" s="10">
-        <v>140902</v>
+        <v>227.22300000000001</v>
       </c>
       <c r="AI253" s="9">
         <v>8.5</v>
@@ -27531,11 +26770,8 @@
       <c r="AP253" s="13">
         <v>103.917</v>
       </c>
-      <c r="AQ253" s="9">
-        <v>227.22300000000001</v>
-      </c>
-    </row>
-    <row r="254" spans="2:43">
+    </row>
+    <row r="254" spans="2:42">
       <c r="B254" s="2">
         <v>2012</v>
       </c>
@@ -27614,7 +26850,7 @@
         <v>99.320999999999998</v>
       </c>
       <c r="AH254" s="10">
-        <v>142036</v>
+        <v>228.80699999999999</v>
       </c>
       <c r="AI254" s="9">
         <v>8.1999999999999993</v>
@@ -27640,11 +26876,8 @@
       <c r="AP254" s="13">
         <v>104.46599999999999</v>
       </c>
-      <c r="AQ254" s="9">
-        <v>228.80699999999999</v>
-      </c>
-    </row>
-    <row r="255" spans="2:43">
+    </row>
+    <row r="255" spans="2:42">
       <c r="B255" s="2">
         <v>2012.25</v>
       </c>
@@ -27723,7 +26956,7 @@
         <v>99.665000000000006</v>
       </c>
       <c r="AH255" s="10">
-        <v>142391</v>
+        <v>228.524</v>
       </c>
       <c r="AI255" s="9">
         <v>8.1999999999999993</v>
@@ -27749,11 +26982,8 @@
       <c r="AP255" s="13">
         <v>104.943</v>
       </c>
-      <c r="AQ255" s="9">
-        <v>228.524</v>
-      </c>
-    </row>
-    <row r="256" spans="2:43">
+    </row>
+    <row r="256" spans="2:42">
       <c r="B256" s="2">
         <v>2012.5</v>
       </c>
@@ -27832,7 +27062,7 @@
         <v>99.308999999999997</v>
       </c>
       <c r="AH256" s="10">
-        <v>143044</v>
+        <v>231.01499999999999</v>
       </c>
       <c r="AI256" s="9">
         <v>7.8</v>
@@ -27858,11 +27088,8 @@
       <c r="AP256" s="13">
         <v>105.508</v>
       </c>
-      <c r="AQ256" s="9">
-        <v>231.01499999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="2:43">
+    </row>
+    <row r="257" spans="2:42">
       <c r="B257" s="2">
         <v>2012.75</v>
       </c>
@@ -27941,7 +27168,7 @@
         <v>101.306</v>
       </c>
       <c r="AH257" s="10">
-        <v>143330</v>
+        <v>231.221</v>
       </c>
       <c r="AI257" s="9">
         <v>7.9</v>
@@ -27967,11 +27194,8 @@
       <c r="AP257" s="13">
         <v>105.935</v>
       </c>
-      <c r="AQ257" s="9">
-        <v>231.221</v>
-      </c>
-    </row>
-    <row r="258" spans="2:43">
+    </row>
+    <row r="258" spans="2:42">
       <c r="B258" s="2">
         <v>2013</v>
       </c>
@@ -28050,7 +27274,7 @@
         <v>98.552999999999997</v>
       </c>
       <c r="AH258" s="10">
-        <v>143319</v>
+        <v>232.29900000000001</v>
       </c>
       <c r="AI258" s="9">
         <v>7.5</v>
@@ -28076,11 +27300,8 @@
       <c r="AP258" s="13">
         <v>106.349</v>
       </c>
-      <c r="AQ258" s="9">
-        <v>232.29900000000001</v>
-      </c>
-    </row>
-    <row r="259" spans="2:43">
+    </row>
+    <row r="259" spans="2:42">
       <c r="B259" s="2">
         <v>2013.25</v>
       </c>
@@ -28159,7 +27380,7 @@
         <v>100.07299999999999</v>
       </c>
       <c r="AH259" s="10">
-        <v>144006</v>
+        <v>232.374</v>
       </c>
       <c r="AI259" s="9">
         <v>7.5</v>
@@ -28185,11 +27406,8 @@
       <c r="AP259" s="13">
         <v>106.57</v>
       </c>
-      <c r="AQ259" s="9">
-        <v>232.374</v>
-      </c>
-    </row>
-    <row r="260" spans="2:43">
+    </row>
+    <row r="260" spans="2:42">
       <c r="B260" s="2">
         <v>2013.5</v>
       </c>
@@ -28268,7 +27486,7 @@
         <v>99.808000000000007</v>
       </c>
       <c r="AH260" s="10">
-        <v>144466</v>
+        <v>233.63200000000001</v>
       </c>
       <c r="AI260" s="9">
         <v>7.2</v>
@@ -28294,11 +27512,8 @@
       <c r="AP260" s="13">
         <v>107.084</v>
       </c>
-      <c r="AQ260" s="9">
-        <v>233.63200000000001</v>
-      </c>
-    </row>
-    <row r="261" spans="2:43">
+    </row>
+    <row r="261" spans="2:42">
       <c r="B261" s="2">
         <v>2013.75</v>
       </c>
@@ -28377,7 +27592,7 @@
         <v>100.032</v>
       </c>
       <c r="AH261" s="10">
-        <v>144741</v>
+        <v>234.72300000000001</v>
       </c>
       <c r="AI261" s="9">
         <v>6.7</v>
@@ -28403,11 +27618,8 @@
       <c r="AP261" s="13">
         <v>107.636</v>
       </c>
-      <c r="AQ261" s="9">
-        <v>234.72300000000001</v>
-      </c>
-    </row>
-    <row r="262" spans="2:43">
+    </row>
+    <row r="262" spans="2:42">
       <c r="B262" s="2">
         <v>2014</v>
       </c>
@@ -28486,7 +27698,7 @@
         <v>101.038</v>
       </c>
       <c r="AH262" s="10">
-        <v>145715</v>
+        <v>235.97800000000001</v>
       </c>
       <c r="AI262" s="9">
         <v>6.7</v>
@@ -28512,11 +27724,8 @@
       <c r="AP262" s="13">
         <v>108.083</v>
       </c>
-      <c r="AQ262" s="9">
-        <v>235.97800000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="2:43">
+    </row>
+    <row r="263" spans="2:42">
       <c r="B263" s="2">
         <v>2014.25</v>
       </c>
@@ -28595,7 +27804,7 @@
         <v>99.948999999999998</v>
       </c>
       <c r="AH263" s="10">
-        <v>146222</v>
+        <v>237.029</v>
       </c>
       <c r="AI263" s="9">
         <v>6.1</v>
@@ -28621,11 +27830,8 @@
       <c r="AP263" s="13">
         <v>108.69199999999999</v>
       </c>
-      <c r="AQ263" s="9">
-        <v>237.029</v>
-      </c>
-    </row>
-    <row r="264" spans="2:43">
+    </row>
+    <row r="264" spans="2:42">
       <c r="B264" s="2">
         <v>2014.5</v>
       </c>
@@ -28704,7 +27910,7 @@
         <v>100.467</v>
       </c>
       <c r="AH264" s="10">
-        <v>146845</v>
+        <v>237.48599999999999</v>
       </c>
       <c r="AI264" s="9">
         <v>5.9</v>
@@ -28730,11 +27936,8 @@
       <c r="AP264" s="13">
         <v>109.187</v>
       </c>
-      <c r="AQ264" s="9">
-        <v>237.48599999999999</v>
-      </c>
-    </row>
-    <row r="265" spans="2:43">
+    </row>
+    <row r="265" spans="2:42">
       <c r="B265" s="2">
         <v>2014.75</v>
       </c>
@@ -28813,7 +28016,7 @@
         <v>101.904</v>
       </c>
       <c r="AH265" s="10">
-        <v>147521</v>
+        <v>236.29</v>
       </c>
       <c r="AI265" s="9">
         <v>5.6</v>
@@ -28839,11 +28042,8 @@
       <c r="AP265" s="13">
         <v>109.345</v>
       </c>
-      <c r="AQ265" s="9">
-        <v>236.29</v>
-      </c>
-    </row>
-    <row r="266" spans="2:43">
+    </row>
+    <row r="266" spans="2:42">
       <c r="B266" s="2">
         <v>2015</v>
       </c>
@@ -28922,7 +28122,7 @@
         <v>103.407</v>
       </c>
       <c r="AH266" s="10">
-        <v>148244</v>
+        <v>235.989</v>
       </c>
       <c r="AI266" s="9">
         <v>5.4</v>
@@ -28948,11 +28148,8 @@
       <c r="AP266" s="13">
         <v>109.32599999999999</v>
       </c>
-      <c r="AQ266" s="9">
-        <v>235.989</v>
-      </c>
-    </row>
-    <row r="267" spans="2:43">
+    </row>
+    <row r="267" spans="2:42">
       <c r="B267" s="2">
         <v>2015.25</v>
       </c>
@@ -29031,7 +28228,7 @@
         <v>103.715</v>
       </c>
       <c r="AH267" s="10">
-        <v>148742</v>
+        <v>237.41900000000001</v>
       </c>
       <c r="AI267" s="9">
         <v>5.3</v>
@@ -29057,11 +28254,8 @@
       <c r="AP267" s="13">
         <v>109.916</v>
       </c>
-      <c r="AQ267" s="9">
-        <v>237.41900000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="2:43">
+    </row>
+    <row r="268" spans="2:42">
       <c r="B268" s="2">
         <v>2015.5</v>
       </c>
@@ -29140,7 +28334,7 @@
         <v>103.607</v>
       </c>
       <c r="AH268" s="10">
-        <v>148932</v>
+        <v>237.46700000000001</v>
       </c>
       <c r="AI268" s="9">
         <v>5</v>
@@ -29166,11 +28360,8 @@
       <c r="AP268" s="13">
         <v>110.286</v>
       </c>
-      <c r="AQ268" s="9">
-        <v>237.46700000000001</v>
-      </c>
-    </row>
-    <row r="269" spans="2:43">
+    </row>
+    <row r="269" spans="2:42">
       <c r="B269" s="2">
         <v>2015.75</v>
       </c>
@@ -29249,7 +28440,7 @@
         <v>104.642</v>
       </c>
       <c r="AH269" s="10">
-        <v>150030</v>
+        <v>237.846</v>
       </c>
       <c r="AI269" s="9">
         <v>5</v>
@@ -29275,11 +28466,8 @@
       <c r="AP269" s="13">
         <v>110.51300000000001</v>
       </c>
-      <c r="AQ269" s="9">
-        <v>237.846</v>
-      </c>
-    </row>
-    <row r="270" spans="2:43">
+    </row>
+    <row r="270" spans="2:42">
       <c r="B270" s="2">
         <v>2016</v>
       </c>
@@ -29358,7 +28546,7 @@
         <v>103.61499999999999</v>
       </c>
       <c r="AH270" s="10">
-        <v>151301</v>
+        <v>238.078</v>
       </c>
       <c r="AI270" s="9">
         <v>5</v>
@@ -29384,11 +28572,8 @@
       <c r="AP270" s="13">
         <v>110.58199999999999</v>
       </c>
-      <c r="AQ270" s="9">
-        <v>238.078</v>
-      </c>
-    </row>
-    <row r="271" spans="2:43">
+    </row>
+    <row r="271" spans="2:42">
       <c r="B271" s="2">
         <v>2016.25</v>
       </c>
@@ -29467,7 +28652,7 @@
         <v>104.22499999999999</v>
       </c>
       <c r="AH271" s="10">
-        <v>151090</v>
+        <v>239.84200000000001</v>
       </c>
       <c r="AI271" s="9">
         <v>4.9000000000000004</v>
@@ -29493,11 +28678,8 @@
       <c r="AP271" s="13">
         <v>111.249</v>
       </c>
-      <c r="AQ271" s="9">
-        <v>239.84200000000001</v>
-      </c>
-    </row>
-    <row r="272" spans="2:43">
+    </row>
+    <row r="272" spans="2:42">
       <c r="B272" s="2">
         <v>2016.5</v>
       </c>
@@ -29576,7 +28758,7 @@
         <v>104.41500000000001</v>
       </c>
       <c r="AH272" s="10">
-        <v>151926</v>
+        <v>241.006</v>
       </c>
       <c r="AI272" s="9">
         <v>4.9000000000000004</v>
@@ -29602,11 +28784,8 @@
       <c r="AP272" s="13">
         <v>111.628</v>
       </c>
-      <c r="AQ272" s="9">
-        <v>241.006</v>
-      </c>
-    </row>
-    <row r="273" spans="2:43">
+    </row>
+    <row r="273" spans="2:42">
       <c r="B273" s="2">
         <v>2016.75</v>
       </c>
@@ -29685,7 +28864,7 @@
         <v>102.446</v>
       </c>
       <c r="AH273" s="10">
-        <v>152111</v>
+        <v>242.821</v>
       </c>
       <c r="AI273" s="9">
         <v>4.7</v>
@@ -29711,11 +28890,8 @@
       <c r="AP273" s="13">
         <v>112.19</v>
       </c>
-      <c r="AQ273" s="9">
-        <v>242.821</v>
-      </c>
-    </row>
-    <row r="274" spans="2:43">
+    </row>
+    <row r="274" spans="2:42">
       <c r="B274" s="2">
         <v>2017</v>
       </c>
@@ -29794,7 +28970,7 @@
         <v>102.878</v>
       </c>
       <c r="AH274" s="10">
-        <v>153000</v>
+        <v>243.75200000000001</v>
       </c>
       <c r="AI274" s="9">
         <v>4.5</v>
@@ -29820,11 +28996,8 @@
       <c r="AP274" s="13">
         <v>112.746</v>
       </c>
-      <c r="AQ274" s="9">
-        <v>243.75200000000001</v>
-      </c>
-    </row>
-    <row r="275" spans="2:43">
+    </row>
+    <row r="275" spans="2:42">
       <c r="B275" s="2">
         <v>2017.25</v>
       </c>
@@ -29903,7 +29076,7 @@
         <v>103.425</v>
       </c>
       <c r="AH275" s="10">
-        <v>153168</v>
+        <v>243.79</v>
       </c>
       <c r="AI275" s="9">
         <v>4.4000000000000004</v>
@@ -29929,11 +29102,8 @@
       <c r="AP275" s="13">
         <v>113.029</v>
       </c>
-      <c r="AQ275" s="9">
-        <v>243.79</v>
-      </c>
-    </row>
-    <row r="276" spans="2:43">
+    </row>
+    <row r="276" spans="2:42">
       <c r="B276" s="2">
         <v>2017.5</v>
       </c>
@@ -30000,7 +29170,7 @@
         <v>103.798</v>
       </c>
       <c r="AH276" s="10">
-        <v>154345</v>
+        <v>246.37299999999999</v>
       </c>
       <c r="AI276" s="9">
         <v>4.2</v>
@@ -30023,11 +29193,8 @@
       <c r="AP276" s="13">
         <v>113.63</v>
       </c>
-      <c r="AQ276" s="9">
-        <v>246.37299999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="2:43">
+    </row>
+    <row r="277" spans="2:42">
       <c r="B277" s="2">
         <v>2017.75</v>
       </c>
@@ -30081,8 +29248,9 @@
       </c>
       <c r="Y277" s="4"/>
       <c r="Z277" s="2"/>
-    </row>
-    <row r="278" spans="2:43">
+      <c r="AH277" s="10"/>
+    </row>
+    <row r="278" spans="2:42">
       <c r="B278" s="2">
         <v>2018</v>
       </c>
@@ -30136,8 +29304,9 @@
       </c>
       <c r="Y278" s="4"/>
       <c r="Z278" s="2"/>
-    </row>
-    <row r="279" spans="2:43">
+      <c r="AH278" s="10"/>
+    </row>
+    <row r="279" spans="2:42">
       <c r="B279" s="2">
         <v>2018.25</v>
       </c>
@@ -30191,8 +29360,9 @@
       </c>
       <c r="Y279" s="4"/>
       <c r="Z279" s="2"/>
-    </row>
-    <row r="280" spans="2:43">
+      <c r="AH279" s="10"/>
+    </row>
+    <row r="280" spans="2:42">
       <c r="M280" s="4"/>
       <c r="N280" s="11"/>
       <c r="O280" s="4"/>
@@ -30208,7 +29378,7 @@
       <c r="Y280" s="4"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="2:43">
+    <row r="281" spans="2:42">
       <c r="M281" s="4"/>
       <c r="N281" s="11"/>
       <c r="O281" s="4"/>
@@ -30224,7 +29394,7 @@
       <c r="Y281" s="4"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="2:43">
+    <row r="282" spans="2:42">
       <c r="M282" s="4"/>
       <c r="N282" s="11"/>
       <c r="O282" s="4"/>
@@ -30240,22 +29410,22 @@
       <c r="Y282" s="4"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="2:43">
+    <row r="283" spans="2:42">
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="2:43">
+    <row r="284" spans="2:42">
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="2:43">
+    <row r="285" spans="2:42">
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="2:43">
+    <row r="286" spans="2:42">
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="2:43">
+    <row r="287" spans="2:42">
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="2:43">
+    <row r="288" spans="2:42">
       <c r="Z288" s="2"/>
     </row>
     <row r="289" spans="26:26">

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>RGDP4_SPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -639,10 +642,10 @@
   <dimension ref="A1:AR327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="W6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L299" sqref="L299"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -30803,6 +30806,9 @@
     </row>
     <row r="299" spans="10:27">
       <c r="K299" s="11"/>
+      <c r="L299" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="AA299" s="2"/>
     </row>
     <row r="300" spans="10:27">

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,15 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -178,6 +175,9 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Vix</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +187,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +250,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -295,11 +299,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -357,10 +362,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
     <cellStyle name="Normale 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR327"/>
+  <dimension ref="A1:AS327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="W6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -684,7 +690,7 @@
     <col min="45" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="16" customFormat="1">
+    <row r="1" spans="1:45" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -817,8 +823,11 @@
       <c r="AR1" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" s="16" customFormat="1">
+      <c r="AS1" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" s="16" customFormat="1">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -901,58 +910,61 @@
         <v>2</v>
       </c>
       <c r="AB2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" s="16" customFormat="1">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="16" customFormat="1">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1097,11 @@
       <c r="AR3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" s="16" customFormat="1">
+      <c r="AS3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="16" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1234,11 @@
       <c r="AR4" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" s="16" customFormat="1">
+      <c r="AS4" s="16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="16" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1353,8 +1371,11 @@
       <c r="AR5" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:44">
+      <c r="AS5" s="16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45">
       <c r="B6" s="2">
         <v>1950</v>
       </c>
@@ -1413,11 +1434,12 @@
       <c r="AQ6" s="10">
         <v>8.5231999999999992</v>
       </c>
-      <c r="AR6" s="13">
+      <c r="AR6" s="9">
         <v>13.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:44">
+      <c r="AS6" s="10"/>
+    </row>
+    <row r="7" spans="1:45">
       <c r="B7" s="2">
         <v>1950.25</v>
       </c>
@@ -1476,11 +1498,12 @@
       <c r="AQ7" s="10">
         <v>9.0386000000000006</v>
       </c>
-      <c r="AR7" s="13">
+      <c r="AR7" s="9">
         <v>13.538</v>
       </c>
-    </row>
-    <row r="8" spans="1:44">
+      <c r="AS7" s="10"/>
+    </row>
+    <row r="8" spans="1:45">
       <c r="B8" s="2">
         <v>1950.5</v>
       </c>
@@ -1539,11 +1562,12 @@
       <c r="AQ8" s="10">
         <v>9.5701999999999998</v>
       </c>
-      <c r="AR8" s="13">
+      <c r="AR8" s="9">
         <v>13.832000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:44">
+      <c r="AS8" s="10"/>
+    </row>
+    <row r="9" spans="1:45">
       <c r="B9" s="2">
         <v>1950.75</v>
       </c>
@@ -1602,11 +1626,12 @@
       <c r="AQ9" s="10">
         <v>10.0998</v>
       </c>
-      <c r="AR9" s="13">
+      <c r="AR9" s="9">
         <v>14.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:44">
+      <c r="AS9" s="10"/>
+    </row>
+    <row r="10" spans="1:45">
       <c r="B10" s="2">
         <v>1951</v>
       </c>
@@ -1665,11 +1690,12 @@
       <c r="AQ10" s="10">
         <v>10.236499999999999</v>
       </c>
-      <c r="AR10" s="13">
+      <c r="AR10" s="9">
         <v>14.596</v>
       </c>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="AS10" s="10"/>
+    </row>
+    <row r="11" spans="1:45">
       <c r="B11" s="2">
         <v>1951.25</v>
       </c>
@@ -1728,11 +1754,12 @@
       <c r="AQ11" s="10">
         <v>10.3141</v>
       </c>
-      <c r="AR11" s="13">
+      <c r="AR11" s="9">
         <v>14.692</v>
       </c>
-    </row>
-    <row r="12" spans="1:44">
+      <c r="AS11" s="10"/>
+    </row>
+    <row r="12" spans="1:45">
       <c r="B12" s="2">
         <v>1951.5</v>
       </c>
@@ -1791,11 +1818,12 @@
       <c r="AQ12" s="10">
         <v>10.452299999999999</v>
       </c>
-      <c r="AR12" s="13">
+      <c r="AR12" s="9">
         <v>14.701000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:44">
+      <c r="AS12" s="10"/>
+    </row>
+    <row r="13" spans="1:45">
       <c r="B13" s="2">
         <v>1951.75</v>
       </c>
@@ -1854,11 +1882,12 @@
       <c r="AQ13" s="10">
         <v>10.553900000000001</v>
       </c>
-      <c r="AR13" s="13">
+      <c r="AR13" s="9">
         <v>14.869</v>
       </c>
-    </row>
-    <row r="14" spans="1:44">
+      <c r="AS13" s="10"/>
+    </row>
+    <row r="14" spans="1:45">
       <c r="B14" s="2">
         <v>1952</v>
       </c>
@@ -1917,11 +1946,12 @@
       <c r="AQ14" s="10">
         <v>10.5458</v>
       </c>
-      <c r="AR14" s="13">
+      <c r="AR14" s="9">
         <v>14.863</v>
       </c>
-    </row>
-    <row r="15" spans="1:44">
+      <c r="AS14" s="10"/>
+    </row>
+    <row r="15" spans="1:45">
       <c r="B15" s="2">
         <v>1952.25</v>
       </c>
@@ -1980,11 +2010,12 @@
       <c r="AQ15" s="10">
         <v>11.180999999999999</v>
       </c>
-      <c r="AR15" s="13">
+      <c r="AR15" s="9">
         <v>14.882</v>
       </c>
-    </row>
-    <row r="16" spans="1:44">
+      <c r="AS15" s="10"/>
+    </row>
+    <row r="16" spans="1:45">
       <c r="B16" s="2">
         <v>1952.5</v>
       </c>
@@ -2043,11 +2074,12 @@
       <c r="AQ16" s="10">
         <v>11.7689</v>
       </c>
-      <c r="AR16" s="13">
+      <c r="AR16" s="9">
         <v>15.048</v>
       </c>
-    </row>
-    <row r="17" spans="2:44">
+      <c r="AS16" s="10"/>
+    </row>
+    <row r="17" spans="2:45">
       <c r="B17" s="2">
         <v>1952.75</v>
       </c>
@@ -2106,11 +2138,12 @@
       <c r="AQ17" s="10">
         <v>12.5307</v>
       </c>
-      <c r="AR17" s="13">
+      <c r="AR17" s="9">
         <v>15.090999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:44">
+      <c r="AS17" s="10"/>
+    </row>
+    <row r="18" spans="2:45">
       <c r="B18" s="2">
         <v>1953</v>
       </c>
@@ -2172,11 +2205,12 @@
       <c r="AQ18" s="10">
         <v>13.3978</v>
       </c>
-      <c r="AR18" s="13">
+      <c r="AR18" s="9">
         <v>15.096</v>
       </c>
-    </row>
-    <row r="19" spans="2:44">
+      <c r="AS18" s="10"/>
+    </row>
+    <row r="19" spans="2:45">
       <c r="B19" s="2">
         <v>1953.25</v>
       </c>
@@ -2238,11 +2272,12 @@
       <c r="AQ19" s="10">
         <v>14.0122</v>
       </c>
-      <c r="AR19" s="13">
+      <c r="AR19" s="9">
         <v>15.125</v>
       </c>
-    </row>
-    <row r="20" spans="2:44">
+      <c r="AS19" s="10"/>
+    </row>
+    <row r="20" spans="2:45">
       <c r="B20" s="2">
         <v>1953.5</v>
       </c>
@@ -2304,11 +2339,12 @@
       <c r="AQ20" s="10">
         <v>14.316800000000001</v>
       </c>
-      <c r="AR20" s="13">
+      <c r="AR20" s="9">
         <v>15.188000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:44">
+      <c r="AS20" s="10"/>
+    </row>
+    <row r="21" spans="2:45">
       <c r="B21" s="2">
         <v>1953.75</v>
       </c>
@@ -2370,11 +2406,12 @@
       <c r="AQ21" s="10">
         <v>14.482900000000001</v>
       </c>
-      <c r="AR21" s="13">
+      <c r="AR21" s="9">
         <v>15.218999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:44">
+      <c r="AS21" s="10"/>
+    </row>
+    <row r="22" spans="2:45">
       <c r="B22" s="2">
         <v>1954</v>
       </c>
@@ -2436,11 +2473,12 @@
       <c r="AQ22" s="10">
         <v>14.264200000000001</v>
       </c>
-      <c r="AR22" s="13">
+      <c r="AR22" s="9">
         <v>15.266</v>
       </c>
-    </row>
-    <row r="23" spans="2:44">
+      <c r="AS22" s="10"/>
+    </row>
+    <row r="23" spans="2:45">
       <c r="B23" s="2">
         <v>1954.25</v>
       </c>
@@ -2502,11 +2540,12 @@
       <c r="AQ23" s="10">
         <v>14.2211</v>
       </c>
-      <c r="AR23" s="13">
+      <c r="AR23" s="9">
         <v>15.281000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:44">
+      <c r="AS23" s="10"/>
+    </row>
+    <row r="24" spans="2:45">
       <c r="B24" s="2">
         <v>1954.5</v>
       </c>
@@ -2571,11 +2610,12 @@
       <c r="AQ24" s="10">
         <v>14.441800000000001</v>
       </c>
-      <c r="AR24" s="13">
+      <c r="AR24" s="9">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="25" spans="2:44">
+      <c r="AS24" s="10"/>
+    </row>
+    <row r="25" spans="2:45">
       <c r="B25" s="2">
         <v>1954.75</v>
       </c>
@@ -2640,11 +2680,12 @@
       <c r="AQ25" s="10">
         <v>14.7242</v>
       </c>
-      <c r="AR25" s="13">
+      <c r="AR25" s="9">
         <v>15.343</v>
       </c>
-    </row>
-    <row r="26" spans="2:44">
+      <c r="AS25" s="10"/>
+    </row>
+    <row r="26" spans="2:45">
       <c r="B26" s="2">
         <v>1955</v>
       </c>
@@ -2709,11 +2750,12 @@
       <c r="AQ26" s="10">
         <v>15.181900000000001</v>
       </c>
-      <c r="AR26" s="13">
+      <c r="AR26" s="9">
         <v>15.417</v>
       </c>
-    </row>
-    <row r="27" spans="2:44">
+      <c r="AS26" s="10"/>
+    </row>
+    <row r="27" spans="2:45">
       <c r="B27" s="2">
         <v>1955.25</v>
       </c>
@@ -2778,11 +2820,12 @@
       <c r="AQ27" s="10">
         <v>16.0807</v>
       </c>
-      <c r="AR27" s="13">
+      <c r="AR27" s="9">
         <v>15.481</v>
       </c>
-    </row>
-    <row r="28" spans="2:44">
+      <c r="AS27" s="10"/>
+    </row>
+    <row r="28" spans="2:45">
       <c r="B28" s="2">
         <v>1955.5</v>
       </c>
@@ -2847,11 +2890,12 @@
       <c r="AQ28" s="10">
         <v>16.6159</v>
       </c>
-      <c r="AR28" s="13">
+      <c r="AR28" s="9">
         <v>15.59</v>
       </c>
-    </row>
-    <row r="29" spans="2:44">
+      <c r="AS28" s="10"/>
+    </row>
+    <row r="29" spans="2:45">
       <c r="B29" s="2">
         <v>1955.75</v>
       </c>
@@ -2916,11 +2960,12 @@
       <c r="AQ29" s="10">
         <v>17.087900000000001</v>
       </c>
-      <c r="AR29" s="13">
+      <c r="AR29" s="9">
         <v>15.743</v>
       </c>
-    </row>
-    <row r="30" spans="2:44">
+      <c r="AS29" s="10"/>
+    </row>
+    <row r="30" spans="2:45">
       <c r="B30" s="2">
         <v>1956</v>
       </c>
@@ -2985,11 +3030,12 @@
       <c r="AQ30" s="10">
         <v>17.548300000000001</v>
       </c>
-      <c r="AR30" s="13">
+      <c r="AR30" s="9">
         <v>15.901999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:44">
+      <c r="AS30" s="10"/>
+    </row>
+    <row r="31" spans="2:45">
       <c r="B31" s="2">
         <v>1956.25</v>
       </c>
@@ -3054,11 +3100,12 @@
       <c r="AQ31" s="10">
         <v>18.178999999999998</v>
       </c>
-      <c r="AR31" s="13">
+      <c r="AR31" s="9">
         <v>15.997</v>
       </c>
-    </row>
-    <row r="32" spans="2:44">
+      <c r="AS31" s="10"/>
+    </row>
+    <row r="32" spans="2:45">
       <c r="B32" s="2">
         <v>1956.5</v>
       </c>
@@ -3123,11 +3170,12 @@
       <c r="AQ32" s="10">
         <v>18.429200000000002</v>
       </c>
-      <c r="AR32" s="13">
+      <c r="AR32" s="9">
         <v>16.196999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:44">
+      <c r="AS32" s="10"/>
+    </row>
+    <row r="33" spans="2:45">
       <c r="B33" s="2">
         <v>1956.75</v>
       </c>
@@ -3192,11 +3240,12 @@
       <c r="AQ33" s="10">
         <v>18.867799999999999</v>
       </c>
-      <c r="AR33" s="13">
+      <c r="AR33" s="9">
         <v>16.263999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="2:44">
+      <c r="AS33" s="10"/>
+    </row>
+    <row r="34" spans="2:45">
       <c r="B34" s="2">
         <v>1957</v>
       </c>
@@ -3261,11 +3310,12 @@
       <c r="AQ34" s="10">
         <v>18.9299</v>
       </c>
-      <c r="AR34" s="13">
+      <c r="AR34" s="9">
         <v>16.484999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:44">
+      <c r="AS34" s="10"/>
+    </row>
+    <row r="35" spans="2:45">
       <c r="B35" s="2">
         <v>1957.25</v>
       </c>
@@ -3330,11 +3380,12 @@
       <c r="AQ35" s="10">
         <v>19.288900000000002</v>
       </c>
-      <c r="AR35" s="13">
+      <c r="AR35" s="9">
         <v>16.600999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:44">
+      <c r="AS35" s="10"/>
+    </row>
+    <row r="36" spans="2:45">
       <c r="B36" s="2">
         <v>1957.5</v>
       </c>
@@ -3399,11 +3450,12 @@
       <c r="AQ36" s="10">
         <v>19.766300000000001</v>
       </c>
-      <c r="AR36" s="13">
+      <c r="AR36" s="9">
         <v>16.701000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="2:44">
+      <c r="AS36" s="10"/>
+    </row>
+    <row r="37" spans="2:45">
       <c r="B37" s="2">
         <v>1957.75</v>
       </c>
@@ -3468,11 +3520,12 @@
       <c r="AQ37" s="10">
         <v>19.8127</v>
       </c>
-      <c r="AR37" s="13">
+      <c r="AR37" s="9">
         <v>16.710999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:44">
+      <c r="AS37" s="10"/>
+    </row>
+    <row r="38" spans="2:45">
       <c r="B38" s="2">
         <v>1958</v>
       </c>
@@ -3537,11 +3590,12 @@
       <c r="AQ38" s="10">
         <v>19.893999999999998</v>
       </c>
-      <c r="AR38" s="13">
+      <c r="AR38" s="9">
         <v>16.891999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="2:44">
+      <c r="AS38" s="10"/>
+    </row>
+    <row r="39" spans="2:45">
       <c r="B39" s="2">
         <v>1958.25</v>
       </c>
@@ -3606,11 +3660,12 @@
       <c r="AQ39" s="10">
         <v>19.788</v>
       </c>
-      <c r="AR39" s="13">
+      <c r="AR39" s="9">
         <v>16.940000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="2:44">
+      <c r="AS39" s="10"/>
+    </row>
+    <row r="40" spans="2:45">
       <c r="B40" s="2">
         <v>1958.5</v>
       </c>
@@ -3675,11 +3730,12 @@
       <c r="AQ40" s="10">
         <v>20.104600000000001</v>
       </c>
-      <c r="AR40" s="13">
+      <c r="AR40" s="9">
         <v>17.042999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="2:44">
+      <c r="AS40" s="10"/>
+    </row>
+    <row r="41" spans="2:45">
       <c r="B41" s="2">
         <v>1958.75</v>
       </c>
@@ -3744,11 +3800,12 @@
       <c r="AQ41" s="10">
         <v>20.433</v>
       </c>
-      <c r="AR41" s="13">
+      <c r="AR41" s="9">
         <v>17.123000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="2:44">
+      <c r="AS41" s="10"/>
+    </row>
+    <row r="42" spans="2:45">
       <c r="B42" s="2">
         <v>1959</v>
       </c>
@@ -3813,11 +3870,12 @@
       <c r="AQ42" s="10">
         <v>21.209</v>
       </c>
-      <c r="AR42" s="13">
+      <c r="AR42" s="9">
         <v>17.169</v>
       </c>
-    </row>
-    <row r="43" spans="2:44">
+      <c r="AS42" s="10"/>
+    </row>
+    <row r="43" spans="2:45">
       <c r="B43" s="2">
         <v>1959.25</v>
       </c>
@@ -3882,11 +3940,12 @@
       <c r="AQ43" s="10">
         <v>21.985900000000001</v>
       </c>
-      <c r="AR43" s="13">
+      <c r="AR43" s="9">
         <v>17.193999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:44">
+      <c r="AS43" s="10"/>
+    </row>
+    <row r="44" spans="2:45">
       <c r="B44" s="2">
         <v>1959.5</v>
       </c>
@@ -3951,11 +4010,12 @@
       <c r="AQ44" s="10">
         <v>23.203499999999998</v>
       </c>
-      <c r="AR44" s="13">
+      <c r="AR44" s="9">
         <v>17.257999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="2:44">
+      <c r="AS44" s="10"/>
+    </row>
+    <row r="45" spans="2:45">
       <c r="B45" s="2">
         <v>1959.75</v>
       </c>
@@ -4020,11 +4080,12 @@
       <c r="AQ45" s="10">
         <v>24.066600000000001</v>
       </c>
-      <c r="AR45" s="13">
+      <c r="AR45" s="9">
         <v>17.326000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="2:44">
+      <c r="AS45" s="10"/>
+    </row>
+    <row r="46" spans="2:45">
       <c r="B46" s="2">
         <v>1960</v>
       </c>
@@ -4092,11 +4153,12 @@
       <c r="AQ46" s="10">
         <v>24.6403</v>
       </c>
-      <c r="AR46" s="13">
+      <c r="AR46" s="9">
         <v>17.396999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="2:44">
+      <c r="AS46" s="10"/>
+    </row>
+    <row r="47" spans="2:45">
       <c r="B47" s="2">
         <v>1960.25</v>
       </c>
@@ -4164,11 +4226,12 @@
       <c r="AQ47" s="10">
         <v>25.1264</v>
       </c>
-      <c r="AR47" s="13">
+      <c r="AR47" s="9">
         <v>17.443000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="2:44">
+      <c r="AS47" s="10"/>
+    </row>
+    <row r="48" spans="2:45">
       <c r="B48" s="2">
         <v>1960.5</v>
       </c>
@@ -4236,11 +4299,12 @@
       <c r="AQ48" s="10">
         <v>25.8141</v>
       </c>
-      <c r="AR48" s="13">
+      <c r="AR48" s="9">
         <v>17.506</v>
       </c>
-    </row>
-    <row r="49" spans="2:44">
+      <c r="AS48" s="10"/>
+    </row>
+    <row r="49" spans="2:45">
       <c r="B49" s="2">
         <v>1960.75</v>
       </c>
@@ -4308,11 +4372,12 @@
       <c r="AQ49" s="10">
         <v>26.276199999999999</v>
       </c>
-      <c r="AR49" s="13">
+      <c r="AR49" s="9">
         <v>17.559999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="2:44">
+      <c r="AS49" s="10"/>
+    </row>
+    <row r="50" spans="2:45">
       <c r="B50" s="2">
         <v>1961</v>
       </c>
@@ -4380,11 +4445,12 @@
       <c r="AQ50" s="10">
         <v>27.373200000000001</v>
       </c>
-      <c r="AR50" s="13">
+      <c r="AR50" s="9">
         <v>17.597999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="2:44">
+      <c r="AS50" s="10"/>
+    </row>
+    <row r="51" spans="2:45">
       <c r="B51" s="2">
         <v>1961.25</v>
       </c>
@@ -4452,11 +4518,12 @@
       <c r="AQ51" s="10">
         <v>27.050899999999999</v>
       </c>
-      <c r="AR51" s="13">
+      <c r="AR51" s="9">
         <v>17.640999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="2:44">
+      <c r="AS51" s="10"/>
+    </row>
+    <row r="52" spans="2:45">
       <c r="B52" s="2">
         <v>1961.5</v>
       </c>
@@ -4524,11 +4591,12 @@
       <c r="AQ52" s="10">
         <v>27.202400000000001</v>
       </c>
-      <c r="AR52" s="13">
+      <c r="AR52" s="9">
         <v>17.687000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:44">
+      <c r="AS52" s="10"/>
+    </row>
+    <row r="53" spans="2:45">
       <c r="B53" s="2">
         <v>1961.75</v>
       </c>
@@ -4596,11 +4664,12 @@
       <c r="AQ53" s="10">
         <v>27.611899999999999</v>
       </c>
-      <c r="AR53" s="13">
+      <c r="AR53" s="9">
         <v>17.745000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="2:44">
+      <c r="AS53" s="10"/>
+    </row>
+    <row r="54" spans="2:45">
       <c r="B54" s="2">
         <v>1962</v>
       </c>
@@ -4668,11 +4737,12 @@
       <c r="AQ54" s="10">
         <v>28.308499999999999</v>
       </c>
-      <c r="AR54" s="13">
+      <c r="AR54" s="9">
         <v>17.837</v>
       </c>
-    </row>
-    <row r="55" spans="2:44">
+      <c r="AS54" s="10"/>
+    </row>
+    <row r="55" spans="2:45">
       <c r="B55" s="2">
         <v>1962.25</v>
       </c>
@@ -4740,11 +4810,12 @@
       <c r="AQ55" s="10">
         <v>29.026399999999999</v>
       </c>
-      <c r="AR55" s="13">
+      <c r="AR55" s="9">
         <v>17.866</v>
       </c>
-    </row>
-    <row r="56" spans="2:44">
+      <c r="AS55" s="10"/>
+    </row>
+    <row r="56" spans="2:45">
       <c r="B56" s="2">
         <v>1962.5</v>
       </c>
@@ -4812,11 +4883,12 @@
       <c r="AQ56" s="10">
         <v>29.696999999999999</v>
       </c>
-      <c r="AR56" s="13">
+      <c r="AR56" s="9">
         <v>17.902999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="2:44">
+      <c r="AS56" s="10"/>
+    </row>
+    <row r="57" spans="2:45">
       <c r="B57" s="2">
         <v>1962.75</v>
       </c>
@@ -4884,11 +4956,12 @@
       <c r="AQ57" s="10">
         <v>30.2333</v>
       </c>
-      <c r="AR57" s="13">
+      <c r="AR57" s="9">
         <v>17.937999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="2:44">
+      <c r="AS57" s="10"/>
+    </row>
+    <row r="58" spans="2:45">
       <c r="B58" s="2">
         <v>1963</v>
       </c>
@@ -4956,11 +5029,12 @@
       <c r="AQ58" s="10">
         <v>31.241399999999999</v>
       </c>
-      <c r="AR58" s="13">
+      <c r="AR58" s="9">
         <v>18.016999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="2:44">
+      <c r="AS58" s="10"/>
+    </row>
+    <row r="59" spans="2:45">
       <c r="B59" s="2">
         <v>1963.25</v>
       </c>
@@ -5028,11 +5102,12 @@
       <c r="AQ59" s="10">
         <v>32.115699999999997</v>
       </c>
-      <c r="AR59" s="13">
+      <c r="AR59" s="9">
         <v>18.047000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="2:44">
+      <c r="AS59" s="10"/>
+    </row>
+    <row r="60" spans="2:45">
       <c r="B60" s="2">
         <v>1963.5</v>
       </c>
@@ -5100,11 +5175,12 @@
       <c r="AQ60" s="10">
         <v>32.788400000000003</v>
       </c>
-      <c r="AR60" s="13">
+      <c r="AR60" s="9">
         <v>18.068999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="2:44">
+      <c r="AS60" s="10"/>
+    </row>
+    <row r="61" spans="2:45">
       <c r="B61" s="2">
         <v>1963.75</v>
       </c>
@@ -5172,11 +5248,12 @@
       <c r="AQ61" s="10">
         <v>34.185200000000002</v>
       </c>
-      <c r="AR61" s="13">
+      <c r="AR61" s="9">
         <v>18.216000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="2:44">
+      <c r="AS61" s="10"/>
+    </row>
+    <row r="62" spans="2:45">
       <c r="B62" s="2">
         <v>1964</v>
       </c>
@@ -5244,11 +5321,12 @@
       <c r="AQ62" s="10">
         <v>35.511600000000001</v>
       </c>
-      <c r="AR62" s="13">
+      <c r="AR62" s="9">
         <v>18.274000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:44">
+      <c r="AS62" s="10"/>
+    </row>
+    <row r="63" spans="2:45">
       <c r="B63" s="2">
         <v>1964.25</v>
       </c>
@@ -5316,11 +5394,12 @@
       <c r="AQ63" s="10">
         <v>36.749499999999998</v>
       </c>
-      <c r="AR63" s="13">
+      <c r="AR63" s="9">
         <v>18.318000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="2:44">
+      <c r="AS63" s="10"/>
+    </row>
+    <row r="64" spans="2:45">
       <c r="B64" s="2">
         <v>1964.5</v>
       </c>
@@ -5388,11 +5467,12 @@
       <c r="AQ64" s="10">
         <v>38.361899999999999</v>
       </c>
-      <c r="AR64" s="13">
+      <c r="AR64" s="9">
         <v>18.391999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:44">
+      <c r="AS64" s="10"/>
+    </row>
+    <row r="65" spans="2:45">
       <c r="B65" s="2">
         <v>1964.75</v>
       </c>
@@ -5460,11 +5540,12 @@
       <c r="AQ65" s="10">
         <v>39.506700000000002</v>
       </c>
-      <c r="AR65" s="13">
+      <c r="AR65" s="9">
         <v>18.475999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="2:44">
+      <c r="AS65" s="10"/>
+    </row>
+    <row r="66" spans="2:45">
       <c r="B66" s="2">
         <v>1965</v>
       </c>
@@ -5532,11 +5613,12 @@
       <c r="AQ66" s="10">
         <v>40.684100000000001</v>
       </c>
-      <c r="AR66" s="13">
+      <c r="AR66" s="9">
         <v>18.568999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="2:44">
+      <c r="AS66" s="10"/>
+    </row>
+    <row r="67" spans="2:45">
       <c r="B67" s="2">
         <v>1965.25</v>
       </c>
@@ -5604,11 +5686,12 @@
       <c r="AQ67" s="10">
         <v>42.232500000000002</v>
       </c>
-      <c r="AR67" s="13">
+      <c r="AR67" s="9">
         <v>18.652000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="2:44">
+      <c r="AS67" s="10"/>
+    </row>
+    <row r="68" spans="2:45">
       <c r="B68" s="2">
         <v>1965.5</v>
       </c>
@@ -5676,11 +5759,12 @@
       <c r="AQ68" s="10">
         <v>43.885199999999998</v>
       </c>
-      <c r="AR68" s="13">
+      <c r="AR68" s="9">
         <v>18.725999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="2:44">
+      <c r="AS68" s="10"/>
+    </row>
+    <row r="69" spans="2:45">
       <c r="B69" s="2">
         <v>1965.75</v>
       </c>
@@ -5748,11 +5832,12 @@
       <c r="AQ69" s="10">
         <v>45.022300000000001</v>
       </c>
-      <c r="AR69" s="13">
+      <c r="AR69" s="9">
         <v>18.853000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="2:44">
+      <c r="AS69" s="10"/>
+    </row>
+    <row r="70" spans="2:45">
       <c r="B70" s="2">
         <v>1966</v>
       </c>
@@ -5820,11 +5905,12 @@
       <c r="AQ70" s="10">
         <v>46.203800000000001</v>
       </c>
-      <c r="AR70" s="13">
+      <c r="AR70" s="9">
         <v>18.975000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="2:44">
+      <c r="AS70" s="10"/>
+    </row>
+    <row r="71" spans="2:45">
       <c r="B71" s="2">
         <v>1966.25</v>
       </c>
@@ -5892,11 +5978,12 @@
       <c r="AQ71" s="10">
         <v>47.1738</v>
       </c>
-      <c r="AR71" s="13">
+      <c r="AR71" s="9">
         <v>19.131</v>
       </c>
-    </row>
-    <row r="72" spans="2:44">
+      <c r="AS71" s="10"/>
+    </row>
+    <row r="72" spans="2:45">
       <c r="B72" s="2">
         <v>1966.5</v>
       </c>
@@ -5964,11 +6051,12 @@
       <c r="AQ72" s="10">
         <v>47.598799999999997</v>
       </c>
-      <c r="AR72" s="13">
+      <c r="AR72" s="9">
         <v>19.317</v>
       </c>
-    </row>
-    <row r="73" spans="2:44">
+      <c r="AS72" s="10"/>
+    </row>
+    <row r="73" spans="2:45">
       <c r="B73" s="2">
         <v>1966.75</v>
       </c>
@@ -6036,11 +6124,12 @@
       <c r="AQ73" s="10">
         <v>47.762099999999997</v>
       </c>
-      <c r="AR73" s="13">
+      <c r="AR73" s="9">
         <v>19.481000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="2:44">
+      <c r="AS73" s="10"/>
+    </row>
+    <row r="74" spans="2:45">
       <c r="B74" s="2">
         <v>1967</v>
       </c>
@@ -6108,11 +6197,12 @@
       <c r="AQ74" s="10">
         <v>48.173400000000001</v>
       </c>
-      <c r="AR74" s="13">
+      <c r="AR74" s="9">
         <v>19.562000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="2:44">
+      <c r="AS74" s="10"/>
+    </row>
+    <row r="75" spans="2:45">
       <c r="B75" s="2">
         <v>1967.25</v>
       </c>
@@ -6180,11 +6270,12 @@
       <c r="AQ75" s="10">
         <v>48.9846</v>
       </c>
-      <c r="AR75" s="13">
+      <c r="AR75" s="9">
         <v>19.661000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="2:44">
+      <c r="AS75" s="10"/>
+    </row>
+    <row r="76" spans="2:45">
       <c r="B76" s="2">
         <v>1967.5</v>
       </c>
@@ -6253,11 +6344,12 @@
       <c r="AQ76" s="10">
         <v>50.181100000000001</v>
       </c>
-      <c r="AR76" s="13">
+      <c r="AR76" s="9">
         <v>19.849</v>
       </c>
-    </row>
-    <row r="77" spans="2:44">
+      <c r="AS76" s="10"/>
+    </row>
+    <row r="77" spans="2:45">
       <c r="B77" s="2">
         <v>1967.75</v>
       </c>
@@ -6326,11 +6418,12 @@
       <c r="AQ77" s="10">
         <v>51.191400000000002</v>
       </c>
-      <c r="AR77" s="13">
+      <c r="AR77" s="9">
         <v>20.067</v>
       </c>
-    </row>
-    <row r="78" spans="2:44">
+      <c r="AS77" s="10"/>
+    </row>
+    <row r="78" spans="2:45">
       <c r="B78" s="2">
         <v>1968</v>
       </c>
@@ -6399,11 +6492,12 @@
       <c r="AQ78" s="10">
         <v>52.465000000000003</v>
       </c>
-      <c r="AR78" s="13">
+      <c r="AR78" s="9">
         <v>20.29</v>
       </c>
-    </row>
-    <row r="79" spans="2:44">
+      <c r="AS78" s="10"/>
+    </row>
+    <row r="79" spans="2:45">
       <c r="B79" s="2">
         <v>1968.25</v>
       </c>
@@ -6472,11 +6566,12 @@
       <c r="AQ79" s="10">
         <v>53.870699999999999</v>
       </c>
-      <c r="AR79" s="13">
+      <c r="AR79" s="9">
         <v>20.504000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="2:44">
+      <c r="AS79" s="10"/>
+    </row>
+    <row r="80" spans="2:45">
       <c r="B80" s="2">
         <v>1968.5</v>
       </c>
@@ -6545,11 +6640,12 @@
       <c r="AQ80" s="10">
         <v>55.681399999999996</v>
       </c>
-      <c r="AR80" s="13">
+      <c r="AR80" s="9">
         <v>20.706</v>
       </c>
-    </row>
-    <row r="81" spans="2:44">
+      <c r="AS80" s="10"/>
+    </row>
+    <row r="81" spans="2:45">
       <c r="B81" s="2">
         <v>1968.75</v>
       </c>
@@ -6654,11 +6750,12 @@
       <c r="AQ81" s="10">
         <v>57.679600000000001</v>
       </c>
-      <c r="AR81" s="13">
+      <c r="AR81" s="9">
         <v>20.998999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="2:44">
+      <c r="AS81" s="10"/>
+    </row>
+    <row r="82" spans="2:45">
       <c r="B82" s="2">
         <v>1969</v>
       </c>
@@ -6767,11 +6864,12 @@
       <c r="AQ82" s="10">
         <v>59.380200000000002</v>
       </c>
-      <c r="AR82" s="13">
+      <c r="AR82" s="9">
         <v>21.216999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="2:44">
+      <c r="AS82" s="10"/>
+    </row>
+    <row r="83" spans="2:45">
       <c r="B83" s="2">
         <v>1969.25</v>
       </c>
@@ -6880,11 +6978,12 @@
       <c r="AQ83" s="10">
         <v>60.760300000000001</v>
       </c>
-      <c r="AR83" s="13">
+      <c r="AR83" s="9">
         <v>21.488</v>
       </c>
-    </row>
-    <row r="84" spans="2:44">
+      <c r="AS83" s="10"/>
+    </row>
+    <row r="84" spans="2:45">
       <c r="B84" s="2">
         <v>1969.5</v>
       </c>
@@ -6993,11 +7092,12 @@
       <c r="AQ84" s="10">
         <v>61.671599999999998</v>
       </c>
-      <c r="AR84" s="13">
+      <c r="AR84" s="9">
         <v>21.79</v>
       </c>
-    </row>
-    <row r="85" spans="2:44">
+      <c r="AS84" s="10"/>
+    </row>
+    <row r="85" spans="2:45">
       <c r="B85" s="2">
         <v>1969.75</v>
       </c>
@@ -7105,11 +7205,12 @@
       <c r="AQ85" s="10">
         <v>62.506500000000003</v>
       </c>
-      <c r="AR85" s="13">
+      <c r="AR85" s="9">
         <v>22.071000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="2:44">
+      <c r="AS85" s="10"/>
+    </row>
+    <row r="86" spans="2:45">
       <c r="B86" s="2">
         <v>1970</v>
       </c>
@@ -7219,11 +7320,12 @@
       <c r="AQ86" s="10">
         <v>63.204000000000001</v>
       </c>
-      <c r="AR86" s="13">
+      <c r="AR86" s="9">
         <v>22.382000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="2:44">
+      <c r="AS86" s="10"/>
+    </row>
+    <row r="87" spans="2:45">
       <c r="B87" s="2">
         <v>1970.25</v>
       </c>
@@ -7331,11 +7433,12 @@
       <c r="AQ87" s="10">
         <v>63.401800000000001</v>
       </c>
-      <c r="AR87" s="13">
+      <c r="AR87" s="9">
         <v>22.693999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="2:44">
+      <c r="AS87" s="10"/>
+    </row>
+    <row r="88" spans="2:45">
       <c r="B88" s="2">
         <v>1970.5</v>
       </c>
@@ -7443,11 +7546,12 @@
       <c r="AQ88" s="10">
         <v>64.638300000000001</v>
       </c>
-      <c r="AR88" s="13">
+      <c r="AR88" s="9">
         <v>22.88</v>
       </c>
-    </row>
-    <row r="89" spans="2:44">
+      <c r="AS88" s="10"/>
+    </row>
+    <row r="89" spans="2:45">
       <c r="B89" s="2">
         <v>1970.75</v>
       </c>
@@ -7555,11 +7659,12 @@
       <c r="AQ89" s="10">
         <v>65.207700000000003</v>
       </c>
-      <c r="AR89" s="13">
+      <c r="AR89" s="9">
         <v>23.181999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="2:44">
+      <c r="AS89" s="10"/>
+    </row>
+    <row r="90" spans="2:45">
       <c r="B90" s="2">
         <v>1971</v>
       </c>
@@ -7667,11 +7772,12 @@
       <c r="AQ90" s="10">
         <v>66.540300000000002</v>
       </c>
-      <c r="AR90" s="13">
+      <c r="AR90" s="9">
         <v>23.536000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="2:44">
+      <c r="AS90" s="10"/>
+    </row>
+    <row r="91" spans="2:45">
       <c r="B91" s="2">
         <v>1971.25</v>
       </c>
@@ -7779,11 +7885,12 @@
       <c r="AQ91" s="10">
         <v>68.561599999999999</v>
       </c>
-      <c r="AR91" s="13">
+      <c r="AR91" s="9">
         <v>23.846</v>
       </c>
-    </row>
-    <row r="92" spans="2:44">
+      <c r="AS91" s="10"/>
+    </row>
+    <row r="92" spans="2:45">
       <c r="B92" s="2">
         <v>1971.5</v>
       </c>
@@ -7891,11 +7998,12 @@
       <c r="AQ92" s="10">
         <v>70.795199999999994</v>
       </c>
-      <c r="AR92" s="13">
+      <c r="AR92" s="9">
         <v>24.088000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="2:44">
+      <c r="AS92" s="10"/>
+    </row>
+    <row r="93" spans="2:45">
       <c r="B93" s="2">
         <v>1971.75</v>
       </c>
@@ -8003,11 +8111,12 @@
       <c r="AQ93" s="10">
         <v>73.166899999999998</v>
       </c>
-      <c r="AR93" s="13">
+      <c r="AR93" s="9">
         <v>24.288</v>
       </c>
-    </row>
-    <row r="94" spans="2:44">
+      <c r="AS93" s="10"/>
+    </row>
+    <row r="94" spans="2:45">
       <c r="B94" s="2">
         <v>1972</v>
       </c>
@@ -8115,11 +8224,12 @@
       <c r="AQ94" s="10">
         <v>76.114500000000007</v>
       </c>
-      <c r="AR94" s="13">
+      <c r="AR94" s="9">
         <v>24.664000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="2:44">
+      <c r="AS94" s="10"/>
+    </row>
+    <row r="95" spans="2:45">
       <c r="B95" s="2">
         <v>1972.25</v>
       </c>
@@ -8227,11 +8337,12 @@
       <c r="AQ95" s="10">
         <v>78.954800000000006</v>
       </c>
-      <c r="AR95" s="13">
+      <c r="AR95" s="9">
         <v>24.815000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="2:44">
+      <c r="AS95" s="10"/>
+    </row>
+    <row r="96" spans="2:45">
       <c r="B96" s="2">
         <v>1972.5</v>
       </c>
@@ -8339,11 +8450,12 @@
       <c r="AQ96" s="10">
         <v>82.446899999999999</v>
       </c>
-      <c r="AR96" s="13">
+      <c r="AR96" s="9">
         <v>25.047999999999998</v>
       </c>
-    </row>
-    <row r="97" spans="2:44">
+      <c r="AS96" s="10"/>
+    </row>
+    <row r="97" spans="2:45">
       <c r="B97" s="2">
         <v>1972.75</v>
       </c>
@@ -8451,11 +8563,12 @@
       <c r="AQ97" s="10">
         <v>85.260099999999994</v>
       </c>
-      <c r="AR97" s="13">
+      <c r="AR97" s="9">
         <v>25.366</v>
       </c>
-    </row>
-    <row r="98" spans="2:44">
+      <c r="AS97" s="10"/>
+    </row>
+    <row r="98" spans="2:45">
       <c r="B98" s="2">
         <v>1973</v>
       </c>
@@ -8563,11 +8676,12 @@
       <c r="AQ98" s="10">
         <v>89.855500000000006</v>
       </c>
-      <c r="AR98" s="13">
+      <c r="AR98" s="9">
         <v>25.661000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="2:44">
+      <c r="AS98" s="10"/>
+    </row>
+    <row r="99" spans="2:45">
       <c r="B99" s="2">
         <v>1973.25</v>
       </c>
@@ -8675,11 +8789,12 @@
       <c r="AQ99" s="10">
         <v>93.248599999999996</v>
       </c>
-      <c r="AR99" s="13">
+      <c r="AR99" s="9">
         <v>26.052</v>
       </c>
-    </row>
-    <row r="100" spans="2:44">
+      <c r="AS99" s="10"/>
+    </row>
+    <row r="100" spans="2:45">
       <c r="B100" s="2">
         <v>1973.5</v>
       </c>
@@ -8787,11 +8902,12 @@
       <c r="AQ100" s="10">
         <v>96.007199999999997</v>
       </c>
-      <c r="AR100" s="13">
+      <c r="AR100" s="9">
         <v>26.548999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="2:44">
+      <c r="AS100" s="10"/>
+    </row>
+    <row r="101" spans="2:45">
       <c r="B101" s="2">
         <v>1973.75</v>
       </c>
@@ -8899,11 +9015,12 @@
       <c r="AQ101" s="10">
         <v>98.350700000000003</v>
       </c>
-      <c r="AR101" s="13">
+      <c r="AR101" s="9">
         <v>27.077000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="2:44">
+      <c r="AS101" s="10"/>
+    </row>
+    <row r="102" spans="2:45">
       <c r="B102" s="2">
         <v>1974</v>
       </c>
@@ -9011,11 +9128,12 @@
       <c r="AQ102" s="10">
         <v>100.3</v>
       </c>
-      <c r="AR102" s="13">
+      <c r="AR102" s="9">
         <v>27.591999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="2:44">
+      <c r="AS102" s="10"/>
+    </row>
+    <row r="103" spans="2:45">
       <c r="B103" s="2">
         <v>1974.25</v>
       </c>
@@ -9123,11 +9241,12 @@
       <c r="AQ103" s="10">
         <v>101.80500000000001</v>
       </c>
-      <c r="AR103" s="13">
+      <c r="AR103" s="9">
         <v>28.248000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="2:44">
+      <c r="AS103" s="10"/>
+    </row>
+    <row r="104" spans="2:45">
       <c r="B104" s="2">
         <v>1974.5</v>
       </c>
@@ -9237,11 +9356,12 @@
       <c r="AQ104" s="10">
         <v>102.4773</v>
       </c>
-      <c r="AR104" s="13">
+      <c r="AR104" s="9">
         <v>29.067</v>
       </c>
-    </row>
-    <row r="105" spans="2:44">
+      <c r="AS104" s="10"/>
+    </row>
+    <row r="105" spans="2:45">
       <c r="B105" s="2">
         <v>1974.75</v>
       </c>
@@ -9349,11 +9469,12 @@
       <c r="AQ105" s="10">
         <v>102.1348</v>
       </c>
-      <c r="AR105" s="13">
+      <c r="AR105" s="9">
         <v>29.922999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="2:44">
+      <c r="AS105" s="10"/>
+    </row>
+    <row r="106" spans="2:45">
       <c r="B106" s="2">
         <v>1975</v>
       </c>
@@ -9461,11 +9582,12 @@
       <c r="AQ106" s="10">
         <v>101.89830000000001</v>
       </c>
-      <c r="AR106" s="13">
+      <c r="AR106" s="9">
         <v>30.600999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="2:44">
+      <c r="AS106" s="10"/>
+    </row>
+    <row r="107" spans="2:45">
       <c r="B107" s="2">
         <v>1975.25</v>
       </c>
@@ -9573,11 +9695,12 @@
       <c r="AQ107" s="10">
         <v>101.102</v>
       </c>
-      <c r="AR107" s="13">
+      <c r="AR107" s="9">
         <v>31.059000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="2:44">
+      <c r="AS107" s="10"/>
+    </row>
+    <row r="108" spans="2:45">
       <c r="B108" s="2">
         <v>1975.5</v>
       </c>
@@ -9685,11 +9808,12 @@
       <c r="AQ108" s="10">
         <v>102.182</v>
       </c>
-      <c r="AR108" s="13">
+      <c r="AR108" s="9">
         <v>31.611999999999998</v>
       </c>
-    </row>
-    <row r="109" spans="2:44">
+      <c r="AS108" s="10"/>
+    </row>
+    <row r="109" spans="2:45">
       <c r="B109" s="2">
         <v>1975.75</v>
       </c>
@@ -9797,11 +9921,12 @@
       <c r="AQ109" s="10">
         <v>104.3327</v>
       </c>
-      <c r="AR109" s="13">
+      <c r="AR109" s="9">
         <v>32.139000000000003</v>
       </c>
-    </row>
-    <row r="110" spans="2:44">
+      <c r="AS109" s="10"/>
+    </row>
+    <row r="110" spans="2:45">
       <c r="B110" s="2">
         <v>1976</v>
       </c>
@@ -9909,11 +10034,12 @@
       <c r="AQ110" s="10">
         <v>106.6009</v>
       </c>
-      <c r="AR110" s="13">
+      <c r="AR110" s="9">
         <v>32.472999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="2:44">
+      <c r="AS110" s="10"/>
+    </row>
+    <row r="111" spans="2:45">
       <c r="B111" s="2">
         <v>1976.25</v>
       </c>
@@ -10021,11 +10147,12 @@
       <c r="AQ111" s="10">
         <v>109.554</v>
       </c>
-      <c r="AR111" s="13">
+      <c r="AR111" s="9">
         <v>32.802999999999997</v>
       </c>
-    </row>
-    <row r="112" spans="2:44">
+      <c r="AS111" s="10"/>
+    </row>
+    <row r="112" spans="2:45">
       <c r="B112" s="2">
         <v>1976.5</v>
       </c>
@@ -10133,11 +10260,12 @@
       <c r="AQ112" s="10">
         <v>112.5009</v>
       </c>
-      <c r="AR112" s="13">
+      <c r="AR112" s="9">
         <v>33.225999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="2:44">
+      <c r="AS112" s="10"/>
+    </row>
+    <row r="113" spans="2:45">
       <c r="B113" s="2">
         <v>1976.75</v>
       </c>
@@ -10245,11 +10373,12 @@
       <c r="AQ113" s="10">
         <v>115.8047</v>
       </c>
-      <c r="AR113" s="13">
+      <c r="AR113" s="9">
         <v>33.814999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="2:44">
+      <c r="AS113" s="10"/>
+    </row>
+    <row r="114" spans="2:45">
       <c r="B114" s="2">
         <v>1977</v>
       </c>
@@ -10357,11 +10486,12 @@
       <c r="AQ114" s="10">
         <v>120.785</v>
       </c>
-      <c r="AR114" s="13">
+      <c r="AR114" s="9">
         <v>34.359000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="2:44">
+      <c r="AS114" s="10"/>
+    </row>
+    <row r="115" spans="2:45">
       <c r="B115" s="2">
         <v>1977.25</v>
       </c>
@@ -10469,11 +10599,12 @@
       <c r="AQ115" s="10">
         <v>126.60209999999999</v>
       </c>
-      <c r="AR115" s="13">
+      <c r="AR115" s="9">
         <v>34.841000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="2:44">
+      <c r="AS115" s="10"/>
+    </row>
+    <row r="116" spans="2:45">
       <c r="B116" s="2">
         <v>1977.5</v>
       </c>
@@ -10581,11 +10712,12 @@
       <c r="AQ116" s="10">
         <v>132.11930000000001</v>
       </c>
-      <c r="AR116" s="13">
+      <c r="AR116" s="9">
         <v>35.270000000000003</v>
       </c>
-    </row>
-    <row r="117" spans="2:44">
+      <c r="AS116" s="10"/>
+    </row>
+    <row r="117" spans="2:45">
       <c r="B117" s="2">
         <v>1977.75</v>
       </c>
@@ -10693,11 +10825,12 @@
       <c r="AQ117" s="10">
         <v>138.03030000000001</v>
       </c>
-      <c r="AR117" s="13">
+      <c r="AR117" s="9">
         <v>36.036000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="2:44">
+      <c r="AS117" s="10"/>
+    </row>
+    <row r="118" spans="2:45">
       <c r="B118" s="2">
         <v>1978</v>
       </c>
@@ -10805,11 +10938,12 @@
       <c r="AQ118" s="10">
         <v>143.93430000000001</v>
       </c>
-      <c r="AR118" s="13">
+      <c r="AR118" s="9">
         <v>36.573</v>
       </c>
-    </row>
-    <row r="119" spans="2:44">
+      <c r="AS118" s="10"/>
+    </row>
+    <row r="119" spans="2:45">
       <c r="B119" s="2">
         <v>1978.25</v>
       </c>
@@ -10920,11 +11054,12 @@
       <c r="AQ119" s="10">
         <v>151.83279999999999</v>
       </c>
-      <c r="AR119" s="13">
+      <c r="AR119" s="9">
         <v>37.241999999999997</v>
       </c>
-    </row>
-    <row r="120" spans="2:44">
+      <c r="AS119" s="10"/>
+    </row>
+    <row r="120" spans="2:45">
       <c r="B120" s="2">
         <v>1978.5</v>
       </c>
@@ -11035,11 +11170,12 @@
       <c r="AQ120" s="10">
         <v>159.5009</v>
       </c>
-      <c r="AR120" s="13">
+      <c r="AR120" s="9">
         <v>37.865000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="2:44">
+      <c r="AS120" s="10"/>
+    </row>
+    <row r="121" spans="2:45">
       <c r="B121" s="2">
         <v>1978.75</v>
       </c>
@@ -11150,11 +11286,12 @@
       <c r="AQ121" s="10">
         <v>164.43190000000001</v>
       </c>
-      <c r="AR121" s="13">
+      <c r="AR121" s="9">
         <v>38.661000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="2:44">
+      <c r="AS121" s="10"/>
+    </row>
+    <row r="122" spans="2:45">
       <c r="B122" s="2">
         <v>1979</v>
       </c>
@@ -11265,11 +11402,12 @@
       <c r="AQ122" s="10">
         <v>168.87960000000001</v>
       </c>
-      <c r="AR122" s="13">
+      <c r="AR122" s="9">
         <v>39.351999999999997</v>
       </c>
-    </row>
-    <row r="123" spans="2:44">
+      <c r="AS122" s="10"/>
+    </row>
+    <row r="123" spans="2:45">
       <c r="B123" s="2">
         <v>1979.25</v>
       </c>
@@ -11380,11 +11518,12 @@
       <c r="AQ123" s="10">
         <v>177.119</v>
       </c>
-      <c r="AR123" s="13">
+      <c r="AR123" s="9">
         <v>40.304000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="2:44">
+      <c r="AS123" s="10"/>
+    </row>
+    <row r="124" spans="2:45">
       <c r="B124" s="2">
         <v>1979.5</v>
       </c>
@@ -11495,11 +11634,12 @@
       <c r="AQ124" s="10">
         <v>182.10910000000001</v>
       </c>
-      <c r="AR124" s="13">
+      <c r="AR124" s="9">
         <v>41.164999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="2:44">
+      <c r="AS124" s="10"/>
+    </row>
+    <row r="125" spans="2:45">
       <c r="B125" s="2">
         <v>1979.75</v>
       </c>
@@ -11610,11 +11750,12 @@
       <c r="AQ125" s="10">
         <v>183.78110000000001</v>
       </c>
-      <c r="AR125" s="13">
+      <c r="AR125" s="9">
         <v>41.985999999999997</v>
       </c>
-    </row>
-    <row r="126" spans="2:44">
+      <c r="AS125" s="10"/>
+    </row>
+    <row r="126" spans="2:45">
       <c r="B126" s="2">
         <v>1980</v>
       </c>
@@ -11725,11 +11866,12 @@
       <c r="AQ126" s="10">
         <v>186.4768</v>
       </c>
-      <c r="AR126" s="13">
+      <c r="AR126" s="9">
         <v>42.859000000000002</v>
       </c>
-    </row>
-    <row r="127" spans="2:44">
+      <c r="AS126" s="10"/>
+    </row>
+    <row r="127" spans="2:45">
       <c r="B127" s="2">
         <v>1980.25</v>
       </c>
@@ -11840,11 +11982,12 @@
       <c r="AQ127" s="10">
         <v>179.7834</v>
       </c>
-      <c r="AR127" s="13">
+      <c r="AR127" s="9">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="128" spans="2:44">
+      <c r="AS127" s="10"/>
+    </row>
+    <row r="128" spans="2:45">
       <c r="B128" s="2">
         <v>1980.5</v>
       </c>
@@ -11955,11 +12098,12 @@
       <c r="AQ128" s="10">
         <v>178.4358</v>
       </c>
-      <c r="AR128" s="13">
+      <c r="AR128" s="9">
         <v>44.808</v>
       </c>
-    </row>
-    <row r="129" spans="2:44">
+      <c r="AS128" s="10"/>
+    </row>
+    <row r="129" spans="2:45">
       <c r="B129" s="2">
         <v>1980.75</v>
       </c>
@@ -12070,11 +12214,12 @@
       <c r="AQ129" s="10">
         <v>178.69300000000001</v>
       </c>
-      <c r="AR129" s="13">
+      <c r="AR129" s="9">
         <v>46.045999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="2:44">
+      <c r="AS129" s="10"/>
+    </row>
+    <row r="130" spans="2:45">
       <c r="B130" s="2">
         <v>1981</v>
       </c>
@@ -12185,11 +12330,12 @@
       <c r="AQ130" s="10">
         <v>179.7672</v>
       </c>
-      <c r="AR130" s="13">
+      <c r="AR130" s="9">
         <v>47.195999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="2:44">
+      <c r="AS130" s="10"/>
+    </row>
+    <row r="131" spans="2:45">
       <c r="B131" s="2">
         <v>1981.25</v>
       </c>
@@ -12300,11 +12446,12 @@
       <c r="AQ131" s="10">
         <v>180.9787</v>
       </c>
-      <c r="AR131" s="13">
+      <c r="AR131" s="9">
         <v>48.081000000000003</v>
       </c>
-    </row>
-    <row r="132" spans="2:44">
+      <c r="AS131" s="10"/>
+    </row>
+    <row r="132" spans="2:45">
       <c r="B132" s="2">
         <v>1981.5</v>
       </c>
@@ -12431,11 +12578,12 @@
       <c r="AQ132" s="10">
         <v>182.1541</v>
       </c>
-      <c r="AR132" s="13">
+      <c r="AR132" s="9">
         <v>48.945999999999998</v>
       </c>
-    </row>
-    <row r="133" spans="2:44">
+      <c r="AS132" s="10"/>
+    </row>
+    <row r="133" spans="2:45">
       <c r="B133" s="2">
         <v>1981.75</v>
       </c>
@@ -12562,11 +12710,12 @@
       <c r="AQ133" s="10">
         <v>182.14269999999999</v>
       </c>
-      <c r="AR133" s="13">
+      <c r="AR133" s="9">
         <v>49.863</v>
       </c>
-    </row>
-    <row r="134" spans="2:44">
+      <c r="AS133" s="10"/>
+    </row>
+    <row r="134" spans="2:45">
       <c r="B134" s="2">
         <v>1982</v>
       </c>
@@ -12693,11 +12842,12 @@
       <c r="AQ134" s="10">
         <v>183.22810000000001</v>
       </c>
-      <c r="AR134" s="13">
+      <c r="AR134" s="9">
         <v>50.561</v>
       </c>
-    </row>
-    <row r="135" spans="2:44">
+      <c r="AS134" s="10"/>
+    </row>
+    <row r="135" spans="2:45">
       <c r="B135" s="2">
         <v>1982.25</v>
       </c>
@@ -12824,11 +12974,12 @@
       <c r="AQ135" s="10">
         <v>185.495</v>
       </c>
-      <c r="AR135" s="13">
+      <c r="AR135" s="9">
         <v>51.17</v>
       </c>
-    </row>
-    <row r="136" spans="2:44">
+      <c r="AS135" s="10"/>
+    </row>
+    <row r="136" spans="2:45">
       <c r="B136" s="2">
         <v>1982.5</v>
       </c>
@@ -12955,11 +13106,12 @@
       <c r="AQ136" s="10">
         <v>186.07509999999999</v>
       </c>
-      <c r="AR136" s="13">
+      <c r="AR136" s="9">
         <v>51.906999999999996</v>
       </c>
-    </row>
-    <row r="137" spans="2:44">
+      <c r="AS136" s="10"/>
+    </row>
+    <row r="137" spans="2:45">
       <c r="B137" s="2">
         <v>1982.75</v>
       </c>
@@ -13086,11 +13238,12 @@
       <c r="AQ137" s="10">
         <v>187.85249999999999</v>
       </c>
-      <c r="AR137" s="13">
+      <c r="AR137" s="9">
         <v>52.482999999999997</v>
       </c>
-    </row>
-    <row r="138" spans="2:44">
+      <c r="AS137" s="10"/>
+    </row>
+    <row r="138" spans="2:45">
       <c r="B138" s="2">
         <v>1983</v>
       </c>
@@ -13217,11 +13370,12 @@
       <c r="AQ138" s="10">
         <v>189.25550000000001</v>
       </c>
-      <c r="AR138" s="13">
+      <c r="AR138" s="9">
         <v>52.906999999999996</v>
       </c>
-    </row>
-    <row r="139" spans="2:44">
+      <c r="AS138" s="10"/>
+    </row>
+    <row r="139" spans="2:45">
       <c r="B139" s="2">
         <v>1983.25</v>
       </c>
@@ -13348,11 +13502,12 @@
       <c r="AQ139" s="10">
         <v>193.98670000000001</v>
       </c>
-      <c r="AR139" s="13">
+      <c r="AR139" s="9">
         <v>53.265000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="2:44">
+      <c r="AS139" s="10"/>
+    </row>
+    <row r="140" spans="2:45">
       <c r="B140" s="2">
         <v>1983.5</v>
       </c>
@@ -13479,11 +13634,12 @@
       <c r="AQ140" s="10">
         <v>202.67230000000001</v>
       </c>
-      <c r="AR140" s="13">
+      <c r="AR140" s="9">
         <v>53.823</v>
       </c>
-    </row>
-    <row r="141" spans="2:44">
+      <c r="AS140" s="10"/>
+    </row>
+    <row r="141" spans="2:45">
       <c r="B141" s="2">
         <v>1983.75</v>
       </c>
@@ -13610,11 +13766,12 @@
       <c r="AQ141" s="10">
         <v>212.9273</v>
       </c>
-      <c r="AR141" s="13">
+      <c r="AR141" s="9">
         <v>54.219000000000001</v>
       </c>
-    </row>
-    <row r="142" spans="2:44">
+      <c r="AS141" s="10"/>
+    </row>
+    <row r="142" spans="2:45">
       <c r="B142" s="2">
         <v>1984</v>
       </c>
@@ -13741,11 +13898,12 @@
       <c r="AQ142" s="10">
         <v>221.44470000000001</v>
       </c>
-      <c r="AR142" s="13">
+      <c r="AR142" s="9">
         <v>54.795999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="2:44">
+      <c r="AS142" s="10"/>
+    </row>
+    <row r="143" spans="2:45">
       <c r="B143" s="2">
         <v>1984.25</v>
       </c>
@@ -13872,11 +14030,12 @@
       <c r="AQ143" s="10">
         <v>233.41390000000001</v>
       </c>
-      <c r="AR143" s="13">
+      <c r="AR143" s="9">
         <v>55.256999999999998</v>
       </c>
-    </row>
-    <row r="144" spans="2:44">
+      <c r="AS143" s="10"/>
+    </row>
+    <row r="144" spans="2:45">
       <c r="B144" s="2">
         <v>1984.5</v>
       </c>
@@ -14003,11 +14162,12 @@
       <c r="AQ144" s="10">
         <v>242.62020000000001</v>
       </c>
-      <c r="AR144" s="13">
+      <c r="AR144" s="9">
         <v>55.704999999999998</v>
       </c>
-    </row>
-    <row r="145" spans="2:44">
+      <c r="AS144" s="10"/>
+    </row>
+    <row r="145" spans="2:45">
       <c r="B145" s="2">
         <v>1984.75</v>
       </c>
@@ -14134,11 +14294,12 @@
       <c r="AQ145" s="10">
         <v>253.83070000000001</v>
       </c>
-      <c r="AR145" s="13">
+      <c r="AR145" s="9">
         <v>56.079000000000001</v>
       </c>
-    </row>
-    <row r="146" spans="2:44">
+      <c r="AS145" s="10"/>
+    </row>
+    <row r="146" spans="2:45">
       <c r="B146" s="2">
         <v>1985</v>
       </c>
@@ -14265,11 +14426,12 @@
       <c r="AQ146" s="10">
         <v>265.6662</v>
       </c>
-      <c r="AR146" s="13">
+      <c r="AR146" s="9">
         <v>56.723999999999997</v>
       </c>
-    </row>
-    <row r="147" spans="2:44">
+      <c r="AS146" s="10"/>
+    </row>
+    <row r="147" spans="2:45">
       <c r="B147" s="2">
         <v>1985.25</v>
       </c>
@@ -14396,11 +14558,12 @@
       <c r="AQ147" s="10">
         <v>274.15019999999998</v>
       </c>
-      <c r="AR147" s="13">
+      <c r="AR147" s="9">
         <v>57.075000000000003</v>
       </c>
-    </row>
-    <row r="148" spans="2:44">
+      <c r="AS147" s="10"/>
+    </row>
+    <row r="148" spans="2:45">
       <c r="B148" s="2">
         <v>1985.5</v>
       </c>
@@ -14527,11 +14690,12 @@
       <c r="AQ148" s="10">
         <v>283.94850000000002</v>
       </c>
-      <c r="AR148" s="13">
+      <c r="AR148" s="9">
         <v>57.405999999999999</v>
       </c>
-    </row>
-    <row r="149" spans="2:44">
+      <c r="AS148" s="10"/>
+    </row>
+    <row r="149" spans="2:45">
       <c r="B149" s="2">
         <v>1985.75</v>
       </c>
@@ -14658,11 +14822,12 @@
       <c r="AQ149" s="10">
         <v>291.07260000000002</v>
       </c>
-      <c r="AR149" s="13">
+      <c r="AR149" s="9">
         <v>57.738</v>
       </c>
-    </row>
-    <row r="150" spans="2:44">
+      <c r="AS149" s="10"/>
+    </row>
+    <row r="150" spans="2:45">
       <c r="B150" s="2">
         <v>1986</v>
       </c>
@@ -14789,11 +14954,12 @@
       <c r="AQ150" s="10">
         <v>296.55</v>
       </c>
-      <c r="AR150" s="13">
+      <c r="AR150" s="9">
         <v>58.02</v>
       </c>
-    </row>
-    <row r="151" spans="2:44">
+      <c r="AS150" s="10"/>
+    </row>
+    <row r="151" spans="2:45">
       <c r="B151" s="2">
         <v>1986.25</v>
       </c>
@@ -14920,11 +15086,12 @@
       <c r="AQ151" s="10">
         <v>302.21530000000001</v>
       </c>
-      <c r="AR151" s="13">
+      <c r="AR151" s="9">
         <v>58.252000000000002</v>
       </c>
-    </row>
-    <row r="152" spans="2:44">
+      <c r="AS151" s="10"/>
+    </row>
+    <row r="152" spans="2:45">
       <c r="B152" s="2">
         <v>1986.5</v>
       </c>
@@ -15051,11 +15218,12 @@
       <c r="AQ152" s="10">
         <v>309.44760000000002</v>
       </c>
-      <c r="AR152" s="13">
+      <c r="AR152" s="9">
         <v>58.487000000000002</v>
       </c>
-    </row>
-    <row r="153" spans="2:44">
+      <c r="AS152" s="10"/>
+    </row>
+    <row r="153" spans="2:45">
       <c r="B153" s="2">
         <v>1986.75</v>
       </c>
@@ -15182,11 +15350,12 @@
       <c r="AQ153" s="10">
         <v>314.74419999999998</v>
       </c>
-      <c r="AR153" s="13">
+      <c r="AR153" s="9">
         <v>58.813000000000002</v>
       </c>
-    </row>
-    <row r="154" spans="2:44">
+      <c r="AS153" s="10"/>
+    </row>
+    <row r="154" spans="2:45">
       <c r="B154" s="2">
         <v>1987</v>
       </c>
@@ -15313,11 +15482,12 @@
       <c r="AQ154" s="10">
         <v>316.31790000000001</v>
       </c>
-      <c r="AR154" s="13">
+      <c r="AR154" s="9">
         <v>59.24</v>
       </c>
-    </row>
-    <row r="155" spans="2:44">
+      <c r="AS154" s="10"/>
+    </row>
+    <row r="155" spans="2:45">
       <c r="B155" s="2">
         <v>1987.25</v>
       </c>
@@ -15444,11 +15614,12 @@
       <c r="AQ155" s="10">
         <v>315.46100000000001</v>
       </c>
-      <c r="AR155" s="13">
+      <c r="AR155" s="9">
         <v>59.637</v>
       </c>
-    </row>
-    <row r="156" spans="2:44">
+      <c r="AS155" s="10"/>
+    </row>
+    <row r="156" spans="2:45">
       <c r="B156" s="2">
         <v>1987.5</v>
       </c>
@@ -15575,11 +15746,12 @@
       <c r="AQ156" s="10">
         <v>321.89010000000002</v>
       </c>
-      <c r="AR156" s="13">
+      <c r="AR156" s="9">
         <v>60.07</v>
       </c>
-    </row>
-    <row r="157" spans="2:44">
+      <c r="AS156" s="10"/>
+    </row>
+    <row r="157" spans="2:45">
       <c r="B157" s="2">
         <v>1987.75</v>
       </c>
@@ -15706,11 +15878,12 @@
       <c r="AQ157" s="10">
         <v>326.86540000000002</v>
       </c>
-      <c r="AR157" s="13">
+      <c r="AR157" s="9">
         <v>60.567</v>
       </c>
-    </row>
-    <row r="158" spans="2:44">
+      <c r="AS157" s="10"/>
+    </row>
+    <row r="158" spans="2:45">
       <c r="B158" s="2">
         <v>1988</v>
       </c>
@@ -15837,11 +16010,12 @@
       <c r="AQ158" s="10">
         <v>336.31889999999999</v>
       </c>
-      <c r="AR158" s="13">
+      <c r="AR158" s="9">
         <v>61.042999999999999</v>
       </c>
-    </row>
-    <row r="159" spans="2:44">
+      <c r="AS158" s="10"/>
+    </row>
+    <row r="159" spans="2:45">
       <c r="B159" s="2">
         <v>1988.25</v>
       </c>
@@ -15968,11 +16142,12 @@
       <c r="AQ159" s="10">
         <v>343.35419999999999</v>
       </c>
-      <c r="AR159" s="13">
+      <c r="AR159" s="9">
         <v>61.633000000000003</v>
       </c>
-    </row>
-    <row r="160" spans="2:44">
+      <c r="AS159" s="10"/>
+    </row>
+    <row r="160" spans="2:45">
       <c r="B160" s="2">
         <v>1988.5</v>
       </c>
@@ -16099,11 +16274,12 @@
       <c r="AQ160" s="10">
         <v>348.88909999999998</v>
       </c>
-      <c r="AR160" s="13">
+      <c r="AR160" s="9">
         <v>62.359000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="2:44">
+      <c r="AS160" s="10"/>
+    </row>
+    <row r="161" spans="2:45">
       <c r="B161" s="2">
         <v>1988.75</v>
       </c>
@@ -16230,11 +16406,12 @@
       <c r="AQ161" s="10">
         <v>355.28629999999998</v>
       </c>
-      <c r="AR161" s="13">
+      <c r="AR161" s="9">
         <v>62.859000000000002</v>
       </c>
-    </row>
-    <row r="162" spans="2:44">
+      <c r="AS161" s="10"/>
+    </row>
+    <row r="162" spans="2:45">
       <c r="B162" s="2">
         <v>1989</v>
       </c>
@@ -16361,11 +16538,12 @@
       <c r="AQ162" s="10">
         <v>359.1454</v>
       </c>
-      <c r="AR162" s="13">
+      <c r="AR162" s="9">
         <v>63.55</v>
       </c>
-    </row>
-    <row r="163" spans="2:44">
+      <c r="AS162" s="10"/>
+    </row>
+    <row r="163" spans="2:45">
       <c r="B163" s="2">
         <v>1989.25</v>
       </c>
@@ -16492,11 +16670,12 @@
       <c r="AQ163" s="10">
         <v>363.3048</v>
       </c>
-      <c r="AR163" s="13">
+      <c r="AR163" s="9">
         <v>64.206999999999994</v>
       </c>
-    </row>
-    <row r="164" spans="2:44">
+      <c r="AS163" s="10"/>
+    </row>
+    <row r="164" spans="2:45">
       <c r="B164" s="2">
         <v>1989.5</v>
       </c>
@@ -16623,11 +16802,12 @@
       <c r="AQ164" s="10">
         <v>368.61329999999998</v>
       </c>
-      <c r="AR164" s="13">
+      <c r="AR164" s="9">
         <v>64.671999999999997</v>
       </c>
-    </row>
-    <row r="165" spans="2:44">
+      <c r="AS164" s="10"/>
+    </row>
+    <row r="165" spans="2:45">
       <c r="B165" s="2">
         <v>1989.75</v>
       </c>
@@ -16754,11 +16934,12 @@
       <c r="AQ165" s="10">
         <v>373.95240000000001</v>
       </c>
-      <c r="AR165" s="13">
+      <c r="AR165" s="9">
         <v>65.122</v>
       </c>
-    </row>
-    <row r="166" spans="2:44">
+      <c r="AS165" s="10"/>
+    </row>
+    <row r="166" spans="2:45">
       <c r="B166" s="2">
         <v>1990</v>
       </c>
@@ -16885,11 +17066,14 @@
       <c r="AQ166" s="10">
         <v>375.76089999999999</v>
       </c>
-      <c r="AR166" s="13">
+      <c r="AR166" s="9">
         <v>65.840999999999994</v>
       </c>
-    </row>
-    <row r="167" spans="2:44">
+      <c r="AS166" s="10">
+        <v>22.174603174603174</v>
+      </c>
+    </row>
+    <row r="167" spans="2:45">
       <c r="B167" s="2">
         <v>1990.25</v>
       </c>
@@ -17016,11 +17200,14 @@
       <c r="AQ167" s="10">
         <v>375.25</v>
       </c>
-      <c r="AR167" s="13">
+      <c r="AR167" s="9">
         <v>66.52</v>
       </c>
-    </row>
-    <row r="168" spans="2:44">
+      <c r="AS167" s="10">
+        <v>18.722063492063491</v>
+      </c>
+    </row>
+    <row r="168" spans="2:45">
       <c r="B168" s="2">
         <v>1990.5</v>
       </c>
@@ -17147,11 +17334,14 @@
       <c r="AQ168" s="10">
         <v>373.77190000000002</v>
       </c>
-      <c r="AR168" s="13">
+      <c r="AR168" s="9">
         <v>67.114000000000004</v>
       </c>
-    </row>
-    <row r="169" spans="2:44">
+      <c r="AS168" s="10">
+        <v>25.195555555555554</v>
+      </c>
+    </row>
+    <row r="169" spans="2:45">
       <c r="B169" s="2">
         <v>1990.75</v>
       </c>
@@ -17278,11 +17468,14 @@
       <c r="AQ169" s="10">
         <v>375.96319999999997</v>
       </c>
-      <c r="AR169" s="13">
+      <c r="AR169" s="9">
         <v>67.622</v>
       </c>
-    </row>
-    <row r="170" spans="2:44">
+      <c r="AS169" s="10">
+        <v>26.11328125</v>
+      </c>
+    </row>
+    <row r="170" spans="2:45">
       <c r="B170" s="2">
         <v>1991</v>
       </c>
@@ -17409,11 +17602,14 @@
       <c r="AQ170" s="10">
         <v>371.65870000000001</v>
       </c>
-      <c r="AR170" s="13">
+      <c r="AR170" s="9">
         <v>68.296000000000006</v>
       </c>
-    </row>
-    <row r="171" spans="2:44">
+      <c r="AS170" s="10">
+        <v>22.515833333333333</v>
+      </c>
+    </row>
+    <row r="171" spans="2:45">
       <c r="B171" s="2">
         <v>1991.25</v>
       </c>
@@ -17540,11 +17736,14 @@
       <c r="AQ171" s="10">
         <v>368.88659999999999</v>
       </c>
-      <c r="AR171" s="13">
+      <c r="AR171" s="9">
         <v>68.763999999999996</v>
       </c>
-    </row>
-    <row r="172" spans="2:44">
+      <c r="AS171" s="10">
+        <v>17.147031250000001</v>
+      </c>
+    </row>
+    <row r="172" spans="2:45">
       <c r="B172" s="2">
         <v>1991.5</v>
       </c>
@@ -17671,11 +17870,14 @@
       <c r="AQ172" s="10">
         <v>364.42619999999999</v>
       </c>
-      <c r="AR172" s="13">
+      <c r="AR172" s="9">
         <v>69.269000000000005</v>
       </c>
-    </row>
-    <row r="173" spans="2:44">
+      <c r="AS172" s="10">
+        <v>16.634218749999999</v>
+      </c>
+    </row>
+    <row r="173" spans="2:45">
       <c r="B173" s="2">
         <v>1991.75</v>
       </c>
@@ -17802,11 +18004,14 @@
       <c r="AQ173" s="10">
         <v>363.12150000000003</v>
       </c>
-      <c r="AR173" s="13">
+      <c r="AR173" s="9">
         <v>69.643000000000001</v>
       </c>
-    </row>
-    <row r="174" spans="2:44">
+      <c r="AS173" s="10">
+        <v>17.455312500000002</v>
+      </c>
+    </row>
+    <row r="174" spans="2:45">
       <c r="B174" s="2">
         <v>1992</v>
       </c>
@@ -17933,11 +18138,14 @@
       <c r="AQ174" s="10">
         <v>359.88619999999997</v>
       </c>
-      <c r="AR174" s="13">
+      <c r="AR174" s="9">
         <v>69.941999999999993</v>
       </c>
-    </row>
-    <row r="175" spans="2:44">
+      <c r="AS174" s="10">
+        <v>17.564285714285713</v>
+      </c>
+    </row>
+    <row r="175" spans="2:45">
       <c r="B175" s="2">
         <v>1992.25</v>
       </c>
@@ -18064,11 +18272,14 @@
       <c r="AQ175" s="10">
         <v>357.1078</v>
       </c>
-      <c r="AR175" s="13">
+      <c r="AR175" s="9">
         <v>70.388000000000005</v>
       </c>
-    </row>
-    <row r="176" spans="2:44">
+      <c r="AS175" s="10">
+        <v>15.616349206349206</v>
+      </c>
+    </row>
+    <row r="176" spans="2:45">
       <c r="B176" s="2">
         <v>1992.5</v>
       </c>
@@ -18195,11 +18406,14 @@
       <c r="AQ176" s="10">
         <v>354.30309999999997</v>
       </c>
-      <c r="AR176" s="13">
+      <c r="AR176" s="9">
         <v>70.722999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="2:44">
+      <c r="AS176" s="10">
+        <v>13.90203125</v>
+      </c>
+    </row>
+    <row r="177" spans="2:45">
       <c r="B177" s="2">
         <v>1992.75</v>
       </c>
@@ -18326,11 +18540,14 @@
       <c r="AQ177" s="10">
         <v>354.11739999999998</v>
       </c>
-      <c r="AR177" s="13">
+      <c r="AR177" s="9">
         <v>71.200999999999993</v>
       </c>
-    </row>
-    <row r="178" spans="2:44">
+      <c r="AS177" s="10">
+        <v>14.761093750000001</v>
+      </c>
+    </row>
+    <row r="178" spans="2:45">
       <c r="B178" s="2">
         <v>1993</v>
       </c>
@@ -18457,11 +18674,14 @@
       <c r="AQ178" s="10">
         <v>358.95589999999999</v>
       </c>
-      <c r="AR178" s="13">
+      <c r="AR178" s="9">
         <v>71.605999999999995</v>
       </c>
-    </row>
-    <row r="179" spans="2:44">
+      <c r="AS178" s="10">
+        <v>13.255322580645162</v>
+      </c>
+    </row>
+    <row r="179" spans="2:45">
       <c r="B179" s="2">
         <v>1993.25</v>
       </c>
@@ -18588,11 +18808,14 @@
       <c r="AQ179" s="10">
         <v>365.19220000000001</v>
       </c>
-      <c r="AR179" s="13">
+      <c r="AR179" s="9">
         <v>72.040999999999997</v>
       </c>
-    </row>
-    <row r="180" spans="2:44">
+      <c r="AS179" s="10">
+        <v>12.973174603174604</v>
+      </c>
+    </row>
+    <row r="180" spans="2:45">
       <c r="B180" s="2">
         <v>1993.5</v>
       </c>
@@ -18719,11 +18942,14 @@
       <c r="AQ180" s="10">
         <v>373.05669999999998</v>
       </c>
-      <c r="AR180" s="13">
+      <c r="AR180" s="9">
         <v>72.474999999999994</v>
       </c>
-    </row>
-    <row r="181" spans="2:44">
+      <c r="AS180" s="10">
+        <v>12.1171875</v>
+      </c>
+    </row>
+    <row r="181" spans="2:45">
       <c r="B181" s="2">
         <v>1993.75</v>
       </c>
@@ -18850,11 +19076,14 @@
       <c r="AQ181" s="10">
         <v>385.19929999999999</v>
       </c>
-      <c r="AR181" s="13">
+      <c r="AR181" s="9">
         <v>72.852999999999994</v>
       </c>
-    </row>
-    <row r="182" spans="2:44">
+      <c r="AS181" s="10">
+        <v>12.4215625</v>
+      </c>
+    </row>
+    <row r="182" spans="2:45">
       <c r="B182" s="2">
         <v>1994</v>
       </c>
@@ -18981,11 +19210,14 @@
       <c r="AQ182" s="10">
         <v>393.57900000000001</v>
       </c>
-      <c r="AR182" s="13">
+      <c r="AR182" s="9">
         <v>73.206000000000003</v>
       </c>
-    </row>
-    <row r="183" spans="2:44">
+      <c r="AS182" s="10">
+        <v>13.436190476190475</v>
+      </c>
+    </row>
+    <row r="183" spans="2:45">
       <c r="B183" s="2">
         <v>1994.25</v>
       </c>
@@ -19112,11 +19344,14 @@
       <c r="AQ183" s="10">
         <v>406.93110000000001</v>
       </c>
-      <c r="AR183" s="13">
+      <c r="AR183" s="9">
         <v>73.570999999999998</v>
       </c>
-    </row>
-    <row r="184" spans="2:44">
+      <c r="AS183" s="10">
+        <v>14.51258064516129</v>
+      </c>
+    </row>
+    <row r="184" spans="2:45">
       <c r="B184" s="2">
         <v>1994.5</v>
       </c>
@@ -19243,11 +19478,14 @@
       <c r="AQ184" s="10">
         <v>425.6746</v>
       </c>
-      <c r="AR184" s="13">
+      <c r="AR184" s="9">
         <v>73.968999999999994</v>
       </c>
-    </row>
-    <row r="185" spans="2:44">
+      <c r="AS184" s="10">
+        <v>12.516249999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="2:45">
       <c r="B185" s="2">
         <v>1994.75</v>
       </c>
@@ -19374,11 +19612,14 @@
       <c r="AQ185" s="10">
         <v>443.20280000000002</v>
       </c>
-      <c r="AR185" s="13">
+      <c r="AR185" s="9">
         <v>74.376000000000005</v>
       </c>
-    </row>
-    <row r="186" spans="2:44">
+      <c r="AS185" s="10">
+        <v>15.268730158730159</v>
+      </c>
+    </row>
+    <row r="186" spans="2:45">
       <c r="B186" s="2">
         <v>1995</v>
       </c>
@@ -19505,11 +19746,14 @@
       <c r="AQ186" s="10">
         <v>451.39640000000003</v>
       </c>
-      <c r="AR186" s="13">
+      <c r="AR186" s="9">
         <v>74.802999999999997</v>
       </c>
-    </row>
-    <row r="187" spans="2:44">
+      <c r="AS186" s="10">
+        <v>11.992380952380952</v>
+      </c>
+    </row>
+    <row r="187" spans="2:45">
       <c r="B187" s="2">
         <v>1995.25</v>
       </c>
@@ -19636,11 +19880,14 @@
       <c r="AQ187" s="10">
         <v>464.16269999999997</v>
       </c>
-      <c r="AR187" s="13">
+      <c r="AR187" s="9">
         <v>75.132000000000005</v>
       </c>
-    </row>
-    <row r="188" spans="2:44">
+      <c r="AS187" s="10">
+        <v>12.190317460317461</v>
+      </c>
+    </row>
+    <row r="188" spans="2:45">
       <c r="B188" s="2">
         <v>1995.5</v>
       </c>
@@ -19767,11 +20014,14 @@
       <c r="AQ188" s="10">
         <v>475.39690000000002</v>
       </c>
-      <c r="AR188" s="13">
+      <c r="AR188" s="9">
         <v>75.489000000000004</v>
       </c>
-    </row>
-    <row r="189" spans="2:44">
+      <c r="AS188" s="10">
+        <v>12.472698412698414</v>
+      </c>
+    </row>
+    <row r="189" spans="2:45">
       <c r="B189" s="2">
         <v>1995.75</v>
       </c>
@@ -19898,11 +20148,14 @@
       <c r="AQ189" s="10">
         <v>482.89409999999998</v>
       </c>
-      <c r="AR189" s="13">
+      <c r="AR189" s="9">
         <v>75.861000000000004</v>
       </c>
-    </row>
-    <row r="190" spans="2:44">
+      <c r="AS189" s="10">
+        <v>12.899682539682539</v>
+      </c>
+    </row>
+    <row r="190" spans="2:45">
       <c r="B190" s="2">
         <v>1996</v>
       </c>
@@ -20029,11 +20282,14 @@
       <c r="AQ190" s="10">
         <v>486.74869999999999</v>
       </c>
-      <c r="AR190" s="13">
+      <c r="AR190" s="9">
         <v>76.272000000000006</v>
       </c>
-    </row>
-    <row r="191" spans="2:44">
+      <c r="AS190" s="10">
+        <v>15.398253968253968</v>
+      </c>
+    </row>
+    <row r="191" spans="2:45">
       <c r="B191" s="2">
         <v>1996.25</v>
       </c>
@@ -20160,11 +20416,14 @@
       <c r="AQ191" s="10">
         <v>492.67079999999999</v>
       </c>
-      <c r="AR191" s="13">
+      <c r="AR191" s="9">
         <v>76.561999999999998</v>
       </c>
-    </row>
-    <row r="192" spans="2:44">
+      <c r="AS191" s="10">
+        <v>16.368253968253967</v>
+      </c>
+    </row>
+    <row r="192" spans="2:45">
       <c r="B192" s="2">
         <v>1996.5</v>
       </c>
@@ -20291,11 +20550,14 @@
       <c r="AQ192" s="10">
         <v>499.7715</v>
       </c>
-      <c r="AR192" s="13">
+      <c r="AR192" s="9">
         <v>76.778000000000006</v>
       </c>
-    </row>
-    <row r="193" spans="2:44">
+      <c r="AS192" s="10">
+        <v>16.778437499999999</v>
+      </c>
+    </row>
+    <row r="193" spans="2:45">
       <c r="B193" s="2">
         <v>1996.75</v>
       </c>
@@ -20422,11 +20684,14 @@
       <c r="AQ193" s="10">
         <v>508.96539999999999</v>
       </c>
-      <c r="AR193" s="13">
+      <c r="AR193" s="9">
         <v>77.168000000000006</v>
       </c>
-    </row>
-    <row r="194" spans="2:44">
+      <c r="AS193" s="10">
+        <v>17.206250000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:45">
       <c r="B194" s="2">
         <v>1997</v>
       </c>
@@ -20553,11 +20818,14 @@
       <c r="AQ194" s="10">
         <v>504.56920000000002</v>
       </c>
-      <c r="AR194" s="13">
+      <c r="AR194" s="9">
         <v>77.647000000000006</v>
       </c>
-    </row>
-    <row r="195" spans="2:44">
+      <c r="AS194" s="10">
+        <v>19.916499999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="2:45">
       <c r="B195" s="2">
         <v>1997.25</v>
       </c>
@@ -20684,11 +20952,14 @@
       <c r="AQ195" s="10">
         <v>511.54910000000001</v>
       </c>
-      <c r="AR195" s="13">
+      <c r="AR195" s="9">
         <v>77.856999999999999</v>
       </c>
-    </row>
-    <row r="196" spans="2:44">
+      <c r="AS195" s="10">
+        <v>19.922968749999999</v>
+      </c>
+    </row>
+    <row r="196" spans="2:45">
       <c r="B196" s="2">
         <v>1997.5</v>
       </c>
@@ -20815,11 +21086,14 @@
       <c r="AQ196" s="10">
         <v>507.04239999999999</v>
       </c>
-      <c r="AR196" s="13">
+      <c r="AR196" s="9">
         <v>78.135000000000005</v>
       </c>
-    </row>
-    <row r="197" spans="2:44">
+      <c r="AS196" s="10">
+        <v>22.445</v>
+      </c>
+    </row>
+    <row r="197" spans="2:45">
       <c r="B197" s="2">
         <v>1997.75</v>
       </c>
@@ -20946,11 +21220,14 @@
       <c r="AQ197" s="10">
         <v>501.30720000000002</v>
       </c>
-      <c r="AR197" s="13">
+      <c r="AR197" s="9">
         <v>78.394999999999996</v>
       </c>
-    </row>
-    <row r="198" spans="2:44">
+      <c r="AS197" s="10">
+        <v>27.092380952380953</v>
+      </c>
+    </row>
+    <row r="198" spans="2:45">
       <c r="B198" s="2">
         <v>1998</v>
       </c>
@@ -21077,11 +21354,14 @@
       <c r="AQ198" s="10">
         <v>491.63810000000001</v>
       </c>
-      <c r="AR198" s="13">
+      <c r="AR198" s="9">
         <v>78.522999999999996</v>
       </c>
-    </row>
-    <row r="199" spans="2:44">
+      <c r="AS198" s="10">
+        <v>21.324590163934428</v>
+      </c>
+    </row>
+    <row r="199" spans="2:45">
       <c r="B199" s="2">
         <v>1998.25</v>
       </c>
@@ -21208,11 +21488,14 @@
       <c r="AQ199" s="10">
         <v>493.85579999999999</v>
       </c>
-      <c r="AR199" s="13">
+      <c r="AR199" s="9">
         <v>78.686999999999998</v>
       </c>
-    </row>
-    <row r="200" spans="2:44">
+      <c r="AS199" s="10">
+        <v>21.534285714285716</v>
+      </c>
+    </row>
+    <row r="200" spans="2:45">
       <c r="B200" s="2">
         <v>1998.5</v>
       </c>
@@ -21339,11 +21622,14 @@
       <c r="AQ200" s="10">
         <v>491.46510000000001</v>
       </c>
-      <c r="AR200" s="13">
+      <c r="AR200" s="9">
         <v>78.980999999999995</v>
       </c>
-    </row>
-    <row r="201" spans="2:44">
+      <c r="AS200" s="10">
+        <v>29.751718749999998</v>
+      </c>
+    </row>
+    <row r="201" spans="2:45">
       <c r="B201" s="2">
         <v>1998.75</v>
       </c>
@@ -21470,11 +21756,14 @@
       <c r="AQ201" s="10">
         <v>497.77089999999998</v>
       </c>
-      <c r="AR201" s="13">
+      <c r="AR201" s="9">
         <v>79.227999999999994</v>
       </c>
-    </row>
-    <row r="202" spans="2:44">
+      <c r="AS201" s="10">
+        <v>29.537187500000002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:45">
       <c r="B202" s="2">
         <v>1999</v>
       </c>
@@ -21601,11 +21890,14 @@
       <c r="AQ202" s="10">
         <v>493.9966</v>
       </c>
-      <c r="AR202" s="13">
+      <c r="AR202" s="9">
         <v>79.623999999999995</v>
       </c>
-    </row>
-    <row r="203" spans="2:44">
+      <c r="AS202" s="10">
+        <v>27.2527868852459</v>
+      </c>
+    </row>
+    <row r="203" spans="2:45">
       <c r="B203" s="2">
         <v>1999.25</v>
       </c>
@@ -21732,11 +22024,14 @@
       <c r="AQ203" s="10">
         <v>495.2491</v>
       </c>
-      <c r="AR203" s="13">
+      <c r="AR203" s="9">
         <v>79.891000000000005</v>
       </c>
-    </row>
-    <row r="204" spans="2:44">
+      <c r="AS203" s="10">
+        <v>24.395555555555557</v>
+      </c>
+    </row>
+    <row r="204" spans="2:45">
       <c r="B204" s="2">
         <v>1999.5</v>
       </c>
@@ -21863,11 +22158,14 @@
       <c r="AQ204" s="10">
         <v>493.73739999999998</v>
       </c>
-      <c r="AR204" s="13">
+      <c r="AR204" s="9">
         <v>80.180000000000007</v>
       </c>
-    </row>
-    <row r="205" spans="2:44">
+      <c r="AS204" s="10">
+        <v>23.320625</v>
+      </c>
+    </row>
+    <row r="205" spans="2:45">
       <c r="B205" s="2">
         <v>1999.75</v>
       </c>
@@ -21994,11 +22292,14 @@
       <c r="AQ205" s="10">
         <v>506.32859999999999</v>
       </c>
-      <c r="AR205" s="13">
+      <c r="AR205" s="9">
         <v>80.546999999999997</v>
       </c>
-    </row>
-    <row r="206" spans="2:44">
+      <c r="AS205" s="10">
+        <v>22.658281250000002</v>
+      </c>
+    </row>
+    <row r="206" spans="2:45">
       <c r="B206" s="2">
         <v>2000</v>
       </c>
@@ -22125,11 +22426,14 @@
       <c r="AQ206" s="10">
         <v>514.67949999999996</v>
       </c>
-      <c r="AR206" s="13">
+      <c r="AR206" s="9">
         <v>81.162999999999997</v>
       </c>
-    </row>
-    <row r="207" spans="2:44">
+      <c r="AS206" s="10">
+        <v>23.15031746031746</v>
+      </c>
+    </row>
+    <row r="207" spans="2:45">
       <c r="B207" s="2">
         <v>2000.25</v>
       </c>
@@ -22256,11 +22560,14 @@
       <c r="AQ207" s="10">
         <v>529.53610000000003</v>
       </c>
-      <c r="AR207" s="13">
+      <c r="AR207" s="9">
         <v>81.623000000000005</v>
       </c>
-    </row>
-    <row r="208" spans="2:44">
+      <c r="AS207" s="10">
+        <v>24.923968253968255</v>
+      </c>
+    </row>
+    <row r="208" spans="2:45">
       <c r="B208" s="2">
         <v>2000.5</v>
       </c>
@@ -22387,11 +22694,14 @@
       <c r="AQ208" s="10">
         <v>542.29229999999995</v>
       </c>
-      <c r="AR208" s="13">
+      <c r="AR208" s="9">
         <v>82.152000000000001</v>
       </c>
-    </row>
-    <row r="209" spans="2:44">
+      <c r="AS208" s="10">
+        <v>19.169047619047618</v>
+      </c>
+    </row>
+    <row r="209" spans="2:45">
       <c r="B209" s="2">
         <v>2000.75</v>
       </c>
@@ -22518,11 +22828,14 @@
       <c r="AQ209" s="10">
         <v>555.73019999999997</v>
       </c>
-      <c r="AR209" s="13">
+      <c r="AR209" s="9">
         <v>82.593000000000004</v>
       </c>
-    </row>
-    <row r="210" spans="2:44">
+      <c r="AS209" s="10">
+        <v>26.016666666666666</v>
+      </c>
+    </row>
+    <row r="210" spans="2:45">
       <c r="B210" s="2">
         <v>2001</v>
       </c>
@@ -22649,11 +22962,14 @@
       <c r="AQ210" s="10">
         <v>556.47019999999998</v>
       </c>
-      <c r="AR210" s="13">
+      <c r="AR210" s="9">
         <v>83.111999999999995</v>
       </c>
-    </row>
-    <row r="211" spans="2:44">
+      <c r="AS210" s="10">
+        <v>25.726451612903226</v>
+      </c>
+    </row>
+    <row r="211" spans="2:45">
       <c r="B211" s="2">
         <v>2001.25</v>
       </c>
@@ -22780,11 +23096,14 @@
       <c r="AQ211" s="10">
         <v>564.99289999999996</v>
       </c>
-      <c r="AR211" s="13">
+      <c r="AR211" s="9">
         <v>83.698999999999998</v>
       </c>
-    </row>
-    <row r="212" spans="2:44">
+      <c r="AS211" s="10">
+        <v>23.923809523809524</v>
+      </c>
+    </row>
+    <row r="212" spans="2:45">
       <c r="B212" s="2">
         <v>2001.5</v>
       </c>
@@ -22911,11 +23230,14 @@
       <c r="AQ212" s="10">
         <v>565.63369999999998</v>
       </c>
-      <c r="AR212" s="13">
+      <c r="AR212" s="9">
         <v>83.972999999999999</v>
       </c>
-    </row>
-    <row r="213" spans="2:44">
+      <c r="AS212" s="10">
+        <v>25.380338983050848</v>
+      </c>
+    </row>
+    <row r="213" spans="2:45">
       <c r="B213" s="2">
         <v>2001.75</v>
       </c>
@@ -23042,11 +23364,14 @@
       <c r="AQ213" s="10">
         <v>574.80600000000004</v>
       </c>
-      <c r="AR213" s="13">
+      <c r="AR213" s="9">
         <v>84.227000000000004</v>
       </c>
-    </row>
-    <row r="214" spans="2:44">
+      <c r="AS213" s="10">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="214" spans="2:45">
       <c r="B214" s="2">
         <v>2002</v>
       </c>
@@ -23173,11 +23498,14 @@
       <c r="AQ214" s="10">
         <v>574.721</v>
       </c>
-      <c r="AR214" s="13">
+      <c r="AR214" s="9">
         <v>84.497</v>
       </c>
-    </row>
-    <row r="215" spans="2:44">
+      <c r="AS214" s="10">
+        <v>21.360833333333332</v>
+      </c>
+    </row>
+    <row r="215" spans="2:45">
       <c r="B215" s="2">
         <v>2002.25</v>
       </c>
@@ -23304,11 +23632,14 @@
       <c r="AQ215" s="10">
         <v>579.45770000000005</v>
       </c>
-      <c r="AR215" s="13">
+      <c r="AR215" s="9">
         <v>84.811999999999998</v>
       </c>
-    </row>
-    <row r="216" spans="2:44">
+      <c r="AS215" s="10">
+        <v>21.643125000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="2:45">
       <c r="B216" s="2">
         <v>2002.5</v>
       </c>
@@ -23435,11 +23766,14 @@
       <c r="AQ216" s="10">
         <v>596.99149999999997</v>
       </c>
-      <c r="AR216" s="13">
+      <c r="AR216" s="9">
         <v>85.19</v>
       </c>
-    </row>
-    <row r="217" spans="2:44">
+      <c r="AS216" s="10">
+        <v>35.068437500000002</v>
+      </c>
+    </row>
+    <row r="217" spans="2:45">
       <c r="B217" s="2">
         <v>2002.75</v>
       </c>
@@ -23566,11 +23900,14 @@
       <c r="AQ217" s="10">
         <v>611.9683</v>
       </c>
-      <c r="AR217" s="13">
+      <c r="AR217" s="9">
         <v>85.650999999999996</v>
       </c>
-    </row>
-    <row r="218" spans="2:44">
+      <c r="AS217" s="10">
+        <v>30.72671875</v>
+      </c>
+    </row>
+    <row r="218" spans="2:45">
       <c r="B218" s="2">
         <v>2003</v>
       </c>
@@ -23697,11 +24034,14 @@
       <c r="AQ218" s="10">
         <v>603.24300000000005</v>
       </c>
-      <c r="AR218" s="13">
+      <c r="AR218" s="9">
         <v>86.179000000000002</v>
       </c>
-    </row>
-    <row r="219" spans="2:44">
+      <c r="AS218" s="10">
+        <v>30.022622950819674</v>
+      </c>
+    </row>
+    <row r="219" spans="2:45">
       <c r="B219" s="2">
         <v>2003.25</v>
       </c>
@@ -23828,11 +24168,14 @@
       <c r="AQ219" s="10">
         <v>613.45429999999999</v>
       </c>
-      <c r="AR219" s="13">
+      <c r="AR219" s="9">
         <v>86.454999999999998</v>
       </c>
-    </row>
-    <row r="220" spans="2:44">
+      <c r="AS219" s="10">
+        <v>21.53126984126984</v>
+      </c>
+    </row>
+    <row r="220" spans="2:45">
       <c r="B220" s="2">
         <v>2003.5</v>
       </c>
@@ -23959,11 +24302,14 @@
       <c r="AQ220" s="10">
         <v>616.81359999999995</v>
       </c>
-      <c r="AR220" s="13">
+      <c r="AR220" s="9">
         <v>86.933999999999997</v>
       </c>
-    </row>
-    <row r="221" spans="2:44">
+      <c r="AS220" s="10">
+        <v>19.32015625</v>
+      </c>
+    </row>
+    <row r="221" spans="2:45">
       <c r="B221" s="2">
         <v>2003.75</v>
       </c>
@@ -24090,11 +24436,14 @@
       <c r="AQ221" s="10">
         <v>666.21979999999996</v>
       </c>
-      <c r="AR221" s="13">
+      <c r="AR221" s="9">
         <v>87.346000000000004</v>
       </c>
-    </row>
-    <row r="222" spans="2:44">
+      <c r="AS221" s="10">
+        <v>17.427187499999999</v>
+      </c>
+    </row>
+    <row r="222" spans="2:45">
       <c r="B222" s="2">
         <v>2004</v>
       </c>
@@ -24221,11 +24570,14 @@
       <c r="AQ222" s="10">
         <v>670</v>
       </c>
-      <c r="AR222" s="13">
+      <c r="AR222" s="9">
         <v>88.108000000000004</v>
       </c>
-    </row>
-    <row r="223" spans="2:44">
+      <c r="AS222" s="10">
+        <v>16.658064516129031</v>
+      </c>
+    </row>
+    <row r="223" spans="2:45">
       <c r="B223" s="2">
         <v>2004.25</v>
       </c>
@@ -24352,11 +24704,14 @@
       <c r="AQ223" s="10">
         <v>679.71259999999995</v>
       </c>
-      <c r="AR223" s="13">
+      <c r="AR223" s="9">
         <v>88.875</v>
       </c>
-    </row>
-    <row r="224" spans="2:44">
+      <c r="AS223" s="10">
+        <v>16.230161290322581</v>
+      </c>
+    </row>
+    <row r="224" spans="2:45">
       <c r="B224" s="2">
         <v>2004.5</v>
       </c>
@@ -24483,11 +24838,14 @@
       <c r="AQ224" s="10">
         <v>685.05370000000005</v>
       </c>
-      <c r="AR224" s="13">
+      <c r="AR224" s="9">
         <v>89.421999999999997</v>
       </c>
-    </row>
-    <row r="225" spans="2:44">
+      <c r="AS224" s="10">
+        <v>15.442187499999999</v>
+      </c>
+    </row>
+    <row r="225" spans="2:45">
       <c r="B225" s="2">
         <v>2004.75</v>
       </c>
@@ -24614,11 +24972,14 @@
       <c r="AQ225" s="10">
         <v>692.93259999999998</v>
       </c>
-      <c r="AR225" s="13">
+      <c r="AR225" s="9">
         <v>90.049000000000007</v>
       </c>
-    </row>
-    <row r="226" spans="2:44">
+      <c r="AS225" s="10">
+        <v>13.651249999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="2:45">
       <c r="B226" s="2">
         <v>2005</v>
       </c>
@@ -24745,11 +25106,14 @@
       <c r="AQ226" s="10">
         <v>693.72320000000002</v>
       </c>
-      <c r="AR226" s="13">
+      <c r="AR226" s="9">
         <v>90.882999999999996</v>
       </c>
-    </row>
-    <row r="227" spans="2:44">
+      <c r="AS226" s="10">
+        <v>12.78704918032787</v>
+      </c>
+    </row>
+    <row r="227" spans="2:45">
       <c r="B227" s="2">
         <v>2005.25</v>
       </c>
@@ -24876,11 +25240,14 @@
       <c r="AQ227" s="10">
         <v>692.29100000000005</v>
       </c>
-      <c r="AR227" s="13">
+      <c r="AR227" s="9">
         <v>91.543000000000006</v>
       </c>
-    </row>
-    <row r="228" spans="2:44">
+      <c r="AS227" s="10">
+        <v>13.407343750000001</v>
+      </c>
+    </row>
+    <row r="228" spans="2:45">
       <c r="B228" s="2">
         <v>2005.5</v>
       </c>
@@ -25007,11 +25374,14 @@
       <c r="AQ228" s="10">
         <v>710.17830000000004</v>
       </c>
-      <c r="AR228" s="13">
+      <c r="AR228" s="9">
         <v>92.399000000000001</v>
       </c>
-    </row>
-    <row r="229" spans="2:44">
+      <c r="AS228" s="10">
+        <v>12.250781249999999</v>
+      </c>
+    </row>
+    <row r="229" spans="2:45">
       <c r="B229" s="2">
         <v>2005.75</v>
       </c>
@@ -25138,11 +25508,14 @@
       <c r="AQ229" s="10">
         <v>704.58199999999999</v>
       </c>
-      <c r="AR229" s="13">
+      <c r="AR229" s="9">
         <v>93.1</v>
       </c>
-    </row>
-    <row r="230" spans="2:44">
+      <c r="AS229" s="10">
+        <v>12.781746031746032</v>
+      </c>
+    </row>
+    <row r="230" spans="2:45">
       <c r="B230" s="2">
         <v>2006</v>
       </c>
@@ -25269,11 +25642,14 @@
       <c r="AQ230" s="10">
         <v>707.4443</v>
       </c>
-      <c r="AR230" s="13">
+      <c r="AR230" s="9">
         <v>93.831999999999994</v>
       </c>
-    </row>
-    <row r="231" spans="2:44">
+      <c r="AS230" s="10">
+        <v>12.04241935483871</v>
+      </c>
+    </row>
+    <row r="231" spans="2:45">
       <c r="B231" s="2">
         <v>2006.25</v>
       </c>
@@ -25398,11 +25774,14 @@
       <c r="AQ231" s="10">
         <v>714.19799999999998</v>
       </c>
-      <c r="AR231" s="13">
+      <c r="AR231" s="9">
         <v>94.587000000000003</v>
       </c>
-    </row>
-    <row r="232" spans="2:44">
+      <c r="AS231" s="10">
+        <v>14.528730158730159</v>
+      </c>
+    </row>
+    <row r="232" spans="2:45">
       <c r="B232" s="2">
         <v>2006.5</v>
       </c>
@@ -25527,11 +25906,14 @@
       <c r="AQ232" s="10">
         <v>718.59299999999996</v>
       </c>
-      <c r="AR232" s="13">
+      <c r="AR232" s="9">
         <v>95.247</v>
       </c>
-    </row>
-    <row r="233" spans="2:44">
+      <c r="AS232" s="10">
+        <v>13.607936507936508</v>
+      </c>
+    </row>
+    <row r="233" spans="2:45">
       <c r="B233" s="2">
         <v>2006.75</v>
       </c>
@@ -25656,11 +26038,14 @@
       <c r="AQ233" s="10">
         <v>738.70180000000005</v>
       </c>
-      <c r="AR233" s="13">
+      <c r="AR233" s="9">
         <v>95.58</v>
       </c>
-    </row>
-    <row r="234" spans="2:44">
+      <c r="AS233" s="10">
+        <v>11.034920634920635</v>
+      </c>
+    </row>
+    <row r="234" spans="2:45">
       <c r="B234" s="2">
         <v>2007</v>
       </c>
@@ -25770,11 +26155,14 @@
       <c r="AQ234" s="10">
         <v>731.52959999999996</v>
       </c>
-      <c r="AR234" s="13">
+      <c r="AR234" s="9">
         <v>96.653999999999996</v>
       </c>
-    </row>
-    <row r="235" spans="2:44">
+      <c r="AS234" s="10">
+        <v>12.563606557377049</v>
+      </c>
+    </row>
+    <row r="235" spans="2:45">
       <c r="B235" s="2">
         <v>2007.25</v>
       </c>
@@ -25884,11 +26272,14 @@
       <c r="AQ235" s="10">
         <v>750.15089999999998</v>
       </c>
-      <c r="AR235" s="13">
+      <c r="AR235" s="9">
         <v>97.194000000000003</v>
       </c>
-    </row>
-    <row r="236" spans="2:44">
+      <c r="AS235" s="10">
+        <v>13.731904761904762</v>
+      </c>
+    </row>
+    <row r="236" spans="2:45">
       <c r="B236" s="2">
         <v>2007.5</v>
       </c>
@@ -25998,11 +26389,14 @@
       <c r="AQ236" s="10">
         <v>773.83799999999997</v>
       </c>
-      <c r="AR236" s="13">
+      <c r="AR236" s="9">
         <v>97.531000000000006</v>
       </c>
-    </row>
-    <row r="237" spans="2:44">
+      <c r="AS236" s="10">
+        <v>21.58920634920635</v>
+      </c>
+    </row>
+    <row r="237" spans="2:45">
       <c r="B237" s="2">
         <v>2007.75</v>
       </c>
@@ -26112,11 +26506,14 @@
       <c r="AQ237" s="10">
         <v>799.27440000000001</v>
       </c>
-      <c r="AR237" s="13">
+      <c r="AR237" s="9">
         <v>97.956000000000003</v>
       </c>
-    </row>
-    <row r="238" spans="2:44">
+      <c r="AS237" s="10">
+        <v>22.029843750000001</v>
+      </c>
+    </row>
+    <row r="238" spans="2:45">
       <c r="B238" s="2">
         <v>2008</v>
       </c>
@@ -26226,11 +26623,14 @@
       <c r="AQ238" s="10">
         <v>798.03710000000001</v>
       </c>
-      <c r="AR238" s="13">
+      <c r="AR238" s="9">
         <v>98.516000000000005</v>
       </c>
-    </row>
-    <row r="239" spans="2:44">
+      <c r="AS238" s="10">
+        <v>26.12016393442623</v>
+      </c>
+    </row>
+    <row r="239" spans="2:45">
       <c r="B239" s="2">
         <v>2008.25</v>
       </c>
@@ -26340,11 +26740,14 @@
       <c r="AQ239" s="10">
         <v>812.14769999999999</v>
       </c>
-      <c r="AR239" s="13">
+      <c r="AR239" s="9">
         <v>98.995000000000005</v>
       </c>
-    </row>
-    <row r="240" spans="2:44">
+      <c r="AS239" s="10">
+        <v>20.672968749999999</v>
+      </c>
+    </row>
+    <row r="240" spans="2:45">
       <c r="B240" s="2">
         <v>2008.5</v>
       </c>
@@ -26454,11 +26857,14 @@
       <c r="AQ240" s="10">
         <v>837.10709999999995</v>
       </c>
-      <c r="AR240" s="13">
+      <c r="AR240" s="9">
         <v>99.673000000000002</v>
       </c>
-    </row>
-    <row r="241" spans="2:44">
+      <c r="AS240" s="10">
+        <v>25.073281250000001</v>
+      </c>
+    </row>
+    <row r="241" spans="2:45">
       <c r="B241" s="2">
         <v>2008.75</v>
       </c>
@@ -26568,11 +26974,14 @@
       <c r="AQ241" s="10">
         <v>876.27760000000001</v>
       </c>
-      <c r="AR241" s="13">
+      <c r="AR241" s="9">
         <v>99.814999999999998</v>
       </c>
-    </row>
-    <row r="242" spans="2:44">
+      <c r="AS241" s="10">
+        <v>58.595937499999998</v>
+      </c>
+    </row>
+    <row r="242" spans="2:45">
       <c r="B242" s="2">
         <v>2009</v>
       </c>
@@ -26682,11 +27091,14 @@
       <c r="AQ242" s="10">
         <v>877.41759999999999</v>
       </c>
-      <c r="AR242" s="13">
+      <c r="AR242" s="9">
         <v>100.062</v>
       </c>
-    </row>
-    <row r="243" spans="2:44">
+      <c r="AS242" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="2:45">
       <c r="B243" s="2">
         <v>2009.25</v>
       </c>
@@ -26796,11 +27208,14 @@
       <c r="AQ243" s="10">
         <v>855.19920000000002</v>
       </c>
-      <c r="AR243" s="13">
+      <c r="AR243" s="9">
         <v>99.894999999999996</v>
       </c>
-    </row>
-    <row r="244" spans="2:44">
+      <c r="AS243" s="10">
+        <v>33.015714285714289</v>
+      </c>
+    </row>
+    <row r="244" spans="2:45">
       <c r="B244" s="2">
         <v>2009.5</v>
       </c>
@@ -26910,11 +27325,14 @@
       <c r="AQ244" s="10">
         <v>847.57050000000004</v>
       </c>
-      <c r="AR244" s="13">
+      <c r="AR244" s="9">
         <v>99.873000000000005</v>
       </c>
-    </row>
-    <row r="245" spans="2:44">
+      <c r="AS244" s="10">
+        <v>25.486249999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="2:45">
       <c r="B245" s="2">
         <v>2009.75</v>
       </c>
@@ -27024,11 +27442,14 @@
       <c r="AQ245" s="10">
         <v>836.03840000000002</v>
       </c>
-      <c r="AR245" s="13">
+      <c r="AR245" s="9">
         <v>100.169</v>
       </c>
-    </row>
-    <row r="246" spans="2:44">
+      <c r="AS245" s="10">
+        <v>23.07015625</v>
+      </c>
+    </row>
+    <row r="246" spans="2:45">
       <c r="B246" s="2">
         <v>2010</v>
       </c>
@@ -27136,11 +27557,14 @@
       <c r="AQ246" s="10">
         <v>886.12109999999996</v>
       </c>
-      <c r="AR246" s="13">
+      <c r="AR246" s="9">
         <v>100.52200000000001</v>
       </c>
-    </row>
-    <row r="247" spans="2:44">
+      <c r="AS246" s="10">
+        <v>20.14967213114754</v>
+      </c>
+    </row>
+    <row r="247" spans="2:45">
       <c r="B247" s="2">
         <v>2010.25</v>
       </c>
@@ -27248,11 +27672,14 @@
       <c r="AQ247" s="10">
         <v>1141.2235000000001</v>
       </c>
-      <c r="AR247" s="13">
+      <c r="AR247" s="9">
         <v>100.968</v>
       </c>
-    </row>
-    <row r="248" spans="2:44">
+      <c r="AS247" s="10">
+        <v>26.39142857142857</v>
+      </c>
+    </row>
+    <row r="248" spans="2:45">
       <c r="B248" s="2">
         <v>2010.5</v>
       </c>
@@ -27360,11 +27787,14 @@
       <c r="AQ248" s="10">
         <v>1120.6277</v>
       </c>
-      <c r="AR248" s="13">
+      <c r="AR248" s="9">
         <v>101.429</v>
       </c>
-    </row>
-    <row r="249" spans="2:44">
+      <c r="AS248" s="10">
+        <v>24.283593750000001</v>
+      </c>
+    </row>
+    <row r="249" spans="2:45">
       <c r="B249" s="2">
         <v>2010.75</v>
       </c>
@@ -27472,11 +27902,14 @@
       <c r="AQ249" s="10">
         <v>1107.4919</v>
       </c>
-      <c r="AR249" s="13">
+      <c r="AR249" s="9">
         <v>101.949</v>
       </c>
-    </row>
-    <row r="250" spans="2:44">
+      <c r="AS249" s="10">
+        <v>19.318437500000002</v>
+      </c>
+    </row>
+    <row r="250" spans="2:45">
       <c r="B250" s="2">
         <v>2011</v>
       </c>
@@ -27584,11 +28017,14 @@
       <c r="AQ250" s="10">
         <v>1070.8738000000001</v>
       </c>
-      <c r="AR250" s="13">
+      <c r="AR250" s="9">
         <v>102.399</v>
       </c>
-    </row>
-    <row r="251" spans="2:44">
+      <c r="AS250" s="10">
+        <v>18.614838709677418</v>
+      </c>
+    </row>
+    <row r="251" spans="2:45">
       <c r="B251" s="2">
         <v>2011.25</v>
       </c>
@@ -27696,11 +28132,14 @@
       <c r="AQ251" s="10">
         <v>1080.7565</v>
       </c>
-      <c r="AR251" s="13">
+      <c r="AR251" s="9">
         <v>103.145</v>
       </c>
-    </row>
-    <row r="252" spans="2:44">
+      <c r="AS251" s="10">
+        <v>17.482380952380954</v>
+      </c>
+    </row>
+    <row r="252" spans="2:45">
       <c r="B252" s="2">
         <v>2011.5</v>
       </c>
@@ -27808,11 +28247,14 @@
       <c r="AQ252" s="10">
         <v>1078.6201000000001</v>
       </c>
-      <c r="AR252" s="13">
+      <c r="AR252" s="9">
         <v>103.768</v>
       </c>
-    </row>
-    <row r="253" spans="2:44">
+      <c r="AS252" s="10">
+        <v>30.583593749999999</v>
+      </c>
+    </row>
+    <row r="253" spans="2:45">
       <c r="B253" s="2">
         <v>2011.75</v>
       </c>
@@ -27920,11 +28362,14 @@
       <c r="AQ253" s="10">
         <v>1086.2816</v>
       </c>
-      <c r="AR253" s="13">
+      <c r="AR253" s="9">
         <v>103.917</v>
       </c>
-    </row>
-    <row r="254" spans="2:44">
+      <c r="AS253" s="10">
+        <v>29.939523809523809</v>
+      </c>
+    </row>
+    <row r="254" spans="2:45">
       <c r="B254" s="2">
         <v>2012</v>
       </c>
@@ -28032,11 +28477,14 @@
       <c r="AQ254" s="10">
         <v>1090.6052999999999</v>
       </c>
-      <c r="AR254" s="13">
+      <c r="AR254" s="9">
         <v>104.46599999999999</v>
       </c>
-    </row>
-    <row r="255" spans="2:44">
+      <c r="AS254" s="10">
+        <v>18.204032258064515</v>
+      </c>
+    </row>
+    <row r="255" spans="2:45">
       <c r="B255" s="2">
         <v>2012.25</v>
       </c>
@@ -28144,11 +28592,14 @@
       <c r="AQ255" s="10">
         <v>1101.3272999999999</v>
       </c>
-      <c r="AR255" s="13">
+      <c r="AR255" s="9">
         <v>104.943</v>
       </c>
-    </row>
-    <row r="256" spans="2:44">
+      <c r="AS255" s="10">
+        <v>20.035714285714285</v>
+      </c>
+    </row>
+    <row r="256" spans="2:45">
       <c r="B256" s="2">
         <v>2012.5</v>
       </c>
@@ -28256,11 +28707,14 @@
       <c r="AQ256" s="10">
         <v>1102.9022</v>
       </c>
-      <c r="AR256" s="13">
+      <c r="AR256" s="9">
         <v>105.508</v>
       </c>
-    </row>
-    <row r="257" spans="2:44">
+      <c r="AS256" s="10">
+        <v>16.192698412698412</v>
+      </c>
+    </row>
+    <row r="257" spans="2:45">
       <c r="B257" s="2">
         <v>2012.75</v>
       </c>
@@ -28368,11 +28822,14 @@
       <c r="AQ257" s="10">
         <v>1102.6405</v>
       </c>
-      <c r="AR257" s="13">
+      <c r="AR257" s="9">
         <v>105.935</v>
       </c>
-    </row>
-    <row r="258" spans="2:44">
+      <c r="AS257" s="10">
+        <v>16.752903225806453</v>
+      </c>
+    </row>
+    <row r="258" spans="2:45">
       <c r="B258" s="2">
         <v>2013</v>
       </c>
@@ -28480,11 +28937,14 @@
       <c r="AQ258" s="10">
         <v>1112.6041</v>
       </c>
-      <c r="AR258" s="13">
+      <c r="AR258" s="9">
         <v>106.349</v>
       </c>
-    </row>
-    <row r="259" spans="2:44">
+      <c r="AS258" s="10">
+        <v>13.526999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="2:45">
       <c r="B259" s="2">
         <v>2013.25</v>
       </c>
@@ -28592,11 +29052,14 @@
       <c r="AQ259" s="10">
         <v>1125.6822</v>
       </c>
-      <c r="AR259" s="13">
+      <c r="AR259" s="9">
         <v>106.57</v>
       </c>
-    </row>
-    <row r="260" spans="2:44">
+      <c r="AS259" s="10">
+        <v>14.837031250000001</v>
+      </c>
+    </row>
+    <row r="260" spans="2:45">
       <c r="B260" s="2">
         <v>2013.5</v>
       </c>
@@ -28704,11 +29167,14 @@
       <c r="AQ260" s="10">
         <v>1130.1041</v>
       </c>
-      <c r="AR260" s="13">
+      <c r="AR260" s="9">
         <v>107.084</v>
       </c>
-    </row>
-    <row r="261" spans="2:44">
+      <c r="AS260" s="10">
+        <v>14.2796875</v>
+      </c>
+    </row>
+    <row r="261" spans="2:45">
       <c r="B261" s="2">
         <v>2013.75</v>
       </c>
@@ -28816,11 +29282,14 @@
       <c r="AQ261" s="10">
         <v>1128.0618999999999</v>
       </c>
-      <c r="AR261" s="13">
+      <c r="AR261" s="9">
         <v>107.636</v>
       </c>
-    </row>
-    <row r="262" spans="2:44">
+      <c r="AS261" s="10">
+        <v>14.2328125</v>
+      </c>
+    </row>
+    <row r="262" spans="2:45">
       <c r="B262" s="2">
         <v>2014</v>
       </c>
@@ -28928,11 +29397,14 @@
       <c r="AQ262" s="10">
         <v>1140.2529999999999</v>
       </c>
-      <c r="AR262" s="13">
+      <c r="AR262" s="9">
         <v>108.083</v>
       </c>
-    </row>
-    <row r="263" spans="2:44">
+      <c r="AS262" s="10">
+        <v>14.828852459016394</v>
+      </c>
+    </row>
+    <row r="263" spans="2:45">
       <c r="B263" s="2">
         <v>2014.25</v>
       </c>
@@ -29040,11 +29512,14 @@
       <c r="AQ263" s="10">
         <v>1160.5806</v>
       </c>
-      <c r="AR263" s="13">
+      <c r="AR263" s="9">
         <v>108.69199999999999</v>
       </c>
-    </row>
-    <row r="264" spans="2:44">
+      <c r="AS263" s="10">
+        <v>12.738253968253968</v>
+      </c>
+    </row>
+    <row r="264" spans="2:45">
       <c r="B264" s="2">
         <v>2014.5</v>
       </c>
@@ -29152,11 +29627,14 @@
       <c r="AQ264" s="10">
         <v>1175.171</v>
       </c>
-      <c r="AR264" s="13">
+      <c r="AR264" s="9">
         <v>109.187</v>
       </c>
-    </row>
-    <row r="265" spans="2:44">
+      <c r="AS264" s="10">
+        <v>13.07265625</v>
+      </c>
+    </row>
+    <row r="265" spans="2:45">
       <c r="B265" s="2">
         <v>2014.75</v>
       </c>
@@ -29264,11 +29742,14 @@
       <c r="AQ265" s="10">
         <v>1186.6645000000001</v>
       </c>
-      <c r="AR265" s="13">
+      <c r="AR265" s="9">
         <v>109.345</v>
       </c>
-    </row>
-    <row r="266" spans="2:44">
+      <c r="AS265" s="10">
+        <v>16.072343750000002</v>
+      </c>
+    </row>
+    <row r="266" spans="2:45">
       <c r="B266" s="2">
         <v>2015</v>
       </c>
@@ -29376,11 +29857,14 @@
       <c r="AQ266" s="10">
         <v>1191.5443</v>
       </c>
-      <c r="AR266" s="13">
+      <c r="AR266" s="9">
         <v>109.32599999999999</v>
       </c>
-    </row>
-    <row r="267" spans="2:44">
+      <c r="AS266" s="10">
+        <v>16.564754098360655</v>
+      </c>
+    </row>
+    <row r="267" spans="2:45">
       <c r="B267" s="2">
         <v>2015.25</v>
       </c>
@@ -29488,11 +29972,14 @@
       <c r="AQ267" s="10">
         <v>1213.3399999999999</v>
       </c>
-      <c r="AR267" s="13">
+      <c r="AR267" s="9">
         <v>109.916</v>
       </c>
-    </row>
-    <row r="268" spans="2:44">
+      <c r="AS267" s="10">
+        <v>13.740158730158731</v>
+      </c>
+    </row>
+    <row r="268" spans="2:45">
       <c r="B268" s="2">
         <v>2015.5</v>
       </c>
@@ -29600,11 +30087,14 @@
       <c r="AQ268" s="10">
         <v>1235.7325000000001</v>
       </c>
-      <c r="AR268" s="13">
+      <c r="AR268" s="9">
         <v>110.286</v>
       </c>
-    </row>
-    <row r="269" spans="2:44">
+      <c r="AS268" s="10">
+        <v>19.307343750000001</v>
+      </c>
+    </row>
+    <row r="269" spans="2:45">
       <c r="B269" s="2">
         <v>2015.75</v>
       </c>
@@ -29712,11 +30202,14 @@
       <c r="AQ269" s="10">
         <v>1258.7267999999999</v>
       </c>
-      <c r="AR269" s="13">
+      <c r="AR269" s="9">
         <v>110.51300000000001</v>
       </c>
-    </row>
-    <row r="270" spans="2:44">
+      <c r="AS269" s="10">
+        <v>17.033281250000002</v>
+      </c>
+    </row>
+    <row r="270" spans="2:45">
       <c r="B270" s="2">
         <v>2016</v>
       </c>
@@ -29824,11 +30317,14 @@
       <c r="AQ270" s="10">
         <v>1283.5696</v>
       </c>
-      <c r="AR270" s="13">
+      <c r="AR270" s="9">
         <v>110.58199999999999</v>
       </c>
-    </row>
-    <row r="271" spans="2:44">
+      <c r="AS270" s="10">
+        <v>20.486229508196722</v>
+      </c>
+    </row>
+    <row r="271" spans="2:45">
       <c r="B271" s="2">
         <v>2016.25</v>
       </c>
@@ -29936,11 +30432,14 @@
       <c r="AQ271" s="10">
         <v>1311.789</v>
       </c>
-      <c r="AR271" s="13">
+      <c r="AR271" s="9">
         <v>111.249</v>
       </c>
-    </row>
-    <row r="272" spans="2:44">
+      <c r="AS271" s="10">
+        <v>15.6759375</v>
+      </c>
+    </row>
+    <row r="272" spans="2:45">
       <c r="B272" s="2">
         <v>2016.5</v>
       </c>
@@ -30048,11 +30547,14 @@
       <c r="AQ272" s="10">
         <v>1336.4115999999999</v>
       </c>
-      <c r="AR272" s="13">
+      <c r="AR272" s="9">
         <v>111.628</v>
       </c>
-    </row>
-    <row r="273" spans="2:44">
+      <c r="AS272" s="10">
+        <v>13.23390625</v>
+      </c>
+    </row>
+    <row r="273" spans="2:45">
       <c r="B273" s="2">
         <v>2016.75</v>
       </c>
@@ -30160,11 +30662,14 @@
       <c r="AQ273" s="10">
         <v>1354.5873999999999</v>
       </c>
-      <c r="AR273" s="13">
+      <c r="AR273" s="9">
         <v>112.19</v>
       </c>
-    </row>
-    <row r="274" spans="2:44">
+      <c r="AS273" s="10">
+        <v>14.097936507936508</v>
+      </c>
+    </row>
+    <row r="274" spans="2:45">
       <c r="B274" s="2">
         <v>2017</v>
       </c>
@@ -30272,11 +30777,14 @@
       <c r="AQ274" s="10">
         <v>1365.2547</v>
       </c>
-      <c r="AR274" s="13">
+      <c r="AR274" s="9">
         <v>112.746</v>
       </c>
-    </row>
-    <row r="275" spans="2:44">
+      <c r="AS274" s="10">
+        <v>11.691935483870967</v>
+      </c>
+    </row>
+    <row r="275" spans="2:45">
       <c r="B275" s="2">
         <v>2017.25</v>
       </c>
@@ -30384,11 +30892,14 @@
       <c r="AQ275" s="10">
         <v>1373.6769999999999</v>
       </c>
-      <c r="AR275" s="13">
+      <c r="AR275" s="9">
         <v>113.029</v>
       </c>
-    </row>
-    <row r="276" spans="2:44">
+      <c r="AS275" s="10">
+        <v>11.426349206349206</v>
+      </c>
+    </row>
+    <row r="276" spans="2:45">
       <c r="B276" s="2">
         <v>2017.5</v>
       </c>
@@ -30481,11 +30992,14 @@
       <c r="AQ276" s="10">
         <v>1391.1627000000001</v>
       </c>
-      <c r="AR276" s="13">
+      <c r="AR276" s="9">
         <v>113.63</v>
       </c>
-    </row>
-    <row r="277" spans="2:44">
+      <c r="AS276" s="10">
+        <v>10.944285714285714</v>
+      </c>
+    </row>
+    <row r="277" spans="2:45">
       <c r="B277" s="2">
         <v>2017.75</v>
       </c>
@@ -30546,8 +31060,12 @@
       <c r="Z277" s="4"/>
       <c r="AA277" s="2"/>
       <c r="AM277" s="10"/>
-    </row>
-    <row r="278" spans="2:44">
+      <c r="AR277" s="9"/>
+      <c r="AS277" s="10">
+        <v>10.307936507936509</v>
+      </c>
+    </row>
+    <row r="278" spans="2:45">
       <c r="B278" s="2">
         <v>2018</v>
       </c>
@@ -30608,8 +31126,12 @@
       <c r="Z278" s="4"/>
       <c r="AA278" s="2"/>
       <c r="AM278" s="10"/>
-    </row>
-    <row r="279" spans="2:44">
+      <c r="AR278" s="9"/>
+      <c r="AS278" s="10">
+        <v>17.354754098360655</v>
+      </c>
+    </row>
+    <row r="279" spans="2:45">
       <c r="B279" s="2">
         <v>2018.25</v>
       </c>
@@ -30670,8 +31192,12 @@
       <c r="Z279" s="4"/>
       <c r="AA279" s="2"/>
       <c r="AM279" s="10"/>
-    </row>
-    <row r="280" spans="2:44">
+      <c r="AR279" s="9"/>
+      <c r="AS279" s="10">
+        <v>15.3375</v>
+      </c>
+    </row>
+    <row r="280" spans="2:45">
       <c r="J280" s="4"/>
       <c r="K280" s="11"/>
       <c r="N280" s="4"/>
@@ -30688,8 +31214,10 @@
       <c r="Y280" s="11"/>
       <c r="Z280" s="4"/>
       <c r="AA280" s="2"/>
-    </row>
-    <row r="281" spans="2:44">
+      <c r="AR280" s="9"/>
+      <c r="AS280" s="10"/>
+    </row>
+    <row r="281" spans="2:45">
       <c r="J281" s="4"/>
       <c r="K281" s="11"/>
       <c r="N281" s="4"/>
@@ -30706,8 +31234,10 @@
       <c r="Y281" s="11"/>
       <c r="Z281" s="4"/>
       <c r="AA281" s="2"/>
-    </row>
-    <row r="282" spans="2:44">
+      <c r="AR281" s="9"/>
+      <c r="AS281" s="10"/>
+    </row>
+    <row r="282" spans="2:45">
       <c r="J282" s="4"/>
       <c r="K282" s="11"/>
       <c r="N282" s="4"/>
@@ -30724,193 +31254,233 @@
       <c r="Y282" s="11"/>
       <c r="Z282" s="4"/>
       <c r="AA282" s="2"/>
-    </row>
-    <row r="283" spans="2:44">
+      <c r="AR282" s="9"/>
+    </row>
+    <row r="283" spans="2:45">
       <c r="J283" s="4"/>
       <c r="K283" s="11"/>
       <c r="AA283" s="2"/>
-    </row>
-    <row r="284" spans="2:44">
+      <c r="AR283" s="9"/>
+    </row>
+    <row r="284" spans="2:45">
       <c r="J284" s="4"/>
       <c r="K284" s="11"/>
       <c r="AA284" s="2"/>
-    </row>
-    <row r="285" spans="2:44">
+      <c r="AR284" s="9"/>
+    </row>
+    <row r="285" spans="2:45">
       <c r="J285" s="4"/>
       <c r="K285" s="11"/>
       <c r="AA285" s="2"/>
-    </row>
-    <row r="286" spans="2:44">
+      <c r="AR285" s="9"/>
+    </row>
+    <row r="286" spans="2:45">
       <c r="J286" s="4"/>
       <c r="K286" s="11"/>
       <c r="AA286" s="2"/>
-    </row>
-    <row r="287" spans="2:44">
+      <c r="AR286" s="9"/>
+    </row>
+    <row r="287" spans="2:45">
       <c r="J287" s="4"/>
       <c r="K287" s="11"/>
       <c r="AA287" s="2"/>
-    </row>
-    <row r="288" spans="2:44">
+      <c r="AR287" s="9"/>
+    </row>
+    <row r="288" spans="2:45">
       <c r="J288" s="4"/>
       <c r="K288" s="11"/>
       <c r="AA288" s="2"/>
-    </row>
-    <row r="289" spans="10:27">
+      <c r="AR288" s="9"/>
+    </row>
+    <row r="289" spans="10:44">
       <c r="J289" s="4"/>
       <c r="K289" s="11"/>
       <c r="AA289" s="2"/>
-    </row>
-    <row r="290" spans="10:27">
+      <c r="AR289" s="9"/>
+    </row>
+    <row r="290" spans="10:44">
       <c r="J290" s="4"/>
       <c r="K290" s="11"/>
       <c r="AA290" s="2"/>
-    </row>
-    <row r="291" spans="10:27">
+      <c r="AR290" s="9"/>
+    </row>
+    <row r="291" spans="10:44">
       <c r="J291" s="4"/>
       <c r="K291" s="11"/>
       <c r="AA291" s="2"/>
-    </row>
-    <row r="292" spans="10:27">
+      <c r="AR291" s="9"/>
+    </row>
+    <row r="292" spans="10:44">
       <c r="J292" s="4"/>
       <c r="K292" s="11"/>
       <c r="AA292" s="2"/>
-    </row>
-    <row r="293" spans="10:27">
+      <c r="AR292" s="9"/>
+    </row>
+    <row r="293" spans="10:44">
       <c r="J293" s="4"/>
       <c r="K293" s="11"/>
       <c r="AA293" s="2"/>
-    </row>
-    <row r="294" spans="10:27">
+      <c r="AR293" s="9"/>
+    </row>
+    <row r="294" spans="10:44">
       <c r="J294" s="4"/>
       <c r="K294" s="11"/>
       <c r="AA294" s="2"/>
-    </row>
-    <row r="295" spans="10:27">
+      <c r="AR294" s="9"/>
+    </row>
+    <row r="295" spans="10:44">
       <c r="J295" s="4"/>
       <c r="K295" s="11"/>
       <c r="AA295" s="2"/>
-    </row>
-    <row r="296" spans="10:27">
+      <c r="AR295" s="9"/>
+    </row>
+    <row r="296" spans="10:44">
       <c r="J296" s="4"/>
       <c r="K296" s="11"/>
       <c r="AA296" s="2"/>
-    </row>
-    <row r="297" spans="10:27">
+      <c r="AR296" s="9"/>
+    </row>
+    <row r="297" spans="10:44">
       <c r="J297" s="4"/>
       <c r="K297" s="11"/>
       <c r="AA297" s="2"/>
-    </row>
-    <row r="298" spans="10:27">
+      <c r="AR297" s="9"/>
+    </row>
+    <row r="298" spans="10:44">
       <c r="K298" s="11"/>
       <c r="AA298" s="2"/>
-    </row>
-    <row r="299" spans="10:27">
+      <c r="AR298" s="9"/>
+    </row>
+    <row r="299" spans="10:44">
       <c r="K299" s="11"/>
       <c r="L299" s="5" t="s">
         <v>49</v>
       </c>
       <c r="AA299" s="2"/>
-    </row>
-    <row r="300" spans="10:27">
+      <c r="AR299" s="9"/>
+    </row>
+    <row r="300" spans="10:44">
       <c r="K300" s="11"/>
       <c r="AA300" s="2"/>
-    </row>
-    <row r="301" spans="10:27">
+      <c r="AR300" s="9"/>
+    </row>
+    <row r="301" spans="10:44">
       <c r="K301" s="11"/>
       <c r="AA301" s="2"/>
-    </row>
-    <row r="302" spans="10:27">
+      <c r="AR301" s="9"/>
+    </row>
+    <row r="302" spans="10:44">
       <c r="K302" s="11"/>
       <c r="AA302" s="2"/>
-    </row>
-    <row r="303" spans="10:27">
+      <c r="AR302" s="9"/>
+    </row>
+    <row r="303" spans="10:44">
       <c r="K303" s="11"/>
       <c r="AA303" s="2"/>
-    </row>
-    <row r="304" spans="10:27">
+      <c r="AR303" s="9"/>
+    </row>
+    <row r="304" spans="10:44">
       <c r="K304" s="11"/>
       <c r="AA304" s="2"/>
-    </row>
-    <row r="305" spans="11:27">
+      <c r="AR304" s="9"/>
+    </row>
+    <row r="305" spans="11:44">
       <c r="K305" s="11"/>
       <c r="AA305" s="2"/>
-    </row>
-    <row r="306" spans="11:27">
+      <c r="AR305" s="9"/>
+    </row>
+    <row r="306" spans="11:44">
       <c r="K306" s="11"/>
       <c r="AA306" s="2"/>
-    </row>
-    <row r="307" spans="11:27">
+      <c r="AR306" s="9"/>
+    </row>
+    <row r="307" spans="11:44">
       <c r="K307" s="11"/>
       <c r="AA307" s="2"/>
-    </row>
-    <row r="308" spans="11:27">
+      <c r="AR307" s="9"/>
+    </row>
+    <row r="308" spans="11:44">
       <c r="K308" s="11"/>
       <c r="AA308" s="2"/>
-    </row>
-    <row r="309" spans="11:27">
+      <c r="AR308" s="9"/>
+    </row>
+    <row r="309" spans="11:44">
       <c r="K309" s="11"/>
       <c r="AA309" s="2"/>
-    </row>
-    <row r="310" spans="11:27">
+      <c r="AR309" s="9"/>
+    </row>
+    <row r="310" spans="11:44">
       <c r="K310" s="11"/>
       <c r="AA310" s="2"/>
-    </row>
-    <row r="311" spans="11:27">
+      <c r="AR310" s="9"/>
+    </row>
+    <row r="311" spans="11:44">
       <c r="K311" s="11"/>
       <c r="AA311" s="2"/>
-    </row>
-    <row r="312" spans="11:27">
+      <c r="AR311" s="9"/>
+    </row>
+    <row r="312" spans="11:44">
       <c r="K312" s="11"/>
       <c r="AA312" s="2"/>
-    </row>
-    <row r="313" spans="11:27">
+      <c r="AR312" s="9"/>
+    </row>
+    <row r="313" spans="11:44">
       <c r="K313" s="11"/>
       <c r="AA313" s="2"/>
-    </row>
-    <row r="314" spans="11:27">
+      <c r="AR313" s="9"/>
+    </row>
+    <row r="314" spans="11:44">
       <c r="K314" s="11"/>
       <c r="AA314" s="2"/>
-    </row>
-    <row r="315" spans="11:27">
+      <c r="AR314" s="9"/>
+    </row>
+    <row r="315" spans="11:44">
       <c r="K315" s="11"/>
       <c r="AA315" s="2"/>
-    </row>
-    <row r="316" spans="11:27">
+      <c r="AR315" s="9"/>
+    </row>
+    <row r="316" spans="11:44">
       <c r="K316" s="11"/>
       <c r="AA316" s="2"/>
-    </row>
-    <row r="317" spans="11:27">
+      <c r="AR316" s="9"/>
+    </row>
+    <row r="317" spans="11:44">
       <c r="K317" s="11"/>
       <c r="AA317" s="2"/>
-    </row>
-    <row r="318" spans="11:27">
+      <c r="AR317" s="9"/>
+    </row>
+    <row r="318" spans="11:44">
       <c r="AA318" s="2"/>
-    </row>
-    <row r="319" spans="11:27">
+      <c r="AR318" s="9"/>
+    </row>
+    <row r="319" spans="11:44">
       <c r="AA319" s="2"/>
-    </row>
-    <row r="320" spans="11:27">
+      <c r="AR319" s="9"/>
+    </row>
+    <row r="320" spans="11:44">
       <c r="AA320" s="2"/>
-    </row>
-    <row r="321" spans="27:27">
+      <c r="AR320" s="9"/>
+    </row>
+    <row r="321" spans="27:44">
       <c r="AA321" s="2"/>
-    </row>
-    <row r="322" spans="27:27">
+      <c r="AR321" s="9"/>
+    </row>
+    <row r="322" spans="27:44">
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="27:27">
+    <row r="323" spans="27:44">
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="27:27">
+    <row r="324" spans="27:44">
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="27:27">
+    <row r="325" spans="27:44">
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="27:27">
+    <row r="326" spans="27:44">
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="27:27">
+    <row r="327" spans="27:44">
       <c r="AA327" s="2"/>
     </row>
   </sheetData>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Vix</t>
+  </si>
+  <si>
+    <t>GZ_Spread</t>
   </si>
 </sst>
 </file>
@@ -645,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS327"/>
+  <dimension ref="A1:AU327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
+      <selection pane="bottomRight" activeCell="AT319" sqref="AT319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -690,7 +693,7 @@
     <col min="45" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="16" customFormat="1">
+    <row r="1" spans="1:47" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -826,8 +829,14 @@
       <c r="AS1" s="16" t="s">
         <v>50</v>
       </c>
+      <c r="AT1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="16" customFormat="1">
+    <row r="2" spans="1:47" s="16" customFormat="1">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -963,8 +972,14 @@
       <c r="AS2" s="1">
         <v>3</v>
       </c>
+      <c r="AT2" s="16">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" s="16" customFormat="1">
+    <row r="3" spans="1:47" s="16" customFormat="1">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -1100,8 +1115,14 @@
       <c r="AS3" s="16">
         <v>1</v>
       </c>
+      <c r="AT3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" s="16" customFormat="1">
+    <row r="4" spans="1:47" s="16" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1258,14 @@
       <c r="AS4" s="16">
         <v>44</v>
       </c>
+      <c r="AT4" s="16">
+        <v>45</v>
+      </c>
+      <c r="AU4" s="16">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" s="16" customFormat="1">
+    <row r="5" spans="1:47" s="16" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1374,8 +1401,14 @@
       <c r="AS5" s="16">
         <v>44</v>
       </c>
+      <c r="AT5" s="16">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="16">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:47">
       <c r="B6" s="2">
         <v>1950</v>
       </c>
@@ -1438,8 +1471,9 @@
         <v>13.49</v>
       </c>
       <c r="AS6" s="10"/>
+      <c r="AU6" s="10"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:47">
       <c r="B7" s="2">
         <v>1950.25</v>
       </c>
@@ -1502,8 +1536,9 @@
         <v>13.538</v>
       </c>
       <c r="AS7" s="10"/>
+      <c r="AU7" s="10"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:47">
       <c r="B8" s="2">
         <v>1950.5</v>
       </c>
@@ -1566,8 +1601,9 @@
         <v>13.832000000000001</v>
       </c>
       <c r="AS8" s="10"/>
+      <c r="AU8" s="10"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:47">
       <c r="B9" s="2">
         <v>1950.75</v>
       </c>
@@ -1630,8 +1666,9 @@
         <v>14.09</v>
       </c>
       <c r="AS9" s="10"/>
+      <c r="AU9" s="10"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:47">
       <c r="B10" s="2">
         <v>1951</v>
       </c>
@@ -1694,8 +1731,9 @@
         <v>14.596</v>
       </c>
       <c r="AS10" s="10"/>
+      <c r="AU10" s="10"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:47">
       <c r="B11" s="2">
         <v>1951.25</v>
       </c>
@@ -1758,8 +1796,9 @@
         <v>14.692</v>
       </c>
       <c r="AS11" s="10"/>
+      <c r="AU11" s="10"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:47">
       <c r="B12" s="2">
         <v>1951.5</v>
       </c>
@@ -1822,8 +1861,9 @@
         <v>14.701000000000001</v>
       </c>
       <c r="AS12" s="10"/>
+      <c r="AU12" s="10"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:47">
       <c r="B13" s="2">
         <v>1951.75</v>
       </c>
@@ -1886,8 +1926,9 @@
         <v>14.869</v>
       </c>
       <c r="AS13" s="10"/>
+      <c r="AU13" s="10"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:47">
       <c r="B14" s="2">
         <v>1952</v>
       </c>
@@ -1950,8 +1991,9 @@
         <v>14.863</v>
       </c>
       <c r="AS14" s="10"/>
+      <c r="AU14" s="10"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:47">
       <c r="B15" s="2">
         <v>1952.25</v>
       </c>
@@ -2014,8 +2056,9 @@
         <v>14.882</v>
       </c>
       <c r="AS15" s="10"/>
+      <c r="AU15" s="10"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:47">
       <c r="B16" s="2">
         <v>1952.5</v>
       </c>
@@ -2078,8 +2121,9 @@
         <v>15.048</v>
       </c>
       <c r="AS16" s="10"/>
+      <c r="AU16" s="10"/>
     </row>
-    <row r="17" spans="2:45">
+    <row r="17" spans="2:47">
       <c r="B17" s="2">
         <v>1952.75</v>
       </c>
@@ -2142,8 +2186,9 @@
         <v>15.090999999999999</v>
       </c>
       <c r="AS17" s="10"/>
+      <c r="AU17" s="10"/>
     </row>
-    <row r="18" spans="2:45">
+    <row r="18" spans="2:47">
       <c r="B18" s="2">
         <v>1953</v>
       </c>
@@ -2209,8 +2254,9 @@
         <v>15.096</v>
       </c>
       <c r="AS18" s="10"/>
+      <c r="AU18" s="10"/>
     </row>
-    <row r="19" spans="2:45">
+    <row r="19" spans="2:47">
       <c r="B19" s="2">
         <v>1953.25</v>
       </c>
@@ -2276,8 +2322,9 @@
         <v>15.125</v>
       </c>
       <c r="AS19" s="10"/>
+      <c r="AU19" s="10"/>
     </row>
-    <row r="20" spans="2:45">
+    <row r="20" spans="2:47">
       <c r="B20" s="2">
         <v>1953.5</v>
       </c>
@@ -2343,8 +2390,9 @@
         <v>15.188000000000001</v>
       </c>
       <c r="AS20" s="10"/>
+      <c r="AU20" s="10"/>
     </row>
-    <row r="21" spans="2:45">
+    <row r="21" spans="2:47">
       <c r="B21" s="2">
         <v>1953.75</v>
       </c>
@@ -2410,8 +2458,9 @@
         <v>15.218999999999999</v>
       </c>
       <c r="AS21" s="10"/>
+      <c r="AU21" s="10"/>
     </row>
-    <row r="22" spans="2:45">
+    <row r="22" spans="2:47">
       <c r="B22" s="2">
         <v>1954</v>
       </c>
@@ -2477,8 +2526,9 @@
         <v>15.266</v>
       </c>
       <c r="AS22" s="10"/>
+      <c r="AU22" s="10"/>
     </row>
-    <row r="23" spans="2:45">
+    <row r="23" spans="2:47">
       <c r="B23" s="2">
         <v>1954.25</v>
       </c>
@@ -2544,8 +2594,9 @@
         <v>15.281000000000001</v>
       </c>
       <c r="AS23" s="10"/>
+      <c r="AU23" s="10"/>
     </row>
-    <row r="24" spans="2:45">
+    <row r="24" spans="2:47">
       <c r="B24" s="2">
         <v>1954.5</v>
       </c>
@@ -2614,8 +2665,11 @@
         <v>15.3</v>
       </c>
       <c r="AS24" s="10"/>
+      <c r="AU24" s="10">
+        <v>1.06</v>
+      </c>
     </row>
-    <row r="25" spans="2:45">
+    <row r="25" spans="2:47">
       <c r="B25" s="2">
         <v>1954.75</v>
       </c>
@@ -2684,8 +2738,11 @@
         <v>15.343</v>
       </c>
       <c r="AS25" s="10"/>
+      <c r="AU25" s="10">
+        <v>1.28</v>
+      </c>
     </row>
-    <row r="26" spans="2:45">
+    <row r="26" spans="2:47">
       <c r="B26" s="2">
         <v>1955</v>
       </c>
@@ -2754,8 +2811,11 @@
         <v>15.417</v>
       </c>
       <c r="AS26" s="10"/>
+      <c r="AU26" s="10">
+        <v>1.35</v>
+      </c>
     </row>
-    <row r="27" spans="2:45">
+    <row r="27" spans="2:47">
       <c r="B27" s="2">
         <v>1955.25</v>
       </c>
@@ -2824,8 +2884,11 @@
         <v>15.481</v>
       </c>
       <c r="AS27" s="10"/>
+      <c r="AU27" s="10">
+        <v>1.64</v>
+      </c>
     </row>
-    <row r="28" spans="2:45">
+    <row r="28" spans="2:47">
       <c r="B28" s="2">
         <v>1955.5</v>
       </c>
@@ -2894,8 +2957,11 @@
         <v>15.59</v>
       </c>
       <c r="AS28" s="10"/>
+      <c r="AU28" s="10">
+        <v>2.1800000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="2:45">
+    <row r="29" spans="2:47">
       <c r="B29" s="2">
         <v>1955.75</v>
       </c>
@@ -2964,8 +3030,11 @@
         <v>15.743</v>
       </c>
       <c r="AS29" s="10"/>
+      <c r="AU29" s="10">
+        <v>2.48</v>
+      </c>
     </row>
-    <row r="30" spans="2:45">
+    <row r="30" spans="2:47">
       <c r="B30" s="2">
         <v>1956</v>
       </c>
@@ -3034,8 +3103,11 @@
         <v>15.901999999999999</v>
       </c>
       <c r="AS30" s="10"/>
+      <c r="AU30" s="10">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="31" spans="2:45">
+    <row r="31" spans="2:47">
       <c r="B31" s="2">
         <v>1956.25</v>
       </c>
@@ -3104,8 +3176,11 @@
         <v>15.997</v>
       </c>
       <c r="AS31" s="10"/>
+      <c r="AU31" s="10">
+        <v>2.71</v>
+      </c>
     </row>
-    <row r="32" spans="2:45">
+    <row r="32" spans="2:47">
       <c r="B32" s="2">
         <v>1956.5</v>
       </c>
@@ -3174,8 +3249,11 @@
         <v>16.196999999999999</v>
       </c>
       <c r="AS32" s="10"/>
+      <c r="AU32" s="10">
+        <v>2.95</v>
+      </c>
     </row>
-    <row r="33" spans="2:45">
+    <row r="33" spans="2:47">
       <c r="B33" s="2">
         <v>1956.75</v>
       </c>
@@ -3244,8 +3322,11 @@
         <v>16.263999999999999</v>
       </c>
       <c r="AS33" s="10"/>
+      <c r="AU33" s="10">
+        <v>2.94</v>
+      </c>
     </row>
-    <row r="34" spans="2:45">
+    <row r="34" spans="2:47">
       <c r="B34" s="2">
         <v>1957</v>
       </c>
@@ -3314,8 +3395,11 @@
         <v>16.484999999999999</v>
       </c>
       <c r="AS34" s="10"/>
+      <c r="AU34" s="10">
+        <v>2.96</v>
+      </c>
     </row>
-    <row r="35" spans="2:45">
+    <row r="35" spans="2:47">
       <c r="B35" s="2">
         <v>1957.25</v>
       </c>
@@ -3384,8 +3468,11 @@
         <v>16.600999999999999</v>
       </c>
       <c r="AS35" s="10"/>
+      <c r="AU35" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="36" spans="2:45">
+    <row r="36" spans="2:47">
       <c r="B36" s="2">
         <v>1957.5</v>
       </c>
@@ -3454,8 +3541,11 @@
         <v>16.701000000000001</v>
       </c>
       <c r="AS36" s="10"/>
+      <c r="AU36" s="10">
+        <v>3.47</v>
+      </c>
     </row>
-    <row r="37" spans="2:45">
+    <row r="37" spans="2:47">
       <c r="B37" s="2">
         <v>1957.75</v>
       </c>
@@ -3524,8 +3614,11 @@
         <v>16.710999999999999</v>
       </c>
       <c r="AS37" s="10"/>
+      <c r="AU37" s="10">
+        <v>2.98</v>
+      </c>
     </row>
-    <row r="38" spans="2:45">
+    <row r="38" spans="2:47">
       <c r="B38" s="2">
         <v>1958</v>
       </c>
@@ -3594,8 +3687,11 @@
         <v>16.891999999999999</v>
       </c>
       <c r="AS38" s="10"/>
+      <c r="AU38" s="10">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="39" spans="2:45">
+    <row r="39" spans="2:47">
       <c r="B39" s="2">
         <v>1958.25</v>
       </c>
@@ -3664,8 +3760,11 @@
         <v>16.940000000000001</v>
       </c>
       <c r="AS39" s="10"/>
+      <c r="AU39" s="10">
+        <v>0.93</v>
+      </c>
     </row>
-    <row r="40" spans="2:45">
+    <row r="40" spans="2:47">
       <c r="B40" s="2">
         <v>1958.5</v>
       </c>
@@ -3734,8 +3833,11 @@
         <v>17.042999999999999</v>
       </c>
       <c r="AS40" s="10"/>
+      <c r="AU40" s="10">
+        <v>1.76</v>
+      </c>
     </row>
-    <row r="41" spans="2:45">
+    <row r="41" spans="2:47">
       <c r="B41" s="2">
         <v>1958.75</v>
       </c>
@@ -3804,8 +3906,11 @@
         <v>17.123000000000001</v>
       </c>
       <c r="AS41" s="10"/>
+      <c r="AU41" s="10">
+        <v>2.42</v>
+      </c>
     </row>
-    <row r="42" spans="2:45">
+    <row r="42" spans="2:47">
       <c r="B42" s="2">
         <v>1959</v>
       </c>
@@ -3874,8 +3979,11 @@
         <v>17.169</v>
       </c>
       <c r="AS42" s="10"/>
+      <c r="AU42" s="10">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="43" spans="2:45">
+    <row r="43" spans="2:47">
       <c r="B43" s="2">
         <v>1959.25</v>
       </c>
@@ -3944,8 +4052,11 @@
         <v>17.193999999999999</v>
       </c>
       <c r="AS43" s="10"/>
+      <c r="AU43" s="10">
+        <v>3.39</v>
+      </c>
     </row>
-    <row r="44" spans="2:45">
+    <row r="44" spans="2:47">
       <c r="B44" s="2">
         <v>1959.5</v>
       </c>
@@ -4014,8 +4125,11 @@
         <v>17.257999999999999</v>
       </c>
       <c r="AS44" s="10"/>
+      <c r="AU44" s="10">
+        <v>3.76</v>
+      </c>
     </row>
-    <row r="45" spans="2:45">
+    <row r="45" spans="2:47">
       <c r="B45" s="2">
         <v>1959.75</v>
       </c>
@@ -4084,8 +4198,11 @@
         <v>17.326000000000001</v>
       </c>
       <c r="AS45" s="10"/>
+      <c r="AU45" s="10">
+        <v>3.99</v>
+      </c>
     </row>
-    <row r="46" spans="2:45">
+    <row r="46" spans="2:47">
       <c r="B46" s="2">
         <v>1960</v>
       </c>
@@ -4157,8 +4274,11 @@
         <v>17.396999999999998</v>
       </c>
       <c r="AS46" s="10"/>
+      <c r="AU46" s="10">
+        <v>3.84</v>
+      </c>
     </row>
-    <row r="47" spans="2:45">
+    <row r="47" spans="2:47">
       <c r="B47" s="2">
         <v>1960.25</v>
       </c>
@@ -4230,8 +4350,11 @@
         <v>17.443000000000001</v>
       </c>
       <c r="AS47" s="10"/>
+      <c r="AU47" s="10">
+        <v>3.32</v>
+      </c>
     </row>
-    <row r="48" spans="2:45">
+    <row r="48" spans="2:47">
       <c r="B48" s="2">
         <v>1960.5</v>
       </c>
@@ -4303,8 +4426,11 @@
         <v>17.506</v>
       </c>
       <c r="AS48" s="10"/>
+      <c r="AU48" s="10">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="49" spans="2:45">
+    <row r="49" spans="2:47">
       <c r="B49" s="2">
         <v>1960.75</v>
       </c>
@@ -4376,8 +4502,11 @@
         <v>17.559999999999999</v>
       </c>
       <c r="AS49" s="10"/>
+      <c r="AU49" s="10">
+        <v>1.98</v>
+      </c>
     </row>
-    <row r="50" spans="2:45">
+    <row r="50" spans="2:47">
       <c r="B50" s="2">
         <v>1961</v>
       </c>
@@ -4449,8 +4578,11 @@
         <v>17.597999999999999</v>
       </c>
       <c r="AS50" s="10"/>
+      <c r="AU50" s="10">
+        <v>2.02</v>
+      </c>
     </row>
-    <row r="51" spans="2:45">
+    <row r="51" spans="2:47">
       <c r="B51" s="2">
         <v>1961.25</v>
       </c>
@@ -4522,8 +4654,11 @@
         <v>17.640999999999998</v>
       </c>
       <c r="AS51" s="10"/>
+      <c r="AU51" s="10">
+        <v>1.73</v>
+      </c>
     </row>
-    <row r="52" spans="2:45">
+    <row r="52" spans="2:47">
       <c r="B52" s="2">
         <v>1961.5</v>
       </c>
@@ -4595,8 +4730,11 @@
         <v>17.687000000000001</v>
       </c>
       <c r="AS52" s="10"/>
+      <c r="AU52" s="10">
+        <v>1.88</v>
+      </c>
     </row>
-    <row r="53" spans="2:45">
+    <row r="53" spans="2:47">
       <c r="B53" s="2">
         <v>1961.75</v>
       </c>
@@ -4668,8 +4806,11 @@
         <v>17.745000000000001</v>
       </c>
       <c r="AS53" s="10"/>
+      <c r="AU53" s="10">
+        <v>2.33</v>
+      </c>
     </row>
-    <row r="54" spans="2:45">
+    <row r="54" spans="2:47">
       <c r="B54" s="2">
         <v>1962</v>
       </c>
@@ -4741,8 +4882,11 @@
         <v>17.837</v>
       </c>
       <c r="AS54" s="10"/>
+      <c r="AU54" s="10">
+        <v>2.85</v>
+      </c>
     </row>
-    <row r="55" spans="2:45">
+    <row r="55" spans="2:47">
       <c r="B55" s="2">
         <v>1962.25</v>
       </c>
@@ -4814,8 +4958,11 @@
         <v>17.866</v>
       </c>
       <c r="AS55" s="10"/>
+      <c r="AU55" s="10">
+        <v>2.68</v>
+      </c>
     </row>
-    <row r="56" spans="2:45">
+    <row r="56" spans="2:47">
       <c r="B56" s="2">
         <v>1962.5</v>
       </c>
@@ -4887,8 +5034,11 @@
         <v>17.902999999999999</v>
       </c>
       <c r="AS56" s="10"/>
+      <c r="AU56" s="10">
+        <v>2.9</v>
+      </c>
     </row>
-    <row r="57" spans="2:45">
+    <row r="57" spans="2:47">
       <c r="B57" s="2">
         <v>1962.75</v>
       </c>
@@ -4960,8 +5110,11 @@
         <v>17.937999999999999</v>
       </c>
       <c r="AS57" s="10"/>
+      <c r="AU57" s="10">
+        <v>2.93</v>
+      </c>
     </row>
-    <row r="58" spans="2:45">
+    <row r="58" spans="2:47">
       <c r="B58" s="2">
         <v>1963</v>
       </c>
@@ -5033,8 +5186,11 @@
         <v>18.016999999999999</v>
       </c>
       <c r="AS58" s="10"/>
+      <c r="AU58" s="10">
+        <v>2.98</v>
+      </c>
     </row>
-    <row r="59" spans="2:45">
+    <row r="59" spans="2:47">
       <c r="B59" s="2">
         <v>1963.25</v>
       </c>
@@ -5106,8 +5262,11 @@
         <v>18.047000000000001</v>
       </c>
       <c r="AS59" s="10"/>
+      <c r="AU59" s="10">
+        <v>2.99</v>
+      </c>
     </row>
-    <row r="60" spans="2:45">
+    <row r="60" spans="2:47">
       <c r="B60" s="2">
         <v>1963.5</v>
       </c>
@@ -5179,8 +5338,11 @@
         <v>18.068999999999999</v>
       </c>
       <c r="AS60" s="10"/>
+      <c r="AU60" s="10">
+        <v>3.48</v>
+      </c>
     </row>
-    <row r="61" spans="2:45">
+    <row r="61" spans="2:47">
       <c r="B61" s="2">
         <v>1963.75</v>
       </c>
@@ -5252,8 +5414,11 @@
         <v>18.216000000000001</v>
       </c>
       <c r="AS61" s="10"/>
+      <c r="AU61" s="10">
+        <v>3.38</v>
+      </c>
     </row>
-    <row r="62" spans="2:45">
+    <row r="62" spans="2:47">
       <c r="B62" s="2">
         <v>1964</v>
       </c>
@@ -5325,8 +5490,11 @@
         <v>18.274000000000001</v>
       </c>
       <c r="AS62" s="10"/>
+      <c r="AU62" s="10">
+        <v>3.43</v>
+      </c>
     </row>
-    <row r="63" spans="2:45">
+    <row r="63" spans="2:47">
       <c r="B63" s="2">
         <v>1964.25</v>
       </c>
@@ -5398,8 +5566,11 @@
         <v>18.318000000000001</v>
       </c>
       <c r="AS63" s="10"/>
+      <c r="AU63" s="10">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="64" spans="2:45">
+    <row r="64" spans="2:47">
       <c r="B64" s="2">
         <v>1964.5</v>
       </c>
@@ -5471,8 +5642,11 @@
         <v>18.391999999999999</v>
       </c>
       <c r="AS64" s="10"/>
+      <c r="AU64" s="10">
+        <v>3.45</v>
+      </c>
     </row>
-    <row r="65" spans="2:45">
+    <row r="65" spans="2:47">
       <c r="B65" s="2">
         <v>1964.75</v>
       </c>
@@ -5544,8 +5718,11 @@
         <v>18.475999999999999</v>
       </c>
       <c r="AS65" s="10"/>
+      <c r="AU65" s="10">
+        <v>3.85</v>
+      </c>
     </row>
-    <row r="66" spans="2:45">
+    <row r="66" spans="2:47">
       <c r="B66" s="2">
         <v>1965</v>
       </c>
@@ -5617,8 +5794,11 @@
         <v>18.568999999999999</v>
       </c>
       <c r="AS66" s="10"/>
+      <c r="AU66" s="10">
+        <v>4.04</v>
+      </c>
     </row>
-    <row r="67" spans="2:45">
+    <row r="67" spans="2:47">
       <c r="B67" s="2">
         <v>1965.25</v>
       </c>
@@ -5690,8 +5870,11 @@
         <v>18.652000000000001</v>
       </c>
       <c r="AS67" s="10"/>
+      <c r="AU67" s="10">
+        <v>4.04</v>
+      </c>
     </row>
-    <row r="68" spans="2:45">
+    <row r="68" spans="2:47">
       <c r="B68" s="2">
         <v>1965.5</v>
       </c>
@@ -5763,8 +5946,11 @@
         <v>18.725999999999999</v>
       </c>
       <c r="AS68" s="10"/>
+      <c r="AU68" s="10">
+        <v>4.01</v>
+      </c>
     </row>
-    <row r="69" spans="2:45">
+    <row r="69" spans="2:47">
       <c r="B69" s="2">
         <v>1965.75</v>
       </c>
@@ -5836,8 +6022,11 @@
         <v>18.853000000000002</v>
       </c>
       <c r="AS69" s="10"/>
+      <c r="AU69" s="10">
+        <v>4.32</v>
+      </c>
     </row>
-    <row r="70" spans="2:45">
+    <row r="70" spans="2:47">
       <c r="B70" s="2">
         <v>1966</v>
       </c>
@@ -5909,8 +6098,11 @@
         <v>18.975000000000001</v>
       </c>
       <c r="AS70" s="10"/>
+      <c r="AU70" s="10">
+        <v>4.6500000000000004</v>
+      </c>
     </row>
-    <row r="71" spans="2:45">
+    <row r="71" spans="2:47">
       <c r="B71" s="2">
         <v>1966.25</v>
       </c>
@@ -5982,8 +6174,11 @@
         <v>19.131</v>
       </c>
       <c r="AS71" s="10"/>
+      <c r="AU71" s="10">
+        <v>5.17</v>
+      </c>
     </row>
-    <row r="72" spans="2:45">
+    <row r="72" spans="2:47">
       <c r="B72" s="2">
         <v>1966.5</v>
       </c>
@@ -6055,8 +6250,11 @@
         <v>19.317</v>
       </c>
       <c r="AS72" s="10"/>
+      <c r="AU72" s="10">
+        <v>5.4</v>
+      </c>
     </row>
-    <row r="73" spans="2:45">
+    <row r="73" spans="2:47">
       <c r="B73" s="2">
         <v>1966.75</v>
       </c>
@@ -6128,8 +6326,11 @@
         <v>19.481000000000002</v>
       </c>
       <c r="AS73" s="10"/>
+      <c r="AU73" s="10">
+        <v>5.4</v>
+      </c>
     </row>
-    <row r="74" spans="2:45">
+    <row r="74" spans="2:47">
       <c r="B74" s="2">
         <v>1967</v>
       </c>
@@ -6201,8 +6402,11 @@
         <v>19.562000000000001</v>
       </c>
       <c r="AS74" s="10"/>
+      <c r="AU74" s="10">
+        <v>4.53</v>
+      </c>
     </row>
-    <row r="75" spans="2:45">
+    <row r="75" spans="2:47">
       <c r="B75" s="2">
         <v>1967.25</v>
       </c>
@@ -6274,8 +6478,11 @@
         <v>19.661000000000001</v>
       </c>
       <c r="AS75" s="10"/>
+      <c r="AU75" s="10">
+        <v>3.98</v>
+      </c>
     </row>
-    <row r="76" spans="2:45">
+    <row r="76" spans="2:47">
       <c r="B76" s="2">
         <v>1967.5</v>
       </c>
@@ -6348,8 +6555,11 @@
         <v>19.849</v>
       </c>
       <c r="AS76" s="10"/>
+      <c r="AU76" s="10">
+        <v>3.99</v>
+      </c>
     </row>
-    <row r="77" spans="2:45">
+    <row r="77" spans="2:47">
       <c r="B77" s="2">
         <v>1967.75</v>
       </c>
@@ -6422,8 +6632,11 @@
         <v>20.067</v>
       </c>
       <c r="AS77" s="10"/>
+      <c r="AU77" s="10">
+        <v>4.51</v>
+      </c>
     </row>
-    <row r="78" spans="2:45">
+    <row r="78" spans="2:47">
       <c r="B78" s="2">
         <v>1968</v>
       </c>
@@ -6496,8 +6709,11 @@
         <v>20.29</v>
       </c>
       <c r="AS78" s="10"/>
+      <c r="AU78" s="10">
+        <v>5.05</v>
+      </c>
     </row>
-    <row r="79" spans="2:45">
+    <row r="79" spans="2:47">
       <c r="B79" s="2">
         <v>1968.25</v>
       </c>
@@ -6570,8 +6786,11 @@
         <v>20.504000000000001</v>
       </c>
       <c r="AS79" s="10"/>
+      <c r="AU79" s="10">
+        <v>6.07</v>
+      </c>
     </row>
-    <row r="80" spans="2:45">
+    <row r="80" spans="2:47">
       <c r="B80" s="2">
         <v>1968.5</v>
       </c>
@@ -6644,8 +6863,11 @@
         <v>20.706</v>
       </c>
       <c r="AS80" s="10"/>
+      <c r="AU80" s="10">
+        <v>5.78</v>
+      </c>
     </row>
-    <row r="81" spans="2:45">
+    <row r="81" spans="2:47">
       <c r="B81" s="2">
         <v>1968.75</v>
       </c>
@@ -6754,8 +6976,11 @@
         <v>20.998999999999999</v>
       </c>
       <c r="AS81" s="10"/>
+      <c r="AU81" s="10">
+        <v>6.02</v>
+      </c>
     </row>
-    <row r="82" spans="2:45">
+    <row r="82" spans="2:47">
       <c r="B82" s="2">
         <v>1969</v>
       </c>
@@ -6868,8 +7093,11 @@
         <v>21.216999999999999</v>
       </c>
       <c r="AS82" s="10"/>
+      <c r="AU82" s="10">
+        <v>6.79</v>
+      </c>
     </row>
-    <row r="83" spans="2:45">
+    <row r="83" spans="2:47">
       <c r="B83" s="2">
         <v>1969.25</v>
       </c>
@@ -6982,8 +7210,11 @@
         <v>21.488</v>
       </c>
       <c r="AS83" s="10"/>
+      <c r="AU83" s="10">
+        <v>8.9</v>
+      </c>
     </row>
-    <row r="84" spans="2:45">
+    <row r="84" spans="2:47">
       <c r="B84" s="2">
         <v>1969.5</v>
       </c>
@@ -7096,8 +7327,11 @@
         <v>21.79</v>
       </c>
       <c r="AS84" s="10"/>
+      <c r="AU84" s="10">
+        <v>9.15</v>
+      </c>
     </row>
-    <row r="85" spans="2:45">
+    <row r="85" spans="2:47">
       <c r="B85" s="2">
         <v>1969.75</v>
       </c>
@@ -7209,8 +7443,11 @@
         <v>22.071000000000002</v>
       </c>
       <c r="AS85" s="10"/>
+      <c r="AU85" s="10">
+        <v>8.9700000000000006</v>
+      </c>
     </row>
-    <row r="86" spans="2:45">
+    <row r="86" spans="2:47">
       <c r="B86" s="2">
         <v>1970</v>
       </c>
@@ -7324,8 +7561,11 @@
         <v>22.382000000000001</v>
       </c>
       <c r="AS86" s="10"/>
+      <c r="AU86" s="10">
+        <v>7.76</v>
+      </c>
     </row>
-    <row r="87" spans="2:45">
+    <row r="87" spans="2:47">
       <c r="B87" s="2">
         <v>1970.25</v>
       </c>
@@ -7437,8 +7677,11 @@
         <v>22.693999999999999</v>
       </c>
       <c r="AS87" s="10"/>
+      <c r="AU87" s="10">
+        <v>7.6</v>
+      </c>
     </row>
-    <row r="88" spans="2:45">
+    <row r="88" spans="2:47">
       <c r="B88" s="2">
         <v>1970.5</v>
       </c>
@@ -7550,8 +7793,11 @@
         <v>22.88</v>
       </c>
       <c r="AS88" s="10"/>
+      <c r="AU88" s="10">
+        <v>6.29</v>
+      </c>
     </row>
-    <row r="89" spans="2:45">
+    <row r="89" spans="2:47">
       <c r="B89" s="2">
         <v>1970.75</v>
       </c>
@@ -7663,8 +7909,11 @@
         <v>23.181999999999999</v>
       </c>
       <c r="AS89" s="10"/>
+      <c r="AU89" s="10">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
-    <row r="90" spans="2:45">
+    <row r="90" spans="2:47">
       <c r="B90" s="2">
         <v>1971</v>
       </c>
@@ -7776,8 +8025,11 @@
         <v>23.536000000000001</v>
       </c>
       <c r="AS90" s="10"/>
+      <c r="AU90" s="10">
+        <v>3.71</v>
+      </c>
     </row>
-    <row r="91" spans="2:45">
+    <row r="91" spans="2:47">
       <c r="B91" s="2">
         <v>1971.25</v>
       </c>
@@ -7889,8 +8141,11 @@
         <v>23.846</v>
       </c>
       <c r="AS91" s="10"/>
+      <c r="AU91" s="10">
+        <v>4.91</v>
+      </c>
     </row>
-    <row r="92" spans="2:45">
+    <row r="92" spans="2:47">
       <c r="B92" s="2">
         <v>1971.5</v>
       </c>
@@ -8002,8 +8257,11 @@
         <v>24.088000000000001</v>
       </c>
       <c r="AS92" s="10"/>
+      <c r="AU92" s="10">
+        <v>5.55</v>
+      </c>
     </row>
-    <row r="93" spans="2:45">
+    <row r="93" spans="2:47">
       <c r="B93" s="2">
         <v>1971.75</v>
       </c>
@@ -8115,8 +8373,11 @@
         <v>24.288</v>
       </c>
       <c r="AS93" s="10"/>
+      <c r="AU93" s="10">
+        <v>4.1399999999999997</v>
+      </c>
     </row>
-    <row r="94" spans="2:45">
+    <row r="94" spans="2:47">
       <c r="B94" s="2">
         <v>1972</v>
       </c>
@@ -8228,8 +8489,11 @@
         <v>24.664000000000001</v>
       </c>
       <c r="AS94" s="10"/>
+      <c r="AU94" s="10">
+        <v>3.83</v>
+      </c>
     </row>
-    <row r="95" spans="2:45">
+    <row r="95" spans="2:47">
       <c r="B95" s="2">
         <v>1972.25</v>
       </c>
@@ -8341,8 +8605,11 @@
         <v>24.815000000000001</v>
       </c>
       <c r="AS95" s="10"/>
+      <c r="AU95" s="10">
+        <v>4.46</v>
+      </c>
     </row>
-    <row r="96" spans="2:45">
+    <row r="96" spans="2:47">
       <c r="B96" s="2">
         <v>1972.5</v>
       </c>
@@ -8454,8 +8721,11 @@
         <v>25.047999999999998</v>
       </c>
       <c r="AS96" s="10"/>
+      <c r="AU96" s="10">
+        <v>4.87</v>
+      </c>
     </row>
-    <row r="97" spans="2:45">
+    <row r="97" spans="2:47">
       <c r="B97" s="2">
         <v>1972.75</v>
       </c>
@@ -8567,8 +8837,11 @@
         <v>25.366</v>
       </c>
       <c r="AS97" s="10"/>
+      <c r="AU97" s="10">
+        <v>5.33</v>
+      </c>
     </row>
-    <row r="98" spans="2:45">
+    <row r="98" spans="2:47">
       <c r="B98" s="2">
         <v>1973</v>
       </c>
@@ -8680,8 +8953,14 @@
         <v>25.661000000000001</v>
       </c>
       <c r="AS98" s="10"/>
+      <c r="AT98" s="3">
+        <v>1.026</v>
+      </c>
+      <c r="AU98" s="10">
+        <v>7.09</v>
+      </c>
     </row>
-    <row r="99" spans="2:45">
+    <row r="99" spans="2:47">
       <c r="B99" s="2">
         <v>1973.25</v>
       </c>
@@ -8793,8 +9072,14 @@
         <v>26.052</v>
       </c>
       <c r="AS99" s="10"/>
+      <c r="AT99" s="3">
+        <v>1.0113000000000001</v>
+      </c>
+      <c r="AU99" s="10">
+        <v>8.49</v>
+      </c>
     </row>
-    <row r="100" spans="2:45">
+    <row r="100" spans="2:47">
       <c r="B100" s="2">
         <v>1973.5</v>
       </c>
@@ -8906,8 +9191,14 @@
         <v>26.548999999999999</v>
       </c>
       <c r="AS100" s="10"/>
+      <c r="AT100" s="3">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="AU100" s="10">
+        <v>10.78</v>
+      </c>
     </row>
-    <row r="101" spans="2:45">
+    <row r="101" spans="2:47">
       <c r="B101" s="2">
         <v>1973.75</v>
       </c>
@@ -9019,8 +9310,14 @@
         <v>27.077000000000002</v>
       </c>
       <c r="AS101" s="10"/>
+      <c r="AT101" s="3">
+        <v>1.2197</v>
+      </c>
+      <c r="AU101" s="10">
+        <v>9.9499999999999993</v>
+      </c>
     </row>
-    <row r="102" spans="2:45">
+    <row r="102" spans="2:47">
       <c r="B102" s="2">
         <v>1974</v>
       </c>
@@ -9132,8 +9429,14 @@
         <v>27.591999999999999</v>
       </c>
       <c r="AS102" s="10"/>
+      <c r="AT102" s="3">
+        <v>1.1686000000000001</v>
+      </c>
+      <c r="AU102" s="10">
+        <v>9.35</v>
+      </c>
     </row>
-    <row r="103" spans="2:45">
+    <row r="103" spans="2:47">
       <c r="B103" s="2">
         <v>1974.25</v>
       </c>
@@ -9245,8 +9548,14 @@
         <v>28.248000000000001</v>
       </c>
       <c r="AS103" s="10"/>
+      <c r="AT103" s="3">
+        <v>1.6315</v>
+      </c>
+      <c r="AU103" s="10">
+        <v>11.93</v>
+      </c>
     </row>
-    <row r="104" spans="2:45">
+    <row r="104" spans="2:47">
       <c r="B104" s="2">
         <v>1974.5</v>
       </c>
@@ -9360,8 +9669,14 @@
         <v>29.067</v>
       </c>
       <c r="AS104" s="10"/>
+      <c r="AT104" s="3">
+        <v>2.1772</v>
+      </c>
+      <c r="AU104" s="10">
+        <v>11.34</v>
+      </c>
     </row>
-    <row r="105" spans="2:45">
+    <row r="105" spans="2:47">
       <c r="B105" s="2">
         <v>1974.75</v>
       </c>
@@ -9473,8 +9788,14 @@
         <v>29.922999999999998</v>
       </c>
       <c r="AS105" s="10"/>
+      <c r="AT105" s="3">
+        <v>2.1158999999999999</v>
+      </c>
+      <c r="AU105" s="10">
+        <v>8.5299999999999994</v>
+      </c>
     </row>
-    <row r="106" spans="2:45">
+    <row r="106" spans="2:47">
       <c r="B106" s="2">
         <v>1975</v>
       </c>
@@ -9586,8 +9907,14 @@
         <v>30.600999999999999</v>
       </c>
       <c r="AS106" s="10"/>
+      <c r="AT106" s="3">
+        <v>1.5933999999999999</v>
+      </c>
+      <c r="AU106" s="10">
+        <v>5.54</v>
+      </c>
     </row>
-    <row r="107" spans="2:45">
+    <row r="107" spans="2:47">
       <c r="B107" s="2">
         <v>1975.25</v>
       </c>
@@ -9699,8 +10026,14 @@
         <v>31.059000000000001</v>
       </c>
       <c r="AS107" s="10"/>
+      <c r="AT107" s="3">
+        <v>1.4368000000000001</v>
+      </c>
+      <c r="AU107" s="10">
+        <v>5.55</v>
+      </c>
     </row>
-    <row r="108" spans="2:45">
+    <row r="108" spans="2:47">
       <c r="B108" s="2">
         <v>1975.5</v>
       </c>
@@ -9812,8 +10145,14 @@
         <v>31.611999999999998</v>
       </c>
       <c r="AS108" s="10"/>
+      <c r="AT108" s="3">
+        <v>1.3525</v>
+      </c>
+      <c r="AU108" s="10">
+        <v>6.24</v>
+      </c>
     </row>
-    <row r="109" spans="2:45">
+    <row r="109" spans="2:47">
       <c r="B109" s="2">
         <v>1975.75</v>
       </c>
@@ -9925,8 +10264,14 @@
         <v>32.139000000000003</v>
       </c>
       <c r="AS109" s="10"/>
+      <c r="AT109" s="3">
+        <v>1.1652</v>
+      </c>
+      <c r="AU109" s="10">
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="110" spans="2:45">
+    <row r="110" spans="2:47">
       <c r="B110" s="2">
         <v>1976</v>
       </c>
@@ -10038,8 +10383,14 @@
         <v>32.472999999999999</v>
       </c>
       <c r="AS110" s="10"/>
+      <c r="AT110" s="3">
+        <v>1.0137</v>
+      </c>
+      <c r="AU110" s="10">
+        <v>4.84</v>
+      </c>
     </row>
-    <row r="111" spans="2:45">
+    <row r="111" spans="2:47">
       <c r="B111" s="2">
         <v>1976.25</v>
       </c>
@@ -10151,8 +10502,14 @@
         <v>32.802999999999997</v>
       </c>
       <c r="AS111" s="10"/>
+      <c r="AT111" s="3">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="AU111" s="10">
+        <v>5.48</v>
+      </c>
     </row>
-    <row r="112" spans="2:45">
+    <row r="112" spans="2:47">
       <c r="B112" s="2">
         <v>1976.5</v>
       </c>
@@ -10264,8 +10621,14 @@
         <v>33.225999999999999</v>
       </c>
       <c r="AS112" s="10"/>
+      <c r="AT112" s="3">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="AU112" s="10">
+        <v>5.25</v>
+      </c>
     </row>
-    <row r="113" spans="2:45">
+    <row r="113" spans="2:47">
       <c r="B113" s="2">
         <v>1976.75</v>
       </c>
@@ -10377,8 +10740,14 @@
         <v>33.814999999999998</v>
       </c>
       <c r="AS113" s="10"/>
+      <c r="AT113" s="3">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="AU113" s="10">
+        <v>4.6500000000000004</v>
+      </c>
     </row>
-    <row r="114" spans="2:45">
+    <row r="114" spans="2:47">
       <c r="B114" s="2">
         <v>1977</v>
       </c>
@@ -10490,8 +10859,14 @@
         <v>34.359000000000002</v>
       </c>
       <c r="AS114" s="10"/>
+      <c r="AT114" s="3">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="AU114" s="10">
+        <v>4.6900000000000004</v>
+      </c>
     </row>
-    <row r="115" spans="2:45">
+    <row r="115" spans="2:47">
       <c r="B115" s="2">
         <v>1977.25</v>
       </c>
@@ -10603,8 +10978,14 @@
         <v>34.841000000000001</v>
       </c>
       <c r="AS115" s="10"/>
+      <c r="AT115" s="3">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="AU115" s="10">
+        <v>5.39</v>
+      </c>
     </row>
-    <row r="116" spans="2:45">
+    <row r="116" spans="2:47">
       <c r="B116" s="2">
         <v>1977.5</v>
       </c>
@@ -10716,8 +11097,14 @@
         <v>35.270000000000003</v>
       </c>
       <c r="AS116" s="10"/>
+      <c r="AT116" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AU116" s="10">
+        <v>6.14</v>
+      </c>
     </row>
-    <row r="117" spans="2:45">
+    <row r="117" spans="2:47">
       <c r="B117" s="2">
         <v>1977.75</v>
       </c>
@@ -10829,8 +11216,14 @@
         <v>36.036000000000001</v>
       </c>
       <c r="AS117" s="10"/>
+      <c r="AT117" s="3">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="AU117" s="10">
+        <v>6.56</v>
+      </c>
     </row>
-    <row r="118" spans="2:45">
+    <row r="118" spans="2:47">
       <c r="B118" s="2">
         <v>1978</v>
       </c>
@@ -10942,8 +11335,14 @@
         <v>36.573</v>
       </c>
       <c r="AS118" s="10"/>
+      <c r="AT118" s="3">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="AU118" s="10">
+        <v>6.79</v>
+      </c>
     </row>
-    <row r="119" spans="2:45">
+    <row r="119" spans="2:47">
       <c r="B119" s="2">
         <v>1978.25</v>
       </c>
@@ -11058,8 +11457,14 @@
         <v>37.241999999999997</v>
       </c>
       <c r="AS119" s="10"/>
+      <c r="AT119" s="3">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="AU119" s="10">
+        <v>7.6</v>
+      </c>
     </row>
-    <row r="120" spans="2:45">
+    <row r="120" spans="2:47">
       <c r="B120" s="2">
         <v>1978.5</v>
       </c>
@@ -11174,8 +11579,14 @@
         <v>37.865000000000002</v>
       </c>
       <c r="AS120" s="10"/>
+      <c r="AT120" s="3">
+        <v>0.61029999999999995</v>
+      </c>
+      <c r="AU120" s="10">
+        <v>8.4499999999999993</v>
+      </c>
     </row>
-    <row r="121" spans="2:45">
+    <row r="121" spans="2:47">
       <c r="B121" s="2">
         <v>1978.75</v>
       </c>
@@ -11290,8 +11701,14 @@
         <v>38.661000000000001</v>
       </c>
       <c r="AS121" s="10"/>
+      <c r="AT121" s="3">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="AU121" s="10">
+        <v>10.029999999999999</v>
+      </c>
     </row>
-    <row r="122" spans="2:45">
+    <row r="122" spans="2:47">
       <c r="B122" s="2">
         <v>1979</v>
       </c>
@@ -11406,8 +11823,14 @@
         <v>39.351999999999997</v>
       </c>
       <c r="AS122" s="10"/>
+      <c r="AT122" s="3">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="AU122" s="10">
+        <v>10.09</v>
+      </c>
     </row>
-    <row r="123" spans="2:45">
+    <row r="123" spans="2:47">
       <c r="B123" s="2">
         <v>1979.25</v>
       </c>
@@ -11522,8 +11945,14 @@
         <v>40.304000000000002</v>
       </c>
       <c r="AS123" s="10"/>
+      <c r="AT123" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="AU123" s="10">
+        <v>10.29</v>
+      </c>
     </row>
-    <row r="124" spans="2:45">
+    <row r="124" spans="2:47">
       <c r="B124" s="2">
         <v>1979.5</v>
       </c>
@@ -11638,8 +12067,14 @@
         <v>41.164999999999999</v>
       </c>
       <c r="AS124" s="10"/>
+      <c r="AT124" s="3">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="AU124" s="10">
+        <v>11.43</v>
+      </c>
     </row>
-    <row r="125" spans="2:45">
+    <row r="125" spans="2:47">
       <c r="B125" s="2">
         <v>1979.75</v>
       </c>
@@ -11754,8 +12189,14 @@
         <v>41.985999999999997</v>
       </c>
       <c r="AS125" s="10"/>
+      <c r="AT125" s="3">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="AU125" s="10">
+        <v>13.78</v>
+      </c>
     </row>
-    <row r="126" spans="2:45">
+    <row r="126" spans="2:47">
       <c r="B126" s="2">
         <v>1980</v>
       </c>
@@ -11870,8 +12311,14 @@
         <v>42.859000000000002</v>
       </c>
       <c r="AS126" s="10"/>
+      <c r="AT126" s="3">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="AU126" s="10">
+        <v>17.190000000000001</v>
+      </c>
     </row>
-    <row r="127" spans="2:45">
+    <row r="127" spans="2:47">
       <c r="B127" s="2">
         <v>1980.25</v>
       </c>
@@ -11986,8 +12433,14 @@
         <v>43.8</v>
       </c>
       <c r="AS127" s="10"/>
+      <c r="AT127" s="3">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="AU127" s="10">
+        <v>9.4700000000000006</v>
+      </c>
     </row>
-    <row r="128" spans="2:45">
+    <row r="128" spans="2:47">
       <c r="B128" s="2">
         <v>1980.5</v>
       </c>
@@ -12102,8 +12555,14 @@
         <v>44.808</v>
       </c>
       <c r="AS128" s="10"/>
+      <c r="AT128" s="3">
+        <v>0.8629</v>
+      </c>
+      <c r="AU128" s="10">
+        <v>10.87</v>
+      </c>
     </row>
-    <row r="129" spans="2:45">
+    <row r="129" spans="2:47">
       <c r="B129" s="2">
         <v>1980.75</v>
       </c>
@@ -12218,8 +12677,14 @@
         <v>46.045999999999999</v>
       </c>
       <c r="AS129" s="10"/>
+      <c r="AT129" s="3">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="AU129" s="10">
+        <v>18.899999999999999</v>
+      </c>
     </row>
-    <row r="130" spans="2:45">
+    <row r="130" spans="2:47">
       <c r="B130" s="2">
         <v>1981</v>
       </c>
@@ -12334,8 +12799,14 @@
         <v>47.195999999999998</v>
       </c>
       <c r="AS130" s="10"/>
+      <c r="AT130" s="3">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="AU130" s="10">
+        <v>14.7</v>
+      </c>
     </row>
-    <row r="131" spans="2:45">
+    <row r="131" spans="2:47">
       <c r="B131" s="2">
         <v>1981.25</v>
       </c>
@@ -12450,8 +12921,14 @@
         <v>48.081000000000003</v>
       </c>
       <c r="AS131" s="10"/>
+      <c r="AT131" s="3">
+        <v>1.1214999999999999</v>
+      </c>
+      <c r="AU131" s="10">
+        <v>19.100000000000001</v>
+      </c>
     </row>
-    <row r="132" spans="2:45">
+    <row r="132" spans="2:47">
       <c r="B132" s="2">
         <v>1981.5</v>
       </c>
@@ -12582,8 +13059,14 @@
         <v>48.945999999999998</v>
       </c>
       <c r="AS132" s="10"/>
+      <c r="AT132" s="3">
+        <v>1.1418999999999999</v>
+      </c>
+      <c r="AU132" s="10">
+        <v>15.87</v>
+      </c>
     </row>
-    <row r="133" spans="2:45">
+    <row r="133" spans="2:47">
       <c r="B133" s="2">
         <v>1981.75</v>
       </c>
@@ -12714,8 +13197,14 @@
         <v>49.863</v>
       </c>
       <c r="AS133" s="10"/>
+      <c r="AT133" s="3">
+        <v>1.4448000000000001</v>
+      </c>
+      <c r="AU133" s="10">
+        <v>12.37</v>
+      </c>
     </row>
-    <row r="134" spans="2:45">
+    <row r="134" spans="2:47">
       <c r="B134" s="2">
         <v>1982</v>
       </c>
@@ -12846,8 +13335,14 @@
         <v>50.561</v>
       </c>
       <c r="AS134" s="10"/>
+      <c r="AT134" s="3">
+        <v>1.5509999999999999</v>
+      </c>
+      <c r="AU134" s="10">
+        <v>14.68</v>
+      </c>
     </row>
-    <row r="135" spans="2:45">
+    <row r="135" spans="2:47">
       <c r="B135" s="2">
         <v>1982.25</v>
       </c>
@@ -12978,8 +13473,14 @@
         <v>51.17</v>
       </c>
       <c r="AS135" s="10"/>
+      <c r="AT135" s="3">
+        <v>1.5548999999999999</v>
+      </c>
+      <c r="AU135" s="10">
+        <v>14.15</v>
+      </c>
     </row>
-    <row r="136" spans="2:45">
+    <row r="136" spans="2:47">
       <c r="B136" s="2">
         <v>1982.5</v>
       </c>
@@ -13110,8 +13611,14 @@
         <v>51.906999999999996</v>
       </c>
       <c r="AS136" s="10"/>
+      <c r="AT136" s="3">
+        <v>1.6774</v>
+      </c>
+      <c r="AU136" s="10">
+        <v>10.31</v>
+      </c>
     </row>
-    <row r="137" spans="2:45">
+    <row r="137" spans="2:47">
       <c r="B137" s="2">
         <v>1982.75</v>
       </c>
@@ -13242,8 +13749,14 @@
         <v>52.482999999999997</v>
       </c>
       <c r="AS137" s="10"/>
+      <c r="AT137" s="3">
+        <v>1.5542</v>
+      </c>
+      <c r="AU137" s="10">
+        <v>8.9499999999999993</v>
+      </c>
     </row>
-    <row r="138" spans="2:45">
+    <row r="138" spans="2:47">
       <c r="B138" s="2">
         <v>1983</v>
       </c>
@@ -13374,8 +13887,14 @@
         <v>52.906999999999996</v>
       </c>
       <c r="AS138" s="10"/>
+      <c r="AT138" s="3">
+        <v>1.1416999999999999</v>
+      </c>
+      <c r="AU138" s="10">
+        <v>8.77</v>
+      </c>
     </row>
-    <row r="139" spans="2:45">
+    <row r="139" spans="2:47">
       <c r="B139" s="2">
         <v>1983.25</v>
       </c>
@@ -13506,8 +14025,14 @@
         <v>53.265000000000001</v>
       </c>
       <c r="AS139" s="10"/>
+      <c r="AT139" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="AU139" s="10">
+        <v>8.98</v>
+      </c>
     </row>
-    <row r="140" spans="2:45">
+    <row r="140" spans="2:47">
       <c r="B140" s="2">
         <v>1983.5</v>
       </c>
@@ -13638,8 +14163,14 @@
         <v>53.823</v>
       </c>
       <c r="AS140" s="10"/>
+      <c r="AT140" s="3">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="AU140" s="10">
+        <v>9.4499999999999993</v>
+      </c>
     </row>
-    <row r="141" spans="2:45">
+    <row r="141" spans="2:47">
       <c r="B141" s="2">
         <v>1983.75</v>
       </c>
@@ -13770,8 +14301,14 @@
         <v>54.219000000000001</v>
       </c>
       <c r="AS141" s="10"/>
+      <c r="AT141" s="3">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="AU141" s="10">
+        <v>9.4700000000000006</v>
+      </c>
     </row>
-    <row r="142" spans="2:45">
+    <row r="142" spans="2:47">
       <c r="B142" s="2">
         <v>1984</v>
       </c>
@@ -13902,8 +14439,14 @@
         <v>54.795999999999999</v>
       </c>
       <c r="AS142" s="10"/>
+      <c r="AT142" s="3">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="AU142" s="10">
+        <v>9.91</v>
+      </c>
     </row>
-    <row r="143" spans="2:45">
+    <row r="143" spans="2:47">
       <c r="B143" s="2">
         <v>1984.25</v>
       </c>
@@ -14034,8 +14577,14 @@
         <v>55.256999999999998</v>
       </c>
       <c r="AS143" s="10"/>
+      <c r="AT143" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="AU143" s="10">
+        <v>11.06</v>
+      </c>
     </row>
-    <row r="144" spans="2:45">
+    <row r="144" spans="2:47">
       <c r="B144" s="2">
         <v>1984.5</v>
       </c>
@@ -14166,8 +14715,14 @@
         <v>55.704999999999998</v>
       </c>
       <c r="AS144" s="10"/>
+      <c r="AT144" s="3">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="AU144" s="10">
+        <v>11.3</v>
+      </c>
     </row>
-    <row r="145" spans="2:45">
+    <row r="145" spans="2:47">
       <c r="B145" s="2">
         <v>1984.75</v>
       </c>
@@ -14298,8 +14853,14 @@
         <v>56.079000000000001</v>
       </c>
       <c r="AS145" s="10"/>
+      <c r="AT145" s="3">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="AU145" s="10">
+        <v>8.3800000000000008</v>
+      </c>
     </row>
-    <row r="146" spans="2:45">
+    <row r="146" spans="2:47">
       <c r="B146" s="2">
         <v>1985</v>
       </c>
@@ -14430,8 +14991,14 @@
         <v>56.723999999999997</v>
       </c>
       <c r="AS146" s="10"/>
+      <c r="AT146" s="3">
+        <v>1.0276000000000001</v>
+      </c>
+      <c r="AU146" s="10">
+        <v>8.58</v>
+      </c>
     </row>
-    <row r="147" spans="2:45">
+    <row r="147" spans="2:47">
       <c r="B147" s="2">
         <v>1985.25</v>
       </c>
@@ -14562,8 +15129,14 @@
         <v>57.075000000000003</v>
       </c>
       <c r="AS147" s="10"/>
+      <c r="AT147" s="3">
+        <v>1.1998</v>
+      </c>
+      <c r="AU147" s="10">
+        <v>7.53</v>
+      </c>
     </row>
-    <row r="148" spans="2:45">
+    <row r="148" spans="2:47">
       <c r="B148" s="2">
         <v>1985.5</v>
       </c>
@@ -14694,8 +15267,14 @@
         <v>57.405999999999999</v>
       </c>
       <c r="AS148" s="10"/>
+      <c r="AT148" s="3">
+        <v>1.2437</v>
+      </c>
+      <c r="AU148" s="10">
+        <v>7.92</v>
+      </c>
     </row>
-    <row r="149" spans="2:45">
+    <row r="149" spans="2:47">
       <c r="B149" s="2">
         <v>1985.75</v>
       </c>
@@ -14826,8 +15405,14 @@
         <v>57.738</v>
       </c>
       <c r="AS149" s="10"/>
+      <c r="AT149" s="3">
+        <v>1.4291</v>
+      </c>
+      <c r="AU149" s="10">
+        <v>8.27</v>
+      </c>
     </row>
-    <row r="150" spans="2:45">
+    <row r="150" spans="2:47">
       <c r="B150" s="2">
         <v>1986</v>
       </c>
@@ -14958,8 +15543,14 @@
         <v>58.02</v>
       </c>
       <c r="AS150" s="10"/>
+      <c r="AT150" s="3">
+        <v>1.8412999999999999</v>
+      </c>
+      <c r="AU150" s="10">
+        <v>7.48</v>
+      </c>
     </row>
-    <row r="151" spans="2:45">
+    <row r="151" spans="2:47">
       <c r="B151" s="2">
         <v>1986.25</v>
       </c>
@@ -15090,8 +15681,14 @@
         <v>58.252000000000002</v>
       </c>
       <c r="AS151" s="10"/>
+      <c r="AT151" s="3">
+        <v>1.972</v>
+      </c>
+      <c r="AU151" s="10">
+        <v>6.92</v>
+      </c>
     </row>
-    <row r="152" spans="2:45">
+    <row r="152" spans="2:47">
       <c r="B152" s="2">
         <v>1986.5</v>
       </c>
@@ -15222,8 +15819,14 @@
         <v>58.487000000000002</v>
       </c>
       <c r="AS152" s="10"/>
+      <c r="AT152" s="3">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="AU152" s="10">
+        <v>5.89</v>
+      </c>
     </row>
-    <row r="153" spans="2:45">
+    <row r="153" spans="2:47">
       <c r="B153" s="2">
         <v>1986.75</v>
       </c>
@@ -15354,8 +15957,14 @@
         <v>58.813000000000002</v>
       </c>
       <c r="AS153" s="10"/>
+      <c r="AT153" s="3">
+        <v>1.9807999999999999</v>
+      </c>
+      <c r="AU153" s="10">
+        <v>6.91</v>
+      </c>
     </row>
-    <row r="154" spans="2:45">
+    <row r="154" spans="2:47">
       <c r="B154" s="2">
         <v>1987</v>
       </c>
@@ -15486,8 +16095,14 @@
         <v>59.24</v>
       </c>
       <c r="AS154" s="10"/>
+      <c r="AT154" s="3">
+        <v>1.8228</v>
+      </c>
+      <c r="AU154" s="10">
+        <v>6.13</v>
+      </c>
     </row>
-    <row r="155" spans="2:45">
+    <row r="155" spans="2:47">
       <c r="B155" s="2">
         <v>1987.25</v>
       </c>
@@ -15618,8 +16233,14 @@
         <v>59.637</v>
       </c>
       <c r="AS155" s="10"/>
+      <c r="AT155" s="3">
+        <v>1.6871</v>
+      </c>
+      <c r="AU155" s="10">
+        <v>6.73</v>
+      </c>
     </row>
-    <row r="156" spans="2:45">
+    <row r="156" spans="2:47">
       <c r="B156" s="2">
         <v>1987.5</v>
       </c>
@@ -15750,8 +16371,14 @@
         <v>60.07</v>
       </c>
       <c r="AS156" s="10"/>
+      <c r="AT156" s="3">
+        <v>1.6107</v>
+      </c>
+      <c r="AU156" s="10">
+        <v>7.22</v>
+      </c>
     </row>
-    <row r="157" spans="2:45">
+    <row r="157" spans="2:47">
       <c r="B157" s="2">
         <v>1987.75</v>
       </c>
@@ -15882,8 +16509,14 @@
         <v>60.567</v>
       </c>
       <c r="AS157" s="10"/>
+      <c r="AT157" s="3">
+        <v>1.5905</v>
+      </c>
+      <c r="AU157" s="10">
+        <v>6.77</v>
+      </c>
     </row>
-    <row r="158" spans="2:45">
+    <row r="158" spans="2:47">
       <c r="B158" s="2">
         <v>1988</v>
       </c>
@@ -16014,8 +16647,14 @@
         <v>61.042999999999999</v>
       </c>
       <c r="AS158" s="10"/>
+      <c r="AT158" s="3">
+        <v>1.593</v>
+      </c>
+      <c r="AU158" s="10">
+        <v>6.58</v>
+      </c>
     </row>
-    <row r="159" spans="2:45">
+    <row r="159" spans="2:47">
       <c r="B159" s="2">
         <v>1988.25</v>
       </c>
@@ -16146,8 +16785,14 @@
         <v>61.633000000000003</v>
       </c>
       <c r="AS159" s="10"/>
+      <c r="AT159" s="3">
+        <v>1.4676</v>
+      </c>
+      <c r="AU159" s="10">
+        <v>7.51</v>
+      </c>
     </row>
-    <row r="160" spans="2:45">
+    <row r="160" spans="2:47">
       <c r="B160" s="2">
         <v>1988.5</v>
       </c>
@@ -16278,8 +16923,14 @@
         <v>62.359000000000002</v>
       </c>
       <c r="AS160" s="10"/>
+      <c r="AT160" s="3">
+        <v>1.4797</v>
+      </c>
+      <c r="AU160" s="10">
+        <v>8.19</v>
+      </c>
     </row>
-    <row r="161" spans="2:45">
+    <row r="161" spans="2:47">
       <c r="B161" s="2">
         <v>1988.75</v>
       </c>
@@ -16410,8 +17061,14 @@
         <v>62.859000000000002</v>
       </c>
       <c r="AS161" s="10"/>
+      <c r="AT161" s="3">
+        <v>1.524</v>
+      </c>
+      <c r="AU161" s="10">
+        <v>8.76</v>
+      </c>
     </row>
-    <row r="162" spans="2:45">
+    <row r="162" spans="2:47">
       <c r="B162" s="2">
         <v>1989</v>
       </c>
@@ -16542,8 +17199,14 @@
         <v>63.55</v>
       </c>
       <c r="AS162" s="10"/>
+      <c r="AT162" s="3">
+        <v>1.5034000000000001</v>
+      </c>
+      <c r="AU162" s="10">
+        <v>9.85</v>
+      </c>
     </row>
-    <row r="163" spans="2:45">
+    <row r="163" spans="2:47">
       <c r="B163" s="2">
         <v>1989.25</v>
       </c>
@@ -16674,8 +17337,14 @@
         <v>64.206999999999994</v>
       </c>
       <c r="AS163" s="10"/>
+      <c r="AT163" s="3">
+        <v>1.7632000000000001</v>
+      </c>
+      <c r="AU163" s="10">
+        <v>9.5299999999999994</v>
+      </c>
     </row>
-    <row r="164" spans="2:45">
+    <row r="164" spans="2:47">
       <c r="B164" s="2">
         <v>1989.5</v>
       </c>
@@ -16806,8 +17475,14 @@
         <v>64.671999999999997</v>
       </c>
       <c r="AS164" s="10"/>
+      <c r="AT164" s="3">
+        <v>1.7269000000000001</v>
+      </c>
+      <c r="AU164" s="10">
+        <v>9.02</v>
+      </c>
     </row>
-    <row r="165" spans="2:45">
+    <row r="165" spans="2:47">
       <c r="B165" s="2">
         <v>1989.75</v>
       </c>
@@ -16938,8 +17613,14 @@
         <v>65.122</v>
       </c>
       <c r="AS165" s="10"/>
+      <c r="AT165" s="3">
+        <v>1.6442000000000001</v>
+      </c>
+      <c r="AU165" s="10">
+        <v>8.4499999999999993</v>
+      </c>
     </row>
-    <row r="166" spans="2:45">
+    <row r="166" spans="2:47">
       <c r="B166" s="2">
         <v>1990</v>
       </c>
@@ -17072,8 +17753,14 @@
       <c r="AS166" s="10">
         <v>22.174603174603174</v>
       </c>
+      <c r="AT166" s="3">
+        <v>1.4482999999999999</v>
+      </c>
+      <c r="AU166" s="10">
+        <v>8.2799999999999994</v>
+      </c>
     </row>
-    <row r="167" spans="2:45">
+    <row r="167" spans="2:47">
       <c r="B167" s="2">
         <v>1990.25</v>
       </c>
@@ -17206,8 +17893,14 @@
       <c r="AS167" s="10">
         <v>18.722063492063491</v>
       </c>
+      <c r="AT167" s="3">
+        <v>1.2152000000000001</v>
+      </c>
+      <c r="AU167" s="10">
+        <v>8.2899999999999991</v>
+      </c>
     </row>
-    <row r="168" spans="2:45">
+    <row r="168" spans="2:47">
       <c r="B168" s="2">
         <v>1990.5</v>
       </c>
@@ -17340,8 +18033,14 @@
       <c r="AS168" s="10">
         <v>25.195555555555554</v>
       </c>
+      <c r="AT168" s="3">
+        <v>1.2535000000000001</v>
+      </c>
+      <c r="AU168" s="10">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
-    <row r="169" spans="2:45">
+    <row r="169" spans="2:47">
       <c r="B169" s="2">
         <v>1990.75</v>
       </c>
@@ -17474,8 +18173,14 @@
       <c r="AS169" s="10">
         <v>26.11328125</v>
       </c>
+      <c r="AT169" s="3">
+        <v>1.6213</v>
+      </c>
+      <c r="AU169" s="10">
+        <v>7.31</v>
+      </c>
     </row>
-    <row r="170" spans="2:45">
+    <row r="170" spans="2:47">
       <c r="B170" s="2">
         <v>1991</v>
       </c>
@@ -17608,8 +18313,14 @@
       <c r="AS170" s="10">
         <v>22.515833333333333</v>
       </c>
+      <c r="AT170" s="3">
+        <v>1.5216000000000001</v>
+      </c>
+      <c r="AU170" s="10">
+        <v>6.12</v>
+      </c>
     </row>
-    <row r="171" spans="2:45">
+    <row r="171" spans="2:47">
       <c r="B171" s="2">
         <v>1991.25</v>
       </c>
@@ -17742,8 +18453,14 @@
       <c r="AS171" s="10">
         <v>17.147031250000001</v>
       </c>
+      <c r="AT171" s="3">
+        <v>1.4752000000000001</v>
+      </c>
+      <c r="AU171" s="10">
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="172" spans="2:45">
+    <row r="172" spans="2:47">
       <c r="B172" s="2">
         <v>1991.5</v>
       </c>
@@ -17876,8 +18593,14 @@
       <c r="AS172" s="10">
         <v>16.634218749999999</v>
       </c>
+      <c r="AT172" s="3">
+        <v>1.4875</v>
+      </c>
+      <c r="AU172" s="10">
+        <v>5.45</v>
+      </c>
     </row>
-    <row r="173" spans="2:45">
+    <row r="173" spans="2:47">
       <c r="B173" s="2">
         <v>1991.75</v>
       </c>
@@ -18010,8 +18733,14 @@
       <c r="AS173" s="10">
         <v>17.455312500000002</v>
       </c>
+      <c r="AT173" s="3">
+        <v>1.5107999999999999</v>
+      </c>
+      <c r="AU173" s="10">
+        <v>4.43</v>
+      </c>
     </row>
-    <row r="174" spans="2:45">
+    <row r="174" spans="2:47">
       <c r="B174" s="2">
         <v>1992</v>
       </c>
@@ -18144,8 +18873,14 @@
       <c r="AS174" s="10">
         <v>17.564285714285713</v>
       </c>
+      <c r="AT174" s="3">
+        <v>1.3742000000000001</v>
+      </c>
+      <c r="AU174" s="10">
+        <v>3.98</v>
+      </c>
     </row>
-    <row r="175" spans="2:45">
+    <row r="175" spans="2:47">
       <c r="B175" s="2">
         <v>1992.25</v>
       </c>
@@ -18278,8 +19013,14 @@
       <c r="AS175" s="10">
         <v>15.616349206349206</v>
       </c>
+      <c r="AT175" s="3">
+        <v>1.3351999999999999</v>
+      </c>
+      <c r="AU175" s="10">
+        <v>3.76</v>
+      </c>
     </row>
-    <row r="176" spans="2:45">
+    <row r="176" spans="2:47">
       <c r="B176" s="2">
         <v>1992.5</v>
       </c>
@@ -18412,8 +19153,14 @@
       <c r="AS176" s="10">
         <v>13.90203125</v>
       </c>
+      <c r="AT176" s="3">
+        <v>1.5062</v>
+      </c>
+      <c r="AU176" s="10">
+        <v>3.22</v>
+      </c>
     </row>
-    <row r="177" spans="2:45">
+    <row r="177" spans="2:47">
       <c r="B177" s="2">
         <v>1992.75</v>
       </c>
@@ -18546,8 +19293,14 @@
       <c r="AS177" s="10">
         <v>14.761093750000001</v>
       </c>
+      <c r="AT177" s="3">
+        <v>1.4388000000000001</v>
+      </c>
+      <c r="AU177" s="10">
+        <v>2.92</v>
+      </c>
     </row>
-    <row r="178" spans="2:45">
+    <row r="178" spans="2:47">
       <c r="B178" s="2">
         <v>1993</v>
       </c>
@@ -18680,8 +19433,14 @@
       <c r="AS178" s="10">
         <v>13.255322580645162</v>
       </c>
+      <c r="AT178" s="3">
+        <v>1.4533</v>
+      </c>
+      <c r="AU178" s="10">
+        <v>3.07</v>
+      </c>
     </row>
-    <row r="179" spans="2:45">
+    <row r="179" spans="2:47">
       <c r="B179" s="2">
         <v>1993.25</v>
       </c>
@@ -18814,8 +19573,14 @@
       <c r="AS179" s="10">
         <v>12.973174603174604</v>
       </c>
+      <c r="AT179" s="3">
+        <v>1.4012</v>
+      </c>
+      <c r="AU179" s="10">
+        <v>3.04</v>
+      </c>
     </row>
-    <row r="180" spans="2:45">
+    <row r="180" spans="2:47">
       <c r="B180" s="2">
         <v>1993.5</v>
       </c>
@@ -18948,8 +19713,14 @@
       <c r="AS180" s="10">
         <v>12.1171875</v>
       </c>
+      <c r="AT180" s="3">
+        <v>1.4315</v>
+      </c>
+      <c r="AU180" s="10">
+        <v>3.09</v>
+      </c>
     </row>
-    <row r="181" spans="2:45">
+    <row r="181" spans="2:47">
       <c r="B181" s="2">
         <v>1993.75</v>
       </c>
@@ -19082,8 +19853,14 @@
       <c r="AS181" s="10">
         <v>12.4215625</v>
       </c>
+      <c r="AT181" s="3">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="AU181" s="10">
+        <v>2.96</v>
+      </c>
     </row>
-    <row r="182" spans="2:45">
+    <row r="182" spans="2:47">
       <c r="B182" s="2">
         <v>1994</v>
       </c>
@@ -19216,8 +19993,14 @@
       <c r="AS182" s="10">
         <v>13.436190476190475</v>
       </c>
+      <c r="AT182" s="3">
+        <v>1.2428999999999999</v>
+      </c>
+      <c r="AU182" s="10">
+        <v>3.34</v>
+      </c>
     </row>
-    <row r="183" spans="2:45">
+    <row r="183" spans="2:47">
       <c r="B183" s="2">
         <v>1994.25</v>
       </c>
@@ -19350,8 +20133,14 @@
       <c r="AS183" s="10">
         <v>14.51258064516129</v>
       </c>
+      <c r="AT183" s="3">
+        <v>1.2508999999999999</v>
+      </c>
+      <c r="AU183" s="10">
+        <v>4.25</v>
+      </c>
     </row>
-    <row r="184" spans="2:45">
+    <row r="184" spans="2:47">
       <c r="B184" s="2">
         <v>1994.5</v>
       </c>
@@ -19484,8 +20273,14 @@
       <c r="AS184" s="10">
         <v>12.516249999999999</v>
       </c>
+      <c r="AT184" s="3">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="AU184" s="10">
+        <v>4.7300000000000004</v>
+      </c>
     </row>
-    <row r="185" spans="2:45">
+    <row r="185" spans="2:47">
       <c r="B185" s="2">
         <v>1994.75</v>
       </c>
@@ -19618,8 +20413,14 @@
       <c r="AS185" s="10">
         <v>15.268730158730159</v>
       </c>
+      <c r="AT185" s="3">
+        <v>1.2815000000000001</v>
+      </c>
+      <c r="AU185" s="10">
+        <v>5.45</v>
+      </c>
     </row>
-    <row r="186" spans="2:45">
+    <row r="186" spans="2:47">
       <c r="B186" s="2">
         <v>1995</v>
       </c>
@@ -19752,8 +20553,14 @@
       <c r="AS186" s="10">
         <v>11.992380952380952</v>
       </c>
+      <c r="AT186" s="3">
+        <v>1.2770999999999999</v>
+      </c>
+      <c r="AU186" s="10">
+        <v>5.98</v>
+      </c>
     </row>
-    <row r="187" spans="2:45">
+    <row r="187" spans="2:47">
       <c r="B187" s="2">
         <v>1995.25</v>
       </c>
@@ -19886,8 +20693,14 @@
       <c r="AS187" s="10">
         <v>12.190317460317461</v>
       </c>
+      <c r="AT187" s="3">
+        <v>1.3073999999999999</v>
+      </c>
+      <c r="AU187" s="10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="188" spans="2:45">
+    <row r="188" spans="2:47">
       <c r="B188" s="2">
         <v>1995.5</v>
       </c>
@@ -20020,8 +20833,14 @@
       <c r="AS188" s="10">
         <v>12.472698412698414</v>
       </c>
+      <c r="AT188" s="3">
+        <v>1.3132999999999999</v>
+      </c>
+      <c r="AU188" s="10">
+        <v>5.8</v>
+      </c>
     </row>
-    <row r="189" spans="2:45">
+    <row r="189" spans="2:47">
       <c r="B189" s="2">
         <v>1995.75</v>
       </c>
@@ -20154,8 +20973,14 @@
       <c r="AS189" s="10">
         <v>12.899682539682539</v>
       </c>
+      <c r="AT189" s="3">
+        <v>1.4167000000000001</v>
+      </c>
+      <c r="AU189" s="10">
+        <v>5.6</v>
+      </c>
     </row>
-    <row r="190" spans="2:45">
+    <row r="190" spans="2:47">
       <c r="B190" s="2">
         <v>1996</v>
       </c>
@@ -20288,8 +21113,14 @@
       <c r="AS190" s="10">
         <v>15.398253968253968</v>
       </c>
+      <c r="AT190" s="3">
+        <v>1.3314999999999999</v>
+      </c>
+      <c r="AU190" s="10">
+        <v>5.31</v>
+      </c>
     </row>
-    <row r="191" spans="2:45">
+    <row r="191" spans="2:47">
       <c r="B191" s="2">
         <v>1996.25</v>
       </c>
@@ -20422,8 +21253,14 @@
       <c r="AS191" s="10">
         <v>16.368253968253967</v>
       </c>
+      <c r="AT191" s="3">
+        <v>1.2784</v>
+      </c>
+      <c r="AU191" s="10">
+        <v>5.27</v>
+      </c>
     </row>
-    <row r="192" spans="2:45">
+    <row r="192" spans="2:47">
       <c r="B192" s="2">
         <v>1996.5</v>
       </c>
@@ -20556,8 +21393,14 @@
       <c r="AS192" s="10">
         <v>16.778437499999999</v>
       </c>
+      <c r="AT192" s="3">
+        <v>1.2848999999999999</v>
+      </c>
+      <c r="AU192" s="10">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="193" spans="2:45">
+    <row r="193" spans="2:47">
       <c r="B193" s="2">
         <v>1996.75</v>
       </c>
@@ -20690,8 +21533,14 @@
       <c r="AS193" s="10">
         <v>17.206250000000001</v>
       </c>
+      <c r="AT193" s="3">
+        <v>1.3058000000000001</v>
+      </c>
+      <c r="AU193" s="10">
+        <v>5.29</v>
+      </c>
     </row>
-    <row r="194" spans="2:45">
+    <row r="194" spans="2:47">
       <c r="B194" s="2">
         <v>1997</v>
       </c>
@@ -20824,8 +21673,14 @@
       <c r="AS194" s="10">
         <v>19.916499999999999</v>
       </c>
+      <c r="AT194" s="3">
+        <v>1.2424999999999999</v>
+      </c>
+      <c r="AU194" s="10">
+        <v>5.39</v>
+      </c>
     </row>
-    <row r="195" spans="2:45">
+    <row r="195" spans="2:47">
       <c r="B195" s="2">
         <v>1997.25</v>
       </c>
@@ -20958,8 +21813,14 @@
       <c r="AS195" s="10">
         <v>19.922968749999999</v>
       </c>
+      <c r="AT195" s="3">
+        <v>1.1975</v>
+      </c>
+      <c r="AU195" s="10">
+        <v>5.56</v>
+      </c>
     </row>
-    <row r="196" spans="2:45">
+    <row r="196" spans="2:47">
       <c r="B196" s="2">
         <v>1997.5</v>
       </c>
@@ -21092,8 +21953,14 @@
       <c r="AS196" s="10">
         <v>22.445</v>
       </c>
+      <c r="AT196" s="3">
+        <v>1.2225999999999999</v>
+      </c>
+      <c r="AU196" s="10">
+        <v>5.54</v>
+      </c>
     </row>
-    <row r="197" spans="2:45">
+    <row r="197" spans="2:47">
       <c r="B197" s="2">
         <v>1997.75</v>
       </c>
@@ -21226,8 +22093,14 @@
       <c r="AS197" s="10">
         <v>27.092380952380953</v>
       </c>
+      <c r="AT197" s="3">
+        <v>1.3562000000000001</v>
+      </c>
+      <c r="AU197" s="10">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="198" spans="2:45">
+    <row r="198" spans="2:47">
       <c r="B198" s="2">
         <v>1998</v>
       </c>
@@ -21360,8 +22233,14 @@
       <c r="AS198" s="10">
         <v>21.324590163934428</v>
       </c>
+      <c r="AT198" s="3">
+        <v>1.3443000000000001</v>
+      </c>
+      <c r="AU198" s="10">
+        <v>5.49</v>
+      </c>
     </row>
-    <row r="199" spans="2:45">
+    <row r="199" spans="2:47">
       <c r="B199" s="2">
         <v>1998.25</v>
       </c>
@@ -21494,8 +22373,14 @@
       <c r="AS199" s="10">
         <v>21.534285714285716</v>
       </c>
+      <c r="AT199" s="3">
+        <v>1.3249</v>
+      </c>
+      <c r="AU199" s="10">
+        <v>5.56</v>
+      </c>
     </row>
-    <row r="200" spans="2:45">
+    <row r="200" spans="2:47">
       <c r="B200" s="2">
         <v>1998.5</v>
       </c>
@@ -21628,8 +22513,14 @@
       <c r="AS200" s="10">
         <v>29.751718749999998</v>
       </c>
+      <c r="AT200" s="3">
+        <v>2.0169000000000001</v>
+      </c>
+      <c r="AU200" s="10">
+        <v>5.51</v>
+      </c>
     </row>
-    <row r="201" spans="2:45">
+    <row r="201" spans="2:47">
       <c r="B201" s="2">
         <v>1998.75</v>
       </c>
@@ -21762,8 +22653,14 @@
       <c r="AS201" s="10">
         <v>29.537187500000002</v>
       </c>
+      <c r="AT201" s="3">
+        <v>2.1269</v>
+      </c>
+      <c r="AU201" s="10">
+        <v>4.68</v>
+      </c>
     </row>
-    <row r="202" spans="2:45">
+    <row r="202" spans="2:47">
       <c r="B202" s="2">
         <v>1999</v>
       </c>
@@ -21896,8 +22793,14 @@
       <c r="AS202" s="10">
         <v>27.2527868852459</v>
       </c>
+      <c r="AT202" s="3">
+        <v>1.833</v>
+      </c>
+      <c r="AU202" s="10">
+        <v>4.8099999999999996</v>
+      </c>
     </row>
-    <row r="203" spans="2:45">
+    <row r="203" spans="2:47">
       <c r="B203" s="2">
         <v>1999.25</v>
       </c>
@@ -22030,8 +22933,14 @@
       <c r="AS203" s="10">
         <v>24.395555555555557</v>
       </c>
+      <c r="AT203" s="3">
+        <v>1.7621</v>
+      </c>
+      <c r="AU203" s="10">
+        <v>4.76</v>
+      </c>
     </row>
-    <row r="204" spans="2:45">
+    <row r="204" spans="2:47">
       <c r="B204" s="2">
         <v>1999.5</v>
       </c>
@@ -22164,8 +23073,14 @@
       <c r="AS204" s="10">
         <v>23.320625</v>
       </c>
+      <c r="AT204" s="3">
+        <v>2.0268999999999999</v>
+      </c>
+      <c r="AU204" s="10">
+        <v>5.22</v>
+      </c>
     </row>
-    <row r="205" spans="2:45">
+    <row r="205" spans="2:47">
       <c r="B205" s="2">
         <v>1999.75</v>
       </c>
@@ -22298,8 +23213,14 @@
       <c r="AS205" s="10">
         <v>22.658281250000002</v>
       </c>
+      <c r="AT205" s="3">
+        <v>2.0446</v>
+      </c>
+      <c r="AU205" s="10">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="206" spans="2:45">
+    <row r="206" spans="2:47">
       <c r="B206" s="2">
         <v>2000</v>
       </c>
@@ -22432,8 +23353,14 @@
       <c r="AS206" s="10">
         <v>23.15031746031746</v>
       </c>
+      <c r="AT206" s="3">
+        <v>2.3315999999999999</v>
+      </c>
+      <c r="AU206" s="10">
+        <v>5.85</v>
+      </c>
     </row>
-    <row r="207" spans="2:45">
+    <row r="207" spans="2:47">
       <c r="B207" s="2">
         <v>2000.25</v>
       </c>
@@ -22566,8 +23493,14 @@
       <c r="AS207" s="10">
         <v>24.923968253968255</v>
       </c>
+      <c r="AT207" s="3">
+        <v>2.835</v>
+      </c>
+      <c r="AU207" s="10">
+        <v>6.53</v>
+      </c>
     </row>
-    <row r="208" spans="2:45">
+    <row r="208" spans="2:47">
       <c r="B208" s="2">
         <v>2000.5</v>
       </c>
@@ -22700,8 +23633,14 @@
       <c r="AS208" s="10">
         <v>19.169047619047618</v>
       </c>
+      <c r="AT208" s="3">
+        <v>3.2391999999999999</v>
+      </c>
+      <c r="AU208" s="10">
+        <v>6.52</v>
+      </c>
     </row>
-    <row r="209" spans="2:45">
+    <row r="209" spans="2:47">
       <c r="B209" s="2">
         <v>2000.75</v>
       </c>
@@ -22834,8 +23773,14 @@
       <c r="AS209" s="10">
         <v>26.016666666666666</v>
       </c>
+      <c r="AT209" s="3">
+        <v>3.6334</v>
+      </c>
+      <c r="AU209" s="10">
+        <v>6.4</v>
+      </c>
     </row>
-    <row r="210" spans="2:45">
+    <row r="210" spans="2:47">
       <c r="B210" s="2">
         <v>2001</v>
       </c>
@@ -22968,8 +23913,14 @@
       <c r="AS210" s="10">
         <v>25.726451612903226</v>
       </c>
+      <c r="AT210" s="3">
+        <v>3.2886000000000002</v>
+      </c>
+      <c r="AU210" s="10">
+        <v>5.31</v>
+      </c>
     </row>
-    <row r="211" spans="2:45">
+    <row r="211" spans="2:47">
       <c r="B211" s="2">
         <v>2001.25</v>
       </c>
@@ -23102,8 +24053,14 @@
       <c r="AS211" s="10">
         <v>23.923809523809524</v>
       </c>
+      <c r="AT211" s="3">
+        <v>3.1236000000000002</v>
+      </c>
+      <c r="AU211" s="10">
+        <v>3.97</v>
+      </c>
     </row>
-    <row r="212" spans="2:45">
+    <row r="212" spans="2:47">
       <c r="B212" s="2">
         <v>2001.5</v>
       </c>
@@ -23236,8 +24193,14 @@
       <c r="AS212" s="10">
         <v>25.380338983050848</v>
       </c>
+      <c r="AT212" s="3">
+        <v>3.3347000000000002</v>
+      </c>
+      <c r="AU212" s="10">
+        <v>3.07</v>
+      </c>
     </row>
-    <row r="213" spans="2:45">
+    <row r="213" spans="2:47">
       <c r="B213" s="2">
         <v>2001.75</v>
       </c>
@@ -23370,8 +24333,14 @@
       <c r="AS213" s="10">
         <v>27.91</v>
       </c>
+      <c r="AT213" s="3">
+        <v>3.0945</v>
+      </c>
+      <c r="AU213" s="10">
+        <v>1.82</v>
+      </c>
     </row>
-    <row r="214" spans="2:45">
+    <row r="214" spans="2:47">
       <c r="B214" s="2">
         <v>2002</v>
       </c>
@@ -23504,8 +24473,14 @@
       <c r="AS214" s="10">
         <v>21.360833333333332</v>
       </c>
+      <c r="AT214" s="3">
+        <v>2.7568000000000001</v>
+      </c>
+      <c r="AU214" s="10">
+        <v>1.73</v>
+      </c>
     </row>
-    <row r="215" spans="2:45">
+    <row r="215" spans="2:47">
       <c r="B215" s="2">
         <v>2002.25</v>
       </c>
@@ -23638,8 +24613,14 @@
       <c r="AS215" s="10">
         <v>21.643125000000001</v>
       </c>
+      <c r="AT215" s="3">
+        <v>3.1526999999999998</v>
+      </c>
+      <c r="AU215" s="10">
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="216" spans="2:45">
+    <row r="216" spans="2:47">
       <c r="B216" s="2">
         <v>2002.5</v>
       </c>
@@ -23772,8 +24753,14 @@
       <c r="AS216" s="10">
         <v>35.068437500000002</v>
       </c>
+      <c r="AT216" s="3">
+        <v>4.1440999999999999</v>
+      </c>
+      <c r="AU216" s="10">
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="217" spans="2:45">
+    <row r="217" spans="2:47">
       <c r="B217" s="2">
         <v>2002.75</v>
       </c>
@@ -23906,8 +24893,14 @@
       <c r="AS217" s="10">
         <v>30.72671875</v>
       </c>
+      <c r="AT217" s="3">
+        <v>3.87</v>
+      </c>
+      <c r="AU217" s="10">
+        <v>1.24</v>
+      </c>
     </row>
-    <row r="218" spans="2:45">
+    <row r="218" spans="2:47">
       <c r="B218" s="2">
         <v>2003</v>
       </c>
@@ -24040,8 +25033,14 @@
       <c r="AS218" s="10">
         <v>30.022622950819674</v>
       </c>
+      <c r="AT218" s="3">
+        <v>3.2366999999999999</v>
+      </c>
+      <c r="AU218" s="10">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="219" spans="2:45">
+    <row r="219" spans="2:47">
       <c r="B219" s="2">
         <v>2003.25</v>
       </c>
@@ -24174,8 +25173,14 @@
       <c r="AS219" s="10">
         <v>21.53126984126984</v>
       </c>
+      <c r="AT219" s="3">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="AU219" s="10">
+        <v>1.22</v>
+      </c>
     </row>
-    <row r="220" spans="2:45">
+    <row r="220" spans="2:47">
       <c r="B220" s="2">
         <v>2003.5</v>
       </c>
@@ -24308,8 +25313,14 @@
       <c r="AS220" s="10">
         <v>19.32015625</v>
       </c>
+      <c r="AT220" s="3">
+        <v>2.359</v>
+      </c>
+      <c r="AU220" s="10">
+        <v>1.01</v>
+      </c>
     </row>
-    <row r="221" spans="2:45">
+    <row r="221" spans="2:47">
       <c r="B221" s="2">
         <v>2003.75</v>
       </c>
@@ -24442,8 +25453,14 @@
       <c r="AS221" s="10">
         <v>17.427187499999999</v>
       </c>
+      <c r="AT221" s="3">
+        <v>1.982</v>
+      </c>
+      <c r="AU221" s="10">
+        <v>0.98</v>
+      </c>
     </row>
-    <row r="222" spans="2:45">
+    <row r="222" spans="2:47">
       <c r="B222" s="2">
         <v>2004</v>
       </c>
@@ -24576,8 +25593,14 @@
       <c r="AS222" s="10">
         <v>16.658064516129031</v>
       </c>
+      <c r="AT222" s="3">
+        <v>1.8884000000000001</v>
+      </c>
+      <c r="AU222" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="223" spans="2:45">
+    <row r="223" spans="2:47">
       <c r="B223" s="2">
         <v>2004.25</v>
       </c>
@@ -24710,8 +25733,14 @@
       <c r="AS223" s="10">
         <v>16.230161290322581</v>
       </c>
+      <c r="AT223" s="3">
+        <v>1.8445</v>
+      </c>
+      <c r="AU223" s="10">
+        <v>1.03</v>
+      </c>
     </row>
-    <row r="224" spans="2:45">
+    <row r="224" spans="2:47">
       <c r="B224" s="2">
         <v>2004.5</v>
       </c>
@@ -24844,8 +25873,14 @@
       <c r="AS224" s="10">
         <v>15.442187499999999</v>
       </c>
+      <c r="AT224" s="3">
+        <v>1.8208</v>
+      </c>
+      <c r="AU224" s="10">
+        <v>1.61</v>
+      </c>
     </row>
-    <row r="225" spans="2:45">
+    <row r="225" spans="2:47">
       <c r="B225" s="2">
         <v>2004.75</v>
       </c>
@@ -24978,8 +26013,14 @@
       <c r="AS225" s="10">
         <v>13.651249999999999</v>
       </c>
+      <c r="AT225" s="3">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="AU225" s="10">
+        <v>2.16</v>
+      </c>
     </row>
-    <row r="226" spans="2:45">
+    <row r="226" spans="2:47">
       <c r="B226" s="2">
         <v>2005</v>
       </c>
@@ -25112,8 +26153,14 @@
       <c r="AS226" s="10">
         <v>12.78704918032787</v>
       </c>
+      <c r="AT226" s="3">
+        <v>1.8519000000000001</v>
+      </c>
+      <c r="AU226" s="10">
+        <v>2.63</v>
+      </c>
     </row>
-    <row r="227" spans="2:45">
+    <row r="227" spans="2:47">
       <c r="B227" s="2">
         <v>2005.25</v>
       </c>
@@ -25246,8 +26293,14 @@
       <c r="AS227" s="10">
         <v>13.407343750000001</v>
       </c>
+      <c r="AT227" s="3">
+        <v>1.9699</v>
+      </c>
+      <c r="AU227" s="10">
+        <v>3.04</v>
+      </c>
     </row>
-    <row r="228" spans="2:45">
+    <row r="228" spans="2:47">
       <c r="B228" s="2">
         <v>2005.5</v>
       </c>
@@ -25380,8 +26433,14 @@
       <c r="AS228" s="10">
         <v>12.250781249999999</v>
       </c>
+      <c r="AT228" s="3">
+        <v>1.7806999999999999</v>
+      </c>
+      <c r="AU228" s="10">
+        <v>3.62</v>
+      </c>
     </row>
-    <row r="229" spans="2:45">
+    <row r="229" spans="2:47">
       <c r="B229" s="2">
         <v>2005.75</v>
       </c>
@@ -25514,8 +26573,14 @@
       <c r="AS229" s="10">
         <v>12.781746031746032</v>
       </c>
+      <c r="AT229" s="3">
+        <v>1.8502000000000001</v>
+      </c>
+      <c r="AU229" s="10">
+        <v>4.16</v>
+      </c>
     </row>
-    <row r="230" spans="2:45">
+    <row r="230" spans="2:47">
       <c r="B230" s="2">
         <v>2006</v>
       </c>
@@ -25648,8 +26713,14 @@
       <c r="AS230" s="10">
         <v>12.04241935483871</v>
       </c>
+      <c r="AT230" s="3">
+        <v>1.6903999999999999</v>
+      </c>
+      <c r="AU230" s="10">
+        <v>4.59</v>
+      </c>
     </row>
-    <row r="231" spans="2:45">
+    <row r="231" spans="2:47">
       <c r="B231" s="2">
         <v>2006.25</v>
       </c>
@@ -25780,8 +26851,14 @@
       <c r="AS231" s="10">
         <v>14.528730158730159</v>
       </c>
+      <c r="AT231" s="3">
+        <v>1.6846000000000001</v>
+      </c>
+      <c r="AU231" s="10">
+        <v>4.99</v>
+      </c>
     </row>
-    <row r="232" spans="2:45">
+    <row r="232" spans="2:47">
       <c r="B232" s="2">
         <v>2006.5</v>
       </c>
@@ -25912,8 +26989,14 @@
       <c r="AS232" s="10">
         <v>13.607936507936508</v>
       </c>
+      <c r="AT232" s="3">
+        <v>1.772</v>
+      </c>
+      <c r="AU232" s="10">
+        <v>5.25</v>
+      </c>
     </row>
-    <row r="233" spans="2:45">
+    <row r="233" spans="2:47">
       <c r="B233" s="2">
         <v>2006.75</v>
       </c>
@@ -26044,8 +27127,14 @@
       <c r="AS233" s="10">
         <v>11.034920634920635</v>
       </c>
+      <c r="AT233" s="3">
+        <v>1.6173999999999999</v>
+      </c>
+      <c r="AU233" s="10">
+        <v>5.24</v>
+      </c>
     </row>
-    <row r="234" spans="2:45">
+    <row r="234" spans="2:47">
       <c r="B234" s="2">
         <v>2007</v>
       </c>
@@ -26161,8 +27250,14 @@
       <c r="AS234" s="10">
         <v>12.563606557377049</v>
       </c>
+      <c r="AT234" s="3">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="AU234" s="10">
+        <v>5.26</v>
+      </c>
     </row>
-    <row r="235" spans="2:45">
+    <row r="235" spans="2:47">
       <c r="B235" s="2">
         <v>2007.25</v>
       </c>
@@ -26278,8 +27373,14 @@
       <c r="AS235" s="10">
         <v>13.731904761904762</v>
       </c>
+      <c r="AT235" s="3">
+        <v>1.6978</v>
+      </c>
+      <c r="AU235" s="10">
+        <v>5.25</v>
+      </c>
     </row>
-    <row r="236" spans="2:45">
+    <row r="236" spans="2:47">
       <c r="B236" s="2">
         <v>2007.5</v>
       </c>
@@ -26395,8 +27496,14 @@
       <c r="AS236" s="10">
         <v>21.58920634920635</v>
       </c>
+      <c r="AT236" s="3">
+        <v>2.2343999999999999</v>
+      </c>
+      <c r="AU236" s="10">
+        <v>4.9400000000000004</v>
+      </c>
     </row>
-    <row r="237" spans="2:45">
+    <row r="237" spans="2:47">
       <c r="B237" s="2">
         <v>2007.75</v>
       </c>
@@ -26512,8 +27619,14 @@
       <c r="AS237" s="10">
         <v>22.029843750000001</v>
       </c>
+      <c r="AT237" s="3">
+        <v>2.7972999999999999</v>
+      </c>
+      <c r="AU237" s="10">
+        <v>4.24</v>
+      </c>
     </row>
-    <row r="238" spans="2:45">
+    <row r="238" spans="2:47">
       <c r="B238" s="2">
         <v>2008</v>
       </c>
@@ -26629,8 +27742,14 @@
       <c r="AS238" s="10">
         <v>26.12016393442623</v>
       </c>
+      <c r="AT238" s="3">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="AU238" s="10">
+        <v>2.61</v>
+      </c>
     </row>
-    <row r="239" spans="2:45">
+    <row r="239" spans="2:47">
       <c r="B239" s="2">
         <v>2008.25</v>
       </c>
@@ -26746,8 +27865,14 @@
       <c r="AS239" s="10">
         <v>20.672968749999999</v>
       </c>
+      <c r="AT239" s="3">
+        <v>3.4013</v>
+      </c>
+      <c r="AU239" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="240" spans="2:45">
+    <row r="240" spans="2:47">
       <c r="B240" s="2">
         <v>2008.5</v>
       </c>
@@ -26863,8 +27988,14 @@
       <c r="AS240" s="10">
         <v>25.073281250000001</v>
       </c>
+      <c r="AT240" s="3">
+        <v>4.8465999999999996</v>
+      </c>
+      <c r="AU240" s="10">
+        <v>1.81</v>
+      </c>
     </row>
-    <row r="241" spans="2:45">
+    <row r="241" spans="2:47">
       <c r="B241" s="2">
         <v>2008.75</v>
       </c>
@@ -26980,8 +28111,14 @@
       <c r="AS241" s="10">
         <v>58.595937499999998</v>
       </c>
+      <c r="AT241" s="3">
+        <v>7.2518000000000002</v>
+      </c>
+      <c r="AU241" s="10">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="242" spans="2:45">
+    <row r="242" spans="2:47">
       <c r="B242" s="2">
         <v>2009</v>
       </c>
@@ -27097,8 +28234,14 @@
       <c r="AS242" s="10">
         <v>45</v>
       </c>
+      <c r="AT242" s="3">
+        <v>6.0926</v>
+      </c>
+      <c r="AU242" s="10">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="243" spans="2:45">
+    <row r="243" spans="2:47">
       <c r="B243" s="2">
         <v>2009.25</v>
       </c>
@@ -27214,8 +28357,14 @@
       <c r="AS243" s="10">
         <v>33.015714285714289</v>
       </c>
+      <c r="AT243" s="3">
+        <v>4.5029000000000003</v>
+      </c>
+      <c r="AU243" s="10">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="244" spans="2:45">
+    <row r="244" spans="2:47">
       <c r="B244" s="2">
         <v>2009.5</v>
       </c>
@@ -27331,8 +28480,14 @@
       <c r="AS244" s="10">
         <v>25.486249999999998</v>
       </c>
+      <c r="AT244" s="3">
+        <v>3.1901999999999999</v>
+      </c>
+      <c r="AU244" s="10">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="245" spans="2:45">
+    <row r="245" spans="2:47">
       <c r="B245" s="2">
         <v>2009.75</v>
       </c>
@@ -27448,8 +28603,14 @@
       <c r="AS245" s="10">
         <v>23.07015625</v>
       </c>
+      <c r="AT245" s="3">
+        <v>2.6547999999999998</v>
+      </c>
+      <c r="AU245" s="10">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="246" spans="2:45">
+    <row r="246" spans="2:47">
       <c r="B246" s="2">
         <v>2010</v>
       </c>
@@ -27563,8 +28724,14 @@
       <c r="AS246" s="10">
         <v>20.14967213114754</v>
       </c>
+      <c r="AT246" s="3">
+        <v>2.3338000000000001</v>
+      </c>
+      <c r="AU246" s="10">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="247" spans="2:45">
+    <row r="247" spans="2:47">
       <c r="B247" s="2">
         <v>2010.25</v>
       </c>
@@ -27678,8 +28845,14 @@
       <c r="AS247" s="10">
         <v>26.39142857142857</v>
       </c>
+      <c r="AT247" s="3">
+        <v>2.5171999999999999</v>
+      </c>
+      <c r="AU247" s="10">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="248" spans="2:45">
+    <row r="248" spans="2:47">
       <c r="B248" s="2">
         <v>2010.5</v>
       </c>
@@ -27793,8 +28966,14 @@
       <c r="AS248" s="10">
         <v>24.283593750000001</v>
       </c>
+      <c r="AT248" s="3">
+        <v>2.5743</v>
+      </c>
+      <c r="AU248" s="10">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="249" spans="2:45">
+    <row r="249" spans="2:47">
       <c r="B249" s="2">
         <v>2010.75</v>
       </c>
@@ -27908,8 +29087,14 @@
       <c r="AS249" s="10">
         <v>19.318437500000002</v>
       </c>
+      <c r="AT249" s="3">
+        <v>2.3157999999999999</v>
+      </c>
+      <c r="AU249" s="10">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="250" spans="2:45">
+    <row r="250" spans="2:47">
       <c r="B250" s="2">
         <v>2011</v>
       </c>
@@ -28023,8 +29208,14 @@
       <c r="AS250" s="10">
         <v>18.614838709677418</v>
       </c>
+      <c r="AT250" s="3">
+        <v>2.0299</v>
+      </c>
+      <c r="AU250" s="10">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="251" spans="2:45">
+    <row r="251" spans="2:47">
       <c r="B251" s="2">
         <v>2011.25</v>
       </c>
@@ -28138,8 +29329,14 @@
       <c r="AS251" s="10">
         <v>17.482380952380954</v>
       </c>
+      <c r="AT251" s="3">
+        <v>2.1107</v>
+      </c>
+      <c r="AU251" s="10">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="252" spans="2:45">
+    <row r="252" spans="2:47">
       <c r="B252" s="2">
         <v>2011.5</v>
       </c>
@@ -28253,8 +29450,14 @@
       <c r="AS252" s="10">
         <v>30.583593749999999</v>
       </c>
+      <c r="AT252" s="3">
+        <v>2.7482000000000002</v>
+      </c>
+      <c r="AU252" s="10">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="253" spans="2:45">
+    <row r="253" spans="2:47">
       <c r="B253" s="2">
         <v>2011.75</v>
       </c>
@@ -28368,8 +29571,14 @@
       <c r="AS253" s="10">
         <v>29.939523809523809</v>
       </c>
+      <c r="AT253" s="3">
+        <v>2.8654000000000002</v>
+      </c>
+      <c r="AU253" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="254" spans="2:45">
+    <row r="254" spans="2:47">
       <c r="B254" s="2">
         <v>2012</v>
       </c>
@@ -28483,8 +29692,14 @@
       <c r="AS254" s="10">
         <v>18.204032258064515</v>
       </c>
+      <c r="AT254" s="3">
+        <v>2.5446</v>
+      </c>
+      <c r="AU254" s="10">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="255" spans="2:45">
+    <row r="255" spans="2:47">
       <c r="B255" s="2">
         <v>2012.25</v>
       </c>
@@ -28598,8 +29813,14 @@
       <c r="AS255" s="10">
         <v>20.035714285714285</v>
       </c>
+      <c r="AT255" s="3">
+        <v>2.6608999999999998</v>
+      </c>
+      <c r="AU255" s="10">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="256" spans="2:45">
+    <row r="256" spans="2:47">
       <c r="B256" s="2">
         <v>2012.5</v>
       </c>
@@ -28713,8 +29934,14 @@
       <c r="AS256" s="10">
         <v>16.192698412698412</v>
       </c>
+      <c r="AT256" s="3">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="AU256" s="10">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="257" spans="2:45">
+    <row r="257" spans="2:47">
       <c r="B257" s="2">
         <v>2012.75</v>
       </c>
@@ -28828,8 +30055,14 @@
       <c r="AS257" s="10">
         <v>16.752903225806453</v>
       </c>
+      <c r="AT257" s="3">
+        <v>2.2204999999999999</v>
+      </c>
+      <c r="AU257" s="10">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="258" spans="2:45">
+    <row r="258" spans="2:47">
       <c r="B258" s="2">
         <v>2013</v>
       </c>
@@ -28943,8 +30176,14 @@
       <c r="AS258" s="10">
         <v>13.526999999999999</v>
       </c>
+      <c r="AT258" s="3">
+        <v>2.1053999999999999</v>
+      </c>
+      <c r="AU258" s="10">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="259" spans="2:45">
+    <row r="259" spans="2:47">
       <c r="B259" s="2">
         <v>2013.25</v>
       </c>
@@ -29058,8 +30297,14 @@
       <c r="AS259" s="10">
         <v>14.837031250000001</v>
       </c>
+      <c r="AT259" s="3">
+        <v>2.0493000000000001</v>
+      </c>
+      <c r="AU259" s="10">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="260" spans="2:45">
+    <row r="260" spans="2:47">
       <c r="B260" s="2">
         <v>2013.5</v>
       </c>
@@ -29173,8 +30418,14 @@
       <c r="AS260" s="10">
         <v>14.2796875</v>
       </c>
+      <c r="AT260" s="3">
+        <v>2.0004</v>
+      </c>
+      <c r="AU260" s="10">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="261" spans="2:45">
+    <row r="261" spans="2:47">
       <c r="B261" s="2">
         <v>2013.75</v>
       </c>
@@ -29288,8 +30539,14 @@
       <c r="AS261" s="10">
         <v>14.2328125</v>
       </c>
+      <c r="AT261" s="3">
+        <v>1.8586</v>
+      </c>
+      <c r="AU261" s="10">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="262" spans="2:45">
+    <row r="262" spans="2:47">
       <c r="B262" s="2">
         <v>2014</v>
       </c>
@@ -29403,8 +30660,14 @@
       <c r="AS262" s="10">
         <v>14.828852459016394</v>
       </c>
+      <c r="AT262" s="3">
+        <v>1.6918</v>
+      </c>
+      <c r="AU262" s="10">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="263" spans="2:45">
+    <row r="263" spans="2:47">
       <c r="B263" s="2">
         <v>2014.25</v>
       </c>
@@ -29518,8 +30781,14 @@
       <c r="AS263" s="10">
         <v>12.738253968253968</v>
       </c>
+      <c r="AT263" s="3">
+        <v>1.5889</v>
+      </c>
+      <c r="AU263" s="10">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="264" spans="2:45">
+    <row r="264" spans="2:47">
       <c r="B264" s="2">
         <v>2014.5</v>
       </c>
@@ -29633,8 +30902,14 @@
       <c r="AS264" s="10">
         <v>13.07265625</v>
       </c>
+      <c r="AT264" s="3">
+        <v>1.6941999999999999</v>
+      </c>
+      <c r="AU264" s="10">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="265" spans="2:45">
+    <row r="265" spans="2:47">
       <c r="B265" s="2">
         <v>2014.75</v>
       </c>
@@ -29748,8 +31023,14 @@
       <c r="AS265" s="10">
         <v>16.072343750000002</v>
       </c>
+      <c r="AT265" s="3">
+        <v>1.9925999999999999</v>
+      </c>
+      <c r="AU265" s="10">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="266" spans="2:45">
+    <row r="266" spans="2:47">
       <c r="B266" s="2">
         <v>2015</v>
       </c>
@@ -29863,8 +31144,14 @@
       <c r="AS266" s="10">
         <v>16.564754098360655</v>
       </c>
+      <c r="AT266" s="3">
+        <v>2.0068999999999999</v>
+      </c>
+      <c r="AU266" s="10">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="267" spans="2:45">
+    <row r="267" spans="2:47">
       <c r="B267" s="2">
         <v>2015.25</v>
       </c>
@@ -29978,8 +31265,14 @@
       <c r="AS267" s="10">
         <v>13.740158730158731</v>
       </c>
+      <c r="AT267" s="3">
+        <v>2.0863999999999998</v>
+      </c>
+      <c r="AU267" s="10">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="268" spans="2:45">
+    <row r="268" spans="2:47">
       <c r="B268" s="2">
         <v>2015.5</v>
       </c>
@@ -30093,8 +31386,14 @@
       <c r="AS268" s="10">
         <v>19.307343750000001</v>
       </c>
+      <c r="AT268" s="3">
+        <v>2.3969999999999998</v>
+      </c>
+      <c r="AU268" s="10">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="269" spans="2:45">
+    <row r="269" spans="2:47">
       <c r="B269" s="2">
         <v>2015.75</v>
       </c>
@@ -30208,8 +31507,14 @@
       <c r="AS269" s="10">
         <v>17.033281250000002</v>
       </c>
+      <c r="AT269" s="3">
+        <v>2.6116000000000001</v>
+      </c>
+      <c r="AU269" s="10">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="270" spans="2:45">
+    <row r="270" spans="2:47">
       <c r="B270" s="2">
         <v>2016</v>
       </c>
@@ -30323,8 +31628,14 @@
       <c r="AS270" s="10">
         <v>20.486229508196722</v>
       </c>
+      <c r="AT270" s="3">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="AU270" s="10">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="271" spans="2:45">
+    <row r="271" spans="2:47">
       <c r="B271" s="2">
         <v>2016.25</v>
       </c>
@@ -30438,8 +31749,14 @@
       <c r="AS271" s="10">
         <v>15.6759375</v>
       </c>
+      <c r="AT271" s="3">
+        <v>2.0855000000000001</v>
+      </c>
+      <c r="AU271" s="10">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="272" spans="2:45">
+    <row r="272" spans="2:47">
       <c r="B272" s="2">
         <v>2016.5</v>
       </c>
@@ -30553,8 +31870,11 @@
       <c r="AS272" s="10">
         <v>13.23390625</v>
       </c>
+      <c r="AU272" s="10">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="273" spans="2:45">
+    <row r="273" spans="2:47">
       <c r="B273" s="2">
         <v>2016.75</v>
       </c>
@@ -30668,8 +31988,11 @@
       <c r="AS273" s="10">
         <v>14.097936507936508</v>
       </c>
+      <c r="AU273" s="10">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="274" spans="2:45">
+    <row r="274" spans="2:47">
       <c r="B274" s="2">
         <v>2017</v>
       </c>
@@ -30783,8 +32106,11 @@
       <c r="AS274" s="10">
         <v>11.691935483870967</v>
       </c>
+      <c r="AU274" s="10">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="275" spans="2:45">
+    <row r="275" spans="2:47">
       <c r="B275" s="2">
         <v>2017.25</v>
       </c>
@@ -30898,8 +32224,11 @@
       <c r="AS275" s="10">
         <v>11.426349206349206</v>
       </c>
+      <c r="AU275" s="10">
+        <v>1.04</v>
+      </c>
     </row>
-    <row r="276" spans="2:45">
+    <row r="276" spans="2:47">
       <c r="B276" s="2">
         <v>2017.5</v>
       </c>
@@ -30998,8 +32327,11 @@
       <c r="AS276" s="10">
         <v>10.944285714285714</v>
       </c>
+      <c r="AU276" s="10">
+        <v>1.1499999999999999</v>
+      </c>
     </row>
-    <row r="277" spans="2:45">
+    <row r="277" spans="2:47">
       <c r="B277" s="2">
         <v>2017.75</v>
       </c>
@@ -31064,8 +32396,9 @@
       <c r="AS277" s="10">
         <v>10.307936507936509</v>
       </c>
+      <c r="AU277" s="10"/>
     </row>
-    <row r="278" spans="2:45">
+    <row r="278" spans="2:47">
       <c r="B278" s="2">
         <v>2018</v>
       </c>
@@ -31130,8 +32463,9 @@
       <c r="AS278" s="10">
         <v>17.354754098360655</v>
       </c>
+      <c r="AU278" s="10"/>
     </row>
-    <row r="279" spans="2:45">
+    <row r="279" spans="2:47">
       <c r="B279" s="2">
         <v>2018.25</v>
       </c>
@@ -31196,8 +32530,9 @@
       <c r="AS279" s="10">
         <v>15.3375</v>
       </c>
+      <c r="AU279" s="10"/>
     </row>
-    <row r="280" spans="2:45">
+    <row r="280" spans="2:47">
       <c r="J280" s="4"/>
       <c r="K280" s="11"/>
       <c r="N280" s="4"/>
@@ -31216,8 +32551,9 @@
       <c r="AA280" s="2"/>
       <c r="AR280" s="9"/>
       <c r="AS280" s="10"/>
+      <c r="AU280" s="10"/>
     </row>
-    <row r="281" spans="2:45">
+    <row r="281" spans="2:47">
       <c r="J281" s="4"/>
       <c r="K281" s="11"/>
       <c r="N281" s="4"/>
@@ -31236,8 +32572,9 @@
       <c r="AA281" s="2"/>
       <c r="AR281" s="9"/>
       <c r="AS281" s="10"/>
+      <c r="AU281" s="10"/>
     </row>
-    <row r="282" spans="2:45">
+    <row r="282" spans="2:47">
       <c r="J282" s="4"/>
       <c r="K282" s="11"/>
       <c r="N282" s="4"/>
@@ -31255,232 +32592,272 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="2"/>
       <c r="AR282" s="9"/>
+      <c r="AU282" s="10"/>
     </row>
-    <row r="283" spans="2:45">
+    <row r="283" spans="2:47">
       <c r="J283" s="4"/>
       <c r="K283" s="11"/>
       <c r="AA283" s="2"/>
       <c r="AR283" s="9"/>
+      <c r="AU283" s="10"/>
     </row>
-    <row r="284" spans="2:45">
+    <row r="284" spans="2:47">
       <c r="J284" s="4"/>
       <c r="K284" s="11"/>
       <c r="AA284" s="2"/>
       <c r="AR284" s="9"/>
+      <c r="AU284" s="10"/>
     </row>
-    <row r="285" spans="2:45">
+    <row r="285" spans="2:47">
       <c r="J285" s="4"/>
       <c r="K285" s="11"/>
       <c r="AA285" s="2"/>
       <c r="AR285" s="9"/>
+      <c r="AU285" s="10"/>
     </row>
-    <row r="286" spans="2:45">
+    <row r="286" spans="2:47">
       <c r="J286" s="4"/>
       <c r="K286" s="11"/>
       <c r="AA286" s="2"/>
       <c r="AR286" s="9"/>
+      <c r="AU286" s="10"/>
     </row>
-    <row r="287" spans="2:45">
+    <row r="287" spans="2:47">
       <c r="J287" s="4"/>
       <c r="K287" s="11"/>
       <c r="AA287" s="2"/>
       <c r="AR287" s="9"/>
+      <c r="AU287" s="10"/>
     </row>
-    <row r="288" spans="2:45">
+    <row r="288" spans="2:47">
       <c r="J288" s="4"/>
       <c r="K288" s="11"/>
       <c r="AA288" s="2"/>
       <c r="AR288" s="9"/>
+      <c r="AU288" s="10"/>
     </row>
-    <row r="289" spans="10:44">
+    <row r="289" spans="10:47">
       <c r="J289" s="4"/>
       <c r="K289" s="11"/>
       <c r="AA289" s="2"/>
       <c r="AR289" s="9"/>
+      <c r="AU289" s="10"/>
     </row>
-    <row r="290" spans="10:44">
+    <row r="290" spans="10:47">
       <c r="J290" s="4"/>
       <c r="K290" s="11"/>
       <c r="AA290" s="2"/>
       <c r="AR290" s="9"/>
+      <c r="AU290" s="10"/>
     </row>
-    <row r="291" spans="10:44">
+    <row r="291" spans="10:47">
       <c r="J291" s="4"/>
       <c r="K291" s="11"/>
       <c r="AA291" s="2"/>
       <c r="AR291" s="9"/>
+      <c r="AU291" s="10"/>
     </row>
-    <row r="292" spans="10:44">
+    <row r="292" spans="10:47">
       <c r="J292" s="4"/>
       <c r="K292" s="11"/>
       <c r="AA292" s="2"/>
       <c r="AR292" s="9"/>
+      <c r="AU292" s="10"/>
     </row>
-    <row r="293" spans="10:44">
+    <row r="293" spans="10:47">
       <c r="J293" s="4"/>
       <c r="K293" s="11"/>
       <c r="AA293" s="2"/>
       <c r="AR293" s="9"/>
+      <c r="AU293" s="10"/>
     </row>
-    <row r="294" spans="10:44">
+    <row r="294" spans="10:47">
       <c r="J294" s="4"/>
       <c r="K294" s="11"/>
       <c r="AA294" s="2"/>
       <c r="AR294" s="9"/>
+      <c r="AU294" s="10"/>
     </row>
-    <row r="295" spans="10:44">
+    <row r="295" spans="10:47">
       <c r="J295" s="4"/>
       <c r="K295" s="11"/>
       <c r="AA295" s="2"/>
       <c r="AR295" s="9"/>
+      <c r="AU295" s="10"/>
     </row>
-    <row r="296" spans="10:44">
+    <row r="296" spans="10:47">
       <c r="J296" s="4"/>
       <c r="K296" s="11"/>
       <c r="AA296" s="2"/>
       <c r="AR296" s="9"/>
+      <c r="AU296" s="10"/>
     </row>
-    <row r="297" spans="10:44">
+    <row r="297" spans="10:47">
       <c r="J297" s="4"/>
       <c r="K297" s="11"/>
       <c r="AA297" s="2"/>
       <c r="AR297" s="9"/>
+      <c r="AU297" s="10"/>
     </row>
-    <row r="298" spans="10:44">
+    <row r="298" spans="10:47">
       <c r="K298" s="11"/>
       <c r="AA298" s="2"/>
       <c r="AR298" s="9"/>
+      <c r="AU298" s="10"/>
     </row>
-    <row r="299" spans="10:44">
+    <row r="299" spans="10:47">
       <c r="K299" s="11"/>
       <c r="L299" s="5" t="s">
         <v>49</v>
       </c>
       <c r="AA299" s="2"/>
       <c r="AR299" s="9"/>
+      <c r="AU299" s="10"/>
     </row>
-    <row r="300" spans="10:44">
+    <row r="300" spans="10:47">
       <c r="K300" s="11"/>
       <c r="AA300" s="2"/>
       <c r="AR300" s="9"/>
+      <c r="AU300" s="10"/>
     </row>
-    <row r="301" spans="10:44">
+    <row r="301" spans="10:47">
       <c r="K301" s="11"/>
       <c r="AA301" s="2"/>
       <c r="AR301" s="9"/>
+      <c r="AU301" s="10"/>
     </row>
-    <row r="302" spans="10:44">
+    <row r="302" spans="10:47">
       <c r="K302" s="11"/>
       <c r="AA302" s="2"/>
       <c r="AR302" s="9"/>
+      <c r="AU302" s="10"/>
     </row>
-    <row r="303" spans="10:44">
+    <row r="303" spans="10:47">
       <c r="K303" s="11"/>
       <c r="AA303" s="2"/>
       <c r="AR303" s="9"/>
+      <c r="AU303" s="10"/>
     </row>
-    <row r="304" spans="10:44">
+    <row r="304" spans="10:47">
       <c r="K304" s="11"/>
       <c r="AA304" s="2"/>
       <c r="AR304" s="9"/>
+      <c r="AU304" s="10"/>
     </row>
-    <row r="305" spans="11:44">
+    <row r="305" spans="11:47">
       <c r="K305" s="11"/>
       <c r="AA305" s="2"/>
       <c r="AR305" s="9"/>
+      <c r="AU305" s="10"/>
     </row>
-    <row r="306" spans="11:44">
+    <row r="306" spans="11:47">
       <c r="K306" s="11"/>
       <c r="AA306" s="2"/>
       <c r="AR306" s="9"/>
+      <c r="AU306" s="10"/>
     </row>
-    <row r="307" spans="11:44">
+    <row r="307" spans="11:47">
       <c r="K307" s="11"/>
       <c r="AA307" s="2"/>
       <c r="AR307" s="9"/>
+      <c r="AU307" s="10"/>
     </row>
-    <row r="308" spans="11:44">
+    <row r="308" spans="11:47">
       <c r="K308" s="11"/>
       <c r="AA308" s="2"/>
       <c r="AR308" s="9"/>
+      <c r="AU308" s="10"/>
     </row>
-    <row r="309" spans="11:44">
+    <row r="309" spans="11:47">
       <c r="K309" s="11"/>
       <c r="AA309" s="2"/>
       <c r="AR309" s="9"/>
+      <c r="AU309" s="10"/>
     </row>
-    <row r="310" spans="11:44">
+    <row r="310" spans="11:47">
       <c r="K310" s="11"/>
       <c r="AA310" s="2"/>
       <c r="AR310" s="9"/>
+      <c r="AU310" s="10"/>
     </row>
-    <row r="311" spans="11:44">
+    <row r="311" spans="11:47">
       <c r="K311" s="11"/>
       <c r="AA311" s="2"/>
       <c r="AR311" s="9"/>
+      <c r="AU311" s="10"/>
     </row>
-    <row r="312" spans="11:44">
+    <row r="312" spans="11:47">
       <c r="K312" s="11"/>
       <c r="AA312" s="2"/>
       <c r="AR312" s="9"/>
+      <c r="AU312" s="10"/>
     </row>
-    <row r="313" spans="11:44">
+    <row r="313" spans="11:47">
       <c r="K313" s="11"/>
       <c r="AA313" s="2"/>
       <c r="AR313" s="9"/>
+      <c r="AU313" s="10"/>
     </row>
-    <row r="314" spans="11:44">
+    <row r="314" spans="11:47">
       <c r="K314" s="11"/>
       <c r="AA314" s="2"/>
       <c r="AR314" s="9"/>
+      <c r="AU314" s="10"/>
     </row>
-    <row r="315" spans="11:44">
+    <row r="315" spans="11:47">
       <c r="K315" s="11"/>
       <c r="AA315" s="2"/>
       <c r="AR315" s="9"/>
+      <c r="AU315" s="10"/>
     </row>
-    <row r="316" spans="11:44">
+    <row r="316" spans="11:47">
       <c r="K316" s="11"/>
       <c r="AA316" s="2"/>
       <c r="AR316" s="9"/>
+      <c r="AU316" s="10"/>
     </row>
-    <row r="317" spans="11:44">
+    <row r="317" spans="11:47">
       <c r="K317" s="11"/>
       <c r="AA317" s="2"/>
       <c r="AR317" s="9"/>
+      <c r="AU317" s="10"/>
     </row>
-    <row r="318" spans="11:44">
+    <row r="318" spans="11:47">
       <c r="AA318" s="2"/>
       <c r="AR318" s="9"/>
+      <c r="AU318" s="10"/>
     </row>
-    <row r="319" spans="11:44">
+    <row r="319" spans="11:47">
       <c r="AA319" s="2"/>
       <c r="AR319" s="9"/>
+      <c r="AU319" s="10"/>
     </row>
-    <row r="320" spans="11:44">
+    <row r="320" spans="11:47">
       <c r="AA320" s="2"/>
       <c r="AR320" s="9"/>
+      <c r="AU320" s="10"/>
     </row>
-    <row r="321" spans="27:44">
+    <row r="321" spans="27:47">
       <c r="AA321" s="2"/>
       <c r="AR321" s="9"/>
+      <c r="AU321" s="10"/>
     </row>
-    <row r="322" spans="27:44">
+    <row r="322" spans="27:47">
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="27:44">
+    <row r="323" spans="27:47">
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="27:44">
+    <row r="324" spans="27:47">
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="27:44">
+    <row r="325" spans="27:47">
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="27:44">
+    <row r="326" spans="27:47">
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="27:44">
+    <row r="327" spans="27:47">
       <c r="AA327" s="2"/>
     </row>
   </sheetData>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\Noise_Over_Cycles\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun 1/Desktop/Literature/Noise_Over_Cycles/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B9D1E13-66C5-A949-8FD3-38A400FB77EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -185,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -367,10 +368,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normale 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normale 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,20 +648,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU327"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AT319" sqref="AT319"/>
+      <selection pane="bottomRight" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="5" width="22" style="2"/>
     <col min="6" max="6" width="22" style="3"/>
@@ -693,7 +694,7 @@
     <col min="45" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="16" customFormat="1">
+    <row r="1" spans="1:46" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -832,11 +833,8 @@
       <c r="AT1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" s="16" customFormat="1">
+    </row>
+    <row r="2" spans="1:46" s="16" customFormat="1">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -975,11 +973,8 @@
       <c r="AT2" s="16">
         <v>3</v>
       </c>
-      <c r="AU2" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" s="16" customFormat="1">
+    </row>
+    <row r="3" spans="1:46" s="16" customFormat="1">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
@@ -1118,11 +1113,8 @@
       <c r="AT3" s="16">
         <v>1</v>
       </c>
-      <c r="AU3" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" s="16" customFormat="1">
+    </row>
+    <row r="4" spans="1:46" s="16" customFormat="1">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -1261,11 +1253,8 @@
       <c r="AT4" s="16">
         <v>45</v>
       </c>
-      <c r="AU4" s="16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" s="16" customFormat="1">
+    </row>
+    <row r="5" spans="1:46" s="16" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1404,11 +1393,8 @@
       <c r="AT5" s="16">
         <v>45</v>
       </c>
-      <c r="AU5" s="16">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47">
+    </row>
+    <row r="6" spans="1:46">
       <c r="B6" s="2">
         <v>1950</v>
       </c>
@@ -1471,9 +1457,8 @@
         <v>13.49</v>
       </c>
       <c r="AS6" s="10"/>
-      <c r="AU6" s="10"/>
-    </row>
-    <row r="7" spans="1:47">
+    </row>
+    <row r="7" spans="1:46">
       <c r="B7" s="2">
         <v>1950.25</v>
       </c>
@@ -1536,9 +1521,8 @@
         <v>13.538</v>
       </c>
       <c r="AS7" s="10"/>
-      <c r="AU7" s="10"/>
-    </row>
-    <row r="8" spans="1:47">
+    </row>
+    <row r="8" spans="1:46">
       <c r="B8" s="2">
         <v>1950.5</v>
       </c>
@@ -1601,9 +1585,8 @@
         <v>13.832000000000001</v>
       </c>
       <c r="AS8" s="10"/>
-      <c r="AU8" s="10"/>
-    </row>
-    <row r="9" spans="1:47">
+    </row>
+    <row r="9" spans="1:46">
       <c r="B9" s="2">
         <v>1950.75</v>
       </c>
@@ -1666,9 +1649,8 @@
         <v>14.09</v>
       </c>
       <c r="AS9" s="10"/>
-      <c r="AU9" s="10"/>
-    </row>
-    <row r="10" spans="1:47">
+    </row>
+    <row r="10" spans="1:46">
       <c r="B10" s="2">
         <v>1951</v>
       </c>
@@ -1731,9 +1713,8 @@
         <v>14.596</v>
       </c>
       <c r="AS10" s="10"/>
-      <c r="AU10" s="10"/>
-    </row>
-    <row r="11" spans="1:47">
+    </row>
+    <row r="11" spans="1:46">
       <c r="B11" s="2">
         <v>1951.25</v>
       </c>
@@ -1796,9 +1777,8 @@
         <v>14.692</v>
       </c>
       <c r="AS11" s="10"/>
-      <c r="AU11" s="10"/>
-    </row>
-    <row r="12" spans="1:47">
+    </row>
+    <row r="12" spans="1:46">
       <c r="B12" s="2">
         <v>1951.5</v>
       </c>
@@ -1861,9 +1841,8 @@
         <v>14.701000000000001</v>
       </c>
       <c r="AS12" s="10"/>
-      <c r="AU12" s="10"/>
-    </row>
-    <row r="13" spans="1:47">
+    </row>
+    <row r="13" spans="1:46">
       <c r="B13" s="2">
         <v>1951.75</v>
       </c>
@@ -1926,9 +1905,8 @@
         <v>14.869</v>
       </c>
       <c r="AS13" s="10"/>
-      <c r="AU13" s="10"/>
-    </row>
-    <row r="14" spans="1:47">
+    </row>
+    <row r="14" spans="1:46">
       <c r="B14" s="2">
         <v>1952</v>
       </c>
@@ -1991,9 +1969,8 @@
         <v>14.863</v>
       </c>
       <c r="AS14" s="10"/>
-      <c r="AU14" s="10"/>
-    </row>
-    <row r="15" spans="1:47">
+    </row>
+    <row r="15" spans="1:46">
       <c r="B15" s="2">
         <v>1952.25</v>
       </c>
@@ -2056,9 +2033,8 @@
         <v>14.882</v>
       </c>
       <c r="AS15" s="10"/>
-      <c r="AU15" s="10"/>
-    </row>
-    <row r="16" spans="1:47">
+    </row>
+    <row r="16" spans="1:46">
       <c r="B16" s="2">
         <v>1952.5</v>
       </c>
@@ -2121,9 +2097,8 @@
         <v>15.048</v>
       </c>
       <c r="AS16" s="10"/>
-      <c r="AU16" s="10"/>
-    </row>
-    <row r="17" spans="2:47">
+    </row>
+    <row r="17" spans="2:45">
       <c r="B17" s="2">
         <v>1952.75</v>
       </c>
@@ -2186,9 +2161,8 @@
         <v>15.090999999999999</v>
       </c>
       <c r="AS17" s="10"/>
-      <c r="AU17" s="10"/>
-    </row>
-    <row r="18" spans="2:47">
+    </row>
+    <row r="18" spans="2:45">
       <c r="B18" s="2">
         <v>1953</v>
       </c>
@@ -2254,9 +2228,8 @@
         <v>15.096</v>
       </c>
       <c r="AS18" s="10"/>
-      <c r="AU18" s="10"/>
-    </row>
-    <row r="19" spans="2:47">
+    </row>
+    <row r="19" spans="2:45">
       <c r="B19" s="2">
         <v>1953.25</v>
       </c>
@@ -2322,9 +2295,8 @@
         <v>15.125</v>
       </c>
       <c r="AS19" s="10"/>
-      <c r="AU19" s="10"/>
-    </row>
-    <row r="20" spans="2:47">
+    </row>
+    <row r="20" spans="2:45">
       <c r="B20" s="2">
         <v>1953.5</v>
       </c>
@@ -2390,9 +2362,8 @@
         <v>15.188000000000001</v>
       </c>
       <c r="AS20" s="10"/>
-      <c r="AU20" s="10"/>
-    </row>
-    <row r="21" spans="2:47">
+    </row>
+    <row r="21" spans="2:45">
       <c r="B21" s="2">
         <v>1953.75</v>
       </c>
@@ -2458,9 +2429,8 @@
         <v>15.218999999999999</v>
       </c>
       <c r="AS21" s="10"/>
-      <c r="AU21" s="10"/>
-    </row>
-    <row r="22" spans="2:47">
+    </row>
+    <row r="22" spans="2:45">
       <c r="B22" s="2">
         <v>1954</v>
       </c>
@@ -2526,9 +2496,8 @@
         <v>15.266</v>
       </c>
       <c r="AS22" s="10"/>
-      <c r="AU22" s="10"/>
-    </row>
-    <row r="23" spans="2:47">
+    </row>
+    <row r="23" spans="2:45">
       <c r="B23" s="2">
         <v>1954.25</v>
       </c>
@@ -2594,9 +2563,8 @@
         <v>15.281000000000001</v>
       </c>
       <c r="AS23" s="10"/>
-      <c r="AU23" s="10"/>
-    </row>
-    <row r="24" spans="2:47">
+    </row>
+    <row r="24" spans="2:45">
       <c r="B24" s="2">
         <v>1954.5</v>
       </c>
@@ -2665,11 +2633,8 @@
         <v>15.3</v>
       </c>
       <c r="AS24" s="10"/>
-      <c r="AU24" s="10">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="25" spans="2:47">
+    </row>
+    <row r="25" spans="2:45">
       <c r="B25" s="2">
         <v>1954.75</v>
       </c>
@@ -2738,11 +2703,8 @@
         <v>15.343</v>
       </c>
       <c r="AS25" s="10"/>
-      <c r="AU25" s="10">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:47">
+    </row>
+    <row r="26" spans="2:45">
       <c r="B26" s="2">
         <v>1955</v>
       </c>
@@ -2811,11 +2773,8 @@
         <v>15.417</v>
       </c>
       <c r="AS26" s="10"/>
-      <c r="AU26" s="10">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:47">
+    </row>
+    <row r="27" spans="2:45">
       <c r="B27" s="2">
         <v>1955.25</v>
       </c>
@@ -2884,11 +2843,8 @@
         <v>15.481</v>
       </c>
       <c r="AS27" s="10"/>
-      <c r="AU27" s="10">
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:47">
+    </row>
+    <row r="28" spans="2:45">
       <c r="B28" s="2">
         <v>1955.5</v>
       </c>
@@ -2957,11 +2913,8 @@
         <v>15.59</v>
       </c>
       <c r="AS28" s="10"/>
-      <c r="AU28" s="10">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:47">
+    </row>
+    <row r="29" spans="2:45">
       <c r="B29" s="2">
         <v>1955.75</v>
       </c>
@@ -3030,11 +2983,8 @@
         <v>15.743</v>
       </c>
       <c r="AS29" s="10"/>
-      <c r="AU29" s="10">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:47">
+    </row>
+    <row r="30" spans="2:45">
       <c r="B30" s="2">
         <v>1956</v>
       </c>
@@ -3103,11 +3053,8 @@
         <v>15.901999999999999</v>
       </c>
       <c r="AS30" s="10"/>
-      <c r="AU30" s="10">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:47">
+    </row>
+    <row r="31" spans="2:45">
       <c r="B31" s="2">
         <v>1956.25</v>
       </c>
@@ -3176,11 +3123,8 @@
         <v>15.997</v>
       </c>
       <c r="AS31" s="10"/>
-      <c r="AU31" s="10">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:47">
+    </row>
+    <row r="32" spans="2:45">
       <c r="B32" s="2">
         <v>1956.5</v>
       </c>
@@ -3249,11 +3193,8 @@
         <v>16.196999999999999</v>
       </c>
       <c r="AS32" s="10"/>
-      <c r="AU32" s="10">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:47">
+    </row>
+    <row r="33" spans="2:45">
       <c r="B33" s="2">
         <v>1956.75</v>
       </c>
@@ -3322,11 +3263,8 @@
         <v>16.263999999999999</v>
       </c>
       <c r="AS33" s="10"/>
-      <c r="AU33" s="10">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:47">
+    </row>
+    <row r="34" spans="2:45">
       <c r="B34" s="2">
         <v>1957</v>
       </c>
@@ -3395,11 +3333,8 @@
         <v>16.484999999999999</v>
       </c>
       <c r="AS34" s="10"/>
-      <c r="AU34" s="10">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="35" spans="2:47">
+    </row>
+    <row r="35" spans="2:45">
       <c r="B35" s="2">
         <v>1957.25</v>
       </c>
@@ -3468,11 +3403,8 @@
         <v>16.600999999999999</v>
       </c>
       <c r="AS35" s="10"/>
-      <c r="AU35" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:47">
+    </row>
+    <row r="36" spans="2:45">
       <c r="B36" s="2">
         <v>1957.5</v>
       </c>
@@ -3541,11 +3473,8 @@
         <v>16.701000000000001</v>
       </c>
       <c r="AS36" s="10"/>
-      <c r="AU36" s="10">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:47">
+    </row>
+    <row r="37" spans="2:45">
       <c r="B37" s="2">
         <v>1957.75</v>
       </c>
@@ -3614,11 +3543,8 @@
         <v>16.710999999999999</v>
       </c>
       <c r="AS37" s="10"/>
-      <c r="AU37" s="10">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:47">
+    </row>
+    <row r="38" spans="2:45">
       <c r="B38" s="2">
         <v>1958</v>
       </c>
@@ -3687,11 +3613,8 @@
         <v>16.891999999999999</v>
       </c>
       <c r="AS38" s="10"/>
-      <c r="AU38" s="10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:47">
+    </row>
+    <row r="39" spans="2:45">
       <c r="B39" s="2">
         <v>1958.25</v>
       </c>
@@ -3760,11 +3683,8 @@
         <v>16.940000000000001</v>
       </c>
       <c r="AS39" s="10"/>
-      <c r="AU39" s="10">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="40" spans="2:47">
+    </row>
+    <row r="40" spans="2:45">
       <c r="B40" s="2">
         <v>1958.5</v>
       </c>
@@ -3833,11 +3753,8 @@
         <v>17.042999999999999</v>
       </c>
       <c r="AS40" s="10"/>
-      <c r="AU40" s="10">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="41" spans="2:47">
+    </row>
+    <row r="41" spans="2:45">
       <c r="B41" s="2">
         <v>1958.75</v>
       </c>
@@ -3906,11 +3823,8 @@
         <v>17.123000000000001</v>
       </c>
       <c r="AS41" s="10"/>
-      <c r="AU41" s="10">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="42" spans="2:47">
+    </row>
+    <row r="42" spans="2:45">
       <c r="B42" s="2">
         <v>1959</v>
       </c>
@@ -3979,11 +3893,8 @@
         <v>17.169</v>
       </c>
       <c r="AS42" s="10"/>
-      <c r="AU42" s="10">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:47">
+    </row>
+    <row r="43" spans="2:45">
       <c r="B43" s="2">
         <v>1959.25</v>
       </c>
@@ -4052,11 +3963,8 @@
         <v>17.193999999999999</v>
       </c>
       <c r="AS43" s="10"/>
-      <c r="AU43" s="10">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:47">
+    </row>
+    <row r="44" spans="2:45">
       <c r="B44" s="2">
         <v>1959.5</v>
       </c>
@@ -4125,11 +4033,8 @@
         <v>17.257999999999999</v>
       </c>
       <c r="AS44" s="10"/>
-      <c r="AU44" s="10">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:47">
+    </row>
+    <row r="45" spans="2:45">
       <c r="B45" s="2">
         <v>1959.75</v>
       </c>
@@ -4198,11 +4103,8 @@
         <v>17.326000000000001</v>
       </c>
       <c r="AS45" s="10"/>
-      <c r="AU45" s="10">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="46" spans="2:47">
+    </row>
+    <row r="46" spans="2:45">
       <c r="B46" s="2">
         <v>1960</v>
       </c>
@@ -4274,11 +4176,8 @@
         <v>17.396999999999998</v>
       </c>
       <c r="AS46" s="10"/>
-      <c r="AU46" s="10">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="47" spans="2:47">
+    </row>
+    <row r="47" spans="2:45">
       <c r="B47" s="2">
         <v>1960.25</v>
       </c>
@@ -4350,11 +4249,8 @@
         <v>17.443000000000001</v>
       </c>
       <c r="AS47" s="10"/>
-      <c r="AU47" s="10">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:47">
+    </row>
+    <row r="48" spans="2:45">
       <c r="B48" s="2">
         <v>1960.5</v>
       </c>
@@ -4426,11 +4322,8 @@
         <v>17.506</v>
       </c>
       <c r="AS48" s="10"/>
-      <c r="AU48" s="10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:47">
+    </row>
+    <row r="49" spans="2:45">
       <c r="B49" s="2">
         <v>1960.75</v>
       </c>
@@ -4502,11 +4395,8 @@
         <v>17.559999999999999</v>
       </c>
       <c r="AS49" s="10"/>
-      <c r="AU49" s="10">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:47">
+    </row>
+    <row r="50" spans="2:45">
       <c r="B50" s="2">
         <v>1961</v>
       </c>
@@ -4578,11 +4468,8 @@
         <v>17.597999999999999</v>
       </c>
       <c r="AS50" s="10"/>
-      <c r="AU50" s="10">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="51" spans="2:47">
+    </row>
+    <row r="51" spans="2:45">
       <c r="B51" s="2">
         <v>1961.25</v>
       </c>
@@ -4654,11 +4541,8 @@
         <v>17.640999999999998</v>
       </c>
       <c r="AS51" s="10"/>
-      <c r="AU51" s="10">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="52" spans="2:47">
+    </row>
+    <row r="52" spans="2:45">
       <c r="B52" s="2">
         <v>1961.5</v>
       </c>
@@ -4730,11 +4614,8 @@
         <v>17.687000000000001</v>
       </c>
       <c r="AS52" s="10"/>
-      <c r="AU52" s="10">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="53" spans="2:47">
+    </row>
+    <row r="53" spans="2:45">
       <c r="B53" s="2">
         <v>1961.75</v>
       </c>
@@ -4806,11 +4687,8 @@
         <v>17.745000000000001</v>
       </c>
       <c r="AS53" s="10"/>
-      <c r="AU53" s="10">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="54" spans="2:47">
+    </row>
+    <row r="54" spans="2:45">
       <c r="B54" s="2">
         <v>1962</v>
       </c>
@@ -4882,11 +4760,8 @@
         <v>17.837</v>
       </c>
       <c r="AS54" s="10"/>
-      <c r="AU54" s="10">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="55" spans="2:47">
+    </row>
+    <row r="55" spans="2:45">
       <c r="B55" s="2">
         <v>1962.25</v>
       </c>
@@ -4958,11 +4833,8 @@
         <v>17.866</v>
       </c>
       <c r="AS55" s="10"/>
-      <c r="AU55" s="10">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:47">
+    </row>
+    <row r="56" spans="2:45">
       <c r="B56" s="2">
         <v>1962.5</v>
       </c>
@@ -5034,11 +4906,8 @@
         <v>17.902999999999999</v>
       </c>
       <c r="AS56" s="10"/>
-      <c r="AU56" s="10">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="57" spans="2:47">
+    </row>
+    <row r="57" spans="2:45">
       <c r="B57" s="2">
         <v>1962.75</v>
       </c>
@@ -5110,11 +4979,8 @@
         <v>17.937999999999999</v>
       </c>
       <c r="AS57" s="10"/>
-      <c r="AU57" s="10">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="58" spans="2:47">
+    </row>
+    <row r="58" spans="2:45">
       <c r="B58" s="2">
         <v>1963</v>
       </c>
@@ -5186,11 +5052,8 @@
         <v>18.016999999999999</v>
       </c>
       <c r="AS58" s="10"/>
-      <c r="AU58" s="10">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="59" spans="2:47">
+    </row>
+    <row r="59" spans="2:45">
       <c r="B59" s="2">
         <v>1963.25</v>
       </c>
@@ -5262,11 +5125,8 @@
         <v>18.047000000000001</v>
       </c>
       <c r="AS59" s="10"/>
-      <c r="AU59" s="10">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="60" spans="2:47">
+    </row>
+    <row r="60" spans="2:45">
       <c r="B60" s="2">
         <v>1963.5</v>
       </c>
@@ -5338,11 +5198,8 @@
         <v>18.068999999999999</v>
       </c>
       <c r="AS60" s="10"/>
-      <c r="AU60" s="10">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="61" spans="2:47">
+    </row>
+    <row r="61" spans="2:45">
       <c r="B61" s="2">
         <v>1963.75</v>
       </c>
@@ -5414,11 +5271,8 @@
         <v>18.216000000000001</v>
       </c>
       <c r="AS61" s="10"/>
-      <c r="AU61" s="10">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="62" spans="2:47">
+    </row>
+    <row r="62" spans="2:45">
       <c r="B62" s="2">
         <v>1964</v>
       </c>
@@ -5490,11 +5344,8 @@
         <v>18.274000000000001</v>
       </c>
       <c r="AS62" s="10"/>
-      <c r="AU62" s="10">
-        <v>3.43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:47">
+    </row>
+    <row r="63" spans="2:45">
       <c r="B63" s="2">
         <v>1964.25</v>
       </c>
@@ -5566,11 +5417,8 @@
         <v>18.318000000000001</v>
       </c>
       <c r="AS63" s="10"/>
-      <c r="AU63" s="10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:47">
+    </row>
+    <row r="64" spans="2:45">
       <c r="B64" s="2">
         <v>1964.5</v>
       </c>
@@ -5642,11 +5490,8 @@
         <v>18.391999999999999</v>
       </c>
       <c r="AS64" s="10"/>
-      <c r="AU64" s="10">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="65" spans="2:47">
+    </row>
+    <row r="65" spans="2:45">
       <c r="B65" s="2">
         <v>1964.75</v>
       </c>
@@ -5718,11 +5563,8 @@
         <v>18.475999999999999</v>
       </c>
       <c r="AS65" s="10"/>
-      <c r="AU65" s="10">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="66" spans="2:47">
+    </row>
+    <row r="66" spans="2:45">
       <c r="B66" s="2">
         <v>1965</v>
       </c>
@@ -5794,11 +5636,8 @@
         <v>18.568999999999999</v>
       </c>
       <c r="AS66" s="10"/>
-      <c r="AU66" s="10">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="67" spans="2:47">
+    </row>
+    <row r="67" spans="2:45">
       <c r="B67" s="2">
         <v>1965.25</v>
       </c>
@@ -5870,11 +5709,8 @@
         <v>18.652000000000001</v>
       </c>
       <c r="AS67" s="10"/>
-      <c r="AU67" s="10">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="68" spans="2:47">
+    </row>
+    <row r="68" spans="2:45">
       <c r="B68" s="2">
         <v>1965.5</v>
       </c>
@@ -5946,11 +5782,8 @@
         <v>18.725999999999999</v>
       </c>
       <c r="AS68" s="10"/>
-      <c r="AU68" s="10">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="69" spans="2:47">
+    </row>
+    <row r="69" spans="2:45">
       <c r="B69" s="2">
         <v>1965.75</v>
       </c>
@@ -6022,11 +5855,8 @@
         <v>18.853000000000002</v>
       </c>
       <c r="AS69" s="10"/>
-      <c r="AU69" s="10">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="70" spans="2:47">
+    </row>
+    <row r="70" spans="2:45">
       <c r="B70" s="2">
         <v>1966</v>
       </c>
@@ -6098,11 +5928,8 @@
         <v>18.975000000000001</v>
       </c>
       <c r="AS70" s="10"/>
-      <c r="AU70" s="10">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="71" spans="2:47">
+    </row>
+    <row r="71" spans="2:45">
       <c r="B71" s="2">
         <v>1966.25</v>
       </c>
@@ -6174,11 +6001,8 @@
         <v>19.131</v>
       </c>
       <c r="AS71" s="10"/>
-      <c r="AU71" s="10">
-        <v>5.17</v>
-      </c>
-    </row>
-    <row r="72" spans="2:47">
+    </row>
+    <row r="72" spans="2:45">
       <c r="B72" s="2">
         <v>1966.5</v>
       </c>
@@ -6250,11 +6074,8 @@
         <v>19.317</v>
       </c>
       <c r="AS72" s="10"/>
-      <c r="AU72" s="10">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:47">
+    </row>
+    <row r="73" spans="2:45">
       <c r="B73" s="2">
         <v>1966.75</v>
       </c>
@@ -6326,11 +6147,8 @@
         <v>19.481000000000002</v>
       </c>
       <c r="AS73" s="10"/>
-      <c r="AU73" s="10">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:47">
+    </row>
+    <row r="74" spans="2:45">
       <c r="B74" s="2">
         <v>1967</v>
       </c>
@@ -6402,11 +6220,8 @@
         <v>19.562000000000001</v>
       </c>
       <c r="AS74" s="10"/>
-      <c r="AU74" s="10">
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="75" spans="2:47">
+    </row>
+    <row r="75" spans="2:45">
       <c r="B75" s="2">
         <v>1967.25</v>
       </c>
@@ -6478,11 +6293,8 @@
         <v>19.661000000000001</v>
       </c>
       <c r="AS75" s="10"/>
-      <c r="AU75" s="10">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="76" spans="2:47">
+    </row>
+    <row r="76" spans="2:45">
       <c r="B76" s="2">
         <v>1967.5</v>
       </c>
@@ -6555,11 +6367,8 @@
         <v>19.849</v>
       </c>
       <c r="AS76" s="10"/>
-      <c r="AU76" s="10">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="77" spans="2:47">
+    </row>
+    <row r="77" spans="2:45">
       <c r="B77" s="2">
         <v>1967.75</v>
       </c>
@@ -6632,11 +6441,8 @@
         <v>20.067</v>
       </c>
       <c r="AS77" s="10"/>
-      <c r="AU77" s="10">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="78" spans="2:47">
+    </row>
+    <row r="78" spans="2:45">
       <c r="B78" s="2">
         <v>1968</v>
       </c>
@@ -6709,11 +6515,8 @@
         <v>20.29</v>
       </c>
       <c r="AS78" s="10"/>
-      <c r="AU78" s="10">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="79" spans="2:47">
+    </row>
+    <row r="79" spans="2:45">
       <c r="B79" s="2">
         <v>1968.25</v>
       </c>
@@ -6786,11 +6589,8 @@
         <v>20.504000000000001</v>
       </c>
       <c r="AS79" s="10"/>
-      <c r="AU79" s="10">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="80" spans="2:47">
+    </row>
+    <row r="80" spans="2:45">
       <c r="B80" s="2">
         <v>1968.5</v>
       </c>
@@ -6863,11 +6663,8 @@
         <v>20.706</v>
       </c>
       <c r="AS80" s="10"/>
-      <c r="AU80" s="10">
-        <v>5.78</v>
-      </c>
-    </row>
-    <row r="81" spans="2:47">
+    </row>
+    <row r="81" spans="2:45">
       <c r="B81" s="2">
         <v>1968.75</v>
       </c>
@@ -6976,11 +6773,8 @@
         <v>20.998999999999999</v>
       </c>
       <c r="AS81" s="10"/>
-      <c r="AU81" s="10">
-        <v>6.02</v>
-      </c>
-    </row>
-    <row r="82" spans="2:47">
+    </row>
+    <row r="82" spans="2:45">
       <c r="B82" s="2">
         <v>1969</v>
       </c>
@@ -7093,11 +6887,8 @@
         <v>21.216999999999999</v>
       </c>
       <c r="AS82" s="10"/>
-      <c r="AU82" s="10">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="83" spans="2:47">
+    </row>
+    <row r="83" spans="2:45">
       <c r="B83" s="2">
         <v>1969.25</v>
       </c>
@@ -7210,11 +7001,8 @@
         <v>21.488</v>
       </c>
       <c r="AS83" s="10"/>
-      <c r="AU83" s="10">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="84" spans="2:47">
+    </row>
+    <row r="84" spans="2:45">
       <c r="B84" s="2">
         <v>1969.5</v>
       </c>
@@ -7327,11 +7115,8 @@
         <v>21.79</v>
       </c>
       <c r="AS84" s="10"/>
-      <c r="AU84" s="10">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="85" spans="2:47">
+    </row>
+    <row r="85" spans="2:45">
       <c r="B85" s="2">
         <v>1969.75</v>
       </c>
@@ -7443,11 +7228,8 @@
         <v>22.071000000000002</v>
       </c>
       <c r="AS85" s="10"/>
-      <c r="AU85" s="10">
-        <v>8.9700000000000006</v>
-      </c>
-    </row>
-    <row r="86" spans="2:47">
+    </row>
+    <row r="86" spans="2:45">
       <c r="B86" s="2">
         <v>1970</v>
       </c>
@@ -7561,11 +7343,8 @@
         <v>22.382000000000001</v>
       </c>
       <c r="AS86" s="10"/>
-      <c r="AU86" s="10">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="87" spans="2:47">
+    </row>
+    <row r="87" spans="2:45">
       <c r="B87" s="2">
         <v>1970.25</v>
       </c>
@@ -7677,11 +7456,8 @@
         <v>22.693999999999999</v>
       </c>
       <c r="AS87" s="10"/>
-      <c r="AU87" s="10">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="88" spans="2:47">
+    </row>
+    <row r="88" spans="2:45">
       <c r="B88" s="2">
         <v>1970.5</v>
       </c>
@@ -7793,11 +7569,8 @@
         <v>22.88</v>
       </c>
       <c r="AS88" s="10"/>
-      <c r="AU88" s="10">
-        <v>6.29</v>
-      </c>
-    </row>
-    <row r="89" spans="2:47">
+    </row>
+    <row r="89" spans="2:45">
       <c r="B89" s="2">
         <v>1970.75</v>
       </c>
@@ -7909,11 +7682,8 @@
         <v>23.181999999999999</v>
       </c>
       <c r="AS89" s="10"/>
-      <c r="AU89" s="10">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="90" spans="2:47">
+    </row>
+    <row r="90" spans="2:45">
       <c r="B90" s="2">
         <v>1971</v>
       </c>
@@ -8025,11 +7795,8 @@
         <v>23.536000000000001</v>
       </c>
       <c r="AS90" s="10"/>
-      <c r="AU90" s="10">
-        <v>3.71</v>
-      </c>
-    </row>
-    <row r="91" spans="2:47">
+    </row>
+    <row r="91" spans="2:45">
       <c r="B91" s="2">
         <v>1971.25</v>
       </c>
@@ -8141,11 +7908,8 @@
         <v>23.846</v>
       </c>
       <c r="AS91" s="10"/>
-      <c r="AU91" s="10">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="92" spans="2:47">
+    </row>
+    <row r="92" spans="2:45">
       <c r="B92" s="2">
         <v>1971.5</v>
       </c>
@@ -8257,11 +8021,8 @@
         <v>24.088000000000001</v>
       </c>
       <c r="AS92" s="10"/>
-      <c r="AU92" s="10">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="93" spans="2:47">
+    </row>
+    <row r="93" spans="2:45">
       <c r="B93" s="2">
         <v>1971.75</v>
       </c>
@@ -8373,11 +8134,8 @@
         <v>24.288</v>
       </c>
       <c r="AS93" s="10"/>
-      <c r="AU93" s="10">
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="2:47">
+    </row>
+    <row r="94" spans="2:45">
       <c r="B94" s="2">
         <v>1972</v>
       </c>
@@ -8489,11 +8247,8 @@
         <v>24.664000000000001</v>
       </c>
       <c r="AS94" s="10"/>
-      <c r="AU94" s="10">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="95" spans="2:47">
+    </row>
+    <row r="95" spans="2:45">
       <c r="B95" s="2">
         <v>1972.25</v>
       </c>
@@ -8605,11 +8360,8 @@
         <v>24.815000000000001</v>
       </c>
       <c r="AS95" s="10"/>
-      <c r="AU95" s="10">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="96" spans="2:47">
+    </row>
+    <row r="96" spans="2:45">
       <c r="B96" s="2">
         <v>1972.5</v>
       </c>
@@ -8721,11 +8473,8 @@
         <v>25.047999999999998</v>
       </c>
       <c r="AS96" s="10"/>
-      <c r="AU96" s="10">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="97" spans="2:47">
+    </row>
+    <row r="97" spans="2:46">
       <c r="B97" s="2">
         <v>1972.75</v>
       </c>
@@ -8837,11 +8586,8 @@
         <v>25.366</v>
       </c>
       <c r="AS97" s="10"/>
-      <c r="AU97" s="10">
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="98" spans="2:47">
+    </row>
+    <row r="98" spans="2:46">
       <c r="B98" s="2">
         <v>1973</v>
       </c>
@@ -8956,11 +8702,8 @@
       <c r="AT98" s="3">
         <v>1.026</v>
       </c>
-      <c r="AU98" s="10">
-        <v>7.09</v>
-      </c>
-    </row>
-    <row r="99" spans="2:47">
+    </row>
+    <row r="99" spans="2:46">
       <c r="B99" s="2">
         <v>1973.25</v>
       </c>
@@ -9075,11 +8818,8 @@
       <c r="AT99" s="3">
         <v>1.0113000000000001</v>
       </c>
-      <c r="AU99" s="10">
-        <v>8.49</v>
-      </c>
-    </row>
-    <row r="100" spans="2:47">
+    </row>
+    <row r="100" spans="2:46">
       <c r="B100" s="2">
         <v>1973.5</v>
       </c>
@@ -9194,11 +8934,8 @@
       <c r="AT100" s="3">
         <v>0.97560000000000002</v>
       </c>
-      <c r="AU100" s="10">
-        <v>10.78</v>
-      </c>
-    </row>
-    <row r="101" spans="2:47">
+    </row>
+    <row r="101" spans="2:46">
       <c r="B101" s="2">
         <v>1973.75</v>
       </c>
@@ -9313,11 +9050,8 @@
       <c r="AT101" s="3">
         <v>1.2197</v>
       </c>
-      <c r="AU101" s="10">
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="102" spans="2:47">
+    </row>
+    <row r="102" spans="2:46">
       <c r="B102" s="2">
         <v>1974</v>
       </c>
@@ -9432,11 +9166,8 @@
       <c r="AT102" s="3">
         <v>1.1686000000000001</v>
       </c>
-      <c r="AU102" s="10">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="103" spans="2:47">
+    </row>
+    <row r="103" spans="2:46">
       <c r="B103" s="2">
         <v>1974.25</v>
       </c>
@@ -9551,11 +9282,8 @@
       <c r="AT103" s="3">
         <v>1.6315</v>
       </c>
-      <c r="AU103" s="10">
-        <v>11.93</v>
-      </c>
-    </row>
-    <row r="104" spans="2:47">
+    </row>
+    <row r="104" spans="2:46">
       <c r="B104" s="2">
         <v>1974.5</v>
       </c>
@@ -9672,11 +9400,8 @@
       <c r="AT104" s="3">
         <v>2.1772</v>
       </c>
-      <c r="AU104" s="10">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="105" spans="2:47">
+    </row>
+    <row r="105" spans="2:46">
       <c r="B105" s="2">
         <v>1974.75</v>
       </c>
@@ -9791,11 +9516,8 @@
       <c r="AT105" s="3">
         <v>2.1158999999999999</v>
       </c>
-      <c r="AU105" s="10">
-        <v>8.5299999999999994</v>
-      </c>
-    </row>
-    <row r="106" spans="2:47">
+    </row>
+    <row r="106" spans="2:46">
       <c r="B106" s="2">
         <v>1975</v>
       </c>
@@ -9910,11 +9632,8 @@
       <c r="AT106" s="3">
         <v>1.5933999999999999</v>
       </c>
-      <c r="AU106" s="10">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="107" spans="2:47">
+    </row>
+    <row r="107" spans="2:46">
       <c r="B107" s="2">
         <v>1975.25</v>
       </c>
@@ -10029,11 +9748,8 @@
       <c r="AT107" s="3">
         <v>1.4368000000000001</v>
       </c>
-      <c r="AU107" s="10">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="108" spans="2:47">
+    </row>
+    <row r="108" spans="2:46">
       <c r="B108" s="2">
         <v>1975.5</v>
       </c>
@@ -10148,11 +9864,8 @@
       <c r="AT108" s="3">
         <v>1.3525</v>
       </c>
-      <c r="AU108" s="10">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="109" spans="2:47">
+    </row>
+    <row r="109" spans="2:46">
       <c r="B109" s="2">
         <v>1975.75</v>
       </c>
@@ -10267,11 +9980,8 @@
       <c r="AT109" s="3">
         <v>1.1652</v>
       </c>
-      <c r="AU109" s="10">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:47">
+    </row>
+    <row r="110" spans="2:46">
       <c r="B110" s="2">
         <v>1976</v>
       </c>
@@ -10386,11 +10096,8 @@
       <c r="AT110" s="3">
         <v>1.0137</v>
       </c>
-      <c r="AU110" s="10">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="111" spans="2:47">
+    </row>
+    <row r="111" spans="2:46">
       <c r="B111" s="2">
         <v>1976.25</v>
       </c>
@@ -10505,11 +10212,8 @@
       <c r="AT111" s="3">
         <v>0.99609999999999999</v>
       </c>
-      <c r="AU111" s="10">
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="112" spans="2:47">
+    </row>
+    <row r="112" spans="2:46">
       <c r="B112" s="2">
         <v>1976.5</v>
       </c>
@@ -10624,11 +10328,8 @@
       <c r="AT112" s="3">
         <v>0.89380000000000004</v>
       </c>
-      <c r="AU112" s="10">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="113" spans="2:47">
+    </row>
+    <row r="113" spans="2:46">
       <c r="B113" s="2">
         <v>1976.75</v>
       </c>
@@ -10743,11 +10444,8 @@
       <c r="AT113" s="3">
         <v>0.95240000000000002</v>
       </c>
-      <c r="AU113" s="10">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="114" spans="2:47">
+    </row>
+    <row r="114" spans="2:46">
       <c r="B114" s="2">
         <v>1977</v>
       </c>
@@ -10862,11 +10560,8 @@
       <c r="AT114" s="3">
         <v>0.90690000000000004</v>
       </c>
-      <c r="AU114" s="10">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="115" spans="2:47">
+    </row>
+    <row r="115" spans="2:46">
       <c r="B115" s="2">
         <v>1977.25</v>
       </c>
@@ -10981,11 +10676,8 @@
       <c r="AT115" s="3">
         <v>0.84830000000000005</v>
       </c>
-      <c r="AU115" s="10">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="116" spans="2:47">
+    </row>
+    <row r="116" spans="2:46">
       <c r="B116" s="2">
         <v>1977.5</v>
       </c>
@@ -11100,11 +10792,8 @@
       <c r="AT116" s="3">
         <v>0.96399999999999997</v>
       </c>
-      <c r="AU116" s="10">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="117" spans="2:47">
+    </row>
+    <row r="117" spans="2:46">
       <c r="B117" s="2">
         <v>1977.75</v>
       </c>
@@ -11219,11 +10908,8 @@
       <c r="AT117" s="3">
         <v>0.88529999999999998</v>
       </c>
-      <c r="AU117" s="10">
-        <v>6.56</v>
-      </c>
-    </row>
-    <row r="118" spans="2:47">
+    </row>
+    <row r="118" spans="2:46">
       <c r="B118" s="2">
         <v>1978</v>
       </c>
@@ -11338,11 +11024,8 @@
       <c r="AT118" s="3">
         <v>0.74839999999999995</v>
       </c>
-      <c r="AU118" s="10">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="119" spans="2:47">
+    </row>
+    <row r="119" spans="2:46">
       <c r="B119" s="2">
         <v>1978.25</v>
       </c>
@@ -11460,11 +11143,8 @@
       <c r="AT119" s="3">
         <v>0.69720000000000004</v>
       </c>
-      <c r="AU119" s="10">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="120" spans="2:47">
+    </row>
+    <row r="120" spans="2:46">
       <c r="B120" s="2">
         <v>1978.5</v>
       </c>
@@ -11582,11 +11262,8 @@
       <c r="AT120" s="3">
         <v>0.61029999999999995</v>
       </c>
-      <c r="AU120" s="10">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="121" spans="2:47">
+    </row>
+    <row r="121" spans="2:46">
       <c r="B121" s="2">
         <v>1978.75</v>
       </c>
@@ -11704,11 +11381,8 @@
       <c r="AT121" s="3">
         <v>0.63759999999999994</v>
       </c>
-      <c r="AU121" s="10">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="2:47">
+    </row>
+    <row r="122" spans="2:46">
       <c r="B122" s="2">
         <v>1979</v>
       </c>
@@ -11826,11 +11500,8 @@
       <c r="AT122" s="3">
         <v>0.66539999999999999</v>
       </c>
-      <c r="AU122" s="10">
-        <v>10.09</v>
-      </c>
-    </row>
-    <row r="123" spans="2:47">
+    </row>
+    <row r="123" spans="2:46">
       <c r="B123" s="2">
         <v>1979.25</v>
       </c>
@@ -11948,11 +11619,8 @@
       <c r="AT123" s="3">
         <v>0.69</v>
       </c>
-      <c r="AU123" s="10">
-        <v>10.29</v>
-      </c>
-    </row>
-    <row r="124" spans="2:47">
+    </row>
+    <row r="124" spans="2:46">
       <c r="B124" s="2">
         <v>1979.5</v>
       </c>
@@ -12070,11 +11738,8 @@
       <c r="AT124" s="3">
         <v>0.65900000000000003</v>
       </c>
-      <c r="AU124" s="10">
-        <v>11.43</v>
-      </c>
-    </row>
-    <row r="125" spans="2:47">
+    </row>
+    <row r="125" spans="2:46">
       <c r="B125" s="2">
         <v>1979.75</v>
       </c>
@@ -12192,11 +11857,8 @@
       <c r="AT125" s="3">
         <v>0.77180000000000004</v>
       </c>
-      <c r="AU125" s="10">
-        <v>13.78</v>
-      </c>
-    </row>
-    <row r="126" spans="2:47">
+    </row>
+    <row r="126" spans="2:46">
       <c r="B126" s="2">
         <v>1980</v>
       </c>
@@ -12314,11 +11976,8 @@
       <c r="AT126" s="3">
         <v>0.92379999999999995</v>
       </c>
-      <c r="AU126" s="10">
-        <v>17.190000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="2:47">
+    </row>
+    <row r="127" spans="2:46">
       <c r="B127" s="2">
         <v>1980.25</v>
       </c>
@@ -12436,11 +12095,8 @@
       <c r="AT127" s="3">
         <v>0.93500000000000005</v>
       </c>
-      <c r="AU127" s="10">
-        <v>9.4700000000000006</v>
-      </c>
-    </row>
-    <row r="128" spans="2:47">
+    </row>
+    <row r="128" spans="2:46">
       <c r="B128" s="2">
         <v>1980.5</v>
       </c>
@@ -12558,11 +12214,8 @@
       <c r="AT128" s="3">
         <v>0.8629</v>
       </c>
-      <c r="AU128" s="10">
-        <v>10.87</v>
-      </c>
-    </row>
-    <row r="129" spans="2:47">
+    </row>
+    <row r="129" spans="2:46">
       <c r="B129" s="2">
         <v>1980.75</v>
       </c>
@@ -12680,11 +12333,8 @@
       <c r="AT129" s="3">
         <v>0.98980000000000001</v>
       </c>
-      <c r="AU129" s="10">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="2:47">
+    </row>
+    <row r="130" spans="2:46">
       <c r="B130" s="2">
         <v>1981</v>
       </c>
@@ -12802,11 +12452,8 @@
       <c r="AT130" s="3">
         <v>0.96340000000000003</v>
       </c>
-      <c r="AU130" s="10">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="131" spans="2:47">
+    </row>
+    <row r="131" spans="2:46">
       <c r="B131" s="2">
         <v>1981.25</v>
       </c>
@@ -12924,11 +12571,8 @@
       <c r="AT131" s="3">
         <v>1.1214999999999999</v>
       </c>
-      <c r="AU131" s="10">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="2:47">
+    </row>
+    <row r="132" spans="2:46">
       <c r="B132" s="2">
         <v>1981.5</v>
       </c>
@@ -13062,11 +12706,8 @@
       <c r="AT132" s="3">
         <v>1.1418999999999999</v>
       </c>
-      <c r="AU132" s="10">
-        <v>15.87</v>
-      </c>
-    </row>
-    <row r="133" spans="2:47">
+    </row>
+    <row r="133" spans="2:46">
       <c r="B133" s="2">
         <v>1981.75</v>
       </c>
@@ -13200,11 +12841,8 @@
       <c r="AT133" s="3">
         <v>1.4448000000000001</v>
       </c>
-      <c r="AU133" s="10">
-        <v>12.37</v>
-      </c>
-    </row>
-    <row r="134" spans="2:47">
+    </row>
+    <row r="134" spans="2:46">
       <c r="B134" s="2">
         <v>1982</v>
       </c>
@@ -13338,11 +12976,8 @@
       <c r="AT134" s="3">
         <v>1.5509999999999999</v>
       </c>
-      <c r="AU134" s="10">
-        <v>14.68</v>
-      </c>
-    </row>
-    <row r="135" spans="2:47">
+    </row>
+    <row r="135" spans="2:46">
       <c r="B135" s="2">
         <v>1982.25</v>
       </c>
@@ -13476,11 +13111,8 @@
       <c r="AT135" s="3">
         <v>1.5548999999999999</v>
       </c>
-      <c r="AU135" s="10">
-        <v>14.15</v>
-      </c>
-    </row>
-    <row r="136" spans="2:47">
+    </row>
+    <row r="136" spans="2:46">
       <c r="B136" s="2">
         <v>1982.5</v>
       </c>
@@ -13614,11 +13246,8 @@
       <c r="AT136" s="3">
         <v>1.6774</v>
       </c>
-      <c r="AU136" s="10">
-        <v>10.31</v>
-      </c>
-    </row>
-    <row r="137" spans="2:47">
+    </row>
+    <row r="137" spans="2:46">
       <c r="B137" s="2">
         <v>1982.75</v>
       </c>
@@ -13752,11 +13381,8 @@
       <c r="AT137" s="3">
         <v>1.5542</v>
       </c>
-      <c r="AU137" s="10">
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="138" spans="2:47">
+    </row>
+    <row r="138" spans="2:46">
       <c r="B138" s="2">
         <v>1983</v>
       </c>
@@ -13890,11 +13516,8 @@
       <c r="AT138" s="3">
         <v>1.1416999999999999</v>
       </c>
-      <c r="AU138" s="10">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="139" spans="2:47">
+    </row>
+    <row r="139" spans="2:46">
       <c r="B139" s="2">
         <v>1983.25</v>
       </c>
@@ -14028,11 +13651,8 @@
       <c r="AT139" s="3">
         <v>0.89</v>
       </c>
-      <c r="AU139" s="10">
-        <v>8.98</v>
-      </c>
-    </row>
-    <row r="140" spans="2:47">
+    </row>
+    <row r="140" spans="2:46">
       <c r="B140" s="2">
         <v>1983.5</v>
       </c>
@@ -14166,11 +13786,8 @@
       <c r="AT140" s="3">
         <v>0.88780000000000003</v>
       </c>
-      <c r="AU140" s="10">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="141" spans="2:47">
+    </row>
+    <row r="141" spans="2:46">
       <c r="B141" s="2">
         <v>1983.75</v>
       </c>
@@ -14304,11 +13921,8 @@
       <c r="AT141" s="3">
         <v>0.94359999999999999</v>
       </c>
-      <c r="AU141" s="10">
-        <v>9.4700000000000006</v>
-      </c>
-    </row>
-    <row r="142" spans="2:47">
+    </row>
+    <row r="142" spans="2:46">
       <c r="B142" s="2">
         <v>1984</v>
       </c>
@@ -14442,11 +14056,8 @@
       <c r="AT142" s="3">
         <v>0.95289999999999997</v>
       </c>
-      <c r="AU142" s="10">
-        <v>9.91</v>
-      </c>
-    </row>
-    <row r="143" spans="2:47">
+    </row>
+    <row r="143" spans="2:46">
       <c r="B143" s="2">
         <v>1984.25</v>
       </c>
@@ -14580,11 +14191,8 @@
       <c r="AT143" s="3">
         <v>0.877</v>
       </c>
-      <c r="AU143" s="10">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="144" spans="2:47">
+    </row>
+    <row r="144" spans="2:46">
       <c r="B144" s="2">
         <v>1984.5</v>
       </c>
@@ -14718,11 +14326,8 @@
       <c r="AT144" s="3">
         <v>0.95779999999999998</v>
       </c>
-      <c r="AU144" s="10">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="145" spans="2:47">
+    </row>
+    <row r="145" spans="2:46">
       <c r="B145" s="2">
         <v>1984.75</v>
       </c>
@@ -14856,11 +14461,8 @@
       <c r="AT145" s="3">
         <v>0.99639999999999995</v>
       </c>
-      <c r="AU145" s="10">
-        <v>8.3800000000000008</v>
-      </c>
-    </row>
-    <row r="146" spans="2:47">
+    </row>
+    <row r="146" spans="2:46">
       <c r="B146" s="2">
         <v>1985</v>
       </c>
@@ -14994,11 +14596,8 @@
       <c r="AT146" s="3">
         <v>1.0276000000000001</v>
       </c>
-      <c r="AU146" s="10">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="147" spans="2:47">
+    </row>
+    <row r="147" spans="2:46">
       <c r="B147" s="2">
         <v>1985.25</v>
       </c>
@@ -15132,11 +14731,8 @@
       <c r="AT147" s="3">
         <v>1.1998</v>
       </c>
-      <c r="AU147" s="10">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="148" spans="2:47">
+    </row>
+    <row r="148" spans="2:46">
       <c r="B148" s="2">
         <v>1985.5</v>
       </c>
@@ -15270,11 +14866,8 @@
       <c r="AT148" s="3">
         <v>1.2437</v>
       </c>
-      <c r="AU148" s="10">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="149" spans="2:47">
+    </row>
+    <row r="149" spans="2:46">
       <c r="B149" s="2">
         <v>1985.75</v>
       </c>
@@ -15408,11 +15001,8 @@
       <c r="AT149" s="3">
         <v>1.4291</v>
       </c>
-      <c r="AU149" s="10">
-        <v>8.27</v>
-      </c>
-    </row>
-    <row r="150" spans="2:47">
+    </row>
+    <row r="150" spans="2:46">
       <c r="B150" s="2">
         <v>1986</v>
       </c>
@@ -15546,11 +15136,8 @@
       <c r="AT150" s="3">
         <v>1.8412999999999999</v>
       </c>
-      <c r="AU150" s="10">
-        <v>7.48</v>
-      </c>
-    </row>
-    <row r="151" spans="2:47">
+    </row>
+    <row r="151" spans="2:46">
       <c r="B151" s="2">
         <v>1986.25</v>
       </c>
@@ -15684,11 +15271,8 @@
       <c r="AT151" s="3">
         <v>1.972</v>
       </c>
-      <c r="AU151" s="10">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="152" spans="2:47">
+    </row>
+    <row r="152" spans="2:46">
       <c r="B152" s="2">
         <v>1986.5</v>
       </c>
@@ -15822,11 +15406,8 @@
       <c r="AT152" s="3">
         <v>2.0950000000000002</v>
       </c>
-      <c r="AU152" s="10">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="153" spans="2:47">
+    </row>
+    <row r="153" spans="2:46">
       <c r="B153" s="2">
         <v>1986.75</v>
       </c>
@@ -15960,11 +15541,8 @@
       <c r="AT153" s="3">
         <v>1.9807999999999999</v>
       </c>
-      <c r="AU153" s="10">
-        <v>6.91</v>
-      </c>
-    </row>
-    <row r="154" spans="2:47">
+    </row>
+    <row r="154" spans="2:46">
       <c r="B154" s="2">
         <v>1987</v>
       </c>
@@ -16098,11 +15676,8 @@
       <c r="AT154" s="3">
         <v>1.8228</v>
       </c>
-      <c r="AU154" s="10">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="155" spans="2:47">
+    </row>
+    <row r="155" spans="2:46">
       <c r="B155" s="2">
         <v>1987.25</v>
       </c>
@@ -16236,11 +15811,8 @@
       <c r="AT155" s="3">
         <v>1.6871</v>
       </c>
-      <c r="AU155" s="10">
-        <v>6.73</v>
-      </c>
-    </row>
-    <row r="156" spans="2:47">
+    </row>
+    <row r="156" spans="2:46">
       <c r="B156" s="2">
         <v>1987.5</v>
       </c>
@@ -16374,11 +15946,8 @@
       <c r="AT156" s="3">
         <v>1.6107</v>
       </c>
-      <c r="AU156" s="10">
-        <v>7.22</v>
-      </c>
-    </row>
-    <row r="157" spans="2:47">
+    </row>
+    <row r="157" spans="2:46">
       <c r="B157" s="2">
         <v>1987.75</v>
       </c>
@@ -16512,11 +16081,8 @@
       <c r="AT157" s="3">
         <v>1.5905</v>
       </c>
-      <c r="AU157" s="10">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="158" spans="2:47">
+    </row>
+    <row r="158" spans="2:46">
       <c r="B158" s="2">
         <v>1988</v>
       </c>
@@ -16650,11 +16216,8 @@
       <c r="AT158" s="3">
         <v>1.593</v>
       </c>
-      <c r="AU158" s="10">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="159" spans="2:47">
+    </row>
+    <row r="159" spans="2:46">
       <c r="B159" s="2">
         <v>1988.25</v>
       </c>
@@ -16788,11 +16351,8 @@
       <c r="AT159" s="3">
         <v>1.4676</v>
       </c>
-      <c r="AU159" s="10">
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="160" spans="2:47">
+    </row>
+    <row r="160" spans="2:46">
       <c r="B160" s="2">
         <v>1988.5</v>
       </c>
@@ -16926,11 +16486,8 @@
       <c r="AT160" s="3">
         <v>1.4797</v>
       </c>
-      <c r="AU160" s="10">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="161" spans="2:47">
+    </row>
+    <row r="161" spans="2:46">
       <c r="B161" s="2">
         <v>1988.75</v>
       </c>
@@ -17064,11 +16621,8 @@
       <c r="AT161" s="3">
         <v>1.524</v>
       </c>
-      <c r="AU161" s="10">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="162" spans="2:47">
+    </row>
+    <row r="162" spans="2:46">
       <c r="B162" s="2">
         <v>1989</v>
       </c>
@@ -17202,11 +16756,8 @@
       <c r="AT162" s="3">
         <v>1.5034000000000001</v>
       </c>
-      <c r="AU162" s="10">
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="163" spans="2:47">
+    </row>
+    <row r="163" spans="2:46">
       <c r="B163" s="2">
         <v>1989.25</v>
       </c>
@@ -17340,11 +16891,8 @@
       <c r="AT163" s="3">
         <v>1.7632000000000001</v>
       </c>
-      <c r="AU163" s="10">
-        <v>9.5299999999999994</v>
-      </c>
-    </row>
-    <row r="164" spans="2:47">
+    </row>
+    <row r="164" spans="2:46">
       <c r="B164" s="2">
         <v>1989.5</v>
       </c>
@@ -17478,11 +17026,8 @@
       <c r="AT164" s="3">
         <v>1.7269000000000001</v>
       </c>
-      <c r="AU164" s="10">
-        <v>9.02</v>
-      </c>
-    </row>
-    <row r="165" spans="2:47">
+    </row>
+    <row r="165" spans="2:46">
       <c r="B165" s="2">
         <v>1989.75</v>
       </c>
@@ -17616,11 +17161,8 @@
       <c r="AT165" s="3">
         <v>1.6442000000000001</v>
       </c>
-      <c r="AU165" s="10">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="166" spans="2:47">
+    </row>
+    <row r="166" spans="2:46">
       <c r="B166" s="2">
         <v>1990</v>
       </c>
@@ -17756,11 +17298,8 @@
       <c r="AT166" s="3">
         <v>1.4482999999999999</v>
       </c>
-      <c r="AU166" s="10">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="167" spans="2:47">
+    </row>
+    <row r="167" spans="2:46">
       <c r="B167" s="2">
         <v>1990.25</v>
       </c>
@@ -17896,11 +17435,8 @@
       <c r="AT167" s="3">
         <v>1.2152000000000001</v>
       </c>
-      <c r="AU167" s="10">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="168" spans="2:47">
+    </row>
+    <row r="168" spans="2:46">
       <c r="B168" s="2">
         <v>1990.5</v>
       </c>
@@ -18036,11 +17572,8 @@
       <c r="AT168" s="3">
         <v>1.2535000000000001</v>
       </c>
-      <c r="AU168" s="10">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="169" spans="2:47">
+    </row>
+    <row r="169" spans="2:46">
       <c r="B169" s="2">
         <v>1990.75</v>
       </c>
@@ -18176,11 +17709,8 @@
       <c r="AT169" s="3">
         <v>1.6213</v>
       </c>
-      <c r="AU169" s="10">
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="170" spans="2:47">
+    </row>
+    <row r="170" spans="2:46">
       <c r="B170" s="2">
         <v>1991</v>
       </c>
@@ -18316,11 +17846,8 @@
       <c r="AT170" s="3">
         <v>1.5216000000000001</v>
       </c>
-      <c r="AU170" s="10">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="171" spans="2:47">
+    </row>
+    <row r="171" spans="2:46">
       <c r="B171" s="2">
         <v>1991.25</v>
       </c>
@@ -18456,11 +17983,8 @@
       <c r="AT171" s="3">
         <v>1.4752000000000001</v>
       </c>
-      <c r="AU171" s="10">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="172" spans="2:47">
+    </row>
+    <row r="172" spans="2:46">
       <c r="B172" s="2">
         <v>1991.5</v>
       </c>
@@ -18596,11 +18120,8 @@
       <c r="AT172" s="3">
         <v>1.4875</v>
       </c>
-      <c r="AU172" s="10">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="173" spans="2:47">
+    </row>
+    <row r="173" spans="2:46">
       <c r="B173" s="2">
         <v>1991.75</v>
       </c>
@@ -18736,11 +18257,8 @@
       <c r="AT173" s="3">
         <v>1.5107999999999999</v>
       </c>
-      <c r="AU173" s="10">
-        <v>4.43</v>
-      </c>
-    </row>
-    <row r="174" spans="2:47">
+    </row>
+    <row r="174" spans="2:46">
       <c r="B174" s="2">
         <v>1992</v>
       </c>
@@ -18876,11 +18394,8 @@
       <c r="AT174" s="3">
         <v>1.3742000000000001</v>
       </c>
-      <c r="AU174" s="10">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="175" spans="2:47">
+    </row>
+    <row r="175" spans="2:46">
       <c r="B175" s="2">
         <v>1992.25</v>
       </c>
@@ -19016,11 +18531,8 @@
       <c r="AT175" s="3">
         <v>1.3351999999999999</v>
       </c>
-      <c r="AU175" s="10">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="176" spans="2:47">
+    </row>
+    <row r="176" spans="2:46">
       <c r="B176" s="2">
         <v>1992.5</v>
       </c>
@@ -19156,11 +18668,8 @@
       <c r="AT176" s="3">
         <v>1.5062</v>
       </c>
-      <c r="AU176" s="10">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="177" spans="2:47">
+    </row>
+    <row r="177" spans="2:46">
       <c r="B177" s="2">
         <v>1992.75</v>
       </c>
@@ -19296,11 +18805,8 @@
       <c r="AT177" s="3">
         <v>1.4388000000000001</v>
       </c>
-      <c r="AU177" s="10">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="178" spans="2:47">
+    </row>
+    <row r="178" spans="2:46">
       <c r="B178" s="2">
         <v>1993</v>
       </c>
@@ -19436,11 +18942,8 @@
       <c r="AT178" s="3">
         <v>1.4533</v>
       </c>
-      <c r="AU178" s="10">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="179" spans="2:47">
+    </row>
+    <row r="179" spans="2:46">
       <c r="B179" s="2">
         <v>1993.25</v>
       </c>
@@ -19576,11 +19079,8 @@
       <c r="AT179" s="3">
         <v>1.4012</v>
       </c>
-      <c r="AU179" s="10">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="180" spans="2:47">
+    </row>
+    <row r="180" spans="2:46">
       <c r="B180" s="2">
         <v>1993.5</v>
       </c>
@@ -19716,11 +19216,8 @@
       <c r="AT180" s="3">
         <v>1.4315</v>
       </c>
-      <c r="AU180" s="10">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="181" spans="2:47">
+    </row>
+    <row r="181" spans="2:46">
       <c r="B181" s="2">
         <v>1993.75</v>
       </c>
@@ -19856,11 +19353,8 @@
       <c r="AT181" s="3">
         <v>1.3460000000000001</v>
       </c>
-      <c r="AU181" s="10">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="182" spans="2:47">
+    </row>
+    <row r="182" spans="2:46">
       <c r="B182" s="2">
         <v>1994</v>
       </c>
@@ -19996,11 +19490,8 @@
       <c r="AT182" s="3">
         <v>1.2428999999999999</v>
       </c>
-      <c r="AU182" s="10">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="183" spans="2:47">
+    </row>
+    <row r="183" spans="2:46">
       <c r="B183" s="2">
         <v>1994.25</v>
       </c>
@@ -20136,11 +19627,8 @@
       <c r="AT183" s="3">
         <v>1.2508999999999999</v>
       </c>
-      <c r="AU183" s="10">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="184" spans="2:47">
+    </row>
+    <row r="184" spans="2:46">
       <c r="B184" s="2">
         <v>1994.5</v>
       </c>
@@ -20276,11 +19764,8 @@
       <c r="AT184" s="3">
         <v>1.2150000000000001</v>
       </c>
-      <c r="AU184" s="10">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="185" spans="2:47">
+    </row>
+    <row r="185" spans="2:46">
       <c r="B185" s="2">
         <v>1994.75</v>
       </c>
@@ -20416,11 +19901,8 @@
       <c r="AT185" s="3">
         <v>1.2815000000000001</v>
       </c>
-      <c r="AU185" s="10">
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="186" spans="2:47">
+    </row>
+    <row r="186" spans="2:46">
       <c r="B186" s="2">
         <v>1995</v>
       </c>
@@ -20556,11 +20038,8 @@
       <c r="AT186" s="3">
         <v>1.2770999999999999</v>
       </c>
-      <c r="AU186" s="10">
-        <v>5.98</v>
-      </c>
-    </row>
-    <row r="187" spans="2:47">
+    </row>
+    <row r="187" spans="2:46">
       <c r="B187" s="2">
         <v>1995.25</v>
       </c>
@@ -20696,11 +20175,8 @@
       <c r="AT187" s="3">
         <v>1.3073999999999999</v>
       </c>
-      <c r="AU187" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="2:47">
+    </row>
+    <row r="188" spans="2:46">
       <c r="B188" s="2">
         <v>1995.5</v>
       </c>
@@ -20836,11 +20312,8 @@
       <c r="AT188" s="3">
         <v>1.3132999999999999</v>
       </c>
-      <c r="AU188" s="10">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="189" spans="2:47">
+    </row>
+    <row r="189" spans="2:46">
       <c r="B189" s="2">
         <v>1995.75</v>
       </c>
@@ -20976,11 +20449,8 @@
       <c r="AT189" s="3">
         <v>1.4167000000000001</v>
       </c>
-      <c r="AU189" s="10">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="190" spans="2:47">
+    </row>
+    <row r="190" spans="2:46">
       <c r="B190" s="2">
         <v>1996</v>
       </c>
@@ -21116,11 +20586,8 @@
       <c r="AT190" s="3">
         <v>1.3314999999999999</v>
       </c>
-      <c r="AU190" s="10">
-        <v>5.31</v>
-      </c>
-    </row>
-    <row r="191" spans="2:47">
+    </row>
+    <row r="191" spans="2:46">
       <c r="B191" s="2">
         <v>1996.25</v>
       </c>
@@ -21256,11 +20723,8 @@
       <c r="AT191" s="3">
         <v>1.2784</v>
       </c>
-      <c r="AU191" s="10">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="192" spans="2:47">
+    </row>
+    <row r="192" spans="2:46">
       <c r="B192" s="2">
         <v>1996.5</v>
       </c>
@@ -21396,11 +20860,8 @@
       <c r="AT192" s="3">
         <v>1.2848999999999999</v>
       </c>
-      <c r="AU192" s="10">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="193" spans="2:47">
+    </row>
+    <row r="193" spans="2:46">
       <c r="B193" s="2">
         <v>1996.75</v>
       </c>
@@ -21536,11 +20997,8 @@
       <c r="AT193" s="3">
         <v>1.3058000000000001</v>
       </c>
-      <c r="AU193" s="10">
-        <v>5.29</v>
-      </c>
-    </row>
-    <row r="194" spans="2:47">
+    </row>
+    <row r="194" spans="2:46">
       <c r="B194" s="2">
         <v>1997</v>
       </c>
@@ -21676,11 +21134,8 @@
       <c r="AT194" s="3">
         <v>1.2424999999999999</v>
       </c>
-      <c r="AU194" s="10">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="195" spans="2:47">
+    </row>
+    <row r="195" spans="2:46">
       <c r="B195" s="2">
         <v>1997.25</v>
       </c>
@@ -21816,11 +21271,8 @@
       <c r="AT195" s="3">
         <v>1.1975</v>
       </c>
-      <c r="AU195" s="10">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="196" spans="2:47">
+    </row>
+    <row r="196" spans="2:46">
       <c r="B196" s="2">
         <v>1997.5</v>
       </c>
@@ -21956,11 +21408,8 @@
       <c r="AT196" s="3">
         <v>1.2225999999999999</v>
       </c>
-      <c r="AU196" s="10">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="197" spans="2:47">
+    </row>
+    <row r="197" spans="2:46">
       <c r="B197" s="2">
         <v>1997.75</v>
       </c>
@@ -22096,11 +21545,8 @@
       <c r="AT197" s="3">
         <v>1.3562000000000001</v>
       </c>
-      <c r="AU197" s="10">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="198" spans="2:47">
+    </row>
+    <row r="198" spans="2:46">
       <c r="B198" s="2">
         <v>1998</v>
       </c>
@@ -22236,11 +21682,8 @@
       <c r="AT198" s="3">
         <v>1.3443000000000001</v>
       </c>
-      <c r="AU198" s="10">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="199" spans="2:47">
+    </row>
+    <row r="199" spans="2:46">
       <c r="B199" s="2">
         <v>1998.25</v>
       </c>
@@ -22376,11 +21819,8 @@
       <c r="AT199" s="3">
         <v>1.3249</v>
       </c>
-      <c r="AU199" s="10">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="200" spans="2:47">
+    </row>
+    <row r="200" spans="2:46">
       <c r="B200" s="2">
         <v>1998.5</v>
       </c>
@@ -22516,11 +21956,8 @@
       <c r="AT200" s="3">
         <v>2.0169000000000001</v>
       </c>
-      <c r="AU200" s="10">
-        <v>5.51</v>
-      </c>
-    </row>
-    <row r="201" spans="2:47">
+    </row>
+    <row r="201" spans="2:46">
       <c r="B201" s="2">
         <v>1998.75</v>
       </c>
@@ -22656,11 +22093,8 @@
       <c r="AT201" s="3">
         <v>2.1269</v>
       </c>
-      <c r="AU201" s="10">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="202" spans="2:47">
+    </row>
+    <row r="202" spans="2:46">
       <c r="B202" s="2">
         <v>1999</v>
       </c>
@@ -22796,11 +22230,8 @@
       <c r="AT202" s="3">
         <v>1.833</v>
       </c>
-      <c r="AU202" s="10">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="203" spans="2:47">
+    </row>
+    <row r="203" spans="2:46">
       <c r="B203" s="2">
         <v>1999.25</v>
       </c>
@@ -22936,11 +22367,8 @@
       <c r="AT203" s="3">
         <v>1.7621</v>
       </c>
-      <c r="AU203" s="10">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="204" spans="2:47">
+    </row>
+    <row r="204" spans="2:46">
       <c r="B204" s="2">
         <v>1999.5</v>
       </c>
@@ -23076,11 +22504,8 @@
       <c r="AT204" s="3">
         <v>2.0268999999999999</v>
       </c>
-      <c r="AU204" s="10">
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="205" spans="2:47">
+    </row>
+    <row r="205" spans="2:46">
       <c r="B205" s="2">
         <v>1999.75</v>
       </c>
@@ -23216,11 +22641,8 @@
       <c r="AT205" s="3">
         <v>2.0446</v>
       </c>
-      <c r="AU205" s="10">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="206" spans="2:47">
+    </row>
+    <row r="206" spans="2:46">
       <c r="B206" s="2">
         <v>2000</v>
       </c>
@@ -23356,11 +22778,8 @@
       <c r="AT206" s="3">
         <v>2.3315999999999999</v>
       </c>
-      <c r="AU206" s="10">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="207" spans="2:47">
+    </row>
+    <row r="207" spans="2:46">
       <c r="B207" s="2">
         <v>2000.25</v>
       </c>
@@ -23496,11 +22915,8 @@
       <c r="AT207" s="3">
         <v>2.835</v>
       </c>
-      <c r="AU207" s="10">
-        <v>6.53</v>
-      </c>
-    </row>
-    <row r="208" spans="2:47">
+    </row>
+    <row r="208" spans="2:46">
       <c r="B208" s="2">
         <v>2000.5</v>
       </c>
@@ -23636,11 +23052,8 @@
       <c r="AT208" s="3">
         <v>3.2391999999999999</v>
       </c>
-      <c r="AU208" s="10">
-        <v>6.52</v>
-      </c>
-    </row>
-    <row r="209" spans="2:47">
+    </row>
+    <row r="209" spans="2:46">
       <c r="B209" s="2">
         <v>2000.75</v>
       </c>
@@ -23776,11 +23189,8 @@
       <c r="AT209" s="3">
         <v>3.6334</v>
       </c>
-      <c r="AU209" s="10">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="210" spans="2:47">
+    </row>
+    <row r="210" spans="2:46">
       <c r="B210" s="2">
         <v>2001</v>
       </c>
@@ -23916,11 +23326,8 @@
       <c r="AT210" s="3">
         <v>3.2886000000000002</v>
       </c>
-      <c r="AU210" s="10">
-        <v>5.31</v>
-      </c>
-    </row>
-    <row r="211" spans="2:47">
+    </row>
+    <row r="211" spans="2:46">
       <c r="B211" s="2">
         <v>2001.25</v>
       </c>
@@ -24056,11 +23463,8 @@
       <c r="AT211" s="3">
         <v>3.1236000000000002</v>
       </c>
-      <c r="AU211" s="10">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="212" spans="2:47">
+    </row>
+    <row r="212" spans="2:46">
       <c r="B212" s="2">
         <v>2001.5</v>
       </c>
@@ -24196,11 +23600,8 @@
       <c r="AT212" s="3">
         <v>3.3347000000000002</v>
       </c>
-      <c r="AU212" s="10">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="213" spans="2:47">
+    </row>
+    <row r="213" spans="2:46">
       <c r="B213" s="2">
         <v>2001.75</v>
       </c>
@@ -24336,11 +23737,8 @@
       <c r="AT213" s="3">
         <v>3.0945</v>
       </c>
-      <c r="AU213" s="10">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="214" spans="2:47">
+    </row>
+    <row r="214" spans="2:46">
       <c r="B214" s="2">
         <v>2002</v>
       </c>
@@ -24476,11 +23874,8 @@
       <c r="AT214" s="3">
         <v>2.7568000000000001</v>
       </c>
-      <c r="AU214" s="10">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="215" spans="2:47">
+    </row>
+    <row r="215" spans="2:46">
       <c r="B215" s="2">
         <v>2002.25</v>
       </c>
@@ -24616,11 +24011,8 @@
       <c r="AT215" s="3">
         <v>3.1526999999999998</v>
       </c>
-      <c r="AU215" s="10">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="216" spans="2:47">
+    </row>
+    <row r="216" spans="2:46">
       <c r="B216" s="2">
         <v>2002.5</v>
       </c>
@@ -24756,11 +24148,8 @@
       <c r="AT216" s="3">
         <v>4.1440999999999999</v>
       </c>
-      <c r="AU216" s="10">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="217" spans="2:47">
+    </row>
+    <row r="217" spans="2:46">
       <c r="B217" s="2">
         <v>2002.75</v>
       </c>
@@ -24896,11 +24285,8 @@
       <c r="AT217" s="3">
         <v>3.87</v>
       </c>
-      <c r="AU217" s="10">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="218" spans="2:47">
+    </row>
+    <row r="218" spans="2:46">
       <c r="B218" s="2">
         <v>2003</v>
       </c>
@@ -25036,11 +24422,8 @@
       <c r="AT218" s="3">
         <v>3.2366999999999999</v>
       </c>
-      <c r="AU218" s="10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="219" spans="2:47">
+    </row>
+    <row r="219" spans="2:46">
       <c r="B219" s="2">
         <v>2003.25</v>
       </c>
@@ -25176,11 +24559,8 @@
       <c r="AT219" s="3">
         <v>2.6349999999999998</v>
       </c>
-      <c r="AU219" s="10">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="220" spans="2:47">
+    </row>
+    <row r="220" spans="2:46">
       <c r="B220" s="2">
         <v>2003.5</v>
       </c>
@@ -25316,11 +24696,8 @@
       <c r="AT220" s="3">
         <v>2.359</v>
       </c>
-      <c r="AU220" s="10">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="221" spans="2:47">
+    </row>
+    <row r="221" spans="2:46">
       <c r="B221" s="2">
         <v>2003.75</v>
       </c>
@@ -25456,11 +24833,8 @@
       <c r="AT221" s="3">
         <v>1.982</v>
       </c>
-      <c r="AU221" s="10">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="222" spans="2:47">
+    </row>
+    <row r="222" spans="2:46">
       <c r="B222" s="2">
         <v>2004</v>
       </c>
@@ -25596,11 +24970,8 @@
       <c r="AT222" s="3">
         <v>1.8884000000000001</v>
       </c>
-      <c r="AU222" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="2:47">
+    </row>
+    <row r="223" spans="2:46">
       <c r="B223" s="2">
         <v>2004.25</v>
       </c>
@@ -25736,11 +25107,8 @@
       <c r="AT223" s="3">
         <v>1.8445</v>
       </c>
-      <c r="AU223" s="10">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="224" spans="2:47">
+    </row>
+    <row r="224" spans="2:46">
       <c r="B224" s="2">
         <v>2004.5</v>
       </c>
@@ -25876,11 +25244,8 @@
       <c r="AT224" s="3">
         <v>1.8208</v>
       </c>
-      <c r="AU224" s="10">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="225" spans="2:47">
+    </row>
+    <row r="225" spans="2:46">
       <c r="B225" s="2">
         <v>2004.75</v>
       </c>
@@ -26016,11 +25381,8 @@
       <c r="AT225" s="3">
         <v>1.6519999999999999</v>
       </c>
-      <c r="AU225" s="10">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="226" spans="2:47">
+    </row>
+    <row r="226" spans="2:46">
       <c r="B226" s="2">
         <v>2005</v>
       </c>
@@ -26156,11 +25518,8 @@
       <c r="AT226" s="3">
         <v>1.8519000000000001</v>
       </c>
-      <c r="AU226" s="10">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="227" spans="2:47">
+    </row>
+    <row r="227" spans="2:46">
       <c r="B227" s="2">
         <v>2005.25</v>
       </c>
@@ -26296,11 +25655,8 @@
       <c r="AT227" s="3">
         <v>1.9699</v>
       </c>
-      <c r="AU227" s="10">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="228" spans="2:47">
+    </row>
+    <row r="228" spans="2:46">
       <c r="B228" s="2">
         <v>2005.5</v>
       </c>
@@ -26436,11 +25792,8 @@
       <c r="AT228" s="3">
         <v>1.7806999999999999</v>
       </c>
-      <c r="AU228" s="10">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="229" spans="2:47">
+    </row>
+    <row r="229" spans="2:46">
       <c r="B229" s="2">
         <v>2005.75</v>
       </c>
@@ -26576,11 +25929,8 @@
       <c r="AT229" s="3">
         <v>1.8502000000000001</v>
       </c>
-      <c r="AU229" s="10">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="230" spans="2:47">
+    </row>
+    <row r="230" spans="2:46">
       <c r="B230" s="2">
         <v>2006</v>
       </c>
@@ -26716,11 +26066,8 @@
       <c r="AT230" s="3">
         <v>1.6903999999999999</v>
       </c>
-      <c r="AU230" s="10">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="231" spans="2:47">
+    </row>
+    <row r="231" spans="2:46">
       <c r="B231" s="2">
         <v>2006.25</v>
       </c>
@@ -26854,11 +26201,8 @@
       <c r="AT231" s="3">
         <v>1.6846000000000001</v>
       </c>
-      <c r="AU231" s="10">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="232" spans="2:47">
+    </row>
+    <row r="232" spans="2:46">
       <c r="B232" s="2">
         <v>2006.5</v>
       </c>
@@ -26992,11 +26336,8 @@
       <c r="AT232" s="3">
         <v>1.772</v>
       </c>
-      <c r="AU232" s="10">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="233" spans="2:47">
+    </row>
+    <row r="233" spans="2:46">
       <c r="B233" s="2">
         <v>2006.75</v>
       </c>
@@ -27130,11 +26471,8 @@
       <c r="AT233" s="3">
         <v>1.6173999999999999</v>
       </c>
-      <c r="AU233" s="10">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="234" spans="2:47">
+    </row>
+    <row r="234" spans="2:46">
       <c r="B234" s="2">
         <v>2007</v>
       </c>
@@ -27253,11 +26591,8 @@
       <c r="AT234" s="3">
         <v>1.5329999999999999</v>
       </c>
-      <c r="AU234" s="10">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="235" spans="2:47">
+    </row>
+    <row r="235" spans="2:46">
       <c r="B235" s="2">
         <v>2007.25</v>
       </c>
@@ -27376,11 +26711,8 @@
       <c r="AT235" s="3">
         <v>1.6978</v>
       </c>
-      <c r="AU235" s="10">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="236" spans="2:47">
+    </row>
+    <row r="236" spans="2:46">
       <c r="B236" s="2">
         <v>2007.5</v>
       </c>
@@ -27499,11 +26831,8 @@
       <c r="AT236" s="3">
         <v>2.2343999999999999</v>
       </c>
-      <c r="AU236" s="10">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="237" spans="2:47">
+    </row>
+    <row r="237" spans="2:46">
       <c r="B237" s="2">
         <v>2007.75</v>
       </c>
@@ -27622,11 +26951,8 @@
       <c r="AT237" s="3">
         <v>2.7972999999999999</v>
       </c>
-      <c r="AU237" s="10">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="238" spans="2:47">
+    </row>
+    <row r="238" spans="2:46">
       <c r="B238" s="2">
         <v>2008</v>
       </c>
@@ -27745,11 +27071,8 @@
       <c r="AT238" s="3">
         <v>3.5019999999999998</v>
       </c>
-      <c r="AU238" s="10">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="239" spans="2:47">
+    </row>
+    <row r="239" spans="2:46">
       <c r="B239" s="2">
         <v>2008.25</v>
       </c>
@@ -27868,11 +27191,8 @@
       <c r="AT239" s="3">
         <v>3.4013</v>
       </c>
-      <c r="AU239" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="2:47">
+    </row>
+    <row r="240" spans="2:46">
       <c r="B240" s="2">
         <v>2008.5</v>
       </c>
@@ -27991,11 +27311,8 @@
       <c r="AT240" s="3">
         <v>4.8465999999999996</v>
       </c>
-      <c r="AU240" s="10">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="241" spans="2:47">
+    </row>
+    <row r="241" spans="2:46">
       <c r="B241" s="2">
         <v>2008.75</v>
       </c>
@@ -28114,11 +27431,8 @@
       <c r="AT241" s="3">
         <v>7.2518000000000002</v>
       </c>
-      <c r="AU241" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="242" spans="2:47">
+    </row>
+    <row r="242" spans="2:46">
       <c r="B242" s="2">
         <v>2009</v>
       </c>
@@ -28237,11 +27551,8 @@
       <c r="AT242" s="3">
         <v>6.0926</v>
       </c>
-      <c r="AU242" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="243" spans="2:47">
+    </row>
+    <row r="243" spans="2:46">
       <c r="B243" s="2">
         <v>2009.25</v>
       </c>
@@ -28360,11 +27671,8 @@
       <c r="AT243" s="3">
         <v>4.5029000000000003</v>
       </c>
-      <c r="AU243" s="10">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="244" spans="2:47">
+    </row>
+    <row r="244" spans="2:46">
       <c r="B244" s="2">
         <v>2009.5</v>
       </c>
@@ -28483,11 +27791,8 @@
       <c r="AT244" s="3">
         <v>3.1901999999999999</v>
       </c>
-      <c r="AU244" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="245" spans="2:47">
+    </row>
+    <row r="245" spans="2:46">
       <c r="B245" s="2">
         <v>2009.75</v>
       </c>
@@ -28606,11 +27911,8 @@
       <c r="AT245" s="3">
         <v>2.6547999999999998</v>
       </c>
-      <c r="AU245" s="10">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="246" spans="2:47">
+    </row>
+    <row r="246" spans="2:46">
       <c r="B246" s="2">
         <v>2010</v>
       </c>
@@ -28727,11 +28029,8 @@
       <c r="AT246" s="3">
         <v>2.3338000000000001</v>
       </c>
-      <c r="AU246" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="247" spans="2:47">
+    </row>
+    <row r="247" spans="2:46">
       <c r="B247" s="2">
         <v>2010.25</v>
       </c>
@@ -28848,11 +28147,8 @@
       <c r="AT247" s="3">
         <v>2.5171999999999999</v>
       </c>
-      <c r="AU247" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="248" spans="2:47">
+    </row>
+    <row r="248" spans="2:46">
       <c r="B248" s="2">
         <v>2010.5</v>
       </c>
@@ -28969,11 +28265,8 @@
       <c r="AT248" s="3">
         <v>2.5743</v>
       </c>
-      <c r="AU248" s="10">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="249" spans="2:47">
+    </row>
+    <row r="249" spans="2:46">
       <c r="B249" s="2">
         <v>2010.75</v>
       </c>
@@ -29090,11 +28383,8 @@
       <c r="AT249" s="3">
         <v>2.3157999999999999</v>
       </c>
-      <c r="AU249" s="10">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="250" spans="2:47">
+    </row>
+    <row r="250" spans="2:46">
       <c r="B250" s="2">
         <v>2011</v>
       </c>
@@ -29211,11 +28501,8 @@
       <c r="AT250" s="3">
         <v>2.0299</v>
       </c>
-      <c r="AU250" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="251" spans="2:47">
+    </row>
+    <row r="251" spans="2:46">
       <c r="B251" s="2">
         <v>2011.25</v>
       </c>
@@ -29332,11 +28619,8 @@
       <c r="AT251" s="3">
         <v>2.1107</v>
       </c>
-      <c r="AU251" s="10">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="252" spans="2:47">
+    </row>
+    <row r="252" spans="2:46">
       <c r="B252" s="2">
         <v>2011.5</v>
       </c>
@@ -29453,11 +28737,8 @@
       <c r="AT252" s="3">
         <v>2.7482000000000002</v>
       </c>
-      <c r="AU252" s="10">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="253" spans="2:47">
+    </row>
+    <row r="253" spans="2:46">
       <c r="B253" s="2">
         <v>2011.75</v>
       </c>
@@ -29574,11 +28855,8 @@
       <c r="AT253" s="3">
         <v>2.8654000000000002</v>
       </c>
-      <c r="AU253" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="2:47">
+    </row>
+    <row r="254" spans="2:46">
       <c r="B254" s="2">
         <v>2012</v>
       </c>
@@ -29695,11 +28973,8 @@
       <c r="AT254" s="3">
         <v>2.5446</v>
       </c>
-      <c r="AU254" s="10">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="255" spans="2:47">
+    </row>
+    <row r="255" spans="2:46">
       <c r="B255" s="2">
         <v>2012.25</v>
       </c>
@@ -29816,11 +29091,8 @@
       <c r="AT255" s="3">
         <v>2.6608999999999998</v>
       </c>
-      <c r="AU255" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="256" spans="2:47">
+    </row>
+    <row r="256" spans="2:46">
       <c r="B256" s="2">
         <v>2012.5</v>
       </c>
@@ -29937,11 +29209,8 @@
       <c r="AT256" s="3">
         <v>2.4359999999999999</v>
       </c>
-      <c r="AU256" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="2:47">
+    </row>
+    <row r="257" spans="2:46">
       <c r="B257" s="2">
         <v>2012.75</v>
       </c>
@@ -30058,11 +29327,8 @@
       <c r="AT257" s="3">
         <v>2.2204999999999999</v>
       </c>
-      <c r="AU257" s="10">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="258" spans="2:47">
+    </row>
+    <row r="258" spans="2:46">
       <c r="B258" s="2">
         <v>2013</v>
       </c>
@@ -30179,11 +29445,8 @@
       <c r="AT258" s="3">
         <v>2.1053999999999999</v>
       </c>
-      <c r="AU258" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="259" spans="2:47">
+    </row>
+    <row r="259" spans="2:46">
       <c r="B259" s="2">
         <v>2013.25</v>
       </c>
@@ -30300,11 +29563,8 @@
       <c r="AT259" s="3">
         <v>2.0493000000000001</v>
       </c>
-      <c r="AU259" s="10">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="260" spans="2:47">
+    </row>
+    <row r="260" spans="2:46">
       <c r="B260" s="2">
         <v>2013.5</v>
       </c>
@@ -30421,11 +29681,8 @@
       <c r="AT260" s="3">
         <v>2.0004</v>
       </c>
-      <c r="AU260" s="10">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="261" spans="2:47">
+    </row>
+    <row r="261" spans="2:46">
       <c r="B261" s="2">
         <v>2013.75</v>
       </c>
@@ -30542,11 +29799,8 @@
       <c r="AT261" s="3">
         <v>1.8586</v>
       </c>
-      <c r="AU261" s="10">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="262" spans="2:47">
+    </row>
+    <row r="262" spans="2:46">
       <c r="B262" s="2">
         <v>2014</v>
       </c>
@@ -30663,11 +29917,8 @@
       <c r="AT262" s="3">
         <v>1.6918</v>
       </c>
-      <c r="AU262" s="10">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="263" spans="2:47">
+    </row>
+    <row r="263" spans="2:46">
       <c r="B263" s="2">
         <v>2014.25</v>
       </c>
@@ -30784,11 +30035,8 @@
       <c r="AT263" s="3">
         <v>1.5889</v>
       </c>
-      <c r="AU263" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="264" spans="2:47">
+    </row>
+    <row r="264" spans="2:46">
       <c r="B264" s="2">
         <v>2014.5</v>
       </c>
@@ -30905,11 +30153,8 @@
       <c r="AT264" s="3">
         <v>1.6941999999999999</v>
       </c>
-      <c r="AU264" s="10">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="265" spans="2:47">
+    </row>
+    <row r="265" spans="2:46">
       <c r="B265" s="2">
         <v>2014.75</v>
       </c>
@@ -31026,11 +30271,8 @@
       <c r="AT265" s="3">
         <v>1.9925999999999999</v>
       </c>
-      <c r="AU265" s="10">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="266" spans="2:47">
+    </row>
+    <row r="266" spans="2:46">
       <c r="B266" s="2">
         <v>2015</v>
       </c>
@@ -31147,11 +30389,8 @@
       <c r="AT266" s="3">
         <v>2.0068999999999999</v>
       </c>
-      <c r="AU266" s="10">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="267" spans="2:47">
+    </row>
+    <row r="267" spans="2:46">
       <c r="B267" s="2">
         <v>2015.25</v>
       </c>
@@ -31268,11 +30507,8 @@
       <c r="AT267" s="3">
         <v>2.0863999999999998</v>
       </c>
-      <c r="AU267" s="10">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="268" spans="2:47">
+    </row>
+    <row r="268" spans="2:46">
       <c r="B268" s="2">
         <v>2015.5</v>
       </c>
@@ -31389,11 +30625,8 @@
       <c r="AT268" s="3">
         <v>2.3969999999999998</v>
       </c>
-      <c r="AU268" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="269" spans="2:47">
+    </row>
+    <row r="269" spans="2:46">
       <c r="B269" s="2">
         <v>2015.75</v>
       </c>
@@ -31510,11 +30743,8 @@
       <c r="AT269" s="3">
         <v>2.6116000000000001</v>
       </c>
-      <c r="AU269" s="10">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="270" spans="2:47">
+    </row>
+    <row r="270" spans="2:46">
       <c r="B270" s="2">
         <v>2016</v>
       </c>
@@ -31631,11 +30861,8 @@
       <c r="AT270" s="3">
         <v>2.6930000000000001</v>
       </c>
-      <c r="AU270" s="10">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="271" spans="2:47">
+    </row>
+    <row r="271" spans="2:46">
       <c r="B271" s="2">
         <v>2016.25</v>
       </c>
@@ -31752,11 +30979,8 @@
       <c r="AT271" s="3">
         <v>2.0855000000000001</v>
       </c>
-      <c r="AU271" s="10">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="272" spans="2:47">
+    </row>
+    <row r="272" spans="2:46">
       <c r="B272" s="2">
         <v>2016.5</v>
       </c>
@@ -31870,11 +31094,8 @@
       <c r="AS272" s="10">
         <v>13.23390625</v>
       </c>
-      <c r="AU272" s="10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="273" spans="2:47">
+    </row>
+    <row r="273" spans="2:45">
       <c r="B273" s="2">
         <v>2016.75</v>
       </c>
@@ -31988,11 +31209,8 @@
       <c r="AS273" s="10">
         <v>14.097936507936508</v>
       </c>
-      <c r="AU273" s="10">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="274" spans="2:47">
+    </row>
+    <row r="274" spans="2:45">
       <c r="B274" s="2">
         <v>2017</v>
       </c>
@@ -32106,11 +31324,8 @@
       <c r="AS274" s="10">
         <v>11.691935483870967</v>
       </c>
-      <c r="AU274" s="10">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="275" spans="2:47">
+    </row>
+    <row r="275" spans="2:45">
       <c r="B275" s="2">
         <v>2017.25</v>
       </c>
@@ -32224,11 +31439,8 @@
       <c r="AS275" s="10">
         <v>11.426349206349206</v>
       </c>
-      <c r="AU275" s="10">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="276" spans="2:47">
+    </row>
+    <row r="276" spans="2:45">
       <c r="B276" s="2">
         <v>2017.5</v>
       </c>
@@ -32327,11 +31539,8 @@
       <c r="AS276" s="10">
         <v>10.944285714285714</v>
       </c>
-      <c r="AU276" s="10">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="2:47">
+    </row>
+    <row r="277" spans="2:45">
       <c r="B277" s="2">
         <v>2017.75</v>
       </c>
@@ -32396,9 +31605,8 @@
       <c r="AS277" s="10">
         <v>10.307936507936509</v>
       </c>
-      <c r="AU277" s="10"/>
-    </row>
-    <row r="278" spans="2:47">
+    </row>
+    <row r="278" spans="2:45">
       <c r="B278" s="2">
         <v>2018</v>
       </c>
@@ -32463,9 +31671,8 @@
       <c r="AS278" s="10">
         <v>17.354754098360655</v>
       </c>
-      <c r="AU278" s="10"/>
-    </row>
-    <row r="279" spans="2:47">
+    </row>
+    <row r="279" spans="2:45">
       <c r="B279" s="2">
         <v>2018.25</v>
       </c>
@@ -32530,9 +31737,8 @@
       <c r="AS279" s="10">
         <v>15.3375</v>
       </c>
-      <c r="AU279" s="10"/>
-    </row>
-    <row r="280" spans="2:47">
+    </row>
+    <row r="280" spans="2:45">
       <c r="J280" s="4"/>
       <c r="K280" s="11"/>
       <c r="N280" s="4"/>
@@ -32551,9 +31757,8 @@
       <c r="AA280" s="2"/>
       <c r="AR280" s="9"/>
       <c r="AS280" s="10"/>
-      <c r="AU280" s="10"/>
-    </row>
-    <row r="281" spans="2:47">
+    </row>
+    <row r="281" spans="2:45">
       <c r="J281" s="4"/>
       <c r="K281" s="11"/>
       <c r="N281" s="4"/>
@@ -32572,9 +31777,8 @@
       <c r="AA281" s="2"/>
       <c r="AR281" s="9"/>
       <c r="AS281" s="10"/>
-      <c r="AU281" s="10"/>
-    </row>
-    <row r="282" spans="2:47">
+    </row>
+    <row r="282" spans="2:45">
       <c r="J282" s="4"/>
       <c r="K282" s="11"/>
       <c r="N282" s="4"/>
@@ -32592,272 +31796,232 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="2"/>
       <c r="AR282" s="9"/>
-      <c r="AU282" s="10"/>
-    </row>
-    <row r="283" spans="2:47">
+    </row>
+    <row r="283" spans="2:45">
       <c r="J283" s="4"/>
       <c r="K283" s="11"/>
       <c r="AA283" s="2"/>
       <c r="AR283" s="9"/>
-      <c r="AU283" s="10"/>
-    </row>
-    <row r="284" spans="2:47">
+    </row>
+    <row r="284" spans="2:45">
       <c r="J284" s="4"/>
       <c r="K284" s="11"/>
       <c r="AA284" s="2"/>
       <c r="AR284" s="9"/>
-      <c r="AU284" s="10"/>
-    </row>
-    <row r="285" spans="2:47">
+    </row>
+    <row r="285" spans="2:45">
       <c r="J285" s="4"/>
       <c r="K285" s="11"/>
       <c r="AA285" s="2"/>
       <c r="AR285" s="9"/>
-      <c r="AU285" s="10"/>
-    </row>
-    <row r="286" spans="2:47">
+    </row>
+    <row r="286" spans="2:45">
       <c r="J286" s="4"/>
       <c r="K286" s="11"/>
       <c r="AA286" s="2"/>
       <c r="AR286" s="9"/>
-      <c r="AU286" s="10"/>
-    </row>
-    <row r="287" spans="2:47">
+    </row>
+    <row r="287" spans="2:45">
       <c r="J287" s="4"/>
       <c r="K287" s="11"/>
       <c r="AA287" s="2"/>
       <c r="AR287" s="9"/>
-      <c r="AU287" s="10"/>
-    </row>
-    <row r="288" spans="2:47">
+    </row>
+    <row r="288" spans="2:45">
       <c r="J288" s="4"/>
       <c r="K288" s="11"/>
       <c r="AA288" s="2"/>
       <c r="AR288" s="9"/>
-      <c r="AU288" s="10"/>
-    </row>
-    <row r="289" spans="10:47">
+    </row>
+    <row r="289" spans="10:44">
       <c r="J289" s="4"/>
       <c r="K289" s="11"/>
       <c r="AA289" s="2"/>
       <c r="AR289" s="9"/>
-      <c r="AU289" s="10"/>
-    </row>
-    <row r="290" spans="10:47">
+    </row>
+    <row r="290" spans="10:44">
       <c r="J290" s="4"/>
       <c r="K290" s="11"/>
       <c r="AA290" s="2"/>
       <c r="AR290" s="9"/>
-      <c r="AU290" s="10"/>
-    </row>
-    <row r="291" spans="10:47">
+    </row>
+    <row r="291" spans="10:44">
       <c r="J291" s="4"/>
       <c r="K291" s="11"/>
       <c r="AA291" s="2"/>
       <c r="AR291" s="9"/>
-      <c r="AU291" s="10"/>
-    </row>
-    <row r="292" spans="10:47">
+    </row>
+    <row r="292" spans="10:44">
       <c r="J292" s="4"/>
       <c r="K292" s="11"/>
       <c r="AA292" s="2"/>
       <c r="AR292" s="9"/>
-      <c r="AU292" s="10"/>
-    </row>
-    <row r="293" spans="10:47">
+    </row>
+    <row r="293" spans="10:44">
       <c r="J293" s="4"/>
       <c r="K293" s="11"/>
       <c r="AA293" s="2"/>
       <c r="AR293" s="9"/>
-      <c r="AU293" s="10"/>
-    </row>
-    <row r="294" spans="10:47">
+    </row>
+    <row r="294" spans="10:44">
       <c r="J294" s="4"/>
       <c r="K294" s="11"/>
       <c r="AA294" s="2"/>
       <c r="AR294" s="9"/>
-      <c r="AU294" s="10"/>
-    </row>
-    <row r="295" spans="10:47">
+    </row>
+    <row r="295" spans="10:44">
       <c r="J295" s="4"/>
       <c r="K295" s="11"/>
       <c r="AA295" s="2"/>
       <c r="AR295" s="9"/>
-      <c r="AU295" s="10"/>
-    </row>
-    <row r="296" spans="10:47">
+    </row>
+    <row r="296" spans="10:44">
       <c r="J296" s="4"/>
       <c r="K296" s="11"/>
       <c r="AA296" s="2"/>
       <c r="AR296" s="9"/>
-      <c r="AU296" s="10"/>
-    </row>
-    <row r="297" spans="10:47">
+    </row>
+    <row r="297" spans="10:44">
       <c r="J297" s="4"/>
       <c r="K297" s="11"/>
       <c r="AA297" s="2"/>
       <c r="AR297" s="9"/>
-      <c r="AU297" s="10"/>
-    </row>
-    <row r="298" spans="10:47">
+    </row>
+    <row r="298" spans="10:44">
       <c r="K298" s="11"/>
       <c r="AA298" s="2"/>
       <c r="AR298" s="9"/>
-      <c r="AU298" s="10"/>
-    </row>
-    <row r="299" spans="10:47">
+    </row>
+    <row r="299" spans="10:44">
       <c r="K299" s="11"/>
       <c r="L299" s="5" t="s">
         <v>49</v>
       </c>
       <c r="AA299" s="2"/>
       <c r="AR299" s="9"/>
-      <c r="AU299" s="10"/>
-    </row>
-    <row r="300" spans="10:47">
+    </row>
+    <row r="300" spans="10:44">
       <c r="K300" s="11"/>
       <c r="AA300" s="2"/>
       <c r="AR300" s="9"/>
-      <c r="AU300" s="10"/>
-    </row>
-    <row r="301" spans="10:47">
+    </row>
+    <row r="301" spans="10:44">
       <c r="K301" s="11"/>
       <c r="AA301" s="2"/>
       <c r="AR301" s="9"/>
-      <c r="AU301" s="10"/>
-    </row>
-    <row r="302" spans="10:47">
+    </row>
+    <row r="302" spans="10:44">
       <c r="K302" s="11"/>
       <c r="AA302" s="2"/>
       <c r="AR302" s="9"/>
-      <c r="AU302" s="10"/>
-    </row>
-    <row r="303" spans="10:47">
+    </row>
+    <row r="303" spans="10:44">
       <c r="K303" s="11"/>
       <c r="AA303" s="2"/>
       <c r="AR303" s="9"/>
-      <c r="AU303" s="10"/>
-    </row>
-    <row r="304" spans="10:47">
+    </row>
+    <row r="304" spans="10:44">
       <c r="K304" s="11"/>
       <c r="AA304" s="2"/>
       <c r="AR304" s="9"/>
-      <c r="AU304" s="10"/>
-    </row>
-    <row r="305" spans="11:47">
+    </row>
+    <row r="305" spans="11:44">
       <c r="K305" s="11"/>
       <c r="AA305" s="2"/>
       <c r="AR305" s="9"/>
-      <c r="AU305" s="10"/>
-    </row>
-    <row r="306" spans="11:47">
+    </row>
+    <row r="306" spans="11:44">
       <c r="K306" s="11"/>
       <c r="AA306" s="2"/>
       <c r="AR306" s="9"/>
-      <c r="AU306" s="10"/>
-    </row>
-    <row r="307" spans="11:47">
+    </row>
+    <row r="307" spans="11:44">
       <c r="K307" s="11"/>
       <c r="AA307" s="2"/>
       <c r="AR307" s="9"/>
-      <c r="AU307" s="10"/>
-    </row>
-    <row r="308" spans="11:47">
+    </row>
+    <row r="308" spans="11:44">
       <c r="K308" s="11"/>
       <c r="AA308" s="2"/>
       <c r="AR308" s="9"/>
-      <c r="AU308" s="10"/>
-    </row>
-    <row r="309" spans="11:47">
+    </row>
+    <row r="309" spans="11:44">
       <c r="K309" s="11"/>
       <c r="AA309" s="2"/>
       <c r="AR309" s="9"/>
-      <c r="AU309" s="10"/>
-    </row>
-    <row r="310" spans="11:47">
+    </row>
+    <row r="310" spans="11:44">
       <c r="K310" s="11"/>
       <c r="AA310" s="2"/>
       <c r="AR310" s="9"/>
-      <c r="AU310" s="10"/>
-    </row>
-    <row r="311" spans="11:47">
+    </row>
+    <row r="311" spans="11:44">
       <c r="K311" s="11"/>
       <c r="AA311" s="2"/>
       <c r="AR311" s="9"/>
-      <c r="AU311" s="10"/>
-    </row>
-    <row r="312" spans="11:47">
+    </row>
+    <row r="312" spans="11:44">
       <c r="K312" s="11"/>
       <c r="AA312" s="2"/>
       <c r="AR312" s="9"/>
-      <c r="AU312" s="10"/>
-    </row>
-    <row r="313" spans="11:47">
+    </row>
+    <row r="313" spans="11:44">
       <c r="K313" s="11"/>
       <c r="AA313" s="2"/>
       <c r="AR313" s="9"/>
-      <c r="AU313" s="10"/>
-    </row>
-    <row r="314" spans="11:47">
+    </row>
+    <row r="314" spans="11:44">
       <c r="K314" s="11"/>
       <c r="AA314" s="2"/>
       <c r="AR314" s="9"/>
-      <c r="AU314" s="10"/>
-    </row>
-    <row r="315" spans="11:47">
+    </row>
+    <row r="315" spans="11:44">
       <c r="K315" s="11"/>
       <c r="AA315" s="2"/>
       <c r="AR315" s="9"/>
-      <c r="AU315" s="10"/>
-    </row>
-    <row r="316" spans="11:47">
+    </row>
+    <row r="316" spans="11:44">
       <c r="K316" s="11"/>
       <c r="AA316" s="2"/>
       <c r="AR316" s="9"/>
-      <c r="AU316" s="10"/>
-    </row>
-    <row r="317" spans="11:47">
+    </row>
+    <row r="317" spans="11:44">
       <c r="K317" s="11"/>
       <c r="AA317" s="2"/>
       <c r="AR317" s="9"/>
-      <c r="AU317" s="10"/>
-    </row>
-    <row r="318" spans="11:47">
+    </row>
+    <row r="318" spans="11:44">
       <c r="AA318" s="2"/>
       <c r="AR318" s="9"/>
-      <c r="AU318" s="10"/>
-    </row>
-    <row r="319" spans="11:47">
+    </row>
+    <row r="319" spans="11:44">
       <c r="AA319" s="2"/>
       <c r="AR319" s="9"/>
-      <c r="AU319" s="10"/>
-    </row>
-    <row r="320" spans="11:47">
+    </row>
+    <row r="320" spans="11:44">
       <c r="AA320" s="2"/>
       <c r="AR320" s="9"/>
-      <c r="AU320" s="10"/>
-    </row>
-    <row r="321" spans="27:47">
+    </row>
+    <row r="321" spans="27:44">
       <c r="AA321" s="2"/>
       <c r="AR321" s="9"/>
-      <c r="AU321" s="10"/>
-    </row>
-    <row r="322" spans="27:47">
+    </row>
+    <row r="322" spans="27:44">
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="27:47">
+    <row r="323" spans="27:44">
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="27:47">
+    <row r="324" spans="27:44">
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="27:47">
+    <row r="325" spans="27:44">
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="27:47">
+    <row r="326" spans="27:44">
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="27:47">
+    <row r="327" spans="27:44">
       <c r="AA327" s="2"/>
     </row>
   </sheetData>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun 1/Desktop/Literature/Noise_Over_Cycles/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Brianti\Documents\GitHub\Noise_Over_Cycles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B9D1E13-66C5-A949-8FD3-38A400FB77EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B68FF-EE05-473D-ACB7-DC9B18B05EDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,16 +652,16 @@
   <dimension ref="A1:AT327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK2" sqref="AK2"/>
+      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="5" width="22" style="2"/>
     <col min="6" max="6" width="22" style="3"/>
@@ -926,52 +926,52 @@
         <v>3</v>
       </c>
       <c r="AE2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT2" s="16">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:46" s="16" customFormat="1">

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco Brianti\Documents\GitHub\Noise_Over_Cycles\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\Noise_Over_Cycles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990B68FF-EE05-473D-ACB7-DC9B18B05EDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="25598" windowHeight="15458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,16 +23,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Marco Brianti</author>
+  </authors>
+  <commentList>
+    <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Marco Brianti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+difference between LoanRate and Tres3M</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>MUNI1Y</t>
   </si>
   <si>
     <t>PDVMILY</t>
-  </si>
-  <si>
-    <t>DTFP_UTIL</t>
   </si>
   <si>
     <t>HAMILTON3YP</t>
@@ -129,9 +159,6 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Dinventories</t>
-  </si>
-  <si>
     <t>Dividends</t>
   </si>
   <si>
@@ -162,9 +189,6 @@
     <t>GDPDefl</t>
   </si>
   <si>
-    <t>CPI</t>
-  </si>
-  <si>
     <t>RealInvestment</t>
   </si>
   <si>
@@ -180,18 +204,42 @@
     <t>Vix</t>
   </si>
   <si>
-    <t>GZ_Spread</t>
+    <t>TFP</t>
+  </si>
+  <si>
+    <t>GZSpread</t>
+  </si>
+  <si>
+    <t>CPIInflation</t>
+  </si>
+  <si>
+    <t>VXO</t>
+  </si>
+  <si>
+    <t>OilPrice</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>LaborProductivity</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +305,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -368,10 +429,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normale 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normale 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,20 +709,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT327"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.46484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.46484375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="5" width="22" style="2"/>
     <col min="6" max="6" width="22" style="3"/>
@@ -691,15 +752,17 @@
     <col min="41" max="41" width="22" style="2"/>
     <col min="42" max="42" width="22" style="3"/>
     <col min="43" max="44" width="22" style="2"/>
-    <col min="45" max="16384" width="22" style="3"/>
+    <col min="45" max="50" width="22" style="3"/>
+    <col min="51" max="51" width="22" style="3" customWidth="1"/>
+    <col min="52" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="16" customFormat="1">
+    <row r="1" spans="1:51" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -708,135 +771,150 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="AT1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU1" s="16" t="s">
         <v>51</v>
       </c>
+      <c r="AV1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" s="16" customFormat="1">
+    <row r="2" spans="1:51" s="16" customFormat="1">
       <c r="A2" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -926,57 +1004,72 @@
         <v>3</v>
       </c>
       <c r="AE2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT2" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="16">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="16">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="16">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="16" customFormat="1">
+    <row r="3" spans="1:51" s="16" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1113,10 +1206,25 @@
       <c r="AT3" s="16">
         <v>1</v>
       </c>
+      <c r="AU3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" s="16" customFormat="1">
+    <row r="4" spans="1:51" s="16" customFormat="1">
       <c r="A4" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1253,10 +1361,25 @@
       <c r="AT4" s="16">
         <v>45</v>
       </c>
+      <c r="AU4" s="16">
+        <v>46</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>47</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>48</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>49</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" s="16" customFormat="1">
+    <row r="5" spans="1:51" s="16" customFormat="1">
       <c r="A5" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1393,8 +1516,23 @@
       <c r="AT5" s="16">
         <v>45</v>
       </c>
+      <c r="AU5" s="16">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="16">
+        <v>47</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>48</v>
+      </c>
+      <c r="AX5" s="16">
+        <v>49</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:51">
       <c r="B6" s="2">
         <v>1950</v>
       </c>
@@ -1457,8 +1595,19 @@
         <v>13.49</v>
       </c>
       <c r="AS6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW6" s="10">
+        <v>27.617000000000001</v>
+      </c>
+      <c r="AX6" s="3">
+        <f t="shared" ref="AX6:AX69" si="0">AV6-AW6</f>
+        <v>-25.047000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:51">
       <c r="B7" s="2">
         <v>1950.25</v>
       </c>
@@ -1521,8 +1670,19 @@
         <v>13.538</v>
       </c>
       <c r="AS7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW7" s="10">
+        <v>27.927</v>
+      </c>
+      <c r="AX7" s="3">
+        <f t="shared" si="0"/>
+        <v>-25.356999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:51">
       <c r="B8" s="2">
         <v>1950.5</v>
       </c>
@@ -1585,8 +1745,19 @@
         <v>13.832000000000001</v>
       </c>
       <c r="AS8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW8" s="10">
+        <v>28.532</v>
+      </c>
+      <c r="AX8" s="3">
+        <f t="shared" si="0"/>
+        <v>-25.962</v>
+      </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:51">
       <c r="B9" s="2">
         <v>1950.75</v>
       </c>
@@ -1649,8 +1820,19 @@
         <v>14.09</v>
       </c>
       <c r="AS9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>28.574000000000002</v>
+      </c>
+      <c r="AX9" s="3">
+        <f t="shared" si="0"/>
+        <v>-26.004000000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:51">
       <c r="B10" s="2">
         <v>1951</v>
       </c>
@@ -1713,8 +1895,19 @@
         <v>14.596</v>
       </c>
       <c r="AS10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW10" s="10">
+        <v>28.632999999999999</v>
+      </c>
+      <c r="AX10" s="3">
+        <f t="shared" si="0"/>
+        <v>-26.062999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:51">
       <c r="B11" s="2">
         <v>1951.25</v>
       </c>
@@ -1777,8 +1970,19 @@
         <v>14.692</v>
       </c>
       <c r="AS11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW11" s="10">
+        <v>28.533999999999999</v>
+      </c>
+      <c r="AX11" s="3">
+        <f t="shared" si="0"/>
+        <v>-25.963999999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:51">
       <c r="B12" s="2">
         <v>1951.5</v>
       </c>
@@ -1841,8 +2045,19 @@
         <v>14.701000000000001</v>
       </c>
       <c r="AS12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW12" s="10">
+        <v>29.187999999999999</v>
+      </c>
+      <c r="AX12" s="3">
+        <f t="shared" si="0"/>
+        <v>-26.617999999999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:51">
       <c r="B13" s="2">
         <v>1951.75</v>
       </c>
@@ -1905,8 +2120,19 @@
         <v>14.869</v>
       </c>
       <c r="AS13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW13" s="10">
+        <v>29.256</v>
+      </c>
+      <c r="AX13" s="3">
+        <f t="shared" si="0"/>
+        <v>-26.686</v>
+      </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:51">
       <c r="B14" s="2">
         <v>1952</v>
       </c>
@@ -1969,8 +2195,22 @@
         <v>14.863</v>
       </c>
       <c r="AS14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW14" s="10">
+        <v>29.381</v>
+      </c>
+      <c r="AX14" s="3">
+        <f t="shared" si="0"/>
+        <v>-26.811</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>156522.33333333334</v>
+      </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:51">
       <c r="B15" s="2">
         <v>1952.25</v>
       </c>
@@ -2033,8 +2273,22 @@
         <v>14.882</v>
       </c>
       <c r="AS15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW15" s="10">
+        <v>29.359000000000002</v>
+      </c>
+      <c r="AX15" s="3">
+        <f t="shared" si="0"/>
+        <v>-26.789000000000001</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>157142</v>
+      </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:51">
       <c r="B16" s="2">
         <v>1952.5</v>
       </c>
@@ -2097,8 +2351,22 @@
         <v>15.048</v>
       </c>
       <c r="AS16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW16" s="10">
+        <v>29.245000000000001</v>
+      </c>
+      <c r="AX16" s="3">
+        <f t="shared" si="0"/>
+        <v>-26.675000000000001</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>157801.33333333334</v>
+      </c>
     </row>
-    <row r="17" spans="2:45">
+    <row r="17" spans="2:51">
       <c r="B17" s="2">
         <v>1952.75</v>
       </c>
@@ -2161,8 +2429,22 @@
         <v>15.090999999999999</v>
       </c>
       <c r="AS17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW17" s="10">
+        <v>29.824999999999999</v>
+      </c>
+      <c r="AX17" s="3">
+        <f t="shared" si="0"/>
+        <v>-27.254999999999999</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>158504.66666666666</v>
+      </c>
     </row>
-    <row r="18" spans="2:45">
+    <row r="18" spans="2:51">
       <c r="B18" s="2">
         <v>1953</v>
       </c>
@@ -2228,8 +2510,22 @@
         <v>15.096</v>
       </c>
       <c r="AS18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="3">
+        <v>2.57</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>30.061</v>
+      </c>
+      <c r="AX18" s="3">
+        <f t="shared" si="0"/>
+        <v>-27.491</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>159164</v>
+      </c>
     </row>
-    <row r="19" spans="2:45">
+    <row r="19" spans="2:51">
       <c r="B19" s="2">
         <v>1953.25</v>
       </c>
@@ -2295,8 +2591,22 @@
         <v>15.125</v>
       </c>
       <c r="AS19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="3">
+        <v>2.6533333333333333</v>
+      </c>
+      <c r="AW19" s="10">
+        <v>30.155999999999999</v>
+      </c>
+      <c r="AX19" s="3">
+        <f t="shared" si="0"/>
+        <v>-27.502666666666666</v>
+      </c>
+      <c r="AY19" s="3">
+        <v>159752.33333333334</v>
+      </c>
     </row>
-    <row r="20" spans="2:45">
+    <row r="20" spans="2:51">
       <c r="B20" s="2">
         <v>1953.5</v>
       </c>
@@ -2362,8 +2672,22 @@
         <v>15.188000000000001</v>
       </c>
       <c r="AS20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW20" s="10">
+        <v>30.305</v>
+      </c>
+      <c r="AX20" s="3">
+        <f t="shared" si="0"/>
+        <v>-27.484999999999999</v>
+      </c>
+      <c r="AY20" s="3">
+        <v>160450.33333333334</v>
+      </c>
     </row>
-    <row r="21" spans="2:45">
+    <row r="21" spans="2:51">
       <c r="B21" s="2">
         <v>1953.75</v>
       </c>
@@ -2429,8 +2753,22 @@
         <v>15.218999999999999</v>
       </c>
       <c r="AS21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW21" s="10">
+        <v>30.190999999999999</v>
+      </c>
+      <c r="AX21" s="3">
+        <f t="shared" si="0"/>
+        <v>-27.370999999999999</v>
+      </c>
+      <c r="AY21" s="3">
+        <v>161218</v>
+      </c>
     </row>
-    <row r="22" spans="2:45">
+    <row r="22" spans="2:51">
       <c r="B22" s="2">
         <v>1954</v>
       </c>
@@ -2496,8 +2834,22 @@
         <v>15.266</v>
       </c>
       <c r="AS22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW22" s="10">
+        <v>30.242999999999999</v>
+      </c>
+      <c r="AX22" s="3">
+        <f t="shared" si="0"/>
+        <v>-27.422999999999998</v>
+      </c>
+      <c r="AY22" s="3">
+        <v>161908.66666666666</v>
+      </c>
     </row>
-    <row r="23" spans="2:45">
+    <row r="23" spans="2:51">
       <c r="B23" s="2">
         <v>1954.25</v>
       </c>
@@ -2563,8 +2915,22 @@
         <v>15.281000000000001</v>
       </c>
       <c r="AS23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW23" s="10">
+        <v>30.459</v>
+      </c>
+      <c r="AX23" s="3">
+        <f t="shared" si="0"/>
+        <v>-27.638999999999999</v>
+      </c>
+      <c r="AY23" s="3">
+        <v>162568</v>
+      </c>
     </row>
-    <row r="24" spans="2:45">
+    <row r="24" spans="2:51">
       <c r="B24" s="2">
         <v>1954.5</v>
       </c>
@@ -2633,8 +2999,22 @@
         <v>15.3</v>
       </c>
       <c r="AS24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW24" s="10">
+        <v>31.012</v>
+      </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="0"/>
+        <v>-28.192</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>163295.33333333334</v>
+      </c>
     </row>
-    <row r="25" spans="2:45">
+    <row r="25" spans="2:51">
       <c r="B25" s="2">
         <v>1954.75</v>
       </c>
@@ -2703,8 +3083,22 @@
         <v>15.343</v>
       </c>
       <c r="AS25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW25" s="10">
+        <v>31.376000000000001</v>
+      </c>
+      <c r="AX25" s="3">
+        <f t="shared" si="0"/>
+        <v>-28.556000000000001</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>164101</v>
+      </c>
     </row>
-    <row r="26" spans="2:45">
+    <row r="26" spans="2:51">
       <c r="B26" s="2">
         <v>1955</v>
       </c>
@@ -2773,8 +3167,22 @@
         <v>15.417</v>
       </c>
       <c r="AS26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW26" s="10">
+        <v>31.975000000000001</v>
+      </c>
+      <c r="AX26" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.155000000000001</v>
+      </c>
+      <c r="AY26" s="3">
+        <v>164805</v>
+      </c>
     </row>
-    <row r="27" spans="2:45">
+    <row r="27" spans="2:51">
       <c r="B27" s="2">
         <v>1955.25</v>
       </c>
@@ -2843,8 +3251,22 @@
         <v>15.481</v>
       </c>
       <c r="AS27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW27" s="10">
+        <v>32.067999999999998</v>
+      </c>
+      <c r="AX27" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.247999999999998</v>
+      </c>
+      <c r="AY27" s="3">
+        <v>165469.66666666666</v>
+      </c>
     </row>
-    <row r="28" spans="2:45">
+    <row r="28" spans="2:51">
       <c r="B28" s="2">
         <v>1955.5</v>
       </c>
@@ -2913,8 +3335,22 @@
         <v>15.59</v>
       </c>
       <c r="AS28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW28" s="10">
+        <v>32.198999999999998</v>
+      </c>
+      <c r="AX28" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.378999999999998</v>
+      </c>
+      <c r="AY28" s="3">
+        <v>166198.66666666666</v>
+      </c>
     </row>
-    <row r="29" spans="2:45">
+    <row r="29" spans="2:51">
       <c r="B29" s="2">
         <v>1955.75</v>
       </c>
@@ -2983,8 +3419,22 @@
         <v>15.743</v>
       </c>
       <c r="AS29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW29" s="10">
+        <v>32.098999999999997</v>
+      </c>
+      <c r="AX29" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.278999999999996</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>167016</v>
+      </c>
     </row>
-    <row r="30" spans="2:45">
+    <row r="30" spans="2:51">
       <c r="B30" s="2">
         <v>1956</v>
       </c>
@@ -3053,8 +3503,22 @@
         <v>15.901999999999999</v>
       </c>
       <c r="AS30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW30" s="10">
+        <v>31.704000000000001</v>
+      </c>
+      <c r="AX30" s="3">
+        <f t="shared" si="0"/>
+        <v>-28.884</v>
+      </c>
+      <c r="AY30" s="3">
+        <v>167745.33333333334</v>
+      </c>
     </row>
-    <row r="31" spans="2:45">
+    <row r="31" spans="2:51">
       <c r="B31" s="2">
         <v>1956.25</v>
       </c>
@@ -3123,8 +3587,22 @@
         <v>15.997</v>
       </c>
       <c r="AS31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW31" s="10">
+        <v>31.847999999999999</v>
+      </c>
+      <c r="AX31" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.027999999999999</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>168438.66666666666</v>
+      </c>
     </row>
-    <row r="32" spans="2:45">
+    <row r="32" spans="2:51">
       <c r="B32" s="2">
         <v>1956.5</v>
       </c>
@@ -3193,8 +3671,22 @@
         <v>16.196999999999999</v>
       </c>
       <c r="AS32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW32" s="10">
+        <v>31.85</v>
+      </c>
+      <c r="AX32" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.03</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>169194</v>
+      </c>
     </row>
-    <row r="33" spans="2:45">
+    <row r="33" spans="2:51">
       <c r="B33" s="2">
         <v>1956.75</v>
       </c>
@@ -3263,8 +3755,22 @@
         <v>16.263999999999999</v>
       </c>
       <c r="AS33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="AW33" s="10">
+        <v>32.188000000000002</v>
+      </c>
+      <c r="AX33" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.368000000000002</v>
+      </c>
+      <c r="AY33" s="3">
+        <v>170052.66666666666</v>
+      </c>
     </row>
-    <row r="34" spans="2:45">
+    <row r="34" spans="2:51">
       <c r="B34" s="2">
         <v>1957</v>
       </c>
@@ -3333,8 +3839,22 @@
         <v>16.484999999999999</v>
       </c>
       <c r="AS34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="3">
+        <v>2.9866666666666668</v>
+      </c>
+      <c r="AW34" s="10">
+        <v>32.555999999999997</v>
+      </c>
+      <c r="AX34" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.569333333333329</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>170802</v>
+      </c>
     </row>
-    <row r="35" spans="2:45">
+    <row r="35" spans="2:51">
       <c r="B35" s="2">
         <v>1957.25</v>
       </c>
@@ -3403,8 +3923,22 @@
         <v>16.600999999999999</v>
       </c>
       <c r="AS35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW35" s="10">
+        <v>32.433999999999997</v>
+      </c>
+      <c r="AX35" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.363999999999997</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>171504.33333333334</v>
+      </c>
     </row>
-    <row r="36" spans="2:45">
+    <row r="36" spans="2:51">
       <c r="B36" s="2">
         <v>1957.5</v>
       </c>
@@ -3473,8 +4007,22 @@
         <v>16.701000000000001</v>
       </c>
       <c r="AS36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW36" s="10">
+        <v>32.898000000000003</v>
+      </c>
+      <c r="AX36" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.828000000000003</v>
+      </c>
+      <c r="AY36" s="3">
+        <v>172259.66666666666</v>
+      </c>
     </row>
-    <row r="37" spans="2:45">
+    <row r="37" spans="2:51">
       <c r="B37" s="2">
         <v>1957.75</v>
       </c>
@@ -3543,8 +4091,22 @@
         <v>16.710999999999999</v>
       </c>
       <c r="AS37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="3">
+        <v>3.0466666666666669</v>
+      </c>
+      <c r="AW37" s="10">
+        <v>33.003</v>
+      </c>
+      <c r="AX37" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.956333333333333</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>173061.33333333334</v>
+      </c>
     </row>
-    <row r="38" spans="2:45">
+    <row r="38" spans="2:51">
       <c r="B38" s="2">
         <v>1958</v>
       </c>
@@ -3613,8 +4175,22 @@
         <v>16.891999999999999</v>
       </c>
       <c r="AS38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW38" s="10">
+        <v>32.545999999999999</v>
+      </c>
+      <c r="AX38" s="3">
+        <f t="shared" si="0"/>
+        <v>-29.475999999999999</v>
+      </c>
+      <c r="AY38" s="3">
+        <v>173741.33333333334</v>
+      </c>
     </row>
-    <row r="39" spans="2:45">
+    <row r="39" spans="2:51">
       <c r="B39" s="2">
         <v>1958.25</v>
       </c>
@@ -3683,8 +4259,22 @@
         <v>16.940000000000001</v>
       </c>
       <c r="AS39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW39" s="10">
+        <v>33.186999999999998</v>
+      </c>
+      <c r="AX39" s="3">
+        <f t="shared" si="0"/>
+        <v>-30.116999999999997</v>
+      </c>
+      <c r="AY39" s="3">
+        <v>174404</v>
+      </c>
     </row>
-    <row r="40" spans="2:45">
+    <row r="40" spans="2:51">
       <c r="B40" s="2">
         <v>1958.5</v>
       </c>
@@ -3753,8 +4343,22 @@
         <v>17.042999999999999</v>
       </c>
       <c r="AS40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW40" s="10">
+        <v>33.807000000000002</v>
+      </c>
+      <c r="AX40" s="3">
+        <f t="shared" si="0"/>
+        <v>-30.737000000000002</v>
+      </c>
+      <c r="AY40" s="3">
+        <v>175146</v>
+      </c>
     </row>
-    <row r="41" spans="2:45">
+    <row r="41" spans="2:51">
       <c r="B41" s="2">
         <v>1958.75</v>
       </c>
@@ -3823,8 +4427,22 @@
         <v>17.123000000000001</v>
       </c>
       <c r="AS41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="3">
+        <v>3.0233333333333334</v>
+      </c>
+      <c r="AW41" s="10">
+        <v>34.378</v>
+      </c>
+      <c r="AX41" s="3">
+        <f t="shared" si="0"/>
+        <v>-31.354666666666667</v>
+      </c>
+      <c r="AY41" s="3">
+        <v>175956.66666666666</v>
+      </c>
     </row>
-    <row r="42" spans="2:45">
+    <row r="42" spans="2:51">
       <c r="B42" s="2">
         <v>1959</v>
       </c>
@@ -3893,8 +4511,22 @@
         <v>17.169</v>
       </c>
       <c r="AS42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="AW42" s="10">
+        <v>34.402000000000001</v>
+      </c>
+      <c r="AX42" s="3">
+        <f t="shared" si="0"/>
+        <v>-31.411999999999999</v>
+      </c>
+      <c r="AY42" s="3">
+        <v>176679</v>
+      </c>
     </row>
-    <row r="43" spans="2:45">
+    <row r="43" spans="2:51">
       <c r="B43" s="2">
         <v>1959.25</v>
       </c>
@@ -3963,8 +4595,22 @@
         <v>17.193999999999999</v>
       </c>
       <c r="AS43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW43" s="10">
+        <v>34.81</v>
+      </c>
+      <c r="AX43" s="3">
+        <f t="shared" si="0"/>
+        <v>-31.840000000000003</v>
+      </c>
+      <c r="AY43" s="3">
+        <v>177367.33333333334</v>
+      </c>
     </row>
-    <row r="44" spans="2:45">
+    <row r="44" spans="2:51">
       <c r="B44" s="2">
         <v>1959.5</v>
       </c>
@@ -4033,8 +4679,22 @@
         <v>17.257999999999999</v>
       </c>
       <c r="AS44" s="10"/>
+      <c r="AU44" s="10"/>
+      <c r="AV44" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW44" s="10">
+        <v>34.741</v>
+      </c>
+      <c r="AX44" s="3">
+        <f t="shared" si="0"/>
+        <v>-31.771000000000001</v>
+      </c>
+      <c r="AY44" s="3">
+        <v>178102.33333333334</v>
+      </c>
     </row>
-    <row r="45" spans="2:45">
+    <row r="45" spans="2:51">
       <c r="B45" s="2">
         <v>1959.75</v>
       </c>
@@ -4103,8 +4763,22 @@
         <v>17.326000000000001</v>
       </c>
       <c r="AS45" s="10"/>
+      <c r="AU45" s="10"/>
+      <c r="AV45" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW45" s="10">
+        <v>34.680999999999997</v>
+      </c>
+      <c r="AX45" s="3">
+        <f t="shared" si="0"/>
+        <v>-31.710999999999999</v>
+      </c>
+      <c r="AY45" s="3">
+        <v>178910.33333333334</v>
+      </c>
     </row>
-    <row r="46" spans="2:45">
+    <row r="46" spans="2:51">
       <c r="B46" s="2">
         <v>1960</v>
       </c>
@@ -4176,8 +4850,22 @@
         <v>17.396999999999998</v>
       </c>
       <c r="AS46" s="10"/>
+      <c r="AU46" s="10"/>
+      <c r="AV46" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW46" s="10">
+        <v>35.484999999999999</v>
+      </c>
+      <c r="AX46" s="3">
+        <f t="shared" si="0"/>
+        <v>-32.515000000000001</v>
+      </c>
+      <c r="AY46" s="3">
+        <v>179590.33333333334</v>
+      </c>
     </row>
-    <row r="47" spans="2:45">
+    <row r="47" spans="2:51">
       <c r="B47" s="2">
         <v>1960.25</v>
       </c>
@@ -4249,8 +4937,22 @@
         <v>17.443000000000001</v>
       </c>
       <c r="AS47" s="10"/>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW47" s="10">
+        <v>35.005000000000003</v>
+      </c>
+      <c r="AX47" s="3">
+        <f t="shared" si="0"/>
+        <v>-32.035000000000004</v>
+      </c>
+      <c r="AY47" s="3">
+        <v>180224.33333333334</v>
+      </c>
     </row>
-    <row r="48" spans="2:45">
+    <row r="48" spans="2:51">
       <c r="B48" s="2">
         <v>1960.5</v>
       </c>
@@ -4322,8 +5024,22 @@
         <v>17.506</v>
       </c>
       <c r="AS48" s="10"/>
+      <c r="AU48" s="10"/>
+      <c r="AV48" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW48" s="10">
+        <v>35.106000000000002</v>
+      </c>
+      <c r="AX48" s="3">
+        <f t="shared" si="0"/>
+        <v>-32.136000000000003</v>
+      </c>
+      <c r="AY48" s="3">
+        <v>180951.33333333334</v>
+      </c>
     </row>
-    <row r="49" spans="2:45">
+    <row r="49" spans="2:51">
       <c r="B49" s="2">
         <v>1960.75</v>
       </c>
@@ -4395,8 +5111,22 @@
         <v>17.559999999999999</v>
       </c>
       <c r="AS49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW49" s="10">
+        <v>34.677999999999997</v>
+      </c>
+      <c r="AX49" s="3">
+        <f t="shared" si="0"/>
+        <v>-31.707999999999998</v>
+      </c>
+      <c r="AY49" s="3">
+        <v>181788.66666666666</v>
+      </c>
     </row>
-    <row r="50" spans="2:45">
+    <row r="50" spans="2:51">
       <c r="B50" s="2">
         <v>1961</v>
       </c>
@@ -4468,8 +5198,22 @@
         <v>17.597999999999999</v>
       </c>
       <c r="AS50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW50" s="10">
+        <v>35.122999999999998</v>
+      </c>
+      <c r="AX50" s="3">
+        <f t="shared" si="0"/>
+        <v>-32.152999999999999</v>
+      </c>
+      <c r="AY50" s="3">
+        <v>182516.33333333334</v>
+      </c>
     </row>
-    <row r="51" spans="2:45">
+    <row r="51" spans="2:51">
       <c r="B51" s="2">
         <v>1961.25</v>
       </c>
@@ -4541,8 +5285,22 @@
         <v>17.640999999999998</v>
       </c>
       <c r="AS51" s="10"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW51" s="10">
+        <v>36.125999999999998</v>
+      </c>
+      <c r="AX51" s="3">
+        <f t="shared" si="0"/>
+        <v>-33.155999999999999</v>
+      </c>
+      <c r="AY51" s="3">
+        <v>183220.33333333334</v>
+      </c>
     </row>
-    <row r="52" spans="2:45">
+    <row r="52" spans="2:51">
       <c r="B52" s="2">
         <v>1961.5</v>
       </c>
@@ -4614,8 +5372,22 @@
         <v>17.687000000000001</v>
       </c>
       <c r="AS52" s="10"/>
+      <c r="AU52" s="10"/>
+      <c r="AV52" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW52" s="10">
+        <v>36.625</v>
+      </c>
+      <c r="AX52" s="3">
+        <f t="shared" si="0"/>
+        <v>-33.655000000000001</v>
+      </c>
+      <c r="AY52" s="3">
+        <v>183964</v>
+      </c>
     </row>
-    <row r="53" spans="2:45">
+    <row r="53" spans="2:51">
       <c r="B53" s="2">
         <v>1961.75</v>
       </c>
@@ -4687,8 +5459,22 @@
         <v>17.745000000000001</v>
       </c>
       <c r="AS53" s="10"/>
+      <c r="AU53" s="10"/>
+      <c r="AV53" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW53" s="10">
+        <v>36.966999999999999</v>
+      </c>
+      <c r="AX53" s="3">
+        <f t="shared" si="0"/>
+        <v>-33.997</v>
+      </c>
+      <c r="AY53" s="3">
+        <v>184774.33333333334</v>
+      </c>
     </row>
-    <row r="54" spans="2:45">
+    <row r="54" spans="2:51">
       <c r="B54" s="2">
         <v>1962</v>
       </c>
@@ -4760,8 +5546,22 @@
         <v>17.837</v>
       </c>
       <c r="AS54" s="10"/>
+      <c r="AU54" s="10"/>
+      <c r="AV54" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW54" s="10">
+        <v>37.582000000000001</v>
+      </c>
+      <c r="AX54" s="3">
+        <f t="shared" si="0"/>
+        <v>-34.612000000000002</v>
+      </c>
+      <c r="AY54" s="3">
+        <v>185448</v>
+      </c>
     </row>
-    <row r="55" spans="2:45">
+    <row r="55" spans="2:51">
       <c r="B55" s="2">
         <v>1962.25</v>
       </c>
@@ -4833,8 +5633,22 @@
         <v>17.866</v>
       </c>
       <c r="AS55" s="10"/>
+      <c r="AU55" s="10"/>
+      <c r="AV55" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW55" s="10">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="AX55" s="3">
+        <f t="shared" si="0"/>
+        <v>-34.550000000000004</v>
+      </c>
+      <c r="AY55" s="3">
+        <v>186091.66666666666</v>
+      </c>
     </row>
-    <row r="56" spans="2:45">
+    <row r="56" spans="2:51">
       <c r="B56" s="2">
         <v>1962.5</v>
       </c>
@@ -4906,8 +5720,22 @@
         <v>17.902999999999999</v>
       </c>
       <c r="AS56" s="10"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW56" s="10">
+        <v>38.009</v>
+      </c>
+      <c r="AX56" s="3">
+        <f t="shared" si="0"/>
+        <v>-35.039000000000001</v>
+      </c>
+      <c r="AY56" s="3">
+        <v>186795.33333333334</v>
+      </c>
     </row>
-    <row r="57" spans="2:45">
+    <row r="57" spans="2:51">
       <c r="B57" s="2">
         <v>1962.75</v>
       </c>
@@ -4979,8 +5807,22 @@
         <v>17.937999999999999</v>
       </c>
       <c r="AS57" s="10"/>
+      <c r="AU57" s="10"/>
+      <c r="AV57" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW57" s="10">
+        <v>38.331000000000003</v>
+      </c>
+      <c r="AX57" s="3">
+        <f t="shared" si="0"/>
+        <v>-35.361000000000004</v>
+      </c>
+      <c r="AY57" s="3">
+        <v>187564.33333333334</v>
+      </c>
     </row>
-    <row r="58" spans="2:45">
+    <row r="58" spans="2:51">
       <c r="B58" s="2">
         <v>1963</v>
       </c>
@@ -5052,8 +5894,22 @@
         <v>18.016999999999999</v>
       </c>
       <c r="AS58" s="10"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW58" s="10">
+        <v>38.457999999999998</v>
+      </c>
+      <c r="AX58" s="3">
+        <f t="shared" si="0"/>
+        <v>-35.488</v>
+      </c>
+      <c r="AY58" s="3">
+        <v>188204.33333333334</v>
+      </c>
     </row>
-    <row r="59" spans="2:45">
+    <row r="59" spans="2:51">
       <c r="B59" s="2">
         <v>1963.25</v>
       </c>
@@ -5125,8 +5981,22 @@
         <v>18.047000000000001</v>
       </c>
       <c r="AS59" s="10"/>
+      <c r="AU59" s="10"/>
+      <c r="AV59" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW59" s="10">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="AX59" s="3">
+        <f t="shared" si="0"/>
+        <v>-35.878</v>
+      </c>
+      <c r="AY59" s="3">
+        <v>188796</v>
+      </c>
     </row>
-    <row r="60" spans="2:45">
+    <row r="60" spans="2:51">
       <c r="B60" s="2">
         <v>1963.5</v>
       </c>
@@ -5198,8 +6068,22 @@
         <v>18.068999999999999</v>
       </c>
       <c r="AS60" s="10"/>
+      <c r="AU60" s="10"/>
+      <c r="AV60" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW60" s="10">
+        <v>39.674999999999997</v>
+      </c>
+      <c r="AX60" s="3">
+        <f t="shared" si="0"/>
+        <v>-36.704999999999998</v>
+      </c>
+      <c r="AY60" s="3">
+        <v>189499.66666666666</v>
+      </c>
     </row>
-    <row r="61" spans="2:45">
+    <row r="61" spans="2:51">
       <c r="B61" s="2">
         <v>1963.75</v>
       </c>
@@ -5271,8 +6155,22 @@
         <v>18.216000000000001</v>
       </c>
       <c r="AS61" s="10"/>
+      <c r="AU61" s="10"/>
+      <c r="AV61" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW61" s="10">
+        <v>39.673999999999999</v>
+      </c>
+      <c r="AX61" s="3">
+        <f t="shared" si="0"/>
+        <v>-36.704000000000001</v>
+      </c>
+      <c r="AY61" s="3">
+        <v>190255</v>
+      </c>
     </row>
-    <row r="62" spans="2:45">
+    <row r="62" spans="2:51">
       <c r="B62" s="2">
         <v>1964</v>
       </c>
@@ -5344,8 +6242,22 @@
         <v>18.274000000000001</v>
       </c>
       <c r="AS62" s="10"/>
+      <c r="AU62" s="10"/>
+      <c r="AV62" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW62" s="10">
+        <v>40.029000000000003</v>
+      </c>
+      <c r="AX62" s="3">
+        <f t="shared" si="0"/>
+        <v>-37.059000000000005</v>
+      </c>
+      <c r="AY62" s="3">
+        <v>190857.66666666666</v>
+      </c>
     </row>
-    <row r="63" spans="2:45">
+    <row r="63" spans="2:51">
       <c r="B63" s="2">
         <v>1964.25</v>
       </c>
@@ -5417,8 +6329,22 @@
         <v>18.318000000000001</v>
       </c>
       <c r="AS63" s="10"/>
+      <c r="AU63" s="10"/>
+      <c r="AV63" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW63" s="10">
+        <v>40.301000000000002</v>
+      </c>
+      <c r="AX63" s="3">
+        <f t="shared" si="0"/>
+        <v>-37.331000000000003</v>
+      </c>
+      <c r="AY63" s="3">
+        <v>191452.66666666666</v>
+      </c>
     </row>
-    <row r="64" spans="2:45">
+    <row r="64" spans="2:51">
       <c r="B64" s="2">
         <v>1964.5</v>
       </c>
@@ -5490,8 +6416,22 @@
         <v>18.391999999999999</v>
       </c>
       <c r="AS64" s="10"/>
+      <c r="AU64" s="10"/>
+      <c r="AV64" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW64" s="10">
+        <v>40.604999999999997</v>
+      </c>
+      <c r="AX64" s="3">
+        <f t="shared" si="0"/>
+        <v>-37.684999999999995</v>
+      </c>
+      <c r="AY64" s="3">
+        <v>192132</v>
+      </c>
     </row>
-    <row r="65" spans="2:45">
+    <row r="65" spans="2:51">
       <c r="B65" s="2">
         <v>1964.75</v>
       </c>
@@ -5563,8 +6503,22 @@
         <v>18.475999999999999</v>
       </c>
       <c r="AS65" s="10"/>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW65" s="10">
+        <v>40.241999999999997</v>
+      </c>
+      <c r="AX65" s="3">
+        <f t="shared" si="0"/>
+        <v>-37.321999999999996</v>
+      </c>
+      <c r="AY65" s="3">
+        <v>192839</v>
+      </c>
     </row>
-    <row r="66" spans="2:45">
+    <row r="66" spans="2:51">
       <c r="B66" s="2">
         <v>1965</v>
       </c>
@@ -5636,8 +6590,22 @@
         <v>18.568999999999999</v>
       </c>
       <c r="AS66" s="10"/>
+      <c r="AU66" s="10"/>
+      <c r="AV66" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW66" s="10">
+        <v>40.838999999999999</v>
+      </c>
+      <c r="AX66" s="3">
+        <f t="shared" si="0"/>
+        <v>-37.918999999999997</v>
+      </c>
+      <c r="AY66" s="3">
+        <v>193385.33333333334</v>
+      </c>
     </row>
-    <row r="67" spans="2:45">
+    <row r="67" spans="2:51">
       <c r="B67" s="2">
         <v>1965.25</v>
       </c>
@@ -5709,8 +6677,22 @@
         <v>18.652000000000001</v>
       </c>
       <c r="AS67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW67" s="10">
+        <v>41.082000000000001</v>
+      </c>
+      <c r="AX67" s="3">
+        <f t="shared" si="0"/>
+        <v>-38.161999999999999</v>
+      </c>
+      <c r="AY67" s="3">
+        <v>193894.66666666666</v>
+      </c>
     </row>
-    <row r="68" spans="2:45">
+    <row r="68" spans="2:51">
       <c r="B68" s="2">
         <v>1965.5</v>
       </c>
@@ -5782,8 +6764,22 @@
         <v>18.725999999999999</v>
       </c>
       <c r="AS68" s="10"/>
+      <c r="AU68" s="10"/>
+      <c r="AV68" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW68" s="10">
+        <v>41.819000000000003</v>
+      </c>
+      <c r="AX68" s="3">
+        <f t="shared" si="0"/>
+        <v>-38.899000000000001</v>
+      </c>
+      <c r="AY68" s="3">
+        <v>194530.66666666666</v>
+      </c>
     </row>
-    <row r="69" spans="2:45">
+    <row r="69" spans="2:51">
       <c r="B69" s="2">
         <v>1965.75</v>
       </c>
@@ -5855,8 +6851,22 @@
         <v>18.853000000000002</v>
       </c>
       <c r="AS69" s="10"/>
+      <c r="AU69" s="10"/>
+      <c r="AV69" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW69" s="10">
+        <v>42.58</v>
+      </c>
+      <c r="AX69" s="3">
+        <f t="shared" si="0"/>
+        <v>-39.659999999999997</v>
+      </c>
+      <c r="AY69" s="3">
+        <v>195188</v>
+      </c>
     </row>
-    <row r="70" spans="2:45">
+    <row r="70" spans="2:51">
       <c r="B70" s="2">
         <v>1966</v>
       </c>
@@ -5928,8 +6938,22 @@
         <v>18.975000000000001</v>
       </c>
       <c r="AS70" s="10"/>
+      <c r="AU70" s="10"/>
+      <c r="AV70" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW70" s="10">
+        <v>43.174999999999997</v>
+      </c>
+      <c r="AX70" s="3">
+        <f t="shared" ref="AX70:AX133" si="1">AV70-AW70</f>
+        <v>-40.254999999999995</v>
+      </c>
+      <c r="AY70" s="3">
+        <v>195686</v>
+      </c>
     </row>
-    <row r="71" spans="2:45">
+    <row r="71" spans="2:51">
       <c r="B71" s="2">
         <v>1966.25</v>
       </c>
@@ -6001,8 +7025,22 @@
         <v>19.131</v>
       </c>
       <c r="AS71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AW71" s="10">
+        <v>42.912999999999997</v>
+      </c>
+      <c r="AX71" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.992999999999995</v>
+      </c>
+      <c r="AY71" s="3">
+        <v>196183</v>
+      </c>
     </row>
-    <row r="72" spans="2:45">
+    <row r="72" spans="2:51">
       <c r="B72" s="2">
         <v>1966.5</v>
       </c>
@@ -6074,8 +7112,22 @@
         <v>19.317</v>
       </c>
       <c r="AS72" s="10"/>
+      <c r="AU72" s="10"/>
+      <c r="AV72" s="3">
+        <v>2.9366666666666665</v>
+      </c>
+      <c r="AW72" s="10">
+        <v>42.978999999999999</v>
+      </c>
+      <c r="AX72" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.042333333333332</v>
+      </c>
+      <c r="AY72" s="3">
+        <v>196768.66666666666</v>
+      </c>
     </row>
-    <row r="73" spans="2:45">
+    <row r="73" spans="2:51">
       <c r="B73" s="2">
         <v>1966.75</v>
       </c>
@@ -6147,8 +7199,22 @@
         <v>19.481000000000002</v>
       </c>
       <c r="AS73" s="10"/>
+      <c r="AU73" s="10"/>
+      <c r="AV73" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="AW73" s="10">
+        <v>43.273000000000003</v>
+      </c>
+      <c r="AX73" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.303000000000004</v>
+      </c>
+      <c r="AY73" s="3">
+        <v>197392.33333333334</v>
+      </c>
     </row>
-    <row r="74" spans="2:45">
+    <row r="74" spans="2:51">
       <c r="B74" s="2">
         <v>1967</v>
       </c>
@@ -6220,8 +7286,22 @@
         <v>19.562000000000001</v>
       </c>
       <c r="AS74" s="10"/>
+      <c r="AU74" s="10"/>
+      <c r="AV74" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="AW74" s="10">
+        <v>43.637</v>
+      </c>
+      <c r="AX74" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.646999999999998</v>
+      </c>
+      <c r="AY74" s="3">
+        <v>197888.33333333334</v>
+      </c>
     </row>
-    <row r="75" spans="2:45">
+    <row r="75" spans="2:51">
       <c r="B75" s="2">
         <v>1967.25</v>
       </c>
@@ -6293,8 +7373,22 @@
         <v>19.661000000000001</v>
       </c>
       <c r="AS75" s="10"/>
+      <c r="AU75" s="10"/>
+      <c r="AV75" s="3">
+        <v>3</v>
+      </c>
+      <c r="AW75" s="10">
+        <v>43.817</v>
+      </c>
+      <c r="AX75" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.817</v>
+      </c>
+      <c r="AY75" s="3">
+        <v>198368.66666666666</v>
+      </c>
     </row>
-    <row r="76" spans="2:45">
+    <row r="76" spans="2:51">
       <c r="B76" s="2">
         <v>1967.5</v>
       </c>
@@ -6367,8 +7461,22 @@
         <v>19.849</v>
       </c>
       <c r="AS76" s="10"/>
+      <c r="AU76" s="10"/>
+      <c r="AV76" s="3">
+        <v>3.0466666666666669</v>
+      </c>
+      <c r="AW76" s="10">
+        <v>43.996000000000002</v>
+      </c>
+      <c r="AX76" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.949333333333335</v>
+      </c>
+      <c r="AY76" s="3">
+        <v>198912</v>
+      </c>
     </row>
-    <row r="77" spans="2:45">
+    <row r="77" spans="2:51">
       <c r="B77" s="2">
         <v>1967.75</v>
       </c>
@@ -6441,8 +7549,22 @@
         <v>20.067</v>
       </c>
       <c r="AS77" s="10"/>
+      <c r="AU77" s="10"/>
+      <c r="AV77" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW77" s="10">
+        <v>44.152999999999999</v>
+      </c>
+      <c r="AX77" s="3">
+        <f t="shared" si="1"/>
+        <v>-41.082999999999998</v>
+      </c>
+      <c r="AY77" s="3">
+        <v>199488.66666666666</v>
+      </c>
     </row>
-    <row r="78" spans="2:45">
+    <row r="78" spans="2:51">
       <c r="B78" s="2">
         <v>1968</v>
       </c>
@@ -6515,8 +7637,22 @@
         <v>20.29</v>
       </c>
       <c r="AS78" s="10"/>
+      <c r="AU78" s="10"/>
+      <c r="AV78" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW78" s="10">
+        <v>45.137999999999998</v>
+      </c>
+      <c r="AX78" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.067999999999998</v>
+      </c>
+      <c r="AY78" s="3">
+        <v>199928</v>
+      </c>
     </row>
-    <row r="79" spans="2:45">
+    <row r="79" spans="2:51">
       <c r="B79" s="2">
         <v>1968.25</v>
       </c>
@@ -6589,8 +7725,22 @@
         <v>20.504000000000001</v>
       </c>
       <c r="AS79" s="10"/>
+      <c r="AU79" s="10"/>
+      <c r="AV79" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW79" s="10">
+        <v>45.570999999999998</v>
+      </c>
+      <c r="AX79" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.500999999999998</v>
+      </c>
+      <c r="AY79" s="3">
+        <v>200368.33333333334</v>
+      </c>
     </row>
-    <row r="80" spans="2:45">
+    <row r="80" spans="2:51">
       <c r="B80" s="2">
         <v>1968.5</v>
       </c>
@@ -6663,8 +7813,22 @@
         <v>20.706</v>
       </c>
       <c r="AS80" s="10"/>
+      <c r="AU80" s="10"/>
+      <c r="AV80" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW80" s="10">
+        <v>45.555999999999997</v>
+      </c>
+      <c r="AX80" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.485999999999997</v>
+      </c>
+      <c r="AY80" s="3">
+        <v>200899.66666666666</v>
+      </c>
     </row>
-    <row r="81" spans="2:45">
+    <row r="81" spans="2:51">
       <c r="B81" s="2">
         <v>1968.75</v>
       </c>
@@ -6716,7 +7880,7 @@
         <v>168.2561</v>
       </c>
       <c r="Y81" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
@@ -6773,8 +7937,22 @@
         <v>20.998999999999999</v>
       </c>
       <c r="AS81" s="10"/>
+      <c r="AU81" s="10"/>
+      <c r="AV81" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="AW81" s="10">
+        <v>45.476999999999997</v>
+      </c>
+      <c r="AX81" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.406999999999996</v>
+      </c>
+      <c r="AY81" s="3">
+        <v>201459</v>
+      </c>
     </row>
-    <row r="82" spans="2:45">
+    <row r="82" spans="2:51">
       <c r="B82" s="2">
         <v>1969</v>
       </c>
@@ -6830,7 +8008,7 @@
         <v>170.94919999999999</v>
       </c>
       <c r="Y82" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z82" s="3">
         <v>0</v>
@@ -6887,8 +8065,22 @@
         <v>21.216999999999999</v>
       </c>
       <c r="AS82" s="10"/>
+      <c r="AU82" s="10"/>
+      <c r="AV82" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="AW82" s="10">
+        <v>45.826000000000001</v>
+      </c>
+      <c r="AX82" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.695999999999998</v>
+      </c>
+      <c r="AY82" s="3">
+        <v>201888</v>
+      </c>
     </row>
-    <row r="83" spans="2:45">
+    <row r="83" spans="2:51">
       <c r="B83" s="2">
         <v>1969.25</v>
       </c>
@@ -6944,7 +8136,7 @@
         <v>172.60380000000001</v>
       </c>
       <c r="Y83" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -7001,8 +8193,22 @@
         <v>21.488</v>
       </c>
       <c r="AS83" s="10"/>
+      <c r="AU83" s="10"/>
+      <c r="AV83" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="AW83" s="10">
+        <v>45.457000000000001</v>
+      </c>
+      <c r="AX83" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.106999999999999</v>
+      </c>
+      <c r="AY83" s="3">
+        <v>202333</v>
+      </c>
     </row>
-    <row r="84" spans="2:45">
+    <row r="84" spans="2:51">
       <c r="B84" s="2">
         <v>1969.5</v>
       </c>
@@ -7058,7 +8264,7 @@
         <v>174.43860000000001</v>
       </c>
       <c r="Y84" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z84" s="3">
         <v>0</v>
@@ -7115,8 +8321,22 @@
         <v>21.79</v>
       </c>
       <c r="AS84" s="10"/>
+      <c r="AU84" s="10"/>
+      <c r="AV84" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="AW84" s="10">
+        <v>45.484999999999999</v>
+      </c>
+      <c r="AX84" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.134999999999998</v>
+      </c>
+      <c r="AY84" s="3">
+        <v>202881.33333333334</v>
+      </c>
     </row>
-    <row r="85" spans="2:45">
+    <row r="85" spans="2:51">
       <c r="B85" s="2">
         <v>1969.75</v>
       </c>
@@ -7228,8 +8448,22 @@
         <v>22.071000000000002</v>
       </c>
       <c r="AS85" s="10"/>
+      <c r="AU85" s="10"/>
+      <c r="AV85" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="AW85" s="10">
+        <v>45.293999999999997</v>
+      </c>
+      <c r="AX85" s="3">
+        <f t="shared" si="1"/>
+        <v>-41.943999999999996</v>
+      </c>
+      <c r="AY85" s="3">
+        <v>203492.33333333334</v>
+      </c>
     </row>
-    <row r="86" spans="2:45">
+    <row r="86" spans="2:51">
       <c r="B86" s="2">
         <v>1970</v>
       </c>
@@ -7343,8 +8577,22 @@
         <v>22.382000000000001</v>
       </c>
       <c r="AS86" s="10"/>
+      <c r="AU86" s="10"/>
+      <c r="AV86" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="AW86" s="10">
+        <v>45.412999999999997</v>
+      </c>
+      <c r="AX86" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.062999999999995</v>
+      </c>
+      <c r="AY86" s="3">
+        <v>204004.33333333334</v>
+      </c>
     </row>
-    <row r="87" spans="2:45">
+    <row r="87" spans="2:51">
       <c r="B87" s="2">
         <v>1970.25</v>
       </c>
@@ -7456,8 +8704,22 @@
         <v>22.693999999999999</v>
       </c>
       <c r="AS87" s="10"/>
+      <c r="AU87" s="10"/>
+      <c r="AV87" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="AW87" s="10">
+        <v>46.106000000000002</v>
+      </c>
+      <c r="AX87" s="3">
+        <f t="shared" si="1"/>
+        <v>-42.756</v>
+      </c>
+      <c r="AY87" s="3">
+        <v>204612.66666666666</v>
+      </c>
     </row>
-    <row r="88" spans="2:45">
+    <row r="88" spans="2:51">
       <c r="B88" s="2">
         <v>1970.5</v>
       </c>
@@ -7569,8 +8831,22 @@
         <v>22.88</v>
       </c>
       <c r="AS88" s="10"/>
+      <c r="AU88" s="10"/>
+      <c r="AV88" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="AW88" s="10">
+        <v>46.814</v>
+      </c>
+      <c r="AX88" s="3">
+        <f t="shared" si="1"/>
+        <v>-43.503999999999998</v>
+      </c>
+      <c r="AY88" s="3">
+        <v>205295.66666666666</v>
+      </c>
     </row>
-    <row r="89" spans="2:45">
+    <row r="89" spans="2:51">
       <c r="B89" s="2">
         <v>1970.75</v>
       </c>
@@ -7682,8 +8958,22 @@
         <v>23.181999999999999</v>
       </c>
       <c r="AS89" s="10"/>
+      <c r="AU89" s="10"/>
+      <c r="AV89" s="3">
+        <v>3.3933333333333331</v>
+      </c>
+      <c r="AW89" s="10">
+        <v>46.412999999999997</v>
+      </c>
+      <c r="AX89" s="3">
+        <f t="shared" si="1"/>
+        <v>-43.019666666666666</v>
+      </c>
+      <c r="AY89" s="3">
+        <v>206016.66666666666</v>
+      </c>
     </row>
-    <row r="90" spans="2:45">
+    <row r="90" spans="2:51">
       <c r="B90" s="2">
         <v>1971</v>
       </c>
@@ -7795,8 +9085,22 @@
         <v>23.536000000000001</v>
       </c>
       <c r="AS90" s="10"/>
+      <c r="AU90" s="10"/>
+      <c r="AV90" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW90" s="10">
+        <v>47.762</v>
+      </c>
+      <c r="AX90" s="3">
+        <f t="shared" si="1"/>
+        <v>-44.201999999999998</v>
+      </c>
+      <c r="AY90" s="3">
+        <v>206663</v>
+      </c>
     </row>
-    <row r="91" spans="2:45">
+    <row r="91" spans="2:51">
       <c r="B91" s="2">
         <v>1971.25</v>
       </c>
@@ -7908,8 +9212,22 @@
         <v>23.846</v>
       </c>
       <c r="AS91" s="10"/>
+      <c r="AU91" s="10"/>
+      <c r="AV91" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW91" s="10">
+        <v>47.923000000000002</v>
+      </c>
+      <c r="AX91" s="3">
+        <f t="shared" si="1"/>
+        <v>-44.363</v>
+      </c>
+      <c r="AY91" s="3">
+        <v>207262.33333333334</v>
+      </c>
     </row>
-    <row r="92" spans="2:45">
+    <row r="92" spans="2:51">
       <c r="B92" s="2">
         <v>1971.5</v>
       </c>
@@ -8021,8 +9339,22 @@
         <v>24.088000000000001</v>
       </c>
       <c r="AS92" s="10"/>
+      <c r="AU92" s="10"/>
+      <c r="AV92" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW92" s="10">
+        <v>48.35</v>
+      </c>
+      <c r="AX92" s="3">
+        <f t="shared" si="1"/>
+        <v>-44.79</v>
+      </c>
+      <c r="AY92" s="3">
+        <v>207885.33333333334</v>
+      </c>
     </row>
-    <row r="93" spans="2:45">
+    <row r="93" spans="2:51">
       <c r="B93" s="2">
         <v>1971.75</v>
       </c>
@@ -8134,8 +9466,22 @@
         <v>24.288</v>
       </c>
       <c r="AS93" s="10"/>
+      <c r="AU93" s="10"/>
+      <c r="AV93" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW93" s="10">
+        <v>47.966000000000001</v>
+      </c>
+      <c r="AX93" s="3">
+        <f t="shared" si="1"/>
+        <v>-44.405999999999999</v>
+      </c>
+      <c r="AY93" s="3">
+        <v>208546.66666666666</v>
+      </c>
     </row>
-    <row r="94" spans="2:45">
+    <row r="94" spans="2:51">
       <c r="B94" s="2">
         <v>1972</v>
       </c>
@@ -8247,8 +9593,22 @@
         <v>24.664000000000001</v>
       </c>
       <c r="AS94" s="10"/>
+      <c r="AU94" s="10"/>
+      <c r="AV94" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW94" s="10">
+        <v>48.64</v>
+      </c>
+      <c r="AX94" s="3">
+        <f t="shared" si="1"/>
+        <v>-45.08</v>
+      </c>
+      <c r="AY94" s="3">
+        <v>209063.33333333334</v>
+      </c>
     </row>
-    <row r="95" spans="2:45">
+    <row r="95" spans="2:51">
       <c r="B95" s="2">
         <v>1972.25</v>
       </c>
@@ -8360,8 +9720,22 @@
         <v>24.815000000000001</v>
       </c>
       <c r="AS95" s="10"/>
+      <c r="AU95" s="10"/>
+      <c r="AV95" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW95" s="10">
+        <v>49.633000000000003</v>
+      </c>
+      <c r="AX95" s="3">
+        <f t="shared" si="1"/>
+        <v>-46.073</v>
+      </c>
+      <c r="AY95" s="3">
+        <v>209552</v>
+      </c>
     </row>
-    <row r="96" spans="2:45">
+    <row r="96" spans="2:51">
       <c r="B96" s="2">
         <v>1972.5</v>
       </c>
@@ -8473,8 +9847,22 @@
         <v>25.047999999999998</v>
       </c>
       <c r="AS96" s="10"/>
+      <c r="AU96" s="10"/>
+      <c r="AV96" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW96" s="10">
+        <v>49.902000000000001</v>
+      </c>
+      <c r="AX96" s="3">
+        <f t="shared" si="1"/>
+        <v>-46.341999999999999</v>
+      </c>
+      <c r="AY96" s="3">
+        <v>210083</v>
+      </c>
     </row>
-    <row r="97" spans="2:46">
+    <row r="97" spans="2:51">
       <c r="B97" s="2">
         <v>1972.75</v>
       </c>
@@ -8586,8 +9974,22 @@
         <v>25.366</v>
       </c>
       <c r="AS97" s="10"/>
+      <c r="AU97" s="10"/>
+      <c r="AV97" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW97" s="10">
+        <v>50.313000000000002</v>
+      </c>
+      <c r="AX97" s="3">
+        <f t="shared" si="1"/>
+        <v>-46.753</v>
+      </c>
+      <c r="AY97" s="3">
+        <v>210652</v>
+      </c>
     </row>
-    <row r="98" spans="2:46">
+    <row r="98" spans="2:51">
       <c r="B98" s="2">
         <v>1973</v>
       </c>
@@ -8702,8 +10104,22 @@
       <c r="AT98" s="3">
         <v>1.026</v>
       </c>
+      <c r="AU98" s="10"/>
+      <c r="AV98" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW98" s="10">
+        <v>51.438000000000002</v>
+      </c>
+      <c r="AX98" s="3">
+        <f t="shared" si="1"/>
+        <v>-47.878</v>
+      </c>
+      <c r="AY98" s="3">
+        <v>211119.66666666666</v>
+      </c>
     </row>
-    <row r="99" spans="2:46">
+    <row r="99" spans="2:51">
       <c r="B99" s="2">
         <v>1973.25</v>
       </c>
@@ -8818,8 +10234,22 @@
       <c r="AT99" s="3">
         <v>1.0113000000000001</v>
       </c>
+      <c r="AU99" s="10"/>
+      <c r="AV99" s="3">
+        <v>3.56</v>
+      </c>
+      <c r="AW99" s="10">
+        <v>51.485999999999997</v>
+      </c>
+      <c r="AX99" s="3">
+        <f t="shared" si="1"/>
+        <v>-47.925999999999995</v>
+      </c>
+      <c r="AY99" s="3">
+        <v>211581</v>
+      </c>
     </row>
-    <row r="100" spans="2:46">
+    <row r="100" spans="2:51">
       <c r="B100" s="2">
         <v>1973.5</v>
       </c>
@@ -8934,8 +10364,22 @@
       <c r="AT100" s="3">
         <v>0.97560000000000002</v>
       </c>
+      <c r="AU100" s="10"/>
+      <c r="AV100" s="3">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AW100" s="10">
+        <v>50.987000000000002</v>
+      </c>
+      <c r="AX100" s="3">
+        <f t="shared" si="1"/>
+        <v>-46.927</v>
+      </c>
+      <c r="AY100" s="3">
+        <v>212096.66666666666</v>
+      </c>
     </row>
-    <row r="101" spans="2:46">
+    <row r="101" spans="2:51">
       <c r="B101" s="2">
         <v>1973.75</v>
       </c>
@@ -9050,8 +10494,22 @@
       <c r="AT101" s="3">
         <v>1.2197</v>
       </c>
+      <c r="AU101" s="10"/>
+      <c r="AV101" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AW101" s="10">
+        <v>50.656999999999996</v>
+      </c>
+      <c r="AX101" s="3">
+        <f t="shared" si="1"/>
+        <v>-46.346999999999994</v>
+      </c>
+      <c r="AY101" s="3">
+        <v>212631.33333333334</v>
+      </c>
     </row>
-    <row r="102" spans="2:46">
+    <row r="102" spans="2:51">
       <c r="B102" s="2">
         <v>1974</v>
       </c>
@@ -9166,8 +10624,22 @@
       <c r="AT102" s="3">
         <v>1.1686000000000001</v>
       </c>
+      <c r="AU102" s="10"/>
+      <c r="AV102" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="AW102" s="10">
+        <v>50.554000000000002</v>
+      </c>
+      <c r="AX102" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.444000000000003</v>
+      </c>
+      <c r="AY102" s="3">
+        <v>213072.33333333334</v>
+      </c>
     </row>
-    <row r="103" spans="2:46">
+    <row r="103" spans="2:51">
       <c r="B103" s="2">
         <v>1974.25</v>
       </c>
@@ -9282,8 +10754,22 @@
       <c r="AT103" s="3">
         <v>1.6315</v>
       </c>
+      <c r="AU103" s="10"/>
+      <c r="AV103" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="AW103" s="10">
+        <v>50.420999999999999</v>
+      </c>
+      <c r="AX103" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.311</v>
+      </c>
+      <c r="AY103" s="3">
+        <v>213520</v>
+      </c>
     </row>
-    <row r="104" spans="2:46">
+    <row r="104" spans="2:51">
       <c r="B104" s="2">
         <v>1974.5</v>
       </c>
@@ -9400,8 +10886,22 @@
       <c r="AT104" s="3">
         <v>2.1772</v>
       </c>
+      <c r="AU104" s="10"/>
+      <c r="AV104" s="3">
+        <v>10.11</v>
+      </c>
+      <c r="AW104" s="10">
+        <v>49.886000000000003</v>
+      </c>
+      <c r="AX104" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.776000000000003</v>
+      </c>
+      <c r="AY104" s="3">
+        <v>214047.33333333334</v>
+      </c>
     </row>
-    <row r="105" spans="2:46">
+    <row r="105" spans="2:51">
       <c r="B105" s="2">
         <v>1974.75</v>
       </c>
@@ -9516,8 +11016,22 @@
       <c r="AT105" s="3">
         <v>2.1158999999999999</v>
       </c>
+      <c r="AU105" s="10"/>
+      <c r="AV105" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="AW105" s="10">
+        <v>50.328000000000003</v>
+      </c>
+      <c r="AX105" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.168000000000006</v>
+      </c>
+      <c r="AY105" s="3">
+        <v>214619.33333333334</v>
+      </c>
     </row>
-    <row r="106" spans="2:46">
+    <row r="106" spans="2:51">
       <c r="B106" s="2">
         <v>1975</v>
       </c>
@@ -9632,8 +11146,22 @@
       <c r="AT106" s="3">
         <v>1.5933999999999999</v>
       </c>
+      <c r="AU106" s="10"/>
+      <c r="AV106" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="AW106" s="10">
+        <v>50.726999999999997</v>
+      </c>
+      <c r="AX106" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.566999999999993</v>
+      </c>
+      <c r="AY106" s="3">
+        <v>215064.66666666666</v>
+      </c>
     </row>
-    <row r="107" spans="2:46">
+    <row r="107" spans="2:51">
       <c r="B107" s="2">
         <v>1975.25</v>
       </c>
@@ -9748,8 +11276,22 @@
       <c r="AT107" s="3">
         <v>1.4368000000000001</v>
       </c>
+      <c r="AU107" s="10"/>
+      <c r="AV107" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="AW107" s="10">
+        <v>51.573999999999998</v>
+      </c>
+      <c r="AX107" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.414000000000001</v>
+      </c>
+      <c r="AY107" s="3">
+        <v>215548</v>
+      </c>
     </row>
-    <row r="108" spans="2:46">
+    <row r="108" spans="2:51">
       <c r="B108" s="2">
         <v>1975.5</v>
       </c>
@@ -9864,8 +11406,22 @@
       <c r="AT108" s="3">
         <v>1.3525</v>
       </c>
+      <c r="AU108" s="10"/>
+      <c r="AV108" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="AW108" s="10">
+        <v>52.158000000000001</v>
+      </c>
+      <c r="AX108" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.998000000000005</v>
+      </c>
+      <c r="AY108" s="3">
+        <v>216187</v>
+      </c>
     </row>
-    <row r="109" spans="2:46">
+    <row r="109" spans="2:51">
       <c r="B109" s="2">
         <v>1975.75</v>
       </c>
@@ -9980,8 +11536,22 @@
       <c r="AT109" s="3">
         <v>1.1652</v>
       </c>
+      <c r="AU109" s="10"/>
+      <c r="AV109" s="3">
+        <v>11.16</v>
+      </c>
+      <c r="AW109" s="10">
+        <v>52.207999999999998</v>
+      </c>
+      <c r="AX109" s="3">
+        <f t="shared" si="1"/>
+        <v>-41.048000000000002</v>
+      </c>
+      <c r="AY109" s="3">
+        <v>216763</v>
+      </c>
     </row>
-    <row r="110" spans="2:46">
+    <row r="110" spans="2:51">
       <c r="B110" s="2">
         <v>1976</v>
       </c>
@@ -10096,8 +11666,22 @@
       <c r="AT110" s="3">
         <v>1.0137</v>
       </c>
+      <c r="AU110" s="10"/>
+      <c r="AV110" s="3">
+        <v>11.763333333333334</v>
+      </c>
+      <c r="AW110" s="10">
+        <v>52.976999999999997</v>
+      </c>
+      <c r="AX110" s="3">
+        <f t="shared" si="1"/>
+        <v>-41.213666666666661</v>
+      </c>
+      <c r="AY110" s="3">
+        <v>217241.66666666666</v>
+      </c>
     </row>
-    <row r="111" spans="2:46">
+    <row r="111" spans="2:51">
       <c r="B111" s="2">
         <v>1976.25</v>
       </c>
@@ -10212,8 +11796,22 @@
       <c r="AT111" s="3">
         <v>0.99609999999999999</v>
       </c>
+      <c r="AU111" s="10"/>
+      <c r="AV111" s="3">
+        <v>12.17</v>
+      </c>
+      <c r="AW111" s="10">
+        <v>53.485999999999997</v>
+      </c>
+      <c r="AX111" s="3">
+        <f t="shared" si="1"/>
+        <v>-41.315999999999995</v>
+      </c>
+      <c r="AY111" s="3">
+        <v>217691.33333333334</v>
+      </c>
     </row>
-    <row r="112" spans="2:46">
+    <row r="112" spans="2:51">
       <c r="B112" s="2">
         <v>1976.5</v>
       </c>
@@ -10328,8 +11926,22 @@
       <c r="AT112" s="3">
         <v>0.89380000000000004</v>
       </c>
+      <c r="AU112" s="10"/>
+      <c r="AV112" s="3">
+        <v>12.746666666666666</v>
+      </c>
+      <c r="AW112" s="10">
+        <v>53.582999999999998</v>
+      </c>
+      <c r="AX112" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.836333333333329</v>
+      </c>
+      <c r="AY112" s="3">
+        <v>218236</v>
+      </c>
     </row>
-    <row r="113" spans="2:46">
+    <row r="113" spans="2:51">
       <c r="B113" s="2">
         <v>1976.75</v>
       </c>
@@ -10444,8 +12056,22 @@
       <c r="AT113" s="3">
         <v>0.95240000000000002</v>
       </c>
+      <c r="AU113" s="10"/>
+      <c r="AV113" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="AW113" s="10">
+        <v>53.756999999999998</v>
+      </c>
+      <c r="AX113" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.856999999999999</v>
+      </c>
+      <c r="AY113" s="3">
+        <v>218828</v>
+      </c>
     </row>
-    <row r="114" spans="2:46">
+    <row r="114" spans="2:51">
       <c r="B114" s="2">
         <v>1977</v>
       </c>
@@ -10560,8 +12186,22 @@
       <c r="AT114" s="3">
         <v>0.90690000000000004</v>
       </c>
+      <c r="AU114" s="10"/>
+      <c r="AV114" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="AW114" s="10">
+        <v>54.082000000000001</v>
+      </c>
+      <c r="AX114" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.182000000000002</v>
+      </c>
+      <c r="AY114" s="3">
+        <v>219342.33333333334</v>
+      </c>
     </row>
-    <row r="115" spans="2:46">
+    <row r="115" spans="2:51">
       <c r="B115" s="2">
         <v>1977.25</v>
       </c>
@@ -10676,8 +12316,22 @@
       <c r="AT115" s="3">
         <v>0.84830000000000005</v>
       </c>
+      <c r="AU115" s="10"/>
+      <c r="AV115" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="AW115" s="10">
+        <v>54.314</v>
+      </c>
+      <c r="AX115" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.414000000000001</v>
+      </c>
+      <c r="AY115" s="3">
+        <v>219863</v>
+      </c>
     </row>
-    <row r="116" spans="2:46">
+    <row r="116" spans="2:51">
       <c r="B116" s="2">
         <v>1977.5</v>
       </c>
@@ -10792,8 +12446,22 @@
       <c r="AT116" s="3">
         <v>0.96399999999999997</v>
       </c>
+      <c r="AU116" s="10"/>
+      <c r="AV116" s="3">
+        <v>14.533333333333333</v>
+      </c>
+      <c r="AW116" s="10">
+        <v>54.853999999999999</v>
+      </c>
+      <c r="AX116" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.320666666666668</v>
+      </c>
+      <c r="AY116" s="3">
+        <v>220461.66666666666</v>
+      </c>
     </row>
-    <row r="117" spans="2:46">
+    <row r="117" spans="2:51">
       <c r="B117" s="2">
         <v>1977.75</v>
       </c>
@@ -10908,8 +12576,22 @@
       <c r="AT117" s="3">
         <v>0.88529999999999998</v>
       </c>
+      <c r="AU117" s="10"/>
+      <c r="AV117" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="AW117" s="10">
+        <v>54.15</v>
+      </c>
+      <c r="AX117" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="AY117" s="3">
+        <v>221105.33333333334</v>
+      </c>
     </row>
-    <row r="118" spans="2:46">
+    <row r="118" spans="2:51">
       <c r="B118" s="2">
         <v>1978</v>
       </c>
@@ -11024,8 +12706,22 @@
       <c r="AT118" s="3">
         <v>0.74839999999999995</v>
       </c>
+      <c r="AU118" s="10"/>
+      <c r="AV118" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="AW118" s="10">
+        <v>54.185000000000002</v>
+      </c>
+      <c r="AX118" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.335000000000001</v>
+      </c>
+      <c r="AY118" s="3">
+        <v>221632.66666666666</v>
+      </c>
     </row>
-    <row r="119" spans="2:46">
+    <row r="119" spans="2:51">
       <c r="B119" s="2">
         <v>1978.25</v>
       </c>
@@ -11143,8 +12839,22 @@
       <c r="AT119" s="3">
         <v>0.69720000000000004</v>
       </c>
+      <c r="AU119" s="10"/>
+      <c r="AV119" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="AW119" s="10">
+        <v>55.247999999999998</v>
+      </c>
+      <c r="AX119" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.397999999999996</v>
+      </c>
+      <c r="AY119" s="3">
+        <v>222182</v>
+      </c>
     </row>
-    <row r="120" spans="2:46">
+    <row r="120" spans="2:51">
       <c r="B120" s="2">
         <v>1978.5</v>
       </c>
@@ -11262,8 +12972,22 @@
       <c r="AT120" s="3">
         <v>0.61029999999999995</v>
       </c>
+      <c r="AU120" s="10"/>
+      <c r="AV120" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="AW120" s="10">
+        <v>55.25</v>
+      </c>
+      <c r="AX120" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.4</v>
+      </c>
+      <c r="AY120" s="3">
+        <v>222814.33333333334</v>
+      </c>
     </row>
-    <row r="121" spans="2:46">
+    <row r="121" spans="2:51">
       <c r="B121" s="2">
         <v>1978.75</v>
       </c>
@@ -11381,8 +13105,22 @@
       <c r="AT121" s="3">
         <v>0.63759999999999994</v>
       </c>
+      <c r="AU121" s="10"/>
+      <c r="AV121" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="AW121" s="10">
+        <v>55.597999999999999</v>
+      </c>
+      <c r="AX121" s="3">
+        <f t="shared" si="1"/>
+        <v>-40.747999999999998</v>
+      </c>
+      <c r="AY121" s="3">
+        <v>223472.66666666666</v>
+      </c>
     </row>
-    <row r="122" spans="2:46">
+    <row r="122" spans="2:51">
       <c r="B122" s="2">
         <v>1979</v>
       </c>
@@ -11500,8 +13238,22 @@
       <c r="AT122" s="3">
         <v>0.66539999999999999</v>
       </c>
+      <c r="AU122" s="10"/>
+      <c r="AV122" s="3">
+        <v>15.516666666666667</v>
+      </c>
+      <c r="AW122" s="10">
+        <v>55.101999999999997</v>
+      </c>
+      <c r="AX122" s="3">
+        <f t="shared" si="1"/>
+        <v>-39.585333333333331</v>
+      </c>
+      <c r="AY122" s="3">
+        <v>224051</v>
+      </c>
     </row>
-    <row r="123" spans="2:46">
+    <row r="123" spans="2:51">
       <c r="B123" s="2">
         <v>1979.25</v>
       </c>
@@ -11619,8 +13371,22 @@
       <c r="AT123" s="3">
         <v>0.69</v>
       </c>
+      <c r="AU123" s="10"/>
+      <c r="AV123" s="3">
+        <v>17.683333333333334</v>
+      </c>
+      <c r="AW123" s="10">
+        <v>54.95</v>
+      </c>
+      <c r="AX123" s="3">
+        <f t="shared" si="1"/>
+        <v>-37.266666666666666</v>
+      </c>
+      <c r="AY123" s="3">
+        <v>224637.66666666666</v>
+      </c>
     </row>
-    <row r="124" spans="2:46">
+    <row r="124" spans="2:51">
       <c r="B124" s="2">
         <v>1979.5</v>
       </c>
@@ -11738,8 +13504,22 @@
       <c r="AT124" s="3">
         <v>0.65900000000000003</v>
       </c>
+      <c r="AU124" s="10"/>
+      <c r="AV124" s="3">
+        <v>25.583333333333332</v>
+      </c>
+      <c r="AW124" s="10">
+        <v>54.890999999999998</v>
+      </c>
+      <c r="AX124" s="3">
+        <f t="shared" si="1"/>
+        <v>-29.307666666666666</v>
+      </c>
+      <c r="AY124" s="3">
+        <v>225299</v>
+      </c>
     </row>
-    <row r="125" spans="2:46">
+    <row r="125" spans="2:51">
       <c r="B125" s="2">
         <v>1979.75</v>
       </c>
@@ -11857,8 +13637,22 @@
       <c r="AT125" s="3">
         <v>0.77180000000000004</v>
       </c>
+      <c r="AU125" s="10"/>
+      <c r="AV125" s="3">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="AW125" s="10">
+        <v>54.843000000000004</v>
+      </c>
+      <c r="AX125" s="3">
+        <f t="shared" si="1"/>
+        <v>-24.009666666666671</v>
+      </c>
+      <c r="AY125" s="3">
+        <v>226023.66666666666</v>
+      </c>
     </row>
-    <row r="126" spans="2:46">
+    <row r="126" spans="2:51">
       <c r="B126" s="2">
         <v>1980</v>
       </c>
@@ -11976,8 +13770,22 @@
       <c r="AT126" s="3">
         <v>0.92379999999999995</v>
       </c>
+      <c r="AU126" s="10"/>
+      <c r="AV126" s="3">
+        <v>35.833333333333336</v>
+      </c>
+      <c r="AW126" s="10">
+        <v>55.103000000000002</v>
+      </c>
+      <c r="AX126" s="3">
+        <f t="shared" si="1"/>
+        <v>-19.269666666666666</v>
+      </c>
+      <c r="AY126" s="3">
+        <v>226652</v>
+      </c>
     </row>
-    <row r="127" spans="2:46">
+    <row r="127" spans="2:51">
       <c r="B127" s="2">
         <v>1980.25</v>
       </c>
@@ -12095,8 +13903,22 @@
       <c r="AT127" s="3">
         <v>0.93500000000000005</v>
       </c>
+      <c r="AU127" s="10"/>
+      <c r="AV127" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="AW127" s="10">
+        <v>54.506</v>
+      </c>
+      <c r="AX127" s="3">
+        <f t="shared" si="1"/>
+        <v>-15.006</v>
+      </c>
+      <c r="AY127" s="3">
+        <v>227278</v>
+      </c>
     </row>
-    <row r="128" spans="2:46">
+    <row r="128" spans="2:51">
       <c r="B128" s="2">
         <v>1980.5</v>
       </c>
@@ -12214,8 +14036,22 @@
       <c r="AT128" s="3">
         <v>0.8629</v>
       </c>
+      <c r="AU128" s="10"/>
+      <c r="AV128" s="3">
+        <v>37.833333333333336</v>
+      </c>
+      <c r="AW128" s="10">
+        <v>54.689</v>
+      </c>
+      <c r="AX128" s="3">
+        <f t="shared" si="1"/>
+        <v>-16.855666666666664</v>
+      </c>
+      <c r="AY128" s="3">
+        <v>227955</v>
+      </c>
     </row>
-    <row r="129" spans="2:46">
+    <row r="129" spans="2:51">
       <c r="B129" s="2">
         <v>1980.75</v>
       </c>
@@ -12333,8 +14169,22 @@
       <c r="AT129" s="3">
         <v>0.98980000000000001</v>
       </c>
+      <c r="AU129" s="10"/>
+      <c r="AV129" s="3">
+        <v>36.333333333333336</v>
+      </c>
+      <c r="AW129" s="10">
+        <v>55.298999999999999</v>
+      </c>
+      <c r="AX129" s="3">
+        <f t="shared" si="1"/>
+        <v>-18.965666666666664</v>
+      </c>
+      <c r="AY129" s="3">
+        <v>228602.66666666666</v>
+      </c>
     </row>
-    <row r="130" spans="2:46">
+    <row r="130" spans="2:51">
       <c r="B130" s="2">
         <v>1981</v>
       </c>
@@ -12452,8 +14302,22 @@
       <c r="AT130" s="3">
         <v>0.96340000000000003</v>
       </c>
+      <c r="AU130" s="10"/>
+      <c r="AV130" s="3">
+        <v>38</v>
+      </c>
+      <c r="AW130" s="10">
+        <v>56.232999999999997</v>
+      </c>
+      <c r="AX130" s="3">
+        <f t="shared" si="1"/>
+        <v>-18.232999999999997</v>
+      </c>
+      <c r="AY130" s="3">
+        <v>229077.33333333334</v>
+      </c>
     </row>
-    <row r="131" spans="2:46">
+    <row r="131" spans="2:51">
       <c r="B131" s="2">
         <v>1981.25</v>
       </c>
@@ -12571,8 +14435,22 @@
       <c r="AT131" s="3">
         <v>1.1214999999999999</v>
       </c>
+      <c r="AU131" s="10"/>
+      <c r="AV131" s="3">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="AW131" s="10">
+        <v>55.530999999999999</v>
+      </c>
+      <c r="AX131" s="3">
+        <f t="shared" si="1"/>
+        <v>-18.197666666666663</v>
+      </c>
+      <c r="AY131" s="3">
+        <v>229579.66666666666</v>
+      </c>
     </row>
-    <row r="132" spans="2:46">
+    <row r="132" spans="2:51">
       <c r="B132" s="2">
         <v>1981.5</v>
       </c>
@@ -12706,8 +14584,22 @@
       <c r="AT132" s="3">
         <v>1.1418999999999999</v>
       </c>
+      <c r="AU132" s="10"/>
+      <c r="AV132" s="3">
+        <v>36</v>
+      </c>
+      <c r="AW132" s="10">
+        <v>56</v>
+      </c>
+      <c r="AX132" s="3">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="AY132" s="3">
+        <v>230188.33333333334</v>
+      </c>
     </row>
-    <row r="133" spans="2:46">
+    <row r="133" spans="2:51">
       <c r="B133" s="2">
         <v>1981.75</v>
       </c>
@@ -12841,8 +14733,22 @@
       <c r="AT133" s="3">
         <v>1.4448000000000001</v>
       </c>
+      <c r="AU133" s="10"/>
+      <c r="AV133" s="3">
+        <v>35.333333333333336</v>
+      </c>
+      <c r="AW133" s="10">
+        <v>55.337000000000003</v>
+      </c>
+      <c r="AX133" s="3">
+        <f t="shared" si="1"/>
+        <v>-20.003666666666668</v>
+      </c>
+      <c r="AY133" s="3">
+        <v>230817.33333333334</v>
+      </c>
     </row>
-    <row r="134" spans="2:46">
+    <row r="134" spans="2:51">
       <c r="B134" s="2">
         <v>1982</v>
       </c>
@@ -12976,8 +14882,22 @@
       <c r="AT134" s="3">
         <v>1.5509999999999999</v>
       </c>
+      <c r="AU134" s="10"/>
+      <c r="AV134" s="3">
+        <v>31.296666666666667</v>
+      </c>
+      <c r="AW134" s="10">
+        <v>54.939</v>
+      </c>
+      <c r="AX134" s="3">
+        <f t="shared" ref="AX134:AX197" si="2">AV134-AW134</f>
+        <v>-23.642333333333333</v>
+      </c>
+      <c r="AY134" s="3">
+        <v>231313.33333333334</v>
+      </c>
     </row>
-    <row r="135" spans="2:46">
+    <row r="135" spans="2:51">
       <c r="B135" s="2">
         <v>1982.25</v>
       </c>
@@ -13111,8 +15031,22 @@
       <c r="AT135" s="3">
         <v>1.5548999999999999</v>
       </c>
+      <c r="AU135" s="10"/>
+      <c r="AV135" s="3">
+        <v>34.81666666666667</v>
+      </c>
+      <c r="AW135" s="10">
+        <v>55.052999999999997</v>
+      </c>
+      <c r="AX135" s="3">
+        <f t="shared" si="2"/>
+        <v>-20.236333333333327</v>
+      </c>
+      <c r="AY135" s="3">
+        <v>231815.33333333334</v>
+      </c>
     </row>
-    <row r="136" spans="2:46">
+    <row r="136" spans="2:51">
       <c r="B136" s="2">
         <v>1982.5</v>
       </c>
@@ -13246,8 +15180,22 @@
       <c r="AT136" s="3">
         <v>1.6774</v>
       </c>
+      <c r="AU136" s="10"/>
+      <c r="AV136" s="3">
+        <v>34.58</v>
+      </c>
+      <c r="AW136" s="10">
+        <v>55.158000000000001</v>
+      </c>
+      <c r="AX136" s="3">
+        <f t="shared" si="2"/>
+        <v>-20.578000000000003</v>
+      </c>
+      <c r="AY136" s="3">
+        <v>232393</v>
+      </c>
     </row>
-    <row r="137" spans="2:46">
+    <row r="137" spans="2:51">
       <c r="B137" s="2">
         <v>1982.75</v>
       </c>
@@ -13381,8 +15329,22 @@
       <c r="AT137" s="3">
         <v>1.5542</v>
       </c>
+      <c r="AU137" s="10"/>
+      <c r="AV137" s="3">
+        <v>33.85</v>
+      </c>
+      <c r="AW137" s="10">
+        <v>55.66</v>
+      </c>
+      <c r="AX137" s="3">
+        <f t="shared" si="2"/>
+        <v>-21.809999999999995</v>
+      </c>
+      <c r="AY137" s="3">
+        <v>232989.66666666666</v>
+      </c>
     </row>
-    <row r="138" spans="2:46">
+    <row r="138" spans="2:51">
       <c r="B138" s="2">
         <v>1983</v>
       </c>
@@ -13516,8 +15478,22 @@
       <c r="AT138" s="3">
         <v>1.1416999999999999</v>
       </c>
+      <c r="AU138" s="10"/>
+      <c r="AV138" s="3">
+        <v>29.653333333333332</v>
+      </c>
+      <c r="AW138" s="10">
+        <v>56.401000000000003</v>
+      </c>
+      <c r="AX138" s="3">
+        <f t="shared" si="2"/>
+        <v>-26.747666666666671</v>
+      </c>
+      <c r="AY138" s="3">
+        <v>233469.33333333334</v>
+      </c>
     </row>
-    <row r="139" spans="2:46">
+    <row r="139" spans="2:51">
       <c r="B139" s="2">
         <v>1983.25</v>
       </c>
@@ -13651,8 +15627,22 @@
       <c r="AT139" s="3">
         <v>0.89</v>
       </c>
+      <c r="AU139" s="10"/>
+      <c r="AV139" s="3">
+        <v>30.536666666666665</v>
+      </c>
+      <c r="AW139" s="10">
+        <v>57.7</v>
+      </c>
+      <c r="AX139" s="3">
+        <f t="shared" si="2"/>
+        <v>-27.163333333333338</v>
+      </c>
+      <c r="AY139" s="3">
+        <v>233940.33333333334</v>
+      </c>
     </row>
-    <row r="140" spans="2:46">
+    <row r="140" spans="2:51">
       <c r="B140" s="2">
         <v>1983.5</v>
       </c>
@@ -13786,8 +15776,22 @@
       <c r="AT140" s="3">
         <v>0.88780000000000003</v>
       </c>
+      <c r="AU140" s="10"/>
+      <c r="AV140" s="3">
+        <v>31.56</v>
+      </c>
+      <c r="AW140" s="10">
+        <v>58.115000000000002</v>
+      </c>
+      <c r="AX140" s="3">
+        <f t="shared" si="2"/>
+        <v>-26.555000000000003</v>
+      </c>
+      <c r="AY140" s="3">
+        <v>234503</v>
+      </c>
     </row>
-    <row r="141" spans="2:46">
+    <row r="141" spans="2:51">
       <c r="B141" s="2">
         <v>1983.75</v>
       </c>
@@ -13921,8 +15925,22 @@
       <c r="AT141" s="3">
         <v>0.94359999999999999</v>
       </c>
+      <c r="AU141" s="10"/>
+      <c r="AV141" s="3">
+        <v>29.83</v>
+      </c>
+      <c r="AW141" s="10">
+        <v>58.396000000000001</v>
+      </c>
+      <c r="AX141" s="3">
+        <f t="shared" si="2"/>
+        <v>-28.566000000000003</v>
+      </c>
+      <c r="AY141" s="3">
+        <v>235073.33333333334</v>
+      </c>
     </row>
-    <row r="142" spans="2:46">
+    <row r="142" spans="2:51">
       <c r="B142" s="2">
         <v>1984</v>
       </c>
@@ -14056,8 +16074,22 @@
       <c r="AT142" s="3">
         <v>0.95289999999999997</v>
       </c>
+      <c r="AU142" s="10"/>
+      <c r="AV142" s="3">
+        <v>30.198666666666668</v>
+      </c>
+      <c r="AW142" s="10">
+        <v>58.491999999999997</v>
+      </c>
+      <c r="AX142" s="3">
+        <f t="shared" si="2"/>
+        <v>-28.293333333333329</v>
+      </c>
+      <c r="AY142" s="3">
+        <v>235529</v>
+      </c>
     </row>
-    <row r="143" spans="2:46">
+    <row r="143" spans="2:51">
       <c r="B143" s="2">
         <v>1984.25</v>
       </c>
@@ -14191,8 +16223,22 @@
       <c r="AT143" s="3">
         <v>0.877</v>
       </c>
+      <c r="AU143" s="10"/>
+      <c r="AV143" s="3">
+        <v>30.368333333333332</v>
+      </c>
+      <c r="AW143" s="10">
+        <v>58.854999999999997</v>
+      </c>
+      <c r="AX143" s="3">
+        <f t="shared" si="2"/>
+        <v>-28.486666666666665</v>
+      </c>
+      <c r="AY143" s="3">
+        <v>235997.33333333334</v>
+      </c>
     </row>
-    <row r="144" spans="2:46">
+    <row r="144" spans="2:51">
       <c r="B144" s="2">
         <v>1984.5</v>
       </c>
@@ -14326,8 +16372,22 @@
       <c r="AT144" s="3">
         <v>0.95779999999999998</v>
       </c>
+      <c r="AU144" s="10"/>
+      <c r="AV144" s="3">
+        <v>29.104333333333333</v>
+      </c>
+      <c r="AW144" s="10">
+        <v>59.106000000000002</v>
+      </c>
+      <c r="AX144" s="3">
+        <f t="shared" si="2"/>
+        <v>-30.001666666666669</v>
+      </c>
+      <c r="AY144" s="3">
+        <v>236552.33333333334</v>
+      </c>
     </row>
-    <row r="145" spans="2:46">
+    <row r="145" spans="2:51">
       <c r="B145" s="2">
         <v>1984.75</v>
       </c>
@@ -14461,8 +16521,22 @@
       <c r="AT145" s="3">
         <v>0.99639999999999995</v>
       </c>
+      <c r="AU145" s="10"/>
+      <c r="AV145" s="3">
+        <v>27.430666666666667</v>
+      </c>
+      <c r="AW145" s="10">
+        <v>59.142000000000003</v>
+      </c>
+      <c r="AX145" s="3">
+        <f t="shared" si="2"/>
+        <v>-31.711333333333336</v>
+      </c>
+      <c r="AY145" s="3">
+        <v>237150.33333333334</v>
+      </c>
     </row>
-    <row r="146" spans="2:46">
+    <row r="146" spans="2:51">
       <c r="B146" s="2">
         <v>1985</v>
       </c>
@@ -14596,8 +16670,22 @@
       <c r="AT146" s="3">
         <v>1.0276000000000001</v>
       </c>
+      <c r="AU146" s="10"/>
+      <c r="AV146" s="3">
+        <v>27.05</v>
+      </c>
+      <c r="AW146" s="10">
+        <v>59.241</v>
+      </c>
+      <c r="AX146" s="3">
+        <f t="shared" si="2"/>
+        <v>-32.191000000000003</v>
+      </c>
+      <c r="AY146" s="3">
+        <v>237600.66666666666</v>
+      </c>
     </row>
-    <row r="147" spans="2:46">
+    <row r="147" spans="2:51">
       <c r="B147" s="2">
         <v>1985.25</v>
       </c>
@@ -14731,8 +16819,22 @@
       <c r="AT147" s="3">
         <v>1.1998</v>
       </c>
+      <c r="AU147" s="10"/>
+      <c r="AV147" s="3">
+        <v>27.856999999999999</v>
+      </c>
+      <c r="AW147" s="10">
+        <v>59.441000000000003</v>
+      </c>
+      <c r="AX147" s="3">
+        <f t="shared" si="2"/>
+        <v>-31.584000000000003</v>
+      </c>
+      <c r="AY147" s="3">
+        <v>238081.33333333334</v>
+      </c>
     </row>
-    <row r="148" spans="2:46">
+    <row r="148" spans="2:51">
       <c r="B148" s="2">
         <v>1985.5</v>
       </c>
@@ -14866,8 +16968,22 @@
       <c r="AT148" s="3">
         <v>1.2437</v>
       </c>
+      <c r="AU148" s="10"/>
+      <c r="AV148" s="3">
+        <v>27.791</v>
+      </c>
+      <c r="AW148" s="10">
+        <v>60.201000000000001</v>
+      </c>
+      <c r="AX148" s="3">
+        <f t="shared" si="2"/>
+        <v>-32.409999999999997</v>
+      </c>
+      <c r="AY148" s="3">
+        <v>238681</v>
+      </c>
     </row>
-    <row r="149" spans="2:46">
+    <row r="149" spans="2:51">
       <c r="B149" s="2">
         <v>1985.75</v>
       </c>
@@ -15001,8 +17117,22 @@
       <c r="AT149" s="3">
         <v>1.4291</v>
       </c>
+      <c r="AU149" s="10"/>
+      <c r="AV149" s="3">
+        <v>29.193000000000001</v>
+      </c>
+      <c r="AW149" s="10">
+        <v>60.463000000000001</v>
+      </c>
+      <c r="AX149" s="3">
+        <f t="shared" si="2"/>
+        <v>-31.27</v>
+      </c>
+      <c r="AY149" s="3">
+        <v>239299</v>
+      </c>
     </row>
-    <row r="150" spans="2:46">
+    <row r="150" spans="2:51">
       <c r="B150" s="2">
         <v>1986</v>
       </c>
@@ -15136,8 +17266,24 @@
       <c r="AT150" s="3">
         <v>1.8412999999999999</v>
       </c>
+      <c r="AU150" s="10">
+        <v>20.69</v>
+      </c>
+      <c r="AV150" s="3">
+        <v>17.001666666666665</v>
+      </c>
+      <c r="AW150" s="10">
+        <v>61.174999999999997</v>
+      </c>
+      <c r="AX150" s="3">
+        <f t="shared" si="2"/>
+        <v>-44.173333333333332</v>
+      </c>
+      <c r="AY150" s="3">
+        <v>239784.66666666666</v>
+      </c>
     </row>
-    <row r="151" spans="2:46">
+    <row r="151" spans="2:51">
       <c r="B151" s="2">
         <v>1986.25</v>
       </c>
@@ -15271,8 +17417,24 @@
       <c r="AT151" s="3">
         <v>1.972</v>
       </c>
+      <c r="AU151" s="10">
+        <v>20.23</v>
+      </c>
+      <c r="AV151" s="3">
+        <v>13.92</v>
+      </c>
+      <c r="AW151" s="10">
+        <v>61.646000000000001</v>
+      </c>
+      <c r="AX151" s="3">
+        <f t="shared" si="2"/>
+        <v>-47.725999999999999</v>
+      </c>
+      <c r="AY151" s="3">
+        <v>240274.66666666666</v>
+      </c>
     </row>
-    <row r="152" spans="2:46">
+    <row r="152" spans="2:51">
       <c r="B152" s="2">
         <v>1986.5</v>
       </c>
@@ -15406,8 +17568,24 @@
       <c r="AT152" s="3">
         <v>2.0950000000000002</v>
       </c>
+      <c r="AU152" s="10">
+        <v>20.32</v>
+      </c>
+      <c r="AV152" s="3">
+        <v>13.86</v>
+      </c>
+      <c r="AW152" s="10">
+        <v>61.944000000000003</v>
+      </c>
+      <c r="AX152" s="3">
+        <f t="shared" si="2"/>
+        <v>-48.084000000000003</v>
+      </c>
+      <c r="AY152" s="3">
+        <v>240857.66666666666</v>
+      </c>
     </row>
-    <row r="153" spans="2:46">
+    <row r="153" spans="2:51">
       <c r="B153" s="2">
         <v>1986.75</v>
       </c>
@@ -15541,8 +17719,24 @@
       <c r="AT153" s="3">
         <v>1.9807999999999999</v>
       </c>
+      <c r="AU153" s="10">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="AV153" s="3">
+        <v>15.378333333333334</v>
+      </c>
+      <c r="AW153" s="10">
+        <v>61.792999999999999</v>
+      </c>
+      <c r="AX153" s="3">
+        <f t="shared" si="2"/>
+        <v>-46.414666666666662</v>
+      </c>
+      <c r="AY153" s="3">
+        <v>241453.66666666666</v>
+      </c>
     </row>
-    <row r="154" spans="2:46">
+    <row r="154" spans="2:51">
       <c r="B154" s="2">
         <v>1987</v>
       </c>
@@ -15676,8 +17870,24 @@
       <c r="AT154" s="3">
         <v>1.8228</v>
       </c>
+      <c r="AU154" s="10">
+        <v>21.97</v>
+      </c>
+      <c r="AV154" s="3">
+        <v>18.228999999999999</v>
+      </c>
+      <c r="AW154" s="10">
+        <v>61.49</v>
+      </c>
+      <c r="AX154" s="3">
+        <f t="shared" si="2"/>
+        <v>-43.261000000000003</v>
+      </c>
+      <c r="AY154" s="3">
+        <v>241931</v>
+      </c>
     </row>
-    <row r="155" spans="2:46">
+    <row r="155" spans="2:51">
       <c r="B155" s="2">
         <v>1987.25</v>
       </c>
@@ -15811,8 +18021,24 @@
       <c r="AT155" s="3">
         <v>1.6871</v>
       </c>
+      <c r="AU155" s="10">
+        <v>24.58</v>
+      </c>
+      <c r="AV155" s="3">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="AW155" s="10">
+        <v>61.933</v>
+      </c>
+      <c r="AX155" s="3">
+        <f t="shared" si="2"/>
+        <v>-42.569000000000003</v>
+      </c>
+      <c r="AY155" s="3">
+        <v>242427.66666666666</v>
+      </c>
     </row>
-    <row r="156" spans="2:46">
+    <row r="156" spans="2:51">
       <c r="B156" s="2">
         <v>1987.5</v>
       </c>
@@ -15946,8 +18172,24 @@
       <c r="AT156" s="3">
         <v>1.6107</v>
       </c>
+      <c r="AU156" s="10">
+        <v>20.47</v>
+      </c>
+      <c r="AV156" s="3">
+        <v>20.385000000000002</v>
+      </c>
+      <c r="AW156" s="10">
+        <v>61.947000000000003</v>
+      </c>
+      <c r="AX156" s="3">
+        <f t="shared" si="2"/>
+        <v>-41.561999999999998</v>
+      </c>
+      <c r="AY156" s="3">
+        <v>243013</v>
+      </c>
     </row>
-    <row r="157" spans="2:46">
+    <row r="157" spans="2:51">
       <c r="B157" s="2">
         <v>1987.75</v>
       </c>
@@ -16081,8 +18323,24 @@
       <c r="AT157" s="3">
         <v>1.5905</v>
       </c>
+      <c r="AU157" s="10">
+        <v>49.82</v>
+      </c>
+      <c r="AV157" s="3">
+        <v>18.669666666666668</v>
+      </c>
+      <c r="AW157" s="10">
+        <v>62.481000000000002</v>
+      </c>
+      <c r="AX157" s="3">
+        <f t="shared" si="2"/>
+        <v>-43.811333333333337</v>
+      </c>
+      <c r="AY157" s="3">
+        <v>243631.33333333334</v>
+      </c>
     </row>
-    <row r="158" spans="2:46">
+    <row r="158" spans="2:51">
       <c r="B158" s="2">
         <v>1988</v>
       </c>
@@ -16216,8 +18474,24 @@
       <c r="AT158" s="3">
         <v>1.593</v>
       </c>
+      <c r="AU158" s="10">
+        <v>33.58</v>
+      </c>
+      <c r="AV158" s="3">
+        <v>16.713999999999999</v>
+      </c>
+      <c r="AW158" s="10">
+        <v>62.695999999999998</v>
+      </c>
+      <c r="AX158" s="3">
+        <f t="shared" si="2"/>
+        <v>-45.981999999999999</v>
+      </c>
+      <c r="AY158" s="3">
+        <v>244130.33333333334</v>
+      </c>
     </row>
-    <row r="159" spans="2:46">
+    <row r="159" spans="2:51">
       <c r="B159" s="2">
         <v>1988.25</v>
       </c>
@@ -16351,8 +18625,24 @@
       <c r="AT159" s="3">
         <v>1.4676</v>
       </c>
+      <c r="AU159" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="AV159" s="3">
+        <v>17.280999999999999</v>
+      </c>
+      <c r="AW159" s="10">
+        <v>62.866999999999997</v>
+      </c>
+      <c r="AX159" s="3">
+        <f t="shared" si="2"/>
+        <v>-45.585999999999999</v>
+      </c>
+      <c r="AY159" s="3">
+        <v>244620.33333333334</v>
+      </c>
     </row>
-    <row r="160" spans="2:46">
+    <row r="160" spans="2:51">
       <c r="B160" s="2">
         <v>1988.5</v>
       </c>
@@ -16486,8 +18776,24 @@
       <c r="AT160" s="3">
         <v>1.4797</v>
       </c>
+      <c r="AU160" s="10">
+        <v>22.32</v>
+      </c>
+      <c r="AV160" s="3">
+        <v>15.163</v>
+      </c>
+      <c r="AW160" s="10">
+        <v>63.052</v>
+      </c>
+      <c r="AX160" s="3">
+        <f t="shared" si="2"/>
+        <v>-47.888999999999996</v>
+      </c>
+      <c r="AY160" s="3">
+        <v>245241.66666666666</v>
+      </c>
     </row>
-    <row r="161" spans="2:46">
+    <row r="161" spans="2:51">
       <c r="B161" s="2">
         <v>1988.75</v>
       </c>
@@ -16621,8 +18927,24 @@
       <c r="AT161" s="3">
         <v>1.524</v>
       </c>
+      <c r="AU161" s="10">
+        <v>19.97</v>
+      </c>
+      <c r="AV161" s="3">
+        <v>14.680333333333333</v>
+      </c>
+      <c r="AW161" s="10">
+        <v>63.298000000000002</v>
+      </c>
+      <c r="AX161" s="3">
+        <f t="shared" si="2"/>
+        <v>-48.617666666666665</v>
+      </c>
+      <c r="AY161" s="3">
+        <v>245877.66666666666</v>
+      </c>
     </row>
-    <row r="162" spans="2:46">
+    <row r="162" spans="2:51">
       <c r="B162" s="2">
         <v>1989</v>
       </c>
@@ -16756,8 +19078,24 @@
       <c r="AT162" s="3">
         <v>1.5034000000000001</v>
       </c>
+      <c r="AU162" s="10">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="AV162" s="3">
+        <v>18.417999999999999</v>
+      </c>
+      <c r="AW162" s="10">
+        <v>63.212000000000003</v>
+      </c>
+      <c r="AX162" s="3">
+        <f t="shared" si="2"/>
+        <v>-44.794000000000004</v>
+      </c>
+      <c r="AY162" s="3">
+        <v>246377.33333333334</v>
+      </c>
     </row>
-    <row r="163" spans="2:46">
+    <row r="163" spans="2:51">
       <c r="B163" s="2">
         <v>1989.25</v>
       </c>
@@ -16891,8 +19229,24 @@
       <c r="AT163" s="3">
         <v>1.7632000000000001</v>
       </c>
+      <c r="AU163" s="10">
+        <v>17.02</v>
+      </c>
+      <c r="AV163" s="3">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="AW163" s="10">
+        <v>63.448999999999998</v>
+      </c>
+      <c r="AX163" s="3">
+        <f t="shared" si="2"/>
+        <v>-43.089999999999996</v>
+      </c>
+      <c r="AY163" s="3">
+        <v>246913.66666666666</v>
+      </c>
     </row>
-    <row r="164" spans="2:46">
+    <row r="164" spans="2:51">
       <c r="B164" s="2">
         <v>1989.5</v>
       </c>
@@ -17026,8 +19380,24 @@
       <c r="AT164" s="3">
         <v>1.7269000000000001</v>
       </c>
+      <c r="AU164" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AV164" s="3">
+        <v>19.253333333333334</v>
+      </c>
+      <c r="AW164" s="10">
+        <v>63.773000000000003</v>
+      </c>
+      <c r="AX164" s="3">
+        <f t="shared" si="2"/>
+        <v>-44.519666666666666</v>
+      </c>
+      <c r="AY164" s="3">
+        <v>247577</v>
+      </c>
     </row>
-    <row r="165" spans="2:46">
+    <row r="165" spans="2:51">
       <c r="B165" s="2">
         <v>1989.75</v>
       </c>
@@ -17161,8 +19531,24 @@
       <c r="AT165" s="3">
         <v>1.6442000000000001</v>
       </c>
+      <c r="AU165" s="10">
+        <v>20.43</v>
+      </c>
+      <c r="AV165" s="3">
+        <v>20.332999999999998</v>
+      </c>
+      <c r="AW165" s="10">
+        <v>63.795000000000002</v>
+      </c>
+      <c r="AX165" s="3">
+        <f t="shared" si="2"/>
+        <v>-43.462000000000003</v>
+      </c>
+      <c r="AY165" s="3">
+        <v>248275.66666666666</v>
+      </c>
     </row>
-    <row r="166" spans="2:46">
+    <row r="166" spans="2:51">
       <c r="B166" s="2">
         <v>1990</v>
       </c>
@@ -17298,8 +19684,24 @@
       <c r="AT166" s="3">
         <v>1.4482999999999999</v>
       </c>
+      <c r="AU166" s="10">
+        <v>21.82</v>
+      </c>
+      <c r="AV166" s="3">
+        <v>21.722333333333335</v>
+      </c>
+      <c r="AW166" s="10">
+        <v>64.331000000000003</v>
+      </c>
+      <c r="AX166" s="3">
+        <f t="shared" si="2"/>
+        <v>-42.608666666666664</v>
+      </c>
+      <c r="AY166" s="3">
+        <v>248832.66666666666</v>
+      </c>
     </row>
-    <row r="167" spans="2:46">
+    <row r="167" spans="2:51">
       <c r="B167" s="2">
         <v>1990.25</v>
       </c>
@@ -17435,8 +19837,24 @@
       <c r="AT167" s="3">
         <v>1.2152000000000001</v>
       </c>
+      <c r="AU167" s="10">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="AV167" s="3">
+        <v>17.896666666666668</v>
+      </c>
+      <c r="AW167" s="10">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="AX167" s="3">
+        <f t="shared" si="2"/>
+        <v>-46.923333333333325</v>
+      </c>
+      <c r="AY167" s="3">
+        <v>249573.33333333334</v>
+      </c>
     </row>
-    <row r="168" spans="2:46">
+    <row r="168" spans="2:51">
       <c r="B168" s="2">
         <v>1990.5</v>
       </c>
@@ -17572,8 +19990,24 @@
       <c r="AT168" s="3">
         <v>1.2535000000000001</v>
       </c>
+      <c r="AU168" s="10">
+        <v>25.14</v>
+      </c>
+      <c r="AV168" s="3">
+        <v>26.499666666666666</v>
+      </c>
+      <c r="AW168" s="10">
+        <v>65.016999999999996</v>
+      </c>
+      <c r="AX168" s="3">
+        <f t="shared" si="2"/>
+        <v>-38.517333333333326</v>
+      </c>
+      <c r="AY168" s="3">
+        <v>250440.66666666666</v>
+      </c>
     </row>
-    <row r="169" spans="2:46">
+    <row r="169" spans="2:51">
       <c r="B169" s="2">
         <v>1990.75</v>
       </c>
@@ -17709,8 +20143,24 @@
       <c r="AT169" s="3">
         <v>1.6213</v>
       </c>
+      <c r="AU169" s="10">
+        <v>26.12</v>
+      </c>
+      <c r="AV169" s="3">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="AW169" s="10">
+        <v>64.447999999999993</v>
+      </c>
+      <c r="AX169" s="3">
+        <f t="shared" si="2"/>
+        <v>-32.594999999999992</v>
+      </c>
+      <c r="AY169" s="3">
+        <v>251343</v>
+      </c>
     </row>
-    <row r="170" spans="2:46">
+    <row r="170" spans="2:51">
       <c r="B170" s="2">
         <v>1991</v>
       </c>
@@ -17846,8 +20296,24 @@
       <c r="AT170" s="3">
         <v>1.5216000000000001</v>
       </c>
+      <c r="AU170" s="10">
+        <v>22.91</v>
+      </c>
+      <c r="AV170" s="3">
+        <v>21.780666666666665</v>
+      </c>
+      <c r="AW170" s="10">
+        <v>64.616</v>
+      </c>
+      <c r="AX170" s="3">
+        <f t="shared" si="2"/>
+        <v>-42.835333333333338</v>
+      </c>
+      <c r="AY170" s="3">
+        <v>252132</v>
+      </c>
     </row>
-    <row r="171" spans="2:46">
+    <row r="171" spans="2:51">
       <c r="B171" s="2">
         <v>1991.25</v>
       </c>
@@ -17983,8 +20449,24 @@
       <c r="AT171" s="3">
         <v>1.4752000000000001</v>
       </c>
+      <c r="AU171" s="10">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AV171" s="3">
+        <v>20.752666666666666</v>
+      </c>
+      <c r="AW171" s="10">
+        <v>65.662999999999997</v>
+      </c>
+      <c r="AX171" s="3">
+        <f t="shared" si="2"/>
+        <v>-44.910333333333327</v>
+      </c>
+      <c r="AY171" s="3">
+        <v>252921</v>
+      </c>
     </row>
-    <row r="172" spans="2:46">
+    <row r="172" spans="2:51">
       <c r="B172" s="2">
         <v>1991.5</v>
       </c>
@@ -18120,8 +20602,24 @@
       <c r="AT172" s="3">
         <v>1.4875</v>
       </c>
+      <c r="AU172" s="10">
+        <v>16.87</v>
+      </c>
+      <c r="AV172" s="3">
+        <v>21.655000000000001</v>
+      </c>
+      <c r="AW172" s="10">
+        <v>66.134</v>
+      </c>
+      <c r="AX172" s="3">
+        <f t="shared" si="2"/>
+        <v>-44.478999999999999</v>
+      </c>
+      <c r="AY172" s="3">
+        <v>253808.66666666666</v>
+      </c>
     </row>
-    <row r="173" spans="2:46">
+    <row r="173" spans="2:51">
       <c r="B173" s="2">
         <v>1991.75</v>
       </c>
@@ -18257,8 +20755,24 @@
       <c r="AT173" s="3">
         <v>1.5107999999999999</v>
       </c>
+      <c r="AU173" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="AV173" s="3">
+        <v>21.736666666666668</v>
+      </c>
+      <c r="AW173" s="10">
+        <v>66.52</v>
+      </c>
+      <c r="AX173" s="3">
+        <f t="shared" si="2"/>
+        <v>-44.783333333333331</v>
+      </c>
+      <c r="AY173" s="3">
+        <v>254705.66666666666</v>
+      </c>
     </row>
-    <row r="174" spans="2:46">
+    <row r="174" spans="2:51">
       <c r="B174" s="2">
         <v>1992</v>
       </c>
@@ -18394,8 +20908,24 @@
       <c r="AT174" s="3">
         <v>1.3742000000000001</v>
       </c>
+      <c r="AU174" s="10">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="AV174" s="3">
+        <v>18.910333333333334</v>
+      </c>
+      <c r="AW174" s="10">
+        <v>67.816999999999993</v>
+      </c>
+      <c r="AX174" s="3">
+        <f t="shared" si="2"/>
+        <v>-48.906666666666659</v>
+      </c>
+      <c r="AY174" s="3">
+        <v>255455</v>
+      </c>
     </row>
-    <row r="175" spans="2:46">
+    <row r="175" spans="2:51">
       <c r="B175" s="2">
         <v>1992.25</v>
       </c>
@@ -18531,8 +21061,24 @@
       <c r="AT175" s="3">
         <v>1.3351999999999999</v>
       </c>
+      <c r="AU175" s="10">
+        <v>15.22</v>
+      </c>
+      <c r="AV175" s="3">
+        <v>21.186</v>
+      </c>
+      <c r="AW175" s="10">
+        <v>68.388000000000005</v>
+      </c>
+      <c r="AX175" s="3">
+        <f t="shared" si="2"/>
+        <v>-47.202000000000005</v>
+      </c>
+      <c r="AY175" s="3">
+        <v>256288.66666666666</v>
+      </c>
     </row>
-    <row r="176" spans="2:46">
+    <row r="176" spans="2:51">
       <c r="B176" s="2">
         <v>1992.5</v>
       </c>
@@ -18668,8 +21214,24 @@
       <c r="AT176" s="3">
         <v>1.5062</v>
       </c>
+      <c r="AU176" s="10">
+        <v>13.98</v>
+      </c>
+      <c r="AV176" s="3">
+        <v>21.670333333333332</v>
+      </c>
+      <c r="AW176" s="10">
+        <v>69.009</v>
+      </c>
+      <c r="AX176" s="3">
+        <f t="shared" si="2"/>
+        <v>-47.338666666666668</v>
+      </c>
+      <c r="AY176" s="3">
+        <v>257224.66666666666</v>
+      </c>
     </row>
-    <row r="177" spans="2:46">
+    <row r="177" spans="2:51">
       <c r="B177" s="2">
         <v>1992.75</v>
       </c>
@@ -18805,8 +21367,24 @@
       <c r="AT177" s="3">
         <v>1.4388000000000001</v>
       </c>
+      <c r="AU177" s="10">
+        <v>14.96</v>
+      </c>
+      <c r="AV177" s="3">
+        <v>20.478999999999999</v>
+      </c>
+      <c r="AW177" s="10">
+        <v>69.444000000000003</v>
+      </c>
+      <c r="AX177" s="3">
+        <f t="shared" si="2"/>
+        <v>-48.965000000000003</v>
+      </c>
+      <c r="AY177" s="3">
+        <v>258140.33333333334</v>
+      </c>
     </row>
-    <row r="178" spans="2:46">
+    <row r="178" spans="2:51">
       <c r="B178" s="2">
         <v>1993</v>
       </c>
@@ -18942,8 +21520,24 @@
       <c r="AT178" s="3">
         <v>1.4533</v>
       </c>
+      <c r="AU178" s="10">
+        <v>13.31</v>
+      </c>
+      <c r="AV178" s="3">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="AW178" s="10">
+        <v>68.897000000000006</v>
+      </c>
+      <c r="AX178" s="3">
+        <f t="shared" si="2"/>
+        <v>-49.072000000000003</v>
+      </c>
+      <c r="AY178" s="3">
+        <v>258916.66666666666</v>
+      </c>
     </row>
-    <row r="179" spans="2:46">
+    <row r="179" spans="2:51">
       <c r="B179" s="2">
         <v>1993.25</v>
       </c>
@@ -19079,8 +21673,24 @@
       <c r="AT179" s="3">
         <v>1.4012</v>
       </c>
+      <c r="AU179" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="AV179" s="3">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="AW179" s="10">
+        <v>68.501000000000005</v>
+      </c>
+      <c r="AX179" s="3">
+        <f t="shared" si="2"/>
+        <v>-48.741</v>
+      </c>
+      <c r="AY179" s="3">
+        <v>259685.66666666666</v>
+      </c>
     </row>
-    <row r="180" spans="2:46">
+    <row r="180" spans="2:51">
       <c r="B180" s="2">
         <v>1993.5</v>
       </c>
@@ -19216,8 +21826,24 @@
       <c r="AT180" s="3">
         <v>1.4315</v>
       </c>
+      <c r="AU180" s="10">
+        <v>12.15</v>
+      </c>
+      <c r="AV180" s="3">
+        <v>17.796333333333333</v>
+      </c>
+      <c r="AW180" s="10">
+        <v>68.638000000000005</v>
+      </c>
+      <c r="AX180" s="3">
+        <f t="shared" si="2"/>
+        <v>-50.841666666666669</v>
+      </c>
+      <c r="AY180" s="3">
+        <v>260562.66666666666</v>
+      </c>
     </row>
-    <row r="181" spans="2:46">
+    <row r="181" spans="2:51">
       <c r="B181" s="2">
         <v>1993.75</v>
       </c>
@@ -19353,8 +21979,24 @@
       <c r="AT181" s="3">
         <v>1.3460000000000001</v>
       </c>
+      <c r="AU181" s="10">
+        <v>11.85</v>
+      </c>
+      <c r="AV181" s="3">
+        <v>16.451333333333334</v>
+      </c>
+      <c r="AW181" s="10">
+        <v>68.991</v>
+      </c>
+      <c r="AX181" s="3">
+        <f t="shared" si="2"/>
+        <v>-52.539666666666662</v>
+      </c>
+      <c r="AY181" s="3">
+        <v>261420.66666666666</v>
+      </c>
     </row>
-    <row r="182" spans="2:46">
+    <row r="182" spans="2:51">
       <c r="B182" s="2">
         <v>1994</v>
       </c>
@@ -19490,8 +22132,24 @@
       <c r="AT182" s="3">
         <v>1.2428999999999999</v>
       </c>
+      <c r="AU182" s="10">
+        <v>12.62</v>
+      </c>
+      <c r="AV182" s="3">
+        <v>14.813333333333333</v>
+      </c>
+      <c r="AW182" s="10">
+        <v>69.241</v>
+      </c>
+      <c r="AX182" s="3">
+        <f t="shared" si="2"/>
+        <v>-54.427666666666667</v>
+      </c>
+      <c r="AY182" s="3">
+        <v>262131.33333333334</v>
+      </c>
     </row>
-    <row r="183" spans="2:46">
+    <row r="183" spans="2:51">
       <c r="B183" s="2">
         <v>1994.25</v>
       </c>
@@ -19627,8 +22285,24 @@
       <c r="AT183" s="3">
         <v>1.2508999999999999</v>
       </c>
+      <c r="AU183" s="10">
+        <v>13.83</v>
+      </c>
+      <c r="AV183" s="3">
+        <v>17.776666666666667</v>
+      </c>
+      <c r="AW183" s="10">
+        <v>69.239000000000004</v>
+      </c>
+      <c r="AX183" s="3">
+        <f t="shared" si="2"/>
+        <v>-51.462333333333333</v>
+      </c>
+      <c r="AY183" s="3">
+        <v>262886.66666666669</v>
+      </c>
     </row>
-    <row r="184" spans="2:46">
+    <row r="184" spans="2:51">
       <c r="B184" s="2">
         <v>1994.5</v>
       </c>
@@ -19764,8 +22438,24 @@
       <c r="AT184" s="3">
         <v>1.2150000000000001</v>
       </c>
+      <c r="AU184" s="10">
+        <v>12.03</v>
+      </c>
+      <c r="AV184" s="3">
+        <v>18.496666666666666</v>
+      </c>
+      <c r="AW184" s="10">
+        <v>68.869</v>
+      </c>
+      <c r="AX184" s="3">
+        <f t="shared" si="2"/>
+        <v>-50.37233333333333</v>
+      </c>
+      <c r="AY184" s="3">
+        <v>263725.66666666669</v>
+      </c>
     </row>
-    <row r="185" spans="2:46">
+    <row r="185" spans="2:51">
       <c r="B185" s="2">
         <v>1994.75</v>
       </c>
@@ -19901,8 +22591,24 @@
       <c r="AT185" s="3">
         <v>1.2815000000000001</v>
       </c>
+      <c r="AU185" s="10">
+        <v>15.04</v>
+      </c>
+      <c r="AV185" s="3">
+        <v>17.656666666666666</v>
+      </c>
+      <c r="AW185" s="10">
+        <v>69.682000000000002</v>
+      </c>
+      <c r="AX185" s="3">
+        <f t="shared" si="2"/>
+        <v>-52.025333333333336</v>
+      </c>
+      <c r="AY185" s="3">
+        <v>264554.66666666669</v>
+      </c>
     </row>
-    <row r="186" spans="2:46">
+    <row r="186" spans="2:51">
       <c r="B186" s="2">
         <v>1995</v>
       </c>
@@ -20038,8 +22744,24 @@
       <c r="AT186" s="3">
         <v>1.2770999999999999</v>
       </c>
+      <c r="AU186" s="10">
+        <v>11.65</v>
+      </c>
+      <c r="AV186" s="3">
+        <v>18.356666666666666</v>
+      </c>
+      <c r="AW186" s="10">
+        <v>69.686000000000007</v>
+      </c>
+      <c r="AX186" s="3">
+        <f t="shared" si="2"/>
+        <v>-51.329333333333338</v>
+      </c>
+      <c r="AY186" s="3">
+        <v>265269.66666666669</v>
+      </c>
     </row>
-    <row r="187" spans="2:46">
+    <row r="187" spans="2:51">
       <c r="B187" s="2">
         <v>1995.25</v>
       </c>
@@ -20175,8 +22897,24 @@
       <c r="AT187" s="3">
         <v>1.3073999999999999</v>
       </c>
+      <c r="AU187" s="10">
+        <v>12.73</v>
+      </c>
+      <c r="AV187" s="3">
+        <v>19.343333333333334</v>
+      </c>
+      <c r="AW187" s="10">
+        <v>70.025000000000006</v>
+      </c>
+      <c r="AX187" s="3">
+        <f t="shared" si="2"/>
+        <v>-50.681666666666672</v>
+      </c>
+      <c r="AY187" s="3">
+        <v>266007.66666666669</v>
+      </c>
     </row>
-    <row r="188" spans="2:46">
+    <row r="188" spans="2:51">
       <c r="B188" s="2">
         <v>1995.5</v>
       </c>
@@ -20312,8 +23050,24 @@
       <c r="AT188" s="3">
         <v>1.3132999999999999</v>
       </c>
+      <c r="AU188" s="10">
+        <v>13.23</v>
+      </c>
+      <c r="AV188" s="3">
+        <v>17.853333333333332</v>
+      </c>
+      <c r="AW188" s="10">
+        <v>70.016000000000005</v>
+      </c>
+      <c r="AX188" s="3">
+        <f t="shared" si="2"/>
+        <v>-52.162666666666674</v>
+      </c>
+      <c r="AY188" s="3">
+        <v>266850.66666666669</v>
+      </c>
     </row>
-    <row r="189" spans="2:46">
+    <row r="189" spans="2:51">
       <c r="B189" s="2">
         <v>1995.75</v>
       </c>
@@ -20449,8 +23203,24 @@
       <c r="AT189" s="3">
         <v>1.4167000000000001</v>
       </c>
+      <c r="AU189" s="10">
+        <v>13.19</v>
+      </c>
+      <c r="AV189" s="3">
+        <v>18.156666666666666</v>
+      </c>
+      <c r="AW189" s="10">
+        <v>70.457999999999998</v>
+      </c>
+      <c r="AX189" s="3">
+        <f t="shared" si="2"/>
+        <v>-52.301333333333332</v>
+      </c>
+      <c r="AY189" s="3">
+        <v>267704.66666666669</v>
+      </c>
     </row>
-    <row r="190" spans="2:46">
+    <row r="190" spans="2:51">
       <c r="B190" s="2">
         <v>1996</v>
       </c>
@@ -20586,8 +23356,24 @@
       <c r="AT190" s="3">
         <v>1.3314999999999999</v>
       </c>
+      <c r="AU190" s="10">
+        <v>16.46</v>
+      </c>
+      <c r="AV190" s="3">
+        <v>19.77</v>
+      </c>
+      <c r="AW190" s="10">
+        <v>70.832999999999998</v>
+      </c>
+      <c r="AX190" s="3">
+        <f t="shared" si="2"/>
+        <v>-51.063000000000002</v>
+      </c>
+      <c r="AY190" s="3">
+        <v>268370</v>
+      </c>
     </row>
-    <row r="191" spans="2:46">
+    <row r="191" spans="2:51">
       <c r="B191" s="2">
         <v>1996.25</v>
       </c>
@@ -20723,8 +23509,24 @@
       <c r="AT191" s="3">
         <v>1.2784</v>
       </c>
+      <c r="AU191" s="10">
+        <v>17.37</v>
+      </c>
+      <c r="AV191" s="3">
+        <v>21.756666666666668</v>
+      </c>
+      <c r="AW191" s="10">
+        <v>71.563000000000002</v>
+      </c>
+      <c r="AX191" s="3">
+        <f t="shared" si="2"/>
+        <v>-49.806333333333335</v>
+      </c>
+      <c r="AY191" s="3">
+        <v>269115.66666666669</v>
+      </c>
     </row>
-    <row r="192" spans="2:46">
+    <row r="192" spans="2:51">
       <c r="B192" s="2">
         <v>1996.5</v>
       </c>
@@ -20860,8 +23662,24 @@
       <c r="AT192" s="3">
         <v>1.2848999999999999</v>
       </c>
+      <c r="AU192" s="10">
+        <v>17.71</v>
+      </c>
+      <c r="AV192" s="3">
+        <v>22.423333333333332</v>
+      </c>
+      <c r="AW192" s="10">
+        <v>71.838999999999999</v>
+      </c>
+      <c r="AX192" s="3">
+        <f t="shared" si="2"/>
+        <v>-49.415666666666667</v>
+      </c>
+      <c r="AY192" s="3">
+        <v>269975.66666666669</v>
+      </c>
     </row>
-    <row r="193" spans="2:46">
+    <row r="193" spans="2:51">
       <c r="B193" s="2">
         <v>1996.75</v>
       </c>
@@ -20997,8 +23815,24 @@
       <c r="AT193" s="3">
         <v>1.3058000000000001</v>
       </c>
+      <c r="AU193" s="10">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="AV193" s="3">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="AW193" s="10">
+        <v>71.929000000000002</v>
+      </c>
+      <c r="AX193" s="3">
+        <f t="shared" si="2"/>
+        <v>-47.262333333333331</v>
+      </c>
+      <c r="AY193" s="3">
+        <v>270861.33333333331</v>
+      </c>
     </row>
-    <row r="194" spans="2:46">
+    <row r="194" spans="2:51">
       <c r="B194" s="2">
         <v>1997</v>
       </c>
@@ -21134,8 +23968,24 @@
       <c r="AT194" s="3">
         <v>1.2424999999999999</v>
       </c>
+      <c r="AU194" s="10">
+        <v>21.64</v>
+      </c>
+      <c r="AV194" s="3">
+        <v>22.79</v>
+      </c>
+      <c r="AW194" s="10">
+        <v>71.881</v>
+      </c>
+      <c r="AX194" s="3">
+        <f t="shared" si="2"/>
+        <v>-49.091000000000001</v>
+      </c>
+      <c r="AY194" s="3">
+        <v>271588.66666666669</v>
+      </c>
     </row>
-    <row r="195" spans="2:46">
+    <row r="195" spans="2:51">
       <c r="B195" s="2">
         <v>1997.25</v>
       </c>
@@ -21271,8 +24121,24 @@
       <c r="AT195" s="3">
         <v>1.1975</v>
       </c>
+      <c r="AU195" s="10">
+        <v>22.05</v>
+      </c>
+      <c r="AV195" s="3">
+        <v>19.906666666666666</v>
+      </c>
+      <c r="AW195" s="10">
+        <v>72.822000000000003</v>
+      </c>
+      <c r="AX195" s="3">
+        <f t="shared" si="2"/>
+        <v>-52.915333333333336</v>
+      </c>
+      <c r="AY195" s="3">
+        <v>272349</v>
+      </c>
     </row>
-    <row r="196" spans="2:46">
+    <row r="196" spans="2:51">
       <c r="B196" s="2">
         <v>1997.5</v>
       </c>
@@ -21408,8 +24274,24 @@
       <c r="AT196" s="3">
         <v>1.2225999999999999</v>
       </c>
+      <c r="AU196" s="10">
+        <v>24.64</v>
+      </c>
+      <c r="AV196" s="3">
+        <v>19.783333333333335</v>
+      </c>
+      <c r="AW196" s="10">
+        <v>73.438999999999993</v>
+      </c>
+      <c r="AX196" s="3">
+        <f t="shared" si="2"/>
+        <v>-53.655666666666662</v>
+      </c>
+      <c r="AY196" s="3">
+        <v>273234</v>
+      </c>
     </row>
-    <row r="197" spans="2:46">
+    <row r="197" spans="2:51">
       <c r="B197" s="2">
         <v>1997.75</v>
       </c>
@@ -21545,8 +24427,24 @@
       <c r="AT197" s="3">
         <v>1.3562000000000001</v>
       </c>
+      <c r="AU197" s="10">
+        <v>27.67</v>
+      </c>
+      <c r="AV197" s="3">
+        <v>19.916666666666668</v>
+      </c>
+      <c r="AW197" s="10">
+        <v>73.745000000000005</v>
+      </c>
+      <c r="AX197" s="3">
+        <f t="shared" si="2"/>
+        <v>-53.828333333333333</v>
+      </c>
+      <c r="AY197" s="3">
+        <v>274116.66666666669</v>
+      </c>
     </row>
-    <row r="198" spans="2:46">
+    <row r="198" spans="2:51">
       <c r="B198" s="2">
         <v>1998</v>
       </c>
@@ -21682,8 +24580,24 @@
       <c r="AT198" s="3">
         <v>1.3443000000000001</v>
       </c>
+      <c r="AU198" s="10">
+        <v>21.78</v>
+      </c>
+      <c r="AV198" s="3">
+        <v>15.93</v>
+      </c>
+      <c r="AW198" s="10">
+        <v>74.150999999999996</v>
+      </c>
+      <c r="AX198" s="3">
+        <f t="shared" ref="AX198:AX261" si="3">AV198-AW198</f>
+        <v>-58.220999999999997</v>
+      </c>
+      <c r="AY198" s="3">
+        <v>274837</v>
+      </c>
     </row>
-    <row r="199" spans="2:46">
+    <row r="199" spans="2:51">
       <c r="B199" s="2">
         <v>1998.25</v>
       </c>
@@ -21819,8 +24733,24 @@
       <c r="AT199" s="3">
         <v>1.3249</v>
       </c>
+      <c r="AU199" s="10">
+        <v>22</v>
+      </c>
+      <c r="AV199" s="3">
+        <v>14.653333333333332</v>
+      </c>
+      <c r="AW199" s="10">
+        <v>74.617000000000004</v>
+      </c>
+      <c r="AX199" s="3">
+        <f t="shared" si="3"/>
+        <v>-59.963666666666668</v>
+      </c>
+      <c r="AY199" s="3">
+        <v>275568</v>
+      </c>
     </row>
-    <row r="200" spans="2:46">
+    <row r="200" spans="2:51">
       <c r="B200" s="2">
         <v>1998.5</v>
       </c>
@@ -21956,8 +24886,24 @@
       <c r="AT200" s="3">
         <v>2.0169000000000001</v>
       </c>
+      <c r="AU200" s="10">
+        <v>30.17</v>
+      </c>
+      <c r="AV200" s="3">
+        <v>14.13</v>
+      </c>
+      <c r="AW200" s="10">
+        <v>75.667000000000002</v>
+      </c>
+      <c r="AX200" s="3">
+        <f t="shared" si="3"/>
+        <v>-61.536999999999999</v>
+      </c>
+      <c r="AY200" s="3">
+        <v>276415.66666666669</v>
+      </c>
     </row>
-    <row r="201" spans="2:46">
+    <row r="201" spans="2:51">
       <c r="B201" s="2">
         <v>1998.75</v>
       </c>
@@ -22093,8 +25039,24 @@
       <c r="AT201" s="3">
         <v>2.1269</v>
       </c>
+      <c r="AU201" s="10">
+        <v>29.46</v>
+      </c>
+      <c r="AV201" s="3">
+        <v>12.84</v>
+      </c>
+      <c r="AW201" s="10">
+        <v>76.296000000000006</v>
+      </c>
+      <c r="AX201" s="3">
+        <f t="shared" si="3"/>
+        <v>-63.456000000000003</v>
+      </c>
+      <c r="AY201" s="3">
+        <v>277268.66666666669</v>
+      </c>
     </row>
-    <row r="202" spans="2:46">
+    <row r="202" spans="2:51">
       <c r="B202" s="2">
         <v>1999</v>
       </c>
@@ -22230,8 +25192,24 @@
       <c r="AT202" s="3">
         <v>1.833</v>
       </c>
+      <c r="AU202" s="10">
+        <v>28.22</v>
+      </c>
+      <c r="AV202" s="3">
+        <v>13.046666666666667</v>
+      </c>
+      <c r="AW202" s="10">
+        <v>77.126000000000005</v>
+      </c>
+      <c r="AX202" s="3">
+        <f t="shared" si="3"/>
+        <v>-64.079333333333338</v>
+      </c>
+      <c r="AY202" s="3">
+        <v>277993.33333333331</v>
+      </c>
     </row>
-    <row r="203" spans="2:46">
+    <row r="203" spans="2:51">
       <c r="B203" s="2">
         <v>1999.25</v>
       </c>
@@ -22367,8 +25345,24 @@
       <c r="AT203" s="3">
         <v>1.7621</v>
       </c>
+      <c r="AU203" s="10">
+        <v>25.35</v>
+      </c>
+      <c r="AV203" s="3">
+        <v>17.66</v>
+      </c>
+      <c r="AW203" s="10">
+        <v>77.364999999999995</v>
+      </c>
+      <c r="AX203" s="3">
+        <f t="shared" si="3"/>
+        <v>-59.704999999999998</v>
+      </c>
+      <c r="AY203" s="3">
+        <v>278723</v>
+      </c>
     </row>
-    <row r="204" spans="2:46">
+    <row r="204" spans="2:51">
       <c r="B204" s="2">
         <v>1999.5</v>
       </c>
@@ -22504,8 +25498,24 @@
       <c r="AT204" s="3">
         <v>2.0268999999999999</v>
       </c>
+      <c r="AU204" s="10">
+        <v>23.99</v>
+      </c>
+      <c r="AV204" s="3">
+        <v>21.736666666666668</v>
+      </c>
+      <c r="AW204" s="10">
+        <v>78.042000000000002</v>
+      </c>
+      <c r="AX204" s="3">
+        <f t="shared" si="3"/>
+        <v>-56.305333333333337</v>
+      </c>
+      <c r="AY204" s="3">
+        <v>279600</v>
+      </c>
     </row>
-    <row r="205" spans="2:46">
+    <row r="205" spans="2:51">
       <c r="B205" s="2">
         <v>1999.75</v>
       </c>
@@ -22641,8 +25651,24 @@
       <c r="AT205" s="3">
         <v>2.0446</v>
       </c>
+      <c r="AU205" s="10">
+        <v>23.6</v>
+      </c>
+      <c r="AV205" s="3">
+        <v>24.563333333333333</v>
+      </c>
+      <c r="AW205" s="10">
+        <v>79.302000000000007</v>
+      </c>
+      <c r="AX205" s="3">
+        <f t="shared" si="3"/>
+        <v>-54.738666666666674</v>
+      </c>
+      <c r="AY205" s="3">
+        <v>280463.33333333331</v>
+      </c>
     </row>
-    <row r="206" spans="2:46">
+    <row r="206" spans="2:51">
       <c r="B206" s="2">
         <v>2000</v>
       </c>
@@ -22778,8 +25804,24 @@
       <c r="AT206" s="3">
         <v>2.3315999999999999</v>
       </c>
+      <c r="AU206" s="10">
+        <v>25.04</v>
+      </c>
+      <c r="AV206" s="3">
+        <v>28.806666666666668</v>
+      </c>
+      <c r="AW206" s="10">
+        <v>78.915999999999997</v>
+      </c>
+      <c r="AX206" s="3">
+        <f t="shared" si="3"/>
+        <v>-50.109333333333325</v>
+      </c>
+      <c r="AY206" s="3">
+        <v>281191.66666666669</v>
+      </c>
     </row>
-    <row r="207" spans="2:46">
+    <row r="207" spans="2:51">
       <c r="B207" s="2">
         <v>2000.25</v>
       </c>
@@ -22915,8 +25957,24 @@
       <c r="AT207" s="3">
         <v>2.835</v>
       </c>
+      <c r="AU207" s="10">
+        <v>27.77</v>
+      </c>
+      <c r="AV207" s="3">
+        <v>28.783333333333335</v>
+      </c>
+      <c r="AW207" s="10">
+        <v>80.486000000000004</v>
+      </c>
+      <c r="AX207" s="3">
+        <f t="shared" si="3"/>
+        <v>-51.702666666666673</v>
+      </c>
+      <c r="AY207" s="3">
+        <v>281885.33333333331</v>
+      </c>
     </row>
-    <row r="208" spans="2:46">
+    <row r="208" spans="2:51">
       <c r="B208" s="2">
         <v>2000.5</v>
       </c>
@@ -23052,8 +26110,24 @@
       <c r="AT208" s="3">
         <v>3.2391999999999999</v>
       </c>
+      <c r="AU208" s="10">
+        <v>21.76</v>
+      </c>
+      <c r="AV208" s="3">
+        <v>31.623333333333335</v>
+      </c>
+      <c r="AW208" s="10">
+        <v>80.447999999999993</v>
+      </c>
+      <c r="AX208" s="3">
+        <f t="shared" si="3"/>
+        <v>-48.824666666666658</v>
+      </c>
+      <c r="AY208" s="3">
+        <v>282656.66666666669</v>
+      </c>
     </row>
-    <row r="209" spans="2:46">
+    <row r="209" spans="2:51">
       <c r="B209" s="2">
         <v>2000.75</v>
       </c>
@@ -23189,8 +26263,24 @@
       <c r="AT209" s="3">
         <v>3.6334</v>
       </c>
+      <c r="AU209" s="10">
+        <v>29.09</v>
+      </c>
+      <c r="AV209" s="3">
+        <v>31.98</v>
+      </c>
+      <c r="AW209" s="10">
+        <v>81.257000000000005</v>
+      </c>
+      <c r="AX209" s="3">
+        <f t="shared" si="3"/>
+        <v>-49.277000000000001</v>
+      </c>
+      <c r="AY209" s="3">
+        <v>283450</v>
+      </c>
     </row>
-    <row r="210" spans="2:46">
+    <row r="210" spans="2:51">
       <c r="B210" s="2">
         <v>2001</v>
       </c>
@@ -23326,8 +26416,24 @@
       <c r="AT210" s="3">
         <v>3.2886000000000002</v>
       </c>
+      <c r="AU210" s="10">
+        <v>28.93</v>
+      </c>
+      <c r="AV210" s="3">
+        <v>28.81</v>
+      </c>
+      <c r="AW210" s="10">
+        <v>80.929000000000002</v>
+      </c>
+      <c r="AX210" s="3">
+        <f t="shared" si="3"/>
+        <v>-52.119</v>
+      </c>
+      <c r="AY210" s="3">
+        <v>284135.66666666669</v>
+      </c>
     </row>
-    <row r="211" spans="2:46">
+    <row r="211" spans="2:51">
       <c r="B211" s="2">
         <v>2001.25</v>
       </c>
@@ -23463,8 +26569,24 @@
       <c r="AT211" s="3">
         <v>3.1236000000000002</v>
       </c>
+      <c r="AU211" s="10">
+        <v>27.12</v>
+      </c>
+      <c r="AV211" s="3">
+        <v>27.883333333333333</v>
+      </c>
+      <c r="AW211" s="10">
+        <v>82.302000000000007</v>
+      </c>
+      <c r="AX211" s="3">
+        <f t="shared" si="3"/>
+        <v>-54.418666666666674</v>
+      </c>
+      <c r="AY211" s="3">
+        <v>284817.66666666669</v>
+      </c>
     </row>
-    <row r="212" spans="2:46">
+    <row r="212" spans="2:51">
       <c r="B212" s="2">
         <v>2001.5</v>
       </c>
@@ -23600,8 +26722,24 @@
       <c r="AT212" s="3">
         <v>3.3347000000000002</v>
       </c>
+      <c r="AU212" s="10">
+        <v>28.09</v>
+      </c>
+      <c r="AV212" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="AW212" s="10">
+        <v>82.731999999999999</v>
+      </c>
+      <c r="AX212" s="3">
+        <f t="shared" si="3"/>
+        <v>-56.131999999999998</v>
+      </c>
+      <c r="AY212" s="3">
+        <v>285574</v>
+      </c>
     </row>
-    <row r="213" spans="2:46">
+    <row r="213" spans="2:51">
       <c r="B213" s="2">
         <v>2001.75</v>
       </c>
@@ -23737,8 +26875,24 @@
       <c r="AT213" s="3">
         <v>3.0945</v>
       </c>
+      <c r="AU213" s="10">
+        <v>29.3</v>
+      </c>
+      <c r="AV213" s="3">
+        <v>20.403333333333332</v>
+      </c>
+      <c r="AW213" s="10">
+        <v>83.781999999999996</v>
+      </c>
+      <c r="AX213" s="3">
+        <f t="shared" si="3"/>
+        <v>-63.37866666666666</v>
+      </c>
+      <c r="AY213" s="3">
+        <v>286336.33333333331</v>
+      </c>
     </row>
-    <row r="214" spans="2:46">
+    <row r="214" spans="2:51">
       <c r="B214" s="2">
         <v>2002</v>
       </c>
@@ -23874,8 +27028,24 @@
       <c r="AT214" s="3">
         <v>2.7568000000000001</v>
       </c>
+      <c r="AU214" s="10">
+        <v>23.15</v>
+      </c>
+      <c r="AV214" s="3">
+        <v>21.61</v>
+      </c>
+      <c r="AW214" s="10">
+        <v>85.677000000000007</v>
+      </c>
+      <c r="AX214" s="3">
+        <f t="shared" si="3"/>
+        <v>-64.067000000000007</v>
+      </c>
+      <c r="AY214" s="3">
+        <v>286990.66666666669</v>
+      </c>
     </row>
-    <row r="215" spans="2:46">
+    <row r="215" spans="2:51">
       <c r="B215" s="2">
         <v>2002.25</v>
       </c>
@@ -24011,8 +27181,24 @@
       <c r="AT215" s="3">
         <v>3.1526999999999998</v>
       </c>
+      <c r="AU215" s="10">
+        <v>24.22</v>
+      </c>
+      <c r="AV215" s="3">
+        <v>26.27</v>
+      </c>
+      <c r="AW215" s="10">
+        <v>85.724000000000004</v>
+      </c>
+      <c r="AX215" s="3">
+        <f t="shared" si="3"/>
+        <v>-59.454000000000008</v>
+      </c>
+      <c r="AY215" s="3">
+        <v>287628</v>
+      </c>
     </row>
-    <row r="216" spans="2:46">
+    <row r="216" spans="2:51">
       <c r="B216" s="2">
         <v>2002.5</v>
       </c>
@@ -24148,8 +27334,24 @@
       <c r="AT216" s="3">
         <v>4.1440999999999999</v>
       </c>
+      <c r="AU216" s="10">
+        <v>39.06</v>
+      </c>
+      <c r="AV216" s="3">
+        <v>28.33</v>
+      </c>
+      <c r="AW216" s="10">
+        <v>86.382000000000005</v>
+      </c>
+      <c r="AX216" s="3">
+        <f t="shared" si="3"/>
+        <v>-58.052000000000007</v>
+      </c>
+      <c r="AY216" s="3">
+        <v>288361</v>
+      </c>
     </row>
-    <row r="217" spans="2:46">
+    <row r="217" spans="2:51">
       <c r="B217" s="2">
         <v>2002.75</v>
       </c>
@@ -24285,8 +27487,24 @@
       <c r="AT217" s="3">
         <v>3.87</v>
       </c>
+      <c r="AU217" s="10">
+        <v>35.32</v>
+      </c>
+      <c r="AV217" s="3">
+        <v>28.18</v>
+      </c>
+      <c r="AW217" s="10">
+        <v>86.248999999999995</v>
+      </c>
+      <c r="AX217" s="3">
+        <f t="shared" si="3"/>
+        <v>-58.068999999999996</v>
+      </c>
+      <c r="AY217" s="3">
+        <v>289096.33333333331</v>
+      </c>
     </row>
-    <row r="218" spans="2:46">
+    <row r="218" spans="2:51">
       <c r="B218" s="2">
         <v>2003</v>
       </c>
@@ -24422,8 +27640,24 @@
       <c r="AT218" s="3">
         <v>3.2366999999999999</v>
       </c>
+      <c r="AU218" s="10">
+        <v>34.06</v>
+      </c>
+      <c r="AV218" s="3">
+        <v>34.119999999999997</v>
+      </c>
+      <c r="AW218" s="10">
+        <v>87.129000000000005</v>
+      </c>
+      <c r="AX218" s="3">
+        <f t="shared" si="3"/>
+        <v>-53.009000000000007</v>
+      </c>
+      <c r="AY218" s="3">
+        <v>289714.33333333331</v>
+      </c>
     </row>
-    <row r="219" spans="2:46">
+    <row r="219" spans="2:51">
       <c r="B219" s="2">
         <v>2003.25</v>
       </c>
@@ -24559,8 +27793,24 @@
       <c r="AT219" s="3">
         <v>2.6349999999999998</v>
       </c>
+      <c r="AU219" s="10">
+        <v>24.01</v>
+      </c>
+      <c r="AV219" s="3">
+        <v>29.036666666666665</v>
+      </c>
+      <c r="AW219" s="10">
+        <v>88.290999999999997</v>
+      </c>
+      <c r="AX219" s="3">
+        <f t="shared" si="3"/>
+        <v>-59.254333333333335</v>
+      </c>
+      <c r="AY219" s="3">
+        <v>290351.66666666669</v>
+      </c>
     </row>
-    <row r="220" spans="2:46">
+    <row r="220" spans="2:51">
       <c r="B220" s="2">
         <v>2003.5</v>
       </c>
@@ -24696,8 +27946,24 @@
       <c r="AT220" s="3">
         <v>2.359</v>
       </c>
+      <c r="AU220" s="10">
+        <v>20.91</v>
+      </c>
+      <c r="AV220" s="3">
+        <v>30.213333333333335</v>
+      </c>
+      <c r="AW220" s="10">
+        <v>90.212999999999994</v>
+      </c>
+      <c r="AX220" s="3">
+        <f t="shared" si="3"/>
+        <v>-59.999666666666656</v>
+      </c>
+      <c r="AY220" s="3">
+        <v>291071</v>
+      </c>
     </row>
-    <row r="221" spans="2:46">
+    <row r="221" spans="2:51">
       <c r="B221" s="2">
         <v>2003.75</v>
       </c>
@@ -24833,8 +28099,24 @@
       <c r="AT221" s="3">
         <v>1.982</v>
       </c>
+      <c r="AU221" s="10">
+        <v>17.82</v>
+      </c>
+      <c r="AV221" s="3">
+        <v>31.19</v>
+      </c>
+      <c r="AW221" s="10">
+        <v>91.100999999999999</v>
+      </c>
+      <c r="AX221" s="3">
+        <f t="shared" si="3"/>
+        <v>-59.911000000000001</v>
+      </c>
+      <c r="AY221" s="3">
+        <v>291796.33333333331</v>
+      </c>
     </row>
-    <row r="222" spans="2:46">
+    <row r="222" spans="2:51">
       <c r="B222" s="2">
         <v>2004</v>
       </c>
@@ -24970,8 +28252,24 @@
       <c r="AT222" s="3">
         <v>1.8884000000000001</v>
       </c>
+      <c r="AU222" s="10">
+        <v>16.57</v>
+      </c>
+      <c r="AV222" s="3">
+        <v>35.256666666666668</v>
+      </c>
+      <c r="AW222" s="10">
+        <v>91.078000000000003</v>
+      </c>
+      <c r="AX222" s="3">
+        <f t="shared" si="3"/>
+        <v>-55.821333333333335</v>
+      </c>
+      <c r="AY222" s="3">
+        <v>292373.66666666669</v>
+      </c>
     </row>
-    <row r="223" spans="2:46">
+    <row r="223" spans="2:51">
       <c r="B223" s="2">
         <v>2004.25</v>
       </c>
@@ -25107,8 +28405,24 @@
       <c r="AT223" s="3">
         <v>1.8445</v>
       </c>
+      <c r="AU223" s="10">
+        <v>16.27</v>
+      </c>
+      <c r="AV223" s="3">
+        <v>38.33</v>
+      </c>
+      <c r="AW223" s="10">
+        <v>91.933000000000007</v>
+      </c>
+      <c r="AX223" s="3">
+        <f t="shared" si="3"/>
+        <v>-53.603000000000009</v>
+      </c>
+      <c r="AY223" s="3">
+        <v>292999.66666666669</v>
+      </c>
     </row>
-    <row r="224" spans="2:46">
+    <row r="224" spans="2:51">
       <c r="B224" s="2">
         <v>2004.5</v>
       </c>
@@ -25244,8 +28558,24 @@
       <c r="AT224" s="3">
         <v>1.8208</v>
       </c>
+      <c r="AU224" s="10">
+        <v>15.4</v>
+      </c>
+      <c r="AV224" s="3">
+        <v>43.86</v>
+      </c>
+      <c r="AW224" s="10">
+        <v>92.263999999999996</v>
+      </c>
+      <c r="AX224" s="3">
+        <f t="shared" si="3"/>
+        <v>-48.403999999999996</v>
+      </c>
+      <c r="AY224" s="3">
+        <v>293717.66666666669</v>
+      </c>
     </row>
-    <row r="225" spans="2:46">
+    <row r="225" spans="2:51">
       <c r="B225" s="2">
         <v>2004.75</v>
       </c>
@@ -25381,8 +28711,24 @@
       <c r="AT225" s="3">
         <v>1.6519999999999999</v>
       </c>
+      <c r="AU225" s="10">
+        <v>14.07</v>
+      </c>
+      <c r="AV225" s="3">
+        <v>48.306666666666665</v>
+      </c>
+      <c r="AW225" s="10">
+        <v>92.563000000000002</v>
+      </c>
+      <c r="AX225" s="3">
+        <f t="shared" si="3"/>
+        <v>-44.256333333333338</v>
+      </c>
+      <c r="AY225" s="3">
+        <v>294463.33333333331</v>
+      </c>
     </row>
-    <row r="226" spans="2:46">
+    <row r="226" spans="2:51">
       <c r="B226" s="2">
         <v>2005</v>
       </c>
@@ -25518,8 +28864,24 @@
       <c r="AT226" s="3">
         <v>1.8519000000000001</v>
       </c>
+      <c r="AU226" s="10">
+        <v>12.68</v>
+      </c>
+      <c r="AV226" s="3">
+        <v>49.706666666666663</v>
+      </c>
+      <c r="AW226" s="10">
+        <v>93.578000000000003</v>
+      </c>
+      <c r="AX226" s="3">
+        <f t="shared" si="3"/>
+        <v>-43.87133333333334</v>
+      </c>
+      <c r="AY226" s="3">
+        <v>295102</v>
+      </c>
     </row>
-    <row r="227" spans="2:46">
+    <row r="227" spans="2:51">
       <c r="B227" s="2">
         <v>2005.25</v>
       </c>
@@ -25655,8 +29017,24 @@
       <c r="AT227" s="3">
         <v>1.9699</v>
       </c>
+      <c r="AU227" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="AV227" s="3">
+        <v>53.043333333333337</v>
+      </c>
+      <c r="AW227" s="10">
+        <v>93.484999999999999</v>
+      </c>
+      <c r="AX227" s="3">
+        <f t="shared" si="3"/>
+        <v>-40.441666666666663</v>
+      </c>
+      <c r="AY227" s="3">
+        <v>295710</v>
+      </c>
     </row>
-    <row r="228" spans="2:46">
+    <row r="228" spans="2:51">
       <c r="B228" s="2">
         <v>2005.5</v>
       </c>
@@ -25792,8 +29170,24 @@
       <c r="AT228" s="3">
         <v>1.7806999999999999</v>
       </c>
+      <c r="AU228" s="10">
+        <v>11.51</v>
+      </c>
+      <c r="AV228" s="3">
+        <v>63.08</v>
+      </c>
+      <c r="AW228" s="10">
+        <v>94.18</v>
+      </c>
+      <c r="AX228" s="3">
+        <f t="shared" si="3"/>
+        <v>-31.100000000000009</v>
+      </c>
+      <c r="AY228" s="3">
+        <v>296444.33333333331</v>
+      </c>
     </row>
-    <row r="229" spans="2:46">
+    <row r="229" spans="2:51">
       <c r="B229" s="2">
         <v>2005.75</v>
       </c>
@@ -25929,8 +29323,24 @@
       <c r="AT229" s="3">
         <v>1.8502000000000001</v>
       </c>
+      <c r="AU229" s="10">
+        <v>12.37</v>
+      </c>
+      <c r="AV229" s="3">
+        <v>60.033333333333331</v>
+      </c>
+      <c r="AW229" s="10">
+        <v>94.221000000000004</v>
+      </c>
+      <c r="AX229" s="3">
+        <f t="shared" si="3"/>
+        <v>-34.187666666666672</v>
+      </c>
+      <c r="AY229" s="3">
+        <v>297203.33333333331</v>
+      </c>
     </row>
-    <row r="230" spans="2:46">
+    <row r="230" spans="2:51">
       <c r="B230" s="2">
         <v>2006</v>
       </c>
@@ -26066,8 +29476,24 @@
       <c r="AT230" s="3">
         <v>1.6903999999999999</v>
       </c>
+      <c r="AU230" s="10">
+        <v>11.57</v>
+      </c>
+      <c r="AV230" s="3">
+        <v>63.346666666666664</v>
+      </c>
+      <c r="AW230" s="10">
+        <v>94.778999999999996</v>
+      </c>
+      <c r="AX230" s="3">
+        <f t="shared" si="3"/>
+        <v>-31.432333333333332</v>
+      </c>
+      <c r="AY230" s="3">
+        <v>297853.66666666669</v>
+      </c>
     </row>
-    <row r="231" spans="2:46">
+    <row r="231" spans="2:51">
       <c r="B231" s="2">
         <v>2006.25</v>
       </c>
@@ -26201,8 +29627,24 @@
       <c r="AT231" s="3">
         <v>1.6846000000000001</v>
       </c>
+      <c r="AU231" s="10">
+        <v>13.63</v>
+      </c>
+      <c r="AV231" s="3">
+        <v>70.53</v>
+      </c>
+      <c r="AW231" s="10">
+        <v>94.694000000000003</v>
+      </c>
+      <c r="AX231" s="3">
+        <f t="shared" si="3"/>
+        <v>-24.164000000000001</v>
+      </c>
+      <c r="AY231" s="3">
+        <v>298505.33333333331</v>
+      </c>
     </row>
-    <row r="232" spans="2:46">
+    <row r="232" spans="2:51">
       <c r="B232" s="2">
         <v>2006.5</v>
       </c>
@@ -26336,8 +29778,24 @@
       <c r="AT232" s="3">
         <v>1.772</v>
       </c>
+      <c r="AU232" s="10">
+        <v>12.81</v>
+      </c>
+      <c r="AV232" s="3">
+        <v>70.443333333333328</v>
+      </c>
+      <c r="AW232" s="10">
+        <v>94.290999999999997</v>
+      </c>
+      <c r="AX232" s="3">
+        <f t="shared" si="3"/>
+        <v>-23.847666666666669</v>
+      </c>
+      <c r="AY232" s="3">
+        <v>299271</v>
+      </c>
     </row>
-    <row r="233" spans="2:46">
+    <row r="233" spans="2:51">
       <c r="B233" s="2">
         <v>2006.75</v>
       </c>
@@ -26471,8 +29929,24 @@
       <c r="AT233" s="3">
         <v>1.6173999999999999</v>
       </c>
+      <c r="AU233" s="10">
+        <v>10.6</v>
+      </c>
+      <c r="AV233" s="3">
+        <v>60.093333333333334</v>
+      </c>
+      <c r="AW233" s="10">
+        <v>94.986999999999995</v>
+      </c>
+      <c r="AX233" s="3">
+        <f t="shared" si="3"/>
+        <v>-34.893666666666661</v>
+      </c>
+      <c r="AY233" s="3">
+        <v>300089.66666666669</v>
+      </c>
     </row>
-    <row r="234" spans="2:46">
+    <row r="234" spans="2:51">
       <c r="B234" s="2">
         <v>2007</v>
       </c>
@@ -26591,8 +30065,24 @@
       <c r="AT234" s="3">
         <v>1.5329999999999999</v>
       </c>
+      <c r="AU234" s="10">
+        <v>12.27</v>
+      </c>
+      <c r="AV234" s="3">
+        <v>58.13</v>
+      </c>
+      <c r="AW234" s="10">
+        <v>95.072000000000003</v>
+      </c>
+      <c r="AX234" s="3">
+        <f t="shared" si="3"/>
+        <v>-36.942</v>
+      </c>
+      <c r="AY234" s="3">
+        <v>300799</v>
+      </c>
     </row>
-    <row r="235" spans="2:46">
+    <row r="235" spans="2:51">
       <c r="B235" s="2">
         <v>2007.25</v>
       </c>
@@ -26711,8 +30201,24 @@
       <c r="AT235" s="3">
         <v>1.6978</v>
       </c>
+      <c r="AU235" s="10">
+        <v>13.38</v>
+      </c>
+      <c r="AV235" s="3">
+        <v>64.97</v>
+      </c>
+      <c r="AW235" s="10">
+        <v>95.652000000000001</v>
+      </c>
+      <c r="AX235" s="3">
+        <f t="shared" si="3"/>
+        <v>-30.682000000000002</v>
+      </c>
+      <c r="AY235" s="3">
+        <v>301492</v>
+      </c>
     </row>
-    <row r="236" spans="2:46">
+    <row r="236" spans="2:51">
       <c r="B236" s="2">
         <v>2007.5</v>
       </c>
@@ -26831,8 +30337,24 @@
       <c r="AT236" s="3">
         <v>2.2343999999999999</v>
       </c>
+      <c r="AU236" s="10">
+        <v>21.61</v>
+      </c>
+      <c r="AV236" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="AW236" s="10">
+        <v>96.8</v>
+      </c>
+      <c r="AX236" s="3">
+        <f t="shared" si="3"/>
+        <v>-21.299999999999997</v>
+      </c>
+      <c r="AY236" s="3">
+        <v>302272.33333333331</v>
+      </c>
     </row>
-    <row r="237" spans="2:46">
+    <row r="237" spans="2:51">
       <c r="B237" s="2">
         <v>2007.75</v>
       </c>
@@ -26951,8 +30473,24 @@
       <c r="AT237" s="3">
         <v>2.7972999999999999</v>
       </c>
+      <c r="AU237" s="10">
+        <v>22.74</v>
+      </c>
+      <c r="AV237" s="3">
+        <v>90.85</v>
+      </c>
+      <c r="AW237" s="10">
+        <v>97.212999999999994</v>
+      </c>
+      <c r="AX237" s="3">
+        <f t="shared" si="3"/>
+        <v>-6.3629999999999995</v>
+      </c>
+      <c r="AY237" s="3">
+        <v>303049.33333333331</v>
+      </c>
     </row>
-    <row r="238" spans="2:46">
+    <row r="238" spans="2:51">
       <c r="B238" s="2">
         <v>2008</v>
       </c>
@@ -27071,8 +30609,24 @@
       <c r="AT238" s="3">
         <v>3.5019999999999998</v>
       </c>
+      <c r="AU238" s="10">
+        <v>28.05</v>
+      </c>
+      <c r="AV238" s="3">
+        <v>97.953333333333333</v>
+      </c>
+      <c r="AW238" s="10">
+        <v>96.269000000000005</v>
+      </c>
+      <c r="AX238" s="3">
+        <f t="shared" si="3"/>
+        <v>1.6843333333333277</v>
+      </c>
+      <c r="AY238" s="3">
+        <v>303708</v>
+      </c>
     </row>
-    <row r="239" spans="2:46">
+    <row r="239" spans="2:51">
       <c r="B239" s="2">
         <v>2008.25</v>
       </c>
@@ -27191,8 +30745,24 @@
       <c r="AT239" s="3">
         <v>3.4013</v>
       </c>
+      <c r="AU239" s="10">
+        <v>21.52</v>
+      </c>
+      <c r="AV239" s="3">
+        <v>123.96333333333334</v>
+      </c>
+      <c r="AW239" s="10">
+        <v>97.23</v>
+      </c>
+      <c r="AX239" s="3">
+        <f t="shared" si="3"/>
+        <v>26.733333333333334</v>
+      </c>
+      <c r="AY239" s="3">
+        <v>304332</v>
+      </c>
     </row>
-    <row r="240" spans="2:46">
+    <row r="240" spans="2:51">
       <c r="B240" s="2">
         <v>2008.5</v>
       </c>
@@ -27311,8 +30881,24 @@
       <c r="AT240" s="3">
         <v>4.8465999999999996</v>
       </c>
+      <c r="AU240" s="10">
+        <v>27.02</v>
+      </c>
+      <c r="AV240" s="3">
+        <v>117.98333333333333</v>
+      </c>
+      <c r="AW240" s="10">
+        <v>97.491</v>
+      </c>
+      <c r="AX240" s="3">
+        <f t="shared" si="3"/>
+        <v>20.492333333333335</v>
+      </c>
+      <c r="AY240" s="3">
+        <v>305050.66666666669</v>
+      </c>
     </row>
-    <row r="241" spans="2:46">
+    <row r="241" spans="2:51">
       <c r="B241" s="2">
         <v>2008.75</v>
       </c>
@@ -27431,8 +31017,24 @@
       <c r="AT241" s="3">
         <v>7.2518000000000002</v>
       </c>
+      <c r="AU241" s="10">
+        <v>61.86</v>
+      </c>
+      <c r="AV241" s="3">
+        <v>58.37</v>
+      </c>
+      <c r="AW241" s="10">
+        <v>96.858999999999995</v>
+      </c>
+      <c r="AX241" s="3">
+        <f t="shared" si="3"/>
+        <v>-38.488999999999997</v>
+      </c>
+      <c r="AY241" s="3">
+        <v>305781.33333333331</v>
+      </c>
     </row>
-    <row r="242" spans="2:46">
+    <row r="242" spans="2:51">
       <c r="B242" s="2">
         <v>2009</v>
       </c>
@@ -27551,8 +31153,24 @@
       <c r="AT242" s="3">
         <v>6.0926</v>
       </c>
+      <c r="AU242" s="10">
+        <v>45.28</v>
+      </c>
+      <c r="AV242" s="3">
+        <v>42.96</v>
+      </c>
+      <c r="AW242" s="10">
+        <v>97.587999999999994</v>
+      </c>
+      <c r="AX242" s="3">
+        <f t="shared" si="3"/>
+        <v>-54.627999999999993</v>
+      </c>
+      <c r="AY242" s="3">
+        <v>306399.33333333331</v>
+      </c>
     </row>
-    <row r="243" spans="2:46">
+    <row r="243" spans="2:51">
       <c r="B243" s="2">
         <v>2009.25</v>
       </c>
@@ -27671,8 +31289,24 @@
       <c r="AT243" s="3">
         <v>4.5029000000000003</v>
       </c>
+      <c r="AU243" s="10">
+        <v>32.92</v>
+      </c>
+      <c r="AV243" s="3">
+        <v>59.543333333333337</v>
+      </c>
+      <c r="AW243" s="10">
+        <v>99.480999999999995</v>
+      </c>
+      <c r="AX243" s="3">
+        <f t="shared" si="3"/>
+        <v>-39.937666666666658</v>
+      </c>
+      <c r="AY243" s="3">
+        <v>306992.33333333331</v>
+      </c>
     </row>
-    <row r="244" spans="2:46">
+    <row r="244" spans="2:51">
       <c r="B244" s="2">
         <v>2009.5</v>
       </c>
@@ -27791,8 +31425,24 @@
       <c r="AT244" s="3">
         <v>3.1901999999999999</v>
       </c>
+      <c r="AU244" s="10">
+        <v>24.72</v>
+      </c>
+      <c r="AV244" s="3">
+        <v>68.203333333333333</v>
+      </c>
+      <c r="AW244" s="10">
+        <v>100.902</v>
+      </c>
+      <c r="AX244" s="3">
+        <f t="shared" si="3"/>
+        <v>-32.698666666666668</v>
+      </c>
+      <c r="AY244" s="3">
+        <v>307690</v>
+      </c>
     </row>
-    <row r="245" spans="2:46">
+    <row r="245" spans="2:51">
       <c r="B245" s="2">
         <v>2009.75</v>
       </c>
@@ -27911,8 +31561,24 @@
       <c r="AT245" s="3">
         <v>2.6547999999999998</v>
       </c>
+      <c r="AU245" s="10">
+        <v>21.87</v>
+      </c>
+      <c r="AV245" s="3">
+        <v>76.066666666666663</v>
+      </c>
+      <c r="AW245" s="10">
+        <v>102.11199999999999</v>
+      </c>
+      <c r="AX245" s="3">
+        <f t="shared" si="3"/>
+        <v>-26.045333333333332</v>
+      </c>
+      <c r="AY245" s="3">
+        <v>308413.33333333331</v>
+      </c>
     </row>
-    <row r="246" spans="2:46">
+    <row r="246" spans="2:51">
       <c r="B246" s="2">
         <v>2010</v>
       </c>
@@ -28029,8 +31695,24 @@
       <c r="AT246" s="3">
         <v>2.3338000000000001</v>
       </c>
+      <c r="AU246" s="10">
+        <v>19.25</v>
+      </c>
+      <c r="AV246" s="3">
+        <v>78.626666666666665</v>
+      </c>
+      <c r="AW246" s="10">
+        <v>102.655</v>
+      </c>
+      <c r="AX246" s="3">
+        <f t="shared" si="3"/>
+        <v>-24.028333333333336</v>
+      </c>
+      <c r="AY246" s="3">
+        <v>309024</v>
+      </c>
     </row>
-    <row r="247" spans="2:46">
+    <row r="247" spans="2:51">
       <c r="B247" s="2">
         <v>2010.25</v>
       </c>
@@ -28147,8 +31829,24 @@
       <c r="AT247" s="3">
         <v>2.5171999999999999</v>
       </c>
+      <c r="AU247" s="10">
+        <v>25.02</v>
+      </c>
+      <c r="AV247" s="3">
+        <v>77.89</v>
+      </c>
+      <c r="AW247" s="10">
+        <v>103.01900000000001</v>
+      </c>
+      <c r="AX247" s="3">
+        <f t="shared" si="3"/>
+        <v>-25.129000000000005</v>
+      </c>
+      <c r="AY247" s="3">
+        <v>309373.66666666669</v>
+      </c>
     </row>
-    <row r="248" spans="2:46">
+    <row r="248" spans="2:51">
       <c r="B248" s="2">
         <v>2010.5</v>
       </c>
@@ -28265,8 +31963,24 @@
       <c r="AT248" s="3">
         <v>2.5743</v>
       </c>
+      <c r="AU248" s="10">
+        <v>23.51</v>
+      </c>
+      <c r="AV248" s="3">
+        <v>76.166666666666671</v>
+      </c>
+      <c r="AW248" s="10">
+        <v>103.52200000000001</v>
+      </c>
+      <c r="AX248" s="3">
+        <f t="shared" si="3"/>
+        <v>-27.355333333333334</v>
+      </c>
+      <c r="AY248" s="3">
+        <v>309976.33333333331</v>
+      </c>
     </row>
-    <row r="249" spans="2:46">
+    <row r="249" spans="2:51">
       <c r="B249" s="2">
         <v>2010.75</v>
       </c>
@@ -28383,8 +32097,24 @@
       <c r="AT249" s="3">
         <v>2.3157999999999999</v>
       </c>
+      <c r="AU249" s="10">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="AV249" s="3">
+        <v>85.026666666666671</v>
+      </c>
+      <c r="AW249" s="10">
+        <v>103.95699999999999</v>
+      </c>
+      <c r="AX249" s="3">
+        <f t="shared" si="3"/>
+        <v>-18.930333333333323</v>
+      </c>
+      <c r="AY249" s="3">
+        <v>310622</v>
+      </c>
     </row>
-    <row r="250" spans="2:46">
+    <row r="250" spans="2:51">
       <c r="B250" s="2">
         <v>2011</v>
       </c>
@@ -28501,8 +32231,24 @@
       <c r="AT250" s="3">
         <v>2.0299</v>
       </c>
+      <c r="AU250" s="10">
+        <v>17.27</v>
+      </c>
+      <c r="AV250" s="3">
+        <v>93.98</v>
+      </c>
+      <c r="AW250" s="10">
+        <v>103.087</v>
+      </c>
+      <c r="AX250" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.1069999999999993</v>
+      </c>
+      <c r="AY250" s="3">
+        <v>311155.66666666669</v>
+      </c>
     </row>
-    <row r="251" spans="2:46">
+    <row r="251" spans="2:51">
       <c r="B251" s="2">
         <v>2011.25</v>
       </c>
@@ -28619,8 +32365,24 @@
       <c r="AT251" s="3">
         <v>2.1107</v>
       </c>
+      <c r="AU251" s="10">
+        <v>16.87</v>
+      </c>
+      <c r="AV251" s="3">
+        <v>102.55333333333333</v>
+      </c>
+      <c r="AW251" s="10">
+        <v>103.425</v>
+      </c>
+      <c r="AX251" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.8716666666666697</v>
+      </c>
+      <c r="AY251" s="3">
+        <v>311667.33333333331</v>
+      </c>
     </row>
-    <row r="252" spans="2:46">
+    <row r="252" spans="2:51">
       <c r="B252" s="2">
         <v>2011.5</v>
       </c>
@@ -28737,8 +32499,24 @@
       <c r="AT252" s="3">
         <v>2.7482000000000002</v>
       </c>
+      <c r="AU252" s="10">
+        <v>30.48</v>
+      </c>
+      <c r="AV252" s="3">
+        <v>89.71</v>
+      </c>
+      <c r="AW252" s="10">
+        <v>103.242</v>
+      </c>
+      <c r="AX252" s="3">
+        <f t="shared" si="3"/>
+        <v>-13.532000000000011</v>
+      </c>
+      <c r="AY252" s="3">
+        <v>312279.33333333331</v>
+      </c>
     </row>
-    <row r="253" spans="2:46">
+    <row r="253" spans="2:51">
       <c r="B253" s="2">
         <v>2011.75</v>
       </c>
@@ -28855,8 +32633,24 @@
       <c r="AT253" s="3">
         <v>2.8654000000000002</v>
       </c>
+      <c r="AU253" s="10">
+        <v>29.49</v>
+      </c>
+      <c r="AV253" s="3">
+        <v>94.063333333333333</v>
+      </c>
+      <c r="AW253" s="10">
+        <v>103.95099999999999</v>
+      </c>
+      <c r="AX253" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.8876666666666608</v>
+      </c>
+      <c r="AY253" s="3">
+        <v>312910.33333333331</v>
+      </c>
     </row>
-    <row r="254" spans="2:46">
+    <row r="254" spans="2:51">
       <c r="B254" s="2">
         <v>2012</v>
       </c>
@@ -28973,8 +32767,24 @@
       <c r="AT254" s="3">
         <v>2.5446</v>
       </c>
+      <c r="AU254" s="10">
+        <v>16.8</v>
+      </c>
+      <c r="AV254" s="3">
+        <v>102.89333333333333</v>
+      </c>
+      <c r="AW254" s="10">
+        <v>104.107</v>
+      </c>
+      <c r="AX254" s="3">
+        <f t="shared" si="3"/>
+        <v>-1.2136666666666684</v>
+      </c>
+      <c r="AY254" s="3">
+        <v>313436.66666666669</v>
+      </c>
     </row>
-    <row r="255" spans="2:46">
+    <row r="255" spans="2:51">
       <c r="B255" s="2">
         <v>2012.25</v>
       </c>
@@ -29091,8 +32901,24 @@
       <c r="AT255" s="3">
         <v>2.6608999999999998</v>
       </c>
+      <c r="AU255" s="10">
+        <v>19.55</v>
+      </c>
+      <c r="AV255" s="3">
+        <v>93.48</v>
+      </c>
+      <c r="AW255" s="10">
+        <v>104.702</v>
+      </c>
+      <c r="AX255" s="3">
+        <f t="shared" si="3"/>
+        <v>-11.221999999999994</v>
+      </c>
+      <c r="AY255" s="3">
+        <v>313948</v>
+      </c>
     </row>
-    <row r="256" spans="2:46">
+    <row r="256" spans="2:51">
       <c r="B256" s="2">
         <v>2012.5</v>
       </c>
@@ -29209,8 +33035,24 @@
       <c r="AT256" s="3">
         <v>2.4359999999999999</v>
       </c>
+      <c r="AU256" s="10">
+        <v>15.43</v>
+      </c>
+      <c r="AV256" s="3">
+        <v>92.27</v>
+      </c>
+      <c r="AW256" s="10">
+        <v>104.503</v>
+      </c>
+      <c r="AX256" s="3">
+        <f t="shared" si="3"/>
+        <v>-12.233000000000004</v>
+      </c>
+      <c r="AY256" s="3">
+        <v>314550.33333333331</v>
+      </c>
     </row>
-    <row r="257" spans="2:46">
+    <row r="257" spans="2:51">
       <c r="B257" s="2">
         <v>2012.75</v>
       </c>
@@ -29327,8 +33169,24 @@
       <c r="AT257" s="3">
         <v>2.2204999999999999</v>
       </c>
+      <c r="AU257" s="10">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AV257" s="3">
+        <v>88.16</v>
+      </c>
+      <c r="AW257" s="10">
+        <v>104.059</v>
+      </c>
+      <c r="AX257" s="3">
+        <f t="shared" si="3"/>
+        <v>-15.899000000000001</v>
+      </c>
+      <c r="AY257" s="3">
+        <v>315185</v>
+      </c>
     </row>
-    <row r="258" spans="2:46">
+    <row r="258" spans="2:51">
       <c r="B258" s="2">
         <v>2013</v>
       </c>
@@ -29445,8 +33303,24 @@
       <c r="AT258" s="3">
         <v>2.1053999999999999</v>
       </c>
+      <c r="AU258" s="10">
+        <v>13</v>
+      </c>
+      <c r="AV258" s="3">
+        <v>94.353333333333339</v>
+      </c>
+      <c r="AW258" s="10">
+        <v>104.304</v>
+      </c>
+      <c r="AX258" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.9506666666666632</v>
+      </c>
+      <c r="AY258" s="3">
+        <v>315677</v>
+      </c>
     </row>
-    <row r="259" spans="2:46">
+    <row r="259" spans="2:51">
       <c r="B259" s="2">
         <v>2013.25</v>
       </c>
@@ -29563,8 +33437,24 @@
       <c r="AT259" s="3">
         <v>2.0493000000000001</v>
       </c>
+      <c r="AU259" s="10">
+        <v>14.36</v>
+      </c>
+      <c r="AV259" s="3">
+        <v>94.223333333333329</v>
+      </c>
+      <c r="AW259" s="10">
+        <v>104.14700000000001</v>
+      </c>
+      <c r="AX259" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.9236666666666764</v>
+      </c>
+      <c r="AY259" s="3">
+        <v>316158</v>
+      </c>
     </row>
-    <row r="260" spans="2:46">
+    <row r="260" spans="2:51">
       <c r="B260" s="2">
         <v>2013.5</v>
       </c>
@@ -29681,8 +33571,24 @@
       <c r="AT260" s="3">
         <v>2.0004</v>
       </c>
+      <c r="AU260" s="10">
+        <v>13.92</v>
+      </c>
+      <c r="AV260" s="3">
+        <v>105.82333333333334</v>
+      </c>
+      <c r="AW260" s="10">
+        <v>104.57</v>
+      </c>
+      <c r="AX260" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2533333333333445</v>
+      </c>
+      <c r="AY260" s="3">
+        <v>316763.66666666669</v>
+      </c>
     </row>
-    <row r="261" spans="2:46">
+    <row r="261" spans="2:51">
       <c r="B261" s="2">
         <v>2013.75</v>
       </c>
@@ -29799,8 +33705,24 @@
       <c r="AT261" s="3">
         <v>1.8586</v>
       </c>
+      <c r="AU261" s="10">
+        <v>13.15</v>
+      </c>
+      <c r="AV261" s="3">
+        <v>97.343333333333334</v>
+      </c>
+      <c r="AW261" s="10">
+        <v>105.634</v>
+      </c>
+      <c r="AX261" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.2906666666666666</v>
+      </c>
+      <c r="AY261" s="3">
+        <v>317417.33333333331</v>
+      </c>
     </row>
-    <row r="262" spans="2:46">
+    <row r="262" spans="2:51">
       <c r="B262" s="2">
         <v>2014</v>
       </c>
@@ -29917,8 +33839,24 @@
       <c r="AT262" s="3">
         <v>1.6918</v>
       </c>
+      <c r="AU262" s="10">
+        <v>13.59</v>
+      </c>
+      <c r="AV262" s="3">
+        <v>98.74666666666667</v>
+      </c>
+      <c r="AW262" s="10">
+        <v>104.782</v>
+      </c>
+      <c r="AX262" s="3">
+        <f t="shared" ref="AX262:AX278" si="4">AV262-AW262</f>
+        <v>-6.0353333333333268</v>
+      </c>
+      <c r="AY262" s="3">
+        <v>317966.33333333331</v>
+      </c>
     </row>
-    <row r="263" spans="2:46">
+    <row r="263" spans="2:51">
       <c r="B263" s="2">
         <v>2014.25</v>
       </c>
@@ -30035,8 +33973,24 @@
       <c r="AT263" s="3">
         <v>1.5889</v>
       </c>
+      <c r="AU263" s="10">
+        <v>11.85</v>
+      </c>
+      <c r="AV263" s="3">
+        <v>103.34666666666666</v>
+      </c>
+      <c r="AW263" s="10">
+        <v>105.435</v>
+      </c>
+      <c r="AX263" s="3">
+        <f t="shared" si="4"/>
+        <v>-2.0883333333333383</v>
+      </c>
+      <c r="AY263" s="3">
+        <v>318500.33333333331</v>
+      </c>
     </row>
-    <row r="264" spans="2:46">
+    <row r="264" spans="2:51">
       <c r="B264" s="2">
         <v>2014.5</v>
       </c>
@@ -30153,8 +34107,24 @@
       <c r="AT264" s="3">
         <v>1.6941999999999999</v>
       </c>
+      <c r="AU264" s="10">
+        <v>11.64</v>
+      </c>
+      <c r="AV264" s="3">
+        <v>97.78</v>
+      </c>
+      <c r="AW264" s="10">
+        <v>106.53</v>
+      </c>
+      <c r="AX264" s="3">
+        <f t="shared" si="4"/>
+        <v>-8.75</v>
+      </c>
+      <c r="AY264" s="3">
+        <v>319135</v>
+      </c>
     </row>
-    <row r="265" spans="2:46">
+    <row r="265" spans="2:51">
       <c r="B265" s="2">
         <v>2014.75</v>
       </c>
@@ -30271,8 +34241,24 @@
       <c r="AT265" s="3">
         <v>1.9925999999999999</v>
       </c>
+      <c r="AU265" s="10">
+        <v>14.84</v>
+      </c>
+      <c r="AV265" s="3">
+        <v>73.16</v>
+      </c>
+      <c r="AW265" s="10">
+        <v>105.977</v>
+      </c>
+      <c r="AX265" s="3">
+        <f t="shared" si="4"/>
+        <v>-32.817000000000007</v>
+      </c>
+      <c r="AY265" s="3">
+        <v>319811.33333333331</v>
+      </c>
     </row>
-    <row r="266" spans="2:46">
+    <row r="266" spans="2:51">
       <c r="B266" s="2">
         <v>2015</v>
       </c>
@@ -30389,8 +34375,24 @@
       <c r="AT266" s="3">
         <v>2.0068999999999999</v>
       </c>
+      <c r="AU266" s="10">
+        <v>16.09</v>
+      </c>
+      <c r="AV266" s="3">
+        <v>48.54</v>
+      </c>
+      <c r="AW266" s="10">
+        <v>106.762</v>
+      </c>
+      <c r="AX266" s="3">
+        <f t="shared" si="4"/>
+        <v>-58.222000000000001</v>
+      </c>
+      <c r="AY266" s="3">
+        <v>320349.66666666669</v>
+      </c>
     </row>
-    <row r="267" spans="2:46">
+    <row r="267" spans="2:51">
       <c r="B267" s="2">
         <v>2015.25</v>
       </c>
@@ -30507,8 +34509,24 @@
       <c r="AT267" s="3">
         <v>2.0863999999999998</v>
       </c>
+      <c r="AU267" s="10">
+        <v>14.09</v>
+      </c>
+      <c r="AV267" s="3">
+        <v>57.846666666666664</v>
+      </c>
+      <c r="AW267" s="10">
+        <v>107.11199999999999</v>
+      </c>
+      <c r="AX267" s="3">
+        <f t="shared" si="4"/>
+        <v>-49.265333333333331</v>
+      </c>
+      <c r="AY267" s="3">
+        <v>320873.66666666669</v>
+      </c>
     </row>
-    <row r="268" spans="2:46">
+    <row r="268" spans="2:51">
       <c r="B268" s="2">
         <v>2015.5</v>
       </c>
@@ -30625,8 +34643,24 @@
       <c r="AT268" s="3">
         <v>2.3969999999999998</v>
       </c>
+      <c r="AU268" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="AV268" s="3">
+        <v>46.416666666666664</v>
+      </c>
+      <c r="AW268" s="10">
+        <v>107.429</v>
+      </c>
+      <c r="AX268" s="3">
+        <f t="shared" si="4"/>
+        <v>-61.012333333333338</v>
+      </c>
+      <c r="AY268" s="3">
+        <v>321505</v>
+      </c>
     </row>
-    <row r="269" spans="2:46">
+    <row r="269" spans="2:51">
       <c r="B269" s="2">
         <v>2015.75</v>
       </c>
@@ -30743,8 +34777,24 @@
       <c r="AT269" s="3">
         <v>2.6116000000000001</v>
       </c>
+      <c r="AU269" s="10">
+        <v>17.13</v>
+      </c>
+      <c r="AV269" s="3">
+        <v>41.95</v>
+      </c>
+      <c r="AW269" s="10">
+        <v>106.697</v>
+      </c>
+      <c r="AX269" s="3">
+        <f t="shared" si="4"/>
+        <v>-64.747</v>
+      </c>
+      <c r="AY269" s="3">
+        <v>322168.66666666669</v>
+      </c>
     </row>
-    <row r="270" spans="2:46">
+    <row r="270" spans="2:51">
       <c r="B270" s="2">
         <v>2016</v>
       </c>
@@ -30861,8 +34911,24 @@
       <c r="AT270" s="3">
         <v>2.6930000000000001</v>
       </c>
+      <c r="AU270" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="AV270" s="3">
+        <v>33.18333333333333</v>
+      </c>
+      <c r="AW270" s="10">
+        <v>106.41500000000001</v>
+      </c>
+      <c r="AX270" s="3">
+        <f t="shared" si="4"/>
+        <v>-73.231666666666683</v>
+      </c>
+      <c r="AY270" s="3">
+        <v>322712.66666666669</v>
+      </c>
     </row>
-    <row r="271" spans="2:46">
+    <row r="271" spans="2:51">
       <c r="B271" s="2">
         <v>2016.25</v>
       </c>
@@ -30979,8 +35045,24 @@
       <c r="AT271" s="3">
         <v>2.0855000000000001</v>
       </c>
+      <c r="AU271" s="10">
+        <v>15.28</v>
+      </c>
+      <c r="AV271" s="3">
+        <v>45.406666666666666</v>
+      </c>
+      <c r="AW271" s="10">
+        <v>106.66800000000001</v>
+      </c>
+      <c r="AX271" s="3">
+        <f t="shared" si="4"/>
+        <v>-61.26133333333334</v>
+      </c>
+      <c r="AY271" s="3">
+        <v>323228.66666666669</v>
+      </c>
     </row>
-    <row r="272" spans="2:46">
+    <row r="272" spans="2:51">
       <c r="B272" s="2">
         <v>2016.5</v>
       </c>
@@ -31094,8 +35176,24 @@
       <c r="AS272" s="10">
         <v>13.23390625</v>
       </c>
+      <c r="AU272" s="10">
+        <v>12.34</v>
+      </c>
+      <c r="AV272" s="3">
+        <v>44.85</v>
+      </c>
+      <c r="AW272" s="10">
+        <v>107.30500000000001</v>
+      </c>
+      <c r="AX272" s="3">
+        <f t="shared" si="4"/>
+        <v>-62.455000000000005</v>
+      </c>
+      <c r="AY272" s="3">
+        <v>323849.33333333331</v>
+      </c>
     </row>
-    <row r="273" spans="2:45">
+    <row r="273" spans="2:51">
       <c r="B273" s="2">
         <v>2016.75</v>
       </c>
@@ -31209,8 +35307,24 @@
       <c r="AS273" s="10">
         <v>14.097936507936508</v>
       </c>
+      <c r="AU273" s="10">
+        <v>14.04</v>
+      </c>
+      <c r="AV273" s="3">
+        <v>49.136666666666663</v>
+      </c>
+      <c r="AW273" s="10">
+        <v>107.61799999999999</v>
+      </c>
+      <c r="AX273" s="3">
+        <f t="shared" si="4"/>
+        <v>-58.481333333333332</v>
+      </c>
+      <c r="AY273" s="3">
+        <v>324496.33333333331</v>
+      </c>
     </row>
-    <row r="274" spans="2:45">
+    <row r="274" spans="2:51">
       <c r="B274" s="2">
         <v>2017</v>
       </c>
@@ -31324,8 +35438,24 @@
       <c r="AS274" s="10">
         <v>11.691935483870967</v>
       </c>
+      <c r="AU274" s="10">
+        <v>10.65</v>
+      </c>
+      <c r="AV274" s="3">
+        <v>51.766666666666666</v>
+      </c>
+      <c r="AW274" s="10">
+        <v>107.68300000000001</v>
+      </c>
+      <c r="AX274" s="3">
+        <f t="shared" si="4"/>
+        <v>-55.916333333333341</v>
+      </c>
+      <c r="AY274" s="3">
+        <v>325028.33333333331</v>
+      </c>
     </row>
-    <row r="275" spans="2:45">
+    <row r="275" spans="2:51">
       <c r="B275" s="2">
         <v>2017.25</v>
       </c>
@@ -31439,8 +35569,24 @@
       <c r="AS275" s="10">
         <v>11.426349206349206</v>
       </c>
+      <c r="AU275" s="10">
+        <v>10.26</v>
+      </c>
+      <c r="AV275" s="3">
+        <v>48.24</v>
+      </c>
+      <c r="AW275" s="10">
+        <v>108.142</v>
+      </c>
+      <c r="AX275" s="3">
+        <f t="shared" si="4"/>
+        <v>-59.901999999999994</v>
+      </c>
+      <c r="AY275" s="3">
+        <v>325543.33333333331</v>
+      </c>
     </row>
-    <row r="276" spans="2:45">
+    <row r="276" spans="2:51">
       <c r="B276" s="2">
         <v>2017.5</v>
       </c>
@@ -31539,8 +35685,24 @@
       <c r="AS276" s="10">
         <v>10.944285714285714</v>
       </c>
+      <c r="AU276" s="10">
+        <v>9.26</v>
+      </c>
+      <c r="AV276" s="3">
+        <v>48.163333333333334</v>
+      </c>
+      <c r="AW276" s="10">
+        <v>108.849</v>
+      </c>
+      <c r="AX276" s="3">
+        <f t="shared" si="4"/>
+        <v>-60.68566666666667</v>
+      </c>
+      <c r="AY276" s="3">
+        <v>326163.33333333331</v>
+      </c>
     </row>
-    <row r="277" spans="2:45">
+    <row r="277" spans="2:51">
       <c r="B277" s="2">
         <v>2017.75</v>
       </c>
@@ -31605,8 +35767,24 @@
       <c r="AS277" s="10">
         <v>10.307936507936509</v>
       </c>
+      <c r="AU277" s="10">
+        <v>8.65</v>
+      </c>
+      <c r="AV277" s="3">
+        <v>55.366666666666667</v>
+      </c>
+      <c r="AW277" s="10">
+        <v>108.943</v>
+      </c>
+      <c r="AX277" s="3">
+        <f t="shared" si="4"/>
+        <v>-53.576333333333331</v>
+      </c>
+      <c r="AY277" s="3">
+        <v>326810.33333333331</v>
+      </c>
     </row>
-    <row r="278" spans="2:45">
+    <row r="278" spans="2:51">
       <c r="B278" s="2">
         <v>2018</v>
       </c>
@@ -31671,8 +35849,24 @@
       <c r="AS278" s="10">
         <v>17.354754098360655</v>
       </c>
+      <c r="AU278" s="10">
+        <v>16.05</v>
+      </c>
+      <c r="AV278" s="3">
+        <v>62.886666666666663</v>
+      </c>
+      <c r="AW278" s="10">
+        <v>109.05</v>
+      </c>
+      <c r="AX278" s="3">
+        <f t="shared" si="4"/>
+        <v>-46.163333333333334</v>
+      </c>
+      <c r="AY278" s="3">
+        <v>327342.66666666669</v>
+      </c>
     </row>
-    <row r="279" spans="2:45">
+    <row r="279" spans="2:51">
       <c r="B279" s="2">
         <v>2018.25</v>
       </c>
@@ -31737,8 +35931,18 @@
       <c r="AS279" s="10">
         <v>15.3375</v>
       </c>
+      <c r="AU279" s="10">
+        <v>15.03</v>
+      </c>
+      <c r="AV279" s="3">
+        <v>68.033333333333331</v>
+      </c>
+      <c r="AW279" s="10"/>
+      <c r="AY279" s="3">
+        <v>327857.66666666669</v>
+      </c>
     </row>
-    <row r="280" spans="2:45">
+    <row r="280" spans="2:51">
       <c r="J280" s="4"/>
       <c r="K280" s="11"/>
       <c r="N280" s="4"/>
@@ -31757,8 +35961,12 @@
       <c r="AA280" s="2"/>
       <c r="AR280" s="9"/>
       <c r="AS280" s="10"/>
+      <c r="AW280" s="10"/>
+      <c r="AY280" s="3">
+        <v>328477.33333333331</v>
+      </c>
     </row>
-    <row r="281" spans="2:45">
+    <row r="281" spans="2:51">
       <c r="J281" s="4"/>
       <c r="K281" s="11"/>
       <c r="N281" s="4"/>
@@ -31777,8 +35985,12 @@
       <c r="AA281" s="2"/>
       <c r="AR281" s="9"/>
       <c r="AS281" s="10"/>
+      <c r="AW281" s="10"/>
+      <c r="AY281" s="3">
+        <v>329124.33333333331</v>
+      </c>
     </row>
-    <row r="282" spans="2:45">
+    <row r="282" spans="2:51">
       <c r="J282" s="4"/>
       <c r="K282" s="11"/>
       <c r="N282" s="4"/>
@@ -31796,131 +36008,143 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="2"/>
       <c r="AR282" s="9"/>
+      <c r="AW282" s="10"/>
     </row>
-    <row r="283" spans="2:45">
+    <row r="283" spans="2:51">
       <c r="J283" s="4"/>
       <c r="K283" s="11"/>
       <c r="AA283" s="2"/>
       <c r="AR283" s="9"/>
+      <c r="AW283" s="10"/>
     </row>
-    <row r="284" spans="2:45">
+    <row r="284" spans="2:51">
       <c r="J284" s="4"/>
       <c r="K284" s="11"/>
       <c r="AA284" s="2"/>
       <c r="AR284" s="9"/>
+      <c r="AW284" s="10"/>
     </row>
-    <row r="285" spans="2:45">
+    <row r="285" spans="2:51">
       <c r="J285" s="4"/>
       <c r="K285" s="11"/>
       <c r="AA285" s="2"/>
       <c r="AR285" s="9"/>
+      <c r="AW285" s="10"/>
     </row>
-    <row r="286" spans="2:45">
+    <row r="286" spans="2:51">
       <c r="J286" s="4"/>
       <c r="K286" s="11"/>
       <c r="AA286" s="2"/>
       <c r="AR286" s="9"/>
+      <c r="AW286" s="10"/>
     </row>
-    <row r="287" spans="2:45">
+    <row r="287" spans="2:51">
       <c r="J287" s="4"/>
       <c r="K287" s="11"/>
       <c r="AA287" s="2"/>
       <c r="AR287" s="9"/>
+      <c r="AW287" s="10"/>
     </row>
-    <row r="288" spans="2:45">
+    <row r="288" spans="2:51">
       <c r="J288" s="4"/>
       <c r="K288" s="11"/>
       <c r="AA288" s="2"/>
       <c r="AR288" s="9"/>
+      <c r="AW288" s="10"/>
     </row>
-    <row r="289" spans="10:44">
+    <row r="289" spans="10:49">
       <c r="J289" s="4"/>
       <c r="K289" s="11"/>
       <c r="AA289" s="2"/>
       <c r="AR289" s="9"/>
+      <c r="AW289" s="10"/>
     </row>
-    <row r="290" spans="10:44">
+    <row r="290" spans="10:49">
       <c r="J290" s="4"/>
       <c r="K290" s="11"/>
       <c r="AA290" s="2"/>
       <c r="AR290" s="9"/>
+      <c r="AW290" s="10"/>
     </row>
-    <row r="291" spans="10:44">
+    <row r="291" spans="10:49">
       <c r="J291" s="4"/>
       <c r="K291" s="11"/>
       <c r="AA291" s="2"/>
       <c r="AR291" s="9"/>
+      <c r="AW291" s="10"/>
     </row>
-    <row r="292" spans="10:44">
+    <row r="292" spans="10:49">
       <c r="J292" s="4"/>
       <c r="K292" s="11"/>
       <c r="AA292" s="2"/>
       <c r="AR292" s="9"/>
+      <c r="AW292" s="10"/>
     </row>
-    <row r="293" spans="10:44">
+    <row r="293" spans="10:49">
       <c r="J293" s="4"/>
       <c r="K293" s="11"/>
       <c r="AA293" s="2"/>
       <c r="AR293" s="9"/>
+      <c r="AW293" s="10"/>
     </row>
-    <row r="294" spans="10:44">
+    <row r="294" spans="10:49">
       <c r="J294" s="4"/>
       <c r="K294" s="11"/>
       <c r="AA294" s="2"/>
       <c r="AR294" s="9"/>
     </row>
-    <row r="295" spans="10:44">
+    <row r="295" spans="10:49">
       <c r="J295" s="4"/>
       <c r="K295" s="11"/>
       <c r="AA295" s="2"/>
       <c r="AR295" s="9"/>
     </row>
-    <row r="296" spans="10:44">
+    <row r="296" spans="10:49">
       <c r="J296" s="4"/>
       <c r="K296" s="11"/>
       <c r="AA296" s="2"/>
       <c r="AR296" s="9"/>
     </row>
-    <row r="297" spans="10:44">
+    <row r="297" spans="10:49">
       <c r="J297" s="4"/>
       <c r="K297" s="11"/>
       <c r="AA297" s="2"/>
       <c r="AR297" s="9"/>
     </row>
-    <row r="298" spans="10:44">
+    <row r="298" spans="10:49">
       <c r="K298" s="11"/>
       <c r="AA298" s="2"/>
       <c r="AR298" s="9"/>
     </row>
-    <row r="299" spans="10:44">
+    <row r="299" spans="10:49">
       <c r="K299" s="11"/>
       <c r="L299" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA299" s="2"/>
       <c r="AR299" s="9"/>
     </row>
-    <row r="300" spans="10:44">
+    <row r="300" spans="10:49">
       <c r="K300" s="11"/>
       <c r="AA300" s="2"/>
       <c r="AR300" s="9"/>
     </row>
-    <row r="301" spans="10:44">
+    <row r="301" spans="10:49">
       <c r="K301" s="11"/>
       <c r="AA301" s="2"/>
       <c r="AR301" s="9"/>
     </row>
-    <row r="302" spans="10:44">
+    <row r="302" spans="10:49">
       <c r="K302" s="11"/>
       <c r="AA302" s="2"/>
       <c r="AR302" s="9"/>
     </row>
-    <row r="303" spans="10:44">
+    <row r="303" spans="10:49">
       <c r="K303" s="11"/>
       <c r="AA303" s="2"/>
       <c r="AR303" s="9"/>
     </row>
-    <row r="304" spans="10:44">
+    <row r="304" spans="10:49">
       <c r="K304" s="11"/>
       <c r="AA304" s="2"/>
       <c r="AR304" s="9"/>
@@ -32027,5 +36251,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -713,10 +713,10 @@
   <dimension ref="A1:AY327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AZ12" sqref="AZ12"/>
+      <selection pane="bottomRight" activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK2" s="1">
         <v>3</v>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>CPIServices</t>
+  </si>
+  <si>
+    <t>BloomFinDistress</t>
   </si>
 </sst>
 </file>
@@ -883,13 +886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH629"/>
+  <dimension ref="A1:BI629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AL93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="BA240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS131" sqref="AS131"/>
+      <selection pane="bottomRight" activeCell="BG6" sqref="BG6:BG273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -925,12 +928,12 @@
     <col min="48" max="48" width="22" style="2"/>
     <col min="49" max="49" width="22" style="3"/>
     <col min="50" max="51" width="22" style="2"/>
-    <col min="52" max="59" width="22" style="3"/>
-    <col min="60" max="60" width="22" style="3" customWidth="1"/>
-    <col min="61" max="16384" width="22" style="3"/>
+    <col min="52" max="60" width="22" style="3"/>
+    <col min="61" max="61" width="22" style="3" customWidth="1"/>
+    <col min="62" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="7" customFormat="1">
+    <row r="1" spans="1:61" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1106,13 +1109,16 @@
         <v>53</v>
       </c>
       <c r="BG1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:60" s="7" customFormat="1">
+    <row r="2" spans="1:61" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1290,11 +1296,14 @@
       <c r="BG2" s="7">
         <v>3</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2" s="7">
         <v>3</v>
       </c>
+      <c r="BI2" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" s="7" customFormat="1">
+    <row r="3" spans="1:61" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1472,11 +1481,14 @@
       <c r="BG3" s="7">
         <v>1</v>
       </c>
-      <c r="BH3" s="1">
+      <c r="BH3" s="7">
         <v>1</v>
       </c>
+      <c r="BI3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" s="7" customFormat="1">
+    <row r="4" spans="1:61" s="7" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1657,8 +1669,11 @@
       <c r="BH4" s="1">
         <v>59</v>
       </c>
+      <c r="BI4" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" s="7" customFormat="1">
+    <row r="5" spans="1:61" s="7" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1839,8 +1854,11 @@
       <c r="BH5" s="1">
         <v>59</v>
       </c>
+      <c r="BI5" s="1">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" s="5" customFormat="1">
+    <row r="6" spans="1:61" s="5" customFormat="1">
       <c r="B6" s="5">
         <v>1950</v>
       </c>
@@ -1926,12 +1944,15 @@
       <c r="BF6" s="8">
         <v>27.617000000000001</v>
       </c>
-      <c r="BG6" s="5">
-        <f t="shared" ref="BG6:BG69" si="0">BE6-BF6</f>
+      <c r="BG6" s="8">
+        <v>99.435079386681394</v>
+      </c>
+      <c r="BH6" s="5">
+        <f t="shared" ref="BH6:BH69" si="0">BE6-BF6</f>
         <v>-25.047000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="5" customFormat="1">
+    <row r="7" spans="1:61" s="5" customFormat="1">
       <c r="B7" s="5">
         <v>1950.25</v>
       </c>
@@ -2017,12 +2038,15 @@
       <c r="BF7" s="8">
         <v>27.927</v>
       </c>
-      <c r="BG7" s="5">
+      <c r="BG7" s="8">
+        <v>99.357199119231893</v>
+      </c>
+      <c r="BH7" s="5">
         <f t="shared" si="0"/>
         <v>-25.356999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="5" customFormat="1">
+    <row r="8" spans="1:61" s="5" customFormat="1">
       <c r="B8" s="5">
         <v>1950.5</v>
       </c>
@@ -2108,12 +2132,15 @@
       <c r="BF8" s="8">
         <v>28.532</v>
       </c>
-      <c r="BG8" s="5">
+      <c r="BG8" s="8">
+        <v>99.114940488764404</v>
+      </c>
+      <c r="BH8" s="5">
         <f t="shared" si="0"/>
         <v>-25.962</v>
       </c>
     </row>
-    <row r="9" spans="1:60" s="5" customFormat="1">
+    <row r="9" spans="1:61" s="5" customFormat="1">
       <c r="B9" s="5">
         <v>1950.75</v>
       </c>
@@ -2199,12 +2226,15 @@
       <c r="BF9" s="8">
         <v>28.574000000000002</v>
       </c>
-      <c r="BG9" s="5">
+      <c r="BG9" s="8">
+        <v>99.246325651713803</v>
+      </c>
+      <c r="BH9" s="5">
         <f t="shared" si="0"/>
         <v>-26.004000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="5" customFormat="1">
+    <row r="10" spans="1:61" s="5" customFormat="1">
       <c r="B10" s="5">
         <v>1951</v>
       </c>
@@ -2290,12 +2320,15 @@
       <c r="BF10" s="8">
         <v>28.632999999999999</v>
       </c>
-      <c r="BG10" s="5">
+      <c r="BG10" s="8">
+        <v>99.433625681813197</v>
+      </c>
+      <c r="BH10" s="5">
         <f t="shared" si="0"/>
         <v>-26.062999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:60" s="5" customFormat="1">
+    <row r="11" spans="1:61" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>1951.25</v>
       </c>
@@ -2381,12 +2414,15 @@
       <c r="BF11" s="8">
         <v>28.533999999999999</v>
       </c>
-      <c r="BG11" s="5">
+      <c r="BG11" s="8">
+        <v>99.183781879400598</v>
+      </c>
+      <c r="BH11" s="5">
         <f t="shared" si="0"/>
         <v>-25.963999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="5" customFormat="1">
+    <row r="12" spans="1:61" s="5" customFormat="1">
       <c r="B12" s="5">
         <v>1951.5</v>
       </c>
@@ -2472,12 +2508,15 @@
       <c r="BF12" s="8">
         <v>29.187999999999999</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BG12" s="8">
+        <v>99.073673041098402</v>
+      </c>
+      <c r="BH12" s="5">
         <f t="shared" si="0"/>
         <v>-26.617999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:60" s="5" customFormat="1">
+    <row r="13" spans="1:61" s="5" customFormat="1">
       <c r="B13" s="5">
         <v>1951.75</v>
       </c>
@@ -2563,12 +2602,15 @@
       <c r="BF13" s="8">
         <v>29.256</v>
       </c>
-      <c r="BG13" s="5">
+      <c r="BG13" s="8">
+        <v>98.892346304278107</v>
+      </c>
+      <c r="BH13" s="5">
         <f t="shared" si="0"/>
         <v>-26.686</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="5" customFormat="1">
+    <row r="14" spans="1:61" s="5" customFormat="1">
       <c r="B14" s="5">
         <v>1952</v>
       </c>
@@ -2654,15 +2696,18 @@
       <c r="BF14" s="8">
         <v>29.381</v>
       </c>
-      <c r="BG14" s="5">
+      <c r="BG14" s="8">
+        <v>99.511565964809094</v>
+      </c>
+      <c r="BH14" s="5">
         <f t="shared" si="0"/>
         <v>-26.811</v>
       </c>
-      <c r="BH14" s="5">
+      <c r="BI14" s="5">
         <v>156522.33333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="5" customFormat="1">
+    <row r="15" spans="1:61" s="5" customFormat="1">
       <c r="B15" s="5">
         <v>1952.25</v>
       </c>
@@ -2748,15 +2793,18 @@
       <c r="BF15" s="8">
         <v>29.359000000000002</v>
       </c>
-      <c r="BG15" s="5">
+      <c r="BG15" s="8">
+        <v>99.199054877300995</v>
+      </c>
+      <c r="BH15" s="5">
         <f t="shared" si="0"/>
         <v>-26.789000000000001</v>
       </c>
-      <c r="BH15" s="5">
+      <c r="BI15" s="5">
         <v>157142</v>
       </c>
     </row>
-    <row r="16" spans="1:60" s="5" customFormat="1">
+    <row r="16" spans="1:61" s="5" customFormat="1">
       <c r="B16" s="5">
         <v>1952.5</v>
       </c>
@@ -2842,15 +2890,18 @@
       <c r="BF16" s="8">
         <v>29.245000000000001</v>
       </c>
-      <c r="BG16" s="5">
+      <c r="BG16" s="8">
+        <v>99.320365687424498</v>
+      </c>
+      <c r="BH16" s="5">
         <f t="shared" si="0"/>
         <v>-26.675000000000001</v>
       </c>
-      <c r="BH16" s="5">
+      <c r="BI16" s="5">
         <v>157801.33333333334</v>
       </c>
     </row>
-    <row r="17" spans="2:60" s="5" customFormat="1">
+    <row r="17" spans="2:61" s="5" customFormat="1">
       <c r="B17" s="5">
         <v>1952.75</v>
       </c>
@@ -2936,15 +2987,18 @@
       <c r="BF17" s="8">
         <v>29.824999999999999</v>
       </c>
-      <c r="BG17" s="5">
+      <c r="BG17" s="8">
+        <v>98.987295018349101</v>
+      </c>
+      <c r="BH17" s="5">
         <f t="shared" si="0"/>
         <v>-27.254999999999999</v>
       </c>
-      <c r="BH17" s="5">
+      <c r="BI17" s="5">
         <v>158504.66666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:60" s="5" customFormat="1">
+    <row r="18" spans="2:61" s="5" customFormat="1">
       <c r="B18" s="5">
         <v>1953</v>
       </c>
@@ -3033,15 +3087,18 @@
       <c r="BF18" s="8">
         <v>30.061</v>
       </c>
-      <c r="BG18" s="5">
+      <c r="BG18" s="8">
+        <v>99.016904555877403</v>
+      </c>
+      <c r="BH18" s="5">
         <f t="shared" si="0"/>
         <v>-27.491</v>
       </c>
-      <c r="BH18" s="5">
+      <c r="BI18" s="5">
         <v>159164</v>
       </c>
     </row>
-    <row r="19" spans="2:60" s="5" customFormat="1">
+    <row r="19" spans="2:61" s="5" customFormat="1">
       <c r="B19" s="5">
         <v>1953.25</v>
       </c>
@@ -3130,15 +3187,18 @@
       <c r="BF19" s="8">
         <v>30.155999999999999</v>
       </c>
-      <c r="BG19" s="5">
+      <c r="BG19" s="8">
+        <v>99.3301830805284</v>
+      </c>
+      <c r="BH19" s="5">
         <f t="shared" si="0"/>
         <v>-27.502666666666666</v>
       </c>
-      <c r="BH19" s="5">
+      <c r="BI19" s="5">
         <v>159752.33333333334</v>
       </c>
     </row>
-    <row r="20" spans="2:60" s="5" customFormat="1">
+    <row r="20" spans="2:61" s="5" customFormat="1">
       <c r="B20" s="5">
         <v>1953.5</v>
       </c>
@@ -3227,15 +3287,18 @@
       <c r="BF20" s="8">
         <v>30.305</v>
       </c>
-      <c r="BG20" s="5">
+      <c r="BG20" s="8">
+        <v>99.100657781953004</v>
+      </c>
+      <c r="BH20" s="5">
         <f t="shared" si="0"/>
         <v>-27.484999999999999</v>
       </c>
-      <c r="BH20" s="5">
+      <c r="BI20" s="5">
         <v>160450.33333333334</v>
       </c>
     </row>
-    <row r="21" spans="2:60" s="5" customFormat="1">
+    <row r="21" spans="2:61" s="5" customFormat="1">
       <c r="B21" s="5">
         <v>1953.75</v>
       </c>
@@ -3324,15 +3387,18 @@
       <c r="BF21" s="8">
         <v>30.190999999999999</v>
       </c>
-      <c r="BG21" s="5">
+      <c r="BG21" s="8">
+        <v>98.795407900041695</v>
+      </c>
+      <c r="BH21" s="5">
         <f t="shared" si="0"/>
         <v>-27.370999999999999</v>
       </c>
-      <c r="BH21" s="5">
+      <c r="BI21" s="5">
         <v>161218</v>
       </c>
     </row>
-    <row r="22" spans="2:60" s="5" customFormat="1">
+    <row r="22" spans="2:61" s="5" customFormat="1">
       <c r="B22" s="5">
         <v>1954</v>
       </c>
@@ -3421,15 +3487,18 @@
       <c r="BF22" s="8">
         <v>30.242999999999999</v>
       </c>
-      <c r="BG22" s="5">
+      <c r="BG22" s="8">
+        <v>99.266834681675206</v>
+      </c>
+      <c r="BH22" s="5">
         <f t="shared" si="0"/>
         <v>-27.422999999999998</v>
       </c>
-      <c r="BH22" s="5">
+      <c r="BI22" s="5">
         <v>161908.66666666666</v>
       </c>
     </row>
-    <row r="23" spans="2:60" s="5" customFormat="1">
+    <row r="23" spans="2:61" s="5" customFormat="1">
       <c r="B23" s="5">
         <v>1954.25</v>
       </c>
@@ -3518,15 +3587,18 @@
       <c r="BF23" s="8">
         <v>30.459</v>
       </c>
-      <c r="BG23" s="5">
+      <c r="BG23" s="8">
+        <v>98.858809896117194</v>
+      </c>
+      <c r="BH23" s="5">
         <f t="shared" si="0"/>
         <v>-27.638999999999999</v>
       </c>
-      <c r="BH23" s="5">
+      <c r="BI23" s="5">
         <v>162568</v>
       </c>
     </row>
-    <row r="24" spans="2:60" s="5" customFormat="1">
+    <row r="24" spans="2:61" s="5" customFormat="1">
       <c r="B24" s="5">
         <v>1954.5</v>
       </c>
@@ -3618,15 +3690,18 @@
       <c r="BF24" s="8">
         <v>31.012</v>
       </c>
-      <c r="BG24" s="5">
+      <c r="BG24" s="8">
+        <v>98.937287912601505</v>
+      </c>
+      <c r="BH24" s="5">
         <f t="shared" si="0"/>
         <v>-28.192</v>
       </c>
-      <c r="BH24" s="5">
+      <c r="BI24" s="5">
         <v>163295.33333333334</v>
       </c>
     </row>
-    <row r="25" spans="2:60" s="5" customFormat="1">
+    <row r="25" spans="2:61" s="5" customFormat="1">
       <c r="B25" s="5">
         <v>1954.75</v>
       </c>
@@ -3718,15 +3793,18 @@
       <c r="BF25" s="8">
         <v>31.376000000000001</v>
       </c>
-      <c r="BG25" s="5">
+      <c r="BG25" s="8">
+        <v>98.799150829310193</v>
+      </c>
+      <c r="BH25" s="5">
         <f t="shared" si="0"/>
         <v>-28.556000000000001</v>
       </c>
-      <c r="BH25" s="5">
+      <c r="BI25" s="5">
         <v>164101</v>
       </c>
     </row>
-    <row r="26" spans="2:60" s="5" customFormat="1">
+    <row r="26" spans="2:61" s="5" customFormat="1">
       <c r="B26" s="5">
         <v>1955</v>
       </c>
@@ -3818,15 +3896,18 @@
       <c r="BF26" s="8">
         <v>31.975000000000001</v>
       </c>
-      <c r="BG26" s="5">
+      <c r="BG26" s="8">
+        <v>99.039665233682001</v>
+      </c>
+      <c r="BH26" s="5">
         <f t="shared" si="0"/>
         <v>-29.155000000000001</v>
       </c>
-      <c r="BH26" s="5">
+      <c r="BI26" s="5">
         <v>164805</v>
       </c>
     </row>
-    <row r="27" spans="2:60" s="5" customFormat="1">
+    <row r="27" spans="2:61" s="5" customFormat="1">
       <c r="B27" s="5">
         <v>1955.25</v>
       </c>
@@ -3918,15 +3999,18 @@
       <c r="BF27" s="8">
         <v>32.067999999999998</v>
       </c>
-      <c r="BG27" s="5">
+      <c r="BG27" s="8">
+        <v>98.681988329274702</v>
+      </c>
+      <c r="BH27" s="5">
         <f t="shared" si="0"/>
         <v>-29.247999999999998</v>
       </c>
-      <c r="BH27" s="5">
+      <c r="BI27" s="5">
         <v>165469.66666666666</v>
       </c>
     </row>
-    <row r="28" spans="2:60" s="5" customFormat="1">
+    <row r="28" spans="2:61" s="5" customFormat="1">
       <c r="B28" s="5">
         <v>1955.5</v>
       </c>
@@ -4018,15 +4102,18 @@
       <c r="BF28" s="8">
         <v>32.198999999999998</v>
       </c>
-      <c r="BG28" s="5">
+      <c r="BG28" s="8">
+        <v>98.979811837209994</v>
+      </c>
+      <c r="BH28" s="5">
         <f t="shared" si="0"/>
         <v>-29.378999999999998</v>
       </c>
-      <c r="BH28" s="5">
+      <c r="BI28" s="5">
         <v>166198.66666666666</v>
       </c>
     </row>
-    <row r="29" spans="2:60" s="5" customFormat="1">
+    <row r="29" spans="2:61" s="5" customFormat="1">
       <c r="B29" s="5">
         <v>1955.75</v>
       </c>
@@ -4118,15 +4205,18 @@
       <c r="BF29" s="8">
         <v>32.098999999999997</v>
       </c>
-      <c r="BG29" s="5">
+      <c r="BG29" s="8">
+        <v>98.758390157827606</v>
+      </c>
+      <c r="BH29" s="5">
         <f t="shared" si="0"/>
         <v>-29.278999999999996</v>
       </c>
-      <c r="BH29" s="5">
+      <c r="BI29" s="5">
         <v>167016</v>
       </c>
     </row>
-    <row r="30" spans="2:60" s="5" customFormat="1">
+    <row r="30" spans="2:61" s="5" customFormat="1">
       <c r="B30" s="5">
         <v>1956</v>
       </c>
@@ -4224,15 +4314,18 @@
       <c r="BF30" s="8">
         <v>31.704000000000001</v>
       </c>
-      <c r="BG30" s="5">
+      <c r="BG30" s="8">
+        <v>98.861833283307703</v>
+      </c>
+      <c r="BH30" s="5">
         <f t="shared" si="0"/>
         <v>-28.884</v>
       </c>
-      <c r="BH30" s="5">
+      <c r="BI30" s="5">
         <v>167745.33333333334</v>
       </c>
     </row>
-    <row r="31" spans="2:60" s="5" customFormat="1">
+    <row r="31" spans="2:61" s="5" customFormat="1">
       <c r="B31" s="5">
         <v>1956.25</v>
       </c>
@@ -4330,15 +4423,18 @@
       <c r="BF31" s="8">
         <v>31.847999999999999</v>
       </c>
-      <c r="BG31" s="5">
+      <c r="BG31" s="8">
+        <v>98.671524953014597</v>
+      </c>
+      <c r="BH31" s="5">
         <f t="shared" si="0"/>
         <v>-29.027999999999999</v>
       </c>
-      <c r="BH31" s="5">
+      <c r="BI31" s="5">
         <v>168438.66666666666</v>
       </c>
     </row>
-    <row r="32" spans="2:60" s="5" customFormat="1">
+    <row r="32" spans="2:61" s="5" customFormat="1">
       <c r="B32" s="5">
         <v>1956.5</v>
       </c>
@@ -4436,15 +4532,18 @@
       <c r="BF32" s="8">
         <v>31.85</v>
       </c>
-      <c r="BG32" s="5">
+      <c r="BG32" s="8">
+        <v>98.726018183719603</v>
+      </c>
+      <c r="BH32" s="5">
         <f t="shared" si="0"/>
         <v>-29.03</v>
       </c>
-      <c r="BH32" s="5">
+      <c r="BI32" s="5">
         <v>169194</v>
       </c>
     </row>
-    <row r="33" spans="2:60" s="5" customFormat="1">
+    <row r="33" spans="2:61" s="5" customFormat="1">
       <c r="B33" s="5">
         <v>1956.75</v>
       </c>
@@ -4542,15 +4641,18 @@
       <c r="BF33" s="8">
         <v>32.188000000000002</v>
       </c>
-      <c r="BG33" s="5">
+      <c r="BG33" s="8">
+        <v>98.598317585254705</v>
+      </c>
+      <c r="BH33" s="5">
         <f t="shared" si="0"/>
         <v>-29.368000000000002</v>
       </c>
-      <c r="BH33" s="5">
+      <c r="BI33" s="5">
         <v>170052.66666666666</v>
       </c>
     </row>
-    <row r="34" spans="2:60" s="5" customFormat="1">
+    <row r="34" spans="2:61" s="5" customFormat="1">
       <c r="B34" s="5">
         <v>1957</v>
       </c>
@@ -4648,15 +4750,18 @@
       <c r="BF34" s="8">
         <v>32.555999999999997</v>
       </c>
-      <c r="BG34" s="5">
+      <c r="BG34" s="8">
+        <v>98.961284669998804</v>
+      </c>
+      <c r="BH34" s="5">
         <f t="shared" si="0"/>
         <v>-29.569333333333329</v>
       </c>
-      <c r="BH34" s="5">
+      <c r="BI34" s="5">
         <v>170802</v>
       </c>
     </row>
-    <row r="35" spans="2:60" s="5" customFormat="1">
+    <row r="35" spans="2:61" s="5" customFormat="1">
       <c r="B35" s="5">
         <v>1957.25</v>
       </c>
@@ -4754,15 +4859,18 @@
       <c r="BF35" s="8">
         <v>32.433999999999997</v>
       </c>
-      <c r="BG35" s="5">
+      <c r="BG35" s="8">
+        <v>98.922299097822702</v>
+      </c>
+      <c r="BH35" s="5">
         <f t="shared" si="0"/>
         <v>-29.363999999999997</v>
       </c>
-      <c r="BH35" s="5">
+      <c r="BI35" s="5">
         <v>171504.33333333334</v>
       </c>
     </row>
-    <row r="36" spans="2:60" s="5" customFormat="1">
+    <row r="36" spans="2:61" s="5" customFormat="1">
       <c r="B36" s="5">
         <v>1957.5</v>
       </c>
@@ -4860,15 +4968,18 @@
       <c r="BF36" s="8">
         <v>32.898000000000003</v>
       </c>
-      <c r="BG36" s="5">
+      <c r="BG36" s="8">
+        <v>98.776381999426405</v>
+      </c>
+      <c r="BH36" s="5">
         <f t="shared" si="0"/>
         <v>-29.828000000000003</v>
       </c>
-      <c r="BH36" s="5">
+      <c r="BI36" s="5">
         <v>172259.66666666666</v>
       </c>
     </row>
-    <row r="37" spans="2:60" s="5" customFormat="1">
+    <row r="37" spans="2:61" s="5" customFormat="1">
       <c r="B37" s="5">
         <v>1957.75</v>
       </c>
@@ -4966,15 +5077,18 @@
       <c r="BF37" s="8">
         <v>33.003</v>
       </c>
-      <c r="BG37" s="5">
+      <c r="BG37" s="8">
+        <v>99.026899587238702</v>
+      </c>
+      <c r="BH37" s="5">
         <f t="shared" si="0"/>
         <v>-29.956333333333333</v>
       </c>
-      <c r="BH37" s="5">
+      <c r="BI37" s="5">
         <v>173061.33333333334</v>
       </c>
     </row>
-    <row r="38" spans="2:60" s="5" customFormat="1">
+    <row r="38" spans="2:61" s="5" customFormat="1">
       <c r="B38" s="5">
         <v>1958</v>
       </c>
@@ -5072,15 +5186,18 @@
       <c r="BF38" s="8">
         <v>32.545999999999999</v>
       </c>
-      <c r="BG38" s="5">
+      <c r="BG38" s="8">
+        <v>99.166487111072797</v>
+      </c>
+      <c r="BH38" s="5">
         <f t="shared" si="0"/>
         <v>-29.475999999999999</v>
       </c>
-      <c r="BH38" s="5">
+      <c r="BI38" s="5">
         <v>173741.33333333334</v>
       </c>
     </row>
-    <row r="39" spans="2:60" s="5" customFormat="1">
+    <row r="39" spans="2:61" s="5" customFormat="1">
       <c r="B39" s="5">
         <v>1958.25</v>
       </c>
@@ -5178,15 +5295,18 @@
       <c r="BF39" s="8">
         <v>33.186999999999998</v>
       </c>
-      <c r="BG39" s="5">
+      <c r="BG39" s="8">
+        <v>98.914843619992993</v>
+      </c>
+      <c r="BH39" s="5">
         <f t="shared" si="0"/>
         <v>-30.116999999999997</v>
       </c>
-      <c r="BH39" s="5">
+      <c r="BI39" s="5">
         <v>174404</v>
       </c>
     </row>
-    <row r="40" spans="2:60" s="5" customFormat="1">
+    <row r="40" spans="2:61" s="5" customFormat="1">
       <c r="B40" s="5">
         <v>1958.5</v>
       </c>
@@ -5284,15 +5404,18 @@
       <c r="BF40" s="8">
         <v>33.807000000000002</v>
       </c>
-      <c r="BG40" s="5">
+      <c r="BG40" s="8">
+        <v>98.902371999677797</v>
+      </c>
+      <c r="BH40" s="5">
         <f t="shared" si="0"/>
         <v>-30.737000000000002</v>
       </c>
-      <c r="BH40" s="5">
+      <c r="BI40" s="5">
         <v>175146</v>
       </c>
     </row>
-    <row r="41" spans="2:60" s="5" customFormat="1">
+    <row r="41" spans="2:61" s="5" customFormat="1">
       <c r="B41" s="5">
         <v>1958.75</v>
       </c>
@@ -5390,15 +5513,18 @@
       <c r="BF41" s="8">
         <v>34.378</v>
       </c>
-      <c r="BG41" s="5">
+      <c r="BG41" s="8">
+        <v>98.906745456507593</v>
+      </c>
+      <c r="BH41" s="5">
         <f t="shared" si="0"/>
         <v>-31.354666666666667</v>
       </c>
-      <c r="BH41" s="5">
+      <c r="BI41" s="5">
         <v>175956.66666666666</v>
       </c>
     </row>
-    <row r="42" spans="2:60" s="5" customFormat="1">
+    <row r="42" spans="2:61" s="5" customFormat="1">
       <c r="B42" s="5">
         <v>1959</v>
       </c>
@@ -5496,15 +5622,18 @@
       <c r="BF42" s="8">
         <v>34.402000000000001</v>
       </c>
-      <c r="BG42" s="5">
+      <c r="BG42" s="8">
+        <v>98.957286445295594</v>
+      </c>
+      <c r="BH42" s="5">
         <f t="shared" si="0"/>
         <v>-31.411999999999999</v>
       </c>
-      <c r="BH42" s="5">
+      <c r="BI42" s="5">
         <v>176679</v>
       </c>
     </row>
-    <row r="43" spans="2:60" s="5" customFormat="1">
+    <row r="43" spans="2:61" s="5" customFormat="1">
       <c r="B43" s="5">
         <v>1959.25</v>
       </c>
@@ -5602,15 +5731,18 @@
       <c r="BF43" s="8">
         <v>34.81</v>
       </c>
-      <c r="BG43" s="5">
+      <c r="BG43" s="8">
+        <v>99.008982509595995</v>
+      </c>
+      <c r="BH43" s="5">
         <f t="shared" si="0"/>
         <v>-31.840000000000003</v>
       </c>
-      <c r="BH43" s="5">
+      <c r="BI43" s="5">
         <v>177367.33333333334</v>
       </c>
     </row>
-    <row r="44" spans="2:60" s="5" customFormat="1">
+    <row r="44" spans="2:61" s="5" customFormat="1">
       <c r="B44" s="5">
         <v>1959.5</v>
       </c>
@@ -5708,15 +5840,18 @@
       <c r="BF44" s="8">
         <v>34.741</v>
       </c>
-      <c r="BG44" s="5">
+      <c r="BG44" s="8">
+        <v>98.848394266977095</v>
+      </c>
+      <c r="BH44" s="5">
         <f t="shared" si="0"/>
         <v>-31.771000000000001</v>
       </c>
-      <c r="BH44" s="5">
+      <c r="BI44" s="5">
         <v>178102.33333333334</v>
       </c>
     </row>
-    <row r="45" spans="2:60" s="5" customFormat="1">
+    <row r="45" spans="2:61" s="5" customFormat="1">
       <c r="B45" s="5">
         <v>1959.75</v>
       </c>
@@ -5814,15 +5949,18 @@
       <c r="BF45" s="8">
         <v>34.680999999999997</v>
       </c>
-      <c r="BG45" s="5">
+      <c r="BG45" s="8">
+        <v>98.758050210582496</v>
+      </c>
+      <c r="BH45" s="5">
         <f t="shared" si="0"/>
         <v>-31.710999999999999</v>
       </c>
-      <c r="BH45" s="5">
+      <c r="BI45" s="5">
         <v>178910.33333333334</v>
       </c>
     </row>
-    <row r="46" spans="2:60" s="5" customFormat="1">
+    <row r="46" spans="2:61" s="5" customFormat="1">
       <c r="B46" s="5">
         <v>1960</v>
       </c>
@@ -5923,15 +6061,18 @@
       <c r="BF46" s="8">
         <v>35.484999999999999</v>
       </c>
-      <c r="BG46" s="5">
+      <c r="BG46" s="8">
+        <v>98.761929295740003</v>
+      </c>
+      <c r="BH46" s="5">
         <f t="shared" si="0"/>
         <v>-32.515000000000001</v>
       </c>
-      <c r="BH46" s="5">
+      <c r="BI46" s="5">
         <v>179590.33333333334</v>
       </c>
     </row>
-    <row r="47" spans="2:60" s="5" customFormat="1">
+    <row r="47" spans="2:61" s="5" customFormat="1">
       <c r="B47" s="5">
         <v>1960.25</v>
       </c>
@@ -6032,15 +6173,18 @@
       <c r="BF47" s="8">
         <v>35.005000000000003</v>
       </c>
-      <c r="BG47" s="5">
+      <c r="BG47" s="8">
+        <v>98.606162343193105</v>
+      </c>
+      <c r="BH47" s="5">
         <f t="shared" si="0"/>
         <v>-32.035000000000004</v>
       </c>
-      <c r="BH47" s="5">
+      <c r="BI47" s="5">
         <v>180224.33333333334</v>
       </c>
     </row>
-    <row r="48" spans="2:60" s="5" customFormat="1">
+    <row r="48" spans="2:61" s="5" customFormat="1">
       <c r="B48" s="5">
         <v>1960.5</v>
       </c>
@@ -6141,15 +6285,18 @@
       <c r="BF48" s="8">
         <v>35.106000000000002</v>
       </c>
-      <c r="BG48" s="5">
+      <c r="BG48" s="8">
+        <v>98.86301230526</v>
+      </c>
+      <c r="BH48" s="5">
         <f t="shared" si="0"/>
         <v>-32.136000000000003</v>
       </c>
-      <c r="BH48" s="5">
+      <c r="BI48" s="5">
         <v>180951.33333333334</v>
       </c>
     </row>
-    <row r="49" spans="2:60" s="5" customFormat="1">
+    <row r="49" spans="2:61" s="5" customFormat="1">
       <c r="B49" s="5">
         <v>1960.75</v>
       </c>
@@ -6250,15 +6397,18 @@
       <c r="BF49" s="8">
         <v>34.677999999999997</v>
       </c>
-      <c r="BG49" s="5">
+      <c r="BG49" s="8">
+        <v>98.965398557211003</v>
+      </c>
+      <c r="BH49" s="5">
         <f t="shared" si="0"/>
         <v>-31.707999999999998</v>
       </c>
-      <c r="BH49" s="5">
+      <c r="BI49" s="5">
         <v>181788.66666666666</v>
       </c>
     </row>
-    <row r="50" spans="2:60" s="5" customFormat="1">
+    <row r="50" spans="2:61" s="5" customFormat="1">
       <c r="B50" s="5">
         <v>1961</v>
       </c>
@@ -6359,15 +6509,18 @@
       <c r="BF50" s="8">
         <v>35.122999999999998</v>
       </c>
-      <c r="BG50" s="5">
+      <c r="BG50" s="8">
+        <v>98.981737694015095</v>
+      </c>
+      <c r="BH50" s="5">
         <f t="shared" si="0"/>
         <v>-32.152999999999999</v>
       </c>
-      <c r="BH50" s="5">
+      <c r="BI50" s="5">
         <v>182516.33333333334</v>
       </c>
     </row>
-    <row r="51" spans="2:60" s="5" customFormat="1">
+    <row r="51" spans="2:61" s="5" customFormat="1">
       <c r="B51" s="5">
         <v>1961.25</v>
       </c>
@@ -6468,15 +6621,18 @@
       <c r="BF51" s="8">
         <v>36.125999999999998</v>
       </c>
-      <c r="BG51" s="5">
+      <c r="BG51" s="8">
+        <v>98.9370804787292</v>
+      </c>
+      <c r="BH51" s="5">
         <f t="shared" si="0"/>
         <v>-33.155999999999999</v>
       </c>
-      <c r="BH51" s="5">
+      <c r="BI51" s="5">
         <v>183220.33333333334</v>
       </c>
     </row>
-    <row r="52" spans="2:60" s="5" customFormat="1">
+    <row r="52" spans="2:61" s="5" customFormat="1">
       <c r="B52" s="5">
         <v>1961.5</v>
       </c>
@@ -6577,15 +6733,18 @@
       <c r="BF52" s="8">
         <v>36.625</v>
       </c>
-      <c r="BG52" s="5">
+      <c r="BG52" s="8">
+        <v>98.760631657931199</v>
+      </c>
+      <c r="BH52" s="5">
         <f t="shared" si="0"/>
         <v>-33.655000000000001</v>
       </c>
-      <c r="BH52" s="5">
+      <c r="BI52" s="5">
         <v>183964</v>
       </c>
     </row>
-    <row r="53" spans="2:60" s="5" customFormat="1">
+    <row r="53" spans="2:61" s="5" customFormat="1">
       <c r="B53" s="5">
         <v>1961.75</v>
       </c>
@@ -6686,15 +6845,18 @@
       <c r="BF53" s="8">
         <v>36.966999999999999</v>
       </c>
-      <c r="BG53" s="5">
+      <c r="BG53" s="8">
+        <v>98.576122855403597</v>
+      </c>
+      <c r="BH53" s="5">
         <f t="shared" si="0"/>
         <v>-33.997</v>
       </c>
-      <c r="BH53" s="5">
+      <c r="BI53" s="5">
         <v>184774.33333333334</v>
       </c>
     </row>
-    <row r="54" spans="2:60" s="5" customFormat="1">
+    <row r="54" spans="2:61" s="5" customFormat="1">
       <c r="B54" s="5">
         <v>1962</v>
       </c>
@@ -6795,15 +6957,18 @@
       <c r="BF54" s="8">
         <v>37.582000000000001</v>
       </c>
-      <c r="BG54" s="5">
+      <c r="BG54" s="8">
+        <v>99.143362897437896</v>
+      </c>
+      <c r="BH54" s="5">
         <f t="shared" si="0"/>
         <v>-34.612000000000002</v>
       </c>
-      <c r="BH54" s="5">
+      <c r="BI54" s="5">
         <v>185448</v>
       </c>
     </row>
-    <row r="55" spans="2:60" s="5" customFormat="1">
+    <row r="55" spans="2:61" s="5" customFormat="1">
       <c r="B55" s="5">
         <v>1962.25</v>
       </c>
@@ -6904,15 +7069,18 @@
       <c r="BF55" s="8">
         <v>37.520000000000003</v>
       </c>
-      <c r="BG55" s="5">
+      <c r="BG55" s="8">
+        <v>99.094237095065296</v>
+      </c>
+      <c r="BH55" s="5">
         <f t="shared" si="0"/>
         <v>-34.550000000000004</v>
       </c>
-      <c r="BH55" s="5">
+      <c r="BI55" s="5">
         <v>186091.66666666666</v>
       </c>
     </row>
-    <row r="56" spans="2:60" s="5" customFormat="1">
+    <row r="56" spans="2:61" s="5" customFormat="1">
       <c r="B56" s="5">
         <v>1962.5</v>
       </c>
@@ -7013,15 +7181,18 @@
       <c r="BF56" s="8">
         <v>38.009</v>
       </c>
-      <c r="BG56" s="5">
+      <c r="BG56" s="8">
+        <v>98.943399936539706</v>
+      </c>
+      <c r="BH56" s="5">
         <f t="shared" si="0"/>
         <v>-35.039000000000001</v>
       </c>
-      <c r="BH56" s="5">
+      <c r="BI56" s="5">
         <v>186795.33333333334</v>
       </c>
     </row>
-    <row r="57" spans="2:60" s="5" customFormat="1">
+    <row r="57" spans="2:61" s="5" customFormat="1">
       <c r="B57" s="5">
         <v>1962.75</v>
       </c>
@@ -7122,15 +7293,18 @@
       <c r="BF57" s="8">
         <v>38.331000000000003</v>
       </c>
-      <c r="BG57" s="5">
+      <c r="BG57" s="8">
+        <v>98.746109306998306</v>
+      </c>
+      <c r="BH57" s="5">
         <f t="shared" si="0"/>
         <v>-35.361000000000004</v>
       </c>
-      <c r="BH57" s="5">
+      <c r="BI57" s="5">
         <v>187564.33333333334</v>
       </c>
     </row>
-    <row r="58" spans="2:60" s="5" customFormat="1">
+    <row r="58" spans="2:61" s="5" customFormat="1">
       <c r="B58" s="5">
         <v>1963</v>
       </c>
@@ -7231,15 +7405,18 @@
       <c r="BF58" s="8">
         <v>38.457999999999998</v>
       </c>
-      <c r="BG58" s="5">
+      <c r="BG58" s="8">
+        <v>98.715634369058094</v>
+      </c>
+      <c r="BH58" s="5">
         <f t="shared" si="0"/>
         <v>-35.488</v>
       </c>
-      <c r="BH58" s="5">
+      <c r="BI58" s="5">
         <v>188204.33333333334</v>
       </c>
     </row>
-    <row r="59" spans="2:60" s="5" customFormat="1">
+    <row r="59" spans="2:61" s="5" customFormat="1">
       <c r="B59" s="5">
         <v>1963.25</v>
       </c>
@@ -7340,15 +7517,18 @@
       <c r="BF59" s="8">
         <v>38.847999999999999</v>
       </c>
-      <c r="BG59" s="5">
+      <c r="BG59" s="8">
+        <v>98.786148566050997</v>
+      </c>
+      <c r="BH59" s="5">
         <f t="shared" si="0"/>
         <v>-35.878</v>
       </c>
-      <c r="BH59" s="5">
+      <c r="BI59" s="5">
         <v>188796</v>
       </c>
     </row>
-    <row r="60" spans="2:60" s="5" customFormat="1">
+    <row r="60" spans="2:61" s="5" customFormat="1">
       <c r="B60" s="5">
         <v>1963.5</v>
       </c>
@@ -7449,15 +7629,18 @@
       <c r="BF60" s="8">
         <v>39.674999999999997</v>
       </c>
-      <c r="BG60" s="5">
+      <c r="BG60" s="8">
+        <v>98.994897377793805</v>
+      </c>
+      <c r="BH60" s="5">
         <f t="shared" si="0"/>
         <v>-36.704999999999998</v>
       </c>
-      <c r="BH60" s="5">
+      <c r="BI60" s="5">
         <v>189499.66666666666</v>
       </c>
     </row>
-    <row r="61" spans="2:60" s="5" customFormat="1">
+    <row r="61" spans="2:61" s="5" customFormat="1">
       <c r="B61" s="5">
         <v>1963.75</v>
       </c>
@@ -7558,15 +7741,18 @@
       <c r="BF61" s="8">
         <v>39.673999999999999</v>
       </c>
-      <c r="BG61" s="5">
+      <c r="BG61" s="8">
+        <v>98.763461642952905</v>
+      </c>
+      <c r="BH61" s="5">
         <f t="shared" si="0"/>
         <v>-36.704000000000001</v>
       </c>
-      <c r="BH61" s="5">
+      <c r="BI61" s="5">
         <v>190255</v>
       </c>
     </row>
-    <row r="62" spans="2:60" s="5" customFormat="1">
+    <row r="62" spans="2:61" s="5" customFormat="1">
       <c r="B62" s="5">
         <v>1964</v>
       </c>
@@ -7667,15 +7853,18 @@
       <c r="BF62" s="8">
         <v>40.029000000000003</v>
       </c>
-      <c r="BG62" s="5">
+      <c r="BG62" s="8">
+        <v>98.708171486728304</v>
+      </c>
+      <c r="BH62" s="5">
         <f t="shared" si="0"/>
         <v>-37.059000000000005</v>
       </c>
-      <c r="BH62" s="5">
+      <c r="BI62" s="5">
         <v>190857.66666666666</v>
       </c>
     </row>
-    <row r="63" spans="2:60" s="5" customFormat="1">
+    <row r="63" spans="2:61" s="5" customFormat="1">
       <c r="B63" s="5">
         <v>1964.25</v>
       </c>
@@ -7776,15 +7965,18 @@
       <c r="BF63" s="8">
         <v>40.301000000000002</v>
       </c>
-      <c r="BG63" s="5">
+      <c r="BG63" s="8">
+        <v>98.648950587011996</v>
+      </c>
+      <c r="BH63" s="5">
         <f t="shared" si="0"/>
         <v>-37.331000000000003</v>
       </c>
-      <c r="BH63" s="5">
+      <c r="BI63" s="5">
         <v>191452.66666666666</v>
       </c>
     </row>
-    <row r="64" spans="2:60" s="5" customFormat="1">
+    <row r="64" spans="2:61" s="5" customFormat="1">
       <c r="B64" s="5">
         <v>1964.5</v>
       </c>
@@ -7885,15 +8077,18 @@
       <c r="BF64" s="8">
         <v>40.604999999999997</v>
       </c>
-      <c r="BG64" s="5">
+      <c r="BG64" s="8">
+        <v>98.454162181378095</v>
+      </c>
+      <c r="BH64" s="5">
         <f t="shared" si="0"/>
         <v>-37.684999999999995</v>
       </c>
-      <c r="BH64" s="5">
+      <c r="BI64" s="5">
         <v>192132</v>
       </c>
     </row>
-    <row r="65" spans="2:60" s="5" customFormat="1">
+    <row r="65" spans="2:61" s="5" customFormat="1">
       <c r="B65" s="5">
         <v>1964.75</v>
       </c>
@@ -7994,15 +8189,18 @@
       <c r="BF65" s="8">
         <v>40.241999999999997</v>
       </c>
-      <c r="BG65" s="5">
+      <c r="BG65" s="8">
+        <v>98.636167310130503</v>
+      </c>
+      <c r="BH65" s="5">
         <f t="shared" si="0"/>
         <v>-37.321999999999996</v>
       </c>
-      <c r="BH65" s="5">
+      <c r="BI65" s="5">
         <v>192839</v>
       </c>
     </row>
-    <row r="66" spans="2:60" s="5" customFormat="1">
+    <row r="66" spans="2:61" s="5" customFormat="1">
       <c r="B66" s="5">
         <v>1965</v>
       </c>
@@ -8103,15 +8301,18 @@
       <c r="BF66" s="8">
         <v>40.838999999999999</v>
       </c>
-      <c r="BG66" s="5">
+      <c r="BG66" s="8">
+        <v>98.735277671154705</v>
+      </c>
+      <c r="BH66" s="5">
         <f t="shared" si="0"/>
         <v>-37.918999999999997</v>
       </c>
-      <c r="BH66" s="5">
+      <c r="BI66" s="5">
         <v>193385.33333333334</v>
       </c>
     </row>
-    <row r="67" spans="2:60" s="5" customFormat="1">
+    <row r="67" spans="2:61" s="5" customFormat="1">
       <c r="B67" s="5">
         <v>1965.25</v>
       </c>
@@ -8212,15 +8413,18 @@
       <c r="BF67" s="8">
         <v>41.082000000000001</v>
       </c>
-      <c r="BG67" s="5">
+      <c r="BG67" s="8">
+        <v>98.621439780199694</v>
+      </c>
+      <c r="BH67" s="5">
         <f t="shared" si="0"/>
         <v>-38.161999999999999</v>
       </c>
-      <c r="BH67" s="5">
+      <c r="BI67" s="5">
         <v>193894.66666666666</v>
       </c>
     </row>
-    <row r="68" spans="2:60" s="5" customFormat="1">
+    <row r="68" spans="2:61" s="5" customFormat="1">
       <c r="B68" s="5">
         <v>1965.5</v>
       </c>
@@ -8321,15 +8525,18 @@
       <c r="BF68" s="8">
         <v>41.819000000000003</v>
       </c>
-      <c r="BG68" s="5">
+      <c r="BG68" s="8">
+        <v>98.552782571406496</v>
+      </c>
+      <c r="BH68" s="5">
         <f t="shared" si="0"/>
         <v>-38.899000000000001</v>
       </c>
-      <c r="BH68" s="5">
+      <c r="BI68" s="5">
         <v>194530.66666666666</v>
       </c>
     </row>
-    <row r="69" spans="2:60" s="5" customFormat="1">
+    <row r="69" spans="2:61" s="5" customFormat="1">
       <c r="B69" s="5">
         <v>1965.75</v>
       </c>
@@ -8430,15 +8637,18 @@
       <c r="BF69" s="8">
         <v>42.58</v>
       </c>
-      <c r="BG69" s="5">
+      <c r="BG69" s="8">
+        <v>98.6863061094448</v>
+      </c>
+      <c r="BH69" s="5">
         <f t="shared" si="0"/>
         <v>-39.659999999999997</v>
       </c>
-      <c r="BH69" s="5">
+      <c r="BI69" s="5">
         <v>195188</v>
       </c>
     </row>
-    <row r="70" spans="2:60" s="5" customFormat="1">
+    <row r="70" spans="2:61" s="5" customFormat="1">
       <c r="B70" s="5">
         <v>1966</v>
       </c>
@@ -8539,15 +8749,18 @@
       <c r="BF70" s="8">
         <v>43.174999999999997</v>
       </c>
-      <c r="BG70" s="5">
-        <f t="shared" ref="BG70:BG133" si="1">BE70-BF70</f>
+      <c r="BG70" s="8">
+        <v>98.879425142235803</v>
+      </c>
+      <c r="BH70" s="5">
+        <f t="shared" ref="BH70:BH133" si="1">BE70-BF70</f>
         <v>-40.254999999999995</v>
       </c>
-      <c r="BH70" s="5">
+      <c r="BI70" s="5">
         <v>195686</v>
       </c>
     </row>
-    <row r="71" spans="2:60" s="5" customFormat="1">
+    <row r="71" spans="2:61" s="5" customFormat="1">
       <c r="B71" s="5">
         <v>1966.25</v>
       </c>
@@ -8649,15 +8862,18 @@
       <c r="BF71" s="8">
         <v>42.912999999999997</v>
       </c>
-      <c r="BG71" s="5">
+      <c r="BG71" s="8">
+        <v>98.890838025126399</v>
+      </c>
+      <c r="BH71" s="5">
         <f t="shared" si="1"/>
         <v>-39.992999999999995</v>
       </c>
-      <c r="BH71" s="5">
+      <c r="BI71" s="5">
         <v>196183</v>
       </c>
     </row>
-    <row r="72" spans="2:60" s="5" customFormat="1">
+    <row r="72" spans="2:61" s="5" customFormat="1">
       <c r="B72" s="5">
         <v>1966.5</v>
       </c>
@@ -8759,15 +8975,18 @@
       <c r="BF72" s="8">
         <v>42.978999999999999</v>
       </c>
-      <c r="BG72" s="5">
+      <c r="BG72" s="8">
+        <v>99.433302471821804</v>
+      </c>
+      <c r="BH72" s="5">
         <f t="shared" si="1"/>
         <v>-40.042333333333332</v>
       </c>
-      <c r="BH72" s="5">
+      <c r="BI72" s="5">
         <v>196768.66666666666</v>
       </c>
     </row>
-    <row r="73" spans="2:60" s="5" customFormat="1">
+    <row r="73" spans="2:61" s="5" customFormat="1">
       <c r="B73" s="5">
         <v>1966.75</v>
       </c>
@@ -8869,15 +9088,18 @@
       <c r="BF73" s="8">
         <v>43.273000000000003</v>
       </c>
-      <c r="BG73" s="5">
+      <c r="BG73" s="8">
+        <v>99.144986063443696</v>
+      </c>
+      <c r="BH73" s="5">
         <f t="shared" si="1"/>
         <v>-40.303000000000004</v>
       </c>
-      <c r="BH73" s="5">
+      <c r="BI73" s="5">
         <v>197392.33333333334</v>
       </c>
     </row>
-    <row r="74" spans="2:60" s="5" customFormat="1">
+    <row r="74" spans="2:61" s="5" customFormat="1">
       <c r="B74" s="5">
         <v>1967</v>
       </c>
@@ -8983,15 +9205,18 @@
       <c r="BF74" s="8">
         <v>43.637</v>
       </c>
-      <c r="BG74" s="5">
+      <c r="BG74" s="8">
+        <v>99.526058386232705</v>
+      </c>
+      <c r="BH74" s="5">
         <f t="shared" si="1"/>
         <v>-40.646999999999998</v>
       </c>
-      <c r="BH74" s="5">
+      <c r="BI74" s="5">
         <v>197888.33333333334</v>
       </c>
     </row>
-    <row r="75" spans="2:60" s="5" customFormat="1">
+    <row r="75" spans="2:61" s="5" customFormat="1">
       <c r="B75" s="5">
         <v>1967.25</v>
       </c>
@@ -9097,15 +9322,18 @@
       <c r="BF75" s="8">
         <v>43.817</v>
       </c>
-      <c r="BG75" s="5">
+      <c r="BG75" s="8">
+        <v>99.501857312881995</v>
+      </c>
+      <c r="BH75" s="5">
         <f t="shared" si="1"/>
         <v>-40.817</v>
       </c>
-      <c r="BH75" s="5">
+      <c r="BI75" s="5">
         <v>198368.66666666666</v>
       </c>
     </row>
-    <row r="76" spans="2:60" s="5" customFormat="1">
+    <row r="76" spans="2:61" s="5" customFormat="1">
       <c r="B76" s="5">
         <v>1967.5</v>
       </c>
@@ -9212,15 +9440,18 @@
       <c r="BF76" s="8">
         <v>43.996000000000002</v>
       </c>
-      <c r="BG76" s="5">
+      <c r="BG76" s="8">
+        <v>99.238054346843398</v>
+      </c>
+      <c r="BH76" s="5">
         <f t="shared" si="1"/>
         <v>-40.949333333333335</v>
       </c>
-      <c r="BH76" s="5">
+      <c r="BI76" s="5">
         <v>198912</v>
       </c>
     </row>
-    <row r="77" spans="2:60" s="5" customFormat="1">
+    <row r="77" spans="2:61" s="5" customFormat="1">
       <c r="B77" s="5">
         <v>1967.75</v>
       </c>
@@ -9327,15 +9558,18 @@
       <c r="BF77" s="8">
         <v>44.152999999999999</v>
       </c>
-      <c r="BG77" s="5">
+      <c r="BG77" s="8">
+        <v>99.469528480461094</v>
+      </c>
+      <c r="BH77" s="5">
         <f t="shared" si="1"/>
         <v>-41.082999999999998</v>
       </c>
-      <c r="BH77" s="5">
+      <c r="BI77" s="5">
         <v>199488.66666666666</v>
       </c>
     </row>
-    <row r="78" spans="2:60" s="5" customFormat="1">
+    <row r="78" spans="2:61" s="5" customFormat="1">
       <c r="B78" s="5">
         <v>1968</v>
       </c>
@@ -9442,15 +9676,18 @@
       <c r="BF78" s="8">
         <v>45.137999999999998</v>
       </c>
-      <c r="BG78" s="5">
+      <c r="BG78" s="8">
+        <v>99.595690600074803</v>
+      </c>
+      <c r="BH78" s="5">
         <f t="shared" si="1"/>
         <v>-42.067999999999998</v>
       </c>
-      <c r="BH78" s="5">
+      <c r="BI78" s="5">
         <v>199928</v>
       </c>
     </row>
-    <row r="79" spans="2:60" s="5" customFormat="1">
+    <row r="79" spans="2:61" s="5" customFormat="1">
       <c r="B79" s="5">
         <v>1968.25</v>
       </c>
@@ -9557,15 +9794,18 @@
       <c r="BF79" s="8">
         <v>45.570999999999998</v>
       </c>
-      <c r="BG79" s="5">
+      <c r="BG79" s="8">
+        <v>99.2874122815101</v>
+      </c>
+      <c r="BH79" s="5">
         <f t="shared" si="1"/>
         <v>-42.500999999999998</v>
       </c>
-      <c r="BH79" s="5">
+      <c r="BI79" s="5">
         <v>200368.33333333334</v>
       </c>
     </row>
-    <row r="80" spans="2:60" s="5" customFormat="1">
+    <row r="80" spans="2:61" s="5" customFormat="1">
       <c r="B80" s="5">
         <v>1968.5</v>
       </c>
@@ -9672,15 +9912,18 @@
       <c r="BF80" s="8">
         <v>45.555999999999997</v>
       </c>
-      <c r="BG80" s="5">
+      <c r="BG80" s="8">
+        <v>99.029844330292207</v>
+      </c>
+      <c r="BH80" s="5">
         <f t="shared" si="1"/>
         <v>-42.485999999999997</v>
       </c>
-      <c r="BH80" s="5">
+      <c r="BI80" s="5">
         <v>200899.66666666666</v>
       </c>
     </row>
-    <row r="81" spans="2:60" s="5" customFormat="1">
+    <row r="81" spans="2:61" s="5" customFormat="1">
       <c r="B81" s="5">
         <v>1968.75</v>
       </c>
@@ -9823,15 +10066,18 @@
       <c r="BF81" s="8">
         <v>45.476999999999997</v>
       </c>
-      <c r="BG81" s="5">
+      <c r="BG81" s="8">
+        <v>99.282778059500899</v>
+      </c>
+      <c r="BH81" s="5">
         <f t="shared" si="1"/>
         <v>-42.406999999999996</v>
       </c>
-      <c r="BH81" s="5">
+      <c r="BI81" s="5">
         <v>201459</v>
       </c>
     </row>
-    <row r="82" spans="2:60" s="5" customFormat="1">
+    <row r="82" spans="2:61" s="5" customFormat="1">
       <c r="B82" s="5">
         <v>1969</v>
       </c>
@@ -9978,15 +10224,18 @@
       <c r="BF82" s="8">
         <v>45.826000000000001</v>
       </c>
-      <c r="BG82" s="5">
+      <c r="BG82" s="8">
+        <v>99.610774963943101</v>
+      </c>
+      <c r="BH82" s="5">
         <f t="shared" si="1"/>
         <v>-42.695999999999998</v>
       </c>
-      <c r="BH82" s="5">
+      <c r="BI82" s="5">
         <v>201888</v>
       </c>
     </row>
-    <row r="83" spans="2:60" s="5" customFormat="1">
+    <row r="83" spans="2:61" s="5" customFormat="1">
       <c r="B83" s="5">
         <v>1969.25</v>
       </c>
@@ -10133,15 +10382,18 @@
       <c r="BF83" s="8">
         <v>45.457000000000001</v>
       </c>
-      <c r="BG83" s="5">
+      <c r="BG83" s="8">
+        <v>99.384569755541705</v>
+      </c>
+      <c r="BH83" s="5">
         <f t="shared" si="1"/>
         <v>-42.106999999999999</v>
       </c>
-      <c r="BH83" s="5">
+      <c r="BI83" s="5">
         <v>202333</v>
       </c>
     </row>
-    <row r="84" spans="2:60" s="5" customFormat="1">
+    <row r="84" spans="2:61" s="5" customFormat="1">
       <c r="B84" s="5">
         <v>1969.5</v>
       </c>
@@ -10288,15 +10540,18 @@
       <c r="BF84" s="8">
         <v>45.484999999999999</v>
       </c>
-      <c r="BG84" s="5">
+      <c r="BG84" s="8">
+        <v>99.642831311439096</v>
+      </c>
+      <c r="BH84" s="5">
         <f t="shared" si="1"/>
         <v>-42.134999999999998</v>
       </c>
-      <c r="BH84" s="5">
+      <c r="BI84" s="5">
         <v>202881.33333333334</v>
       </c>
     </row>
-    <row r="85" spans="2:60" s="5" customFormat="1">
+    <row r="85" spans="2:61" s="5" customFormat="1">
       <c r="B85" s="5">
         <v>1969.75</v>
       </c>
@@ -10442,15 +10697,18 @@
       <c r="BF85" s="8">
         <v>45.293999999999997</v>
       </c>
-      <c r="BG85" s="5">
+      <c r="BG85" s="8">
+        <v>99.599457920601395</v>
+      </c>
+      <c r="BH85" s="5">
         <f t="shared" si="1"/>
         <v>-41.943999999999996</v>
       </c>
-      <c r="BH85" s="5">
+      <c r="BI85" s="5">
         <v>203492.33333333334</v>
       </c>
     </row>
-    <row r="86" spans="2:60" s="5" customFormat="1">
+    <row r="86" spans="2:61" s="5" customFormat="1">
       <c r="B86" s="5">
         <v>1970</v>
       </c>
@@ -10598,15 +10856,18 @@
       <c r="BF86" s="8">
         <v>45.412999999999997</v>
       </c>
-      <c r="BG86" s="5">
+      <c r="BG86" s="8">
+        <v>100.112031329982</v>
+      </c>
+      <c r="BH86" s="5">
         <f t="shared" si="1"/>
         <v>-42.062999999999995</v>
       </c>
-      <c r="BH86" s="5">
+      <c r="BI86" s="5">
         <v>204004.33333333334</v>
       </c>
     </row>
-    <row r="87" spans="2:60" s="5" customFormat="1">
+    <row r="87" spans="2:61" s="5" customFormat="1">
       <c r="B87" s="5">
         <v>1970.25</v>
       </c>
@@ -10752,15 +11013,18 @@
       <c r="BF87" s="8">
         <v>46.106000000000002</v>
       </c>
-      <c r="BG87" s="5">
+      <c r="BG87" s="8">
+        <v>99.967277451790807</v>
+      </c>
+      <c r="BH87" s="5">
         <f t="shared" si="1"/>
         <v>-42.756</v>
       </c>
-      <c r="BH87" s="5">
+      <c r="BI87" s="5">
         <v>204612.66666666666</v>
       </c>
     </row>
-    <row r="88" spans="2:60" s="5" customFormat="1">
+    <row r="88" spans="2:61" s="5" customFormat="1">
       <c r="B88" s="5">
         <v>1970.5</v>
       </c>
@@ -10906,15 +11170,18 @@
       <c r="BF88" s="8">
         <v>46.814</v>
       </c>
-      <c r="BG88" s="5">
+      <c r="BG88" s="8">
+        <v>99.826992430005006</v>
+      </c>
+      <c r="BH88" s="5">
         <f t="shared" si="1"/>
         <v>-43.503999999999998</v>
       </c>
-      <c r="BH88" s="5">
+      <c r="BI88" s="5">
         <v>205295.66666666666</v>
       </c>
     </row>
-    <row r="89" spans="2:60" s="5" customFormat="1">
+    <row r="89" spans="2:61" s="5" customFormat="1">
       <c r="B89" s="5">
         <v>1970.75</v>
       </c>
@@ -11060,15 +11327,18 @@
       <c r="BF89" s="8">
         <v>46.412999999999997</v>
       </c>
-      <c r="BG89" s="5">
+      <c r="BG89" s="8">
+        <v>99.899331574606805</v>
+      </c>
+      <c r="BH89" s="5">
         <f t="shared" si="1"/>
         <v>-43.019666666666666</v>
       </c>
-      <c r="BH89" s="5">
+      <c r="BI89" s="5">
         <v>206016.66666666666</v>
       </c>
     </row>
-    <row r="90" spans="2:60" s="5" customFormat="1">
+    <row r="90" spans="2:61" s="5" customFormat="1">
       <c r="B90" s="5">
         <v>1971</v>
       </c>
@@ -11214,15 +11484,18 @@
       <c r="BF90" s="8">
         <v>47.762</v>
       </c>
-      <c r="BG90" s="5">
+      <c r="BG90" s="8">
+        <v>100.160918259003</v>
+      </c>
+      <c r="BH90" s="5">
         <f t="shared" si="1"/>
         <v>-44.201999999999998</v>
       </c>
-      <c r="BH90" s="5">
+      <c r="BI90" s="5">
         <v>206663</v>
       </c>
     </row>
-    <row r="91" spans="2:60" s="5" customFormat="1">
+    <row r="91" spans="2:61" s="5" customFormat="1">
       <c r="B91" s="5">
         <v>1971.25</v>
       </c>
@@ -11368,15 +11641,18 @@
       <c r="BF91" s="8">
         <v>47.923000000000002</v>
       </c>
-      <c r="BG91" s="5">
+      <c r="BG91" s="8">
+        <v>99.930712139525397</v>
+      </c>
+      <c r="BH91" s="5">
         <f t="shared" si="1"/>
         <v>-44.363</v>
       </c>
-      <c r="BH91" s="5">
+      <c r="BI91" s="5">
         <v>207262.33333333334</v>
       </c>
     </row>
-    <row r="92" spans="2:60" s="5" customFormat="1">
+    <row r="92" spans="2:61" s="5" customFormat="1">
       <c r="B92" s="5">
         <v>1971.5</v>
       </c>
@@ -11522,15 +11798,18 @@
       <c r="BF92" s="8">
         <v>48.35</v>
       </c>
-      <c r="BG92" s="5">
+      <c r="BG92" s="8">
+        <v>100.22361145019801</v>
+      </c>
+      <c r="BH92" s="5">
         <f t="shared" si="1"/>
         <v>-44.79</v>
       </c>
-      <c r="BH92" s="5">
+      <c r="BI92" s="5">
         <v>207885.33333333334</v>
       </c>
     </row>
-    <row r="93" spans="2:60" s="5" customFormat="1">
+    <row r="93" spans="2:61" s="5" customFormat="1">
       <c r="B93" s="5">
         <v>1971.75</v>
       </c>
@@ -11676,15 +11955,18 @@
       <c r="BF93" s="8">
         <v>47.966000000000001</v>
       </c>
-      <c r="BG93" s="5">
+      <c r="BG93" s="8">
+        <v>99.7509716976665</v>
+      </c>
+      <c r="BH93" s="5">
         <f t="shared" si="1"/>
         <v>-44.405999999999999</v>
       </c>
-      <c r="BH93" s="5">
+      <c r="BI93" s="5">
         <v>208546.66666666666</v>
       </c>
     </row>
-    <row r="94" spans="2:60" s="5" customFormat="1">
+    <row r="94" spans="2:61" s="5" customFormat="1">
       <c r="B94" s="5">
         <v>1972</v>
       </c>
@@ -11830,15 +12112,18 @@
       <c r="BF94" s="8">
         <v>48.64</v>
       </c>
-      <c r="BG94" s="5">
+      <c r="BG94" s="8">
+        <v>99.815062002631805</v>
+      </c>
+      <c r="BH94" s="5">
         <f t="shared" si="1"/>
         <v>-45.08</v>
       </c>
-      <c r="BH94" s="5">
+      <c r="BI94" s="5">
         <v>209063.33333333334</v>
       </c>
     </row>
-    <row r="95" spans="2:60" s="5" customFormat="1">
+    <row r="95" spans="2:61" s="5" customFormat="1">
       <c r="B95" s="5">
         <v>1972.25</v>
       </c>
@@ -11984,15 +12269,18 @@
       <c r="BF95" s="8">
         <v>49.633000000000003</v>
       </c>
-      <c r="BG95" s="5">
+      <c r="BG95" s="8">
+        <v>99.7501084742579</v>
+      </c>
+      <c r="BH95" s="5">
         <f t="shared" si="1"/>
         <v>-46.073</v>
       </c>
-      <c r="BH95" s="5">
+      <c r="BI95" s="5">
         <v>209552</v>
       </c>
     </row>
-    <row r="96" spans="2:60" s="5" customFormat="1">
+    <row r="96" spans="2:61" s="5" customFormat="1">
       <c r="B96" s="5">
         <v>1972.5</v>
       </c>
@@ -12138,15 +12426,18 @@
       <c r="BF96" s="8">
         <v>49.902000000000001</v>
       </c>
-      <c r="BG96" s="5">
+      <c r="BG96" s="8">
+        <v>99.532736054496695</v>
+      </c>
+      <c r="BH96" s="5">
         <f t="shared" si="1"/>
         <v>-46.341999999999999</v>
       </c>
-      <c r="BH96" s="5">
+      <c r="BI96" s="5">
         <v>210083</v>
       </c>
     </row>
-    <row r="97" spans="2:60" s="5" customFormat="1">
+    <row r="97" spans="2:61" s="5" customFormat="1">
       <c r="B97" s="5">
         <v>1972.75</v>
       </c>
@@ -12292,15 +12583,18 @@
       <c r="BF97" s="8">
         <v>50.313000000000002</v>
       </c>
-      <c r="BG97" s="5">
+      <c r="BG97" s="8">
+        <v>99.420365373735194</v>
+      </c>
+      <c r="BH97" s="5">
         <f t="shared" si="1"/>
         <v>-46.753</v>
       </c>
-      <c r="BH97" s="5">
+      <c r="BI97" s="5">
         <v>210652</v>
       </c>
     </row>
-    <row r="98" spans="2:60" s="5" customFormat="1">
+    <row r="98" spans="2:61" s="5" customFormat="1">
       <c r="B98" s="5">
         <v>1973</v>
       </c>
@@ -12449,15 +12743,18 @@
       <c r="BF98" s="8">
         <v>51.438000000000002</v>
       </c>
-      <c r="BG98" s="5">
+      <c r="BG98" s="8">
+        <v>100.144834029121</v>
+      </c>
+      <c r="BH98" s="5">
         <f t="shared" si="1"/>
         <v>-47.878</v>
       </c>
-      <c r="BH98" s="5">
+      <c r="BI98" s="5">
         <v>211119.66666666666</v>
       </c>
     </row>
-    <row r="99" spans="2:60" s="5" customFormat="1">
+    <row r="99" spans="2:61" s="5" customFormat="1">
       <c r="B99" s="5">
         <v>1973.25</v>
       </c>
@@ -12606,15 +12903,18 @@
       <c r="BF99" s="8">
         <v>51.485999999999997</v>
       </c>
-      <c r="BG99" s="5">
+      <c r="BG99" s="8">
+        <v>99.929490261360499</v>
+      </c>
+      <c r="BH99" s="5">
         <f t="shared" si="1"/>
         <v>-47.925999999999995</v>
       </c>
-      <c r="BH99" s="5">
+      <c r="BI99" s="5">
         <v>211581</v>
       </c>
     </row>
-    <row r="100" spans="2:60" s="5" customFormat="1">
+    <row r="100" spans="2:61" s="5" customFormat="1">
       <c r="B100" s="5">
         <v>1973.5</v>
       </c>
@@ -12763,15 +13063,18 @@
       <c r="BF100" s="8">
         <v>50.987000000000002</v>
       </c>
-      <c r="BG100" s="5">
+      <c r="BG100" s="8">
+        <v>99.904912528668007</v>
+      </c>
+      <c r="BH100" s="5">
         <f t="shared" si="1"/>
         <v>-46.927</v>
       </c>
-      <c r="BH100" s="5">
+      <c r="BI100" s="5">
         <v>212096.66666666666</v>
       </c>
     </row>
-    <row r="101" spans="2:60" s="5" customFormat="1">
+    <row r="101" spans="2:61" s="5" customFormat="1">
       <c r="B101" s="5">
         <v>1973.75</v>
       </c>
@@ -12920,15 +13223,18 @@
       <c r="BF101" s="8">
         <v>50.656999999999996</v>
       </c>
-      <c r="BG101" s="5">
+      <c r="BG101" s="8">
+        <v>100.38488821077399</v>
+      </c>
+      <c r="BH101" s="5">
         <f t="shared" si="1"/>
         <v>-46.346999999999994</v>
       </c>
-      <c r="BH101" s="5">
+      <c r="BI101" s="5">
         <v>212631.33333333334</v>
       </c>
     </row>
-    <row r="102" spans="2:60" s="5" customFormat="1">
+    <row r="102" spans="2:61" s="5" customFormat="1">
       <c r="B102" s="5">
         <v>1974</v>
       </c>
@@ -13077,15 +13383,18 @@
       <c r="BF102" s="8">
         <v>50.554000000000002</v>
       </c>
-      <c r="BG102" s="5">
+      <c r="BG102" s="8">
+        <v>100.398311724679</v>
+      </c>
+      <c r="BH102" s="5">
         <f t="shared" si="1"/>
         <v>-40.444000000000003</v>
       </c>
-      <c r="BH102" s="5">
+      <c r="BI102" s="5">
         <v>213072.33333333334</v>
       </c>
     </row>
-    <row r="103" spans="2:60" s="5" customFormat="1">
+    <row r="103" spans="2:61" s="5" customFormat="1">
       <c r="B103" s="5">
         <v>1974.25</v>
       </c>
@@ -13234,15 +13543,18 @@
       <c r="BF103" s="8">
         <v>50.420999999999999</v>
       </c>
-      <c r="BG103" s="5">
+      <c r="BG103" s="8">
+        <v>100.142343527319</v>
+      </c>
+      <c r="BH103" s="5">
         <f t="shared" si="1"/>
         <v>-40.311</v>
       </c>
-      <c r="BH103" s="5">
+      <c r="BI103" s="5">
         <v>213520</v>
       </c>
     </row>
-    <row r="104" spans="2:60" s="5" customFormat="1">
+    <row r="104" spans="2:61" s="5" customFormat="1">
       <c r="B104" s="5">
         <v>1974.5</v>
       </c>
@@ -13393,15 +13705,18 @@
       <c r="BF104" s="8">
         <v>49.886000000000003</v>
       </c>
-      <c r="BG104" s="5">
+      <c r="BG104" s="8">
+        <v>100.856870541698</v>
+      </c>
+      <c r="BH104" s="5">
         <f t="shared" si="1"/>
         <v>-39.776000000000003</v>
       </c>
-      <c r="BH104" s="5">
+      <c r="BI104" s="5">
         <v>214047.33333333334</v>
       </c>
     </row>
-    <row r="105" spans="2:60" s="5" customFormat="1">
+    <row r="105" spans="2:61" s="5" customFormat="1">
       <c r="B105" s="5">
         <v>1974.75</v>
       </c>
@@ -13550,15 +13865,18 @@
       <c r="BF105" s="8">
         <v>50.328000000000003</v>
       </c>
-      <c r="BG105" s="5">
+      <c r="BG105" s="8">
+        <v>101.425284072656</v>
+      </c>
+      <c r="BH105" s="5">
         <f t="shared" si="1"/>
         <v>-39.168000000000006</v>
       </c>
-      <c r="BH105" s="5">
+      <c r="BI105" s="5">
         <v>214619.33333333334</v>
       </c>
     </row>
-    <row r="106" spans="2:60" s="5" customFormat="1">
+    <row r="106" spans="2:61" s="5" customFormat="1">
       <c r="B106" s="5">
         <v>1975</v>
       </c>
@@ -13707,15 +14025,18 @@
       <c r="BF106" s="8">
         <v>50.726999999999997</v>
       </c>
-      <c r="BG106" s="5">
+      <c r="BG106" s="8">
+        <v>101.194855319955</v>
+      </c>
+      <c r="BH106" s="5">
         <f t="shared" si="1"/>
         <v>-39.566999999999993</v>
       </c>
-      <c r="BH106" s="5">
+      <c r="BI106" s="5">
         <v>215064.66666666666</v>
       </c>
     </row>
-    <row r="107" spans="2:60" s="5" customFormat="1">
+    <row r="107" spans="2:61" s="5" customFormat="1">
       <c r="B107" s="5">
         <v>1975.25</v>
       </c>
@@ -13864,15 +14185,18 @@
       <c r="BF107" s="8">
         <v>51.573999999999998</v>
       </c>
-      <c r="BG107" s="5">
+      <c r="BG107" s="8">
+        <v>100.36468975224901</v>
+      </c>
+      <c r="BH107" s="5">
         <f t="shared" si="1"/>
         <v>-40.414000000000001</v>
       </c>
-      <c r="BH107" s="5">
+      <c r="BI107" s="5">
         <v>215548</v>
       </c>
     </row>
-    <row r="108" spans="2:60" s="5" customFormat="1">
+    <row r="108" spans="2:61" s="5" customFormat="1">
       <c r="B108" s="5">
         <v>1975.5</v>
       </c>
@@ -14021,15 +14345,18 @@
       <c r="BF108" s="8">
         <v>52.158000000000001</v>
       </c>
-      <c r="BG108" s="5">
+      <c r="BG108" s="8">
+        <v>100.224827928425</v>
+      </c>
+      <c r="BH108" s="5">
         <f t="shared" si="1"/>
         <v>-40.998000000000005</v>
       </c>
-      <c r="BH108" s="5">
+      <c r="BI108" s="5">
         <v>216187</v>
       </c>
     </row>
-    <row r="109" spans="2:60" s="5" customFormat="1">
+    <row r="109" spans="2:61" s="5" customFormat="1">
       <c r="B109" s="5">
         <v>1975.75</v>
       </c>
@@ -14178,15 +14505,18 @@
       <c r="BF109" s="8">
         <v>52.207999999999998</v>
       </c>
-      <c r="BG109" s="5">
+      <c r="BG109" s="8">
+        <v>100.352850705968</v>
+      </c>
+      <c r="BH109" s="5">
         <f t="shared" si="1"/>
         <v>-41.048000000000002</v>
       </c>
-      <c r="BH109" s="5">
+      <c r="BI109" s="5">
         <v>216763</v>
       </c>
     </row>
-    <row r="110" spans="2:60" s="5" customFormat="1">
+    <row r="110" spans="2:61" s="5" customFormat="1">
       <c r="B110" s="5">
         <v>1976</v>
       </c>
@@ -14335,15 +14665,18 @@
       <c r="BF110" s="8">
         <v>52.976999999999997</v>
       </c>
-      <c r="BG110" s="5">
+      <c r="BG110" s="8">
+        <v>99.953299326872994</v>
+      </c>
+      <c r="BH110" s="5">
         <f t="shared" si="1"/>
         <v>-41.213666666666661</v>
       </c>
-      <c r="BH110" s="5">
+      <c r="BI110" s="5">
         <v>217241.66666666666</v>
       </c>
     </row>
-    <row r="111" spans="2:60" s="5" customFormat="1">
+    <row r="111" spans="2:61" s="5" customFormat="1">
       <c r="B111" s="5">
         <v>1976.25</v>
       </c>
@@ -14492,15 +14825,18 @@
       <c r="BF111" s="8">
         <v>53.485999999999997</v>
       </c>
-      <c r="BG111" s="5">
+      <c r="BG111" s="8">
+        <v>99.824379207238394</v>
+      </c>
+      <c r="BH111" s="5">
         <f t="shared" si="1"/>
         <v>-41.315999999999995</v>
       </c>
-      <c r="BH111" s="5">
+      <c r="BI111" s="5">
         <v>217691.33333333334</v>
       </c>
     </row>
-    <row r="112" spans="2:60" s="5" customFormat="1">
+    <row r="112" spans="2:61" s="5" customFormat="1">
       <c r="B112" s="5">
         <v>1976.5</v>
       </c>
@@ -14649,15 +14985,18 @@
       <c r="BF112" s="8">
         <v>53.582999999999998</v>
       </c>
-      <c r="BG112" s="5">
+      <c r="BG112" s="8">
+        <v>99.752194553663003</v>
+      </c>
+      <c r="BH112" s="5">
         <f t="shared" si="1"/>
         <v>-40.836333333333329</v>
       </c>
-      <c r="BH112" s="5">
+      <c r="BI112" s="5">
         <v>218236</v>
       </c>
     </row>
-    <row r="113" spans="2:60" s="5" customFormat="1">
+    <row r="113" spans="2:61" s="5" customFormat="1">
       <c r="B113" s="5">
         <v>1976.75</v>
       </c>
@@ -14806,15 +15145,18 @@
       <c r="BF113" s="8">
         <v>53.756999999999998</v>
       </c>
-      <c r="BG113" s="5">
+      <c r="BG113" s="8">
+        <v>100.271510450671</v>
+      </c>
+      <c r="BH113" s="5">
         <f t="shared" si="1"/>
         <v>-39.856999999999999</v>
       </c>
-      <c r="BH113" s="5">
+      <c r="BI113" s="5">
         <v>218828</v>
       </c>
     </row>
-    <row r="114" spans="2:60" s="5" customFormat="1">
+    <row r="114" spans="2:61" s="5" customFormat="1">
       <c r="B114" s="5">
         <v>1977</v>
       </c>
@@ -14963,15 +15305,18 @@
       <c r="BF114" s="8">
         <v>54.082000000000001</v>
       </c>
-      <c r="BG114" s="5">
+      <c r="BG114" s="8">
+        <v>100.34145505428801</v>
+      </c>
+      <c r="BH114" s="5">
         <f t="shared" si="1"/>
         <v>-40.182000000000002</v>
       </c>
-      <c r="BH114" s="5">
+      <c r="BI114" s="5">
         <v>219342.33333333334</v>
       </c>
     </row>
-    <row r="115" spans="2:60" s="5" customFormat="1">
+    <row r="115" spans="2:61" s="5" customFormat="1">
       <c r="B115" s="5">
         <v>1977.25</v>
       </c>
@@ -15120,15 +15465,18 @@
       <c r="BF115" s="8">
         <v>54.314</v>
       </c>
-      <c r="BG115" s="5">
+      <c r="BG115" s="8">
+        <v>99.897049852114094</v>
+      </c>
+      <c r="BH115" s="5">
         <f t="shared" si="1"/>
         <v>-40.414000000000001</v>
       </c>
-      <c r="BH115" s="5">
+      <c r="BI115" s="5">
         <v>219863</v>
       </c>
     </row>
-    <row r="116" spans="2:60" s="5" customFormat="1">
+    <row r="116" spans="2:61" s="5" customFormat="1">
       <c r="B116" s="5">
         <v>1977.5</v>
       </c>
@@ -15277,15 +15625,18 @@
       <c r="BF116" s="8">
         <v>54.853999999999999</v>
       </c>
-      <c r="BG116" s="5">
+      <c r="BG116" s="8">
+        <v>100.03042195926299</v>
+      </c>
+      <c r="BH116" s="5">
         <f t="shared" si="1"/>
         <v>-40.320666666666668</v>
       </c>
-      <c r="BH116" s="5">
+      <c r="BI116" s="5">
         <v>220461.66666666666</v>
       </c>
     </row>
-    <row r="117" spans="2:60" s="5" customFormat="1">
+    <row r="117" spans="2:61" s="5" customFormat="1">
       <c r="B117" s="5">
         <v>1977.75</v>
       </c>
@@ -15434,15 +15785,18 @@
       <c r="BF117" s="8">
         <v>54.15</v>
       </c>
-      <c r="BG117" s="5">
+      <c r="BG117" s="8">
+        <v>100.269582090841</v>
+      </c>
+      <c r="BH117" s="5">
         <f t="shared" si="1"/>
         <v>-39.299999999999997</v>
       </c>
-      <c r="BH117" s="5">
+      <c r="BI117" s="5">
         <v>221105.33333333334</v>
       </c>
     </row>
-    <row r="118" spans="2:60" s="5" customFormat="1">
+    <row r="118" spans="2:61" s="5" customFormat="1">
       <c r="B118" s="5">
         <v>1978</v>
       </c>
@@ -15591,15 +15945,18 @@
       <c r="BF118" s="8">
         <v>54.185000000000002</v>
       </c>
-      <c r="BG118" s="5">
+      <c r="BG118" s="8">
+        <v>100.85556334491299</v>
+      </c>
+      <c r="BH118" s="5">
         <f t="shared" si="1"/>
         <v>-39.335000000000001</v>
       </c>
-      <c r="BH118" s="5">
+      <c r="BI118" s="5">
         <v>221632.66666666666</v>
       </c>
     </row>
-    <row r="119" spans="2:60" s="5" customFormat="1">
+    <row r="119" spans="2:61" s="5" customFormat="1">
       <c r="B119" s="5">
         <v>1978.25</v>
       </c>
@@ -15751,15 +16108,18 @@
       <c r="BF119" s="8">
         <v>55.247999999999998</v>
       </c>
-      <c r="BG119" s="5">
+      <c r="BG119" s="8">
+        <v>100.371019012445</v>
+      </c>
+      <c r="BH119" s="5">
         <f t="shared" si="1"/>
         <v>-40.397999999999996</v>
       </c>
-      <c r="BH119" s="5">
+      <c r="BI119" s="5">
         <v>222182</v>
       </c>
     </row>
-    <row r="120" spans="2:60" s="5" customFormat="1">
+    <row r="120" spans="2:61" s="5" customFormat="1">
       <c r="B120" s="5">
         <v>1978.5</v>
       </c>
@@ -15911,15 +16271,18 @@
       <c r="BF120" s="8">
         <v>55.25</v>
       </c>
-      <c r="BG120" s="5">
+      <c r="BG120" s="8">
+        <v>100.389282626336</v>
+      </c>
+      <c r="BH120" s="5">
         <f t="shared" si="1"/>
         <v>-40.4</v>
       </c>
-      <c r="BH120" s="5">
+      <c r="BI120" s="5">
         <v>222814.33333333334</v>
       </c>
     </row>
-    <row r="121" spans="2:60" s="5" customFormat="1">
+    <row r="121" spans="2:61" s="5" customFormat="1">
       <c r="B121" s="5">
         <v>1978.75</v>
       </c>
@@ -16071,15 +16434,18 @@
       <c r="BF121" s="8">
         <v>55.597999999999999</v>
       </c>
-      <c r="BG121" s="5">
+      <c r="BG121" s="8">
+        <v>100.29366675989201</v>
+      </c>
+      <c r="BH121" s="5">
         <f t="shared" si="1"/>
         <v>-40.747999999999998</v>
       </c>
-      <c r="BH121" s="5">
+      <c r="BI121" s="5">
         <v>223472.66666666666</v>
       </c>
     </row>
-    <row r="122" spans="2:60" s="5" customFormat="1">
+    <row r="122" spans="2:61" s="5" customFormat="1">
       <c r="B122" s="5">
         <v>1979</v>
       </c>
@@ -16231,15 +16597,18 @@
       <c r="BF122" s="8">
         <v>55.101999999999997</v>
       </c>
-      <c r="BG122" s="5">
+      <c r="BG122" s="8">
+        <v>100.25906951041399</v>
+      </c>
+      <c r="BH122" s="5">
         <f t="shared" si="1"/>
         <v>-39.585333333333331</v>
       </c>
-      <c r="BH122" s="5">
+      <c r="BI122" s="5">
         <v>224051</v>
       </c>
     </row>
-    <row r="123" spans="2:60" s="5" customFormat="1">
+    <row r="123" spans="2:61" s="5" customFormat="1">
       <c r="B123" s="5">
         <v>1979.25</v>
       </c>
@@ -16391,15 +16760,18 @@
       <c r="BF123" s="8">
         <v>54.95</v>
       </c>
-      <c r="BG123" s="5">
+      <c r="BG123" s="8">
+        <v>100.32653980257101</v>
+      </c>
+      <c r="BH123" s="5">
         <f t="shared" si="1"/>
         <v>-37.266666666666666</v>
       </c>
-      <c r="BH123" s="5">
+      <c r="BI123" s="5">
         <v>224637.66666666666</v>
       </c>
     </row>
-    <row r="124" spans="2:60" s="5" customFormat="1">
+    <row r="124" spans="2:61" s="5" customFormat="1">
       <c r="B124" s="5">
         <v>1979.5</v>
       </c>
@@ -16551,15 +16923,18 @@
       <c r="BF124" s="8">
         <v>54.890999999999998</v>
       </c>
-      <c r="BG124" s="5">
+      <c r="BG124" s="8">
+        <v>100.39281427424601</v>
+      </c>
+      <c r="BH124" s="5">
         <f t="shared" si="1"/>
         <v>-29.307666666666666</v>
       </c>
-      <c r="BH124" s="5">
+      <c r="BI124" s="5">
         <v>225299</v>
       </c>
     </row>
-    <row r="125" spans="2:60" s="5" customFormat="1">
+    <row r="125" spans="2:61" s="5" customFormat="1">
       <c r="B125" s="5">
         <v>1979.75</v>
       </c>
@@ -16711,15 +17086,18 @@
       <c r="BF125" s="8">
         <v>54.843000000000004</v>
       </c>
-      <c r="BG125" s="5">
+      <c r="BG125" s="8">
+        <v>100.63056941188</v>
+      </c>
+      <c r="BH125" s="5">
         <f t="shared" si="1"/>
         <v>-24.009666666666671</v>
       </c>
-      <c r="BH125" s="5">
+      <c r="BI125" s="5">
         <v>226023.66666666666</v>
       </c>
     </row>
-    <row r="126" spans="2:60" s="5" customFormat="1">
+    <row r="126" spans="2:61" s="5" customFormat="1">
       <c r="B126" s="5">
         <v>1980</v>
       </c>
@@ -16871,15 +17249,18 @@
       <c r="BF126" s="8">
         <v>55.103000000000002</v>
       </c>
-      <c r="BG126" s="5">
+      <c r="BG126" s="8">
+        <v>101.01275113040499</v>
+      </c>
+      <c r="BH126" s="5">
         <f t="shared" si="1"/>
         <v>-19.269666666666666</v>
       </c>
-      <c r="BH126" s="5">
+      <c r="BI126" s="5">
         <v>226652</v>
       </c>
     </row>
-    <row r="127" spans="2:60" s="5" customFormat="1">
+    <row r="127" spans="2:61" s="5" customFormat="1">
       <c r="B127" s="5">
         <v>1980.25</v>
       </c>
@@ -17031,15 +17412,18 @@
       <c r="BF127" s="8">
         <v>54.506</v>
       </c>
-      <c r="BG127" s="5">
+      <c r="BG127" s="8">
+        <v>101.23056271808601</v>
+      </c>
+      <c r="BH127" s="5">
         <f t="shared" si="1"/>
         <v>-15.006</v>
       </c>
-      <c r="BH127" s="5">
+      <c r="BI127" s="5">
         <v>227278</v>
       </c>
     </row>
-    <row r="128" spans="2:60" s="5" customFormat="1">
+    <row r="128" spans="2:61" s="5" customFormat="1">
       <c r="B128" s="5">
         <v>1980.5</v>
       </c>
@@ -17191,15 +17575,18 @@
       <c r="BF128" s="8">
         <v>54.689</v>
       </c>
-      <c r="BG128" s="5">
+      <c r="BG128" s="8">
+        <v>100.46472124160699</v>
+      </c>
+      <c r="BH128" s="5">
         <f t="shared" si="1"/>
         <v>-16.855666666666664</v>
       </c>
-      <c r="BH128" s="5">
+      <c r="BI128" s="5">
         <v>227955</v>
       </c>
     </row>
-    <row r="129" spans="2:60" s="5" customFormat="1">
+    <row r="129" spans="2:61" s="5" customFormat="1">
       <c r="B129" s="5">
         <v>1980.75</v>
       </c>
@@ -17351,15 +17738,18 @@
       <c r="BF129" s="8">
         <v>55.298999999999999</v>
       </c>
-      <c r="BG129" s="5">
+      <c r="BG129" s="8">
+        <v>100.563997187181</v>
+      </c>
+      <c r="BH129" s="5">
         <f t="shared" si="1"/>
         <v>-18.965666666666664</v>
       </c>
-      <c r="BH129" s="5">
+      <c r="BI129" s="5">
         <v>228602.66666666666</v>
       </c>
     </row>
-    <row r="130" spans="2:60" s="5" customFormat="1">
+    <row r="130" spans="2:61" s="5" customFormat="1">
       <c r="B130" s="5">
         <v>1981</v>
       </c>
@@ -17511,15 +17901,18 @@
       <c r="BF130" s="8">
         <v>56.232999999999997</v>
       </c>
-      <c r="BG130" s="5">
+      <c r="BG130" s="8">
+        <v>101.199751370212</v>
+      </c>
+      <c r="BH130" s="5">
         <f t="shared" si="1"/>
         <v>-18.232999999999997</v>
       </c>
-      <c r="BH130" s="5">
+      <c r="BI130" s="5">
         <v>229077.33333333334</v>
       </c>
     </row>
-    <row r="131" spans="2:60" s="5" customFormat="1">
+    <row r="131" spans="2:61" s="5" customFormat="1">
       <c r="B131" s="5">
         <v>1981.25</v>
       </c>
@@ -17671,15 +18064,18 @@
       <c r="BF131" s="8">
         <v>55.530999999999999</v>
       </c>
-      <c r="BG131" s="5">
+      <c r="BG131" s="8">
+        <v>100.95770794152899</v>
+      </c>
+      <c r="BH131" s="5">
         <f t="shared" si="1"/>
         <v>-18.197666666666663</v>
       </c>
-      <c r="BH131" s="5">
+      <c r="BI131" s="5">
         <v>229579.66666666666</v>
       </c>
     </row>
-    <row r="132" spans="2:60" s="5" customFormat="1">
+    <row r="132" spans="2:61" s="5" customFormat="1">
       <c r="B132" s="5">
         <v>1981.5</v>
       </c>
@@ -17847,15 +18243,18 @@
       <c r="BF132" s="8">
         <v>56</v>
       </c>
-      <c r="BG132" s="5">
+      <c r="BG132" s="8">
+        <v>101.11472593117701</v>
+      </c>
+      <c r="BH132" s="5">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="BH132" s="5">
+      <c r="BI132" s="5">
         <v>230188.33333333334</v>
       </c>
     </row>
-    <row r="133" spans="2:60" s="5" customFormat="1">
+    <row r="133" spans="2:61" s="5" customFormat="1">
       <c r="B133" s="5">
         <v>1981.75</v>
       </c>
@@ -18023,15 +18422,18 @@
       <c r="BF133" s="8">
         <v>55.337000000000003</v>
       </c>
-      <c r="BG133" s="5">
+      <c r="BG133" s="8">
+        <v>101.11763292783399</v>
+      </c>
+      <c r="BH133" s="5">
         <f t="shared" si="1"/>
         <v>-20.003666666666668</v>
       </c>
-      <c r="BH133" s="5">
+      <c r="BI133" s="5">
         <v>230817.33333333334</v>
       </c>
     </row>
-    <row r="134" spans="2:60" s="5" customFormat="1">
+    <row r="134" spans="2:61" s="5" customFormat="1">
       <c r="B134" s="5">
         <v>1982</v>
       </c>
@@ -18199,15 +18601,18 @@
       <c r="BF134" s="8">
         <v>54.939</v>
       </c>
-      <c r="BG134" s="5">
-        <f t="shared" ref="BG134:BG197" si="2">BE134-BF134</f>
+      <c r="BG134" s="8">
+        <v>101.42845082649001</v>
+      </c>
+      <c r="BH134" s="5">
+        <f t="shared" ref="BH134:BH197" si="2">BE134-BF134</f>
         <v>-23.642333333333333</v>
       </c>
-      <c r="BH134" s="5">
+      <c r="BI134" s="5">
         <v>231313.33333333334</v>
       </c>
     </row>
-    <row r="135" spans="2:60" s="5" customFormat="1">
+    <row r="135" spans="2:61" s="5" customFormat="1">
       <c r="B135" s="5">
         <v>1982.25</v>
       </c>
@@ -18375,15 +18780,18 @@
       <c r="BF135" s="8">
         <v>55.052999999999997</v>
       </c>
-      <c r="BG135" s="5">
+      <c r="BG135" s="8">
+        <v>101.557922059977</v>
+      </c>
+      <c r="BH135" s="5">
         <f t="shared" si="2"/>
         <v>-20.236333333333327</v>
       </c>
-      <c r="BH135" s="5">
+      <c r="BI135" s="5">
         <v>231815.33333333334</v>
       </c>
     </row>
-    <row r="136" spans="2:60" s="5" customFormat="1">
+    <row r="136" spans="2:61" s="5" customFormat="1">
       <c r="B136" s="5">
         <v>1982.5</v>
       </c>
@@ -18551,15 +18959,18 @@
       <c r="BF136" s="8">
         <v>55.158000000000001</v>
       </c>
-      <c r="BG136" s="5">
+      <c r="BG136" s="8">
+        <v>102.137428189996</v>
+      </c>
+      <c r="BH136" s="5">
         <f t="shared" si="2"/>
         <v>-20.578000000000003</v>
       </c>
-      <c r="BH136" s="5">
+      <c r="BI136" s="5">
         <v>232393</v>
       </c>
     </row>
-    <row r="137" spans="2:60" s="5" customFormat="1">
+    <row r="137" spans="2:61" s="5" customFormat="1">
       <c r="B137" s="5">
         <v>1982.75</v>
       </c>
@@ -18727,15 +19138,18 @@
       <c r="BF137" s="8">
         <v>55.66</v>
       </c>
-      <c r="BG137" s="5">
+      <c r="BG137" s="8">
+        <v>101.37232827944599</v>
+      </c>
+      <c r="BH137" s="5">
         <f t="shared" si="2"/>
         <v>-21.809999999999995</v>
       </c>
-      <c r="BH137" s="5">
+      <c r="BI137" s="5">
         <v>232989.66666666666</v>
       </c>
     </row>
-    <row r="138" spans="2:60" s="5" customFormat="1">
+    <row r="138" spans="2:61" s="5" customFormat="1">
       <c r="B138" s="5">
         <v>1983</v>
       </c>
@@ -18903,15 +19317,18 @@
       <c r="BF138" s="8">
         <v>56.401000000000003</v>
       </c>
-      <c r="BG138" s="5">
+      <c r="BG138" s="8">
+        <v>101.061463682088</v>
+      </c>
+      <c r="BH138" s="5">
         <f t="shared" si="2"/>
         <v>-26.747666666666671</v>
       </c>
-      <c r="BH138" s="5">
+      <c r="BI138" s="5">
         <v>233469.33333333334</v>
       </c>
     </row>
-    <row r="139" spans="2:60" s="5" customFormat="1">
+    <row r="139" spans="2:61" s="5" customFormat="1">
       <c r="B139" s="5">
         <v>1983.25</v>
       </c>
@@ -19079,15 +19496,18 @@
       <c r="BF139" s="8">
         <v>57.7</v>
       </c>
-      <c r="BG139" s="5">
+      <c r="BG139" s="8">
+        <v>100.82198456034</v>
+      </c>
+      <c r="BH139" s="5">
         <f t="shared" si="2"/>
         <v>-27.163333333333338</v>
       </c>
-      <c r="BH139" s="5">
+      <c r="BI139" s="5">
         <v>233940.33333333334</v>
       </c>
     </row>
-    <row r="140" spans="2:60" s="5" customFormat="1">
+    <row r="140" spans="2:61" s="5" customFormat="1">
       <c r="B140" s="5">
         <v>1983.5</v>
       </c>
@@ -19255,15 +19675,18 @@
       <c r="BF140" s="8">
         <v>58.115000000000002</v>
       </c>
-      <c r="BG140" s="5">
+      <c r="BG140" s="8">
+        <v>100.808536517663</v>
+      </c>
+      <c r="BH140" s="5">
         <f t="shared" si="2"/>
         <v>-26.555000000000003</v>
       </c>
-      <c r="BH140" s="5">
+      <c r="BI140" s="5">
         <v>234503</v>
       </c>
     </row>
-    <row r="141" spans="2:60" s="5" customFormat="1">
+    <row r="141" spans="2:61" s="5" customFormat="1">
       <c r="B141" s="5">
         <v>1983.75</v>
       </c>
@@ -19431,15 +19854,18 @@
       <c r="BF141" s="8">
         <v>58.396000000000001</v>
       </c>
-      <c r="BG141" s="5">
+      <c r="BG141" s="8">
+        <v>100.716315115529</v>
+      </c>
+      <c r="BH141" s="5">
         <f t="shared" si="2"/>
         <v>-28.566000000000003</v>
       </c>
-      <c r="BH141" s="5">
+      <c r="BI141" s="5">
         <v>235073.33333333334</v>
       </c>
     </row>
-    <row r="142" spans="2:60" s="5" customFormat="1">
+    <row r="142" spans="2:61" s="5" customFormat="1">
       <c r="B142" s="5">
         <v>1984</v>
       </c>
@@ -19607,15 +20033,18 @@
       <c r="BF142" s="8">
         <v>58.491999999999997</v>
       </c>
-      <c r="BG142" s="5">
+      <c r="BG142" s="8">
+        <v>100.59223375213899</v>
+      </c>
+      <c r="BH142" s="5">
         <f t="shared" si="2"/>
         <v>-28.293333333333329</v>
       </c>
-      <c r="BH142" s="5">
+      <c r="BI142" s="5">
         <v>235529</v>
       </c>
     </row>
-    <row r="143" spans="2:60" s="5" customFormat="1">
+    <row r="143" spans="2:61" s="5" customFormat="1">
       <c r="B143" s="5">
         <v>1984.25</v>
       </c>
@@ -19783,15 +20212,18 @@
       <c r="BF143" s="8">
         <v>58.854999999999997</v>
       </c>
-      <c r="BG143" s="5">
+      <c r="BG143" s="8">
+        <v>100.594337236219</v>
+      </c>
+      <c r="BH143" s="5">
         <f t="shared" si="2"/>
         <v>-28.486666666666665</v>
       </c>
-      <c r="BH143" s="5">
+      <c r="BI143" s="5">
         <v>235997.33333333334</v>
       </c>
     </row>
-    <row r="144" spans="2:60" s="5" customFormat="1">
+    <row r="144" spans="2:61" s="5" customFormat="1">
       <c r="B144" s="5">
         <v>1984.5</v>
       </c>
@@ -19959,15 +20391,18 @@
       <c r="BF144" s="8">
         <v>59.106000000000002</v>
       </c>
-      <c r="BG144" s="5">
+      <c r="BG144" s="8">
+        <v>100.676295096494</v>
+      </c>
+      <c r="BH144" s="5">
         <f t="shared" si="2"/>
         <v>-30.001666666666669</v>
       </c>
-      <c r="BH144" s="5">
+      <c r="BI144" s="5">
         <v>236552.33333333334</v>
       </c>
     </row>
-    <row r="145" spans="2:60" s="5" customFormat="1">
+    <row r="145" spans="2:61" s="5" customFormat="1">
       <c r="B145" s="5">
         <v>1984.75</v>
       </c>
@@ -20135,15 +20570,18 @@
       <c r="BF145" s="8">
         <v>59.142000000000003</v>
       </c>
-      <c r="BG145" s="5">
+      <c r="BG145" s="8">
+        <v>100.774342526293</v>
+      </c>
+      <c r="BH145" s="5">
         <f t="shared" si="2"/>
         <v>-31.711333333333336</v>
       </c>
-      <c r="BH145" s="5">
+      <c r="BI145" s="5">
         <v>237150.33333333334</v>
       </c>
     </row>
-    <row r="146" spans="2:60" s="5" customFormat="1">
+    <row r="146" spans="2:61" s="5" customFormat="1">
       <c r="B146" s="5">
         <v>1985</v>
       </c>
@@ -20311,15 +20749,18 @@
       <c r="BF146" s="8">
         <v>59.241</v>
       </c>
-      <c r="BG146" s="5">
+      <c r="BG146" s="8">
+        <v>100.633619185626</v>
+      </c>
+      <c r="BH146" s="5">
         <f t="shared" si="2"/>
         <v>-32.191000000000003</v>
       </c>
-      <c r="BH146" s="5">
+      <c r="BI146" s="5">
         <v>237600.66666666666</v>
       </c>
     </row>
-    <row r="147" spans="2:60" s="5" customFormat="1">
+    <row r="147" spans="2:61" s="5" customFormat="1">
       <c r="B147" s="5">
         <v>1985.25</v>
       </c>
@@ -20487,15 +20928,18 @@
       <c r="BF147" s="8">
         <v>59.441000000000003</v>
       </c>
-      <c r="BG147" s="5">
+      <c r="BG147" s="8">
+        <v>100.648254211919</v>
+      </c>
+      <c r="BH147" s="5">
         <f t="shared" si="2"/>
         <v>-31.584000000000003</v>
       </c>
-      <c r="BH147" s="5">
+      <c r="BI147" s="5">
         <v>238081.33333333334</v>
       </c>
     </row>
-    <row r="148" spans="2:60" s="5" customFormat="1">
+    <row r="148" spans="2:61" s="5" customFormat="1">
       <c r="B148" s="5">
         <v>1985.5</v>
       </c>
@@ -20663,15 +21107,18 @@
       <c r="BF148" s="8">
         <v>60.201000000000001</v>
       </c>
-      <c r="BG148" s="5">
+      <c r="BG148" s="8">
+        <v>100.948994927314</v>
+      </c>
+      <c r="BH148" s="5">
         <f t="shared" si="2"/>
         <v>-32.409999999999997</v>
       </c>
-      <c r="BH148" s="5">
+      <c r="BI148" s="5">
         <v>238681</v>
       </c>
     </row>
-    <row r="149" spans="2:60" s="5" customFormat="1">
+    <row r="149" spans="2:61" s="5" customFormat="1">
       <c r="B149" s="5">
         <v>1985.75</v>
       </c>
@@ -20839,15 +21286,18 @@
       <c r="BF149" s="8">
         <v>60.463000000000001</v>
       </c>
-      <c r="BG149" s="5">
+      <c r="BG149" s="8">
+        <v>100.95980189671199</v>
+      </c>
+      <c r="BH149" s="5">
         <f t="shared" si="2"/>
         <v>-31.27</v>
       </c>
-      <c r="BH149" s="5">
+      <c r="BI149" s="5">
         <v>239299</v>
       </c>
     </row>
-    <row r="150" spans="2:60" s="5" customFormat="1">
+    <row r="150" spans="2:61" s="5" customFormat="1">
       <c r="B150" s="5">
         <v>1986</v>
       </c>
@@ -21017,15 +21467,18 @@
       <c r="BF150" s="8">
         <v>61.174999999999997</v>
       </c>
-      <c r="BG150" s="5">
+      <c r="BG150" s="8">
+        <v>101.28376180366099</v>
+      </c>
+      <c r="BH150" s="5">
         <f t="shared" si="2"/>
         <v>-44.173333333333332</v>
       </c>
-      <c r="BH150" s="5">
+      <c r="BI150" s="5">
         <v>239784.66666666666</v>
       </c>
     </row>
-    <row r="151" spans="2:60" s="5" customFormat="1">
+    <row r="151" spans="2:61" s="5" customFormat="1">
       <c r="B151" s="5">
         <v>1986.25</v>
       </c>
@@ -21195,15 +21648,18 @@
       <c r="BF151" s="8">
         <v>61.646000000000001</v>
       </c>
-      <c r="BG151" s="5">
+      <c r="BG151" s="8">
+        <v>100.94571648437901</v>
+      </c>
+      <c r="BH151" s="5">
         <f t="shared" si="2"/>
         <v>-47.725999999999999</v>
       </c>
-      <c r="BH151" s="5">
+      <c r="BI151" s="5">
         <v>240274.66666666666</v>
       </c>
     </row>
-    <row r="152" spans="2:60" s="5" customFormat="1">
+    <row r="152" spans="2:61" s="5" customFormat="1">
       <c r="B152" s="5">
         <v>1986.5</v>
       </c>
@@ -21373,15 +21829,18 @@
       <c r="BF152" s="8">
         <v>61.944000000000003</v>
       </c>
-      <c r="BG152" s="5">
+      <c r="BG152" s="8">
+        <v>101.087838328225</v>
+      </c>
+      <c r="BH152" s="5">
         <f t="shared" si="2"/>
         <v>-48.084000000000003</v>
       </c>
-      <c r="BH152" s="5">
+      <c r="BI152" s="5">
         <v>240857.66666666666</v>
       </c>
     </row>
-    <row r="153" spans="2:60" s="5" customFormat="1">
+    <row r="153" spans="2:61" s="5" customFormat="1">
       <c r="B153" s="5">
         <v>1986.75</v>
       </c>
@@ -21551,15 +22010,18 @@
       <c r="BF153" s="8">
         <v>61.792999999999999</v>
       </c>
-      <c r="BG153" s="5">
+      <c r="BG153" s="8">
+        <v>100.554744002755</v>
+      </c>
+      <c r="BH153" s="5">
         <f t="shared" si="2"/>
         <v>-46.414666666666662</v>
       </c>
-      <c r="BH153" s="5">
+      <c r="BI153" s="5">
         <v>241453.66666666666</v>
       </c>
     </row>
-    <row r="154" spans="2:60" s="5" customFormat="1">
+    <row r="154" spans="2:61" s="5" customFormat="1">
       <c r="B154" s="5">
         <v>1987</v>
       </c>
@@ -21729,15 +22191,18 @@
       <c r="BF154" s="8">
         <v>61.49</v>
       </c>
-      <c r="BG154" s="5">
+      <c r="BG154" s="8">
+        <v>101.102016092938</v>
+      </c>
+      <c r="BH154" s="5">
         <f t="shared" si="2"/>
         <v>-43.261000000000003</v>
       </c>
-      <c r="BH154" s="5">
+      <c r="BI154" s="5">
         <v>241931</v>
       </c>
     </row>
-    <row r="155" spans="2:60" s="5" customFormat="1">
+    <row r="155" spans="2:61" s="5" customFormat="1">
       <c r="B155" s="5">
         <v>1987.25</v>
       </c>
@@ -21907,15 +22372,18 @@
       <c r="BF155" s="8">
         <v>61.933</v>
       </c>
-      <c r="BG155" s="5">
+      <c r="BG155" s="8">
+        <v>101.166103921367</v>
+      </c>
+      <c r="BH155" s="5">
         <f t="shared" si="2"/>
         <v>-42.569000000000003</v>
       </c>
-      <c r="BH155" s="5">
+      <c r="BI155" s="5">
         <v>242427.66666666666</v>
       </c>
     </row>
-    <row r="156" spans="2:60" s="5" customFormat="1">
+    <row r="156" spans="2:61" s="5" customFormat="1">
       <c r="B156" s="5">
         <v>1987.5</v>
       </c>
@@ -22085,15 +22553,18 @@
       <c r="BF156" s="8">
         <v>61.947000000000003</v>
       </c>
-      <c r="BG156" s="5">
+      <c r="BG156" s="8">
+        <v>100.874961863446</v>
+      </c>
+      <c r="BH156" s="5">
         <f t="shared" si="2"/>
         <v>-41.561999999999998</v>
       </c>
-      <c r="BH156" s="5">
+      <c r="BI156" s="5">
         <v>243013</v>
       </c>
     </row>
-    <row r="157" spans="2:60" s="5" customFormat="1">
+    <row r="157" spans="2:61" s="5" customFormat="1">
       <c r="B157" s="5">
         <v>1987.75</v>
       </c>
@@ -22263,15 +22734,18 @@
       <c r="BF157" s="8">
         <v>62.481000000000002</v>
       </c>
-      <c r="BG157" s="5">
+      <c r="BG157" s="8">
+        <v>101.72125085032199</v>
+      </c>
+      <c r="BH157" s="5">
         <f t="shared" si="2"/>
         <v>-43.811333333333337</v>
       </c>
-      <c r="BH157" s="5">
+      <c r="BI157" s="5">
         <v>243631.33333333334</v>
       </c>
     </row>
-    <row r="158" spans="2:60" s="5" customFormat="1">
+    <row r="158" spans="2:61" s="5" customFormat="1">
       <c r="B158" s="5">
         <v>1988</v>
       </c>
@@ -22441,15 +22915,18 @@
       <c r="BF158" s="8">
         <v>62.695999999999998</v>
       </c>
-      <c r="BG158" s="5">
+      <c r="BG158" s="8">
+        <v>100.67900021723</v>
+      </c>
+      <c r="BH158" s="5">
         <f t="shared" si="2"/>
         <v>-45.981999999999999</v>
       </c>
-      <c r="BH158" s="5">
+      <c r="BI158" s="5">
         <v>244130.33333333334</v>
       </c>
     </row>
-    <row r="159" spans="2:60" s="5" customFormat="1">
+    <row r="159" spans="2:61" s="5" customFormat="1">
       <c r="B159" s="5">
         <v>1988.25</v>
       </c>
@@ -22619,15 +23096,18 @@
       <c r="BF159" s="8">
         <v>62.866999999999997</v>
       </c>
-      <c r="BG159" s="5">
+      <c r="BG159" s="8">
+        <v>100.258800658284</v>
+      </c>
+      <c r="BH159" s="5">
         <f t="shared" si="2"/>
         <v>-45.585999999999999</v>
       </c>
-      <c r="BH159" s="5">
+      <c r="BI159" s="5">
         <v>244620.33333333334</v>
       </c>
     </row>
-    <row r="160" spans="2:60" s="5" customFormat="1">
+    <row r="160" spans="2:61" s="5" customFormat="1">
       <c r="B160" s="5">
         <v>1988.5</v>
       </c>
@@ -22797,15 +23277,18 @@
       <c r="BF160" s="8">
         <v>63.052</v>
       </c>
-      <c r="BG160" s="5">
+      <c r="BG160" s="8">
+        <v>100.634234027338</v>
+      </c>
+      <c r="BH160" s="5">
         <f t="shared" si="2"/>
         <v>-47.888999999999996</v>
       </c>
-      <c r="BH160" s="5">
+      <c r="BI160" s="5">
         <v>245241.66666666666</v>
       </c>
     </row>
-    <row r="161" spans="2:60" s="5" customFormat="1">
+    <row r="161" spans="2:61" s="5" customFormat="1">
       <c r="B161" s="5">
         <v>1988.75</v>
       </c>
@@ -22975,15 +23458,18 @@
       <c r="BF161" s="8">
         <v>63.298000000000002</v>
       </c>
-      <c r="BG161" s="5">
+      <c r="BG161" s="8">
+        <v>100.51890956231399</v>
+      </c>
+      <c r="BH161" s="5">
         <f t="shared" si="2"/>
         <v>-48.617666666666665</v>
       </c>
-      <c r="BH161" s="5">
+      <c r="BI161" s="5">
         <v>245877.66666666666</v>
       </c>
     </row>
-    <row r="162" spans="2:60" s="5" customFormat="1">
+    <row r="162" spans="2:61" s="5" customFormat="1">
       <c r="B162" s="5">
         <v>1989</v>
       </c>
@@ -23153,15 +23639,18 @@
       <c r="BF162" s="8">
         <v>63.212000000000003</v>
       </c>
-      <c r="BG162" s="5">
+      <c r="BG162" s="8">
+        <v>101.196438841646</v>
+      </c>
+      <c r="BH162" s="5">
         <f t="shared" si="2"/>
         <v>-44.794000000000004</v>
       </c>
-      <c r="BH162" s="5">
+      <c r="BI162" s="5">
         <v>246377.33333333334</v>
       </c>
     </row>
-    <row r="163" spans="2:60" s="5" customFormat="1">
+    <row r="163" spans="2:61" s="5" customFormat="1">
       <c r="B163" s="5">
         <v>1989.25</v>
       </c>
@@ -23331,15 +23820,18 @@
       <c r="BF163" s="8">
         <v>63.448999999999998</v>
       </c>
-      <c r="BG163" s="5">
+      <c r="BG163" s="8">
+        <v>100.649555956622</v>
+      </c>
+      <c r="BH163" s="5">
         <f t="shared" si="2"/>
         <v>-43.089999999999996</v>
       </c>
-      <c r="BH163" s="5">
+      <c r="BI163" s="5">
         <v>246913.66666666666</v>
       </c>
     </row>
-    <row r="164" spans="2:60" s="5" customFormat="1">
+    <row r="164" spans="2:61" s="5" customFormat="1">
       <c r="B164" s="5">
         <v>1989.5</v>
       </c>
@@ -23509,15 +24001,18 @@
       <c r="BF164" s="8">
         <v>63.773000000000003</v>
       </c>
-      <c r="BG164" s="5">
+      <c r="BG164" s="8">
+        <v>100.731650402626</v>
+      </c>
+      <c r="BH164" s="5">
         <f t="shared" si="2"/>
         <v>-44.519666666666666</v>
       </c>
-      <c r="BH164" s="5">
+      <c r="BI164" s="5">
         <v>247577</v>
       </c>
     </row>
-    <row r="165" spans="2:60" s="5" customFormat="1">
+    <row r="165" spans="2:61" s="5" customFormat="1">
       <c r="B165" s="5">
         <v>1989.75</v>
       </c>
@@ -23687,15 +24182,18 @@
       <c r="BF165" s="8">
         <v>63.795000000000002</v>
       </c>
-      <c r="BG165" s="5">
+      <c r="BG165" s="8">
+        <v>101.07252704993201</v>
+      </c>
+      <c r="BH165" s="5">
         <f t="shared" si="2"/>
         <v>-43.462000000000003</v>
       </c>
-      <c r="BH165" s="5">
+      <c r="BI165" s="5">
         <v>248275.66666666666</v>
       </c>
     </row>
-    <row r="166" spans="2:60" s="5" customFormat="1">
+    <row r="166" spans="2:61" s="5" customFormat="1">
       <c r="B166" s="5">
         <v>1990</v>
       </c>
@@ -23867,15 +24365,18 @@
       <c r="BF166" s="8">
         <v>64.331000000000003</v>
       </c>
-      <c r="BG166" s="5">
+      <c r="BG166" s="8">
+        <v>101.202909028863</v>
+      </c>
+      <c r="BH166" s="5">
         <f t="shared" si="2"/>
         <v>-42.608666666666664</v>
       </c>
-      <c r="BH166" s="5">
+      <c r="BI166" s="5">
         <v>248832.66666666666</v>
       </c>
     </row>
-    <row r="167" spans="2:60" s="5" customFormat="1">
+    <row r="167" spans="2:61" s="5" customFormat="1">
       <c r="B167" s="5">
         <v>1990.25</v>
       </c>
@@ -24047,15 +24548,18 @@
       <c r="BF167" s="8">
         <v>64.819999999999993</v>
       </c>
-      <c r="BG167" s="5">
+      <c r="BG167" s="8">
+        <v>101.08978474819</v>
+      </c>
+      <c r="BH167" s="5">
         <f t="shared" si="2"/>
         <v>-46.923333333333325</v>
       </c>
-      <c r="BH167" s="5">
+      <c r="BI167" s="5">
         <v>249573.33333333334</v>
       </c>
     </row>
-    <row r="168" spans="2:60" s="5" customFormat="1">
+    <row r="168" spans="2:61" s="5" customFormat="1">
       <c r="B168" s="5">
         <v>1990.5</v>
       </c>
@@ -24227,15 +24731,18 @@
       <c r="BF168" s="8">
         <v>65.016999999999996</v>
       </c>
-      <c r="BG168" s="5">
+      <c r="BG168" s="8">
+        <v>101.51216113176</v>
+      </c>
+      <c r="BH168" s="5">
         <f t="shared" si="2"/>
         <v>-38.517333333333326</v>
       </c>
-      <c r="BH168" s="5">
+      <c r="BI168" s="5">
         <v>250440.66666666666</v>
       </c>
     </row>
-    <row r="169" spans="2:60" s="5" customFormat="1">
+    <row r="169" spans="2:61" s="5" customFormat="1">
       <c r="B169" s="5">
         <v>1990.75</v>
       </c>
@@ -24407,15 +24914,18 @@
       <c r="BF169" s="8">
         <v>64.447999999999993</v>
       </c>
-      <c r="BG169" s="5">
+      <c r="BG169" s="8">
+        <v>101.47122290729099</v>
+      </c>
+      <c r="BH169" s="5">
         <f t="shared" si="2"/>
         <v>-32.594999999999992</v>
       </c>
-      <c r="BH169" s="5">
+      <c r="BI169" s="5">
         <v>251343</v>
       </c>
     </row>
-    <row r="170" spans="2:60" s="5" customFormat="1">
+    <row r="170" spans="2:61" s="5" customFormat="1">
       <c r="B170" s="5">
         <v>1991</v>
       </c>
@@ -24587,15 +25097,18 @@
       <c r="BF170" s="8">
         <v>64.616</v>
       </c>
-      <c r="BG170" s="5">
+      <c r="BG170" s="8">
+        <v>101.723333030566</v>
+      </c>
+      <c r="BH170" s="5">
         <f t="shared" si="2"/>
         <v>-42.835333333333338</v>
       </c>
-      <c r="BH170" s="5">
+      <c r="BI170" s="5">
         <v>252132</v>
       </c>
     </row>
-    <row r="171" spans="2:60" s="5" customFormat="1">
+    <row r="171" spans="2:61" s="5" customFormat="1">
       <c r="B171" s="5">
         <v>1991.25</v>
       </c>
@@ -24767,15 +25280,18 @@
       <c r="BF171" s="8">
         <v>65.662999999999997</v>
       </c>
-      <c r="BG171" s="5">
+      <c r="BG171" s="8">
+        <v>101.027986392532</v>
+      </c>
+      <c r="BH171" s="5">
         <f t="shared" si="2"/>
         <v>-44.910333333333327</v>
       </c>
-      <c r="BH171" s="5">
+      <c r="BI171" s="5">
         <v>252921</v>
       </c>
     </row>
-    <row r="172" spans="2:60" s="5" customFormat="1">
+    <row r="172" spans="2:61" s="5" customFormat="1">
       <c r="B172" s="5">
         <v>1991.5</v>
       </c>
@@ -24947,15 +25463,18 @@
       <c r="BF172" s="8">
         <v>66.134</v>
       </c>
-      <c r="BG172" s="5">
+      <c r="BG172" s="8">
+        <v>101.19784468177301</v>
+      </c>
+      <c r="BH172" s="5">
         <f t="shared" si="2"/>
         <v>-44.478999999999999</v>
       </c>
-      <c r="BH172" s="5">
+      <c r="BI172" s="5">
         <v>253808.66666666666</v>
       </c>
     </row>
-    <row r="173" spans="2:60" s="5" customFormat="1">
+    <row r="173" spans="2:61" s="5" customFormat="1">
       <c r="B173" s="5">
         <v>1991.75</v>
       </c>
@@ -25127,15 +25646,18 @@
       <c r="BF173" s="8">
         <v>66.52</v>
       </c>
-      <c r="BG173" s="5">
+      <c r="BG173" s="8">
+        <v>101.761421091881</v>
+      </c>
+      <c r="BH173" s="5">
         <f t="shared" si="2"/>
         <v>-44.783333333333331</v>
       </c>
-      <c r="BH173" s="5">
+      <c r="BI173" s="5">
         <v>254705.66666666666</v>
       </c>
     </row>
-    <row r="174" spans="2:60" s="5" customFormat="1">
+    <row r="174" spans="2:61" s="5" customFormat="1">
       <c r="B174" s="5">
         <v>1992</v>
       </c>
@@ -25307,15 +25829,18 @@
       <c r="BF174" s="8">
         <v>67.816999999999993</v>
       </c>
-      <c r="BG174" s="5">
+      <c r="BG174" s="8">
+        <v>101.387864674353</v>
+      </c>
+      <c r="BH174" s="5">
         <f t="shared" si="2"/>
         <v>-48.906666666666659</v>
       </c>
-      <c r="BH174" s="5">
+      <c r="BI174" s="5">
         <v>255455</v>
       </c>
     </row>
-    <row r="175" spans="2:60" s="5" customFormat="1">
+    <row r="175" spans="2:61" s="5" customFormat="1">
       <c r="B175" s="5">
         <v>1992.25</v>
       </c>
@@ -25487,15 +26012,18 @@
       <c r="BF175" s="8">
         <v>68.388000000000005</v>
       </c>
-      <c r="BG175" s="5">
+      <c r="BG175" s="8">
+        <v>100.961011501565</v>
+      </c>
+      <c r="BH175" s="5">
         <f t="shared" si="2"/>
         <v>-47.202000000000005</v>
       </c>
-      <c r="BH175" s="5">
+      <c r="BI175" s="5">
         <v>256288.66666666666</v>
       </c>
     </row>
-    <row r="176" spans="2:60" s="5" customFormat="1">
+    <row r="176" spans="2:61" s="5" customFormat="1">
       <c r="B176" s="5">
         <v>1992.5</v>
       </c>
@@ -25667,15 +26195,18 @@
       <c r="BF176" s="8">
         <v>69.009</v>
       </c>
-      <c r="BG176" s="5">
+      <c r="BG176" s="8">
+        <v>101.366220323386</v>
+      </c>
+      <c r="BH176" s="5">
         <f t="shared" si="2"/>
         <v>-47.338666666666668</v>
       </c>
-      <c r="BH176" s="5">
+      <c r="BI176" s="5">
         <v>257224.66666666666</v>
       </c>
     </row>
-    <row r="177" spans="2:60" s="5" customFormat="1">
+    <row r="177" spans="2:61" s="5" customFormat="1">
       <c r="B177" s="5">
         <v>1992.75</v>
       </c>
@@ -25847,15 +26378,18 @@
       <c r="BF177" s="8">
         <v>69.444000000000003</v>
       </c>
-      <c r="BG177" s="5">
+      <c r="BG177" s="8">
+        <v>101.117059880875</v>
+      </c>
+      <c r="BH177" s="5">
         <f t="shared" si="2"/>
         <v>-48.965000000000003</v>
       </c>
-      <c r="BH177" s="5">
+      <c r="BI177" s="5">
         <v>258140.33333333334</v>
       </c>
     </row>
-    <row r="178" spans="2:60" s="5" customFormat="1">
+    <row r="178" spans="2:61" s="5" customFormat="1">
       <c r="B178" s="5">
         <v>1993</v>
       </c>
@@ -26027,15 +26561,18 @@
       <c r="BF178" s="8">
         <v>68.897000000000006</v>
       </c>
-      <c r="BG178" s="5">
+      <c r="BG178" s="8">
+        <v>101.295890995406</v>
+      </c>
+      <c r="BH178" s="5">
         <f t="shared" si="2"/>
         <v>-49.072000000000003</v>
       </c>
-      <c r="BH178" s="5">
+      <c r="BI178" s="5">
         <v>258916.66666666666</v>
       </c>
     </row>
-    <row r="179" spans="2:60" s="5" customFormat="1">
+    <row r="179" spans="2:61" s="5" customFormat="1">
       <c r="B179" s="5">
         <v>1993.25</v>
       </c>
@@ -26207,15 +26744,18 @@
       <c r="BF179" s="8">
         <v>68.501000000000005</v>
       </c>
-      <c r="BG179" s="5">
+      <c r="BG179" s="8">
+        <v>100.835390575074</v>
+      </c>
+      <c r="BH179" s="5">
         <f t="shared" si="2"/>
         <v>-48.741</v>
       </c>
-      <c r="BH179" s="5">
+      <c r="BI179" s="5">
         <v>259685.66666666666</v>
       </c>
     </row>
-    <row r="180" spans="2:60" s="5" customFormat="1">
+    <row r="180" spans="2:61" s="5" customFormat="1">
       <c r="B180" s="5">
         <v>1993.5</v>
       </c>
@@ -26387,15 +26927,18 @@
       <c r="BF180" s="8">
         <v>68.638000000000005</v>
       </c>
-      <c r="BG180" s="5">
+      <c r="BG180" s="8">
+        <v>100.506156296577</v>
+      </c>
+      <c r="BH180" s="5">
         <f t="shared" si="2"/>
         <v>-50.841666666666669</v>
       </c>
-      <c r="BH180" s="5">
+      <c r="BI180" s="5">
         <v>260562.66666666666</v>
       </c>
     </row>
-    <row r="181" spans="2:60" s="5" customFormat="1">
+    <row r="181" spans="2:61" s="5" customFormat="1">
       <c r="B181" s="5">
         <v>1993.75</v>
       </c>
@@ -26567,15 +27110,18 @@
       <c r="BF181" s="8">
         <v>68.991</v>
       </c>
-      <c r="BG181" s="5">
+      <c r="BG181" s="8">
+        <v>100.299371576862</v>
+      </c>
+      <c r="BH181" s="5">
         <f t="shared" si="2"/>
         <v>-52.539666666666662</v>
       </c>
-      <c r="BH181" s="5">
+      <c r="BI181" s="5">
         <v>261420.66666666666</v>
       </c>
     </row>
-    <row r="182" spans="2:60" s="5" customFormat="1">
+    <row r="182" spans="2:61" s="5" customFormat="1">
       <c r="B182" s="5">
         <v>1994</v>
       </c>
@@ -26747,15 +27293,18 @@
       <c r="BF182" s="8">
         <v>69.241</v>
       </c>
-      <c r="BG182" s="5">
+      <c r="BG182" s="8">
+        <v>101.310436262807</v>
+      </c>
+      <c r="BH182" s="5">
         <f t="shared" si="2"/>
         <v>-54.427666666666667</v>
       </c>
-      <c r="BH182" s="5">
+      <c r="BI182" s="5">
         <v>262131.33333333334</v>
       </c>
     </row>
-    <row r="183" spans="2:60" s="5" customFormat="1">
+    <row r="183" spans="2:61" s="5" customFormat="1">
       <c r="B183" s="5">
         <v>1994.25</v>
       </c>
@@ -26927,15 +27476,18 @@
       <c r="BF183" s="8">
         <v>69.239000000000004</v>
       </c>
-      <c r="BG183" s="5">
+      <c r="BG183" s="8">
+        <v>101.168170081171</v>
+      </c>
+      <c r="BH183" s="5">
         <f t="shared" si="2"/>
         <v>-51.462333333333333</v>
       </c>
-      <c r="BH183" s="5">
+      <c r="BI183" s="5">
         <v>262886.66666666669</v>
       </c>
     </row>
-    <row r="184" spans="2:60" s="5" customFormat="1">
+    <row r="184" spans="2:61" s="5" customFormat="1">
       <c r="B184" s="5">
         <v>1994.5</v>
       </c>
@@ -27107,15 +27659,18 @@
       <c r="BF184" s="8">
         <v>68.869</v>
       </c>
-      <c r="BG184" s="5">
+      <c r="BG184" s="8">
+        <v>100.69641642744</v>
+      </c>
+      <c r="BH184" s="5">
         <f t="shared" si="2"/>
         <v>-50.37233333333333</v>
       </c>
-      <c r="BH184" s="5">
+      <c r="BI184" s="5">
         <v>263725.66666666669</v>
       </c>
     </row>
-    <row r="185" spans="2:60" s="5" customFormat="1">
+    <row r="185" spans="2:61" s="5" customFormat="1">
       <c r="B185" s="5">
         <v>1994.75</v>
       </c>
@@ -27287,15 +27842,18 @@
       <c r="BF185" s="8">
         <v>69.682000000000002</v>
       </c>
-      <c r="BG185" s="5">
+      <c r="BG185" s="8">
+        <v>100.99282970978901</v>
+      </c>
+      <c r="BH185" s="5">
         <f t="shared" si="2"/>
         <v>-52.025333333333336</v>
       </c>
-      <c r="BH185" s="5">
+      <c r="BI185" s="5">
         <v>264554.66666666669</v>
       </c>
     </row>
-    <row r="186" spans="2:60" s="5" customFormat="1">
+    <row r="186" spans="2:61" s="5" customFormat="1">
       <c r="B186" s="5">
         <v>1995</v>
       </c>
@@ -27467,15 +28025,18 @@
       <c r="BF186" s="8">
         <v>69.686000000000007</v>
       </c>
-      <c r="BG186" s="5">
+      <c r="BG186" s="8">
+        <v>101.419798259358</v>
+      </c>
+      <c r="BH186" s="5">
         <f t="shared" si="2"/>
         <v>-51.329333333333338</v>
       </c>
-      <c r="BH186" s="5">
+      <c r="BI186" s="5">
         <v>265269.66666666669</v>
       </c>
     </row>
-    <row r="187" spans="2:60" s="5" customFormat="1">
+    <row r="187" spans="2:61" s="5" customFormat="1">
       <c r="B187" s="5">
         <v>1995.25</v>
       </c>
@@ -27647,15 +28208,18 @@
       <c r="BF187" s="8">
         <v>70.025000000000006</v>
       </c>
-      <c r="BG187" s="5">
+      <c r="BG187" s="8">
+        <v>100.777886146361</v>
+      </c>
+      <c r="BH187" s="5">
         <f t="shared" si="2"/>
         <v>-50.681666666666672</v>
       </c>
-      <c r="BH187" s="5">
+      <c r="BI187" s="5">
         <v>266007.66666666669</v>
       </c>
     </row>
-    <row r="188" spans="2:60" s="5" customFormat="1">
+    <row r="188" spans="2:61" s="5" customFormat="1">
       <c r="B188" s="5">
         <v>1995.5</v>
       </c>
@@ -27827,15 +28391,18 @@
       <c r="BF188" s="8">
         <v>70.016000000000005</v>
       </c>
-      <c r="BG188" s="5">
+      <c r="BG188" s="8">
+        <v>100.893630687109</v>
+      </c>
+      <c r="BH188" s="5">
         <f t="shared" si="2"/>
         <v>-52.162666666666674</v>
       </c>
-      <c r="BH188" s="5">
+      <c r="BI188" s="5">
         <v>266850.66666666669</v>
       </c>
     </row>
-    <row r="189" spans="2:60" s="5" customFormat="1">
+    <row r="189" spans="2:61" s="5" customFormat="1">
       <c r="B189" s="5">
         <v>1995.75</v>
       </c>
@@ -28007,15 +28574,18 @@
       <c r="BF189" s="8">
         <v>70.457999999999998</v>
       </c>
-      <c r="BG189" s="5">
+      <c r="BG189" s="8">
+        <v>101.100579070892</v>
+      </c>
+      <c r="BH189" s="5">
         <f t="shared" si="2"/>
         <v>-52.301333333333332</v>
       </c>
-      <c r="BH189" s="5">
+      <c r="BI189" s="5">
         <v>267704.66666666669</v>
       </c>
     </row>
-    <row r="190" spans="2:60" s="5" customFormat="1">
+    <row r="190" spans="2:61" s="5" customFormat="1">
       <c r="B190" s="5">
         <v>1996</v>
       </c>
@@ -28187,15 +28757,18 @@
       <c r="BF190" s="8">
         <v>70.832999999999998</v>
       </c>
-      <c r="BG190" s="5">
+      <c r="BG190" s="8">
+        <v>101.69160990545301</v>
+      </c>
+      <c r="BH190" s="5">
         <f t="shared" si="2"/>
         <v>-51.063000000000002</v>
       </c>
-      <c r="BH190" s="5">
+      <c r="BI190" s="5">
         <v>268370</v>
       </c>
     </row>
-    <row r="191" spans="2:60" s="5" customFormat="1">
+    <row r="191" spans="2:61" s="5" customFormat="1">
       <c r="B191" s="5">
         <v>1996.25</v>
       </c>
@@ -28367,15 +28940,18 @@
       <c r="BF191" s="8">
         <v>71.563000000000002</v>
       </c>
-      <c r="BG191" s="5">
+      <c r="BG191" s="8">
+        <v>101.501145244543</v>
+      </c>
+      <c r="BH191" s="5">
         <f t="shared" si="2"/>
         <v>-49.806333333333335</v>
       </c>
-      <c r="BH191" s="5">
+      <c r="BI191" s="5">
         <v>269115.66666666669</v>
       </c>
     </row>
-    <row r="192" spans="2:60" s="5" customFormat="1">
+    <row r="192" spans="2:61" s="5" customFormat="1">
       <c r="B192" s="5">
         <v>1996.5</v>
       </c>
@@ -28547,15 +29123,18 @@
       <c r="BF192" s="8">
         <v>71.838999999999999</v>
       </c>
-      <c r="BG192" s="5">
+      <c r="BG192" s="8">
+        <v>101.220030890027</v>
+      </c>
+      <c r="BH192" s="5">
         <f t="shared" si="2"/>
         <v>-49.415666666666667</v>
       </c>
-      <c r="BH192" s="5">
+      <c r="BI192" s="5">
         <v>269975.66666666669</v>
       </c>
     </row>
-    <row r="193" spans="2:60" s="5" customFormat="1">
+    <row r="193" spans="2:61" s="5" customFormat="1">
       <c r="B193" s="5">
         <v>1996.75</v>
       </c>
@@ -28727,15 +29306,18 @@
       <c r="BF193" s="8">
         <v>71.929000000000002</v>
       </c>
-      <c r="BG193" s="5">
+      <c r="BG193" s="8">
+        <v>100.936485112138</v>
+      </c>
+      <c r="BH193" s="5">
         <f t="shared" si="2"/>
         <v>-47.262333333333331</v>
       </c>
-      <c r="BH193" s="5">
+      <c r="BI193" s="5">
         <v>270861.33333333331</v>
       </c>
     </row>
-    <row r="194" spans="2:60" s="5" customFormat="1">
+    <row r="194" spans="2:61" s="5" customFormat="1">
       <c r="B194" s="5">
         <v>1997</v>
       </c>
@@ -28907,15 +29489,18 @@
       <c r="BF194" s="8">
         <v>71.881</v>
       </c>
-      <c r="BG194" s="5">
+      <c r="BG194" s="8">
+        <v>102.152437171142</v>
+      </c>
+      <c r="BH194" s="5">
         <f t="shared" si="2"/>
         <v>-49.091000000000001</v>
       </c>
-      <c r="BH194" s="5">
+      <c r="BI194" s="5">
         <v>271588.66666666669</v>
       </c>
     </row>
-    <row r="195" spans="2:60" s="5" customFormat="1">
+    <row r="195" spans="2:61" s="5" customFormat="1">
       <c r="B195" s="5">
         <v>1997.25</v>
       </c>
@@ -29087,15 +29672,18 @@
       <c r="BF195" s="8">
         <v>72.822000000000003</v>
       </c>
-      <c r="BG195" s="5">
+      <c r="BG195" s="8">
+        <v>101.38608275948999</v>
+      </c>
+      <c r="BH195" s="5">
         <f t="shared" si="2"/>
         <v>-52.915333333333336</v>
       </c>
-      <c r="BH195" s="5">
+      <c r="BI195" s="5">
         <v>272349</v>
       </c>
     </row>
-    <row r="196" spans="2:60" s="5" customFormat="1">
+    <row r="196" spans="2:61" s="5" customFormat="1">
       <c r="B196" s="5">
         <v>1997.5</v>
       </c>
@@ -29267,15 +29855,18 @@
       <c r="BF196" s="8">
         <v>73.438999999999993</v>
       </c>
-      <c r="BG196" s="5">
+      <c r="BG196" s="8">
+        <v>101.688142050952</v>
+      </c>
+      <c r="BH196" s="5">
         <f t="shared" si="2"/>
         <v>-53.655666666666662</v>
       </c>
-      <c r="BH196" s="5">
+      <c r="BI196" s="5">
         <v>273234</v>
       </c>
     </row>
-    <row r="197" spans="2:60" s="5" customFormat="1">
+    <row r="197" spans="2:61" s="5" customFormat="1">
       <c r="B197" s="5">
         <v>1997.75</v>
       </c>
@@ -29447,15 +30038,18 @@
       <c r="BF197" s="8">
         <v>73.745000000000005</v>
       </c>
-      <c r="BG197" s="5">
+      <c r="BG197" s="8">
+        <v>102.55376000013401</v>
+      </c>
+      <c r="BH197" s="5">
         <f t="shared" si="2"/>
         <v>-53.828333333333333</v>
       </c>
-      <c r="BH197" s="5">
+      <c r="BI197" s="5">
         <v>274116.66666666669</v>
       </c>
     </row>
-    <row r="198" spans="2:60" s="5" customFormat="1">
+    <row r="198" spans="2:61" s="5" customFormat="1">
       <c r="B198" s="5">
         <v>1998</v>
       </c>
@@ -29627,15 +30221,18 @@
       <c r="BF198" s="8">
         <v>74.150999999999996</v>
       </c>
-      <c r="BG198" s="5">
-        <f t="shared" ref="BG198:BG261" si="3">BE198-BF198</f>
+      <c r="BG198" s="8">
+        <v>101.930075105052</v>
+      </c>
+      <c r="BH198" s="5">
+        <f t="shared" ref="BH198:BH261" si="3">BE198-BF198</f>
         <v>-58.220999999999997</v>
       </c>
-      <c r="BH198" s="5">
+      <c r="BI198" s="5">
         <v>274837</v>
       </c>
     </row>
-    <row r="199" spans="2:60" s="5" customFormat="1">
+    <row r="199" spans="2:61" s="5" customFormat="1">
       <c r="B199" s="5">
         <v>1998.25</v>
       </c>
@@ -29807,15 +30404,18 @@
       <c r="BF199" s="8">
         <v>74.617000000000004</v>
       </c>
-      <c r="BG199" s="5">
+      <c r="BG199" s="8">
+        <v>101.472682859166</v>
+      </c>
+      <c r="BH199" s="5">
         <f t="shared" si="3"/>
         <v>-59.963666666666668</v>
       </c>
-      <c r="BH199" s="5">
+      <c r="BI199" s="5">
         <v>275568</v>
       </c>
     </row>
-    <row r="200" spans="2:60" s="5" customFormat="1">
+    <row r="200" spans="2:61" s="5" customFormat="1">
       <c r="B200" s="5">
         <v>1998.5</v>
       </c>
@@ -29987,15 +30587,18 @@
       <c r="BF200" s="8">
         <v>75.667000000000002</v>
       </c>
-      <c r="BG200" s="5">
+      <c r="BG200" s="8">
+        <v>102.11530559989301</v>
+      </c>
+      <c r="BH200" s="5">
         <f t="shared" si="3"/>
         <v>-61.536999999999999</v>
       </c>
-      <c r="BH200" s="5">
+      <c r="BI200" s="5">
         <v>276415.66666666669</v>
       </c>
     </row>
-    <row r="201" spans="2:60" s="5" customFormat="1">
+    <row r="201" spans="2:61" s="5" customFormat="1">
       <c r="B201" s="5">
         <v>1998.75</v>
       </c>
@@ -30167,15 +30770,18 @@
       <c r="BF201" s="8">
         <v>76.296000000000006</v>
       </c>
-      <c r="BG201" s="5">
+      <c r="BG201" s="8">
+        <v>101.925680496073</v>
+      </c>
+      <c r="BH201" s="5">
         <f t="shared" si="3"/>
         <v>-63.456000000000003</v>
       </c>
-      <c r="BH201" s="5">
+      <c r="BI201" s="5">
         <v>277268.66666666669</v>
       </c>
     </row>
-    <row r="202" spans="2:60" s="5" customFormat="1">
+    <row r="202" spans="2:61" s="5" customFormat="1">
       <c r="B202" s="5">
         <v>1999</v>
       </c>
@@ -30347,15 +30953,18 @@
       <c r="BF202" s="8">
         <v>77.126000000000005</v>
       </c>
-      <c r="BG202" s="5">
+      <c r="BG202" s="8">
+        <v>101.747451459422</v>
+      </c>
+      <c r="BH202" s="5">
         <f t="shared" si="3"/>
         <v>-64.079333333333338</v>
       </c>
-      <c r="BH202" s="5">
+      <c r="BI202" s="5">
         <v>277993.33333333331</v>
       </c>
     </row>
-    <row r="203" spans="2:60" s="5" customFormat="1">
+    <row r="203" spans="2:61" s="5" customFormat="1">
       <c r="B203" s="5">
         <v>1999.25</v>
       </c>
@@ -30527,15 +31136,18 @@
       <c r="BF203" s="8">
         <v>77.364999999999995</v>
       </c>
-      <c r="BG203" s="5">
+      <c r="BG203" s="8">
+        <v>101.395738377778</v>
+      </c>
+      <c r="BH203" s="5">
         <f t="shared" si="3"/>
         <v>-59.704999999999998</v>
       </c>
-      <c r="BH203" s="5">
+      <c r="BI203" s="5">
         <v>278723</v>
       </c>
     </row>
-    <row r="204" spans="2:60" s="5" customFormat="1">
+    <row r="204" spans="2:61" s="5" customFormat="1">
       <c r="B204" s="5">
         <v>1999.5</v>
       </c>
@@ -30707,15 +31319,18 @@
       <c r="BF204" s="8">
         <v>78.042000000000002</v>
       </c>
-      <c r="BG204" s="5">
+      <c r="BG204" s="8">
+        <v>101.39212565608599</v>
+      </c>
+      <c r="BH204" s="5">
         <f t="shared" si="3"/>
         <v>-56.305333333333337</v>
       </c>
-      <c r="BH204" s="5">
+      <c r="BI204" s="5">
         <v>279600</v>
       </c>
     </row>
-    <row r="205" spans="2:60" s="5" customFormat="1">
+    <row r="205" spans="2:61" s="5" customFormat="1">
       <c r="B205" s="5">
         <v>1999.75</v>
       </c>
@@ -30887,15 +31502,18 @@
       <c r="BF205" s="8">
         <v>79.302000000000007</v>
       </c>
-      <c r="BG205" s="5">
+      <c r="BG205" s="8">
+        <v>101.6474601913</v>
+      </c>
+      <c r="BH205" s="5">
         <f t="shared" si="3"/>
         <v>-54.738666666666674</v>
       </c>
-      <c r="BH205" s="5">
+      <c r="BI205" s="5">
         <v>280463.33333333331</v>
       </c>
     </row>
-    <row r="206" spans="2:60" s="5" customFormat="1">
+    <row r="206" spans="2:61" s="5" customFormat="1">
       <c r="B206" s="5">
         <v>2000</v>
       </c>
@@ -31067,15 +31685,18 @@
       <c r="BF206" s="8">
         <v>78.915999999999997</v>
       </c>
-      <c r="BG206" s="5">
+      <c r="BG206" s="8">
+        <v>101.588291522094</v>
+      </c>
+      <c r="BH206" s="5">
         <f t="shared" si="3"/>
         <v>-50.109333333333325</v>
       </c>
-      <c r="BH206" s="5">
+      <c r="BI206" s="5">
         <v>281191.66666666669</v>
       </c>
     </row>
-    <row r="207" spans="2:60" s="5" customFormat="1">
+    <row r="207" spans="2:61" s="5" customFormat="1">
       <c r="B207" s="5">
         <v>2000.25</v>
       </c>
@@ -31247,15 +31868,18 @@
       <c r="BF207" s="8">
         <v>80.486000000000004</v>
       </c>
-      <c r="BG207" s="5">
+      <c r="BG207" s="8">
+        <v>101.36192919304099</v>
+      </c>
+      <c r="BH207" s="5">
         <f t="shared" si="3"/>
         <v>-51.702666666666673</v>
       </c>
-      <c r="BH207" s="5">
+      <c r="BI207" s="5">
         <v>281885.33333333331</v>
       </c>
     </row>
-    <row r="208" spans="2:60" s="5" customFormat="1">
+    <row r="208" spans="2:61" s="5" customFormat="1">
       <c r="B208" s="5">
         <v>2000.5</v>
       </c>
@@ -31427,15 +32051,18 @@
       <c r="BF208" s="8">
         <v>80.447999999999993</v>
       </c>
-      <c r="BG208" s="5">
+      <c r="BG208" s="8">
+        <v>100.836199894655</v>
+      </c>
+      <c r="BH208" s="5">
         <f t="shared" si="3"/>
         <v>-48.824666666666658</v>
       </c>
-      <c r="BH208" s="5">
+      <c r="BI208" s="5">
         <v>282656.66666666669</v>
       </c>
     </row>
-    <row r="209" spans="2:60" s="5" customFormat="1">
+    <row r="209" spans="2:61" s="5" customFormat="1">
       <c r="B209" s="5">
         <v>2000.75</v>
       </c>
@@ -31607,15 +32234,18 @@
       <c r="BF209" s="8">
         <v>81.257000000000005</v>
       </c>
-      <c r="BG209" s="5">
+      <c r="BG209" s="8">
+        <v>101.37727155439499</v>
+      </c>
+      <c r="BH209" s="5">
         <f t="shared" si="3"/>
         <v>-49.277000000000001</v>
       </c>
-      <c r="BH209" s="5">
+      <c r="BI209" s="5">
         <v>283450</v>
       </c>
     </row>
-    <row r="210" spans="2:60" s="5" customFormat="1">
+    <row r="210" spans="2:61" s="5" customFormat="1">
       <c r="B210" s="5">
         <v>2001</v>
       </c>
@@ -31787,15 +32417,18 @@
       <c r="BF210" s="8">
         <v>80.929000000000002</v>
       </c>
-      <c r="BG210" s="5">
+      <c r="BG210" s="8">
+        <v>102.227536593842</v>
+      </c>
+      <c r="BH210" s="5">
         <f t="shared" si="3"/>
         <v>-52.119</v>
       </c>
-      <c r="BH210" s="5">
+      <c r="BI210" s="5">
         <v>284135.66666666669</v>
       </c>
     </row>
-    <row r="211" spans="2:60" s="5" customFormat="1">
+    <row r="211" spans="2:61" s="5" customFormat="1">
       <c r="B211" s="5">
         <v>2001.25</v>
       </c>
@@ -31967,15 +32600,18 @@
       <c r="BF211" s="8">
         <v>82.302000000000007</v>
       </c>
-      <c r="BG211" s="5">
+      <c r="BG211" s="8">
+        <v>101.78323638144499</v>
+      </c>
+      <c r="BH211" s="5">
         <f t="shared" si="3"/>
         <v>-54.418666666666674</v>
       </c>
-      <c r="BH211" s="5">
+      <c r="BI211" s="5">
         <v>284817.66666666669</v>
       </c>
     </row>
-    <row r="212" spans="2:60" s="5" customFormat="1">
+    <row r="212" spans="2:61" s="5" customFormat="1">
       <c r="B212" s="5">
         <v>2001.5</v>
       </c>
@@ -32147,15 +32783,18 @@
       <c r="BF212" s="8">
         <v>82.731999999999999</v>
       </c>
-      <c r="BG212" s="5">
+      <c r="BG212" s="8">
+        <v>102.26705041736101</v>
+      </c>
+      <c r="BH212" s="5">
         <f t="shared" si="3"/>
         <v>-56.131999999999998</v>
       </c>
-      <c r="BH212" s="5">
+      <c r="BI212" s="5">
         <v>285574</v>
       </c>
     </row>
-    <row r="213" spans="2:60" s="5" customFormat="1">
+    <row r="213" spans="2:61" s="5" customFormat="1">
       <c r="B213" s="5">
         <v>2001.75</v>
       </c>
@@ -32327,15 +32966,18 @@
       <c r="BF213" s="8">
         <v>83.781999999999996</v>
       </c>
-      <c r="BG213" s="5">
+      <c r="BG213" s="8">
+        <v>102.622454144587</v>
+      </c>
+      <c r="BH213" s="5">
         <f t="shared" si="3"/>
         <v>-63.37866666666666</v>
       </c>
-      <c r="BH213" s="5">
+      <c r="BI213" s="5">
         <v>286336.33333333331</v>
       </c>
     </row>
-    <row r="214" spans="2:60" s="5" customFormat="1">
+    <row r="214" spans="2:61" s="5" customFormat="1">
       <c r="B214" s="5">
         <v>2002</v>
       </c>
@@ -32507,15 +33149,18 @@
       <c r="BF214" s="8">
         <v>85.677000000000007</v>
       </c>
-      <c r="BG214" s="5">
+      <c r="BG214" s="8">
+        <v>102.219896714245</v>
+      </c>
+      <c r="BH214" s="5">
         <f t="shared" si="3"/>
         <v>-64.067000000000007</v>
       </c>
-      <c r="BH214" s="5">
+      <c r="BI214" s="5">
         <v>286990.66666666669</v>
       </c>
     </row>
-    <row r="215" spans="2:60" s="5" customFormat="1">
+    <row r="215" spans="2:61" s="5" customFormat="1">
       <c r="B215" s="5">
         <v>2002.25</v>
       </c>
@@ -32687,15 +33332,18 @@
       <c r="BF215" s="8">
         <v>85.724000000000004</v>
       </c>
-      <c r="BG215" s="5">
+      <c r="BG215" s="8">
+        <v>102.011911714503</v>
+      </c>
+      <c r="BH215" s="5">
         <f t="shared" si="3"/>
         <v>-59.454000000000008</v>
       </c>
-      <c r="BH215" s="5">
+      <c r="BI215" s="5">
         <v>287628</v>
       </c>
     </row>
-    <row r="216" spans="2:60" s="5" customFormat="1">
+    <row r="216" spans="2:61" s="5" customFormat="1">
       <c r="B216" s="5">
         <v>2002.5</v>
       </c>
@@ -32867,15 +33515,18 @@
       <c r="BF216" s="8">
         <v>86.382000000000005</v>
       </c>
-      <c r="BG216" s="5">
+      <c r="BG216" s="8">
+        <v>102.615178719932</v>
+      </c>
+      <c r="BH216" s="5">
         <f t="shared" si="3"/>
         <v>-58.052000000000007</v>
       </c>
-      <c r="BH216" s="5">
+      <c r="BI216" s="5">
         <v>288361</v>
       </c>
     </row>
-    <row r="217" spans="2:60" s="5" customFormat="1">
+    <row r="217" spans="2:61" s="5" customFormat="1">
       <c r="B217" s="5">
         <v>2002.75</v>
       </c>
@@ -33047,15 +33698,18 @@
       <c r="BF217" s="8">
         <v>86.248999999999995</v>
       </c>
-      <c r="BG217" s="5">
+      <c r="BG217" s="8">
+        <v>102.02968783598401</v>
+      </c>
+      <c r="BH217" s="5">
         <f t="shared" si="3"/>
         <v>-58.068999999999996</v>
       </c>
-      <c r="BH217" s="5">
+      <c r="BI217" s="5">
         <v>289096.33333333331</v>
       </c>
     </row>
-    <row r="218" spans="2:60" s="5" customFormat="1">
+    <row r="218" spans="2:61" s="5" customFormat="1">
       <c r="B218" s="5">
         <v>2003</v>
       </c>
@@ -33227,15 +33881,18 @@
       <c r="BF218" s="8">
         <v>87.129000000000005</v>
       </c>
-      <c r="BG218" s="5">
+      <c r="BG218" s="8">
+        <v>102.495290188532</v>
+      </c>
+      <c r="BH218" s="5">
         <f t="shared" si="3"/>
         <v>-53.009000000000007</v>
       </c>
-      <c r="BH218" s="5">
+      <c r="BI218" s="5">
         <v>289714.33333333331</v>
       </c>
     </row>
-    <row r="219" spans="2:60" s="5" customFormat="1">
+    <row r="219" spans="2:61" s="5" customFormat="1">
       <c r="B219" s="5">
         <v>2003.25</v>
       </c>
@@ -33407,15 +34064,18 @@
       <c r="BF219" s="8">
         <v>88.290999999999997</v>
       </c>
-      <c r="BG219" s="5">
+      <c r="BG219" s="8">
+        <v>102.107271414078</v>
+      </c>
+      <c r="BH219" s="5">
         <f t="shared" si="3"/>
         <v>-59.254333333333335</v>
       </c>
-      <c r="BH219" s="5">
+      <c r="BI219" s="5">
         <v>290351.66666666669</v>
       </c>
     </row>
-    <row r="220" spans="2:60" s="5" customFormat="1">
+    <row r="220" spans="2:61" s="5" customFormat="1">
       <c r="B220" s="5">
         <v>2003.5</v>
       </c>
@@ -33587,15 +34247,18 @@
       <c r="BF220" s="8">
         <v>90.212999999999994</v>
       </c>
-      <c r="BG220" s="5">
+      <c r="BG220" s="8">
+        <v>101.942125315319</v>
+      </c>
+      <c r="BH220" s="5">
         <f t="shared" si="3"/>
         <v>-59.999666666666656</v>
       </c>
-      <c r="BH220" s="5">
+      <c r="BI220" s="5">
         <v>291071</v>
       </c>
     </row>
-    <row r="221" spans="2:60" s="5" customFormat="1">
+    <row r="221" spans="2:61" s="5" customFormat="1">
       <c r="B221" s="5">
         <v>2003.75</v>
       </c>
@@ -33767,15 +34430,18 @@
       <c r="BF221" s="8">
         <v>91.100999999999999</v>
       </c>
-      <c r="BG221" s="5">
+      <c r="BG221" s="8">
+        <v>101.439297880963</v>
+      </c>
+      <c r="BH221" s="5">
         <f t="shared" si="3"/>
         <v>-59.911000000000001</v>
       </c>
-      <c r="BH221" s="5">
+      <c r="BI221" s="5">
         <v>291796.33333333331</v>
       </c>
     </row>
-    <row r="222" spans="2:60" s="5" customFormat="1">
+    <row r="222" spans="2:61" s="5" customFormat="1">
       <c r="B222" s="5">
         <v>2004</v>
       </c>
@@ -33947,15 +34613,18 @@
       <c r="BF222" s="8">
         <v>91.078000000000003</v>
       </c>
-      <c r="BG222" s="5">
+      <c r="BG222" s="8">
+        <v>101.22664672981701</v>
+      </c>
+      <c r="BH222" s="5">
         <f t="shared" si="3"/>
         <v>-55.821333333333335</v>
       </c>
-      <c r="BH222" s="5">
+      <c r="BI222" s="5">
         <v>292373.66666666669</v>
       </c>
     </row>
-    <row r="223" spans="2:60" s="5" customFormat="1">
+    <row r="223" spans="2:61" s="5" customFormat="1">
       <c r="B223" s="5">
         <v>2004.25</v>
       </c>
@@ -34127,15 +34796,18 @@
       <c r="BF223" s="8">
         <v>91.933000000000007</v>
       </c>
-      <c r="BG223" s="5">
+      <c r="BG223" s="8">
+        <v>100.92705174773</v>
+      </c>
+      <c r="BH223" s="5">
         <f t="shared" si="3"/>
         <v>-53.603000000000009</v>
       </c>
-      <c r="BH223" s="5">
+      <c r="BI223" s="5">
         <v>292999.66666666669</v>
       </c>
     </row>
-    <row r="224" spans="2:60" s="5" customFormat="1">
+    <row r="224" spans="2:61" s="5" customFormat="1">
       <c r="B224" s="5">
         <v>2004.5</v>
       </c>
@@ -34307,15 +34979,18 @@
       <c r="BF224" s="8">
         <v>92.263999999999996</v>
       </c>
-      <c r="BG224" s="5">
+      <c r="BG224" s="8">
+        <v>100.969151015937</v>
+      </c>
+      <c r="BH224" s="5">
         <f t="shared" si="3"/>
         <v>-48.403999999999996</v>
       </c>
-      <c r="BH224" s="5">
+      <c r="BI224" s="5">
         <v>293717.66666666669</v>
       </c>
     </row>
-    <row r="225" spans="2:60" s="5" customFormat="1">
+    <row r="225" spans="2:61" s="5" customFormat="1">
       <c r="B225" s="5">
         <v>2004.75</v>
       </c>
@@ -34487,15 +35162,18 @@
       <c r="BF225" s="8">
         <v>92.563000000000002</v>
       </c>
-      <c r="BG225" s="5">
+      <c r="BG225" s="8">
+        <v>100.90537161095</v>
+      </c>
+      <c r="BH225" s="5">
         <f t="shared" si="3"/>
         <v>-44.256333333333338</v>
       </c>
-      <c r="BH225" s="5">
+      <c r="BI225" s="5">
         <v>294463.33333333331</v>
       </c>
     </row>
-    <row r="226" spans="2:60" s="5" customFormat="1">
+    <row r="226" spans="2:61" s="5" customFormat="1">
       <c r="B226" s="5">
         <v>2005</v>
       </c>
@@ -34667,15 +35345,18 @@
       <c r="BF226" s="8">
         <v>93.578000000000003</v>
       </c>
-      <c r="BG226" s="5">
+      <c r="BG226" s="8">
+        <v>100.85996897518901</v>
+      </c>
+      <c r="BH226" s="5">
         <f t="shared" si="3"/>
         <v>-43.87133333333334</v>
       </c>
-      <c r="BH226" s="5">
+      <c r="BI226" s="5">
         <v>295102</v>
       </c>
     </row>
-    <row r="227" spans="2:60" s="5" customFormat="1">
+    <row r="227" spans="2:61" s="5" customFormat="1">
       <c r="B227" s="5">
         <v>2005.25</v>
       </c>
@@ -34847,15 +35528,18 @@
       <c r="BF227" s="8">
         <v>93.484999999999999</v>
       </c>
-      <c r="BG227" s="5">
+      <c r="BG227" s="8">
+        <v>100.842296524625</v>
+      </c>
+      <c r="BH227" s="5">
         <f t="shared" si="3"/>
         <v>-40.441666666666663</v>
       </c>
-      <c r="BH227" s="5">
+      <c r="BI227" s="5">
         <v>295710</v>
       </c>
     </row>
-    <row r="228" spans="2:60" s="5" customFormat="1">
+    <row r="228" spans="2:61" s="5" customFormat="1">
       <c r="B228" s="5">
         <v>2005.5</v>
       </c>
@@ -35027,15 +35711,18 @@
       <c r="BF228" s="8">
         <v>94.18</v>
       </c>
-      <c r="BG228" s="5">
+      <c r="BG228" s="8">
+        <v>100.629785136518</v>
+      </c>
+      <c r="BH228" s="5">
         <f t="shared" si="3"/>
         <v>-31.100000000000009</v>
       </c>
-      <c r="BH228" s="5">
+      <c r="BI228" s="5">
         <v>296444.33333333331</v>
       </c>
     </row>
-    <row r="229" spans="2:60" s="5" customFormat="1">
+    <row r="229" spans="2:61" s="5" customFormat="1">
       <c r="B229" s="5">
         <v>2005.75</v>
       </c>
@@ -35207,15 +35894,18 @@
       <c r="BF229" s="8">
         <v>94.221000000000004</v>
       </c>
-      <c r="BG229" s="5">
+      <c r="BG229" s="8">
+        <v>100.465338396088</v>
+      </c>
+      <c r="BH229" s="5">
         <f t="shared" si="3"/>
         <v>-34.187666666666672</v>
       </c>
-      <c r="BH229" s="5">
+      <c r="BI229" s="5">
         <v>297203.33333333331</v>
       </c>
     </row>
-    <row r="230" spans="2:60" s="5" customFormat="1">
+    <row r="230" spans="2:61" s="5" customFormat="1">
       <c r="B230" s="5">
         <v>2006</v>
       </c>
@@ -35387,15 +36077,18 @@
       <c r="BF230" s="8">
         <v>94.778999999999996</v>
       </c>
-      <c r="BG230" s="5">
+      <c r="BG230" s="8">
+        <v>100.63612899702299</v>
+      </c>
+      <c r="BH230" s="5">
         <f t="shared" si="3"/>
         <v>-31.432333333333332</v>
       </c>
-      <c r="BH230" s="5">
+      <c r="BI230" s="5">
         <v>297853.66666666669</v>
       </c>
     </row>
-    <row r="231" spans="2:60" s="5" customFormat="1">
+    <row r="231" spans="2:61" s="5" customFormat="1">
       <c r="B231" s="5">
         <v>2006.25</v>
       </c>
@@ -35564,15 +36257,18 @@
       <c r="BF231" s="8">
         <v>94.694000000000003</v>
       </c>
-      <c r="BG231" s="5">
+      <c r="BG231" s="8">
+        <v>100.86409326405</v>
+      </c>
+      <c r="BH231" s="5">
         <f t="shared" si="3"/>
         <v>-24.164000000000001</v>
       </c>
-      <c r="BH231" s="5">
+      <c r="BI231" s="5">
         <v>298505.33333333331</v>
       </c>
     </row>
-    <row r="232" spans="2:60" s="5" customFormat="1">
+    <row r="232" spans="2:61" s="5" customFormat="1">
       <c r="B232" s="5">
         <v>2006.5</v>
       </c>
@@ -35741,15 +36437,18 @@
       <c r="BF232" s="8">
         <v>94.290999999999997</v>
       </c>
-      <c r="BG232" s="5">
+      <c r="BG232" s="8">
+        <v>100.975283824915</v>
+      </c>
+      <c r="BH232" s="5">
         <f t="shared" si="3"/>
         <v>-23.847666666666669</v>
       </c>
-      <c r="BH232" s="5">
+      <c r="BI232" s="5">
         <v>299271</v>
       </c>
     </row>
-    <row r="233" spans="2:60" s="5" customFormat="1">
+    <row r="233" spans="2:61" s="5" customFormat="1">
       <c r="B233" s="5">
         <v>2006.75</v>
       </c>
@@ -35918,15 +36617,18 @@
       <c r="BF233" s="8">
         <v>94.986999999999995</v>
       </c>
-      <c r="BG233" s="5">
+      <c r="BG233" s="8">
+        <v>100.78319728620301</v>
+      </c>
+      <c r="BH233" s="5">
         <f t="shared" si="3"/>
         <v>-34.893666666666661</v>
       </c>
-      <c r="BH233" s="5">
+      <c r="BI233" s="5">
         <v>300089.66666666669</v>
       </c>
     </row>
-    <row r="234" spans="2:60" s="5" customFormat="1">
+    <row r="234" spans="2:61" s="5" customFormat="1">
       <c r="B234" s="5">
         <v>2007</v>
       </c>
@@ -36080,15 +36782,18 @@
       <c r="BF234" s="8">
         <v>95.072000000000003</v>
       </c>
-      <c r="BG234" s="5">
+      <c r="BG234" s="8">
+        <v>101.111398901832</v>
+      </c>
+      <c r="BH234" s="5">
         <f t="shared" si="3"/>
         <v>-36.942</v>
       </c>
-      <c r="BH234" s="5">
+      <c r="BI234" s="5">
         <v>300799</v>
       </c>
     </row>
-    <row r="235" spans="2:60" s="5" customFormat="1">
+    <row r="235" spans="2:61" s="5" customFormat="1">
       <c r="B235" s="5">
         <v>2007.25</v>
       </c>
@@ -36242,15 +36947,18 @@
       <c r="BF235" s="8">
         <v>95.652000000000001</v>
       </c>
-      <c r="BG235" s="5">
+      <c r="BG235" s="8">
+        <v>100.95072364409801</v>
+      </c>
+      <c r="BH235" s="5">
         <f t="shared" si="3"/>
         <v>-30.682000000000002</v>
       </c>
-      <c r="BH235" s="5">
+      <c r="BI235" s="5">
         <v>301492</v>
       </c>
     </row>
-    <row r="236" spans="2:60" s="5" customFormat="1">
+    <row r="236" spans="2:61" s="5" customFormat="1">
       <c r="B236" s="5">
         <v>2007.5</v>
       </c>
@@ -36404,15 +37112,18 @@
       <c r="BF236" s="8">
         <v>96.8</v>
       </c>
-      <c r="BG236" s="5">
+      <c r="BG236" s="8">
+        <v>101.550379821607</v>
+      </c>
+      <c r="BH236" s="5">
         <f t="shared" si="3"/>
         <v>-21.299999999999997</v>
       </c>
-      <c r="BH236" s="5">
+      <c r="BI236" s="5">
         <v>302272.33333333331</v>
       </c>
     </row>
-    <row r="237" spans="2:60" s="5" customFormat="1">
+    <row r="237" spans="2:61" s="5" customFormat="1">
       <c r="B237" s="5">
         <v>2007.75</v>
       </c>
@@ -36566,15 +37277,18 @@
       <c r="BF237" s="8">
         <v>97.212999999999994</v>
       </c>
-      <c r="BG237" s="5">
+      <c r="BG237" s="8">
+        <v>101.34173598285901</v>
+      </c>
+      <c r="BH237" s="5">
         <f t="shared" si="3"/>
         <v>-6.3629999999999995</v>
       </c>
-      <c r="BH237" s="5">
+      <c r="BI237" s="5">
         <v>303049.33333333331</v>
       </c>
     </row>
-    <row r="238" spans="2:60" s="5" customFormat="1">
+    <row r="238" spans="2:61" s="5" customFormat="1">
       <c r="B238" s="5">
         <v>2008</v>
       </c>
@@ -36728,15 +37442,18 @@
       <c r="BF238" s="8">
         <v>96.269000000000005</v>
       </c>
-      <c r="BG238" s="5">
+      <c r="BG238" s="8">
+        <v>101.72361847371</v>
+      </c>
+      <c r="BH238" s="5">
         <f t="shared" si="3"/>
         <v>1.6843333333333277</v>
       </c>
-      <c r="BH238" s="5">
+      <c r="BI238" s="5">
         <v>303708</v>
       </c>
     </row>
-    <row r="239" spans="2:60" s="5" customFormat="1">
+    <row r="239" spans="2:61" s="5" customFormat="1">
       <c r="B239" s="5">
         <v>2008.25</v>
       </c>
@@ -36890,15 +37607,18 @@
       <c r="BF239" s="8">
         <v>97.23</v>
       </c>
-      <c r="BG239" s="5">
+      <c r="BG239" s="8">
+        <v>101.409407529094</v>
+      </c>
+      <c r="BH239" s="5">
         <f t="shared" si="3"/>
         <v>26.733333333333334</v>
       </c>
-      <c r="BH239" s="5">
+      <c r="BI239" s="5">
         <v>304332</v>
       </c>
     </row>
-    <row r="240" spans="2:60" s="5" customFormat="1">
+    <row r="240" spans="2:61" s="5" customFormat="1">
       <c r="B240" s="5">
         <v>2008.5</v>
       </c>
@@ -37052,15 +37772,18 @@
       <c r="BF240" s="8">
         <v>97.491</v>
       </c>
-      <c r="BG240" s="5">
+      <c r="BG240" s="8">
+        <v>102.52388675727801</v>
+      </c>
+      <c r="BH240" s="5">
         <f t="shared" si="3"/>
         <v>20.492333333333335</v>
       </c>
-      <c r="BH240" s="5">
+      <c r="BI240" s="5">
         <v>305050.66666666669</v>
       </c>
     </row>
-    <row r="241" spans="2:60" s="5" customFormat="1">
+    <row r="241" spans="2:61" s="5" customFormat="1">
       <c r="B241" s="5">
         <v>2008.75</v>
       </c>
@@ -37214,15 +37937,18 @@
       <c r="BF241" s="8">
         <v>96.858999999999995</v>
       </c>
-      <c r="BG241" s="5">
+      <c r="BG241" s="8">
+        <v>104.501464753113</v>
+      </c>
+      <c r="BH241" s="5">
         <f t="shared" si="3"/>
         <v>-38.488999999999997</v>
       </c>
-      <c r="BH241" s="5">
+      <c r="BI241" s="5">
         <v>305781.33333333331</v>
       </c>
     </row>
-    <row r="242" spans="2:60" s="5" customFormat="1">
+    <row r="242" spans="2:61" s="5" customFormat="1">
       <c r="B242" s="5">
         <v>2009</v>
       </c>
@@ -37376,15 +38102,18 @@
       <c r="BF242" s="8">
         <v>97.587999999999994</v>
       </c>
-      <c r="BG242" s="5">
+      <c r="BG242" s="8">
+        <v>103.580689379185</v>
+      </c>
+      <c r="BH242" s="5">
         <f t="shared" si="3"/>
         <v>-54.627999999999993</v>
       </c>
-      <c r="BH242" s="5">
+      <c r="BI242" s="5">
         <v>306399.33333333331</v>
       </c>
     </row>
-    <row r="243" spans="2:60" s="5" customFormat="1">
+    <row r="243" spans="2:61" s="5" customFormat="1">
       <c r="B243" s="5">
         <v>2009.25</v>
       </c>
@@ -37538,15 +38267,18 @@
       <c r="BF243" s="8">
         <v>99.480999999999995</v>
       </c>
-      <c r="BG243" s="5">
+      <c r="BG243" s="8">
+        <v>101.52987153225</v>
+      </c>
+      <c r="BH243" s="5">
         <f t="shared" si="3"/>
         <v>-39.937666666666658</v>
       </c>
-      <c r="BH243" s="5">
+      <c r="BI243" s="5">
         <v>306992.33333333331</v>
       </c>
     </row>
-    <row r="244" spans="2:60" s="5" customFormat="1">
+    <row r="244" spans="2:61" s="5" customFormat="1">
       <c r="B244" s="5">
         <v>2009.5</v>
       </c>
@@ -37700,15 +38432,18 @@
       <c r="BF244" s="8">
         <v>100.902</v>
       </c>
-      <c r="BG244" s="5">
+      <c r="BG244" s="8">
+        <v>101.198504590371</v>
+      </c>
+      <c r="BH244" s="5">
         <f t="shared" si="3"/>
         <v>-32.698666666666668</v>
       </c>
-      <c r="BH244" s="5">
+      <c r="BI244" s="5">
         <v>307690</v>
       </c>
     </row>
-    <row r="245" spans="2:60" s="5" customFormat="1">
+    <row r="245" spans="2:61" s="5" customFormat="1">
       <c r="B245" s="5">
         <v>2009.75</v>
       </c>
@@ -37862,15 +38597,18 @@
       <c r="BF245" s="8">
         <v>102.11199999999999</v>
       </c>
-      <c r="BG245" s="5">
+      <c r="BG245" s="8">
+        <v>101.378699516065</v>
+      </c>
+      <c r="BH245" s="5">
         <f t="shared" si="3"/>
         <v>-26.045333333333332</v>
       </c>
-      <c r="BH245" s="5">
+      <c r="BI245" s="5">
         <v>308413.33333333331</v>
       </c>
     </row>
-    <row r="246" spans="2:60" s="5" customFormat="1">
+    <row r="246" spans="2:61" s="5" customFormat="1">
       <c r="B246" s="5">
         <v>2010</v>
       </c>
@@ -38022,15 +38760,18 @@
       <c r="BF246" s="8">
         <v>102.655</v>
       </c>
-      <c r="BG246" s="5">
+      <c r="BG246" s="8">
+        <v>101.812738077475</v>
+      </c>
+      <c r="BH246" s="5">
         <f t="shared" si="3"/>
         <v>-24.028333333333336</v>
       </c>
-      <c r="BH246" s="5">
+      <c r="BI246" s="5">
         <v>309024</v>
       </c>
     </row>
-    <row r="247" spans="2:60" s="5" customFormat="1">
+    <row r="247" spans="2:61" s="5" customFormat="1">
       <c r="B247" s="5">
         <v>2010.25</v>
       </c>
@@ -38182,15 +38923,18 @@
       <c r="BF247" s="8">
         <v>103.01900000000001</v>
       </c>
-      <c r="BG247" s="5">
+      <c r="BG247" s="8">
+        <v>101.558336200664</v>
+      </c>
+      <c r="BH247" s="5">
         <f t="shared" si="3"/>
         <v>-25.129000000000005</v>
       </c>
-      <c r="BH247" s="5">
+      <c r="BI247" s="5">
         <v>309373.66666666669</v>
       </c>
     </row>
-    <row r="248" spans="2:60" s="5" customFormat="1">
+    <row r="248" spans="2:61" s="5" customFormat="1">
       <c r="B248" s="5">
         <v>2010.5</v>
       </c>
@@ -38342,15 +39086,18 @@
       <c r="BF248" s="8">
         <v>103.52200000000001</v>
       </c>
-      <c r="BG248" s="5">
+      <c r="BG248" s="8">
+        <v>101.001213763198</v>
+      </c>
+      <c r="BH248" s="5">
         <f t="shared" si="3"/>
         <v>-27.355333333333334</v>
       </c>
-      <c r="BH248" s="5">
+      <c r="BI248" s="5">
         <v>309976.33333333331</v>
       </c>
     </row>
-    <row r="249" spans="2:60" s="5" customFormat="1">
+    <row r="249" spans="2:61" s="5" customFormat="1">
       <c r="B249" s="5">
         <v>2010.75</v>
       </c>
@@ -38502,15 +39249,18 @@
       <c r="BF249" s="8">
         <v>103.95699999999999</v>
       </c>
-      <c r="BG249" s="5">
+      <c r="BG249" s="8">
+        <v>100.292372174402</v>
+      </c>
+      <c r="BH249" s="5">
         <f t="shared" si="3"/>
         <v>-18.930333333333323</v>
       </c>
-      <c r="BH249" s="5">
+      <c r="BI249" s="5">
         <v>310622</v>
       </c>
     </row>
-    <row r="250" spans="2:60" s="5" customFormat="1">
+    <row r="250" spans="2:61" s="5" customFormat="1">
       <c r="B250" s="5">
         <v>2011</v>
       </c>
@@ -38662,15 +39412,18 @@
       <c r="BF250" s="8">
         <v>103.087</v>
       </c>
-      <c r="BG250" s="5">
+      <c r="BG250" s="8">
+        <v>100.39919151949699</v>
+      </c>
+      <c r="BH250" s="5">
         <f t="shared" si="3"/>
         <v>-9.1069999999999993</v>
       </c>
-      <c r="BH250" s="5">
+      <c r="BI250" s="5">
         <v>311155.66666666669</v>
       </c>
     </row>
-    <row r="251" spans="2:60" s="5" customFormat="1">
+    <row r="251" spans="2:61" s="5" customFormat="1">
       <c r="B251" s="5">
         <v>2011.25</v>
       </c>
@@ -38822,15 +39575,18 @@
       <c r="BF251" s="8">
         <v>103.425</v>
       </c>
-      <c r="BG251" s="5">
+      <c r="BG251" s="8">
+        <v>101.059609913485</v>
+      </c>
+      <c r="BH251" s="5">
         <f t="shared" si="3"/>
         <v>-0.8716666666666697</v>
       </c>
-      <c r="BH251" s="5">
+      <c r="BI251" s="5">
         <v>311667.33333333331</v>
       </c>
     </row>
-    <row r="252" spans="2:60" s="5" customFormat="1">
+    <row r="252" spans="2:61" s="5" customFormat="1">
       <c r="B252" s="5">
         <v>2011.5</v>
       </c>
@@ -38982,15 +39738,18 @@
       <c r="BF252" s="8">
         <v>103.242</v>
       </c>
-      <c r="BG252" s="5">
+      <c r="BG252" s="8">
+        <v>102.471173109142</v>
+      </c>
+      <c r="BH252" s="5">
         <f t="shared" si="3"/>
         <v>-13.532000000000011</v>
       </c>
-      <c r="BH252" s="5">
+      <c r="BI252" s="5">
         <v>312279.33333333331</v>
       </c>
     </row>
-    <row r="253" spans="2:60" s="5" customFormat="1">
+    <row r="253" spans="2:61" s="5" customFormat="1">
       <c r="B253" s="5">
         <v>2011.75</v>
       </c>
@@ -39142,15 +39901,18 @@
       <c r="BF253" s="8">
         <v>103.95099999999999</v>
       </c>
-      <c r="BG253" s="5">
+      <c r="BG253" s="8">
+        <v>100.73504117788499</v>
+      </c>
+      <c r="BH253" s="5">
         <f t="shared" si="3"/>
         <v>-9.8876666666666608</v>
       </c>
-      <c r="BH253" s="5">
+      <c r="BI253" s="5">
         <v>312910.33333333331</v>
       </c>
     </row>
-    <row r="254" spans="2:60" s="5" customFormat="1">
+    <row r="254" spans="2:61" s="5" customFormat="1">
       <c r="B254" s="5">
         <v>2012</v>
       </c>
@@ -39302,15 +40064,18 @@
       <c r="BF254" s="8">
         <v>104.107</v>
       </c>
-      <c r="BG254" s="5">
+      <c r="BG254" s="8">
+        <v>100.272166979704</v>
+      </c>
+      <c r="BH254" s="5">
         <f t="shared" si="3"/>
         <v>-1.2136666666666684</v>
       </c>
-      <c r="BH254" s="5">
+      <c r="BI254" s="5">
         <v>313436.66666666669</v>
       </c>
     </row>
-    <row r="255" spans="2:60" s="5" customFormat="1">
+    <row r="255" spans="2:61" s="5" customFormat="1">
       <c r="B255" s="5">
         <v>2012.25</v>
       </c>
@@ -39462,15 +40227,18 @@
       <c r="BF255" s="8">
         <v>104.702</v>
       </c>
-      <c r="BG255" s="5">
+      <c r="BG255" s="8">
+        <v>100.498939736244</v>
+      </c>
+      <c r="BH255" s="5">
         <f t="shared" si="3"/>
         <v>-11.221999999999994</v>
       </c>
-      <c r="BH255" s="5">
+      <c r="BI255" s="5">
         <v>313948</v>
       </c>
     </row>
-    <row r="256" spans="2:60" s="5" customFormat="1">
+    <row r="256" spans="2:61" s="5" customFormat="1">
       <c r="B256" s="5">
         <v>2012.5</v>
       </c>
@@ -39622,15 +40390,18 @@
       <c r="BF256" s="8">
         <v>104.503</v>
       </c>
-      <c r="BG256" s="5">
+      <c r="BG256" s="8">
+        <v>99.906016170638495</v>
+      </c>
+      <c r="BH256" s="5">
         <f t="shared" si="3"/>
         <v>-12.233000000000004</v>
       </c>
-      <c r="BH256" s="5">
+      <c r="BI256" s="5">
         <v>314550.33333333331</v>
       </c>
     </row>
-    <row r="257" spans="2:60" s="5" customFormat="1">
+    <row r="257" spans="2:61" s="5" customFormat="1">
       <c r="B257" s="5">
         <v>2012.75</v>
       </c>
@@ -39782,15 +40553,18 @@
       <c r="BF257" s="8">
         <v>104.059</v>
       </c>
-      <c r="BG257" s="5">
+      <c r="BG257" s="8">
+        <v>100.037164886977</v>
+      </c>
+      <c r="BH257" s="5">
         <f t="shared" si="3"/>
         <v>-15.899000000000001</v>
       </c>
-      <c r="BH257" s="5">
+      <c r="BI257" s="5">
         <v>315185</v>
       </c>
     </row>
-    <row r="258" spans="2:60" s="5" customFormat="1">
+    <row r="258" spans="2:61" s="5" customFormat="1">
       <c r="B258" s="5">
         <v>2013</v>
       </c>
@@ -39942,15 +40716,18 @@
       <c r="BF258" s="8">
         <v>104.304</v>
       </c>
-      <c r="BG258" s="5">
+      <c r="BG258" s="8">
+        <v>100.173862905188</v>
+      </c>
+      <c r="BH258" s="5">
         <f t="shared" si="3"/>
         <v>-9.9506666666666632</v>
       </c>
-      <c r="BH258" s="5">
+      <c r="BI258" s="5">
         <v>315677</v>
       </c>
     </row>
-    <row r="259" spans="2:60" s="5" customFormat="1">
+    <row r="259" spans="2:61" s="5" customFormat="1">
       <c r="B259" s="5">
         <v>2013.25</v>
       </c>
@@ -40102,15 +40879,18 @@
       <c r="BF259" s="8">
         <v>104.14700000000001</v>
       </c>
-      <c r="BG259" s="5">
+      <c r="BG259" s="8">
+        <v>99.944906166888799</v>
+      </c>
+      <c r="BH259" s="5">
         <f t="shared" si="3"/>
         <v>-9.9236666666666764</v>
       </c>
-      <c r="BH259" s="5">
+      <c r="BI259" s="5">
         <v>316158</v>
       </c>
     </row>
-    <row r="260" spans="2:60" s="5" customFormat="1">
+    <row r="260" spans="2:61" s="5" customFormat="1">
       <c r="B260" s="5">
         <v>2013.5</v>
       </c>
@@ -40262,15 +41042,18 @@
       <c r="BF260" s="8">
         <v>104.57</v>
       </c>
-      <c r="BG260" s="5">
+      <c r="BG260" s="8">
+        <v>100.22018523971801</v>
+      </c>
+      <c r="BH260" s="5">
         <f t="shared" si="3"/>
         <v>1.2533333333333445</v>
       </c>
-      <c r="BH260" s="5">
+      <c r="BI260" s="5">
         <v>316763.66666666669</v>
       </c>
     </row>
-    <row r="261" spans="2:60" s="5" customFormat="1">
+    <row r="261" spans="2:61" s="5" customFormat="1">
       <c r="B261" s="5">
         <v>2013.75</v>
       </c>
@@ -40422,15 +41205,18 @@
       <c r="BF261" s="8">
         <v>105.634</v>
       </c>
-      <c r="BG261" s="5">
+      <c r="BG261" s="8">
+        <v>100.275957382792</v>
+      </c>
+      <c r="BH261" s="5">
         <f t="shared" si="3"/>
         <v>-8.2906666666666666</v>
       </c>
-      <c r="BH261" s="5">
+      <c r="BI261" s="5">
         <v>317417.33333333331</v>
       </c>
     </row>
-    <row r="262" spans="2:60" s="5" customFormat="1">
+    <row r="262" spans="2:61" s="5" customFormat="1">
       <c r="B262" s="5">
         <v>2014</v>
       </c>
@@ -40582,15 +41368,18 @@
       <c r="BF262" s="8">
         <v>104.782</v>
       </c>
-      <c r="BG262" s="5">
-        <f t="shared" ref="BG262:BG278" si="4">BE262-BF262</f>
+      <c r="BG262" s="8">
+        <v>99.917634697232302</v>
+      </c>
+      <c r="BH262" s="5">
+        <f t="shared" ref="BH262:BH278" si="4">BE262-BF262</f>
         <v>-6.0353333333333268</v>
       </c>
-      <c r="BH262" s="5">
+      <c r="BI262" s="5">
         <v>317966.33333333331</v>
       </c>
     </row>
-    <row r="263" spans="2:60" s="5" customFormat="1">
+    <row r="263" spans="2:61" s="5" customFormat="1">
       <c r="B263" s="5">
         <v>2014.25</v>
       </c>
@@ -40742,15 +41531,18 @@
       <c r="BF263" s="8">
         <v>105.435</v>
       </c>
-      <c r="BG263" s="5">
+      <c r="BG263" s="8">
+        <v>100.192182103771</v>
+      </c>
+      <c r="BH263" s="5">
         <f t="shared" si="4"/>
         <v>-2.0883333333333383</v>
       </c>
-      <c r="BH263" s="5">
+      <c r="BI263" s="5">
         <v>318500.33333333331</v>
       </c>
     </row>
-    <row r="264" spans="2:60" s="5" customFormat="1">
+    <row r="264" spans="2:61" s="5" customFormat="1">
       <c r="B264" s="5">
         <v>2014.5</v>
       </c>
@@ -40902,15 +41694,18 @@
       <c r="BF264" s="8">
         <v>106.53</v>
       </c>
-      <c r="BG264" s="5">
+      <c r="BG264" s="8">
+        <v>100.152823871039</v>
+      </c>
+      <c r="BH264" s="5">
         <f t="shared" si="4"/>
         <v>-8.75</v>
       </c>
-      <c r="BH264" s="5">
+      <c r="BI264" s="5">
         <v>319135</v>
       </c>
     </row>
-    <row r="265" spans="2:60" s="5" customFormat="1">
+    <row r="265" spans="2:61" s="5" customFormat="1">
       <c r="B265" s="5">
         <v>2014.75</v>
       </c>
@@ -41062,15 +41857,18 @@
       <c r="BF265" s="8">
         <v>105.977</v>
       </c>
-      <c r="BG265" s="5">
+      <c r="BG265" s="8">
+        <v>100.00388766621499</v>
+      </c>
+      <c r="BH265" s="5">
         <f t="shared" si="4"/>
         <v>-32.817000000000007</v>
       </c>
-      <c r="BH265" s="5">
+      <c r="BI265" s="5">
         <v>319811.33333333331</v>
       </c>
     </row>
-    <row r="266" spans="2:60" s="5" customFormat="1">
+    <row r="266" spans="2:61" s="5" customFormat="1">
       <c r="B266" s="5">
         <v>2015</v>
       </c>
@@ -41222,15 +42020,18 @@
       <c r="BF266" s="8">
         <v>106.762</v>
       </c>
-      <c r="BG266" s="5">
+      <c r="BG266" s="8">
+        <v>99.884477654623296</v>
+      </c>
+      <c r="BH266" s="5">
         <f t="shared" si="4"/>
         <v>-58.222000000000001</v>
       </c>
-      <c r="BH266" s="5">
+      <c r="BI266" s="5">
         <v>320349.66666666669</v>
       </c>
     </row>
-    <row r="267" spans="2:60" s="5" customFormat="1">
+    <row r="267" spans="2:61" s="5" customFormat="1">
       <c r="B267" s="5">
         <v>2015.25</v>
       </c>
@@ -41382,15 +42183,18 @@
       <c r="BF267" s="8">
         <v>107.11199999999999</v>
       </c>
-      <c r="BG267" s="5">
+      <c r="BG267" s="8">
+        <v>100.151996922639</v>
+      </c>
+      <c r="BH267" s="5">
         <f t="shared" si="4"/>
         <v>-49.265333333333331</v>
       </c>
-      <c r="BH267" s="5">
+      <c r="BI267" s="5">
         <v>320873.66666666669</v>
       </c>
     </row>
-    <row r="268" spans="2:60" s="5" customFormat="1">
+    <row r="268" spans="2:61" s="5" customFormat="1">
       <c r="B268" s="5">
         <v>2015.5</v>
       </c>
@@ -41542,15 +42346,18 @@
       <c r="BF268" s="8">
         <v>107.429</v>
       </c>
-      <c r="BG268" s="5">
+      <c r="BG268" s="8">
+        <v>100.67123352306</v>
+      </c>
+      <c r="BH268" s="5">
         <f t="shared" si="4"/>
         <v>-61.012333333333338</v>
       </c>
-      <c r="BH268" s="5">
+      <c r="BI268" s="5">
         <v>321505</v>
       </c>
     </row>
-    <row r="269" spans="2:60" s="5" customFormat="1">
+    <row r="269" spans="2:61" s="5" customFormat="1">
       <c r="B269" s="5">
         <v>2015.75</v>
       </c>
@@ -41702,15 +42509,18 @@
       <c r="BF269" s="8">
         <v>106.697</v>
       </c>
-      <c r="BG269" s="5">
+      <c r="BG269" s="8">
+        <v>99.985340937537003</v>
+      </c>
+      <c r="BH269" s="5">
         <f t="shared" si="4"/>
         <v>-64.747</v>
       </c>
-      <c r="BH269" s="5">
+      <c r="BI269" s="5">
         <v>322168.66666666669</v>
       </c>
     </row>
-    <row r="270" spans="2:60" s="5" customFormat="1">
+    <row r="270" spans="2:61" s="5" customFormat="1">
       <c r="B270" s="5">
         <v>2016</v>
       </c>
@@ -41862,15 +42672,18 @@
       <c r="BF270" s="8">
         <v>106.41500000000001</v>
       </c>
-      <c r="BG270" s="5">
+      <c r="BG270" s="8">
+        <v>100.279999339692</v>
+      </c>
+      <c r="BH270" s="5">
         <f t="shared" si="4"/>
         <v>-73.231666666666683</v>
       </c>
-      <c r="BH270" s="5">
+      <c r="BI270" s="5">
         <v>322712.66666666669</v>
       </c>
     </row>
-    <row r="271" spans="2:60" s="5" customFormat="1">
+    <row r="271" spans="2:61" s="5" customFormat="1">
       <c r="B271" s="5">
         <v>2016.25</v>
       </c>
@@ -42022,15 +42835,18 @@
       <c r="BF271" s="8">
         <v>106.66800000000001</v>
       </c>
-      <c r="BG271" s="5">
+      <c r="BG271" s="8">
+        <v>100.277477957774</v>
+      </c>
+      <c r="BH271" s="5">
         <f t="shared" si="4"/>
         <v>-61.26133333333334</v>
       </c>
-      <c r="BH271" s="5">
+      <c r="BI271" s="5">
         <v>323228.66666666669</v>
       </c>
     </row>
-    <row r="272" spans="2:60" s="5" customFormat="1">
+    <row r="272" spans="2:61" s="5" customFormat="1">
       <c r="B272" s="5">
         <v>2016.5</v>
       </c>
@@ -42179,15 +42995,18 @@
       <c r="BF272" s="8">
         <v>107.30500000000001</v>
       </c>
-      <c r="BG272" s="5">
+      <c r="BG272" s="8">
+        <v>100.129910455131</v>
+      </c>
+      <c r="BH272" s="5">
         <f t="shared" si="4"/>
         <v>-62.455000000000005</v>
       </c>
-      <c r="BH272" s="5">
+      <c r="BI272" s="5">
         <v>323849.33333333331</v>
       </c>
     </row>
-    <row r="273" spans="2:60" s="5" customFormat="1">
+    <row r="273" spans="2:61" s="5" customFormat="1">
       <c r="B273" s="5">
         <v>2016.75</v>
       </c>
@@ -42336,15 +43155,18 @@
       <c r="BF273" s="8">
         <v>107.61799999999999</v>
       </c>
-      <c r="BG273" s="5">
+      <c r="BG273" s="8">
+        <v>100.182563206819</v>
+      </c>
+      <c r="BH273" s="5">
         <f t="shared" si="4"/>
         <v>-58.481333333333332</v>
       </c>
-      <c r="BH273" s="5">
+      <c r="BI273" s="5">
         <v>324496.33333333331</v>
       </c>
     </row>
-    <row r="274" spans="2:60" s="5" customFormat="1">
+    <row r="274" spans="2:61" s="5" customFormat="1">
       <c r="B274" s="5">
         <v>2017</v>
       </c>
@@ -42493,15 +43315,16 @@
       <c r="BF274" s="8">
         <v>107.68300000000001</v>
       </c>
-      <c r="BG274" s="5">
+      <c r="BG274" s="8"/>
+      <c r="BH274" s="5">
         <f t="shared" si="4"/>
         <v>-55.916333333333341</v>
       </c>
-      <c r="BH274" s="5">
+      <c r="BI274" s="5">
         <v>325028.33333333331</v>
       </c>
     </row>
-    <row r="275" spans="2:60" s="5" customFormat="1">
+    <row r="275" spans="2:61" s="5" customFormat="1">
       <c r="B275" s="5">
         <v>2017.25</v>
       </c>
@@ -42650,15 +43473,16 @@
       <c r="BF275" s="8">
         <v>108.142</v>
       </c>
-      <c r="BG275" s="5">
+      <c r="BG275" s="8"/>
+      <c r="BH275" s="5">
         <f t="shared" si="4"/>
         <v>-59.901999999999994</v>
       </c>
-      <c r="BH275" s="5">
+      <c r="BI275" s="5">
         <v>325543.33333333331</v>
       </c>
     </row>
-    <row r="276" spans="2:60" s="5" customFormat="1">
+    <row r="276" spans="2:61" s="5" customFormat="1">
       <c r="B276" s="5">
         <v>2017.5</v>
       </c>
@@ -42792,15 +43616,16 @@
       <c r="BF276" s="8">
         <v>108.849</v>
       </c>
-      <c r="BG276" s="5">
+      <c r="BG276" s="8"/>
+      <c r="BH276" s="5">
         <f t="shared" si="4"/>
         <v>-60.68566666666667</v>
       </c>
-      <c r="BH276" s="5">
+      <c r="BI276" s="5">
         <v>326163.33333333331</v>
       </c>
     </row>
-    <row r="277" spans="2:60" s="5" customFormat="1">
+    <row r="277" spans="2:61" s="5" customFormat="1">
       <c r="B277" s="5">
         <v>2017.75</v>
       </c>
@@ -42896,15 +43721,16 @@
       <c r="BF277" s="8">
         <v>108.943</v>
       </c>
-      <c r="BG277" s="5">
+      <c r="BG277" s="8"/>
+      <c r="BH277" s="5">
         <f t="shared" si="4"/>
         <v>-53.576333333333331</v>
       </c>
-      <c r="BH277" s="5">
+      <c r="BI277" s="5">
         <v>326810.33333333331</v>
       </c>
     </row>
-    <row r="278" spans="2:60" s="5" customFormat="1">
+    <row r="278" spans="2:61" s="5" customFormat="1">
       <c r="B278" s="5">
         <v>2018</v>
       </c>
@@ -43000,15 +43826,16 @@
       <c r="BF278" s="8">
         <v>109.05</v>
       </c>
-      <c r="BG278" s="5">
+      <c r="BG278" s="8"/>
+      <c r="BH278" s="5">
         <f t="shared" si="4"/>
         <v>-46.163333333333334</v>
       </c>
-      <c r="BH278" s="5">
+      <c r="BI278" s="5">
         <v>327342.66666666669</v>
       </c>
     </row>
-    <row r="279" spans="2:60" s="5" customFormat="1">
+    <row r="279" spans="2:61" s="5" customFormat="1">
       <c r="B279" s="5">
         <v>2018.25</v>
       </c>
@@ -43098,11 +43925,12 @@
         <v>68.033333333333331</v>
       </c>
       <c r="BF279" s="8"/>
-      <c r="BH279" s="5">
+      <c r="BG279" s="8"/>
+      <c r="BI279" s="5">
         <v>327857.66666666669</v>
       </c>
     </row>
-    <row r="280" spans="2:60" s="5" customFormat="1">
+    <row r="280" spans="2:61" s="5" customFormat="1">
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="N280" s="4"/>
@@ -43129,11 +43957,12 @@
       <c r="BA280" s="8"/>
       <c r="BB280" s="8"/>
       <c r="BF280" s="8"/>
-      <c r="BH280" s="5">
+      <c r="BG280" s="8"/>
+      <c r="BI280" s="5">
         <v>328477.33333333331</v>
       </c>
     </row>
-    <row r="281" spans="2:60" s="5" customFormat="1">
+    <row r="281" spans="2:61" s="5" customFormat="1">
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
       <c r="N281" s="4"/>
@@ -43159,11 +43988,12 @@
       <c r="BA281" s="8"/>
       <c r="BB281" s="8"/>
       <c r="BF281" s="8"/>
-      <c r="BH281" s="5">
+      <c r="BG281" s="8"/>
+      <c r="BI281" s="5">
         <v>329124.33333333331</v>
       </c>
     </row>
-    <row r="282" spans="2:60" s="5" customFormat="1">
+    <row r="282" spans="2:61" s="5" customFormat="1">
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="N282" s="4"/>
@@ -43181,121 +44011,133 @@
       <c r="Z282" s="4"/>
       <c r="AY282" s="8"/>
       <c r="BF282" s="8"/>
+      <c r="BG282" s="8"/>
     </row>
-    <row r="283" spans="2:60" s="5" customFormat="1">
+    <row r="283" spans="2:61" s="5" customFormat="1">
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
       <c r="AY283" s="8"/>
       <c r="BF283" s="8"/>
+      <c r="BG283" s="8"/>
     </row>
-    <row r="284" spans="2:60" s="5" customFormat="1">
+    <row r="284" spans="2:61" s="5" customFormat="1">
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="AY284" s="8"/>
       <c r="BF284" s="8"/>
+      <c r="BG284" s="8"/>
     </row>
-    <row r="285" spans="2:60" s="5" customFormat="1">
+    <row r="285" spans="2:61" s="5" customFormat="1">
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
       <c r="AY285" s="8"/>
       <c r="BF285" s="8"/>
+      <c r="BG285" s="8"/>
     </row>
-    <row r="286" spans="2:60" s="5" customFormat="1">
+    <row r="286" spans="2:61" s="5" customFormat="1">
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="AY286" s="8"/>
       <c r="BF286" s="8"/>
+      <c r="BG286" s="8"/>
     </row>
-    <row r="287" spans="2:60" s="5" customFormat="1">
+    <row r="287" spans="2:61" s="5" customFormat="1">
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
       <c r="AY287" s="8"/>
       <c r="BF287" s="8"/>
+      <c r="BG287" s="8"/>
     </row>
-    <row r="288" spans="2:60" s="5" customFormat="1">
+    <row r="288" spans="2:61" s="5" customFormat="1">
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="AY288" s="8"/>
       <c r="BF288" s="8"/>
+      <c r="BG288" s="8"/>
     </row>
-    <row r="289" spans="10:58" s="5" customFormat="1">
+    <row r="289" spans="10:59" s="5" customFormat="1">
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
       <c r="AY289" s="8"/>
       <c r="BF289" s="8"/>
+      <c r="BG289" s="8"/>
     </row>
-    <row r="290" spans="10:58" s="5" customFormat="1">
+    <row r="290" spans="10:59" s="5" customFormat="1">
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
       <c r="AY290" s="8"/>
       <c r="BF290" s="8"/>
+      <c r="BG290" s="8"/>
     </row>
-    <row r="291" spans="10:58" s="5" customFormat="1">
+    <row r="291" spans="10:59" s="5" customFormat="1">
       <c r="J291" s="4"/>
       <c r="K291" s="4"/>
       <c r="AY291" s="8"/>
       <c r="BF291" s="8"/>
+      <c r="BG291" s="8"/>
     </row>
-    <row r="292" spans="10:58" s="5" customFormat="1">
+    <row r="292" spans="10:59" s="5" customFormat="1">
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
       <c r="AY292" s="8"/>
       <c r="BF292" s="8"/>
+      <c r="BG292" s="8"/>
     </row>
-    <row r="293" spans="10:58" s="5" customFormat="1">
+    <row r="293" spans="10:59" s="5" customFormat="1">
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
       <c r="AY293" s="8"/>
       <c r="BF293" s="8"/>
+      <c r="BG293" s="8"/>
     </row>
-    <row r="294" spans="10:58" s="5" customFormat="1">
+    <row r="294" spans="10:59" s="5" customFormat="1">
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
       <c r="AY294" s="8"/>
     </row>
-    <row r="295" spans="10:58" s="5" customFormat="1">
+    <row r="295" spans="10:59" s="5" customFormat="1">
       <c r="J295" s="4"/>
       <c r="K295" s="4"/>
       <c r="AY295" s="8"/>
     </row>
-    <row r="296" spans="10:58" s="5" customFormat="1">
+    <row r="296" spans="10:59" s="5" customFormat="1">
       <c r="J296" s="4"/>
       <c r="K296" s="4"/>
       <c r="AY296" s="8"/>
     </row>
-    <row r="297" spans="10:58" s="5" customFormat="1">
+    <row r="297" spans="10:59" s="5" customFormat="1">
       <c r="J297" s="4"/>
       <c r="K297" s="4"/>
       <c r="AY297" s="8"/>
     </row>
-    <row r="298" spans="10:58" s="5" customFormat="1">
+    <row r="298" spans="10:59" s="5" customFormat="1">
       <c r="K298" s="4"/>
       <c r="AY298" s="8"/>
     </row>
-    <row r="299" spans="10:58" s="5" customFormat="1">
+    <row r="299" spans="10:59" s="5" customFormat="1">
       <c r="K299" s="4"/>
       <c r="L299" s="5" t="s">
         <v>46</v>
       </c>
       <c r="AY299" s="8"/>
     </row>
-    <row r="300" spans="10:58" s="5" customFormat="1">
+    <row r="300" spans="10:59" s="5" customFormat="1">
       <c r="K300" s="4"/>
       <c r="AY300" s="8"/>
     </row>
-    <row r="301" spans="10:58" s="5" customFormat="1">
+    <row r="301" spans="10:59" s="5" customFormat="1">
       <c r="K301" s="4"/>
       <c r="AY301" s="8"/>
     </row>
-    <row r="302" spans="10:58" s="5" customFormat="1">
+    <row r="302" spans="10:59" s="5" customFormat="1">
       <c r="K302" s="4"/>
       <c r="AY302" s="8"/>
     </row>
-    <row r="303" spans="10:58" s="5" customFormat="1">
+    <row r="303" spans="10:59" s="5" customFormat="1">
       <c r="K303" s="4"/>
       <c r="AY303" s="8"/>
     </row>
-    <row r="304" spans="10:58" s="5" customFormat="1">
+    <row r="304" spans="10:59" s="5" customFormat="1">
       <c r="K304" s="4"/>
       <c r="AY304" s="8"/>
     </row>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>BloomFinDistress</t>
+  </si>
+  <si>
+    <t>BarskySims_News</t>
   </si>
 </sst>
 </file>
@@ -886,13 +889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI629"/>
+  <dimension ref="A1:BJ629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="BA240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="BB16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BG6" sqref="BG6:BG273"/>
+      <selection pane="bottomRight" activeCell="BK267" sqref="BK267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -933,7 +936,7 @@
     <col min="62" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="7" customFormat="1">
+    <row r="1" spans="1:62" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1117,8 +1120,11 @@
       <c r="BI1" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="BJ1" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" s="7" customFormat="1">
+    <row r="2" spans="1:62" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1302,8 +1308,11 @@
       <c r="BI2" s="1">
         <v>3</v>
       </c>
+      <c r="BJ2" s="7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" s="7" customFormat="1">
+    <row r="3" spans="1:62" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1487,8 +1496,11 @@
       <c r="BI3" s="1">
         <v>1</v>
       </c>
+      <c r="BJ3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" s="7" customFormat="1">
+    <row r="4" spans="1:62" s="7" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1672,8 +1684,11 @@
       <c r="BI4" s="1">
         <v>60</v>
       </c>
+      <c r="BJ4" s="7">
+        <v>61</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" s="7" customFormat="1">
+    <row r="5" spans="1:62" s="7" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1857,8 +1872,11 @@
       <c r="BI5" s="1">
         <v>60</v>
       </c>
+      <c r="BJ5" s="7">
+        <v>61</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" s="5" customFormat="1">
+    <row r="6" spans="1:62" s="5" customFormat="1">
       <c r="B6" s="5">
         <v>1950</v>
       </c>
@@ -1952,7 +1970,7 @@
         <v>-25.047000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="5" customFormat="1">
+    <row r="7" spans="1:62" s="5" customFormat="1">
       <c r="B7" s="5">
         <v>1950.25</v>
       </c>
@@ -2046,7 +2064,7 @@
         <v>-25.356999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="5" customFormat="1">
+    <row r="8" spans="1:62" s="5" customFormat="1">
       <c r="B8" s="5">
         <v>1950.5</v>
       </c>
@@ -2140,7 +2158,7 @@
         <v>-25.962</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="5" customFormat="1">
+    <row r="9" spans="1:62" s="5" customFormat="1">
       <c r="B9" s="5">
         <v>1950.75</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>-26.004000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="5" customFormat="1">
+    <row r="10" spans="1:62" s="5" customFormat="1">
       <c r="B10" s="5">
         <v>1951</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>-26.062999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="5" customFormat="1">
+    <row r="11" spans="1:62" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>1951.25</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>-25.963999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="5" customFormat="1">
+    <row r="12" spans="1:62" s="5" customFormat="1">
       <c r="B12" s="5">
         <v>1951.5</v>
       </c>
@@ -2516,7 +2534,7 @@
         <v>-26.617999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="5" customFormat="1">
+    <row r="13" spans="1:62" s="5" customFormat="1">
       <c r="B13" s="5">
         <v>1951.75</v>
       </c>
@@ -2610,7 +2628,7 @@
         <v>-26.686</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="5" customFormat="1">
+    <row r="14" spans="1:62" s="5" customFormat="1">
       <c r="B14" s="5">
         <v>1952</v>
       </c>
@@ -2707,7 +2725,7 @@
         <v>156522.33333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:61" s="5" customFormat="1">
+    <row r="15" spans="1:62" s="5" customFormat="1">
       <c r="B15" s="5">
         <v>1952.25</v>
       </c>
@@ -2804,7 +2822,7 @@
         <v>157142</v>
       </c>
     </row>
-    <row r="16" spans="1:61" s="5" customFormat="1">
+    <row r="16" spans="1:62" s="5" customFormat="1">
       <c r="B16" s="5">
         <v>1952.5</v>
       </c>
@@ -6296,7 +6314,7 @@
         <v>180951.33333333334</v>
       </c>
     </row>
-    <row r="49" spans="2:61" s="5" customFormat="1">
+    <row r="49" spans="2:62" s="5" customFormat="1">
       <c r="B49" s="5">
         <v>1960.75</v>
       </c>
@@ -6408,7 +6426,7 @@
         <v>181788.66666666666</v>
       </c>
     </row>
-    <row r="50" spans="2:61" s="5" customFormat="1">
+    <row r="50" spans="2:62" s="5" customFormat="1">
       <c r="B50" s="5">
         <v>1961</v>
       </c>
@@ -6519,8 +6537,11 @@
       <c r="BI50" s="5">
         <v>182516.33333333334</v>
       </c>
+      <c r="BJ50" s="5">
+        <v>1.8066305846179943E-2</v>
+      </c>
     </row>
-    <row r="51" spans="2:61" s="5" customFormat="1">
+    <row r="51" spans="2:62" s="5" customFormat="1">
       <c r="B51" s="5">
         <v>1961.25</v>
       </c>
@@ -6631,8 +6652,11 @@
       <c r="BI51" s="5">
         <v>183220.33333333334</v>
       </c>
+      <c r="BJ51" s="5">
+        <v>0.77760697138650436</v>
+      </c>
     </row>
-    <row r="52" spans="2:61" s="5" customFormat="1">
+    <row r="52" spans="2:62" s="5" customFormat="1">
       <c r="B52" s="5">
         <v>1961.5</v>
       </c>
@@ -6743,8 +6767,11 @@
       <c r="BI52" s="5">
         <v>183964</v>
       </c>
+      <c r="BJ52" s="5">
+        <v>-2.6865341405642139E-2</v>
+      </c>
     </row>
-    <row r="53" spans="2:61" s="5" customFormat="1">
+    <row r="53" spans="2:62" s="5" customFormat="1">
       <c r="B53" s="5">
         <v>1961.75</v>
       </c>
@@ -6855,8 +6882,11 @@
       <c r="BI53" s="5">
         <v>184774.33333333334</v>
       </c>
+      <c r="BJ53" s="5">
+        <v>-1.0455617282093341</v>
+      </c>
     </row>
-    <row r="54" spans="2:61" s="5" customFormat="1">
+    <row r="54" spans="2:62" s="5" customFormat="1">
       <c r="B54" s="5">
         <v>1962</v>
       </c>
@@ -6967,8 +6997,11 @@
       <c r="BI54" s="5">
         <v>185448</v>
       </c>
+      <c r="BJ54" s="5">
+        <v>-1.6013540445227588</v>
+      </c>
     </row>
-    <row r="55" spans="2:61" s="5" customFormat="1">
+    <row r="55" spans="2:62" s="5" customFormat="1">
       <c r="B55" s="5">
         <v>1962.25</v>
       </c>
@@ -7079,8 +7112,11 @@
       <c r="BI55" s="5">
         <v>186091.66666666666</v>
       </c>
+      <c r="BJ55" s="5">
+        <v>-0.88075573341854252</v>
+      </c>
     </row>
-    <row r="56" spans="2:61" s="5" customFormat="1">
+    <row r="56" spans="2:62" s="5" customFormat="1">
       <c r="B56" s="5">
         <v>1962.5</v>
       </c>
@@ -7191,8 +7227,11 @@
       <c r="BI56" s="5">
         <v>186795.33333333334</v>
       </c>
+      <c r="BJ56" s="5">
+        <v>6.553053860594274E-2</v>
+      </c>
     </row>
-    <row r="57" spans="2:61" s="5" customFormat="1">
+    <row r="57" spans="2:62" s="5" customFormat="1">
       <c r="B57" s="5">
         <v>1962.75</v>
       </c>
@@ -7303,8 +7342,11 @@
       <c r="BI57" s="5">
         <v>187564.33333333334</v>
       </c>
+      <c r="BJ57" s="5">
+        <v>1.735585487183273</v>
+      </c>
     </row>
-    <row r="58" spans="2:61" s="5" customFormat="1">
+    <row r="58" spans="2:62" s="5" customFormat="1">
       <c r="B58" s="5">
         <v>1963</v>
       </c>
@@ -7415,8 +7457,11 @@
       <c r="BI58" s="5">
         <v>188204.33333333334</v>
       </c>
+      <c r="BJ58" s="5">
+        <v>0.18478526037869225</v>
+      </c>
     </row>
-    <row r="59" spans="2:61" s="5" customFormat="1">
+    <row r="59" spans="2:62" s="5" customFormat="1">
       <c r="B59" s="5">
         <v>1963.25</v>
       </c>
@@ -7527,8 +7572,11 @@
       <c r="BI59" s="5">
         <v>188796</v>
       </c>
+      <c r="BJ59" s="5">
+        <v>-0.19787610598384714</v>
+      </c>
     </row>
-    <row r="60" spans="2:61" s="5" customFormat="1">
+    <row r="60" spans="2:62" s="5" customFormat="1">
       <c r="B60" s="5">
         <v>1963.5</v>
       </c>
@@ -7639,8 +7687,11 @@
       <c r="BI60" s="5">
         <v>189499.66666666666</v>
       </c>
+      <c r="BJ60" s="5">
+        <v>-2.6147161336458153</v>
+      </c>
     </row>
-    <row r="61" spans="2:61" s="5" customFormat="1">
+    <row r="61" spans="2:62" s="5" customFormat="1">
       <c r="B61" s="5">
         <v>1963.75</v>
       </c>
@@ -7751,8 +7802,11 @@
       <c r="BI61" s="5">
         <v>190255</v>
       </c>
+      <c r="BJ61" s="5">
+        <v>0.93629151504747465</v>
+      </c>
     </row>
-    <row r="62" spans="2:61" s="5" customFormat="1">
+    <row r="62" spans="2:62" s="5" customFormat="1">
       <c r="B62" s="5">
         <v>1964</v>
       </c>
@@ -7863,8 +7917,11 @@
       <c r="BI62" s="5">
         <v>190857.66666666666</v>
       </c>
+      <c r="BJ62" s="5">
+        <v>0.23788109749820491</v>
+      </c>
     </row>
-    <row r="63" spans="2:61" s="5" customFormat="1">
+    <row r="63" spans="2:62" s="5" customFormat="1">
       <c r="B63" s="5">
         <v>1964.25</v>
       </c>
@@ -7975,8 +8032,11 @@
       <c r="BI63" s="5">
         <v>191452.66666666666</v>
       </c>
+      <c r="BJ63" s="5">
+        <v>1.6194867597563276</v>
+      </c>
     </row>
-    <row r="64" spans="2:61" s="5" customFormat="1">
+    <row r="64" spans="2:62" s="5" customFormat="1">
       <c r="B64" s="5">
         <v>1964.5</v>
       </c>
@@ -8087,8 +8147,11 @@
       <c r="BI64" s="5">
         <v>192132</v>
       </c>
+      <c r="BJ64" s="5">
+        <v>0.24319784316205897</v>
+      </c>
     </row>
-    <row r="65" spans="2:61" s="5" customFormat="1">
+    <row r="65" spans="2:62" s="5" customFormat="1">
       <c r="B65" s="5">
         <v>1964.75</v>
       </c>
@@ -8199,8 +8262,11 @@
       <c r="BI65" s="5">
         <v>192839</v>
       </c>
+      <c r="BJ65" s="5">
+        <v>-0.59536345440670824</v>
+      </c>
     </row>
-    <row r="66" spans="2:61" s="5" customFormat="1">
+    <row r="66" spans="2:62" s="5" customFormat="1">
       <c r="B66" s="5">
         <v>1965</v>
       </c>
@@ -8311,8 +8377,11 @@
       <c r="BI66" s="5">
         <v>193385.33333333334</v>
       </c>
+      <c r="BJ66" s="5">
+        <v>1.6564223845860053</v>
+      </c>
     </row>
-    <row r="67" spans="2:61" s="5" customFormat="1">
+    <row r="67" spans="2:62" s="5" customFormat="1">
       <c r="B67" s="5">
         <v>1965.25</v>
       </c>
@@ -8423,8 +8492,11 @@
       <c r="BI67" s="5">
         <v>193894.66666666666</v>
       </c>
+      <c r="BJ67" s="5">
+        <v>-1.147103166407208</v>
+      </c>
     </row>
-    <row r="68" spans="2:61" s="5" customFormat="1">
+    <row r="68" spans="2:62" s="5" customFormat="1">
       <c r="B68" s="5">
         <v>1965.5</v>
       </c>
@@ -8535,8 +8607,11 @@
       <c r="BI68" s="5">
         <v>194530.66666666666</v>
       </c>
+      <c r="BJ68" s="5">
+        <v>0.82298591058892301</v>
+      </c>
     </row>
-    <row r="69" spans="2:61" s="5" customFormat="1">
+    <row r="69" spans="2:62" s="5" customFormat="1">
       <c r="B69" s="5">
         <v>1965.75</v>
       </c>
@@ -8647,8 +8722,11 @@
       <c r="BI69" s="5">
         <v>195188</v>
       </c>
+      <c r="BJ69" s="5">
+        <v>-0.77700243293762505</v>
+      </c>
     </row>
-    <row r="70" spans="2:61" s="5" customFormat="1">
+    <row r="70" spans="2:62" s="5" customFormat="1">
       <c r="B70" s="5">
         <v>1966</v>
       </c>
@@ -8759,8 +8837,11 @@
       <c r="BI70" s="5">
         <v>195686</v>
       </c>
+      <c r="BJ70" s="5">
+        <v>-1.2161278691325919</v>
+      </c>
     </row>
-    <row r="71" spans="2:61" s="5" customFormat="1">
+    <row r="71" spans="2:62" s="5" customFormat="1">
       <c r="B71" s="5">
         <v>1966.25</v>
       </c>
@@ -8872,8 +8953,11 @@
       <c r="BI71" s="5">
         <v>196183</v>
       </c>
+      <c r="BJ71" s="5">
+        <v>-0.32531901533246499</v>
+      </c>
     </row>
-    <row r="72" spans="2:61" s="5" customFormat="1">
+    <row r="72" spans="2:62" s="5" customFormat="1">
       <c r="B72" s="5">
         <v>1966.5</v>
       </c>
@@ -8985,8 +9069,11 @@
       <c r="BI72" s="5">
         <v>196768.66666666666</v>
       </c>
+      <c r="BJ72" s="5">
+        <v>-0.36759516176909873</v>
+      </c>
     </row>
-    <row r="73" spans="2:61" s="5" customFormat="1">
+    <row r="73" spans="2:62" s="5" customFormat="1">
       <c r="B73" s="5">
         <v>1966.75</v>
       </c>
@@ -9098,8 +9185,11 @@
       <c r="BI73" s="5">
         <v>197392.33333333334</v>
       </c>
+      <c r="BJ73" s="5">
+        <v>0.16082403484004959</v>
+      </c>
     </row>
-    <row r="74" spans="2:61" s="5" customFormat="1">
+    <row r="74" spans="2:62" s="5" customFormat="1">
       <c r="B74" s="5">
         <v>1967</v>
       </c>
@@ -9215,8 +9305,11 @@
       <c r="BI74" s="5">
         <v>197888.33333333334</v>
       </c>
+      <c r="BJ74" s="5">
+        <v>-1.0257593834492538</v>
+      </c>
     </row>
-    <row r="75" spans="2:61" s="5" customFormat="1">
+    <row r="75" spans="2:62" s="5" customFormat="1">
       <c r="B75" s="5">
         <v>1967.25</v>
       </c>
@@ -9332,8 +9425,11 @@
       <c r="BI75" s="5">
         <v>198368.66666666666</v>
       </c>
+      <c r="BJ75" s="5">
+        <v>0.59546976933815354</v>
+      </c>
     </row>
-    <row r="76" spans="2:61" s="5" customFormat="1">
+    <row r="76" spans="2:62" s="5" customFormat="1">
       <c r="B76" s="5">
         <v>1967.5</v>
       </c>
@@ -9450,8 +9546,11 @@
       <c r="BI76" s="5">
         <v>198912</v>
       </c>
+      <c r="BJ76" s="5">
+        <v>-0.44670610787686815</v>
+      </c>
     </row>
-    <row r="77" spans="2:61" s="5" customFormat="1">
+    <row r="77" spans="2:62" s="5" customFormat="1">
       <c r="B77" s="5">
         <v>1967.75</v>
       </c>
@@ -9568,8 +9667,11 @@
       <c r="BI77" s="5">
         <v>199488.66666666666</v>
       </c>
+      <c r="BJ77" s="5">
+        <v>0.79740285920288234</v>
+      </c>
     </row>
-    <row r="78" spans="2:61" s="5" customFormat="1">
+    <row r="78" spans="2:62" s="5" customFormat="1">
       <c r="B78" s="5">
         <v>1968</v>
       </c>
@@ -9686,8 +9788,11 @@
       <c r="BI78" s="5">
         <v>199928</v>
       </c>
+      <c r="BJ78" s="5">
+        <v>0.2797039149725265</v>
+      </c>
     </row>
-    <row r="79" spans="2:61" s="5" customFormat="1">
+    <row r="79" spans="2:62" s="5" customFormat="1">
       <c r="B79" s="5">
         <v>1968.25</v>
       </c>
@@ -9804,8 +9909,11 @@
       <c r="BI79" s="5">
         <v>200368.33333333334</v>
       </c>
+      <c r="BJ79" s="5">
+        <v>0.86951984071792821</v>
+      </c>
     </row>
-    <row r="80" spans="2:61" s="5" customFormat="1">
+    <row r="80" spans="2:62" s="5" customFormat="1">
       <c r="B80" s="5">
         <v>1968.5</v>
       </c>
@@ -9922,8 +10030,11 @@
       <c r="BI80" s="5">
         <v>200899.66666666666</v>
       </c>
+      <c r="BJ80" s="5">
+        <v>-0.58280150236253359</v>
+      </c>
     </row>
-    <row r="81" spans="2:61" s="5" customFormat="1">
+    <row r="81" spans="2:62" s="5" customFormat="1">
       <c r="B81" s="5">
         <v>1968.75</v>
       </c>
@@ -10076,8 +10187,11 @@
       <c r="BI81" s="5">
         <v>201459</v>
       </c>
+      <c r="BJ81" s="5">
+        <v>0.18596221165346902</v>
+      </c>
     </row>
-    <row r="82" spans="2:61" s="5" customFormat="1">
+    <row r="82" spans="2:62" s="5" customFormat="1">
       <c r="B82" s="5">
         <v>1969</v>
       </c>
@@ -10234,8 +10348,11 @@
       <c r="BI82" s="5">
         <v>201888</v>
       </c>
+      <c r="BJ82" s="5">
+        <v>-1.2371995856409392</v>
+      </c>
     </row>
-    <row r="83" spans="2:61" s="5" customFormat="1">
+    <row r="83" spans="2:62" s="5" customFormat="1">
       <c r="B83" s="5">
         <v>1969.25</v>
       </c>
@@ -10392,8 +10509,11 @@
       <c r="BI83" s="5">
         <v>202333</v>
       </c>
+      <c r="BJ83" s="5">
+        <v>0.10344993447461717</v>
+      </c>
     </row>
-    <row r="84" spans="2:61" s="5" customFormat="1">
+    <row r="84" spans="2:62" s="5" customFormat="1">
       <c r="B84" s="5">
         <v>1969.5</v>
       </c>
@@ -10550,8 +10670,11 @@
       <c r="BI84" s="5">
         <v>202881.33333333334</v>
       </c>
+      <c r="BJ84" s="5">
+        <v>0.49571730193259356</v>
+      </c>
     </row>
-    <row r="85" spans="2:61" s="5" customFormat="1">
+    <row r="85" spans="2:62" s="5" customFormat="1">
       <c r="B85" s="5">
         <v>1969.75</v>
       </c>
@@ -10707,8 +10830,11 @@
       <c r="BI85" s="5">
         <v>203492.33333333334</v>
       </c>
+      <c r="BJ85" s="5">
+        <v>0.94655490629996875</v>
+      </c>
     </row>
-    <row r="86" spans="2:61" s="5" customFormat="1">
+    <row r="86" spans="2:62" s="5" customFormat="1">
       <c r="B86" s="5">
         <v>1970</v>
       </c>
@@ -10866,8 +10992,11 @@
       <c r="BI86" s="5">
         <v>204004.33333333334</v>
       </c>
+      <c r="BJ86" s="5">
+        <v>0.15456380802888742</v>
+      </c>
     </row>
-    <row r="87" spans="2:61" s="5" customFormat="1">
+    <row r="87" spans="2:62" s="5" customFormat="1">
       <c r="B87" s="5">
         <v>1970.25</v>
       </c>
@@ -11023,8 +11152,11 @@
       <c r="BI87" s="5">
         <v>204612.66666666666</v>
       </c>
+      <c r="BJ87" s="5">
+        <v>0.78992700281644268</v>
+      </c>
     </row>
-    <row r="88" spans="2:61" s="5" customFormat="1">
+    <row r="88" spans="2:62" s="5" customFormat="1">
       <c r="B88" s="5">
         <v>1970.5</v>
       </c>
@@ -11180,8 +11312,11 @@
       <c r="BI88" s="5">
         <v>205295.66666666666</v>
       </c>
+      <c r="BJ88" s="5">
+        <v>0.57853730217822985</v>
+      </c>
     </row>
-    <row r="89" spans="2:61" s="5" customFormat="1">
+    <row r="89" spans="2:62" s="5" customFormat="1">
       <c r="B89" s="5">
         <v>1970.75</v>
       </c>
@@ -11337,8 +11472,11 @@
       <c r="BI89" s="5">
         <v>206016.66666666666</v>
       </c>
+      <c r="BJ89" s="5">
+        <v>0.72162875444462515</v>
+      </c>
     </row>
-    <row r="90" spans="2:61" s="5" customFormat="1">
+    <row r="90" spans="2:62" s="5" customFormat="1">
       <c r="B90" s="5">
         <v>1971</v>
       </c>
@@ -11494,8 +11632,11 @@
       <c r="BI90" s="5">
         <v>206663</v>
       </c>
+      <c r="BJ90" s="5">
+        <v>0.39213466947051479</v>
+      </c>
     </row>
-    <row r="91" spans="2:61" s="5" customFormat="1">
+    <row r="91" spans="2:62" s="5" customFormat="1">
       <c r="B91" s="5">
         <v>1971.25</v>
       </c>
@@ -11651,8 +11792,11 @@
       <c r="BI91" s="5">
         <v>207262.33333333334</v>
       </c>
+      <c r="BJ91" s="5">
+        <v>0.84653495441183813</v>
+      </c>
     </row>
-    <row r="92" spans="2:61" s="5" customFormat="1">
+    <row r="92" spans="2:62" s="5" customFormat="1">
       <c r="B92" s="5">
         <v>1971.5</v>
       </c>
@@ -11808,8 +11952,11 @@
       <c r="BI92" s="5">
         <v>207885.33333333334</v>
       </c>
+      <c r="BJ92" s="5">
+        <v>0.13694182386202802</v>
+      </c>
     </row>
-    <row r="93" spans="2:61" s="5" customFormat="1">
+    <row r="93" spans="2:62" s="5" customFormat="1">
       <c r="B93" s="5">
         <v>1971.75</v>
       </c>
@@ -11965,8 +12112,11 @@
       <c r="BI93" s="5">
         <v>208546.66666666666</v>
       </c>
+      <c r="BJ93" s="5">
+        <v>-0.17597323375223428</v>
+      </c>
     </row>
-    <row r="94" spans="2:61" s="5" customFormat="1">
+    <row r="94" spans="2:62" s="5" customFormat="1">
       <c r="B94" s="5">
         <v>1972</v>
       </c>
@@ -12122,8 +12272,11 @@
       <c r="BI94" s="5">
         <v>209063.33333333334</v>
       </c>
+      <c r="BJ94" s="5">
+        <v>-0.13648611966246665</v>
+      </c>
     </row>
-    <row r="95" spans="2:61" s="5" customFormat="1">
+    <row r="95" spans="2:62" s="5" customFormat="1">
       <c r="B95" s="5">
         <v>1972.25</v>
       </c>
@@ -12279,8 +12432,11 @@
       <c r="BI95" s="5">
         <v>209552</v>
       </c>
+      <c r="BJ95" s="5">
+        <v>-1.1956689730359069</v>
+      </c>
     </row>
-    <row r="96" spans="2:61" s="5" customFormat="1">
+    <row r="96" spans="2:62" s="5" customFormat="1">
       <c r="B96" s="5">
         <v>1972.5</v>
       </c>
@@ -12436,8 +12592,11 @@
       <c r="BI96" s="5">
         <v>210083</v>
       </c>
+      <c r="BJ96" s="5">
+        <v>1.9677645520177809</v>
+      </c>
     </row>
-    <row r="97" spans="2:61" s="5" customFormat="1">
+    <row r="97" spans="2:62" s="5" customFormat="1">
       <c r="B97" s="5">
         <v>1972.75</v>
       </c>
@@ -12593,8 +12752,11 @@
       <c r="BI97" s="5">
         <v>210652</v>
       </c>
+      <c r="BJ97" s="5">
+        <v>0.55439697192577553</v>
+      </c>
     </row>
-    <row r="98" spans="2:61" s="5" customFormat="1">
+    <row r="98" spans="2:62" s="5" customFormat="1">
       <c r="B98" s="5">
         <v>1973</v>
       </c>
@@ -12753,8 +12915,11 @@
       <c r="BI98" s="5">
         <v>211119.66666666666</v>
       </c>
+      <c r="BJ98" s="5">
+        <v>-2.9581193780114954</v>
+      </c>
     </row>
-    <row r="99" spans="2:61" s="5" customFormat="1">
+    <row r="99" spans="2:62" s="5" customFormat="1">
       <c r="B99" s="5">
         <v>1973.25</v>
       </c>
@@ -12913,8 +13078,11 @@
       <c r="BI99" s="5">
         <v>211581</v>
       </c>
+      <c r="BJ99" s="5">
+        <v>-1.3149625422057518</v>
+      </c>
     </row>
-    <row r="100" spans="2:61" s="5" customFormat="1">
+    <row r="100" spans="2:62" s="5" customFormat="1">
       <c r="B100" s="5">
         <v>1973.5</v>
       </c>
@@ -13073,8 +13241,11 @@
       <c r="BI100" s="5">
         <v>212096.66666666666</v>
       </c>
+      <c r="BJ100" s="5">
+        <v>1.2069000586331566</v>
+      </c>
     </row>
-    <row r="101" spans="2:61" s="5" customFormat="1">
+    <row r="101" spans="2:62" s="5" customFormat="1">
       <c r="B101" s="5">
         <v>1973.75</v>
       </c>
@@ -13233,8 +13404,11 @@
       <c r="BI101" s="5">
         <v>212631.33333333334</v>
       </c>
+      <c r="BJ101" s="5">
+        <v>-2.3229412531303026</v>
+      </c>
     </row>
-    <row r="102" spans="2:61" s="5" customFormat="1">
+    <row r="102" spans="2:62" s="5" customFormat="1">
       <c r="B102" s="5">
         <v>1974</v>
       </c>
@@ -13393,8 +13567,11 @@
       <c r="BI102" s="5">
         <v>213072.33333333334</v>
       </c>
+      <c r="BJ102" s="5">
+        <v>-1.2750514571005933</v>
+      </c>
     </row>
-    <row r="103" spans="2:61" s="5" customFormat="1">
+    <row r="103" spans="2:62" s="5" customFormat="1">
       <c r="B103" s="5">
         <v>1974.25</v>
       </c>
@@ -13553,8 +13730,11 @@
       <c r="BI103" s="5">
         <v>213520</v>
       </c>
+      <c r="BJ103" s="5">
+        <v>0.76752528898868166</v>
+      </c>
     </row>
-    <row r="104" spans="2:61" s="5" customFormat="1">
+    <row r="104" spans="2:62" s="5" customFormat="1">
       <c r="B104" s="5">
         <v>1974.5</v>
       </c>
@@ -13715,8 +13895,11 @@
       <c r="BI104" s="5">
         <v>214047.33333333334</v>
       </c>
+      <c r="BJ104" s="5">
+        <v>1.4088521195154355</v>
+      </c>
     </row>
-    <row r="105" spans="2:61" s="5" customFormat="1">
+    <row r="105" spans="2:62" s="5" customFormat="1">
       <c r="B105" s="5">
         <v>1974.75</v>
       </c>
@@ -13875,8 +14058,11 @@
       <c r="BI105" s="5">
         <v>214619.33333333334</v>
       </c>
+      <c r="BJ105" s="5">
+        <v>-0.2402299117350889</v>
+      </c>
     </row>
-    <row r="106" spans="2:61" s="5" customFormat="1">
+    <row r="106" spans="2:62" s="5" customFormat="1">
       <c r="B106" s="5">
         <v>1975</v>
       </c>
@@ -14035,8 +14221,11 @@
       <c r="BI106" s="5">
         <v>215064.66666666666</v>
       </c>
+      <c r="BJ106" s="5">
+        <v>0.54795137402078431</v>
+      </c>
     </row>
-    <row r="107" spans="2:61" s="5" customFormat="1">
+    <row r="107" spans="2:62" s="5" customFormat="1">
       <c r="B107" s="5">
         <v>1975.25</v>
       </c>
@@ -14195,8 +14384,11 @@
       <c r="BI107" s="5">
         <v>215548</v>
       </c>
+      <c r="BJ107" s="5">
+        <v>1.2077310323012673</v>
+      </c>
     </row>
-    <row r="108" spans="2:61" s="5" customFormat="1">
+    <row r="108" spans="2:62" s="5" customFormat="1">
       <c r="B108" s="5">
         <v>1975.5</v>
       </c>
@@ -14355,8 +14547,11 @@
       <c r="BI108" s="5">
         <v>216187</v>
       </c>
+      <c r="BJ108" s="5">
+        <v>-0.74670711676322377</v>
+      </c>
     </row>
-    <row r="109" spans="2:61" s="5" customFormat="1">
+    <row r="109" spans="2:62" s="5" customFormat="1">
       <c r="B109" s="5">
         <v>1975.75</v>
       </c>
@@ -14515,8 +14710,11 @@
       <c r="BI109" s="5">
         <v>216763</v>
       </c>
+      <c r="BJ109" s="5">
+        <v>3.1710000206158773E-4</v>
+      </c>
     </row>
-    <row r="110" spans="2:61" s="5" customFormat="1">
+    <row r="110" spans="2:62" s="5" customFormat="1">
       <c r="B110" s="5">
         <v>1976</v>
       </c>
@@ -14675,8 +14873,11 @@
       <c r="BI110" s="5">
         <v>217241.66666666666</v>
       </c>
+      <c r="BJ110" s="5">
+        <v>-1.38538633821923E-2</v>
+      </c>
     </row>
-    <row r="111" spans="2:61" s="5" customFormat="1">
+    <row r="111" spans="2:62" s="5" customFormat="1">
       <c r="B111" s="5">
         <v>1976.25</v>
       </c>
@@ -14835,8 +15036,11 @@
       <c r="BI111" s="5">
         <v>217691.33333333334</v>
       </c>
+      <c r="BJ111" s="5">
+        <v>0.62375192706789517</v>
+      </c>
     </row>
-    <row r="112" spans="2:61" s="5" customFormat="1">
+    <row r="112" spans="2:62" s="5" customFormat="1">
       <c r="B112" s="5">
         <v>1976.5</v>
       </c>
@@ -14995,8 +15199,11 @@
       <c r="BI112" s="5">
         <v>218236</v>
       </c>
+      <c r="BJ112" s="5">
+        <v>0.32131581717887803</v>
+      </c>
     </row>
-    <row r="113" spans="2:61" s="5" customFormat="1">
+    <row r="113" spans="2:62" s="5" customFormat="1">
       <c r="B113" s="5">
         <v>1976.75</v>
       </c>
@@ -15155,8 +15362,11 @@
       <c r="BI113" s="5">
         <v>218828</v>
       </c>
+      <c r="BJ113" s="5">
+        <v>0.67094192522375729</v>
+      </c>
     </row>
-    <row r="114" spans="2:61" s="5" customFormat="1">
+    <row r="114" spans="2:62" s="5" customFormat="1">
       <c r="B114" s="5">
         <v>1977</v>
       </c>
@@ -15315,8 +15525,11 @@
       <c r="BI114" s="5">
         <v>219342.33333333334</v>
       </c>
+      <c r="BJ114" s="5">
+        <v>9.3953106362731104E-2</v>
+      </c>
     </row>
-    <row r="115" spans="2:61" s="5" customFormat="1">
+    <row r="115" spans="2:62" s="5" customFormat="1">
       <c r="B115" s="5">
         <v>1977.25</v>
       </c>
@@ -15475,8 +15688,11 @@
       <c r="BI115" s="5">
         <v>219863</v>
       </c>
+      <c r="BJ115" s="5">
+        <v>-1.2618600802020823</v>
+      </c>
     </row>
-    <row r="116" spans="2:61" s="5" customFormat="1">
+    <row r="116" spans="2:62" s="5" customFormat="1">
       <c r="B116" s="5">
         <v>1977.5</v>
       </c>
@@ -15635,8 +15851,11 @@
       <c r="BI116" s="5">
         <v>220461.66666666666</v>
       </c>
+      <c r="BJ116" s="5">
+        <v>-1.5336741611098712</v>
+      </c>
     </row>
-    <row r="117" spans="2:61" s="5" customFormat="1">
+    <row r="117" spans="2:62" s="5" customFormat="1">
       <c r="B117" s="5">
         <v>1977.75</v>
       </c>
@@ -15795,8 +16014,11 @@
       <c r="BI117" s="5">
         <v>221105.33333333334</v>
       </c>
+      <c r="BJ117" s="5">
+        <v>1.4605479879109931</v>
+      </c>
     </row>
-    <row r="118" spans="2:61" s="5" customFormat="1">
+    <row r="118" spans="2:62" s="5" customFormat="1">
       <c r="B118" s="5">
         <v>1978</v>
       </c>
@@ -15955,8 +16177,11 @@
       <c r="BI118" s="5">
         <v>221632.66666666666</v>
       </c>
+      <c r="BJ118" s="5">
+        <v>1.8898476297325426</v>
+      </c>
     </row>
-    <row r="119" spans="2:61" s="5" customFormat="1">
+    <row r="119" spans="2:62" s="5" customFormat="1">
       <c r="B119" s="5">
         <v>1978.25</v>
       </c>
@@ -16118,8 +16343,11 @@
       <c r="BI119" s="5">
         <v>222182</v>
       </c>
+      <c r="BJ119" s="5">
+        <v>-2.8303062930852656</v>
+      </c>
     </row>
-    <row r="120" spans="2:61" s="5" customFormat="1">
+    <row r="120" spans="2:62" s="5" customFormat="1">
       <c r="B120" s="5">
         <v>1978.5</v>
       </c>
@@ -16281,8 +16509,11 @@
       <c r="BI120" s="5">
         <v>222814.33333333334</v>
       </c>
+      <c r="BJ120" s="5">
+        <v>-1.2376194449220692</v>
+      </c>
     </row>
-    <row r="121" spans="2:61" s="5" customFormat="1">
+    <row r="121" spans="2:62" s="5" customFormat="1">
       <c r="B121" s="5">
         <v>1978.75</v>
       </c>
@@ -16444,8 +16675,11 @@
       <c r="BI121" s="5">
         <v>223472.66666666666</v>
       </c>
+      <c r="BJ121" s="5">
+        <v>-0.15835149616905947</v>
+      </c>
     </row>
-    <row r="122" spans="2:61" s="5" customFormat="1">
+    <row r="122" spans="2:62" s="5" customFormat="1">
       <c r="B122" s="5">
         <v>1979</v>
       </c>
@@ -16607,8 +16841,11 @@
       <c r="BI122" s="5">
         <v>224051</v>
       </c>
+      <c r="BJ122" s="5">
+        <v>1.6716834715960625</v>
+      </c>
     </row>
-    <row r="123" spans="2:61" s="5" customFormat="1">
+    <row r="123" spans="2:62" s="5" customFormat="1">
       <c r="B123" s="5">
         <v>1979.25</v>
       </c>
@@ -16770,8 +17007,11 @@
       <c r="BI123" s="5">
         <v>224637.66666666666</v>
       </c>
+      <c r="BJ123" s="5">
+        <v>1.436167679159893</v>
+      </c>
     </row>
-    <row r="124" spans="2:61" s="5" customFormat="1">
+    <row r="124" spans="2:62" s="5" customFormat="1">
       <c r="B124" s="5">
         <v>1979.5</v>
       </c>
@@ -16933,8 +17173,11 @@
       <c r="BI124" s="5">
         <v>225299</v>
       </c>
+      <c r="BJ124" s="5">
+        <v>0.41340291301625365</v>
+      </c>
     </row>
-    <row r="125" spans="2:61" s="5" customFormat="1">
+    <row r="125" spans="2:62" s="5" customFormat="1">
       <c r="B125" s="5">
         <v>1979.75</v>
       </c>
@@ -17096,8 +17339,11 @@
       <c r="BI125" s="5">
         <v>226023.66666666666</v>
       </c>
+      <c r="BJ125" s="5">
+        <v>-0.75652630102839646</v>
+      </c>
     </row>
-    <row r="126" spans="2:61" s="5" customFormat="1">
+    <row r="126" spans="2:62" s="5" customFormat="1">
       <c r="B126" s="5">
         <v>1980</v>
       </c>
@@ -17259,8 +17505,11 @@
       <c r="BI126" s="5">
         <v>226652</v>
       </c>
+      <c r="BJ126" s="5">
+        <v>-1.901864320385654</v>
+      </c>
     </row>
-    <row r="127" spans="2:61" s="5" customFormat="1">
+    <row r="127" spans="2:62" s="5" customFormat="1">
       <c r="B127" s="5">
         <v>1980.25</v>
       </c>
@@ -17422,8 +17671,11 @@
       <c r="BI127" s="5">
         <v>227278</v>
       </c>
+      <c r="BJ127" s="5">
+        <v>-0.96954038975492862</v>
+      </c>
     </row>
-    <row r="128" spans="2:61" s="5" customFormat="1">
+    <row r="128" spans="2:62" s="5" customFormat="1">
       <c r="B128" s="5">
         <v>1980.5</v>
       </c>
@@ -17585,8 +17837,11 @@
       <c r="BI128" s="5">
         <v>227955</v>
       </c>
+      <c r="BJ128" s="5">
+        <v>1.5543834265239762</v>
+      </c>
     </row>
-    <row r="129" spans="2:61" s="5" customFormat="1">
+    <row r="129" spans="2:62" s="5" customFormat="1">
       <c r="B129" s="5">
         <v>1980.75</v>
       </c>
@@ -17748,8 +18003,11 @@
       <c r="BI129" s="5">
         <v>228602.66666666666</v>
       </c>
+      <c r="BJ129" s="5">
+        <v>1.5529028859415792</v>
+      </c>
     </row>
-    <row r="130" spans="2:61" s="5" customFormat="1">
+    <row r="130" spans="2:62" s="5" customFormat="1">
       <c r="B130" s="5">
         <v>1981</v>
       </c>
@@ -17911,8 +18169,11 @@
       <c r="BI130" s="5">
         <v>229077.33333333334</v>
       </c>
+      <c r="BJ130" s="5">
+        <v>-1.0640685798151637</v>
+      </c>
     </row>
-    <row r="131" spans="2:61" s="5" customFormat="1">
+    <row r="131" spans="2:62" s="5" customFormat="1">
       <c r="B131" s="5">
         <v>1981.25</v>
       </c>
@@ -18074,8 +18335,11 @@
       <c r="BI131" s="5">
         <v>229579.66666666666</v>
       </c>
+      <c r="BJ131" s="5">
+        <v>0.4015570536489883</v>
+      </c>
     </row>
-    <row r="132" spans="2:61" s="5" customFormat="1">
+    <row r="132" spans="2:62" s="5" customFormat="1">
       <c r="B132" s="5">
         <v>1981.5</v>
       </c>
@@ -18253,8 +18517,11 @@
       <c r="BI132" s="5">
         <v>230188.33333333334</v>
       </c>
+      <c r="BJ132" s="5">
+        <v>-1.4170220468477082</v>
+      </c>
     </row>
-    <row r="133" spans="2:61" s="5" customFormat="1">
+    <row r="133" spans="2:62" s="5" customFormat="1">
       <c r="B133" s="5">
         <v>1981.75</v>
       </c>
@@ -18432,8 +18699,11 @@
       <c r="BI133" s="5">
         <v>230817.33333333334</v>
       </c>
+      <c r="BJ133" s="5">
+        <v>-0.11831062477680188</v>
+      </c>
     </row>
-    <row r="134" spans="2:61" s="5" customFormat="1">
+    <row r="134" spans="2:62" s="5" customFormat="1">
       <c r="B134" s="5">
         <v>1982</v>
       </c>
@@ -18611,8 +18881,11 @@
       <c r="BI134" s="5">
         <v>231313.33333333334</v>
       </c>
+      <c r="BJ134" s="5">
+        <v>1.0384858942959863</v>
+      </c>
     </row>
-    <row r="135" spans="2:61" s="5" customFormat="1">
+    <row r="135" spans="2:62" s="5" customFormat="1">
       <c r="B135" s="5">
         <v>1982.25</v>
       </c>
@@ -18790,8 +19063,11 @@
       <c r="BI135" s="5">
         <v>231815.33333333334</v>
       </c>
+      <c r="BJ135" s="5">
+        <v>-1.1034179579887</v>
+      </c>
     </row>
-    <row r="136" spans="2:61" s="5" customFormat="1">
+    <row r="136" spans="2:62" s="5" customFormat="1">
       <c r="B136" s="5">
         <v>1982.5</v>
       </c>
@@ -18969,8 +19245,11 @@
       <c r="BI136" s="5">
         <v>232393</v>
       </c>
+      <c r="BJ136" s="5">
+        <v>2.4238716148289337</v>
+      </c>
     </row>
-    <row r="137" spans="2:61" s="5" customFormat="1">
+    <row r="137" spans="2:62" s="5" customFormat="1">
       <c r="B137" s="5">
         <v>1982.75</v>
       </c>
@@ -19148,8 +19427,11 @@
       <c r="BI137" s="5">
         <v>232989.66666666666</v>
       </c>
+      <c r="BJ137" s="5">
+        <v>0.567904873232145</v>
+      </c>
     </row>
-    <row r="138" spans="2:61" s="5" customFormat="1">
+    <row r="138" spans="2:62" s="5" customFormat="1">
       <c r="B138" s="5">
         <v>1983</v>
       </c>
@@ -19327,8 +19609,11 @@
       <c r="BI138" s="5">
         <v>233469.33333333334</v>
       </c>
+      <c r="BJ138" s="5">
+        <v>-1.1944733442745086</v>
+      </c>
     </row>
-    <row r="139" spans="2:61" s="5" customFormat="1">
+    <row r="139" spans="2:62" s="5" customFormat="1">
       <c r="B139" s="5">
         <v>1983.25</v>
       </c>
@@ -19506,8 +19791,11 @@
       <c r="BI139" s="5">
         <v>233940.33333333334</v>
       </c>
+      <c r="BJ139" s="5">
+        <v>1.1915027561518516</v>
+      </c>
     </row>
-    <row r="140" spans="2:61" s="5" customFormat="1">
+    <row r="140" spans="2:62" s="5" customFormat="1">
       <c r="B140" s="5">
         <v>1983.5</v>
       </c>
@@ -19685,8 +19973,11 @@
       <c r="BI140" s="5">
         <v>234503</v>
       </c>
+      <c r="BJ140" s="5">
+        <v>-0.21117945629191109</v>
+      </c>
     </row>
-    <row r="141" spans="2:61" s="5" customFormat="1">
+    <row r="141" spans="2:62" s="5" customFormat="1">
       <c r="B141" s="5">
         <v>1983.75</v>
       </c>
@@ -19864,8 +20155,11 @@
       <c r="BI141" s="5">
         <v>235073.33333333334</v>
       </c>
+      <c r="BJ141" s="5">
+        <v>0.91367000367353568</v>
+      </c>
     </row>
-    <row r="142" spans="2:61" s="5" customFormat="1">
+    <row r="142" spans="2:62" s="5" customFormat="1">
       <c r="B142" s="5">
         <v>1984</v>
       </c>
@@ -20043,8 +20337,11 @@
       <c r="BI142" s="5">
         <v>235529</v>
       </c>
+      <c r="BJ142" s="5">
+        <v>-0.28351565872687429</v>
+      </c>
     </row>
-    <row r="143" spans="2:61" s="5" customFormat="1">
+    <row r="143" spans="2:62" s="5" customFormat="1">
       <c r="B143" s="5">
         <v>1984.25</v>
       </c>
@@ -20222,8 +20519,11 @@
       <c r="BI143" s="5">
         <v>235997.33333333334</v>
       </c>
+      <c r="BJ143" s="5">
+        <v>-0.32890105947430143</v>
+      </c>
     </row>
-    <row r="144" spans="2:61" s="5" customFormat="1">
+    <row r="144" spans="2:62" s="5" customFormat="1">
       <c r="B144" s="5">
         <v>1984.5</v>
       </c>
@@ -20401,8 +20701,11 @@
       <c r="BI144" s="5">
         <v>236552.33333333334</v>
       </c>
+      <c r="BJ144" s="5">
+        <v>-0.21892478745542024</v>
+      </c>
     </row>
-    <row r="145" spans="2:61" s="5" customFormat="1">
+    <row r="145" spans="2:62" s="5" customFormat="1">
       <c r="B145" s="5">
         <v>1984.75</v>
       </c>
@@ -20580,8 +20883,11 @@
       <c r="BI145" s="5">
         <v>237150.33333333334</v>
       </c>
+      <c r="BJ145" s="5">
+        <v>0.91920152522747278</v>
+      </c>
     </row>
-    <row r="146" spans="2:61" s="5" customFormat="1">
+    <row r="146" spans="2:62" s="5" customFormat="1">
       <c r="B146" s="5">
         <v>1985</v>
       </c>
@@ -20759,8 +21065,11 @@
       <c r="BI146" s="5">
         <v>237600.66666666666</v>
       </c>
+      <c r="BJ146" s="5">
+        <v>0.34172478323639566</v>
+      </c>
     </row>
-    <row r="147" spans="2:61" s="5" customFormat="1">
+    <row r="147" spans="2:62" s="5" customFormat="1">
       <c r="B147" s="5">
         <v>1985.25</v>
       </c>
@@ -20938,8 +21247,11 @@
       <c r="BI147" s="5">
         <v>238081.33333333334</v>
       </c>
+      <c r="BJ147" s="5">
+        <v>0.16542903196494202</v>
+      </c>
     </row>
-    <row r="148" spans="2:61" s="5" customFormat="1">
+    <row r="148" spans="2:62" s="5" customFormat="1">
       <c r="B148" s="5">
         <v>1985.5</v>
       </c>
@@ -21117,8 +21429,11 @@
       <c r="BI148" s="5">
         <v>238681</v>
       </c>
+      <c r="BJ148" s="5">
+        <v>-0.40062104799300202</v>
+      </c>
     </row>
-    <row r="149" spans="2:61" s="5" customFormat="1">
+    <row r="149" spans="2:62" s="5" customFormat="1">
       <c r="B149" s="5">
         <v>1985.75</v>
       </c>
@@ -21296,8 +21611,11 @@
       <c r="BI149" s="5">
         <v>239299</v>
       </c>
+      <c r="BJ149" s="5">
+        <v>0.74926423047502855</v>
+      </c>
     </row>
-    <row r="150" spans="2:61" s="5" customFormat="1">
+    <row r="150" spans="2:62" s="5" customFormat="1">
       <c r="B150" s="5">
         <v>1986</v>
       </c>
@@ -21477,8 +21795,11 @@
       <c r="BI150" s="5">
         <v>239784.66666666666</v>
       </c>
+      <c r="BJ150" s="5">
+        <v>0.12053170727172968</v>
+      </c>
     </row>
-    <row r="151" spans="2:61" s="5" customFormat="1">
+    <row r="151" spans="2:62" s="5" customFormat="1">
       <c r="B151" s="5">
         <v>1986.25</v>
       </c>
@@ -21658,8 +21979,11 @@
       <c r="BI151" s="5">
         <v>240274.66666666666</v>
       </c>
+      <c r="BJ151" s="5">
+        <v>0.81373264995085748</v>
+      </c>
     </row>
-    <row r="152" spans="2:61" s="5" customFormat="1">
+    <row r="152" spans="2:62" s="5" customFormat="1">
       <c r="B152" s="5">
         <v>1986.5</v>
       </c>
@@ -21839,8 +22163,11 @@
       <c r="BI152" s="5">
         <v>240857.66666666666</v>
       </c>
+      <c r="BJ152" s="5">
+        <v>-0.30721244070305004</v>
+      </c>
     </row>
-    <row r="153" spans="2:61" s="5" customFormat="1">
+    <row r="153" spans="2:62" s="5" customFormat="1">
       <c r="B153" s="5">
         <v>1986.75</v>
       </c>
@@ -22020,8 +22347,11 @@
       <c r="BI153" s="5">
         <v>241453.66666666666</v>
       </c>
+      <c r="BJ153" s="5">
+        <v>-1.1656474689589211</v>
+      </c>
     </row>
-    <row r="154" spans="2:61" s="5" customFormat="1">
+    <row r="154" spans="2:62" s="5" customFormat="1">
       <c r="B154" s="5">
         <v>1987</v>
       </c>
@@ -22201,8 +22531,11 @@
       <c r="BI154" s="5">
         <v>241931</v>
       </c>
+      <c r="BJ154" s="5">
+        <v>1.7687032395636987E-3</v>
+      </c>
     </row>
-    <row r="155" spans="2:61" s="5" customFormat="1">
+    <row r="155" spans="2:62" s="5" customFormat="1">
       <c r="B155" s="5">
         <v>1987.25</v>
       </c>
@@ -22382,8 +22715,11 @@
       <c r="BI155" s="5">
         <v>242427.66666666666</v>
       </c>
+      <c r="BJ155" s="5">
+        <v>0.3514757937034847</v>
+      </c>
     </row>
-    <row r="156" spans="2:61" s="5" customFormat="1">
+    <row r="156" spans="2:62" s="5" customFormat="1">
       <c r="B156" s="5">
         <v>1987.5</v>
       </c>
@@ -22563,8 +22899,11 @@
       <c r="BI156" s="5">
         <v>243013</v>
       </c>
+      <c r="BJ156" s="5">
+        <v>0.28423303141966538</v>
+      </c>
     </row>
-    <row r="157" spans="2:61" s="5" customFormat="1">
+    <row r="157" spans="2:62" s="5" customFormat="1">
       <c r="B157" s="5">
         <v>1987.75</v>
       </c>
@@ -22744,8 +23083,11 @@
       <c r="BI157" s="5">
         <v>243631.33333333334</v>
       </c>
+      <c r="BJ157" s="5">
+        <v>-3.2709786979047335</v>
+      </c>
     </row>
-    <row r="158" spans="2:61" s="5" customFormat="1">
+    <row r="158" spans="2:62" s="5" customFormat="1">
       <c r="B158" s="5">
         <v>1988</v>
       </c>
@@ -22925,8 +23267,11 @@
       <c r="BI158" s="5">
         <v>244130.33333333334</v>
       </c>
+      <c r="BJ158" s="5">
+        <v>2.2618152952896837</v>
+      </c>
     </row>
-    <row r="159" spans="2:61" s="5" customFormat="1">
+    <row r="159" spans="2:62" s="5" customFormat="1">
       <c r="B159" s="5">
         <v>1988.25</v>
       </c>
@@ -23106,8 +23451,11 @@
       <c r="BI159" s="5">
         <v>244620.33333333334</v>
       </c>
+      <c r="BJ159" s="5">
+        <v>-1.2485259384360714</v>
+      </c>
     </row>
-    <row r="160" spans="2:61" s="5" customFormat="1">
+    <row r="160" spans="2:62" s="5" customFormat="1">
       <c r="B160" s="5">
         <v>1988.5</v>
       </c>
@@ -23287,8 +23635,11 @@
       <c r="BI160" s="5">
         <v>245241.66666666666</v>
       </c>
+      <c r="BJ160" s="5">
+        <v>0.85447427158424205</v>
+      </c>
     </row>
-    <row r="161" spans="2:61" s="5" customFormat="1">
+    <row r="161" spans="2:62" s="5" customFormat="1">
       <c r="B161" s="5">
         <v>1988.75</v>
       </c>
@@ -23468,8 +23819,11 @@
       <c r="BI161" s="5">
         <v>245877.66666666666</v>
       </c>
+      <c r="BJ161" s="5">
+        <v>-0.42037296780382333</v>
+      </c>
     </row>
-    <row r="162" spans="2:61" s="5" customFormat="1">
+    <row r="162" spans="2:62" s="5" customFormat="1">
       <c r="B162" s="5">
         <v>1989</v>
       </c>
@@ -23649,8 +24003,11 @@
       <c r="BI162" s="5">
         <v>246377.33333333334</v>
       </c>
+      <c r="BJ162" s="5">
+        <v>-0.69178422773163806</v>
+      </c>
     </row>
-    <row r="163" spans="2:61" s="5" customFormat="1">
+    <row r="163" spans="2:62" s="5" customFormat="1">
       <c r="B163" s="5">
         <v>1989.25</v>
       </c>
@@ -23830,8 +24187,11 @@
       <c r="BI163" s="5">
         <v>246913.66666666666</v>
       </c>
+      <c r="BJ163" s="5">
+        <v>-1.0199095706878334</v>
+      </c>
     </row>
-    <row r="164" spans="2:61" s="5" customFormat="1">
+    <row r="164" spans="2:62" s="5" customFormat="1">
       <c r="B164" s="5">
         <v>1989.5</v>
       </c>
@@ -24011,8 +24371,11 @@
       <c r="BI164" s="5">
         <v>247577</v>
       </c>
+      <c r="BJ164" s="5">
+        <v>0.24183771237822532</v>
+      </c>
     </row>
-    <row r="165" spans="2:61" s="5" customFormat="1">
+    <row r="165" spans="2:62" s="5" customFormat="1">
       <c r="B165" s="5">
         <v>1989.75</v>
       </c>
@@ -24192,8 +24555,11 @@
       <c r="BI165" s="5">
         <v>248275.66666666666</v>
       </c>
+      <c r="BJ165" s="5">
+        <v>0.34787890661935611</v>
+      </c>
     </row>
-    <row r="166" spans="2:61" s="5" customFormat="1">
+    <row r="166" spans="2:62" s="5" customFormat="1">
       <c r="B166" s="5">
         <v>1990</v>
       </c>
@@ -24375,8 +24741,11 @@
       <c r="BI166" s="5">
         <v>248832.66666666666</v>
       </c>
+      <c r="BJ166" s="5">
+        <v>-1.3496184956234738</v>
+      </c>
     </row>
-    <row r="167" spans="2:61" s="5" customFormat="1">
+    <row r="167" spans="2:62" s="5" customFormat="1">
       <c r="B167" s="5">
         <v>1990.25</v>
       </c>
@@ -24558,8 +24927,11 @@
       <c r="BI167" s="5">
         <v>249573.33333333334</v>
       </c>
+      <c r="BJ167" s="5">
+        <v>0.19603304285078071</v>
+      </c>
     </row>
-    <row r="168" spans="2:61" s="5" customFormat="1">
+    <row r="168" spans="2:62" s="5" customFormat="1">
       <c r="B168" s="5">
         <v>1990.5</v>
       </c>
@@ -24741,8 +25113,11 @@
       <c r="BI168" s="5">
         <v>250440.66666666666</v>
       </c>
+      <c r="BJ168" s="5">
+        <v>-1.8263070468672131</v>
+      </c>
     </row>
-    <row r="169" spans="2:61" s="5" customFormat="1">
+    <row r="169" spans="2:62" s="5" customFormat="1">
       <c r="B169" s="5">
         <v>1990.75</v>
       </c>
@@ -24924,8 +25299,11 @@
       <c r="BI169" s="5">
         <v>251343</v>
       </c>
+      <c r="BJ169" s="5">
+        <v>-1.5241561972788626</v>
+      </c>
     </row>
-    <row r="170" spans="2:61" s="5" customFormat="1">
+    <row r="170" spans="2:62" s="5" customFormat="1">
       <c r="B170" s="5">
         <v>1991</v>
       </c>
@@ -25107,8 +25485,11 @@
       <c r="BI170" s="5">
         <v>252132</v>
       </c>
+      <c r="BJ170" s="5">
+        <v>1.2335047258616973</v>
+      </c>
     </row>
-    <row r="171" spans="2:61" s="5" customFormat="1">
+    <row r="171" spans="2:62" s="5" customFormat="1">
       <c r="B171" s="5">
         <v>1991.25</v>
       </c>
@@ -25290,8 +25671,11 @@
       <c r="BI171" s="5">
         <v>252921</v>
       </c>
+      <c r="BJ171" s="5">
+        <v>-0.72472465086146665</v>
+      </c>
     </row>
-    <row r="172" spans="2:61" s="5" customFormat="1">
+    <row r="172" spans="2:62" s="5" customFormat="1">
       <c r="B172" s="5">
         <v>1991.5</v>
       </c>
@@ -25473,8 +25857,11 @@
       <c r="BI172" s="5">
         <v>253808.66666666666</v>
       </c>
+      <c r="BJ172" s="5">
+        <v>-0.44930879559356895</v>
+      </c>
     </row>
-    <row r="173" spans="2:61" s="5" customFormat="1">
+    <row r="173" spans="2:62" s="5" customFormat="1">
       <c r="B173" s="5">
         <v>1991.75</v>
       </c>
@@ -25656,8 +26043,11 @@
       <c r="BI173" s="5">
         <v>254705.66666666666</v>
       </c>
+      <c r="BJ173" s="5">
+        <v>3.6424497268885692E-2</v>
+      </c>
     </row>
-    <row r="174" spans="2:61" s="5" customFormat="1">
+    <row r="174" spans="2:62" s="5" customFormat="1">
       <c r="B174" s="5">
         <v>1992</v>
       </c>
@@ -25839,8 +26229,11 @@
       <c r="BI174" s="5">
         <v>255455</v>
       </c>
+      <c r="BJ174" s="5">
+        <v>-0.73845899788021918</v>
+      </c>
     </row>
-    <row r="175" spans="2:61" s="5" customFormat="1">
+    <row r="175" spans="2:62" s="5" customFormat="1">
       <c r="B175" s="5">
         <v>1992.25</v>
       </c>
@@ -26022,8 +26415,11 @@
       <c r="BI175" s="5">
         <v>256288.66666666666</v>
       </c>
+      <c r="BJ175" s="5">
+        <v>-0.73368194416615484</v>
+      </c>
     </row>
-    <row r="176" spans="2:61" s="5" customFormat="1">
+    <row r="176" spans="2:62" s="5" customFormat="1">
       <c r="B176" s="5">
         <v>1992.5</v>
       </c>
@@ -26205,8 +26601,11 @@
       <c r="BI176" s="5">
         <v>257224.66666666666</v>
       </c>
+      <c r="BJ176" s="5">
+        <v>-0.74316377383236376</v>
+      </c>
     </row>
-    <row r="177" spans="2:61" s="5" customFormat="1">
+    <row r="177" spans="2:62" s="5" customFormat="1">
       <c r="B177" s="5">
         <v>1992.75</v>
       </c>
@@ -26388,8 +26787,11 @@
       <c r="BI177" s="5">
         <v>258140.33333333334</v>
       </c>
+      <c r="BJ177" s="5">
+        <v>0.18190710425034598</v>
+      </c>
     </row>
-    <row r="178" spans="2:61" s="5" customFormat="1">
+    <row r="178" spans="2:62" s="5" customFormat="1">
       <c r="B178" s="5">
         <v>1993</v>
       </c>
@@ -26571,8 +26973,11 @@
       <c r="BI178" s="5">
         <v>258916.66666666666</v>
       </c>
+      <c r="BJ178" s="5">
+        <v>7.6639182021132526E-2</v>
+      </c>
     </row>
-    <row r="179" spans="2:61" s="5" customFormat="1">
+    <row r="179" spans="2:62" s="5" customFormat="1">
       <c r="B179" s="5">
         <v>1993.25</v>
       </c>
@@ -26754,8 +27159,11 @@
       <c r="BI179" s="5">
         <v>259685.66666666666</v>
       </c>
+      <c r="BJ179" s="5">
+        <v>0.92620666114400774</v>
+      </c>
     </row>
-    <row r="180" spans="2:61" s="5" customFormat="1">
+    <row r="180" spans="2:62" s="5" customFormat="1">
       <c r="B180" s="5">
         <v>1993.5</v>
       </c>
@@ -26937,8 +27345,11 @@
       <c r="BI180" s="5">
         <v>260562.66666666666</v>
       </c>
+      <c r="BJ180" s="5">
+        <v>0.312354556604094</v>
+      </c>
     </row>
-    <row r="181" spans="2:61" s="5" customFormat="1">
+    <row r="181" spans="2:62" s="5" customFormat="1">
       <c r="B181" s="5">
         <v>1993.75</v>
       </c>
@@ -27120,8 +27531,11 @@
       <c r="BI181" s="5">
         <v>261420.66666666666</v>
       </c>
+      <c r="BJ181" s="5">
+        <v>-0.36971918642198226</v>
+      </c>
     </row>
-    <row r="182" spans="2:61" s="5" customFormat="1">
+    <row r="182" spans="2:62" s="5" customFormat="1">
       <c r="B182" s="5">
         <v>1994</v>
       </c>
@@ -27303,8 +27717,11 @@
       <c r="BI182" s="5">
         <v>262131.33333333334</v>
       </c>
+      <c r="BJ182" s="5">
+        <v>0.92236320330114063</v>
+      </c>
     </row>
-    <row r="183" spans="2:61" s="5" customFormat="1">
+    <row r="183" spans="2:62" s="5" customFormat="1">
       <c r="B183" s="5">
         <v>1994.25</v>
       </c>
@@ -27486,8 +27903,11 @@
       <c r="BI183" s="5">
         <v>262886.66666666669</v>
       </c>
+      <c r="BJ183" s="5">
+        <v>-0.93247871883086475</v>
+      </c>
     </row>
-    <row r="184" spans="2:61" s="5" customFormat="1">
+    <row r="184" spans="2:62" s="5" customFormat="1">
       <c r="B184" s="5">
         <v>1994.5</v>
       </c>
@@ -27669,8 +28089,11 @@
       <c r="BI184" s="5">
         <v>263725.66666666669</v>
       </c>
+      <c r="BJ184" s="5">
+        <v>0.48459398910188323</v>
+      </c>
     </row>
-    <row r="185" spans="2:61" s="5" customFormat="1">
+    <row r="185" spans="2:62" s="5" customFormat="1">
       <c r="B185" s="5">
         <v>1994.75</v>
       </c>
@@ -27852,8 +28275,11 @@
       <c r="BI185" s="5">
         <v>264554.66666666669</v>
       </c>
+      <c r="BJ185" s="5">
+        <v>0.14063224387775503</v>
+      </c>
     </row>
-    <row r="186" spans="2:61" s="5" customFormat="1">
+    <row r="186" spans="2:62" s="5" customFormat="1">
       <c r="B186" s="5">
         <v>1995</v>
       </c>
@@ -28035,8 +28461,11 @@
       <c r="BI186" s="5">
         <v>265269.66666666669</v>
       </c>
+      <c r="BJ186" s="5">
+        <v>0.31161719291288414</v>
+      </c>
     </row>
-    <row r="187" spans="2:61" s="5" customFormat="1">
+    <row r="187" spans="2:62" s="5" customFormat="1">
       <c r="B187" s="5">
         <v>1995.25</v>
       </c>
@@ -28218,8 +28647,11 @@
       <c r="BI187" s="5">
         <v>266007.66666666669</v>
       </c>
+      <c r="BJ187" s="5">
+        <v>0.96273189313448082</v>
+      </c>
     </row>
-    <row r="188" spans="2:61" s="5" customFormat="1">
+    <row r="188" spans="2:62" s="5" customFormat="1">
       <c r="B188" s="5">
         <v>1995.5</v>
       </c>
@@ -28401,8 +28833,11 @@
       <c r="BI188" s="5">
         <v>266850.66666666669</v>
       </c>
+      <c r="BJ188" s="5">
+        <v>-0.8578301452664403</v>
+      </c>
     </row>
-    <row r="189" spans="2:61" s="5" customFormat="1">
+    <row r="189" spans="2:62" s="5" customFormat="1">
       <c r="B189" s="5">
         <v>1995.75</v>
       </c>
@@ -28584,8 +29019,11 @@
       <c r="BI189" s="5">
         <v>267704.66666666669</v>
       </c>
+      <c r="BJ189" s="5">
+        <v>0.84886772276594713</v>
+      </c>
     </row>
-    <row r="190" spans="2:61" s="5" customFormat="1">
+    <row r="190" spans="2:62" s="5" customFormat="1">
       <c r="B190" s="5">
         <v>1996</v>
       </c>
@@ -28767,8 +29205,11 @@
       <c r="BI190" s="5">
         <v>268370</v>
       </c>
+      <c r="BJ190" s="5">
+        <v>1.4359382113885837</v>
+      </c>
     </row>
-    <row r="191" spans="2:61" s="5" customFormat="1">
+    <row r="191" spans="2:62" s="5" customFormat="1">
       <c r="B191" s="5">
         <v>1996.25</v>
       </c>
@@ -28950,8 +29391,11 @@
       <c r="BI191" s="5">
         <v>269115.66666666669</v>
       </c>
+      <c r="BJ191" s="5">
+        <v>-0.95174536009696586</v>
+      </c>
     </row>
-    <row r="192" spans="2:61" s="5" customFormat="1">
+    <row r="192" spans="2:62" s="5" customFormat="1">
       <c r="B192" s="5">
         <v>1996.5</v>
       </c>
@@ -29133,8 +29577,11 @@
       <c r="BI192" s="5">
         <v>269975.66666666669</v>
       </c>
+      <c r="BJ192" s="5">
+        <v>3.1927144438610361E-2</v>
+      </c>
     </row>
-    <row r="193" spans="2:61" s="5" customFormat="1">
+    <row r="193" spans="2:62" s="5" customFormat="1">
       <c r="B193" s="5">
         <v>1996.75</v>
       </c>
@@ -29316,8 +29763,11 @@
       <c r="BI193" s="5">
         <v>270861.33333333331</v>
       </c>
+      <c r="BJ193" s="5">
+        <v>-0.16990347005782611</v>
+      </c>
     </row>
-    <row r="194" spans="2:61" s="5" customFormat="1">
+    <row r="194" spans="2:62" s="5" customFormat="1">
       <c r="B194" s="5">
         <v>1997</v>
       </c>
@@ -29499,8 +29949,11 @@
       <c r="BI194" s="5">
         <v>271588.66666666669</v>
       </c>
+      <c r="BJ194" s="5">
+        <v>0.28745033486153937</v>
+      </c>
     </row>
-    <row r="195" spans="2:61" s="5" customFormat="1">
+    <row r="195" spans="2:62" s="5" customFormat="1">
       <c r="B195" s="5">
         <v>1997.25</v>
       </c>
@@ -29682,8 +30135,11 @@
       <c r="BI195" s="5">
         <v>272349</v>
       </c>
+      <c r="BJ195" s="5">
+        <v>-0.28044375169786961</v>
+      </c>
     </row>
-    <row r="196" spans="2:61" s="5" customFormat="1">
+    <row r="196" spans="2:62" s="5" customFormat="1">
       <c r="B196" s="5">
         <v>1997.5</v>
       </c>
@@ -29865,8 +30321,11 @@
       <c r="BI196" s="5">
         <v>273234</v>
       </c>
+      <c r="BJ196" s="5">
+        <v>1.2403852513674416</v>
+      </c>
     </row>
-    <row r="197" spans="2:61" s="5" customFormat="1">
+    <row r="197" spans="2:62" s="5" customFormat="1">
       <c r="B197" s="5">
         <v>1997.75</v>
       </c>
@@ -30048,8 +30507,11 @@
       <c r="BI197" s="5">
         <v>274116.66666666669</v>
       </c>
+      <c r="BJ197" s="5">
+        <v>-0.21648807811035534</v>
+      </c>
     </row>
-    <row r="198" spans="2:61" s="5" customFormat="1">
+    <row r="198" spans="2:62" s="5" customFormat="1">
       <c r="B198" s="5">
         <v>1998</v>
       </c>
@@ -30231,8 +30693,11 @@
       <c r="BI198" s="5">
         <v>274837</v>
       </c>
+      <c r="BJ198" s="5">
+        <v>1.4836851603724148</v>
+      </c>
     </row>
-    <row r="199" spans="2:61" s="5" customFormat="1">
+    <row r="199" spans="2:62" s="5" customFormat="1">
       <c r="B199" s="5">
         <v>1998.25</v>
       </c>
@@ -30414,8 +30879,11 @@
       <c r="BI199" s="5">
         <v>275568</v>
       </c>
+      <c r="BJ199" s="5">
+        <v>0.94287385898046483</v>
+      </c>
     </row>
-    <row r="200" spans="2:61" s="5" customFormat="1">
+    <row r="200" spans="2:62" s="5" customFormat="1">
       <c r="B200" s="5">
         <v>1998.5</v>
       </c>
@@ -30597,8 +31065,11 @@
       <c r="BI200" s="5">
         <v>276415.66666666669</v>
       </c>
+      <c r="BJ200" s="5">
+        <v>-0.14252559952605592</v>
+      </c>
     </row>
-    <row r="201" spans="2:61" s="5" customFormat="1">
+    <row r="201" spans="2:62" s="5" customFormat="1">
       <c r="B201" s="5">
         <v>1998.75</v>
       </c>
@@ -30780,8 +31251,11 @@
       <c r="BI201" s="5">
         <v>277268.66666666669</v>
       </c>
+      <c r="BJ201" s="5">
+        <v>0.61426536727205328</v>
+      </c>
     </row>
-    <row r="202" spans="2:61" s="5" customFormat="1">
+    <row r="202" spans="2:62" s="5" customFormat="1">
       <c r="B202" s="5">
         <v>1999</v>
       </c>
@@ -30963,8 +31437,11 @@
       <c r="BI202" s="5">
         <v>277993.33333333331</v>
       </c>
+      <c r="BJ202" s="5">
+        <v>0.84309013957548273</v>
+      </c>
     </row>
-    <row r="203" spans="2:61" s="5" customFormat="1">
+    <row r="203" spans="2:62" s="5" customFormat="1">
       <c r="B203" s="5">
         <v>1999.25</v>
       </c>
@@ -31146,8 +31623,11 @@
       <c r="BI203" s="5">
         <v>278723</v>
       </c>
+      <c r="BJ203" s="5">
+        <v>0.90577948670457487</v>
+      </c>
     </row>
-    <row r="204" spans="2:61" s="5" customFormat="1">
+    <row r="204" spans="2:62" s="5" customFormat="1">
       <c r="B204" s="5">
         <v>1999.5</v>
       </c>
@@ -31329,8 +31809,11 @@
       <c r="BI204" s="5">
         <v>279600</v>
       </c>
+      <c r="BJ204" s="5">
+        <v>-0.72854383058207239</v>
+      </c>
     </row>
-    <row r="205" spans="2:61" s="5" customFormat="1">
+    <row r="205" spans="2:62" s="5" customFormat="1">
       <c r="B205" s="5">
         <v>1999.75</v>
       </c>
@@ -31512,8 +31995,11 @@
       <c r="BI205" s="5">
         <v>280463.33333333331</v>
       </c>
+      <c r="BJ205" s="5">
+        <v>0.16084504094770527</v>
+      </c>
     </row>
-    <row r="206" spans="2:61" s="5" customFormat="1">
+    <row r="206" spans="2:62" s="5" customFormat="1">
       <c r="B206" s="5">
         <v>2000</v>
       </c>
@@ -31695,8 +32181,11 @@
       <c r="BI206" s="5">
         <v>281191.66666666669</v>
       </c>
+      <c r="BJ206" s="5">
+        <v>1.0460116071022079</v>
+      </c>
     </row>
-    <row r="207" spans="2:61" s="5" customFormat="1">
+    <row r="207" spans="2:62" s="5" customFormat="1">
       <c r="B207" s="5">
         <v>2000.25</v>
       </c>
@@ -31878,8 +32367,11 @@
       <c r="BI207" s="5">
         <v>281885.33333333331</v>
       </c>
+      <c r="BJ207" s="5">
+        <v>-0.33163609638803099</v>
+      </c>
     </row>
-    <row r="208" spans="2:61" s="5" customFormat="1">
+    <row r="208" spans="2:62" s="5" customFormat="1">
       <c r="B208" s="5">
         <v>2000.5</v>
       </c>
@@ -32061,8 +32553,11 @@
       <c r="BI208" s="5">
         <v>282656.66666666669</v>
       </c>
+      <c r="BJ208" s="5">
+        <v>1.2559313919169601</v>
+      </c>
     </row>
-    <row r="209" spans="2:61" s="5" customFormat="1">
+    <row r="209" spans="2:62" s="5" customFormat="1">
       <c r="B209" s="5">
         <v>2000.75</v>
       </c>
@@ -32244,8 +32739,11 @@
       <c r="BI209" s="5">
         <v>283450</v>
       </c>
+      <c r="BJ209" s="5">
+        <v>-0.41579112645012323</v>
+      </c>
     </row>
-    <row r="210" spans="2:61" s="5" customFormat="1">
+    <row r="210" spans="2:62" s="5" customFormat="1">
       <c r="B210" s="5">
         <v>2001</v>
       </c>
@@ -32427,8 +32925,11 @@
       <c r="BI210" s="5">
         <v>284135.66666666669</v>
       </c>
+      <c r="BJ210" s="5">
+        <v>-1.1384550240317992</v>
+      </c>
     </row>
-    <row r="211" spans="2:61" s="5" customFormat="1">
+    <row r="211" spans="2:62" s="5" customFormat="1">
       <c r="B211" s="5">
         <v>2001.25</v>
       </c>
@@ -32610,8 +33111,11 @@
       <c r="BI211" s="5">
         <v>284817.66666666669</v>
       </c>
+      <c r="BJ211" s="5">
+        <v>-0.32266807682579757</v>
+      </c>
     </row>
-    <row r="212" spans="2:61" s="5" customFormat="1">
+    <row r="212" spans="2:62" s="5" customFormat="1">
       <c r="B212" s="5">
         <v>2001.5</v>
       </c>
@@ -32793,8 +33297,11 @@
       <c r="BI212" s="5">
         <v>285574</v>
       </c>
+      <c r="BJ212" s="5">
+        <v>1.3392736784193853</v>
+      </c>
     </row>
-    <row r="213" spans="2:61" s="5" customFormat="1">
+    <row r="213" spans="2:62" s="5" customFormat="1">
       <c r="B213" s="5">
         <v>2001.75</v>
       </c>
@@ -32976,8 +33483,11 @@
       <c r="BI213" s="5">
         <v>286336.33333333331</v>
       </c>
+      <c r="BJ213" s="5">
+        <v>0.71798715729442608</v>
+      </c>
     </row>
-    <row r="214" spans="2:61" s="5" customFormat="1">
+    <row r="214" spans="2:62" s="5" customFormat="1">
       <c r="B214" s="5">
         <v>2002</v>
       </c>
@@ -33159,8 +33669,11 @@
       <c r="BI214" s="5">
         <v>286990.66666666669</v>
       </c>
+      <c r="BJ214" s="5">
+        <v>-1.5422091995498892</v>
+      </c>
     </row>
-    <row r="215" spans="2:61" s="5" customFormat="1">
+    <row r="215" spans="2:62" s="5" customFormat="1">
       <c r="B215" s="5">
         <v>2002.25</v>
       </c>
@@ -33342,8 +33855,11 @@
       <c r="BI215" s="5">
         <v>287628</v>
       </c>
+      <c r="BJ215" s="5">
+        <v>-1.5789544591951095</v>
+      </c>
     </row>
-    <row r="216" spans="2:61" s="5" customFormat="1">
+    <row r="216" spans="2:62" s="5" customFormat="1">
       <c r="B216" s="5">
         <v>2002.5</v>
       </c>
@@ -33525,8 +34041,11 @@
       <c r="BI216" s="5">
         <v>288361</v>
       </c>
+      <c r="BJ216" s="5">
+        <v>-0.80047023112522808</v>
+      </c>
     </row>
-    <row r="217" spans="2:61" s="5" customFormat="1">
+    <row r="217" spans="2:62" s="5" customFormat="1">
       <c r="B217" s="5">
         <v>2002.75</v>
       </c>
@@ -33708,8 +34227,11 @@
       <c r="BI217" s="5">
         <v>289096.33333333331</v>
       </c>
+      <c r="BJ217" s="5">
+        <v>1.8528330602082972</v>
+      </c>
     </row>
-    <row r="218" spans="2:61" s="5" customFormat="1">
+    <row r="218" spans="2:62" s="5" customFormat="1">
       <c r="B218" s="5">
         <v>2003</v>
       </c>
@@ -33891,8 +34413,11 @@
       <c r="BI218" s="5">
         <v>289714.33333333331</v>
       </c>
+      <c r="BJ218" s="5">
+        <v>-0.54315443142572672</v>
+      </c>
     </row>
-    <row r="219" spans="2:61" s="5" customFormat="1">
+    <row r="219" spans="2:62" s="5" customFormat="1">
       <c r="B219" s="5">
         <v>2003.25</v>
       </c>
@@ -34074,8 +34599,11 @@
       <c r="BI219" s="5">
         <v>290351.66666666669</v>
       </c>
+      <c r="BJ219" s="5">
+        <v>2.1719733827314802</v>
+      </c>
     </row>
-    <row r="220" spans="2:61" s="5" customFormat="1">
+    <row r="220" spans="2:62" s="5" customFormat="1">
       <c r="B220" s="5">
         <v>2003.5</v>
       </c>
@@ -34257,8 +34785,11 @@
       <c r="BI220" s="5">
         <v>291071</v>
       </c>
+      <c r="BJ220" s="5">
+        <v>0.19727166714554464</v>
+      </c>
     </row>
-    <row r="221" spans="2:61" s="5" customFormat="1">
+    <row r="221" spans="2:62" s="5" customFormat="1">
       <c r="B221" s="5">
         <v>2003.75</v>
       </c>
@@ -34440,8 +34971,11 @@
       <c r="BI221" s="5">
         <v>291796.33333333331</v>
       </c>
+      <c r="BJ221" s="5">
+        <v>-0.57888530690222861</v>
+      </c>
     </row>
-    <row r="222" spans="2:61" s="5" customFormat="1">
+    <row r="222" spans="2:62" s="5" customFormat="1">
       <c r="B222" s="5">
         <v>2004</v>
       </c>
@@ -34623,8 +35157,11 @@
       <c r="BI222" s="5">
         <v>292373.66666666669</v>
       </c>
+      <c r="BJ222" s="5">
+        <v>0.31948986608639685</v>
+      </c>
     </row>
-    <row r="223" spans="2:61" s="5" customFormat="1">
+    <row r="223" spans="2:62" s="5" customFormat="1">
       <c r="B223" s="5">
         <v>2004.25</v>
       </c>
@@ -34806,8 +35343,11 @@
       <c r="BI223" s="5">
         <v>292999.66666666669</v>
       </c>
+      <c r="BJ223" s="5">
+        <v>0.93107052430315451</v>
+      </c>
     </row>
-    <row r="224" spans="2:61" s="5" customFormat="1">
+    <row r="224" spans="2:62" s="5" customFormat="1">
       <c r="B224" s="5">
         <v>2004.5</v>
       </c>
@@ -34989,8 +35529,11 @@
       <c r="BI224" s="5">
         <v>293717.66666666669</v>
       </c>
+      <c r="BJ224" s="5">
+        <v>0.81255432441198483</v>
+      </c>
     </row>
-    <row r="225" spans="2:61" s="5" customFormat="1">
+    <row r="225" spans="2:62" s="5" customFormat="1">
       <c r="B225" s="5">
         <v>2004.75</v>
       </c>
@@ -35172,8 +35715,11 @@
       <c r="BI225" s="5">
         <v>294463.33333333331</v>
       </c>
+      <c r="BJ225" s="5">
+        <v>0.24521538666287182</v>
+      </c>
     </row>
-    <row r="226" spans="2:61" s="5" customFormat="1">
+    <row r="226" spans="2:62" s="5" customFormat="1">
       <c r="B226" s="5">
         <v>2005</v>
       </c>
@@ -35355,8 +35901,11 @@
       <c r="BI226" s="5">
         <v>295102</v>
       </c>
+      <c r="BJ226" s="5">
+        <v>-0.8364855876510966</v>
+      </c>
     </row>
-    <row r="227" spans="2:61" s="5" customFormat="1">
+    <row r="227" spans="2:62" s="5" customFormat="1">
       <c r="B227" s="5">
         <v>2005.25</v>
       </c>
@@ -35538,8 +36087,11 @@
       <c r="BI227" s="5">
         <v>295710</v>
       </c>
+      <c r="BJ227" s="5">
+        <v>1.2805168030399474</v>
+      </c>
     </row>
-    <row r="228" spans="2:61" s="5" customFormat="1">
+    <row r="228" spans="2:62" s="5" customFormat="1">
       <c r="B228" s="5">
         <v>2005.5</v>
       </c>
@@ -35721,8 +36273,11 @@
       <c r="BI228" s="5">
         <v>296444.33333333331</v>
       </c>
+      <c r="BJ228" s="5">
+        <v>-0.28211898651404216</v>
+      </c>
     </row>
-    <row r="229" spans="2:61" s="5" customFormat="1">
+    <row r="229" spans="2:62" s="5" customFormat="1">
       <c r="B229" s="5">
         <v>2005.75</v>
       </c>
@@ -35904,8 +36459,11 @@
       <c r="BI229" s="5">
         <v>297203.33333333331</v>
       </c>
+      <c r="BJ229" s="5">
+        <v>0.17093970210224091</v>
+      </c>
     </row>
-    <row r="230" spans="2:61" s="5" customFormat="1">
+    <row r="230" spans="2:62" s="5" customFormat="1">
       <c r="B230" s="5">
         <v>2006</v>
       </c>
@@ -36087,8 +36645,11 @@
       <c r="BI230" s="5">
         <v>297853.66666666669</v>
       </c>
+      <c r="BJ230" s="5">
+        <v>-0.43612719934649813</v>
+      </c>
     </row>
-    <row r="231" spans="2:61" s="5" customFormat="1">
+    <row r="231" spans="2:62" s="5" customFormat="1">
       <c r="B231" s="5">
         <v>2006.25</v>
       </c>
@@ -36267,8 +36828,11 @@
       <c r="BI231" s="5">
         <v>298505.33333333331</v>
       </c>
+      <c r="BJ231" s="5">
+        <v>-0.1232373998568112</v>
+      </c>
     </row>
-    <row r="232" spans="2:61" s="5" customFormat="1">
+    <row r="232" spans="2:62" s="5" customFormat="1">
       <c r="B232" s="5">
         <v>2006.5</v>
       </c>
@@ -36447,8 +37011,11 @@
       <c r="BI232" s="5">
         <v>299271</v>
       </c>
+      <c r="BJ232" s="5">
+        <v>1.1383148295083174</v>
+      </c>
     </row>
-    <row r="233" spans="2:61" s="5" customFormat="1">
+    <row r="233" spans="2:62" s="5" customFormat="1">
       <c r="B233" s="5">
         <v>2006.75</v>
       </c>
@@ -36627,8 +37194,11 @@
       <c r="BI233" s="5">
         <v>300089.66666666669</v>
       </c>
+      <c r="BJ233" s="5">
+        <v>-0.52466810848248713</v>
+      </c>
     </row>
-    <row r="234" spans="2:61" s="5" customFormat="1">
+    <row r="234" spans="2:62" s="5" customFormat="1">
       <c r="B234" s="5">
         <v>2007</v>
       </c>
@@ -36792,8 +37362,11 @@
       <c r="BI234" s="5">
         <v>300799</v>
       </c>
+      <c r="BJ234" s="5">
+        <v>-4.8163545428100918E-2</v>
+      </c>
     </row>
-    <row r="235" spans="2:61" s="5" customFormat="1">
+    <row r="235" spans="2:62" s="5" customFormat="1">
       <c r="B235" s="5">
         <v>2007.25</v>
       </c>
@@ -36957,8 +37530,11 @@
       <c r="BI235" s="5">
         <v>301492</v>
       </c>
+      <c r="BJ235" s="5">
+        <v>-0.30908344185091363</v>
+      </c>
     </row>
-    <row r="236" spans="2:61" s="5" customFormat="1">
+    <row r="236" spans="2:62" s="5" customFormat="1">
       <c r="B236" s="5">
         <v>2007.5</v>
       </c>
@@ -37122,8 +37698,11 @@
       <c r="BI236" s="5">
         <v>302272.33333333331</v>
       </c>
+      <c r="BJ236" s="5">
+        <v>-0.41663774514533153</v>
+      </c>
     </row>
-    <row r="237" spans="2:61" s="5" customFormat="1">
+    <row r="237" spans="2:62" s="5" customFormat="1">
       <c r="B237" s="5">
         <v>2007.75</v>
       </c>
@@ -37287,8 +37866,11 @@
       <c r="BI237" s="5">
         <v>303049.33333333331</v>
       </c>
+      <c r="BJ237" s="5">
+        <v>-2.2360110590831246</v>
+      </c>
     </row>
-    <row r="238" spans="2:61" s="5" customFormat="1">
+    <row r="238" spans="2:62" s="5" customFormat="1">
       <c r="B238" s="5">
         <v>2008</v>
       </c>
@@ -37452,8 +38034,11 @@
       <c r="BI238" s="5">
         <v>303708</v>
       </c>
+      <c r="BJ238" s="5">
+        <v>-1.5925408085839163</v>
+      </c>
     </row>
-    <row r="239" spans="2:61" s="5" customFormat="1">
+    <row r="239" spans="2:62" s="5" customFormat="1">
       <c r="B239" s="5">
         <v>2008.25</v>
       </c>
@@ -37617,8 +38202,11 @@
       <c r="BI239" s="5">
         <v>304332</v>
       </c>
+      <c r="BJ239" s="5">
+        <v>-1.385779374207684</v>
+      </c>
     </row>
-    <row r="240" spans="2:61" s="5" customFormat="1">
+    <row r="240" spans="2:62" s="5" customFormat="1">
       <c r="B240" s="5">
         <v>2008.5</v>
       </c>
@@ -37782,8 +38370,11 @@
       <c r="BI240" s="5">
         <v>305050.66666666669</v>
       </c>
+      <c r="BJ240" s="5">
+        <v>-2.2000806019784833</v>
+      </c>
     </row>
-    <row r="241" spans="2:61" s="5" customFormat="1">
+    <row r="241" spans="2:62" s="5" customFormat="1">
       <c r="B241" s="5">
         <v>2008.75</v>
       </c>
@@ -37947,8 +38538,11 @@
       <c r="BI241" s="5">
         <v>305781.33333333331</v>
       </c>
+      <c r="BJ241" s="5">
+        <v>-0.92854785697595432</v>
+      </c>
     </row>
-    <row r="242" spans="2:61" s="5" customFormat="1">
+    <row r="242" spans="2:62" s="5" customFormat="1">
       <c r="B242" s="5">
         <v>2009</v>
       </c>
@@ -38112,8 +38706,11 @@
       <c r="BI242" s="5">
         <v>306399.33333333331</v>
       </c>
+      <c r="BJ242" s="5">
+        <v>-1.3548250081833153</v>
+      </c>
     </row>
-    <row r="243" spans="2:61" s="5" customFormat="1">
+    <row r="243" spans="2:62" s="5" customFormat="1">
       <c r="B243" s="5">
         <v>2009.25</v>
       </c>
@@ -38277,8 +38874,11 @@
       <c r="BI243" s="5">
         <v>306992.33333333331</v>
       </c>
+      <c r="BJ243" s="5">
+        <v>-0.63560991684100432</v>
+      </c>
     </row>
-    <row r="244" spans="2:61" s="5" customFormat="1">
+    <row r="244" spans="2:62" s="5" customFormat="1">
       <c r="B244" s="5">
         <v>2009.5</v>
       </c>
@@ -38442,8 +39042,11 @@
       <c r="BI244" s="5">
         <v>307690</v>
       </c>
+      <c r="BJ244" s="5">
+        <v>0.50969311128592709</v>
+      </c>
     </row>
-    <row r="245" spans="2:61" s="5" customFormat="1">
+    <row r="245" spans="2:62" s="5" customFormat="1">
       <c r="B245" s="5">
         <v>2009.75</v>
       </c>
@@ -38607,8 +39210,11 @@
       <c r="BI245" s="5">
         <v>308413.33333333331</v>
       </c>
+      <c r="BJ245" s="5">
+        <v>-0.60406586003873675</v>
+      </c>
     </row>
-    <row r="246" spans="2:61" s="5" customFormat="1">
+    <row r="246" spans="2:62" s="5" customFormat="1">
       <c r="B246" s="5">
         <v>2010</v>
       </c>
@@ -38770,8 +39376,11 @@
       <c r="BI246" s="5">
         <v>309024</v>
       </c>
+      <c r="BJ246" s="5">
+        <v>0.78904451047844559</v>
+      </c>
     </row>
-    <row r="247" spans="2:61" s="5" customFormat="1">
+    <row r="247" spans="2:62" s="5" customFormat="1">
       <c r="B247" s="5">
         <v>2010.25</v>
       </c>
@@ -38933,8 +39542,11 @@
       <c r="BI247" s="5">
         <v>309373.66666666669</v>
       </c>
+      <c r="BJ247" s="5">
+        <v>-3.0824010865585227E-2</v>
+      </c>
     </row>
-    <row r="248" spans="2:61" s="5" customFormat="1">
+    <row r="248" spans="2:62" s="5" customFormat="1">
       <c r="B248" s="5">
         <v>2010.5</v>
       </c>
@@ -39096,8 +39708,11 @@
       <c r="BI248" s="5">
         <v>309976.33333333331</v>
       </c>
+      <c r="BJ248" s="5">
+        <v>0.97538850393538057</v>
+      </c>
     </row>
-    <row r="249" spans="2:61" s="5" customFormat="1">
+    <row r="249" spans="2:62" s="5" customFormat="1">
       <c r="B249" s="5">
         <v>2010.75</v>
       </c>
@@ -39259,8 +39874,11 @@
       <c r="BI249" s="5">
         <v>310622</v>
       </c>
+      <c r="BJ249" s="5">
+        <v>3.7279266098707187E-2</v>
+      </c>
     </row>
-    <row r="250" spans="2:61" s="5" customFormat="1">
+    <row r="250" spans="2:62" s="5" customFormat="1">
       <c r="B250" s="5">
         <v>2011</v>
       </c>
@@ -39422,8 +40040,11 @@
       <c r="BI250" s="5">
         <v>311155.66666666669</v>
       </c>
+      <c r="BJ250" s="5">
+        <v>-8.4124336774218988E-2</v>
+      </c>
     </row>
-    <row r="251" spans="2:61" s="5" customFormat="1">
+    <row r="251" spans="2:62" s="5" customFormat="1">
       <c r="B251" s="5">
         <v>2011.25</v>
       </c>
@@ -39585,8 +40206,11 @@
       <c r="BI251" s="5">
         <v>311667.33333333331</v>
       </c>
+      <c r="BJ251" s="5">
+        <v>-1.0353901971414661</v>
+      </c>
     </row>
-    <row r="252" spans="2:61" s="5" customFormat="1">
+    <row r="252" spans="2:62" s="5" customFormat="1">
       <c r="B252" s="5">
         <v>2011.5</v>
       </c>
@@ -39748,8 +40372,11 @@
       <c r="BI252" s="5">
         <v>312279.33333333331</v>
       </c>
+      <c r="BJ252" s="5">
+        <v>-3.8909081821970892E-3</v>
+      </c>
     </row>
-    <row r="253" spans="2:61" s="5" customFormat="1">
+    <row r="253" spans="2:62" s="5" customFormat="1">
       <c r="B253" s="5">
         <v>2011.75</v>
       </c>
@@ -39911,8 +40538,11 @@
       <c r="BI253" s="5">
         <v>312910.33333333331</v>
       </c>
+      <c r="BJ253" s="5">
+        <v>0.36269951165478465</v>
+      </c>
     </row>
-    <row r="254" spans="2:61" s="5" customFormat="1">
+    <row r="254" spans="2:62" s="5" customFormat="1">
       <c r="B254" s="5">
         <v>2012</v>
       </c>
@@ -40074,8 +40704,11 @@
       <c r="BI254" s="5">
         <v>313436.66666666669</v>
       </c>
+      <c r="BJ254" s="5">
+        <v>0.63772860475439652</v>
+      </c>
     </row>
-    <row r="255" spans="2:61" s="5" customFormat="1">
+    <row r="255" spans="2:62" s="5" customFormat="1">
       <c r="B255" s="5">
         <v>2012.25</v>
       </c>
@@ -40237,8 +40870,11 @@
       <c r="BI255" s="5">
         <v>313948</v>
       </c>
+      <c r="BJ255" s="5">
+        <v>-1.946757759348738</v>
+      </c>
     </row>
-    <row r="256" spans="2:61" s="5" customFormat="1">
+    <row r="256" spans="2:62" s="5" customFormat="1">
       <c r="B256" s="5">
         <v>2012.5</v>
       </c>
@@ -40400,8 +41036,11 @@
       <c r="BI256" s="5">
         <v>314550.33333333331</v>
       </c>
+      <c r="BJ256" s="5">
+        <v>0.35338216846130355</v>
+      </c>
     </row>
-    <row r="257" spans="2:61" s="5" customFormat="1">
+    <row r="257" spans="2:62" s="5" customFormat="1">
       <c r="B257" s="5">
         <v>2012.75</v>
       </c>
@@ -40563,8 +41202,11 @@
       <c r="BI257" s="5">
         <v>315185</v>
       </c>
+      <c r="BJ257" s="5">
+        <v>0.47394483934834525</v>
+      </c>
     </row>
-    <row r="258" spans="2:61" s="5" customFormat="1">
+    <row r="258" spans="2:62" s="5" customFormat="1">
       <c r="B258" s="5">
         <v>2013</v>
       </c>
@@ -40726,8 +41368,11 @@
       <c r="BI258" s="5">
         <v>315677</v>
       </c>
+      <c r="BJ258" s="5">
+        <v>0.17351122553958465</v>
+      </c>
     </row>
-    <row r="259" spans="2:61" s="5" customFormat="1">
+    <row r="259" spans="2:62" s="5" customFormat="1">
       <c r="B259" s="5">
         <v>2013.25</v>
       </c>
@@ -40889,8 +41534,11 @@
       <c r="BI259" s="5">
         <v>316158</v>
       </c>
+      <c r="BJ259" s="5">
+        <v>1.0337190873751706E-2</v>
+      </c>
     </row>
-    <row r="260" spans="2:61" s="5" customFormat="1">
+    <row r="260" spans="2:62" s="5" customFormat="1">
       <c r="B260" s="5">
         <v>2013.5</v>
       </c>
@@ -41052,8 +41700,11 @@
       <c r="BI260" s="5">
         <v>316763.66666666669</v>
       </c>
+      <c r="BJ260" s="5">
+        <v>0.50037042911282181</v>
+      </c>
     </row>
-    <row r="261" spans="2:61" s="5" customFormat="1">
+    <row r="261" spans="2:62" s="5" customFormat="1">
       <c r="B261" s="5">
         <v>2013.75</v>
       </c>
@@ -41215,8 +41866,11 @@
       <c r="BI261" s="5">
         <v>317417.33333333331</v>
       </c>
+      <c r="BJ261" s="5">
+        <v>-0.55513502836771011</v>
+      </c>
     </row>
-    <row r="262" spans="2:61" s="5" customFormat="1">
+    <row r="262" spans="2:62" s="5" customFormat="1">
       <c r="B262" s="5">
         <v>2014</v>
       </c>
@@ -41378,8 +42032,11 @@
       <c r="BI262" s="5">
         <v>317966.33333333331</v>
       </c>
+      <c r="BJ262" s="5">
+        <v>0.96761063151986237</v>
+      </c>
     </row>
-    <row r="263" spans="2:61" s="5" customFormat="1">
+    <row r="263" spans="2:62" s="5" customFormat="1">
       <c r="B263" s="5">
         <v>2014.25</v>
       </c>
@@ -41541,8 +42198,11 @@
       <c r="BI263" s="5">
         <v>318500.33333333331</v>
       </c>
+      <c r="BJ263" s="5">
+        <v>1.2103592077627205</v>
+      </c>
     </row>
-    <row r="264" spans="2:61" s="5" customFormat="1">
+    <row r="264" spans="2:62" s="5" customFormat="1">
       <c r="B264" s="5">
         <v>2014.5</v>
       </c>
@@ -41704,8 +42364,11 @@
       <c r="BI264" s="5">
         <v>319135</v>
       </c>
+      <c r="BJ264" s="5">
+        <v>-0.39850508577793659</v>
+      </c>
     </row>
-    <row r="265" spans="2:61" s="5" customFormat="1">
+    <row r="265" spans="2:62" s="5" customFormat="1">
       <c r="B265" s="5">
         <v>2014.75</v>
       </c>
@@ -41867,8 +42530,11 @@
       <c r="BI265" s="5">
         <v>319811.33333333331</v>
       </c>
+      <c r="BJ265" s="5">
+        <v>0.11250005587509349</v>
+      </c>
     </row>
-    <row r="266" spans="2:61" s="5" customFormat="1">
+    <row r="266" spans="2:62" s="5" customFormat="1">
       <c r="B266" s="5">
         <v>2015</v>
       </c>
@@ -42030,8 +42696,11 @@
       <c r="BI266" s="5">
         <v>320349.66666666669</v>
       </c>
+      <c r="BJ266" s="5">
+        <v>0.11388620008488515</v>
+      </c>
     </row>
-    <row r="267" spans="2:61" s="5" customFormat="1">
+    <row r="267" spans="2:62" s="5" customFormat="1">
       <c r="B267" s="5">
         <v>2015.25</v>
       </c>
@@ -42193,8 +42862,11 @@
       <c r="BI267" s="5">
         <v>320873.66666666669</v>
       </c>
+      <c r="BJ267" s="5">
+        <v>0.19791755307625811</v>
+      </c>
     </row>
-    <row r="268" spans="2:61" s="5" customFormat="1">
+    <row r="268" spans="2:62" s="5" customFormat="1">
       <c r="B268" s="5">
         <v>2015.5</v>
       </c>
@@ -42356,8 +43028,11 @@
       <c r="BI268" s="5">
         <v>321505</v>
       </c>
+      <c r="BJ268" s="5">
+        <v>-4.0990677086138419E-2</v>
+      </c>
     </row>
-    <row r="269" spans="2:61" s="5" customFormat="1">
+    <row r="269" spans="2:62" s="5" customFormat="1">
       <c r="B269" s="5">
         <v>2015.75</v>
       </c>
@@ -42519,8 +43194,11 @@
       <c r="BI269" s="5">
         <v>322168.66666666669</v>
       </c>
+      <c r="BJ269" s="5">
+        <v>9.9458361439364595E-3</v>
+      </c>
     </row>
-    <row r="270" spans="2:61" s="5" customFormat="1">
+    <row r="270" spans="2:62" s="5" customFormat="1">
       <c r="B270" s="5">
         <v>2016</v>
       </c>
@@ -42682,8 +43360,11 @@
       <c r="BI270" s="5">
         <v>322712.66666666669</v>
       </c>
+      <c r="BJ270" s="5">
+        <v>-0.327572783436476</v>
+      </c>
     </row>
-    <row r="271" spans="2:61" s="5" customFormat="1">
+    <row r="271" spans="2:62" s="5" customFormat="1">
       <c r="B271" s="5">
         <v>2016.25</v>
       </c>
@@ -42845,8 +43526,11 @@
       <c r="BI271" s="5">
         <v>323228.66666666669</v>
       </c>
+      <c r="BJ271" s="5">
+        <v>1.027472306460014</v>
+      </c>
     </row>
-    <row r="272" spans="2:61" s="5" customFormat="1">
+    <row r="272" spans="2:62" s="5" customFormat="1">
       <c r="B272" s="5">
         <v>2016.5</v>
       </c>
@@ -43005,8 +43689,11 @@
       <c r="BI272" s="5">
         <v>323849.33333333331</v>
       </c>
+      <c r="BJ272" s="5">
+        <v>4.9199649393765199E-2</v>
+      </c>
     </row>
-    <row r="273" spans="2:61" s="5" customFormat="1">
+    <row r="273" spans="2:62" s="5" customFormat="1">
       <c r="B273" s="5">
         <v>2016.75</v>
       </c>
@@ -43165,8 +43852,11 @@
       <c r="BI273" s="5">
         <v>324496.33333333331</v>
       </c>
+      <c r="BJ273" s="5">
+        <v>1.2445327234387613</v>
+      </c>
     </row>
-    <row r="274" spans="2:61" s="5" customFormat="1">
+    <row r="274" spans="2:62" s="5" customFormat="1">
       <c r="B274" s="5">
         <v>2017</v>
       </c>
@@ -43323,8 +44013,11 @@
       <c r="BI274" s="5">
         <v>325028.33333333331</v>
       </c>
+      <c r="BJ274" s="5">
+        <v>0.40149107434930342</v>
+      </c>
     </row>
-    <row r="275" spans="2:61" s="5" customFormat="1">
+    <row r="275" spans="2:62" s="5" customFormat="1">
       <c r="B275" s="5">
         <v>2017.25</v>
       </c>
@@ -43482,7 +44175,7 @@
         <v>325543.33333333331</v>
       </c>
     </row>
-    <row r="276" spans="2:61" s="5" customFormat="1">
+    <row r="276" spans="2:62" s="5" customFormat="1">
       <c r="B276" s="5">
         <v>2017.5</v>
       </c>
@@ -43625,7 +44318,7 @@
         <v>326163.33333333331</v>
       </c>
     </row>
-    <row r="277" spans="2:61" s="5" customFormat="1">
+    <row r="277" spans="2:62" s="5" customFormat="1">
       <c r="B277" s="5">
         <v>2017.75</v>
       </c>
@@ -43730,7 +44423,7 @@
         <v>326810.33333333331</v>
       </c>
     </row>
-    <row r="278" spans="2:61" s="5" customFormat="1">
+    <row r="278" spans="2:62" s="5" customFormat="1">
       <c r="B278" s="5">
         <v>2018</v>
       </c>
@@ -43835,7 +44528,7 @@
         <v>327342.66666666669</v>
       </c>
     </row>
-    <row r="279" spans="2:61" s="5" customFormat="1">
+    <row r="279" spans="2:62" s="5" customFormat="1">
       <c r="B279" s="5">
         <v>2018.25</v>
       </c>
@@ -43930,7 +44623,7 @@
         <v>327857.66666666669</v>
       </c>
     </row>
-    <row r="280" spans="2:61" s="5" customFormat="1">
+    <row r="280" spans="2:62" s="5" customFormat="1">
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="N280" s="4"/>
@@ -43962,7 +44655,7 @@
         <v>328477.33333333331</v>
       </c>
     </row>
-    <row r="281" spans="2:61" s="5" customFormat="1">
+    <row r="281" spans="2:62" s="5" customFormat="1">
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
       <c r="N281" s="4"/>
@@ -43993,7 +44686,7 @@
         <v>329124.33333333331</v>
       </c>
     </row>
-    <row r="282" spans="2:61" s="5" customFormat="1">
+    <row r="282" spans="2:62" s="5" customFormat="1">
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="N282" s="4"/>
@@ -44013,42 +44706,42 @@
       <c r="BF282" s="8"/>
       <c r="BG282" s="8"/>
     </row>
-    <row r="283" spans="2:61" s="5" customFormat="1">
+    <row r="283" spans="2:62" s="5" customFormat="1">
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
       <c r="AY283" s="8"/>
       <c r="BF283" s="8"/>
       <c r="BG283" s="8"/>
     </row>
-    <row r="284" spans="2:61" s="5" customFormat="1">
+    <row r="284" spans="2:62" s="5" customFormat="1">
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="AY284" s="8"/>
       <c r="BF284" s="8"/>
       <c r="BG284" s="8"/>
     </row>
-    <row r="285" spans="2:61" s="5" customFormat="1">
+    <row r="285" spans="2:62" s="5" customFormat="1">
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
       <c r="AY285" s="8"/>
       <c r="BF285" s="8"/>
       <c r="BG285" s="8"/>
     </row>
-    <row r="286" spans="2:61" s="5" customFormat="1">
+    <row r="286" spans="2:62" s="5" customFormat="1">
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="AY286" s="8"/>
       <c r="BF286" s="8"/>
       <c r="BG286" s="8"/>
     </row>
-    <row r="287" spans="2:61" s="5" customFormat="1">
+    <row r="287" spans="2:62" s="5" customFormat="1">
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
       <c r="AY287" s="8"/>
       <c r="BF287" s="8"/>
       <c r="BG287" s="8"/>
     </row>
-    <row r="288" spans="2:61" s="5" customFormat="1">
+    <row r="288" spans="2:62" s="5" customFormat="1">
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="AY288" s="8"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -892,10 +892,10 @@
   <dimension ref="A1:BJ629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="BB16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="Z6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BK267" sqref="BK267"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -425,6 +425,33 @@
   <si>
     <t>SP500Futures</t>
   </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC9 </t>
+  </si>
 </sst>
 </file>
 
@@ -566,7 +593,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,6 +633,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -892,13 +922,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK629"/>
+  <dimension ref="A1:BT629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="BD261" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="BM51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AB5" sqref="AA4:BK5"/>
+      <selection pane="bottomRight" activeCell="BU50" sqref="BU50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -939,7 +969,7 @@
     <col min="63" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1">
+    <row r="1" spans="1:72" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1129,8 +1159,35 @@
       <c r="BK1" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="BL1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT1" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1">
+    <row r="2" spans="1:72" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1320,8 +1377,35 @@
       <c r="BK2" s="7">
         <v>2</v>
       </c>
+      <c r="BL2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BM2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BN2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BO2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BP2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BR2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT2" s="7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" s="7" customFormat="1">
+    <row r="3" spans="1:72" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1511,8 +1595,35 @@
       <c r="BK3" s="7">
         <v>1</v>
       </c>
+      <c r="BL3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BS3" s="7">
+        <v>1</v>
+      </c>
+      <c r="BT3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" s="7" customFormat="1">
+    <row r="4" spans="1:72" s="7" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1702,8 +1813,35 @@
       <c r="BK4" s="1">
         <v>62</v>
       </c>
+      <c r="BL4" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>70</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" s="7" customFormat="1">
+    <row r="5" spans="1:72" s="7" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1893,8 +2031,35 @@
       <c r="BK5" s="1">
         <v>62</v>
       </c>
+      <c r="BL5" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS5" s="1">
+        <v>70</v>
+      </c>
+      <c r="BT5" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" s="5" customFormat="1">
+    <row r="6" spans="1:72" s="5" customFormat="1">
       <c r="B6" s="5">
         <v>1950</v>
       </c>
@@ -1988,7 +2153,7 @@
         <v>-25.047000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:63" s="5" customFormat="1">
+    <row r="7" spans="1:72" s="5" customFormat="1">
       <c r="B7" s="5">
         <v>1950.25</v>
       </c>
@@ -2082,7 +2247,7 @@
         <v>-25.356999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:63" s="5" customFormat="1">
+    <row r="8" spans="1:72" s="5" customFormat="1">
       <c r="B8" s="5">
         <v>1950.5</v>
       </c>
@@ -2176,7 +2341,7 @@
         <v>-25.962</v>
       </c>
     </row>
-    <row r="9" spans="1:63" s="5" customFormat="1">
+    <row r="9" spans="1:72" s="5" customFormat="1">
       <c r="B9" s="5">
         <v>1950.75</v>
       </c>
@@ -2270,7 +2435,7 @@
         <v>-26.004000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:63" s="5" customFormat="1">
+    <row r="10" spans="1:72" s="5" customFormat="1">
       <c r="B10" s="5">
         <v>1951</v>
       </c>
@@ -2364,7 +2529,7 @@
         <v>-26.062999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="5" customFormat="1">
+    <row r="11" spans="1:72" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>1951.25</v>
       </c>
@@ -2458,7 +2623,7 @@
         <v>-25.963999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="5" customFormat="1">
+    <row r="12" spans="1:72" s="5" customFormat="1">
       <c r="B12" s="5">
         <v>1951.5</v>
       </c>
@@ -2552,7 +2717,7 @@
         <v>-26.617999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:63" s="5" customFormat="1">
+    <row r="13" spans="1:72" s="5" customFormat="1">
       <c r="B13" s="5">
         <v>1951.75</v>
       </c>
@@ -2646,7 +2811,7 @@
         <v>-26.686</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="5" customFormat="1">
+    <row r="14" spans="1:72" s="5" customFormat="1">
       <c r="B14" s="5">
         <v>1952</v>
       </c>
@@ -2743,7 +2908,7 @@
         <v>156522.33333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:63" s="5" customFormat="1">
+    <row r="15" spans="1:72" s="5" customFormat="1">
       <c r="B15" s="5">
         <v>1952.25</v>
       </c>
@@ -2840,7 +3005,7 @@
         <v>157142</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="5" customFormat="1">
+    <row r="16" spans="1:72" s="5" customFormat="1">
       <c r="B16" s="5">
         <v>1952.5</v>
       </c>
@@ -4579,7 +4744,7 @@
         <v>169194</v>
       </c>
     </row>
-    <row r="33" spans="2:62" s="5" customFormat="1">
+    <row r="33" spans="2:72" s="5" customFormat="1">
       <c r="B33" s="5">
         <v>1956.75</v>
       </c>
@@ -4688,7 +4853,7 @@
         <v>170052.66666666666</v>
       </c>
     </row>
-    <row r="34" spans="2:62" s="5" customFormat="1">
+    <row r="34" spans="2:72" s="5" customFormat="1">
       <c r="B34" s="5">
         <v>1957</v>
       </c>
@@ -4797,7 +4962,7 @@
         <v>170802</v>
       </c>
     </row>
-    <row r="35" spans="2:62" s="5" customFormat="1">
+    <row r="35" spans="2:72" s="5" customFormat="1">
       <c r="B35" s="5">
         <v>1957.25</v>
       </c>
@@ -4906,7 +5071,7 @@
         <v>171504.33333333334</v>
       </c>
     </row>
-    <row r="36" spans="2:62" s="5" customFormat="1">
+    <row r="36" spans="2:72" s="5" customFormat="1">
       <c r="B36" s="5">
         <v>1957.5</v>
       </c>
@@ -5015,7 +5180,7 @@
         <v>172259.66666666666</v>
       </c>
     </row>
-    <row r="37" spans="2:62" s="5" customFormat="1">
+    <row r="37" spans="2:72" s="5" customFormat="1">
       <c r="B37" s="5">
         <v>1957.75</v>
       </c>
@@ -5124,7 +5289,7 @@
         <v>173061.33333333334</v>
       </c>
     </row>
-    <row r="38" spans="2:62" s="5" customFormat="1">
+    <row r="38" spans="2:72" s="5" customFormat="1">
       <c r="B38" s="5">
         <v>1958</v>
       </c>
@@ -5233,7 +5398,7 @@
         <v>173741.33333333334</v>
       </c>
     </row>
-    <row r="39" spans="2:62" s="5" customFormat="1">
+    <row r="39" spans="2:72" s="5" customFormat="1">
       <c r="B39" s="5">
         <v>1958.25</v>
       </c>
@@ -5342,7 +5507,7 @@
         <v>174404</v>
       </c>
     </row>
-    <row r="40" spans="2:62" s="5" customFormat="1">
+    <row r="40" spans="2:72" s="5" customFormat="1">
       <c r="B40" s="5">
         <v>1958.5</v>
       </c>
@@ -5451,7 +5616,7 @@
         <v>175146</v>
       </c>
     </row>
-    <row r="41" spans="2:62" s="5" customFormat="1">
+    <row r="41" spans="2:72" s="5" customFormat="1">
       <c r="B41" s="5">
         <v>1958.75</v>
       </c>
@@ -5560,7 +5725,7 @@
         <v>175956.66666666666</v>
       </c>
     </row>
-    <row r="42" spans="2:62" s="5" customFormat="1">
+    <row r="42" spans="2:72" s="5" customFormat="1">
       <c r="B42" s="5">
         <v>1959</v>
       </c>
@@ -5669,7 +5834,7 @@
         <v>176679</v>
       </c>
     </row>
-    <row r="43" spans="2:62" s="5" customFormat="1">
+    <row r="43" spans="2:72" s="5" customFormat="1">
       <c r="B43" s="5">
         <v>1959.25</v>
       </c>
@@ -5778,7 +5943,7 @@
         <v>177367.33333333334</v>
       </c>
     </row>
-    <row r="44" spans="2:62" s="5" customFormat="1">
+    <row r="44" spans="2:72" s="5" customFormat="1">
       <c r="B44" s="5">
         <v>1959.5</v>
       </c>
@@ -5887,7 +6052,7 @@
         <v>178102.33333333334</v>
       </c>
     </row>
-    <row r="45" spans="2:62" s="5" customFormat="1">
+    <row r="45" spans="2:72" s="5" customFormat="1">
       <c r="B45" s="5">
         <v>1959.75</v>
       </c>
@@ -5996,7 +6161,7 @@
         <v>178910.33333333334</v>
       </c>
     </row>
-    <row r="46" spans="2:62" s="5" customFormat="1">
+    <row r="46" spans="2:72" s="5" customFormat="1">
       <c r="B46" s="5">
         <v>1960</v>
       </c>
@@ -6107,8 +6272,35 @@
       <c r="BJ46" s="5">
         <v>179590.33333333334</v>
       </c>
+      <c r="BL46" s="5">
+        <v>-5.0255555035537101E-2</v>
+      </c>
+      <c r="BM46" s="5">
+        <v>-5.0245440473423901E-3</v>
+      </c>
+      <c r="BN46" s="5">
+        <v>-6.3522565260114003E-2</v>
+      </c>
+      <c r="BO46" s="5">
+        <v>-5.8881764925747E-3</v>
+      </c>
+      <c r="BP46" s="5">
+        <v>3.4425508181000097E-2</v>
+      </c>
+      <c r="BQ46" s="5">
+        <v>-4.8738186359147603E-2</v>
+      </c>
+      <c r="BR46" s="5">
+        <v>2.2243476935639699E-2</v>
+      </c>
+      <c r="BS46" s="5">
+        <v>2.82335869636752E-2</v>
+      </c>
+      <c r="BT46" s="5">
+        <v>7.8638197749387898E-4</v>
+      </c>
     </row>
-    <row r="47" spans="2:62" s="5" customFormat="1">
+    <row r="47" spans="2:72" s="5" customFormat="1">
       <c r="B47" s="5">
         <v>1960.25</v>
       </c>
@@ -6219,8 +6411,35 @@
       <c r="BJ47" s="5">
         <v>180224.33333333334</v>
       </c>
+      <c r="BL47" s="5">
+        <v>4.4590811072771804E-3</v>
+      </c>
+      <c r="BM47" s="5">
+        <v>-1.8752713096979099E-2</v>
+      </c>
+      <c r="BN47" s="5">
+        <v>-4.4790655018197602E-2</v>
+      </c>
+      <c r="BO47" s="5">
+        <v>-5.0548423574325797E-2</v>
+      </c>
+      <c r="BP47" s="5">
+        <v>-7.4824048672637996E-3</v>
+      </c>
+      <c r="BQ47" s="5">
+        <v>2.20084377978127E-2</v>
+      </c>
+      <c r="BR47" s="5">
+        <v>-7.2910664541442599E-2</v>
+      </c>
+      <c r="BS47" s="5">
+        <v>-1.8121682635804701E-2</v>
+      </c>
+      <c r="BT47" s="5">
+        <v>-3.6071713538996297E-2</v>
+      </c>
     </row>
-    <row r="48" spans="2:62" s="5" customFormat="1">
+    <row r="48" spans="2:72" s="5" customFormat="1">
       <c r="B48" s="5">
         <v>1960.5</v>
       </c>
@@ -6331,8 +6550,35 @@
       <c r="BJ48" s="5">
         <v>180951.33333333334</v>
       </c>
+      <c r="BL48" s="5">
+        <v>2.5407009862107099E-2</v>
+      </c>
+      <c r="BM48" s="5">
+        <v>-4.1952564898215996E-3</v>
+      </c>
+      <c r="BN48" s="5">
+        <v>-7.5164509974057298E-2</v>
+      </c>
+      <c r="BO48" s="5">
+        <v>-2.9380591966768399E-2</v>
+      </c>
+      <c r="BP48" s="5">
+        <v>1.86902561624607E-2</v>
+      </c>
+      <c r="BQ48" s="5">
+        <v>-1.35079918008391E-2</v>
+      </c>
+      <c r="BR48" s="5">
+        <v>-1.52745797010968E-2</v>
+      </c>
+      <c r="BS48" s="5">
+        <v>1.9924553268731702E-3</v>
+      </c>
+      <c r="BT48" s="5">
+        <v>-7.9959583259723299E-3</v>
+      </c>
     </row>
-    <row r="49" spans="2:63" s="5" customFormat="1">
+    <row r="49" spans="2:72" s="5" customFormat="1">
       <c r="B49" s="5">
         <v>1960.75</v>
       </c>
@@ -6443,8 +6689,35 @@
       <c r="BJ49" s="5">
         <v>181788.66666666666</v>
       </c>
+      <c r="BL49" s="5">
+        <v>7.3336041721147993E-2</v>
+      </c>
+      <c r="BM49" s="5">
+        <v>-1.5825536012316999E-2</v>
+      </c>
+      <c r="BN49" s="5">
+        <v>-8.4797314949085906E-2</v>
+      </c>
+      <c r="BO49" s="5">
+        <v>-3.1989932667044897E-2</v>
+      </c>
+      <c r="BP49" s="5">
+        <v>-1.7514952641396599E-2</v>
+      </c>
+      <c r="BQ49" s="5">
+        <v>-1.9356942933870299E-2</v>
+      </c>
+      <c r="BR49" s="5">
+        <v>-4.2931063738753598E-2</v>
+      </c>
+      <c r="BS49" s="5">
+        <v>3.5743599821751498E-3</v>
+      </c>
+      <c r="BT49" s="5">
+        <v>-1.7704313463465401E-2</v>
+      </c>
     </row>
-    <row r="50" spans="2:63" s="5" customFormat="1">
+    <row r="50" spans="2:72" s="5" customFormat="1">
       <c r="B50" s="5">
         <v>1961</v>
       </c>
@@ -6558,8 +6831,35 @@
       <c r="BK50" s="5">
         <v>1.8066305846179943E-2</v>
       </c>
+      <c r="BL50" s="5">
+        <v>6.3394162594385701E-3</v>
+      </c>
+      <c r="BM50" s="5">
+        <v>-6.6238131721275799E-4</v>
+      </c>
+      <c r="BN50" s="5">
+        <v>-8.3734388584279104E-2</v>
+      </c>
+      <c r="BO50" s="5">
+        <v>9.4536236901460492E-3</v>
+      </c>
+      <c r="BP50" s="5">
+        <v>-9.4155036830339996E-3</v>
+      </c>
+      <c r="BQ50" s="5">
+        <v>-4.9416436985570402E-3</v>
+      </c>
+      <c r="BR50" s="5">
+        <v>-2.5798825904941099E-2</v>
+      </c>
+      <c r="BS50" s="5">
+        <v>1.50734452396993E-2</v>
+      </c>
+      <c r="BT50" s="5">
+        <v>-9.9481713269569602E-3</v>
+      </c>
     </row>
-    <row r="51" spans="2:63" s="5" customFormat="1">
+    <row r="51" spans="2:72" s="5" customFormat="1">
       <c r="B51" s="5">
         <v>1961.25</v>
       </c>
@@ -6673,8 +6973,35 @@
       <c r="BK51" s="5">
         <v>0.77760697138650436</v>
       </c>
+      <c r="BL51" s="5">
+        <v>-5.80095746626514E-2</v>
+      </c>
+      <c r="BM51" s="5">
+        <v>3.3758255624894099E-3</v>
+      </c>
+      <c r="BN51" s="5">
+        <v>-8.1801458473673996E-2</v>
+      </c>
+      <c r="BO51" s="5">
+        <v>3.8965793317218098E-2</v>
+      </c>
+      <c r="BP51" s="5">
+        <v>3.70003274097747E-2</v>
+      </c>
+      <c r="BQ51" s="5">
+        <v>1.68692989731133E-3</v>
+      </c>
+      <c r="BR51" s="5">
+        <v>-1.63360695932243E-3</v>
+      </c>
+      <c r="BS51" s="5">
+        <v>-8.3138247395035895E-3</v>
+      </c>
+      <c r="BT51" s="5">
+        <v>-5.98190082653066E-3</v>
+      </c>
     </row>
-    <row r="52" spans="2:63" s="5" customFormat="1">
+    <row r="52" spans="2:72" s="5" customFormat="1">
       <c r="B52" s="5">
         <v>1961.5</v>
       </c>
@@ -6788,8 +7115,35 @@
       <c r="BK52" s="5">
         <v>-2.6865341405642139E-2</v>
       </c>
+      <c r="BL52" s="5">
+        <v>-3.71401737585252E-2</v>
+      </c>
+      <c r="BM52" s="5">
+        <v>2.0459434982845001E-4</v>
+      </c>
+      <c r="BN52" s="5">
+        <v>-6.7361532801490695E-2</v>
+      </c>
+      <c r="BO52" s="5">
+        <v>1.2614758645965601E-2</v>
+      </c>
+      <c r="BP52" s="5">
+        <v>1.1378248985183199E-2</v>
+      </c>
+      <c r="BQ52" s="5">
+        <v>-2.7278596397642602E-2</v>
+      </c>
+      <c r="BR52" s="5">
+        <v>2.9198978569759402E-3</v>
+      </c>
+      <c r="BS52" s="5">
+        <v>2.1791914703900801E-2</v>
+      </c>
+      <c r="BT52" s="5">
+        <v>3.3559755912520501E-3</v>
+      </c>
     </row>
-    <row r="53" spans="2:63" s="5" customFormat="1">
+    <row r="53" spans="2:72" s="5" customFormat="1">
       <c r="B53" s="5">
         <v>1961.75</v>
       </c>
@@ -6903,8 +7257,35 @@
       <c r="BK53" s="5">
         <v>-1.0455617282093341</v>
       </c>
+      <c r="BL53" s="5">
+        <v>-8.2784646737316003E-2</v>
+      </c>
+      <c r="BM53" s="5">
+        <v>-1.8761898457728E-3</v>
+      </c>
+      <c r="BN53" s="5">
+        <v>-5.45523492380489E-2</v>
+      </c>
+      <c r="BO53" s="5">
+        <v>2.2102321241213502E-2</v>
+      </c>
+      <c r="BP53" s="5">
+        <v>1.7561545440367098E-2</v>
+      </c>
+      <c r="BQ53" s="5">
+        <v>7.4396922523645498E-3</v>
+      </c>
+      <c r="BR53" s="5">
+        <v>-2.1337798241801501E-2</v>
+      </c>
+      <c r="BS53" s="5">
+        <v>6.19854234313623E-3</v>
+      </c>
+      <c r="BT53" s="5">
+        <v>-1.2412114789528601E-2</v>
+      </c>
     </row>
-    <row r="54" spans="2:63" s="5" customFormat="1">
+    <row r="54" spans="2:72" s="5" customFormat="1">
       <c r="B54" s="5">
         <v>1962</v>
       </c>
@@ -7018,8 +7399,35 @@
       <c r="BK54" s="5">
         <v>-1.6013540445227588</v>
       </c>
+      <c r="BL54" s="5">
+        <v>-4.7654947489318998E-2</v>
+      </c>
+      <c r="BM54" s="5">
+        <v>-1.2663466655988999E-2</v>
+      </c>
+      <c r="BN54" s="5">
+        <v>-4.9774137423985398E-2</v>
+      </c>
+      <c r="BO54" s="5">
+        <v>-2.8604599046380499E-3</v>
+      </c>
+      <c r="BP54" s="5">
+        <v>2.2226381363787399E-2</v>
+      </c>
+      <c r="BQ54" s="5">
+        <v>-6.52610259932893E-3</v>
+      </c>
+      <c r="BR54" s="5">
+        <v>-1.8055563092251401E-2</v>
+      </c>
+      <c r="BS54" s="5">
+        <v>-4.9499949761914897E-3</v>
+      </c>
+      <c r="BT54" s="5">
+        <v>8.5387391027952203E-3</v>
+      </c>
     </row>
-    <row r="55" spans="2:63" s="5" customFormat="1">
+    <row r="55" spans="2:72" s="5" customFormat="1">
       <c r="B55" s="5">
         <v>1962.25</v>
       </c>
@@ -7133,8 +7541,35 @@
       <c r="BK55" s="5">
         <v>-0.88075573341854252</v>
       </c>
+      <c r="BL55" s="5">
+        <v>-2.8413135892179898E-2</v>
+      </c>
+      <c r="BM55" s="5">
+        <v>-1.09698566700509E-2</v>
+      </c>
+      <c r="BN55" s="5">
+        <v>-5.1074800286772998E-2</v>
+      </c>
+      <c r="BO55" s="5">
+        <v>-5.17475952838789E-2</v>
+      </c>
+      <c r="BP55" s="5">
+        <v>5.46969937230498E-2</v>
+      </c>
+      <c r="BQ55" s="5">
+        <v>-1.5872644142110801E-2</v>
+      </c>
+      <c r="BR55" s="5">
+        <v>1.8061361409029001E-3</v>
+      </c>
+      <c r="BS55" s="5">
+        <v>-2.7983572523539299E-3</v>
+      </c>
+      <c r="BT55" s="5">
+        <v>-1.3735966321321001E-3</v>
+      </c>
     </row>
-    <row r="56" spans="2:63" s="5" customFormat="1">
+    <row r="56" spans="2:72" s="5" customFormat="1">
       <c r="B56" s="5">
         <v>1962.5</v>
       </c>
@@ -7248,8 +7683,35 @@
       <c r="BK56" s="5">
         <v>6.553053860594274E-2</v>
       </c>
+      <c r="BL56" s="5">
+        <v>-3.07704353458437E-2</v>
+      </c>
+      <c r="BM56" s="5">
+        <v>-1.0619678408852201E-2</v>
+      </c>
+      <c r="BN56" s="5">
+        <v>-4.6862169162262803E-2</v>
+      </c>
+      <c r="BO56" s="5">
+        <v>-6.6644146004421097E-3</v>
+      </c>
+      <c r="BP56" s="5">
+        <v>1.0093393866671799E-2</v>
+      </c>
+      <c r="BQ56" s="5">
+        <v>-1.5906767330063999E-2</v>
+      </c>
+      <c r="BR56" s="5">
+        <v>-2.67901230039406E-2</v>
+      </c>
+      <c r="BS56" s="5">
+        <v>6.5860659004033303E-3</v>
+      </c>
+      <c r="BT56" s="5">
+        <v>-1.06963446697858E-2</v>
+      </c>
     </row>
-    <row r="57" spans="2:63" s="5" customFormat="1">
+    <row r="57" spans="2:72" s="5" customFormat="1">
       <c r="B57" s="5">
         <v>1962.75</v>
       </c>
@@ -7363,8 +7825,35 @@
       <c r="BK57" s="5">
         <v>1.735585487183273</v>
       </c>
+      <c r="BL57" s="5">
+        <v>-1.05565663757976E-2</v>
+      </c>
+      <c r="BM57" s="5">
+        <v>7.2330460833516302E-3</v>
+      </c>
+      <c r="BN57" s="5">
+        <v>-8.1227507868802701E-2</v>
+      </c>
+      <c r="BO57" s="5">
+        <v>-7.4713272604512602E-3</v>
+      </c>
+      <c r="BP57" s="5">
+        <v>-1.7060122322247101E-2</v>
+      </c>
+      <c r="BQ57" s="5">
+        <v>-1.38152508393335E-2</v>
+      </c>
+      <c r="BR57" s="5">
+        <v>-1.04359612886068E-2</v>
+      </c>
+      <c r="BS57" s="5">
+        <v>1.9657439649891102E-2</v>
+      </c>
+      <c r="BT57" s="5">
+        <v>2.4205736713034899E-3</v>
+      </c>
     </row>
-    <row r="58" spans="2:63" s="5" customFormat="1">
+    <row r="58" spans="2:72" s="5" customFormat="1">
       <c r="B58" s="5">
         <v>1963</v>
       </c>
@@ -7478,8 +7967,35 @@
       <c r="BK58" s="5">
         <v>0.18478526037869225</v>
       </c>
+      <c r="BL58" s="5">
+        <v>-3.6319811402451101E-2</v>
+      </c>
+      <c r="BM58" s="5">
+        <v>-6.1190237622566201E-3</v>
+      </c>
+      <c r="BN58" s="5">
+        <v>-5.4288992614792801E-2</v>
+      </c>
+      <c r="BO58" s="5">
+        <v>-1.2493530160557801E-2</v>
+      </c>
+      <c r="BP58" s="5">
+        <v>6.7138071771291503E-3</v>
+      </c>
+      <c r="BQ58" s="5">
+        <v>2.60842117846511E-3</v>
+      </c>
+      <c r="BR58" s="5">
+        <v>-1.9771533726765E-2</v>
+      </c>
+      <c r="BS58" s="5">
+        <v>1.3172656045844101E-2</v>
+      </c>
+      <c r="BT58" s="5">
+        <v>-1.79358959855043E-2</v>
+      </c>
     </row>
-    <row r="59" spans="2:63" s="5" customFormat="1">
+    <row r="59" spans="2:72" s="5" customFormat="1">
       <c r="B59" s="5">
         <v>1963.25</v>
       </c>
@@ -7593,8 +8109,35 @@
       <c r="BK59" s="5">
         <v>-0.19787610598384714</v>
       </c>
+      <c r="BL59" s="5">
+        <v>-4.4206091956122698E-2</v>
+      </c>
+      <c r="BM59" s="5">
+        <v>-1.58009843904887E-3</v>
+      </c>
+      <c r="BN59" s="5">
+        <v>-4.8318264517057598E-2</v>
+      </c>
+      <c r="BO59" s="5">
+        <v>-1.3205945323866201E-3</v>
+      </c>
+      <c r="BP59" s="5">
+        <v>4.7667089003438096E-3</v>
+      </c>
+      <c r="BQ59" s="5">
+        <v>-1.29551105988425E-2</v>
+      </c>
+      <c r="BR59" s="5">
+        <v>-2.1026256612710199E-2</v>
+      </c>
+      <c r="BS59" s="5">
+        <v>1.7533769135817698E-2</v>
+      </c>
+      <c r="BT59" s="5">
+        <v>-5.1817488316995997E-3</v>
+      </c>
     </row>
-    <row r="60" spans="2:63" s="5" customFormat="1">
+    <row r="60" spans="2:72" s="5" customFormat="1">
       <c r="B60" s="5">
         <v>1963.5</v>
       </c>
@@ -7708,8 +8251,35 @@
       <c r="BK60" s="5">
         <v>-2.6147161336458153</v>
       </c>
+      <c r="BL60" s="5">
+        <v>-4.9443506082922799E-2</v>
+      </c>
+      <c r="BM60" s="5">
+        <v>-3.1798211222347E-3</v>
+      </c>
+      <c r="BN60" s="5">
+        <v>-5.4861563025683999E-2</v>
+      </c>
+      <c r="BO60" s="5">
+        <v>1.4400376299721501E-3</v>
+      </c>
+      <c r="BP60" s="5">
+        <v>3.4632821250989102E-3</v>
+      </c>
+      <c r="BQ60" s="5">
+        <v>-8.3920502156892406E-3</v>
+      </c>
+      <c r="BR60" s="5">
+        <v>-1.1154215365384801E-2</v>
+      </c>
+      <c r="BS60" s="5">
+        <v>5.3105527959038399E-3</v>
+      </c>
+      <c r="BT60" s="5">
+        <v>1.13912814349227E-2</v>
+      </c>
     </row>
-    <row r="61" spans="2:63" s="5" customFormat="1">
+    <row r="61" spans="2:72" s="5" customFormat="1">
       <c r="B61" s="5">
         <v>1963.75</v>
       </c>
@@ -7823,8 +8393,35 @@
       <c r="BK61" s="5">
         <v>0.93629151504747465</v>
       </c>
+      <c r="BL61" s="5">
+        <v>-2.4590165244260401E-2</v>
+      </c>
+      <c r="BM61" s="5">
+        <v>-1.38760965788963E-2</v>
+      </c>
+      <c r="BN61" s="5">
+        <v>-4.56542048559236E-2</v>
+      </c>
+      <c r="BO61" s="5">
+        <v>-2.3227320738083701E-2</v>
+      </c>
+      <c r="BP61" s="5">
+        <v>3.61539785984438E-3</v>
+      </c>
+      <c r="BQ61" s="5">
+        <v>-1.0559596385334701E-2</v>
+      </c>
+      <c r="BR61" s="5">
+        <v>-1.6863401539634101E-2</v>
+      </c>
+      <c r="BS61" s="5">
+        <v>1.40915759698278E-2</v>
+      </c>
+      <c r="BT61" s="5">
+        <v>2.9906963725886701E-3</v>
+      </c>
     </row>
-    <row r="62" spans="2:63" s="5" customFormat="1">
+    <row r="62" spans="2:72" s="5" customFormat="1">
       <c r="B62" s="5">
         <v>1964</v>
       </c>
@@ -7938,8 +8535,35 @@
       <c r="BK62" s="5">
         <v>0.23788109749820491</v>
       </c>
+      <c r="BL62" s="5">
+        <v>-5.9732734606468399E-2</v>
+      </c>
+      <c r="BM62" s="5">
+        <v>-2.59820960715502E-3</v>
+      </c>
+      <c r="BN62" s="5">
+        <v>-4.5947842450605701E-2</v>
+      </c>
+      <c r="BO62" s="5">
+        <v>1.0191566845738201E-2</v>
+      </c>
+      <c r="BP62" s="5">
+        <v>4.68056601967674E-3</v>
+      </c>
+      <c r="BQ62" s="5">
+        <v>-1.5700619463450801E-2</v>
+      </c>
+      <c r="BR62" s="5">
+        <v>-1.4069645337056199E-2</v>
+      </c>
+      <c r="BS62" s="5">
+        <v>8.7547726795093594E-3</v>
+      </c>
+      <c r="BT62" s="5">
+        <v>7.8780881380367297E-3</v>
+      </c>
     </row>
-    <row r="63" spans="2:63" s="5" customFormat="1">
+    <row r="63" spans="2:72" s="5" customFormat="1">
       <c r="B63" s="5">
         <v>1964.25</v>
       </c>
@@ -8053,8 +8677,35 @@
       <c r="BK63" s="5">
         <v>1.6194867597563276</v>
       </c>
+      <c r="BL63" s="5">
+        <v>-4.77711698451522E-2</v>
+      </c>
+      <c r="BM63" s="5">
+        <v>-1.4550950409520701E-3</v>
+      </c>
+      <c r="BN63" s="5">
+        <v>-5.32186251424248E-2</v>
+      </c>
+      <c r="BO63" s="5">
+        <v>-1.33121038992305E-2</v>
+      </c>
+      <c r="BP63" s="5">
+        <v>7.6078355789526196E-3</v>
+      </c>
+      <c r="BQ63" s="5">
+        <v>3.8896886393035598E-3</v>
+      </c>
+      <c r="BR63" s="5">
+        <v>-1.61120939735841E-2</v>
+      </c>
+      <c r="BS63" s="5">
+        <v>-9.1184990173961006E-3</v>
+      </c>
+      <c r="BT63" s="5">
+        <v>-2.1175911641922E-3</v>
+      </c>
     </row>
-    <row r="64" spans="2:63" s="5" customFormat="1">
+    <row r="64" spans="2:72" s="5" customFormat="1">
       <c r="B64" s="5">
         <v>1964.5</v>
       </c>
@@ -8168,8 +8819,35 @@
       <c r="BK64" s="5">
         <v>0.24319784316205897</v>
       </c>
+      <c r="BL64" s="5">
+        <v>-5.2185561061810298E-2</v>
+      </c>
+      <c r="BM64" s="5">
+        <v>-3.0863424763560802E-3</v>
+      </c>
+      <c r="BN64" s="5">
+        <v>-4.1135299879029898E-2</v>
+      </c>
+      <c r="BO64" s="5">
+        <v>-2.1074493198856001E-2</v>
+      </c>
+      <c r="BP64" s="14">
+        <v>-9.8167775897782696E-6</v>
+      </c>
+      <c r="BQ64" s="5">
+        <v>-5.9637790179564503E-3</v>
+      </c>
+      <c r="BR64" s="5">
+        <v>-1.2704479043425899E-2</v>
+      </c>
+      <c r="BS64" s="5">
+        <v>1.8373306311127598E-2</v>
+      </c>
+      <c r="BT64" s="5">
+        <v>5.2007396643525298E-3</v>
+      </c>
     </row>
-    <row r="65" spans="2:63" s="5" customFormat="1">
+    <row r="65" spans="2:72" s="5" customFormat="1">
       <c r="B65" s="5">
         <v>1964.75</v>
       </c>
@@ -8283,8 +8961,35 @@
       <c r="BK65" s="5">
         <v>-0.59536345440670824</v>
       </c>
+      <c r="BL65" s="5">
+        <v>-4.1291595282424903E-2</v>
+      </c>
+      <c r="BM65" s="5">
+        <v>-5.76700553991134E-3</v>
+      </c>
+      <c r="BN65" s="5">
+        <v>-3.9520510739772897E-2</v>
+      </c>
+      <c r="BO65" s="5">
+        <v>-3.4591405191346201E-2</v>
+      </c>
+      <c r="BP65" s="5">
+        <v>8.8248187711368609E-3</v>
+      </c>
+      <c r="BQ65" s="5">
+        <v>4.2287484255864099E-3</v>
+      </c>
+      <c r="BR65" s="5">
+        <v>-1.9290959192456301E-2</v>
+      </c>
+      <c r="BS65" s="5">
+        <v>5.46506409239228E-3</v>
+      </c>
+      <c r="BT65" s="5">
+        <v>-2.72822583929868E-2</v>
+      </c>
     </row>
-    <row r="66" spans="2:63" s="5" customFormat="1">
+    <row r="66" spans="2:72" s="5" customFormat="1">
       <c r="B66" s="5">
         <v>1965</v>
       </c>
@@ -8398,8 +9103,35 @@
       <c r="BK66" s="5">
         <v>1.6564223845860053</v>
       </c>
+      <c r="BL66" s="5">
+        <v>-8.1545988725231694E-2</v>
+      </c>
+      <c r="BM66" s="5">
+        <v>-2.6555346334374498E-3</v>
+      </c>
+      <c r="BN66" s="5">
+        <v>-3.9293058171460102E-2</v>
+      </c>
+      <c r="BO66" s="5">
+        <v>9.7065431677967207E-3</v>
+      </c>
+      <c r="BP66" s="5">
+        <v>1.8134924699099199E-2</v>
+      </c>
+      <c r="BQ66" s="5">
+        <v>-2.2660557386064401E-2</v>
+      </c>
+      <c r="BR66" s="5">
+        <v>-1.4347652194658401E-4</v>
+      </c>
+      <c r="BS66" s="5">
+        <v>2.0737312346977E-2</v>
+      </c>
+      <c r="BT66" s="5">
+        <v>6.43639232266917E-3</v>
+      </c>
     </row>
-    <row r="67" spans="2:63" s="5" customFormat="1">
+    <row r="67" spans="2:72" s="5" customFormat="1">
       <c r="B67" s="5">
         <v>1965.25</v>
       </c>
@@ -8513,8 +9245,35 @@
       <c r="BK67" s="5">
         <v>-1.147103166407208</v>
       </c>
+      <c r="BL67" s="5">
+        <v>-6.2715267832627195E-2</v>
+      </c>
+      <c r="BM67" s="5">
+        <v>-1.4616204538312E-2</v>
+      </c>
+      <c r="BN67" s="5">
+        <v>-2.3824149936086701E-2</v>
+      </c>
+      <c r="BO67" s="5">
+        <v>-2.6605271380679099E-2</v>
+      </c>
+      <c r="BP67" s="5">
+        <v>8.8083408250038409E-3</v>
+      </c>
+      <c r="BQ67" s="5">
+        <v>-2.39857472228821E-2</v>
+      </c>
+      <c r="BR67" s="5">
+        <v>-2.3177436778958099E-2</v>
+      </c>
+      <c r="BS67" s="5">
+        <v>-4.9040940333869402E-3</v>
+      </c>
+      <c r="BT67" s="14">
+        <v>9.8121750592130894E-5</v>
+      </c>
     </row>
-    <row r="68" spans="2:63" s="5" customFormat="1">
+    <row r="68" spans="2:72" s="5" customFormat="1">
       <c r="B68" s="5">
         <v>1965.5</v>
       </c>
@@ -8628,8 +9387,35 @@
       <c r="BK68" s="5">
         <v>0.82298591058892301</v>
       </c>
+      <c r="BL68" s="5">
+        <v>-5.8779862169261697E-2</v>
+      </c>
+      <c r="BM68" s="5">
+        <v>2.9653235198838301E-4</v>
+      </c>
+      <c r="BN68" s="5">
+        <v>-6.0180655818764799E-2</v>
+      </c>
+      <c r="BO68" s="5">
+        <v>-1.1947657695780599E-3</v>
+      </c>
+      <c r="BP68" s="5">
+        <v>-6.4811809097715502E-3</v>
+      </c>
+      <c r="BQ68" s="5">
+        <v>-1.7303314414179701E-2</v>
+      </c>
+      <c r="BR68" s="5">
+        <v>-1.37538141998599E-3</v>
+      </c>
+      <c r="BS68" s="5">
+        <v>-6.6602975334623402E-3</v>
+      </c>
+      <c r="BT68" s="5">
+        <v>3.1387146898428801E-2</v>
+      </c>
     </row>
-    <row r="69" spans="2:63" s="5" customFormat="1">
+    <row r="69" spans="2:72" s="5" customFormat="1">
       <c r="B69" s="5">
         <v>1965.75</v>
       </c>
@@ -8743,8 +9529,35 @@
       <c r="BK69" s="5">
         <v>-0.77700243293762505</v>
       </c>
+      <c r="BL69" s="5">
+        <v>-8.6208042298545701E-2</v>
+      </c>
+      <c r="BM69" s="5">
+        <v>-1.4761063156785799E-2</v>
+      </c>
+      <c r="BN69" s="5">
+        <v>-2.4990214178111401E-2</v>
+      </c>
+      <c r="BO69" s="5">
+        <v>1.7757659971475101E-3</v>
+      </c>
+      <c r="BP69" s="5">
+        <v>5.3835941655929996E-3</v>
+      </c>
+      <c r="BQ69" s="5">
+        <v>-1.5712666112147999E-3</v>
+      </c>
+      <c r="BR69" s="5">
+        <v>-2.27543244208827E-2</v>
+      </c>
+      <c r="BS69" s="5">
+        <v>-8.3043619907611204E-3</v>
+      </c>
+      <c r="BT69" s="5">
+        <v>1.8626568343602198E-2</v>
+      </c>
     </row>
-    <row r="70" spans="2:63" s="5" customFormat="1">
+    <row r="70" spans="2:72" s="5" customFormat="1">
       <c r="B70" s="5">
         <v>1966</v>
       </c>
@@ -8858,8 +9671,35 @@
       <c r="BK70" s="5">
         <v>-1.2161278691325919</v>
       </c>
+      <c r="BL70" s="5">
+        <v>-7.0798583658487693E-2</v>
+      </c>
+      <c r="BM70" s="5">
+        <v>-1.5077434440876201E-2</v>
+      </c>
+      <c r="BN70" s="5">
+        <v>-2.62374734117253E-2</v>
+      </c>
+      <c r="BO70" s="5">
+        <v>-1.46284658126235E-2</v>
+      </c>
+      <c r="BP70" s="5">
+        <v>1.8545500663538501E-2</v>
+      </c>
+      <c r="BQ70" s="5">
+        <v>-3.1965967512229201E-2</v>
+      </c>
+      <c r="BR70" s="5">
+        <v>8.0692846170667097E-3</v>
+      </c>
+      <c r="BS70" s="5">
+        <v>1.6646453227865499E-2</v>
+      </c>
+      <c r="BT70" s="5">
+        <v>1.9711456206016598E-2</v>
+      </c>
     </row>
-    <row r="71" spans="2:63" s="5" customFormat="1">
+    <row r="71" spans="2:72" s="5" customFormat="1">
       <c r="B71" s="5">
         <v>1966.25</v>
       </c>
@@ -8974,8 +9814,35 @@
       <c r="BK71" s="5">
         <v>-0.32531901533246499</v>
       </c>
+      <c r="BL71" s="5">
+        <v>-2.94008020843365E-2</v>
+      </c>
+      <c r="BM71" s="5">
+        <v>-2.3835215284392901E-2</v>
+      </c>
+      <c r="BN71" s="5">
+        <v>-1.51818190330611E-2</v>
+      </c>
+      <c r="BO71" s="5">
+        <v>-5.1509071601365697E-2</v>
+      </c>
+      <c r="BP71" s="5">
+        <v>9.8413226599114306E-3</v>
+      </c>
+      <c r="BQ71" s="5">
+        <v>-1.17003058826832E-2</v>
+      </c>
+      <c r="BR71" s="5">
+        <v>-2.4684492558658601E-2</v>
+      </c>
+      <c r="BS71" s="5">
+        <v>-8.4159451752538797E-4</v>
+      </c>
+      <c r="BT71" s="5">
+        <v>-6.2435263480286702E-3</v>
+      </c>
     </row>
-    <row r="72" spans="2:63" s="5" customFormat="1">
+    <row r="72" spans="2:72" s="5" customFormat="1">
       <c r="B72" s="5">
         <v>1966.5</v>
       </c>
@@ -9090,8 +9957,35 @@
       <c r="BK72" s="5">
         <v>-0.36759516176909873</v>
       </c>
+      <c r="BL72" s="5">
+        <v>-1.7351551314267299E-2</v>
+      </c>
+      <c r="BM72" s="5">
+        <v>-2.80607372405666E-2</v>
+      </c>
+      <c r="BN72" s="5">
+        <v>-1.9882662125118199E-2</v>
+      </c>
+      <c r="BO72" s="5">
+        <v>-3.7421361863743903E-2</v>
+      </c>
+      <c r="BP72" s="5">
+        <v>2.5154113354732999E-2</v>
+      </c>
+      <c r="BQ72" s="5">
+        <v>-2.2109919064523999E-2</v>
+      </c>
+      <c r="BR72" s="5">
+        <v>-1.0590708341755999E-2</v>
+      </c>
+      <c r="BS72" s="5">
+        <v>-1.11849127619062E-2</v>
+      </c>
+      <c r="BT72" s="5">
+        <v>2.0016180917610798E-3</v>
+      </c>
     </row>
-    <row r="73" spans="2:63" s="5" customFormat="1">
+    <row r="73" spans="2:72" s="5" customFormat="1">
       <c r="B73" s="5">
         <v>1966.75</v>
       </c>
@@ -9206,8 +10100,35 @@
       <c r="BK73" s="5">
         <v>0.16082403484004959</v>
       </c>
+      <c r="BL73" s="5">
+        <v>-8.5756019442967298E-3</v>
+      </c>
+      <c r="BM73" s="5">
+        <v>-1.72678385088509E-2</v>
+      </c>
+      <c r="BN73" s="5">
+        <v>-4.1538032281199101E-2</v>
+      </c>
+      <c r="BO73" s="5">
+        <v>-2.0216296786469402E-2</v>
+      </c>
+      <c r="BP73" s="5">
+        <v>-5.8574088006548399E-3</v>
+      </c>
+      <c r="BQ73" s="5">
+        <v>-1.98638074640363E-2</v>
+      </c>
+      <c r="BR73" s="5">
+        <v>-1.3602383653850801E-2</v>
+      </c>
+      <c r="BS73" s="5">
+        <v>7.5619067667882902E-3</v>
+      </c>
+      <c r="BT73" s="5">
+        <v>6.0446484271542804E-3</v>
+      </c>
     </row>
-    <row r="74" spans="2:63" s="5" customFormat="1">
+    <row r="74" spans="2:72" s="5" customFormat="1">
       <c r="B74" s="5">
         <v>1967</v>
       </c>
@@ -9326,8 +10247,35 @@
       <c r="BK74" s="5">
         <v>-1.0257593834492538</v>
       </c>
+      <c r="BL74" s="5">
+        <v>1.29201944603752E-3</v>
+      </c>
+      <c r="BM74" s="5">
+        <v>-4.1827388257193298E-3</v>
+      </c>
+      <c r="BN74" s="5">
+        <v>-6.8115338536948497E-2</v>
+      </c>
+      <c r="BO74" s="5">
+        <v>-1.76243001234778E-2</v>
+      </c>
+      <c r="BP74" s="5">
+        <v>-3.53314371606714E-2</v>
+      </c>
+      <c r="BQ74" s="5">
+        <v>-2.7001245087712601E-2</v>
+      </c>
+      <c r="BR74" s="5">
+        <v>-1.0458320624138999E-2</v>
+      </c>
+      <c r="BS74" s="5">
+        <v>1.16669286100702E-3</v>
+      </c>
+      <c r="BT74" s="5">
+        <v>2.8983439275141399E-2</v>
+      </c>
     </row>
-    <row r="75" spans="2:63" s="5" customFormat="1">
+    <row r="75" spans="2:72" s="5" customFormat="1">
       <c r="B75" s="5">
         <v>1967.25</v>
       </c>
@@ -9446,8 +10394,35 @@
       <c r="BK75" s="5">
         <v>0.59546976933815354</v>
       </c>
+      <c r="BL75" s="5">
+        <v>-5.3147711804704297E-3</v>
+      </c>
+      <c r="BM75" s="5">
+        <v>-1.42337719146276E-2</v>
+      </c>
+      <c r="BN75" s="5">
+        <v>-2.8432441544106301E-2</v>
+      </c>
+      <c r="BO75" s="5">
+        <v>-2.5468134228907899E-2</v>
+      </c>
+      <c r="BP75" s="5">
+        <v>-2.2982658108188902E-3</v>
+      </c>
+      <c r="BQ75" s="5">
+        <v>7.7330214636668303E-3</v>
+      </c>
+      <c r="BR75" s="5">
+        <v>-3.8302088954064603E-2</v>
+      </c>
+      <c r="BS75" s="5">
+        <v>-1.3839612902163701E-2</v>
+      </c>
+      <c r="BT75" s="5">
+        <v>-1.00378523797748E-2</v>
+      </c>
     </row>
-    <row r="76" spans="2:63" s="5" customFormat="1">
+    <row r="76" spans="2:72" s="5" customFormat="1">
       <c r="B76" s="5">
         <v>1967.5</v>
       </c>
@@ -9567,8 +10542,35 @@
       <c r="BK76" s="5">
         <v>-0.44670610787686815</v>
       </c>
+      <c r="BL76" s="5">
+        <v>-2.27501176895477E-2</v>
+      </c>
+      <c r="BM76" s="5">
+        <v>-1.8500031172182501E-2</v>
+      </c>
+      <c r="BN76" s="5">
+        <v>-2.71091792989183E-2</v>
+      </c>
+      <c r="BO76" s="5">
+        <v>-8.8328123081311306E-3</v>
+      </c>
+      <c r="BP76" s="5">
+        <v>-5.4454722841656804E-3</v>
+      </c>
+      <c r="BQ76" s="5">
+        <v>9.1887594071152602E-4</v>
+      </c>
+      <c r="BR76" s="5">
+        <v>-2.0631992675276201E-2</v>
+      </c>
+      <c r="BS76" s="5">
+        <v>5.5966247422078999E-3</v>
+      </c>
+      <c r="BT76" s="5">
+        <v>1.8683298396634501E-3</v>
+      </c>
     </row>
-    <row r="77" spans="2:63" s="5" customFormat="1">
+    <row r="77" spans="2:72" s="5" customFormat="1">
       <c r="B77" s="5">
         <v>1967.75</v>
       </c>
@@ -9688,8 +10690,35 @@
       <c r="BK77" s="5">
         <v>0.79740285920288234</v>
       </c>
+      <c r="BL77" s="5">
+        <v>-4.3665031111019603E-2</v>
+      </c>
+      <c r="BM77" s="5">
+        <v>-2.8449129895947299E-2</v>
+      </c>
+      <c r="BN77" s="5">
+        <v>-1.7197502452783401E-2</v>
+      </c>
+      <c r="BO77" s="5">
+        <v>-7.5225156493475701E-3</v>
+      </c>
+      <c r="BP77" s="5">
+        <v>2.14757428544705E-2</v>
+      </c>
+      <c r="BQ77" s="5">
+        <v>2.82108453660061E-3</v>
+      </c>
+      <c r="BR77" s="5">
+        <v>-1.6120464636143399E-2</v>
+      </c>
+      <c r="BS77" s="5">
+        <v>-4.2543303083234403E-3</v>
+      </c>
+      <c r="BT77" s="5">
+        <v>-1.6396904118731501E-2</v>
+      </c>
     </row>
-    <row r="78" spans="2:63" s="5" customFormat="1">
+    <row r="78" spans="2:72" s="5" customFormat="1">
       <c r="B78" s="5">
         <v>1968</v>
       </c>
@@ -9809,8 +10838,35 @@
       <c r="BK78" s="5">
         <v>0.2797039149725265</v>
       </c>
+      <c r="BL78" s="5">
+        <v>-3.78175219322536E-2</v>
+      </c>
+      <c r="BM78" s="5">
+        <v>-2.3053986151470401E-2</v>
+      </c>
+      <c r="BN78" s="5">
+        <v>-2.9615734957499799E-2</v>
+      </c>
+      <c r="BO78" s="5">
+        <v>-1.2376831550981999E-2</v>
+      </c>
+      <c r="BP78" s="5">
+        <v>6.4544323948245901E-3</v>
+      </c>
+      <c r="BQ78" s="5">
+        <v>-2.1457311644046E-2</v>
+      </c>
+      <c r="BR78" s="5">
+        <v>1.1127581137641E-2</v>
+      </c>
+      <c r="BS78" s="5">
+        <v>-4.3654512588084601E-3</v>
+      </c>
+      <c r="BT78" s="5">
+        <v>3.1113101665193502E-2</v>
+      </c>
     </row>
-    <row r="79" spans="2:63" s="5" customFormat="1">
+    <row r="79" spans="2:72" s="5" customFormat="1">
       <c r="B79" s="5">
         <v>1968.25</v>
       </c>
@@ -9930,8 +10986,35 @@
       <c r="BK79" s="5">
         <v>0.86951984071792821</v>
       </c>
+      <c r="BL79" s="5">
+        <v>-4.3584011589878097E-2</v>
+      </c>
+      <c r="BM79" s="5">
+        <v>-2.5053479199520098E-2</v>
+      </c>
+      <c r="BN79" s="5">
+        <v>-1.43035802190503E-2</v>
+      </c>
+      <c r="BO79" s="5">
+        <v>3.3501903038750699E-3</v>
+      </c>
+      <c r="BP79" s="5">
+        <v>-1.4520274003916899E-2</v>
+      </c>
+      <c r="BQ79" s="5">
+        <v>-1.77550002967106E-3</v>
+      </c>
+      <c r="BR79" s="5">
+        <v>-2.0278633557696799E-2</v>
+      </c>
+      <c r="BS79" s="5">
+        <v>3.5942756128813E-3</v>
+      </c>
+      <c r="BT79" s="5">
+        <v>1.57428156922799E-2</v>
+      </c>
     </row>
-    <row r="80" spans="2:63" s="5" customFormat="1">
+    <row r="80" spans="2:72" s="5" customFormat="1">
       <c r="B80" s="5">
         <v>1968.5</v>
       </c>
@@ -10051,8 +11134,35 @@
       <c r="BK80" s="5">
         <v>-0.58280150236253359</v>
       </c>
+      <c r="BL80" s="5">
+        <v>-2.8100011287543199E-2</v>
+      </c>
+      <c r="BM80" s="5">
+        <v>-2.3169296698777E-2</v>
+      </c>
+      <c r="BN80" s="5">
+        <v>-1.6124032375233702E-2</v>
+      </c>
+      <c r="BO80" s="5">
+        <v>-1.76110175458149E-2</v>
+      </c>
+      <c r="BP80" s="5">
+        <v>-6.2129963174201996E-3</v>
+      </c>
+      <c r="BQ80" s="5">
+        <v>-7.6615777976483503E-3</v>
+      </c>
+      <c r="BR80" s="5">
+        <v>-1.39635969407383E-2</v>
+      </c>
+      <c r="BS80" s="5">
+        <v>1.54569334128303E-2</v>
+      </c>
+      <c r="BT80" s="5">
+        <v>-3.6361841455941702E-3</v>
+      </c>
     </row>
-    <row r="81" spans="2:63" s="5" customFormat="1">
+    <row r="81" spans="2:72" s="5" customFormat="1">
       <c r="B81" s="5">
         <v>1968.75</v>
       </c>
@@ -10208,8 +11318,35 @@
       <c r="BK81" s="5">
         <v>0.18596221165346902</v>
       </c>
+      <c r="BL81" s="5">
+        <v>-2.1027730457254298E-2</v>
+      </c>
+      <c r="BM81" s="5">
+        <v>-3.5324805938275701E-2</v>
+      </c>
+      <c r="BN81" s="5">
+        <v>-7.4498835991056601E-3</v>
+      </c>
+      <c r="BO81" s="5">
+        <v>-2.2495425383788199E-2</v>
+      </c>
+      <c r="BP81" s="5">
+        <v>1.32975957973654E-3</v>
+      </c>
+      <c r="BQ81" s="5">
+        <v>1.01679526311323E-2</v>
+      </c>
+      <c r="BR81" s="5">
+        <v>-2.35311355109184E-2</v>
+      </c>
+      <c r="BS81" s="5">
+        <v>6.8030160870632501E-3</v>
+      </c>
+      <c r="BT81" s="5">
+        <v>2.5938710953296198E-3</v>
+      </c>
     </row>
-    <row r="82" spans="2:63" s="5" customFormat="1">
+    <row r="82" spans="2:72" s="5" customFormat="1">
       <c r="B82" s="5">
         <v>1969</v>
       </c>
@@ -10369,8 +11506,35 @@
       <c r="BK82" s="5">
         <v>-1.2371995856409392</v>
       </c>
+      <c r="BL82" s="5">
+        <v>-3.3207099409293998E-2</v>
+      </c>
+      <c r="BM82" s="5">
+        <v>-2.9539406967032899E-2</v>
+      </c>
+      <c r="BN82" s="5">
+        <v>-1.0631829334110001E-2</v>
+      </c>
+      <c r="BO82" s="5">
+        <v>-2.19384223752386E-2</v>
+      </c>
+      <c r="BP82" s="5">
+        <v>1.3762251106519199E-2</v>
+      </c>
+      <c r="BQ82" s="5">
+        <v>-1.6606945322080999E-2</v>
+      </c>
+      <c r="BR82" s="5">
+        <v>7.3175551791383898E-3</v>
+      </c>
+      <c r="BS82" s="5">
+        <v>2.21286891961083E-2</v>
+      </c>
+      <c r="BT82" s="5">
+        <v>-1.29453921026654E-2</v>
+      </c>
     </row>
-    <row r="83" spans="2:63" s="5" customFormat="1">
+    <row r="83" spans="2:72" s="5" customFormat="1">
       <c r="B83" s="5">
         <v>1969.25</v>
       </c>
@@ -10530,8 +11694,35 @@
       <c r="BK83" s="5">
         <v>0.10344993447461717</v>
       </c>
+      <c r="BL83" s="5">
+        <v>-1.03431093617148E-2</v>
+      </c>
+      <c r="BM83" s="5">
+        <v>-4.2569978979217098E-2</v>
+      </c>
+      <c r="BN83" s="5">
+        <v>3.1815508838678001E-3</v>
+      </c>
+      <c r="BO83" s="5">
+        <v>-3.7453901745519401E-2</v>
+      </c>
+      <c r="BP83" s="5">
+        <v>-2.87107877737907E-3</v>
+      </c>
+      <c r="BQ83" s="5">
+        <v>-1.564705919787E-2</v>
+      </c>
+      <c r="BR83" s="5">
+        <v>-2.3326658231045998E-2</v>
+      </c>
+      <c r="BS83" s="5">
+        <v>-7.75693527873976E-3</v>
+      </c>
+      <c r="BT83" s="5">
+        <v>-3.5813990293846899E-3</v>
+      </c>
     </row>
-    <row r="84" spans="2:63" s="5" customFormat="1">
+    <row r="84" spans="2:72" s="5" customFormat="1">
       <c r="B84" s="5">
         <v>1969.5</v>
       </c>
@@ -10691,8 +11882,35 @@
       <c r="BK84" s="5">
         <v>0.49571730193259356</v>
       </c>
+      <c r="BL84" s="5">
+        <v>6.9229377834242097E-3</v>
+      </c>
+      <c r="BM84" s="5">
+        <v>-4.06464367279364E-2</v>
+      </c>
+      <c r="BN84" s="5">
+        <v>-1.4486947436895201E-2</v>
+      </c>
+      <c r="BO84" s="5">
+        <v>-2.2553183460827599E-2</v>
+      </c>
+      <c r="BP84" s="5">
+        <v>1.3184229091222801E-2</v>
+      </c>
+      <c r="BQ84" s="5">
+        <v>-8.3072265682858099E-3</v>
+      </c>
+      <c r="BR84" s="5">
+        <v>-3.39865782970152E-3</v>
+      </c>
+      <c r="BS84" s="5">
+        <v>-1.25342152963636E-2</v>
+      </c>
+      <c r="BT84" s="5">
+        <v>1.3459612687061499E-3</v>
+      </c>
     </row>
-    <row r="85" spans="2:63" s="5" customFormat="1">
+    <row r="85" spans="2:72" s="5" customFormat="1">
       <c r="B85" s="5">
         <v>1969.75</v>
       </c>
@@ -10851,8 +12069,35 @@
       <c r="BK85" s="5">
         <v>0.94655490629996875</v>
       </c>
+      <c r="BL85" s="5">
+        <v>3.2566904376309803E-2</v>
+      </c>
+      <c r="BM85" s="5">
+        <v>-4.6362543821124799E-2</v>
+      </c>
+      <c r="BN85" s="5">
+        <v>-2.1949671596019401E-3</v>
+      </c>
+      <c r="BO85" s="5">
+        <v>-3.4454427206151002E-2</v>
+      </c>
+      <c r="BP85" s="5">
+        <v>1.4434473952548699E-3</v>
+      </c>
+      <c r="BQ85" s="5">
+        <v>-1.0291368460212599E-3</v>
+      </c>
+      <c r="BR85" s="5">
+        <v>-2.8355727192211501E-2</v>
+      </c>
+      <c r="BS85" s="5">
+        <v>-4.4693322143093102E-3</v>
+      </c>
+      <c r="BT85" s="5">
+        <v>-9.7952743462173496E-3</v>
+      </c>
     </row>
-    <row r="86" spans="2:63" s="5" customFormat="1">
+    <row r="86" spans="2:72" s="5" customFormat="1">
       <c r="B86" s="5">
         <v>1970</v>
       </c>
@@ -11013,8 +12258,35 @@
       <c r="BK86" s="5">
         <v>0.15456380802888742</v>
       </c>
+      <c r="BL86" s="5">
+        <v>5.3233657346882297E-2</v>
+      </c>
+      <c r="BM86" s="5">
+        <v>-4.0636266889717103E-2</v>
+      </c>
+      <c r="BN86" s="5">
+        <v>-2.3123326440561798E-2</v>
+      </c>
+      <c r="BO86" s="5">
+        <v>-2.5194116256644299E-2</v>
+      </c>
+      <c r="BP86" s="5">
+        <v>1.1521648251439E-3</v>
+      </c>
+      <c r="BQ86" s="5">
+        <v>-1.38360979863325E-2</v>
+      </c>
+      <c r="BR86" s="5">
+        <v>-1.06405522424259E-2</v>
+      </c>
+      <c r="BS86" s="5">
+        <v>-6.2088760191770596E-3</v>
+      </c>
+      <c r="BT86" s="5">
+        <v>-7.9234874482972794E-3</v>
+      </c>
     </row>
-    <row r="87" spans="2:63" s="5" customFormat="1">
+    <row r="87" spans="2:72" s="5" customFormat="1">
       <c r="B87" s="5">
         <v>1970.25</v>
       </c>
@@ -11173,8 +12445,35 @@
       <c r="BK87" s="5">
         <v>0.78992700281644268</v>
       </c>
+      <c r="BL87" s="5">
+        <v>4.84518908792715E-2</v>
+      </c>
+      <c r="BM87" s="5">
+        <v>-3.94009962001627E-2</v>
+      </c>
+      <c r="BN87" s="5">
+        <v>-3.5092969585121203E-2</v>
+      </c>
+      <c r="BO87" s="5">
+        <v>-5.5871632806966699E-3</v>
+      </c>
+      <c r="BP87" s="5">
+        <v>4.7531719828978601E-2</v>
+      </c>
+      <c r="BQ87" s="5">
+        <v>-2.8971729845668402E-2</v>
+      </c>
+      <c r="BR87" s="5">
+        <v>2.49981234830715E-2</v>
+      </c>
+      <c r="BS87" s="5">
+        <v>-1.5487038189780001E-2</v>
+      </c>
+      <c r="BT87" s="5">
+        <v>6.7811858923314903E-3</v>
+      </c>
     </row>
-    <row r="88" spans="2:63" s="5" customFormat="1">
+    <row r="88" spans="2:72" s="5" customFormat="1">
       <c r="B88" s="5">
         <v>1970.5</v>
       </c>
@@ -11333,8 +12632,35 @@
       <c r="BK88" s="5">
         <v>0.57853730217822985</v>
       </c>
+      <c r="BL88" s="5">
+        <v>2.5087112446539699E-2</v>
+      </c>
+      <c r="BM88" s="5">
+        <v>-2.6786623364641899E-2</v>
+      </c>
+      <c r="BN88" s="5">
+        <v>-3.5837718450645699E-2</v>
+      </c>
+      <c r="BO88" s="5">
+        <v>2.0399851411810499E-2</v>
+      </c>
+      <c r="BP88" s="5">
+        <v>-2.22727042518025E-2</v>
+      </c>
+      <c r="BQ88" s="14">
+        <v>4.8435919812827399E-5</v>
+      </c>
+      <c r="BR88" s="5">
+        <v>-1.34568159525334E-2</v>
+      </c>
+      <c r="BS88" s="5">
+        <v>7.4853059501648004E-3</v>
+      </c>
+      <c r="BT88" s="5">
+        <v>2.4595647576654101E-2</v>
+      </c>
     </row>
-    <row r="89" spans="2:63" s="5" customFormat="1">
+    <row r="89" spans="2:72" s="5" customFormat="1">
       <c r="B89" s="5">
         <v>1970.75</v>
       </c>
@@ -11493,8 +12819,35 @@
       <c r="BK89" s="5">
         <v>0.72162875444462515</v>
       </c>
+      <c r="BL89" s="5">
+        <v>6.0996604151394601E-2</v>
+      </c>
+      <c r="BM89" s="5">
+        <v>-3.6410877948254601E-2</v>
+      </c>
+      <c r="BN89" s="5">
+        <v>-3.0168805548982498E-2</v>
+      </c>
+      <c r="BO89" s="5">
+        <v>1.0095886239351701E-3</v>
+      </c>
+      <c r="BP89" s="5">
+        <v>-7.8305327376889302E-3</v>
+      </c>
+      <c r="BQ89" s="5">
+        <v>1.82632924259599E-2</v>
+      </c>
+      <c r="BR89" s="5">
+        <v>-3.6369357413517898E-2</v>
+      </c>
+      <c r="BS89" s="5">
+        <v>7.5736017553999302E-3</v>
+      </c>
+      <c r="BT89" s="5">
+        <v>-2.8253454283296599E-2</v>
+      </c>
     </row>
-    <row r="90" spans="2:63" s="5" customFormat="1">
+    <row r="90" spans="2:72" s="5" customFormat="1">
       <c r="B90" s="5">
         <v>1971</v>
       </c>
@@ -11653,8 +13006,35 @@
       <c r="BK90" s="5">
         <v>0.39213466947051479</v>
       </c>
+      <c r="BL90" s="5">
+        <v>-2.88072359757339E-2</v>
+      </c>
+      <c r="BM90" s="5">
+        <v>-1.6310489192309999E-2</v>
+      </c>
+      <c r="BN90" s="5">
+        <v>-3.5887639188894503E-2</v>
+      </c>
+      <c r="BO90" s="5">
+        <v>6.0706075311688201E-2</v>
+      </c>
+      <c r="BP90" s="5">
+        <v>1.1365577429714301E-2</v>
+      </c>
+      <c r="BQ90" s="5">
+        <v>-5.1556176774003497E-3</v>
+      </c>
+      <c r="BR90" s="5">
+        <v>5.8246888188043296E-3</v>
+      </c>
+      <c r="BS90" s="5">
+        <v>1.9324064514537099E-2</v>
+      </c>
+      <c r="BT90" s="5">
+        <v>4.37380951812332E-2</v>
+      </c>
     </row>
-    <row r="91" spans="2:63" s="5" customFormat="1">
+    <row r="91" spans="2:72" s="5" customFormat="1">
       <c r="B91" s="5">
         <v>1971.25</v>
       </c>
@@ -11813,8 +13193,35 @@
       <c r="BK91" s="5">
         <v>0.84653495441183813</v>
       </c>
+      <c r="BL91" s="5">
+        <v>-5.1493955970351802E-3</v>
+      </c>
+      <c r="BM91" s="5">
+        <v>-3.27797892555797E-2</v>
+      </c>
+      <c r="BN91" s="5">
+        <v>-1.8130936307687601E-2</v>
+      </c>
+      <c r="BO91" s="5">
+        <v>1.1220841888806E-2</v>
+      </c>
+      <c r="BP91" s="5">
+        <v>2.0067221185477799E-2</v>
+      </c>
+      <c r="BQ91" s="5">
+        <v>7.3480875500966302E-3</v>
+      </c>
+      <c r="BR91" s="5">
+        <v>-8.68737999409455E-3</v>
+      </c>
+      <c r="BS91" s="5">
+        <v>-3.1745408589885001E-3</v>
+      </c>
+      <c r="BT91" s="5">
+        <v>1.0777853295959801E-2</v>
+      </c>
     </row>
-    <row r="92" spans="2:63" s="5" customFormat="1">
+    <row r="92" spans="2:72" s="5" customFormat="1">
       <c r="B92" s="5">
         <v>1971.5</v>
       </c>
@@ -11973,8 +13380,35 @@
       <c r="BK92" s="5">
         <v>0.13694182386202802</v>
       </c>
+      <c r="BL92" s="5">
+        <v>-1.42532850827539E-2</v>
+      </c>
+      <c r="BM92" s="5">
+        <v>-2.1094246628025899E-2</v>
+      </c>
+      <c r="BN92" s="5">
+        <v>-1.3775645840905799E-2</v>
+      </c>
+      <c r="BO92" s="5">
+        <v>6.6356359576335699E-4</v>
+      </c>
+      <c r="BP92" s="5">
+        <v>1.89288127393476E-2</v>
+      </c>
+      <c r="BQ92" s="5">
+        <v>1.79964365680364E-2</v>
+      </c>
+      <c r="BR92" s="5">
+        <v>-1.3612295229021999E-2</v>
+      </c>
+      <c r="BS92" s="5">
+        <v>4.8653384438159704E-3</v>
+      </c>
+      <c r="BT92" s="5">
+        <v>-8.1895526156409593E-3</v>
+      </c>
     </row>
-    <row r="93" spans="2:63" s="5" customFormat="1">
+    <row r="93" spans="2:72" s="5" customFormat="1">
       <c r="B93" s="5">
         <v>1971.75</v>
       </c>
@@ -12133,8 +13567,35 @@
       <c r="BK93" s="5">
         <v>-0.17597323375223428</v>
       </c>
+      <c r="BL93" s="5">
+        <v>-2.1322134842090099E-2</v>
+      </c>
+      <c r="BM93" s="5">
+        <v>-1.9014698774337702E-2</v>
+      </c>
+      <c r="BN93" s="5">
+        <v>-1.19270570393304E-2</v>
+      </c>
+      <c r="BO93" s="5">
+        <v>2.3947336323061801E-3</v>
+      </c>
+      <c r="BP93" s="5">
+        <v>1.52854882247794E-2</v>
+      </c>
+      <c r="BQ93" s="5">
+        <v>2.7015890330047601E-2</v>
+      </c>
+      <c r="BR93" s="5">
+        <v>-3.2339213366295201E-2</v>
+      </c>
+      <c r="BS93" s="5">
+        <v>-9.8173680139023098E-3</v>
+      </c>
+      <c r="BT93" s="5">
+        <v>-2.1672918217825798E-2</v>
+      </c>
     </row>
-    <row r="94" spans="2:63" s="5" customFormat="1">
+    <row r="94" spans="2:72" s="5" customFormat="1">
       <c r="B94" s="5">
         <v>1972</v>
       </c>
@@ -12293,8 +13754,35 @@
       <c r="BK94" s="5">
         <v>-0.13648611966246665</v>
       </c>
+      <c r="BL94" s="5">
+        <v>-7.1214552824992797E-2</v>
+      </c>
+      <c r="BM94" s="5">
+        <v>-2.9628390201623601E-2</v>
+      </c>
+      <c r="BN94" s="5">
+        <v>-4.82094246302372E-3</v>
+      </c>
+      <c r="BO94" s="5">
+        <v>1.21659296898846E-2</v>
+      </c>
+      <c r="BP94" s="5">
+        <v>6.9326729096320901E-3</v>
+      </c>
+      <c r="BQ94" s="5">
+        <v>2.45614182037176E-2</v>
+      </c>
+      <c r="BR94" s="5">
+        <v>-1.93771183322572E-2</v>
+      </c>
+      <c r="BS94" s="5">
+        <v>5.2875055375765203E-3</v>
+      </c>
+      <c r="BT94" s="5">
+        <v>1.15188195651216E-2</v>
+      </c>
     </row>
-    <row r="95" spans="2:63" s="5" customFormat="1">
+    <row r="95" spans="2:72" s="5" customFormat="1">
       <c r="B95" s="5">
         <v>1972.25</v>
       </c>
@@ -12453,8 +13941,35 @@
       <c r="BK95" s="5">
         <v>-1.1956689730359069</v>
       </c>
+      <c r="BL95" s="5">
+        <v>-4.8089508756960997E-2</v>
+      </c>
+      <c r="BM95" s="5">
+        <v>-1.14054851407451E-2</v>
+      </c>
+      <c r="BN95" s="5">
+        <v>-1.6932114323317302E-2</v>
+      </c>
+      <c r="BO95" s="5">
+        <v>7.6730022188407103E-3</v>
+      </c>
+      <c r="BP95" s="5">
+        <v>8.3429524900600696E-3</v>
+      </c>
+      <c r="BQ95" s="5">
+        <v>-6.3037520188336396E-3</v>
+      </c>
+      <c r="BR95" s="5">
+        <v>6.6372926543597603E-3</v>
+      </c>
+      <c r="BS95" s="5">
+        <v>7.7435700356074397E-3</v>
+      </c>
+      <c r="BT95" s="5">
+        <v>1.9823175681064401E-2</v>
+      </c>
     </row>
-    <row r="96" spans="2:63" s="5" customFormat="1">
+    <row r="96" spans="2:72" s="5" customFormat="1">
       <c r="B96" s="5">
         <v>1972.5</v>
       </c>
@@ -12613,8 +14128,35 @@
       <c r="BK96" s="5">
         <v>1.9677645520177809</v>
       </c>
+      <c r="BL96" s="5">
+        <v>-3.7830791608170503E-2</v>
+      </c>
+      <c r="BM96" s="5">
+        <v>-1.5096755622381899E-2</v>
+      </c>
+      <c r="BN96" s="5">
+        <v>-8.7827866908470002E-3</v>
+      </c>
+      <c r="BO96" s="5">
+        <v>-1.0195131916501999E-3</v>
+      </c>
+      <c r="BP96" s="5">
+        <v>6.5048715489325797E-3</v>
+      </c>
+      <c r="BQ96" s="5">
+        <v>1.3625685689263201E-2</v>
+      </c>
+      <c r="BR96" s="5">
+        <v>-5.6587012921186699E-3</v>
+      </c>
+      <c r="BS96" s="5">
+        <v>5.66162060549915E-3</v>
+      </c>
+      <c r="BT96" s="5">
+        <v>-8.1720271197613099E-4</v>
+      </c>
     </row>
-    <row r="97" spans="2:63" s="5" customFormat="1">
+    <row r="97" spans="2:72" s="5" customFormat="1">
       <c r="B97" s="5">
         <v>1972.75</v>
       </c>
@@ -12773,8 +14315,35 @@
       <c r="BK97" s="5">
         <v>0.55439697192577553</v>
       </c>
+      <c r="BL97" s="5">
+        <v>-7.5016850305727398E-2</v>
+      </c>
+      <c r="BM97" s="5">
+        <v>-2.6567170450461999E-2</v>
+      </c>
+      <c r="BN97" s="5">
+        <v>-4.8103733118748902E-3</v>
+      </c>
+      <c r="BO97" s="5">
+        <v>1.37519737247013E-2</v>
+      </c>
+      <c r="BP97" s="5">
+        <v>4.1249147835255398E-4</v>
+      </c>
+      <c r="BQ97" s="5">
+        <v>1.5993216473239098E-2</v>
+      </c>
+      <c r="BR97" s="5">
+        <v>-1.95345795894642E-2</v>
+      </c>
+      <c r="BS97" s="5">
+        <v>-2.5953705969198101E-2</v>
+      </c>
+      <c r="BT97" s="5">
+        <v>3.2907362123183098E-2</v>
+      </c>
     </row>
-    <row r="98" spans="2:63" s="5" customFormat="1">
+    <row r="98" spans="2:72" s="5" customFormat="1">
       <c r="B98" s="5">
         <v>1973</v>
       </c>
@@ -12936,8 +14505,35 @@
       <c r="BK98" s="5">
         <v>-2.9581193780114954</v>
       </c>
+      <c r="BL98" s="5">
+        <v>-7.1535529804456197E-2</v>
+      </c>
+      <c r="BM98" s="5">
+        <v>-5.0950980438186903E-2</v>
+      </c>
+      <c r="BN98" s="5">
+        <v>4.0992213140762998E-2</v>
+      </c>
+      <c r="BO98" s="5">
+        <v>-1.03113531371636E-3</v>
+      </c>
+      <c r="BP98" s="5">
+        <v>2.5619522058548699E-2</v>
+      </c>
+      <c r="BQ98" s="5">
+        <v>-1.4591480255067501E-2</v>
+      </c>
+      <c r="BR98" s="5">
+        <v>-1.3321995976021199E-2</v>
+      </c>
+      <c r="BS98" s="5">
+        <v>9.3178704121371098E-3</v>
+      </c>
+      <c r="BT98" s="5">
+        <v>2.4625794911433099E-2</v>
+      </c>
     </row>
-    <row r="99" spans="2:63" s="5" customFormat="1">
+    <row r="99" spans="2:72" s="5" customFormat="1">
       <c r="B99" s="5">
         <v>1973.25</v>
       </c>
@@ -13099,8 +14695,35 @@
       <c r="BK99" s="5">
         <v>-1.3149625422057518</v>
       </c>
+      <c r="BL99" s="5">
+        <v>-3.0649304060514099E-3</v>
+      </c>
+      <c r="BM99" s="5">
+        <v>-4.8719680289091197E-2</v>
+      </c>
+      <c r="BN99" s="5">
+        <v>3.0793078873950001E-2</v>
+      </c>
+      <c r="BO99" s="5">
+        <v>-2.6266934761379201E-2</v>
+      </c>
+      <c r="BP99" s="5">
+        <v>1.76310350200845E-2</v>
+      </c>
+      <c r="BQ99" s="5">
+        <v>-1.82647632705909E-2</v>
+      </c>
+      <c r="BR99" s="5">
+        <v>-1.08420755137929E-2</v>
+      </c>
+      <c r="BS99" s="5">
+        <v>9.8370521557786302E-3</v>
+      </c>
+      <c r="BT99" s="5">
+        <v>1.8131958757523398E-2</v>
+      </c>
     </row>
-    <row r="100" spans="2:63" s="5" customFormat="1">
+    <row r="100" spans="2:72" s="5" customFormat="1">
       <c r="B100" s="5">
         <v>1973.5</v>
       </c>
@@ -13262,8 +14885,35 @@
       <c r="BK100" s="5">
         <v>1.2069000586331566</v>
       </c>
+      <c r="BL100" s="5">
+        <v>2.1658692828555901E-2</v>
+      </c>
+      <c r="BM100" s="5">
+        <v>-5.60322371885736E-2</v>
+      </c>
+      <c r="BN100" s="5">
+        <v>3.1146450914967299E-2</v>
+      </c>
+      <c r="BO100" s="5">
+        <v>-2.17616764609363E-2</v>
+      </c>
+      <c r="BP100" s="5">
+        <v>2.3431399815973999E-4</v>
+      </c>
+      <c r="BQ100" s="5">
+        <v>-8.0353086955618006E-3</v>
+      </c>
+      <c r="BR100" s="5">
+        <v>-2.23785633117713E-2</v>
+      </c>
+      <c r="BS100" s="5">
+        <v>1.4556998046163699E-2</v>
+      </c>
+      <c r="BT100" s="5">
+        <v>-1.4233891781791999E-2</v>
+      </c>
     </row>
-    <row r="101" spans="2:63" s="5" customFormat="1">
+    <row r="101" spans="2:72" s="5" customFormat="1">
       <c r="B101" s="5">
         <v>1973.75</v>
       </c>
@@ -13425,8 +15075,35 @@
       <c r="BK101" s="5">
         <v>-2.3229412531303026</v>
       </c>
+      <c r="BL101" s="5">
+        <v>4.3143580700619804E-3</v>
+      </c>
+      <c r="BM101" s="5">
+        <v>-5.9110399297151402E-2</v>
+      </c>
+      <c r="BN101" s="5">
+        <v>3.1535449429915999E-2</v>
+      </c>
+      <c r="BO101" s="5">
+        <v>-2.89311624357417E-2</v>
+      </c>
+      <c r="BP101" s="5">
+        <v>2.7004374154967401E-2</v>
+      </c>
+      <c r="BQ101" s="5">
+        <v>-1.10394285640597E-2</v>
+      </c>
+      <c r="BR101" s="5">
+        <v>-6.7371634331251798E-3</v>
+      </c>
+      <c r="BS101" s="5">
+        <v>-1.70541798620765E-4</v>
+      </c>
+      <c r="BT101" s="5">
+        <v>9.5798763049893005E-3</v>
+      </c>
     </row>
-    <row r="102" spans="2:63" s="5" customFormat="1">
+    <row r="102" spans="2:72" s="5" customFormat="1">
       <c r="B102" s="5">
         <v>1974</v>
       </c>
@@ -13588,8 +15265,35 @@
       <c r="BK102" s="5">
         <v>-1.2750514571005933</v>
       </c>
+      <c r="BL102" s="5">
+        <v>6.2615103486210105E-2</v>
+      </c>
+      <c r="BM102" s="5">
+        <v>-7.8468431661213506E-2</v>
+      </c>
+      <c r="BN102" s="5">
+        <v>3.8407694238290699E-2</v>
+      </c>
+      <c r="BO102" s="5">
+        <v>-1.52244759622427E-2</v>
+      </c>
+      <c r="BP102" s="5">
+        <v>2.8133239405616901E-3</v>
+      </c>
+      <c r="BQ102" s="5">
+        <v>-3.42679302165231E-2</v>
+      </c>
+      <c r="BR102" s="5">
+        <v>-4.17468693881171E-2</v>
+      </c>
+      <c r="BS102" s="5">
+        <v>7.5219561592514798E-3</v>
+      </c>
+      <c r="BT102" s="5">
+        <v>-6.0257762836848905E-4</v>
+      </c>
     </row>
-    <row r="103" spans="2:63" s="5" customFormat="1">
+    <row r="103" spans="2:72" s="5" customFormat="1">
       <c r="B103" s="5">
         <v>1974.25</v>
       </c>
@@ -13751,8 +15455,35 @@
       <c r="BK103" s="5">
         <v>0.76752528898868166</v>
       </c>
+      <c r="BL103" s="5">
+        <v>3.2456431115354803E-2</v>
+      </c>
+      <c r="BM103" s="5">
+        <v>-8.2507316260140295E-2</v>
+      </c>
+      <c r="BN103" s="5">
+        <v>2.67201126170451E-2</v>
+      </c>
+      <c r="BO103" s="5">
+        <v>-1.6685432165575099E-2</v>
+      </c>
+      <c r="BP103" s="5">
+        <v>2.01793569109469E-2</v>
+      </c>
+      <c r="BQ103" s="5">
+        <v>-1.34215568061853E-2</v>
+      </c>
+      <c r="BR103" s="5">
+        <v>-1.7465494615497099E-3</v>
+      </c>
+      <c r="BS103" s="5">
+        <v>1.8907830380608101E-2</v>
+      </c>
+      <c r="BT103" s="5">
+        <v>-5.7993778054585905E-4</v>
+      </c>
     </row>
-    <row r="104" spans="2:63" s="5" customFormat="1">
+    <row r="104" spans="2:72" s="5" customFormat="1">
       <c r="B104" s="5">
         <v>1974.5</v>
       </c>
@@ -13916,8 +15647,35 @@
       <c r="BK104" s="5">
         <v>1.4088521195154355</v>
       </c>
+      <c r="BL104" s="5">
+        <v>7.8445265167323197E-2</v>
+      </c>
+      <c r="BM104" s="5">
+        <v>-0.110960716264531</v>
+      </c>
+      <c r="BN104" s="5">
+        <v>5.2919659498520497E-2</v>
+      </c>
+      <c r="BO104" s="5">
+        <v>-3.9079783892721001E-2</v>
+      </c>
+      <c r="BP104" s="5">
+        <v>6.9366878064200693E-2</v>
+      </c>
+      <c r="BQ104" s="5">
+        <v>-1.6238906361865198E-2</v>
+      </c>
+      <c r="BR104" s="5">
+        <v>-1.18905846196575E-2</v>
+      </c>
+      <c r="BS104" s="5">
+        <v>-9.2496600354482292E-3</v>
+      </c>
+      <c r="BT104" s="5">
+        <v>-3.6289752336907898E-3</v>
+      </c>
     </row>
-    <row r="105" spans="2:63" s="5" customFormat="1">
+    <row r="105" spans="2:72" s="5" customFormat="1">
       <c r="B105" s="5">
         <v>1974.75</v>
       </c>
@@ -14079,8 +15837,35 @@
       <c r="BK105" s="5">
         <v>-0.2402299117350889</v>
       </c>
+      <c r="BL105" s="5">
+        <v>0.15067518731863999</v>
+      </c>
+      <c r="BM105" s="5">
+        <v>-8.2339503967322702E-2</v>
+      </c>
+      <c r="BN105" s="5">
+        <v>-4.5350474952577796E-3</v>
+      </c>
+      <c r="BO105" s="5">
+        <v>2.1607483766495198E-3</v>
+      </c>
+      <c r="BP105" s="5">
+        <v>-1.5372434448902499E-2</v>
+      </c>
+      <c r="BQ105" s="5">
+        <v>-4.1060818831130302E-2</v>
+      </c>
+      <c r="BR105" s="5">
+        <v>-6.9063386763653202E-3</v>
+      </c>
+      <c r="BS105" s="5">
+        <v>2.9746538372199299E-2</v>
+      </c>
+      <c r="BT105" s="5">
+        <v>4.7282335271450503E-2</v>
+      </c>
     </row>
-    <row r="106" spans="2:63" s="5" customFormat="1">
+    <row r="106" spans="2:72" s="5" customFormat="1">
       <c r="B106" s="5">
         <v>1975</v>
       </c>
@@ -14242,8 +16027,35 @@
       <c r="BK106" s="5">
         <v>0.54795137402078431</v>
       </c>
+      <c r="BL106" s="5">
+        <v>0.14706300052893101</v>
+      </c>
+      <c r="BM106" s="5">
+        <v>-4.66427138316216E-2</v>
+      </c>
+      <c r="BN106" s="5">
+        <v>-5.3368373117597401E-2</v>
+      </c>
+      <c r="BO106" s="5">
+        <v>3.4475955386947102E-2</v>
+      </c>
+      <c r="BP106" s="5">
+        <v>-4.7474156075947599E-2</v>
+      </c>
+      <c r="BQ106" s="5">
+        <v>6.6394006362027001E-3</v>
+      </c>
+      <c r="BR106" s="5">
+        <v>-2.4319411700613199E-2</v>
+      </c>
+      <c r="BS106" s="5">
+        <v>1.53622013678913E-2</v>
+      </c>
+      <c r="BT106" s="5">
+        <v>2.2531887259838498E-2</v>
+      </c>
     </row>
-    <row r="107" spans="2:63" s="5" customFormat="1">
+    <row r="107" spans="2:72" s="5" customFormat="1">
       <c r="B107" s="5">
         <v>1975.25</v>
       </c>
@@ -14405,8 +16217,35 @@
       <c r="BK107" s="5">
         <v>1.2077310323012673</v>
       </c>
+      <c r="BL107" s="5">
+        <v>3.52296932005257E-2</v>
+      </c>
+      <c r="BM107" s="5">
+        <v>-3.4542753581311897E-2</v>
+      </c>
+      <c r="BN107" s="5">
+        <v>-4.8903887744353398E-2</v>
+      </c>
+      <c r="BO107" s="5">
+        <v>7.5505345554917599E-2</v>
+      </c>
+      <c r="BP107" s="5">
+        <v>4.4450154223169896E-3</v>
+      </c>
+      <c r="BQ107" s="5">
+        <v>1.9051194381484698E-2</v>
+      </c>
+      <c r="BR107" s="5">
+        <v>-1.3587117115778299E-2</v>
+      </c>
+      <c r="BS107" s="5">
+        <v>-5.3416735465148302E-2</v>
+      </c>
+      <c r="BT107" s="5">
+        <v>2.9909429797396501E-2</v>
+      </c>
     </row>
-    <row r="108" spans="2:63" s="5" customFormat="1">
+    <row r="108" spans="2:72" s="5" customFormat="1">
       <c r="B108" s="5">
         <v>1975.5</v>
       </c>
@@ -14568,8 +16407,35 @@
       <c r="BK108" s="5">
         <v>-0.74670711676322377</v>
       </c>
+      <c r="BL108" s="5">
+        <v>-4.4205128990183203E-2</v>
+      </c>
+      <c r="BM108" s="5">
+        <v>-5.1075817940335999E-2</v>
+      </c>
+      <c r="BN108" s="5">
+        <v>2.9121366233488401E-2</v>
+      </c>
+      <c r="BO108" s="5">
+        <v>4.49067813229128E-2</v>
+      </c>
+      <c r="BP108" s="5">
+        <v>6.2699508169057103E-2</v>
+      </c>
+      <c r="BQ108" s="5">
+        <v>1.50121822715307E-2</v>
+      </c>
+      <c r="BR108" s="5">
+        <v>-3.1969029090782898E-3</v>
+      </c>
+      <c r="BS108" s="5">
+        <v>1.96577019385713E-2</v>
+      </c>
+      <c r="BT108" s="5">
+        <v>-3.6090548093797199E-2</v>
+      </c>
     </row>
-    <row r="109" spans="2:63" s="5" customFormat="1">
+    <row r="109" spans="2:72" s="5" customFormat="1">
       <c r="B109" s="5">
         <v>1975.75</v>
       </c>
@@ -14731,8 +16597,35 @@
       <c r="BK109" s="5">
         <v>3.1710000206158773E-4</v>
       </c>
+      <c r="BL109" s="5">
+        <v>-1.9457387718657699E-2</v>
+      </c>
+      <c r="BM109" s="5">
+        <v>-4.4175831497985103E-2</v>
+      </c>
+      <c r="BN109" s="5">
+        <v>1.06959353501198E-2</v>
+      </c>
+      <c r="BO109" s="5">
+        <v>3.38148487233879E-2</v>
+      </c>
+      <c r="BP109" s="5">
+        <v>7.6870125892255997E-3</v>
+      </c>
+      <c r="BQ109" s="5">
+        <v>1.5428441289738099E-2</v>
+      </c>
+      <c r="BR109" s="5">
+        <v>-1.3920067171558401E-2</v>
+      </c>
+      <c r="BS109" s="5">
+        <v>1.18551616072744E-2</v>
+      </c>
+      <c r="BT109" s="5">
+        <v>-1.9788649487133898E-3</v>
+      </c>
     </row>
-    <row r="110" spans="2:63" s="5" customFormat="1">
+    <row r="110" spans="2:72" s="5" customFormat="1">
       <c r="B110" s="5">
         <v>1976</v>
       </c>
@@ -14894,8 +16787,35 @@
       <c r="BK110" s="5">
         <v>-1.38538633821923E-2</v>
       </c>
+      <c r="BL110" s="5">
+        <v>-6.4791744236048998E-2</v>
+      </c>
+      <c r="BM110" s="5">
+        <v>-1.75684337612141E-2</v>
+      </c>
+      <c r="BN110" s="5">
+        <v>-2.16212445192829E-3</v>
+      </c>
+      <c r="BO110" s="5">
+        <v>4.7541610526045698E-2</v>
+      </c>
+      <c r="BP110" s="5">
+        <v>-4.8604051906829997E-3</v>
+      </c>
+      <c r="BQ110" s="5">
+        <v>4.2457513183271102E-2</v>
+      </c>
+      <c r="BR110" s="5">
+        <v>-7.8320461784667002E-3</v>
+      </c>
+      <c r="BS110" s="5">
+        <v>1.4666202465323699E-2</v>
+      </c>
+      <c r="BT110" s="5">
+        <v>1.9518752694796899E-3</v>
+      </c>
     </row>
-    <row r="111" spans="2:63" s="5" customFormat="1">
+    <row r="111" spans="2:72" s="5" customFormat="1">
       <c r="B111" s="5">
         <v>1976.25</v>
       </c>
@@ -15057,8 +16977,35 @@
       <c r="BK111" s="5">
         <v>0.62375192706789517</v>
       </c>
+      <c r="BL111" s="5">
+        <v>-5.4759243797315197E-3</v>
+      </c>
+      <c r="BM111" s="5">
+        <v>-2.3757731562128501E-2</v>
+      </c>
+      <c r="BN111" s="5">
+        <v>-2.43497376919902E-3</v>
+      </c>
+      <c r="BO111" s="5">
+        <v>8.2707787770464197E-3</v>
+      </c>
+      <c r="BP111" s="5">
+        <v>7.5135694555640998E-3</v>
+      </c>
+      <c r="BQ111" s="5">
+        <v>1.5246601661900399E-2</v>
+      </c>
+      <c r="BR111" s="5">
+        <v>-1.73424011534422E-3</v>
+      </c>
+      <c r="BS111" s="5">
+        <v>6.6140132323484297E-3</v>
+      </c>
+      <c r="BT111" s="5">
+        <v>-6.3756800711962198E-3</v>
+      </c>
     </row>
-    <row r="112" spans="2:63" s="5" customFormat="1">
+    <row r="112" spans="2:72" s="5" customFormat="1">
       <c r="B112" s="5">
         <v>1976.5</v>
       </c>
@@ -15220,8 +17167,35 @@
       <c r="BK112" s="5">
         <v>0.32131581717887803</v>
       </c>
+      <c r="BL112" s="5">
+        <v>-8.2121774261447508E-3</v>
+      </c>
+      <c r="BM112" s="5">
+        <v>-3.2638563820670097E-2</v>
+      </c>
+      <c r="BN112" s="5">
+        <v>3.6930810235846099E-3</v>
+      </c>
+      <c r="BO112" s="5">
+        <v>1.00958212225277E-4</v>
+      </c>
+      <c r="BP112" s="14">
+        <v>7.5616564141321198E-5</v>
+      </c>
+      <c r="BQ112" s="5">
+        <v>1.42525915159933E-2</v>
+      </c>
+      <c r="BR112" s="5">
+        <v>-1.0324956444063E-2</v>
+      </c>
+      <c r="BS112" s="5">
+        <v>2.8290583959476802E-3</v>
+      </c>
+      <c r="BT112" s="5">
+        <v>-1.81158524796558E-3</v>
+      </c>
     </row>
-    <row r="113" spans="2:63" s="5" customFormat="1">
+    <row r="113" spans="2:72" s="5" customFormat="1">
       <c r="B113" s="5">
         <v>1976.75</v>
       </c>
@@ -15383,8 +17357,35 @@
       <c r="BK113" s="5">
         <v>0.67094192522375729</v>
       </c>
+      <c r="BL113" s="5">
+        <v>-1.8754368595301101E-2</v>
+      </c>
+      <c r="BM113" s="5">
+        <v>-3.6795033365672497E-2</v>
+      </c>
+      <c r="BN113" s="5">
+        <v>4.7790043097793696E-3</v>
+      </c>
+      <c r="BO113" s="5">
+        <v>1.06293508769393E-2</v>
+      </c>
+      <c r="BP113" s="5">
+        <v>1.5595447207351201E-2</v>
+      </c>
+      <c r="BQ113" s="5">
+        <v>2.62061970638863E-2</v>
+      </c>
+      <c r="BR113" s="5">
+        <v>-1.4522377437830299E-2</v>
+      </c>
+      <c r="BS113" s="5">
+        <v>5.2779489320886304E-3</v>
+      </c>
+      <c r="BT113" s="5">
+        <v>-4.5985727080735802E-3</v>
+      </c>
     </row>
-    <row r="114" spans="2:63" s="5" customFormat="1">
+    <row r="114" spans="2:72" s="5" customFormat="1">
       <c r="B114" s="5">
         <v>1977</v>
       </c>
@@ -15546,8 +17547,35 @@
       <c r="BK114" s="5">
         <v>9.3953106362731104E-2</v>
       </c>
+      <c r="BL114" s="5">
+        <v>-3.04913468803347E-2</v>
+      </c>
+      <c r="BM114" s="5">
+        <v>-4.0711399411982097E-2</v>
+      </c>
+      <c r="BN114" s="5">
+        <v>2.3094523484453001E-2</v>
+      </c>
+      <c r="BO114" s="5">
+        <v>6.3317425997642804E-3</v>
+      </c>
+      <c r="BP114" s="5">
+        <v>3.2333287838132399E-2</v>
+      </c>
+      <c r="BQ114" s="5">
+        <v>8.6236060586229995E-3</v>
+      </c>
+      <c r="BR114" s="5">
+        <v>-4.8544287225034503E-3</v>
+      </c>
+      <c r="BS114" s="5">
+        <v>1.11555906518029E-2</v>
+      </c>
+      <c r="BT114" s="5">
+        <v>8.2945134922311899E-4</v>
+      </c>
     </row>
-    <row r="115" spans="2:63" s="5" customFormat="1">
+    <row r="115" spans="2:72" s="5" customFormat="1">
       <c r="B115" s="5">
         <v>1977.25</v>
       </c>
@@ -15709,8 +17737,35 @@
       <c r="BK115" s="5">
         <v>-1.2618600802020823</v>
       </c>
+      <c r="BL115" s="5">
+        <v>-5.4077472205052698E-2</v>
+      </c>
+      <c r="BM115" s="5">
+        <v>-3.8461507603951603E-2</v>
+      </c>
+      <c r="BN115" s="5">
+        <v>2.4088263434637901E-2</v>
+      </c>
+      <c r="BO115" s="5">
+        <v>9.4215570377207594E-3</v>
+      </c>
+      <c r="BP115" s="5">
+        <v>1.6342870500763201E-2</v>
+      </c>
+      <c r="BQ115" s="5">
+        <v>1.4902674006046101E-2</v>
+      </c>
+      <c r="BR115" s="5">
+        <v>-3.47362654511279E-3</v>
+      </c>
+      <c r="BS115" s="5">
+        <v>6.1543201397166302E-3</v>
+      </c>
+      <c r="BT115" s="5">
+        <v>1.6821080539751902E-2</v>
+      </c>
     </row>
-    <row r="116" spans="2:63" s="5" customFormat="1">
+    <row r="116" spans="2:72" s="5" customFormat="1">
       <c r="B116" s="5">
         <v>1977.5</v>
       </c>
@@ -15872,8 +17927,35 @@
       <c r="BK116" s="5">
         <v>-1.5336741611098712</v>
       </c>
+      <c r="BL116" s="5">
+        <v>-3.1449214122119998E-2</v>
+      </c>
+      <c r="BM116" s="5">
+        <v>-3.1803313282780903E-2</v>
+      </c>
+      <c r="BN116" s="5">
+        <v>1.27087406626127E-2</v>
+      </c>
+      <c r="BO116" s="5">
+        <v>3.3836952165327101E-3</v>
+      </c>
+      <c r="BP116" s="5">
+        <v>1.36036256760093E-2</v>
+      </c>
+      <c r="BQ116" s="5">
+        <v>2.9791653503781798E-3</v>
+      </c>
+      <c r="BR116" s="5">
+        <v>7.8917802461165396E-3</v>
+      </c>
+      <c r="BS116" s="5">
+        <v>1.47778263984861E-3</v>
+      </c>
+      <c r="BT116" s="5">
+        <v>2.7201678158590498E-2</v>
+      </c>
     </row>
-    <row r="117" spans="2:63" s="5" customFormat="1">
+    <row r="117" spans="2:72" s="5" customFormat="1">
       <c r="B117" s="5">
         <v>1977.75</v>
       </c>
@@ -16035,8 +18117,35 @@
       <c r="BK117" s="5">
         <v>1.4605479879109931</v>
       </c>
+      <c r="BL117" s="5">
+        <v>-9.2763762431389007E-3</v>
+      </c>
+      <c r="BM117" s="5">
+        <v>-4.7230697099765101E-2</v>
+      </c>
+      <c r="BN117" s="5">
+        <v>3.0511621471364402E-2</v>
+      </c>
+      <c r="BO117" s="5">
+        <v>-2.12243852685313E-2</v>
+      </c>
+      <c r="BP117" s="5">
+        <v>6.4672938830629204E-3</v>
+      </c>
+      <c r="BQ117" s="5">
+        <v>2.77032592502914E-2</v>
+      </c>
+      <c r="BR117" s="5">
+        <v>-2.7397433260463198E-2</v>
+      </c>
+      <c r="BS117" s="5">
+        <v>-1.07891048555023E-2</v>
+      </c>
+      <c r="BT117" s="5">
+        <v>-7.52802378952761E-3</v>
+      </c>
     </row>
-    <row r="118" spans="2:63" s="5" customFormat="1">
+    <row r="118" spans="2:72" s="5" customFormat="1">
       <c r="B118" s="5">
         <v>1978</v>
       </c>
@@ -16198,8 +18307,35 @@
       <c r="BK118" s="5">
         <v>1.8898476297325426</v>
       </c>
+      <c r="BL118" s="5">
+        <v>-9.8301151327932802E-3</v>
+      </c>
+      <c r="BM118" s="5">
+        <v>-4.9619706694744102E-2</v>
+      </c>
+      <c r="BN118" s="5">
+        <v>2.9126791341302999E-2</v>
+      </c>
+      <c r="BO118" s="5">
+        <v>-2.6883548140256699E-2</v>
+      </c>
+      <c r="BP118" s="5">
+        <v>1.53921928362757E-2</v>
+      </c>
+      <c r="BQ118" s="5">
+        <v>1.3633350433849599E-2</v>
+      </c>
+      <c r="BR118" s="5">
+        <v>-5.8550010907912403E-3</v>
+      </c>
+      <c r="BS118" s="5">
+        <v>-2.7804489919126302E-3</v>
+      </c>
+      <c r="BT118" s="5">
+        <v>8.5885759992089597E-3</v>
+      </c>
     </row>
-    <row r="119" spans="2:63" s="5" customFormat="1">
+    <row r="119" spans="2:72" s="5" customFormat="1">
       <c r="B119" s="5">
         <v>1978.25</v>
       </c>
@@ -16364,8 +18500,35 @@
       <c r="BK119" s="5">
         <v>-2.8303062930852656</v>
       </c>
+      <c r="BL119" s="5">
+        <v>-8.8407326435745101E-2</v>
+      </c>
+      <c r="BM119" s="5">
+        <v>-6.0727220485692401E-2</v>
+      </c>
+      <c r="BN119" s="5">
+        <v>5.4485433077511802E-2</v>
+      </c>
+      <c r="BO119" s="5">
+        <v>4.2630079664979698E-2</v>
+      </c>
+      <c r="BP119" s="5">
+        <v>9.1574659908835103E-4</v>
+      </c>
+      <c r="BQ119" s="5">
+        <v>-7.3816693167487102E-3</v>
+      </c>
+      <c r="BR119" s="5">
+        <v>-7.0434807456393996E-3</v>
+      </c>
+      <c r="BS119" s="5">
+        <v>2.89225802172389E-2</v>
+      </c>
+      <c r="BT119" s="5">
+        <v>3.5340999926325299E-2</v>
+      </c>
     </row>
-    <row r="120" spans="2:63" s="5" customFormat="1">
+    <row r="120" spans="2:72" s="5" customFormat="1">
       <c r="B120" s="5">
         <v>1978.5</v>
       </c>
@@ -16530,8 +18693,35 @@
       <c r="BK120" s="5">
         <v>-1.2376194449220692</v>
       </c>
+      <c r="BL120" s="5">
+        <v>-2.0563986861071699E-3</v>
+      </c>
+      <c r="BM120" s="5">
+        <v>-5.0416408400617001E-2</v>
+      </c>
+      <c r="BN120" s="5">
+        <v>2.71214881792897E-2</v>
+      </c>
+      <c r="BO120" s="5">
+        <v>1.1996266768450801E-3</v>
+      </c>
+      <c r="BP120" s="5">
+        <v>-1.6351835399221599E-2</v>
+      </c>
+      <c r="BQ120" s="5">
+        <v>-1.1398113303759999E-2</v>
+      </c>
+      <c r="BR120" s="5">
+        <v>1.17040487383487E-3</v>
+      </c>
+      <c r="BS120" s="5">
+        <v>1.9479730499644101E-2</v>
+      </c>
+      <c r="BT120" s="5">
+        <v>1.50415230455264E-2</v>
+      </c>
     </row>
-    <row r="121" spans="2:63" s="5" customFormat="1">
+    <row r="121" spans="2:72" s="5" customFormat="1">
       <c r="B121" s="5">
         <v>1978.75</v>
       </c>
@@ -16696,8 +18886,35 @@
       <c r="BK121" s="5">
         <v>-0.15835149616905947</v>
       </c>
+      <c r="BL121" s="5">
+        <v>-2.0444091528064399E-2</v>
+      </c>
+      <c r="BM121" s="5">
+        <v>-6.6752150436801605E-2</v>
+      </c>
+      <c r="BN121" s="5">
+        <v>4.7501912132809403E-2</v>
+      </c>
+      <c r="BO121" s="5">
+        <v>-3.01555775325224E-3</v>
+      </c>
+      <c r="BP121" s="5">
+        <v>1.81331270530098E-2</v>
+      </c>
+      <c r="BQ121" s="5">
+        <v>-1.7697593417146599E-3</v>
+      </c>
+      <c r="BR121" s="5">
+        <v>1.3346452170034701E-3</v>
+      </c>
+      <c r="BS121" s="5">
+        <v>1.7344618913324001E-3</v>
+      </c>
+      <c r="BT121" s="5">
+        <v>1.2238576233187101E-2</v>
+      </c>
     </row>
-    <row r="122" spans="2:63" s="5" customFormat="1">
+    <row r="122" spans="2:72" s="5" customFormat="1">
       <c r="B122" s="5">
         <v>1979</v>
       </c>
@@ -16862,8 +19079,35 @@
       <c r="BK122" s="5">
         <v>1.6716834715960625</v>
       </c>
+      <c r="BL122" s="5">
+        <v>1.45755831997838E-2</v>
+      </c>
+      <c r="BM122" s="5">
+        <v>-7.1631999428347803E-2</v>
+      </c>
+      <c r="BN122" s="5">
+        <v>5.56209717227533E-2</v>
+      </c>
+      <c r="BO122" s="5">
+        <v>-1.07121173813325E-2</v>
+      </c>
+      <c r="BP122" s="5">
+        <v>-1.10653082474309E-2</v>
+      </c>
+      <c r="BQ122" s="5">
+        <v>1.31652488414372E-2</v>
+      </c>
+      <c r="BR122" s="5">
+        <v>-2.6201049891070201E-2</v>
+      </c>
+      <c r="BS122" s="5">
+        <v>-9.3189212463989403E-4</v>
+      </c>
+      <c r="BT122" s="5">
+        <v>2.49356852063406E-3</v>
+      </c>
     </row>
-    <row r="123" spans="2:63" s="5" customFormat="1">
+    <row r="123" spans="2:72" s="5" customFormat="1">
       <c r="B123" s="5">
         <v>1979.25</v>
       </c>
@@ -17028,8 +19272,35 @@
       <c r="BK123" s="5">
         <v>1.436167679159893</v>
       </c>
+      <c r="BL123" s="5">
+        <v>4.0905269870792099E-2</v>
+      </c>
+      <c r="BM123" s="5">
+        <v>-7.2448838819606398E-2</v>
+      </c>
+      <c r="BN123" s="5">
+        <v>4.53303560257017E-2</v>
+      </c>
+      <c r="BO123" s="5">
+        <v>-1.11125973248388E-2</v>
+      </c>
+      <c r="BP123" s="5">
+        <v>-8.9230856157964007E-3</v>
+      </c>
+      <c r="BQ123" s="5">
+        <v>-2.4254433959725201E-2</v>
+      </c>
+      <c r="BR123" s="5">
+        <v>-2.6812266268722699E-3</v>
+      </c>
+      <c r="BS123" s="5">
+        <v>3.8159988612314399E-2</v>
+      </c>
+      <c r="BT123" s="5">
+        <v>1.6408142304312302E-2</v>
+      </c>
     </row>
-    <row r="124" spans="2:63" s="5" customFormat="1">
+    <row r="124" spans="2:72" s="5" customFormat="1">
       <c r="B124" s="5">
         <v>1979.5</v>
       </c>
@@ -17194,8 +19465,35 @@
       <c r="BK124" s="5">
         <v>0.41340291301625365</v>
       </c>
+      <c r="BL124" s="5">
+        <v>2.7046090171988401E-2</v>
+      </c>
+      <c r="BM124" s="5">
+        <v>-7.8174438284771705E-2</v>
+      </c>
+      <c r="BN124" s="5">
+        <v>4.6874000296540999E-2</v>
+      </c>
+      <c r="BO124" s="5">
+        <v>1.0583503981565099E-2</v>
+      </c>
+      <c r="BP124" s="5">
+        <v>-1.8059729362773301E-2</v>
+      </c>
+      <c r="BQ124" s="5">
+        <v>-5.9721360186698299E-3</v>
+      </c>
+      <c r="BR124" s="5">
+        <v>-1.9442314711961499E-2</v>
+      </c>
+      <c r="BS124" s="5">
+        <v>5.5559325176607896E-3</v>
+      </c>
+      <c r="BT124" s="5">
+        <v>1.5135395401414601E-2</v>
+      </c>
     </row>
-    <row r="125" spans="2:63" s="5" customFormat="1">
+    <row r="125" spans="2:72" s="5" customFormat="1">
       <c r="B125" s="5">
         <v>1979.75</v>
       </c>
@@ -17360,8 +19658,35 @@
       <c r="BK125" s="5">
         <v>-0.75652630102839646</v>
       </c>
+      <c r="BL125" s="5">
+        <v>4.0004295113665697E-2</v>
+      </c>
+      <c r="BM125" s="5">
+        <v>-8.8253612248422902E-2</v>
+      </c>
+      <c r="BN125" s="5">
+        <v>4.7531783512528201E-2</v>
+      </c>
+      <c r="BO125" s="5">
+        <v>5.6793399382586596E-4</v>
+      </c>
+      <c r="BP125" s="5">
+        <v>-9.1555687481129099E-4</v>
+      </c>
+      <c r="BQ125" s="5">
+        <v>-7.6081191666330997E-3</v>
+      </c>
+      <c r="BR125" s="5">
+        <v>-6.0149024499392897E-3</v>
+      </c>
+      <c r="BS125" s="5">
+        <v>-6.4400302266894097E-3</v>
+      </c>
+      <c r="BT125" s="5">
+        <v>-1.77335731795797E-3</v>
+      </c>
     </row>
-    <row r="126" spans="2:63" s="5" customFormat="1">
+    <row r="126" spans="2:72" s="5" customFormat="1">
       <c r="B126" s="5">
         <v>1980</v>
       </c>
@@ -17526,8 +19851,35 @@
       <c r="BK126" s="5">
         <v>-1.901864320385654</v>
       </c>
+      <c r="BL126" s="5">
+        <v>5.4165207120171602E-2</v>
+      </c>
+      <c r="BM126" s="5">
+        <v>-0.107995466197746</v>
+      </c>
+      <c r="BN126" s="5">
+        <v>5.2004396368782499E-2</v>
+      </c>
+      <c r="BO126" s="5">
+        <v>5.4678893781734102E-3</v>
+      </c>
+      <c r="BP126" s="5">
+        <v>-5.9154912925162505E-4</v>
+      </c>
+      <c r="BQ126" s="5">
+        <v>-1.91587244172951E-2</v>
+      </c>
+      <c r="BR126" s="5">
+        <v>2.04248275211181E-2</v>
+      </c>
+      <c r="BS126" s="5">
+        <v>-2.3228802635318802E-3</v>
+      </c>
+      <c r="BT126" s="5">
+        <v>7.5180462808402604E-3</v>
+      </c>
     </row>
-    <row r="127" spans="2:63" s="5" customFormat="1">
+    <row r="127" spans="2:72" s="5" customFormat="1">
       <c r="B127" s="5">
         <v>1980.25</v>
       </c>
@@ -17692,8 +20044,35 @@
       <c r="BK127" s="5">
         <v>-0.96954038975492862</v>
       </c>
+      <c r="BL127" s="5">
+        <v>0.17070388352954199</v>
+      </c>
+      <c r="BM127" s="5">
+        <v>-6.8116597978676197E-2</v>
+      </c>
+      <c r="BN127" s="5">
+        <v>1.13682754359028E-3</v>
+      </c>
+      <c r="BO127" s="5">
+        <v>-4.9580588010070597E-3</v>
+      </c>
+      <c r="BP127" s="5">
+        <v>-3.8306525995757297E-2</v>
+      </c>
+      <c r="BQ127" s="5">
+        <v>-5.8847331819809404E-3</v>
+      </c>
+      <c r="BR127" s="5">
+        <v>-2.6588900663126299E-2</v>
+      </c>
+      <c r="BS127" s="5">
+        <v>1.3920249877142099E-2</v>
+      </c>
+      <c r="BT127" s="5">
+        <v>-5.9538889677259498E-3</v>
+      </c>
     </row>
-    <row r="128" spans="2:63" s="5" customFormat="1">
+    <row r="128" spans="2:72" s="5" customFormat="1">
       <c r="B128" s="5">
         <v>1980.5</v>
       </c>
@@ -17858,8 +20237,35 @@
       <c r="BK128" s="5">
         <v>1.5543834265239762</v>
       </c>
+      <c r="BL128" s="5">
+        <v>3.7285948946316899E-2</v>
+      </c>
+      <c r="BM128" s="5">
+        <v>-6.7021541816280103E-2</v>
+      </c>
+      <c r="BN128" s="5">
+        <v>1.39905292360545E-2</v>
+      </c>
+      <c r="BO128" s="5">
+        <v>4.3847932244694299E-2</v>
+      </c>
+      <c r="BP128" s="5">
+        <v>-1.03870354009602E-2</v>
+      </c>
+      <c r="BQ128" s="5">
+        <v>3.1472688354649801E-2</v>
+      </c>
+      <c r="BR128" s="5">
+        <v>-2.20055513673484E-2</v>
+      </c>
+      <c r="BS128" s="5">
+        <v>-1.38463496545935E-2</v>
+      </c>
+      <c r="BT128" s="5">
+        <v>2.30220674676514E-3</v>
+      </c>
     </row>
-    <row r="129" spans="2:63" s="5" customFormat="1">
+    <row r="129" spans="2:72" s="5" customFormat="1">
       <c r="B129" s="5">
         <v>1980.75</v>
       </c>
@@ -18024,8 +20430,35 @@
       <c r="BK129" s="5">
         <v>1.5529028859415792</v>
       </c>
+      <c r="BL129" s="5">
+        <v>-1.86174415144548E-2</v>
+      </c>
+      <c r="BM129" s="5">
+        <v>-0.100499950563975</v>
+      </c>
+      <c r="BN129" s="5">
+        <v>4.8469100502807901E-2</v>
+      </c>
+      <c r="BO129" s="5">
+        <v>5.1141709652907298E-2</v>
+      </c>
+      <c r="BP129" s="5">
+        <v>-4.6547170978588296E-3</v>
+      </c>
+      <c r="BQ129" s="5">
+        <v>1.7831276006498E-2</v>
+      </c>
+      <c r="BR129" s="5">
+        <v>2.41371195411028E-2</v>
+      </c>
+      <c r="BS129" s="5">
+        <v>1.01446236130806E-2</v>
+      </c>
+      <c r="BT129" s="5">
+        <v>1.2135402400851199E-2</v>
+      </c>
     </row>
-    <row r="130" spans="2:63" s="5" customFormat="1">
+    <row r="130" spans="2:72" s="5" customFormat="1">
       <c r="B130" s="5">
         <v>1981</v>
       </c>
@@ -18190,8 +20623,35 @@
       <c r="BK130" s="5">
         <v>-1.0640685798151637</v>
       </c>
+      <c r="BL130" s="5">
+        <v>1.08830869650324E-2</v>
+      </c>
+      <c r="BM130" s="5">
+        <v>-8.6858767194473899E-2</v>
+      </c>
+      <c r="BN130" s="5">
+        <v>4.4643097947994197E-2</v>
+      </c>
+      <c r="BO130" s="5">
+        <v>4.6398442022844197E-2</v>
+      </c>
+      <c r="BP130" s="5">
+        <v>8.7765695217608096E-3</v>
+      </c>
+      <c r="BQ130" s="5">
+        <v>7.195651180724E-3</v>
+      </c>
+      <c r="BR130" s="5">
+        <v>1.7418449314155E-2</v>
+      </c>
+      <c r="BS130" s="5">
+        <v>1.5279456217872E-2</v>
+      </c>
+      <c r="BT130" s="5">
+        <v>7.81521448152123E-3</v>
+      </c>
     </row>
-    <row r="131" spans="2:63" s="5" customFormat="1">
+    <row r="131" spans="2:72" s="5" customFormat="1">
       <c r="B131" s="5">
         <v>1981.25</v>
       </c>
@@ -18356,8 +20816,35 @@
       <c r="BK131" s="5">
         <v>0.4015570536489883</v>
       </c>
+      <c r="BL131" s="5">
+        <v>4.9872802261689803E-2</v>
+      </c>
+      <c r="BM131" s="5">
+        <v>-7.9675863108137596E-2</v>
+      </c>
+      <c r="BN131" s="5">
+        <v>2.9189289486154402E-2</v>
+      </c>
+      <c r="BO131" s="5">
+        <v>-3.2441320199569698E-4</v>
+      </c>
+      <c r="BP131" s="5">
+        <v>-2.8625286096634101E-3</v>
+      </c>
+      <c r="BQ131" s="5">
+        <v>3.04091229884796E-2</v>
+      </c>
+      <c r="BR131" s="5">
+        <v>2.11679951324481E-2</v>
+      </c>
+      <c r="BS131" s="5">
+        <v>1.7263197057721101E-3</v>
+      </c>
+      <c r="BT131" s="5">
+        <v>-2.6719124530656099E-2</v>
+      </c>
     </row>
-    <row r="132" spans="2:63" s="5" customFormat="1">
+    <row r="132" spans="2:72" s="5" customFormat="1">
       <c r="B132" s="5">
         <v>1981.5</v>
       </c>
@@ -18538,8 +21025,35 @@
       <c r="BK132" s="5">
         <v>-1.4170220468477082</v>
       </c>
+      <c r="BL132" s="5">
+        <v>3.1202249445366599E-2</v>
+      </c>
+      <c r="BM132" s="5">
+        <v>-8.9818058677972407E-2</v>
+      </c>
+      <c r="BN132" s="5">
+        <v>2.27855150433568E-2</v>
+      </c>
+      <c r="BO132" s="5">
+        <v>1.7535349344707501E-2</v>
+      </c>
+      <c r="BP132" s="5">
+        <v>1.72203690141652E-2</v>
+      </c>
+      <c r="BQ132" s="5">
+        <v>-4.14800912289765E-4</v>
+      </c>
+      <c r="BR132" s="5">
+        <v>6.43199200392508E-2</v>
+      </c>
+      <c r="BS132" s="5">
+        <v>-4.3576189671787301E-3</v>
+      </c>
+      <c r="BT132" s="5">
+        <v>1.4149532435050001E-2</v>
+      </c>
     </row>
-    <row r="133" spans="2:63" s="5" customFormat="1">
+    <row r="133" spans="2:72" s="5" customFormat="1">
       <c r="B133" s="5">
         <v>1981.75</v>
       </c>
@@ -18720,8 +21234,35 @@
       <c r="BK133" s="5">
         <v>-0.11831062477680188</v>
       </c>
+      <c r="BL133" s="5">
+        <v>9.5987872990235104E-2</v>
+      </c>
+      <c r="BM133" s="5">
+        <v>-5.9849006087075503E-2</v>
+      </c>
+      <c r="BN133" s="5">
+        <v>-9.9822938454157892E-3</v>
+      </c>
+      <c r="BO133" s="5">
+        <v>-3.1814729291893798E-3</v>
+      </c>
+      <c r="BP133" s="5">
+        <v>-2.6176343762713199E-2</v>
+      </c>
+      <c r="BQ133" s="5">
+        <v>1.5437405208705599E-2</v>
+      </c>
+      <c r="BR133" s="5">
+        <v>1.6345309050652301E-2</v>
+      </c>
+      <c r="BS133" s="5">
+        <v>6.4642360988699096E-3</v>
+      </c>
+      <c r="BT133" s="5">
+        <v>-1.05526819598614E-2</v>
+      </c>
     </row>
-    <row r="134" spans="2:63" s="5" customFormat="1">
+    <row r="134" spans="2:72" s="5" customFormat="1">
       <c r="B134" s="5">
         <v>1982</v>
       </c>
@@ -18902,8 +21443,35 @@
       <c r="BK134" s="5">
         <v>1.0384858942959863</v>
       </c>
+      <c r="BL134" s="5">
+        <v>8.6719257594101803E-2</v>
+      </c>
+      <c r="BM134" s="5">
+        <v>-5.9015958397767701E-2</v>
+      </c>
+      <c r="BN134" s="5">
+        <v>-1.0078929238077201E-2</v>
+      </c>
+      <c r="BO134" s="5">
+        <v>-2.90783276754366E-2</v>
+      </c>
+      <c r="BP134" s="5">
+        <v>1.3278560493967301E-3</v>
+      </c>
+      <c r="BQ134" s="5">
+        <v>4.5009057930110299E-2</v>
+      </c>
+      <c r="BR134" s="5">
+        <v>2.3584674954317E-2</v>
+      </c>
+      <c r="BS134" s="5">
+        <v>-1.8291449006358401E-2</v>
+      </c>
+      <c r="BT134" s="5">
+        <v>-2.9584826689864702E-2</v>
+      </c>
     </row>
-    <row r="135" spans="2:63" s="5" customFormat="1">
+    <row r="135" spans="2:72" s="5" customFormat="1">
       <c r="B135" s="5">
         <v>1982.25</v>
       </c>
@@ -19084,8 +21652,35 @@
       <c r="BK135" s="5">
         <v>-1.1034179579887</v>
       </c>
+      <c r="BL135" s="5">
+        <v>5.7616329949593599E-2</v>
+      </c>
+      <c r="BM135" s="5">
+        <v>-7.0651682857429898E-2</v>
+      </c>
+      <c r="BN135" s="5">
+        <v>1.0237689594126301E-3</v>
+      </c>
+      <c r="BO135" s="5">
+        <v>3.1595847743762902E-2</v>
+      </c>
+      <c r="BP135" s="5">
+        <v>2.2052849772341899E-3</v>
+      </c>
+      <c r="BQ135" s="5">
+        <v>1.32401865802615E-2</v>
+      </c>
+      <c r="BR135" s="5">
+        <v>3.27569836536558E-2</v>
+      </c>
+      <c r="BS135" s="5">
+        <v>1.3538606269489399E-3</v>
+      </c>
+      <c r="BT135" s="5">
+        <v>-8.9879104661265193E-3</v>
+      </c>
     </row>
-    <row r="136" spans="2:63" s="5" customFormat="1">
+    <row r="136" spans="2:72" s="5" customFormat="1">
       <c r="B136" s="5">
         <v>1982.5</v>
       </c>
@@ -19266,8 +21861,35 @@
       <c r="BK136" s="5">
         <v>2.4238716148289337</v>
       </c>
+      <c r="BL136" s="5">
+        <v>6.9761731034141003E-2</v>
+      </c>
+      <c r="BM136" s="5">
+        <v>-4.21657870855945E-2</v>
+      </c>
+      <c r="BN136" s="5">
+        <v>-2.3525390988759401E-2</v>
+      </c>
+      <c r="BO136" s="5">
+        <v>3.06686773275585E-2</v>
+      </c>
+      <c r="BP136" s="5">
+        <v>-2.44839485662285E-2</v>
+      </c>
+      <c r="BQ136" s="5">
+        <v>2.4811103391347299E-2</v>
+      </c>
+      <c r="BR136" s="5">
+        <v>7.17092617926883E-3</v>
+      </c>
+      <c r="BS136" s="14">
+        <v>4.8572340519277599E-5</v>
+      </c>
+      <c r="BT136" s="5">
+        <v>-1.4677434409829699E-2</v>
+      </c>
     </row>
-    <row r="137" spans="2:63" s="5" customFormat="1">
+    <row r="137" spans="2:72" s="5" customFormat="1">
       <c r="B137" s="5">
         <v>1982.75</v>
       </c>
@@ -19448,8 +22070,35 @@
       <c r="BK137" s="5">
         <v>0.567904873232145</v>
       </c>
+      <c r="BL137" s="5">
+        <v>6.1407823979304499E-2</v>
+      </c>
+      <c r="BM137" s="5">
+        <v>-2.1112876774633201E-2</v>
+      </c>
+      <c r="BN137" s="5">
+        <v>-4.6549727885668503E-2</v>
+      </c>
+      <c r="BO137" s="5">
+        <v>4.7804968181875601E-2</v>
+      </c>
+      <c r="BP137" s="5">
+        <v>-3.5225397215745302E-2</v>
+      </c>
+      <c r="BQ137" s="5">
+        <v>3.59445953510956E-2</v>
+      </c>
+      <c r="BR137" s="5">
+        <v>4.2312791141110498E-4</v>
+      </c>
+      <c r="BS137" s="5">
+        <v>-2.1680707102260601E-3</v>
+      </c>
+      <c r="BT137" s="5">
+        <v>3.5736775186874402E-3</v>
+      </c>
     </row>
-    <row r="138" spans="2:63" s="5" customFormat="1">
+    <row r="138" spans="2:72" s="5" customFormat="1">
       <c r="B138" s="5">
         <v>1983</v>
       </c>
@@ -19630,8 +22279,35 @@
       <c r="BK138" s="5">
         <v>-1.1944733442745086</v>
       </c>
+      <c r="BL138" s="5">
+        <v>-2.8442249708366101E-3</v>
+      </c>
+      <c r="BM138" s="5">
+        <v>-1.7458837563140098E-2</v>
+      </c>
+      <c r="BN138" s="5">
+        <v>-3.3991317519087502E-2</v>
+      </c>
+      <c r="BO138" s="5">
+        <v>6.3642174100891694E-2</v>
+      </c>
+      <c r="BP138" s="5">
+        <v>-6.4310432795779897E-4</v>
+      </c>
+      <c r="BQ138" s="5">
+        <v>6.7357800642009094E-2</v>
+      </c>
+      <c r="BR138" s="5">
+        <v>2.4380786011837699E-2</v>
+      </c>
+      <c r="BS138" s="5">
+        <v>1.5728599360256699E-2</v>
+      </c>
+      <c r="BT138" s="5">
+        <v>9.6087197400545592E-3</v>
+      </c>
     </row>
-    <row r="139" spans="2:63" s="5" customFormat="1">
+    <row r="139" spans="2:72" s="5" customFormat="1">
       <c r="B139" s="5">
         <v>1983.25</v>
       </c>
@@ -19812,8 +22488,35 @@
       <c r="BK139" s="5">
         <v>1.1915027561518516</v>
       </c>
+      <c r="BL139" s="5">
+        <v>-6.2832001421992897E-2</v>
+      </c>
+      <c r="BM139" s="5">
+        <v>-2.72908409173615E-2</v>
+      </c>
+      <c r="BN139" s="5">
+        <v>-8.3337375473810295E-4</v>
+      </c>
+      <c r="BO139" s="5">
+        <v>6.18700324818355E-2</v>
+      </c>
+      <c r="BP139" s="5">
+        <v>-2.1699685012046299E-3</v>
+      </c>
+      <c r="BQ139" s="5">
+        <v>2.9489866450039499E-2</v>
+      </c>
+      <c r="BR139" s="5">
+        <v>1.35552417632796E-2</v>
+      </c>
+      <c r="BS139" s="5">
+        <v>-3.9857782540726298E-3</v>
+      </c>
+      <c r="BT139" s="5">
+        <v>-1.45846345968117E-2</v>
+      </c>
     </row>
-    <row r="140" spans="2:63" s="5" customFormat="1">
+    <row r="140" spans="2:72" s="5" customFormat="1">
       <c r="B140" s="5">
         <v>1983.5</v>
       </c>
@@ -19994,8 +22697,35 @@
       <c r="BK140" s="5">
         <v>-0.21117945629191109</v>
       </c>
+      <c r="BL140" s="5">
+        <v>-6.77362374328256E-2</v>
+      </c>
+      <c r="BM140" s="5">
+        <v>-3.5298807865479398E-2</v>
+      </c>
+      <c r="BN140" s="5">
+        <v>1.54151517829692E-2</v>
+      </c>
+      <c r="BO140" s="5">
+        <v>3.0603024014400199E-2</v>
+      </c>
+      <c r="BP140" s="5">
+        <v>1.5673561465143301E-2</v>
+      </c>
+      <c r="BQ140" s="5">
+        <v>2.5544548958987001E-2</v>
+      </c>
+      <c r="BR140" s="5">
+        <v>2.51205848735362E-2</v>
+      </c>
+      <c r="BS140" s="5">
+        <v>-3.7180032677285799E-3</v>
+      </c>
+      <c r="BT140" s="5">
+        <v>-2.2666119795900198E-2</v>
+      </c>
     </row>
-    <row r="141" spans="2:63" s="5" customFormat="1">
+    <row r="141" spans="2:72" s="5" customFormat="1">
       <c r="B141" s="5">
         <v>1983.75</v>
       </c>
@@ -20176,8 +22906,35 @@
       <c r="BK141" s="5">
         <v>0.91367000367353568</v>
       </c>
+      <c r="BL141" s="5">
+        <v>-5.3327669260579399E-2</v>
+      </c>
+      <c r="BM141" s="5">
+        <v>-2.7782952509426299E-2</v>
+      </c>
+      <c r="BN141" s="5">
+        <v>1.3205038096876899E-2</v>
+      </c>
+      <c r="BO141" s="5">
+        <v>1.17871545678756E-2</v>
+      </c>
+      <c r="BP141" s="5">
+        <v>2.9856878070002699E-3</v>
+      </c>
+      <c r="BQ141" s="5">
+        <v>2.3248040749957202E-2</v>
+      </c>
+      <c r="BR141" s="5">
+        <v>3.4678185554543398E-2</v>
+      </c>
+      <c r="BS141" s="5">
+        <v>1.2123425449618801E-2</v>
+      </c>
+      <c r="BT141" s="5">
+        <v>2.3585127497542401E-3</v>
+      </c>
     </row>
-    <row r="142" spans="2:63" s="5" customFormat="1">
+    <row r="142" spans="2:72" s="5" customFormat="1">
       <c r="B142" s="5">
         <v>1984</v>
       </c>
@@ -20358,8 +23115,35 @@
       <c r="BK142" s="5">
         <v>-0.28351565872687429</v>
       </c>
+      <c r="BL142" s="5">
+        <v>-6.4513464908944898E-2</v>
+      </c>
+      <c r="BM142" s="5">
+        <v>-4.3415333338994402E-2</v>
+      </c>
+      <c r="BN142" s="5">
+        <v>2.3123306606118301E-2</v>
+      </c>
+      <c r="BO142" s="5">
+        <v>5.8090640527955302E-3</v>
+      </c>
+      <c r="BP142" s="5">
+        <v>8.7285690660699397E-3</v>
+      </c>
+      <c r="BQ142" s="5">
+        <v>1.3330514019733499E-2</v>
+      </c>
+      <c r="BR142" s="5">
+        <v>3.1185694638127801E-2</v>
+      </c>
+      <c r="BS142" s="5">
+        <v>-5.8960364617944702E-3</v>
+      </c>
+      <c r="BT142" s="5">
+        <v>-8.4012163750365196E-4</v>
+      </c>
     </row>
-    <row r="143" spans="2:63" s="5" customFormat="1">
+    <row r="143" spans="2:72" s="5" customFormat="1">
       <c r="B143" s="5">
         <v>1984.25</v>
       </c>
@@ -20540,8 +23324,35 @@
       <c r="BK143" s="5">
         <v>-0.32890105947430143</v>
       </c>
+      <c r="BL143" s="5">
+        <v>-4.8563067877615003E-2</v>
+      </c>
+      <c r="BM143" s="5">
+        <v>-3.9288505015514598E-2</v>
+      </c>
+      <c r="BN143" s="5">
+        <v>1.5948025282102499E-2</v>
+      </c>
+      <c r="BO143" s="5">
+        <v>-9.6216547704275797E-3</v>
+      </c>
+      <c r="BP143" s="5">
+        <v>-1.0197337413340401E-2</v>
+      </c>
+      <c r="BQ143" s="5">
+        <v>1.99811454478688E-2</v>
+      </c>
+      <c r="BR143" s="5">
+        <v>3.3591418432309103E-2</v>
+      </c>
+      <c r="BS143" s="5">
+        <v>-6.3826940960645499E-3</v>
+      </c>
+      <c r="BT143" s="5">
+        <v>5.07562691168458E-3</v>
+      </c>
     </row>
-    <row r="144" spans="2:63" s="5" customFormat="1">
+    <row r="144" spans="2:72" s="5" customFormat="1">
       <c r="B144" s="5">
         <v>1984.5</v>
       </c>
@@ -20722,8 +23533,35 @@
       <c r="BK144" s="5">
         <v>-0.21892478745542024</v>
       </c>
+      <c r="BL144" s="5">
+        <v>-1.02636116777782E-2</v>
+      </c>
+      <c r="BM144" s="5">
+        <v>-3.0152277834849101E-2</v>
+      </c>
+      <c r="BN144" s="5">
+        <v>-6.2338795890764399E-3</v>
+      </c>
+      <c r="BO144" s="5">
+        <v>-8.0289904787361095E-3</v>
+      </c>
+      <c r="BP144" s="5">
+        <v>-4.1766494001715102E-2</v>
+      </c>
+      <c r="BQ144" s="5">
+        <v>-3.3317394241548599E-3</v>
+      </c>
+      <c r="BR144" s="5">
+        <v>4.1045463244389999E-2</v>
+      </c>
+      <c r="BS144" s="5">
+        <v>8.6603231358482399E-3</v>
+      </c>
+      <c r="BT144" s="5">
+        <v>4.8297766572274496E-3</v>
+      </c>
     </row>
-    <row r="145" spans="2:63" s="5" customFormat="1">
+    <row r="145" spans="2:72" s="5" customFormat="1">
       <c r="B145" s="5">
         <v>1984.75</v>
       </c>
@@ -20904,8 +23742,35 @@
       <c r="BK145" s="5">
         <v>0.91920152522747278</v>
       </c>
+      <c r="BL145" s="5">
+        <v>-2.0748196203967902E-2</v>
+      </c>
+      <c r="BM145" s="5">
+        <v>-2.4279783633406798E-2</v>
+      </c>
+      <c r="BN145" s="5">
+        <v>-6.3784254614602902E-3</v>
+      </c>
+      <c r="BO145" s="5">
+        <v>-9.3512487914215407E-3</v>
+      </c>
+      <c r="BP145" s="5">
+        <v>-1.19818883805326E-2</v>
+      </c>
+      <c r="BQ145" s="5">
+        <v>1.53488410163902E-2</v>
+      </c>
+      <c r="BR145" s="5">
+        <v>2.5379740585352101E-2</v>
+      </c>
+      <c r="BS145" s="5">
+        <v>-5.8737705899579397E-3</v>
+      </c>
+      <c r="BT145" s="5">
+        <v>-8.2257885185561593E-3</v>
+      </c>
     </row>
-    <row r="146" spans="2:63" s="5" customFormat="1">
+    <row r="146" spans="2:72" s="5" customFormat="1">
       <c r="B146" s="5">
         <v>1985</v>
       </c>
@@ -21086,8 +23951,35 @@
       <c r="BK146" s="5">
         <v>0.34172478323639566</v>
       </c>
+      <c r="BL146" s="5">
+        <v>-1.1091946439242399E-2</v>
+      </c>
+      <c r="BM146" s="5">
+        <v>-3.4158681434572097E-2</v>
+      </c>
+      <c r="BN146" s="5">
+        <v>4.5380240355649597E-3</v>
+      </c>
+      <c r="BO146" s="5">
+        <v>-3.8781110453549398E-4</v>
+      </c>
+      <c r="BP146" s="5">
+        <v>-3.4733418402986098E-2</v>
+      </c>
+      <c r="BQ146" s="5">
+        <v>2.6387005453261898E-2</v>
+      </c>
+      <c r="BR146" s="5">
+        <v>1.25804713180335E-2</v>
+      </c>
+      <c r="BS146" s="5">
+        <v>1.9423000370823701E-2</v>
+      </c>
+      <c r="BT146" s="5">
+        <v>-6.8648617411885904E-3</v>
+      </c>
     </row>
-    <row r="147" spans="2:63" s="5" customFormat="1">
+    <row r="147" spans="2:72" s="5" customFormat="1">
       <c r="B147" s="5">
         <v>1985.25</v>
       </c>
@@ -21268,8 +24160,35 @@
       <c r="BK147" s="5">
         <v>0.16542903196494202</v>
       </c>
+      <c r="BL147" s="5">
+        <v>3.2962920364787399E-3</v>
+      </c>
+      <c r="BM147" s="5">
+        <v>-1.13630406021953E-2</v>
+      </c>
+      <c r="BN147" s="5">
+        <v>-2.6283385371559598E-2</v>
+      </c>
+      <c r="BO147" s="5">
+        <v>1.78765021272174E-3</v>
+      </c>
+      <c r="BP147" s="5">
+        <v>-2.61258775596841E-2</v>
+      </c>
+      <c r="BQ147" s="5">
+        <v>-7.5128759000908296E-3</v>
+      </c>
+      <c r="BR147" s="5">
+        <v>3.8683103093249599E-2</v>
+      </c>
+      <c r="BS147" s="5">
+        <v>9.6697093399542597E-4</v>
+      </c>
+      <c r="BT147" s="5">
+        <v>1.31735103044334E-2</v>
+      </c>
     </row>
-    <row r="148" spans="2:63" s="5" customFormat="1">
+    <row r="148" spans="2:72" s="5" customFormat="1">
       <c r="B148" s="5">
         <v>1985.5</v>
       </c>
@@ -21450,8 +24369,35 @@
       <c r="BK148" s="5">
         <v>-0.40062104799300202</v>
       </c>
+      <c r="BL148" s="5">
+        <v>-2.3609305971288401E-2</v>
+      </c>
+      <c r="BM148" s="5">
+        <v>-1.5270865137146299E-2</v>
+      </c>
+      <c r="BN148" s="5">
+        <v>-5.3324978827688002E-3</v>
+      </c>
+      <c r="BO148" s="5">
+        <v>-2.91937220061596E-3</v>
+      </c>
+      <c r="BP148" s="5">
+        <v>1.09828403833381E-3</v>
+      </c>
+      <c r="BQ148" s="5">
+        <v>2.4032040540082601E-2</v>
+      </c>
+      <c r="BR148" s="5">
+        <v>2.5151201175845302E-2</v>
+      </c>
+      <c r="BS148" s="5">
+        <v>-1.1909564822569899E-3</v>
+      </c>
+      <c r="BT148" s="5">
+        <v>-2.6564199442022699E-3</v>
+      </c>
     </row>
-    <row r="149" spans="2:63" s="5" customFormat="1">
+    <row r="149" spans="2:72" s="5" customFormat="1">
       <c r="B149" s="5">
         <v>1985.75</v>
       </c>
@@ -21632,8 +24578,35 @@
       <c r="BK149" s="5">
         <v>0.74926423047502855</v>
       </c>
+      <c r="BL149" s="5">
+        <v>-1.14792535006607E-2</v>
+      </c>
+      <c r="BM149" s="5">
+        <v>-2.08339712891242E-2</v>
+      </c>
+      <c r="BN149" s="5">
+        <v>3.35884265674546E-3</v>
+      </c>
+      <c r="BO149" s="5">
+        <v>7.35538508510113E-3</v>
+      </c>
+      <c r="BP149" s="5">
+        <v>-3.8063360721254498E-2</v>
+      </c>
+      <c r="BQ149" s="5">
+        <v>1.34078335767639E-2</v>
+      </c>
+      <c r="BR149" s="5">
+        <v>-4.0765270224820604E-3</v>
+      </c>
+      <c r="BS149" s="5">
+        <v>-6.8660975561871899E-3</v>
+      </c>
+      <c r="BT149" s="5">
+        <v>-5.7451357677765899E-3</v>
+      </c>
     </row>
-    <row r="150" spans="2:63" s="5" customFormat="1">
+    <row r="150" spans="2:72" s="5" customFormat="1">
       <c r="B150" s="5">
         <v>1986</v>
       </c>
@@ -21816,8 +24789,35 @@
       <c r="BK150" s="5">
         <v>0.12053170727172968</v>
       </c>
+      <c r="BL150" s="5">
+        <v>1.3075214271022499E-3</v>
+      </c>
+      <c r="BM150" s="5">
+        <v>6.82992370633738E-3</v>
+      </c>
+      <c r="BN150" s="5">
+        <v>-3.0399282760220799E-2</v>
+      </c>
+      <c r="BO150" s="5">
+        <v>-2.0607920339267099E-2</v>
+      </c>
+      <c r="BP150" s="5">
+        <v>-4.7060611786608003E-2</v>
+      </c>
+      <c r="BQ150" s="5">
+        <v>3.9966734028951303E-2</v>
+      </c>
+      <c r="BR150" s="5">
+        <v>2.4720666425321499E-2</v>
+      </c>
+      <c r="BS150" s="5">
+        <v>1.8241168083421602E-2</v>
+      </c>
+      <c r="BT150" s="5">
+        <v>8.4905755528145305E-3</v>
+      </c>
     </row>
-    <row r="151" spans="2:63" s="5" customFormat="1">
+    <row r="151" spans="2:72" s="5" customFormat="1">
       <c r="B151" s="5">
         <v>1986.25</v>
       </c>
@@ -22000,8 +25000,35 @@
       <c r="BK151" s="5">
         <v>0.81373264995085748</v>
       </c>
+      <c r="BL151" s="5">
+        <v>1.0639567261168401E-3</v>
+      </c>
+      <c r="BM151" s="5">
+        <v>-1.2579942578453799E-3</v>
+      </c>
+      <c r="BN151" s="5">
+        <v>-2.14579712915581E-2</v>
+      </c>
+      <c r="BO151" s="5">
+        <v>-5.8673535943199202E-3</v>
+      </c>
+      <c r="BP151" s="5">
+        <v>-2.01934870030109E-2</v>
+      </c>
+      <c r="BQ151" s="5">
+        <v>2.98173642857587E-2</v>
+      </c>
+      <c r="BR151" s="5">
+        <v>1.05718054679947E-2</v>
+      </c>
+      <c r="BS151" s="5">
+        <v>-1.76609282276846E-2</v>
+      </c>
+      <c r="BT151" s="5">
+        <v>1.65081754043548E-3</v>
+      </c>
     </row>
-    <row r="152" spans="2:63" s="5" customFormat="1">
+    <row r="152" spans="2:72" s="5" customFormat="1">
       <c r="B152" s="5">
         <v>1986.5</v>
       </c>
@@ -22184,8 +25211,35 @@
       <c r="BK152" s="5">
         <v>-0.30721244070305004</v>
       </c>
+      <c r="BL152" s="5">
+        <v>-1.48852113715483E-2</v>
+      </c>
+      <c r="BM152" s="5">
+        <v>-5.5153694506165796E-3</v>
+      </c>
+      <c r="BN152" s="5">
+        <v>-1.00824498082791E-2</v>
+      </c>
+      <c r="BO152" s="5">
+        <v>-2.0457464511996801E-2</v>
+      </c>
+      <c r="BP152" s="5">
+        <v>2.5271425924820999E-3</v>
+      </c>
+      <c r="BQ152" s="5">
+        <v>1.6935374326738799E-2</v>
+      </c>
+      <c r="BR152" s="5">
+        <v>2.3553698305115001E-2</v>
+      </c>
+      <c r="BS152" s="5">
+        <v>-7.8099046094134202E-3</v>
+      </c>
+      <c r="BT152" s="5">
+        <v>5.7215867995677998E-3</v>
+      </c>
     </row>
-    <row r="153" spans="2:63" s="5" customFormat="1">
+    <row r="153" spans="2:72" s="5" customFormat="1">
       <c r="B153" s="5">
         <v>1986.75</v>
       </c>
@@ -22368,8 +25422,35 @@
       <c r="BK153" s="5">
         <v>-1.1656474689589211</v>
       </c>
+      <c r="BL153" s="5">
+        <v>-1.44252892786856E-2</v>
+      </c>
+      <c r="BM153" s="5">
+        <v>-5.5645405208162302E-3</v>
+      </c>
+      <c r="BN153" s="5">
+        <v>4.7155497353359296E-3</v>
+      </c>
+      <c r="BO153" s="5">
+        <v>-7.7347851167947302E-3</v>
+      </c>
+      <c r="BP153" s="5">
+        <v>-9.4136536098328605E-3</v>
+      </c>
+      <c r="BQ153" s="5">
+        <v>2.9583057848716999E-2</v>
+      </c>
+      <c r="BR153" s="5">
+        <v>-2.32977036091922E-3</v>
+      </c>
+      <c r="BS153" s="5">
+        <v>4.3886896812254696E-3</v>
+      </c>
+      <c r="BT153" s="5">
+        <v>-1.8092106728583301E-2</v>
+      </c>
     </row>
-    <row r="154" spans="2:63" s="5" customFormat="1">
+    <row r="154" spans="2:72" s="5" customFormat="1">
       <c r="B154" s="5">
         <v>1987</v>
       </c>
@@ -22552,8 +25633,35 @@
       <c r="BK154" s="5">
         <v>1.7687032395636987E-3</v>
       </c>
+      <c r="BL154" s="5">
+        <v>-8.5937704181117697E-3</v>
+      </c>
+      <c r="BM154" s="5">
+        <v>-3.3220791255530002E-3</v>
+      </c>
+      <c r="BN154" s="5">
+        <v>4.2324753082160303E-3</v>
+      </c>
+      <c r="BO154" s="5">
+        <v>1.4659896106236799E-2</v>
+      </c>
+      <c r="BP154" s="5">
+        <v>-3.6793555044053801E-2</v>
+      </c>
+      <c r="BQ154" s="5">
+        <v>-5.4002913503790701E-3</v>
+      </c>
+      <c r="BR154" s="5">
+        <v>-9.0819406325907404E-3</v>
+      </c>
+      <c r="BS154" s="14">
+        <v>-7.4539449068452304E-5</v>
+      </c>
+      <c r="BT154" s="5">
+        <v>-1.8237261946746301E-2</v>
+      </c>
     </row>
-    <row r="155" spans="2:63" s="5" customFormat="1">
+    <row r="155" spans="2:72" s="5" customFormat="1">
       <c r="B155" s="5">
         <v>1987.25</v>
       </c>
@@ -22736,8 +25844,35 @@
       <c r="BK155" s="5">
         <v>0.3514757937034847</v>
       </c>
+      <c r="BL155" s="5">
+        <v>-3.10958607556737E-2</v>
+      </c>
+      <c r="BM155" s="5">
+        <v>-1.08356169629095E-2</v>
+      </c>
+      <c r="BN155" s="5">
+        <v>1.4761616467734001E-2</v>
+      </c>
+      <c r="BO155" s="5">
+        <v>1.1910502082607599E-2</v>
+      </c>
+      <c r="BP155" s="5">
+        <v>-7.34840884782215E-3</v>
+      </c>
+      <c r="BQ155" s="5">
+        <v>-1.04533866487822E-2</v>
+      </c>
+      <c r="BR155" s="5">
+        <v>9.6488640205232203E-3</v>
+      </c>
+      <c r="BS155" s="5">
+        <v>6.7884690987169696E-3</v>
+      </c>
+      <c r="BT155" s="5">
+        <v>-2.5550677344443599E-2</v>
+      </c>
     </row>
-    <row r="156" spans="2:63" s="5" customFormat="1">
+    <row r="156" spans="2:72" s="5" customFormat="1">
       <c r="B156" s="5">
         <v>1987.5</v>
       </c>
@@ -22920,8 +26055,35 @@
       <c r="BK156" s="5">
         <v>0.28423303141966538</v>
       </c>
+      <c r="BL156" s="5">
+        <v>-2.3274215873776899E-2</v>
+      </c>
+      <c r="BM156" s="5">
+        <v>-1.1187496345018101E-2</v>
+      </c>
+      <c r="BN156" s="5">
+        <v>5.0194580422495702E-3</v>
+      </c>
+      <c r="BO156" s="5">
+        <v>3.3745926924683002E-3</v>
+      </c>
+      <c r="BP156" s="5">
+        <v>-1.85863824358658E-2</v>
+      </c>
+      <c r="BQ156" s="5">
+        <v>-1.38648419764967E-3</v>
+      </c>
+      <c r="BR156" s="5">
+        <v>1.5273936180365299E-2</v>
+      </c>
+      <c r="BS156" s="5">
+        <v>-1.24387944328096E-2</v>
+      </c>
+      <c r="BT156" s="5">
+        <v>-1.1590071737180799E-2</v>
+      </c>
     </row>
-    <row r="157" spans="2:63" s="5" customFormat="1">
+    <row r="157" spans="2:72" s="5" customFormat="1">
       <c r="B157" s="5">
         <v>1987.75</v>
       </c>
@@ -23104,8 +26266,35 @@
       <c r="BK157" s="5">
         <v>-3.2709786979047335</v>
       </c>
+      <c r="BL157" s="5">
+        <v>-3.1446651925703999E-2</v>
+      </c>
+      <c r="BM157" s="5">
+        <v>-1.6875802073431999E-2</v>
+      </c>
+      <c r="BN157" s="5">
+        <v>1.7296628114858801E-2</v>
+      </c>
+      <c r="BO157" s="5">
+        <v>-2.86580182747645E-2</v>
+      </c>
+      <c r="BP157" s="5">
+        <v>5.9885408414477398E-2</v>
+      </c>
+      <c r="BQ157" s="5">
+        <v>-1.5006128863989301E-3</v>
+      </c>
+      <c r="BR157" s="5">
+        <v>4.6418716303364298E-2</v>
+      </c>
+      <c r="BS157" s="5">
+        <v>-2.81762138775421E-2</v>
+      </c>
+      <c r="BT157" s="5">
+        <v>-5.3787751455692196E-3</v>
+      </c>
     </row>
-    <row r="158" spans="2:63" s="5" customFormat="1">
+    <row r="158" spans="2:72" s="5" customFormat="1">
       <c r="B158" s="5">
         <v>1988</v>
       </c>
@@ -23288,8 +26477,35 @@
       <c r="BK158" s="5">
         <v>2.2618152952896837</v>
       </c>
+      <c r="BL158" s="5">
+        <v>-1.30246266434108E-2</v>
+      </c>
+      <c r="BM158" s="5">
+        <v>-6.8307519573791399E-3</v>
+      </c>
+      <c r="BN158" s="5">
+        <v>-6.3462823506757796E-4</v>
+      </c>
+      <c r="BO158" s="5">
+        <v>-7.27513412560622E-4</v>
+      </c>
+      <c r="BP158" s="5">
+        <v>-2.4394337543097999E-2</v>
+      </c>
+      <c r="BQ158" s="5">
+        <v>1.1871741859196301E-2</v>
+      </c>
+      <c r="BR158" s="5">
+        <v>5.3108395137235701E-3</v>
+      </c>
+      <c r="BS158" s="5">
+        <v>-1.06431678717683E-2</v>
+      </c>
+      <c r="BT158" s="5">
+        <v>-3.3175210014501099E-3</v>
+      </c>
     </row>
-    <row r="159" spans="2:63" s="5" customFormat="1">
+    <row r="159" spans="2:72" s="5" customFormat="1">
       <c r="B159" s="5">
         <v>1988.25</v>
       </c>
@@ -23472,8 +26688,35 @@
       <c r="BK159" s="5">
         <v>-1.2485259384360714</v>
       </c>
+      <c r="BL159" s="5">
+        <v>-2.2565950802103E-2</v>
+      </c>
+      <c r="BM159" s="5">
+        <v>-1.52012087723648E-2</v>
+      </c>
+      <c r="BN159" s="5">
+        <v>2.00365798468339E-2</v>
+      </c>
+      <c r="BO159" s="5">
+        <v>-2.9701566781691899E-3</v>
+      </c>
+      <c r="BP159" s="5">
+        <v>-1.56436897475257E-2</v>
+      </c>
+      <c r="BQ159" s="5">
+        <v>3.42149461269412E-3</v>
+      </c>
+      <c r="BR159" s="5">
+        <v>1.21395569515647E-2</v>
+      </c>
+      <c r="BS159" s="5">
+        <v>1.44493669780985E-3</v>
+      </c>
+      <c r="BT159" s="5">
+        <v>1.19821199225164E-3</v>
+      </c>
     </row>
-    <row r="160" spans="2:63" s="5" customFormat="1">
+    <row r="160" spans="2:72" s="5" customFormat="1">
       <c r="B160" s="5">
         <v>1988.5</v>
       </c>
@@ -23656,8 +26899,35 @@
       <c r="BK160" s="5">
         <v>0.85447427158424205</v>
       </c>
+      <c r="BL160" s="5">
+        <v>1.7843820513527701E-3</v>
+      </c>
+      <c r="BM160" s="5">
+        <v>-1.9218046737660099E-2</v>
+      </c>
+      <c r="BN160" s="5">
+        <v>1.5856983086501901E-2</v>
+      </c>
+      <c r="BO160" s="5">
+        <v>-1.1246449113606101E-2</v>
+      </c>
+      <c r="BP160" s="5">
+        <v>-1.23165711205276E-2</v>
+      </c>
+      <c r="BQ160" s="5">
+        <v>-7.9367194881475207E-3</v>
+      </c>
+      <c r="BR160" s="5">
+        <v>1.87263900522825E-2</v>
+      </c>
+      <c r="BS160" s="5">
+        <v>-7.6589939466552804E-3</v>
+      </c>
+      <c r="BT160" s="5">
+        <v>-1.10150862293894E-2</v>
+      </c>
     </row>
-    <row r="161" spans="2:63" s="5" customFormat="1">
+    <row r="161" spans="2:72" s="5" customFormat="1">
       <c r="B161" s="5">
         <v>1988.75</v>
       </c>
@@ -23840,8 +27110,35 @@
       <c r="BK161" s="5">
         <v>-0.42037296780382333</v>
       </c>
+      <c r="BL161" s="5">
+        <v>-2.5549453430447799E-2</v>
+      </c>
+      <c r="BM161" s="5">
+        <v>-1.44216442699245E-2</v>
+      </c>
+      <c r="BN161" s="5">
+        <v>1.21193027590704E-2</v>
+      </c>
+      <c r="BO161" s="5">
+        <v>6.2735231090662097E-3</v>
+      </c>
+      <c r="BP161" s="5">
+        <v>-1.34761384925866E-2</v>
+      </c>
+      <c r="BQ161" s="5">
+        <v>-5.74757935084286E-3</v>
+      </c>
+      <c r="BR161" s="5">
+        <v>1.68607676551479E-2</v>
+      </c>
+      <c r="BS161" s="5">
+        <v>-9.58559431369016E-3</v>
+      </c>
+      <c r="BT161" s="5">
+        <v>-7.46555530368342E-3</v>
+      </c>
     </row>
-    <row r="162" spans="2:63" s="5" customFormat="1">
+    <row r="162" spans="2:72" s="5" customFormat="1">
       <c r="B162" s="5">
         <v>1989</v>
       </c>
@@ -24024,8 +27321,35 @@
       <c r="BK162" s="5">
         <v>-0.69178422773163806</v>
       </c>
+      <c r="BL162" s="5">
+        <v>-1.1950310944261701E-2</v>
+      </c>
+      <c r="BM162" s="5">
+        <v>-2.11668711106817E-2</v>
+      </c>
+      <c r="BN162" s="5">
+        <v>2.7803066363847599E-2</v>
+      </c>
+      <c r="BO162" s="5">
+        <v>-1.17747429455275E-2</v>
+      </c>
+      <c r="BP162" s="5">
+        <v>-3.0723554312522799E-2</v>
+      </c>
+      <c r="BQ162" s="5">
+        <v>-1.51117006649865E-2</v>
+      </c>
+      <c r="BR162" s="5">
+        <v>9.3386956593599097E-3</v>
+      </c>
+      <c r="BS162" s="5">
+        <v>-1.74285533212262E-3</v>
+      </c>
+      <c r="BT162" s="5">
+        <v>-1.67804888830459E-2</v>
+      </c>
     </row>
-    <row r="163" spans="2:63" s="5" customFormat="1">
+    <row r="163" spans="2:72" s="5" customFormat="1">
       <c r="B163" s="5">
         <v>1989.25</v>
       </c>
@@ -24208,8 +27532,35 @@
       <c r="BK163" s="5">
         <v>-1.0199095706878334</v>
       </c>
+      <c r="BL163" s="5">
+        <v>1.46055959639632E-2</v>
+      </c>
+      <c r="BM163" s="5">
+        <v>-1.8517565734529701E-2</v>
+      </c>
+      <c r="BN163" s="5">
+        <v>1.4631947000508299E-2</v>
+      </c>
+      <c r="BO163" s="5">
+        <v>-4.3334487426085902E-3</v>
+      </c>
+      <c r="BP163" s="5">
+        <v>-3.7733109413837299E-2</v>
+      </c>
+      <c r="BQ163" s="5">
+        <v>-2.81910676860424E-2</v>
+      </c>
+      <c r="BR163" s="5">
+        <v>8.7292187696366794E-3</v>
+      </c>
+      <c r="BS163" s="5">
+        <v>7.1970797118366698E-3</v>
+      </c>
+      <c r="BT163" s="5">
+        <v>-1.2785677255188799E-2</v>
+      </c>
     </row>
-    <row r="164" spans="2:63" s="5" customFormat="1">
+    <row r="164" spans="2:72" s="5" customFormat="1">
       <c r="B164" s="5">
         <v>1989.5</v>
       </c>
@@ -24392,8 +27743,35 @@
       <c r="BK164" s="5">
         <v>0.24183771237822532</v>
       </c>
+      <c r="BL164" s="5">
+        <v>1.2427851196157301E-2</v>
+      </c>
+      <c r="BM164" s="5">
+        <v>-2.0629327925153701E-3</v>
+      </c>
+      <c r="BN164" s="5">
+        <v>-9.0541218564124497E-3</v>
+      </c>
+      <c r="BO164" s="5">
+        <v>-2.7665997657917701E-3</v>
+      </c>
+      <c r="BP164" s="5">
+        <v>-3.4033449614744297E-2</v>
+      </c>
+      <c r="BQ164" s="5">
+        <v>1.6875156497905899E-3</v>
+      </c>
+      <c r="BR164" s="5">
+        <v>2.2856167958759201E-2</v>
+      </c>
+      <c r="BS164" s="5">
+        <v>7.5782830016404099E-3</v>
+      </c>
+      <c r="BT164" s="5">
+        <v>4.9558865983340096E-3</v>
+      </c>
     </row>
-    <row r="165" spans="2:63" s="5" customFormat="1">
+    <row r="165" spans="2:72" s="5" customFormat="1">
       <c r="B165" s="5">
         <v>1989.75</v>
       </c>
@@ -24576,8 +27954,35 @@
       <c r="BK165" s="5">
         <v>0.34787890661935611</v>
       </c>
+      <c r="BL165" s="5">
+        <v>5.9730799317369698E-3</v>
+      </c>
+      <c r="BM165" s="5">
+        <v>-1.45328164430796E-2</v>
+      </c>
+      <c r="BN165" s="5">
+        <v>2.3525064823047E-3</v>
+      </c>
+      <c r="BO165" s="5">
+        <v>-1.3191070496706101E-2</v>
+      </c>
+      <c r="BP165" s="5">
+        <v>-1.0076698478923E-2</v>
+      </c>
+      <c r="BQ165" s="5">
+        <v>7.7310263247512001E-3</v>
+      </c>
+      <c r="BR165" s="5">
+        <v>8.9403870109369E-3</v>
+      </c>
+      <c r="BS165" s="5">
+        <v>-1.6936072616451199E-2</v>
+      </c>
+      <c r="BT165" s="5">
+        <v>-1.8860006906958399E-2</v>
+      </c>
     </row>
-    <row r="166" spans="2:63" s="5" customFormat="1">
+    <row r="166" spans="2:72" s="5" customFormat="1">
       <c r="B166" s="5">
         <v>1990</v>
       </c>
@@ -24762,8 +28167,35 @@
       <c r="BK166" s="5">
         <v>-1.3496184956234738</v>
       </c>
+      <c r="BL166" s="5">
+        <v>-9.4942521117560904E-3</v>
+      </c>
+      <c r="BM166" s="5">
+        <v>-2.7538149068081899E-2</v>
+      </c>
+      <c r="BN166" s="5">
+        <v>2.6456957905240799E-2</v>
+      </c>
+      <c r="BO166" s="5">
+        <v>-9.3682966011598404E-4</v>
+      </c>
+      <c r="BP166" s="5">
+        <v>2.0983994317841199E-4</v>
+      </c>
+      <c r="BQ166" s="5">
+        <v>3.0156565824123599E-3</v>
+      </c>
+      <c r="BR166" s="5">
+        <v>4.6788830302196202E-3</v>
+      </c>
+      <c r="BS166" s="5">
+        <v>-2.87563245782292E-2</v>
+      </c>
+      <c r="BT166" s="5">
+        <v>1.2294204974872E-3</v>
+      </c>
     </row>
-    <row r="167" spans="2:63" s="5" customFormat="1">
+    <row r="167" spans="2:72" s="5" customFormat="1">
       <c r="B167" s="5">
         <v>1990.25</v>
       </c>
@@ -24948,8 +28380,35 @@
       <c r="BK167" s="5">
         <v>0.19603304285078071</v>
       </c>
+      <c r="BL167" s="5">
+        <v>1.56347617541065E-2</v>
+      </c>
+      <c r="BM167" s="5">
+        <v>-5.9191023206378304E-3</v>
+      </c>
+      <c r="BN167" s="5">
+        <v>-3.3046762841931702E-3</v>
+      </c>
+      <c r="BO167" s="5">
+        <v>-2.35623748292589E-3</v>
+      </c>
+      <c r="BP167" s="5">
+        <v>-2.3348469321975599E-2</v>
+      </c>
+      <c r="BQ167" s="5">
+        <v>-6.7928286138616897E-3</v>
+      </c>
+      <c r="BR167" s="5">
+        <v>2.6233103682856699E-2</v>
+      </c>
+      <c r="BS167" s="5">
+        <v>-5.7276771983838697E-3</v>
+      </c>
+      <c r="BT167" s="5">
+        <v>-5.3937523866784201E-3</v>
+      </c>
     </row>
-    <row r="168" spans="2:63" s="5" customFormat="1">
+    <row r="168" spans="2:72" s="5" customFormat="1">
       <c r="B168" s="5">
         <v>1990.5</v>
       </c>
@@ -25134,8 +28593,35 @@
       <c r="BK168" s="5">
         <v>-1.8263070468672131</v>
       </c>
+      <c r="BL168" s="5">
+        <v>4.5488012329333999E-2</v>
+      </c>
+      <c r="BM168" s="5">
+        <v>-2.4714543447882001E-2</v>
+      </c>
+      <c r="BN168" s="5">
+        <v>1.8965856077252999E-2</v>
+      </c>
+      <c r="BO168" s="5">
+        <v>-1.26518970439152E-2</v>
+      </c>
+      <c r="BP168" s="5">
+        <v>2.2188027047338701E-2</v>
+      </c>
+      <c r="BQ168" s="5">
+        <v>-2.7938788950470101E-2</v>
+      </c>
+      <c r="BR168" s="5">
+        <v>2.0293849516619E-2</v>
+      </c>
+      <c r="BS168" s="5">
+        <v>-2.3202765845683999E-2</v>
+      </c>
+      <c r="BT168" s="5">
+        <v>-2.2577607330228702E-2</v>
+      </c>
     </row>
-    <row r="169" spans="2:63" s="5" customFormat="1">
+    <row r="169" spans="2:72" s="5" customFormat="1">
       <c r="B169" s="5">
         <v>1990.75</v>
       </c>
@@ -25320,8 +28806,35 @@
       <c r="BK169" s="5">
         <v>-1.5241561972788626</v>
       </c>
+      <c r="BL169" s="5">
+        <v>8.8132053118965395E-2</v>
+      </c>
+      <c r="BM169" s="5">
+        <v>-1.02310098790901E-2</v>
+      </c>
+      <c r="BN169" s="5">
+        <v>1.2543317397100699E-3</v>
+      </c>
+      <c r="BO169" s="5">
+        <v>-7.2968062027177804E-3</v>
+      </c>
+      <c r="BP169" s="5">
+        <v>-2.46230857945515E-2</v>
+      </c>
+      <c r="BQ169" s="5">
+        <v>-1.6440494511923899E-2</v>
+      </c>
+      <c r="BR169" s="5">
+        <v>-3.1640105510665302E-3</v>
+      </c>
+      <c r="BS169" s="5">
+        <v>5.6445618788924304E-3</v>
+      </c>
+      <c r="BT169" s="5">
+        <v>-1.40359920221198E-2</v>
+      </c>
     </row>
-    <row r="170" spans="2:63" s="5" customFormat="1">
+    <row r="170" spans="2:72" s="5" customFormat="1">
       <c r="B170" s="5">
         <v>1991</v>
       </c>
@@ -25506,8 +29019,35 @@
       <c r="BK170" s="5">
         <v>1.2335047258616973</v>
       </c>
+      <c r="BL170" s="5">
+        <v>7.0000213981680506E-2</v>
+      </c>
+      <c r="BM170" s="5">
+        <v>5.1122573754050701E-3</v>
+      </c>
+      <c r="BN170" s="5">
+        <v>-2.5323190776302702E-2</v>
+      </c>
+      <c r="BO170" s="5">
+        <v>1.0229012272501999E-2</v>
+      </c>
+      <c r="BP170" s="5">
+        <v>-2.6473609346905298E-2</v>
+      </c>
+      <c r="BQ170" s="5">
+        <v>1.0432109952457899E-2</v>
+      </c>
+      <c r="BR170" s="5">
+        <v>2.1848375256108499E-2</v>
+      </c>
+      <c r="BS170" s="5">
+        <v>2.79656994894792E-2</v>
+      </c>
+      <c r="BT170" s="5">
+        <v>-1.5238658219129401E-2</v>
+      </c>
     </row>
-    <row r="171" spans="2:63" s="5" customFormat="1">
+    <row r="171" spans="2:72" s="5" customFormat="1">
       <c r="B171" s="5">
         <v>1991.25</v>
       </c>
@@ -25692,8 +29232,35 @@
       <c r="BK171" s="5">
         <v>-0.72472465086146665</v>
       </c>
+      <c r="BL171" s="5">
+        <v>1.13017542128697E-2</v>
+      </c>
+      <c r="BM171" s="5">
+        <v>1.7927903164388301E-3</v>
+      </c>
+      <c r="BN171" s="5">
+        <v>-1.77748029926308E-2</v>
+      </c>
+      <c r="BO171" s="5">
+        <v>2.8597953387009399E-2</v>
+      </c>
+      <c r="BP171" s="5">
+        <v>8.4832841271562098E-3</v>
+      </c>
+      <c r="BQ171" s="5">
+        <v>1.18380297482537E-2</v>
+      </c>
+      <c r="BR171" s="5">
+        <v>1.4630786970946399E-2</v>
+      </c>
+      <c r="BS171" s="5">
+        <v>-3.0339222937532401E-2</v>
+      </c>
+      <c r="BT171" s="5">
+        <v>-1.1771395425436801E-2</v>
+      </c>
     </row>
-    <row r="172" spans="2:63" s="5" customFormat="1">
+    <row r="172" spans="2:72" s="5" customFormat="1">
       <c r="B172" s="5">
         <v>1991.5</v>
       </c>
@@ -25878,8 +29445,35 @@
       <c r="BK172" s="5">
         <v>-0.44930879559356895</v>
       </c>
+      <c r="BL172" s="5">
+        <v>1.5940714479873799E-2</v>
+      </c>
+      <c r="BM172" s="5">
+        <v>9.1250319748544008E-3</v>
+      </c>
+      <c r="BN172" s="5">
+        <v>-6.1774387509252304E-3</v>
+      </c>
+      <c r="BO172" s="5">
+        <v>1.9861454310884E-2</v>
+      </c>
+      <c r="BP172" s="5">
+        <v>-1.71219721617095E-3</v>
+      </c>
+      <c r="BQ172" s="5">
+        <v>6.5851231943316497E-3</v>
+      </c>
+      <c r="BR172" s="5">
+        <v>8.6147109308087593E-3</v>
+      </c>
+      <c r="BS172" s="5">
+        <v>-1.2755165730361799E-2</v>
+      </c>
+      <c r="BT172" s="5">
+        <v>-2.5306782989914098E-2</v>
+      </c>
     </row>
-    <row r="173" spans="2:63" s="5" customFormat="1">
+    <row r="173" spans="2:72" s="5" customFormat="1">
       <c r="B173" s="5">
         <v>1991.75</v>
       </c>
@@ -26064,8 +29658,35 @@
       <c r="BK173" s="5">
         <v>3.6424497268885692E-2</v>
       </c>
+      <c r="BL173" s="5">
+        <v>4.0226665665191903E-2</v>
+      </c>
+      <c r="BM173" s="5">
+        <v>9.1996701508721603E-3</v>
+      </c>
+      <c r="BN173" s="5">
+        <v>-9.7266378241218001E-3</v>
+      </c>
+      <c r="BO173" s="5">
+        <v>2.2117097632911701E-2</v>
+      </c>
+      <c r="BP173" s="5">
+        <v>-5.2781303281570803E-3</v>
+      </c>
+      <c r="BQ173" s="5">
+        <v>4.9654757903268704E-3</v>
+      </c>
+      <c r="BR173" s="5">
+        <v>1.5337095651723101E-3</v>
+      </c>
+      <c r="BS173" s="5">
+        <v>-7.0444889886691698E-3</v>
+      </c>
+      <c r="BT173" s="5">
+        <v>2.5178148684257599E-3</v>
+      </c>
     </row>
-    <row r="174" spans="2:63" s="5" customFormat="1">
+    <row r="174" spans="2:72" s="5" customFormat="1">
       <c r="B174" s="5">
         <v>1992</v>
       </c>
@@ -26250,8 +29871,35 @@
       <c r="BK174" s="5">
         <v>-0.73845899788021918</v>
       </c>
+      <c r="BL174" s="5">
+        <v>1.3116597516436999E-3</v>
+      </c>
+      <c r="BM174" s="5">
+        <v>8.7092897833524596E-3</v>
+      </c>
+      <c r="BN174" s="5">
+        <v>-1.2903033907620201E-2</v>
+      </c>
+      <c r="BO174" s="5">
+        <v>3.3516990872340703E-2</v>
+      </c>
+      <c r="BP174" s="5">
+        <v>1.19727739174061E-2</v>
+      </c>
+      <c r="BQ174" s="5">
+        <v>3.8563133364634003E-2</v>
+      </c>
+      <c r="BR174" s="14">
+        <v>2.1448714436337E-5</v>
+      </c>
+      <c r="BS174" s="5">
+        <v>-3.7932889971841598E-2</v>
+      </c>
+      <c r="BT174" s="5">
+        <v>1.45926140713451E-2</v>
+      </c>
     </row>
-    <row r="175" spans="2:63" s="5" customFormat="1">
+    <row r="175" spans="2:72" s="5" customFormat="1">
       <c r="B175" s="5">
         <v>1992.25</v>
       </c>
@@ -26436,8 +30084,35 @@
       <c r="BK175" s="5">
         <v>-0.73368194416615484</v>
       </c>
+      <c r="BL175" s="5">
+        <v>2.8639666741694801E-3</v>
+      </c>
+      <c r="BM175" s="5">
+        <v>1.25899807972795E-2</v>
+      </c>
+      <c r="BN175" s="5">
+        <v>-4.8519209493231799E-4</v>
+      </c>
+      <c r="BO175" s="5">
+        <v>2.3818690172666201E-2</v>
+      </c>
+      <c r="BP175" s="5">
+        <v>9.1839899117496394E-3</v>
+      </c>
+      <c r="BQ175" s="5">
+        <v>-3.0051059531302402E-3</v>
+      </c>
+      <c r="BR175" s="5">
+        <v>1.16024028179067E-2</v>
+      </c>
+      <c r="BS175" s="5">
+        <v>-1.40910699565008E-2</v>
+      </c>
+      <c r="BT175" s="5">
+        <v>-1.4265631016266E-2</v>
+      </c>
     </row>
-    <row r="176" spans="2:63" s="5" customFormat="1">
+    <row r="176" spans="2:72" s="5" customFormat="1">
       <c r="B176" s="5">
         <v>1992.5</v>
       </c>
@@ -26622,8 +30297,35 @@
       <c r="BK176" s="5">
         <v>-0.74316377383236376</v>
       </c>
+      <c r="BL176" s="5">
+        <v>1.11226483913757E-2</v>
+      </c>
+      <c r="BM176" s="5">
+        <v>1.72757820981208E-2</v>
+      </c>
+      <c r="BN176" s="5">
+        <v>-3.8401056572373101E-3</v>
+      </c>
+      <c r="BO176" s="5">
+        <v>1.24841618783527E-2</v>
+      </c>
+      <c r="BP176" s="5">
+        <v>-6.0704430016241798E-4</v>
+      </c>
+      <c r="BQ176" s="5">
+        <v>1.3360678517214701E-2</v>
+      </c>
+      <c r="BR176" s="5">
+        <v>2.01578994787651E-3</v>
+      </c>
+      <c r="BS176" s="5">
+        <v>-3.5345212775875399E-3</v>
+      </c>
+      <c r="BT176" s="5">
+        <v>-1.08999592590676E-2</v>
+      </c>
     </row>
-    <row r="177" spans="2:63" s="5" customFormat="1">
+    <row r="177" spans="2:72" s="5" customFormat="1">
       <c r="B177" s="5">
         <v>1992.75</v>
       </c>
@@ -26808,8 +30510,35 @@
       <c r="BK177" s="5">
         <v>0.18190710425034598</v>
       </c>
+      <c r="BL177" s="5">
+        <v>-8.8153192130802794E-3</v>
+      </c>
+      <c r="BM177" s="5">
+        <v>1.5819305384325098E-2</v>
+      </c>
+      <c r="BN177" s="5">
+        <v>-9.2983586684669897E-4</v>
+      </c>
+      <c r="BO177" s="5">
+        <v>3.2584281812457802E-2</v>
+      </c>
+      <c r="BP177" s="5">
+        <v>7.3701558829552399E-3</v>
+      </c>
+      <c r="BQ177" s="5">
+        <v>7.0855120028339496E-3</v>
+      </c>
+      <c r="BR177" s="5">
+        <v>9.0144409476712699E-3</v>
+      </c>
+      <c r="BS177" s="5">
+        <v>4.7843649369042002E-3</v>
+      </c>
+      <c r="BT177" s="5">
+        <v>-1.6441682203925001E-2</v>
+      </c>
     </row>
-    <row r="178" spans="2:63" s="5" customFormat="1">
+    <row r="178" spans="2:72" s="5" customFormat="1">
       <c r="B178" s="5">
         <v>1993</v>
       </c>
@@ -26994,8 +30723,35 @@
       <c r="BK178" s="5">
         <v>7.6639182021132526E-2</v>
       </c>
+      <c r="BL178" s="5">
+        <v>1.26810668572136E-2</v>
+      </c>
+      <c r="BM178" s="5">
+        <v>2.1658278362801799E-2</v>
+      </c>
+      <c r="BN178" s="5">
+        <v>4.43019001232347E-3</v>
+      </c>
+      <c r="BO178" s="5">
+        <v>-3.2414500407919301E-4</v>
+      </c>
+      <c r="BP178" s="5">
+        <v>-1.26915741822807E-4</v>
+      </c>
+      <c r="BQ178" s="5">
+        <v>-1.3634517867783E-2</v>
+      </c>
+      <c r="BR178" s="5">
+        <v>6.4186727369995901E-3</v>
+      </c>
+      <c r="BS178" s="5">
+        <v>1.26134021856912E-2</v>
+      </c>
+      <c r="BT178" s="5">
+        <v>-3.7552448015393099E-2</v>
+      </c>
     </row>
-    <row r="179" spans="2:63" s="5" customFormat="1">
+    <row r="179" spans="2:72" s="5" customFormat="1">
       <c r="B179" s="5">
         <v>1993.25</v>
       </c>
@@ -27180,8 +30936,35 @@
       <c r="BK179" s="5">
         <v>0.92620666114400774</v>
       </c>
+      <c r="BL179" s="5">
+        <v>-1.19497539260757E-3</v>
+      </c>
+      <c r="BM179" s="5">
+        <v>1.32043695080064E-2</v>
+      </c>
+      <c r="BN179" s="5">
+        <v>9.9353735819476593E-3</v>
+      </c>
+      <c r="BO179" s="5">
+        <v>-1.3126631806163701E-3</v>
+      </c>
+      <c r="BP179" s="5">
+        <v>3.69563591149406E-3</v>
+      </c>
+      <c r="BQ179" s="5">
+        <v>1.19501556623537E-2</v>
+      </c>
+      <c r="BR179" s="5">
+        <v>-5.8284985357708397E-3</v>
+      </c>
+      <c r="BS179" s="5">
+        <v>9.8738334337743097E-4</v>
+      </c>
+      <c r="BT179" s="5">
+        <v>-1.4259081345137E-2</v>
+      </c>
     </row>
-    <row r="180" spans="2:63" s="5" customFormat="1">
+    <row r="180" spans="2:72" s="5" customFormat="1">
       <c r="B180" s="5">
         <v>1993.5</v>
       </c>
@@ -27366,8 +31149,35 @@
       <c r="BK180" s="5">
         <v>0.312354556604094</v>
       </c>
+      <c r="BL180" s="5">
+        <v>4.0890767851991397E-3</v>
+      </c>
+      <c r="BM180" s="5">
+        <v>2.3776590831294499E-2</v>
+      </c>
+      <c r="BN180" s="5">
+        <v>-4.5943270718195803E-3</v>
+      </c>
+      <c r="BO180" s="5">
+        <v>6.1686004828077397E-3</v>
+      </c>
+      <c r="BP180" s="5">
+        <v>4.4676740878365597E-3</v>
+      </c>
+      <c r="BQ180" s="5">
+        <v>-9.1071083287228103E-4</v>
+      </c>
+      <c r="BR180" s="5">
+        <v>7.9785384848468106E-3</v>
+      </c>
+      <c r="BS180" s="5">
+        <v>1.26207645224464E-2</v>
+      </c>
+      <c r="BT180" s="5">
+        <v>-1.7923594816752899E-2</v>
+      </c>
     </row>
-    <row r="181" spans="2:63" s="5" customFormat="1">
+    <row r="181" spans="2:72" s="5" customFormat="1">
       <c r="B181" s="5">
         <v>1993.75</v>
       </c>
@@ -27552,8 +31362,35 @@
       <c r="BK181" s="5">
         <v>-0.36971918642198226</v>
       </c>
+      <c r="BL181" s="5">
+        <v>-2.9526741358225399E-2</v>
+      </c>
+      <c r="BM181" s="5">
+        <v>1.42618223349442E-2</v>
+      </c>
+      <c r="BN181" s="5">
+        <v>1.38990305270107E-2</v>
+      </c>
+      <c r="BO181" s="5">
+        <v>1.1044340246834599E-2</v>
+      </c>
+      <c r="BP181" s="5">
+        <v>5.7666226688561301E-3</v>
+      </c>
+      <c r="BQ181" s="5">
+        <v>3.0810750461863299E-3</v>
+      </c>
+      <c r="BR181" s="5">
+        <v>1.21373329512833E-3</v>
+      </c>
+      <c r="BS181" s="5">
+        <v>1.3809417783548601E-3</v>
+      </c>
+      <c r="BT181" s="5">
+        <v>-9.1289055244539192E-3</v>
+      </c>
     </row>
-    <row r="182" spans="2:63" s="5" customFormat="1">
+    <row r="182" spans="2:72" s="5" customFormat="1">
       <c r="B182" s="5">
         <v>1994</v>
       </c>
@@ -27738,8 +31575,35 @@
       <c r="BK182" s="5">
         <v>0.92236320330114063</v>
       </c>
+      <c r="BL182" s="5">
+        <v>-1.86920284319857E-2</v>
+      </c>
+      <c r="BM182" s="5">
+        <v>2.25178979163616E-2</v>
+      </c>
+      <c r="BN182" s="5">
+        <v>8.7252073287747301E-3</v>
+      </c>
+      <c r="BO182" s="5">
+        <v>3.6656586265357699E-3</v>
+      </c>
+      <c r="BP182" s="5">
+        <v>1.35481179070425E-2</v>
+      </c>
+      <c r="BQ182" s="5">
+        <v>-1.14171034889099E-2</v>
+      </c>
+      <c r="BR182" s="5">
+        <v>1.6232678013401801E-2</v>
+      </c>
+      <c r="BS182" s="5">
+        <v>4.0017035020348396E-3</v>
+      </c>
+      <c r="BT182" s="5">
+        <v>-3.11869668923309E-2</v>
+      </c>
     </row>
-    <row r="183" spans="2:63" s="5" customFormat="1">
+    <row r="183" spans="2:72" s="5" customFormat="1">
       <c r="B183" s="5">
         <v>1994.25</v>
       </c>
@@ -27924,8 +31788,35 @@
       <c r="BK183" s="5">
         <v>-0.93247871883086475</v>
       </c>
+      <c r="BL183" s="5">
+        <v>-3.9260717956956903E-2</v>
+      </c>
+      <c r="BM183" s="5">
+        <v>1.3635828478077599E-2</v>
+      </c>
+      <c r="BN183" s="5">
+        <v>1.5509293277418099E-2</v>
+      </c>
+      <c r="BO183" s="5">
+        <v>-8.1638764618535593E-3</v>
+      </c>
+      <c r="BP183" s="5">
+        <v>3.9929262680748296E-3</v>
+      </c>
+      <c r="BQ183" s="5">
+        <v>-5.30291325966613E-3</v>
+      </c>
+      <c r="BR183" s="5">
+        <v>1.8823143929164201E-2</v>
+      </c>
+      <c r="BS183" s="5">
+        <v>2.7356148271524801E-3</v>
+      </c>
+      <c r="BT183" s="5">
+        <v>-1.1337268521784899E-2</v>
+      </c>
     </row>
-    <row r="184" spans="2:63" s="5" customFormat="1">
+    <row r="184" spans="2:72" s="5" customFormat="1">
       <c r="B184" s="5">
         <v>1994.5</v>
       </c>
@@ -28110,8 +32001,35 @@
       <c r="BK184" s="5">
         <v>0.48459398910188323</v>
       </c>
+      <c r="BL184" s="5">
+        <v>-1.8843581320441501E-2</v>
+      </c>
+      <c r="BM184" s="5">
+        <v>7.5437707044081299E-3</v>
+      </c>
+      <c r="BN184" s="5">
+        <v>1.8046645050576699E-2</v>
+      </c>
+      <c r="BO184" s="5">
+        <v>-9.9248165802830607E-3</v>
+      </c>
+      <c r="BP184" s="5">
+        <v>-1.29042375935935E-2</v>
+      </c>
+      <c r="BQ184" s="5">
+        <v>-6.4439644129604496E-3</v>
+      </c>
+      <c r="BR184" s="5">
+        <v>2.8223274082163097E-4</v>
+      </c>
+      <c r="BS184" s="5">
+        <v>-4.4556829729192103E-3</v>
+      </c>
+      <c r="BT184" s="5">
+        <v>-1.9697901619198498E-2</v>
+      </c>
     </row>
-    <row r="185" spans="2:63" s="5" customFormat="1">
+    <row r="185" spans="2:72" s="5" customFormat="1">
       <c r="B185" s="5">
         <v>1994.75</v>
       </c>
@@ -28296,8 +32214,35 @@
       <c r="BK185" s="5">
         <v>0.14063224387775503</v>
       </c>
+      <c r="BL185" s="5">
+        <v>-4.1220092551877897E-2</v>
+      </c>
+      <c r="BM185" s="5">
+        <v>9.9092937347057108E-3</v>
+      </c>
+      <c r="BN185" s="5">
+        <v>1.6894045412085001E-2</v>
+      </c>
+      <c r="BO185" s="5">
+        <v>-5.4133146026394598E-3</v>
+      </c>
+      <c r="BP185" s="5">
+        <v>3.32395785991437E-3</v>
+      </c>
+      <c r="BQ185" s="5">
+        <v>-8.6769001729212897E-3</v>
+      </c>
+      <c r="BR185" s="5">
+        <v>1.9628623614358499E-2</v>
+      </c>
+      <c r="BS185" s="5">
+        <v>-9.5179434770126699E-3</v>
+      </c>
+      <c r="BT185" s="5">
+        <v>-1.3510620832907799E-2</v>
+      </c>
     </row>
-    <row r="186" spans="2:63" s="5" customFormat="1">
+    <row r="186" spans="2:72" s="5" customFormat="1">
       <c r="B186" s="5">
         <v>1995</v>
       </c>
@@ -28482,8 +32427,35 @@
       <c r="BK186" s="5">
         <v>0.31161719291288414</v>
       </c>
+      <c r="BL186" s="5">
+        <v>-5.87793851500932E-3</v>
+      </c>
+      <c r="BM186" s="5">
+        <v>9.0869645100289994E-3</v>
+      </c>
+      <c r="BN186" s="5">
+        <v>1.07047103464907E-2</v>
+      </c>
+      <c r="BO186" s="5">
+        <v>-1.48907479039956E-2</v>
+      </c>
+      <c r="BP186" s="5">
+        <v>-2.98632483572219E-2</v>
+      </c>
+      <c r="BQ186" s="5">
+        <v>-1.9941133163805899E-2</v>
+      </c>
+      <c r="BR186" s="5">
+        <v>1.1888658886885801E-2</v>
+      </c>
+      <c r="BS186" s="5">
+        <v>2.6995922264340202E-3</v>
+      </c>
+      <c r="BT186" s="5">
+        <v>-1.1787754668022499E-2</v>
+      </c>
     </row>
-    <row r="187" spans="2:63" s="5" customFormat="1">
+    <row r="187" spans="2:72" s="5" customFormat="1">
       <c r="B187" s="5">
         <v>1995.25</v>
       </c>
@@ -28668,8 +32640,35 @@
       <c r="BK187" s="5">
         <v>0.96273189313448082</v>
       </c>
+      <c r="BL187" s="5">
+        <v>2.0956581324244202E-3</v>
+      </c>
+      <c r="BM187" s="5">
+        <v>1.3978563586575E-2</v>
+      </c>
+      <c r="BN187" s="5">
+        <v>-3.46356474943377E-3</v>
+      </c>
+      <c r="BO187" s="5">
+        <v>-6.0644827718979903E-3</v>
+      </c>
+      <c r="BP187" s="5">
+        <v>-2.9413165195256E-2</v>
+      </c>
+      <c r="BQ187" s="5">
+        <v>-1.88021563303215E-2</v>
+      </c>
+      <c r="BR187" s="5">
+        <v>1.43349977334957E-2</v>
+      </c>
+      <c r="BS187" s="5">
+        <v>1.0506521062981901E-2</v>
+      </c>
+      <c r="BT187" s="5">
+        <v>-7.10985829483306E-3</v>
+      </c>
     </row>
-    <row r="188" spans="2:63" s="5" customFormat="1">
+    <row r="188" spans="2:72" s="5" customFormat="1">
       <c r="B188" s="5">
         <v>1995.5</v>
       </c>
@@ -28854,8 +32853,35 @@
       <c r="BK188" s="5">
         <v>-0.8578301452664403</v>
       </c>
+      <c r="BL188" s="5">
+        <v>-1.8186062361818502E-2</v>
+      </c>
+      <c r="BM188" s="5">
+        <v>1.6436780017098598E-2</v>
+      </c>
+      <c r="BN188" s="5">
+        <v>3.57922459484014E-3</v>
+      </c>
+      <c r="BO188" s="5">
+        <v>-2.9862444205703601E-3</v>
+      </c>
+      <c r="BP188" s="5">
+        <v>-1.93244759366696E-2</v>
+      </c>
+      <c r="BQ188" s="5">
+        <v>5.1309778039598797E-3</v>
+      </c>
+      <c r="BR188" s="5">
+        <v>5.1974046918655103E-3</v>
+      </c>
+      <c r="BS188" s="5">
+        <v>-1.89219886532811E-3</v>
+      </c>
+      <c r="BT188" s="5">
+        <v>-1.4367027923614099E-2</v>
+      </c>
     </row>
-    <row r="189" spans="2:63" s="5" customFormat="1">
+    <row r="189" spans="2:72" s="5" customFormat="1">
       <c r="B189" s="5">
         <v>1995.75</v>
       </c>
@@ -29040,8 +33066,35 @@
       <c r="BK189" s="5">
         <v>0.84886772276594713</v>
       </c>
+      <c r="BL189" s="5">
+        <v>1.07851239160457E-3</v>
+      </c>
+      <c r="BM189" s="5">
+        <v>1.89419266479969E-2</v>
+      </c>
+      <c r="BN189" s="5">
+        <v>1.15833370060719E-3</v>
+      </c>
+      <c r="BO189" s="5">
+        <v>-4.5999663405265202E-4</v>
+      </c>
+      <c r="BP189" s="5">
+        <v>-1.80136123390412E-2</v>
+      </c>
+      <c r="BQ189" s="5">
+        <v>-1.6345013897844599E-2</v>
+      </c>
+      <c r="BR189" s="5">
+        <v>1.14702881492955E-2</v>
+      </c>
+      <c r="BS189" s="5">
+        <v>7.9775163616875398E-3</v>
+      </c>
+      <c r="BT189" s="5">
+        <v>-1.3474538462025801E-2</v>
+      </c>
     </row>
-    <row r="190" spans="2:63" s="5" customFormat="1">
+    <row r="190" spans="2:72" s="5" customFormat="1">
       <c r="B190" s="5">
         <v>1996</v>
       </c>
@@ -29226,8 +33279,35 @@
       <c r="BK190" s="5">
         <v>1.4359382113885837</v>
       </c>
+      <c r="BL190" s="5">
+        <v>-1.0336576986310299E-2</v>
+      </c>
+      <c r="BM190" s="5">
+        <v>9.6138637889335299E-3</v>
+      </c>
+      <c r="BN190" s="5">
+        <v>9.4554823618359408E-3</v>
+      </c>
+      <c r="BO190" s="5">
+        <v>3.6985194868936798E-3</v>
+      </c>
+      <c r="BP190" s="5">
+        <v>-1.38468186365798E-2</v>
+      </c>
+      <c r="BQ190" s="5">
+        <v>-3.3240811549576301E-3</v>
+      </c>
+      <c r="BR190" s="5">
+        <v>-1.0803941212409499E-3</v>
+      </c>
+      <c r="BS190" s="5">
+        <v>-1.6930450840750299E-2</v>
+      </c>
+      <c r="BT190" s="5">
+        <v>-6.1169994584861897E-3</v>
+      </c>
     </row>
-    <row r="191" spans="2:63" s="5" customFormat="1">
+    <row r="191" spans="2:72" s="5" customFormat="1">
       <c r="B191" s="5">
         <v>1996.25</v>
       </c>
@@ -29412,8 +33492,35 @@
       <c r="BK191" s="5">
         <v>-0.95174536009696586</v>
       </c>
+      <c r="BL191" s="5">
+        <v>-4.19278368600687E-2</v>
+      </c>
+      <c r="BM191" s="5">
+        <v>1.6068067050716301E-2</v>
+      </c>
+      <c r="BN191" s="5">
+        <v>1.24072431283447E-2</v>
+      </c>
+      <c r="BO191" s="5">
+        <v>8.5302636399600604E-3</v>
+      </c>
+      <c r="BP191" s="5">
+        <v>-8.3599361774483894E-3</v>
+      </c>
+      <c r="BQ191" s="5">
+        <v>-3.8492520233786602E-3</v>
+      </c>
+      <c r="BR191" s="5">
+        <v>1.3007876211482101E-2</v>
+      </c>
+      <c r="BS191" s="5">
+        <v>-5.1571635097877799E-3</v>
+      </c>
+      <c r="BT191" s="5">
+        <v>-1.2040976079404001E-2</v>
+      </c>
     </row>
-    <row r="192" spans="2:63" s="5" customFormat="1">
+    <row r="192" spans="2:72" s="5" customFormat="1">
       <c r="B192" s="5">
         <v>1996.5</v>
       </c>
@@ -29598,8 +33705,35 @@
       <c r="BK192" s="5">
         <v>3.1927144438610361E-2</v>
       </c>
+      <c r="BL192" s="5">
+        <v>-1.9664230395373801E-2</v>
+      </c>
+      <c r="BM192" s="5">
+        <v>1.8095765793730699E-2</v>
+      </c>
+      <c r="BN192" s="5">
+        <v>1.38935368973962E-2</v>
+      </c>
+      <c r="BO192" s="5">
+        <v>-1.37170287303116E-2</v>
+      </c>
+      <c r="BP192" s="5">
+        <v>-1.1669886920085901E-2</v>
+      </c>
+      <c r="BQ192" s="5">
+        <v>-4.94495154633096E-3</v>
+      </c>
+      <c r="BR192" s="5">
+        <v>1.17504823064649E-2</v>
+      </c>
+      <c r="BS192" s="5">
+        <v>-4.2503064937097499E-3</v>
+      </c>
+      <c r="BT192" s="5">
+        <v>-1.52481406995548E-2</v>
+      </c>
     </row>
-    <row r="193" spans="2:63" s="5" customFormat="1">
+    <row r="193" spans="2:72" s="5" customFormat="1">
       <c r="B193" s="5">
         <v>1996.75</v>
       </c>
@@ -29784,8 +33918,35 @@
       <c r="BK193" s="5">
         <v>-0.16990347005782611</v>
       </c>
+      <c r="BL193" s="5">
+        <v>-2.5618351292223101E-2</v>
+      </c>
+      <c r="BM193" s="5">
+        <v>1.55726105089852E-2</v>
+      </c>
+      <c r="BN193" s="5">
+        <v>1.11542796116792E-2</v>
+      </c>
+      <c r="BO193" s="5">
+        <v>-3.31777682801003E-3</v>
+      </c>
+      <c r="BP193" s="5">
+        <v>-2.6666043830654702E-2</v>
+      </c>
+      <c r="BQ193" s="5">
+        <v>-1.7842679644449001E-2</v>
+      </c>
+      <c r="BR193" s="5">
+        <v>2.9280894337872202E-3</v>
+      </c>
+      <c r="BS193" s="5">
+        <v>-2.1612862022120502E-3</v>
+      </c>
+      <c r="BT193" s="5">
+        <v>-1.3099399403997399E-2</v>
+      </c>
     </row>
-    <row r="194" spans="2:63" s="5" customFormat="1">
+    <row r="194" spans="2:72" s="5" customFormat="1">
       <c r="B194" s="5">
         <v>1997</v>
       </c>
@@ -29970,8 +34131,35 @@
       <c r="BK194" s="5">
         <v>0.28745033486153937</v>
       </c>
+      <c r="BL194" s="5">
+        <v>-2.89974632539266E-2</v>
+      </c>
+      <c r="BM194" s="5">
+        <v>2.0688674248989701E-2</v>
+      </c>
+      <c r="BN194" s="5">
+        <v>8.8367855927260503E-3</v>
+      </c>
+      <c r="BO194" s="5">
+        <v>-1.5531205669404699E-2</v>
+      </c>
+      <c r="BP194" s="5">
+        <v>-1.6269057844229801E-2</v>
+      </c>
+      <c r="BQ194" s="5">
+        <v>1.14982012117934E-2</v>
+      </c>
+      <c r="BR194" s="5">
+        <v>1.1659369317847701E-2</v>
+      </c>
+      <c r="BS194" s="5">
+        <v>-6.80821370058971E-3</v>
+      </c>
+      <c r="BT194" s="5">
+        <v>-1.6751450455123801E-2</v>
+      </c>
     </row>
-    <row r="195" spans="2:63" s="5" customFormat="1">
+    <row r="195" spans="2:72" s="5" customFormat="1">
       <c r="B195" s="5">
         <v>1997.25</v>
       </c>
@@ -30156,8 +34344,35 @@
       <c r="BK195" s="5">
         <v>-0.28044375169786961</v>
       </c>
+      <c r="BL195" s="5">
+        <v>-3.4248214257084103E-2</v>
+      </c>
+      <c r="BM195" s="5">
+        <v>2.84637411179356E-2</v>
+      </c>
+      <c r="BN195" s="5">
+        <v>-3.4528625517470501E-3</v>
+      </c>
+      <c r="BO195" s="5">
+        <v>-1.16510142435068E-3</v>
+      </c>
+      <c r="BP195" s="5">
+        <v>-4.26618052028922E-2</v>
+      </c>
+      <c r="BQ195" s="5">
+        <v>-1.07855341726131E-2</v>
+      </c>
+      <c r="BR195" s="5">
+        <v>2.2150450486175401E-2</v>
+      </c>
+      <c r="BS195" s="5">
+        <v>8.4236296734926299E-3</v>
+      </c>
+      <c r="BT195" s="5">
+        <v>6.24306097143965E-3</v>
+      </c>
     </row>
-    <row r="196" spans="2:63" s="5" customFormat="1">
+    <row r="196" spans="2:72" s="5" customFormat="1">
       <c r="B196" s="5">
         <v>1997.5</v>
       </c>
@@ -30342,8 +34557,35 @@
       <c r="BK196" s="5">
         <v>1.2403852513674416</v>
       </c>
+      <c r="BL196" s="5">
+        <v>-4.7125309200441397E-2</v>
+      </c>
+      <c r="BM196" s="5">
+        <v>2.5133392048837699E-2</v>
+      </c>
+      <c r="BN196" s="5">
+        <v>2.80766952694185E-3</v>
+      </c>
+      <c r="BO196" s="5">
+        <v>1.6527535235664099E-3</v>
+      </c>
+      <c r="BP196" s="5">
+        <v>-2.0807161706550101E-2</v>
+      </c>
+      <c r="BQ196" s="5">
+        <v>-2.2950744905625101E-3</v>
+      </c>
+      <c r="BR196" s="5">
+        <v>1.50027346565681E-2</v>
+      </c>
+      <c r="BS196" s="5">
+        <v>-1.10247680989853E-2</v>
+      </c>
+      <c r="BT196" s="5">
+        <v>-1.39422494855416E-2</v>
+      </c>
     </row>
-    <row r="197" spans="2:63" s="5" customFormat="1">
+    <row r="197" spans="2:72" s="5" customFormat="1">
       <c r="B197" s="5">
         <v>1997.75</v>
       </c>
@@ -30531,8 +34773,35 @@
       <c r="BK197" s="5">
         <v>-0.21648807811035534</v>
       </c>
+      <c r="BL197" s="5">
+        <v>-3.3178909890726999E-2</v>
+      </c>
+      <c r="BM197" s="5">
+        <v>2.5873005788841601E-2</v>
+      </c>
+      <c r="BN197" s="5">
+        <v>2.3167483650388099E-3</v>
+      </c>
+      <c r="BO197" s="5">
+        <v>-2.19166713789118E-2</v>
+      </c>
+      <c r="BP197" s="5">
+        <v>-1.9168111396349798E-2</v>
+      </c>
+      <c r="BQ197" s="5">
+        <v>7.4365052837106196E-3</v>
+      </c>
+      <c r="BR197" s="5">
+        <v>1.28007045152502E-2</v>
+      </c>
+      <c r="BS197" s="5">
+        <v>-2.05227512800495E-2</v>
+      </c>
+      <c r="BT197" s="5">
+        <v>-6.4267738385515496E-3</v>
+      </c>
     </row>
-    <row r="198" spans="2:63" s="5" customFormat="1">
+    <row r="198" spans="2:72" s="5" customFormat="1">
       <c r="B198" s="5">
         <v>1998</v>
       </c>
@@ -30720,8 +34989,35 @@
       <c r="BK198" s="5">
         <v>1.4836851603724148</v>
       </c>
+      <c r="BL198" s="5">
+        <v>-2.77815867414151E-2</v>
+      </c>
+      <c r="BM198" s="5">
+        <v>3.3355622905448697E-2</v>
+      </c>
+      <c r="BN198" s="5">
+        <v>-9.2822887623366691E-3</v>
+      </c>
+      <c r="BO198" s="5">
+        <v>-3.1501707292394897E-2</v>
+      </c>
+      <c r="BP198" s="5">
+        <v>-5.0971152128965698E-2</v>
+      </c>
+      <c r="BQ198" s="5">
+        <v>1.6702556411940201E-2</v>
+      </c>
+      <c r="BR198" s="5">
+        <v>2.0908418815165E-2</v>
+      </c>
+      <c r="BS198" s="5">
+        <v>7.7822797522034901E-3</v>
+      </c>
+      <c r="BT198" s="5">
+        <v>6.6784394465075701E-3</v>
+      </c>
     </row>
-    <row r="199" spans="2:63" s="5" customFormat="1">
+    <row r="199" spans="2:72" s="5" customFormat="1">
       <c r="B199" s="5">
         <v>1998.25</v>
       </c>
@@ -30909,8 +35205,35 @@
       <c r="BK199" s="5">
         <v>0.94287385898046483</v>
       </c>
+      <c r="BL199" s="5">
+        <v>-2.6833522341998799E-2</v>
+      </c>
+      <c r="BM199" s="5">
+        <v>2.5939123317178001E-2</v>
+      </c>
+      <c r="BN199" s="5">
+        <v>-6.4418189521021699E-3</v>
+      </c>
+      <c r="BO199" s="5">
+        <v>-2.10375582527948E-2</v>
+      </c>
+      <c r="BP199" s="5">
+        <v>-2.6358096471320501E-2</v>
+      </c>
+      <c r="BQ199" s="5">
+        <v>-5.6390455417620602E-3</v>
+      </c>
+      <c r="BR199" s="5">
+        <v>1.75268302636216E-2</v>
+      </c>
+      <c r="BS199" s="5">
+        <v>-1.1868817791141399E-2</v>
+      </c>
+      <c r="BT199" s="5">
+        <v>3.76010396919762E-3</v>
+      </c>
     </row>
-    <row r="200" spans="2:63" s="5" customFormat="1">
+    <row r="200" spans="2:72" s="5" customFormat="1">
       <c r="B200" s="5">
         <v>1998.5</v>
       </c>
@@ -31098,8 +35421,35 @@
       <c r="BK200" s="5">
         <v>-0.14252559952605592</v>
       </c>
+      <c r="BL200" s="5">
+        <v>-2.7604135811775302E-2</v>
+      </c>
+      <c r="BM200" s="5">
+        <v>2.26134005376891E-2</v>
+      </c>
+      <c r="BN200" s="5">
+        <v>-1.0858695307174801E-3</v>
+      </c>
+      <c r="BO200" s="5">
+        <v>-2.5538621199188101E-2</v>
+      </c>
+      <c r="BP200" s="5">
+        <v>1.04995580186532E-2</v>
+      </c>
+      <c r="BQ200" s="5">
+        <v>-1.47714357185143E-4</v>
+      </c>
+      <c r="BR200" s="5">
+        <v>3.2158714027460102E-2</v>
+      </c>
+      <c r="BS200" s="5">
+        <v>-1.5526010368843201E-2</v>
+      </c>
+      <c r="BT200" s="5">
+        <v>5.8064143373436896E-3</v>
+      </c>
     </row>
-    <row r="201" spans="2:63" s="5" customFormat="1">
+    <row r="201" spans="2:72" s="5" customFormat="1">
       <c r="B201" s="5">
         <v>1998.75</v>
       </c>
@@ -31287,8 +35637,35 @@
       <c r="BK201" s="5">
         <v>0.61426536727205328</v>
       </c>
+      <c r="BL201" s="5">
+        <v>-3.4831553221872397E-2</v>
+      </c>
+      <c r="BM201" s="5">
+        <v>2.8446988149741399E-2</v>
+      </c>
+      <c r="BN201" s="5">
+        <v>-2.8164261174401501E-4</v>
+      </c>
+      <c r="BO201" s="5">
+        <v>4.2447967852453803E-3</v>
+      </c>
+      <c r="BP201" s="5">
+        <v>-5.2142155689385801E-2</v>
+      </c>
+      <c r="BQ201" s="5">
+        <v>-3.8658877654702199E-3</v>
+      </c>
+      <c r="BR201" s="5">
+        <v>2.6802611278314999E-3</v>
+      </c>
+      <c r="BS201" s="5">
+        <v>8.6143572055108492E-3</v>
+      </c>
+      <c r="BT201" s="5">
+        <v>1.22483711488984E-2</v>
+      </c>
     </row>
-    <row r="202" spans="2:63" s="5" customFormat="1">
+    <row r="202" spans="2:72" s="5" customFormat="1">
       <c r="B202" s="5">
         <v>1999</v>
       </c>
@@ -31476,8 +35853,35 @@
       <c r="BK202" s="5">
         <v>0.84309013957548273</v>
       </c>
+      <c r="BL202" s="5">
+        <v>-2.1057514737676E-2</v>
+      </c>
+      <c r="BM202" s="5">
+        <v>3.2597980300372198E-2</v>
+      </c>
+      <c r="BN202" s="5">
+        <v>-7.79115356489689E-3</v>
+      </c>
+      <c r="BO202" s="5">
+        <v>-1.0447492001039701E-2</v>
+      </c>
+      <c r="BP202" s="5">
+        <v>-2.2557386818097099E-2</v>
+      </c>
+      <c r="BQ202" s="5">
+        <v>-1.03503675518641E-2</v>
+      </c>
+      <c r="BR202" s="5">
+        <v>2.2613362047078301E-2</v>
+      </c>
+      <c r="BS202" s="5">
+        <v>-9.9506554951850103E-3</v>
+      </c>
+      <c r="BT202" s="5">
+        <v>-1.46337436998893E-3</v>
+      </c>
     </row>
-    <row r="203" spans="2:63" s="5" customFormat="1">
+    <row r="203" spans="2:72" s="5" customFormat="1">
       <c r="B203" s="5">
         <v>1999.25</v>
       </c>
@@ -31665,8 +36069,35 @@
       <c r="BK203" s="5">
         <v>0.90577948670457487</v>
       </c>
+      <c r="BL203" s="5">
+        <v>-1.5287687745950599E-2</v>
+      </c>
+      <c r="BM203" s="5">
+        <v>2.56233378104412E-2</v>
+      </c>
+      <c r="BN203" s="5">
+        <v>3.2192294328314101E-3</v>
+      </c>
+      <c r="BO203" s="5">
+        <v>-8.1506944191579601E-3</v>
+      </c>
+      <c r="BP203" s="5">
+        <v>-2.5780658256994202E-2</v>
+      </c>
+      <c r="BQ203" s="5">
+        <v>-2.2013596600307099E-2</v>
+      </c>
+      <c r="BR203" s="5">
+        <v>1.45737652476867E-2</v>
+      </c>
+      <c r="BS203" s="5">
+        <v>-8.0118705572914898E-3</v>
+      </c>
+      <c r="BT203" s="5">
+        <v>-1.37046893973838E-2</v>
+      </c>
     </row>
-    <row r="204" spans="2:63" s="5" customFormat="1">
+    <row r="204" spans="2:72" s="5" customFormat="1">
       <c r="B204" s="5">
         <v>1999.5</v>
       </c>
@@ -31854,8 +36285,35 @@
       <c r="BK204" s="5">
         <v>-0.72854383058207239</v>
       </c>
+      <c r="BL204" s="5">
+        <v>-2.22004378448106E-2</v>
+      </c>
+      <c r="BM204" s="5">
+        <v>1.7638876469379401E-2</v>
+      </c>
+      <c r="BN204" s="5">
+        <v>1.12888837537876E-2</v>
+      </c>
+      <c r="BO204" s="5">
+        <v>-1.9696139607600499E-2</v>
+      </c>
+      <c r="BP204" s="5">
+        <v>-1.28959661667267E-2</v>
+      </c>
+      <c r="BQ204" s="5">
+        <v>-3.2666438493648399E-2</v>
+      </c>
+      <c r="BR204" s="5">
+        <v>2.0640519015865201E-2</v>
+      </c>
+      <c r="BS204" s="5">
+        <v>-1.7220839307575401E-2</v>
+      </c>
+      <c r="BT204" s="5">
+        <v>-2.3373074097014302E-3</v>
+      </c>
     </row>
-    <row r="205" spans="2:63" s="5" customFormat="1">
+    <row r="205" spans="2:72" s="5" customFormat="1">
       <c r="B205" s="5">
         <v>1999.75</v>
       </c>
@@ -32043,8 +36501,35 @@
       <c r="BK205" s="5">
         <v>0.16084504094770527</v>
       </c>
+      <c r="BL205" s="5">
+        <v>-5.2925238189320899E-2</v>
+      </c>
+      <c r="BM205" s="5">
+        <v>1.8701154959789201E-2</v>
+      </c>
+      <c r="BN205" s="5">
+        <v>3.9179265856718899E-3</v>
+      </c>
+      <c r="BO205" s="5">
+        <v>-2.75419069166009E-3</v>
+      </c>
+      <c r="BP205" s="5">
+        <v>-3.6473937783800002E-2</v>
+      </c>
+      <c r="BQ205" s="5">
+        <v>2.4322714311037801E-4</v>
+      </c>
+      <c r="BR205" s="5">
+        <v>1.53458741917567E-2</v>
+      </c>
+      <c r="BS205" s="5">
+        <v>-1.01133893330614E-2</v>
+      </c>
+      <c r="BT205" s="5">
+        <v>1.3187228115563001E-2</v>
+      </c>
     </row>
-    <row r="206" spans="2:63" s="5" customFormat="1">
+    <row r="206" spans="2:72" s="5" customFormat="1">
       <c r="B206" s="5">
         <v>2000</v>
       </c>
@@ -32232,8 +36717,35 @@
       <c r="BK206" s="5">
         <v>1.0460116071022079</v>
       </c>
+      <c r="BL206" s="5">
+        <v>-3.0509504968294202E-2</v>
+      </c>
+      <c r="BM206" s="5">
+        <v>7.3169835166866405E-4</v>
+      </c>
+      <c r="BN206" s="5">
+        <v>3.7506154512025401E-2</v>
+      </c>
+      <c r="BO206" s="5">
+        <v>-4.6978969121180103E-2</v>
+      </c>
+      <c r="BP206" s="5">
+        <v>-2.9877361470995699E-2</v>
+      </c>
+      <c r="BQ206" s="5">
+        <v>2.6997455453735698E-2</v>
+      </c>
+      <c r="BR206" s="5">
+        <v>-2.0248874667396201E-2</v>
+      </c>
+      <c r="BS206" s="5">
+        <v>-4.4932349293058699E-2</v>
+      </c>
+      <c r="BT206" s="5">
+        <v>-4.0221324137099E-3</v>
+      </c>
     </row>
-    <row r="207" spans="2:63" s="5" customFormat="1">
+    <row r="207" spans="2:72" s="5" customFormat="1">
       <c r="B207" s="5">
         <v>2000.25</v>
       </c>
@@ -32421,8 +36933,35 @@
       <c r="BK207" s="5">
         <v>-0.33163609638803099</v>
       </c>
+      <c r="BL207" s="5">
+        <v>-3.1324293100085498E-2</v>
+      </c>
+      <c r="BM207" s="5">
+        <v>1.8620365906079801E-2</v>
+      </c>
+      <c r="BN207" s="5">
+        <v>6.7561667220984003E-3</v>
+      </c>
+      <c r="BO207" s="5">
+        <v>-5.51787220126308E-3</v>
+      </c>
+      <c r="BP207" s="5">
+        <v>-1.33403895397442E-2</v>
+      </c>
+      <c r="BQ207" s="5">
+        <v>-3.8166251625450398E-2</v>
+      </c>
+      <c r="BR207" s="5">
+        <v>4.1455794966953403E-2</v>
+      </c>
+      <c r="BS207" s="5">
+        <v>-5.0678127579343001E-3</v>
+      </c>
+      <c r="BT207" s="5">
+        <v>8.7654216607614497E-3</v>
+      </c>
     </row>
-    <row r="208" spans="2:63" s="5" customFormat="1">
+    <row r="208" spans="2:72" s="5" customFormat="1">
       <c r="B208" s="5">
         <v>2000.5</v>
       </c>
@@ -32610,8 +37149,35 @@
       <c r="BK208" s="5">
         <v>1.2559313919169601</v>
       </c>
+      <c r="BL208" s="5">
+        <v>2.07216880273041E-3</v>
+      </c>
+      <c r="BM208" s="5">
+        <v>1.5145554839595E-2</v>
+      </c>
+      <c r="BN208" s="5">
+        <v>6.3113323539255297E-3</v>
+      </c>
+      <c r="BO208" s="5">
+        <v>-3.5487355414274301E-2</v>
+      </c>
+      <c r="BP208" s="5">
+        <v>-2.2525714974872098E-2</v>
+      </c>
+      <c r="BQ208" s="5">
+        <v>-8.0563727252167001E-3</v>
+      </c>
+      <c r="BR208" s="5">
+        <v>2.1182102757299801E-2</v>
+      </c>
+      <c r="BS208" s="5">
+        <v>-1.46807620384644E-2</v>
+      </c>
+      <c r="BT208" s="5">
+        <v>-8.9597872440793898E-4</v>
+      </c>
     </row>
-    <row r="209" spans="2:63" s="5" customFormat="1">
+    <row r="209" spans="2:72" s="5" customFormat="1">
       <c r="B209" s="5">
         <v>2000.75</v>
       </c>
@@ -32799,8 +37365,35 @@
       <c r="BK209" s="5">
         <v>-0.41579112645012323</v>
       </c>
+      <c r="BL209" s="5">
+        <v>8.56472424992453E-3</v>
+      </c>
+      <c r="BM209" s="5">
+        <v>1.6849857756426601E-2</v>
+      </c>
+      <c r="BN209" s="5">
+        <v>5.0851874332352703E-3</v>
+      </c>
+      <c r="BO209" s="5">
+        <v>-2.92593295841178E-2</v>
+      </c>
+      <c r="BP209" s="5">
+        <v>-3.8218414485641998E-4</v>
+      </c>
+      <c r="BQ209" s="5">
+        <v>-2.24386790433404E-2</v>
+      </c>
+      <c r="BR209" s="5">
+        <v>2.38825873313206E-2</v>
+      </c>
+      <c r="BS209" s="5">
+        <v>-1.5396614836157599E-2</v>
+      </c>
+      <c r="BT209" s="5">
+        <v>-1.17009395095306E-2</v>
+      </c>
     </row>
-    <row r="210" spans="2:63" s="5" customFormat="1">
+    <row r="210" spans="2:72" s="5" customFormat="1">
       <c r="B210" s="5">
         <v>2001</v>
       </c>
@@ -32988,8 +37581,35 @@
       <c r="BK210" s="5">
         <v>-1.1384550240317992</v>
       </c>
+      <c r="BL210" s="5">
+        <v>3.7426802899234501E-2</v>
+      </c>
+      <c r="BM210" s="5">
+        <v>1.0923895170424599E-2</v>
+      </c>
+      <c r="BN210" s="5">
+        <v>-3.5461948158791098E-3</v>
+      </c>
+      <c r="BO210" s="5">
+        <v>-3.54052248868581E-2</v>
+      </c>
+      <c r="BP210" s="5">
+        <v>1.0651770843576399E-2</v>
+      </c>
+      <c r="BQ210" s="5">
+        <v>3.9972471828985303E-3</v>
+      </c>
+      <c r="BR210" s="5">
+        <v>1.2723737660329301E-2</v>
+      </c>
+      <c r="BS210" s="5">
+        <v>-3.8870982115515797E-2</v>
+      </c>
+      <c r="BT210" s="5">
+        <v>1.5863013281614598E-2</v>
+      </c>
     </row>
-    <row r="211" spans="2:63" s="5" customFormat="1">
+    <row r="211" spans="2:72" s="5" customFormat="1">
       <c r="B211" s="5">
         <v>2001.25</v>
       </c>
@@ -33177,8 +37797,35 @@
       <c r="BK211" s="5">
         <v>-0.32266807682579757</v>
       </c>
+      <c r="BL211" s="5">
+        <v>4.6984560028107102E-2</v>
+      </c>
+      <c r="BM211" s="5">
+        <v>2.63390571969816E-2</v>
+      </c>
+      <c r="BN211" s="5">
+        <v>-2.9549017764426699E-2</v>
+      </c>
+      <c r="BO211" s="5">
+        <v>1.5543740150650799E-2</v>
+      </c>
+      <c r="BP211" s="5">
+        <v>-1.6299700459966999E-2</v>
+      </c>
+      <c r="BQ211" s="5">
+        <v>-3.4588948271867002E-2</v>
+      </c>
+      <c r="BR211" s="5">
+        <v>3.2918567635163098E-2</v>
+      </c>
+      <c r="BS211" s="5">
+        <v>6.8222548059866201E-3</v>
+      </c>
+      <c r="BT211" s="5">
+        <v>7.9427244941280006E-3</v>
+      </c>
     </row>
-    <row r="212" spans="2:63" s="5" customFormat="1">
+    <row r="212" spans="2:72" s="5" customFormat="1">
       <c r="B212" s="5">
         <v>2001.5</v>
       </c>
@@ -33366,8 +38013,35 @@
       <c r="BK212" s="5">
         <v>1.3392736784193853</v>
       </c>
+      <c r="BL212" s="5">
+        <v>6.7441991247442906E-2</v>
+      </c>
+      <c r="BM212" s="5">
+        <v>2.92491440344998E-2</v>
+      </c>
+      <c r="BN212" s="5">
+        <v>-3.37797199910288E-2</v>
+      </c>
+      <c r="BO212" s="5">
+        <v>-2.44689357509793E-2</v>
+      </c>
+      <c r="BP212" s="5">
+        <v>3.41131493032421E-2</v>
+      </c>
+      <c r="BQ212" s="5">
+        <v>1.63097333710133E-2</v>
+      </c>
+      <c r="BR212" s="5">
+        <v>3.5992229306182302E-2</v>
+      </c>
+      <c r="BS212" s="5">
+        <v>-3.0988103620758E-2</v>
+      </c>
+      <c r="BT212" s="5">
+        <v>2.07578238165739E-2</v>
+      </c>
     </row>
-    <row r="213" spans="2:63" s="5" customFormat="1">
+    <row r="213" spans="2:72" s="5" customFormat="1">
       <c r="B213" s="5">
         <v>2001.75</v>
       </c>
@@ -33555,8 +38229,35 @@
       <c r="BK213" s="5">
         <v>0.71798715729442608</v>
       </c>
+      <c r="BL213" s="5">
+        <v>4.2599658756786001E-2</v>
+      </c>
+      <c r="BM213" s="5">
+        <v>4.4002330172029799E-2</v>
+      </c>
+      <c r="BN213" s="5">
+        <v>-5.3090465246455998E-2</v>
+      </c>
+      <c r="BO213" s="5">
+        <v>-1.4089564966588901E-3</v>
+      </c>
+      <c r="BP213" s="5">
+        <v>-3.0734101699174701E-2</v>
+      </c>
+      <c r="BQ213" s="5">
+        <v>1.9555727819602801E-2</v>
+      </c>
+      <c r="BR213" s="5">
+        <v>2.99445062001116E-2</v>
+      </c>
+      <c r="BS213" s="5">
+        <v>2.19765624307568E-2</v>
+      </c>
+      <c r="BT213" s="5">
+        <v>-1.7677858959726699E-2</v>
+      </c>
     </row>
-    <row r="214" spans="2:63" s="5" customFormat="1">
+    <row r="214" spans="2:72" s="5" customFormat="1">
       <c r="B214" s="5">
         <v>2002</v>
       </c>
@@ -33744,8 +38445,35 @@
       <c r="BK214" s="5">
         <v>-1.5422091995498892</v>
       </c>
+      <c r="BL214" s="5">
+        <v>4.8936882331122302E-3</v>
+      </c>
+      <c r="BM214" s="5">
+        <v>3.66336857442821E-2</v>
+      </c>
+      <c r="BN214" s="5">
+        <v>-2.3921319842538001E-2</v>
+      </c>
+      <c r="BO214" s="5">
+        <v>4.1270798694778302E-2</v>
+      </c>
+      <c r="BP214" s="5">
+        <v>1.6083317452760499E-2</v>
+      </c>
+      <c r="BQ214" s="5">
+        <v>-2.1772226738240599E-2</v>
+      </c>
+      <c r="BR214" s="5">
+        <v>2.1289306640019601E-2</v>
+      </c>
+      <c r="BS214" s="5">
+        <v>-5.0157399486428299E-2</v>
+      </c>
+      <c r="BT214" s="5">
+        <v>6.49265828469667E-3</v>
+      </c>
     </row>
-    <row r="215" spans="2:63" s="5" customFormat="1">
+    <row r="215" spans="2:72" s="5" customFormat="1">
       <c r="B215" s="5">
         <v>2002.25</v>
       </c>
@@ -33933,8 +38661,35 @@
       <c r="BK215" s="5">
         <v>-1.5789544591951095</v>
       </c>
+      <c r="BL215" s="5">
+        <v>2.9271536026619E-3</v>
+      </c>
+      <c r="BM215" s="5">
+        <v>3.1344591379743998E-2</v>
+      </c>
+      <c r="BN215" s="5">
+        <v>-2.8180897144298401E-3</v>
+      </c>
+      <c r="BO215" s="5">
+        <v>-2.5610975116999702E-3</v>
+      </c>
+      <c r="BP215" s="5">
+        <v>3.59123910265884E-2</v>
+      </c>
+      <c r="BQ215" s="5">
+        <v>-8.8743328560836592E-3</v>
+      </c>
+      <c r="BR215" s="5">
+        <v>2.0382649109164101E-2</v>
+      </c>
+      <c r="BS215" s="5">
+        <v>-3.7623948275203802E-2</v>
+      </c>
+      <c r="BT215" s="5">
+        <v>-2.3106805684169798E-2</v>
+      </c>
     </row>
-    <row r="216" spans="2:63" s="5" customFormat="1">
+    <row r="216" spans="2:72" s="5" customFormat="1">
       <c r="B216" s="5">
         <v>2002.5</v>
       </c>
@@ -34122,8 +38877,35 @@
       <c r="BK216" s="5">
         <v>-0.80047023112522808</v>
       </c>
+      <c r="BL216" s="5">
+        <v>1.32850995116341E-2</v>
+      </c>
+      <c r="BM216" s="5">
+        <v>2.8203393971262501E-2</v>
+      </c>
+      <c r="BN216" s="5">
+        <v>7.6131363617394599E-3</v>
+      </c>
+      <c r="BO216" s="5">
+        <v>-8.6908843983021407E-3</v>
+      </c>
+      <c r="BP216" s="5">
+        <v>4.40305436197026E-2</v>
+      </c>
+      <c r="BQ216" s="5">
+        <v>-4.9313417453802598E-3</v>
+      </c>
+      <c r="BR216" s="5">
+        <v>1.5423741836976999E-2</v>
+      </c>
+      <c r="BS216" s="5">
+        <v>-2.5794249531686401E-2</v>
+      </c>
+      <c r="BT216" s="5">
+        <v>-1.12536715707577E-2</v>
+      </c>
     </row>
-    <row r="217" spans="2:63" s="5" customFormat="1">
+    <row r="217" spans="2:72" s="5" customFormat="1">
       <c r="B217" s="5">
         <v>2002.75</v>
       </c>
@@ -34311,8 +39093,35 @@
       <c r="BK217" s="5">
         <v>1.8528330602082972</v>
       </c>
+      <c r="BL217" s="5">
+        <v>2.73847853253909E-2</v>
+      </c>
+      <c r="BM217" s="5">
+        <v>3.4453838277755097E-2</v>
+      </c>
+      <c r="BN217" s="5">
+        <v>-1.41428305006501E-2</v>
+      </c>
+      <c r="BO217" s="5">
+        <v>1.38282893709347E-2</v>
+      </c>
+      <c r="BP217" s="5">
+        <v>-8.8507675329557393E-3</v>
+      </c>
+      <c r="BQ217" s="5">
+        <v>-2.0142191562601001E-2</v>
+      </c>
+      <c r="BR217" s="5">
+        <v>1.08819737924611E-2</v>
+      </c>
+      <c r="BS217" s="5">
+        <v>-3.2390444389195001E-3</v>
+      </c>
+      <c r="BT217" s="5">
+        <v>4.4373928928339301E-3</v>
+      </c>
     </row>
-    <row r="218" spans="2:63" s="5" customFormat="1">
+    <row r="218" spans="2:72" s="5" customFormat="1">
       <c r="B218" s="5">
         <v>2003</v>
       </c>
@@ -34500,8 +39309,35 @@
       <c r="BK218" s="5">
         <v>-0.54315443142572672</v>
       </c>
+      <c r="BL218" s="5">
+        <v>1.81585475753244E-2</v>
+      </c>
+      <c r="BM218" s="5">
+        <v>2.0171794307141201E-2</v>
+      </c>
+      <c r="BN218" s="5">
+        <v>1.8413219240409302E-2</v>
+      </c>
+      <c r="BO218" s="5">
+        <v>1.1886667443946701E-2</v>
+      </c>
+      <c r="BP218" s="5">
+        <v>2.06243107822951E-2</v>
+      </c>
+      <c r="BQ218" s="5">
+        <v>-2.0173571521193302E-2</v>
+      </c>
+      <c r="BR218" s="5">
+        <v>-1.6414434815195E-2</v>
+      </c>
+      <c r="BS218" s="5">
+        <v>-3.2056031735410301E-2</v>
+      </c>
+      <c r="BT218" s="5">
+        <v>-1.8424562917506299E-2</v>
+      </c>
     </row>
-    <row r="219" spans="2:63" s="5" customFormat="1">
+    <row r="219" spans="2:72" s="5" customFormat="1">
       <c r="B219" s="5">
         <v>2003.25</v>
       </c>
@@ -34689,8 +39525,35 @@
       <c r="BK219" s="5">
         <v>2.1719733827314802</v>
       </c>
+      <c r="BL219" s="5">
+        <v>7.3845818323931304E-3</v>
+      </c>
+      <c r="BM219" s="5">
+        <v>4.7805278808673801E-2</v>
+      </c>
+      <c r="BN219" s="5">
+        <v>-3.21189283487626E-2</v>
+      </c>
+      <c r="BO219" s="5">
+        <v>1.7676693732954E-2</v>
+      </c>
+      <c r="BP219" s="5">
+        <v>-2.8145206036467401E-2</v>
+      </c>
+      <c r="BQ219" s="5">
+        <v>3.24568595921376E-2</v>
+      </c>
+      <c r="BR219" s="5">
+        <v>1.30250505771343E-3</v>
+      </c>
+      <c r="BS219" s="5">
+        <v>-1.0636706839687799E-2</v>
+      </c>
+      <c r="BT219" s="5">
+        <v>3.2516561263243801E-2</v>
+      </c>
     </row>
-    <row r="220" spans="2:63" s="5" customFormat="1">
+    <row r="220" spans="2:72" s="5" customFormat="1">
       <c r="B220" s="5">
         <v>2003.5</v>
       </c>
@@ -34878,8 +39741,35 @@
       <c r="BK220" s="5">
         <v>0.19727166714554464</v>
       </c>
+      <c r="BL220" s="5">
+        <v>-9.3745954182648302E-3</v>
+      </c>
+      <c r="BM220" s="5">
+        <v>3.82406107210288E-2</v>
+      </c>
+      <c r="BN220" s="5">
+        <v>-2.1063503573660199E-3</v>
+      </c>
+      <c r="BO220" s="5">
+        <v>2.92580461410035E-2</v>
+      </c>
+      <c r="BP220" s="5">
+        <v>1.16636064507052E-3</v>
+      </c>
+      <c r="BQ220" s="5">
+        <v>-1.6202077046061001E-2</v>
+      </c>
+      <c r="BR220" s="5">
+        <v>1.7346843864594699E-2</v>
+      </c>
+      <c r="BS220" s="5">
+        <v>-1.3040753033153E-2</v>
+      </c>
+      <c r="BT220" s="5">
+        <v>1.45349088553887E-2</v>
+      </c>
     </row>
-    <row r="221" spans="2:63" s="5" customFormat="1">
+    <row r="221" spans="2:72" s="5" customFormat="1">
       <c r="B221" s="5">
         <v>2003.75</v>
       </c>
@@ -35067,8 +39957,35 @@
       <c r="BK221" s="5">
         <v>-0.57888530690222861</v>
       </c>
+      <c r="BL221" s="5">
+        <v>-1.89189611868344E-2</v>
+      </c>
+      <c r="BM221" s="5">
+        <v>4.63296218447019E-2</v>
+      </c>
+      <c r="BN221" s="5">
+        <v>1.29428114206761E-2</v>
+      </c>
+      <c r="BO221" s="5">
+        <v>1.6533746744089299E-2</v>
+      </c>
+      <c r="BP221" s="5">
+        <v>-1.00779928524185E-2</v>
+      </c>
+      <c r="BQ221" s="5">
+        <v>3.6286473066591599E-3</v>
+      </c>
+      <c r="BR221" s="5">
+        <v>-1.0013269792169099E-2</v>
+      </c>
+      <c r="BS221" s="5">
+        <v>-1.1972554598159301E-3</v>
+      </c>
+      <c r="BT221" s="5">
+        <v>-7.3532806820449702E-3</v>
+      </c>
     </row>
-    <row r="222" spans="2:63" s="5" customFormat="1">
+    <row r="222" spans="2:72" s="5" customFormat="1">
       <c r="B222" s="5">
         <v>2004</v>
       </c>
@@ -35256,8 +40173,35 @@
       <c r="BK222" s="5">
         <v>0.31948986608639685</v>
       </c>
+      <c r="BL222" s="5">
+        <v>5.73761773968691E-4</v>
+      </c>
+      <c r="BM222" s="5">
+        <v>3.6846018942434403E-2</v>
+      </c>
+      <c r="BN222" s="5">
+        <v>1.2142618096407201E-2</v>
+      </c>
+      <c r="BO222" s="5">
+        <v>1.07041770677341E-2</v>
+      </c>
+      <c r="BP222" s="5">
+        <v>-1.5885202101834799E-3</v>
+      </c>
+      <c r="BQ222" s="5">
+        <v>-2.42449730977756E-2</v>
+      </c>
+      <c r="BR222" s="5">
+        <v>3.6496772917503999E-3</v>
+      </c>
+      <c r="BS222" s="5">
+        <v>-1.05554855102181E-2</v>
+      </c>
+      <c r="BT222" s="5">
+        <v>5.4389997636212996E-4</v>
+      </c>
     </row>
-    <row r="223" spans="2:63" s="5" customFormat="1">
+    <row r="223" spans="2:72" s="5" customFormat="1">
       <c r="B223" s="5">
         <v>2004.25</v>
       </c>
@@ -35445,8 +40389,35 @@
       <c r="BK223" s="5">
         <v>0.93107052430315451</v>
       </c>
+      <c r="BL223" s="5">
+        <v>-5.54697628014484E-3</v>
+      </c>
+      <c r="BM223" s="5">
+        <v>2.8012296078925601E-2</v>
+      </c>
+      <c r="BN223" s="5">
+        <v>2.4496858207999E-2</v>
+      </c>
+      <c r="BO223" s="5">
+        <v>-4.9535089027216402E-3</v>
+      </c>
+      <c r="BP223" s="5">
+        <v>-1.9737405162329499E-3</v>
+      </c>
+      <c r="BQ223" s="5">
+        <v>-3.39294982545827E-3</v>
+      </c>
+      <c r="BR223" s="5">
+        <v>3.3284004060694803E-4</v>
+      </c>
+      <c r="BS223" s="5">
+        <v>-1.13956415909408E-2</v>
+      </c>
+      <c r="BT223" s="5">
+        <v>1.19795633745423E-2</v>
+      </c>
     </row>
-    <row r="224" spans="2:63" s="5" customFormat="1">
+    <row r="224" spans="2:72" s="5" customFormat="1">
       <c r="B224" s="5">
         <v>2004.5</v>
       </c>
@@ -35634,8 +40605,35 @@
       <c r="BK224" s="5">
         <v>0.81255432441198483</v>
       </c>
+      <c r="BL224" s="5">
+        <v>-1.14660305345317E-2</v>
+      </c>
+      <c r="BM224" s="5">
+        <v>4.0220777145208698E-2</v>
+      </c>
+      <c r="BN224" s="5">
+        <v>1.1560318101637801E-2</v>
+      </c>
+      <c r="BO224" s="5">
+        <v>-1.39907615574054E-2</v>
+      </c>
+      <c r="BP224" s="5">
+        <v>3.3612866578760998E-4</v>
+      </c>
+      <c r="BQ224" s="5">
+        <v>-1.80091200736968E-3</v>
+      </c>
+      <c r="BR224" s="5">
+        <v>1.14257881771726E-2</v>
+      </c>
+      <c r="BS224" s="5">
+        <v>-4.94866233689848E-3</v>
+      </c>
+      <c r="BT224" s="5">
+        <v>6.5881152507438496E-3</v>
+      </c>
     </row>
-    <row r="225" spans="2:63" s="5" customFormat="1">
+    <row r="225" spans="2:72" s="5" customFormat="1">
       <c r="B225" s="5">
         <v>2004.75</v>
       </c>
@@ -35823,8 +40821,35 @@
       <c r="BK225" s="5">
         <v>0.24521538666287182</v>
       </c>
+      <c r="BL225" s="5">
+        <v>-1.0994918840462701E-2</v>
+      </c>
+      <c r="BM225" s="5">
+        <v>3.2016969879036801E-2</v>
+      </c>
+      <c r="BN225" s="5">
+        <v>2.7017158889583701E-2</v>
+      </c>
+      <c r="BO225" s="5">
+        <v>6.2272739080812397E-3</v>
+      </c>
+      <c r="BP225" s="5">
+        <v>-1.7885047105389101E-2</v>
+      </c>
+      <c r="BQ225" s="5">
+        <v>-9.0483470871403193E-3</v>
+      </c>
+      <c r="BR225" s="5">
+        <v>-1.14502728041507E-2</v>
+      </c>
+      <c r="BS225" s="5">
+        <v>-4.4459624019993699E-3</v>
+      </c>
+      <c r="BT225" s="5">
+        <v>-1.05470006977894E-2</v>
+      </c>
     </row>
-    <row r="226" spans="2:63" s="5" customFormat="1">
+    <row r="226" spans="2:72" s="5" customFormat="1">
       <c r="B226" s="5">
         <v>2005</v>
       </c>
@@ -36012,8 +41037,35 @@
       <c r="BK226" s="5">
         <v>-0.8364855876510966</v>
       </c>
+      <c r="BL226" s="5">
+        <v>-1.49994843876464E-2</v>
+      </c>
+      <c r="BM226" s="5">
+        <v>2.7928666755381699E-2</v>
+      </c>
+      <c r="BN226" s="5">
+        <v>2.71607741518359E-2</v>
+      </c>
+      <c r="BO226" s="5">
+        <v>9.2987979212544696E-3</v>
+      </c>
+      <c r="BP226" s="5">
+        <v>1.1681298041364901E-2</v>
+      </c>
+      <c r="BQ226" s="5">
+        <v>-3.7143907081642898E-2</v>
+      </c>
+      <c r="BR226" s="5">
+        <v>1.45362939474835E-2</v>
+      </c>
+      <c r="BS226" s="5">
+        <v>5.9434086314363898E-4</v>
+      </c>
+      <c r="BT226" s="5">
+        <v>3.11273095680971E-4</v>
+      </c>
     </row>
-    <row r="227" spans="2:63" s="5" customFormat="1">
+    <row r="227" spans="2:72" s="5" customFormat="1">
       <c r="B227" s="5">
         <v>2005.25</v>
       </c>
@@ -36201,8 +41253,35 @@
       <c r="BK227" s="5">
         <v>1.2805168030399474</v>
       </c>
+      <c r="BL227" s="5">
+        <v>-6.8818055195816298E-3</v>
+      </c>
+      <c r="BM227" s="5">
+        <v>3.6694102107260998E-2</v>
+      </c>
+      <c r="BN227" s="5">
+        <v>2.4705441566289399E-2</v>
+      </c>
+      <c r="BO227" s="5">
+        <v>-1.35825206548224E-2</v>
+      </c>
+      <c r="BP227" s="5">
+        <v>-2.8856432618790799E-3</v>
+      </c>
+      <c r="BQ227" s="5">
+        <v>2.0850319338815201E-3</v>
+      </c>
+      <c r="BR227" s="5">
+        <v>-2.9443358118448502E-3</v>
+      </c>
+      <c r="BS227" s="5">
+        <v>-5.1929994409554304E-3</v>
+      </c>
+      <c r="BT227" s="5">
+        <v>-1.04508378926534E-2</v>
+      </c>
     </row>
-    <row r="228" spans="2:63" s="5" customFormat="1">
+    <row r="228" spans="2:72" s="5" customFormat="1">
       <c r="B228" s="5">
         <v>2005.5</v>
       </c>
@@ -36390,8 +41469,35 @@
       <c r="BK228" s="5">
         <v>-0.28211898651404216</v>
       </c>
+      <c r="BL228" s="5">
+        <v>1.1369357597002101E-2</v>
+      </c>
+      <c r="BM228" s="5">
+        <v>1.45816448171181E-2</v>
+      </c>
+      <c r="BN228" s="5">
+        <v>4.4018790638077503E-2</v>
+      </c>
+      <c r="BO228" s="5">
+        <v>8.0321098467474004E-3</v>
+      </c>
+      <c r="BP228" s="5">
+        <v>-1.5123572304484001E-2</v>
+      </c>
+      <c r="BQ228" s="5">
+        <v>-3.94680598007238E-2</v>
+      </c>
+      <c r="BR228" s="5">
+        <v>-1.9350279637220899E-2</v>
+      </c>
+      <c r="BS228" s="5">
+        <v>-2.29220913197003E-2</v>
+      </c>
+      <c r="BT228" s="5">
+        <v>9.7599978032591097E-3</v>
+      </c>
     </row>
-    <row r="229" spans="2:63" s="5" customFormat="1">
+    <row r="229" spans="2:72" s="5" customFormat="1">
       <c r="B229" s="5">
         <v>2005.75</v>
       </c>
@@ -36579,8 +41685,35 @@
       <c r="BK229" s="5">
         <v>0.17093970210224091</v>
       </c>
+      <c r="BL229" s="5">
+        <v>-7.8076769934875504E-3</v>
+      </c>
+      <c r="BM229" s="5">
+        <v>3.9958665744695802E-2</v>
+      </c>
+      <c r="BN229" s="5">
+        <v>2.7643943860702298E-2</v>
+      </c>
+      <c r="BO229" s="5">
+        <v>-3.9417430933373901E-3</v>
+      </c>
+      <c r="BP229" s="5">
+        <v>2.4883304287992699E-3</v>
+      </c>
+      <c r="BQ229" s="5">
+        <v>-4.3023231448502102E-3</v>
+      </c>
+      <c r="BR229" s="5">
+        <v>1.3196962830636099E-2</v>
+      </c>
+      <c r="BS229" s="5">
+        <v>6.4404571871235997E-3</v>
+      </c>
+      <c r="BT229" s="5">
+        <v>-3.3126701493021199E-3</v>
+      </c>
     </row>
-    <row r="230" spans="2:63" s="5" customFormat="1">
+    <row r="230" spans="2:72" s="5" customFormat="1">
       <c r="B230" s="5">
         <v>2006</v>
       </c>
@@ -36768,8 +41901,35 @@
       <c r="BK230" s="5">
         <v>-0.43612719934649813</v>
       </c>
+      <c r="BL230" s="5">
+        <v>-2.2831839945338099E-2</v>
+      </c>
+      <c r="BM230" s="5">
+        <v>2.86755401853265E-2</v>
+      </c>
+      <c r="BN230" s="5">
+        <v>3.5559227993507303E-2</v>
+      </c>
+      <c r="BO230" s="5">
+        <v>-1.6136195874473E-2</v>
+      </c>
+      <c r="BP230" s="5">
+        <v>-1.7951645266124999E-2</v>
+      </c>
+      <c r="BQ230" s="5">
+        <v>1.1982262234643401E-2</v>
+      </c>
+      <c r="BR230" s="5">
+        <v>4.8178916383676404E-3</v>
+      </c>
+      <c r="BS230" s="5">
+        <v>-8.5481083690960892E-3</v>
+      </c>
+      <c r="BT230" s="5">
+        <v>3.04723543274069E-2</v>
+      </c>
     </row>
-    <row r="231" spans="2:63" s="5" customFormat="1">
+    <row r="231" spans="2:72" s="5" customFormat="1">
       <c r="B231" s="5">
         <v>2006.25</v>
       </c>
@@ -36954,8 +42114,35 @@
       <c r="BK231" s="5">
         <v>-0.1232373998568112</v>
       </c>
+      <c r="BL231" s="5">
+        <v>1.5195518603004599E-2</v>
+      </c>
+      <c r="BM231" s="5">
+        <v>2.6786672653784298E-2</v>
+      </c>
+      <c r="BN231" s="5">
+        <v>4.24002234791701E-2</v>
+      </c>
+      <c r="BO231" s="5">
+        <v>-1.6321370372982501E-2</v>
+      </c>
+      <c r="BP231" s="5">
+        <v>1.0714971154570901E-3</v>
+      </c>
+      <c r="BQ231" s="5">
+        <v>-1.9089098329759299E-2</v>
+      </c>
+      <c r="BR231" s="5">
+        <v>6.1639567719023996E-3</v>
+      </c>
+      <c r="BS231" s="5">
+        <v>6.8295928844480398E-4</v>
+      </c>
+      <c r="BT231" s="5">
+        <v>-1.07364250233738E-2</v>
+      </c>
     </row>
-    <row r="232" spans="2:63" s="5" customFormat="1">
+    <row r="232" spans="2:72" s="5" customFormat="1">
       <c r="B232" s="5">
         <v>2006.5</v>
       </c>
@@ -37140,8 +42327,35 @@
       <c r="BK232" s="5">
         <v>1.1383148295083174</v>
       </c>
+      <c r="BL232" s="5">
+        <v>1.9775493294088401E-2</v>
+      </c>
+      <c r="BM232" s="5">
+        <v>3.8135759554658602E-2</v>
+      </c>
+      <c r="BN232" s="5">
+        <v>2.80761375449738E-2</v>
+      </c>
+      <c r="BO232" s="5">
+        <v>-1.1622476890300401E-2</v>
+      </c>
+      <c r="BP232" s="5">
+        <v>-1.50562984137736E-2</v>
+      </c>
+      <c r="BQ232" s="5">
+        <v>-7.2182692352216601E-3</v>
+      </c>
+      <c r="BR232" s="5">
+        <v>2.9635465448553098E-3</v>
+      </c>
+      <c r="BS232" s="5">
+        <v>7.6434982573666196E-3</v>
+      </c>
+      <c r="BT232" s="5">
+        <v>-8.0862243462785401E-3</v>
+      </c>
     </row>
-    <row r="233" spans="2:63" s="5" customFormat="1">
+    <row r="233" spans="2:72" s="5" customFormat="1">
       <c r="B233" s="5">
         <v>2006.75</v>
       </c>
@@ -37326,8 +42540,35 @@
       <c r="BK233" s="5">
         <v>-0.52466810848248713</v>
       </c>
+      <c r="BL233" s="5">
+        <v>-1.1629811992495499E-2</v>
+      </c>
+      <c r="BM233" s="5">
+        <v>3.7025580104293097E-2</v>
+      </c>
+      <c r="BN233" s="5">
+        <v>2.7727964803389599E-2</v>
+      </c>
+      <c r="BO233" s="5">
+        <v>-2.4181036133320202E-2</v>
+      </c>
+      <c r="BP233" s="5">
+        <v>-2.6792758610804601E-2</v>
+      </c>
+      <c r="BQ233" s="5">
+        <v>2.3059776692560499E-2</v>
+      </c>
+      <c r="BR233" s="5">
+        <v>-5.4634409619454503E-3</v>
+      </c>
+      <c r="BS233" s="5">
+        <v>-1.05695478939335E-2</v>
+      </c>
+      <c r="BT233" s="5">
+        <v>1.04141196210993E-2</v>
+      </c>
     </row>
-    <row r="234" spans="2:63" s="5" customFormat="1">
+    <row r="234" spans="2:72" s="5" customFormat="1">
       <c r="B234" s="5">
         <v>2007</v>
       </c>
@@ -37497,8 +42738,35 @@
       <c r="BK234" s="5">
         <v>-4.8163545428100918E-2</v>
       </c>
+      <c r="BL234" s="5">
+        <v>2.1739777751607601E-2</v>
+      </c>
+      <c r="BM234" s="5">
+        <v>2.33570565038871E-2</v>
+      </c>
+      <c r="BN234" s="5">
+        <v>3.55014337721807E-2</v>
+      </c>
+      <c r="BO234" s="5">
+        <v>-2.4247417159812299E-2</v>
+      </c>
+      <c r="BP234" s="5">
+        <v>-1.2078562896394701E-2</v>
+      </c>
+      <c r="BQ234" s="5">
+        <v>-2.0267953923183298E-3</v>
+      </c>
+      <c r="BR234" s="5">
+        <v>-1.0330006592372499E-2</v>
+      </c>
+      <c r="BS234" s="5">
+        <v>-2.4117640763768999E-2</v>
+      </c>
+      <c r="BT234" s="5">
+        <v>4.8808285251708003E-3</v>
+      </c>
     </row>
-    <row r="235" spans="2:63" s="5" customFormat="1">
+    <row r="235" spans="2:72" s="5" customFormat="1">
       <c r="B235" s="5">
         <v>2007.25</v>
       </c>
@@ -37668,8 +42936,35 @@
       <c r="BK235" s="5">
         <v>-0.30908344185091363</v>
       </c>
+      <c r="BL235" s="5">
+        <v>1.0604923477997E-2</v>
+      </c>
+      <c r="BM235" s="5">
+        <v>3.8580054849853503E-2</v>
+      </c>
+      <c r="BN235" s="5">
+        <v>2.6597584410373101E-2</v>
+      </c>
+      <c r="BO235" s="5">
+        <v>7.74456243702822E-3</v>
+      </c>
+      <c r="BP235" s="5">
+        <v>-1.5009580444357601E-2</v>
+      </c>
+      <c r="BQ235" s="5">
+        <v>-2.8469856859627999E-2</v>
+      </c>
+      <c r="BR235" s="5">
+        <v>9.78550092343153E-3</v>
+      </c>
+      <c r="BS235" s="5">
+        <v>9.00981617618897E-3</v>
+      </c>
+      <c r="BT235" s="5">
+        <v>2.5347693394994798E-3</v>
+      </c>
     </row>
-    <row r="236" spans="2:63" s="5" customFormat="1">
+    <row r="236" spans="2:72" s="5" customFormat="1">
       <c r="B236" s="5">
         <v>2007.5</v>
       </c>
@@ -37839,8 +43134,35 @@
       <c r="BK236" s="5">
         <v>-0.41663774514533153</v>
       </c>
+      <c r="BL236" s="5">
+        <v>1.9671456864024401E-2</v>
+      </c>
+      <c r="BM236" s="5">
+        <v>3.7379044326198797E-2</v>
+      </c>
+      <c r="BN236" s="5">
+        <v>2.4021540330289502E-2</v>
+      </c>
+      <c r="BO236" s="5">
+        <v>-1.67809762312142E-2</v>
+      </c>
+      <c r="BP236" s="5">
+        <v>-5.6193897390887596E-3</v>
+      </c>
+      <c r="BQ236" s="5">
+        <v>-9.8224244150176693E-3</v>
+      </c>
+      <c r="BR236" s="5">
+        <v>1.0827354180707001E-2</v>
+      </c>
+      <c r="BS236" s="5">
+        <v>8.8232357040281002E-3</v>
+      </c>
+      <c r="BT236" s="5">
+        <v>1.0392043356263999E-2</v>
+      </c>
     </row>
-    <row r="237" spans="2:63" s="5" customFormat="1">
+    <row r="237" spans="2:72" s="5" customFormat="1">
       <c r="B237" s="5">
         <v>2007.75</v>
       </c>
@@ -38010,8 +43332,35 @@
       <c r="BK237" s="5">
         <v>-2.2360110590831246</v>
       </c>
+      <c r="BL237" s="5">
+        <v>3.2665637811799098E-2</v>
+      </c>
+      <c r="BM237" s="5">
+        <v>2.5450995883899999E-2</v>
+      </c>
+      <c r="BN237" s="5">
+        <v>3.64440123888519E-2</v>
+      </c>
+      <c r="BO237" s="5">
+        <v>-1.08039273846417E-2</v>
+      </c>
+      <c r="BP237" s="5">
+        <v>3.4214372725949399E-3</v>
+      </c>
+      <c r="BQ237" s="5">
+        <v>-2.7040271076459701E-2</v>
+      </c>
+      <c r="BR237" s="5">
+        <v>-9.0312349048647898E-3</v>
+      </c>
+      <c r="BS237" s="5">
+        <v>-1.12188816583289E-2</v>
+      </c>
+      <c r="BT237" s="5">
+        <v>8.4628105308085008E-3</v>
+      </c>
     </row>
-    <row r="238" spans="2:63" s="5" customFormat="1">
+    <row r="238" spans="2:72" s="5" customFormat="1">
       <c r="B238" s="5">
         <v>2008</v>
       </c>
@@ -38181,8 +43530,35 @@
       <c r="BK238" s="5">
         <v>-1.5925408085839163</v>
       </c>
+      <c r="BL238" s="5">
+        <v>6.3703805760988094E-2</v>
+      </c>
+      <c r="BM238" s="5">
+        <v>2.8804793441260999E-2</v>
+      </c>
+      <c r="BN238" s="5">
+        <v>2.6162507810544501E-2</v>
+      </c>
+      <c r="BO238" s="5">
+        <v>-3.2155635431670201E-2</v>
+      </c>
+      <c r="BP238" s="5">
+        <v>2.0840141945712799E-2</v>
+      </c>
+      <c r="BQ238" s="5">
+        <v>-3.8843361350869299E-3</v>
+      </c>
+      <c r="BR238" s="5">
+        <v>-1.3998279035946399E-2</v>
+      </c>
+      <c r="BS238" s="5">
+        <v>-2.19261498524491E-2</v>
+      </c>
+      <c r="BT238" s="5">
+        <v>7.3006611023858402E-3</v>
+      </c>
     </row>
-    <row r="239" spans="2:63" s="5" customFormat="1">
+    <row r="239" spans="2:72" s="5" customFormat="1">
       <c r="B239" s="5">
         <v>2008.25</v>
       </c>
@@ -38352,8 +43728,35 @@
       <c r="BK239" s="5">
         <v>-1.385779374207684</v>
       </c>
+      <c r="BL239" s="5">
+        <v>6.7083547252859102E-2</v>
+      </c>
+      <c r="BM239" s="5">
+        <v>2.1254008837069901E-2</v>
+      </c>
+      <c r="BN239" s="5">
+        <v>9.7352067572819799E-3</v>
+      </c>
+      <c r="BO239" s="5">
+        <v>4.0003685029818603E-2</v>
+      </c>
+      <c r="BP239" s="5">
+        <v>1.74729680242964E-2</v>
+      </c>
+      <c r="BQ239" s="5">
+        <v>-4.9784373758569998E-2</v>
+      </c>
+      <c r="BR239" s="5">
+        <v>-2.2858219464774902E-2</v>
+      </c>
+      <c r="BS239" s="5">
+        <v>-4.8366578113873099E-2</v>
+      </c>
+      <c r="BT239" s="5">
+        <v>3.7088530281313398E-2</v>
+      </c>
     </row>
-    <row r="240" spans="2:63" s="5" customFormat="1">
+    <row r="240" spans="2:72" s="5" customFormat="1">
       <c r="B240" s="5">
         <v>2008.5</v>
       </c>
@@ -38523,8 +43926,35 @@
       <c r="BK240" s="5">
         <v>-2.2000806019784833</v>
       </c>
+      <c r="BL240" s="5">
+        <v>0.12040056416799701</v>
+      </c>
+      <c r="BM240" s="5">
+        <v>3.3271179673887999E-2</v>
+      </c>
+      <c r="BN240" s="5">
+        <v>5.9852223527061196E-3</v>
+      </c>
+      <c r="BO240" s="5">
+        <v>-2.1402335456342601E-2</v>
+      </c>
+      <c r="BP240" s="5">
+        <v>2.75771228923463E-2</v>
+      </c>
+      <c r="BQ240" s="5">
+        <v>-7.78051668294448E-3</v>
+      </c>
+      <c r="BR240" s="5">
+        <v>1.0447091907927499E-2</v>
+      </c>
+      <c r="BS240" s="5">
+        <v>4.0570340272611499E-2</v>
+      </c>
+      <c r="BT240" s="5">
+        <v>8.4916351160337702E-3</v>
+      </c>
     </row>
-    <row r="241" spans="2:63" s="5" customFormat="1">
+    <row r="241" spans="2:72" s="5" customFormat="1">
       <c r="B241" s="5">
         <v>2008.75</v>
       </c>
@@ -38694,8 +44124,35 @@
       <c r="BK241" s="5">
         <v>-0.92854785697595432</v>
       </c>
+      <c r="BL241" s="5">
+        <v>0.15870587784779999</v>
+      </c>
+      <c r="BM241" s="5">
+        <v>6.5596009146513007E-2</v>
+      </c>
+      <c r="BN241" s="5">
+        <v>-7.7509985476627394E-2</v>
+      </c>
+      <c r="BO241" s="5">
+        <v>-0.104114576554626</v>
+      </c>
+      <c r="BP241" s="5">
+        <v>7.0662768468840106E-2</v>
+      </c>
+      <c r="BQ241" s="5">
+        <v>0.113430589528425</v>
+      </c>
+      <c r="BR241" s="5">
+        <v>6.6136523243520998E-2</v>
+      </c>
+      <c r="BS241" s="5">
+        <v>4.6187378239561802E-2</v>
+      </c>
+      <c r="BT241" s="5">
+        <v>3.2084637248778997E-2</v>
+      </c>
     </row>
-    <row r="242" spans="2:63" s="5" customFormat="1">
+    <row r="242" spans="2:72" s="5" customFormat="1">
       <c r="B242" s="5">
         <v>2009</v>
       </c>
@@ -38865,8 +44322,35 @@
       <c r="BK242" s="5">
         <v>-1.3548250081833153</v>
       </c>
+      <c r="BL242" s="5">
+        <v>0.170855462497565</v>
+      </c>
+      <c r="BM242" s="5">
+        <v>5.0440061515401903E-2</v>
+      </c>
+      <c r="BN242" s="5">
+        <v>-6.41671544880522E-2</v>
+      </c>
+      <c r="BO242" s="5">
+        <v>4.4696503328523797E-2</v>
+      </c>
+      <c r="BP242" s="5">
+        <v>5.6014415612191198E-2</v>
+      </c>
+      <c r="BQ242" s="5">
+        <v>-5.7434787178602599E-2</v>
+      </c>
+      <c r="BR242" s="5">
+        <v>3.70606154481362E-2</v>
+      </c>
+      <c r="BS242" s="5">
+        <v>-1.3798970601907899E-2</v>
+      </c>
+      <c r="BT242" s="5">
+        <v>-2.1163025076845802E-3</v>
+      </c>
     </row>
-    <row r="243" spans="2:63" s="5" customFormat="1">
+    <row r="243" spans="2:72" s="5" customFormat="1">
       <c r="B243" s="5">
         <v>2009.25</v>
       </c>
@@ -39036,8 +44520,35 @@
       <c r="BK243" s="5">
         <v>-0.63560991684100432</v>
       </c>
+      <c r="BL243" s="5">
+        <v>9.9903615267081594E-2</v>
+      </c>
+      <c r="BM243" s="5">
+        <v>3.9399136481582303E-2</v>
+      </c>
+      <c r="BN243" s="5">
+        <v>-4.4867438727022403E-2</v>
+      </c>
+      <c r="BO243" s="5">
+        <v>6.8903061001042001E-2</v>
+      </c>
+      <c r="BP243" s="5">
+        <v>-2.1818878743693901E-2</v>
+      </c>
+      <c r="BQ243" s="5">
+        <v>-4.36625673249986E-3</v>
+      </c>
+      <c r="BR243" s="5">
+        <v>-3.9928117940254602E-2</v>
+      </c>
+      <c r="BS243" s="5">
+        <v>-6.3003318641198999E-2</v>
+      </c>
+      <c r="BT243" s="5">
+        <v>2.3434104297668099E-2</v>
+      </c>
     </row>
-    <row r="244" spans="2:63" s="5" customFormat="1">
+    <row r="244" spans="2:72" s="5" customFormat="1">
       <c r="B244" s="5">
         <v>2009.5</v>
       </c>
@@ -39207,8 +44718,35 @@
       <c r="BK244" s="5">
         <v>0.50969311128592709</v>
       </c>
+      <c r="BL244" s="5">
+        <v>4.1001681694171503E-2</v>
+      </c>
+      <c r="BM244" s="5">
+        <v>6.0422257118918098E-2</v>
+      </c>
+      <c r="BN244" s="5">
+        <v>-3.0741535282028401E-2</v>
+      </c>
+      <c r="BO244" s="5">
+        <v>8.6143931269821394E-2</v>
+      </c>
+      <c r="BP244" s="5">
+        <v>1.6202237378897401E-2</v>
+      </c>
+      <c r="BQ244" s="5">
+        <v>1.85795281215239E-3</v>
+      </c>
+      <c r="BR244" s="5">
+        <v>-5.4028611778947798E-3</v>
+      </c>
+      <c r="BS244" s="5">
+        <v>-7.3373288191482299E-3</v>
+      </c>
+      <c r="BT244" s="5">
+        <v>-4.7274235656577401E-2</v>
+      </c>
     </row>
-    <row r="245" spans="2:63" s="5" customFormat="1">
+    <row r="245" spans="2:72" s="5" customFormat="1">
       <c r="B245" s="5">
         <v>2009.75</v>
       </c>
@@ -39378,8 +44916,35 @@
       <c r="BK245" s="5">
         <v>-0.60406586003873675</v>
       </c>
+      <c r="BL245" s="5">
+        <v>3.1941441695787401E-2</v>
+      </c>
+      <c r="BM245" s="5">
+        <v>5.34534293624939E-2</v>
+      </c>
+      <c r="BN245" s="5">
+        <v>6.6880002907211697E-3</v>
+      </c>
+      <c r="BO245" s="5">
+        <v>7.3963369545809399E-2</v>
+      </c>
+      <c r="BP245" s="5">
+        <v>2.6830251789247899E-2</v>
+      </c>
+      <c r="BQ245" s="5">
+        <v>-9.1574141002198003E-3</v>
+      </c>
+      <c r="BR245" s="5">
+        <v>-7.2251297457198898E-3</v>
+      </c>
+      <c r="BS245" s="5">
+        <v>-8.4194884525248999E-4</v>
+      </c>
+      <c r="BT245" s="5">
+        <v>-1.4296318403493E-2</v>
+      </c>
     </row>
-    <row r="246" spans="2:63" s="5" customFormat="1">
+    <row r="246" spans="2:72" s="5" customFormat="1">
       <c r="B246" s="5">
         <v>2010</v>
       </c>
@@ -39547,8 +45112,35 @@
       <c r="BK246" s="5">
         <v>0.78904451047844559</v>
       </c>
+      <c r="BL246" s="5">
+        <v>1.9131866319751601E-2</v>
+      </c>
+      <c r="BM246" s="5">
+        <v>5.9413684406246697E-2</v>
+      </c>
+      <c r="BN246" s="5">
+        <v>1.33118681497828E-2</v>
+      </c>
+      <c r="BO246" s="5">
+        <v>5.3547904775711502E-2</v>
+      </c>
+      <c r="BP246" s="5">
+        <v>2.81525253043317E-2</v>
+      </c>
+      <c r="BQ246" s="5">
+        <v>7.7450320910273998E-3</v>
+      </c>
+      <c r="BR246" s="5">
+        <v>-2.0360314375033699E-2</v>
+      </c>
+      <c r="BS246" s="5">
+        <v>-7.2434309837090503E-3</v>
+      </c>
+      <c r="BT246" s="5">
+        <v>-2.71746428289825E-2</v>
+      </c>
     </row>
-    <row r="247" spans="2:63" s="5" customFormat="1">
+    <row r="247" spans="2:72" s="5" customFormat="1">
       <c r="B247" s="5">
         <v>2010.25</v>
       </c>
@@ -39716,8 +45308,35 @@
       <c r="BK247" s="5">
         <v>-3.0824010865585227E-2</v>
       </c>
+      <c r="BL247" s="5">
+        <v>-6.6699104802295404E-3</v>
+      </c>
+      <c r="BM247" s="5">
+        <v>5.0451136587174802E-2</v>
+      </c>
+      <c r="BN247" s="5">
+        <v>1.66944660173904E-2</v>
+      </c>
+      <c r="BO247" s="5">
+        <v>5.8824755406823998E-3</v>
+      </c>
+      <c r="BP247" s="5">
+        <v>5.6989241303080203E-2</v>
+      </c>
+      <c r="BQ247" s="5">
+        <v>3.2843946333449198E-2</v>
+      </c>
+      <c r="BR247" s="5">
+        <v>8.4258935833592397E-3</v>
+      </c>
+      <c r="BS247" s="5">
+        <v>8.3904258538664098E-3</v>
+      </c>
+      <c r="BT247" s="5">
+        <v>1.15833154386534E-2</v>
+      </c>
     </row>
-    <row r="248" spans="2:63" s="5" customFormat="1">
+    <row r="248" spans="2:72" s="5" customFormat="1">
       <c r="B248" s="5">
         <v>2010.5</v>
       </c>
@@ -39885,8 +45504,35 @@
       <c r="BK248" s="5">
         <v>0.97538850393538057</v>
       </c>
+      <c r="BL248" s="5">
+        <v>1.5956213617094601E-2</v>
+      </c>
+      <c r="BM248" s="5">
+        <v>5.7184895844869299E-2</v>
+      </c>
+      <c r="BN248" s="5">
+        <v>2.4440006591252599E-2</v>
+      </c>
+      <c r="BO248" s="5">
+        <v>3.5864681649547099E-2</v>
+      </c>
+      <c r="BP248" s="5">
+        <v>7.7777897545276498E-3</v>
+      </c>
+      <c r="BQ248" s="5">
+        <v>4.2246876544555197E-3</v>
+      </c>
+      <c r="BR248" s="5">
+        <v>-1.98949282870611E-2</v>
+      </c>
+      <c r="BS248" s="5">
+        <v>1.1070155475171E-2</v>
+      </c>
+      <c r="BT248" s="5">
+        <v>-1.7178467647953001E-3</v>
+      </c>
     </row>
-    <row r="249" spans="2:63" s="5" customFormat="1">
+    <row r="249" spans="2:72" s="5" customFormat="1">
       <c r="B249" s="5">
         <v>2010.75</v>
       </c>
@@ -40054,8 +45700,35 @@
       <c r="BK249" s="5">
         <v>3.7279266098707187E-2</v>
       </c>
+      <c r="BL249" s="5">
+        <v>1.8474500317983401E-2</v>
+      </c>
+      <c r="BM249" s="5">
+        <v>4.9528342265197402E-2</v>
+      </c>
+      <c r="BN249" s="5">
+        <v>2.699741655283E-2</v>
+      </c>
+      <c r="BO249" s="5">
+        <v>3.3437967528863501E-2</v>
+      </c>
+      <c r="BP249" s="5">
+        <v>-1.7320827879942699E-3</v>
+      </c>
+      <c r="BQ249" s="5">
+        <v>-2.30867824284163E-4</v>
+      </c>
+      <c r="BR249" s="5">
+        <v>-2.3631668314869E-2</v>
+      </c>
+      <c r="BS249" s="5">
+        <v>1.4707386700826599E-2</v>
+      </c>
+      <c r="BT249" s="5">
+        <v>-1.1526989592138201E-3</v>
+      </c>
     </row>
-    <row r="250" spans="2:63" s="5" customFormat="1">
+    <row r="250" spans="2:72" s="5" customFormat="1">
       <c r="B250" s="5">
         <v>2011</v>
       </c>
@@ -40223,8 +45896,35 @@
       <c r="BK250" s="5">
         <v>-8.4124336774218988E-2</v>
       </c>
+      <c r="BL250" s="5">
+        <v>3.6860745103976703E-2</v>
+      </c>
+      <c r="BM250" s="5">
+        <v>4.52248176398879E-2</v>
+      </c>
+      <c r="BN250" s="5">
+        <v>3.75664860975434E-2</v>
+      </c>
+      <c r="BO250" s="5">
+        <v>6.5601432531688904E-3</v>
+      </c>
+      <c r="BP250" s="5">
+        <v>1.2752656817552499E-3</v>
+      </c>
+      <c r="BQ250" s="5">
+        <v>2.7364598805066101E-2</v>
+      </c>
+      <c r="BR250" s="5">
+        <v>-4.39357923116801E-2</v>
+      </c>
+      <c r="BS250" s="5">
+        <v>-6.7130585406888297E-3</v>
+      </c>
+      <c r="BT250" s="5">
+        <v>-1.39953406233502E-2</v>
+      </c>
     </row>
-    <row r="251" spans="2:63" s="5" customFormat="1">
+    <row r="251" spans="2:72" s="5" customFormat="1">
       <c r="B251" s="5">
         <v>2011.25</v>
       </c>
@@ -40392,8 +46092,35 @@
       <c r="BK251" s="5">
         <v>-1.0353901971414661</v>
       </c>
+      <c r="BL251" s="5">
+        <v>2.93406661634091E-2</v>
+      </c>
+      <c r="BM251" s="5">
+        <v>4.8087212553485498E-2</v>
+      </c>
+      <c r="BN251" s="5">
+        <v>2.2806739730521101E-2</v>
+      </c>
+      <c r="BO251" s="5">
+        <v>3.02618878979811E-2</v>
+      </c>
+      <c r="BP251" s="5">
+        <v>2.91060255790004E-2</v>
+      </c>
+      <c r="BQ251" s="5">
+        <v>-1.6072658613055599E-2</v>
+      </c>
+      <c r="BR251" s="5">
+        <v>-3.8532589451633699E-3</v>
+      </c>
+      <c r="BS251" s="5">
+        <v>2.3455345216294499E-2</v>
+      </c>
+      <c r="BT251" s="5">
+        <v>8.6974708402704007E-3</v>
+      </c>
     </row>
-    <row r="252" spans="2:63" s="5" customFormat="1">
+    <row r="252" spans="2:72" s="5" customFormat="1">
       <c r="B252" s="5">
         <v>2011.5</v>
       </c>
@@ -40561,8 +46288,35 @@
       <c r="BK252" s="5">
         <v>-3.8909081821970892E-3</v>
       </c>
+      <c r="BL252" s="5">
+        <v>3.0851071173578999E-2</v>
+      </c>
+      <c r="BM252" s="5">
+        <v>4.1484439136842299E-2</v>
+      </c>
+      <c r="BN252" s="5">
+        <v>3.7198822693639E-2</v>
+      </c>
+      <c r="BO252" s="5">
+        <v>3.3748837375930699E-3</v>
+      </c>
+      <c r="BP252" s="5">
+        <v>6.1206325926114601E-2</v>
+      </c>
+      <c r="BQ252" s="5">
+        <v>4.0469353949083901E-2</v>
+      </c>
+      <c r="BR252" s="5">
+        <v>-1.8185819715281E-2</v>
+      </c>
+      <c r="BS252" s="5">
+        <v>1.39047078736324E-2</v>
+      </c>
+      <c r="BT252" s="5">
+        <v>1.3913719644113301E-2</v>
+      </c>
     </row>
-    <row r="253" spans="2:63" s="5" customFormat="1">
+    <row r="253" spans="2:72" s="5" customFormat="1">
       <c r="B253" s="5">
         <v>2011.75</v>
       </c>
@@ -40730,8 +46484,35 @@
       <c r="BK253" s="5">
         <v>0.36269951165478465</v>
       </c>
+      <c r="BL253" s="5">
+        <v>9.4521161275165598E-3</v>
+      </c>
+      <c r="BM253" s="5">
+        <v>6.6916365878461795E-2</v>
+      </c>
+      <c r="BN253" s="5">
+        <v>2.67065203356995E-2</v>
+      </c>
+      <c r="BO253" s="5">
+        <v>3.7969504359458901E-2</v>
+      </c>
+      <c r="BP253" s="5">
+        <v>1.1897013509394601E-2</v>
+      </c>
+      <c r="BQ253" s="5">
+        <v>-4.3187115843586503E-3</v>
+      </c>
+      <c r="BR253" s="5">
+        <v>-8.2427193671863706E-3</v>
+      </c>
+      <c r="BS253" s="5">
+        <v>4.3441321642546299E-2</v>
+      </c>
+      <c r="BT253" s="5">
+        <v>3.4882737376158899E-3</v>
+      </c>
     </row>
-    <row r="254" spans="2:63" s="5" customFormat="1">
+    <row r="254" spans="2:72" s="5" customFormat="1">
       <c r="B254" s="5">
         <v>2012</v>
       </c>
@@ -40899,8 +46680,35 @@
       <c r="BK254" s="5">
         <v>0.63772860475439652</v>
       </c>
+      <c r="BL254" s="5">
+        <v>-3.98622861920325E-3</v>
+      </c>
+      <c r="BM254" s="5">
+        <v>5.0211464199433099E-2</v>
+      </c>
+      <c r="BN254" s="5">
+        <v>3.9472155348672898E-2</v>
+      </c>
+      <c r="BO254" s="5">
+        <v>1.44282152208419E-2</v>
+      </c>
+      <c r="BP254" s="5">
+        <v>-5.3811413901489304E-3</v>
+      </c>
+      <c r="BQ254" s="5">
+        <v>2.89859130617178E-2</v>
+      </c>
+      <c r="BR254" s="5">
+        <v>-4.0333025182816798E-2</v>
+      </c>
+      <c r="BS254" s="5">
+        <v>1.2175150302202299E-3</v>
+      </c>
+      <c r="BT254" s="5">
+        <v>2.3936299849649199E-2</v>
+      </c>
     </row>
-    <row r="255" spans="2:63" s="5" customFormat="1">
+    <row r="255" spans="2:72" s="5" customFormat="1">
       <c r="B255" s="5">
         <v>2012.25</v>
       </c>
@@ -41068,8 +46876,35 @@
       <c r="BK255" s="5">
         <v>-1.946757759348738</v>
       </c>
+      <c r="BL255" s="5">
+        <v>1.8659524643673198E-2</v>
+      </c>
+      <c r="BM255" s="5">
+        <v>6.3174676897149604E-2</v>
+      </c>
+      <c r="BN255" s="5">
+        <v>1.55881514090831E-2</v>
+      </c>
+      <c r="BO255" s="5">
+        <v>-3.9093557632191396E-3</v>
+      </c>
+      <c r="BP255" s="5">
+        <v>2.9073223935430201E-2</v>
+      </c>
+      <c r="BQ255" s="5">
+        <v>2.27902932870735E-2</v>
+      </c>
+      <c r="BR255" s="5">
+        <v>-2.1357323171068E-3</v>
+      </c>
+      <c r="BS255" s="5">
+        <v>1.6653143037055999E-2</v>
+      </c>
+      <c r="BT255" s="5">
+        <v>2.3564825122314101E-3</v>
+      </c>
     </row>
-    <row r="256" spans="2:63" s="5" customFormat="1">
+    <row r="256" spans="2:72" s="5" customFormat="1">
       <c r="B256" s="5">
         <v>2012.5</v>
       </c>
@@ -41237,8 +47072,35 @@
       <c r="BK256" s="5">
         <v>0.35338216846130355</v>
       </c>
+      <c r="BL256" s="5">
+        <v>2.9314421573305001E-2</v>
+      </c>
+      <c r="BM256" s="5">
+        <v>5.3678600233421497E-2</v>
+      </c>
+      <c r="BN256" s="5">
+        <v>3.6149003635958098E-2</v>
+      </c>
+      <c r="BO256" s="5">
+        <v>1.7016164813296E-2</v>
+      </c>
+      <c r="BP256" s="5">
+        <v>4.01238704893387E-3</v>
+      </c>
+      <c r="BQ256" s="5">
+        <v>1.72261031086451E-3</v>
+      </c>
+      <c r="BR256" s="5">
+        <v>-3.6565581353246501E-2</v>
+      </c>
+      <c r="BS256" s="5">
+        <v>1.51083218276774E-2</v>
+      </c>
+      <c r="BT256" s="5">
+        <v>-1.1745773023150499E-3</v>
+      </c>
     </row>
-    <row r="257" spans="2:63" s="5" customFormat="1">
+    <row r="257" spans="2:72" s="5" customFormat="1">
       <c r="B257" s="5">
         <v>2012.75</v>
       </c>
@@ -41406,8 +47268,35 @@
       <c r="BK257" s="5">
         <v>0.47394483934834525</v>
       </c>
+      <c r="BL257" s="5">
+        <v>1.08450964479318E-2</v>
+      </c>
+      <c r="BM257" s="5">
+        <v>5.7276459703135302E-2</v>
+      </c>
+      <c r="BN257" s="5">
+        <v>2.0984088390022401E-2</v>
+      </c>
+      <c r="BO257" s="5">
+        <v>-2.3418587276531799E-2</v>
+      </c>
+      <c r="BP257" s="5">
+        <v>6.0185208386587304E-3</v>
+      </c>
+      <c r="BQ257" s="5">
+        <v>4.6230102952929099E-2</v>
+      </c>
+      <c r="BR257" s="5">
+        <v>-2.9620884209839E-2</v>
+      </c>
+      <c r="BS257" s="5">
+        <v>-1.55216130263949E-2</v>
+      </c>
+      <c r="BT257" s="5">
+        <v>2.1293083098247199E-2</v>
+      </c>
     </row>
-    <row r="258" spans="2:63" s="5" customFormat="1">
+    <row r="258" spans="2:72" s="5" customFormat="1">
       <c r="B258" s="5">
         <v>2013</v>
       </c>
@@ -41575,8 +47464,35 @@
       <c r="BK258" s="5">
         <v>0.17351122553958465</v>
       </c>
+      <c r="BL258" s="5">
+        <v>1.9604059928622901E-2</v>
+      </c>
+      <c r="BM258" s="5">
+        <v>7.2764316162076695E-2</v>
+      </c>
+      <c r="BN258" s="5">
+        <v>2.7260081070879301E-2</v>
+      </c>
+      <c r="BO258" s="5">
+        <v>3.67713034372356E-2</v>
+      </c>
+      <c r="BP258" s="5">
+        <v>1.3469497092508199E-2</v>
+      </c>
+      <c r="BQ258" s="5">
+        <v>-3.4312866069914703E-2</v>
+      </c>
+      <c r="BR258" s="5">
+        <v>-3.4999632559929799E-3</v>
+      </c>
+      <c r="BS258" s="5">
+        <v>7.5928465020429603E-2</v>
+      </c>
+      <c r="BT258" s="5">
+        <v>-4.5014263196975698E-2</v>
+      </c>
     </row>
-    <row r="259" spans="2:63" s="5" customFormat="1">
+    <row r="259" spans="2:72" s="5" customFormat="1">
       <c r="B259" s="5">
         <v>2013.25</v>
       </c>
@@ -41744,8 +47660,35 @@
       <c r="BK259" s="5">
         <v>1.0337190873751706E-2</v>
       </c>
+      <c r="BL259" s="5">
+        <v>9.3723502180815908E-3</v>
+      </c>
+      <c r="BM259" s="5">
+        <v>6.5076828303369805E-2</v>
+      </c>
+      <c r="BN259" s="5">
+        <v>3.20249318674104E-2</v>
+      </c>
+      <c r="BO259" s="5">
+        <v>-2.06024233259633E-2</v>
+      </c>
+      <c r="BP259" s="5">
+        <v>-2.4020880009397502E-3</v>
+      </c>
+      <c r="BQ259" s="5">
+        <v>2.8870568811695401E-2</v>
+      </c>
+      <c r="BR259" s="5">
+        <v>-2.83117658265741E-2</v>
+      </c>
+      <c r="BS259" s="5">
+        <v>1.07597819339231E-2</v>
+      </c>
+      <c r="BT259" s="5">
+        <v>-3.24344269964054E-3</v>
+      </c>
     </row>
-    <row r="260" spans="2:63" s="5" customFormat="1">
+    <row r="260" spans="2:72" s="5" customFormat="1">
       <c r="B260" s="5">
         <v>2013.5</v>
       </c>
@@ -41913,8 +47856,35 @@
       <c r="BK260" s="5">
         <v>0.50037042911282181</v>
       </c>
+      <c r="BL260" s="5">
+        <v>1.9426969941100301E-2</v>
+      </c>
+      <c r="BM260" s="5">
+        <v>6.55789902909307E-2</v>
+      </c>
+      <c r="BN260" s="5">
+        <v>2.1271303335684801E-2</v>
+      </c>
+      <c r="BO260" s="5">
+        <v>1.92414950280753E-2</v>
+      </c>
+      <c r="BP260" s="5">
+        <v>1.23961200466732E-2</v>
+      </c>
+      <c r="BQ260" s="5">
+        <v>-7.5358554667381396E-3</v>
+      </c>
+      <c r="BR260" s="5">
+        <v>-3.5284753202057301E-3</v>
+      </c>
+      <c r="BS260" s="5">
+        <v>9.2137291902244407E-3</v>
+      </c>
+      <c r="BT260" s="5">
+        <v>1.15798540862946E-2</v>
+      </c>
     </row>
-    <row r="261" spans="2:63" s="5" customFormat="1">
+    <row r="261" spans="2:72" s="5" customFormat="1">
       <c r="B261" s="5">
         <v>2013.75</v>
       </c>
@@ -42082,8 +48052,35 @@
       <c r="BK261" s="5">
         <v>-0.55513502836771011</v>
       </c>
+      <c r="BL261" s="5">
+        <v>3.1126530772561298E-3</v>
+      </c>
+      <c r="BM261" s="5">
+        <v>6.6058068314107404E-2</v>
+      </c>
+      <c r="BN261" s="5">
+        <v>3.3167909029542503E-2</v>
+      </c>
+      <c r="BO261" s="5">
+        <v>1.8330370375049299E-2</v>
+      </c>
+      <c r="BP261" s="5">
+        <v>-4.7169587962746298E-3</v>
+      </c>
+      <c r="BQ261" s="5">
+        <v>5.7635310545582899E-3</v>
+      </c>
+      <c r="BR261" s="5">
+        <v>-1.8402587992536999E-2</v>
+      </c>
+      <c r="BS261" s="5">
+        <v>3.01638986146649E-2</v>
+      </c>
+      <c r="BT261" s="5">
+        <v>6.8041974631820002E-3</v>
+      </c>
     </row>
-    <row r="262" spans="2:63" s="5" customFormat="1">
+    <row r="262" spans="2:72" s="5" customFormat="1">
       <c r="B262" s="5">
         <v>2014</v>
       </c>
@@ -42251,8 +48248,35 @@
       <c r="BK262" s="5">
         <v>0.96761063151986237</v>
       </c>
+      <c r="BL262" s="5">
+        <v>1.45319721658504E-2</v>
+      </c>
+      <c r="BM262" s="5">
+        <v>5.45936211989358E-2</v>
+      </c>
+      <c r="BN262" s="5">
+        <v>3.9584893944161703E-2</v>
+      </c>
+      <c r="BO262" s="5">
+        <v>-2.28193739467847E-2</v>
+      </c>
+      <c r="BP262" s="5">
+        <v>4.9978960495746698E-3</v>
+      </c>
+      <c r="BQ262" s="5">
+        <v>2.17913049509838E-2</v>
+      </c>
+      <c r="BR262" s="5">
+        <v>-3.614843208508E-2</v>
+      </c>
+      <c r="BS262" s="5">
+        <v>-1.06786184766006E-2</v>
+      </c>
+      <c r="BT262" s="5">
+        <v>7.5393482012172403E-3</v>
+      </c>
     </row>
-    <row r="263" spans="2:63" s="5" customFormat="1">
+    <row r="263" spans="2:72" s="5" customFormat="1">
       <c r="B263" s="5">
         <v>2014.25</v>
       </c>
@@ -42420,8 +48444,35 @@
       <c r="BK263" s="5">
         <v>1.2103592077627205</v>
       </c>
+      <c r="BL263" s="5">
+        <v>-6.5647274200784003E-3</v>
+      </c>
+      <c r="BM263" s="5">
+        <v>6.6413824000311497E-2</v>
+      </c>
+      <c r="BN263" s="5">
+        <v>3.2800080430214401E-2</v>
+      </c>
+      <c r="BO263" s="5">
+        <v>1.7248619654671001E-2</v>
+      </c>
+      <c r="BP263" s="5">
+        <v>9.4882694348538497E-3</v>
+      </c>
+      <c r="BQ263" s="5">
+        <v>-1.24172884720768E-2</v>
+      </c>
+      <c r="BR263" s="5">
+        <v>-4.4870054360175698E-3</v>
+      </c>
+      <c r="BS263" s="5">
+        <v>2.1013975750446001E-2</v>
+      </c>
+      <c r="BT263" s="5">
+        <v>2.3667655996496301E-2</v>
+      </c>
     </row>
-    <row r="264" spans="2:63" s="5" customFormat="1">
+    <row r="264" spans="2:72" s="5" customFormat="1">
       <c r="B264" s="5">
         <v>2014.5</v>
       </c>
@@ -42589,8 +48640,35 @@
       <c r="BK264" s="5">
         <v>-0.39850508577793659</v>
       </c>
+      <c r="BL264" s="5">
+        <v>-4.9101962446352803E-3</v>
+      </c>
+      <c r="BM264" s="5">
+        <v>6.8851959429399201E-2</v>
+      </c>
+      <c r="BN264" s="5">
+        <v>2.7574816686276E-2</v>
+      </c>
+      <c r="BO264" s="5">
+        <v>-1.05322420720945E-4</v>
+      </c>
+      <c r="BP264" s="5">
+        <v>6.7369847704702897E-3</v>
+      </c>
+      <c r="BQ264" s="5">
+        <v>-2.4246391301277199E-3</v>
+      </c>
+      <c r="BR264" s="5">
+        <v>-4.0759503463709996E-3</v>
+      </c>
+      <c r="BS264" s="5">
+        <v>1.0559816896330201E-2</v>
+      </c>
+      <c r="BT264" s="5">
+        <v>2.6611213320989199E-2</v>
+      </c>
     </row>
-    <row r="265" spans="2:63" s="5" customFormat="1">
+    <row r="265" spans="2:72" s="5" customFormat="1">
       <c r="B265" s="5">
         <v>2014.75</v>
       </c>
@@ -42758,8 +48836,35 @@
       <c r="BK265" s="5">
         <v>0.11250005587509349</v>
       </c>
+      <c r="BL265" s="5">
+        <v>-8.9585118986296609E-3</v>
+      </c>
+      <c r="BM265" s="5">
+        <v>8.0517459903041697E-2</v>
+      </c>
+      <c r="BN265" s="5">
+        <v>1.30547541401258E-2</v>
+      </c>
+      <c r="BO265" s="5">
+        <v>-2.2464319757082699E-2</v>
+      </c>
+      <c r="BP265" s="5">
+        <v>-7.1275912630975203E-4</v>
+      </c>
+      <c r="BQ265" s="5">
+        <v>3.5283101078601699E-2</v>
+      </c>
+      <c r="BR265" s="5">
+        <v>-4.34133694059184E-3</v>
+      </c>
+      <c r="BS265" s="5">
+        <v>9.7198189330497901E-3</v>
+      </c>
+      <c r="BT265" s="5">
+        <v>1.2595507168991099E-2</v>
+      </c>
     </row>
-    <row r="266" spans="2:63" s="5" customFormat="1">
+    <row r="266" spans="2:72" s="5" customFormat="1">
       <c r="B266" s="5">
         <v>2015</v>
       </c>
@@ -42927,8 +49032,35 @@
       <c r="BK266" s="5">
         <v>0.11388620008488515</v>
       </c>
+      <c r="BL266" s="5">
+        <v>-2.9153140112389898E-3</v>
+      </c>
+      <c r="BM266" s="5">
+        <v>7.6707195627472496E-2</v>
+      </c>
+      <c r="BN266" s="5">
+        <v>1.59457775183116E-2</v>
+      </c>
+      <c r="BO266" s="5">
+        <v>-3.2273481090204399E-2</v>
+      </c>
+      <c r="BP266" s="5">
+        <v>-1.87429650492188E-3</v>
+      </c>
+      <c r="BQ266" s="5">
+        <v>2.2538381958293399E-2</v>
+      </c>
+      <c r="BR266" s="5">
+        <v>2.2660377680751198E-3</v>
+      </c>
+      <c r="BS266" s="5">
+        <v>1.5908776409794802E-2</v>
+      </c>
+      <c r="BT266" s="5">
+        <v>2.1122514106683501E-2</v>
+      </c>
     </row>
-    <row r="267" spans="2:63" s="5" customFormat="1">
+    <row r="267" spans="2:72" s="5" customFormat="1">
       <c r="B267" s="5">
         <v>2015.25</v>
       </c>
@@ -43096,8 +49228,35 @@
       <c r="BK267" s="5">
         <v>0.19791755307625811</v>
       </c>
+      <c r="BL267" s="5">
+        <v>5.3201135725471803E-3</v>
+      </c>
+      <c r="BM267" s="5">
+        <v>6.2397447100146601E-2</v>
+      </c>
+      <c r="BN267" s="5">
+        <v>2.97099602293831E-2</v>
+      </c>
+      <c r="BO267" s="5">
+        <v>-1.0901794912201701E-2</v>
+      </c>
+      <c r="BP267" s="5">
+        <v>-2.84670883013897E-3</v>
+      </c>
+      <c r="BQ267" s="5">
+        <v>-1.7997429937829299E-2</v>
+      </c>
+      <c r="BR267" s="5">
+        <v>-1.4043734561773699E-2</v>
+      </c>
+      <c r="BS267" s="5">
+        <v>-4.8737670437545696E-3</v>
+      </c>
+      <c r="BT267" s="5">
+        <v>2.0890668801432699E-2</v>
+      </c>
     </row>
-    <row r="268" spans="2:63" s="5" customFormat="1">
+    <row r="268" spans="2:72" s="5" customFormat="1">
       <c r="B268" s="5">
         <v>2015.5</v>
       </c>
@@ -43265,8 +49424,35 @@
       <c r="BK268" s="5">
         <v>-4.0990677086138419E-2</v>
       </c>
+      <c r="BL268" s="5">
+        <v>1.26395185368465E-2</v>
+      </c>
+      <c r="BM268" s="5">
+        <v>7.3929129513340297E-2</v>
+      </c>
+      <c r="BN268" s="5">
+        <v>1.4449350277497299E-2</v>
+      </c>
+      <c r="BO268" s="5">
+        <v>-2.9636080393942801E-2</v>
+      </c>
+      <c r="BP268" s="5">
+        <v>1.96131337512707E-2</v>
+      </c>
+      <c r="BQ268" s="5">
+        <v>-3.65641495050249E-4</v>
+      </c>
+      <c r="BR268" s="5">
+        <v>1.4724273060166699E-2</v>
+      </c>
+      <c r="BS268" s="5">
+        <v>1.2712930133197501E-2</v>
+      </c>
+      <c r="BT268" s="5">
+        <v>7.3587399273475204E-3</v>
+      </c>
     </row>
-    <row r="269" spans="2:63" s="5" customFormat="1">
+    <row r="269" spans="2:72" s="5" customFormat="1">
       <c r="B269" s="5">
         <v>2015.75</v>
       </c>
@@ -43434,8 +49620,35 @@
       <c r="BK269" s="5">
         <v>9.9458361439364595E-3</v>
       </c>
+      <c r="BL269" s="5">
+        <v>2.0337598907682601E-2</v>
+      </c>
+      <c r="BM269" s="5">
+        <v>7.1296956991217894E-2</v>
+      </c>
+      <c r="BN269" s="5">
+        <v>2.1479409527799202E-2</v>
+      </c>
+      <c r="BO269" s="5">
+        <v>-3.6216634346611397E-2</v>
+      </c>
+      <c r="BP269" s="5">
+        <v>-1.91538783867269E-2</v>
+      </c>
+      <c r="BQ269" s="5">
+        <v>2.8376115032308399E-2</v>
+      </c>
+      <c r="BR269" s="5">
+        <v>-2.1154263477437499E-2</v>
+      </c>
+      <c r="BS269" s="5">
+        <v>7.7103756810317798E-3</v>
+      </c>
+      <c r="BT269" s="5">
+        <v>9.7422055700901299E-3</v>
+      </c>
     </row>
-    <row r="270" spans="2:63" s="5" customFormat="1">
+    <row r="270" spans="2:72" s="5" customFormat="1">
       <c r="B270" s="5">
         <v>2016</v>
       </c>
@@ -43603,8 +49816,35 @@
       <c r="BK270" s="5">
         <v>-0.327572783436476</v>
       </c>
+      <c r="BL270" s="5">
+        <v>1.86644891947709E-2</v>
+      </c>
+      <c r="BM270" s="5">
+        <v>7.3354705314851595E-2</v>
+      </c>
+      <c r="BN270" s="5">
+        <v>1.8559559579108601E-2</v>
+      </c>
+      <c r="BO270" s="5">
+        <v>-1.22964967012969E-2</v>
+      </c>
+      <c r="BP270" s="5">
+        <v>1.25887404311644E-2</v>
+      </c>
+      <c r="BQ270" s="5">
+        <v>-1.09789278359146E-3</v>
+      </c>
+      <c r="BR270" s="5">
+        <v>-7.1635836977567103E-3</v>
+      </c>
+      <c r="BS270" s="5">
+        <v>2.6235199512222298E-4</v>
+      </c>
+      <c r="BT270" s="5">
+        <v>8.7716829805082296E-4</v>
+      </c>
     </row>
-    <row r="271" spans="2:63" s="5" customFormat="1">
+    <row r="271" spans="2:72" s="5" customFormat="1">
       <c r="B271" s="5">
         <v>2016.25</v>
       </c>
@@ -43772,8 +50012,35 @@
       <c r="BK271" s="5">
         <v>1.027472306460014</v>
       </c>
+      <c r="BL271" s="5">
+        <v>7.7823514929674297E-3</v>
+      </c>
+      <c r="BM271" s="5">
+        <v>6.1215914125714699E-2</v>
+      </c>
+      <c r="BN271" s="5">
+        <v>2.4594221002985101E-2</v>
+      </c>
+      <c r="BO271" s="5">
+        <v>-8.1125333687627893E-3</v>
+      </c>
+      <c r="BP271" s="14">
+        <v>9.2468947830021199E-5</v>
+      </c>
+      <c r="BQ271" s="5">
+        <v>-1.1110781131136701E-2</v>
+      </c>
+      <c r="BR271" s="5">
+        <v>-1.2915399997544E-2</v>
+      </c>
+      <c r="BS271" s="5">
+        <v>4.7068040660997698E-4</v>
+      </c>
+      <c r="BT271" s="5">
+        <v>8.3717660076668508E-3</v>
+      </c>
     </row>
-    <row r="272" spans="2:63" s="5" customFormat="1">
+    <row r="272" spans="2:72" s="5" customFormat="1">
       <c r="B272" s="5">
         <v>2016.5</v>
       </c>
@@ -43938,8 +50205,35 @@
       <c r="BK272" s="5">
         <v>4.9199649393765199E-2</v>
       </c>
+      <c r="BL272" s="5">
+        <v>5.3587702191249696E-3</v>
+      </c>
+      <c r="BM272" s="5">
+        <v>6.8949844497564597E-2</v>
+      </c>
+      <c r="BN272" s="5">
+        <v>2.43280168355102E-2</v>
+      </c>
+      <c r="BO272" s="5">
+        <v>-6.5139503962405396E-3</v>
+      </c>
+      <c r="BP272" s="5">
+        <v>1.29087701702648E-3</v>
+      </c>
+      <c r="BQ272" s="5">
+        <v>-1.23209088289964E-3</v>
+      </c>
+      <c r="BR272" s="5">
+        <v>-1.1086560202900501E-2</v>
+      </c>
+      <c r="BS272" s="5">
+        <v>4.5111690723219399E-3</v>
+      </c>
+      <c r="BT272" s="5">
+        <v>1.38437266541264E-2</v>
+      </c>
     </row>
-    <row r="273" spans="2:63" s="5" customFormat="1">
+    <row r="273" spans="2:72" s="5" customFormat="1">
       <c r="B273" s="5">
         <v>2016.75</v>
       </c>
@@ -44104,8 +50398,35 @@
       <c r="BK273" s="5">
         <v>1.2445327234387613</v>
       </c>
+      <c r="BL273" s="5">
+        <v>1.10542610634402E-2</v>
+      </c>
+      <c r="BM273" s="5">
+        <v>7.2838572903350801E-2</v>
+      </c>
+      <c r="BN273" s="5">
+        <v>2.88144191822459E-2</v>
+      </c>
+      <c r="BO273" s="5">
+        <v>1.07237429578861E-2</v>
+      </c>
+      <c r="BP273" s="5">
+        <v>1.0154475219181799E-3</v>
+      </c>
+      <c r="BQ273" s="5">
+        <v>-3.39041813612075E-2</v>
+      </c>
+      <c r="BR273" s="5">
+        <v>-4.7903125116616398E-3</v>
+      </c>
+      <c r="BS273" s="5">
+        <v>1.51753549714429E-2</v>
+      </c>
+      <c r="BT273" s="5">
+        <v>-1.39177968905237E-2</v>
+      </c>
     </row>
-    <row r="274" spans="2:63" s="5" customFormat="1">
+    <row r="274" spans="2:72" s="5" customFormat="1">
       <c r="B274" s="5">
         <v>2017</v>
       </c>
@@ -44268,8 +50589,35 @@
       <c r="BK274" s="5">
         <v>0.40149107434930342</v>
       </c>
+      <c r="BL274" s="5">
+        <v>8.3653616208275005E-3</v>
+      </c>
+      <c r="BM274" s="5">
+        <v>6.8508115914533096E-2</v>
+      </c>
+      <c r="BN274" s="5">
+        <v>3.1871390699590101E-2</v>
+      </c>
+      <c r="BO274" s="5">
+        <v>-1.1978459169290599E-2</v>
+      </c>
+      <c r="BP274" s="5">
+        <v>-8.6233683271013401E-3</v>
+      </c>
+      <c r="BQ274" s="5">
+        <v>4.5845512281455303E-3</v>
+      </c>
+      <c r="BR274" s="5">
+        <v>-2.30797994480882E-2</v>
+      </c>
+      <c r="BS274" s="5">
+        <v>-6.5740482943501804E-3</v>
+      </c>
+      <c r="BT274" s="5">
+        <v>1.03870738675536E-2</v>
+      </c>
     </row>
-    <row r="275" spans="2:63" s="5" customFormat="1">
+    <row r="275" spans="2:72" s="5" customFormat="1">
       <c r="B275" s="5">
         <v>2017.25</v>
       </c>
@@ -44429,8 +50777,35 @@
       <c r="BJ275" s="5">
         <v>325543.33333333331</v>
       </c>
+      <c r="BL275" s="5">
+        <v>-4.9027689175198501E-3</v>
+      </c>
+      <c r="BM275" s="5">
+        <v>7.9586965059065498E-2</v>
+      </c>
+      <c r="BN275" s="5">
+        <v>1.7952996676322299E-2</v>
+      </c>
+      <c r="BO275" s="5">
+        <v>-1.20226690883273E-2</v>
+      </c>
+      <c r="BP275" s="5">
+        <v>2.17197267944724E-4</v>
+      </c>
+      <c r="BQ275" s="5">
+        <v>-2.00003664799304E-3</v>
+      </c>
+      <c r="BR275" s="5">
+        <v>2.3837138466147102E-3</v>
+      </c>
+      <c r="BS275" s="5">
+        <v>4.4763235049810404E-3</v>
+      </c>
+      <c r="BT275" s="5">
+        <v>1.2724508580569799E-3</v>
+      </c>
     </row>
-    <row r="276" spans="2:63" s="5" customFormat="1">
+    <row r="276" spans="2:72" s="5" customFormat="1">
       <c r="B276" s="5">
         <v>2017.5</v>
       </c>
@@ -44576,7 +50951,7 @@
         <v>326163.33333333331</v>
       </c>
     </row>
-    <row r="277" spans="2:63" s="5" customFormat="1">
+    <row r="277" spans="2:72" s="5" customFormat="1">
       <c r="B277" s="5">
         <v>2017.75</v>
       </c>
@@ -44684,7 +51059,7 @@
         <v>326810.33333333331</v>
       </c>
     </row>
-    <row r="278" spans="2:63" s="5" customFormat="1">
+    <row r="278" spans="2:72" s="5" customFormat="1">
       <c r="B278" s="5">
         <v>2018</v>
       </c>
@@ -44792,7 +51167,7 @@
         <v>327342.66666666669</v>
       </c>
     </row>
-    <row r="279" spans="2:63" s="5" customFormat="1">
+    <row r="279" spans="2:72" s="5" customFormat="1">
       <c r="B279" s="5">
         <v>2018.25</v>
       </c>
@@ -44890,7 +51265,7 @@
         <v>327857.66666666669</v>
       </c>
     </row>
-    <row r="280" spans="2:63" s="5" customFormat="1">
+    <row r="280" spans="2:72" s="5" customFormat="1">
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="N280" s="4"/>
@@ -44925,7 +51300,7 @@
         <v>328477.33333333331</v>
       </c>
     </row>
-    <row r="281" spans="2:63" s="5" customFormat="1">
+    <row r="281" spans="2:72" s="5" customFormat="1">
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
       <c r="N281" s="4"/>
@@ -44956,7 +51331,7 @@
         <v>329124.33333333331</v>
       </c>
     </row>
-    <row r="282" spans="2:63" s="5" customFormat="1">
+    <row r="282" spans="2:72" s="5" customFormat="1">
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="N282" s="4"/>
@@ -44976,42 +51351,42 @@
       <c r="BG282" s="8"/>
       <c r="BH282" s="8"/>
     </row>
-    <row r="283" spans="2:63" s="5" customFormat="1">
+    <row r="283" spans="2:72" s="5" customFormat="1">
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
       <c r="AZ283" s="8"/>
       <c r="BG283" s="8"/>
       <c r="BH283" s="8"/>
     </row>
-    <row r="284" spans="2:63" s="5" customFormat="1">
+    <row r="284" spans="2:72" s="5" customFormat="1">
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="AZ284" s="8"/>
       <c r="BG284" s="8"/>
       <c r="BH284" s="8"/>
     </row>
-    <row r="285" spans="2:63" s="5" customFormat="1">
+    <row r="285" spans="2:72" s="5" customFormat="1">
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
       <c r="AZ285" s="8"/>
       <c r="BG285" s="8"/>
       <c r="BH285" s="8"/>
     </row>
-    <row r="286" spans="2:63" s="5" customFormat="1">
+    <row r="286" spans="2:72" s="5" customFormat="1">
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="AZ286" s="8"/>
       <c r="BG286" s="8"/>
       <c r="BH286" s="8"/>
     </row>
-    <row r="287" spans="2:63" s="5" customFormat="1">
+    <row r="287" spans="2:72" s="5" customFormat="1">
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
       <c r="AZ287" s="8"/>
       <c r="BG287" s="8"/>
       <c r="BH287" s="8"/>
     </row>
-    <row r="288" spans="2:63" s="5" customFormat="1">
+    <row r="288" spans="2:72" s="5" customFormat="1">
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="AZ288" s="8"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -252,42 +252,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>RNRESIN1</t>
-  </si>
-  <si>
-    <t>RNRESIN2</t>
-  </si>
-  <si>
-    <t>RNRESIN5</t>
-  </si>
-  <si>
-    <t>RNRESIN6</t>
-  </si>
-  <si>
-    <t>RRESINV1</t>
-  </si>
-  <si>
-    <t>RRESINV2</t>
-  </si>
-  <si>
-    <t>RRESINV5</t>
-  </si>
-  <si>
-    <t>RRESINV6</t>
-  </si>
-  <si>
-    <t>INDPROD1</t>
-  </si>
-  <si>
-    <t>INDPROD2</t>
-  </si>
-  <si>
-    <t>INDPROD5</t>
-  </si>
-  <si>
-    <t>INDPROD6</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -490,6 +454,42 @@
   </si>
   <si>
     <t>RCONS6_SPF</t>
+  </si>
+  <si>
+    <t>RNRESIN1_SPF</t>
+  </si>
+  <si>
+    <t>RNRESIN2_SPF</t>
+  </si>
+  <si>
+    <t>RNRESIN5_SPF</t>
+  </si>
+  <si>
+    <t>RNRESIN6_SPF</t>
+  </si>
+  <si>
+    <t>RRESINV1_SPF</t>
+  </si>
+  <si>
+    <t>RRESINV2_SPF</t>
+  </si>
+  <si>
+    <t>RRESINV5_SPF</t>
+  </si>
+  <si>
+    <t>RRESINV6_SPF</t>
+  </si>
+  <si>
+    <t>INDPROD1_SPF</t>
+  </si>
+  <si>
+    <t>INDPROD2_SPF</t>
+  </si>
+  <si>
+    <t>INDPROD5_SPF</t>
+  </si>
+  <si>
+    <t>INDPROD6_SPF</t>
   </si>
 </sst>
 </file>
@@ -964,10 +964,10 @@
   <dimension ref="A1:CG629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="Q210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T132" sqref="T132"/>
+      <selection pane="bottomRight" activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1041,238 +1041,238 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AP1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AQ1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BB1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="BR1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="BZ1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="CE1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="CF1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="CG1" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:85" s="7" customFormat="1">
@@ -59144,11 +59144,11 @@
     <row r="299" spans="10:73" s="5" customFormat="1">
       <c r="K299" s="4"/>
       <c r="L299" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q299" s="4"/>
       <c r="R299" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="W299" s="4"/>
       <c r="AV299" s="3"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -284,12 +284,61 @@
         </r>
       </text>
     </comment>
+    <comment ref="CK1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco Brianti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Business Tendency Surveys for Manufacturing: Confidence Indicators: Composite Indicators: European Commission and National Indicators for the United States, Net Percent, Quarterly, Seasonally Adjusted
+Code FRED: BSCICP02USQ460S</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CL1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Marco Brianti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Consumer Confidence of Michigan Index - Table 1</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -572,6 +621,12 @@
   <si>
     <t>RDurableCons</t>
   </si>
+  <si>
+    <t>MichIndexConfidence</t>
+  </si>
+  <si>
+    <t>BusinessConfidenceEC</t>
+  </si>
 </sst>
 </file>
 
@@ -581,7 +636,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +715,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1042,13 +1110,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ629"/>
+  <dimension ref="A1:CL629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AS231" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CE265" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AW236" sqref="AW236"/>
+      <selection pane="bottomRight" activeCell="CM280" sqref="CM280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -1101,7 +1169,7 @@
     <col min="79" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="7" customFormat="1">
+    <row r="1" spans="1:90" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1366,8 +1434,14 @@
       <c r="CJ1" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="CK1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL1" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:88" s="7" customFormat="1">
+    <row r="2" spans="1:90" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1632,8 +1706,14 @@
       <c r="CJ2" s="7">
         <v>2</v>
       </c>
+      <c r="CK2" s="7">
+        <v>2</v>
+      </c>
+      <c r="CL2" s="7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" s="7" customFormat="1">
+    <row r="3" spans="1:90" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1898,8 +1978,14 @@
       <c r="CJ3" s="7">
         <v>1</v>
       </c>
+      <c r="CK3" s="7">
+        <v>1</v>
+      </c>
+      <c r="CL3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" s="7" customFormat="1">
+    <row r="4" spans="1:90" s="7" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2164,8 +2250,14 @@
       <c r="CJ4" s="1">
         <v>87</v>
       </c>
+      <c r="CK4" s="7">
+        <v>88</v>
+      </c>
+      <c r="CL4" s="7">
+        <v>89</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" s="7" customFormat="1">
+    <row r="5" spans="1:90" s="7" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -2430,8 +2522,14 @@
       <c r="CJ5" s="1">
         <v>87</v>
       </c>
+      <c r="CK5" s="7">
+        <v>88</v>
+      </c>
+      <c r="CL5" s="7">
+        <v>89</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" s="5" customFormat="1">
+    <row r="6" spans="1:90" s="5" customFormat="1">
       <c r="B6" s="5">
         <v>1950</v>
       </c>
@@ -2529,7 +2627,7 @@
         <v>-25.047000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:88" s="5" customFormat="1">
+    <row r="7" spans="1:90" s="5" customFormat="1">
       <c r="B7" s="5">
         <v>1950.25</v>
       </c>
@@ -2627,7 +2725,7 @@
         <v>-25.356999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:88" s="5" customFormat="1">
+    <row r="8" spans="1:90" s="5" customFormat="1">
       <c r="B8" s="5">
         <v>1950.5</v>
       </c>
@@ -2725,7 +2823,7 @@
         <v>-25.962</v>
       </c>
     </row>
-    <row r="9" spans="1:88" s="5" customFormat="1">
+    <row r="9" spans="1:90" s="5" customFormat="1">
       <c r="B9" s="5">
         <v>1950.75</v>
       </c>
@@ -2823,7 +2921,7 @@
         <v>-26.004000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:88" s="5" customFormat="1">
+    <row r="10" spans="1:90" s="5" customFormat="1">
       <c r="B10" s="5">
         <v>1951</v>
       </c>
@@ -2921,7 +3019,7 @@
         <v>-26.062999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:88" s="5" customFormat="1">
+    <row r="11" spans="1:90" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>1951.25</v>
       </c>
@@ -3019,7 +3117,7 @@
         <v>-25.963999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:88" s="5" customFormat="1">
+    <row r="12" spans="1:90" s="5" customFormat="1">
       <c r="B12" s="5">
         <v>1951.5</v>
       </c>
@@ -3117,7 +3215,7 @@
         <v>-26.617999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:88" s="5" customFormat="1">
+    <row r="13" spans="1:90" s="5" customFormat="1">
       <c r="B13" s="5">
         <v>1951.75</v>
       </c>
@@ -3215,7 +3313,7 @@
         <v>-26.686</v>
       </c>
     </row>
-    <row r="14" spans="1:88" s="5" customFormat="1">
+    <row r="14" spans="1:90" s="5" customFormat="1">
       <c r="B14" s="5">
         <v>1952</v>
       </c>
@@ -3316,7 +3414,7 @@
         <v>156522.33333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:88" s="5" customFormat="1">
+    <row r="15" spans="1:90" s="5" customFormat="1">
       <c r="B15" s="5">
         <v>1952.25</v>
       </c>
@@ -3417,7 +3515,7 @@
         <v>157142</v>
       </c>
     </row>
-    <row r="16" spans="1:88" s="5" customFormat="1">
+    <row r="16" spans="1:90" s="5" customFormat="1">
       <c r="B16" s="5">
         <v>1952.5</v>
       </c>
@@ -3518,7 +3616,7 @@
         <v>157801.33333333334</v>
       </c>
     </row>
-    <row r="17" spans="2:78" s="5" customFormat="1">
+    <row r="17" spans="2:90" s="5" customFormat="1">
       <c r="B17" s="5">
         <v>1952.75</v>
       </c>
@@ -3619,7 +3717,7 @@
         <v>158504.66666666666</v>
       </c>
     </row>
-    <row r="18" spans="2:78" s="5" customFormat="1">
+    <row r="18" spans="2:90" s="5" customFormat="1">
       <c r="B18" s="5">
         <v>1953</v>
       </c>
@@ -3723,7 +3821,7 @@
         <v>159164</v>
       </c>
     </row>
-    <row r="19" spans="2:78" s="5" customFormat="1">
+    <row r="19" spans="2:90" s="5" customFormat="1">
       <c r="B19" s="5">
         <v>1953.25</v>
       </c>
@@ -3827,7 +3925,7 @@
         <v>159752.33333333334</v>
       </c>
     </row>
-    <row r="20" spans="2:78" s="5" customFormat="1">
+    <row r="20" spans="2:90" s="5" customFormat="1">
       <c r="B20" s="5">
         <v>1953.5</v>
       </c>
@@ -3931,7 +4029,7 @@
         <v>160450.33333333334</v>
       </c>
     </row>
-    <row r="21" spans="2:78" s="5" customFormat="1">
+    <row r="21" spans="2:90" s="5" customFormat="1">
       <c r="B21" s="5">
         <v>1953.75</v>
       </c>
@@ -4035,7 +4133,7 @@
         <v>161218</v>
       </c>
     </row>
-    <row r="22" spans="2:78" s="5" customFormat="1">
+    <row r="22" spans="2:90" s="5" customFormat="1">
       <c r="B22" s="5">
         <v>1954</v>
       </c>
@@ -4139,7 +4237,7 @@
         <v>161908.66666666666</v>
       </c>
     </row>
-    <row r="23" spans="2:78" s="5" customFormat="1">
+    <row r="23" spans="2:90" s="5" customFormat="1">
       <c r="B23" s="5">
         <v>1954.25</v>
       </c>
@@ -4242,8 +4340,9 @@
       <c r="BZ23" s="5">
         <v>162568</v>
       </c>
+      <c r="CL23" s="4"/>
     </row>
-    <row r="24" spans="2:78" s="5" customFormat="1">
+    <row r="24" spans="2:90" s="5" customFormat="1">
       <c r="B24" s="5">
         <v>1954.5</v>
       </c>
@@ -4349,8 +4448,9 @@
       <c r="BZ24" s="5">
         <v>163295.33333333334</v>
       </c>
+      <c r="CL24" s="4"/>
     </row>
-    <row r="25" spans="2:78" s="5" customFormat="1">
+    <row r="25" spans="2:90" s="5" customFormat="1">
       <c r="B25" s="5">
         <v>1954.75</v>
       </c>
@@ -4456,8 +4556,9 @@
       <c r="BZ25" s="5">
         <v>164101</v>
       </c>
+      <c r="CL25" s="4"/>
     </row>
-    <row r="26" spans="2:78" s="5" customFormat="1">
+    <row r="26" spans="2:90" s="5" customFormat="1">
       <c r="B26" s="5">
         <v>1955</v>
       </c>
@@ -4563,8 +4664,9 @@
       <c r="BZ26" s="5">
         <v>164805</v>
       </c>
+      <c r="CL26" s="4"/>
     </row>
-    <row r="27" spans="2:78" s="5" customFormat="1">
+    <row r="27" spans="2:90" s="5" customFormat="1">
       <c r="B27" s="5">
         <v>1955.25</v>
       </c>
@@ -4670,8 +4772,9 @@
       <c r="BZ27" s="5">
         <v>165469.66666666666</v>
       </c>
+      <c r="CL27" s="4"/>
     </row>
-    <row r="28" spans="2:78" s="5" customFormat="1">
+    <row r="28" spans="2:90" s="5" customFormat="1">
       <c r="B28" s="5">
         <v>1955.5</v>
       </c>
@@ -4777,8 +4880,9 @@
       <c r="BZ28" s="5">
         <v>166198.66666666666</v>
       </c>
+      <c r="CL28" s="4"/>
     </row>
-    <row r="29" spans="2:78" s="5" customFormat="1">
+    <row r="29" spans="2:90" s="5" customFormat="1">
       <c r="B29" s="5">
         <v>1955.75</v>
       </c>
@@ -4884,8 +4988,9 @@
       <c r="BZ29" s="5">
         <v>167016</v>
       </c>
+      <c r="CL29" s="4"/>
     </row>
-    <row r="30" spans="2:78" s="5" customFormat="1">
+    <row r="30" spans="2:90" s="5" customFormat="1">
       <c r="B30" s="5">
         <v>1956</v>
       </c>
@@ -4997,8 +5102,9 @@
       <c r="BZ30" s="5">
         <v>167745.33333333334</v>
       </c>
+      <c r="CL30" s="4"/>
     </row>
-    <row r="31" spans="2:78" s="5" customFormat="1">
+    <row r="31" spans="2:90" s="5" customFormat="1">
       <c r="B31" s="5">
         <v>1956.25</v>
       </c>
@@ -5110,8 +5216,9 @@
       <c r="BZ31" s="5">
         <v>168438.66666666666</v>
       </c>
+      <c r="CL31" s="4"/>
     </row>
-    <row r="32" spans="2:78" s="5" customFormat="1">
+    <row r="32" spans="2:90" s="5" customFormat="1">
       <c r="B32" s="5">
         <v>1956.5</v>
       </c>
@@ -5223,8 +5330,9 @@
       <c r="BZ32" s="5">
         <v>169194</v>
       </c>
+      <c r="CL32" s="4"/>
     </row>
-    <row r="33" spans="2:88" s="5" customFormat="1">
+    <row r="33" spans="2:90" s="5" customFormat="1">
       <c r="B33" s="5">
         <v>1956.75</v>
       </c>
@@ -5336,8 +5444,9 @@
       <c r="BZ33" s="5">
         <v>170052.66666666666</v>
       </c>
+      <c r="CL33" s="4"/>
     </row>
-    <row r="34" spans="2:88" s="5" customFormat="1">
+    <row r="34" spans="2:90" s="5" customFormat="1">
       <c r="B34" s="5">
         <v>1957</v>
       </c>
@@ -5450,7 +5559,7 @@
         <v>170802</v>
       </c>
     </row>
-    <row r="35" spans="2:88" s="5" customFormat="1">
+    <row r="35" spans="2:90" s="5" customFormat="1">
       <c r="B35" s="5">
         <v>1957.25</v>
       </c>
@@ -5563,7 +5672,7 @@
         <v>171504.33333333334</v>
       </c>
     </row>
-    <row r="36" spans="2:88" s="5" customFormat="1">
+    <row r="36" spans="2:90" s="5" customFormat="1">
       <c r="B36" s="5">
         <v>1957.5</v>
       </c>
@@ -5676,7 +5785,7 @@
         <v>172259.66666666666</v>
       </c>
     </row>
-    <row r="37" spans="2:88" s="5" customFormat="1">
+    <row r="37" spans="2:90" s="5" customFormat="1">
       <c r="B37" s="5">
         <v>1957.75</v>
       </c>
@@ -5789,7 +5898,7 @@
         <v>173061.33333333334</v>
       </c>
     </row>
-    <row r="38" spans="2:88" s="5" customFormat="1">
+    <row r="38" spans="2:90" s="5" customFormat="1">
       <c r="B38" s="5">
         <v>1958</v>
       </c>
@@ -5902,7 +6011,7 @@
         <v>173741.33333333334</v>
       </c>
     </row>
-    <row r="39" spans="2:88" s="5" customFormat="1">
+    <row r="39" spans="2:90" s="5" customFormat="1">
       <c r="B39" s="5">
         <v>1958.25</v>
       </c>
@@ -6015,7 +6124,7 @@
         <v>174404</v>
       </c>
     </row>
-    <row r="40" spans="2:88" s="5" customFormat="1">
+    <row r="40" spans="2:90" s="5" customFormat="1">
       <c r="B40" s="5">
         <v>1958.5</v>
       </c>
@@ -6128,7 +6237,7 @@
         <v>175146</v>
       </c>
     </row>
-    <row r="41" spans="2:88" s="5" customFormat="1">
+    <row r="41" spans="2:90" s="5" customFormat="1">
       <c r="B41" s="5">
         <v>1958.75</v>
       </c>
@@ -6241,7 +6350,7 @@
         <v>175956.66666666666</v>
       </c>
     </row>
-    <row r="42" spans="2:88" s="5" customFormat="1">
+    <row r="42" spans="2:90" s="5" customFormat="1">
       <c r="B42" s="5">
         <v>1959</v>
       </c>
@@ -6360,7 +6469,7 @@
         <v>176679</v>
       </c>
     </row>
-    <row r="43" spans="2:88" s="5" customFormat="1">
+    <row r="43" spans="2:90" s="5" customFormat="1">
       <c r="B43" s="5">
         <v>1959.25</v>
       </c>
@@ -6479,7 +6588,7 @@
         <v>177367.33333333334</v>
       </c>
     </row>
-    <row r="44" spans="2:88" s="5" customFormat="1">
+    <row r="44" spans="2:90" s="5" customFormat="1">
       <c r="B44" s="5">
         <v>1959.5</v>
       </c>
@@ -6598,7 +6707,7 @@
         <v>178102.33333333334</v>
       </c>
     </row>
-    <row r="45" spans="2:88" s="5" customFormat="1">
+    <row r="45" spans="2:90" s="5" customFormat="1">
       <c r="B45" s="5">
         <v>1959.75</v>
       </c>
@@ -6717,7 +6826,7 @@
         <v>178910.33333333334</v>
       </c>
     </row>
-    <row r="46" spans="2:88" s="5" customFormat="1">
+    <row r="46" spans="2:90" s="5" customFormat="1">
       <c r="B46" s="5">
         <v>1960</v>
       </c>
@@ -6867,8 +6976,14 @@
       <c r="CJ46" s="5">
         <v>7.8638197749387898E-4</v>
       </c>
+      <c r="CK46" s="5">
+        <v>7.7333333333333298</v>
+      </c>
+      <c r="CL46" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="47" spans="2:88" s="5" customFormat="1">
+    <row r="47" spans="2:90" s="5" customFormat="1">
       <c r="B47" s="5">
         <v>1960.25</v>
       </c>
@@ -7018,8 +7133,14 @@
       <c r="CJ47" s="5">
         <v>-3.6071713538996297E-2</v>
       </c>
+      <c r="CK47" s="5">
+        <v>-11.8</v>
+      </c>
+      <c r="CL47" s="5">
+        <v>93.3</v>
+      </c>
     </row>
-    <row r="48" spans="2:88" s="5" customFormat="1">
+    <row r="48" spans="2:90" s="5" customFormat="1">
       <c r="B48" s="5">
         <v>1960.5</v>
       </c>
@@ -7169,8 +7290,14 @@
       <c r="CJ48" s="5">
         <v>-7.9959583259723299E-3</v>
       </c>
+      <c r="CK48" s="5">
+        <v>-8.86666666666666</v>
+      </c>
+      <c r="CL48" s="5">
+        <v>97.2</v>
+      </c>
     </row>
-    <row r="49" spans="2:88" s="5" customFormat="1">
+    <row r="49" spans="2:90" s="5" customFormat="1">
       <c r="B49" s="5">
         <v>1960.75</v>
       </c>
@@ -7320,8 +7447,14 @@
       <c r="CJ49" s="5">
         <v>-1.7704313463465401E-2</v>
       </c>
+      <c r="CK49" s="5">
+        <v>-10.266666666666699</v>
+      </c>
+      <c r="CL49" s="5">
+        <v>90.1</v>
+      </c>
     </row>
-    <row r="50" spans="2:88" s="5" customFormat="1">
+    <row r="50" spans="2:90" s="5" customFormat="1">
       <c r="B50" s="5">
         <v>1961</v>
       </c>
@@ -7474,8 +7607,14 @@
       <c r="CJ50" s="5">
         <v>-9.9481713269569602E-3</v>
       </c>
+      <c r="CK50" s="5">
+        <v>-8.93333333333333</v>
+      </c>
+      <c r="CL50" s="5">
+        <v>91.6</v>
+      </c>
     </row>
-    <row r="51" spans="2:88" s="5" customFormat="1">
+    <row r="51" spans="2:90" s="5" customFormat="1">
       <c r="B51" s="5">
         <v>1961.25</v>
       </c>
@@ -7628,8 +7767,14 @@
       <c r="CJ51" s="5">
         <v>-5.98190082653066E-3</v>
       </c>
+      <c r="CK51" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="CL51" s="5">
+        <v>92.5</v>
+      </c>
     </row>
-    <row r="52" spans="2:88" s="5" customFormat="1">
+    <row r="52" spans="2:90" s="5" customFormat="1">
       <c r="B52" s="5">
         <v>1961.5</v>
       </c>
@@ -7782,8 +7927,14 @@
       <c r="CJ52" s="5">
         <v>3.3559755912520501E-3</v>
       </c>
+      <c r="CK52" s="5">
+        <v>21.266666666666701</v>
+      </c>
+      <c r="CL52" s="5">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="53" spans="2:88" s="5" customFormat="1">
+    <row r="53" spans="2:90" s="5" customFormat="1">
       <c r="B53" s="5">
         <v>1961.75</v>
       </c>
@@ -7936,8 +8087,14 @@
       <c r="CJ53" s="5">
         <v>-1.2412114789528601E-2</v>
       </c>
+      <c r="CK53" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="CL53" s="5">
+        <v>93</v>
+      </c>
     </row>
-    <row r="54" spans="2:88" s="5" customFormat="1">
+    <row r="54" spans="2:90" s="5" customFormat="1">
       <c r="B54" s="5">
         <v>1962</v>
       </c>
@@ -8090,8 +8247,14 @@
       <c r="CJ54" s="5">
         <v>8.5387391027952203E-3</v>
       </c>
+      <c r="CK54" s="5">
+        <v>21.733333333333299</v>
+      </c>
+      <c r="CL54" s="5">
+        <v>99.9</v>
+      </c>
     </row>
-    <row r="55" spans="2:88" s="5" customFormat="1">
+    <row r="55" spans="2:90" s="5" customFormat="1">
       <c r="B55" s="5">
         <v>1962.25</v>
       </c>
@@ -8244,8 +8407,14 @@
       <c r="CJ55" s="5">
         <v>-1.3735966321321001E-3</v>
       </c>
+      <c r="CK55" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="CL55" s="5">
+        <v>95.4</v>
+      </c>
     </row>
-    <row r="56" spans="2:88" s="5" customFormat="1">
+    <row r="56" spans="2:90" s="5" customFormat="1">
       <c r="B56" s="5">
         <v>1962.5</v>
       </c>
@@ -8398,8 +8567,14 @@
       <c r="CJ56" s="5">
         <v>-1.06963446697858E-2</v>
       </c>
+      <c r="CK56" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="CL56" s="5">
+        <v>91.6</v>
+      </c>
     </row>
-    <row r="57" spans="2:88" s="5" customFormat="1">
+    <row r="57" spans="2:90" s="5" customFormat="1">
       <c r="B57" s="5">
         <v>1962.75</v>
       </c>
@@ -8552,8 +8727,14 @@
       <c r="CJ57" s="5">
         <v>2.4205736713034899E-3</v>
       </c>
+      <c r="CK57" s="5">
+        <v>8.1333333333333293</v>
+      </c>
+      <c r="CL57" s="5">
+        <v>95</v>
+      </c>
     </row>
-    <row r="58" spans="2:88" s="5" customFormat="1">
+    <row r="58" spans="2:90" s="5" customFormat="1">
       <c r="B58" s="5">
         <v>1963</v>
       </c>
@@ -8706,8 +8887,14 @@
       <c r="CJ58" s="5">
         <v>-1.79358959855043E-2</v>
       </c>
+      <c r="CK58" s="5">
+        <v>10</v>
+      </c>
+      <c r="CL58" s="5">
+        <v>98.4</v>
+      </c>
     </row>
-    <row r="59" spans="2:88" s="5" customFormat="1">
+    <row r="59" spans="2:90" s="5" customFormat="1">
       <c r="B59" s="5">
         <v>1963.25</v>
       </c>
@@ -8860,8 +9047,14 @@
       <c r="CJ59" s="5">
         <v>-5.1817488316995997E-3</v>
       </c>
+      <c r="CK59" s="5">
+        <v>17.066666666666698</v>
+      </c>
+      <c r="CL59" s="5">
+        <v>91.7</v>
+      </c>
     </row>
-    <row r="60" spans="2:88" s="5" customFormat="1">
+    <row r="60" spans="2:90" s="5" customFormat="1">
       <c r="B60" s="5">
         <v>1963.5</v>
       </c>
@@ -9014,8 +9207,14 @@
       <c r="CJ60" s="5">
         <v>1.13912814349227E-2</v>
       </c>
+      <c r="CK60" s="5">
+        <v>11.6666666666667</v>
+      </c>
+      <c r="CL60" s="5">
+        <v>96.4</v>
+      </c>
     </row>
-    <row r="61" spans="2:88" s="5" customFormat="1">
+    <row r="61" spans="2:90" s="5" customFormat="1">
       <c r="B61" s="5">
         <v>1963.75</v>
       </c>
@@ -9168,8 +9367,14 @@
       <c r="CJ61" s="5">
         <v>2.9906963725886701E-3</v>
       </c>
+      <c r="CK61" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="CL61" s="5">
+        <v>94.4</v>
+      </c>
     </row>
-    <row r="62" spans="2:88" s="5" customFormat="1">
+    <row r="62" spans="2:90" s="5" customFormat="1">
       <c r="B62" s="5">
         <v>1964</v>
       </c>
@@ -9322,8 +9527,14 @@
       <c r="CJ62" s="5">
         <v>7.8780881380367297E-3</v>
       </c>
+      <c r="CK62" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="CL62" s="5">
+        <v>99.5</v>
+      </c>
     </row>
-    <row r="63" spans="2:88" s="5" customFormat="1">
+    <row r="63" spans="2:90" s="5" customFormat="1">
       <c r="B63" s="5">
         <v>1964.25</v>
       </c>
@@ -9476,8 +9687,14 @@
       <c r="CJ63" s="5">
         <v>-2.1175911641922E-3</v>
       </c>
+      <c r="CK63" s="5">
+        <v>18.6666666666667</v>
+      </c>
+      <c r="CL63" s="5">
+        <v>98.5</v>
+      </c>
     </row>
-    <row r="64" spans="2:88" s="5" customFormat="1">
+    <row r="64" spans="2:90" s="5" customFormat="1">
       <c r="B64" s="5">
         <v>1964.5</v>
       </c>
@@ -9630,8 +9847,14 @@
       <c r="CJ64" s="5">
         <v>5.2007396643525298E-3</v>
       </c>
+      <c r="CK64" s="5">
+        <v>26.3333333333333</v>
+      </c>
+      <c r="CL64" s="5">
+        <v>100.6</v>
+      </c>
     </row>
-    <row r="65" spans="2:88" s="5" customFormat="1">
+    <row r="65" spans="2:90" s="5" customFormat="1">
       <c r="B65" s="5">
         <v>1964.75</v>
       </c>
@@ -9784,8 +10007,14 @@
       <c r="CJ65" s="5">
         <v>-2.72822583929868E-2</v>
       </c>
+      <c r="CK65" s="5">
+        <v>23.266666666666701</v>
+      </c>
+      <c r="CL65" s="5">
+        <v>99.9</v>
+      </c>
     </row>
-    <row r="66" spans="2:88" s="5" customFormat="1">
+    <row r="66" spans="2:90" s="5" customFormat="1">
       <c r="B66" s="5">
         <v>1965</v>
       </c>
@@ -9938,8 +10167,14 @@
       <c r="CJ66" s="5">
         <v>6.43639232266917E-3</v>
       </c>
+      <c r="CK66" s="5">
+        <v>25.3333333333333</v>
+      </c>
+      <c r="CL66" s="5">
+        <v>102</v>
+      </c>
     </row>
-    <row r="67" spans="2:88" s="5" customFormat="1">
+    <row r="67" spans="2:90" s="5" customFormat="1">
       <c r="B67" s="5">
         <v>1965.25</v>
       </c>
@@ -10092,8 +10327,14 @@
       <c r="CJ67" s="14">
         <v>9.8121750592130894E-5</v>
       </c>
+      <c r="CK67" s="5">
+        <v>21.3333333333333</v>
+      </c>
+      <c r="CL67" s="5">
+        <v>105.4</v>
+      </c>
     </row>
-    <row r="68" spans="2:88" s="5" customFormat="1">
+    <row r="68" spans="2:90" s="5" customFormat="1">
       <c r="B68" s="5">
         <v>1965.5</v>
       </c>
@@ -10246,8 +10487,14 @@
       <c r="CJ68" s="5">
         <v>3.1387146898428801E-2</v>
       </c>
+      <c r="CK68" s="5">
+        <v>18.133333333333301</v>
+      </c>
+      <c r="CL68" s="5">
+        <v>103.4</v>
+      </c>
     </row>
-    <row r="69" spans="2:88" s="5" customFormat="1">
+    <row r="69" spans="2:90" s="5" customFormat="1">
       <c r="B69" s="5">
         <v>1965.75</v>
       </c>
@@ -10400,8 +10647,14 @@
       <c r="CJ69" s="5">
         <v>1.8626568343602198E-2</v>
       </c>
+      <c r="CK69" s="5">
+        <v>20.533333333333299</v>
+      </c>
+      <c r="CL69" s="5">
+        <v>102.9</v>
+      </c>
     </row>
-    <row r="70" spans="2:88" s="5" customFormat="1">
+    <row r="70" spans="2:90" s="5" customFormat="1">
       <c r="B70" s="5">
         <v>1966</v>
       </c>
@@ -10554,8 +10807,14 @@
       <c r="CJ70" s="5">
         <v>1.9711456206016598E-2</v>
       </c>
+      <c r="CK70" s="5">
+        <v>31.3333333333333</v>
+      </c>
+      <c r="CL70" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="71" spans="2:88" s="5" customFormat="1">
+    <row r="71" spans="2:90" s="5" customFormat="1">
       <c r="B71" s="5">
         <v>1966.25</v>
       </c>
@@ -10711,8 +10970,14 @@
       <c r="CJ71" s="5">
         <v>-6.2435263480286702E-3</v>
       </c>
+      <c r="CK71" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="CL71" s="5">
+        <v>95.7</v>
+      </c>
     </row>
-    <row r="72" spans="2:88" s="5" customFormat="1">
+    <row r="72" spans="2:90" s="5" customFormat="1">
       <c r="B72" s="5">
         <v>1966.5</v>
       </c>
@@ -10868,8 +11133,14 @@
       <c r="CJ72" s="5">
         <v>2.0016180917610798E-3</v>
       </c>
+      <c r="CK72" s="5">
+        <v>18.3333333333333</v>
+      </c>
+      <c r="CL72" s="5">
+        <v>91.2</v>
+      </c>
     </row>
-    <row r="73" spans="2:88" s="5" customFormat="1">
+    <row r="73" spans="2:90" s="5" customFormat="1">
       <c r="B73" s="5">
         <v>1966.75</v>
       </c>
@@ -11025,8 +11296,14 @@
       <c r="CJ73" s="5">
         <v>6.0446484271542804E-3</v>
       </c>
+      <c r="CK73" s="5">
+        <v>8.8666666666666707</v>
+      </c>
+      <c r="CL73" s="5">
+        <v>88.3</v>
+      </c>
     </row>
-    <row r="74" spans="2:88" s="5" customFormat="1">
+    <row r="74" spans="2:90" s="5" customFormat="1">
       <c r="B74" s="5">
         <v>1967</v>
       </c>
@@ -11186,8 +11463,14 @@
       <c r="CJ74" s="5">
         <v>2.8983439275141399E-2</v>
       </c>
+      <c r="CK74" s="5">
+        <v>-5.3333333333333304</v>
+      </c>
+      <c r="CL74" s="5">
+        <v>94.1</v>
+      </c>
     </row>
-    <row r="75" spans="2:88" s="5" customFormat="1">
+    <row r="75" spans="2:90" s="5" customFormat="1">
       <c r="B75" s="5">
         <v>1967.25</v>
       </c>
@@ -11347,8 +11630,14 @@
       <c r="CJ75" s="5">
         <v>-1.00378523797748E-2</v>
       </c>
+      <c r="CK75" s="5">
+        <v>-10.6</v>
+      </c>
+      <c r="CL75" s="5">
+        <v>95.9</v>
+      </c>
     </row>
-    <row r="76" spans="2:88" s="5" customFormat="1">
+    <row r="76" spans="2:90" s="5" customFormat="1">
       <c r="B76" s="5">
         <v>1967.5</v>
       </c>
@@ -11511,8 +11800,14 @@
       <c r="CJ76" s="5">
         <v>1.8683298396634501E-3</v>
       </c>
+      <c r="CK76" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="CL76" s="5">
+        <v>97</v>
+      </c>
     </row>
-    <row r="77" spans="2:88" s="5" customFormat="1">
+    <row r="77" spans="2:90" s="5" customFormat="1">
       <c r="B77" s="5">
         <v>1967.75</v>
       </c>
@@ -11675,8 +11970,14 @@
       <c r="CJ77" s="5">
         <v>-1.6396904118731501E-2</v>
       </c>
+      <c r="CK77" s="5">
+        <v>9.2666666666666693</v>
+      </c>
+      <c r="CL77" s="5">
+        <v>92.9</v>
+      </c>
     </row>
-    <row r="78" spans="2:88" s="5" customFormat="1">
+    <row r="78" spans="2:90" s="5" customFormat="1">
       <c r="B78" s="5">
         <v>1968</v>
       </c>
@@ -11839,8 +12140,14 @@
       <c r="CJ78" s="5">
         <v>3.1113101665193502E-2</v>
       </c>
+      <c r="CK78" s="5">
+        <v>10.266666666666699</v>
+      </c>
+      <c r="CL78" s="5">
+        <v>97.2</v>
+      </c>
     </row>
-    <row r="79" spans="2:88" s="5" customFormat="1">
+    <row r="79" spans="2:90" s="5" customFormat="1">
       <c r="B79" s="5">
         <v>1968.25</v>
       </c>
@@ -12003,8 +12310,14 @@
       <c r="CJ79" s="5">
         <v>1.57428156922799E-2</v>
       </c>
+      <c r="CK79" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="CL79" s="5">
+        <v>92.4</v>
+      </c>
     </row>
-    <row r="80" spans="2:88" s="5" customFormat="1">
+    <row r="80" spans="2:90" s="5" customFormat="1">
       <c r="B80" s="5">
         <v>1968.5</v>
       </c>
@@ -12167,8 +12480,14 @@
       <c r="CJ80" s="5">
         <v>-3.6361841455941702E-3</v>
       </c>
+      <c r="CK80" s="5">
+        <v>5.7333333333333298</v>
+      </c>
+      <c r="CL80" s="5">
+        <v>92.4</v>
+      </c>
     </row>
-    <row r="81" spans="2:88" s="5" customFormat="1">
+    <row r="81" spans="2:90" s="5" customFormat="1">
       <c r="B81" s="5">
         <v>1968.75</v>
       </c>
@@ -12387,8 +12706,14 @@
       <c r="CJ81" s="5">
         <v>2.5938710953296198E-3</v>
       </c>
+      <c r="CK81" s="5">
+        <v>13.3333333333333</v>
+      </c>
+      <c r="CL81" s="5">
+        <v>91.7</v>
+      </c>
     </row>
-    <row r="82" spans="2:88" s="5" customFormat="1">
+    <row r="82" spans="2:90" s="5" customFormat="1">
       <c r="B82" s="5">
         <v>1969</v>
       </c>
@@ -12611,8 +12936,14 @@
       <c r="CJ82" s="5">
         <v>-1.29453921026654E-2</v>
       </c>
+      <c r="CK82" s="5">
+        <v>12.6666666666667</v>
+      </c>
+      <c r="CL82" s="5">
+        <v>98.2</v>
+      </c>
     </row>
-    <row r="83" spans="2:88" s="5" customFormat="1">
+    <row r="83" spans="2:90" s="5" customFormat="1">
       <c r="B83" s="5">
         <v>1969.25</v>
       </c>
@@ -12835,8 +13166,14 @@
       <c r="CJ83" s="5">
         <v>-3.5813990293846899E-3</v>
       </c>
+      <c r="CK83" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="CL83" s="5">
+        <v>91.5</v>
+      </c>
     </row>
-    <row r="84" spans="2:88" s="5" customFormat="1">
+    <row r="84" spans="2:90" s="5" customFormat="1">
       <c r="B84" s="5">
         <v>1969.5</v>
       </c>
@@ -13059,8 +13396,14 @@
       <c r="CJ84" s="5">
         <v>1.3459612687061499E-3</v>
       </c>
+      <c r="CK84" s="5">
+        <v>8</v>
+      </c>
+      <c r="CL84" s="5">
+        <v>86.4</v>
+      </c>
     </row>
-    <row r="85" spans="2:88" s="5" customFormat="1">
+    <row r="85" spans="2:90" s="5" customFormat="1">
       <c r="B85" s="5">
         <v>1969.75</v>
       </c>
@@ -13282,8 +13625,14 @@
       <c r="CJ85" s="5">
         <v>-9.7952743462173496E-3</v>
       </c>
+      <c r="CK85" s="5">
+        <v>6.5333333333333297</v>
+      </c>
+      <c r="CL85" s="5">
+        <v>79.7</v>
+      </c>
     </row>
-    <row r="86" spans="2:88" s="5" customFormat="1">
+    <row r="86" spans="2:90" s="5" customFormat="1">
       <c r="B86" s="5">
         <v>1970</v>
       </c>
@@ -13507,8 +13856,14 @@
       <c r="CJ86" s="5">
         <v>-7.9234874482972794E-3</v>
       </c>
+      <c r="CK86" s="5">
+        <v>-4.6666666666666696</v>
+      </c>
+      <c r="CL86" s="5">
+        <v>78.099999999999994</v>
+      </c>
     </row>
-    <row r="87" spans="2:88" s="5" customFormat="1">
+    <row r="87" spans="2:90" s="5" customFormat="1">
       <c r="B87" s="5">
         <v>1970.25</v>
       </c>
@@ -13730,8 +14085,14 @@
       <c r="CJ87" s="5">
         <v>6.7811858923314903E-3</v>
       </c>
+      <c r="CK87" s="5">
+        <v>-4.4666666666666703</v>
+      </c>
+      <c r="CL87" s="5">
+        <v>75.400000000000006</v>
+      </c>
     </row>
-    <row r="88" spans="2:88" s="5" customFormat="1">
+    <row r="88" spans="2:90" s="5" customFormat="1">
       <c r="B88" s="5">
         <v>1970.5</v>
       </c>
@@ -13953,8 +14314,14 @@
       <c r="CJ88" s="5">
         <v>2.4595647576654101E-2</v>
       </c>
+      <c r="CK88" s="5">
+        <v>-6.06666666666667</v>
+      </c>
+      <c r="CL88" s="5">
+        <v>77.599999999999994</v>
+      </c>
     </row>
-    <row r="89" spans="2:88" s="5" customFormat="1">
+    <row r="89" spans="2:90" s="5" customFormat="1">
       <c r="B89" s="5">
         <v>1970.75</v>
       </c>
@@ -14176,8 +14543,14 @@
       <c r="CJ89" s="5">
         <v>-2.8253454283296599E-2</v>
       </c>
+      <c r="CK89" s="5">
+        <v>-15</v>
+      </c>
+      <c r="CL89" s="5">
+        <v>72.400000000000006</v>
+      </c>
     </row>
-    <row r="90" spans="2:88" s="5" customFormat="1">
+    <row r="90" spans="2:90" s="5" customFormat="1">
       <c r="B90" s="5">
         <v>1971</v>
       </c>
@@ -14399,8 +14772,14 @@
       <c r="CJ90" s="5">
         <v>4.37380951812332E-2</v>
       </c>
+      <c r="CK90" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="CL90" s="5">
+        <v>78.099999999999994</v>
+      </c>
     </row>
-    <row r="91" spans="2:88" s="5" customFormat="1">
+    <row r="91" spans="2:90" s="5" customFormat="1">
       <c r="B91" s="5">
         <v>1971.25</v>
       </c>
@@ -14622,8 +15001,14 @@
       <c r="CJ91" s="5">
         <v>1.0777853295959801E-2</v>
       </c>
+      <c r="CK91" s="5">
+        <v>8.3333333333333393</v>
+      </c>
+      <c r="CL91" s="5">
+        <v>80.2</v>
+      </c>
     </row>
-    <row r="92" spans="2:88" s="5" customFormat="1">
+    <row r="92" spans="2:90" s="5" customFormat="1">
       <c r="B92" s="5">
         <v>1971.5</v>
       </c>
@@ -14845,8 +15230,14 @@
       <c r="CJ92" s="5">
         <v>-8.1895526156409593E-3</v>
       </c>
+      <c r="CK92" s="5">
+        <v>8.7333333333333307</v>
+      </c>
+      <c r="CL92" s="5">
+        <v>82.1</v>
+      </c>
     </row>
-    <row r="93" spans="2:88" s="5" customFormat="1">
+    <row r="93" spans="2:90" s="5" customFormat="1">
       <c r="B93" s="5">
         <v>1971.75</v>
       </c>
@@ -15068,8 +15459,14 @@
       <c r="CJ93" s="5">
         <v>-2.1672918217825798E-2</v>
       </c>
+      <c r="CK93" s="5">
+        <v>9.93333333333333</v>
+      </c>
+      <c r="CL93" s="5">
+        <v>82</v>
+      </c>
     </row>
-    <row r="94" spans="2:88" s="5" customFormat="1">
+    <row r="94" spans="2:90" s="5" customFormat="1">
       <c r="B94" s="5">
         <v>1972</v>
       </c>
@@ -15291,8 +15688,14 @@
       <c r="CJ94" s="5">
         <v>1.15188195651216E-2</v>
       </c>
+      <c r="CK94" s="5">
+        <v>20</v>
+      </c>
+      <c r="CL94" s="5">
+        <v>92.8</v>
+      </c>
     </row>
-    <row r="95" spans="2:88" s="5" customFormat="1">
+    <row r="95" spans="2:90" s="5" customFormat="1">
       <c r="B95" s="5">
         <v>1972.25</v>
       </c>
@@ -15514,8 +15917,14 @@
       <c r="CJ95" s="5">
         <v>1.9823175681064401E-2</v>
       </c>
+      <c r="CK95" s="5">
+        <v>19.533333333333299</v>
+      </c>
+      <c r="CL95" s="5">
+        <v>88.6</v>
+      </c>
     </row>
-    <row r="96" spans="2:88" s="5" customFormat="1">
+    <row r="96" spans="2:90" s="5" customFormat="1">
       <c r="B96" s="5">
         <v>1972.5</v>
       </c>
@@ -15737,8 +16146,14 @@
       <c r="CJ96" s="5">
         <v>-8.1720271197613099E-4</v>
       </c>
+      <c r="CK96" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="CL96" s="5">
+        <v>95.2</v>
+      </c>
     </row>
-    <row r="97" spans="2:88" s="5" customFormat="1">
+    <row r="97" spans="2:90" s="5" customFormat="1">
       <c r="B97" s="5">
         <v>1972.75</v>
       </c>
@@ -15960,8 +16375,14 @@
       <c r="CJ97" s="5">
         <v>3.2907362123183098E-2</v>
       </c>
+      <c r="CK97" s="5">
+        <v>38.266666666666701</v>
+      </c>
+      <c r="CL97" s="5">
+        <v>90.7</v>
+      </c>
     </row>
-    <row r="98" spans="2:88" s="5" customFormat="1">
+    <row r="98" spans="2:90" s="5" customFormat="1">
       <c r="B98" s="5">
         <v>1973</v>
       </c>
@@ -16186,8 +16607,14 @@
       <c r="CJ98" s="5">
         <v>2.4625794911433099E-2</v>
       </c>
+      <c r="CK98" s="5">
+        <v>40.866666666666703</v>
+      </c>
+      <c r="CL98" s="5">
+        <v>81.900000000000006</v>
+      </c>
     </row>
-    <row r="99" spans="2:88" s="5" customFormat="1">
+    <row r="99" spans="2:90" s="5" customFormat="1">
       <c r="B99" s="5">
         <v>1973.25</v>
       </c>
@@ -16412,8 +16839,14 @@
       <c r="CJ99" s="5">
         <v>1.8131958757523398E-2</v>
       </c>
+      <c r="CK99" s="5">
+        <v>31.6666666666667</v>
+      </c>
+      <c r="CL99" s="5">
+        <v>77</v>
+      </c>
     </row>
-    <row r="100" spans="2:88" s="5" customFormat="1">
+    <row r="100" spans="2:90" s="5" customFormat="1">
       <c r="B100" s="5">
         <v>1973.5</v>
       </c>
@@ -16638,8 +17071,14 @@
       <c r="CJ100" s="5">
         <v>-1.4233891781791999E-2</v>
       </c>
+      <c r="CK100" s="5">
+        <v>22.6666666666667</v>
+      </c>
+      <c r="CL100" s="5">
+        <v>72</v>
+      </c>
     </row>
-    <row r="101" spans="2:88" s="5" customFormat="1">
+    <row r="101" spans="2:90" s="5" customFormat="1">
       <c r="B101" s="5">
         <v>1973.75</v>
       </c>
@@ -16864,8 +17303,14 @@
       <c r="CJ101" s="5">
         <v>9.5798763049893005E-3</v>
       </c>
+      <c r="CK101" s="5">
+        <v>31.933333333333302</v>
+      </c>
+      <c r="CL101" s="5">
+        <v>76.5</v>
+      </c>
     </row>
-    <row r="102" spans="2:88" s="5" customFormat="1">
+    <row r="102" spans="2:90" s="5" customFormat="1">
       <c r="B102" s="5">
         <v>1974</v>
       </c>
@@ -17090,8 +17535,14 @@
       <c r="CJ102" s="5">
         <v>-6.0257762836848905E-4</v>
       </c>
+      <c r="CK102" s="5">
+        <v>21.6666666666667</v>
+      </c>
+      <c r="CL102" s="5">
+        <v>61.8</v>
+      </c>
     </row>
-    <row r="103" spans="2:88" s="5" customFormat="1">
+    <row r="103" spans="2:90" s="5" customFormat="1">
       <c r="B103" s="5">
         <v>1974.25</v>
       </c>
@@ -17316,8 +17767,14 @@
       <c r="CJ103" s="5">
         <v>-5.7993778054585905E-4</v>
       </c>
+      <c r="CK103" s="5">
+        <v>13.533333333333299</v>
+      </c>
+      <c r="CL103" s="5">
+        <v>72.099999999999994</v>
+      </c>
     </row>
-    <row r="104" spans="2:88" s="5" customFormat="1">
+    <row r="104" spans="2:90" s="5" customFormat="1">
       <c r="B104" s="5">
         <v>1974.5</v>
       </c>
@@ -17544,8 +18001,14 @@
       <c r="CJ104" s="5">
         <v>-3.6289752336907898E-3</v>
       </c>
+      <c r="CK104" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="CL104" s="5">
+        <v>64.400000000000006</v>
+      </c>
     </row>
-    <row r="105" spans="2:88" s="5" customFormat="1">
+    <row r="105" spans="2:90" s="5" customFormat="1">
       <c r="B105" s="5">
         <v>1974.75</v>
       </c>
@@ -17770,8 +18233,14 @@
       <c r="CJ105" s="5">
         <v>4.7282335271450503E-2</v>
       </c>
+      <c r="CK105" s="5">
+        <v>-25.6666666666667</v>
+      </c>
+      <c r="CL105" s="5">
+        <v>59.5</v>
+      </c>
     </row>
-    <row r="106" spans="2:88" s="5" customFormat="1">
+    <row r="106" spans="2:90" s="5" customFormat="1">
       <c r="B106" s="5">
         <v>1975</v>
       </c>
@@ -17996,8 +18465,14 @@
       <c r="CJ106" s="5">
         <v>2.2531887259838498E-2</v>
       </c>
+      <c r="CK106" s="5">
+        <v>-35.533333333333303</v>
+      </c>
+      <c r="CL106" s="5">
+        <v>57.6</v>
+      </c>
     </row>
-    <row r="107" spans="2:88" s="5" customFormat="1">
+    <row r="107" spans="2:90" s="5" customFormat="1">
       <c r="B107" s="5">
         <v>1975.25</v>
       </c>
@@ -18222,8 +18697,14 @@
       <c r="CJ107" s="5">
         <v>2.9909429797396501E-2</v>
       </c>
+      <c r="CK107" s="5">
+        <v>-17.466666666666701</v>
+      </c>
+      <c r="CL107" s="5">
+        <v>72.8</v>
+      </c>
     </row>
-    <row r="108" spans="2:88" s="5" customFormat="1">
+    <row r="108" spans="2:90" s="5" customFormat="1">
       <c r="B108" s="5">
         <v>1975.5</v>
       </c>
@@ -18448,8 +18929,14 @@
       <c r="CJ108" s="5">
         <v>-3.6090548093797199E-2</v>
       </c>
+      <c r="CK108" s="5">
+        <v>2</v>
+      </c>
+      <c r="CL108" s="5">
+        <v>75.7</v>
+      </c>
     </row>
-    <row r="109" spans="2:88" s="5" customFormat="1">
+    <row r="109" spans="2:90" s="5" customFormat="1">
       <c r="B109" s="5">
         <v>1975.75</v>
       </c>
@@ -18674,8 +19161,14 @@
       <c r="CJ109" s="5">
         <v>-1.9788649487133898E-3</v>
       </c>
+      <c r="CK109" s="5">
+        <v>9.93333333333333</v>
+      </c>
+      <c r="CL109" s="5">
+        <v>75.599999999999994</v>
+      </c>
     </row>
-    <row r="110" spans="2:88" s="5" customFormat="1">
+    <row r="110" spans="2:90" s="5" customFormat="1">
       <c r="B110" s="5">
         <v>1976</v>
       </c>
@@ -18900,8 +19393,14 @@
       <c r="CJ110" s="5">
         <v>1.9518752694796899E-3</v>
       </c>
+      <c r="CK110" s="5">
+        <v>19.133333333333301</v>
+      </c>
+      <c r="CL110" s="5">
+        <v>84.6</v>
+      </c>
     </row>
-    <row r="111" spans="2:88" s="5" customFormat="1">
+    <row r="111" spans="2:90" s="5" customFormat="1">
       <c r="B111" s="5">
         <v>1976.25</v>
       </c>
@@ -19126,8 +19625,14 @@
       <c r="CJ111" s="5">
         <v>-6.3756800711962198E-3</v>
       </c>
+      <c r="CK111" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="CL111" s="5">
+        <v>83.3</v>
+      </c>
     </row>
-    <row r="112" spans="2:88" s="5" customFormat="1">
+    <row r="112" spans="2:90" s="5" customFormat="1">
       <c r="B112" s="5">
         <v>1976.5</v>
       </c>
@@ -19352,8 +19857,14 @@
       <c r="CJ112" s="5">
         <v>-1.81158524796558E-3</v>
       </c>
+      <c r="CK112" s="5">
+        <v>9.3333333333333393</v>
+      </c>
+      <c r="CL112" s="5">
+        <v>89.7</v>
+      </c>
     </row>
-    <row r="113" spans="2:88" s="5" customFormat="1">
+    <row r="113" spans="2:90" s="5" customFormat="1">
       <c r="B113" s="5">
         <v>1976.75</v>
       </c>
@@ -19578,8 +20089,14 @@
       <c r="CJ113" s="5">
         <v>-4.5985727080735802E-3</v>
       </c>
+      <c r="CK113" s="5">
+        <v>7.8666666666666698</v>
+      </c>
+      <c r="CL113" s="5">
+        <v>87</v>
+      </c>
     </row>
-    <row r="114" spans="2:88" s="5" customFormat="1">
+    <row r="114" spans="2:90" s="5" customFormat="1">
       <c r="B114" s="5">
         <v>1977</v>
       </c>
@@ -19804,8 +20321,14 @@
       <c r="CJ114" s="5">
         <v>8.2945134922311899E-4</v>
       </c>
+      <c r="CK114" s="5">
+        <v>12.133333333333301</v>
+      </c>
+      <c r="CL114" s="5">
+        <v>87.1</v>
+      </c>
     </row>
-    <row r="115" spans="2:88" s="5" customFormat="1">
+    <row r="115" spans="2:90" s="5" customFormat="1">
       <c r="B115" s="5">
         <v>1977.25</v>
       </c>
@@ -20030,8 +20553,14 @@
       <c r="CJ115" s="5">
         <v>1.6821080539751902E-2</v>
       </c>
+      <c r="CK115" s="5">
+        <v>15.6</v>
+      </c>
+      <c r="CL115" s="5">
+        <v>90.2</v>
+      </c>
     </row>
-    <row r="116" spans="2:88" s="5" customFormat="1">
+    <row r="116" spans="2:90" s="5" customFormat="1">
       <c r="B116" s="5">
         <v>1977.5</v>
       </c>
@@ -20256,8 +20785,14 @@
       <c r="CJ116" s="5">
         <v>2.7201678158590498E-2</v>
       </c>
+      <c r="CK116" s="5">
+        <v>11</v>
+      </c>
+      <c r="CL116" s="5">
+        <v>89</v>
+      </c>
     </row>
-    <row r="117" spans="2:88" s="5" customFormat="1">
+    <row r="117" spans="2:90" s="5" customFormat="1">
       <c r="B117" s="5">
         <v>1977.75</v>
       </c>
@@ -20482,8 +21017,14 @@
       <c r="CJ117" s="5">
         <v>-7.52802378952761E-3</v>
       </c>
+      <c r="CK117" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="CL117" s="5">
+        <v>84.4</v>
+      </c>
     </row>
-    <row r="118" spans="2:88" s="5" customFormat="1">
+    <row r="118" spans="2:90" s="5" customFormat="1">
       <c r="B118" s="5">
         <v>1978</v>
       </c>
@@ -20708,8 +21249,14 @@
       <c r="CJ118" s="5">
         <v>8.5885759992089597E-3</v>
       </c>
+      <c r="CK118" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="CL118" s="5">
+        <v>82.6</v>
+      </c>
     </row>
-    <row r="119" spans="2:88" s="5" customFormat="1">
+    <row r="119" spans="2:90" s="5" customFormat="1">
       <c r="B119" s="5">
         <v>1978.25</v>
       </c>
@@ -20937,8 +21484,14 @@
       <c r="CJ119" s="5">
         <v>3.5340999926325299E-2</v>
       </c>
+      <c r="CK119" s="5">
+        <v>18.933333333333302</v>
+      </c>
+      <c r="CL119" s="5">
+        <v>81.8</v>
+      </c>
     </row>
-    <row r="120" spans="2:88" s="5" customFormat="1">
+    <row r="120" spans="2:90" s="5" customFormat="1">
       <c r="B120" s="5">
         <v>1978.5</v>
       </c>
@@ -21166,8 +21719,14 @@
       <c r="CJ120" s="5">
         <v>1.50415230455264E-2</v>
       </c>
+      <c r="CK120" s="5">
+        <v>22</v>
+      </c>
+      <c r="CL120" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="121" spans="2:88" s="5" customFormat="1">
+    <row r="121" spans="2:90" s="5" customFormat="1">
       <c r="B121" s="5">
         <v>1978.75</v>
       </c>
@@ -21395,8 +21954,14 @@
       <c r="CJ121" s="5">
         <v>1.2238576233187101E-2</v>
       </c>
+      <c r="CK121" s="5">
+        <v>20.533333333333299</v>
+      </c>
+      <c r="CL121" s="5">
+        <v>73.8</v>
+      </c>
     </row>
-    <row r="122" spans="2:88" s="5" customFormat="1">
+    <row r="122" spans="2:90" s="5" customFormat="1">
       <c r="B122" s="5">
         <v>1979</v>
       </c>
@@ -21624,8 +22189,14 @@
       <c r="CJ122" s="5">
         <v>2.49356852063406E-3</v>
       </c>
+      <c r="CK122" s="5">
+        <v>16.266666666666701</v>
+      </c>
+      <c r="CL122" s="5">
+        <v>71.900000000000006</v>
+      </c>
     </row>
-    <row r="123" spans="2:88" s="5" customFormat="1">
+    <row r="123" spans="2:90" s="5" customFormat="1">
       <c r="B123" s="5">
         <v>1979.25</v>
       </c>
@@ -21853,8 +22424,14 @@
       <c r="CJ123" s="5">
         <v>1.6408142304312302E-2</v>
       </c>
+      <c r="CK123" s="5">
+        <v>8.8666666666666707</v>
+      </c>
+      <c r="CL123" s="5">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="124" spans="2:88" s="5" customFormat="1">
+    <row r="124" spans="2:90" s="5" customFormat="1">
       <c r="B124" s="5">
         <v>1979.5</v>
       </c>
@@ -22082,8 +22659,14 @@
       <c r="CJ124" s="5">
         <v>1.5135395401414601E-2</v>
       </c>
+      <c r="CK124" s="5">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="CL124" s="5">
+        <v>63.7</v>
+      </c>
     </row>
-    <row r="125" spans="2:88" s="5" customFormat="1">
+    <row r="125" spans="2:90" s="5" customFormat="1">
       <c r="B125" s="5">
         <v>1979.75</v>
       </c>
@@ -22311,8 +22894,14 @@
       <c r="CJ125" s="5">
         <v>-1.77335731795797E-3</v>
       </c>
+      <c r="CK125" s="5">
+        <v>-5.4666666666666703</v>
+      </c>
+      <c r="CL125" s="5">
+        <v>62.3</v>
+      </c>
     </row>
-    <row r="126" spans="2:88" s="5" customFormat="1">
+    <row r="126" spans="2:90" s="5" customFormat="1">
       <c r="B126" s="5">
         <v>1980</v>
       </c>
@@ -22540,8 +23129,14 @@
       <c r="CJ126" s="5">
         <v>7.5180462808402604E-3</v>
       </c>
+      <c r="CK126" s="5">
+        <v>-6.6666666666666696</v>
+      </c>
+      <c r="CL126" s="5">
+        <v>63.9</v>
+      </c>
     </row>
-    <row r="127" spans="2:88" s="5" customFormat="1">
+    <row r="127" spans="2:90" s="5" customFormat="1">
       <c r="B127" s="5">
         <v>1980.25</v>
       </c>
@@ -22769,8 +23364,14 @@
       <c r="CJ127" s="5">
         <v>-5.9538889677259498E-3</v>
       </c>
+      <c r="CK127" s="5">
+        <v>-35.266666666666701</v>
+      </c>
+      <c r="CL127" s="5">
+        <v>54.4</v>
+      </c>
     </row>
-    <row r="128" spans="2:88" s="5" customFormat="1">
+    <row r="128" spans="2:90" s="5" customFormat="1">
       <c r="B128" s="5">
         <v>1980.5</v>
       </c>
@@ -22998,8 +23599,14 @@
       <c r="CJ128" s="5">
         <v>2.30220674676514E-3</v>
       </c>
+      <c r="CK128" s="5">
+        <v>-12.9333333333333</v>
+      </c>
+      <c r="CL128" s="5">
+        <v>67.8</v>
+      </c>
     </row>
-    <row r="129" spans="2:88" s="5" customFormat="1">
+    <row r="129" spans="2:90" s="5" customFormat="1">
       <c r="B129" s="5">
         <v>1980.75</v>
       </c>
@@ -23227,8 +23834,14 @@
       <c r="CJ129" s="5">
         <v>1.2135402400851199E-2</v>
       </c>
+      <c r="CK129" s="5">
+        <v>11.133333333333301</v>
+      </c>
+      <c r="CL129" s="5">
+        <v>72</v>
+      </c>
     </row>
-    <row r="130" spans="2:88" s="5" customFormat="1">
+    <row r="130" spans="2:90" s="5" customFormat="1">
       <c r="B130" s="5">
         <v>1981</v>
       </c>
@@ -23456,8 +24069,14 @@
       <c r="CJ130" s="5">
         <v>7.81521448152123E-3</v>
       </c>
+      <c r="CK130" s="5">
+        <v>-1.6</v>
+      </c>
+      <c r="CL130" s="5">
+        <v>68.3</v>
+      </c>
     </row>
-    <row r="131" spans="2:88" s="5" customFormat="1">
+    <row r="131" spans="2:90" s="5" customFormat="1">
       <c r="B131" s="5">
         <v>1981.25</v>
       </c>
@@ -23685,8 +24304,14 @@
       <c r="CJ131" s="5">
         <v>-2.6719124530656099E-2</v>
       </c>
+      <c r="CK131" s="5">
+        <v>3.8666666666666698</v>
+      </c>
+      <c r="CL131" s="5">
+        <v>73.900000000000006</v>
+      </c>
     </row>
-    <row r="132" spans="2:88" s="5" customFormat="1">
+    <row r="132" spans="2:90" s="5" customFormat="1">
       <c r="B132" s="5">
         <v>1981.5</v>
       </c>
@@ -23942,8 +24567,14 @@
       <c r="CJ132" s="5">
         <v>1.4149532435050001E-2</v>
       </c>
+      <c r="CK132" s="5">
+        <v>-8.3333333333333393</v>
+      </c>
+      <c r="CL132" s="5">
+        <v>74.8</v>
+      </c>
     </row>
-    <row r="133" spans="2:88" s="5" customFormat="1">
+    <row r="133" spans="2:90" s="5" customFormat="1">
       <c r="B133" s="5">
         <v>1981.75</v>
       </c>
@@ -24199,8 +24830,14 @@
       <c r="CJ133" s="5">
         <v>-1.05526819598614E-2</v>
       </c>
+      <c r="CK133" s="5">
+        <v>-24.066666666666698</v>
+      </c>
+      <c r="CL133" s="5">
+        <v>65.7</v>
+      </c>
     </row>
-    <row r="134" spans="2:88" s="5" customFormat="1">
+    <row r="134" spans="2:90" s="5" customFormat="1">
       <c r="B134" s="5">
         <v>1982</v>
       </c>
@@ -24456,8 +25093,14 @@
       <c r="CJ134" s="5">
         <v>-2.9584826689864702E-2</v>
       </c>
+      <c r="CK134" s="5">
+        <v>-24.466666666666701</v>
+      </c>
+      <c r="CL134" s="5">
+        <v>66.599999999999994</v>
+      </c>
     </row>
-    <row r="135" spans="2:88" s="5" customFormat="1">
+    <row r="135" spans="2:90" s="5" customFormat="1">
       <c r="B135" s="5">
         <v>1982.25</v>
       </c>
@@ -24713,8 +25356,14 @@
       <c r="CJ135" s="5">
         <v>-8.9879104661265193E-3</v>
       </c>
+      <c r="CK135" s="5">
+        <v>-25.6</v>
+      </c>
+      <c r="CL135" s="5">
+        <v>66.2</v>
+      </c>
     </row>
-    <row r="136" spans="2:88" s="5" customFormat="1">
+    <row r="136" spans="2:90" s="5" customFormat="1">
       <c r="B136" s="5">
         <v>1982.5</v>
       </c>
@@ -24970,8 +25619,14 @@
       <c r="CJ136" s="5">
         <v>-1.4677434409829699E-2</v>
       </c>
+      <c r="CK136" s="5">
+        <v>-23</v>
+      </c>
+      <c r="CL136" s="5">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="137" spans="2:88" s="5" customFormat="1">
+    <row r="137" spans="2:90" s="5" customFormat="1">
       <c r="B137" s="5">
         <v>1982.75</v>
       </c>
@@ -25227,8 +25882,14 @@
       <c r="CJ137" s="5">
         <v>3.5736775186874402E-3</v>
       </c>
+      <c r="CK137" s="5">
+        <v>-19.066666666666698</v>
+      </c>
+      <c r="CL137" s="5">
+        <v>72.5</v>
+      </c>
     </row>
-    <row r="138" spans="2:88" s="5" customFormat="1">
+    <row r="138" spans="2:90" s="5" customFormat="1">
       <c r="B138" s="5">
         <v>1983</v>
       </c>
@@ -25484,8 +26145,14 @@
       <c r="CJ138" s="5">
         <v>9.6087197400545592E-3</v>
       </c>
+      <c r="CK138" s="5">
+        <v>2.8666666666666698</v>
+      </c>
+      <c r="CL138" s="5">
+        <v>75</v>
+      </c>
     </row>
-    <row r="139" spans="2:88" s="5" customFormat="1">
+    <row r="139" spans="2:90" s="5" customFormat="1">
       <c r="B139" s="5">
         <v>1983.25</v>
       </c>
@@ -25741,8 +26408,14 @@
       <c r="CJ139" s="5">
         <v>-1.45846345968117E-2</v>
       </c>
+      <c r="CK139" s="5">
+        <v>11.866666666666699</v>
+      </c>
+      <c r="CL139" s="5">
+        <v>91.5</v>
+      </c>
     </row>
-    <row r="140" spans="2:88" s="5" customFormat="1">
+    <row r="140" spans="2:90" s="5" customFormat="1">
       <c r="B140" s="5">
         <v>1983.5</v>
       </c>
@@ -25998,8 +26671,14 @@
       <c r="CJ140" s="5">
         <v>-2.2666119795900198E-2</v>
       </c>
+      <c r="CK140" s="5">
+        <v>26.133333333333301</v>
+      </c>
+      <c r="CL140" s="5">
+        <v>91.2</v>
+      </c>
     </row>
-    <row r="141" spans="2:88" s="5" customFormat="1">
+    <row r="141" spans="2:90" s="5" customFormat="1">
       <c r="B141" s="5">
         <v>1983.75</v>
       </c>
@@ -26255,8 +26934,14 @@
       <c r="CJ141" s="5">
         <v>2.3585127497542401E-3</v>
       </c>
+      <c r="CK141" s="5">
+        <v>33.533333333333303</v>
+      </c>
+      <c r="CL141" s="5">
+        <v>91.6</v>
+      </c>
     </row>
-    <row r="142" spans="2:88" s="5" customFormat="1">
+    <row r="142" spans="2:90" s="5" customFormat="1">
       <c r="B142" s="5">
         <v>1984</v>
       </c>
@@ -26512,8 +27197,14 @@
       <c r="CJ142" s="5">
         <v>-8.4012163750365196E-4</v>
       </c>
+      <c r="CK142" s="5">
+        <v>20.466666666666701</v>
+      </c>
+      <c r="CL142" s="5">
+        <v>99.5</v>
+      </c>
     </row>
-    <row r="143" spans="2:88" s="5" customFormat="1">
+    <row r="143" spans="2:90" s="5" customFormat="1">
       <c r="B143" s="5">
         <v>1984.25</v>
       </c>
@@ -26769,8 +27460,14 @@
       <c r="CJ143" s="5">
         <v>5.07562691168458E-3</v>
       </c>
+      <c r="CK143" s="5">
+        <v>18.466666666666701</v>
+      </c>
+      <c r="CL143" s="5">
+        <v>96.6</v>
+      </c>
     </row>
-    <row r="144" spans="2:88" s="5" customFormat="1">
+    <row r="144" spans="2:90" s="5" customFormat="1">
       <c r="B144" s="5">
         <v>1984.5</v>
       </c>
@@ -27026,8 +27723,14 @@
       <c r="CJ144" s="5">
         <v>4.8297766572274496E-3</v>
       </c>
+      <c r="CK144" s="5">
+        <v>6.06666666666667</v>
+      </c>
+      <c r="CL144" s="5">
+        <v>98.9</v>
+      </c>
     </row>
-    <row r="145" spans="2:88" s="5" customFormat="1">
+    <row r="145" spans="2:90" s="5" customFormat="1">
       <c r="B145" s="5">
         <v>1984.75</v>
       </c>
@@ -27283,8 +27986,14 @@
       <c r="CJ145" s="5">
         <v>-8.2257885185561593E-3</v>
       </c>
+      <c r="CK145" s="5">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="CL145" s="5">
+        <v>95</v>
+      </c>
     </row>
-    <row r="146" spans="2:88" s="5" customFormat="1">
+    <row r="146" spans="2:90" s="5" customFormat="1">
       <c r="B146" s="5">
         <v>1985</v>
       </c>
@@ -27540,8 +28249,14 @@
       <c r="CJ146" s="5">
         <v>-6.8648617411885904E-3</v>
       </c>
+      <c r="CK146" s="5">
+        <v>-1.3333333333333299</v>
+      </c>
+      <c r="CL146" s="5">
+        <v>94.5</v>
+      </c>
     </row>
-    <row r="147" spans="2:88" s="5" customFormat="1">
+    <row r="147" spans="2:90" s="5" customFormat="1">
       <c r="B147" s="5">
         <v>1985.25</v>
       </c>
@@ -27797,8 +28512,14 @@
       <c r="CJ147" s="5">
         <v>1.31735103044334E-2</v>
       </c>
+      <c r="CK147" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="CL147" s="5">
+        <v>94.3</v>
+      </c>
     </row>
-    <row r="148" spans="2:88" s="5" customFormat="1">
+    <row r="148" spans="2:90" s="5" customFormat="1">
       <c r="B148" s="5">
         <v>1985.5</v>
       </c>
@@ -28054,8 +28775,14 @@
       <c r="CJ148" s="5">
         <v>-2.6564199442022699E-3</v>
       </c>
+      <c r="CK148" s="5">
+        <v>-3</v>
+      </c>
+      <c r="CL148" s="5">
+        <v>92.8</v>
+      </c>
     </row>
-    <row r="149" spans="2:88" s="5" customFormat="1">
+    <row r="149" spans="2:90" s="5" customFormat="1">
       <c r="B149" s="5">
         <v>1985.75</v>
       </c>
@@ -28311,8 +29038,14 @@
       <c r="CJ149" s="5">
         <v>-5.7451357677765899E-3</v>
       </c>
+      <c r="CK149" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="CL149" s="5">
+        <v>91</v>
+      </c>
     </row>
-    <row r="150" spans="2:88" s="5" customFormat="1">
+    <row r="150" spans="2:90" s="5" customFormat="1">
       <c r="B150" s="5">
         <v>1986</v>
       </c>
@@ -28570,8 +29303,14 @@
       <c r="CJ150" s="5">
         <v>8.4905755528145305E-3</v>
       </c>
+      <c r="CK150" s="5">
+        <v>2.1333333333333302</v>
+      </c>
+      <c r="CL150" s="5">
+        <v>95.5</v>
+      </c>
     </row>
-    <row r="151" spans="2:88" s="5" customFormat="1">
+    <row r="151" spans="2:90" s="5" customFormat="1">
       <c r="B151" s="5">
         <v>1986.25</v>
       </c>
@@ -28829,8 +29568,14 @@
       <c r="CJ151" s="5">
         <v>1.65081754043548E-3</v>
       </c>
+      <c r="CK151" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="CL151" s="5">
+        <v>96.8</v>
+      </c>
     </row>
-    <row r="152" spans="2:88" s="5" customFormat="1">
+    <row r="152" spans="2:90" s="5" customFormat="1">
       <c r="B152" s="5">
         <v>1986.5</v>
       </c>
@@ -29088,8 +29833,14 @@
       <c r="CJ152" s="5">
         <v>5.7215867995677998E-3</v>
       </c>
+      <c r="CK152" s="5">
+        <v>2</v>
+      </c>
+      <c r="CL152" s="5">
+        <v>94.9</v>
+      </c>
     </row>
-    <row r="153" spans="2:88" s="5" customFormat="1">
+    <row r="153" spans="2:90" s="5" customFormat="1">
       <c r="B153" s="5">
         <v>1986.75</v>
       </c>
@@ -29347,8 +30098,14 @@
       <c r="CJ153" s="5">
         <v>-1.8092106728583301E-2</v>
       </c>
+      <c r="CK153" s="5">
+        <v>1.93333333333333</v>
+      </c>
+      <c r="CL153" s="5">
+        <v>92</v>
+      </c>
     </row>
-    <row r="154" spans="2:88" s="5" customFormat="1">
+    <row r="154" spans="2:90" s="5" customFormat="1">
       <c r="B154" s="5">
         <v>1987</v>
       </c>
@@ -29606,8 +30363,14 @@
       <c r="CJ154" s="5">
         <v>-1.8237261946746301E-2</v>
       </c>
+      <c r="CK154" s="5">
+        <v>8.3333333333333393</v>
+      </c>
+      <c r="CL154" s="5">
+        <v>90.5</v>
+      </c>
     </row>
-    <row r="155" spans="2:88" s="5" customFormat="1">
+    <row r="155" spans="2:90" s="5" customFormat="1">
       <c r="B155" s="5">
         <v>1987.25</v>
       </c>
@@ -29865,8 +30628,14 @@
       <c r="CJ155" s="5">
         <v>-2.5550677344443599E-2</v>
       </c>
+      <c r="CK155" s="5">
+        <v>13.4</v>
+      </c>
+      <c r="CL155" s="5">
+        <v>91.8</v>
+      </c>
     </row>
-    <row r="156" spans="2:88" s="5" customFormat="1">
+    <row r="156" spans="2:90" s="5" customFormat="1">
       <c r="B156" s="5">
         <v>1987.5</v>
       </c>
@@ -30124,8 +30893,14 @@
       <c r="CJ156" s="5">
         <v>-1.1590071737180799E-2</v>
       </c>
+      <c r="CK156" s="5">
+        <v>17.933333333333302</v>
+      </c>
+      <c r="CL156" s="5">
+        <v>93.9</v>
+      </c>
     </row>
-    <row r="157" spans="2:88" s="5" customFormat="1">
+    <row r="157" spans="2:90" s="5" customFormat="1">
       <c r="B157" s="5">
         <v>1987.75</v>
       </c>
@@ -30383,8 +31158,14 @@
       <c r="CJ157" s="5">
         <v>-5.3787751455692196E-3</v>
       </c>
+      <c r="CK157" s="5">
+        <v>20.3333333333333</v>
+      </c>
+      <c r="CL157" s="5">
+        <v>86.4</v>
+      </c>
     </row>
-    <row r="158" spans="2:88" s="5" customFormat="1">
+    <row r="158" spans="2:90" s="5" customFormat="1">
       <c r="B158" s="5">
         <v>1988</v>
       </c>
@@ -30642,8 +31423,14 @@
       <c r="CJ158" s="5">
         <v>-3.3175210014501099E-3</v>
       </c>
+      <c r="CK158" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="CL158" s="5">
+        <v>92.3</v>
+      </c>
     </row>
-    <row r="159" spans="2:88" s="5" customFormat="1">
+    <row r="159" spans="2:90" s="5" customFormat="1">
       <c r="B159" s="5">
         <v>1988.25</v>
       </c>
@@ -30901,8 +31688,14 @@
       <c r="CJ159" s="5">
         <v>1.19821199225164E-3</v>
       </c>
+      <c r="CK159" s="5">
+        <v>13.733333333333301</v>
+      </c>
+      <c r="CL159" s="5">
+        <v>93.5</v>
+      </c>
     </row>
-    <row r="160" spans="2:88" s="5" customFormat="1">
+    <row r="160" spans="2:90" s="5" customFormat="1">
       <c r="B160" s="5">
         <v>1988.5</v>
       </c>
@@ -31160,8 +31953,14 @@
       <c r="CJ160" s="5">
         <v>-1.10150862293894E-2</v>
       </c>
+      <c r="CK160" s="5">
+        <v>12.533333333333299</v>
+      </c>
+      <c r="CL160" s="5">
+        <v>96</v>
+      </c>
     </row>
-    <row r="161" spans="2:88" s="5" customFormat="1">
+    <row r="161" spans="2:90" s="5" customFormat="1">
       <c r="B161" s="5">
         <v>1988.75</v>
       </c>
@@ -31419,8 +32218,14 @@
       <c r="CJ161" s="5">
         <v>-7.46555530368342E-3</v>
       </c>
+      <c r="CK161" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="CL161" s="5">
+        <v>93</v>
+      </c>
     </row>
-    <row r="162" spans="2:88" s="5" customFormat="1">
+    <row r="162" spans="2:90" s="5" customFormat="1">
       <c r="B162" s="5">
         <v>1989</v>
       </c>
@@ -31678,8 +32483,14 @@
       <c r="CJ162" s="5">
         <v>-1.67804888830459E-2</v>
       </c>
+      <c r="CK162" s="5">
+        <v>6.8666666666666698</v>
+      </c>
+      <c r="CL162" s="5">
+        <v>95.9</v>
+      </c>
     </row>
-    <row r="163" spans="2:88" s="5" customFormat="1">
+    <row r="163" spans="2:90" s="5" customFormat="1">
       <c r="B163" s="5">
         <v>1989.25</v>
       </c>
@@ -31937,8 +32748,14 @@
       <c r="CJ163" s="5">
         <v>-1.2785677255188799E-2</v>
       </c>
+      <c r="CK163" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="CL163" s="5">
+        <v>90.9</v>
+      </c>
     </row>
-    <row r="164" spans="2:88" s="5" customFormat="1">
+    <row r="164" spans="2:90" s="5" customFormat="1">
       <c r="B164" s="5">
         <v>1989.5</v>
       </c>
@@ -32196,8 +33013,14 @@
       <c r="CJ164" s="5">
         <v>4.9558865983340096E-3</v>
       </c>
+      <c r="CK164" s="5">
+        <v>-8.6666666666666607</v>
+      </c>
+      <c r="CL164" s="5">
+        <v>92.5</v>
+      </c>
     </row>
-    <row r="165" spans="2:88" s="5" customFormat="1">
+    <row r="165" spans="2:90" s="5" customFormat="1">
       <c r="B165" s="5">
         <v>1989.75</v>
       </c>
@@ -32455,8 +33278,14 @@
       <c r="CJ165" s="5">
         <v>-1.8860006906958399E-2</v>
       </c>
+      <c r="CK165" s="5">
+        <v>-6</v>
+      </c>
+      <c r="CL165" s="5">
+        <v>91.8</v>
+      </c>
     </row>
-    <row r="166" spans="2:88" s="5" customFormat="1">
+    <row r="166" spans="2:90" s="5" customFormat="1">
       <c r="B166" s="5">
         <v>1990</v>
       </c>
@@ -32716,8 +33545,14 @@
       <c r="CJ166" s="5">
         <v>1.2294204974872E-3</v>
       </c>
+      <c r="CK166" s="5">
+        <v>-2.5333333333333301</v>
+      </c>
+      <c r="CL166" s="5">
+        <v>91.3</v>
+      </c>
     </row>
-    <row r="167" spans="2:88" s="5" customFormat="1">
+    <row r="167" spans="2:90" s="5" customFormat="1">
       <c r="B167" s="5">
         <v>1990.25</v>
       </c>
@@ -32977,8 +33812,14 @@
       <c r="CJ167" s="5">
         <v>-5.3937523866784201E-3</v>
       </c>
+      <c r="CK167" s="5">
+        <v>-0.86666666666666703</v>
+      </c>
+      <c r="CL167" s="5">
+        <v>90.9</v>
+      </c>
     </row>
-    <row r="168" spans="2:88" s="5" customFormat="1">
+    <row r="168" spans="2:90" s="5" customFormat="1">
       <c r="B168" s="5">
         <v>1990.5</v>
       </c>
@@ -33238,8 +34079,14 @@
       <c r="CJ168" s="5">
         <v>-2.2577607330228702E-2</v>
       </c>
+      <c r="CK168" s="5">
+        <v>-8.5333333333333297</v>
+      </c>
+      <c r="CL168" s="5">
+        <v>79.099999999999994</v>
+      </c>
     </row>
-    <row r="169" spans="2:88" s="5" customFormat="1">
+    <row r="169" spans="2:90" s="5" customFormat="1">
       <c r="B169" s="5">
         <v>1990.75</v>
       </c>
@@ -33499,8 +34346,14 @@
       <c r="CJ169" s="5">
         <v>-1.40359920221198E-2</v>
       </c>
+      <c r="CK169" s="5">
+        <v>-16.466666666666701</v>
+      </c>
+      <c r="CL169" s="5">
+        <v>65.2</v>
+      </c>
     </row>
-    <row r="170" spans="2:88" s="5" customFormat="1">
+    <row r="170" spans="2:90" s="5" customFormat="1">
       <c r="B170" s="5">
         <v>1991</v>
       </c>
@@ -33760,8 +34613,14 @@
       <c r="CJ170" s="5">
         <v>-1.5238658219129401E-2</v>
       </c>
+      <c r="CK170" s="5">
+        <v>-20.466666666666701</v>
+      </c>
+      <c r="CL170" s="5">
+        <v>74.8</v>
+      </c>
     </row>
-    <row r="171" spans="2:88" s="5" customFormat="1">
+    <row r="171" spans="2:90" s="5" customFormat="1">
       <c r="B171" s="5">
         <v>1991.25</v>
       </c>
@@ -34021,8 +34880,14 @@
       <c r="CJ171" s="5">
         <v>-1.1771395425436801E-2</v>
       </c>
+      <c r="CK171" s="5">
+        <v>-8.2666666666666604</v>
+      </c>
+      <c r="CL171" s="5">
+        <v>80.8</v>
+      </c>
     </row>
-    <row r="172" spans="2:88" s="5" customFormat="1">
+    <row r="172" spans="2:90" s="5" customFormat="1">
       <c r="B172" s="5">
         <v>1991.5</v>
       </c>
@@ -34282,8 +35147,14 @@
       <c r="CJ172" s="5">
         <v>-2.5306782989914098E-2</v>
       </c>
+      <c r="CK172" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="CL172" s="5">
+        <v>82.6</v>
+      </c>
     </row>
-    <row r="173" spans="2:88" s="5" customFormat="1">
+    <row r="173" spans="2:90" s="5" customFormat="1">
       <c r="B173" s="5">
         <v>1991.75</v>
       </c>
@@ -34543,8 +35414,14 @@
       <c r="CJ173" s="5">
         <v>2.5178148684257599E-3</v>
       </c>
+      <c r="CK173" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="CL173" s="5">
+        <v>71.900000000000006</v>
+      </c>
     </row>
-    <row r="174" spans="2:88" s="5" customFormat="1">
+    <row r="174" spans="2:90" s="5" customFormat="1">
       <c r="B174" s="5">
         <v>1992</v>
       </c>
@@ -34804,8 +35681,14 @@
       <c r="CJ174" s="5">
         <v>1.45926140713451E-2</v>
       </c>
+      <c r="CK174" s="5">
+        <v>3.06666666666667</v>
+      </c>
+      <c r="CL174" s="5">
+        <v>70.7</v>
+      </c>
     </row>
-    <row r="175" spans="2:88" s="5" customFormat="1">
+    <row r="175" spans="2:90" s="5" customFormat="1">
       <c r="B175" s="5">
         <v>1992.25</v>
       </c>
@@ -35065,8 +35948,14 @@
       <c r="CJ175" s="5">
         <v>-1.4265631016266E-2</v>
       </c>
+      <c r="CK175" s="5">
+        <v>7.93333333333333</v>
+      </c>
+      <c r="CL175" s="5">
+        <v>78.900000000000006</v>
+      </c>
     </row>
-    <row r="176" spans="2:88" s="5" customFormat="1">
+    <row r="176" spans="2:90" s="5" customFormat="1">
       <c r="B176" s="5">
         <v>1992.5</v>
       </c>
@@ -35326,8 +36215,14 @@
       <c r="CJ176" s="5">
         <v>-1.08999592590676E-2</v>
       </c>
+      <c r="CK176" s="5">
+        <v>4.6666666666666696</v>
+      </c>
+      <c r="CL176" s="5">
+        <v>76.099999999999994</v>
+      </c>
     </row>
-    <row r="177" spans="2:88" s="5" customFormat="1">
+    <row r="177" spans="2:90" s="5" customFormat="1">
       <c r="B177" s="5">
         <v>1992.75</v>
       </c>
@@ -35587,8 +36482,14 @@
       <c r="CJ177" s="5">
         <v>-1.6441682203925001E-2</v>
       </c>
+      <c r="CK177" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="CL177" s="5">
+        <v>83.3</v>
+      </c>
     </row>
-    <row r="178" spans="2:88" s="5" customFormat="1">
+    <row r="178" spans="2:90" s="5" customFormat="1">
       <c r="B178" s="5">
         <v>1993</v>
       </c>
@@ -35848,8 +36749,14 @@
       <c r="CJ178" s="5">
         <v>-3.7552448015393099E-2</v>
       </c>
+      <c r="CK178" s="5">
+        <v>9.6666666666666607</v>
+      </c>
+      <c r="CL178" s="5">
+        <v>87.3</v>
+      </c>
     </row>
-    <row r="179" spans="2:88" s="5" customFormat="1">
+    <row r="179" spans="2:90" s="5" customFormat="1">
       <c r="B179" s="5">
         <v>1993.25</v>
       </c>
@@ -36109,8 +37016,14 @@
       <c r="CJ179" s="5">
         <v>-1.4259081345137E-2</v>
       </c>
+      <c r="CK179" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="CL179" s="5">
+        <v>82.5</v>
+      </c>
     </row>
-    <row r="180" spans="2:88" s="5" customFormat="1">
+    <row r="180" spans="2:90" s="5" customFormat="1">
       <c r="B180" s="5">
         <v>1993.5</v>
       </c>
@@ -36370,8 +37283,14 @@
       <c r="CJ180" s="5">
         <v>-1.7923594816752899E-2</v>
       </c>
+      <c r="CK180" s="5">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="CL180" s="5">
+        <v>77.400000000000006</v>
+      </c>
     </row>
-    <row r="181" spans="2:88" s="5" customFormat="1">
+    <row r="181" spans="2:90" s="5" customFormat="1">
       <c r="B181" s="5">
         <v>1993.75</v>
       </c>
@@ -36631,8 +37550,14 @@
       <c r="CJ181" s="5">
         <v>-9.1289055244539192E-3</v>
       </c>
+      <c r="CK181" s="5">
+        <v>8.5333333333333297</v>
+      </c>
+      <c r="CL181" s="5">
+        <v>84.1</v>
+      </c>
     </row>
-    <row r="182" spans="2:88" s="5" customFormat="1">
+    <row r="182" spans="2:90" s="5" customFormat="1">
       <c r="B182" s="5">
         <v>1994</v>
       </c>
@@ -36892,8 +37817,14 @@
       <c r="CJ182" s="5">
         <v>-3.11869668923309E-2</v>
       </c>
+      <c r="CK182" s="5">
+        <v>12.9333333333333</v>
+      </c>
+      <c r="CL182" s="5">
+        <v>93</v>
+      </c>
     </row>
-    <row r="183" spans="2:88" s="5" customFormat="1">
+    <row r="183" spans="2:90" s="5" customFormat="1">
       <c r="B183" s="5">
         <v>1994.25</v>
       </c>
@@ -37153,8 +38084,14 @@
       <c r="CJ183" s="5">
         <v>-1.1337268521784899E-2</v>
       </c>
+      <c r="CK183" s="5">
+        <v>16.266666666666701</v>
+      </c>
+      <c r="CL183" s="5">
+        <v>92.2</v>
+      </c>
     </row>
-    <row r="184" spans="2:88" s="5" customFormat="1">
+    <row r="184" spans="2:90" s="5" customFormat="1">
       <c r="B184" s="5">
         <v>1994.5</v>
       </c>
@@ -37414,8 +38351,14 @@
       <c r="CJ184" s="5">
         <v>-1.9697901619198498E-2</v>
       </c>
+      <c r="CK184" s="5">
+        <v>17</v>
+      </c>
+      <c r="CL184" s="5">
+        <v>90.7</v>
+      </c>
     </row>
-    <row r="185" spans="2:88" s="5" customFormat="1">
+    <row r="185" spans="2:90" s="5" customFormat="1">
       <c r="B185" s="5">
         <v>1994.75</v>
       </c>
@@ -37675,8 +38618,14 @@
       <c r="CJ185" s="5">
         <v>-1.3510620832907799E-2</v>
       </c>
+      <c r="CK185" s="5">
+        <v>16.466666666666701</v>
+      </c>
+      <c r="CL185" s="5">
+        <v>93.1</v>
+      </c>
     </row>
-    <row r="186" spans="2:88" s="5" customFormat="1">
+    <row r="186" spans="2:90" s="5" customFormat="1">
       <c r="B186" s="5">
         <v>1995</v>
       </c>
@@ -37936,8 +38885,14 @@
       <c r="CJ186" s="5">
         <v>-1.1787754668022499E-2</v>
       </c>
+      <c r="CK186" s="5">
+        <v>9.7333333333333307</v>
+      </c>
+      <c r="CL186" s="5">
+        <v>94.3</v>
+      </c>
     </row>
-    <row r="187" spans="2:88" s="5" customFormat="1">
+    <row r="187" spans="2:90" s="5" customFormat="1">
       <c r="B187" s="5">
         <v>1995.25</v>
       </c>
@@ -38197,8 +39152,14 @@
       <c r="CJ187" s="5">
         <v>-7.10985829483306E-3</v>
       </c>
+      <c r="CK187" s="5">
+        <v>-3.93333333333333</v>
+      </c>
+      <c r="CL187" s="5">
+        <v>91.7</v>
+      </c>
     </row>
-    <row r="188" spans="2:88" s="5" customFormat="1">
+    <row r="188" spans="2:90" s="5" customFormat="1">
       <c r="B188" s="5">
         <v>1995.5</v>
       </c>
@@ -38458,8 +39419,14 @@
       <c r="CJ188" s="5">
         <v>-1.4367027923614099E-2</v>
       </c>
+      <c r="CK188" s="5">
+        <v>-2.7333333333333298</v>
+      </c>
+      <c r="CL188" s="5">
+        <v>93.1</v>
+      </c>
     </row>
-    <row r="189" spans="2:88" s="5" customFormat="1">
+    <row r="189" spans="2:90" s="5" customFormat="1">
       <c r="B189" s="5">
         <v>1995.75</v>
       </c>
@@ -38719,8 +39686,14 @@
       <c r="CJ189" s="5">
         <v>-1.3474538462025801E-2</v>
       </c>
+      <c r="CK189" s="5">
+        <v>-7.4666666666666703</v>
+      </c>
+      <c r="CL189" s="5">
+        <v>89.8</v>
+      </c>
     </row>
-    <row r="190" spans="2:88" s="5" customFormat="1">
+    <row r="190" spans="2:90" s="5" customFormat="1">
       <c r="B190" s="5">
         <v>1996</v>
       </c>
@@ -38980,8 +39953,14 @@
       <c r="CJ190" s="5">
         <v>-6.1169994584861897E-3</v>
       </c>
+      <c r="CK190" s="5">
+        <v>-7.8</v>
+      </c>
+      <c r="CL190" s="5">
+        <v>90.5</v>
+      </c>
     </row>
-    <row r="191" spans="2:88" s="5" customFormat="1">
+    <row r="191" spans="2:90" s="5" customFormat="1">
       <c r="B191" s="5">
         <v>1996.25</v>
       </c>
@@ -39241,8 +40220,14 @@
       <c r="CJ191" s="5">
         <v>-1.2040976079404001E-2</v>
       </c>
+      <c r="CK191" s="5">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="CL191" s="5">
+        <v>91.5</v>
+      </c>
     </row>
-    <row r="192" spans="2:88" s="5" customFormat="1">
+    <row r="192" spans="2:90" s="5" customFormat="1">
       <c r="B192" s="5">
         <v>1996.5</v>
       </c>
@@ -39502,8 +40487,14 @@
       <c r="CJ192" s="5">
         <v>-1.52481406995548E-2</v>
       </c>
+      <c r="CK192" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="CL192" s="5">
+        <v>94.9</v>
+      </c>
     </row>
-    <row r="193" spans="2:88" s="5" customFormat="1">
+    <row r="193" spans="2:90" s="5" customFormat="1">
       <c r="B193" s="5">
         <v>1996.75</v>
       </c>
@@ -39763,8 +40754,14 @@
       <c r="CJ193" s="5">
         <v>-1.3099399403997399E-2</v>
       </c>
+      <c r="CK193" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="CL193" s="5">
+        <v>97.5</v>
+      </c>
     </row>
-    <row r="194" spans="2:88" s="5" customFormat="1">
+    <row r="194" spans="2:90" s="5" customFormat="1">
       <c r="B194" s="5">
         <v>1997</v>
       </c>
@@ -40024,8 +41021,14 @@
       <c r="CJ194" s="5">
         <v>-1.6751450455123801E-2</v>
       </c>
+      <c r="CK194" s="5">
+        <v>7.1333333333333302</v>
+      </c>
+      <c r="CL194" s="5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="195" spans="2:88" s="5" customFormat="1">
+    <row r="195" spans="2:90" s="5" customFormat="1">
       <c r="B195" s="5">
         <v>1997.25</v>
       </c>
@@ -40285,8 +41288,14 @@
       <c r="CJ195" s="5">
         <v>6.24306097143965E-3</v>
       </c>
+      <c r="CK195" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="CL195" s="5">
+        <v>103</v>
+      </c>
     </row>
-    <row r="196" spans="2:88" s="5" customFormat="1">
+    <row r="196" spans="2:90" s="5" customFormat="1">
       <c r="B196" s="5">
         <v>1997.5</v>
       </c>
@@ -40546,8 +41555,14 @@
       <c r="CJ196" s="5">
         <v>-1.39422494855416E-2</v>
       </c>
+      <c r="CK196" s="5">
+        <v>11.9333333333333</v>
+      </c>
+      <c r="CL196" s="5">
+        <v>105.8</v>
+      </c>
     </row>
-    <row r="197" spans="2:88" s="5" customFormat="1">
+    <row r="197" spans="2:90" s="5" customFormat="1">
       <c r="B197" s="5">
         <v>1997.75</v>
       </c>
@@ -40810,8 +41825,14 @@
       <c r="CJ197" s="5">
         <v>-6.4267738385515496E-3</v>
       </c>
+      <c r="CK197" s="5">
+        <v>11.0666666666667</v>
+      </c>
+      <c r="CL197" s="5">
+        <v>105</v>
+      </c>
     </row>
-    <row r="198" spans="2:88" s="5" customFormat="1">
+    <row r="198" spans="2:90" s="5" customFormat="1">
       <c r="B198" s="5">
         <v>1998</v>
       </c>
@@ -41074,8 +42095,14 @@
       <c r="CJ198" s="5">
         <v>6.6784394465075701E-3</v>
       </c>
+      <c r="CK198" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="CL198" s="5">
+        <v>107.8</v>
+      </c>
     </row>
-    <row r="199" spans="2:88" s="5" customFormat="1">
+    <row r="199" spans="2:90" s="5" customFormat="1">
       <c r="B199" s="5">
         <v>1998.25</v>
       </c>
@@ -41338,8 +42365,14 @@
       <c r="CJ199" s="5">
         <v>3.76010396919762E-3</v>
       </c>
+      <c r="CK199" s="5">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="CL199" s="5">
+        <v>106.9</v>
+      </c>
     </row>
-    <row r="200" spans="2:88" s="5" customFormat="1">
+    <row r="200" spans="2:90" s="5" customFormat="1">
       <c r="B200" s="5">
         <v>1998.5</v>
       </c>
@@ -41602,8 +42635,14 @@
       <c r="CJ200" s="5">
         <v>5.8064143373436896E-3</v>
       </c>
+      <c r="CK200" s="5">
+        <v>-1.86666666666667</v>
+      </c>
+      <c r="CL200" s="5">
+        <v>103.5</v>
+      </c>
     </row>
-    <row r="201" spans="2:88" s="5" customFormat="1">
+    <row r="201" spans="2:90" s="5" customFormat="1">
       <c r="B201" s="5">
         <v>1998.75</v>
       </c>
@@ -41866,8 +42905,14 @@
       <c r="CJ201" s="5">
         <v>1.22483711488984E-2</v>
       </c>
+      <c r="CK201" s="5">
+        <v>-4.2</v>
+      </c>
+      <c r="CL201" s="5">
+        <v>100.2</v>
+      </c>
     </row>
-    <row r="202" spans="2:88" s="5" customFormat="1">
+    <row r="202" spans="2:90" s="5" customFormat="1">
       <c r="B202" s="5">
         <v>1999</v>
       </c>
@@ -42130,8 +43175,14 @@
       <c r="CJ202" s="5">
         <v>-1.46337436998893E-3</v>
       </c>
+      <c r="CK202" s="5">
+        <v>3.1333333333333302</v>
+      </c>
+      <c r="CL202" s="5">
+        <v>105.9</v>
+      </c>
     </row>
-    <row r="203" spans="2:88" s="5" customFormat="1">
+    <row r="203" spans="2:90" s="5" customFormat="1">
       <c r="B203" s="5">
         <v>1999.25</v>
       </c>
@@ -42394,8 +43445,14 @@
       <c r="CJ203" s="5">
         <v>-1.37046893973838E-2</v>
       </c>
+      <c r="CK203" s="5">
+        <v>8.2666666666666604</v>
+      </c>
+      <c r="CL203" s="5">
+        <v>106.2</v>
+      </c>
     </row>
-    <row r="204" spans="2:88" s="5" customFormat="1">
+    <row r="204" spans="2:90" s="5" customFormat="1">
       <c r="B204" s="5">
         <v>1999.5</v>
       </c>
@@ -42658,8 +43715,14 @@
       <c r="CJ204" s="5">
         <v>-2.3373074097014302E-3</v>
       </c>
+      <c r="CK204" s="5">
+        <v>10.266666666666699</v>
+      </c>
+      <c r="CL204" s="5">
+        <v>105.9</v>
+      </c>
     </row>
-    <row r="205" spans="2:88" s="5" customFormat="1">
+    <row r="205" spans="2:90" s="5" customFormat="1">
       <c r="B205" s="5">
         <v>1999.75</v>
       </c>
@@ -42922,8 +43985,14 @@
       <c r="CJ205" s="5">
         <v>1.3187228115563001E-2</v>
       </c>
+      <c r="CK205" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="CL205" s="5">
+        <v>105.2</v>
+      </c>
     </row>
-    <row r="206" spans="2:88" s="5" customFormat="1">
+    <row r="206" spans="2:90" s="5" customFormat="1">
       <c r="B206" s="5">
         <v>2000</v>
       </c>
@@ -43186,8 +44255,14 @@
       <c r="CJ206" s="5">
         <v>-4.0221324137099E-3</v>
       </c>
+      <c r="CK206" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="CL206" s="5">
+        <v>110.1</v>
+      </c>
     </row>
-    <row r="207" spans="2:88" s="5" customFormat="1">
+    <row r="207" spans="2:90" s="5" customFormat="1">
       <c r="B207" s="5">
         <v>2000.25</v>
       </c>
@@ -43450,8 +44525,14 @@
       <c r="CJ207" s="5">
         <v>8.7654216607614497E-3</v>
       </c>
+      <c r="CK207" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="CL207" s="5">
+        <v>108.8</v>
+      </c>
     </row>
-    <row r="208" spans="2:88" s="5" customFormat="1">
+    <row r="208" spans="2:90" s="5" customFormat="1">
       <c r="B208" s="5">
         <v>2000.5</v>
       </c>
@@ -43714,8 +44795,14 @@
       <c r="CJ208" s="5">
         <v>-8.9597872440793898E-4</v>
       </c>
+      <c r="CK208" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="CL208" s="5">
+        <v>107.5</v>
+      </c>
     </row>
-    <row r="209" spans="2:88" s="5" customFormat="1">
+    <row r="209" spans="2:90" s="5" customFormat="1">
       <c r="B209" s="5">
         <v>2000.75</v>
       </c>
@@ -43978,8 +45065,14 @@
       <c r="CJ209" s="5">
         <v>-1.17009395095306E-2</v>
       </c>
+      <c r="CK209" s="5">
+        <v>-5.93333333333333</v>
+      </c>
+      <c r="CL209" s="5">
+        <v>103.9</v>
+      </c>
     </row>
-    <row r="210" spans="2:88" s="5" customFormat="1">
+    <row r="210" spans="2:90" s="5" customFormat="1">
       <c r="B210" s="5">
         <v>2001</v>
       </c>
@@ -44242,8 +45335,14 @@
       <c r="CJ210" s="5">
         <v>1.5863013281614598E-2</v>
       </c>
+      <c r="CK210" s="5">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="CL210" s="5">
+        <v>92.3</v>
+      </c>
     </row>
-    <row r="211" spans="2:88" s="5" customFormat="1">
+    <row r="211" spans="2:90" s="5" customFormat="1">
       <c r="B211" s="5">
         <v>2001.25</v>
       </c>
@@ -44506,8 +45605,14 @@
       <c r="CJ211" s="5">
         <v>7.9427244941280006E-3</v>
       </c>
+      <c r="CK211" s="5">
+        <v>-14.0666666666667</v>
+      </c>
+      <c r="CL211" s="5">
+        <v>91</v>
+      </c>
     </row>
-    <row r="212" spans="2:88" s="5" customFormat="1">
+    <row r="212" spans="2:90" s="5" customFormat="1">
       <c r="B212" s="5">
         <v>2001.5</v>
       </c>
@@ -44770,8 +45875,14 @@
       <c r="CJ212" s="5">
         <v>2.07578238165739E-2</v>
       </c>
+      <c r="CK212" s="5">
+        <v>-6.2</v>
+      </c>
+      <c r="CL212" s="5">
+        <v>88.5</v>
+      </c>
     </row>
-    <row r="213" spans="2:88" s="5" customFormat="1">
+    <row r="213" spans="2:90" s="5" customFormat="1">
       <c r="B213" s="5">
         <v>2001.75</v>
       </c>
@@ -45034,8 +46145,14 @@
       <c r="CJ213" s="5">
         <v>-1.7677858959726699E-2</v>
       </c>
+      <c r="CK213" s="5">
+        <v>-11.866666666666699</v>
+      </c>
+      <c r="CL213" s="5">
+        <v>85.1</v>
+      </c>
     </row>
-    <row r="214" spans="2:88" s="5" customFormat="1">
+    <row r="214" spans="2:90" s="5" customFormat="1">
       <c r="B214" s="5">
         <v>2002</v>
       </c>
@@ -45298,8 +46415,14 @@
       <c r="CJ214" s="5">
         <v>6.49265828469667E-3</v>
       </c>
+      <c r="CK214" s="5">
+        <v>4.8666666666666698</v>
+      </c>
+      <c r="CL214" s="5">
+        <v>93.1</v>
+      </c>
     </row>
-    <row r="215" spans="2:88" s="5" customFormat="1">
+    <row r="215" spans="2:90" s="5" customFormat="1">
       <c r="B215" s="5">
         <v>2002.25</v>
       </c>
@@ -45562,8 +46685,14 @@
       <c r="CJ215" s="5">
         <v>-2.3106805684169798E-2</v>
       </c>
+      <c r="CK215" s="5">
+        <v>10.266666666666699</v>
+      </c>
+      <c r="CL215" s="5">
+        <v>94.1</v>
+      </c>
     </row>
-    <row r="216" spans="2:88" s="5" customFormat="1">
+    <row r="216" spans="2:90" s="5" customFormat="1">
       <c r="B216" s="5">
         <v>2002.5</v>
       </c>
@@ -45826,8 +46955,14 @@
       <c r="CJ216" s="5">
         <v>-1.12536715707577E-2</v>
       </c>
+      <c r="CK216" s="5">
+        <v>2.2666666666666702</v>
+      </c>
+      <c r="CL216" s="5">
+        <v>87.3</v>
+      </c>
     </row>
-    <row r="217" spans="2:88" s="5" customFormat="1">
+    <row r="217" spans="2:90" s="5" customFormat="1">
       <c r="B217" s="5">
         <v>2002.75</v>
       </c>
@@ -46090,8 +47225,14 @@
       <c r="CJ217" s="5">
         <v>4.4373928928339301E-3</v>
       </c>
+      <c r="CK217" s="5">
+        <v>1.5333333333333301</v>
+      </c>
+      <c r="CL217" s="5">
+        <v>83.8</v>
+      </c>
     </row>
-    <row r="218" spans="2:88" s="5" customFormat="1">
+    <row r="218" spans="2:90" s="5" customFormat="1">
       <c r="B218" s="5">
         <v>2003</v>
       </c>
@@ -46354,8 +47495,14 @@
       <c r="CJ218" s="5">
         <v>-1.8424562917506299E-2</v>
       </c>
+      <c r="CK218" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="CL218" s="5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="219" spans="2:88" s="5" customFormat="1">
+    <row r="219" spans="2:90" s="5" customFormat="1">
       <c r="B219" s="5">
         <v>2003.25</v>
       </c>
@@ -46618,8 +47765,14 @@
       <c r="CJ219" s="5">
         <v>3.2516561263243801E-2</v>
       </c>
+      <c r="CK219" s="5">
+        <v>-2</v>
+      </c>
+      <c r="CL219" s="5">
+        <v>89.3</v>
+      </c>
     </row>
-    <row r="220" spans="2:88" s="5" customFormat="1">
+    <row r="220" spans="2:90" s="5" customFormat="1">
       <c r="B220" s="5">
         <v>2003.5</v>
       </c>
@@ -46882,8 +48035,14 @@
       <c r="CJ220" s="5">
         <v>1.45349088553887E-2</v>
       </c>
+      <c r="CK220" s="5">
+        <v>8.1333333333333293</v>
+      </c>
+      <c r="CL220" s="5">
+        <v>89.3</v>
+      </c>
     </row>
-    <row r="221" spans="2:88" s="5" customFormat="1">
+    <row r="221" spans="2:90" s="5" customFormat="1">
       <c r="B221" s="5">
         <v>2003.75</v>
       </c>
@@ -47146,8 +48305,14 @@
       <c r="CJ221" s="5">
         <v>-7.3532806820449702E-3</v>
       </c>
+      <c r="CK221" s="5">
+        <v>20.6</v>
+      </c>
+      <c r="CL221" s="5">
+        <v>92</v>
+      </c>
     </row>
-    <row r="222" spans="2:88" s="5" customFormat="1">
+    <row r="222" spans="2:90" s="5" customFormat="1">
       <c r="B222" s="5">
         <v>2004</v>
       </c>
@@ -47410,8 +48575,14 @@
       <c r="CJ222" s="5">
         <v>5.4389997636212996E-4</v>
       </c>
+      <c r="CK222" s="5">
+        <v>24.933333333333302</v>
+      </c>
+      <c r="CL222" s="5">
+        <v>98.1</v>
+      </c>
     </row>
-    <row r="223" spans="2:88" s="5" customFormat="1">
+    <row r="223" spans="2:90" s="5" customFormat="1">
       <c r="B223" s="5">
         <v>2004.25</v>
       </c>
@@ -47674,8 +48845,14 @@
       <c r="CJ223" s="5">
         <v>1.19795633745423E-2</v>
       </c>
+      <c r="CK223" s="5">
+        <v>24.933333333333302</v>
+      </c>
+      <c r="CL223" s="5">
+        <v>93.4</v>
+      </c>
     </row>
-    <row r="224" spans="2:88" s="5" customFormat="1">
+    <row r="224" spans="2:90" s="5" customFormat="1">
       <c r="B224" s="5">
         <v>2004.5</v>
       </c>
@@ -47938,8 +49115,14 @@
       <c r="CJ224" s="5">
         <v>6.5881152507438496E-3</v>
       </c>
+      <c r="CK224" s="5">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="CL224" s="5">
+        <v>95.6</v>
+      </c>
     </row>
-    <row r="225" spans="2:88" s="5" customFormat="1">
+    <row r="225" spans="2:90" s="5" customFormat="1">
       <c r="B225" s="5">
         <v>2004.75</v>
       </c>
@@ -48202,8 +49385,14 @@
       <c r="CJ225" s="5">
         <v>-1.05470006977894E-2</v>
       </c>
+      <c r="CK225" s="5">
+        <v>14.866666666666699</v>
+      </c>
+      <c r="CL225" s="5">
+        <v>93.9</v>
+      </c>
     </row>
-    <row r="226" spans="2:88" s="5" customFormat="1">
+    <row r="226" spans="2:90" s="5" customFormat="1">
       <c r="B226" s="5">
         <v>2005</v>
       </c>
@@ -48466,8 +49655,14 @@
       <c r="CJ226" s="5">
         <v>3.11273095680971E-4</v>
       </c>
+      <c r="CK226" s="5">
+        <v>11.466666666666701</v>
+      </c>
+      <c r="CL226" s="5">
+        <v>94.1</v>
+      </c>
     </row>
-    <row r="227" spans="2:88" s="5" customFormat="1">
+    <row r="227" spans="2:90" s="5" customFormat="1">
       <c r="B227" s="5">
         <v>2005.25</v>
       </c>
@@ -48730,8 +49925,14 @@
       <c r="CJ227" s="5">
         <v>-1.04508378926534E-2</v>
       </c>
+      <c r="CK227" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="CL227" s="5">
+        <v>90.2</v>
+      </c>
     </row>
-    <row r="228" spans="2:88" s="5" customFormat="1">
+    <row r="228" spans="2:90" s="5" customFormat="1">
       <c r="B228" s="5">
         <v>2005.5</v>
       </c>
@@ -48994,8 +50195,14 @@
       <c r="CJ228" s="5">
         <v>9.7599978032591097E-3</v>
       </c>
+      <c r="CK228" s="5">
+        <v>11.9333333333333</v>
+      </c>
+      <c r="CL228" s="5">
+        <v>87.4</v>
+      </c>
     </row>
-    <row r="229" spans="2:88" s="5" customFormat="1">
+    <row r="229" spans="2:90" s="5" customFormat="1">
       <c r="B229" s="5">
         <v>2005.75</v>
       </c>
@@ -49258,8 +50465,14 @@
       <c r="CJ229" s="5">
         <v>-3.3126701493021199E-3</v>
       </c>
+      <c r="CK229" s="5">
+        <v>14</v>
+      </c>
+      <c r="CL229" s="5">
+        <v>82.4</v>
+      </c>
     </row>
-    <row r="230" spans="2:88" s="5" customFormat="1">
+    <row r="230" spans="2:90" s="5" customFormat="1">
       <c r="B230" s="5">
         <v>2006</v>
       </c>
@@ -49522,8 +50735,14 @@
       <c r="CJ230" s="5">
         <v>3.04723543274069E-2</v>
       </c>
+      <c r="CK230" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="CL230" s="5">
+        <v>88.9</v>
+      </c>
     </row>
-    <row r="231" spans="2:88" s="5" customFormat="1">
+    <row r="231" spans="2:90" s="5" customFormat="1">
       <c r="B231" s="5">
         <v>2006.25</v>
       </c>
@@ -49783,8 +51002,14 @@
       <c r="CJ231" s="5">
         <v>-1.07364250233738E-2</v>
       </c>
+      <c r="CK231" s="5">
+        <v>8.2666666666666604</v>
+      </c>
+      <c r="CL231" s="5">
+        <v>83.8</v>
+      </c>
     </row>
-    <row r="232" spans="2:88" s="5" customFormat="1">
+    <row r="232" spans="2:90" s="5" customFormat="1">
       <c r="B232" s="5">
         <v>2006.5</v>
       </c>
@@ -50044,8 +51269,14 @@
       <c r="CJ232" s="5">
         <v>-8.0862243462785401E-3</v>
       </c>
+      <c r="CK232" s="5">
+        <v>5.8666666666666698</v>
+      </c>
+      <c r="CL232" s="5">
+        <v>84</v>
+      </c>
     </row>
-    <row r="233" spans="2:88" s="5" customFormat="1">
+    <row r="233" spans="2:90" s="5" customFormat="1">
       <c r="B233" s="5">
         <v>2006.75</v>
       </c>
@@ -50305,8 +51536,14 @@
       <c r="CJ233" s="5">
         <v>1.04141196210993E-2</v>
       </c>
+      <c r="CK233" s="5">
+        <v>1.5333333333333301</v>
+      </c>
+      <c r="CL233" s="5">
+        <v>92.5</v>
+      </c>
     </row>
-    <row r="234" spans="2:88" s="5" customFormat="1">
+    <row r="234" spans="2:90" s="5" customFormat="1">
       <c r="B234" s="5">
         <v>2007</v>
       </c>
@@ -50551,8 +51788,14 @@
       <c r="CJ234" s="5">
         <v>4.8808285251708003E-3</v>
       </c>
+      <c r="CK234" s="5">
+        <v>1</v>
+      </c>
+      <c r="CL234" s="5">
+        <v>92.2</v>
+      </c>
     </row>
-    <row r="235" spans="2:88" s="5" customFormat="1">
+    <row r="235" spans="2:90" s="5" customFormat="1">
       <c r="B235" s="5">
         <v>2007.25</v>
       </c>
@@ -50797,8 +52040,14 @@
       <c r="CJ235" s="5">
         <v>2.5347693394994798E-3</v>
       </c>
+      <c r="CK235" s="5">
+        <v>6</v>
+      </c>
+      <c r="CL235" s="5">
+        <v>86.9</v>
+      </c>
     </row>
-    <row r="236" spans="2:88" s="5" customFormat="1">
+    <row r="236" spans="2:90" s="5" customFormat="1">
       <c r="B236" s="5">
         <v>2007.5</v>
       </c>
@@ -51043,8 +52292,14 @@
       <c r="CJ236" s="5">
         <v>1.0392043356263999E-2</v>
       </c>
+      <c r="CK236" s="5">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="CL236" s="5">
+        <v>85.8</v>
+      </c>
     </row>
-    <row r="237" spans="2:88" s="5" customFormat="1">
+    <row r="237" spans="2:90" s="5" customFormat="1">
       <c r="B237" s="5">
         <v>2007.75</v>
       </c>
@@ -51289,8 +52544,14 @@
       <c r="CJ237" s="5">
         <v>8.4628105308085008E-3</v>
       </c>
+      <c r="CK237" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="CL237" s="5">
+        <v>77.5</v>
+      </c>
     </row>
-    <row r="238" spans="2:88" s="5" customFormat="1">
+    <row r="238" spans="2:90" s="5" customFormat="1">
       <c r="B238" s="5">
         <v>2008</v>
       </c>
@@ -51535,8 +52796,14 @@
       <c r="CJ238" s="5">
         <v>7.3006611023858402E-3</v>
       </c>
+      <c r="CK238" s="5">
+        <v>-1.6</v>
+      </c>
+      <c r="CL238" s="5">
+        <v>72.900000000000006</v>
+      </c>
     </row>
-    <row r="239" spans="2:88" s="5" customFormat="1">
+    <row r="239" spans="2:90" s="5" customFormat="1">
       <c r="B239" s="5">
         <v>2008.25</v>
       </c>
@@ -51781,8 +53048,14 @@
       <c r="CJ239" s="5">
         <v>3.7088530281313398E-2</v>
       </c>
+      <c r="CK239" s="5">
+        <v>-1.06666666666667</v>
+      </c>
+      <c r="CL239" s="5">
+        <v>59.6</v>
+      </c>
     </row>
-    <row r="240" spans="2:88" s="5" customFormat="1">
+    <row r="240" spans="2:90" s="5" customFormat="1">
       <c r="B240" s="5">
         <v>2008.5</v>
       </c>
@@ -52027,8 +53300,14 @@
       <c r="CJ240" s="5">
         <v>8.4916351160337702E-3</v>
       </c>
+      <c r="CK240" s="5">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="CL240" s="5">
+        <v>64.8</v>
+      </c>
     </row>
-    <row r="241" spans="2:88" s="5" customFormat="1">
+    <row r="241" spans="2:90" s="5" customFormat="1">
       <c r="B241" s="5">
         <v>2008.75</v>
       </c>
@@ -52273,8 +53552,14 @@
       <c r="CJ241" s="5">
         <v>3.2084637248778997E-2</v>
       </c>
+      <c r="CK241" s="5">
+        <v>-28.3333333333333</v>
+      </c>
+      <c r="CL241" s="5">
+        <v>57.7</v>
+      </c>
     </row>
-    <row r="242" spans="2:88" s="5" customFormat="1">
+    <row r="242" spans="2:90" s="5" customFormat="1">
       <c r="B242" s="5">
         <v>2009</v>
       </c>
@@ -52519,8 +53804,14 @@
       <c r="CJ242" s="5">
         <v>-2.1163025076845802E-3</v>
       </c>
+      <c r="CK242" s="5">
+        <v>-28.2</v>
+      </c>
+      <c r="CL242" s="5">
+        <v>58.3</v>
+      </c>
     </row>
-    <row r="243" spans="2:88" s="5" customFormat="1">
+    <row r="243" spans="2:90" s="5" customFormat="1">
       <c r="B243" s="5">
         <v>2009.25</v>
       </c>
@@ -52765,8 +54056,14 @@
       <c r="CJ243" s="5">
         <v>2.3434104297668099E-2</v>
       </c>
+      <c r="CK243" s="5">
+        <v>-14.0666666666667</v>
+      </c>
+      <c r="CL243" s="5">
+        <v>68.2</v>
+      </c>
     </row>
-    <row r="244" spans="2:88" s="5" customFormat="1">
+    <row r="244" spans="2:90" s="5" customFormat="1">
       <c r="B244" s="5">
         <v>2009.5</v>
       </c>
@@ -53011,8 +54308,14 @@
       <c r="CJ244" s="5">
         <v>-4.7274235656577401E-2</v>
       </c>
+      <c r="CK244" s="5">
+        <v>2.8666666666666698</v>
+      </c>
+      <c r="CL244" s="5">
+        <v>68.400000000000006</v>
+      </c>
     </row>
-    <row r="245" spans="2:88" s="5" customFormat="1">
+    <row r="245" spans="2:90" s="5" customFormat="1">
       <c r="B245" s="5">
         <v>2009.75</v>
       </c>
@@ -53257,8 +54560,14 @@
       <c r="CJ245" s="5">
         <v>-1.4296318403493E-2</v>
       </c>
+      <c r="CK245" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="CL245" s="5">
+        <v>70.099999999999994</v>
+      </c>
     </row>
-    <row r="246" spans="2:88" s="5" customFormat="1">
+    <row r="246" spans="2:90" s="5" customFormat="1">
       <c r="B246" s="5">
         <v>2010</v>
       </c>
@@ -53501,8 +54810,14 @@
       <c r="CJ246" s="5">
         <v>-2.71746428289825E-2</v>
       </c>
+      <c r="CK246" s="5">
+        <v>17.266666666666701</v>
+      </c>
+      <c r="CL246" s="5">
+        <v>73.900000000000006</v>
+      </c>
     </row>
-    <row r="247" spans="2:88" s="5" customFormat="1">
+    <row r="247" spans="2:90" s="5" customFormat="1">
       <c r="B247" s="5">
         <v>2010.25</v>
       </c>
@@ -53745,8 +55060,14 @@
       <c r="CJ247" s="5">
         <v>1.15833154386534E-2</v>
       </c>
+      <c r="CK247" s="5">
+        <v>15.133333333333301</v>
+      </c>
+      <c r="CL247" s="5">
+        <v>73.900000000000006</v>
+      </c>
     </row>
-    <row r="248" spans="2:88" s="5" customFormat="1">
+    <row r="248" spans="2:90" s="5" customFormat="1">
       <c r="B248" s="5">
         <v>2010.5</v>
       </c>
@@ -53989,8 +55310,14 @@
       <c r="CJ248" s="5">
         <v>-1.7178467647953001E-3</v>
       </c>
+      <c r="CK248" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="CL248" s="5">
+        <v>68.3</v>
+      </c>
     </row>
-    <row r="249" spans="2:88" s="5" customFormat="1">
+    <row r="249" spans="2:90" s="5" customFormat="1">
       <c r="B249" s="5">
         <v>2010.75</v>
       </c>
@@ -54233,8 +55560,14 @@
       <c r="CJ249" s="5">
         <v>-1.1526989592138201E-3</v>
       </c>
+      <c r="CK249" s="5">
+        <v>15.733333333333301</v>
+      </c>
+      <c r="CL249" s="5">
+        <v>71.2</v>
+      </c>
     </row>
-    <row r="250" spans="2:88" s="5" customFormat="1">
+    <row r="250" spans="2:90" s="5" customFormat="1">
       <c r="B250" s="5">
         <v>2011</v>
       </c>
@@ -54477,8 +55810,14 @@
       <c r="CJ250" s="5">
         <v>-1.39953406233502E-2</v>
       </c>
+      <c r="CK250" s="5">
+        <v>18.933333333333302</v>
+      </c>
+      <c r="CL250" s="5">
+        <v>73.099999999999994</v>
+      </c>
     </row>
-    <row r="251" spans="2:88" s="5" customFormat="1">
+    <row r="251" spans="2:90" s="5" customFormat="1">
       <c r="B251" s="5">
         <v>2011.25</v>
       </c>
@@ -54721,8 +56060,14 @@
       <c r="CJ251" s="5">
         <v>8.6974708402704007E-3</v>
       </c>
+      <c r="CK251" s="5">
+        <v>13</v>
+      </c>
+      <c r="CL251" s="5">
+        <v>71.900000000000006</v>
+      </c>
     </row>
-    <row r="252" spans="2:88" s="5" customFormat="1">
+    <row r="252" spans="2:90" s="5" customFormat="1">
       <c r="B252" s="5">
         <v>2011.5</v>
       </c>
@@ -54965,8 +56310,14 @@
       <c r="CJ252" s="5">
         <v>1.3913719644113301E-2</v>
       </c>
+      <c r="CK252" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="CL252" s="5">
+        <v>59.5</v>
+      </c>
     </row>
-    <row r="253" spans="2:88" s="5" customFormat="1">
+    <row r="253" spans="2:90" s="5" customFormat="1">
       <c r="B253" s="5">
         <v>2011.75</v>
       </c>
@@ -55209,8 +56560,14 @@
       <c r="CJ253" s="5">
         <v>3.4882737376158899E-3</v>
       </c>
+      <c r="CK253" s="5">
+        <v>3.6666666666666701</v>
+      </c>
+      <c r="CL253" s="5">
+        <v>64.7</v>
+      </c>
     </row>
-    <row r="254" spans="2:88" s="5" customFormat="1">
+    <row r="254" spans="2:90" s="5" customFormat="1">
       <c r="B254" s="5">
         <v>2012</v>
       </c>
@@ -55453,8 +56810,14 @@
       <c r="CJ254" s="5">
         <v>2.3936299849649199E-2</v>
       </c>
+      <c r="CK254" s="5">
+        <v>6.8</v>
+      </c>
+      <c r="CL254" s="5">
+        <v>75.5</v>
+      </c>
     </row>
-    <row r="255" spans="2:88" s="5" customFormat="1">
+    <row r="255" spans="2:90" s="5" customFormat="1">
       <c r="B255" s="5">
         <v>2012.25</v>
       </c>
@@ -55697,8 +57060,14 @@
       <c r="CJ255" s="5">
         <v>2.3564825122314101E-3</v>
       </c>
+      <c r="CK255" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="CL255" s="5">
+        <v>76.3</v>
+      </c>
     </row>
-    <row r="256" spans="2:88" s="5" customFormat="1">
+    <row r="256" spans="2:90" s="5" customFormat="1">
       <c r="B256" s="5">
         <v>2012.5</v>
       </c>
@@ -55941,8 +57310,14 @@
       <c r="CJ256" s="5">
         <v>-1.1745773023150499E-3</v>
       </c>
+      <c r="CK256" s="5">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="CL256" s="5">
+        <v>75</v>
+      </c>
     </row>
-    <row r="257" spans="2:88" s="5" customFormat="1">
+    <row r="257" spans="2:90" s="5" customFormat="1">
       <c r="B257" s="5">
         <v>2012.75</v>
       </c>
@@ -56185,8 +57560,14 @@
       <c r="CJ257" s="5">
         <v>2.1293083098247199E-2</v>
       </c>
+      <c r="CK257" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="CL257" s="5">
+        <v>79.400000000000006</v>
+      </c>
     </row>
-    <row r="258" spans="2:88" s="5" customFormat="1">
+    <row r="258" spans="2:90" s="5" customFormat="1">
       <c r="B258" s="5">
         <v>2013</v>
       </c>
@@ -56429,8 +57810,14 @@
       <c r="CJ258" s="5">
         <v>-4.5014263196975698E-2</v>
       </c>
+      <c r="CK258" s="5">
+        <v>6.6666666666666696</v>
+      </c>
+      <c r="CL258" s="5">
+        <v>76.7</v>
+      </c>
     </row>
-    <row r="259" spans="2:88" s="5" customFormat="1">
+    <row r="259" spans="2:90" s="5" customFormat="1">
       <c r="B259" s="5">
         <v>2013.25</v>
       </c>
@@ -56673,8 +58060,14 @@
       <c r="CJ259" s="5">
         <v>-3.24344269964054E-3</v>
       </c>
+      <c r="CK259" s="5">
+        <v>1.93333333333333</v>
+      </c>
+      <c r="CL259" s="5">
+        <v>81.7</v>
+      </c>
     </row>
-    <row r="260" spans="2:88" s="5" customFormat="1">
+    <row r="260" spans="2:90" s="5" customFormat="1">
       <c r="B260" s="5">
         <v>2013.5</v>
       </c>
@@ -56917,8 +58310,14 @@
       <c r="CJ260" s="5">
         <v>1.15798540862946E-2</v>
       </c>
+      <c r="CK260" s="5">
+        <v>9.86666666666666</v>
+      </c>
+      <c r="CL260" s="5">
+        <v>81.599999999999994</v>
+      </c>
     </row>
-    <row r="261" spans="2:88" s="5" customFormat="1">
+    <row r="261" spans="2:90" s="5" customFormat="1">
       <c r="B261" s="5">
         <v>2013.75</v>
       </c>
@@ -57161,8 +58560,14 @@
       <c r="CJ261" s="5">
         <v>6.8041974631820002E-3</v>
       </c>
+      <c r="CK261" s="5">
+        <v>11.533333333333299</v>
+      </c>
+      <c r="CL261" s="5">
+        <v>76.900000000000006</v>
+      </c>
     </row>
-    <row r="262" spans="2:88" s="5" customFormat="1">
+    <row r="262" spans="2:90" s="5" customFormat="1">
       <c r="B262" s="5">
         <v>2014</v>
       </c>
@@ -57405,8 +58810,14 @@
       <c r="CJ262" s="5">
         <v>7.5393482012172403E-3</v>
       </c>
+      <c r="CK262" s="5">
+        <v>8</v>
+      </c>
+      <c r="CL262" s="5">
+        <v>80.900000000000006</v>
+      </c>
     </row>
-    <row r="263" spans="2:88" s="5" customFormat="1">
+    <row r="263" spans="2:90" s="5" customFormat="1">
       <c r="B263" s="5">
         <v>2014.25</v>
       </c>
@@ -57649,8 +59060,14 @@
       <c r="CJ263" s="5">
         <v>2.3667655996496301E-2</v>
       </c>
+      <c r="CK263" s="5">
+        <v>11</v>
+      </c>
+      <c r="CL263" s="5">
+        <v>82.8</v>
+      </c>
     </row>
-    <row r="264" spans="2:88" s="5" customFormat="1">
+    <row r="264" spans="2:90" s="5" customFormat="1">
       <c r="B264" s="5">
         <v>2014.5</v>
       </c>
@@ -57893,8 +59310,14 @@
       <c r="CJ264" s="5">
         <v>2.6611213320989199E-2</v>
       </c>
+      <c r="CK264" s="5">
+        <v>13</v>
+      </c>
+      <c r="CL264" s="5">
+        <v>83</v>
+      </c>
     </row>
-    <row r="265" spans="2:88" s="5" customFormat="1">
+    <row r="265" spans="2:90" s="5" customFormat="1">
       <c r="B265" s="5">
         <v>2014.75</v>
       </c>
@@ -58137,8 +59560,14 @@
       <c r="CJ265" s="5">
         <v>1.2595507168991099E-2</v>
       </c>
+      <c r="CK265" s="5">
+        <v>13.133333333333301</v>
+      </c>
+      <c r="CL265" s="5">
+        <v>89.8</v>
+      </c>
     </row>
-    <row r="266" spans="2:88" s="5" customFormat="1">
+    <row r="266" spans="2:90" s="5" customFormat="1">
       <c r="B266" s="5">
         <v>2015</v>
       </c>
@@ -58381,8 +59810,14 @@
       <c r="CJ266" s="5">
         <v>2.1122514106683501E-2</v>
       </c>
+      <c r="CK266" s="5">
+        <v>6.3333333333333304</v>
+      </c>
+      <c r="CL266" s="5">
+        <v>95.5</v>
+      </c>
     </row>
-    <row r="267" spans="2:88" s="5" customFormat="1">
+    <row r="267" spans="2:90" s="5" customFormat="1">
       <c r="B267" s="5">
         <v>2015.25</v>
       </c>
@@ -58625,8 +60060,14 @@
       <c r="CJ267" s="5">
         <v>2.0890668801432699E-2</v>
       </c>
+      <c r="CK267" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="CL267" s="5">
+        <v>94.2</v>
+      </c>
     </row>
-    <row r="268" spans="2:88" s="5" customFormat="1">
+    <row r="268" spans="2:90" s="5" customFormat="1">
       <c r="B268" s="5">
         <v>2015.5</v>
       </c>
@@ -58869,8 +60310,14 @@
       <c r="CJ268" s="5">
         <v>7.3587399273475204E-3</v>
       </c>
+      <c r="CK268" s="5">
+        <v>1.93333333333333</v>
+      </c>
+      <c r="CL268" s="5">
+        <v>90.8</v>
+      </c>
     </row>
-    <row r="269" spans="2:88" s="5" customFormat="1">
+    <row r="269" spans="2:90" s="5" customFormat="1">
       <c r="B269" s="5">
         <v>2015.75</v>
       </c>
@@ -59113,8 +60560,14 @@
       <c r="CJ269" s="5">
         <v>9.7422055700901299E-3</v>
       </c>
+      <c r="CK269" s="5">
+        <v>-2.8</v>
+      </c>
+      <c r="CL269" s="5">
+        <v>91.3</v>
+      </c>
     </row>
-    <row r="270" spans="2:88" s="5" customFormat="1">
+    <row r="270" spans="2:90" s="5" customFormat="1">
       <c r="B270" s="5">
         <v>2016</v>
       </c>
@@ -59357,8 +60810,14 @@
       <c r="CJ270" s="5">
         <v>8.7716829805082296E-4</v>
       </c>
+      <c r="CK270" s="5">
+        <v>-0.33333333333333298</v>
+      </c>
+      <c r="CL270" s="5">
+        <v>91.5</v>
+      </c>
     </row>
-    <row r="271" spans="2:88" s="5" customFormat="1">
+    <row r="271" spans="2:90" s="5" customFormat="1">
       <c r="B271" s="5">
         <v>2016.25</v>
       </c>
@@ -59601,8 +61060,14 @@
       <c r="CJ271" s="5">
         <v>8.3717660076668508E-3</v>
       </c>
+      <c r="CK271" s="5">
+        <v>3.5333333333333301</v>
+      </c>
+      <c r="CL271" s="5">
+        <v>92.4</v>
+      </c>
     </row>
-    <row r="272" spans="2:88" s="5" customFormat="1">
+    <row r="272" spans="2:90" s="5" customFormat="1">
       <c r="B272" s="5">
         <v>2016.5</v>
       </c>
@@ -59842,8 +61307,14 @@
       <c r="CJ272" s="5">
         <v>1.38437266541264E-2</v>
       </c>
+      <c r="CK272" s="5">
+        <v>2.3333333333333299</v>
+      </c>
+      <c r="CL272" s="5">
+        <v>90.3</v>
+      </c>
     </row>
-    <row r="273" spans="2:88" s="5" customFormat="1">
+    <row r="273" spans="2:90" s="5" customFormat="1">
       <c r="B273" s="5">
         <v>2016.75</v>
       </c>
@@ -60083,8 +61554,14 @@
       <c r="CJ273" s="5">
         <v>-1.39177968905237E-2</v>
       </c>
+      <c r="CK273" s="5">
+        <v>6.5333333333333297</v>
+      </c>
+      <c r="CL273" s="5">
+        <v>93.2</v>
+      </c>
     </row>
-    <row r="274" spans="2:88" s="5" customFormat="1">
+    <row r="274" spans="2:90" s="5" customFormat="1">
       <c r="B274" s="5">
         <v>2017</v>
       </c>
@@ -60322,8 +61799,14 @@
       <c r="CJ274" s="5">
         <v>1.03870738675536E-2</v>
       </c>
+      <c r="CK274" s="5">
+        <v>13.9333333333333</v>
+      </c>
+      <c r="CL274" s="5">
+        <v>97.2</v>
+      </c>
     </row>
-    <row r="275" spans="2:88" s="5" customFormat="1">
+    <row r="275" spans="2:90" s="5" customFormat="1">
       <c r="B275" s="5">
         <v>2017.25</v>
       </c>
@@ -60558,8 +62041,14 @@
       <c r="CJ275" s="5">
         <v>1.2724508580569799E-3</v>
       </c>
+      <c r="CK275" s="5">
+        <v>11.6666666666667</v>
+      </c>
+      <c r="CL275" s="5">
+        <v>96.4</v>
+      </c>
     </row>
-    <row r="276" spans="2:88" s="5" customFormat="1">
+    <row r="276" spans="2:90" s="5" customFormat="1">
       <c r="B276" s="5">
         <v>2017.5</v>
       </c>
@@ -60755,8 +62244,14 @@
       <c r="BZ276" s="5">
         <v>326163.33333333331</v>
       </c>
+      <c r="CK276" s="5">
+        <v>17.266666666666701</v>
+      </c>
+      <c r="CL276" s="5">
+        <v>95.1</v>
+      </c>
     </row>
-    <row r="277" spans="2:88" s="5" customFormat="1">
+    <row r="277" spans="2:90" s="5" customFormat="1">
       <c r="B277" s="5">
         <v>2017.75</v>
       </c>
@@ -60914,8 +62409,14 @@
       <c r="BZ277" s="5">
         <v>326810.33333333331</v>
       </c>
+      <c r="CK277" s="5">
+        <v>17.733333333333299</v>
+      </c>
+      <c r="CL277" s="5">
+        <v>98.4</v>
+      </c>
     </row>
-    <row r="278" spans="2:88" s="5" customFormat="1">
+    <row r="278" spans="2:90" s="5" customFormat="1">
       <c r="B278" s="5">
         <v>2018</v>
       </c>
@@ -61073,8 +62574,11 @@
       <c r="BZ278" s="5">
         <v>327342.66666666669</v>
       </c>
+      <c r="CK278" s="5">
+        <v>19.466666666666701</v>
+      </c>
     </row>
-    <row r="279" spans="2:88" s="5" customFormat="1">
+    <row r="279" spans="2:90" s="5" customFormat="1">
       <c r="B279" s="5">
         <v>2018.25</v>
       </c>
@@ -61216,8 +62720,11 @@
       <c r="BZ279" s="5">
         <v>327857.66666666669</v>
       </c>
+      <c r="CK279" s="5">
+        <v>17.466666666666701</v>
+      </c>
     </row>
-    <row r="280" spans="2:88" s="5" customFormat="1">
+    <row r="280" spans="2:90" s="5" customFormat="1">
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="N280" s="4"/>
@@ -61267,8 +62774,11 @@
       <c r="BZ280" s="5">
         <v>328477.33333333331</v>
       </c>
+      <c r="CK280" s="5">
+        <v>19.466666666666701</v>
+      </c>
     </row>
-    <row r="281" spans="2:88" s="5" customFormat="1">
+    <row r="281" spans="2:90" s="5" customFormat="1">
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
       <c r="N281" s="4"/>
@@ -61315,7 +62825,7 @@
         <v>329124.33333333331</v>
       </c>
     </row>
-    <row r="282" spans="2:88" s="5" customFormat="1">
+    <row r="282" spans="2:90" s="5" customFormat="1">
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="P282" s="4"/>
@@ -61343,7 +62853,7 @@
       <c r="BW282" s="8"/>
       <c r="BX282" s="8"/>
     </row>
-    <row r="283" spans="2:88" s="5" customFormat="1">
+    <row r="283" spans="2:90" s="5" customFormat="1">
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
       <c r="P283" s="4"/>
@@ -61358,7 +62868,7 @@
       <c r="BW283" s="8"/>
       <c r="BX283" s="8"/>
     </row>
-    <row r="284" spans="2:88" s="5" customFormat="1">
+    <row r="284" spans="2:90" s="5" customFormat="1">
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="P284" s="4"/>
@@ -61373,7 +62883,7 @@
       <c r="BW284" s="8"/>
       <c r="BX284" s="8"/>
     </row>
-    <row r="285" spans="2:88" s="5" customFormat="1">
+    <row r="285" spans="2:90" s="5" customFormat="1">
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
       <c r="P285" s="4"/>
@@ -61388,7 +62898,7 @@
       <c r="BW285" s="8"/>
       <c r="BX285" s="8"/>
     </row>
-    <row r="286" spans="2:88" s="5" customFormat="1">
+    <row r="286" spans="2:90" s="5" customFormat="1">
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="P286" s="4"/>
@@ -61403,7 +62913,7 @@
       <c r="BW286" s="8"/>
       <c r="BX286" s="8"/>
     </row>
-    <row r="287" spans="2:88" s="5" customFormat="1">
+    <row r="287" spans="2:90" s="5" customFormat="1">
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
       <c r="P287" s="4"/>
@@ -61418,7 +62928,7 @@
       <c r="BW287" s="8"/>
       <c r="BX287" s="8"/>
     </row>
-    <row r="288" spans="2:88" s="5" customFormat="1">
+    <row r="288" spans="2:90" s="5" customFormat="1">
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="P288" s="4"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 See Monthly Dataset. It comes from there.</t>
@@ -61,7 +61,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 See Monthly Dataset it comes from there.</t>
@@ -85,7 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -94,7 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 See Monthly dataset it comes from there.</t>
@@ -109,7 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -118,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is change in inventories. Not sure that is correct because I do not know if it is real. Safer using total real inventories. </t>
@@ -133,7 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -142,7 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Total Real Inventories (Stock)</t>
@@ -157,7 +157,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -166,7 +166,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Real manufacturing and Trade Industries Sales</t>
@@ -181,7 +181,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:
 Questa variabile me la sono inventata io. Divido Real inventories per Real Sales. Non e' la variabile ufficiale!</t>
@@ -196,7 +196,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -205,7 +205,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 It is still in level at this point. It nees to be transformed into inflation.</t>
@@ -220,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -229,7 +229,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nominal corporate profit before tax divided over GDP deflator</t>
@@ -244,7 +244,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -253,7 +253,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Nominal corporate profit after tax divided over GDP deflator</t>
@@ -268,7 +268,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Marco Brianti:</t>
         </r>
@@ -277,7 +277,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 difference between LoanRate and Tres3M</t>
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>RealSales</t>
-  </si>
-  <si>
-    <t>RealI2S</t>
   </si>
   <si>
     <t>PriceCPE</t>
@@ -651,6 +648,15 @@
   <si>
     <t>MedianMichIndexCPI</t>
   </si>
+  <si>
+    <t>I2S</t>
+  </si>
+  <si>
+    <t>RameyFiscalNews</t>
+  </si>
+  <si>
+    <t>BenZeevPappaDefenseNews</t>
+  </si>
 </sst>
 </file>
 
@@ -660,7 +666,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,19 +732,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1134,13 +1128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CT629"/>
+  <dimension ref="A1:CV629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="CK335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CT2" sqref="CT2"/>
+      <selection pane="bottomRight" activeCell="CV20" sqref="CV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -1194,10 +1188,12 @@
     <col min="73" max="74" width="22" style="2"/>
     <col min="75" max="83" width="22" style="3"/>
     <col min="84" max="84" width="22" style="3" customWidth="1"/>
-    <col min="85" max="16384" width="22" style="3"/>
+    <col min="85" max="99" width="22" style="3"/>
+    <col min="100" max="100" width="29.85546875" style="3" customWidth="1"/>
+    <col min="101" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="7" customFormat="1">
+    <row r="1" spans="1:100" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1238,94 +1234,94 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>12</v>
@@ -1334,7 +1330,7 @@
         <v>13</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AU1" s="7" t="s">
         <v>27</v>
@@ -1355,19 +1351,19 @@
         <v>19</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="BD1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BF1" s="7" t="s">
         <v>31</v>
@@ -1382,7 +1378,7 @@
         <v>48</v>
       </c>
       <c r="BJ1" s="7" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="BK1" s="7" t="s">
         <v>21</v>
@@ -1394,16 +1390,16 @@
         <v>38</v>
       </c>
       <c r="BN1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BO1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="BR1" s="7" t="s">
         <v>23</v>
@@ -1442,7 +1438,7 @@
         <v>41</v>
       </c>
       <c r="CD1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CE1" s="7" t="s">
         <v>42</v>
@@ -1451,49 +1447,55 @@
         <v>43</v>
       </c>
       <c r="CG1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CH1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="CI1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="CP1" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="CQ1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="CS1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="CT1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CT1" s="7" t="s">
-        <v>103</v>
+      <c r="CU1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV1" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:98" s="7" customFormat="1">
+    <row r="2" spans="1:100" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:98" s="7" customFormat="1">
+    <row r="3" spans="1:100" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:98" s="7" customFormat="1">
+    <row r="4" spans="1:100" s="7" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:98" s="7" customFormat="1">
+    <row r="5" spans="1:100" s="7" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:98" s="5" customFormat="1">
+    <row r="6" spans="1:100" s="5" customFormat="1">
       <c r="B6" s="5">
         <v>1950</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>-25.047000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:98" s="5" customFormat="1">
+    <row r="7" spans="1:100" s="5" customFormat="1">
       <c r="B7" s="5">
         <v>1950.25</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>-25.356999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:98" s="5" customFormat="1">
+    <row r="8" spans="1:100" s="5" customFormat="1">
       <c r="B8" s="5">
         <v>1950.5</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>-25.962</v>
       </c>
     </row>
-    <row r="9" spans="1:98" s="5" customFormat="1">
+    <row r="9" spans="1:100" s="5" customFormat="1">
       <c r="B9" s="5">
         <v>1950.75</v>
       </c>
@@ -3069,7 +3071,7 @@
         <v>-26.004000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:98" s="5" customFormat="1">
+    <row r="10" spans="1:100" s="5" customFormat="1">
       <c r="B10" s="5">
         <v>1951</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>-26.062999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:98" s="5" customFormat="1">
+    <row r="11" spans="1:100" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>1951.25</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>-25.963999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:98" s="5" customFormat="1">
+    <row r="12" spans="1:100" s="5" customFormat="1">
       <c r="B12" s="5">
         <v>1951.5</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>-26.617999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="5" customFormat="1">
+    <row r="13" spans="1:100" s="5" customFormat="1">
       <c r="B13" s="5">
         <v>1951.75</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>-26.686</v>
       </c>
     </row>
-    <row r="14" spans="1:98" s="5" customFormat="1">
+    <row r="14" spans="1:100" s="5" customFormat="1">
       <c r="B14" s="5">
         <v>1952</v>
       </c>
@@ -3562,7 +3564,7 @@
         <v>156522.33333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:98" s="5" customFormat="1">
+    <row r="15" spans="1:100" s="5" customFormat="1">
       <c r="B15" s="5">
         <v>1952.25</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>157142</v>
       </c>
     </row>
-    <row r="16" spans="1:98" s="5" customFormat="1">
+    <row r="16" spans="1:100" s="5" customFormat="1">
       <c r="B16" s="5">
         <v>1952.5</v>
       </c>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -333,6 +333,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="CU1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Marco Brianti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+See matlab function create_TFP_surprise.m</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -652,10 +676,10 @@
     <t>I2S</t>
   </si>
   <si>
-    <t>RameyFiscalNews</t>
+    <t>BenZeevPappaDefenseNews</t>
   </si>
   <si>
-    <t>BenZeevPappaDefenseNews</t>
+    <t>UnantTFPshock</t>
   </si>
 </sst>
 </file>
@@ -666,7 +690,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +770,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1131,10 +1168,10 @@
   <dimension ref="A1:CV629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="CM6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CM42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CV20" sqref="CV20"/>
+      <selection pane="bottomRight" activeCell="CT52" sqref="CT52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
@@ -1489,10 +1526,10 @@
         <v>102</v>
       </c>
       <c r="CU1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CV1" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="CV1" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:100" s="7" customFormat="1">
@@ -1790,6 +1827,9 @@
       <c r="CT2" s="7">
         <v>2</v>
       </c>
+      <c r="CU2" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:100" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
@@ -2086,6 +2126,9 @@
       <c r="CT3" s="7">
         <v>1</v>
       </c>
+      <c r="CU3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:100" s="7" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -2382,6 +2425,9 @@
       <c r="CT4" s="7">
         <v>97</v>
       </c>
+      <c r="CU4" s="7">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:100" s="7" customFormat="1">
       <c r="A5" s="6" t="s">
@@ -2677,6 +2723,9 @@
       </c>
       <c r="CT5" s="7">
         <v>97</v>
+      </c>
+      <c r="CU5" s="7">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:100" s="5" customFormat="1">
@@ -7447,7 +7496,7 @@
         <v>97.2</v>
       </c>
     </row>
-    <row r="49" spans="2:96" s="5" customFormat="1">
+    <row r="49" spans="2:99" s="5" customFormat="1">
       <c r="B49" s="5">
         <v>1960.75</v>
       </c>
@@ -7604,7 +7653,7 @@
         <v>90.1</v>
       </c>
     </row>
-    <row r="50" spans="2:96" s="5" customFormat="1">
+    <row r="50" spans="2:99" s="5" customFormat="1">
       <c r="B50" s="5">
         <v>1961</v>
       </c>
@@ -7764,7 +7813,7 @@
         <v>91.6</v>
       </c>
     </row>
-    <row r="51" spans="2:96" s="5" customFormat="1">
+    <row r="51" spans="2:99" s="5" customFormat="1">
       <c r="B51" s="5">
         <v>1961.25</v>
       </c>
@@ -7924,7 +7973,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="52" spans="2:96" s="5" customFormat="1">
+    <row r="52" spans="2:99" s="5" customFormat="1">
       <c r="B52" s="5">
         <v>1961.5</v>
       </c>
@@ -8084,7 +8133,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="53" spans="2:96" s="5" customFormat="1">
+    <row r="53" spans="2:99" s="5" customFormat="1">
       <c r="B53" s="5">
         <v>1961.75</v>
       </c>
@@ -8244,7 +8293,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="2:96" s="5" customFormat="1">
+    <row r="54" spans="2:99" s="5" customFormat="1">
       <c r="B54" s="5">
         <v>1962</v>
       </c>
@@ -8403,8 +8452,11 @@
       <c r="CR54" s="5">
         <v>99.9</v>
       </c>
+      <c r="CU54" s="5">
+        <v>-6.9060980278445904E-4</v>
+      </c>
     </row>
-    <row r="55" spans="2:96" s="5" customFormat="1">
+    <row r="55" spans="2:99" s="5" customFormat="1">
       <c r="B55" s="5">
         <v>1962.25</v>
       </c>
@@ -8563,8 +8615,11 @@
       <c r="CR55" s="5">
         <v>95.4</v>
       </c>
+      <c r="CU55" s="5">
+        <v>-4.4053031702686603E-2</v>
+      </c>
     </row>
-    <row r="56" spans="2:96" s="5" customFormat="1">
+    <row r="56" spans="2:99" s="5" customFormat="1">
       <c r="B56" s="5">
         <v>1962.5</v>
       </c>
@@ -8723,8 +8778,11 @@
       <c r="CR56" s="5">
         <v>91.6</v>
       </c>
+      <c r="CU56" s="5">
+        <v>2.6541047120588999E-2</v>
+      </c>
     </row>
-    <row r="57" spans="2:96" s="5" customFormat="1">
+    <row r="57" spans="2:99" s="5" customFormat="1">
       <c r="B57" s="5">
         <v>1962.75</v>
       </c>
@@ -8883,8 +8941,11 @@
       <c r="CR57" s="5">
         <v>95</v>
       </c>
+      <c r="CU57" s="5">
+        <v>1.4633200836711401E-2</v>
+      </c>
     </row>
-    <row r="58" spans="2:96" s="5" customFormat="1">
+    <row r="58" spans="2:99" s="5" customFormat="1">
       <c r="B58" s="5">
         <v>1963</v>
       </c>
@@ -9043,8 +9104,11 @@
       <c r="CR58" s="5">
         <v>98.4</v>
       </c>
+      <c r="CU58" s="5">
+        <v>-1.8192698035793799E-2</v>
+      </c>
     </row>
-    <row r="59" spans="2:96" s="5" customFormat="1">
+    <row r="59" spans="2:99" s="5" customFormat="1">
       <c r="B59" s="5">
         <v>1963.25</v>
       </c>
@@ -9203,8 +9267,11 @@
       <c r="CR59" s="5">
         <v>91.7</v>
       </c>
+      <c r="CU59" s="5">
+        <v>-2.2065209687745502E-2</v>
+      </c>
     </row>
-    <row r="60" spans="2:96" s="5" customFormat="1">
+    <row r="60" spans="2:99" s="5" customFormat="1">
       <c r="B60" s="5">
         <v>1963.5</v>
       </c>
@@ -9363,8 +9430,11 @@
       <c r="CR60" s="5">
         <v>96.4</v>
       </c>
+      <c r="CU60" s="5">
+        <v>2.3894978645858801E-2</v>
+      </c>
     </row>
-    <row r="61" spans="2:96" s="5" customFormat="1">
+    <row r="61" spans="2:99" s="5" customFormat="1">
       <c r="B61" s="5">
         <v>1963.75</v>
       </c>
@@ -9523,8 +9593,11 @@
       <c r="CR61" s="5">
         <v>94.4</v>
       </c>
+      <c r="CU61" s="5">
+        <v>-1.59524866197602E-2</v>
+      </c>
     </row>
-    <row r="62" spans="2:96" s="5" customFormat="1">
+    <row r="62" spans="2:99" s="5" customFormat="1">
       <c r="B62" s="5">
         <v>1964</v>
       </c>
@@ -9683,8 +9756,11 @@
       <c r="CR62" s="5">
         <v>99.5</v>
       </c>
+      <c r="CU62" s="5">
+        <v>1.7849912882654601E-2</v>
+      </c>
     </row>
-    <row r="63" spans="2:96" s="5" customFormat="1">
+    <row r="63" spans="2:99" s="5" customFormat="1">
       <c r="B63" s="5">
         <v>1964.25</v>
       </c>
@@ -9843,8 +9919,11 @@
       <c r="CR63" s="5">
         <v>98.5</v>
       </c>
+      <c r="CU63" s="5">
+        <v>-3.7508940691302103E-2</v>
+      </c>
     </row>
-    <row r="64" spans="2:96" s="5" customFormat="1">
+    <row r="64" spans="2:99" s="5" customFormat="1">
       <c r="B64" s="5">
         <v>1964.5</v>
       </c>
@@ -10003,8 +10082,11 @@
       <c r="CR64" s="5">
         <v>100.6</v>
       </c>
+      <c r="CU64" s="5">
+        <v>-1.32848301895905E-2</v>
+      </c>
     </row>
-    <row r="65" spans="2:96" s="5" customFormat="1">
+    <row r="65" spans="2:99" s="5" customFormat="1">
       <c r="B65" s="5">
         <v>1964.75</v>
       </c>
@@ -10163,8 +10245,11 @@
       <c r="CR65" s="5">
         <v>99.9</v>
       </c>
+      <c r="CU65" s="5">
+        <v>-1.76299623683513E-2</v>
+      </c>
     </row>
-    <row r="66" spans="2:96" s="5" customFormat="1">
+    <row r="66" spans="2:99" s="5" customFormat="1">
       <c r="B66" s="5">
         <v>1965</v>
       </c>
@@ -10323,8 +10408,11 @@
       <c r="CR66" s="5">
         <v>102</v>
       </c>
+      <c r="CU66" s="5">
+        <v>-2.2937204957867802E-2</v>
+      </c>
     </row>
-    <row r="67" spans="2:96" s="5" customFormat="1">
+    <row r="67" spans="2:99" s="5" customFormat="1">
       <c r="B67" s="5">
         <v>1965.25</v>
       </c>
@@ -10483,8 +10571,11 @@
       <c r="CR67" s="5">
         <v>105.4</v>
       </c>
+      <c r="CU67" s="5">
+        <v>-9.3422077180267404E-3</v>
+      </c>
     </row>
-    <row r="68" spans="2:96" s="5" customFormat="1">
+    <row r="68" spans="2:99" s="5" customFormat="1">
       <c r="B68" s="5">
         <v>1965.5</v>
       </c>
@@ -10643,8 +10734,11 @@
       <c r="CR68" s="5">
         <v>103.4</v>
       </c>
+      <c r="CU68" s="5">
+        <v>4.7534906497818101E-2</v>
+      </c>
     </row>
-    <row r="69" spans="2:96" s="5" customFormat="1">
+    <row r="69" spans="2:99" s="5" customFormat="1">
       <c r="B69" s="5">
         <v>1965.75</v>
       </c>
@@ -10803,8 +10897,11 @@
       <c r="CR69" s="5">
         <v>102.9</v>
       </c>
+      <c r="CU69" s="5">
+        <v>2.1748027997525699E-4</v>
+      </c>
     </row>
-    <row r="70" spans="2:96" s="5" customFormat="1">
+    <row r="70" spans="2:99" s="5" customFormat="1">
       <c r="B70" s="5">
         <v>1966</v>
       </c>
@@ -10963,8 +11060,11 @@
       <c r="CR70" s="5">
         <v>100</v>
       </c>
+      <c r="CU70" s="5">
+        <v>-1.6289404364360201E-3</v>
+      </c>
     </row>
-    <row r="71" spans="2:96" s="5" customFormat="1">
+    <row r="71" spans="2:99" s="5" customFormat="1">
       <c r="B71" s="5">
         <v>1966.25</v>
       </c>
@@ -11127,8 +11227,11 @@
       <c r="CR71" s="5">
         <v>95.7</v>
       </c>
+      <c r="CU71" s="5">
+        <v>-3.2765177645972303E-2</v>
+      </c>
     </row>
-    <row r="72" spans="2:96" s="5" customFormat="1">
+    <row r="72" spans="2:99" s="5" customFormat="1">
       <c r="B72" s="5">
         <v>1966.5</v>
       </c>
@@ -11291,8 +11394,11 @@
       <c r="CR72" s="5">
         <v>91.2</v>
       </c>
+      <c r="CU72" s="5">
+        <v>-2.4731275711419299E-2</v>
+      </c>
     </row>
-    <row r="73" spans="2:96" s="5" customFormat="1">
+    <row r="73" spans="2:99" s="5" customFormat="1">
       <c r="B73" s="5">
         <v>1966.75</v>
       </c>
@@ -11455,8 +11561,11 @@
       <c r="CR73" s="5">
         <v>88.3</v>
       </c>
+      <c r="CU73" s="5">
+        <v>3.05745366155716E-2</v>
+      </c>
     </row>
-    <row r="74" spans="2:96" s="5" customFormat="1">
+    <row r="74" spans="2:99" s="5" customFormat="1">
       <c r="B74" s="5">
         <v>1967</v>
       </c>
@@ -11623,8 +11732,11 @@
       <c r="CR74" s="5">
         <v>94.1</v>
       </c>
+      <c r="CU74" s="5">
+        <v>3.1242139633650599E-2</v>
+      </c>
     </row>
-    <row r="75" spans="2:96" s="5" customFormat="1">
+    <row r="75" spans="2:99" s="5" customFormat="1">
       <c r="B75" s="5">
         <v>1967.25</v>
       </c>
@@ -11791,8 +11903,11 @@
       <c r="CR75" s="5">
         <v>95.9</v>
       </c>
+      <c r="CU75" s="5">
+        <v>1.37287921249307E-2</v>
+      </c>
     </row>
-    <row r="76" spans="2:96" s="5" customFormat="1">
+    <row r="76" spans="2:99" s="5" customFormat="1">
       <c r="B76" s="5">
         <v>1967.5</v>
       </c>
@@ -11963,8 +12078,11 @@
       <c r="CR76" s="5">
         <v>97</v>
       </c>
+      <c r="CU76" s="5">
+        <v>4.4020894807650403E-3</v>
+      </c>
     </row>
-    <row r="77" spans="2:96" s="5" customFormat="1">
+    <row r="77" spans="2:99" s="5" customFormat="1">
       <c r="B77" s="5">
         <v>1967.75</v>
       </c>
@@ -12135,8 +12253,11 @@
       <c r="CR77" s="5">
         <v>92.9</v>
       </c>
+      <c r="CU77" s="5">
+        <v>1.8591063674601602E-2</v>
+      </c>
     </row>
-    <row r="78" spans="2:96" s="5" customFormat="1">
+    <row r="78" spans="2:99" s="5" customFormat="1">
       <c r="B78" s="5">
         <v>1968</v>
       </c>
@@ -12307,8 +12428,11 @@
       <c r="CR78" s="5">
         <v>97.2</v>
       </c>
+      <c r="CU78" s="5">
+        <v>2.7550936384695499E-2</v>
+      </c>
     </row>
-    <row r="79" spans="2:96" s="5" customFormat="1">
+    <row r="79" spans="2:99" s="5" customFormat="1">
       <c r="B79" s="5">
         <v>1968.25</v>
       </c>
@@ -12479,8 +12603,11 @@
       <c r="CR79" s="5">
         <v>92.4</v>
       </c>
+      <c r="CU79" s="5">
+        <v>-3.55510654889701E-3</v>
+      </c>
     </row>
-    <row r="80" spans="2:96" s="5" customFormat="1">
+    <row r="80" spans="2:99" s="5" customFormat="1">
       <c r="B80" s="5">
         <v>1968.5</v>
       </c>
@@ -12651,8 +12778,11 @@
       <c r="CR80" s="5">
         <v>92.4</v>
       </c>
+      <c r="CU80" s="5">
+        <v>-3.7874322699555298E-2</v>
+      </c>
     </row>
-    <row r="81" spans="2:96" s="5" customFormat="1">
+    <row r="81" spans="2:99" s="5" customFormat="1">
       <c r="B81" s="5">
         <v>1968.75</v>
       </c>
@@ -12883,8 +13013,11 @@
       <c r="CR81" s="5">
         <v>91.7</v>
       </c>
+      <c r="CU81" s="5">
+        <v>-1.8423973501535199E-2</v>
+      </c>
     </row>
-    <row r="82" spans="2:96" s="5" customFormat="1">
+    <row r="82" spans="2:99" s="5" customFormat="1">
       <c r="B82" s="5">
         <v>1969</v>
       </c>
@@ -13119,8 +13252,11 @@
       <c r="CR82" s="5">
         <v>98.2</v>
       </c>
+      <c r="CU82" s="5">
+        <v>-2.2729588851272201E-2</v>
+      </c>
     </row>
-    <row r="83" spans="2:96" s="5" customFormat="1">
+    <row r="83" spans="2:99" s="5" customFormat="1">
       <c r="B83" s="5">
         <v>1969.25</v>
       </c>
@@ -13355,8 +13491,11 @@
       <c r="CR83" s="5">
         <v>91.5</v>
       </c>
+      <c r="CU83" s="5">
+        <v>-4.6041758310067203E-2</v>
+      </c>
     </row>
-    <row r="84" spans="2:96" s="5" customFormat="1">
+    <row r="84" spans="2:99" s="5" customFormat="1">
       <c r="B84" s="5">
         <v>1969.5</v>
       </c>
@@ -13591,8 +13730,11 @@
       <c r="CR84" s="5">
         <v>86.4</v>
       </c>
+      <c r="CU84" s="5">
+        <v>-2.15026563993219E-2</v>
+      </c>
     </row>
-    <row r="85" spans="2:96" s="5" customFormat="1">
+    <row r="85" spans="2:99" s="5" customFormat="1">
       <c r="B85" s="5">
         <v>1969.75</v>
       </c>
@@ -13826,8 +13968,11 @@
       <c r="CR85" s="5">
         <v>79.7</v>
       </c>
+      <c r="CU85" s="5">
+        <v>-2.6706053815924901E-2</v>
+      </c>
     </row>
-    <row r="86" spans="2:96" s="5" customFormat="1">
+    <row r="86" spans="2:99" s="5" customFormat="1">
       <c r="B86" s="5">
         <v>1970</v>
       </c>
@@ -14063,8 +14208,11 @@
       <c r="CR86" s="5">
         <v>78.099999999999994</v>
       </c>
+      <c r="CU86" s="5">
+        <v>1.44904179401077E-2</v>
+      </c>
     </row>
-    <row r="87" spans="2:96" s="5" customFormat="1">
+    <row r="87" spans="2:99" s="5" customFormat="1">
       <c r="B87" s="5">
         <v>1970.25</v>
       </c>
@@ -14298,8 +14446,11 @@
       <c r="CR87" s="5">
         <v>75.400000000000006</v>
       </c>
+      <c r="CU87" s="5">
+        <v>4.8256000739978197E-2</v>
+      </c>
     </row>
-    <row r="88" spans="2:96" s="5" customFormat="1">
+    <row r="88" spans="2:99" s="5" customFormat="1">
       <c r="B88" s="5">
         <v>1970.5</v>
       </c>
@@ -14533,8 +14684,11 @@
       <c r="CR88" s="5">
         <v>77.599999999999994</v>
       </c>
+      <c r="CU88" s="5">
+        <v>3.5081261234214602E-2</v>
+      </c>
     </row>
-    <row r="89" spans="2:96" s="5" customFormat="1">
+    <row r="89" spans="2:99" s="5" customFormat="1">
       <c r="B89" s="5">
         <v>1970.75</v>
       </c>
@@ -14768,8 +14922,11 @@
       <c r="CR89" s="5">
         <v>72.400000000000006</v>
       </c>
+      <c r="CU89" s="5">
+        <v>-2.3957826674090299E-2</v>
+      </c>
     </row>
-    <row r="90" spans="2:96" s="5" customFormat="1">
+    <row r="90" spans="2:99" s="5" customFormat="1">
       <c r="B90" s="5">
         <v>1971</v>
       </c>
@@ -15003,8 +15160,11 @@
       <c r="CR90" s="5">
         <v>78.099999999999994</v>
       </c>
+      <c r="CU90" s="5">
+        <v>1.6576850377646401E-2</v>
+      </c>
     </row>
-    <row r="91" spans="2:96" s="5" customFormat="1">
+    <row r="91" spans="2:99" s="5" customFormat="1">
       <c r="B91" s="5">
         <v>1971.25</v>
       </c>
@@ -15238,8 +15398,11 @@
       <c r="CR91" s="5">
         <v>80.2</v>
       </c>
+      <c r="CU91" s="5">
+        <v>9.9465753540210998E-3</v>
+      </c>
     </row>
-    <row r="92" spans="2:96" s="5" customFormat="1">
+    <row r="92" spans="2:99" s="5" customFormat="1">
       <c r="B92" s="5">
         <v>1971.5</v>
       </c>
@@ -15473,8 +15636,11 @@
       <c r="CR92" s="5">
         <v>82.1</v>
       </c>
+      <c r="CU92" s="5">
+        <v>5.0311508337979899E-2</v>
+      </c>
     </row>
-    <row r="93" spans="2:96" s="5" customFormat="1">
+    <row r="93" spans="2:99" s="5" customFormat="1">
       <c r="B93" s="5">
         <v>1971.75</v>
       </c>
@@ -15708,8 +15874,11 @@
       <c r="CR93" s="5">
         <v>82</v>
       </c>
+      <c r="CU93" s="5">
+        <v>-5.05281180745909E-3</v>
+      </c>
     </row>
-    <row r="94" spans="2:96" s="5" customFormat="1">
+    <row r="94" spans="2:99" s="5" customFormat="1">
       <c r="B94" s="5">
         <v>1972</v>
       </c>
@@ -15943,8 +16112,11 @@
       <c r="CR94" s="5">
         <v>92.8</v>
       </c>
+      <c r="CU94" s="5">
+        <v>-1.4411047929157299E-2</v>
+      </c>
     </row>
-    <row r="95" spans="2:96" s="5" customFormat="1">
+    <row r="95" spans="2:99" s="5" customFormat="1">
       <c r="B95" s="5">
         <v>1972.25</v>
       </c>
@@ -16178,8 +16350,11 @@
       <c r="CR95" s="5">
         <v>88.6</v>
       </c>
+      <c r="CU95" s="5">
+        <v>1.52864762800067E-2</v>
+      </c>
     </row>
-    <row r="96" spans="2:96" s="5" customFormat="1">
+    <row r="96" spans="2:99" s="5" customFormat="1">
       <c r="B96" s="5">
         <v>1972.5</v>
       </c>
@@ -16413,8 +16588,11 @@
       <c r="CR96" s="5">
         <v>95.2</v>
       </c>
+      <c r="CU96" s="5">
+        <v>9.8578019288921796E-3</v>
+      </c>
     </row>
-    <row r="97" spans="2:96" s="5" customFormat="1">
+    <row r="97" spans="2:99" s="5" customFormat="1">
       <c r="B97" s="5">
         <v>1972.75</v>
       </c>
@@ -16648,8 +16826,11 @@
       <c r="CR97" s="5">
         <v>90.7</v>
       </c>
+      <c r="CU97" s="5">
+        <v>3.5711380002969098E-2</v>
+      </c>
     </row>
-    <row r="98" spans="2:96" s="5" customFormat="1">
+    <row r="98" spans="2:99" s="5" customFormat="1">
       <c r="B98" s="5">
         <v>1973</v>
       </c>
@@ -16886,8 +17067,11 @@
       <c r="CR98" s="5">
         <v>81.900000000000006</v>
       </c>
+      <c r="CU98" s="5">
+        <v>2.0565690479200899E-2</v>
+      </c>
     </row>
-    <row r="99" spans="2:96" s="5" customFormat="1">
+    <row r="99" spans="2:99" s="5" customFormat="1">
       <c r="B99" s="5">
         <v>1973.25</v>
       </c>
@@ -17124,8 +17308,11 @@
       <c r="CR99" s="5">
         <v>77</v>
       </c>
+      <c r="CU99" s="14">
+        <v>-1.9710199328226701E-5</v>
+      </c>
     </row>
-    <row r="100" spans="2:96" s="5" customFormat="1">
+    <row r="100" spans="2:99" s="5" customFormat="1">
       <c r="B100" s="5">
         <v>1973.5</v>
       </c>
@@ -17362,8 +17549,11 @@
       <c r="CR100" s="5">
         <v>72</v>
       </c>
+      <c r="CU100" s="5">
+        <v>-5.4922348136814E-2</v>
+      </c>
     </row>
-    <row r="101" spans="2:96" s="5" customFormat="1">
+    <row r="101" spans="2:99" s="5" customFormat="1">
       <c r="B101" s="5">
         <v>1973.75</v>
       </c>
@@ -17600,8 +17790,11 @@
       <c r="CR101" s="5">
         <v>76.5</v>
       </c>
+      <c r="CU101" s="5">
+        <v>-1.28033002468759E-2</v>
+      </c>
     </row>
-    <row r="102" spans="2:96" s="5" customFormat="1">
+    <row r="102" spans="2:99" s="5" customFormat="1">
       <c r="B102" s="5">
         <v>1974</v>
       </c>
@@ -17838,8 +18031,11 @@
       <c r="CR102" s="5">
         <v>61.8</v>
       </c>
+      <c r="CU102" s="5">
+        <v>-1.66006281556643E-2</v>
+      </c>
     </row>
-    <row r="103" spans="2:96" s="5" customFormat="1">
+    <row r="103" spans="2:99" s="5" customFormat="1">
       <c r="B103" s="5">
         <v>1974.25</v>
       </c>
@@ -18076,8 +18272,11 @@
       <c r="CR103" s="5">
         <v>72.099999999999994</v>
       </c>
+      <c r="CU103" s="5">
+        <v>1.16605607487037E-2</v>
+      </c>
     </row>
-    <row r="104" spans="2:96" s="5" customFormat="1">
+    <row r="104" spans="2:99" s="5" customFormat="1">
       <c r="B104" s="5">
         <v>1974.5</v>
       </c>
@@ -18316,8 +18515,11 @@
       <c r="CR104" s="5">
         <v>64.400000000000006</v>
       </c>
+      <c r="CU104" s="5">
+        <v>-6.8683644860996207E-2</v>
+      </c>
     </row>
-    <row r="105" spans="2:96" s="5" customFormat="1">
+    <row r="105" spans="2:99" s="5" customFormat="1">
       <c r="B105" s="5">
         <v>1974.75</v>
       </c>
@@ -18554,8 +18756,11 @@
       <c r="CR105" s="5">
         <v>59.5</v>
       </c>
+      <c r="CU105" s="5">
+        <v>2.6610361905832901E-2</v>
+      </c>
     </row>
-    <row r="106" spans="2:96" s="5" customFormat="1">
+    <row r="106" spans="2:99" s="5" customFormat="1">
       <c r="B106" s="5">
         <v>1975</v>
       </c>
@@ -18792,8 +18997,11 @@
       <c r="CR106" s="5">
         <v>57.6</v>
       </c>
+      <c r="CU106" s="5">
+        <v>4.7300756324358199E-2</v>
+      </c>
     </row>
-    <row r="107" spans="2:96" s="5" customFormat="1">
+    <row r="107" spans="2:99" s="5" customFormat="1">
       <c r="B107" s="5">
         <v>1975.25</v>
       </c>
@@ -19030,8 +19238,11 @@
       <c r="CR107" s="5">
         <v>72.8</v>
       </c>
+      <c r="CU107" s="5">
+        <v>2.1452753408721201E-2</v>
+      </c>
     </row>
-    <row r="108" spans="2:96" s="5" customFormat="1">
+    <row r="108" spans="2:99" s="5" customFormat="1">
       <c r="B108" s="5">
         <v>1975.5</v>
       </c>
@@ -19268,8 +19479,11 @@
       <c r="CR108" s="5">
         <v>75.7</v>
       </c>
+      <c r="CU108" s="5">
+        <v>-9.0741440731561002E-3</v>
+      </c>
     </row>
-    <row r="109" spans="2:96" s="5" customFormat="1">
+    <row r="109" spans="2:99" s="5" customFormat="1">
       <c r="B109" s="5">
         <v>1975.75</v>
       </c>
@@ -19506,8 +19720,11 @@
       <c r="CR109" s="5">
         <v>75.599999999999994</v>
       </c>
+      <c r="CU109" s="5">
+        <v>-3.3675302839855101E-3</v>
+      </c>
     </row>
-    <row r="110" spans="2:96" s="5" customFormat="1">
+    <row r="110" spans="2:99" s="5" customFormat="1">
       <c r="B110" s="5">
         <v>1976</v>
       </c>
@@ -19744,8 +19961,11 @@
       <c r="CR110" s="5">
         <v>84.6</v>
       </c>
+      <c r="CU110" s="5">
+        <v>2.9002507651369998E-3</v>
+      </c>
     </row>
-    <row r="111" spans="2:96" s="5" customFormat="1">
+    <row r="111" spans="2:99" s="5" customFormat="1">
       <c r="B111" s="5">
         <v>1976.25</v>
       </c>
@@ -19982,8 +20202,11 @@
       <c r="CR111" s="5">
         <v>83.3</v>
       </c>
+      <c r="CU111" s="5">
+        <v>1.36756318389242E-2</v>
+      </c>
     </row>
-    <row r="112" spans="2:96" s="5" customFormat="1">
+    <row r="112" spans="2:99" s="5" customFormat="1">
       <c r="B112" s="5">
         <v>1976.5</v>
       </c>
@@ -20220,8 +20443,11 @@
       <c r="CR112" s="5">
         <v>89.7</v>
       </c>
+      <c r="CU112" s="5">
+        <v>-1.44540488775777E-2</v>
+      </c>
     </row>
-    <row r="113" spans="2:98" s="5" customFormat="1">
+    <row r="113" spans="2:99" s="5" customFormat="1">
       <c r="B113" s="5">
         <v>1976.75</v>
       </c>
@@ -20458,8 +20684,11 @@
       <c r="CR113" s="5">
         <v>87</v>
       </c>
+      <c r="CU113" s="5">
+        <v>4.2335186818145201E-2</v>
+      </c>
     </row>
-    <row r="114" spans="2:98" s="5" customFormat="1">
+    <row r="114" spans="2:99" s="5" customFormat="1">
       <c r="B114" s="5">
         <v>1977</v>
       </c>
@@ -20696,8 +20925,11 @@
       <c r="CR114" s="5">
         <v>87.1</v>
       </c>
+      <c r="CU114" s="5">
+        <v>3.6836347743984602E-2</v>
+      </c>
     </row>
-    <row r="115" spans="2:98" s="5" customFormat="1">
+    <row r="115" spans="2:99" s="5" customFormat="1">
       <c r="B115" s="5">
         <v>1977.25</v>
       </c>
@@ -20934,8 +21166,11 @@
       <c r="CR115" s="5">
         <v>90.2</v>
       </c>
+      <c r="CU115" s="5">
+        <v>-6.1471373540336102E-3</v>
+      </c>
     </row>
-    <row r="116" spans="2:98" s="5" customFormat="1">
+    <row r="116" spans="2:99" s="5" customFormat="1">
       <c r="B116" s="5">
         <v>1977.5</v>
       </c>
@@ -21172,8 +21407,11 @@
       <c r="CR116" s="5">
         <v>89</v>
       </c>
+      <c r="CU116" s="5">
+        <v>3.0544454776940899E-2</v>
+      </c>
     </row>
-    <row r="117" spans="2:98" s="5" customFormat="1">
+    <row r="117" spans="2:99" s="5" customFormat="1">
       <c r="B117" s="5">
         <v>1977.75</v>
       </c>
@@ -21410,8 +21648,11 @@
       <c r="CR117" s="5">
         <v>84.4</v>
       </c>
+      <c r="CU117" s="5">
+        <v>-4.21278046608069E-2</v>
+      </c>
     </row>
-    <row r="118" spans="2:98" s="5" customFormat="1">
+    <row r="118" spans="2:99" s="5" customFormat="1">
       <c r="B118" s="5">
         <v>1978</v>
       </c>
@@ -21654,8 +21895,11 @@
       <c r="CT118" s="5">
         <v>5.8</v>
       </c>
+      <c r="CU118" s="5">
+        <v>3.05632980529329E-2</v>
+      </c>
     </row>
-    <row r="119" spans="2:98" s="5" customFormat="1">
+    <row r="119" spans="2:99" s="5" customFormat="1">
       <c r="B119" s="5">
         <v>1978.25</v>
       </c>
@@ -21901,8 +22145,11 @@
       <c r="CT119" s="5">
         <v>6.7</v>
       </c>
+      <c r="CU119" s="5">
+        <v>-2.37054203795979E-2</v>
+      </c>
     </row>
-    <row r="120" spans="2:98" s="5" customFormat="1">
+    <row r="120" spans="2:99" s="5" customFormat="1">
       <c r="B120" s="5">
         <v>1978.5</v>
       </c>
@@ -22148,8 +22395,11 @@
       <c r="CT120" s="5">
         <v>7.2</v>
       </c>
+      <c r="CU120" s="5">
+        <v>2.8297721596803702E-2</v>
+      </c>
     </row>
-    <row r="121" spans="2:98" s="5" customFormat="1">
+    <row r="121" spans="2:99" s="5" customFormat="1">
       <c r="B121" s="5">
         <v>1978.75</v>
       </c>
@@ -22395,8 +22645,11 @@
       <c r="CT121" s="5">
         <v>7.4</v>
       </c>
+      <c r="CU121" s="5">
+        <v>-4.7403437403795698E-2</v>
+      </c>
     </row>
-    <row r="122" spans="2:98" s="5" customFormat="1">
+    <row r="122" spans="2:99" s="5" customFormat="1">
       <c r="B122" s="5">
         <v>1979</v>
       </c>
@@ -22642,8 +22895,11 @@
       <c r="CT122" s="5">
         <v>8.6999999999999993</v>
       </c>
+      <c r="CU122" s="5">
+        <v>1.51026737334428E-2</v>
+      </c>
     </row>
-    <row r="123" spans="2:98" s="5" customFormat="1">
+    <row r="123" spans="2:99" s="5" customFormat="1">
       <c r="B123" s="5">
         <v>1979.25</v>
       </c>
@@ -22889,8 +23145,11 @@
       <c r="CT123" s="5">
         <v>9.8000000000000007</v>
       </c>
+      <c r="CU123" s="5">
+        <v>1.8201835567875201E-2</v>
+      </c>
     </row>
-    <row r="124" spans="2:98" s="5" customFormat="1">
+    <row r="124" spans="2:99" s="5" customFormat="1">
       <c r="B124" s="5">
         <v>1979.5</v>
       </c>
@@ -23136,8 +23395,11 @@
       <c r="CT124" s="5">
         <v>9.8000000000000007</v>
       </c>
+      <c r="CU124" s="5">
+        <v>-1.30785703324436E-2</v>
+      </c>
     </row>
-    <row r="125" spans="2:98" s="5" customFormat="1">
+    <row r="125" spans="2:99" s="5" customFormat="1">
       <c r="B125" s="5">
         <v>1979.75</v>
       </c>
@@ -23383,8 +23645,11 @@
       <c r="CT125" s="5">
         <v>9.8000000000000007</v>
       </c>
+      <c r="CU125" s="5">
+        <v>-2.4886637695481099E-2</v>
+      </c>
     </row>
-    <row r="126" spans="2:98" s="5" customFormat="1">
+    <row r="126" spans="2:99" s="5" customFormat="1">
       <c r="B126" s="5">
         <v>1980</v>
       </c>
@@ -23630,8 +23895,11 @@
       <c r="CT126" s="5">
         <v>10.199999999999999</v>
       </c>
+      <c r="CU126" s="5">
+        <v>7.9137869740606701E-2</v>
+      </c>
     </row>
-    <row r="127" spans="2:98" s="5" customFormat="1">
+    <row r="127" spans="2:99" s="5" customFormat="1">
       <c r="B127" s="5">
         <v>1980.25</v>
       </c>
@@ -23877,8 +24145,11 @@
       <c r="CT127" s="5">
         <v>9.6999999999999993</v>
       </c>
+      <c r="CU127" s="5">
+        <v>-3.8621445697455202E-2</v>
+      </c>
     </row>
-    <row r="128" spans="2:98" s="5" customFormat="1">
+    <row r="128" spans="2:99" s="5" customFormat="1">
       <c r="B128" s="5">
         <v>1980.5</v>
       </c>
@@ -24124,8 +24395,11 @@
       <c r="CT128" s="5">
         <v>9</v>
       </c>
+      <c r="CU128" s="5">
+        <v>-5.1711503941466203E-2</v>
+      </c>
     </row>
-    <row r="129" spans="2:98" s="5" customFormat="1">
+    <row r="129" spans="2:99" s="5" customFormat="1">
       <c r="B129" s="5">
         <v>1980.75</v>
       </c>
@@ -24371,8 +24645,11 @@
       <c r="CT129" s="5">
         <v>9.5</v>
       </c>
+      <c r="CU129" s="5">
+        <v>-2.6809523576900602E-3</v>
+      </c>
     </row>
-    <row r="130" spans="2:98" s="5" customFormat="1">
+    <row r="130" spans="2:99" s="5" customFormat="1">
       <c r="B130" s="5">
         <v>1981</v>
       </c>
@@ -24618,8 +24895,11 @@
       <c r="CT130" s="5">
         <v>8.6</v>
       </c>
+      <c r="CU130" s="5">
+        <v>3.2385582132509201E-2</v>
+      </c>
     </row>
-    <row r="131" spans="2:98" s="5" customFormat="1">
+    <row r="131" spans="2:99" s="5" customFormat="1">
       <c r="B131" s="5">
         <v>1981.25</v>
       </c>
@@ -24865,8 +25145,11 @@
       <c r="CT131" s="5">
         <v>7.3</v>
       </c>
+      <c r="CU131" s="5">
+        <v>4.8068373515333098E-3</v>
+      </c>
     </row>
-    <row r="132" spans="2:98" s="5" customFormat="1">
+    <row r="132" spans="2:99" s="5" customFormat="1">
       <c r="B132" s="5">
         <v>1981.5</v>
       </c>
@@ -25152,8 +25435,11 @@
       <c r="CT132" s="5">
         <v>6.7</v>
       </c>
+      <c r="CU132" s="5">
+        <v>3.7619004853020901E-2</v>
+      </c>
     </row>
-    <row r="133" spans="2:98" s="5" customFormat="1">
+    <row r="133" spans="2:99" s="5" customFormat="1">
       <c r="B133" s="5">
         <v>1981.75</v>
       </c>
@@ -25439,8 +25725,11 @@
       <c r="CT133" s="5">
         <v>6.6</v>
       </c>
+      <c r="CU133" s="5">
+        <v>-2.92431432729869E-2</v>
+      </c>
     </row>
-    <row r="134" spans="2:98" s="5" customFormat="1">
+    <row r="134" spans="2:99" s="5" customFormat="1">
       <c r="B134" s="5">
         <v>1982</v>
       </c>
@@ -25726,8 +26015,11 @@
       <c r="CT134" s="5">
         <v>4.3</v>
       </c>
+      <c r="CU134" s="5">
+        <v>6.0989946893892401E-3</v>
+      </c>
     </row>
-    <row r="135" spans="2:98" s="5" customFormat="1">
+    <row r="135" spans="2:99" s="5" customFormat="1">
       <c r="B135" s="5">
         <v>1982.25</v>
       </c>
@@ -26013,8 +26305,11 @@
       <c r="CT135" s="5">
         <v>4.5</v>
       </c>
+      <c r="CU135" s="5">
+        <v>-1.45591367015987E-2</v>
+      </c>
     </row>
-    <row r="136" spans="2:98" s="5" customFormat="1">
+    <row r="136" spans="2:99" s="5" customFormat="1">
       <c r="B136" s="5">
         <v>1982.5</v>
       </c>
@@ -26300,8 +26595,11 @@
       <c r="CT136" s="5">
         <v>4.8</v>
       </c>
+      <c r="CU136" s="5">
+        <v>-2.6299927911136001E-2</v>
+      </c>
     </row>
-    <row r="137" spans="2:98" s="5" customFormat="1">
+    <row r="137" spans="2:99" s="5" customFormat="1">
       <c r="B137" s="5">
         <v>1982.75</v>
       </c>
@@ -26587,8 +26885,11 @@
       <c r="CT137" s="5">
         <v>4.5</v>
       </c>
+      <c r="CU137" s="5">
+        <v>6.2499257455863599E-3</v>
+      </c>
     </row>
-    <row r="138" spans="2:98" s="5" customFormat="1">
+    <row r="138" spans="2:99" s="5" customFormat="1">
       <c r="B138" s="5">
         <v>1983</v>
       </c>
@@ -26874,8 +27175,11 @@
       <c r="CT138" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU138" s="5">
+        <v>-3.2281694556831199E-2</v>
+      </c>
     </row>
-    <row r="139" spans="2:98" s="5" customFormat="1">
+    <row r="139" spans="2:99" s="5" customFormat="1">
       <c r="B139" s="5">
         <v>1983.25</v>
       </c>
@@ -27161,8 +27465,11 @@
       <c r="CT139" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU139" s="5">
+        <v>-1.55895841664853E-2</v>
+      </c>
     </row>
-    <row r="140" spans="2:98" s="5" customFormat="1">
+    <row r="140" spans="2:99" s="5" customFormat="1">
       <c r="B140" s="5">
         <v>1983.5</v>
       </c>
@@ -27448,8 +27755,11 @@
       <c r="CT140" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU140" s="5">
+        <v>-4.6603754599493299E-2</v>
+      </c>
     </row>
-    <row r="141" spans="2:98" s="5" customFormat="1">
+    <row r="141" spans="2:99" s="5" customFormat="1">
       <c r="B141" s="5">
         <v>1983.75</v>
       </c>
@@ -27735,8 +28045,11 @@
       <c r="CT141" s="5">
         <v>3.6</v>
       </c>
+      <c r="CU141" s="5">
+        <v>-1.8950039573173399E-3</v>
+      </c>
     </row>
-    <row r="142" spans="2:98" s="5" customFormat="1">
+    <row r="142" spans="2:99" s="5" customFormat="1">
       <c r="B142" s="5">
         <v>1984</v>
       </c>
@@ -28022,8 +28335,11 @@
       <c r="CT142" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU142" s="5">
+        <v>2.6201846959824401E-2</v>
+      </c>
     </row>
-    <row r="143" spans="2:98" s="5" customFormat="1">
+    <row r="143" spans="2:99" s="5" customFormat="1">
       <c r="B143" s="5">
         <v>1984.25</v>
       </c>
@@ -28309,8 +28625,11 @@
       <c r="CT143" s="5">
         <v>4.0999999999999996</v>
       </c>
+      <c r="CU143" s="5">
+        <v>1.6204043589748598E-2</v>
+      </c>
     </row>
-    <row r="144" spans="2:98" s="5" customFormat="1">
+    <row r="144" spans="2:99" s="5" customFormat="1">
       <c r="B144" s="5">
         <v>1984.5</v>
       </c>
@@ -28596,8 +28915,11 @@
       <c r="CT144" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU144" s="5">
+        <v>6.7837131341541602E-3</v>
+      </c>
     </row>
-    <row r="145" spans="2:98" s="5" customFormat="1">
+    <row r="145" spans="2:99" s="5" customFormat="1">
       <c r="B145" s="5">
         <v>1984.75</v>
       </c>
@@ -28883,8 +29205,11 @@
       <c r="CT145" s="5">
         <v>3.4</v>
       </c>
+      <c r="CU145" s="5">
+        <v>-1.49699278597981E-3</v>
+      </c>
     </row>
-    <row r="146" spans="2:98" s="5" customFormat="1">
+    <row r="146" spans="2:99" s="5" customFormat="1">
       <c r="B146" s="5">
         <v>1985</v>
       </c>
@@ -29170,8 +29495,11 @@
       <c r="CT146" s="5">
         <v>3</v>
       </c>
+      <c r="CU146" s="5">
+        <v>3.6964645470462597E-2</v>
+      </c>
     </row>
-    <row r="147" spans="2:98" s="5" customFormat="1">
+    <row r="147" spans="2:99" s="5" customFormat="1">
       <c r="B147" s="5">
         <v>1985.25</v>
       </c>
@@ -29457,8 +29785,11 @@
       <c r="CT147" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU147" s="5">
+        <v>-1.8809401019753501E-2</v>
+      </c>
     </row>
-    <row r="148" spans="2:98" s="5" customFormat="1">
+    <row r="148" spans="2:99" s="5" customFormat="1">
       <c r="B148" s="5">
         <v>1985.5</v>
       </c>
@@ -29744,8 +30075,11 @@
       <c r="CT148" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU148" s="5">
+        <v>6.6884300480349896E-3</v>
+      </c>
     </row>
-    <row r="149" spans="2:98" s="5" customFormat="1">
+    <row r="149" spans="2:99" s="5" customFormat="1">
       <c r="B149" s="5">
         <v>1985.75</v>
       </c>
@@ -30031,8 +30365,11 @@
       <c r="CT149" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU149" s="5">
+        <v>-2.38238164218751E-3</v>
+      </c>
     </row>
-    <row r="150" spans="2:98" s="5" customFormat="1">
+    <row r="150" spans="2:99" s="5" customFormat="1">
       <c r="B150" s="5">
         <v>1986</v>
       </c>
@@ -30320,8 +30657,11 @@
       <c r="CT150" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU150" s="5">
+        <v>2.52011146397049E-2</v>
+      </c>
     </row>
-    <row r="151" spans="2:98" s="5" customFormat="1">
+    <row r="151" spans="2:99" s="5" customFormat="1">
       <c r="B151" s="5">
         <v>1986.25</v>
       </c>
@@ -30609,8 +30949,11 @@
       <c r="CT151" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU151" s="5">
+        <v>1.80999053532407E-2</v>
+      </c>
     </row>
-    <row r="152" spans="2:98" s="5" customFormat="1">
+    <row r="152" spans="2:99" s="5" customFormat="1">
       <c r="B152" s="5">
         <v>1986.5</v>
       </c>
@@ -30898,8 +31241,11 @@
       <c r="CT152" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU152" s="5">
+        <v>7.3327206704680804E-3</v>
+      </c>
     </row>
-    <row r="153" spans="2:98" s="5" customFormat="1">
+    <row r="153" spans="2:99" s="5" customFormat="1">
       <c r="B153" s="5">
         <v>1986.75</v>
       </c>
@@ -31187,8 +31533,11 @@
       <c r="CT153" s="5">
         <v>3</v>
       </c>
+      <c r="CU153" s="5">
+        <v>-3.4356234100697797E-2</v>
+      </c>
     </row>
-    <row r="154" spans="2:98" s="5" customFormat="1">
+    <row r="154" spans="2:99" s="5" customFormat="1">
       <c r="B154" s="5">
         <v>1987</v>
       </c>
@@ -31476,8 +31825,11 @@
       <c r="CT154" s="5">
         <v>3</v>
       </c>
+      <c r="CU154" s="5">
+        <v>-3.7671666457704103E-2</v>
+      </c>
     </row>
-    <row r="155" spans="2:98" s="5" customFormat="1">
+    <row r="155" spans="2:99" s="5" customFormat="1">
       <c r="B155" s="5">
         <v>1987.25</v>
       </c>
@@ -31765,8 +32117,11 @@
       <c r="CT155" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU155" s="5">
+        <v>2.7001149733759399E-2</v>
+      </c>
     </row>
-    <row r="156" spans="2:98" s="5" customFormat="1">
+    <row r="156" spans="2:99" s="5" customFormat="1">
       <c r="B156" s="5">
         <v>1987.5</v>
       </c>
@@ -32054,8 +32409,11 @@
       <c r="CT156" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU156" s="5">
+        <v>2.4685415251358499E-2</v>
+      </c>
     </row>
-    <row r="157" spans="2:98" s="5" customFormat="1">
+    <row r="157" spans="2:99" s="5" customFormat="1">
       <c r="B157" s="5">
         <v>1987.75</v>
       </c>
@@ -32343,8 +32701,11 @@
       <c r="CT157" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU157" s="5">
+        <v>-5.3203054170469803E-3</v>
+      </c>
     </row>
-    <row r="158" spans="2:98" s="5" customFormat="1">
+    <row r="158" spans="2:99" s="5" customFormat="1">
       <c r="B158" s="5">
         <v>1988</v>
       </c>
@@ -32632,8 +32993,11 @@
       <c r="CT158" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU158" s="5">
+        <v>5.6022787920198401E-2</v>
+      </c>
     </row>
-    <row r="159" spans="2:98" s="5" customFormat="1">
+    <row r="159" spans="2:99" s="5" customFormat="1">
       <c r="B159" s="5">
         <v>1988.25</v>
       </c>
@@ -32921,8 +33285,11 @@
       <c r="CT159" s="5">
         <v>3.4</v>
       </c>
+      <c r="CU159" s="5">
+        <v>-1.54101041772581E-2</v>
+      </c>
     </row>
-    <row r="160" spans="2:98" s="5" customFormat="1">
+    <row r="160" spans="2:99" s="5" customFormat="1">
       <c r="B160" s="5">
         <v>1988.5</v>
       </c>
@@ -33210,8 +33577,11 @@
       <c r="CT160" s="5">
         <v>4.3</v>
       </c>
+      <c r="CU160" s="5">
+        <v>1.0348730010687E-2</v>
+      </c>
     </row>
-    <row r="161" spans="2:98" s="5" customFormat="1">
+    <row r="161" spans="2:99" s="5" customFormat="1">
       <c r="B161" s="5">
         <v>1988.75</v>
       </c>
@@ -33499,8 +33869,11 @@
       <c r="CT161" s="5">
         <v>3.8</v>
       </c>
+      <c r="CU161" s="5">
+        <v>3.01401377541444E-3</v>
+      </c>
     </row>
-    <row r="162" spans="2:98" s="5" customFormat="1">
+    <row r="162" spans="2:99" s="5" customFormat="1">
       <c r="B162" s="5">
         <v>1989</v>
       </c>
@@ -33788,8 +34161,11 @@
       <c r="CT162" s="5">
         <v>3.8</v>
       </c>
+      <c r="CU162" s="5">
+        <v>-1.9703789053211501E-2</v>
+      </c>
     </row>
-    <row r="163" spans="2:98" s="5" customFormat="1">
+    <row r="163" spans="2:99" s="5" customFormat="1">
       <c r="B163" s="5">
         <v>1989.25</v>
       </c>
@@ -34077,8 +34453,11 @@
       <c r="CT163" s="5">
         <v>4.3</v>
       </c>
+      <c r="CU163" s="5">
+        <v>-2.8668472759286499E-2</v>
+      </c>
     </row>
-    <row r="164" spans="2:98" s="5" customFormat="1">
+    <row r="164" spans="2:99" s="5" customFormat="1">
       <c r="B164" s="5">
         <v>1989.5</v>
       </c>
@@ -34366,8 +34745,11 @@
       <c r="CT164" s="5">
         <v>3.6</v>
       </c>
+      <c r="CU164" s="5">
+        <v>1.6906398029274999E-2</v>
+      </c>
     </row>
-    <row r="165" spans="2:98" s="5" customFormat="1">
+    <row r="165" spans="2:99" s="5" customFormat="1">
       <c r="B165" s="5">
         <v>1989.75</v>
       </c>
@@ -34655,8 +35037,11 @@
       <c r="CT165" s="5">
         <v>3.5</v>
       </c>
+      <c r="CU165" s="5">
+        <v>-2.89172997863489E-2</v>
+      </c>
     </row>
-    <row r="166" spans="2:98" s="5" customFormat="1">
+    <row r="166" spans="2:99" s="5" customFormat="1">
       <c r="B166" s="5">
         <v>1990</v>
       </c>
@@ -34946,8 +35331,11 @@
       <c r="CT166" s="5">
         <v>4</v>
       </c>
+      <c r="CU166" s="5">
+        <v>3.9528789868548098E-4</v>
+      </c>
     </row>
-    <row r="167" spans="2:98" s="5" customFormat="1">
+    <row r="167" spans="2:99" s="5" customFormat="1">
       <c r="B167" s="5">
         <v>1990.25</v>
       </c>
@@ -35237,8 +35625,11 @@
       <c r="CT167" s="5">
         <v>3.6</v>
       </c>
+      <c r="CU167" s="14">
+        <v>-4.8295338912041102E-5</v>
+      </c>
     </row>
-    <row r="168" spans="2:98" s="5" customFormat="1">
+    <row r="168" spans="2:99" s="5" customFormat="1">
       <c r="B168" s="5">
         <v>1990.5</v>
       </c>
@@ -35528,8 +35919,11 @@
       <c r="CT168" s="5">
         <v>4.4000000000000004</v>
       </c>
+      <c r="CU168" s="5">
+        <v>-1.74804510843867E-2</v>
+      </c>
     </row>
-    <row r="169" spans="2:98" s="5" customFormat="1">
+    <row r="169" spans="2:99" s="5" customFormat="1">
       <c r="B169" s="5">
         <v>1990.75</v>
       </c>
@@ -35819,8 +36213,11 @@
       <c r="CT169" s="5">
         <v>4.7</v>
       </c>
+      <c r="CU169" s="5">
+        <v>-1.15133091544539E-2</v>
+      </c>
     </row>
-    <row r="170" spans="2:98" s="5" customFormat="1">
+    <row r="170" spans="2:99" s="5" customFormat="1">
       <c r="B170" s="5">
         <v>1991</v>
       </c>
@@ -36110,8 +36507,11 @@
       <c r="CT170" s="5">
         <v>3.5</v>
       </c>
+      <c r="CU170" s="5">
+        <v>6.9610996365234703E-3</v>
+      </c>
     </row>
-    <row r="171" spans="2:98" s="5" customFormat="1">
+    <row r="171" spans="2:99" s="5" customFormat="1">
       <c r="B171" s="5">
         <v>1991.25</v>
       </c>
@@ -36401,8 +36801,11 @@
       <c r="CT171" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU171" s="5">
+        <v>1.6570499593877099E-2</v>
+      </c>
     </row>
-    <row r="172" spans="2:98" s="5" customFormat="1">
+    <row r="172" spans="2:99" s="5" customFormat="1">
       <c r="B172" s="5">
         <v>1991.5</v>
       </c>
@@ -36692,8 +37095,11 @@
       <c r="CT172" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU172" s="5">
+        <v>-9.52291436968844E-3</v>
+      </c>
     </row>
-    <row r="173" spans="2:98" s="5" customFormat="1">
+    <row r="173" spans="2:99" s="5" customFormat="1">
       <c r="B173" s="5">
         <v>1991.75</v>
       </c>
@@ -36983,8 +37389,11 @@
       <c r="CT173" s="5">
         <v>3</v>
       </c>
+      <c r="CU173" s="5">
+        <v>-1.68635020441559E-2</v>
+      </c>
     </row>
-    <row r="174" spans="2:98" s="5" customFormat="1">
+    <row r="174" spans="2:99" s="5" customFormat="1">
       <c r="B174" s="5">
         <v>1992</v>
       </c>
@@ -37274,8 +37683,11 @@
       <c r="CT174" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU174" s="5">
+        <v>9.1591682446452397E-2</v>
+      </c>
     </row>
-    <row r="175" spans="2:98" s="5" customFormat="1">
+    <row r="175" spans="2:99" s="5" customFormat="1">
       <c r="B175" s="5">
         <v>1992.25</v>
       </c>
@@ -37565,8 +37977,11 @@
       <c r="CT175" s="5">
         <v>3</v>
       </c>
+      <c r="CU175" s="5">
+        <v>-1.30423229464887E-2</v>
+      </c>
     </row>
-    <row r="176" spans="2:98" s="5" customFormat="1">
+    <row r="176" spans="2:99" s="5" customFormat="1">
       <c r="B176" s="5">
         <v>1992.5</v>
       </c>
@@ -37856,8 +38271,11 @@
       <c r="CT176" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU176" s="5">
+        <v>-1.0831831753021199E-2</v>
+      </c>
     </row>
-    <row r="177" spans="2:98" s="5" customFormat="1">
+    <row r="177" spans="2:99" s="5" customFormat="1">
       <c r="B177" s="5">
         <v>1992.75</v>
       </c>
@@ -38147,8 +38565,11 @@
       <c r="CT177" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU177" s="5">
+        <v>-5.12116359931181E-3</v>
+      </c>
     </row>
-    <row r="178" spans="2:98" s="5" customFormat="1">
+    <row r="178" spans="2:99" s="5" customFormat="1">
       <c r="B178" s="5">
         <v>1993</v>
       </c>
@@ -38438,8 +38859,11 @@
       <c r="CT178" s="5">
         <v>3</v>
       </c>
+      <c r="CU178" s="5">
+        <v>-6.1565614204619902E-2</v>
+      </c>
     </row>
-    <row r="179" spans="2:98" s="5" customFormat="1">
+    <row r="179" spans="2:99" s="5" customFormat="1">
       <c r="B179" s="5">
         <v>1993.25</v>
       </c>
@@ -38729,8 +39153,11 @@
       <c r="CT179" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU179" s="5">
+        <v>-4.1139484436030702E-2</v>
+      </c>
     </row>
-    <row r="180" spans="2:98" s="5" customFormat="1">
+    <row r="180" spans="2:99" s="5" customFormat="1">
       <c r="B180" s="5">
         <v>1993.5</v>
       </c>
@@ -39020,8 +39447,11 @@
       <c r="CT180" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU180" s="5">
+        <v>-2.2684451370300202E-2</v>
+      </c>
     </row>
-    <row r="181" spans="2:98" s="5" customFormat="1">
+    <row r="181" spans="2:99" s="5" customFormat="1">
       <c r="B181" s="5">
         <v>1993.75</v>
       </c>
@@ -39311,8 +39741,11 @@
       <c r="CT181" s="5">
         <v>3</v>
       </c>
+      <c r="CU181" s="5">
+        <v>2.97138994194612E-2</v>
+      </c>
     </row>
-    <row r="182" spans="2:98" s="5" customFormat="1">
+    <row r="182" spans="2:99" s="5" customFormat="1">
       <c r="B182" s="5">
         <v>1994</v>
       </c>
@@ -39602,8 +40035,11 @@
       <c r="CT182" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU182" s="5">
+        <v>-3.3209183878413699E-2</v>
+      </c>
     </row>
-    <row r="183" spans="2:98" s="5" customFormat="1">
+    <row r="183" spans="2:99" s="5" customFormat="1">
       <c r="B183" s="5">
         <v>1994.25</v>
       </c>
@@ -39893,8 +40329,11 @@
       <c r="CT183" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU183" s="5">
+        <v>-3.28066003520502E-2</v>
+      </c>
     </row>
-    <row r="184" spans="2:98" s="5" customFormat="1">
+    <row r="184" spans="2:99" s="5" customFormat="1">
       <c r="B184" s="5">
         <v>1994.5</v>
       </c>
@@ -40184,8 +40623,11 @@
       <c r="CT184" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU184" s="5">
+        <v>-2.3200487586153298E-2</v>
+      </c>
     </row>
-    <row r="185" spans="2:98" s="5" customFormat="1">
+    <row r="185" spans="2:99" s="5" customFormat="1">
       <c r="B185" s="5">
         <v>1994.75</v>
       </c>
@@ -40475,8 +40917,11 @@
       <c r="CT185" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU185" s="5">
+        <v>3.0542426494397602E-3</v>
+      </c>
     </row>
-    <row r="186" spans="2:98" s="5" customFormat="1">
+    <row r="186" spans="2:99" s="5" customFormat="1">
       <c r="B186" s="5">
         <v>1995</v>
       </c>
@@ -40766,8 +41211,11 @@
       <c r="CT186" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU186" s="5">
+        <v>1.13324357757794E-4</v>
+      </c>
     </row>
-    <row r="187" spans="2:98" s="5" customFormat="1">
+    <row r="187" spans="2:99" s="5" customFormat="1">
       <c r="B187" s="5">
         <v>1995.25</v>
       </c>
@@ -41057,8 +41505,11 @@
       <c r="CT187" s="5">
         <v>3</v>
       </c>
+      <c r="CU187" s="5">
+        <v>9.5074151110563498E-3</v>
+      </c>
     </row>
-    <row r="188" spans="2:98" s="5" customFormat="1">
+    <row r="188" spans="2:99" s="5" customFormat="1">
       <c r="B188" s="5">
         <v>1995.5</v>
       </c>
@@ -41348,8 +41799,11 @@
       <c r="CT188" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU188" s="5">
+        <v>6.9364963051285998E-3</v>
+      </c>
     </row>
-    <row r="189" spans="2:98" s="5" customFormat="1">
+    <row r="189" spans="2:99" s="5" customFormat="1">
       <c r="B189" s="5">
         <v>1995.75</v>
       </c>
@@ -41639,8 +42093,11 @@
       <c r="CT189" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU189" s="5">
+        <v>-3.3069940869694401E-3</v>
+      </c>
     </row>
-    <row r="190" spans="2:98" s="5" customFormat="1">
+    <row r="190" spans="2:99" s="5" customFormat="1">
       <c r="B190" s="5">
         <v>1996</v>
       </c>
@@ -41930,8 +42387,11 @@
       <c r="CT190" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU190" s="5">
+        <v>4.9174938011679298E-2</v>
+      </c>
     </row>
-    <row r="191" spans="2:98" s="5" customFormat="1">
+    <row r="191" spans="2:99" s="5" customFormat="1">
       <c r="B191" s="5">
         <v>1996.25</v>
       </c>
@@ -42221,8 +42681,11 @@
       <c r="CT191" s="5">
         <v>3</v>
       </c>
+      <c r="CU191" s="5">
+        <v>-1.8012761228102001E-2</v>
+      </c>
     </row>
-    <row r="192" spans="2:98" s="5" customFormat="1">
+    <row r="192" spans="2:99" s="5" customFormat="1">
       <c r="B192" s="5">
         <v>1996.5</v>
       </c>
@@ -42512,8 +42975,11 @@
       <c r="CT192" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU192" s="5">
+        <v>-8.8205877743145998E-3</v>
+      </c>
     </row>
-    <row r="193" spans="2:98" s="5" customFormat="1">
+    <row r="193" spans="2:99" s="5" customFormat="1">
       <c r="B193" s="5">
         <v>1996.75</v>
       </c>
@@ -42803,8 +43269,11 @@
       <c r="CT193" s="5">
         <v>3</v>
       </c>
+      <c r="CU193" s="5">
+        <v>5.7846768571066E-3</v>
+      </c>
     </row>
-    <row r="194" spans="2:98" s="5" customFormat="1">
+    <row r="194" spans="2:99" s="5" customFormat="1">
       <c r="B194" s="5">
         <v>1997</v>
       </c>
@@ -43094,8 +43563,11 @@
       <c r="CT194" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU194" s="5">
+        <v>-1.6298535811219799E-2</v>
+      </c>
     </row>
-    <row r="195" spans="2:98" s="5" customFormat="1">
+    <row r="195" spans="2:99" s="5" customFormat="1">
       <c r="B195" s="5">
         <v>1997.25</v>
       </c>
@@ -43385,8 +43857,11 @@
       <c r="CT195" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU195" s="5">
+        <v>9.1772511863346101E-3</v>
+      </c>
     </row>
-    <row r="196" spans="2:98" s="5" customFormat="1">
+    <row r="196" spans="2:99" s="5" customFormat="1">
       <c r="B196" s="5">
         <v>1997.5</v>
       </c>
@@ -43676,8 +44151,11 @@
       <c r="CT196" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU196" s="5">
+        <v>4.1472010189442403E-2</v>
+      </c>
     </row>
-    <row r="197" spans="2:98" s="5" customFormat="1">
+    <row r="197" spans="2:99" s="5" customFormat="1">
       <c r="B197" s="5">
         <v>1997.75</v>
       </c>
@@ -43970,8 +44448,11 @@
       <c r="CT197" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU197" s="5">
+        <v>-1.54528628599193E-2</v>
+      </c>
     </row>
-    <row r="198" spans="2:98" s="5" customFormat="1">
+    <row r="198" spans="2:99" s="5" customFormat="1">
       <c r="B198" s="5">
         <v>1998</v>
       </c>
@@ -44264,8 +44745,11 @@
       <c r="CT198" s="5">
         <v>2.4</v>
       </c>
+      <c r="CU198" s="5">
+        <v>4.3273711375268998E-4</v>
+      </c>
     </row>
-    <row r="199" spans="2:98" s="5" customFormat="1">
+    <row r="199" spans="2:99" s="5" customFormat="1">
       <c r="B199" s="5">
         <v>1998.25</v>
       </c>
@@ -44558,8 +45042,11 @@
       <c r="CT199" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU199" s="5">
+        <v>1.54500669982256E-2</v>
+      </c>
     </row>
-    <row r="200" spans="2:98" s="5" customFormat="1">
+    <row r="200" spans="2:99" s="5" customFormat="1">
       <c r="B200" s="5">
         <v>1998.5</v>
       </c>
@@ -44852,8 +45339,11 @@
       <c r="CT200" s="5">
         <v>2.4</v>
       </c>
+      <c r="CU200" s="5">
+        <v>3.84755336096263E-2</v>
+      </c>
     </row>
-    <row r="201" spans="2:98" s="5" customFormat="1">
+    <row r="201" spans="2:99" s="5" customFormat="1">
       <c r="B201" s="5">
         <v>1998.75</v>
       </c>
@@ -45146,8 +45636,11 @@
       <c r="CT201" s="5">
         <v>2.5</v>
       </c>
+      <c r="CU201" s="5">
+        <v>-2.5250934963686199E-2</v>
+      </c>
     </row>
-    <row r="202" spans="2:98" s="5" customFormat="1">
+    <row r="202" spans="2:99" s="5" customFormat="1">
       <c r="B202" s="5">
         <v>1999</v>
       </c>
@@ -45440,8 +45933,11 @@
       <c r="CT202" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU202" s="5">
+        <v>2.4548814313579002E-2</v>
+      </c>
     </row>
-    <row r="203" spans="2:98" s="5" customFormat="1">
+    <row r="203" spans="2:99" s="5" customFormat="1">
       <c r="B203" s="5">
         <v>1999.25</v>
       </c>
@@ -45734,8 +46230,11 @@
       <c r="CT203" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU203" s="5">
+        <v>-8.8075276685453101E-3</v>
+      </c>
     </row>
-    <row r="204" spans="2:98" s="5" customFormat="1">
+    <row r="204" spans="2:99" s="5" customFormat="1">
       <c r="B204" s="5">
         <v>1999.5</v>
       </c>
@@ -46028,8 +46527,11 @@
       <c r="CT204" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU204" s="5">
+        <v>1.9032110180781099E-3</v>
+      </c>
     </row>
-    <row r="205" spans="2:98" s="5" customFormat="1">
+    <row r="205" spans="2:99" s="5" customFormat="1">
       <c r="B205" s="5">
         <v>1999.75</v>
       </c>
@@ -46322,8 +46824,11 @@
       <c r="CT205" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU205" s="5">
+        <v>4.0524736392817402E-2</v>
+      </c>
     </row>
-    <row r="206" spans="2:98" s="5" customFormat="1">
+    <row r="206" spans="2:99" s="5" customFormat="1">
       <c r="B206" s="5">
         <v>2000</v>
       </c>
@@ -46616,8 +47121,11 @@
       <c r="CT206" s="5">
         <v>3</v>
       </c>
+      <c r="CU206" s="5">
+        <v>9.4234350581858806E-3</v>
+      </c>
     </row>
-    <row r="207" spans="2:98" s="5" customFormat="1">
+    <row r="207" spans="2:99" s="5" customFormat="1">
       <c r="B207" s="5">
         <v>2000.25</v>
       </c>
@@ -46910,8 +47418,11 @@
       <c r="CT207" s="5">
         <v>3</v>
       </c>
+      <c r="CU207" s="5">
+        <v>2.28738388601561E-2</v>
+      </c>
     </row>
-    <row r="208" spans="2:98" s="5" customFormat="1">
+    <row r="208" spans="2:99" s="5" customFormat="1">
       <c r="B208" s="5">
         <v>2000.5</v>
       </c>
@@ -47204,8 +47715,11 @@
       <c r="CT208" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU208" s="5">
+        <v>-1.1405490927639299E-2</v>
+      </c>
     </row>
-    <row r="209" spans="2:98" s="5" customFormat="1">
+    <row r="209" spans="2:99" s="5" customFormat="1">
       <c r="B209" s="5">
         <v>2000.75</v>
       </c>
@@ -47498,8 +48012,11 @@
       <c r="CT209" s="5">
         <v>3</v>
       </c>
+      <c r="CU209" s="5">
+        <v>9.1982125571394794E-3</v>
+      </c>
     </row>
-    <row r="210" spans="2:98" s="5" customFormat="1">
+    <row r="210" spans="2:99" s="5" customFormat="1">
       <c r="B210" s="5">
         <v>2001</v>
       </c>
@@ -47792,8 +48309,11 @@
       <c r="CT210" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU210" s="5">
+        <v>1.7011854700648602E-2</v>
+      </c>
     </row>
-    <row r="211" spans="2:98" s="5" customFormat="1">
+    <row r="211" spans="2:99" s="5" customFormat="1">
       <c r="B211" s="5">
         <v>2001.25</v>
       </c>
@@ -48086,8 +48606,11 @@
       <c r="CT211" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU211" s="5">
+        <v>-5.9881842808198202E-3</v>
+      </c>
     </row>
-    <row r="212" spans="2:98" s="5" customFormat="1">
+    <row r="212" spans="2:99" s="5" customFormat="1">
       <c r="B212" s="5">
         <v>2001.5</v>
       </c>
@@ -48380,8 +48903,11 @@
       <c r="CT212" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU212" s="5">
+        <v>-1.5437747116530801E-2</v>
+      </c>
     </row>
-    <row r="213" spans="2:98" s="5" customFormat="1">
+    <row r="213" spans="2:99" s="5" customFormat="1">
       <c r="B213" s="5">
         <v>2001.75</v>
       </c>
@@ -48674,8 +49200,11 @@
       <c r="CT213" s="5">
         <v>0.9</v>
       </c>
+      <c r="CU213" s="5">
+        <v>1.0028517862064001E-2</v>
+      </c>
     </row>
-    <row r="214" spans="2:98" s="5" customFormat="1">
+    <row r="214" spans="2:99" s="5" customFormat="1">
       <c r="B214" s="5">
         <v>2002</v>
       </c>
@@ -48968,8 +49497,11 @@
       <c r="CT214" s="5">
         <v>2.2999999999999998</v>
       </c>
+      <c r="CU214" s="5">
+        <v>1.9053779336775101E-2</v>
+      </c>
     </row>
-    <row r="215" spans="2:98" s="5" customFormat="1">
+    <row r="215" spans="2:99" s="5" customFormat="1">
       <c r="B215" s="5">
         <v>2002.25</v>
       </c>
@@ -49262,8 +49794,11 @@
       <c r="CT215" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU215" s="5">
+        <v>-1.59431959270298E-2</v>
+      </c>
     </row>
-    <row r="216" spans="2:98" s="5" customFormat="1">
+    <row r="216" spans="2:99" s="5" customFormat="1">
       <c r="B216" s="5">
         <v>2002.5</v>
       </c>
@@ -49556,8 +50091,11 @@
       <c r="CT216" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU216" s="5">
+        <v>2.96260742915413E-2</v>
+      </c>
     </row>
-    <row r="217" spans="2:98" s="5" customFormat="1">
+    <row r="217" spans="2:99" s="5" customFormat="1">
       <c r="B217" s="5">
         <v>2002.75</v>
       </c>
@@ -49850,8 +50388,11 @@
       <c r="CT217" s="5">
         <v>2.5</v>
       </c>
+      <c r="CU217" s="5">
+        <v>-3.2397239181297902E-2</v>
+      </c>
     </row>
-    <row r="218" spans="2:98" s="5" customFormat="1">
+    <row r="218" spans="2:99" s="5" customFormat="1">
       <c r="B218" s="5">
         <v>2003</v>
       </c>
@@ -50144,8 +50685,11 @@
       <c r="CT218" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU218" s="5">
+        <v>-2.12328818435665E-2</v>
+      </c>
     </row>
-    <row r="219" spans="2:98" s="5" customFormat="1">
+    <row r="219" spans="2:99" s="5" customFormat="1">
       <c r="B219" s="5">
         <v>2003.25</v>
       </c>
@@ -50438,8 +50982,11 @@
       <c r="CT219" s="5">
         <v>2.2000000000000002</v>
       </c>
+      <c r="CU219" s="5">
+        <v>5.11287502806805E-2</v>
+      </c>
     </row>
-    <row r="220" spans="2:98" s="5" customFormat="1">
+    <row r="220" spans="2:99" s="5" customFormat="1">
       <c r="B220" s="5">
         <v>2003.5</v>
       </c>
@@ -50732,8 +51279,11 @@
       <c r="CT220" s="5">
         <v>2.4</v>
       </c>
+      <c r="CU220" s="5">
+        <v>1.42281506726483E-2</v>
+      </c>
     </row>
-    <row r="221" spans="2:98" s="5" customFormat="1">
+    <row r="221" spans="2:99" s="5" customFormat="1">
       <c r="B221" s="5">
         <v>2003.75</v>
       </c>
@@ -51026,8 +51576,11 @@
       <c r="CT221" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU221" s="5">
+        <v>-2.21067073564729E-2</v>
+      </c>
     </row>
-    <row r="222" spans="2:98" s="5" customFormat="1">
+    <row r="222" spans="2:99" s="5" customFormat="1">
       <c r="B222" s="5">
         <v>2004</v>
       </c>
@@ -51320,8 +51873,11 @@
       <c r="CT222" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU222" s="5">
+        <v>1.2538367898383499E-2</v>
+      </c>
     </row>
-    <row r="223" spans="2:98" s="5" customFormat="1">
+    <row r="223" spans="2:99" s="5" customFormat="1">
       <c r="B223" s="5">
         <v>2004.25</v>
       </c>
@@ -51614,8 +52170,11 @@
       <c r="CT223" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU223" s="5">
+        <v>4.8412423032777596E-3</v>
+      </c>
     </row>
-    <row r="224" spans="2:98" s="5" customFormat="1">
+    <row r="224" spans="2:99" s="5" customFormat="1">
       <c r="B224" s="5">
         <v>2004.5</v>
       </c>
@@ -51908,8 +52467,11 @@
       <c r="CT224" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU224" s="5">
+        <v>3.9376685969420198E-2</v>
+      </c>
     </row>
-    <row r="225" spans="2:98" s="5" customFormat="1">
+    <row r="225" spans="2:99" s="5" customFormat="1">
       <c r="B225" s="5">
         <v>2004.75</v>
       </c>
@@ -52202,8 +52764,11 @@
       <c r="CT225" s="5">
         <v>3</v>
       </c>
+      <c r="CU225" s="5">
+        <v>4.6802741424563097E-3</v>
+      </c>
     </row>
-    <row r="226" spans="2:98" s="5" customFormat="1">
+    <row r="226" spans="2:99" s="5" customFormat="1">
       <c r="B226" s="5">
         <v>2005</v>
       </c>
@@ -52496,8 +53061,11 @@
       <c r="CT226" s="5">
         <v>3</v>
       </c>
+      <c r="CU226" s="5">
+        <v>9.9122063807501899E-3</v>
+      </c>
     </row>
-    <row r="227" spans="2:98" s="5" customFormat="1">
+    <row r="227" spans="2:99" s="5" customFormat="1">
       <c r="B227" s="5">
         <v>2005.25</v>
       </c>
@@ -52790,8 +53358,11 @@
       <c r="CT227" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU227" s="5">
+        <v>9.4650371254410004E-3</v>
+      </c>
     </row>
-    <row r="228" spans="2:98" s="5" customFormat="1">
+    <row r="228" spans="2:99" s="5" customFormat="1">
       <c r="B228" s="5">
         <v>2005.5</v>
       </c>
@@ -53084,8 +53655,11 @@
       <c r="CT228" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU228" s="5">
+        <v>-1.11632980631309E-2</v>
+      </c>
     </row>
-    <row r="229" spans="2:98" s="5" customFormat="1">
+    <row r="229" spans="2:99" s="5" customFormat="1">
       <c r="B229" s="5">
         <v>2005.75</v>
       </c>
@@ -53378,8 +53952,11 @@
       <c r="CT229" s="5">
         <v>3.4</v>
       </c>
+      <c r="CU229" s="5">
+        <v>-2.0542940814381801E-2</v>
+      </c>
     </row>
-    <row r="230" spans="2:98" s="5" customFormat="1">
+    <row r="230" spans="2:99" s="5" customFormat="1">
       <c r="B230" s="5">
         <v>2006</v>
       </c>
@@ -53672,8 +54249,11 @@
       <c r="CT230" s="5">
         <v>3</v>
       </c>
+      <c r="CU230" s="5">
+        <v>3.7758027539641401E-2</v>
+      </c>
     </row>
-    <row r="231" spans="2:98" s="5" customFormat="1">
+    <row r="231" spans="2:99" s="5" customFormat="1">
       <c r="B231" s="5">
         <v>2006.25</v>
       </c>
@@ -53963,8 +54543,11 @@
       <c r="CT231" s="5">
         <v>3.4</v>
       </c>
+      <c r="CU231" s="5">
+        <v>-4.2147214454633097E-2</v>
+      </c>
     </row>
-    <row r="232" spans="2:98" s="5" customFormat="1">
+    <row r="232" spans="2:99" s="5" customFormat="1">
       <c r="B232" s="5">
         <v>2006.5</v>
       </c>
@@ -54254,8 +54837,11 @@
       <c r="CT232" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU232" s="5">
+        <v>-2.7748243214948499E-2</v>
+      </c>
     </row>
-    <row r="233" spans="2:98" s="5" customFormat="1">
+    <row r="233" spans="2:99" s="5" customFormat="1">
       <c r="B233" s="5">
         <v>2006.75</v>
       </c>
@@ -54545,8 +55131,11 @@
       <c r="CT233" s="5">
         <v>3</v>
       </c>
+      <c r="CU233" s="5">
+        <v>5.7172702241281602E-4</v>
+      </c>
     </row>
-    <row r="234" spans="2:98" s="5" customFormat="1">
+    <row r="234" spans="2:99" s="5" customFormat="1">
       <c r="B234" s="5">
         <v>2007</v>
       </c>
@@ -54821,8 +55410,11 @@
       <c r="CT234" s="5">
         <v>3</v>
       </c>
+      <c r="CU234" s="5">
+        <v>-4.1970698601004698E-2</v>
+      </c>
     </row>
-    <row r="235" spans="2:98" s="5" customFormat="1">
+    <row r="235" spans="2:99" s="5" customFormat="1">
       <c r="B235" s="5">
         <v>2007.25</v>
       </c>
@@ -55097,8 +55689,11 @@
       <c r="CT235" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU235" s="5">
+        <v>-2.5113090185261599E-2</v>
+      </c>
     </row>
-    <row r="236" spans="2:98" s="5" customFormat="1">
+    <row r="236" spans="2:99" s="5" customFormat="1">
       <c r="B236" s="5">
         <v>2007.5</v>
       </c>
@@ -55373,8 +55968,11 @@
       <c r="CT236" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU236" s="5">
+        <v>-1.07739215935223E-2</v>
+      </c>
     </row>
-    <row r="237" spans="2:98" s="5" customFormat="1">
+    <row r="237" spans="2:99" s="5" customFormat="1">
       <c r="B237" s="5">
         <v>2007.75</v>
       </c>
@@ -55649,8 +56247,11 @@
       <c r="CT237" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU237" s="5">
+        <v>-6.4195346169930697E-3</v>
+      </c>
     </row>
-    <row r="238" spans="2:98" s="5" customFormat="1">
+    <row r="238" spans="2:99" s="5" customFormat="1">
       <c r="B238" s="5">
         <v>2008</v>
       </c>
@@ -55925,8 +56526,11 @@
       <c r="CT238" s="5">
         <v>3.7</v>
       </c>
+      <c r="CU238" s="5">
+        <v>-3.6472581114835603E-2</v>
+      </c>
     </row>
-    <row r="239" spans="2:98" s="5" customFormat="1">
+    <row r="239" spans="2:99" s="5" customFormat="1">
       <c r="B239" s="5">
         <v>2008.25</v>
       </c>
@@ -56201,8 +56805,11 @@
       <c r="CT239" s="5">
         <v>5</v>
       </c>
+      <c r="CU239" s="5">
+        <v>-1.15233938675856E-2</v>
+      </c>
     </row>
-    <row r="240" spans="2:98" s="5" customFormat="1">
+    <row r="240" spans="2:99" s="5" customFormat="1">
       <c r="B240" s="5">
         <v>2008.5</v>
       </c>
@@ -56477,8 +57084,11 @@
       <c r="CT240" s="5">
         <v>4.8</v>
       </c>
+      <c r="CU240" s="5">
+        <v>-2.1583179207306499E-2</v>
+      </c>
     </row>
-    <row r="241" spans="2:98" s="5" customFormat="1">
+    <row r="241" spans="2:99" s="5" customFormat="1">
       <c r="B241" s="5">
         <v>2008.75</v>
       </c>
@@ -56753,8 +57363,11 @@
       <c r="CT241" s="5">
         <v>3</v>
       </c>
+      <c r="CU241" s="5">
+        <v>-1.44387783146014E-2</v>
+      </c>
     </row>
-    <row r="242" spans="2:98" s="5" customFormat="1">
+    <row r="242" spans="2:99" s="5" customFormat="1">
       <c r="B242" s="5">
         <v>2009</v>
       </c>
@@ -57029,8 +57642,11 @@
       <c r="CT242" s="5">
         <v>2.1</v>
       </c>
+      <c r="CU242" s="5">
+        <v>-5.119069293821E-3</v>
+      </c>
     </row>
-    <row r="243" spans="2:98" s="5" customFormat="1">
+    <row r="243" spans="2:99" s="5" customFormat="1">
       <c r="B243" s="5">
         <v>2009.25</v>
       </c>
@@ -57305,8 +57921,11 @@
       <c r="CT243" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU243" s="5">
+        <v>8.7303034515828805E-3</v>
+      </c>
     </row>
-    <row r="244" spans="2:98" s="5" customFormat="1">
+    <row r="244" spans="2:99" s="5" customFormat="1">
       <c r="B244" s="5">
         <v>2009.5</v>
       </c>
@@ -57581,8 +58200,11 @@
       <c r="CT244" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU244" s="5">
+        <v>-5.2960025061810096E-3</v>
+      </c>
     </row>
-    <row r="245" spans="2:98" s="5" customFormat="1">
+    <row r="245" spans="2:99" s="5" customFormat="1">
       <c r="B245" s="5">
         <v>2009.75</v>
       </c>
@@ -57857,8 +58479,11 @@
       <c r="CT245" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU245" s="5">
+        <v>8.0234574411477393E-3</v>
+      </c>
     </row>
-    <row r="246" spans="2:98" s="5" customFormat="1">
+    <row r="246" spans="2:99" s="5" customFormat="1">
       <c r="B246" s="5">
         <v>2010</v>
       </c>
@@ -58131,8 +58756,11 @@
       <c r="CT246" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU246" s="5">
+        <v>-1.4784191852608201E-3</v>
+      </c>
     </row>
-    <row r="247" spans="2:98" s="5" customFormat="1">
+    <row r="247" spans="2:99" s="5" customFormat="1">
       <c r="B247" s="5">
         <v>2010.25</v>
       </c>
@@ -58405,8 +59033,11 @@
       <c r="CT247" s="5">
         <v>3</v>
       </c>
+      <c r="CU247" s="5">
+        <v>-6.6178917601993296E-3</v>
+      </c>
     </row>
-    <row r="248" spans="2:98" s="5" customFormat="1">
+    <row r="248" spans="2:99" s="5" customFormat="1">
       <c r="B248" s="5">
         <v>2010.5</v>
       </c>
@@ -58679,8 +59310,11 @@
       <c r="CT248" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU248" s="5">
+        <v>-2.6027355530433599E-3</v>
+      </c>
     </row>
-    <row r="249" spans="2:98" s="5" customFormat="1">
+    <row r="249" spans="2:99" s="5" customFormat="1">
       <c r="B249" s="5">
         <v>2010.75</v>
       </c>
@@ -58953,8 +59587,11 @@
       <c r="CT249" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU249" s="5">
+        <v>5.9451451505641E-3</v>
+      </c>
     </row>
-    <row r="250" spans="2:98" s="5" customFormat="1">
+    <row r="250" spans="2:99" s="5" customFormat="1">
       <c r="B250" s="5">
         <v>2011</v>
       </c>
@@ -59227,8 +59864,11 @@
       <c r="CT250" s="5">
         <v>3.8</v>
       </c>
+      <c r="CU250" s="5">
+        <v>-2.3046680159239899E-2</v>
+      </c>
     </row>
-    <row r="251" spans="2:98" s="5" customFormat="1">
+    <row r="251" spans="2:99" s="5" customFormat="1">
       <c r="B251" s="5">
         <v>2011.25</v>
       </c>
@@ -59501,8 +60141,11 @@
       <c r="CT251" s="5">
         <v>4.2</v>
       </c>
+      <c r="CU251" s="5">
+        <v>3.0883675873432099E-3</v>
+      </c>
     </row>
-    <row r="252" spans="2:98" s="5" customFormat="1">
+    <row r="252" spans="2:99" s="5" customFormat="1">
       <c r="B252" s="5">
         <v>2011.5</v>
       </c>
@@ -59775,8 +60418,11 @@
       <c r="CT252" s="5">
         <v>3.4</v>
       </c>
+      <c r="CU252" s="5">
+        <v>-5.1273962124342997E-4</v>
+      </c>
     </row>
-    <row r="253" spans="2:98" s="5" customFormat="1">
+    <row r="253" spans="2:99" s="5" customFormat="1">
       <c r="B253" s="5">
         <v>2011.75</v>
       </c>
@@ -60049,8 +60695,11 @@
       <c r="CT253" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU253" s="5">
+        <v>1.1499763125116099E-2</v>
+      </c>
     </row>
-    <row r="254" spans="2:98" s="5" customFormat="1">
+    <row r="254" spans="2:99" s="5" customFormat="1">
       <c r="B254" s="5">
         <v>2012</v>
       </c>
@@ -60323,8 +60972,11 @@
       <c r="CT254" s="5">
         <v>3.4</v>
       </c>
+      <c r="CU254" s="5">
+        <v>3.7047683434066503E-2</v>
+      </c>
     </row>
-    <row r="255" spans="2:98" s="5" customFormat="1">
+    <row r="255" spans="2:99" s="5" customFormat="1">
       <c r="B255" s="5">
         <v>2012.25</v>
       </c>
@@ -60597,8 +61249,11 @@
       <c r="CT255" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU255" s="5">
+        <v>-4.8136497553561402E-3</v>
+      </c>
     </row>
-    <row r="256" spans="2:98" s="5" customFormat="1">
+    <row r="256" spans="2:99" s="5" customFormat="1">
       <c r="B256" s="5">
         <v>2012.5</v>
       </c>
@@ -60871,8 +61526,11 @@
       <c r="CT256" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU256" s="5">
+        <v>5.9216503991610398E-3</v>
+      </c>
     </row>
-    <row r="257" spans="2:98" s="5" customFormat="1">
+    <row r="257" spans="2:99" s="5" customFormat="1">
       <c r="B257" s="5">
         <v>2012.75</v>
       </c>
@@ -61145,8 +61803,11 @@
       <c r="CT257" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU257" s="5">
+        <v>-3.8312741445016001E-2</v>
+      </c>
     </row>
-    <row r="258" spans="2:98" s="5" customFormat="1">
+    <row r="258" spans="2:99" s="5" customFormat="1">
       <c r="B258" s="5">
         <v>2013</v>
       </c>
@@ -61419,8 +62080,11 @@
       <c r="CT258" s="5">
         <v>3.3</v>
       </c>
+      <c r="CU258" s="5">
+        <v>-1.6908113186883299E-2</v>
+      </c>
     </row>
-    <row r="259" spans="2:98" s="5" customFormat="1">
+    <row r="259" spans="2:99" s="5" customFormat="1">
       <c r="B259" s="5">
         <v>2013.25</v>
       </c>
@@ -61693,8 +62357,11 @@
       <c r="CT259" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU259" s="5">
+        <v>2.2801473833316401E-2</v>
+      </c>
     </row>
-    <row r="260" spans="2:98" s="5" customFormat="1">
+    <row r="260" spans="2:99" s="5" customFormat="1">
       <c r="B260" s="5">
         <v>2013.5</v>
       </c>
@@ -61967,8 +62634,11 @@
       <c r="CT260" s="5">
         <v>3.1</v>
       </c>
+      <c r="CU260" s="5">
+        <v>3.3059662888880799E-2</v>
+      </c>
     </row>
-    <row r="261" spans="2:98" s="5" customFormat="1">
+    <row r="261" spans="2:99" s="5" customFormat="1">
       <c r="B261" s="5">
         <v>2013.75</v>
       </c>
@@ -62241,8 +62911,11 @@
       <c r="CT261" s="5">
         <v>2.9</v>
       </c>
+      <c r="CU261" s="5">
+        <v>2.3843164121332801E-2</v>
+      </c>
     </row>
-    <row r="262" spans="2:98" s="5" customFormat="1">
+    <row r="262" spans="2:99" s="5" customFormat="1">
       <c r="B262" s="5">
         <v>2014</v>
       </c>
@@ -62515,8 +63188,11 @@
       <c r="CT262" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU262" s="5">
+        <v>-1.3187607206786E-2</v>
+      </c>
     </row>
-    <row r="263" spans="2:98" s="5" customFormat="1">
+    <row r="263" spans="2:99" s="5" customFormat="1">
       <c r="B263" s="5">
         <v>2014.25</v>
       </c>
@@ -62789,8 +63465,11 @@
       <c r="CT263" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU263" s="5">
+        <v>1.09790992502479E-2</v>
+      </c>
     </row>
-    <row r="264" spans="2:98" s="5" customFormat="1">
+    <row r="264" spans="2:99" s="5" customFormat="1">
       <c r="B264" s="5">
         <v>2014.5</v>
       </c>
@@ -63063,8 +63742,11 @@
       <c r="CT264" s="5">
         <v>3.2</v>
       </c>
+      <c r="CU264" s="5">
+        <v>3.6049192548818401E-2</v>
+      </c>
     </row>
-    <row r="265" spans="2:98" s="5" customFormat="1">
+    <row r="265" spans="2:99" s="5" customFormat="1">
       <c r="B265" s="5">
         <v>2014.75</v>
       </c>
@@ -63337,8 +64019,11 @@
       <c r="CT265" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU265" s="5">
+        <v>9.5523393108578603E-3</v>
+      </c>
     </row>
-    <row r="266" spans="2:98" s="5" customFormat="1">
+    <row r="266" spans="2:99" s="5" customFormat="1">
       <c r="B266" s="5">
         <v>2015</v>
       </c>
@@ -63611,8 +64296,11 @@
       <c r="CT266" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU266" s="5">
+        <v>2.8697941059405698E-3</v>
+      </c>
     </row>
-    <row r="267" spans="2:98" s="5" customFormat="1">
+    <row r="267" spans="2:99" s="5" customFormat="1">
       <c r="B267" s="5">
         <v>2015.25</v>
       </c>
@@ -63885,8 +64573,11 @@
       <c r="CT267" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU267" s="5">
+        <v>1.7636353841447201E-2</v>
+      </c>
     </row>
-    <row r="268" spans="2:98" s="5" customFormat="1">
+    <row r="268" spans="2:99" s="5" customFormat="1">
       <c r="B268" s="5">
         <v>2015.5</v>
       </c>
@@ -64159,8 +64850,11 @@
       <c r="CT268" s="5">
         <v>2.8</v>
       </c>
+      <c r="CU268" s="5">
+        <v>4.9919683516463898E-4</v>
+      </c>
     </row>
-    <row r="269" spans="2:98" s="5" customFormat="1">
+    <row r="269" spans="2:99" s="5" customFormat="1">
       <c r="B269" s="5">
         <v>2015.75</v>
       </c>
@@ -64433,8 +65127,11 @@
       <c r="CT269" s="5">
         <v>2.7</v>
       </c>
+      <c r="CU269" s="5">
+        <v>-3.8216699919075399E-2</v>
+      </c>
     </row>
-    <row r="270" spans="2:98" s="5" customFormat="1">
+    <row r="270" spans="2:99" s="5" customFormat="1">
       <c r="B270" s="5">
         <v>2016</v>
       </c>
@@ -64707,8 +65404,11 @@
       <c r="CT270" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU270" s="5">
+        <v>-7.8302058677124399E-3</v>
+      </c>
     </row>
-    <row r="271" spans="2:98" s="5" customFormat="1">
+    <row r="271" spans="2:99" s="5" customFormat="1">
       <c r="B271" s="5">
         <v>2016.25</v>
       </c>
@@ -64981,8 +65681,11 @@
       <c r="CT271" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU271" s="5">
+        <v>-1.7328576583106201E-2</v>
+      </c>
     </row>
-    <row r="272" spans="2:98" s="5" customFormat="1">
+    <row r="272" spans="2:99" s="5" customFormat="1">
       <c r="B272" s="5">
         <v>2016.5</v>
       </c>
@@ -65252,8 +65955,11 @@
       <c r="CT272" s="5">
         <v>2.5</v>
       </c>
+      <c r="CU272" s="5">
+        <v>1.3209196502868399E-2</v>
+      </c>
     </row>
-    <row r="273" spans="2:98" s="5" customFormat="1">
+    <row r="273" spans="2:99" s="5" customFormat="1">
       <c r="B273" s="5">
         <v>2016.75</v>
       </c>
@@ -65523,8 +66229,11 @@
       <c r="CT273" s="5">
         <v>2.4</v>
       </c>
+      <c r="CU273" s="14">
+        <v>9.3678804699237603E-5</v>
+      </c>
     </row>
-    <row r="274" spans="2:98" s="5" customFormat="1">
+    <row r="274" spans="2:99" s="5" customFormat="1">
       <c r="B274" s="5">
         <v>2017</v>
       </c>
@@ -65792,8 +66501,11 @@
       <c r="CT274" s="5">
         <v>2.6</v>
       </c>
+      <c r="CU274" s="5">
+        <v>1.62509285737573E-2</v>
+      </c>
     </row>
-    <row r="275" spans="2:98" s="5" customFormat="1">
+    <row r="275" spans="2:99" s="5" customFormat="1">
       <c r="B275" s="5">
         <v>2017.25</v>
       </c>
@@ -66058,8 +66770,11 @@
       <c r="CT275" s="5">
         <v>2.5</v>
       </c>
+      <c r="CU275" s="5">
+        <v>-5.4904171876737403E-3</v>
+      </c>
     </row>
-    <row r="276" spans="2:98" s="5" customFormat="1">
+    <row r="276" spans="2:99" s="5" customFormat="1">
       <c r="B276" s="5">
         <v>2017.5</v>
       </c>
@@ -66286,7 +67001,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="277" spans="2:98" s="5" customFormat="1">
+    <row r="277" spans="2:99" s="5" customFormat="1">
       <c r="B277" s="5">
         <v>2017.75</v>
       </c>
@@ -66475,7 +67190,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="278" spans="2:98" s="5" customFormat="1">
+    <row r="278" spans="2:99" s="5" customFormat="1">
       <c r="B278" s="5">
         <v>2018</v>
       </c>
@@ -66655,7 +67370,7 @@
         <v>19.466666666666701</v>
       </c>
     </row>
-    <row r="279" spans="2:98" s="5" customFormat="1">
+    <row r="279" spans="2:99" s="5" customFormat="1">
       <c r="B279" s="5">
         <v>2018.25</v>
       </c>
@@ -66819,7 +67534,7 @@
         <v>17.466666666666701</v>
       </c>
     </row>
-    <row r="280" spans="2:98" s="5" customFormat="1">
+    <row r="280" spans="2:99" s="5" customFormat="1">
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="N280" s="4"/>
@@ -66879,7 +67594,7 @@
         <v>19.466666666666701</v>
       </c>
     </row>
-    <row r="281" spans="2:98" s="5" customFormat="1">
+    <row r="281" spans="2:99" s="5" customFormat="1">
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
       <c r="N281" s="4"/>
@@ -66932,7 +67647,7 @@
         <v>329124.33333333331</v>
       </c>
     </row>
-    <row r="282" spans="2:98" s="5" customFormat="1">
+    <row r="282" spans="2:99" s="5" customFormat="1">
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="P282" s="4"/>
@@ -66962,7 +67677,7 @@
       <c r="CC282" s="8"/>
       <c r="CD282" s="8"/>
     </row>
-    <row r="283" spans="2:98" s="5" customFormat="1">
+    <row r="283" spans="2:99" s="5" customFormat="1">
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
       <c r="P283" s="4"/>
@@ -66979,7 +67694,7 @@
       <c r="CC283" s="8"/>
       <c r="CD283" s="8"/>
     </row>
-    <row r="284" spans="2:98" s="5" customFormat="1">
+    <row r="284" spans="2:99" s="5" customFormat="1">
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="P284" s="4"/>
@@ -66996,7 +67711,7 @@
       <c r="CC284" s="8"/>
       <c r="CD284" s="8"/>
     </row>
-    <row r="285" spans="2:98" s="5" customFormat="1">
+    <row r="285" spans="2:99" s="5" customFormat="1">
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
       <c r="P285" s="4"/>
@@ -67013,7 +67728,7 @@
       <c r="CC285" s="8"/>
       <c r="CD285" s="8"/>
     </row>
-    <row r="286" spans="2:98" s="5" customFormat="1">
+    <row r="286" spans="2:99" s="5" customFormat="1">
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="P286" s="4"/>
@@ -67030,7 +67745,7 @@
       <c r="CC286" s="8"/>
       <c r="CD286" s="8"/>
     </row>
-    <row r="287" spans="2:98" s="5" customFormat="1">
+    <row r="287" spans="2:99" s="5" customFormat="1">
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
       <c r="P287" s="4"/>
@@ -67047,7 +67762,7 @@
       <c r="CC287" s="8"/>
       <c r="CD287" s="8"/>
     </row>
-    <row r="288" spans="2:98" s="5" customFormat="1">
+    <row r="288" spans="2:99" s="5" customFormat="1">
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="P288" s="4"/>

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\Noise_Over_Cycles\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun 1/Desktop/Literature/Sentiments/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692B2F0-7960-D54E-BC29-B4B0226B666D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Marco Brianti</author>
   </authors>
   <commentList>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -236,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -260,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ1" authorId="0" shapeId="0">
+    <comment ref="CQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR1" authorId="0" shapeId="0">
+    <comment ref="CR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -333,13 +334,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU1" authorId="0" shapeId="0">
+    <comment ref="CU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -348,12 +349,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-See matlab function create_TFP_surprise.m</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>See matlab function create_TFP_surprise.m</t>
         </r>
       </text>
     </comment>
@@ -685,7 +695,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -772,15 +782,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
@@ -884,10 +894,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normale 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normale 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1164,20 +1174,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="CM42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CQ45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CT52" sqref="CT52"/>
+      <selection pane="bottomRight" activeCell="CU52" sqref="CU52:CU275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="5" width="22" style="2"/>
     <col min="6" max="6" width="22" style="3"/>
@@ -1226,7 +1236,7 @@
     <col min="75" max="83" width="22" style="3"/>
     <col min="84" max="84" width="22" style="3" customWidth="1"/>
     <col min="85" max="99" width="22" style="3"/>
-    <col min="100" max="100" width="29.85546875" style="3" customWidth="1"/>
+    <col min="100" max="100" width="29.83203125" style="3" customWidth="1"/>
     <col min="101" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
@@ -8132,6 +8142,9 @@
       <c r="CR52" s="5">
         <v>99.2</v>
       </c>
+      <c r="CU52" s="5">
+        <v>-3.0300957790209099E-2</v>
+      </c>
     </row>
     <row r="53" spans="2:99" s="5" customFormat="1">
       <c r="B53" s="5">
@@ -8292,6 +8305,9 @@
       <c r="CR53" s="5">
         <v>93</v>
       </c>
+      <c r="CU53" s="5">
+        <v>-5.0630772331377603E-2</v>
+      </c>
     </row>
     <row r="54" spans="2:99" s="5" customFormat="1">
       <c r="B54" s="5">
@@ -8453,7 +8469,7 @@
         <v>99.9</v>
       </c>
       <c r="CU54" s="5">
-        <v>-6.9060980278445904E-4</v>
+        <v>-2.2453619383703501E-2</v>
       </c>
     </row>
     <row r="55" spans="2:99" s="5" customFormat="1">
@@ -8616,7 +8632,7 @@
         <v>95.4</v>
       </c>
       <c r="CU55" s="5">
-        <v>-4.4053031702686603E-2</v>
+        <v>-3.1045989825295901E-2</v>
       </c>
     </row>
     <row r="56" spans="2:99" s="5" customFormat="1">
@@ -8779,7 +8795,7 @@
         <v>91.6</v>
       </c>
       <c r="CU56" s="5">
-        <v>2.6541047120588999E-2</v>
+        <v>2.4806392390809701E-2</v>
       </c>
     </row>
     <row r="57" spans="2:99" s="5" customFormat="1">
@@ -8942,7 +8958,7 @@
         <v>95</v>
       </c>
       <c r="CU57" s="5">
-        <v>1.4633200836711401E-2</v>
+        <v>1.1103067814927901E-2</v>
       </c>
     </row>
     <row r="58" spans="2:99" s="5" customFormat="1">
@@ -9105,7 +9121,7 @@
         <v>98.4</v>
       </c>
       <c r="CU58" s="5">
-        <v>-1.8192698035793799E-2</v>
+        <v>-2.5520106199638501E-2</v>
       </c>
     </row>
     <row r="59" spans="2:99" s="5" customFormat="1">
@@ -9268,7 +9284,7 @@
         <v>91.7</v>
       </c>
       <c r="CU59" s="5">
-        <v>-2.2065209687745502E-2</v>
+        <v>-2.17201055338282E-2</v>
       </c>
     </row>
     <row r="60" spans="2:99" s="5" customFormat="1">
@@ -9431,7 +9447,7 @@
         <v>96.4</v>
       </c>
       <c r="CU60" s="5">
-        <v>2.3894978645858801E-2</v>
+        <v>1.1114301362777501E-2</v>
       </c>
     </row>
     <row r="61" spans="2:99" s="5" customFormat="1">
@@ -9594,7 +9610,7 @@
         <v>94.4</v>
       </c>
       <c r="CU61" s="5">
-        <v>-1.59524866197602E-2</v>
+        <v>-1.41514780286809E-2</v>
       </c>
     </row>
     <row r="62" spans="2:99" s="5" customFormat="1">
@@ -9757,7 +9773,7 @@
         <v>99.5</v>
       </c>
       <c r="CU62" s="5">
-        <v>1.7849912882654601E-2</v>
+        <v>2.90522685687176E-2</v>
       </c>
     </row>
     <row r="63" spans="2:99" s="5" customFormat="1">
@@ -9920,7 +9936,7 @@
         <v>98.5</v>
       </c>
       <c r="CU63" s="5">
-        <v>-3.7508940691302103E-2</v>
+        <v>-3.2571043066992302E-2</v>
       </c>
     </row>
     <row r="64" spans="2:99" s="5" customFormat="1">
@@ -10083,7 +10099,7 @@
         <v>100.6</v>
       </c>
       <c r="CU64" s="5">
-        <v>-1.32848301895905E-2</v>
+        <v>3.9700496357113497E-3</v>
       </c>
     </row>
     <row r="65" spans="2:99" s="5" customFormat="1">
@@ -10246,7 +10262,7 @@
         <v>99.9</v>
       </c>
       <c r="CU65" s="5">
-        <v>-1.76299623683513E-2</v>
+        <v>-2.9276734260296901E-2</v>
       </c>
     </row>
     <row r="66" spans="2:99" s="5" customFormat="1">
@@ -10409,7 +10425,7 @@
         <v>102</v>
       </c>
       <c r="CU66" s="5">
-        <v>-2.2937204957867802E-2</v>
+        <v>-3.3166434425829103E-2</v>
       </c>
     </row>
     <row r="67" spans="2:99" s="5" customFormat="1">
@@ -10572,7 +10588,7 @@
         <v>105.4</v>
       </c>
       <c r="CU67" s="5">
-        <v>-9.3422077180267404E-3</v>
+        <v>-1.09381063889269E-3</v>
       </c>
     </row>
     <row r="68" spans="2:99" s="5" customFormat="1">
@@ -10735,7 +10751,7 @@
         <v>103.4</v>
       </c>
       <c r="CU68" s="5">
-        <v>4.7534906497818101E-2</v>
+        <v>3.9365594325661397E-2</v>
       </c>
     </row>
     <row r="69" spans="2:99" s="5" customFormat="1">
@@ -10898,7 +10914,7 @@
         <v>102.9</v>
       </c>
       <c r="CU69" s="5">
-        <v>2.1748027997525699E-4</v>
+        <v>2.8341474385837E-2</v>
       </c>
     </row>
     <row r="70" spans="2:99" s="5" customFormat="1">
@@ -11061,7 +11077,7 @@
         <v>100</v>
       </c>
       <c r="CU70" s="5">
-        <v>-1.6289404364360201E-3</v>
+        <v>4.0620623565212899E-3</v>
       </c>
     </row>
     <row r="71" spans="2:99" s="5" customFormat="1">
@@ -11228,7 +11244,7 @@
         <v>95.7</v>
       </c>
       <c r="CU71" s="5">
-        <v>-3.2765177645972303E-2</v>
+        <v>-3.69853287285027E-3</v>
       </c>
     </row>
     <row r="72" spans="2:99" s="5" customFormat="1">
@@ -11395,7 +11411,7 @@
         <v>91.2</v>
       </c>
       <c r="CU72" s="5">
-        <v>-2.4731275711419299E-2</v>
+        <v>-2.4399594631852001E-2</v>
       </c>
     </row>
     <row r="73" spans="2:99" s="5" customFormat="1">
@@ -11562,7 +11578,7 @@
         <v>88.3</v>
       </c>
       <c r="CU73" s="5">
-        <v>3.05745366155716E-2</v>
+        <v>3.3825559168026501E-2</v>
       </c>
     </row>
     <row r="74" spans="2:99" s="5" customFormat="1">
@@ -11733,7 +11749,7 @@
         <v>94.1</v>
       </c>
       <c r="CU74" s="5">
-        <v>3.1242139633650599E-2</v>
+        <v>4.9364650853202401E-2</v>
       </c>
     </row>
     <row r="75" spans="2:99" s="5" customFormat="1">
@@ -11904,7 +11920,7 @@
         <v>95.9</v>
       </c>
       <c r="CU75" s="5">
-        <v>1.37287921249307E-2</v>
+        <v>3.5177748718611297E-2</v>
       </c>
     </row>
     <row r="76" spans="2:99" s="5" customFormat="1">
@@ -12079,7 +12095,7 @@
         <v>97</v>
       </c>
       <c r="CU76" s="5">
-        <v>4.4020894807650403E-3</v>
+        <v>-2.1235265974675299E-2</v>
       </c>
     </row>
     <row r="77" spans="2:99" s="5" customFormat="1">
@@ -12254,7 +12270,7 @@
         <v>92.9</v>
       </c>
       <c r="CU77" s="5">
-        <v>1.8591063674601602E-2</v>
+        <v>1.51958066684337E-2</v>
       </c>
     </row>
     <row r="78" spans="2:99" s="5" customFormat="1">
@@ -12429,7 +12445,7 @@
         <v>97.2</v>
       </c>
       <c r="CU78" s="5">
-        <v>2.7550936384695499E-2</v>
+        <v>3.9404819860105099E-2</v>
       </c>
     </row>
     <row r="79" spans="2:99" s="5" customFormat="1">
@@ -12604,7 +12620,7 @@
         <v>92.4</v>
       </c>
       <c r="CU79" s="5">
-        <v>-3.55510654889701E-3</v>
+        <v>2.7475366511803701E-2</v>
       </c>
     </row>
     <row r="80" spans="2:99" s="5" customFormat="1">
@@ -12779,7 +12795,7 @@
         <v>92.4</v>
       </c>
       <c r="CU80" s="5">
-        <v>-3.7874322699555298E-2</v>
+        <v>-9.0255005725632404E-3</v>
       </c>
     </row>
     <row r="81" spans="2:99" s="5" customFormat="1">
@@ -13014,7 +13030,7 @@
         <v>91.7</v>
       </c>
       <c r="CU81" s="5">
-        <v>-1.8423973501535199E-2</v>
+        <v>-2.4497593368946899E-2</v>
       </c>
     </row>
     <row r="82" spans="2:99" s="5" customFormat="1">
@@ -13253,7 +13269,7 @@
         <v>98.2</v>
       </c>
       <c r="CU82" s="5">
-        <v>-2.2729588851272201E-2</v>
+        <v>-1.5653800860500899E-2</v>
       </c>
     </row>
     <row r="83" spans="2:99" s="5" customFormat="1">
@@ -13492,7 +13508,7 @@
         <v>91.5</v>
       </c>
       <c r="CU83" s="5">
-        <v>-4.6041758310067203E-2</v>
+        <v>-1.4429737483606901E-2</v>
       </c>
     </row>
     <row r="84" spans="2:99" s="5" customFormat="1">
@@ -13731,7 +13747,7 @@
         <v>86.4</v>
       </c>
       <c r="CU84" s="5">
-        <v>-2.15026563993219E-2</v>
+        <v>-2.7521428585123499E-2</v>
       </c>
     </row>
     <row r="85" spans="2:99" s="5" customFormat="1">
@@ -13969,7 +13985,7 @@
         <v>79.7</v>
       </c>
       <c r="CU85" s="5">
-        <v>-2.6706053815924901E-2</v>
+        <v>-2.3807812646323898E-2</v>
       </c>
     </row>
     <row r="86" spans="2:99" s="5" customFormat="1">
@@ -14209,7 +14225,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="CU86" s="5">
-        <v>1.44904179401077E-2</v>
+        <v>1.19691375073816E-2</v>
       </c>
     </row>
     <row r="87" spans="2:99" s="5" customFormat="1">
@@ -14447,7 +14463,7 @@
         <v>75.400000000000006</v>
       </c>
       <c r="CU87" s="5">
-        <v>4.8256000739978197E-2</v>
+        <v>4.3890130190583902E-2</v>
       </c>
     </row>
     <row r="88" spans="2:99" s="5" customFormat="1">
@@ -14685,7 +14701,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="CU88" s="5">
-        <v>3.5081261234214602E-2</v>
+        <v>3.9807902194401598E-2</v>
       </c>
     </row>
     <row r="89" spans="2:99" s="5" customFormat="1">
@@ -14923,7 +14939,7 @@
         <v>72.400000000000006</v>
       </c>
       <c r="CU89" s="5">
-        <v>-2.3957826674090299E-2</v>
+        <v>-2.47870773395873E-2</v>
       </c>
     </row>
     <row r="90" spans="2:99" s="5" customFormat="1">
@@ -15161,7 +15177,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="CU90" s="5">
-        <v>1.6576850377646401E-2</v>
+        <v>1.19095246911012E-2</v>
       </c>
     </row>
     <row r="91" spans="2:99" s="5" customFormat="1">
@@ -15399,7 +15415,7 @@
         <v>80.2</v>
       </c>
       <c r="CU91" s="5">
-        <v>9.9465753540210998E-3</v>
+        <v>2.03323167942435E-2</v>
       </c>
     </row>
     <row r="92" spans="2:99" s="5" customFormat="1">
@@ -15637,7 +15653,7 @@
         <v>82.1</v>
       </c>
       <c r="CU92" s="5">
-        <v>5.0311508337979899E-2</v>
+        <v>3.4795473324755098E-2</v>
       </c>
     </row>
     <row r="93" spans="2:99" s="5" customFormat="1">
@@ -15875,7 +15891,7 @@
         <v>82</v>
       </c>
       <c r="CU93" s="5">
-        <v>-5.05281180745909E-3</v>
+        <v>-5.2363229518105403E-2</v>
       </c>
     </row>
     <row r="94" spans="2:99" s="5" customFormat="1">
@@ -16113,7 +16129,7 @@
         <v>92.8</v>
       </c>
       <c r="CU94" s="5">
-        <v>-1.4411047929157299E-2</v>
+        <v>-2.7595215425505699E-2</v>
       </c>
     </row>
     <row r="95" spans="2:99" s="5" customFormat="1">
@@ -16351,7 +16367,7 @@
         <v>88.6</v>
       </c>
       <c r="CU95" s="5">
-        <v>1.52864762800067E-2</v>
+        <v>4.0248880647204097E-2</v>
       </c>
     </row>
     <row r="96" spans="2:99" s="5" customFormat="1">
@@ -16589,7 +16605,7 @@
         <v>95.2</v>
       </c>
       <c r="CU96" s="5">
-        <v>9.8578019288921796E-3</v>
+        <v>2.4490623640146099E-2</v>
       </c>
     </row>
     <row r="97" spans="2:99" s="5" customFormat="1">
@@ -16827,7 +16843,7 @@
         <v>90.7</v>
       </c>
       <c r="CU97" s="5">
-        <v>3.5711380002969098E-2</v>
+        <v>2.6211042641889299E-2</v>
       </c>
     </row>
     <row r="98" spans="2:99" s="5" customFormat="1">
@@ -17068,7 +17084,7 @@
         <v>81.900000000000006</v>
       </c>
       <c r="CU98" s="5">
-        <v>2.0565690479200899E-2</v>
+        <v>3.5856175738124399E-2</v>
       </c>
     </row>
     <row r="99" spans="2:99" s="5" customFormat="1">
@@ -17308,8 +17324,8 @@
       <c r="CR99" s="5">
         <v>77</v>
       </c>
-      <c r="CU99" s="14">
-        <v>-1.9710199328226701E-5</v>
+      <c r="CU99" s="5">
+        <v>-1.0765203486236699E-2</v>
       </c>
     </row>
     <row r="100" spans="2:99" s="5" customFormat="1">
@@ -17550,7 +17566,7 @@
         <v>72</v>
       </c>
       <c r="CU100" s="5">
-        <v>-5.4922348136814E-2</v>
+        <v>-2.7741765416214401E-2</v>
       </c>
     </row>
     <row r="101" spans="2:99" s="5" customFormat="1">
@@ -17791,7 +17807,7 @@
         <v>76.5</v>
       </c>
       <c r="CU101" s="5">
-        <v>-1.28033002468759E-2</v>
+        <v>-1.04638958016465E-2</v>
       </c>
     </row>
     <row r="102" spans="2:99" s="5" customFormat="1">
@@ -18032,7 +18048,7 @@
         <v>61.8</v>
       </c>
       <c r="CU102" s="5">
-        <v>-1.66006281556643E-2</v>
+        <v>-4.4706097812751103E-2</v>
       </c>
     </row>
     <row r="103" spans="2:99" s="5" customFormat="1">
@@ -18273,7 +18289,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="CU103" s="5">
-        <v>1.16605607487037E-2</v>
+        <v>7.8982274789307595E-4</v>
       </c>
     </row>
     <row r="104" spans="2:99" s="5" customFormat="1">
@@ -18516,7 +18532,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="CU104" s="5">
-        <v>-6.8683644860996207E-2</v>
+        <v>-6.0142642088791401E-2</v>
       </c>
     </row>
     <row r="105" spans="2:99" s="5" customFormat="1">
@@ -18757,7 +18773,7 @@
         <v>59.5</v>
       </c>
       <c r="CU105" s="5">
-        <v>2.6610361905832901E-2</v>
+        <v>3.3298646789403602E-3</v>
       </c>
     </row>
     <row r="106" spans="2:99" s="5" customFormat="1">
@@ -18998,7 +19014,7 @@
         <v>57.6</v>
       </c>
       <c r="CU106" s="5">
-        <v>4.7300756324358199E-2</v>
+        <v>6.5411999880730307E-2</v>
       </c>
     </row>
     <row r="107" spans="2:99" s="5" customFormat="1">
@@ -19239,7 +19255,7 @@
         <v>72.8</v>
       </c>
       <c r="CU107" s="5">
-        <v>2.1452753408721201E-2</v>
+        <v>1.2570785003284801E-2</v>
       </c>
     </row>
     <row r="108" spans="2:99" s="5" customFormat="1">
@@ -19480,7 +19496,7 @@
         <v>75.7</v>
       </c>
       <c r="CU108" s="5">
-        <v>-9.0741440731561002E-3</v>
+        <v>-8.61047560962946E-4</v>
       </c>
     </row>
     <row r="109" spans="2:99" s="5" customFormat="1">
@@ -19721,7 +19737,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="CU109" s="5">
-        <v>-3.3675302839855101E-3</v>
+        <v>-3.0418836546156399E-2</v>
       </c>
     </row>
     <row r="110" spans="2:99" s="5" customFormat="1">
@@ -19962,7 +19978,7 @@
         <v>84.6</v>
       </c>
       <c r="CU110" s="5">
-        <v>2.9002507651369998E-3</v>
+        <v>1.05851306740987E-2</v>
       </c>
     </row>
     <row r="111" spans="2:99" s="5" customFormat="1">
@@ -20203,7 +20219,7 @@
         <v>83.3</v>
       </c>
       <c r="CU111" s="5">
-        <v>1.36756318389242E-2</v>
+        <v>4.5488481363361997E-2</v>
       </c>
     </row>
     <row r="112" spans="2:99" s="5" customFormat="1">
@@ -20444,7 +20460,7 @@
         <v>89.7</v>
       </c>
       <c r="CU112" s="5">
-        <v>-1.44540488775777E-2</v>
+        <v>-1.8580887997950501E-2</v>
       </c>
     </row>
     <row r="113" spans="2:99" s="5" customFormat="1">
@@ -20685,7 +20701,7 @@
         <v>87</v>
       </c>
       <c r="CU113" s="5">
-        <v>4.2335186818145201E-2</v>
+        <v>3.5372121430617499E-2</v>
       </c>
     </row>
     <row r="114" spans="2:99" s="5" customFormat="1">
@@ -20926,7 +20942,7 @@
         <v>87.1</v>
       </c>
       <c r="CU114" s="5">
-        <v>3.6836347743984602E-2</v>
+        <v>6.6552664504833103E-3</v>
       </c>
     </row>
     <row r="115" spans="2:99" s="5" customFormat="1">
@@ -21167,7 +21183,7 @@
         <v>90.2</v>
       </c>
       <c r="CU115" s="5">
-        <v>-6.1471373540336102E-3</v>
+        <v>5.1868986681662399E-3</v>
       </c>
     </row>
     <row r="116" spans="2:99" s="5" customFormat="1">
@@ -21408,7 +21424,7 @@
         <v>89</v>
       </c>
       <c r="CU116" s="5">
-        <v>3.0544454776940899E-2</v>
+        <v>4.8772251009950203E-2</v>
       </c>
     </row>
     <row r="117" spans="2:99" s="5" customFormat="1">
@@ -21649,7 +21665,7 @@
         <v>84.4</v>
       </c>
       <c r="CU117" s="5">
-        <v>-4.21278046608069E-2</v>
+        <v>-4.1794147150829603E-2</v>
       </c>
     </row>
     <row r="118" spans="2:99" s="5" customFormat="1">
@@ -21896,7 +21912,7 @@
         <v>5.8</v>
       </c>
       <c r="CU118" s="5">
-        <v>3.05632980529329E-2</v>
+        <v>3.1227501083317202E-2</v>
       </c>
     </row>
     <row r="119" spans="2:99" s="5" customFormat="1">
@@ -22146,7 +22162,7 @@
         <v>6.7</v>
       </c>
       <c r="CU119" s="5">
-        <v>-2.37054203795979E-2</v>
+        <v>-2.3107997667038801E-2</v>
       </c>
     </row>
     <row r="120" spans="2:99" s="5" customFormat="1">
@@ -22396,7 +22412,7 @@
         <v>7.2</v>
       </c>
       <c r="CU120" s="5">
-        <v>2.8297721596803702E-2</v>
+        <v>1.38243281528903E-2</v>
       </c>
     </row>
     <row r="121" spans="2:99" s="5" customFormat="1">
@@ -22646,7 +22662,7 @@
         <v>7.4</v>
       </c>
       <c r="CU121" s="5">
-        <v>-4.7403437403795698E-2</v>
+        <v>-8.3077236256672293E-3</v>
       </c>
     </row>
     <row r="122" spans="2:99" s="5" customFormat="1">
@@ -22896,7 +22912,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="CU122" s="5">
-        <v>1.51026737334428E-2</v>
+        <v>3.5914494990009899E-2</v>
       </c>
     </row>
     <row r="123" spans="2:99" s="5" customFormat="1">
@@ -23146,7 +23162,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="CU123" s="5">
-        <v>1.8201835567875201E-2</v>
+        <v>1.6109032731105099E-2</v>
       </c>
     </row>
     <row r="124" spans="2:99" s="5" customFormat="1">
@@ -23396,7 +23412,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="CU124" s="5">
-        <v>-1.30785703324436E-2</v>
+        <v>-4.7094786244712902E-2</v>
       </c>
     </row>
     <row r="125" spans="2:99" s="5" customFormat="1">
@@ -23646,7 +23662,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="CU125" s="5">
-        <v>-2.4886637695481099E-2</v>
+        <v>-2.11730660564882E-2</v>
       </c>
     </row>
     <row r="126" spans="2:99" s="5" customFormat="1">
@@ -23896,7 +23912,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="CU126" s="5">
-        <v>7.9137869740606701E-2</v>
+        <v>6.3588148144152701E-2</v>
       </c>
     </row>
     <row r="127" spans="2:99" s="5" customFormat="1">
@@ -24146,7 +24162,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="CU127" s="5">
-        <v>-3.8621445697455202E-2</v>
+        <v>-2.4870979983613099E-2</v>
       </c>
     </row>
     <row r="128" spans="2:99" s="5" customFormat="1">
@@ -24396,7 +24412,7 @@
         <v>9</v>
       </c>
       <c r="CU128" s="5">
-        <v>-5.1711503941466203E-2</v>
+        <v>-5.5233656982909503E-2</v>
       </c>
     </row>
     <row r="129" spans="2:99" s="5" customFormat="1">
@@ -24646,7 +24662,7 @@
         <v>9.5</v>
       </c>
       <c r="CU129" s="5">
-        <v>-2.6809523576900602E-3</v>
+        <v>-1.35346100236964E-2</v>
       </c>
     </row>
     <row r="130" spans="2:99" s="5" customFormat="1">
@@ -24896,7 +24912,7 @@
         <v>8.6</v>
       </c>
       <c r="CU130" s="5">
-        <v>3.2385582132509201E-2</v>
+        <v>4.6764491470914701E-2</v>
       </c>
     </row>
     <row r="131" spans="2:99" s="5" customFormat="1">
@@ -25146,7 +25162,7 @@
         <v>7.3</v>
       </c>
       <c r="CU131" s="5">
-        <v>4.8068373515333098E-3</v>
+        <v>-3.6752109123043802E-2</v>
       </c>
     </row>
     <row r="132" spans="2:99" s="5" customFormat="1">
@@ -25436,7 +25452,7 @@
         <v>6.7</v>
       </c>
       <c r="CU132" s="5">
-        <v>3.7619004853020901E-2</v>
+        <v>5.2451642993100601E-2</v>
       </c>
     </row>
     <row r="133" spans="2:99" s="5" customFormat="1">
@@ -25726,7 +25742,7 @@
         <v>6.6</v>
       </c>
       <c r="CU133" s="5">
-        <v>-2.92431432729869E-2</v>
+        <v>-2.44175930127064E-2</v>
       </c>
     </row>
     <row r="134" spans="2:99" s="5" customFormat="1">
@@ -26016,7 +26032,7 @@
         <v>4.3</v>
       </c>
       <c r="CU134" s="5">
-        <v>6.0989946893892401E-3</v>
+        <v>9.77605715428842E-3</v>
       </c>
     </row>
     <row r="135" spans="2:99" s="5" customFormat="1">
@@ -26306,7 +26322,7 @@
         <v>4.5</v>
       </c>
       <c r="CU135" s="5">
-        <v>-1.45591367015987E-2</v>
+        <v>-3.5399773460756102E-2</v>
       </c>
     </row>
     <row r="136" spans="2:99" s="5" customFormat="1">
@@ -26596,7 +26612,7 @@
         <v>4.8</v>
       </c>
       <c r="CU136" s="5">
-        <v>-2.6299927911136001E-2</v>
+        <v>-5.0554605708353198E-2</v>
       </c>
     </row>
     <row r="137" spans="2:99" s="5" customFormat="1">
@@ -26886,7 +26902,7 @@
         <v>4.5</v>
       </c>
       <c r="CU137" s="5">
-        <v>6.2499257455863599E-3</v>
+        <v>-6.4275704604748202E-3</v>
       </c>
     </row>
     <row r="138" spans="2:99" s="5" customFormat="1">
@@ -27176,7 +27192,7 @@
         <v>2.7</v>
       </c>
       <c r="CU138" s="5">
-        <v>-3.2281694556831199E-2</v>
+        <v>5.3317488501680699E-4</v>
       </c>
     </row>
     <row r="139" spans="2:99" s="5" customFormat="1">
@@ -27466,7 +27482,7 @@
         <v>3.3</v>
       </c>
       <c r="CU139" s="5">
-        <v>-1.55895841664853E-2</v>
+        <v>-2.5514660644800201E-2</v>
       </c>
     </row>
     <row r="140" spans="2:99" s="5" customFormat="1">
@@ -27756,7 +27772,7 @@
         <v>3.3</v>
       </c>
       <c r="CU140" s="5">
-        <v>-4.6603754599493299E-2</v>
+        <v>-3.0469164286018601E-2</v>
       </c>
     </row>
     <row r="141" spans="2:99" s="5" customFormat="1">
@@ -28046,7 +28062,7 @@
         <v>3.6</v>
       </c>
       <c r="CU141" s="5">
-        <v>-1.8950039573173399E-3</v>
+        <v>1.86572370778086E-2</v>
       </c>
     </row>
     <row r="142" spans="2:99" s="5" customFormat="1">
@@ -28336,7 +28352,7 @@
         <v>3.3</v>
       </c>
       <c r="CU142" s="5">
-        <v>2.6201846959824401E-2</v>
+        <v>3.1110312026459301E-2</v>
       </c>
     </row>
     <row r="143" spans="2:99" s="5" customFormat="1">
@@ -28626,7 +28642,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="CU143" s="5">
-        <v>1.6204043589748598E-2</v>
+        <v>1.6658324562726499E-2</v>
       </c>
     </row>
     <row r="144" spans="2:99" s="5" customFormat="1">
@@ -28916,7 +28932,7 @@
         <v>3.1</v>
       </c>
       <c r="CU144" s="5">
-        <v>6.7837131341541602E-3</v>
+        <v>9.0993664417480299E-3</v>
       </c>
     </row>
     <row r="145" spans="2:99" s="5" customFormat="1">
@@ -29206,7 +29222,7 @@
         <v>3.4</v>
       </c>
       <c r="CU145" s="5">
-        <v>-1.49699278597981E-3</v>
+        <v>2.1555598177875002E-2</v>
       </c>
     </row>
     <row r="146" spans="2:99" s="5" customFormat="1">
@@ -29496,7 +29512,7 @@
         <v>3</v>
       </c>
       <c r="CU146" s="5">
-        <v>3.6964645470462597E-2</v>
+        <v>2.5032467096722098E-2</v>
       </c>
     </row>
     <row r="147" spans="2:99" s="5" customFormat="1">
@@ -29786,7 +29802,7 @@
         <v>3.3</v>
       </c>
       <c r="CU147" s="5">
-        <v>-1.8809401019753501E-2</v>
+        <v>-2.0721086729015101E-2</v>
       </c>
     </row>
     <row r="148" spans="2:99" s="5" customFormat="1">
@@ -30076,7 +30092,7 @@
         <v>2.8</v>
       </c>
       <c r="CU148" s="5">
-        <v>6.6884300480349896E-3</v>
+        <v>2.7345286446604201E-2</v>
       </c>
     </row>
     <row r="149" spans="2:99" s="5" customFormat="1">
@@ -30366,7 +30382,7 @@
         <v>3.3</v>
       </c>
       <c r="CU149" s="5">
-        <v>-2.38238164218751E-3</v>
+        <v>-2.4460404555219001E-2</v>
       </c>
     </row>
     <row r="150" spans="2:99" s="5" customFormat="1">
@@ -30658,7 +30674,7 @@
         <v>2.7</v>
       </c>
       <c r="CU150" s="5">
-        <v>2.52011146397049E-2</v>
+        <v>3.9159605689695898E-2</v>
       </c>
     </row>
     <row r="151" spans="2:99" s="5" customFormat="1">
@@ -30950,7 +30966,7 @@
         <v>2.7</v>
       </c>
       <c r="CU151" s="5">
-        <v>1.80999053532407E-2</v>
+        <v>9.4317742462108906E-3</v>
       </c>
     </row>
     <row r="152" spans="2:99" s="5" customFormat="1">
@@ -31242,7 +31258,7 @@
         <v>2.9</v>
       </c>
       <c r="CU152" s="5">
-        <v>7.3327206704680804E-3</v>
+        <v>-6.62369120224771E-4</v>
       </c>
     </row>
     <row r="153" spans="2:99" s="5" customFormat="1">
@@ -31534,7 +31550,7 @@
         <v>3</v>
       </c>
       <c r="CU153" s="5">
-        <v>-3.4356234100697797E-2</v>
+        <v>-2.5907915770666999E-2</v>
       </c>
     </row>
     <row r="154" spans="2:99" s="5" customFormat="1">
@@ -31826,7 +31842,7 @@
         <v>3</v>
       </c>
       <c r="CU154" s="5">
-        <v>-3.7671666457704103E-2</v>
+        <v>-5.0162327910831202E-2</v>
       </c>
     </row>
     <row r="155" spans="2:99" s="5" customFormat="1">
@@ -32118,7 +32134,7 @@
         <v>3.3</v>
       </c>
       <c r="CU155" s="5">
-        <v>2.7001149733759399E-2</v>
+        <v>2.6226486728265601E-2</v>
       </c>
     </row>
     <row r="156" spans="2:99" s="5" customFormat="1">
@@ -32410,7 +32426,7 @@
         <v>3.1</v>
       </c>
       <c r="CU156" s="5">
-        <v>2.4685415251358499E-2</v>
+        <v>-1.13677693693415E-4</v>
       </c>
     </row>
     <row r="157" spans="2:99" s="5" customFormat="1">
@@ -32702,7 +32718,7 @@
         <v>3.2</v>
       </c>
       <c r="CU157" s="5">
-        <v>-5.3203054170469803E-3</v>
+        <v>3.03326801299963E-3</v>
       </c>
     </row>
     <row r="158" spans="2:99" s="5" customFormat="1">
@@ -32994,7 +33010,7 @@
         <v>3.1</v>
       </c>
       <c r="CU158" s="5">
-        <v>5.6022787920198401E-2</v>
+        <v>4.47993043378139E-2</v>
       </c>
     </row>
     <row r="159" spans="2:99" s="5" customFormat="1">
@@ -33286,7 +33302,7 @@
         <v>3.4</v>
       </c>
       <c r="CU159" s="5">
-        <v>-1.54101041772581E-2</v>
+        <v>-2.76320867616153E-3</v>
       </c>
     </row>
     <row r="160" spans="2:99" s="5" customFormat="1">
@@ -33578,7 +33594,7 @@
         <v>4.3</v>
       </c>
       <c r="CU160" s="5">
-        <v>1.0348730010687E-2</v>
+        <v>2.52348046927304E-2</v>
       </c>
     </row>
     <row r="161" spans="2:99" s="5" customFormat="1">
@@ -33870,7 +33886,7 @@
         <v>3.8</v>
       </c>
       <c r="CU161" s="5">
-        <v>3.01401377541444E-3</v>
+        <v>-5.5044876740679696E-3</v>
       </c>
     </row>
     <row r="162" spans="2:99" s="5" customFormat="1">
@@ -34162,7 +34178,7 @@
         <v>3.8</v>
       </c>
       <c r="CU162" s="5">
-        <v>-1.9703789053211501E-2</v>
+        <v>-7.1542262483483797E-3</v>
       </c>
     </row>
     <row r="163" spans="2:99" s="5" customFormat="1">
@@ -34454,7 +34470,7 @@
         <v>4.3</v>
       </c>
       <c r="CU163" s="5">
-        <v>-2.8668472759286499E-2</v>
+        <v>-2.7929352947917901E-2</v>
       </c>
     </row>
     <row r="164" spans="2:99" s="5" customFormat="1">
@@ -34746,7 +34762,7 @@
         <v>3.6</v>
       </c>
       <c r="CU164" s="5">
-        <v>1.6906398029274999E-2</v>
+        <v>1.9549291489086702E-2</v>
       </c>
     </row>
     <row r="165" spans="2:99" s="5" customFormat="1">
@@ -35038,7 +35054,7 @@
         <v>3.5</v>
       </c>
       <c r="CU165" s="5">
-        <v>-2.89172997863489E-2</v>
+        <v>-3.8912452319128702E-3</v>
       </c>
     </row>
     <row r="166" spans="2:99" s="5" customFormat="1">
@@ -35332,7 +35348,7 @@
         <v>4</v>
       </c>
       <c r="CU166" s="5">
-        <v>3.9528789868548098E-4</v>
+        <v>4.5484685635503999E-3</v>
       </c>
     </row>
     <row r="167" spans="2:99" s="5" customFormat="1">
@@ -35625,8 +35641,8 @@
       <c r="CT167" s="5">
         <v>3.6</v>
       </c>
-      <c r="CU167" s="14">
-        <v>-4.8295338912041102E-5</v>
+      <c r="CU167" s="5">
+        <v>1.2438719143040599E-2</v>
       </c>
     </row>
     <row r="168" spans="2:99" s="5" customFormat="1">
@@ -35920,7 +35936,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="CU168" s="5">
-        <v>-1.74804510843867E-2</v>
+        <v>-6.2005030628427002E-3</v>
       </c>
     </row>
     <row r="169" spans="2:99" s="5" customFormat="1">
@@ -36214,7 +36230,7 @@
         <v>4.7</v>
       </c>
       <c r="CU169" s="5">
-        <v>-1.15133091544539E-2</v>
+        <v>-1.0126005578443601E-2</v>
       </c>
     </row>
     <row r="170" spans="2:99" s="5" customFormat="1">
@@ -36508,7 +36524,7 @@
         <v>3.5</v>
       </c>
       <c r="CU170" s="5">
-        <v>6.9610996365234703E-3</v>
+        <v>5.7768955150105895E-4</v>
       </c>
     </row>
     <row r="171" spans="2:99" s="5" customFormat="1">
@@ -36802,7 +36818,7 @@
         <v>3.2</v>
       </c>
       <c r="CU171" s="5">
-        <v>1.6570499593877099E-2</v>
+        <v>2.37369903058657E-2</v>
       </c>
     </row>
     <row r="172" spans="2:99" s="5" customFormat="1">
@@ -37096,7 +37112,7 @@
         <v>3.1</v>
       </c>
       <c r="CU172" s="5">
-        <v>-9.52291436968844E-3</v>
+        <v>-9.8653436981286403E-3</v>
       </c>
     </row>
     <row r="173" spans="2:99" s="5" customFormat="1">
@@ -37390,7 +37406,7 @@
         <v>3</v>
       </c>
       <c r="CU173" s="5">
-        <v>-1.68635020441559E-2</v>
+        <v>-1.11934704630139E-2</v>
       </c>
     </row>
     <row r="174" spans="2:99" s="5" customFormat="1">
@@ -37684,7 +37700,7 @@
         <v>2.6</v>
       </c>
       <c r="CU174" s="5">
-        <v>9.1591682446452397E-2</v>
+        <v>9.2751635111146202E-2</v>
       </c>
     </row>
     <row r="175" spans="2:99" s="5" customFormat="1">
@@ -37978,7 +37994,7 @@
         <v>3</v>
       </c>
       <c r="CU175" s="5">
-        <v>-1.30423229464887E-2</v>
+        <v>-1.9880771451059199E-2</v>
       </c>
     </row>
     <row r="176" spans="2:99" s="5" customFormat="1">
@@ -38272,7 +38288,7 @@
         <v>2.9</v>
       </c>
       <c r="CU176" s="5">
-        <v>-1.0831831753021199E-2</v>
+        <v>1.72382207230708E-2</v>
       </c>
     </row>
     <row r="177" spans="2:99" s="5" customFormat="1">
@@ -38566,7 +38582,7 @@
         <v>2.8</v>
       </c>
       <c r="CU177" s="5">
-        <v>-5.12116359931181E-3</v>
+        <v>3.6727558558773401E-3</v>
       </c>
     </row>
     <row r="178" spans="2:99" s="5" customFormat="1">
@@ -38860,7 +38876,7 @@
         <v>3</v>
       </c>
       <c r="CU178" s="5">
-        <v>-6.1565614204619902E-2</v>
+        <v>-5.4163273313918098E-2</v>
       </c>
     </row>
     <row r="179" spans="2:99" s="5" customFormat="1">
@@ -39154,7 +39170,7 @@
         <v>3.1</v>
       </c>
       <c r="CU179" s="5">
-        <v>-4.1139484436030702E-2</v>
+        <v>-4.0038067800162801E-2</v>
       </c>
     </row>
     <row r="180" spans="2:99" s="5" customFormat="1">
@@ -39448,7 +39464,7 @@
         <v>3.1</v>
       </c>
       <c r="CU180" s="5">
-        <v>-2.2684451370300202E-2</v>
+        <v>-4.1020437677064002E-2</v>
       </c>
     </row>
     <row r="181" spans="2:99" s="5" customFormat="1">
@@ -39742,7 +39758,7 @@
         <v>3</v>
       </c>
       <c r="CU181" s="5">
-        <v>2.97138994194612E-2</v>
+        <v>2.5931914845670302E-2</v>
       </c>
     </row>
     <row r="182" spans="2:99" s="5" customFormat="1">
@@ -40036,7 +40052,7 @@
         <v>2.9</v>
       </c>
       <c r="CU182" s="5">
-        <v>-3.3209183878413699E-2</v>
+        <v>-3.64364671346031E-2</v>
       </c>
     </row>
     <row r="183" spans="2:99" s="5" customFormat="1">
@@ -40330,7 +40346,7 @@
         <v>2.9</v>
       </c>
       <c r="CU183" s="5">
-        <v>-3.28066003520502E-2</v>
+        <v>-2.4861149048052599E-2</v>
       </c>
     </row>
     <row r="184" spans="2:99" s="5" customFormat="1">
@@ -40624,7 +40640,7 @@
         <v>3.1</v>
       </c>
       <c r="CU184" s="5">
-        <v>-2.3200487586153298E-2</v>
+        <v>-2.1710242206373701E-2</v>
       </c>
     </row>
     <row r="185" spans="2:99" s="5" customFormat="1">
@@ -40918,7 +40934,7 @@
         <v>3.1</v>
       </c>
       <c r="CU185" s="5">
-        <v>3.0542426494397602E-3</v>
+        <v>-4.5610822024975102E-3</v>
       </c>
     </row>
     <row r="186" spans="2:99" s="5" customFormat="1">
@@ -41212,7 +41228,7 @@
         <v>3.1</v>
       </c>
       <c r="CU186" s="5">
-        <v>1.13324357757794E-4</v>
+        <v>1.2633396171716001E-2</v>
       </c>
     </row>
     <row r="187" spans="2:99" s="5" customFormat="1">
@@ -41506,7 +41522,7 @@
         <v>3</v>
       </c>
       <c r="CU187" s="5">
-        <v>9.5074151110563498E-3</v>
+        <v>-1.4184686999678699E-3</v>
       </c>
     </row>
     <row r="188" spans="2:99" s="5" customFormat="1">
@@ -41800,7 +41816,7 @@
         <v>2.8</v>
       </c>
       <c r="CU188" s="5">
-        <v>6.9364963051285998E-3</v>
+        <v>-3.7273425553152602E-3</v>
       </c>
     </row>
     <row r="189" spans="2:99" s="5" customFormat="1">
@@ -42094,7 +42110,7 @@
         <v>2.8</v>
       </c>
       <c r="CU189" s="5">
-        <v>-3.3069940869694401E-3</v>
+        <v>-1.9558836819813401E-2</v>
       </c>
     </row>
     <row r="190" spans="2:99" s="5" customFormat="1">
@@ -42388,7 +42404,7 @@
         <v>2.9</v>
       </c>
       <c r="CU190" s="5">
-        <v>4.9174938011679298E-2</v>
+        <v>3.8437907137831601E-2</v>
       </c>
     </row>
     <row r="191" spans="2:99" s="5" customFormat="1">
@@ -42682,7 +42698,7 @@
         <v>3</v>
       </c>
       <c r="CU191" s="5">
-        <v>-1.8012761228102001E-2</v>
+        <v>-3.1515343894459799E-2</v>
       </c>
     </row>
     <row r="192" spans="2:99" s="5" customFormat="1">
@@ -42976,7 +42992,7 @@
         <v>3.1</v>
       </c>
       <c r="CU192" s="5">
-        <v>-8.8205877743145998E-3</v>
+        <v>-3.3104688238336802E-2</v>
       </c>
     </row>
     <row r="193" spans="2:99" s="5" customFormat="1">
@@ -43270,7 +43286,7 @@
         <v>3</v>
       </c>
       <c r="CU193" s="5">
-        <v>5.7846768571066E-3</v>
+        <v>-1.16120426625459E-2</v>
       </c>
     </row>
     <row r="194" spans="2:99" s="5" customFormat="1">
@@ -43564,7 +43580,7 @@
         <v>2.9</v>
       </c>
       <c r="CU194" s="5">
-        <v>-1.6298535811219799E-2</v>
+        <v>-1.5923028789219799E-2</v>
       </c>
     </row>
     <row r="195" spans="2:99" s="5" customFormat="1">
@@ -43858,7 +43874,7 @@
         <v>2.9</v>
       </c>
       <c r="CU195" s="5">
-        <v>9.1772511863346101E-3</v>
+        <v>-5.2261600027412296E-3</v>
       </c>
     </row>
     <row r="196" spans="2:99" s="5" customFormat="1">
@@ -44152,7 +44168,7 @@
         <v>2.7</v>
       </c>
       <c r="CU196" s="5">
-        <v>4.1472010189442403E-2</v>
+        <v>3.5860785458048397E-2</v>
       </c>
     </row>
     <row r="197" spans="2:99" s="5" customFormat="1">
@@ -44449,7 +44465,7 @@
         <v>2.8</v>
       </c>
       <c r="CU197" s="5">
-        <v>-1.54528628599193E-2</v>
+        <v>-2.68195589587359E-2</v>
       </c>
     </row>
     <row r="198" spans="2:99" s="5" customFormat="1">
@@ -44746,7 +44762,7 @@
         <v>2.4</v>
       </c>
       <c r="CU198" s="5">
-        <v>4.3273711375268998E-4</v>
+        <v>-9.5189267197879398E-3</v>
       </c>
     </row>
     <row r="199" spans="2:99" s="5" customFormat="1">
@@ -45043,7 +45059,7 @@
         <v>2.6</v>
       </c>
       <c r="CU199" s="5">
-        <v>1.54500669982256E-2</v>
+        <v>2.6671010521923201E-2</v>
       </c>
     </row>
     <row r="200" spans="2:99" s="5" customFormat="1">
@@ -45340,7 +45356,7 @@
         <v>2.4</v>
       </c>
       <c r="CU200" s="5">
-        <v>3.84755336096263E-2</v>
+        <v>2.2061645548291198E-2</v>
       </c>
     </row>
     <row r="201" spans="2:99" s="5" customFormat="1">
@@ -45637,7 +45653,7 @@
         <v>2.5</v>
       </c>
       <c r="CU201" s="5">
-        <v>-2.5250934963686199E-2</v>
+        <v>-3.7403625492960398E-2</v>
       </c>
     </row>
     <row r="202" spans="2:99" s="5" customFormat="1">
@@ -45934,7 +45950,7 @@
         <v>2.7</v>
       </c>
       <c r="CU202" s="5">
-        <v>2.4548814313579002E-2</v>
+        <v>4.0012980834763602E-2</v>
       </c>
     </row>
     <row r="203" spans="2:99" s="5" customFormat="1">
@@ -46231,7 +46247,7 @@
         <v>2.7</v>
       </c>
       <c r="CU203" s="5">
-        <v>-8.8075276685453101E-3</v>
+        <v>-1.41847161528834E-2</v>
       </c>
     </row>
     <row r="204" spans="2:99" s="5" customFormat="1">
@@ -46528,7 +46544,7 @@
         <v>2.7</v>
       </c>
       <c r="CU204" s="5">
-        <v>1.9032110180781099E-3</v>
+        <v>-2.13091573635391E-2</v>
       </c>
     </row>
     <row r="205" spans="2:99" s="5" customFormat="1">
@@ -46825,7 +46841,7 @@
         <v>2.9</v>
       </c>
       <c r="CU205" s="5">
-        <v>4.0524736392817402E-2</v>
+        <v>3.8657320750227001E-2</v>
       </c>
     </row>
     <row r="206" spans="2:99" s="5" customFormat="1">
@@ -47122,7 +47138,7 @@
         <v>3</v>
       </c>
       <c r="CU206" s="5">
-        <v>9.4234350581858806E-3</v>
+        <v>-8.0816792802944609E-3</v>
       </c>
     </row>
     <row r="207" spans="2:99" s="5" customFormat="1">
@@ -47419,7 +47435,7 @@
         <v>3</v>
       </c>
       <c r="CU207" s="5">
-        <v>2.28738388601561E-2</v>
+        <v>1.3365356379701199E-2</v>
       </c>
     </row>
     <row r="208" spans="2:99" s="5" customFormat="1">
@@ -47716,7 +47732,7 @@
         <v>2.9</v>
       </c>
       <c r="CU208" s="5">
-        <v>-1.1405490927639299E-2</v>
+        <v>-5.2292126312254404E-3</v>
       </c>
     </row>
     <row r="209" spans="2:99" s="5" customFormat="1">
@@ -48013,7 +48029,7 @@
         <v>3</v>
       </c>
       <c r="CU209" s="5">
-        <v>9.1982125571394794E-3</v>
+        <v>1.7989025755315202E-2</v>
       </c>
     </row>
     <row r="210" spans="2:99" s="5" customFormat="1">
@@ -48310,7 +48326,7 @@
         <v>2.9</v>
       </c>
       <c r="CU210" s="5">
-        <v>1.7011854700648602E-2</v>
+        <v>-1.47804734428667E-2</v>
       </c>
     </row>
     <row r="211" spans="2:99" s="5" customFormat="1">
@@ -48607,7 +48623,7 @@
         <v>3.1</v>
       </c>
       <c r="CU211" s="5">
-        <v>-5.9881842808198202E-3</v>
+        <v>3.0702419815917801E-3</v>
       </c>
     </row>
     <row r="212" spans="2:99" s="5" customFormat="1">
@@ -48904,7 +48920,7 @@
         <v>2.7</v>
       </c>
       <c r="CU212" s="5">
-        <v>-1.5437747116530801E-2</v>
+        <v>-4.2715962817929703E-4</v>
       </c>
     </row>
     <row r="213" spans="2:99" s="5" customFormat="1">
@@ -49201,7 +49217,7 @@
         <v>0.9</v>
       </c>
       <c r="CU213" s="5">
-        <v>1.0028517862064001E-2</v>
+        <v>1.4527792321231499E-2</v>
       </c>
     </row>
     <row r="214" spans="2:99" s="5" customFormat="1">
@@ -49498,7 +49514,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="CU214" s="5">
-        <v>1.9053779336775101E-2</v>
+        <v>3.8034956883810499E-2</v>
       </c>
     </row>
     <row r="215" spans="2:99" s="5" customFormat="1">
@@ -49795,7 +49811,7 @@
         <v>2.7</v>
       </c>
       <c r="CU215" s="5">
-        <v>-1.59431959270298E-2</v>
+        <v>-2.5223374973780899E-2</v>
       </c>
     </row>
     <row r="216" spans="2:99" s="5" customFormat="1">
@@ -50092,7 +50108,7 @@
         <v>2.6</v>
       </c>
       <c r="CU216" s="5">
-        <v>2.96260742915413E-2</v>
+        <v>-1.2419596382873301E-2</v>
       </c>
     </row>
     <row r="217" spans="2:99" s="5" customFormat="1">
@@ -50389,7 +50405,7 @@
         <v>2.5</v>
       </c>
       <c r="CU217" s="5">
-        <v>-3.2397239181297902E-2</v>
+        <v>-3.98448334826318E-3</v>
       </c>
     </row>
     <row r="218" spans="2:99" s="5" customFormat="1">
@@ -50686,7 +50702,7 @@
         <v>2.8</v>
       </c>
       <c r="CU218" s="5">
-        <v>-2.12328818435665E-2</v>
+        <v>-6.3515269690217497E-3</v>
       </c>
     </row>
     <row r="219" spans="2:99" s="5" customFormat="1">
@@ -50983,7 +50999,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="CU219" s="5">
-        <v>5.11287502806805E-2</v>
+        <v>2.52610248474383E-2</v>
       </c>
     </row>
     <row r="220" spans="2:99" s="5" customFormat="1">
@@ -51280,7 +51296,7 @@
         <v>2.4</v>
       </c>
       <c r="CU220" s="5">
-        <v>1.42281506726483E-2</v>
+        <v>4.4870153623094197E-2</v>
       </c>
     </row>
     <row r="221" spans="2:99" s="5" customFormat="1">
@@ -51577,7 +51593,7 @@
         <v>2.6</v>
       </c>
       <c r="CU221" s="5">
-        <v>-2.21067073564729E-2</v>
+        <v>-1.08980210974567E-2</v>
       </c>
     </row>
     <row r="222" spans="2:99" s="5" customFormat="1">
@@ -51874,7 +51890,7 @@
         <v>2.7</v>
       </c>
       <c r="CU222" s="5">
-        <v>1.2538367898383499E-2</v>
+        <v>-6.0100904402684598E-3</v>
       </c>
     </row>
     <row r="223" spans="2:99" s="5" customFormat="1">
@@ -52171,7 +52187,7 @@
         <v>3.2</v>
       </c>
       <c r="CU223" s="5">
-        <v>4.8412423032777596E-3</v>
+        <v>3.1810600064325498E-2</v>
       </c>
     </row>
     <row r="224" spans="2:99" s="5" customFormat="1">
@@ -52468,7 +52484,7 @@
         <v>2.9</v>
       </c>
       <c r="CU224" s="5">
-        <v>3.9376685969420198E-2</v>
+        <v>3.39731011767479E-2</v>
       </c>
     </row>
     <row r="225" spans="2:99" s="5" customFormat="1">
@@ -52765,7 +52781,7 @@
         <v>3</v>
       </c>
       <c r="CU225" s="5">
-        <v>4.6802741424563097E-3</v>
+        <v>1.22325052259704E-2</v>
       </c>
     </row>
     <row r="226" spans="2:99" s="5" customFormat="1">
@@ -53062,7 +53078,7 @@
         <v>3</v>
       </c>
       <c r="CU226" s="5">
-        <v>9.9122063807501899E-3</v>
+        <v>1.4996138243790201E-2</v>
       </c>
     </row>
     <row r="227" spans="2:99" s="5" customFormat="1">
@@ -53359,7 +53375,7 @@
         <v>3.2</v>
       </c>
       <c r="CU227" s="5">
-        <v>9.4650371254410004E-3</v>
+        <v>1.0672569376888299E-3</v>
       </c>
     </row>
     <row r="228" spans="2:99" s="5" customFormat="1">
@@ -53655,8 +53671,8 @@
       <c r="CT228" s="5">
         <v>3.3</v>
       </c>
-      <c r="CU228" s="5">
-        <v>-1.11632980631309E-2</v>
+      <c r="CU228" s="14">
+        <v>-9.6733949660698899E-5</v>
       </c>
     </row>
     <row r="229" spans="2:99" s="5" customFormat="1">
@@ -53953,7 +53969,7 @@
         <v>3.4</v>
       </c>
       <c r="CU229" s="5">
-        <v>-2.0542940814381801E-2</v>
+        <v>-1.40744874571674E-2</v>
       </c>
     </row>
     <row r="230" spans="2:99" s="5" customFormat="1">
@@ -54250,7 +54266,7 @@
         <v>3</v>
       </c>
       <c r="CU230" s="5">
-        <v>3.7758027539641401E-2</v>
+        <v>1.4518724974642801E-2</v>
       </c>
     </row>
     <row r="231" spans="2:99" s="5" customFormat="1">
@@ -54544,7 +54560,7 @@
         <v>3.4</v>
       </c>
       <c r="CU231" s="5">
-        <v>-4.2147214454633097E-2</v>
+        <v>-3.0515741970976999E-2</v>
       </c>
     </row>
     <row r="232" spans="2:99" s="5" customFormat="1">
@@ -54838,7 +54854,7 @@
         <v>3.3</v>
       </c>
       <c r="CU232" s="5">
-        <v>-2.7748243214948499E-2</v>
+        <v>-3.5209416902792799E-2</v>
       </c>
     </row>
     <row r="233" spans="2:99" s="5" customFormat="1">
@@ -55131,8 +55147,8 @@
       <c r="CT233" s="5">
         <v>3</v>
       </c>
-      <c r="CU233" s="5">
-        <v>5.7172702241281602E-4</v>
+      <c r="CU233" s="14">
+        <v>7.3289614963556502E-6</v>
       </c>
     </row>
     <row r="234" spans="2:99" s="5" customFormat="1">
@@ -55411,7 +55427,7 @@
         <v>3</v>
       </c>
       <c r="CU234" s="5">
-        <v>-4.1970698601004698E-2</v>
+        <v>-2.6133936468865301E-2</v>
       </c>
     </row>
     <row r="235" spans="2:99" s="5" customFormat="1">
@@ -55690,7 +55706,7 @@
         <v>3.3</v>
       </c>
       <c r="CU235" s="5">
-        <v>-2.5113090185261599E-2</v>
+        <v>-3.02265292344184E-2</v>
       </c>
     </row>
     <row r="236" spans="2:99" s="5" customFormat="1">
@@ -55969,7 +55985,7 @@
         <v>3.2</v>
       </c>
       <c r="CU236" s="5">
-        <v>-1.07739215935223E-2</v>
+        <v>-1.1532877880699999E-2</v>
       </c>
     </row>
     <row r="237" spans="2:99" s="5" customFormat="1">
@@ -56248,7 +56264,7 @@
         <v>3.3</v>
       </c>
       <c r="CU237" s="5">
-        <v>-6.4195346169930697E-3</v>
+        <v>6.1117289917671496E-3</v>
       </c>
     </row>
     <row r="238" spans="2:99" s="5" customFormat="1">
@@ -56527,7 +56543,7 @@
         <v>3.7</v>
       </c>
       <c r="CU238" s="5">
-        <v>-3.6472581114835603E-2</v>
+        <v>-4.7436321077543503E-2</v>
       </c>
     </row>
     <row r="239" spans="2:99" s="5" customFormat="1">
@@ -56806,7 +56822,7 @@
         <v>5</v>
       </c>
       <c r="CU239" s="5">
-        <v>-1.15233938675856E-2</v>
+        <v>-1.2158945453237801E-2</v>
       </c>
     </row>
     <row r="240" spans="2:99" s="5" customFormat="1">
@@ -57085,7 +57101,7 @@
         <v>4.8</v>
       </c>
       <c r="CU240" s="5">
-        <v>-2.1583179207306499E-2</v>
+        <v>5.5330570345342202E-3</v>
       </c>
     </row>
     <row r="241" spans="2:99" s="5" customFormat="1">
@@ -57364,7 +57380,7 @@
         <v>3</v>
       </c>
       <c r="CU241" s="5">
-        <v>-1.44387783146014E-2</v>
+        <v>-7.5065083878378402E-3</v>
       </c>
     </row>
     <row r="242" spans="2:99" s="5" customFormat="1">
@@ -57643,7 +57659,7 @@
         <v>2.1</v>
       </c>
       <c r="CU242" s="5">
-        <v>-5.119069293821E-3</v>
+        <v>1.9736983262338598E-2</v>
       </c>
     </row>
     <row r="243" spans="2:99" s="5" customFormat="1">
@@ -57922,7 +57938,7 @@
         <v>2.9</v>
       </c>
       <c r="CU243" s="5">
-        <v>8.7303034515828805E-3</v>
+        <v>6.9722101182935398E-2</v>
       </c>
     </row>
     <row r="244" spans="2:99" s="5" customFormat="1">
@@ -58201,7 +58217,7 @@
         <v>2.7</v>
       </c>
       <c r="CU244" s="5">
-        <v>-5.2960025061810096E-3</v>
+        <v>3.4020528105509502E-3</v>
       </c>
     </row>
     <row r="245" spans="2:99" s="5" customFormat="1">
@@ -58480,7 +58496,7 @@
         <v>2.7</v>
       </c>
       <c r="CU245" s="5">
-        <v>8.0234574411477393E-3</v>
+        <v>4.1183710833173397E-2</v>
       </c>
     </row>
     <row r="246" spans="2:99" s="5" customFormat="1">
@@ -58757,7 +58773,7 @@
         <v>2.7</v>
       </c>
       <c r="CU246" s="5">
-        <v>-1.4784191852608201E-3</v>
+        <v>-1.35861635429286E-2</v>
       </c>
     </row>
     <row r="247" spans="2:99" s="5" customFormat="1">
@@ -59034,7 +59050,7 @@
         <v>3</v>
       </c>
       <c r="CU247" s="5">
-        <v>-6.6178917601993296E-3</v>
+        <v>-2.0300673756432599E-2</v>
       </c>
     </row>
     <row r="248" spans="2:99" s="5" customFormat="1">
@@ -59311,7 +59327,7 @@
         <v>2.6</v>
       </c>
       <c r="CU248" s="5">
-        <v>-2.6027355530433599E-3</v>
+        <v>1.5811431351634202E-2</v>
       </c>
     </row>
     <row r="249" spans="2:99" s="5" customFormat="1">
@@ -59588,7 +59604,7 @@
         <v>2.9</v>
       </c>
       <c r="CU249" s="5">
-        <v>5.9451451505641E-3</v>
+        <v>-1.7541581593572001E-2</v>
       </c>
     </row>
     <row r="250" spans="2:99" s="5" customFormat="1">
@@ -59865,7 +59881,7 @@
         <v>3.8</v>
       </c>
       <c r="CU250" s="5">
-        <v>-2.3046680159239899E-2</v>
+        <v>2.7394952788824E-3</v>
       </c>
     </row>
     <row r="251" spans="2:99" s="5" customFormat="1">
@@ -60142,7 +60158,7 @@
         <v>4.2</v>
       </c>
       <c r="CU251" s="5">
-        <v>3.0883675873432099E-3</v>
+        <v>-8.5946862529246992E-3</v>
       </c>
     </row>
     <row r="252" spans="2:99" s="5" customFormat="1">
@@ -60419,7 +60435,7 @@
         <v>3.4</v>
       </c>
       <c r="CU252" s="5">
-        <v>-5.1273962124342997E-4</v>
+        <v>1.2000312829198599E-2</v>
       </c>
     </row>
     <row r="253" spans="2:99" s="5" customFormat="1">
@@ -60696,7 +60712,7 @@
         <v>3.2</v>
       </c>
       <c r="CU253" s="5">
-        <v>1.1499763125116099E-2</v>
+        <v>2.4854682345564899E-2</v>
       </c>
     </row>
     <row r="254" spans="2:99" s="5" customFormat="1">
@@ -60973,7 +60989,7 @@
         <v>3.4</v>
       </c>
       <c r="CU254" s="5">
-        <v>3.7047683434066503E-2</v>
+        <v>3.9901266880762301E-2</v>
       </c>
     </row>
     <row r="255" spans="2:99" s="5" customFormat="1">
@@ -61250,7 +61266,7 @@
         <v>3.1</v>
       </c>
       <c r="CU255" s="5">
-        <v>-4.8136497553561402E-3</v>
+        <v>-2.3931188197215299E-2</v>
       </c>
     </row>
     <row r="256" spans="2:99" s="5" customFormat="1">
@@ -61527,7 +61543,7 @@
         <v>3.3</v>
       </c>
       <c r="CU256" s="5">
-        <v>5.9216503991610398E-3</v>
+        <v>1.52754173581959E-3</v>
       </c>
     </row>
     <row r="257" spans="2:99" s="5" customFormat="1">
@@ -61804,7 +61820,7 @@
         <v>3.1</v>
       </c>
       <c r="CU257" s="5">
-        <v>-3.8312741445016001E-2</v>
+        <v>-2.01617693438121E-2</v>
       </c>
     </row>
     <row r="258" spans="2:99" s="5" customFormat="1">
@@ -62081,7 +62097,7 @@
         <v>3.3</v>
       </c>
       <c r="CU258" s="5">
-        <v>-1.6908113186883299E-2</v>
+        <v>-1.9830859464939499E-2</v>
       </c>
     </row>
     <row r="259" spans="2:99" s="5" customFormat="1">
@@ -62358,7 +62374,7 @@
         <v>3.1</v>
       </c>
       <c r="CU259" s="5">
-        <v>2.2801473833316401E-2</v>
+        <v>-8.7829608492531203E-3</v>
       </c>
     </row>
     <row r="260" spans="2:99" s="5" customFormat="1">
@@ -62635,7 +62651,7 @@
         <v>3.1</v>
       </c>
       <c r="CU260" s="5">
-        <v>3.3059662888880799E-2</v>
+        <v>1.71131832611993E-3</v>
       </c>
     </row>
     <row r="261" spans="2:99" s="5" customFormat="1">
@@ -62912,7 +62928,7 @@
         <v>2.9</v>
       </c>
       <c r="CU261" s="5">
-        <v>2.3843164121332801E-2</v>
+        <v>2.3151460080160599E-2</v>
       </c>
     </row>
     <row r="262" spans="2:99" s="5" customFormat="1">
@@ -63189,7 +63205,7 @@
         <v>3.2</v>
       </c>
       <c r="CU262" s="5">
-        <v>-1.3187607206786E-2</v>
+        <v>-3.9804025916430098E-2</v>
       </c>
     </row>
     <row r="263" spans="2:99" s="5" customFormat="1">
@@ -63466,7 +63482,7 @@
         <v>3.2</v>
       </c>
       <c r="CU263" s="5">
-        <v>1.09790992502479E-2</v>
+        <v>1.7298265843636699E-2</v>
       </c>
     </row>
     <row r="264" spans="2:99" s="5" customFormat="1">
@@ -63743,7 +63759,7 @@
         <v>3.2</v>
       </c>
       <c r="CU264" s="5">
-        <v>3.6049192548818401E-2</v>
+        <v>1.92116558772981E-2</v>
       </c>
     </row>
     <row r="265" spans="2:99" s="5" customFormat="1">
@@ -64020,7 +64036,7 @@
         <v>2.8</v>
       </c>
       <c r="CU265" s="5">
-        <v>9.5523393108578603E-3</v>
+        <v>-1.19922227283573E-2</v>
       </c>
     </row>
     <row r="266" spans="2:99" s="5" customFormat="1">
@@ -64297,7 +64313,7 @@
         <v>2.8</v>
       </c>
       <c r="CU266" s="5">
-        <v>2.8697941059405698E-3</v>
+        <v>3.4458557952526697E-2</v>
       </c>
     </row>
     <row r="267" spans="2:99" s="5" customFormat="1">
@@ -64574,7 +64590,7 @@
         <v>2.7</v>
       </c>
       <c r="CU267" s="5">
-        <v>1.7636353841447201E-2</v>
+        <v>9.8334485484121697E-3</v>
       </c>
     </row>
     <row r="268" spans="2:99" s="5" customFormat="1">
@@ -64851,7 +64867,7 @@
         <v>2.8</v>
       </c>
       <c r="CU268" s="5">
-        <v>4.9919683516463898E-4</v>
+        <v>-1.41982138192462E-2</v>
       </c>
     </row>
     <row r="269" spans="2:99" s="5" customFormat="1">
@@ -65128,7 +65144,7 @@
         <v>2.7</v>
       </c>
       <c r="CU269" s="5">
-        <v>-3.8216699919075399E-2</v>
+        <v>-2.82663937790422E-2</v>
       </c>
     </row>
     <row r="270" spans="2:99" s="5" customFormat="1">
@@ -65405,7 +65421,7 @@
         <v>2.6</v>
       </c>
       <c r="CU270" s="5">
-        <v>-7.8302058677124399E-3</v>
+        <v>-1.28597461345743E-2</v>
       </c>
     </row>
     <row r="271" spans="2:99" s="5" customFormat="1">
@@ -65682,7 +65698,7 @@
         <v>2.6</v>
       </c>
       <c r="CU271" s="5">
-        <v>-1.7328576583106201E-2</v>
+        <v>-2.9923641195478599E-2</v>
       </c>
     </row>
     <row r="272" spans="2:99" s="5" customFormat="1">
@@ -65956,7 +65972,7 @@
         <v>2.5</v>
       </c>
       <c r="CU272" s="5">
-        <v>1.3209196502868399E-2</v>
+        <v>2.4864629134351699E-2</v>
       </c>
     </row>
     <row r="273" spans="2:99" s="5" customFormat="1">
@@ -66229,8 +66245,8 @@
       <c r="CT273" s="5">
         <v>2.4</v>
       </c>
-      <c r="CU273" s="14">
-        <v>9.3678804699237603E-5</v>
+      <c r="CU273" s="5">
+        <v>-9.0382738483301105E-3</v>
       </c>
     </row>
     <row r="274" spans="2:99" s="5" customFormat="1">
@@ -66502,7 +66518,7 @@
         <v>2.6</v>
       </c>
       <c r="CU274" s="5">
-        <v>1.62509285737573E-2</v>
+        <v>-1.7330198436038601E-3</v>
       </c>
     </row>
     <row r="275" spans="2:99" s="5" customFormat="1">
@@ -66771,7 +66787,7 @@
         <v>2.5</v>
       </c>
       <c r="CU275" s="5">
-        <v>-5.4904171876737403E-3</v>
+        <v>-1.8254127036255501E-2</v>
       </c>
     </row>
     <row r="276" spans="2:99" s="5" customFormat="1">

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun 1/Desktop/Literature/Sentiments/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692B2F0-7960-D54E-BC29-B4B0226B666D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145148B5-B35C-8C49-82B9-61AEFCB123BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1178,10 +1178,10 @@
   <dimension ref="A1:CV629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="CQ45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CS268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CU52" sqref="CU52:CU275"/>
+      <selection pane="bottomRight" activeCell="CU54" sqref="CU54:CU275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16"/>
@@ -8142,9 +8142,6 @@
       <c r="CR52" s="5">
         <v>99.2</v>
       </c>
-      <c r="CU52" s="5">
-        <v>-3.0300957790209099E-2</v>
-      </c>
     </row>
     <row r="53" spans="2:99" s="5" customFormat="1">
       <c r="B53" s="5">
@@ -8305,9 +8302,6 @@
       <c r="CR53" s="5">
         <v>93</v>
       </c>
-      <c r="CU53" s="5">
-        <v>-5.0630772331377603E-2</v>
-      </c>
     </row>
     <row r="54" spans="2:99" s="5" customFormat="1">
       <c r="B54" s="5">
@@ -8469,7 +8463,7 @@
         <v>99.9</v>
       </c>
       <c r="CU54" s="5">
-        <v>-2.2453619383703501E-2</v>
+        <v>1.75108082937303E-3</v>
       </c>
     </row>
     <row r="55" spans="2:99" s="5" customFormat="1">
@@ -8632,7 +8626,7 @@
         <v>95.4</v>
       </c>
       <c r="CU55" s="5">
-        <v>-3.1045989825295901E-2</v>
+        <v>-3.5735619341012603E-2</v>
       </c>
     </row>
     <row r="56" spans="2:99" s="5" customFormat="1">
@@ -8795,7 +8789,7 @@
         <v>91.6</v>
       </c>
       <c r="CU56" s="5">
-        <v>2.4806392390809701E-2</v>
+        <v>1.6767461504248599E-2</v>
       </c>
     </row>
     <row r="57" spans="2:99" s="5" customFormat="1">
@@ -8958,7 +8952,7 @@
         <v>95</v>
       </c>
       <c r="CU57" s="5">
-        <v>1.1103067814927901E-2</v>
+        <v>6.9718325133003604E-3</v>
       </c>
     </row>
     <row r="58" spans="2:99" s="5" customFormat="1">
@@ -9121,7 +9115,7 @@
         <v>98.4</v>
       </c>
       <c r="CU58" s="5">
-        <v>-2.5520106199638501E-2</v>
+        <v>-2.7039985769432898E-2</v>
       </c>
     </row>
     <row r="59" spans="2:99" s="5" customFormat="1">
@@ -9284,7 +9278,7 @@
         <v>91.7</v>
       </c>
       <c r="CU59" s="5">
-        <v>-2.17201055338282E-2</v>
+        <v>-2.0688793161164499E-2</v>
       </c>
     </row>
     <row r="60" spans="2:99" s="5" customFormat="1">
@@ -9447,7 +9441,7 @@
         <v>96.4</v>
       </c>
       <c r="CU60" s="5">
-        <v>1.1114301362777501E-2</v>
+        <v>2.48080591840278E-2</v>
       </c>
     </row>
     <row r="61" spans="2:99" s="5" customFormat="1">
@@ -9610,7 +9604,7 @@
         <v>94.4</v>
       </c>
       <c r="CU61" s="5">
-        <v>-1.41514780286809E-2</v>
+        <v>-1.5979800702624801E-2</v>
       </c>
     </row>
     <row r="62" spans="2:99" s="5" customFormat="1">
@@ -9773,7 +9767,7 @@
         <v>99.5</v>
       </c>
       <c r="CU62" s="5">
-        <v>2.90522685687176E-2</v>
+        <v>2.2888977338123801E-2</v>
       </c>
     </row>
     <row r="63" spans="2:99" s="5" customFormat="1">
@@ -9936,7 +9930,7 @@
         <v>98.5</v>
       </c>
       <c r="CU63" s="5">
-        <v>-3.2571043066992302E-2</v>
+        <v>-3.7360024325388902E-2</v>
       </c>
     </row>
     <row r="64" spans="2:99" s="5" customFormat="1">
@@ -10099,7 +10093,7 @@
         <v>100.6</v>
       </c>
       <c r="CU64" s="5">
-        <v>3.9700496357113497E-3</v>
+        <v>-1.10011855481342E-2</v>
       </c>
     </row>
     <row r="65" spans="2:99" s="5" customFormat="1">
@@ -10262,7 +10256,7 @@
         <v>99.9</v>
       </c>
       <c r="CU65" s="5">
-        <v>-2.9276734260296901E-2</v>
+        <v>-2.7052142652899801E-2</v>
       </c>
     </row>
     <row r="66" spans="2:99" s="5" customFormat="1">
@@ -10425,7 +10419,7 @@
         <v>102</v>
       </c>
       <c r="CU66" s="5">
-        <v>-3.3166434425829103E-2</v>
+        <v>-2.8334335131440201E-2</v>
       </c>
     </row>
     <row r="67" spans="2:99" s="5" customFormat="1">
@@ -10588,7 +10582,7 @@
         <v>105.4</v>
       </c>
       <c r="CU67" s="5">
-        <v>-1.09381063889269E-3</v>
+        <v>-8.8061920826001394E-3</v>
       </c>
     </row>
     <row r="68" spans="2:99" s="5" customFormat="1">
@@ -10751,7 +10745,7 @@
         <v>103.4</v>
       </c>
       <c r="CU68" s="5">
-        <v>3.9365594325661397E-2</v>
+        <v>4.5334211495345202E-2</v>
       </c>
     </row>
     <row r="69" spans="2:99" s="5" customFormat="1">
@@ -10914,7 +10908,7 @@
         <v>102.9</v>
       </c>
       <c r="CU69" s="5">
-        <v>2.8341474385837E-2</v>
+        <v>1.6344776233052201E-2</v>
       </c>
     </row>
     <row r="70" spans="2:99" s="5" customFormat="1">
@@ -11077,7 +11071,7 @@
         <v>100</v>
       </c>
       <c r="CU70" s="5">
-        <v>4.0620623565212899E-3</v>
+        <v>3.7543751457047598E-3</v>
       </c>
     </row>
     <row r="71" spans="2:99" s="5" customFormat="1">
@@ -11244,7 +11238,7 @@
         <v>95.7</v>
       </c>
       <c r="CU71" s="5">
-        <v>-3.69853287285027E-3</v>
+        <v>-2.2533418829390601E-2</v>
       </c>
     </row>
     <row r="72" spans="2:99" s="5" customFormat="1">
@@ -11411,7 +11405,7 @@
         <v>91.2</v>
       </c>
       <c r="CU72" s="5">
-        <v>-2.4399594631852001E-2</v>
+        <v>-3.2561714554025803E-2</v>
       </c>
     </row>
     <row r="73" spans="2:99" s="5" customFormat="1">
@@ -11578,7 +11572,7 @@
         <v>88.3</v>
       </c>
       <c r="CU73" s="5">
-        <v>3.3825559168026501E-2</v>
+        <v>2.8463571996461198E-2</v>
       </c>
     </row>
     <row r="74" spans="2:99" s="5" customFormat="1">
@@ -11749,7 +11743,7 @@
         <v>94.1</v>
       </c>
       <c r="CU74" s="5">
-        <v>4.9364650853202401E-2</v>
+        <v>3.3447388324366403E-2</v>
       </c>
     </row>
     <row r="75" spans="2:99" s="5" customFormat="1">
@@ -11920,7 +11914,7 @@
         <v>95.9</v>
       </c>
       <c r="CU75" s="5">
-        <v>3.5177748718611297E-2</v>
+        <v>1.8461405915358501E-2</v>
       </c>
     </row>
     <row r="76" spans="2:99" s="5" customFormat="1">
@@ -12095,7 +12089,7 @@
         <v>97</v>
       </c>
       <c r="CU76" s="5">
-        <v>-2.1235265974675299E-2</v>
+        <v>-1.54921009588003E-2</v>
       </c>
     </row>
     <row r="77" spans="2:99" s="5" customFormat="1">
@@ -12270,7 +12264,7 @@
         <v>92.9</v>
       </c>
       <c r="CU77" s="5">
-        <v>1.51958066684337E-2</v>
+        <v>1.27936335968872E-2</v>
       </c>
     </row>
     <row r="78" spans="2:99" s="5" customFormat="1">
@@ -12445,7 +12439,7 @@
         <v>97.2</v>
       </c>
       <c r="CU78" s="5">
-        <v>3.9404819860105099E-2</v>
+        <v>3.4732739494386197E-2</v>
       </c>
     </row>
     <row r="79" spans="2:99" s="5" customFormat="1">
@@ -12620,7 +12614,7 @@
         <v>92.4</v>
       </c>
       <c r="CU79" s="5">
-        <v>2.7475366511803701E-2</v>
+        <v>-7.8146235505283101E-4</v>
       </c>
     </row>
     <row r="80" spans="2:99" s="5" customFormat="1">
@@ -12795,7 +12789,7 @@
         <v>92.4</v>
       </c>
       <c r="CU80" s="5">
-        <v>-9.0255005725632404E-3</v>
+        <v>-2.6199800996168601E-2</v>
       </c>
     </row>
     <row r="81" spans="2:99" s="5" customFormat="1">
@@ -13030,7 +13024,7 @@
         <v>91.7</v>
       </c>
       <c r="CU81" s="5">
-        <v>-2.4497593368946899E-2</v>
+        <v>-3.5761917987791499E-2</v>
       </c>
     </row>
     <row r="82" spans="2:99" s="5" customFormat="1">
@@ -13269,7 +13263,7 @@
         <v>98.2</v>
       </c>
       <c r="CU82" s="5">
-        <v>-1.5653800860500899E-2</v>
+        <v>-1.5513232282530201E-2</v>
       </c>
     </row>
     <row r="83" spans="2:99" s="5" customFormat="1">
@@ -13508,7 +13502,7 @@
         <v>91.5</v>
       </c>
       <c r="CU83" s="5">
-        <v>-1.4429737483606901E-2</v>
+        <v>-5.39165745780033E-2</v>
       </c>
     </row>
     <row r="84" spans="2:99" s="5" customFormat="1">
@@ -13747,7 +13741,7 @@
         <v>86.4</v>
       </c>
       <c r="CU84" s="5">
-        <v>-2.7521428585123499E-2</v>
+        <v>-1.5977892306796099E-2</v>
       </c>
     </row>
     <row r="85" spans="2:99" s="5" customFormat="1">
@@ -13985,7 +13979,7 @@
         <v>79.7</v>
       </c>
       <c r="CU85" s="5">
-        <v>-2.3807812646323898E-2</v>
+        <v>-3.6392813471245199E-2</v>
       </c>
     </row>
     <row r="86" spans="2:99" s="5" customFormat="1">
@@ -14225,7 +14219,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="CU86" s="5">
-        <v>1.19691375073816E-2</v>
+        <v>9.6129638467126206E-3</v>
       </c>
     </row>
     <row r="87" spans="2:99" s="5" customFormat="1">
@@ -14463,7 +14457,7 @@
         <v>75.400000000000006</v>
       </c>
       <c r="CU87" s="5">
-        <v>4.3890130190583902E-2</v>
+        <v>4.3661253876296997E-2</v>
       </c>
     </row>
     <row r="88" spans="2:99" s="5" customFormat="1">
@@ -14701,7 +14695,7 @@
         <v>77.599999999999994</v>
       </c>
       <c r="CU88" s="5">
-        <v>3.9807902194401598E-2</v>
+        <v>2.7530956551119701E-2</v>
       </c>
     </row>
     <row r="89" spans="2:99" s="5" customFormat="1">
@@ -14939,7 +14933,7 @@
         <v>72.400000000000006</v>
       </c>
       <c r="CU89" s="5">
-        <v>-2.47870773395873E-2</v>
+        <v>-3.2570693977527203E-2</v>
       </c>
     </row>
     <row r="90" spans="2:99" s="5" customFormat="1">
@@ -15177,7 +15171,7 @@
         <v>78.099999999999994</v>
       </c>
       <c r="CU90" s="5">
-        <v>1.19095246911012E-2</v>
+        <v>2.46255410121217E-2</v>
       </c>
     </row>
     <row r="91" spans="2:99" s="5" customFormat="1">
@@ -15415,7 +15409,7 @@
         <v>80.2</v>
       </c>
       <c r="CU91" s="5">
-        <v>2.03323167942435E-2</v>
+        <v>1.4698091044392099E-2</v>
       </c>
     </row>
     <row r="92" spans="2:99" s="5" customFormat="1">
@@ -15653,7 +15647,7 @@
         <v>82.1</v>
       </c>
       <c r="CU92" s="5">
-        <v>3.4795473324755098E-2</v>
+        <v>5.9089395386281898E-2</v>
       </c>
     </row>
     <row r="93" spans="2:99" s="5" customFormat="1">
@@ -15891,7 +15885,7 @@
         <v>82</v>
       </c>
       <c r="CU93" s="5">
-        <v>-5.2363229518105403E-2</v>
+        <v>-3.3378569980412602E-2</v>
       </c>
     </row>
     <row r="94" spans="2:99" s="5" customFormat="1">
@@ -16129,7 +16123,7 @@
         <v>92.8</v>
       </c>
       <c r="CU94" s="5">
-        <v>-2.7595215425505699E-2</v>
+        <v>-1.06124391191667E-2</v>
       </c>
     </row>
     <row r="95" spans="2:99" s="5" customFormat="1">
@@ -16367,7 +16361,7 @@
         <v>88.6</v>
       </c>
       <c r="CU95" s="5">
-        <v>4.0248880647204097E-2</v>
+        <v>1.8043087263680299E-2</v>
       </c>
     </row>
     <row r="96" spans="2:99" s="5" customFormat="1">
@@ -16605,7 +16599,7 @@
         <v>95.2</v>
       </c>
       <c r="CU96" s="5">
-        <v>2.4490623640146099E-2</v>
+        <v>5.8241439722648298E-3</v>
       </c>
     </row>
     <row r="97" spans="2:99" s="5" customFormat="1">
@@ -16843,7 +16837,7 @@
         <v>90.7</v>
       </c>
       <c r="CU97" s="5">
-        <v>2.6211042641889299E-2</v>
+        <v>4.4127023948048197E-2</v>
       </c>
     </row>
     <row r="98" spans="2:99" s="5" customFormat="1">
@@ -17084,7 +17078,7 @@
         <v>81.900000000000006</v>
       </c>
       <c r="CU98" s="5">
-        <v>3.5856175738124399E-2</v>
+        <v>3.5919124614122201E-2</v>
       </c>
     </row>
     <row r="99" spans="2:99" s="5" customFormat="1">
@@ -17325,7 +17319,7 @@
         <v>77</v>
       </c>
       <c r="CU99" s="5">
-        <v>-1.0765203486236699E-2</v>
+        <v>-7.3300343437439101E-3</v>
       </c>
     </row>
     <row r="100" spans="2:99" s="5" customFormat="1">
@@ -17566,7 +17560,7 @@
         <v>72</v>
       </c>
       <c r="CU100" s="5">
-        <v>-2.7741765416214401E-2</v>
+        <v>-4.7848547504407299E-2</v>
       </c>
     </row>
     <row r="101" spans="2:99" s="5" customFormat="1">
@@ -17807,7 +17801,7 @@
         <v>76.5</v>
       </c>
       <c r="CU101" s="5">
-        <v>-1.04638958016465E-2</v>
+        <v>-1.53710193748713E-2</v>
       </c>
     </row>
     <row r="102" spans="2:99" s="5" customFormat="1">
@@ -18048,7 +18042,7 @@
         <v>61.8</v>
       </c>
       <c r="CU102" s="5">
-        <v>-4.4706097812751103E-2</v>
+        <v>-2.9720395247006599E-2</v>
       </c>
     </row>
     <row r="103" spans="2:99" s="5" customFormat="1">
@@ -18289,7 +18283,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="CU103" s="5">
-        <v>7.8982274789307595E-4</v>
+        <v>1.5786472217418999E-2</v>
       </c>
     </row>
     <row r="104" spans="2:99" s="5" customFormat="1">
@@ -18532,7 +18526,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="CU104" s="5">
-        <v>-6.0142642088791401E-2</v>
+        <v>-6.5811247421787095E-2</v>
       </c>
     </row>
     <row r="105" spans="2:99" s="5" customFormat="1">
@@ -18773,7 +18767,7 @@
         <v>59.5</v>
       </c>
       <c r="CU105" s="5">
-        <v>3.3298646789403602E-3</v>
+        <v>4.0446367236781001E-2</v>
       </c>
     </row>
     <row r="106" spans="2:99" s="5" customFormat="1">
@@ -19014,7 +19008,7 @@
         <v>57.6</v>
       </c>
       <c r="CU106" s="5">
-        <v>6.5411999880730307E-2</v>
+        <v>4.6005816554839797E-2</v>
       </c>
     </row>
     <row r="107" spans="2:99" s="5" customFormat="1">
@@ -19255,7 +19249,7 @@
         <v>72.8</v>
       </c>
       <c r="CU107" s="5">
-        <v>1.2570785003284801E-2</v>
+        <v>1.8747457059393499E-2</v>
       </c>
     </row>
     <row r="108" spans="2:99" s="5" customFormat="1">
@@ -19496,7 +19490,7 @@
         <v>75.7</v>
       </c>
       <c r="CU108" s="5">
-        <v>-8.61047560962946E-4</v>
+        <v>-1.3246158410693799E-2</v>
       </c>
     </row>
     <row r="109" spans="2:99" s="5" customFormat="1">
@@ -19737,7 +19731,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="CU109" s="5">
-        <v>-3.0418836546156399E-2</v>
+        <v>-2.0036097149541899E-2</v>
       </c>
     </row>
     <row r="110" spans="2:99" s="5" customFormat="1">
@@ -19978,7 +19972,7 @@
         <v>84.6</v>
       </c>
       <c r="CU110" s="5">
-        <v>1.05851306740987E-2</v>
+        <v>5.5854861905646497E-3</v>
       </c>
     </row>
     <row r="111" spans="2:99" s="5" customFormat="1">
@@ -20219,7 +20213,7 @@
         <v>83.3</v>
       </c>
       <c r="CU111" s="5">
-        <v>4.5488481363361997E-2</v>
+        <v>1.19081152885172E-2</v>
       </c>
     </row>
     <row r="112" spans="2:99" s="5" customFormat="1">
@@ -20460,7 +20454,7 @@
         <v>89.7</v>
       </c>
       <c r="CU112" s="5">
-        <v>-1.8580887997950501E-2</v>
+        <v>-1.02931863603857E-2</v>
       </c>
     </row>
     <row r="113" spans="2:99" s="5" customFormat="1">
@@ -20701,7 +20695,7 @@
         <v>87</v>
       </c>
       <c r="CU113" s="5">
-        <v>3.5372121430617499E-2</v>
+        <v>4.5479380191564299E-2</v>
       </c>
     </row>
     <row r="114" spans="2:99" s="5" customFormat="1">
@@ -20942,7 +20936,7 @@
         <v>87.1</v>
       </c>
       <c r="CU114" s="5">
-        <v>6.6552664504833103E-3</v>
+        <v>3.83388418735136E-2</v>
       </c>
     </row>
     <row r="115" spans="2:99" s="5" customFormat="1">
@@ -21183,7 +21177,7 @@
         <v>90.2</v>
       </c>
       <c r="CU115" s="5">
-        <v>5.1868986681662399E-3</v>
+        <v>-1.28588690177243E-2</v>
       </c>
     </row>
     <row r="116" spans="2:99" s="5" customFormat="1">
@@ -21424,7 +21418,7 @@
         <v>89</v>
       </c>
       <c r="CU116" s="5">
-        <v>4.8772251009950203E-2</v>
+        <v>4.3335350867965701E-2</v>
       </c>
     </row>
     <row r="117" spans="2:99" s="5" customFormat="1">
@@ -21665,7 +21659,7 @@
         <v>84.4</v>
       </c>
       <c r="CU117" s="5">
-        <v>-4.1794147150829603E-2</v>
+        <v>-5.3289202462060398E-2</v>
       </c>
     </row>
     <row r="118" spans="2:99" s="5" customFormat="1">
@@ -21912,7 +21906,7 @@
         <v>5.8</v>
       </c>
       <c r="CU118" s="5">
-        <v>3.1227501083317202E-2</v>
+        <v>2.6002009958375299E-2</v>
       </c>
     </row>
     <row r="119" spans="2:99" s="5" customFormat="1">
@@ -22162,7 +22156,7 @@
         <v>6.7</v>
       </c>
       <c r="CU119" s="5">
-        <v>-2.3107997667038801E-2</v>
+        <v>-1.51434174193805E-2</v>
       </c>
     </row>
     <row r="120" spans="2:99" s="5" customFormat="1">
@@ -22412,7 +22406,7 @@
         <v>7.2</v>
       </c>
       <c r="CU120" s="5">
-        <v>1.38243281528903E-2</v>
+        <v>2.60473451097907E-2</v>
       </c>
     </row>
     <row r="121" spans="2:99" s="5" customFormat="1">
@@ -22662,7 +22656,7 @@
         <v>7.4</v>
       </c>
       <c r="CU121" s="5">
-        <v>-8.3077236256672293E-3</v>
+        <v>-3.3253633921593903E-2</v>
       </c>
     </row>
     <row r="122" spans="2:99" s="5" customFormat="1">
@@ -22912,7 +22906,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="CU122" s="5">
-        <v>3.5914494990009899E-2</v>
+        <v>2.5630620837105999E-2</v>
       </c>
     </row>
     <row r="123" spans="2:99" s="5" customFormat="1">
@@ -23162,7 +23156,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="CU123" s="5">
-        <v>1.6109032731105099E-2</v>
+        <v>2.87152977273901E-2</v>
       </c>
     </row>
     <row r="124" spans="2:99" s="5" customFormat="1">
@@ -23412,7 +23406,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="CU124" s="5">
-        <v>-4.7094786244712902E-2</v>
+        <v>-3.7041252436614998E-2</v>
       </c>
     </row>
     <row r="125" spans="2:99" s="5" customFormat="1">
@@ -23662,7 +23656,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="CU125" s="5">
-        <v>-2.11730660564882E-2</v>
+        <v>-1.90958742714522E-2</v>
       </c>
     </row>
     <row r="126" spans="2:99" s="5" customFormat="1">
@@ -23912,7 +23906,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="CU126" s="5">
-        <v>6.3588148144152701E-2</v>
+        <v>8.7339806908897505E-2</v>
       </c>
     </row>
     <row r="127" spans="2:99" s="5" customFormat="1">
@@ -24162,7 +24156,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="CU127" s="5">
-        <v>-2.4870979983613099E-2</v>
+        <v>-1.5287365309725401E-2</v>
       </c>
     </row>
     <row r="128" spans="2:99" s="5" customFormat="1">
@@ -24412,7 +24406,7 @@
         <v>9</v>
       </c>
       <c r="CU128" s="5">
-        <v>-5.5233656982909503E-2</v>
+        <v>-5.5558628390318901E-2</v>
       </c>
     </row>
     <row r="129" spans="2:99" s="5" customFormat="1">
@@ -24662,7 +24656,7 @@
         <v>9.5</v>
       </c>
       <c r="CU129" s="5">
-        <v>-1.35346100236964E-2</v>
+        <v>-2.6716013836640198E-2</v>
       </c>
     </row>
     <row r="130" spans="2:99" s="5" customFormat="1">
@@ -24912,7 +24906,7 @@
         <v>8.6</v>
       </c>
       <c r="CU130" s="5">
-        <v>4.6764491470914701E-2</v>
+        <v>5.5636674110503402E-2</v>
       </c>
     </row>
     <row r="131" spans="2:99" s="5" customFormat="1">
@@ -25162,7 +25156,7 @@
         <v>7.3</v>
       </c>
       <c r="CU131" s="5">
-        <v>-3.6752109123043802E-2</v>
+        <v>-1.1638426155301499E-2</v>
       </c>
     </row>
     <row r="132" spans="2:99" s="5" customFormat="1">
@@ -25452,7 +25446,7 @@
         <v>6.7</v>
       </c>
       <c r="CU132" s="5">
-        <v>5.2451642993100601E-2</v>
+        <v>5.8653718075327703E-2</v>
       </c>
     </row>
     <row r="133" spans="2:99" s="5" customFormat="1">
@@ -25742,7 +25736,7 @@
         <v>6.6</v>
       </c>
       <c r="CU133" s="5">
-        <v>-2.44175930127064E-2</v>
+        <v>-1.8295065194114699E-2</v>
       </c>
     </row>
     <row r="134" spans="2:99" s="5" customFormat="1">
@@ -26032,7 +26026,7 @@
         <v>4.3</v>
       </c>
       <c r="CU134" s="5">
-        <v>9.77605715428842E-3</v>
+        <v>-1.8853151660627E-2</v>
       </c>
     </row>
     <row r="135" spans="2:99" s="5" customFormat="1">
@@ -26322,7 +26316,7 @@
         <v>4.5</v>
       </c>
       <c r="CU135" s="5">
-        <v>-3.5399773460756102E-2</v>
+        <v>-1.2073106155117801E-2</v>
       </c>
     </row>
     <row r="136" spans="2:99" s="5" customFormat="1">
@@ -26612,7 +26606,7 @@
         <v>4.8</v>
       </c>
       <c r="CU136" s="5">
-        <v>-5.0554605708353198E-2</v>
+        <v>-1.7399501236632101E-2</v>
       </c>
     </row>
     <row r="137" spans="2:99" s="5" customFormat="1">
@@ -26902,7 +26896,7 @@
         <v>4.5</v>
       </c>
       <c r="CU137" s="5">
-        <v>-6.4275704604748202E-3</v>
+        <v>-1.4543291091499801E-2</v>
       </c>
     </row>
     <row r="138" spans="2:99" s="5" customFormat="1">
@@ -27192,7 +27186,7 @@
         <v>2.7</v>
       </c>
       <c r="CU138" s="5">
-        <v>5.3317488501680699E-4</v>
+        <v>-2.7100702982932001E-2</v>
       </c>
     </row>
     <row r="139" spans="2:99" s="5" customFormat="1">
@@ -27482,7 +27476,7 @@
         <v>3.3</v>
       </c>
       <c r="CU139" s="5">
-        <v>-2.5514660644800201E-2</v>
+        <v>-1.34955536456629E-2</v>
       </c>
     </row>
     <row r="140" spans="2:99" s="5" customFormat="1">
@@ -27772,7 +27766,7 @@
         <v>3.3</v>
       </c>
       <c r="CU140" s="5">
-        <v>-3.0469164286018601E-2</v>
+        <v>-4.4965323519255099E-2</v>
       </c>
     </row>
     <row r="141" spans="2:99" s="5" customFormat="1">
@@ -28062,7 +28056,7 @@
         <v>3.6</v>
       </c>
       <c r="CU141" s="5">
-        <v>1.86572370778086E-2</v>
+        <v>1.2316235064117701E-2</v>
       </c>
     </row>
     <row r="142" spans="2:99" s="5" customFormat="1">
@@ -28352,7 +28346,7 @@
         <v>3.3</v>
       </c>
       <c r="CU142" s="5">
-        <v>3.1110312026459301E-2</v>
+        <v>2.4254568849861699E-2</v>
       </c>
     </row>
     <row r="143" spans="2:99" s="5" customFormat="1">
@@ -28642,7 +28636,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="CU143" s="5">
-        <v>1.6658324562726499E-2</v>
+        <v>3.5044201689112597E-2</v>
       </c>
     </row>
     <row r="144" spans="2:99" s="5" customFormat="1">
@@ -28932,7 +28926,7 @@
         <v>3.1</v>
       </c>
       <c r="CU144" s="5">
-        <v>9.0993664417480299E-3</v>
+        <v>8.8161771714117005E-3</v>
       </c>
     </row>
     <row r="145" spans="2:99" s="5" customFormat="1">
@@ -29222,7 +29216,7 @@
         <v>3.4</v>
       </c>
       <c r="CU145" s="5">
-        <v>2.1555598177875002E-2</v>
+        <v>7.3852182267253302E-3</v>
       </c>
     </row>
     <row r="146" spans="2:99" s="5" customFormat="1">
@@ -29512,7 +29506,7 @@
         <v>3</v>
       </c>
       <c r="CU146" s="5">
-        <v>2.5032467096722098E-2</v>
+        <v>4.3148642325551198E-2</v>
       </c>
     </row>
     <row r="147" spans="2:99" s="5" customFormat="1">
@@ -29802,7 +29796,7 @@
         <v>3.3</v>
       </c>
       <c r="CU147" s="5">
-        <v>-2.0721086729015101E-2</v>
+        <v>-1.7829909683736201E-2</v>
       </c>
     </row>
     <row r="148" spans="2:99" s="5" customFormat="1">
@@ -30092,7 +30086,7 @@
         <v>2.8</v>
       </c>
       <c r="CU148" s="5">
-        <v>2.7345286446604201E-2</v>
+        <v>1.79731525953968E-2</v>
       </c>
     </row>
     <row r="149" spans="2:99" s="5" customFormat="1">
@@ -30382,7 +30376,7 @@
         <v>3.3</v>
       </c>
       <c r="CU149" s="5">
-        <v>-2.4460404555219001E-2</v>
+        <v>-1.0820015100931399E-2</v>
       </c>
     </row>
     <row r="150" spans="2:99" s="5" customFormat="1">
@@ -30674,7 +30668,7 @@
         <v>2.7</v>
       </c>
       <c r="CU150" s="5">
-        <v>3.9159605689695898E-2</v>
+        <v>1.9011401826583899E-2</v>
       </c>
     </row>
     <row r="151" spans="2:99" s="5" customFormat="1">
@@ -30966,7 +30960,7 @@
         <v>2.7</v>
       </c>
       <c r="CU151" s="5">
-        <v>9.4317742462108906E-3</v>
+        <v>1.43212408923441E-2</v>
       </c>
     </row>
     <row r="152" spans="2:99" s="5" customFormat="1">
@@ -31257,8 +31251,8 @@
       <c r="CT152" s="5">
         <v>2.9</v>
       </c>
-      <c r="CU152" s="5">
-        <v>-6.62369120224771E-4</v>
+      <c r="CU152" s="14">
+        <v>2.1761201162373601E-5</v>
       </c>
     </row>
     <row r="153" spans="2:99" s="5" customFormat="1">
@@ -31550,7 +31544,7 @@
         <v>3</v>
       </c>
       <c r="CU153" s="5">
-        <v>-2.5907915770666999E-2</v>
+        <v>-3.2129315809763997E-2</v>
       </c>
     </row>
     <row r="154" spans="2:99" s="5" customFormat="1">
@@ -31842,7 +31836,7 @@
         <v>3</v>
       </c>
       <c r="CU154" s="5">
-        <v>-5.0162327910831202E-2</v>
+        <v>-4.8697625091901599E-2</v>
       </c>
     </row>
     <row r="155" spans="2:99" s="5" customFormat="1">
@@ -32134,7 +32128,7 @@
         <v>3.3</v>
       </c>
       <c r="CU155" s="5">
-        <v>2.6226486728265601E-2</v>
+        <v>1.8744454659020499E-2</v>
       </c>
     </row>
     <row r="156" spans="2:99" s="5" customFormat="1">
@@ -32426,7 +32420,7 @@
         <v>3.1</v>
       </c>
       <c r="CU156" s="5">
-        <v>-1.13677693693415E-4</v>
+        <v>2.5741663801267699E-2</v>
       </c>
     </row>
     <row r="157" spans="2:99" s="5" customFormat="1">
@@ -32718,7 +32712,7 @@
         <v>3.2</v>
       </c>
       <c r="CU157" s="5">
-        <v>3.03326801299963E-3</v>
+        <v>-1.2575897343456899E-2</v>
       </c>
     </row>
     <row r="158" spans="2:99" s="5" customFormat="1">
@@ -33010,7 +33004,7 @@
         <v>3.1</v>
       </c>
       <c r="CU158" s="5">
-        <v>4.47993043378139E-2</v>
+        <v>6.3025968013881606E-2</v>
       </c>
     </row>
     <row r="159" spans="2:99" s="5" customFormat="1">
@@ -33302,7 +33296,7 @@
         <v>3.4</v>
       </c>
       <c r="CU159" s="5">
-        <v>-2.76320867616153E-3</v>
+        <v>-1.2427765874430299E-2</v>
       </c>
     </row>
     <row r="160" spans="2:99" s="5" customFormat="1">
@@ -33593,8 +33587,8 @@
       <c r="CT160" s="5">
         <v>4.3</v>
       </c>
-      <c r="CU160" s="5">
-        <v>2.52348046927304E-2</v>
+      <c r="CU160" s="14">
+        <v>-7.7925551809077093E-5</v>
       </c>
     </row>
     <row r="161" spans="2:99" s="5" customFormat="1">
@@ -33886,7 +33880,7 @@
         <v>3.8</v>
       </c>
       <c r="CU161" s="5">
-        <v>-5.5044876740679696E-3</v>
+        <v>7.9538412833950502E-3</v>
       </c>
     </row>
     <row r="162" spans="2:99" s="5" customFormat="1">
@@ -34178,7 +34172,7 @@
         <v>3.8</v>
       </c>
       <c r="CU162" s="5">
-        <v>-7.1542262483483797E-3</v>
+        <v>-2.5840929842829499E-2</v>
       </c>
     </row>
     <row r="163" spans="2:99" s="5" customFormat="1">
@@ -34470,7 +34464,7 @@
         <v>4.3</v>
       </c>
       <c r="CU163" s="5">
-        <v>-2.7929352947917901E-2</v>
+        <v>-2.16555401557268E-2</v>
       </c>
     </row>
     <row r="164" spans="2:99" s="5" customFormat="1">
@@ -34762,7 +34756,7 @@
         <v>3.6</v>
       </c>
       <c r="CU164" s="5">
-        <v>1.9549291489086702E-2</v>
+        <v>2.86962135119295E-2</v>
       </c>
     </row>
     <row r="165" spans="2:99" s="5" customFormat="1">
@@ -35054,7 +35048,7 @@
         <v>3.5</v>
       </c>
       <c r="CU165" s="5">
-        <v>-3.8912452319128702E-3</v>
+        <v>-2.94037127230364E-2</v>
       </c>
     </row>
     <row r="166" spans="2:99" s="5" customFormat="1">
@@ -35348,7 +35342,7 @@
         <v>4</v>
       </c>
       <c r="CU166" s="5">
-        <v>4.5484685635503999E-3</v>
+        <v>5.4722865300078603E-3</v>
       </c>
     </row>
     <row r="167" spans="2:99" s="5" customFormat="1">
@@ -35642,7 +35636,7 @@
         <v>3.6</v>
       </c>
       <c r="CU167" s="5">
-        <v>1.2438719143040599E-2</v>
+        <v>7.7965784424360895E-4</v>
       </c>
     </row>
     <row r="168" spans="2:99" s="5" customFormat="1">
@@ -35936,7 +35930,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="CU168" s="5">
-        <v>-6.2005030628427002E-3</v>
+        <v>-2.3010333963672899E-2</v>
       </c>
     </row>
     <row r="169" spans="2:99" s="5" customFormat="1">
@@ -36230,7 +36224,7 @@
         <v>4.7</v>
       </c>
       <c r="CU169" s="5">
-        <v>-1.0126005578443601E-2</v>
+        <v>-2.2315832682279001E-2</v>
       </c>
     </row>
     <row r="170" spans="2:99" s="5" customFormat="1">
@@ -36524,7 +36518,7 @@
         <v>3.5</v>
       </c>
       <c r="CU170" s="5">
-        <v>5.7768955150105895E-4</v>
+        <v>-9.3970672772574204E-3</v>
       </c>
     </row>
     <row r="171" spans="2:99" s="5" customFormat="1">
@@ -36818,7 +36812,7 @@
         <v>3.2</v>
       </c>
       <c r="CU171" s="5">
-        <v>2.37369903058657E-2</v>
+        <v>7.9476362727151102E-3</v>
       </c>
     </row>
     <row r="172" spans="2:99" s="5" customFormat="1">
@@ -37112,7 +37106,7 @@
         <v>3.1</v>
       </c>
       <c r="CU172" s="5">
-        <v>-9.8653436981286403E-3</v>
+        <v>-8.4258833939454599E-3</v>
       </c>
     </row>
     <row r="173" spans="2:99" s="5" customFormat="1">
@@ -37406,7 +37400,7 @@
         <v>3</v>
       </c>
       <c r="CU173" s="5">
-        <v>-1.11934704630139E-2</v>
+        <v>-2.38920191076595E-2</v>
       </c>
     </row>
     <row r="174" spans="2:99" s="5" customFormat="1">
@@ -37700,7 +37694,7 @@
         <v>2.6</v>
       </c>
       <c r="CU174" s="5">
-        <v>9.2751635111146202E-2</v>
+        <v>9.0421000863271303E-2</v>
       </c>
     </row>
     <row r="175" spans="2:99" s="5" customFormat="1">
@@ -37994,7 +37988,7 @@
         <v>3</v>
       </c>
       <c r="CU175" s="5">
-        <v>-1.9880771451059199E-2</v>
+        <v>-1.23503979500899E-2</v>
       </c>
     </row>
     <row r="176" spans="2:99" s="5" customFormat="1">
@@ -38288,7 +38282,7 @@
         <v>2.9</v>
       </c>
       <c r="CU176" s="5">
-        <v>1.72382207230708E-2</v>
+        <v>-1.8206077283088099E-2</v>
       </c>
     </row>
     <row r="177" spans="2:99" s="5" customFormat="1">
@@ -38582,7 +38576,7 @@
         <v>2.8</v>
       </c>
       <c r="CU177" s="5">
-        <v>3.6727558558773401E-3</v>
+        <v>-6.6106406865822399E-3</v>
       </c>
     </row>
     <row r="178" spans="2:99" s="5" customFormat="1">
@@ -38876,7 +38870,7 @@
         <v>3</v>
       </c>
       <c r="CU178" s="5">
-        <v>-5.4163273313918098E-2</v>
+        <v>-6.9081151767084403E-2</v>
       </c>
     </row>
     <row r="179" spans="2:99" s="5" customFormat="1">
@@ -39170,7 +39164,7 @@
         <v>3.1</v>
       </c>
       <c r="CU179" s="5">
-        <v>-4.0038067800162801E-2</v>
+        <v>-3.5608439494899898E-2</v>
       </c>
     </row>
     <row r="180" spans="2:99" s="5" customFormat="1">
@@ -39464,7 +39458,7 @@
         <v>3.1</v>
       </c>
       <c r="CU180" s="5">
-        <v>-4.1020437677064002E-2</v>
+        <v>-2.9120955522135901E-2</v>
       </c>
     </row>
     <row r="181" spans="2:99" s="5" customFormat="1">
@@ -39758,7 +39752,7 @@
         <v>3</v>
       </c>
       <c r="CU181" s="5">
-        <v>2.5931914845670302E-2</v>
+        <v>2.1649182551035699E-2</v>
       </c>
     </row>
     <row r="182" spans="2:99" s="5" customFormat="1">
@@ -40052,7 +40046,7 @@
         <v>2.9</v>
       </c>
       <c r="CU182" s="5">
-        <v>-3.64364671346031E-2</v>
+        <v>-3.8819506154767203E-2</v>
       </c>
     </row>
     <row r="183" spans="2:99" s="5" customFormat="1">
@@ -40346,7 +40340,7 @@
         <v>2.9</v>
       </c>
       <c r="CU183" s="5">
-        <v>-2.4861149048052599E-2</v>
+        <v>-3.6657124367836899E-2</v>
       </c>
     </row>
     <row r="184" spans="2:99" s="5" customFormat="1">
@@ -40640,7 +40634,7 @@
         <v>3.1</v>
       </c>
       <c r="CU184" s="5">
-        <v>-2.1710242206373701E-2</v>
+        <v>-2.0905237805366499E-2</v>
       </c>
     </row>
     <row r="185" spans="2:99" s="5" customFormat="1">
@@ -40934,7 +40928,7 @@
         <v>3.1</v>
       </c>
       <c r="CU185" s="5">
-        <v>-4.5610822024975102E-3</v>
+        <v>8.7925415248259996E-3</v>
       </c>
     </row>
     <row r="186" spans="2:99" s="5" customFormat="1">
@@ -41228,7 +41222,7 @@
         <v>3.1</v>
       </c>
       <c r="CU186" s="5">
-        <v>1.2633396171716001E-2</v>
+        <v>2.96694958797117E-3</v>
       </c>
     </row>
     <row r="187" spans="2:99" s="5" customFormat="1">
@@ -41522,7 +41516,7 @@
         <v>3</v>
       </c>
       <c r="CU187" s="5">
-        <v>-1.4184686999678699E-3</v>
+        <v>2.4984548271320701E-2</v>
       </c>
     </row>
     <row r="188" spans="2:99" s="5" customFormat="1">
@@ -41816,7 +41810,7 @@
         <v>2.8</v>
       </c>
       <c r="CU188" s="5">
-        <v>-3.7273425553152602E-3</v>
+        <v>-1.1331207550893099E-3</v>
       </c>
     </row>
     <row r="189" spans="2:99" s="5" customFormat="1">
@@ -42110,7 +42104,7 @@
         <v>2.8</v>
       </c>
       <c r="CU189" s="5">
-        <v>-1.9558836819813401E-2</v>
+        <v>2.12982191774236E-3</v>
       </c>
     </row>
     <row r="190" spans="2:99" s="5" customFormat="1">
@@ -42404,7 +42398,7 @@
         <v>2.9</v>
       </c>
       <c r="CU190" s="5">
-        <v>3.8437907137831601E-2</v>
+        <v>5.1163157071926903E-2</v>
       </c>
     </row>
     <row r="191" spans="2:99" s="5" customFormat="1">
@@ -42698,7 +42692,7 @@
         <v>3</v>
       </c>
       <c r="CU191" s="5">
-        <v>-3.1515343894459799E-2</v>
+        <v>-2.4316343284486799E-2</v>
       </c>
     </row>
     <row r="192" spans="2:99" s="5" customFormat="1">
@@ -42992,7 +42986,7 @@
         <v>3.1</v>
       </c>
       <c r="CU192" s="5">
-        <v>-3.3104688238336802E-2</v>
+        <v>-1.1065347542499099E-2</v>
       </c>
     </row>
     <row r="193" spans="2:99" s="5" customFormat="1">
@@ -43286,7 +43280,7 @@
         <v>3</v>
       </c>
       <c r="CU193" s="5">
-        <v>-1.16120426625459E-2</v>
+        <v>-1.05986812068082E-3</v>
       </c>
     </row>
     <row r="194" spans="2:99" s="5" customFormat="1">
@@ -43580,7 +43574,7 @@
         <v>2.9</v>
       </c>
       <c r="CU194" s="5">
-        <v>-1.5923028789219799E-2</v>
+        <v>-2.18675765494547E-2</v>
       </c>
     </row>
     <row r="195" spans="2:99" s="5" customFormat="1">
@@ -43874,7 +43868,7 @@
         <v>2.9</v>
       </c>
       <c r="CU195" s="5">
-        <v>-5.2261600027412296E-3</v>
+        <v>1.33319127732361E-2</v>
       </c>
     </row>
     <row r="196" spans="2:99" s="5" customFormat="1">
@@ -44168,7 +44162,7 @@
         <v>2.7</v>
       </c>
       <c r="CU196" s="5">
-        <v>3.5860785458048397E-2</v>
+        <v>3.7262080415796803E-2</v>
       </c>
     </row>
     <row r="197" spans="2:99" s="5" customFormat="1">
@@ -44465,7 +44459,7 @@
         <v>2.8</v>
       </c>
       <c r="CU197" s="5">
-        <v>-2.68195589587359E-2</v>
+        <v>-7.7183948952654902E-3</v>
       </c>
     </row>
     <row r="198" spans="2:99" s="5" customFormat="1">
@@ -44762,7 +44756,7 @@
         <v>2.4</v>
       </c>
       <c r="CU198" s="5">
-        <v>-9.5189267197879398E-3</v>
+        <v>6.54281838830872E-4</v>
       </c>
     </row>
     <row r="199" spans="2:99" s="5" customFormat="1">
@@ -45059,7 +45053,7 @@
         <v>2.6</v>
       </c>
       <c r="CU199" s="5">
-        <v>2.6671010521923201E-2</v>
+        <v>2.3225796609306602E-2</v>
       </c>
     </row>
     <row r="200" spans="2:99" s="5" customFormat="1">
@@ -45356,7 +45350,7 @@
         <v>2.4</v>
       </c>
       <c r="CU200" s="5">
-        <v>2.2061645548291198E-2</v>
+        <v>3.75924748351983E-2</v>
       </c>
     </row>
     <row r="201" spans="2:99" s="5" customFormat="1">
@@ -45653,7 +45647,7 @@
         <v>2.5</v>
       </c>
       <c r="CU201" s="5">
-        <v>-3.7403625492960398E-2</v>
+        <v>-1.9913245442643401E-2</v>
       </c>
     </row>
     <row r="202" spans="2:99" s="5" customFormat="1">
@@ -45950,7 +45944,7 @@
         <v>2.7</v>
       </c>
       <c r="CU202" s="5">
-        <v>4.0012980834763602E-2</v>
+        <v>2.5636931105673399E-2</v>
       </c>
     </row>
     <row r="203" spans="2:99" s="5" customFormat="1">
@@ -46247,7 +46241,7 @@
         <v>2.7</v>
       </c>
       <c r="CU203" s="5">
-        <v>-1.41847161528834E-2</v>
+        <v>-7.36422546785409E-3</v>
       </c>
     </row>
     <row r="204" spans="2:99" s="5" customFormat="1">
@@ -46544,7 +46538,7 @@
         <v>2.7</v>
       </c>
       <c r="CU204" s="5">
-        <v>-2.13091573635391E-2</v>
+        <v>-1.4103659478692499E-4</v>
       </c>
     </row>
     <row r="205" spans="2:99" s="5" customFormat="1">
@@ -46841,7 +46835,7 @@
         <v>2.9</v>
       </c>
       <c r="CU205" s="5">
-        <v>3.8657320750227001E-2</v>
+        <v>4.6206671022000802E-2</v>
       </c>
     </row>
     <row r="206" spans="2:99" s="5" customFormat="1">
@@ -47138,7 +47132,7 @@
         <v>3</v>
       </c>
       <c r="CU206" s="5">
-        <v>-8.0816792802944609E-3</v>
+        <v>1.27992545059423E-2</v>
       </c>
     </row>
     <row r="207" spans="2:99" s="5" customFormat="1">
@@ -47435,7 +47429,7 @@
         <v>3</v>
       </c>
       <c r="CU207" s="5">
-        <v>1.3365356379701199E-2</v>
+        <v>1.9873644857378199E-2</v>
       </c>
     </row>
     <row r="208" spans="2:99" s="5" customFormat="1">
@@ -47732,7 +47726,7 @@
         <v>2.9</v>
       </c>
       <c r="CU208" s="5">
-        <v>-5.2292126312254404E-3</v>
+        <v>1.20669975947019E-3</v>
       </c>
     </row>
     <row r="209" spans="2:99" s="5" customFormat="1">
@@ -48029,7 +48023,7 @@
         <v>3</v>
       </c>
       <c r="CU209" s="5">
-        <v>1.7989025755315202E-2</v>
+        <v>3.0589177916549E-3</v>
       </c>
     </row>
     <row r="210" spans="2:99" s="5" customFormat="1">
@@ -48326,7 +48320,7 @@
         <v>2.9</v>
       </c>
       <c r="CU210" s="5">
-        <v>-1.47804734428667E-2</v>
+        <v>8.3040986573994502E-3</v>
       </c>
     </row>
     <row r="211" spans="2:99" s="5" customFormat="1">
@@ -48623,7 +48617,7 @@
         <v>3.1</v>
       </c>
       <c r="CU211" s="5">
-        <v>3.0702419815917801E-3</v>
+        <v>1.4470564095894201E-2</v>
       </c>
     </row>
     <row r="212" spans="2:99" s="5" customFormat="1">
@@ -48920,7 +48914,7 @@
         <v>2.7</v>
       </c>
       <c r="CU212" s="5">
-        <v>-4.2715962817929703E-4</v>
+        <v>-9.9375796123242193E-3</v>
       </c>
     </row>
     <row r="213" spans="2:99" s="5" customFormat="1">
@@ -49217,7 +49211,7 @@
         <v>0.9</v>
       </c>
       <c r="CU213" s="5">
-        <v>1.4527792321231499E-2</v>
+        <v>1.4267148886191201E-2</v>
       </c>
     </row>
     <row r="214" spans="2:99" s="5" customFormat="1">
@@ -49514,7 +49508,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="CU214" s="5">
-        <v>3.8034956883810499E-2</v>
+        <v>2.84902723391065E-2</v>
       </c>
     </row>
     <row r="215" spans="2:99" s="5" customFormat="1">
@@ -49811,7 +49805,7 @@
         <v>2.7</v>
       </c>
       <c r="CU215" s="5">
-        <v>-2.5223374973780899E-2</v>
+        <v>-1.3176616342678299E-2</v>
       </c>
     </row>
     <row r="216" spans="2:99" s="5" customFormat="1">
@@ -50108,7 +50102,7 @@
         <v>2.6</v>
       </c>
       <c r="CU216" s="5">
-        <v>-1.2419596382873301E-2</v>
+        <v>2.14685115601339E-2</v>
       </c>
     </row>
     <row r="217" spans="2:99" s="5" customFormat="1">
@@ -50405,7 +50399,7 @@
         <v>2.5</v>
       </c>
       <c r="CU217" s="5">
-        <v>-3.98448334826318E-3</v>
+        <v>-2.4267685670643399E-2</v>
       </c>
     </row>
     <row r="218" spans="2:99" s="5" customFormat="1">
@@ -50702,7 +50696,7 @@
         <v>2.8</v>
       </c>
       <c r="CU218" s="5">
-        <v>-6.3515269690217497E-3</v>
+        <v>-1.6156764331750801E-2</v>
       </c>
     </row>
     <row r="219" spans="2:99" s="5" customFormat="1">
@@ -50999,7 +50993,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="CU219" s="5">
-        <v>2.52610248474383E-2</v>
+        <v>5.8715423680510498E-2</v>
       </c>
     </row>
     <row r="220" spans="2:99" s="5" customFormat="1">
@@ -51296,7 +51290,7 @@
         <v>2.4</v>
       </c>
       <c r="CU220" s="5">
-        <v>4.4870153623094197E-2</v>
+        <v>2.1775789153578799E-2</v>
       </c>
     </row>
     <row r="221" spans="2:99" s="5" customFormat="1">
@@ -51593,7 +51587,7 @@
         <v>2.6</v>
       </c>
       <c r="CU221" s="5">
-        <v>-1.08980210974567E-2</v>
+        <v>-1.1385056252846099E-2</v>
       </c>
     </row>
     <row r="222" spans="2:99" s="5" customFormat="1">
@@ -51890,7 +51884,7 @@
         <v>2.7</v>
       </c>
       <c r="CU222" s="5">
-        <v>-6.0100904402684598E-3</v>
+        <v>8.0444410096625098E-3</v>
       </c>
     </row>
     <row r="223" spans="2:99" s="5" customFormat="1">
@@ -52187,7 +52181,7 @@
         <v>3.2</v>
       </c>
       <c r="CU223" s="5">
-        <v>3.1810600064325498E-2</v>
+        <v>1.81791319440801E-2</v>
       </c>
     </row>
     <row r="224" spans="2:99" s="5" customFormat="1">
@@ -52484,7 +52478,7 @@
         <v>2.9</v>
       </c>
       <c r="CU224" s="5">
-        <v>3.39731011767479E-2</v>
+        <v>4.5723443628058497E-2</v>
       </c>
     </row>
     <row r="225" spans="2:99" s="5" customFormat="1">
@@ -52781,7 +52775,7 @@
         <v>3</v>
       </c>
       <c r="CU225" s="5">
-        <v>1.22325052259704E-2</v>
+        <v>7.8689377159957292E-3</v>
       </c>
     </row>
     <row r="226" spans="2:99" s="5" customFormat="1">
@@ -53078,7 +53072,7 @@
         <v>3</v>
       </c>
       <c r="CU226" s="5">
-        <v>1.4996138243790201E-2</v>
+        <v>1.29417842458577E-2</v>
       </c>
     </row>
     <row r="227" spans="2:99" s="5" customFormat="1">
@@ -53375,7 +53369,7 @@
         <v>3.2</v>
       </c>
       <c r="CU227" s="5">
-        <v>1.0672569376888299E-3</v>
+        <v>6.0736620681986998E-3</v>
       </c>
     </row>
     <row r="228" spans="2:99" s="5" customFormat="1">
@@ -53672,7 +53666,7 @@
         <v>3.3</v>
       </c>
       <c r="CU228" s="14">
-        <v>-9.6733949660698899E-5</v>
+        <v>-4.3589557123113699E-3</v>
       </c>
     </row>
     <row r="229" spans="2:99" s="5" customFormat="1">
@@ -53969,7 +53963,7 @@
         <v>3.4</v>
       </c>
       <c r="CU229" s="5">
-        <v>-1.40744874571674E-2</v>
+        <v>-1.8356884900900799E-2</v>
       </c>
     </row>
     <row r="230" spans="2:99" s="5" customFormat="1">
@@ -54266,7 +54260,7 @@
         <v>3</v>
       </c>
       <c r="CU230" s="5">
-        <v>1.4518724974642801E-2</v>
+        <v>3.36555489640116E-2</v>
       </c>
     </row>
     <row r="231" spans="2:99" s="5" customFormat="1">
@@ -54560,7 +54554,7 @@
         <v>3.4</v>
       </c>
       <c r="CU231" s="5">
-        <v>-3.0515741970976999E-2</v>
+        <v>-5.24982227273934E-2</v>
       </c>
     </row>
     <row r="232" spans="2:99" s="5" customFormat="1">
@@ -54854,7 +54848,7 @@
         <v>3.3</v>
       </c>
       <c r="CU232" s="5">
-        <v>-3.5209416902792799E-2</v>
+        <v>-2.68630106938006E-2</v>
       </c>
     </row>
     <row r="233" spans="2:99" s="5" customFormat="1">
@@ -55148,7 +55142,7 @@
         <v>3</v>
       </c>
       <c r="CU233" s="14">
-        <v>7.3289614963556502E-6</v>
+        <v>-4.9289473621456602E-3</v>
       </c>
     </row>
     <row r="234" spans="2:99" s="5" customFormat="1">
@@ -55427,7 +55421,7 @@
         <v>3</v>
       </c>
       <c r="CU234" s="5">
-        <v>-2.6133936468865301E-2</v>
+        <v>-3.5304263301329603E-2</v>
       </c>
     </row>
     <row r="235" spans="2:99" s="5" customFormat="1">
@@ -55706,7 +55700,7 @@
         <v>3.3</v>
       </c>
       <c r="CU235" s="5">
-        <v>-3.02265292344184E-2</v>
+        <v>-2.8760606328630998E-2</v>
       </c>
     </row>
     <row r="236" spans="2:99" s="5" customFormat="1">
@@ -55985,7 +55979,7 @@
         <v>3.2</v>
       </c>
       <c r="CU236" s="5">
-        <v>-1.1532877880699999E-2</v>
+        <v>-4.7624451457748398E-3</v>
       </c>
     </row>
     <row r="237" spans="2:99" s="5" customFormat="1">
@@ -56264,7 +56258,7 @@
         <v>3.3</v>
       </c>
       <c r="CU237" s="5">
-        <v>6.1117289917671496E-3</v>
+        <v>-3.05956206748048E-3</v>
       </c>
     </row>
     <row r="238" spans="2:99" s="5" customFormat="1">
@@ -56543,7 +56537,7 @@
         <v>3.7</v>
       </c>
       <c r="CU238" s="5">
-        <v>-4.7436321077543503E-2</v>
+        <v>-4.5217359103428403E-2</v>
       </c>
     </row>
     <row r="239" spans="2:99" s="5" customFormat="1">
@@ -56822,7 +56816,7 @@
         <v>5</v>
       </c>
       <c r="CU239" s="5">
-        <v>-1.2158945453237801E-2</v>
+        <v>-1.0931092244067299E-2</v>
       </c>
     </row>
     <row r="240" spans="2:99" s="5" customFormat="1">
@@ -57101,7 +57095,7 @@
         <v>4.8</v>
       </c>
       <c r="CU240" s="5">
-        <v>5.5330570345342202E-3</v>
+        <v>-2.4293752054527201E-3</v>
       </c>
     </row>
     <row r="241" spans="2:99" s="5" customFormat="1">
@@ -57380,7 +57374,7 @@
         <v>3</v>
       </c>
       <c r="CU241" s="5">
-        <v>-7.5065083878378402E-3</v>
+        <v>-2.4009729941538299E-2</v>
       </c>
     </row>
     <row r="242" spans="2:99" s="5" customFormat="1">
@@ -57659,7 +57653,7 @@
         <v>2.1</v>
       </c>
       <c r="CU242" s="5">
-        <v>1.9736983262338598E-2</v>
+        <v>-1.73702678714971E-4</v>
       </c>
     </row>
     <row r="243" spans="2:99" s="5" customFormat="1">
@@ -57938,7 +57932,7 @@
         <v>2.9</v>
       </c>
       <c r="CU243" s="5">
-        <v>6.9722101182935398E-2</v>
+        <v>2.03113723742443E-2</v>
       </c>
     </row>
     <row r="244" spans="2:99" s="5" customFormat="1">
@@ -58217,7 +58211,7 @@
         <v>2.7</v>
       </c>
       <c r="CU244" s="5">
-        <v>3.4020528105509502E-3</v>
+        <v>1.0578180692772899E-2</v>
       </c>
     </row>
     <row r="245" spans="2:99" s="5" customFormat="1">
@@ -58496,7 +58490,7 @@
         <v>2.7</v>
       </c>
       <c r="CU245" s="5">
-        <v>4.1183710833173397E-2</v>
+        <v>2.02586891620915E-2</v>
       </c>
     </row>
     <row r="246" spans="2:99" s="5" customFormat="1">
@@ -58773,7 +58767,7 @@
         <v>2.7</v>
       </c>
       <c r="CU246" s="5">
-        <v>-1.35861635429286E-2</v>
+        <v>-8.9829853121430308E-3</v>
       </c>
     </row>
     <row r="247" spans="2:99" s="5" customFormat="1">
@@ -59050,7 +59044,7 @@
         <v>3</v>
       </c>
       <c r="CU247" s="5">
-        <v>-2.0300673756432599E-2</v>
+        <v>-1.8972557539738099E-2</v>
       </c>
     </row>
     <row r="248" spans="2:99" s="5" customFormat="1">
@@ -59327,7 +59321,7 @@
         <v>2.6</v>
       </c>
       <c r="CU248" s="5">
-        <v>1.5811431351634202E-2</v>
+        <v>3.1766059793651999E-3</v>
       </c>
     </row>
     <row r="249" spans="2:99" s="5" customFormat="1">
@@ -59604,7 +59598,7 @@
         <v>2.9</v>
       </c>
       <c r="CU249" s="5">
-        <v>-1.7541581593572001E-2</v>
+        <v>3.86132453066157E-3</v>
       </c>
     </row>
     <row r="250" spans="2:99" s="5" customFormat="1">
@@ -59881,7 +59875,7 @@
         <v>3.8</v>
       </c>
       <c r="CU250" s="5">
-        <v>2.7394952788824E-3</v>
+        <v>-2.7906791480277499E-2</v>
       </c>
     </row>
     <row r="251" spans="2:99" s="5" customFormat="1">
@@ -60158,7 +60152,7 @@
         <v>4.2</v>
       </c>
       <c r="CU251" s="5">
-        <v>-8.5946862529246992E-3</v>
+        <v>5.1952146426304004E-3</v>
       </c>
     </row>
     <row r="252" spans="2:99" s="5" customFormat="1">
@@ -60435,7 +60429,7 @@
         <v>3.4</v>
       </c>
       <c r="CU252" s="5">
-        <v>1.2000312829198599E-2</v>
+        <v>-1.03560361843029E-2</v>
       </c>
     </row>
     <row r="253" spans="2:99" s="5" customFormat="1">
@@ -60712,7 +60706,7 @@
         <v>3.2</v>
       </c>
       <c r="CU253" s="5">
-        <v>2.4854682345564899E-2</v>
+        <v>2.30076043591332E-2</v>
       </c>
     </row>
     <row r="254" spans="2:99" s="5" customFormat="1">
@@ -60989,7 +60983,7 @@
         <v>3.4</v>
       </c>
       <c r="CU254" s="5">
-        <v>3.9901266880762301E-2</v>
+        <v>9.2145555781923995E-3</v>
       </c>
     </row>
     <row r="255" spans="2:99" s="5" customFormat="1">
@@ -61266,7 +61260,7 @@
         <v>3.1</v>
       </c>
       <c r="CU255" s="5">
-        <v>-2.3931188197215299E-2</v>
+        <v>8.4221362667813405E-4</v>
       </c>
     </row>
     <row r="256" spans="2:99" s="5" customFormat="1">
@@ -61543,7 +61537,7 @@
         <v>3.3</v>
       </c>
       <c r="CU256" s="5">
-        <v>1.52754173581959E-3</v>
+        <v>-1.22118728092468E-2</v>
       </c>
     </row>
     <row r="257" spans="2:99" s="5" customFormat="1">
@@ -61820,7 +61814,7 @@
         <v>3.1</v>
       </c>
       <c r="CU257" s="5">
-        <v>-2.01617693438121E-2</v>
+        <v>-2.5240117328657202E-2</v>
       </c>
     </row>
     <row r="258" spans="2:99" s="5" customFormat="1">
@@ -62097,7 +62091,7 @@
         <v>3.3</v>
       </c>
       <c r="CU258" s="5">
-        <v>-1.9830859464939499E-2</v>
+        <v>6.8603152119983701E-4</v>
       </c>
     </row>
     <row r="259" spans="2:99" s="5" customFormat="1">
@@ -62374,7 +62368,7 @@
         <v>3.1</v>
       </c>
       <c r="CU259" s="5">
-        <v>-8.7829608492531203E-3</v>
+        <v>4.1019996277689196E-3</v>
       </c>
     </row>
     <row r="260" spans="2:99" s="5" customFormat="1">
@@ -62651,7 +62645,7 @@
         <v>3.1</v>
       </c>
       <c r="CU260" s="5">
-        <v>1.71131832611993E-3</v>
+        <v>1.22999510409825E-2</v>
       </c>
     </row>
     <row r="261" spans="2:99" s="5" customFormat="1">
@@ -62928,7 +62922,7 @@
         <v>2.9</v>
       </c>
       <c r="CU261" s="5">
-        <v>2.3151460080160599E-2</v>
+        <v>2.8781149620583001E-2</v>
       </c>
     </row>
     <row r="262" spans="2:99" s="5" customFormat="1">
@@ -63205,7 +63199,7 @@
         <v>3.2</v>
       </c>
       <c r="CU262" s="5">
-        <v>-3.9804025916430098E-2</v>
+        <v>-2.7999444410538001E-2</v>
       </c>
     </row>
     <row r="263" spans="2:99" s="5" customFormat="1">
@@ -63482,7 +63476,7 @@
         <v>3.2</v>
       </c>
       <c r="CU263" s="5">
-        <v>1.7298265843636699E-2</v>
+        <v>2.6576212735242199E-2</v>
       </c>
     </row>
     <row r="264" spans="2:99" s="5" customFormat="1">
@@ -63759,7 +63753,7 @@
         <v>3.2</v>
       </c>
       <c r="CU264" s="5">
-        <v>1.92116558772981E-2</v>
+        <v>1.7119114338590299E-2</v>
       </c>
     </row>
     <row r="265" spans="2:99" s="5" customFormat="1">
@@ -64036,7 +64030,7 @@
         <v>2.8</v>
       </c>
       <c r="CU265" s="5">
-        <v>-1.19922227283573E-2</v>
+        <v>6.39043011190976E-3</v>
       </c>
     </row>
     <row r="266" spans="2:99" s="5" customFormat="1">
@@ -64313,7 +64307,7 @@
         <v>2.8</v>
       </c>
       <c r="CU266" s="5">
-        <v>3.4458557952526697E-2</v>
+        <v>4.5321689687583E-4</v>
       </c>
     </row>
     <row r="267" spans="2:99" s="5" customFormat="1">
@@ -64590,7 +64584,7 @@
         <v>2.7</v>
       </c>
       <c r="CU267" s="5">
-        <v>9.8334485484121697E-3</v>
+        <v>1.6980489882991699E-2</v>
       </c>
     </row>
     <row r="268" spans="2:99" s="5" customFormat="1">
@@ -64867,7 +64861,7 @@
         <v>2.8</v>
       </c>
       <c r="CU268" s="5">
-        <v>-1.41982138192462E-2</v>
+        <v>3.97682238516595E-3</v>
       </c>
     </row>
     <row r="269" spans="2:99" s="5" customFormat="1">
@@ -65144,7 +65138,7 @@
         <v>2.7</v>
       </c>
       <c r="CU269" s="5">
-        <v>-2.82663937790422E-2</v>
+        <v>-4.5815621664430303E-2</v>
       </c>
     </row>
     <row r="270" spans="2:99" s="5" customFormat="1">
@@ -65421,7 +65415,7 @@
         <v>2.6</v>
       </c>
       <c r="CU270" s="5">
-        <v>-1.28597461345743E-2</v>
+        <v>-1.3307659622019401E-2</v>
       </c>
     </row>
     <row r="271" spans="2:99" s="5" customFormat="1">
@@ -65698,7 +65692,7 @@
         <v>2.6</v>
       </c>
       <c r="CU271" s="5">
-        <v>-2.9923641195478599E-2</v>
+        <v>-2.5560762730797201E-2</v>
       </c>
     </row>
     <row r="272" spans="2:99" s="5" customFormat="1">
@@ -65972,7 +65966,7 @@
         <v>2.5</v>
       </c>
       <c r="CU272" s="5">
-        <v>2.4864629134351699E-2</v>
+        <v>1.8896274681712701E-2</v>
       </c>
     </row>
     <row r="273" spans="2:99" s="5" customFormat="1">
@@ -66246,7 +66240,7 @@
         <v>2.4</v>
       </c>
       <c r="CU273" s="5">
-        <v>-9.0382738483301105E-3</v>
+        <v>-1.0697845626243201E-2</v>
       </c>
     </row>
     <row r="274" spans="2:99" s="5" customFormat="1">
@@ -66518,7 +66512,7 @@
         <v>2.6</v>
       </c>
       <c r="CU274" s="5">
-        <v>-1.7330198436038601E-3</v>
+        <v>4.8760127449822797E-3</v>
       </c>
     </row>
     <row r="275" spans="2:99" s="5" customFormat="1">
@@ -66787,7 +66781,7 @@
         <v>2.5</v>
       </c>
       <c r="CU275" s="5">
-        <v>-1.8254127036255501E-2</v>
+        <v>-4.5847658826581001E-4</v>
       </c>
     </row>
     <row r="276" spans="2:99" s="5" customFormat="1">

--- a/Data/main_file.xlsx
+++ b/Data/main_file.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun 1/Desktop/Literature/Sentiments/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\Noise_Over_Cycles\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145148B5-B35C-8C49-82B9-61AEFCB123BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Marco Brianti</author>
   </authors>
   <commentList>
-    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="BA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="BG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="CE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="CQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="CR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="CU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,12 +366,93 @@
         </r>
       </text>
     </comment>
+    <comment ref="CV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Marco Brianti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Moody's Seasoned Baa Corporate Bond Yield Relative to Yield on 10-Year Treasury Constant maturity
+Source: FRED
+Code: BAA10Y
+Original Source: Federal Reserve Bank of St. Louis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CW1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Marco Brianti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Moody's Seasoned Baa Corporate Bond Yield Relative to Yield on 10-Year Treasury Constant maturity
+Source: FRED
+Code: BAA10Y
+Original Source: Federal Reserve Bank of St. Louis</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Marco Brianti:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Total Credit to Private Non-Financial Sector, Adjusted for Breaks, for United States  
+Source: FRED
+Code: (QUSPAM770A)
+Original Source: Bank of International Settlements</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>MUNI1Y</t>
   </si>
@@ -686,21 +766,27 @@
     <t>I2S</t>
   </si>
   <si>
-    <t>BenZeevPappaDefenseNews</t>
+    <t>UnantTFPshock</t>
   </si>
   <si>
-    <t>UnantTFPshock</t>
+    <t>MoodySpreadAaa</t>
+  </si>
+  <si>
+    <t>MoodySpreadBaa</t>
+  </si>
+  <si>
+    <t>Credit2GDP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +880,19 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -846,7 +945,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,13 +990,17 @@
     <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normale 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normale 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,20 +1277,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CV629"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="CS268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="CR102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CU54" sqref="CU54:CU275"/>
+      <selection pane="bottomRight" activeCell="CW250" sqref="CW250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="5" width="22" style="2"/>
     <col min="6" max="6" width="22" style="3"/>
@@ -1236,11 +1339,12 @@
     <col min="75" max="83" width="22" style="3"/>
     <col min="84" max="84" width="22" style="3" customWidth="1"/>
     <col min="85" max="99" width="22" style="3"/>
-    <col min="100" max="100" width="29.83203125" style="3" customWidth="1"/>
-    <col min="101" max="16384" width="22" style="3"/>
+    <col min="100" max="101" width="22" style="3" customWidth="1"/>
+    <col min="102" max="102" width="22.140625" style="3" customWidth="1"/>
+    <col min="103" max="16384" width="22" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" s="7" customFormat="1">
+    <row r="1" spans="1:102" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1536,13 +1640,19 @@
         <v>102</v>
       </c>
       <c r="CU1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="CV1" s="7" t="s">
-        <v>104</v>
+      <c r="CX1" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:100" s="7" customFormat="1">
+    <row r="2" spans="1:102" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1840,8 +1950,17 @@
       <c r="CU2" s="7">
         <v>2</v>
       </c>
+      <c r="CV2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:100" s="7" customFormat="1">
+    <row r="3" spans="1:102" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -2139,8 +2258,17 @@
       <c r="CU3" s="7">
         <v>1</v>
       </c>
+      <c r="CV3" s="7">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="7">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:100" s="7" customFormat="1">
+    <row r="4" spans="1:102" s="7" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2438,8 +2566,17 @@
       <c r="CU4" s="7">
         <v>98</v>
       </c>
+      <c r="CV4" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW4" s="1">
+        <v>100</v>
+      </c>
+      <c r="CX4" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:100" s="7" customFormat="1">
+    <row r="5" spans="1:102" s="7" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -2737,8 +2874,17 @@
       <c r="CU5" s="7">
         <v>98</v>
       </c>
+      <c r="CV5" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW5" s="1">
+        <v>100</v>
+      </c>
+      <c r="CX5" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:100" s="5" customFormat="1">
+    <row r="6" spans="1:102" s="5" customFormat="1">
       <c r="B6" s="5">
         <v>1950</v>
       </c>
@@ -2835,8 +2981,11 @@
         <f t="shared" ref="CE6:CE69" si="0">CB6-CC6</f>
         <v>-25.047000000000001</v>
       </c>
+      <c r="CV6" s="15"/>
+      <c r="CW6" s="15"/>
+      <c r="CX6" s="15"/>
     </row>
-    <row r="7" spans="1:100" s="5" customFormat="1">
+    <row r="7" spans="1:102" s="5" customFormat="1">
       <c r="B7" s="5">
         <v>1950.25</v>
       </c>
@@ -2933,8 +3082,11 @@
         <f t="shared" si="0"/>
         <v>-25.356999999999999</v>
       </c>
+      <c r="CV7" s="15"/>
+      <c r="CW7" s="15"/>
+      <c r="CX7" s="15"/>
     </row>
-    <row r="8" spans="1:100" s="5" customFormat="1">
+    <row r="8" spans="1:102" s="5" customFormat="1">
       <c r="B8" s="5">
         <v>1950.5</v>
       </c>
@@ -3031,8 +3183,11 @@
         <f t="shared" si="0"/>
         <v>-25.962</v>
       </c>
+      <c r="CV8" s="15"/>
+      <c r="CW8" s="15"/>
+      <c r="CX8" s="15"/>
     </row>
-    <row r="9" spans="1:100" s="5" customFormat="1">
+    <row r="9" spans="1:102" s="5" customFormat="1">
       <c r="B9" s="5">
         <v>1950.75</v>
       </c>
@@ -3129,8 +3284,11 @@
         <f t="shared" si="0"/>
         <v>-26.004000000000001</v>
       </c>
+      <c r="CV9" s="15"/>
+      <c r="CW9" s="15"/>
+      <c r="CX9" s="15"/>
     </row>
-    <row r="10" spans="1:100" s="5" customFormat="1">
+    <row r="10" spans="1:102" s="5" customFormat="1">
       <c r="B10" s="5">
         <v>1951</v>
       </c>
@@ -3227,8 +3385,11 @@
         <f t="shared" si="0"/>
         <v>-26.062999999999999</v>
       </c>
+      <c r="CV10" s="15"/>
+      <c r="CW10" s="15"/>
+      <c r="CX10" s="15"/>
     </row>
-    <row r="11" spans="1:100" s="5" customFormat="1">
+    <row r="11" spans="1:102" s="5" customFormat="1">
       <c r="B11" s="5">
         <v>1951.25</v>
       </c>
@@ -3325,8 +3486,11 @@
         <f t="shared" si="0"/>
         <v>-25.963999999999999</v>
       </c>
+      <c r="CV11" s="15"/>
+      <c r="CW11" s="15"/>
+      <c r="CX11" s="15"/>
     </row>
-    <row r="12" spans="1:100" s="5" customFormat="1">
+    <row r="12" spans="1:102" s="5" customFormat="1">
       <c r="B12" s="5">
         <v>1951.5</v>
       </c>
@@ -3423,8 +3587,11 @@
         <f t="shared" si="0"/>
         <v>-26.617999999999999</v>
       </c>
+      <c r="CV12" s="15"/>
+      <c r="CW12" s="15"/>
+      <c r="CX12" s="15"/>
     </row>
-    <row r="13" spans="1:100" s="5" customFormat="1">
+    <row r="13" spans="1:102" s="5" customFormat="1">
       <c r="B13" s="5">
         <v>1951.75</v>
       </c>
@@ -3521,8 +3688,11 @@
         <f t="shared" si="0"/>
         <v>-26.686</v>
       </c>
+      <c r="CV13" s="15"/>
+      <c r="CW13" s="15"/>
+      <c r="CX13" s="15"/>
     </row>
-    <row r="14" spans="1:100" s="5" customFormat="1">
+    <row r="14" spans="1:102" s="5" customFormat="1">
       <c r="B14" s="5">
         <v>1952</v>
       </c>
@@ -3622,8 +3792,13 @@
       <c r="CF14" s="5">
         <v>156522.33333333334</v>
       </c>
+      <c r="CV14" 